--- a/coinranking.xlsx
+++ b/coinranking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="1167">
   <si>
     <t>uuid</t>
   </si>
@@ -100,6 +100,9 @@
     <t>VLqpJwogdhHNb</t>
   </si>
   <si>
+    <t>zNZHO_Sjf</t>
+  </si>
+  <si>
     <t>25W7FG7om</t>
   </si>
   <si>
@@ -109,15 +112,12 @@
     <t>Mtfb0obXVh59u</t>
   </si>
   <si>
+    <t>xz24e0BjL</t>
+  </si>
+  <si>
     <t>MoTuySvg7</t>
   </si>
   <si>
-    <t>zNZHO_Sjf</t>
-  </si>
-  <si>
-    <t>xz24e0BjL</t>
-  </si>
-  <si>
     <t>qUhEFk1I61atv</t>
   </si>
   <si>
@@ -133,12 +133,12 @@
     <t>Knsels4_Ol-Ny</t>
   </si>
   <si>
+    <t>x4WXHge-vvFY</t>
+  </si>
+  <si>
     <t>67YlI0K1b</t>
   </si>
   <si>
-    <t>x4WXHge-vvFY</t>
-  </si>
-  <si>
     <t>3mVx2FX_iJFp5</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>DXwP4wF9ksbBO</t>
   </si>
   <si>
+    <t>Pe93bIOD2</t>
+  </si>
+  <si>
     <t>ZlZpzOJo43mIo</t>
   </si>
   <si>
-    <t>Pe93bIOD2</t>
-  </si>
-  <si>
     <t>Hm3OlynlC</t>
   </si>
   <si>
@@ -172,39 +172,42 @@
     <t>SbWqqTui-</t>
   </si>
   <si>
+    <t>ymQub4fuB</t>
+  </si>
+  <si>
+    <t>aMNLwaUbY</t>
+  </si>
+  <si>
+    <t>bauj_21eYVwso</t>
+  </si>
+  <si>
+    <t>FEbS54wxo4oIl</t>
+  </si>
+  <si>
     <t>ncYFcP709</t>
   </si>
   <si>
-    <t>aMNLwaUbY</t>
-  </si>
-  <si>
-    <t>ymQub4fuB</t>
-  </si>
-  <si>
-    <t>FEbS54wxo4oIl</t>
-  </si>
-  <si>
-    <t>bauj_21eYVwso</t>
+    <t>jad286TjB</t>
   </si>
   <si>
     <t>AaQUAs2Mc</t>
   </si>
   <si>
+    <t>pxtKbG5rg</t>
+  </si>
+  <si>
+    <t>65PHZTpmE55b</t>
+  </si>
+  <si>
     <t>JCKLgWPAF</t>
   </si>
   <si>
-    <t>jad286TjB</t>
-  </si>
-  <si>
-    <t>65PHZTpmE55b</t>
-  </si>
-  <si>
-    <t>pxtKbG5rg</t>
-  </si>
-  <si>
     <t>DCrsaMv68</t>
   </si>
   <si>
+    <t>Z96jIvLU7</t>
+  </si>
+  <si>
     <t>3nNpuxHJ8</t>
   </si>
   <si>
@@ -214,6 +217,153 @@
     <t>B8xT718SbVhhh</t>
   </si>
   <si>
+    <t>GSCt2y6YSgO26</t>
+  </si>
+  <si>
+    <t>ixgUfzmLR</t>
+  </si>
+  <si>
+    <t>tEf7-dnwV3BXS</t>
+  </si>
+  <si>
+    <t>VcMY11NONHSA0</t>
+  </si>
+  <si>
+    <t>omwkOTglq</t>
+  </si>
+  <si>
+    <t>QQ0NCmjVq</t>
+  </si>
+  <si>
+    <t>B42IRxNtoYmwK</t>
+  </si>
+  <si>
+    <t>fsIbGOEJWbzxG</t>
+  </si>
+  <si>
+    <t>z2PZIKQL7</t>
+  </si>
+  <si>
+    <t>aRGRWLf2RYNq4</t>
+  </si>
+  <si>
+    <t>HGYj5JCv5</t>
+  </si>
+  <si>
+    <t>ql3Jj4Tge</t>
+  </si>
+  <si>
+    <t>w5U609Wze</t>
+  </si>
+  <si>
+    <t>w4MqH_Xe8</t>
+  </si>
+  <si>
+    <t>qFakph2rpuMOL</t>
+  </si>
+  <si>
+    <t>k-J3YwacF</t>
+  </si>
+  <si>
+    <t>sgxZRXbK0FDc</t>
+  </si>
+  <si>
+    <t>frw2fHgZ</t>
+  </si>
+  <si>
+    <t>LOO6LmXd7G84Z</t>
+  </si>
+  <si>
+    <t>C9DwH-T7MEGmo</t>
+  </si>
+  <si>
+    <t>LtWwuVANwRzV_</t>
+  </si>
+  <si>
+    <t>1ZZI6g5k5royD</t>
+  </si>
+  <si>
+    <t>YRTkUcMi</t>
+  </si>
+  <si>
+    <t>aQx_vW8s1</t>
+  </si>
+  <si>
+    <t>AP-fyKlSf</t>
+  </si>
+  <si>
+    <t>cVaOmQWainv7g</t>
+  </si>
+  <si>
+    <t>QGbUTVMjG</t>
+  </si>
+  <si>
+    <t>Hi6jNXshVh9FA</t>
+  </si>
+  <si>
+    <t>Ru56fDlLB56-v</t>
+  </si>
+  <si>
+    <t>lT__vMO7l</t>
+  </si>
+  <si>
+    <t>gpRKmM16k</t>
+  </si>
+  <si>
+    <t>ybmU-kKU</t>
+  </si>
+  <si>
+    <t>M9bj_WrX</t>
+  </si>
+  <si>
+    <t>IEJOE2-U2</t>
+  </si>
+  <si>
+    <t>uT6akswu0</t>
+  </si>
+  <si>
+    <t>uIEWfMFnQo9K_</t>
+  </si>
+  <si>
+    <t>XZfWhQXu8</t>
+  </si>
+  <si>
+    <t>NfeOYfNcl</t>
+  </si>
+  <si>
+    <t>3jmxrjOJ8xa4p</t>
+  </si>
+  <si>
+    <t>QUC5kVAxSoB-</t>
+  </si>
+  <si>
+    <t>drWC87t2Vozh</t>
+  </si>
+  <si>
+    <t>J7st_qGwz</t>
+  </si>
+  <si>
+    <t>JY1_q2c0g</t>
+  </si>
+  <si>
+    <t>yecsF9VkR</t>
+  </si>
+  <si>
+    <t>rk5XwL6mIjUDp</t>
+  </si>
+  <si>
+    <t>08CsQa-Ov</t>
+  </si>
+  <si>
+    <t>7XWg41D1</t>
+  </si>
+  <si>
+    <t>SLcGT3CwT</t>
+  </si>
+  <si>
+    <t>qhd1biQ7M</t>
+  </si>
+  <si>
     <t>BTC</t>
   </si>
   <si>
@@ -250,6 +400,9 @@
     <t>LINK</t>
   </si>
   <si>
+    <t>SOL</t>
+  </si>
+  <si>
     <t>DOT</t>
   </si>
   <si>
@@ -259,15 +412,12 @@
     <t>WETH</t>
   </si>
   <si>
+    <t>SHIB</t>
+  </si>
+  <si>
     <t>DAI</t>
   </si>
   <si>
-    <t>SOL</t>
-  </si>
-  <si>
-    <t>SHIB</t>
-  </si>
-  <si>
     <t>TRX</t>
   </si>
   <si>
@@ -283,12 +433,12 @@
     <t>ATOM</t>
   </si>
   <si>
+    <t>WBTC</t>
+  </si>
+  <si>
     <t>TON</t>
   </si>
   <si>
-    <t>WBTC</t>
-  </si>
-  <si>
     <t>XMR</t>
   </si>
   <si>
@@ -298,12 +448,12 @@
     <t>HT</t>
   </si>
   <si>
+    <t>LDO</t>
+  </si>
+  <si>
     <t>BCH</t>
   </si>
   <si>
-    <t>LDO</t>
-  </si>
-  <si>
     <t>TWT</t>
   </si>
   <si>
@@ -322,39 +472,42 @@
     <t>ENS</t>
   </si>
   <si>
+    <t>FIL</t>
+  </si>
+  <si>
+    <t>ICP</t>
+  </si>
+  <si>
+    <t>QNT</t>
+  </si>
+  <si>
+    <t>VET</t>
+  </si>
+  <si>
     <t>CAKE</t>
   </si>
   <si>
-    <t>ICP</t>
-  </si>
-  <si>
-    <t>FIL</t>
-  </si>
-  <si>
-    <t>VET</t>
-  </si>
-  <si>
-    <t>QNT</t>
+    <t>HBAR</t>
   </si>
   <si>
     <t>LUNC</t>
   </si>
   <si>
+    <t>SAND</t>
+  </si>
+  <si>
+    <t>CRO</t>
+  </si>
+  <si>
     <t>USDP</t>
   </si>
   <si>
-    <t>HBAR</t>
-  </si>
-  <si>
-    <t>CRO</t>
-  </si>
-  <si>
-    <t>SAND</t>
-  </si>
-  <si>
     <t>NEAR</t>
   </si>
   <si>
+    <t>IMX</t>
+  </si>
+  <si>
     <t>FXS</t>
   </si>
   <si>
@@ -364,6 +517,150 @@
     <t>PAX</t>
   </si>
   <si>
+    <t>CHZ</t>
+  </si>
+  <si>
+    <t>AAVE</t>
+  </si>
+  <si>
+    <t>MANA</t>
+  </si>
+  <si>
+    <t>BSV</t>
+  </si>
+  <si>
+    <t>EGLD</t>
+  </si>
+  <si>
+    <t>FLOW</t>
+  </si>
+  <si>
+    <t>THETA</t>
+  </si>
+  <si>
+    <t>XTZ</t>
+  </si>
+  <si>
+    <t>USDD</t>
+  </si>
+  <si>
+    <t>ZEC</t>
+  </si>
+  <si>
+    <t>APT</t>
+  </si>
+  <si>
+    <t>SUSHI</t>
+  </si>
+  <si>
+    <t>APE</t>
+  </si>
+  <si>
+    <t>BTT</t>
+  </si>
+  <si>
+    <t>MKR</t>
+  </si>
+  <si>
+    <t>WOO</t>
+  </si>
+  <si>
+    <t>SNX</t>
+  </si>
+  <si>
+    <t>TKX</t>
+  </si>
+  <si>
+    <t>KCS</t>
+  </si>
+  <si>
+    <t>DASH</t>
+  </si>
+  <si>
+    <t>MIOTA</t>
+  </si>
+  <si>
+    <t>TUSD</t>
+  </si>
+  <si>
+    <t>PAXG</t>
+  </si>
+  <si>
+    <t>XEC</t>
+  </si>
+  <si>
+    <t>OKT</t>
+  </si>
+  <si>
+    <t>NEO</t>
+  </si>
+  <si>
+    <t>CRV</t>
+  </si>
+  <si>
+    <t>NEXO</t>
+  </si>
+  <si>
+    <t>RVN</t>
+  </si>
+  <si>
+    <t>CDAI</t>
+  </si>
+  <si>
+    <t>AXS</t>
+  </si>
+  <si>
+    <t>RUNE</t>
+  </si>
+  <si>
+    <t>KLAY</t>
+  </si>
+  <si>
+    <t>BNX</t>
+  </si>
+  <si>
+    <t>NFT</t>
+  </si>
+  <si>
+    <t>FTM</t>
+  </si>
+  <si>
+    <t>PYR</t>
+  </si>
+  <si>
+    <t>FTT</t>
+  </si>
+  <si>
+    <t>ZIL</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>ANKR</t>
+  </si>
+  <si>
+    <t>MINA</t>
+  </si>
+  <si>
+    <t>BABYDOGE</t>
+  </si>
+  <si>
+    <t>OSMO</t>
+  </si>
+  <si>
+    <t>CEL</t>
+  </si>
+  <si>
+    <t>WEMIX</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>GRT</t>
+  </si>
+  <si>
     <t>Bitcoin</t>
   </si>
   <si>
@@ -388,6 +685,9 @@
     <t>Chainlink</t>
   </si>
   <si>
+    <t>Solana</t>
+  </si>
+  <si>
     <t>Polkadot</t>
   </si>
   <si>
@@ -397,15 +697,12 @@
     <t>Wrapped Ether</t>
   </si>
   <si>
+    <t>Shiba Inu</t>
+  </si>
+  <si>
     <t>Dai</t>
   </si>
   <si>
-    <t>Solana</t>
-  </si>
-  <si>
-    <t>Shiba Inu</t>
-  </si>
-  <si>
     <t>TRON</t>
   </si>
   <si>
@@ -421,12 +718,12 @@
     <t>Cosmos</t>
   </si>
   <si>
+    <t>Wrapped BTC</t>
+  </si>
+  <si>
     <t>Toncoin</t>
   </si>
   <si>
-    <t>Wrapped BTC</t>
-  </si>
-  <si>
     <t>Monero</t>
   </si>
   <si>
@@ -436,12 +733,12 @@
     <t>Huobi Token</t>
   </si>
   <si>
+    <t>Lido DAO Token</t>
+  </si>
+  <si>
     <t>Bitcoin Cash</t>
   </si>
   <si>
-    <t>Lido DAO Token</t>
-  </si>
-  <si>
     <t>Trust Wallet Token</t>
   </si>
   <si>
@@ -460,45 +757,186 @@
     <t>EnergySwap</t>
   </si>
   <si>
+    <t>Filecoin</t>
+  </si>
+  <si>
+    <t>Internet Computer (DFINITY)</t>
+  </si>
+  <si>
+    <t>Quant</t>
+  </si>
+  <si>
+    <t>VeChain</t>
+  </si>
+  <si>
     <t>PancakeSwap</t>
   </si>
   <si>
-    <t>Internet Computer (DFINITY)</t>
-  </si>
-  <si>
-    <t>Filecoin</t>
-  </si>
-  <si>
-    <t>VeChain</t>
-  </si>
-  <si>
-    <t>Quant</t>
+    <t>Hedera</t>
   </si>
   <si>
     <t>Terra Classic</t>
   </si>
   <si>
+    <t>The Sandbox</t>
+  </si>
+  <si>
+    <t>Cronos</t>
+  </si>
+  <si>
     <t>Pax Dollar</t>
   </si>
   <si>
-    <t>Hedera</t>
-  </si>
-  <si>
-    <t>Cronos</t>
-  </si>
-  <si>
-    <t>The Sandbox</t>
-  </si>
-  <si>
     <t>NEAR Protocol</t>
   </si>
   <si>
+    <t>Immutable X</t>
+  </si>
+  <si>
     <t>Frax Share</t>
   </si>
   <si>
     <t>Paxos Standard</t>
   </si>
   <si>
+    <t>Chiliz</t>
+  </si>
+  <si>
+    <t>Aave</t>
+  </si>
+  <si>
+    <t>Decentraland</t>
+  </si>
+  <si>
+    <t>Bitcoin SV</t>
+  </si>
+  <si>
+    <t>Elrond</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>Theta Token</t>
+  </si>
+  <si>
+    <t>Tezos</t>
+  </si>
+  <si>
+    <t>Zcash</t>
+  </si>
+  <si>
+    <t>Aptos</t>
+  </si>
+  <si>
+    <t>ApeCoin</t>
+  </si>
+  <si>
+    <t>BitTorrent-New</t>
+  </si>
+  <si>
+    <t>Maker</t>
+  </si>
+  <si>
+    <t>WOO Network</t>
+  </si>
+  <si>
+    <t>Synthetix Network</t>
+  </si>
+  <si>
+    <t>Tokenize Xchange</t>
+  </si>
+  <si>
+    <t>KuCoin Token</t>
+  </si>
+  <si>
+    <t>Dash</t>
+  </si>
+  <si>
+    <t>IOTA</t>
+  </si>
+  <si>
+    <t>TrueUSD</t>
+  </si>
+  <si>
+    <t>PAX Gold</t>
+  </si>
+  <si>
+    <t>eCash</t>
+  </si>
+  <si>
+    <t>OEC Token</t>
+  </si>
+  <si>
+    <t>Curve DAO Token</t>
+  </si>
+  <si>
+    <t>Nexo</t>
+  </si>
+  <si>
+    <t>Ravencoin</t>
+  </si>
+  <si>
+    <t>Compound Dai</t>
+  </si>
+  <si>
+    <t>Axie Infinity</t>
+  </si>
+  <si>
+    <t>THORChain</t>
+  </si>
+  <si>
+    <t>Klaytn</t>
+  </si>
+  <si>
+    <t>BinaryX</t>
+  </si>
+  <si>
+    <t>APENFT</t>
+  </si>
+  <si>
+    <t>Fantom</t>
+  </si>
+  <si>
+    <t>Vulcan Forged</t>
+  </si>
+  <si>
+    <t>FTX Token</t>
+  </si>
+  <si>
+    <t>Zilliqa</t>
+  </si>
+  <si>
+    <t>MX Token</t>
+  </si>
+  <si>
+    <t>Ankr</t>
+  </si>
+  <si>
+    <t>Mina Protocol Token</t>
+  </si>
+  <si>
+    <t>Baby Doge Coin</t>
+  </si>
+  <si>
+    <t>Osmosis</t>
+  </si>
+  <si>
+    <t>Celsius Network</t>
+  </si>
+  <si>
+    <t>WEMIX TOKEN</t>
+  </si>
+  <si>
+    <t>Arweave</t>
+  </si>
+  <si>
+    <t>Ethereum Name Service</t>
+  </si>
+  <si>
+    <t>The Graph</t>
+  </si>
+  <si>
     <t>#f7931A</t>
   </si>
   <si>
@@ -544,12 +982,12 @@
     <t>#303030</t>
   </si>
   <si>
+    <t>#fda32b</t>
+  </si>
+  <si>
     <t>#ea9999</t>
   </si>
   <si>
-    <t>#fda32b</t>
-  </si>
-  <si>
     <t>#eb0029</t>
   </si>
   <si>
@@ -574,12 +1012,12 @@
     <t>#2daadf</t>
   </si>
   <si>
+    <t>#77cced</t>
+  </si>
+  <si>
     <t>#8dc451</t>
   </si>
   <si>
-    <t>#77cced</t>
-  </si>
-  <si>
     <t>#3375bb</t>
   </si>
   <si>
@@ -589,39 +1027,147 @@
     <t>#ffda55</t>
   </si>
   <si>
+    <t>#0090ff</t>
+  </si>
+  <si>
+    <t>#00042b</t>
+  </si>
+  <si>
+    <t>#585e63</t>
+  </si>
+  <si>
+    <t>#4bc0fa</t>
+  </si>
+  <si>
     <t>#fe9555</t>
   </si>
   <si>
-    <t>#00042b</t>
-  </si>
-  <si>
-    <t>#0090ff</t>
-  </si>
-  <si>
-    <t>#4bc0fa</t>
-  </si>
-  <si>
-    <t>#585e63</t>
-  </si>
-  <si>
     <t>#0E3CA5</t>
   </si>
   <si>
+    <t>#00adef</t>
+  </si>
+  <si>
+    <t>#01275d</t>
+  </si>
+  <si>
     <t>#2ac27a</t>
   </si>
   <si>
-    <t>#01275d</t>
-  </si>
-  <si>
-    <t>#00adef</t>
-  </si>
-  <si>
     <t>#443f54</t>
   </si>
   <si>
     <t>#085229</t>
   </si>
   <si>
+    <t>#d05e72</t>
+  </si>
+  <si>
+    <t>#B6509E</t>
+  </si>
+  <si>
+    <t>#f47e33</t>
+  </si>
+  <si>
+    <t>#eab300</t>
+  </si>
+  <si>
+    <t>#9efad7</t>
+  </si>
+  <si>
+    <t>#1b1f2a</t>
+  </si>
+  <si>
+    <t>#2c7df7</t>
+  </si>
+  <si>
+    <t>#000</t>
+  </si>
+  <si>
+    <t>#b06b2e</t>
+  </si>
+  <si>
+    <t>#0042C7</t>
+  </si>
+  <si>
+    <t>#1abc9c</t>
+  </si>
+  <si>
+    <t>#90dce0</t>
+  </si>
+  <si>
+    <t>#ff8f40</t>
+  </si>
+  <si>
+    <t>#23AF91</t>
+  </si>
+  <si>
+    <t>#1c75bc</t>
+  </si>
+  <si>
+    <t>#1f2e5a</t>
+  </si>
+  <si>
+    <t>#a18d10</t>
+  </si>
+  <si>
+    <t>#456dc8</t>
+  </si>
+  <si>
+    <t>#aedb00</t>
+  </si>
+  <si>
+    <t>#0030ff</t>
+  </si>
+  <si>
+    <t>#0e34aa</t>
+  </si>
+  <si>
+    <t>#384182</t>
+  </si>
+  <si>
+    <t>#f5a616</t>
+  </si>
+  <si>
+    <t>#0EAAB7</t>
+  </si>
+  <si>
+    <t>#4f473b</t>
+  </si>
+  <si>
+    <t>#1969ff</t>
+  </si>
+  <si>
+    <t>#fa8742</t>
+  </si>
+  <si>
+    <t>#77d9ed</t>
+  </si>
+  <si>
+    <t>#49c1bf</t>
+  </si>
+  <si>
+    <t>#277fcc</t>
+  </si>
+  <si>
+    <t>#e6b635</t>
+  </si>
+  <si>
+    <t>#1b154f</t>
+  </si>
+  <si>
+    <t>#f37425</t>
+  </si>
+  <si>
+    <t>#9bdc70</t>
+  </si>
+  <si>
+    <t>#49bcd7</t>
+  </si>
+  <si>
+    <t>#b090e0</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/bOabBYkcX/bitcoin_btc.svg</t>
   </si>
   <si>
@@ -658,6 +1204,9 @@
     <t>https://cdn.coinranking.com/9NOP9tOem/chainlink.svg</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/yvUG4Qex5/solana.svg</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/RsljYqnbu/polkadot.svg</t>
   </si>
   <si>
@@ -667,15 +1216,12 @@
     <t>https://cdn.coinranking.com/KIviQyZlt/weth.svg</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/fiZ4HfnRR/shib.png</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/mAZ_7LwOE/mutli-collateral-dai.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/yvUG4Qex5/solana.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/fiZ4HfnRR/shib.png</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/behejNqQs/trx.svg</t>
   </si>
   <si>
@@ -691,12 +1237,12 @@
     <t>https://cdn.coinranking.com/HJzHboruM/atom.svg</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/o3-8cvCHu/wbtc[1].svg</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/1mf2KPPah/toncoin.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/o3-8cvCHu/wbtc[1].svg</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/Syz-oSd_Z/xmr.svg</t>
   </si>
   <si>
@@ -706,12 +1252,12 @@
     <t>https://cdn.coinranking.com/ryFpQe0c7/ht.svg</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/Wp6LFY6ZZ/8000.png</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/By8ziihX7/bch.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/Wp6LFY6ZZ/8000.png</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/cZ5j4jiOk/trust-wallet-token.svg</t>
   </si>
   <si>
@@ -730,39 +1276,42 @@
     <t>https://cdn.coinranking.com/fmYxEUV5a/cropped-logo37-Converted-01-192x192.png</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/vUmvv-IQA/FIL3-filecoin.svg?size=48x48</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/1uJ_RVrmC/dfinity-icp.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/a-i9Dl392/quant.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/B1_TDu9Dm/VEN.svg</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/aRtgdw7bQ/pancakeswap-cake-logo.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/1uJ_RVrmC/dfinity-icp.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/vUmvv-IQA/FIL3-filecoin.svg?size=48x48</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/B1_TDu9Dm/VEN.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/a-i9Dl392/quant.png</t>
+    <t>https://cdn.coinranking.com/dSCnSLilQ/hedera.svg</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/F-PJdF8Um/LUNA.svg</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/kd_vwOcnI/sandbox.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/2o91jm73M/cro.svg</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/KUd2bJXdn/3330.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/dSCnSLilQ/hedera.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/2o91jm73M/cro.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/kd_vwOcnI/sandbox.png</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/Cth83dCnl/near.png</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/naRGT2Y_X/10603.png</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/_UuWZ5htj/FS.png</t>
   </si>
   <si>
@@ -772,571 +1321,1300 @@
     <t>https://cdn.coinranking.com/H1NkFcuhX/pax.svg</t>
   </si>
   <si>
-    <t>326018977772</t>
-  </si>
-  <si>
-    <t>154513554021</t>
-  </si>
-  <si>
-    <t>65413372812</t>
-  </si>
-  <si>
-    <t>43811714059</t>
-  </si>
-  <si>
-    <t>37831118141</t>
-  </si>
-  <si>
-    <t>17123060820</t>
-  </si>
-  <si>
-    <t>16433385461</t>
-  </si>
-  <si>
-    <t>10072137489</t>
-  </si>
-  <si>
-    <t>9855617791</t>
-  </si>
-  <si>
-    <t>7227076465</t>
-  </si>
-  <si>
-    <t>6535107009</t>
-  </si>
-  <si>
-    <t>5809859083</t>
-  </si>
-  <si>
-    <t>5572387957</t>
-  </si>
-  <si>
-    <t>5384932645</t>
-  </si>
-  <si>
-    <t>5220671221</t>
-  </si>
-  <si>
-    <t>5194953078</t>
-  </si>
-  <si>
-    <t>4983609526</t>
-  </si>
-  <si>
-    <t>4973349696</t>
-  </si>
-  <si>
-    <t>4854120911</t>
-  </si>
-  <si>
-    <t>4341389767</t>
-  </si>
-  <si>
-    <t>3979194531</t>
-  </si>
-  <si>
-    <t>3563982483</t>
-  </si>
-  <si>
-    <t>3334978742</t>
-  </si>
-  <si>
-    <t>3215355049</t>
-  </si>
-  <si>
-    <t>3206621825</t>
-  </si>
-  <si>
-    <t>2819990009</t>
-  </si>
-  <si>
-    <t>2741563700</t>
-  </si>
-  <si>
-    <t>2349631560</t>
-  </si>
-  <si>
-    <t>1951673560</t>
-  </si>
-  <si>
-    <t>1885367446</t>
-  </si>
-  <si>
-    <t>1695318793</t>
-  </si>
-  <si>
-    <t>1519079883</t>
-  </si>
-  <si>
-    <t>1391587824</t>
-  </si>
-  <si>
-    <t>1384336261</t>
-  </si>
-  <si>
-    <t>1347191642</t>
-  </si>
-  <si>
-    <t>1169662557</t>
-  </si>
-  <si>
-    <t>1154403699</t>
-  </si>
-  <si>
-    <t>1130707729</t>
-  </si>
-  <si>
-    <t>1107020449</t>
-  </si>
-  <si>
-    <t>1101585219</t>
-  </si>
-  <si>
-    <t>1097255259</t>
-  </si>
-  <si>
-    <t>1016709979</t>
-  </si>
-  <si>
-    <t>1015466639</t>
-  </si>
-  <si>
-    <t>999463122</t>
-  </si>
-  <si>
-    <t>987231894</t>
-  </si>
-  <si>
-    <t>976029804</t>
-  </si>
-  <si>
-    <t>962123950</t>
-  </si>
-  <si>
-    <t>926614448</t>
-  </si>
-  <si>
-    <t>880065450</t>
-  </si>
-  <si>
-    <t>874567960</t>
-  </si>
-  <si>
-    <t>16962.7841411403</t>
-  </si>
-  <si>
-    <t>1266.2560087003462</t>
-  </si>
-  <si>
-    <t>1.000775546663362</t>
-  </si>
-  <si>
-    <t>1.0007706716344464</t>
-  </si>
-  <si>
-    <t>264.89512927034724</t>
-  </si>
-  <si>
-    <t>0.340427261791584</t>
-  </si>
-  <si>
-    <t>1.000512532816828</t>
-  </si>
-  <si>
-    <t>0.28740566421520786</t>
-  </si>
-  <si>
-    <t>0.07202411652905047</t>
-  </si>
-  <si>
-    <t>0.8066056577962798</t>
-  </si>
-  <si>
-    <t>26.49665177888832</t>
-  </si>
-  <si>
-    <t>5.810385067816853</t>
-  </si>
-  <si>
-    <t>4.716431691716404</t>
-  </si>
-  <si>
-    <t>75.98827661611908</t>
-  </si>
-  <si>
-    <t>1267.0088116847505</t>
-  </si>
-  <si>
-    <t>0.999764833974359</t>
-  </si>
-  <si>
-    <t>13.723002158646866</t>
-  </si>
-  <si>
-    <t>0.000008435757260353</t>
-  </si>
-  <si>
-    <t>0.052677185241878706</t>
-  </si>
-  <si>
-    <t>5.457010154227021</t>
-  </si>
-  <si>
-    <t>0.4140577944631168</t>
-  </si>
-  <si>
-    <t>11.851456506061632</t>
-  </si>
-  <si>
-    <t>10.393818368404833</t>
-  </si>
-  <si>
-    <t>2.1819854716258513</t>
-  </si>
-  <si>
-    <t>16941.370357573884</t>
-  </si>
-  <si>
-    <t>154.88659926457612</t>
-  </si>
-  <si>
-    <t>19.83957002857054</t>
-  </si>
-  <si>
-    <t>4.699263132008988</t>
-  </si>
-  <si>
-    <t>102.01415321883047</t>
-  </si>
-  <si>
-    <t>1.614388008902198</t>
-  </si>
-  <si>
-    <t>1.3964756137886094</t>
-  </si>
-  <si>
-    <t>0.07518141651233766</t>
-  </si>
-  <si>
-    <t>0.19318560673050456</t>
-  </si>
-  <si>
-    <t>1.0001027134935743</t>
-  </si>
-  <si>
-    <t>1387.642022797383</t>
-  </si>
-  <si>
-    <t>11.696625566128995</t>
-  </si>
-  <si>
-    <t>3.320394579878764</t>
-  </si>
-  <si>
-    <t>4.046656706021308</t>
-  </si>
-  <si>
-    <t>3.381535365432399</t>
-  </si>
-  <si>
-    <t>0.016500494111573435</t>
-  </si>
-  <si>
-    <t>112.22550617236253</t>
-  </si>
-  <si>
-    <t>0.000154072232985974</t>
-  </si>
-  <si>
-    <t>0.9995264733839502</t>
-  </si>
-  <si>
-    <t>0.04040157213882611</t>
-  </si>
-  <si>
-    <t>0.06093644017216378</t>
-  </si>
-  <si>
-    <t>0.4650749202956156</t>
-  </si>
-  <si>
-    <t>1.5828459680129725</t>
-  </si>
-  <si>
-    <t>5.2501703098271175</t>
-  </si>
-  <si>
-    <t>0.8902903150507181</t>
-  </si>
-  <si>
-    <t>1.0046159878692615</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>0.01</t>
+    <t>https://cdn.coinranking.com/gTsOlSnwR/4066.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/4bpYKqV4X/AAVE.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/ph_svUzXs/decentraland(1).svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/388ehh6kq/bitcoin-sv-1.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/X62ruAuZQ/Elrond.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/xh8X8QBss/flow.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/HJHg2k9Lf/theta.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/HkLUdilQ7/xtz.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/HeEyq_2CG/usdd.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/rJrKiS_uZ/zec.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/KXUaDFjqm/21794.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/eKKejWkdo/sushiswap.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/qT3ukh7Z9/APE.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/xHIci4Je9/16086.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/sjHfS7jCS/mkrdao.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/03_LGK8B-/7501.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/c2WntZSPs/snx-synthetix.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/JYtWb5AXp/tokenize.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/A-hAjR-hN/kucoin.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/PyCmduSxt/Dash-D-white_on_blue_circle.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/H1IQ9Bdd-/miota.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/qPE6mbDUL/tusd.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/OvRFA-ieo/pax-gold.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/wdqRaUEhn/xec.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/w-31NDK65/8267.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/MgUNVQCeN/neo.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/89clXLSu2/curve-dao-token.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/V2znfjzI4/nexo.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/Rw1xg7rFE/rvn.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/aZPPc1MqR/cDAI.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/L3gWtlUJB/axie-infinity.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/tU7Skyia9/ThorChain[1].svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/cY-BSmXaS/klay.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/mX2o6GwxI/BinaryX-RGB-01_(2).PNG</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/43Mb3MHYr/9816.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/Uh-AYdcnU/fantom.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/Y3sN-F7tM/PYR.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/WyBm4_EzM/ftx-exchange.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/H18JFWswf/zil.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/5H4rM81Pj/mxc.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/2NXhylXMw/ankr.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/IqAKk8Gab/mina.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/1X2BCCJdV/Baby_Doge.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/nqAP4gRwW/osmosis.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/XPU7TeCYD/New-CEL.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/1N84MQsoO/7548.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/96QRZJzE9/5632.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/aUQr3CkJU/ENS.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/g6FVr-7Vs/grt.png</t>
+  </si>
+  <si>
+    <t>334903342513</t>
+  </si>
+  <si>
+    <t>162553666610</t>
+  </si>
+  <si>
+    <t>65388437107</t>
+  </si>
+  <si>
+    <t>43794876205</t>
+  </si>
+  <si>
+    <t>39286231081</t>
+  </si>
+  <si>
+    <t>17616271500</t>
+  </si>
+  <si>
+    <t>16447102806</t>
+  </si>
+  <si>
+    <t>11040094129</t>
+  </si>
+  <si>
+    <t>10510227210</t>
+  </si>
+  <si>
+    <t>7647547102</t>
+  </si>
+  <si>
+    <t>6714644010</t>
+  </si>
+  <si>
+    <t>6116584554</t>
+  </si>
+  <si>
+    <t>5838567292</t>
+  </si>
+  <si>
+    <t>5764909756</t>
+  </si>
+  <si>
+    <t>5712600022</t>
+  </si>
+  <si>
+    <t>5406461041</t>
+  </si>
+  <si>
+    <t>5277931220</t>
+  </si>
+  <si>
+    <t>5210919590</t>
+  </si>
+  <si>
+    <t>5071117924</t>
+  </si>
+  <si>
+    <t>4535751591</t>
+  </si>
+  <si>
+    <t>4276401764</t>
+  </si>
+  <si>
+    <t>3761981568</t>
+  </si>
+  <si>
+    <t>3588151666</t>
+  </si>
+  <si>
+    <t>3287607860</t>
+  </si>
+  <si>
+    <t>3119387712</t>
+  </si>
+  <si>
+    <t>2931109894</t>
+  </si>
+  <si>
+    <t>2731214758</t>
+  </si>
+  <si>
+    <t>2442535058</t>
+  </si>
+  <si>
+    <t>2236750049</t>
+  </si>
+  <si>
+    <t>2050679504</t>
+  </si>
+  <si>
+    <t>1792168051</t>
+  </si>
+  <si>
+    <t>1591542383</t>
+  </si>
+  <si>
+    <t>1445380682</t>
+  </si>
+  <si>
+    <t>1384288573</t>
+  </si>
+  <si>
+    <t>1363831560</t>
+  </si>
+  <si>
+    <t>1221079483</t>
+  </si>
+  <si>
+    <t>1217267035</t>
+  </si>
+  <si>
+    <t>1210566848</t>
+  </si>
+  <si>
+    <t>1192966538</t>
+  </si>
+  <si>
+    <t>1188039832</t>
+  </si>
+  <si>
+    <t>1174980995</t>
+  </si>
+  <si>
+    <t>1090682855</t>
+  </si>
+  <si>
+    <t>1084269264</t>
+  </si>
+  <si>
+    <t>1062537454</t>
+  </si>
+  <si>
+    <t>1036887899</t>
+  </si>
+  <si>
+    <t>1013172191</t>
+  </si>
+  <si>
+    <t>980251363</t>
+  </si>
+  <si>
+    <t>962935318</t>
+  </si>
+  <si>
+    <t>952225259</t>
+  </si>
+  <si>
+    <t>931776697</t>
+  </si>
+  <si>
+    <t>915508573</t>
+  </si>
+  <si>
+    <t>890550970</t>
+  </si>
+  <si>
+    <t>880088884</t>
+  </si>
+  <si>
+    <t>864265490</t>
+  </si>
+  <si>
+    <t>852101804</t>
+  </si>
+  <si>
+    <t>842348801</t>
+  </si>
+  <si>
+    <t>813067512</t>
+  </si>
+  <si>
+    <t>799435957</t>
+  </si>
+  <si>
+    <t>754904413</t>
+  </si>
+  <si>
+    <t>711251777</t>
+  </si>
+  <si>
+    <t>692181345</t>
+  </si>
+  <si>
+    <t>684764223</t>
+  </si>
+  <si>
+    <t>672619306</t>
+  </si>
+  <si>
+    <t>626838643</t>
+  </si>
+  <si>
+    <t>620547783</t>
+  </si>
+  <si>
+    <t>613390204</t>
+  </si>
+  <si>
+    <t>599673947</t>
+  </si>
+  <si>
+    <t>552766286</t>
+  </si>
+  <si>
+    <t>533074316</t>
+  </si>
+  <si>
+    <t>524517945</t>
+  </si>
+  <si>
+    <t>523265075</t>
+  </si>
+  <si>
+    <t>521459303</t>
+  </si>
+  <si>
+    <t>510526122</t>
+  </si>
+  <si>
+    <t>506784248</t>
+  </si>
+  <si>
+    <t>483443728</t>
+  </si>
+  <si>
+    <t>483264143</t>
+  </si>
+  <si>
+    <t>478527604</t>
+  </si>
+  <si>
+    <t>476819110</t>
+  </si>
+  <si>
+    <t>466731264</t>
+  </si>
+  <si>
+    <t>451724013</t>
+  </si>
+  <si>
+    <t>450480875</t>
+  </si>
+  <si>
+    <t>447794658</t>
+  </si>
+  <si>
+    <t>433964150</t>
+  </si>
+  <si>
+    <t>431501027</t>
+  </si>
+  <si>
+    <t>430132841</t>
+  </si>
+  <si>
+    <t>418911625</t>
+  </si>
+  <si>
+    <t>415065742</t>
+  </si>
+  <si>
+    <t>406884490</t>
+  </si>
+  <si>
+    <t>398558965</t>
+  </si>
+  <si>
+    <t>392227111</t>
+  </si>
+  <si>
+    <t>385161310</t>
+  </si>
+  <si>
+    <t>383528365</t>
+  </si>
+  <si>
+    <t>377983444</t>
+  </si>
+  <si>
+    <t>374620520</t>
+  </si>
+  <si>
+    <t>372357039</t>
+  </si>
+  <si>
+    <t>369430651</t>
+  </si>
+  <si>
+    <t>364416249</t>
+  </si>
+  <si>
+    <t>334764938</t>
+  </si>
+  <si>
+    <t>333351749</t>
+  </si>
+  <si>
+    <t>330132253</t>
+  </si>
+  <si>
+    <t>17425.038094495227</t>
+  </si>
+  <si>
+    <t>1332.1347315455457</t>
+  </si>
+  <si>
+    <t>1.0003940490698238</t>
+  </si>
+  <si>
+    <t>1.0003860523351469</t>
+  </si>
+  <si>
+    <t>275.0838931570907</t>
+  </si>
+  <si>
+    <t>0.3502328896038792</t>
+  </si>
+  <si>
+    <t>1.000348044645037</t>
+  </si>
+  <si>
+    <t>0.31502603986824956</t>
+  </si>
+  <si>
+    <t>0.0768079531263155</t>
+  </si>
+  <si>
+    <t>0.853539532868709</t>
+  </si>
+  <si>
+    <t>27.224586209041497</t>
+  </si>
+  <si>
+    <t>6.117138307802432</t>
+  </si>
+  <si>
+    <t>16.0772370184762</t>
+  </si>
+  <si>
+    <t>4.877186066639734</t>
+  </si>
+  <si>
+    <t>80.61208177300658</t>
+  </si>
+  <si>
+    <t>1332.0586071776158</t>
+  </si>
+  <si>
+    <t>0.000008952372746435</t>
+  </si>
+  <si>
+    <t>1.0006672910675276</t>
+  </si>
+  <si>
+    <t>0.0550320486692961</t>
+  </si>
+  <si>
+    <t>5.701294806771632</t>
+  </si>
+  <si>
+    <t>0.44498389531904065</t>
+  </si>
+  <si>
+    <t>12.50987094856615</t>
+  </si>
+  <si>
+    <t>11.182858896712736</t>
+  </si>
+  <si>
+    <t>17369.239459431497</t>
+  </si>
+  <si>
+    <t>2.1168606771700884</t>
+  </si>
+  <si>
+    <t>160.98980567683356</t>
+  </si>
+  <si>
+    <t>19.764678990391246</t>
+  </si>
+  <si>
+    <t>4.885070127087952</t>
+  </si>
+  <si>
+    <t>1.915267215740912</t>
+  </si>
+  <si>
+    <t>107.18920284903767</t>
+  </si>
+  <si>
+    <t>1.4762527198220925</t>
+  </si>
+  <si>
+    <t>0.0787676883555083</t>
+  </si>
+  <si>
+    <t>0.20065342797501728</t>
+  </si>
+  <si>
+    <t>1.0000682622735357</t>
+  </si>
+  <si>
+    <t>1462.2665066643135</t>
+  </si>
+  <si>
+    <t>12.210794830183502</t>
+  </si>
+  <si>
+    <t>3.7182976454351486</t>
+  </si>
+  <si>
+    <t>4.276896601421403</t>
+  </si>
+  <si>
+    <t>122.01470210317649</t>
+  </si>
+  <si>
+    <t>0.017795485921690973</t>
+  </si>
+  <si>
+    <t>3.3795807576936565</t>
+  </si>
+  <si>
+    <t>0.04408897244107236</t>
+  </si>
+  <si>
+    <t>0.000164310167234349</t>
+  </si>
+  <si>
+    <t>0.5062955250491238</t>
+  </si>
+  <si>
+    <t>0.06393850877571336</t>
+  </si>
+  <si>
+    <t>0.9972680422392235</t>
+  </si>
+  <si>
+    <t>1.612668428082125</t>
+  </si>
+  <si>
+    <t>0.4814676591026689</t>
+  </si>
+  <si>
+    <t>5.3906540772894855</t>
+  </si>
+  <si>
+    <t>0.9426023591762666</t>
+  </si>
+  <si>
+    <t>1.0011988251600155</t>
+  </si>
+  <si>
+    <t>0.11740541514347823</t>
+  </si>
+  <si>
+    <t>61.339722453198846</t>
+  </si>
+  <si>
+    <t>0.3940571631225368</t>
+  </si>
+  <si>
+    <t>44.4397105820139</t>
+  </si>
+  <si>
+    <t>35.271747588128825</t>
+  </si>
+  <si>
+    <t>0.7846627210149661</t>
+  </si>
+  <si>
+    <t>0.7994428627141466</t>
+  </si>
+  <si>
+    <t>0.8228493527425877</t>
+  </si>
+  <si>
+    <t>0.980587843810797</t>
+  </si>
+  <si>
+    <t>43.80049072420685</t>
+  </si>
+  <si>
+    <t>5.267417100499517</t>
+  </si>
+  <si>
+    <t>1.1026910677322683</t>
+  </si>
+  <si>
+    <t>4.778152961121995</t>
+  </si>
+  <si>
+    <t>6.56437779703e-7</t>
+  </si>
+  <si>
+    <t>627.3761796956671</t>
+  </si>
+  <si>
+    <t>0.1683193024404235</t>
+  </si>
+  <si>
+    <t>1.77450861764306</t>
+  </si>
+  <si>
+    <t>6.663762146643358</t>
+  </si>
+  <si>
+    <t>6.934239270614437</t>
+  </si>
+  <si>
+    <t>47.450901878540066</t>
+  </si>
+  <si>
+    <t>0.18760698746564825</t>
+  </si>
+  <si>
+    <t>1.0004181195822384</t>
+  </si>
+  <si>
+    <t>1865.9229701793813</t>
+  </si>
+  <si>
+    <t>0.000025208299947915</t>
+  </si>
+  <si>
+    <t>27.13799935560125</t>
+  </si>
+  <si>
+    <t>6.784738469008178</t>
+  </si>
+  <si>
+    <t>0.6582860408970584</t>
+  </si>
+  <si>
+    <t>0.7223311437758857</t>
+  </si>
+  <si>
+    <t>0.021510667291653403</t>
+  </si>
+  <si>
+    <t>0.02215076255155807</t>
+  </si>
+  <si>
+    <t>7.352044619949704</t>
+  </si>
+  <si>
+    <t>1.4429149942364552</t>
+  </si>
+  <si>
+    <t>0.17626250196752094</t>
+  </si>
+  <si>
+    <t>70.49608199551834</t>
+  </si>
+  <si>
+    <t>4.18915813927e-7</t>
+  </si>
+  <si>
+    <t>0.23868771948064382</t>
+  </si>
+  <si>
+    <t>3.5412992255638485</t>
+  </si>
+  <si>
+    <t>1.2118117591505169</t>
+  </si>
+  <si>
+    <t>0.0232402092356138</t>
+  </si>
+  <si>
+    <t>0.8760279368260602</t>
+  </si>
+  <si>
+    <t>0.01957964157887995</t>
+  </si>
+  <si>
+    <t>0.4997483697598716</t>
+  </si>
+  <si>
+    <t>1.060525308e-9</t>
+  </si>
+  <si>
+    <t>0.7618478142447688</t>
+  </si>
+  <si>
+    <t>0.5332786947458967</t>
+  </si>
+  <si>
+    <t>0.36441624874247563</t>
+  </si>
+  <si>
+    <t>7.638567943926143</t>
+  </si>
+  <si>
+    <t>12.213123753129246</t>
+  </si>
+  <si>
+    <t>0.0711904453065202</t>
+  </si>
+  <si>
+    <t>-71.79</t>
+  </si>
+  <si>
+    <t>-69.14</t>
+  </si>
+  <si>
+    <t>-0.06</t>
   </si>
   <si>
     <t>0.02</t>
   </si>
   <si>
-    <t>1.07</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>-0.39</t>
-  </si>
-  <si>
-    <t>0.50</t>
-  </si>
-  <si>
-    <t>-0.60</t>
-  </si>
-  <si>
-    <t>0.44</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>-0.00</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>-0.08</t>
-  </si>
-  <si>
-    <t>1.29</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>-0.25</t>
-  </si>
-  <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>-0.10</t>
-  </si>
-  <si>
-    <t>3.33</t>
-  </si>
-  <si>
-    <t>0.61</t>
+    <t>-47.82</t>
+  </si>
+  <si>
+    <t>-67.61</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>-83.87</t>
+  </si>
+  <si>
+    <t>-71.35</t>
+  </si>
+  <si>
+    <t>-54.22</t>
+  </si>
+  <si>
+    <t>29.45</t>
+  </si>
+  <si>
+    <t>-79.39</t>
+  </si>
+  <si>
+    <t>-91.74</t>
+  </si>
+  <si>
+    <t>-88.57</t>
+  </si>
+  <si>
+    <t>-57.63</t>
+  </si>
+  <si>
+    <t>-35.75</t>
+  </si>
+  <si>
+    <t>-86.23</t>
+  </si>
+  <si>
+    <t>-45.52</t>
+  </si>
+  <si>
+    <t>-77.09</t>
+  </si>
+  <si>
+    <t>-79.94</t>
+  </si>
+  <si>
+    <t>-69.99</t>
+  </si>
+  <si>
+    <t>-71.85</t>
+  </si>
+  <si>
+    <t>-38.67</t>
+  </si>
+  <si>
+    <t>-62.46</t>
+  </si>
+  <si>
+    <t>-46.33</t>
+  </si>
+  <si>
+    <t>-44.15</t>
+  </si>
+  <si>
+    <t>-81.65</t>
+  </si>
+  <si>
+    <t>38.34</t>
+  </si>
+  <si>
+    <t>-78.00</t>
+  </si>
+  <si>
+    <t>-88.96</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>-93.86</t>
+  </si>
+  <si>
+    <t>-90.10</t>
+  </si>
+  <si>
+    <t>-56.18</t>
+  </si>
+  <si>
+    <t>-86.34</t>
+  </si>
+  <si>
+    <t>-81.22</t>
+  </si>
+  <si>
+    <t>-89.48</t>
+  </si>
+  <si>
+    <t>-100.00</t>
+  </si>
+  <si>
+    <t>-72.11</t>
+  </si>
+  <si>
+    <t>-70.06</t>
+  </si>
+  <si>
+    <t>-84.60</t>
+  </si>
+  <si>
+    <t>-78.93</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>-77.57</t>
+  </si>
+  <si>
+    <t>-80.70</t>
+  </si>
+  <si>
+    <t>-88.99</t>
+  </si>
+  <si>
+    <t>-72.51</t>
+  </si>
+  <si>
+    <t>-86.41</t>
+  </si>
+  <si>
+    <t>-94.77</t>
+  </si>
+  <si>
+    <t>-90.20</t>
+  </si>
+  <si>
+    <t>-86.91</t>
+  </si>
+  <si>
+    <t>-71.37</t>
+  </si>
+  <si>
+    <t>-90.04</t>
+  </si>
+  <si>
+    <t>-73.66</t>
+  </si>
+  <si>
+    <t>-87.04</t>
+  </si>
+  <si>
+    <t>-82.02</t>
+  </si>
+  <si>
+    <t>-29.86</t>
+  </si>
+  <si>
+    <t>-60.63</t>
+  </si>
+  <si>
+    <t>-74.18</t>
+  </si>
+  <si>
+    <t>-86.49</t>
   </si>
   <si>
     <t>0.08</t>
   </si>
   <si>
-    <t>-0.29</t>
-  </si>
-  <si>
-    <t>-0.84</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>0.20</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>2.29</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>0.39</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>['16939.693748459056', '16942.31377232696', '16941.928786600463', '16942.07092604406', '16942.143712470704', '16945.190309508092', '16949.322610797462', '16944.00098696653', '16944.21266050374', '16945.490634080557', '16948.566740867238', '16945.941838723207', '16951.161262930975', '16957.572890285664', '16980.96391613481', '16968.22392041046', '16982.162067168647', '16961.963388460455', '16973.837817424974', '16955.511941200515', '16966.758266751287', '16960.478435607143', '16946.366718624016', '16957.16143146884', '16956.239181263667']</t>
-  </si>
-  <si>
-    <t>['1263.4654208538946', '1263.8795562216253', '1264.1179168203232', '1264.365531889528', '1264.2545388629349', '1264.7631363394637', '1265.3073755220225', '1265.2800334992007', '1264.9256333855158', '1265.5612048448345', '1266.563567420714', '1266.6313845717013', '1267.0274103633747', '1268.056400508975', '1271.37482980476', '1272.3257643647653', '1273.4680425680351', '1271.4908323281443', '1270.2378631169734', '1268.8550686887047', '1269.5258853268751', '1268.2708231181216', '1266.4995482031954', '1265.4864884802648', '1265.7765932944312']</t>
-  </si>
-  <si>
-    <t>['1.0005001969125396', '1.000410007053589', '1.000383193625742', '1.0002333061140432', '1.0000227003244413', '1.000140296993055', '0.9997734139892613', '0.9999747741349623', '0.9999968670229478', '0.999992732512223', '0.9998523443794572', '1.000126984047258', '0.9998695810552856', '0.9994829756153678', '0.9982668531381479', '0.9989799834686969', '0.9986503342520281', '0.9998844833024807', '0.9995416326208888', '1.0005927322320416', '1.0000275014575606', '1.0005248497822883', '1.0014183595321273', '1.001283263208908', '1.0013435236350827']</t>
-  </si>
-  <si>
-    <t>['1.0006636235562159', '1.0005824116361621', '1.0004486263420334', '1.0000187421045965', '0.9997834356172142', '1.0000842248126145', '0.9998308223553692', '0.9996250604630267', '1.0002012998063632', '1.0001468557572093', '1.0002830730860968', '1.0001486409602232', '1.0000239344132624', '0.9999022172657338', '0.998504531476005', '0.9986761910135649', '0.9989179405801608', '0.9996070841469519', '1.0006968541233956', '1.0011665898427171', '1.0008912033296475', '1.0010238948101347', '1.0016843586135589', '1.0019058649603279', '1.000898506723865']</t>
-  </si>
-  <si>
-    <t>['261.879954591418', '261.83966933668165', '261.90122582700786', '262.1405877807842', '262.31896344667655', '262.28972028101424', '262.83459688251764', '263.14902019722774', '263.0032085927511', '262.9015877836805', '263.1368897443136', '263.0661197064173', '263.35576884952246', '264.55664093623795', '266.1599275826434', '266.5740267436987', '266.4196227773885', '265.7265005353782', '265.668248530938', '264.8637467341324', '265.17599523483585', '265.0504682763758', '264.60709013217553', '264.77440938493396', '264.60382922887015']</t>
-  </si>
-  <si>
-    <t>['0.3395000243318789', '0.3395034630718195', '0.3396511673535144', '0.34003801945934714', '0.34022209530674613', '0.34060812965960474', '0.340851895424389', '0.3407114041785402', '0.34062929765864514', '0.3407716816519577', '0.3409433464109336', '0.3407882468293632', '0.3409953169265691', '0.3412913475491692', '0.3417361405932359', '0.34241231559332763', '0.34259852067014385', '0.34198335559629645', '0.34174006117467703', '0.34118083840431657', '0.34130475210283734', '0.3411329048709604', '0.3406088926241982', '0.34045501253507365', '0.34025293285392577']</t>
-  </si>
-  <si>
-    <t>['1.0008219762502613', '1.0007182231043301', '1.0007245567097378', '1.000204423229808', '1.0005454236958293', '0.9998932465351239', '1.0000303964391966', '1.000263275690822', '1.0002530777917291', '1.0002242812233162', '1.0001779444412113', '1.0006011244108812', '1.000153381773779', '0.9999788926926567', '0.9984470458539333', '0.9996471283970788', '0.9988615768026373', '1.0001787948734315', '0.9997435425146785', '1.0006782033308546', '1.0006997226576808', '1.000634841305785', '1.001991395015759', '1.001589326419636', '1.001883217117586']</t>
-  </si>
-  <si>
-    <t>['0.28831469718544084', '0.28789995953383096', '0.2872279914201062', '0.2869988061584505', '0.28664617853522634', '0.2866615882582487', '0.28756434695881206', '0.2871440306718017', '0.287265294789302', '0.28791812963071484', '0.2881612071729879', '0.2875494337764313', '0.2874809885216636', '0.2875798575213515', '0.2878096516640045', '0.28790068258514095', '0.28776638538374316', '0.28732853848776224', '0.28779061194594974', '0.2876611483082694', '0.2879847256595289', '0.28774220309710963', '0.2873187404682873', '0.28689921500903687', '0.2870535292702516']</t>
-  </si>
-  <si>
-    <t>['0.07163856905956448', '0.07163552099277443', '0.07170213239152082', '0.07181823290229863', '0.07180595529690613', '0.07196258816614161', '0.07210939279609199', '0.07219073932708957', '0.07213792615488869', '0.07217574283611494', '0.07218695608870963', '0.07220731403105841', '0.07234958647051679', '0.0723887033300882', '0.07251391004755472', '0.07245866694346789', '0.07239713635778676', '0.07234459779041694', '0.07230137512232089', '0.07215922971187853', '0.07214940848273182', '0.07211029979563531', '0.07197505843886384', '0.07196112945857859', '0.07196865943989164']</t>
-  </si>
-  <si>
-    <t>['0.802006156719657', '0.8016742544141364', '0.8023137495835999', '0.8032507059085434', '0.8031358747513737', '0.8042283628436427', '0.8062765909113402', '0.8052201387094367', '0.8054726566751456', '0.808677264268437', '0.8093758760341887', '0.8086997783279017', '0.8094218530966265', '0.8100895359660183', '0.8118263862630689', '0.8126369450150477', '0.8132555097026153', '0.8115768977740392', '0.8110260160816987', '0.8095908525476025', '0.809774619650915', '0.8092909195041055', '0.8077863123979323', '0.8069644186916938', '0.8066205850357518']</t>
-  </si>
-  <si>
-    <t>['26.6843020331397', '26.689715796745443', '26.637095691217066', '26.643940328085815', '26.663751227467827', '26.748045427068295', '26.683554467147708', '26.720757859117455', '26.755487669745268', '26.74688893485655', '26.663168250251715', '26.642688792878037', '26.650549646629948', '26.669743994886073', '26.701659446478935', '26.903656296296212', '26.76429196962801', '26.714183476849296', '26.6260797237146', '26.5923304250808', '26.54319126671598', '26.542892893507922', '26.546969733468153', '26.468863319410893', '26.500535496346643']</t>
-  </si>
-  <si>
-    <t>['5.784940325378562', '5.793983097782149', '5.802922159478524', '5.809071280642862', '5.808492327453466', '5.817116940209199', '5.825359175052087', '5.8260914677104845', '5.819456772528688', '5.826513830429911', '5.833088437519036', '5.83575038255563', '5.834100316708363', '5.838559114082676', '5.848567204765393', '5.849284395686439', '5.846920569618105', '5.838928996230893', '5.837034915921882', '5.828289277895533', '5.829637830522623', '5.822960624485791', '5.817100476649685', '5.811987610836769', '5.812699534793573']</t>
-  </si>
-  <si>
-    <t>['4.685891487555761', '4.6943983659306365', '4.707704301338114', '4.72592816037481', '4.737024054407976', '4.734001850678554', '4.725680805332802', '4.71904880628584', '4.718863006178339', '4.726754504858832', '4.7361596527767285', '4.735164801420601', '4.736625738760442', '4.744271814312464', '4.748721675191356', '4.748397761631406', '4.744666546940949', '4.741410062397276', '4.7419287622925985', '4.730739748776058', '4.7327344051007545', '4.728377976056608', '4.722392070086728', '4.720706050325384', '4.715370325439076']</t>
-  </si>
-  <si>
-    <t>['75.94545766726907', '75.93606722809015', '75.97196350156906', '76.0985080935103', '76.16336842280572', '76.2332272811698', '76.32643130929952', '76.31803248865553', '76.26883072051609', '76.35454230246918', '76.40802344779551', '76.34533918196507', '76.34896528125616', '76.35901603543161', '76.43976465625309', '76.57256130085855', '76.73193642443982', '76.577270582442', '76.47262028574767', '76.33311269789036', '76.26030920130106', '76.14118214497735', '76.01365026922399', '75.99893893390131', '76.04575994322883']</t>
-  </si>
-  <si>
-    <t>['1265.9027037621422', '1264.2721774421036', '1262.84157716111', '1258.7649955197091', '1262.3417921833548', '1262.9766847495423', '1261.7001808089335', '1263.6191315636743', '1267.1841284120821', '1267.763671651547', '1269.0722317855375', '1265.8568929892872', '1268.454491879501', '1264.8395465822266', '1262.3354687162284', '1269.7489928227299', '1272.54727856671', '1271.4115993861353', '1271.2646922538997', '1270.946177945028', '1270.0499548137652', '1269.4973302341093', '1269.4025317382448', '1267.658025144938', '1267.1848293773878']</t>
-  </si>
-  <si>
-    <t>['1.0005245809750032', '1.0004928904612052', '1.0004516005284934', '1.0003909204620691', '1.0001219846135891', '1.00012852681842', '1.0000485444674063', '0.9998719672360128', '0.9999175734353454', '1.0000218465075863', '1.000048647630116', '1.0000581856141224', '0.9999890116289074', '0.9999882272060848', '0.9998543091721926', '0.999541591393583', '0.9994466631524187', '0.9994537224226414', '0.9966683298580763', '0.9958875816273443', '0.9957985886435056', '0.9954034174515098', '0.9954544950828891', '0.9955775687572237', '0.9986195127404484']</t>
-  </si>
-  <si>
-    <t>['13.53815994106005', '13.585747198249646', '13.63007375579535', '13.664262314348953', '13.686780724109822', '13.69718475008246', '13.740584246100864', '13.779981140694758', '13.730848075462786', '13.736039704336164', '13.751922987191955', '13.775601881621471', '13.793681898934972', '13.873237745505733', '13.896653843551073', '13.867985889082233', '13.836415615111113', '13.793708543571409', '13.783748881771434', '13.761370776244727', '13.776462941451312', '13.736870569561932', '13.706002235762766', '13.712933166944117', '13.725434799749745']</t>
-  </si>
-  <si>
-    <t>['0.000008427010423096', '0.000008426621366577', '0.000008437812299922', '0.000008440912275099', '0.000008445931149315', '0.000008463979493124', '0.000008469760786046', '0.000008463809795775', '0.000008468443950047', '0.000008458799506633', '0.000008458023503702', '0.000008459401394384', '0.000008464622026472', '0.00000846383539238', '0.000008482562828283', '0.00000849232917069', '0.000008489642932483', '0.0000084709316201', '0.000008468092783712', '0.000008453827292067', '0.000008458807617941', '0.000008455481744253', '0.000008438624135843', '0.000008432076505811', '0.000008434749011781']</t>
-  </si>
-  <si>
-    <t>['0.05255664672974246', '0.052582369167002485', '0.05266098770055712', '0.0526995205445097', '0.05266806331233635', '0.052643352393363416', '0.05277041391797701', '0.052766915303351716', '0.05269145282981758', '0.05272808627128623', '0.052783487679485375', '0.0527584882155426', '0.05273489245390849', '0.052813403589023804', '0.05290757936708116', '0.05290065850843477', '0.05288370936549753', '0.052823591214336045', '0.052825462934102764', '0.05274085574122387', '0.05270651314404152', '0.052656081295462114', '0.05261874045947236', '0.052606186697499745', '0.05265123655713238']</t>
-  </si>
-  <si>
-    <t>['5.468285637416026', '5.462207145773627', '5.4653421982188295', '5.483079915837701', '5.492498136427037', '5.495279202366678', '5.4987892732797246', '5.490327626697617', '5.483850942667006', '5.476951351141248', '5.483228628635672', '5.484254941201257', '5.4904647402903635', '5.49990555087747', '5.508998822971698', '5.510622841868614', '5.510451396781538', '5.492614967086954', '5.486159371699564', '5.477609188847444', '5.482137089565905', '5.4792814741968545', '5.469741233161515', '5.463025138768496', '5.455604556696432']</t>
-  </si>
-  <si>
-    <t>['0.4108229439118916', '0.41001319419421184', '0.40921713158303186', '0.4083236814662596', '0.409516427230654', '0.4101289153095379', '0.40980096370312513', '0.4083935100341894', '0.4120009920936159', '0.4108357724130246', '0.41078340872174235', '0.41082742408217315', '0.4116390900448173', '0.4127628021753459', '0.41140219070030265', '0.40999749116152134', '0.41140246585959933', '0.412746572409272', '0.41383501535152284', '0.41382500651606136', '0.41384811331471894', '0.41393344450515346', '0.4140072786491636', '0.4141026943016498', '0.4140977240639463']</t>
-  </si>
-  <si>
-    <t>['11.844917301543244', '11.848352200771107', '11.857358468590604', '11.876129836517126', '11.876453685795935', '11.905646707489867', '11.913031251460758', '11.903804371158119', '11.898224260690396', '11.901593907637507', '11.923673321112599', '11.922629776457136', '11.920318787946327', '11.936293503694955', '11.95086302054886', '11.935631294717732', '11.936442707209665', '11.905599207639174', '11.903125239540982', '11.881972932046553', '11.898207946148469', '11.886425074946883', '11.863448482539763', '11.854805811809443', '11.851176951378743']</t>
-  </si>
-  <si>
-    <t>['10.041255256604657', '10.040536488916267', '10.041693843859022', '10.045947978953146', '10.060751254959799', '10.121821214154702', '10.144802878360064', '10.124325380218533', '10.116161193931777', '10.123615459459929', '10.138485692402382', '10.137646841565491', '10.224594805183637', '10.344141058467535', '10.384651322791354', '10.424521975860285', '10.448814521369885', '10.387774267292139', '10.388747855756852', '10.363050486296878', '10.384855679187966', '10.413439787385574', '10.389424454807475', '10.370015408567301', '10.374308853299823']</t>
-  </si>
-  <si>
-    <t>['2.1685555875372313', '2.172611541871768', '2.1739257724850627', '2.1790342603563184', '2.1825616390553146', '2.1863475578899867', '2.1820178466275837', '2.164545385472884', '2.162750137537569', '2.164017164719862', '2.1624178160445826', '2.1644675627129613', '2.1636047568149888', '2.1624021847788217', '2.1632631902896162', '2.1680713675999304', '2.1693171142041505', '2.171673182688118', '2.1748931751376386', '2.1760266394272625', '2.1747585831509784', '2.1737717212147545', '2.1768426051053775', '2.1781974010898524', '2.1804954913846153']</t>
-  </si>
-  <si>
-    <t>['16931.564855758428', '16935.551693425554', '16930.746334786127', '16920.74780124205', '16921.717207521186', '16934.305686216267', '16937.0700812796', '16928.515694259415', '16941.523564320098', '16942.585861991083', '16952.329786198294', '16948.97551676458', '16949.062030331126', '16954.573000655695', '16949.85082814708', '16954.564291131777', '16978.70766581784', '16975.306778136586', '16968.64825221208', '16964.96252677377', '16962.4224726878', '16957.69983222072', '16955.867955999198', '16952.101076729963', '16950.843213343316']</t>
-  </si>
-  <si>
-    <t>['155.30296344567586', '155.2907889169239', '155.24507420610522', '155.357881017324', '155.47645164517613', '155.4180581369747', '155.41270172871958', '155.20721014325815', '155.291309917084', '155.31193600168496', '155.3468802913244', '155.03853890942477', '155.01718674501345', '155.03886662964217', '155.26345421330453', '155.30930349605075', '155.261819341251', '154.9306842476383', '154.832353484513', '154.68700697253118', '154.75421641741846', '154.79038065276163', '154.61827893898135', '154.6693939070411', '154.78789000095506']</t>
-  </si>
-  <si>
-    <t>['19.992464413802047', '20.01741517273766', '20.03073784545991', '20.151912274259406', '20.164100424088183', '20.199833510352583', '20.327356154013536', '20.297822237447278', '20.27846630821924', '20.276453498491055', '20.290274581753234', '20.236768947938085', '20.218619882902843', '20.246697884236962', '20.310000034901254', '20.268116300953643', '20.244509355459574', '20.17104748291607', '20.145798245716197', '20.095429069872466', '20.093244570515875', '20.02231033394522', '19.958435890194732', '19.913091041686837', '19.85268066615648']</t>
-  </si>
-  <si>
-    <t>['4.703721467563866', '4.7069059132838795', '4.7083633974064005', '4.699824983472903', '4.695977620609417', '4.6918086249201165', '4.695350118923726', '4.68794472756965', '4.678653548681271', '4.675914070052008', '4.6847250642751765', '4.6917844213649715', '4.691448229607325', '4.698286836216226', '4.691525256150482', '4.689478835096618', '4.694950369750642', '4.703026378891994', '4.708350943060237', '4.714399559844198', '4.7271659982632555', '4.710714286302153', '4.691766568416292', '4.694289012338011', '4.699451459846565']</t>
-  </si>
-  <si>
-    <t>['101.95030619249367', '101.94289626000163', '101.97268790669713', '102.03125664089173', '102.00893994630039', '102.21846467452966', '102.29446805637956', '102.30398885164021', '102.25140508661859', '102.3021644865817', '102.33591970456382', '102.32664451877301', '102.308001634295', '102.37950767430115', '102.4119888674811', '102.623601663005', '102.62207987497627', '102.541195829479', '102.37904406171013', '102.27898924479283', '102.18040387978743', '102.02683188779025', '102.11130636812538', '101.89073014478198', '102.0844114079602']</t>
-  </si>
-  <si>
-    <t>['1.6078008893106146', '1.6075772548890719', '1.6101191677058433', '1.617128894214008', '1.6194624299331157', '1.614250796716979', '1.6078459817953383', '1.6115903244409286', '1.620729951547045', '1.6267908739214236', '1.6216352348135286', '1.6276074594654084', '1.6316815961553313', '1.6336330422850955', '1.6359747369490751', '1.6412315729217914', '1.6371696317380402', '1.6305105889664062', '1.63443609634819', '1.6290848842308085', '1.6254047018863615', '1.628887050434381', '1.6276056843334548', '1.6229526648990933', '1.618118474456433']</t>
-  </si>
-  <si>
-    <t>['1.3932563671549825', '1.3965988667275526', '1.3997400178979105', '1.4005162672798441', '1.4010481443396987', '1.4046084796986937', '1.4023417810829601', '1.404448474219079', '1.4035348635530003', '1.4024988301644303', '1.4047791185713632', '1.403581599701164', '1.403725140302349', '1.403686291979071', '1.4045602917414328', '1.4047754211278292', '1.406064511386072', '1.4039044512907457', '1.404337039218643', '1.4027049662367255', '1.4039008740775996', '1.4035132986009147', '1.4007531468615388', '1.4012335985617537', '1.3968280582380896']</t>
-  </si>
-  <si>
-    <t>['0.07524867482495905', '0.07522036080532522', '0.07518854773399919', '0.0752772558076513', '0.07530757974538133', '0.07544227305847998', '0.0754474734612599', '0.07539745726650318', '0.07532212533801584', '0.07532234510930187', '0.07538117380902996', '0.0753577606693549', '0.07534875802686623', '0.07538434152463606', '0.07554898586039101', '0.07558534240000017', '0.07557904366254771', '0.07539131446404614', '0.07530938698612577', '0.07524500250201613', '0.07532277086027796', '0.07528419192603801', '0.07516890398940343', '0.0751186131164169', '0.07516436054967367']</t>
-  </si>
-  <si>
-    <t>['0.1927106450379039', '0.19303424639497077', '0.19287854804347707', '0.19306210903128795', '0.1931436760557794', '0.19381579006140887', '0.19417240256121793', '0.19402344359354043', '0.19379131405962563', '0.19381226701536988', '0.1940463212836634', '0.19392308284430923', '0.19400881916598406', '0.19405038688684756', '0.19430565864553434', '0.19437194785885145', '0.19426827406208844', '0.19380097601588944', '0.19407087159092326', '0.19421681434401122', '0.1947873154789147', '0.194598274643034', '0.19411053069489437', '0.1937730505235741', '0.19320251329779012']</t>
-  </si>
-  <si>
-    <t>['0.9998983486428895', '0.9999250498279926', '0.9998335047647872', '0.9997976744226262', '0.9989640118218633', '0.9993214077378878', '0.9994655450047385', '0.9992063538027037', '0.9989949718067612', '0.9994655895660491', '0.999103345580614', '0.9993395824454273', '0.9998249659550933', '0.9996650664710103', '0.9992896787094286', '0.9984597609810001', '0.9982105960106971', '0.998556863806758', '0.9989460782240307', '0.9994903757635586', '0.9996013207346535', '1.0000847784401328', '0.9999308060986817', '1.0003114628583827', '1.0000562368787258']</t>
-  </si>
-  <si>
-    <t>['1386.0399919127274', '1384.4127205506995', '1382.7692026480452', '1378.6822754139898', '1381.1290107589427', '1382.1098942260653', '1382.346837399572', '1380.5129328338114', '1386.1621801307863', '1386.6233987149576', '1391.9916297075233', '1384.95109821899', '1387.87522214279', '1388.1558651917435', '1380.936940821161', '1387.2290229325902', '1395.311302273047', '1392.8929496414244', '1391.516391399437', '1391.1768694024825', '1390.2603578615547', '1389.545245014708', '1389.7126645530002', '1390.0298461060793', '1388.5843905778902']</t>
-  </si>
-  <si>
-    <t>['11.66270734538273', '11.671753167562974', '11.694087986835589', '11.714960181979599', '11.740989123328342', '11.784631636740055', '11.815269274038066', '11.769300604236948', '11.760700401986345', '11.787221010933287', '11.815172515007754', '11.80487366185918', '11.798941164652906', '11.799122154489009', '11.812177806922298', '11.821117553597208', '11.82913497459603', '11.818917220900955', '11.781560056815122', '11.76206130228409', '11.76090589593392', '11.753768493830803', '11.722638015090304', '11.721066693191059', '11.722416328819886']</t>
-  </si>
-  <si>
-    <t>['3.295117112721721', '3.294611011649813', '3.2951777883212614', '3.297210278619704', '3.296573278082277', '3.2960455204732133', '3.2978063426430237', '3.300736922706937', '3.3016499117723757', '3.300376752730036', '3.30314636144757', '3.3029073772513593', '3.303924708075395', '3.3145786334825433', '3.3287311930520103', '3.3342375431801696', '3.333542382144856', '3.328008336888552', '3.3277800866983913', '3.3205585238726716', '3.32283990703889', '3.322920479051678', '3.3200503252828493', '3.3201810171695274', '3.317902364467202']</t>
-  </si>
-  <si>
-    <t>['4.030498731064614', '4.0367151087453035', '4.051287434066244', '4.061846114631897', '4.064525073060594', '4.0789707858717765', '4.078583277025722', '4.070888624111878', '4.072143821008753', '4.075628207121745', '4.07854358021995', '4.078630185480627', '4.076624390183283', '4.076279924833929', '4.081324643544237', '4.076080645668607', '4.071673951189599', '4.056437109746923', '4.055291636384371', '4.051635947209813', '4.056134075265141', '4.053354291732798', '4.0362278583587905', '4.038215619884352', '4.041816478785202']</t>
-  </si>
-  <si>
-    <t>['3.358866136607205', '3.3584013939842547', '3.3579173624670395', '3.370461202648211', '3.37504406632581', '3.3779938050642233', '3.383106106218256', '3.375085182233', '3.3735942725863683', '3.373135554630456', '3.375535130462004', '3.3714381510601537', '3.374596269142064', '3.3775761135565965', '3.3816309629154926', '3.3863060807926697', '3.3834251843537833', '3.3757613248662337', '3.375397644757989', '3.375125394393189', '3.3899123026356897', '3.387552263865188', '3.3806515722161246', '3.3793066300822114', '3.3808519211764856']</t>
-  </si>
-  <si>
-    <t>['0.016427406830553964', '0.016423709320937226', '0.016419280644693238', '0.016408630519466654', '0.016407351218743153', '0.016430637663198754', '0.016510706718797636', '0.01650593309245297', '0.0164909526071118', '0.016479966048517928', '0.01650044015185711', '0.016495172318024907', '0.016495848459990914', '0.016524326008663284', '0.01652457642432142', '0.01652532251236958', '0.016545387462983816', '0.016540299597023956', '0.0165385631006167', '0.016511345475165376', '0.01650962124129661', '0.01649209371098203', '0.016479060221240557', '0.016491799183134516', '0.016492829198344574']</t>
-  </si>
-  <si>
-    <t>['112.23709371953035', '112.27270035739348', '112.41013002857818', '112.38040081471895', '112.2881794096084', '112.29118879175918', '112.53677579636273', '112.53878543262653', '112.69802737382241', '112.81770513676504', '112.92824745308307', '112.87655018151949', '112.8530534577392', '112.90387273817349', '113.16568674152698', '113.23757723993596', '113.28021297273884', '113.02205055330464', '112.93258741236883', '112.75972264178573', '112.86652396813739', '112.78805126598628', '112.53295577652537', '112.31893445500687', '112.26920554774811']</t>
-  </si>
-  <si>
-    <t>['0.00015384216347279', '0.000154054514531484', '0.000154121295885975', '0.000154084807410594', '0.000154138444430936', '0.000154098672778197', '0.00015413874658621', '0.000154251119631339', '0.00015421866427125', '0.000154431515194902', '0.000154588690186541', '0.000154392341038623', '0.00015445753939824', '0.000154510245504523', '0.000154842819892972', '0.000154801177806057', '0.000154852223451547', '0.000154611318663895', '0.000154549336874047', '0.000154236003048267', '0.000154173151943812', '0.000154109242150099', '0.000153990772698763', '0.000154068028144004', '0.00015393218785137']</t>
-  </si>
-  <si>
-    <t>['0.9978478075802037', '0.9977670848412726', '0.9980652844889245', '0.9978883053898209', '0.9975849167531279', '0.9978578209226583', '0.9975187609024272', '0.9975743964992208', '0.9988541950214683', '0.9975350042341863', '0.9974525767545647', '0.9977797975286591', '0.9975311103575856', '0.9973738157056916', '0.9963535524555952', '0.9969747524323893', '0.9969821015269635', '0.9973808454264904', '0.997343937192248', '0.998132670604796', '0.9977786497030624', '0.9980406230102973', '0.9994588526811736', '0.9993023922599211', '0.9995171148466075']</t>
-  </si>
-  <si>
-    <t>['0.040347119717924936', '0.04035671959132821', '0.040236327812173775', '0.0402407429975531', '0.04034703079142108', '0.04042251600971122', '0.040571615960002895', '0.04052129363553736', '0.04049392489755927', '0.040556697755785694', '0.04056025086457655', '0.04058086504776124', '0.04062055834431963', '0.04060858416003113', '0.040656185766962234', '0.04061123072671956', '0.04057150010515925', '0.04053965742028661', '0.040473905224845584', '0.04033331997407258', '0.04035675978995755', '0.04036084563472832', '0.04032591378233653', '0.040290794473914676', '0.040294834981660164']</t>
-  </si>
-  <si>
-    <t>['0.060757826812186055', '0.06075024905915171', '0.060786260650642104', '0.06080193676559293', '0.0608750180430883', '0.06097930001641896', '0.0610297092899653', '0.06107205991233887', '0.06107728099333543', '0.061063958827295685', '0.06101204347112664', '0.06101427758519134', '0.061075556057516876', '0.061139429350983245', '0.0611882226907863', '0.061260206014067134', '0.06128050060674649', '0.061206787915320665', '0.06118020814806283', '0.061172043840962226', '0.06117716895391522', '0.061189843647994714', '0.06116395197236924', '0.06089768517358748', '0.060917037654131555']</t>
-  </si>
-  <si>
-    <t>['0.4545599556241653', '0.45425157273553873', '0.45469986311052746', '0.4565866895702376', '0.4579332452004157', '0.4624301496889456', '0.46721412656364625', '0.4645841039999056', '0.4641060360542627', '0.46529000677542404', '0.4695414658943754', '0.4724969011127206', '0.4719187791137826', '0.47111679812895907', '0.471505777241986', '0.47122560032655264', '0.4699213896360403', '0.4678121729047916', '0.46954397662326885', '0.46830631265414724', '0.4679305574355009', '0.4669242374769005', '0.46524383639304834', '0.46521265439746456', '0.4644240554621006']</t>
-  </si>
-  <si>
-    <t>['1.5647513459805917', '1.5652187414192915', '1.5659136321381306', '1.5700901503588163', '1.5721511987758505', '1.5798413458652485', '1.5918042192208335', '1.5891898176788406', '1.5875518536982325', '1.5844074983218954', '1.587509268918596', '1.5869616007160545', '1.5887538874041713', '1.5917260747201771', '1.59713846877527', '1.5938066976980125', '1.5931579929076254', '1.5874900196203763', '1.5880738542304857', '1.5853148531770649', '1.5869272718215814', '1.585890407447924', '1.583935663446756', '1.5849090374660368', '1.5803124455213284']</t>
-  </si>
-  <si>
-    <t>['5.227275495417005', '5.22826002859347', '5.234516972760308', '5.231555954480794', '5.226763089115377', '5.221745753359732', '5.222076077418159', '5.224532436297711', '5.247316431854564', '5.232375356349628', '5.2363497588713965', '5.238508148542245', '5.246004946681925', '5.254349140640814', '5.25054582486858', '5.258730496362438', '5.262718629741053', '5.269840042201625', '5.2753233635544925', '5.27299625838642', '5.268653976015761', '5.270966254961917', '5.270149971420862', '5.26529361463555', '5.261339081411228']</t>
-  </si>
-  <si>
-    <t>['0.8861538772494149', '0.8859666253111024', '0.8862325081063582', '0.8869872742447172', '0.8871557201147792', '0.8893008407341951', '0.8909858979287558', '0.8896037407043048', '0.8897885787896962', '0.8902833564619955', '0.8908634465004277', '0.8904886091176591', '0.890115814677551', '0.8906023535256438', '0.8921862189540858', '0.8935277000449321', '0.8944724064255449', '0.8936345150288891', '0.8927847401981097', '0.891511519426856', '0.8909804787992459', '0.8906694267881123', '0.8898298812193526', '0.8890224221190104', '0.8893310689629206']</t>
-  </si>
-  <si>
-    <t>['1.0034096738530873', '1.0029949171603991', '1.0038529653734245', '1.0036912655033174', '1.0019201401412619', '1.0036489440876166', '1.0035397645184345', '1.003440291317145', '1.00157864695304', '1.0026780317252826', '1.0037994406616437', '1.0038629678531745', '1.0038509361931252', '1.0037592110941325', '1.0033343159226986', '1.0032116991380577', '1.0035110730681436', '1.0038770236189787', '1.0043261408551345', '1.0045041708533788', '1.004626518314237', '1.004525786577113', '1.0047323216806348', '1.0050140876729539', '1.0046799580271961']</t>
+    <t>4.43</t>
+  </si>
+  <si>
+    <t>-86.50</t>
+  </si>
+  <si>
+    <t>-83.96</t>
+  </si>
+  <si>
+    <t>-86.08</t>
+  </si>
+  <si>
+    <t>-73.87</t>
+  </si>
+  <si>
+    <t>-81.30</t>
+  </si>
+  <si>
+    <t>2.03</t>
+  </si>
+  <si>
+    <t>-95.00</t>
+  </si>
+  <si>
+    <t>-89.73</t>
+  </si>
+  <si>
+    <t>-89.00</t>
+  </si>
+  <si>
+    <t>-91.24</t>
+  </si>
+  <si>
+    <t>-91.04</t>
+  </si>
+  <si>
+    <t>-74.83</t>
+  </si>
+  <si>
+    <t>-97.96</t>
+  </si>
+  <si>
+    <t>-77.14</t>
+  </si>
+  <si>
+    <t>-53.25</t>
+  </si>
+  <si>
+    <t>-80.40</t>
+  </si>
+  <si>
+    <t>-88.83</t>
+  </si>
+  <si>
+    <t>-73.04</t>
+  </si>
+  <si>
+    <t>-88.55</t>
+  </si>
+  <si>
+    <t>-84.42</t>
+  </si>
+  <si>
+    <t>-92.24</t>
+  </si>
+  <si>
+    <t>['38591.72406228421', '42512.68622880577', '39737.29804217533', '39878.119013455056', '44961.021205037265', '42352.44190326708', '39769.42751841872', '33863.764382205285', '29586.185943062203', '30096.591040915515', '21061.104447023983', '20316.53012901986', '21576.863069322866', '22937.257140575504', '23418.16834405875', '20504.8765167132', '20340.420315275675', '19198.67454071942', '19477.8406057256', '19771.66722417097', '19317.836213389306', '16504.12398914267', '16934.159140406427', '17005.919514730063', '16735.94138030655']</t>
+  </si>
+  <si>
+    <t>['2736.1164774398917', '2990.032001019499', '2717.9609831158914', '2675.409286514287', '3225.0725625522105', '3186.532040014412', '2949.6114202008944', '2466.918844592231', '1947.9359363919561', '1789.9762724694026', '1140.4020443801003', '1140.0737987345444', '1360.372032564157', '1631.7762023321493', '1821.103452258032', '1574.3833837894922', '1604.7358323860576', '1324.6656399172894', '1314.8208254653216', '1406.9884708293707', '1457.7931130601391', '1195.0113133790292', '1256.515406175654', '1229.393614928996', '1223.5130584464123']</t>
+  </si>
+  <si>
+    <t>['1.0016780543547772', '1.001477176159752', '1.001139564389186', '1.0011308843470546', '1.0021827771517176', '1.0020537367892608', '1.0025992161313424', '1.0038727336022815', '1.003103265526468', '1.0021336491094321', '1.002685217663328', '1.004698116354457', '0.9997769381328233', '1.0001306847151523', '1.0004152947530853', '1.0001454144276534', '1.0004334139251536', '1.0002826464496508', '1.0003955273598728', '1.0003596178283405', '1.000213719492467', '0.9996340531560205', '1.0002775482150796', '1.0004167763654255', '1.0000007092243566']</t>
+  </si>
+  <si>
+    <t>['1.0011325177420576', '1.0013117910350897', '1.0011009184888828', '1.000993822231306', '1.0006304061331368', '1.0030340083275648', '1.0033833367265264', '1.0059800926644693', '1.006046082579934', '1.0048328336586851', '1.005395896563874', '1.0029782549675617', '1.0002586300805278', '0.999859529761464', '1.0002342099906063', '1.0001721449697893', '1.000370781460758', '1.000289364772362', '1.0003855675692261', '1.0003292428462152', '1.0008918019622446', '1.0004735313495399', '1.0001749888049518', '1.0003069261669062', '1.0002774194405462']</t>
+  </si>
+  <si>
+    <t>['400.21694986942674', '411.9388623102262', '379.95702808556393', '380.97104642651004', '423.61388024048716', '424.8543525020063', '403.7651032069334', '341.4815832616634', '310.09852811938975', '296.67377758915944', '221.64754895834992', '229.41147098847878', '248.57296730984925', '286.40671294645955', '314.2324199180114', '286.1023037334925', '281.47761247532475', '275.3441644019092', '279.03901949306953', '280.85844020130537', '318.7358795398814', '279.57000310010625', '291.55370809685274', '253.07951041814863', '249.9018703032495']</t>
+  </si>
+  <si>
+    <t>['0.6459091419353621', '0.814932582766076', '0.7372573994600744', '0.7699019836385512', '0.8410207011267415', '0.7662483611502936', '0.6908594599551348', '0.531538337180809', '0.4098052898029511', '0.3958198026910479', '0.3308663186180686', '0.3313298020559657', '0.3455561827608587', '0.36668068617623484', '0.3693468129144762', '0.33491200070827815', '0.3446284578981374', '0.4469966468605044', '0.49119324940601805', '0.46256064549519743', '0.43225633696132376', '0.3779726021351102', '0.3902441314827161', '0.3595833388093887', '0.3461872878586449']</t>
+  </si>
+  <si>
+    <t>['1.0009275503385573', '1.001027454348849', '1.0010219007666006', '1.0011187367091388', '1.0008352801076075', '1.0037718682040593', '1.0042580548012605', '1.008647649933446', '1.0058478382130234', '1.0045142542114789', '1.006581918156497', '1.0037196904711612', '1.0002809942256332', '0.9998671382854151', '1.000294689735251', '1.0002316012980255', '1.0004165660862878', '1.0003458129041565', '1.0004173792243898', '1.0003462632113467', '1.0011154444737467', '1.0007851206424687', '1.0003023992535294', '1.0004313290951032', '1.00042394577881']</t>
+  </si>
+  <si>
+    <t>['1.145142410345086', '1.088797624014093', '0.8910179480269363', '0.8229436887708286', '1.1188026083317137', '1.0322790738550454', '0.876254584864004', '0.6841603106021034', '0.5192305561779741', '0.586713333172695', '0.48381693565301853', '0.46537943772139456', '0.4683591549045511', '0.5064732172455709', '0.527169510925512', '0.45738868284537776', '0.48588847704854493', '0.44428000700329795', '0.4054981012905621', '0.37454125587829273', '0.385776791723661', '0.32104128792324865', '0.3148274188399081', '0.27488152653991843', '0.25896147774723904']</t>
+  </si>
+  <si>
+    <t>['0.14635893754199597', '0.14923437876824105', '0.12798292824930924', '0.11717994490748972', '0.13667614174588544', '0.14600987231915197', '0.13879712504621292', '0.11330397175658904', '0.08477176495827048', '0.08068417841848213', '0.0609686315878577', '0.0687286485203094', '0.06554367681368836', '0.06747844769219909', '0.07418668980674921', '0.06451368207773006', '0.06171760387905241', '0.060381032244183966', '0.06108240948986215', '0.07093709115933723', '0.11035797822308255', '0.08368456540509217', '0.0998509535405273', '0.08044195792841095', '0.07169630796419307']</t>
+  </si>
+  <si>
+    <t>['1.7245633425961093', '1.769969854980458', '1.511063611042342', '1.4375966859210905', '1.6238266085291602', '1.4619074606001778', '1.310935522772754', '0.9119437308444803', '0.6456937171841983', '0.6085088925002893', '0.45158100508111504', '0.5183615470886349', '0.7638657449861191', '0.8911222355268609', '0.9104489891080946', '0.8280909792591844', '0.8584809298165743', '0.7538933521568267', '0.8106841799367658', '0.8782261265079885', '1.0203412651207429', '0.8686001102358938', '0.8990834690953676', '0.8321385533238381', '0.7860067431636105']</t>
+  </si>
+  <si>
+    <t>['22.26632461299021', '21.369849357167524', '17.82062180617906', '18.533649868370354', '21.073291053297115', '19.853790771410686', '19.427904613103927', '15.597841993670807', '12.258208654343106', '11.555142821035028', '11.328325319603406', '12.423210007652155', '13.661150470428604', '17.40993196554277', '19.839393722813348', '16.298259150894424', '15.555658417196042', '15.292918575906667', '15.977018944760914', '16.042008642268783', '19.317995798890486', '19.935719214239658', '21.300092004689457', '22.30162336362049', '26.213075141581292']</t>
+  </si>
+  <si>
+    <t>['17.73099070002925', '16.75625646620251', '14.192818650479058', '13.752257997608583', '16.461056552919697', '15.135324612995925', '13.134815414905756', '9.48497238620585', '7.063063344099664', '7.672278409423701', '6.648604255977376', '6.34158267639157', '6.60841114600467', '7.354195224684626', '8.381670159137977', '6.825704415212255', '7.52628938442951', '7.462217367114761', '7.359807750738602', '7.053165069633946', '7.6395815200631185', '6.360497298921516', '7.199652607496749', '6.20015026781011', '5.715370765649133']</t>
+  </si>
+  <si>
+    <t>['107.86017613049599', '101.57974610344407', '90.99971564274378', '84.57572060169049', '109.81486012890714', '111.81694594859945', '99.46929228760663', '70.84380238751845', '49.46339064948705', '40.08907360892343', '34.07344835563459', '35.690762110655555', '39.167431372405', '40.319583113995314', '41.795565185402964', '32.83434879770964', '33.720043688819466', '32.767794006798496', '32.09105805243607', '30.1062122632091', '26.535105189510443', '13.518347137390084', '13.661585848707453', '12.597210975588782', '11.503873715998667']</t>
+  </si>
+  <si>
+    <t>['20.225666451077565', '19.663642994950592', '17.287888610865792', '17.934578469824274', '21.433975064723732', '19.491634941566748', '17.63686645622998', '12.697832460391641', '10.000919507641612', '9.36713076369715', '7.567035200252788', '7.080274459329279', '7.106931781243352', '7.983613415417207', '8.694046440188401', '7.258030909638743', '7.321680055016169', '6.368437275551914', '6.271307117332233', '6.195829324497863', '6.402898850623418', '5.518232551676853', '5.408938347064051', '4.772211246622748', '4.4875218044369465']</t>
+  </si>
+  <si>
+    <t>['117.57643263929955', '126.972090448499', '107.03962873775797', '106.39272016150362', '125.03813418517156', '113.06244930794799', '105.06438914192293', '86.06515163943509', '67.90053980537229', '62.21360180705176', '50.862308299668896', '52.3818788526534', '54.1904796136732', '59.244278290157936', '60.49627865802615', '56.10592427313072', '59.13164274246882', '53.099558580543786', '52.78964604575852', '53.36992410125883', '61.42862192261697', '66.0107779364406', '77.18539086121525', '68.57766191918543', '71.89281813217505']</t>
+  </si>
+  <si>
+    <t>['3379.8957358107714', '3028.889102367913', '2819.225349418405', '2064.191685130708', '1869.3723138577168', '1426.6733181827155', '1130.225417769815', '1173.2674908385875', '1572.193714908427', '1754.6340407550606', '1682.625551719419', '1600.989829775414', '1438.7474624940928', '1330.417335751271', '1299.595548228655', '1547.9072995316424', '1324.8349227968597', '1223.3464906421839', '1165.3194284600208', '1249.23293172535', '1261.4189385361624', '1249.5400565290588', '1209.09238865581', '1202.700673108324', '1244.0722261681706']</t>
+  </si>
+  <si>
+    <t>['0.000022927003635677', '0.000029997671954673', '0.000024832566362048', '0.000022637794458061', '0.000025450123134389', '0.000025441936770743', '0.000023781603643435', '0.000017064630447081', '0.000011644072335544', '0.000010801203988044', '0.000009141197118732', '0.000010581874080129', '0.000011241773175785', '0.000011700323950026', '0.000013681728364524', '0.000012648833473251', '0.000012342945650385', '0.000011011342209436', '0.000010766494448904', '0.000010596944180932', '0.000011295456615172', '0.00000901859592253', '0.00000925955065907', '0.00000855783431186', '0.000008228219996641']</t>
+  </si>
+  <si>
+    <t>['1.0022825521334875', '1.0016985699782577', '1.0015441979946271', '1.001923597377565', '1.002013905882314', '1.0016395215516227', '1.0026811606717334', '1.0023012448493052', '1.0018432989526904', '1.0024380486078406', '1.0011403576703284', '1.001354971259538', '0.9999864244631973', '0.9998062296735606', '1.0025526588521276', '0.9997953250338083', '1.0001727310653903', '1.0000638373419288', '1.0002012297092586', '1.0001971254372173', '1.000954097553238', '1.0004878987334096', '1.0000701713694597', '1.0002290852555518', '1.0000492456832353']</t>
+  </si>
+  <si>
+    <t>['0.06120237260940845', '0.06572213771955411', '0.06045935203552631', '0.060398120206371565', '0.06855396728618414', '0.06350801991056328', '0.0646285251646607', '0.0765982345470244', '0.07671218501836662', '0.08127925830876936', '0.0624039271492085', '0.06689608268020224', '0.06727624372498363', '0.06844217448224367', '0.06880514156236725', '0.06382795853591303', '0.06232760173303296', '0.060173938769281766', '0.062223060693978566', '0.06254158457174298', '0.0603268492253916', '0.05110665660191459', '0.053891450273108314', '0.05451030613543459', '0.054025494091821454']</t>
+  </si>
+  <si>
+    <t>['12.083378255720792', '11.028112890100786', '9.277565309817858', '8.87392015139783', '10.902696246932795', '10.065077626125058', '8.598446784406098', '6.387680543973763', '5.213886052693427', '5.130454104411948', '4.474095911228233', '5.33818621934329', '6.774317186288607', '8.35250619860753', '8.383552189101122', '6.477483260318378', '6.2320583420719515', '5.950380485319832', '6.428455434007151', '6.475838372772145', '6.634605437477313', '5.656102732829517', '5.980806187486747', '5.498746702866032', '5.27328260921967']</t>
+  </si>
+  <si>
+    <t>['1.6141908988961702', '1.6058210237147763', '1.254219403538431', '1.098962786191054', '1.258121996879468', '1.2268755803758813', '1.2403089344899367', '1.0168755009545676', '0.7897435042299165', '0.5967577393397622', '0.4373215422780458', '0.4413113074855275', '0.48740537418582985', '0.6747711630487105', '0.6069087523706299', '0.5665467703142941', '0.5929315012851706', '0.48213073604240314', '0.46022397096025836', '0.4343476758095783', '0.38307006168317975', '0.29532600501315237', '0.30475009068624404', '0.29483011698179873', '0.3545166844798218']</t>
+  </si>
+  <si>
+    <t>['71.81690014622667', '86.0249089143112', '78.14198522630848', '75.49831317692727', '90.85137282897699', '83.08983355136003', '71.40729012967535', '48.20206950472689', '28.967272617124365', '24.15178830267484', '17.212366195889206', '18.243304425595163', '21.541498598628753', '23.671967405150266', '27.00152812533668', '20.57109938316553', '19.330278427766437', '17.264617919822022', '16.498585280820805', '16.440017094469905', '16.95915808918279', '12.822098617045278', '13.269624338853927', '12.308922323349531', '11.406725762769401']</t>
+  </si>
+  <si>
+    <t>['32.370389300645115', '28.58292683557413', '28.45206208723036', '28.000515501973137', '29.44844688648135', '26.517298629500235', '22.064248456888546', '14.817258378888015', '10.73936933647951', '9.138091928575276', '7.033675384435268', '8.33434619320235', '9.408362888250448', '10.31305189416074', '11.474131448304341', '11.852415722634671', '14.590527389508424', '13.814069327260697', '12.4578006064867', '12.31917799797905', '13.169610642198313', '9.933261385693731', '10.052773670514554', '9.117334204878288', '9.67633003212734']</t>
+  </si>
+  <si>
+    <t>['38520.090402113885', '42470.60664587273', '39706.55210351134', '39863.22028701613', '44950.41226881395', '42287.01209516221', '39766.72631180251', '33833.444684746086', '29551.36567185186', '30075.292937840288', '21093.954062789646', '20331.066848636892', '21565.632680518203', '22930.69488962625', '23478.741340769535', '20605.015614418055', '20343.004458001065', '19199.56380585815', '19476.583618912202', '19771.045194532428', '19308.698720897275', '16428.947460472336', '16889.515113188718', '16979.056579549117', '16707.51926514301']</t>
+  </si>
+  <si>
+    <t>['2.696158345921625', '2.663569155685509', '2.0912881633938483', '1.8330509264652197', '1.8793601023000228', '1.8783591014054293', '2.05720442663272', '1.7308365003271875', '1.4268294561231853', '1.268381208900646', '0.9814681353480793', '1.1099687705130696', '0.9436306641635234', '0.9484141950171915', '1.2169040422897517', '1.4133467047819128', '1.763197290112359', '1.3630804714220395', '1.3042993666276916', '1.474181317586222', '1.58404465104561', '1.7179299617390107', '1.7940224179851607', '2.4100036110000405', '2.1784194927628495']</t>
+  </si>
+  <si>
+    <t>['163.56494878472793', '173.58309098583683', '159.91736958524268', '182.92118002678257', '209.02190845743957', '229.44591711069862', '248.50896109589488', '186.69580862768447', '179.6049495369233', '188.35317462939838', '119.26389395617146', '121.72359355926918', '139.5538320855845', '157.50479182277135', '162.21309797493188', '151.16762358503624', '152.509606443132', '143.30859422217563', '144.15608140930553', '144.90909838829845', '143.76821877833996', '132.34429934071156', '144.01739373659044', '146.29694204921142', '149.21119820049628']</t>
+  </si>
+  <si>
+    <t>['27.03268786969955', '31.924582454666858', '27.95578483805805', '27.587467859038647', '46.47217880421665', '40.49046675061491', '33.262565168186576', '24.915739227348254', '21.784259527068013', '21.68158772128627', '15.229838925198724', '15.33339278085942', '20.044172174172218', '34.9034618857845', '39.22996736455472', '33.3649496106231', '36.621428706679346', '28.327957848581192', '25.65587945560689', '23.75138282928994', '23.336667010684494', '19.59029208400535', '19.42836686375964', '16.976092627131354', '16.964444546849005']</t>
+  </si>
+  <si>
+    <t>['9.221411010574721', '9.885698727194908', '9.21179858203383', '9.03183271864627', '9.24348770338506', '9.424503820927422', '9.386983777783573', '8.382154746997196', '7.002600913471232', '7.101197531326374', '5.407548371016778', '4.6877705247235255', '4.641891696764558', '4.412778120340554', '4.703868099775093', '4.743628644350314', '4.673198839544711', '4.4621510454118125', '5.365845281668377', '8.40366653683394', '7.419170566939167', '5.116389339682333', '6.620109574347926', '5.689153254137952', '5.080935755598031']</t>
+  </si>
+  <si>
+    <t>['1.8801638703688022', '1.7601185870493585', '1.79679793406518', '2.5723568623434074', '3.761688624662332', '3.4860634704868754', '2.9965975837959675', '2.2851939108427906', '1.2497033522042664', '1.0266873164670223', '0.5703566637111279', '0.5630026528645368', '1.2715079302241665', '2.1847024208938493', '2.485069294547095', '1.9584598660804287', '1.9248204876070878', '1.6803316263586159', '1.4115756102481716', '1.5514327585231305', '1.4230108915369832', '1.1522597901946507', '1.0778366188637443', '1.0048444177957074', '1.1774581036494693']</t>
+  </si>
+  <si>
+    <t>['311.7181064074414', '328.7807068159366', '304.7403164266131', '294.44310640568887', '367.2803735090009', '336.4839015961983', '313.46368273561546', '248.1047168621237', '191.93725424604156', '181.63686693705122', '121.36780457507237', '108.63407975640641', '113.5470476250347', '136.9289313385074', '135.26287509244239', '120.48271105464718', '123.23509858618281', '115.34277648878992', '114.59109523614103', '111.06959518375618', '111.5257172341501', '107.57709110642756', '110.82349022814914', '103.54687263309692', '100.06740270522398']</t>
+  </si>
+  <si>
+    <t>['0.5683063846393769', '0.5781321436858933', '0.5961277056000405', '0.7270477295965018', '1.1816765823427986', '1.1418160925908398', '1.1423717044250081', '0.8154922363324429', '0.6560465672853683', '0.6267723856841212', '0.7505414781880863', '0.7641552751257462', '0.820655885646051', '1.010240065419866', '1.1131799933883577', '0.9835273189960446', '0.9966019287277178', '0.909604344245286', '0.9498169925331156', '1.115631942578879', '1.2254652584718375', '2.1448310265913317', '2.332439515100896', '1.789088667025596', '1.3930275681115574']</t>
+  </si>
+  <si>
+    <t>['0.20980408685901236', '0.21966090556358775', '0.18593989421998436', '0.18314883436257867', '0.22183707291290128', '0.20644221035263904', '0.1902334183309819', '0.1554957801062354', '0.1304946069205546', '0.13970440176327895', '0.11511699307031076', '0.11135274303416184', '0.10953829458424562', '0.11535737760758474', '0.12160999851773564', '0.10631023659932427', '0.10772330065685505', '0.1154072574786703', '0.11850640324587487', '0.11180723736362745', '0.10409030673734188', '0.08880278998461318', '0.0867472867245648', '0.07779710211294011', '0.07331452980574509']</t>
+  </si>
+  <si>
+    <t>['1.0294731558193733', '0.9531241358105762', '0.8075064124696574', '0.7300738245470296', '0.8985859625623485', '0.7745648775857369', '0.6936609137532161', '0.5968738002470851', '0.4235528022291316', '0.390626614097717', '0.32020762162502703', '0.31364922320552896', '0.33298889848210844', '0.3346640999755348', '0.3476328875623486', '0.29730488162830665', '0.30711939741931876', '0.3526979181821103', '0.3333363321014374', '0.32303457974176303', '0.35284285815612426', '0.25864879693491294', '0.2346983853786354', '0.19128141834717174', '0.17720419374975688']</t>
+  </si>
+  <si>
+    <t>['0.9999399915073326', '0.9999251783354367', '0.9999578311159681', '0.9996885495104952', '0.9996877166974218', '0.9996990221864209', '0.9996026238588724', '0.9996050671627773', '0.9993936637284905', '0.99966558394246', '0.9993263960347483', '0.999233065839161', '0.9995519095915091', '0.999709638541132', '0.9997670407139492', '0.9996474718955132', '0.9996645545637111', '0.9997145144625101', '0.9998354459132195', '0.9996685909458856', '0.999970200444102', '0.9994948714066952', '0.9997942278917942', '0.9996363343657728', '0.9995340078356862']</t>
+  </si>
+  <si>
+    <t>['3207.0585214759126', '2955.5433333319597', '2858.032532728118', '3087.993118396805', '3579.3120742268584', '3234.6774355499424', '3014.1805661832723', '2175.798689352303', '1964.2149395160181', '1469.6028359754398', '1164.9170797224904', '1226.115986459474', '1658.756119083979', '1840.2884663929487', '1773.9737977139923', '1680.3371876596818', '1541.09624407257', '1442.9751091860844', '1412.3733244048015', '1691.4807377986633', '1382.5841376627802', '1306.7650273255451', '1366.1603456085306', '1314.9270981067775', '1357.693616206896']</t>
+  </si>
+  <si>
+    <t>['19.170877886424847', '18.24264847704623', '14.51688118873923', '14.318557228462398', '18.32727588928699', '15.84379302260602', '16.330561058601553', '16.479581180192096', '11.75945828099752', '11.30124924272929', '8.939197442733057', '9.417208755864532', '10.61589821537583', '15.244208782848107', '15.047221062313032', '12.974690364067296', '14.699346755375283', '14.438868259274996', '17.392248235441162', '17.75947713526014', '15.125755413644832', '12.83296097461111', '13.735715939189783', '11.894785595813334', '11.16439469816169']</t>
+  </si>
+  <si>
+    <t>['21.811202135856142', '22.017085218429994', '19.4950629270345', '17.72080795348805', '22.154410818144772', '21.301281402719994', '18.424179262481182', '12.048968310612523', '8.08185161454644', '7.338060563125746', '5.604088184318586', '5.545208475673466', '5.523854509429712', '7.480033593582144', '8.042966170748645', '6.034210920100365', '6.031413389395851', '5.580694384151079', '5.333479723522037', '5.168885937999323', '5.246486213909574', '4.3174670166594495', '4.436723575163724', '3.4151618625404274', '3.136011826068897']</t>
+  </si>
+  <si>
+    <t>['22.347330093279375', '21.206548952622406', '18.072206000727363', '16.55366940014402', '20.282163698815207', '18.35434153346951', '15.835476146979767', '10.98821050982084', '7.831519622746201', '7.293093559467898', '5.650466040071546', '5.732611823660272', '6.824922212566347', '7.70558151157995', '7.678380275319662', '6.326365032643683', '6.57748666553609', '6.05770312888678', '5.57345496517762', '5.019320739884723', '4.834760670683408', '3.8409009174178457', '4.213491458512893', '3.8134189540836947', '3.960498253169819']</t>
+  </si>
+  <si>
+    <t>['116.98557744550696', '130.97901365739253', '114.40914491719822', '114.51328967492694', '137.72905928472582', '122.08422757968363', '105.2837278525492', '81.64006421078744', '67.88147951305461', '65.07066305633401', '52.476380712014944', '61.22114934397105', '96.8428318476354', '103.77786140762883', '118.5722683534846', '100.15886236144514', '101.36440875345144', '119.44225750314394', '152.74174654122243', '177.53258718476067', '145.02271043010646', '113.47064640340614', '121.63765574378644', '111.54389531282564', '110.10759295407138']</t>
+  </si>
+  <si>
+    <t>['0.05805568635987754', '0.059181459041906574', '0.04880068785259139', '0.04742857268955201', '0.06775688538769888', '0.06610209171383431', '0.05509510147541078', '0.04099227518506599', '0.030871228431310613', '0.03070051735990813', '0.023763954660451465', '0.023293891467842893', '0.023984197566984056', '0.02756554765798888', '0.030543202845121697', '0.02503637813596951', '0.024376118466155818', '0.022865888271231476', '0.023149666030415277', '0.02292387563676234', '0.0233844145067804', '0.018970367372154427', '0.019041214888500687', '0.017178796523853658', '0.01604012213356456']</t>
+  </si>
+  <si>
+    <t>['8.310141116945378', '8.025463819509042', '6.592954572635746', '6.013563034139749', '7.917651248544982', '8.596583850164926', '8.493498812775693', '6.202745351651974', '4.595423892457409', '4.3870387313062915', '3.112177033786934', '3.1460964702718894', '3.2356145408711163', '3.8192003173976765', '4.183091056128874', '3.937931490251179', '4.219768703324035', '4.545669880131657', '4.548425919625682', '4.490636361248519', '4.515695756668719', '3.875301842274563', '3.958520072492303', '3.5043826363628408', '3.241049536003951']</t>
+  </si>
+  <si>
+    <t>['0.23365203895665204', '0.24327863550360884', '0.21703855046260795', '0.20625209465290753', '0.234118188828432', '0.21040144840125213', '0.1795252462704342', '0.12106474866565858', '0.09875496074875059', '0.08932814179881583', '0.06944143941186909', '0.06435512374864123', '0.06710426032774161', '0.07241749563940435', '0.07601621867892877', '0.0644690280802804', '0.0625889137261869', '0.058617688407877955', '0.06017812895486011', '0.060142371113914427', '0.05558415534136716', '0.04796726177925083', '0.04841327074512941', '0.04427980673487106', '0.039452436825350434']</t>
+  </si>
+  <si>
+    <t>['61.322527640846225', '53.96345788734103', '74.77035779082979', '89.77386985651039', '99.50405707524259', '94.53598587767179', '89.6067358074799', '46.16844205839538', '0.000140999530795176', '0.000087471125655837', '0.000058779559087414', '0.000115295662456796', '0.000101436094104885', '0.000098853641432367', '0.00009553805308974', '0.00015940754963077', '0.000369177212086488', '0.000283856384619967', '0.000290828939659806', '0.000243831178002298', '0.000216309014573556', '0.00016709879288117', '0.000169892088966957', '0.000147713947567799', '0.000154029864839529']</t>
+  </si>
+  <si>
+    <t>['3.7593401672262665', '4.160372036716455', '3.07270038408521', '2.918319433736955', '3.40939376004483', '2.970418691902415', '2.609748684750575', '1.7991509958438068', '1.3160726966256306', '1.2904378157598173', '0.9381134809843129', '1.1470148140469936', '1.2632928509557522', '1.2978300073823106', '1.2593348569860765', '0.9833968258376424', '0.9231744496862225', '0.855318547666355', '0.8092967092367155', '0.7701748703405407', '0.7741546632264952', '0.570498035275288', '0.5859682148295048', '0.48682725186429815', '0.4198786555604718']</t>
+  </si>
+  <si>
+    <t>['0.41332761712842175', '0.47896258661630176', '0.4104186694656861', '0.3927412934270305', '0.45697038607551527', '0.4332752884471534', '0.39266502326038416', '0.24740360449235044', '0.19401810549055398', '0.18567809608157282', '0.1192529984808272', '0.12823267176797876', '0.12417517008299302', '0.1377402541289209', '0.14524976336794598', '0.12343869298924857', '0.1148361324975587', '0.11039811957925919', '0.10642713302562187', '0.108273296708355', '0.10445828420746105', '0.06752335125663864', '0.06488456849870698', '0.05889483350789957', '0.058437819253109466']</t>
+  </si>
+  <si>
+    <t>['1.000090375772782', '1.0015579324106187', '1.0006253547831696', '1.0005458685360886', '1.0008566774506642', '1.0007000650810747', '1.0000592626410485', '0.999889415238136', '0.9998810324674283', '0.999695417242114', '0.9990930306445589', '1.000497045311642', '0.9986921924272794', '0.9975572322718356', '0.9971758454830374', '0.9981981943931888', '0.9987680187603056', '0.9997530882561464', '0.9996014748886058', '0.9993322571566673', '0.9990911717445804', '0.9983468578267026', '0.996537386900365', '0.997086649275821', '0.9975605523720208']</t>
+  </si>
+  <si>
+    <t>['12.690863723293937', '11.343296186093829', '9.67746463444313', '10.519444424549624', '13.16089901900982', '16.44927115509281', '14.32148055950709', '9.663295783053398', '5.864329535342723', '5.208961905652171', '3.4993119974811093', '3.4988754663838604', '3.862040506185229', '4.384982770602501', '5.282653467507041', '4.151385879408576', '4.486923848483969', '3.7239774433039807', '3.3509689473549553', '2.976299299711423', '2.7576291832467454', '1.7468748933138836', '1.6979680420139105', '1.4402257520211916', '1.391461050369188']</t>
+  </si>
+  <si>
+    <t>['1.973182253582361', '1.74604894982651', '1.2672485332982977', '0.9079481535449516', '0.9744234596255259', '0.7690144707079941', '0.9327742250665491', '0.9344500163767233', '1.0435861652865996', '1.0512464930266423', '0.8359984141677902', '0.8298741512446278', '0.7560167632041928', '0.7118799124409199', '0.5895611573547489', '0.6197869189591412', '0.49633150285619093', '0.41435299211662907', '0.4232616959928293', '0.4620174161714135', '0.4611037677379404', '0.4349115592607564', '0.43703569944750664', '0.39780578243842224', '0.4105124126599296']</t>
+  </si>
+  <si>
+    <t>['22.569989982198624', '23.492831604593725', '21.11114628879347', '17.92705641791382', '22.31123215854639', '30.98293747238141', '29.471309994819613', '19.27016777173401', '7.208042303701475', '6.161071199110355', '4.796988250324966', '5.072378331282489', '5.827555202198223', '6.94428882409101', '6.589502415529411', '6.043579344641943', '5.998459213112403', '4.455331049523802', '4.985505528479954', '6.235754271283395', '6.067479190012529', '4.519521528771487', '5.2405271457474205', '5.184340841689738', '4.672969762901762']</t>
+  </si>
+  <si>
+    <t>['2.4095390932978553', '2.4661850293290417', '2.1331849796915314', '2.0285888338871', '2.66808185524771', '2.4697666733054735', '2.3876191355504397', '1.786921312979181', '1.3074437652908548', '1.2652024660959191', '0.9583917108823653', '0.9758205476252001', '1.0304632281750834', '1.2298426942117162', '1.334513345652464', '1.556174514319638', '1.5529058893381738', '1.216975388277452', '1.1018061281961502', '1.0853550439938315', '1.05824915938899', '0.9009352135895778', '0.9594692551664573', '0.9145235334138031', '0.8812660166195316']</t>
+  </si>
+  <si>
+    <t>['0.9981107199543389', '0.9975372675369866', '0.998416846580445', '0.997574010966961', '0.9980629407544832', '0.9989795209673402', '1.0000761412179093', '1.000631908809924', '0.9991813483074302', '1.0011944279954568', '1.000848271288449', '1.0002050828221283', '0.9999200202966168', '0.999623292111052', '0.7645972129933989', '0.8459808368807488', '1.000629338515076', '1.002405119417618', '1.0026870375679218', '1.0029604951813846', '1.0011786547618937', '0.9984594643349168', '1.0008107947115334', '0.9999958138368105', '0.9987138915270654']</t>
+  </si>
+  <si>
+    <t>['0.2000104240195161', '0.21329664497393946', '0.18539714578978211', '0.19938322540727815', '0.2554712714245474', '0.2424172825371927', '0.21056346025530417', '0.15050594463673897', '0.1184146351999159', '0.12074637122466512', '0.09534018760455808', '0.10101488391673338', '0.10808399281603938', '0.1290895458501541', '0.1784457267086237', '0.21828233946724848', '0.20238550382979106', '0.24610565921234825', '0.202414578223361', '0.1884456427904795', '0.23121262981420032', '0.20331927305027137', '0.1604010201435944', '0.1222605124513842', '0.10523148613988481']</t>
+  </si>
+  <si>
+    <t>['169.14806469839286', '165.70390101107986', '133.05157831707209', '130.02723293177007', '189.34099947098437', '188.00966890448115', '169.08071391469753', '117.7228504903128', '93.8488090398618', '101.01228056240828', '61.91651665059515', '63.647929190885094', '87.42074022278378', '94.70512986006048', '102.0637300966686', '86.26451496179538', '86.29860580754614', '75.54347613667012', '74.58157757508867', '82.91731010379223', '78.42992949147512', '58.16713347629674', '63.005985988237505', '57.10685680677923', '54.675598763043126']</t>
+  </si>
+  <si>
+    <t>['2.5229956287485655', '3.0894303643232575', '2.6321406139480406', '2.384567103036684', '2.623933989976173', '2.300713218519659', '1.9212627739753771', '1.2786354380459062', '1.0671599700469314', '0.9796949490156092', '0.857785599346809', '0.8865240756552866', '0.8895641825163547', '0.9793491899302438', '1.0084685103843516', '0.7971652809678162', '0.7685769792476197', '0.7060036317863517', '0.672599506208031', '0.6292580411278259', '0.6038941222938158', '0.4076351963105086', '0.40420619008857456', '0.3419505236455772', '0.3167731141831429']</t>
+  </si>
+  <si>
+    <t>['95.48373046941208', '94.68990532857838', '83.41076897582032', '78.48009613848654', '93.27525814167916', '88.02129149962208', '80.05016243980305', '64.85978660093271', '51.1730378024336', '55.14683195714192', '58.08393842463001', '55.452041287562444', '54.720388602553605', '60.37885507727758', '60.122113889977626', '53.456180566179754', '52.941859675248615', '49.33851981065539', '49.018241700316885', '47.63798121514635', '44.468347602976635', '39.01113007037155', '42.03205031529986', '45.441554662699076', '42.38065115456112']</t>
+  </si>
+  <si>
+    <t>['150.697072673961', '181.573063144543', '145.02691209127954', '147.89672337682907', '190.69217388131565', '166.02591954739447', '151.07540362253036', '110.4655539435086', '87.22780430243013', '70.36979938519633', '53.996049843541265', '53.23727863976039', '56.09064429007223', '57.25274195867748', '61.337163672188275', '53.244447512544', '51.145351324478156', '47.527001251664124', '54.712027593216696', '56.76163316545042', '53.41075178240629', '42.564258004120106', '43.9148708516267', '38.623414323051804', '33.59980500647173']</t>
+  </si>
+  <si>
+    <t>['6.134606222433956', '7.1369792383392685', '5.80618096564188', '5.613214359195128', '6.726850745422237', '6.230519683782086', '5.409158331956487', '3.9195079601727234', '2.7173434838942527', '2.4244540479896037', '1.5173051744155555', '1.5953238090933082', '1.6843593853051182', '2.0377287943751523', '2.716294432856045', '1.994211719568013', '1.9204736831789433', '1.6727397882717991', '1.6139303411255088', '1.555717543301136', '1.565569188457386', '1.1725598413665133', '1.080528796213476', '0.815702523522575', '0.6984129426593637']</t>
+  </si>
+  <si>
+    <t>['3.192704603671788', '3.598161630117039', '2.893232718719878', '2.8405302022581678', '3.5893530855522187', '3.3335930955299844', '2.910671120452662', '1.9183980311073203', '1.2432920514485468', '1.273093468889343', '1.2503978899656885', '1.2349807298144673', '1.2160184853746825', '1.390585387950117', '1.4757348740484224', '1.178041587659998', '1.1334098449149932', '1.078631982832802', '1.0398628067936684', '1.058705834966338', '1.1169359328488522', '0.8858529137333951', '0.8966569114748919', '0.78517913775876', '0.7476207992973914']</t>
+  </si>
+  <si>
+    <t>['3.4719739385947905', '4.010393075297095', '3.2119248729552554', '3.0589978595154506', '3.6840034957176377', '3.315488205788574', '2.938310226492991', '2.25523128501707', '1.8852565380647655', '2.0146497315816276', '1.4266678184685073', '1.5086878950556573', '1.6178103709427538', '1.735978112382498', '1.8201331446087619', '1.5382515510161572', '1.5706469899331126', '1.459670487256987', '1.396715325875392', '1.3851079526401866', '1.2816268566182645', '0.9859721149471188', '1.0002898456060205', '0.860465736788587', '0.7534025221949407']</t>
+  </si>
+  <si>
+    <t>['1.000876624913145', '1.00077198644568', '1.000050233310721', '0.9728620169073788', '0.991955997404589', '0.9967171476738733', '0.9995820545586851', '0.9998717083619586', '0.9997114085811156', '0.9989228617309933', '0.9994817877095112', '0.9999244538796915', '0.9999470943433313', '0.9987798715847667', '0.9973769806668671', '0.9963104426246179', '0.9860722289322684', '0.9862144529094806', '0.9924185031383469', '0.9879210374415257', '0.9784142543911671', '0.9805220738335634', '0.982940768169559', '0.9831651731217363', '0.9795914908958477']</t>
+  </si>
+  <si>
+    <t>['104.9912883835536', '120.97407571731543', '110.39144362675955', '147.1458924580598', '188.78326666955377', '158.88679940891157', '150.2481239427762', '109.21990442285343', '99.72473300941795', '90.34583493168859', '65.4532287088412', '58.04950874314263', '59.68787866719349', '63.13734227418205', '73.63855246754879', '63.00544589466993', '61.187197041801895', '55.80420288681885', '53.70358424312541', '52.95664825010032', '47.061071139709185', '40.56617101121116', '44.48831968967522', '43.032385278904954', '39.327764584629016']</t>
+  </si>
+  <si>
+    <t>['7.9933853740335135', '8.724013756079913', '7.687834163049818', '5.323030067488377', '4.470194584632962', '4.357994688484426', '4.79481618559802', '4.954385358178254', '4.418598278964115', '3.7838580154150825', '3.403684192967559', '3.7767415908222857', None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
+  </si>
+  <si>
+    <t>['4.75280808381259', '4.275359580785615', '3.262310840072673', '3.010975306398272', '3.93697934986273', '3.513809600606889', '3.1330018556256927', '1.9399658754109845', '1.512251796010183', '1.6031158873893867', '1.184550810632312', '1.1793415101970044', '1.3429943767060064', '1.4387200943761842', '1.4335786494396994', '1.1148817518877383', '1.2143098915201143', '1.0687404932875169', '1.2844575617076543', '1.5093312752337371', '1.5418000855173497', '1.212450608527116', '1.3058752773366034', '1.0186778172965378', '0.9759862594985063']</t>
+  </si>
+  <si>
+    <t>['13.231892339155145', '11.677586934842967', '17.16028326351147', '11.282548902993753', '7.532500925744503', '6.005390908245645', '4.038330332230786', '4.810935566072127', '5.382323580623373', '6.815274334325867', '6.405798817815641', '4.944110155670127', '4.983261134399494', '5.548256361965324', '4.956431765067205', '4.588779906488768', '4.177813050345489', '2.978738335964383', '3.2435552792300735', '3.9863281053085386', '3.9979099926243227', '3.894364469390478', '3.564948858663925', '3.621489164576429', '4.0386858561950945']</t>
+  </si>
+  <si>
+    <t>['8.76045001877e-7', '9.22669498048e-7', '9.77441316603e-7', '9.96173368309e-7', '9.40102768811e-7', '8.88061205221e-7', '8.80727101709e-7', '8.93673145244e-7', '8.54873827277e-7', '7.8759212627e-7', '7.79885701119e-7', '7.8361315284e-7', '7.73921786218e-7', '7.69300414686e-7', '8.08094109137e-7', '8.15269761382e-7', '7.3448960035e-7', '6.7332335223e-7', '6.63770250951e-7', '6.94412669575e-7', '6.85174254691e-7', '6.61482140828e-7', '6.36495354674e-7', '6.24185125483e-7', '6.26443270692e-7']</t>
+  </si>
+  <si>
+    <t>['2006.0938058616036', '2053.5387391444488', '1867.1386419838655', '1854.2682434550825', '2099.189355570903', '2033.491558947877', '1707.3007565463781', '1361.509014641597', '1360.794594145241', '1167.1457747805625', '868.1211063766331', '946.0388274623116', '942.0348462438528', '1052.6860091121787', '1013.7398567153568', '796.4368123509531', '720.76888649705', '685.9841031301919', '896.2055586688605', '986.0687308169632', '821.225535763856', '661.9162061231069', '635.0458980003341', '564.6196199478675', '527.4467568531255']</t>
+  </si>
+  <si>
+    <t>['0.6417250465995497', '0.6017036788316019', '0.4544933704654166', '0.49072282175003445', '0.6037779469561246', '0.5111403716728707', '0.43612650667013897', '0.2791079540149974', '0.18781773559650353', '0.15973462417556802', '0.16627308125872797', '0.1758839722210324', '0.18188324729157143', '0.20842119619678842', '0.21803428467711672', '0.15670739196118208', '0.1540502037574017', '0.1368848868513322', '0.14693911751204478', '0.16924095297090064', '0.1599152363419604', '0.11980533322801847', '0.1222893035615284', '0.12256356739922282', '0.1251272881562628']</t>
+  </si>
+  <si>
+    <t>['4.904676792760515', '4.970031895073382', '3.8909332182575556', '4.323776159682061', '5.897894784669829', '5.521556348767355', '5.620524556743144', '3.8115156963446886', '2.6300405301923813', '2.738134206880269', '2.3838125602563514', '2.532308119200893', '2.806248402807726', '3.7068426734951685', '3.679711848271755', '3.0023968336520346', '2.840836623232275', '2.3884158787654077', '2.1982393989139415', '2.333342117346105', '2.277489548414966', '1.7131561112905733', '1.8087102911602526', '1.662672475689992', '1.5202221665214852']</t>
+  </si>
+  <si>
+    <t>['7.355065667795971', '8.05798619249039', '7.814796630527712', '7.67492160590594', '9.049025871671544', '8.920788845440068', '8.19267486016921', '6.626768565459141', '5.256157330460981', '4.85702513546115', '3.390336576226399', '3.4696265580787853', '4.295253594022536', '4.920197333733632', '5.6670182682736385', '5.244376917501217', '5.673672310996674', '7.143304560232441', '11.194240877626928', '15.494248259336192', '14.753071413296636', '7.499812525591939', '7.3832361852576645', '6.73611188116084', '6.39512884409321']</t>
+  </si>
+  <si>
+    <t>['17.84751783516985', '19.957260718288527', '19.15006661260851', '18.185890599513215', '19.671280683454846', '20.07788447390698', '19.668608218447', '15.254403386561348', '15.497158582411862', '16.44628463079468', '10.943548757764976', '9.359237654910775', '9.535427567216997', '10.097642138032716', '10.369608402667737', '9.282355589163991', '9.377543049492097', '9.03453582905239', '9.185460690138616', '9.728170636718652', '9.245551019711867', '7.126503091235687', '6.590252959704013', '6.481404348380167', '6.5773342391236795']</t>
+  </si>
+  <si>
+    <t>['103.48359878518258', '108.0304914703034', '92.84230183503956', '97.19374636613959', '129.0087510248786', '113.06747798916834', '100.37397914238461', '76.59270963229052', '58.84047470857567', '58.19677809698282', '45.52447142862462', '44.81654796849661', '45.773139700783354', '49.73933388446939', '52.82867706125301', '46.38726030747066', '45.87751403128036', '41.39855500106967', '41.64536125484498', '41.26070228281094', '40.2764365002629', '36.74575367153799', '44.90906430841063', '44.55908275750342', '44.00511230855953']</t>
+  </si>
+  <si>
+    <t>['0.8931624382773674', '0.8960826513300786', '0.7377580498994054', '0.7146365958101975', '0.8373586628007876', '0.724467371374106', '0.6345534055511275', '0.4324049136289106', '0.3366730713606832', '0.34121979322479606', '0.2762228661810894', '0.27627258531353965', '0.28488382885638547', '0.3161947954609334', '0.33275955295129717', '0.287633225339137', '0.2774982937641476', '0.2810236916889073', '0.265127019372044', '0.2521342799110723', '0.24671922457039144', '0.21614954780326281', '0.21070342263829225', '0.17767598091538525', '0.17493952609427518']</t>
+  </si>
+  <si>
+    <t>['0.9999094828762916', '0.9994985213370103', '0.9997018788130445', '0.9999545311355901', '1.0000617858511267', '0.9992933894461544', '0.9995596374294097', '1.0012533361221676', '1.000990698573624', '1.000722794786487', '1.0009106457798864', '1.0013428957068227', '1.0001494191754385', '0.9999041869805976', '1.0002159688521144', '1.000106355451535', '1.000352527166998', '1.0002527277000424', '1.0003466460156953', '1.0001693936402494', '0.999972834002255', '1.0008979186379316', '0.9994656637078275', '0.9997957897315018', '1.0007144271805533']</t>
+  </si>
+  <si>
+    <t>['1826.3497495589481', '1870.6563049897745', '1928.9891640301676', '1969.7010686505114', '1935.560584983872', '1959.66159363193', '1935.32862915773', '1862.5699136178803', '1855.3107768460097', '1864.2421961526625', '1839.1073755006094', '1790.8908518847154', '1715.681751076371', '1755.7963833187173', '1770.9360025868414', '1722.1375396926665', '1695.9652413021786', '1649.5315504705861', '1675.5493353142028', '1643.7477791144017', '1681.0944074599652', '1748.0591922077156', '1777.2580566081767', '1800.7458823025536', '1828.1512515977145']</t>
+  </si>
+  <si>
+    <t>['0.000079618132896839', '0.000085335536556788', '0.000073343976424205', '0.000076061368209432', '0.000092988465304658', '0.000098701967625791', '0.000085107124681923', '0.000059944003388155', '0.000047572878843795', '0.000049723434467279', '0.000038550080082121', '0.000040596679056961', '0.000040446335376109', '0.000043117737616707', '0.000044461059669371', '0.000042580531991362', '0.000043541690346119', '0.000039808023321195', '0.000039796132606802', '0.000037290047764339', '0.000035065745920702', '0.0000288671132616', '0.000029170841780567', '0.000025697051603837', '0.000022916156795273']</t>
+  </si>
+  <si>
+    <t>['41.31723181515463', '41.28248989462146', '35.6197481552758', '33.461550748183896', '36.25680174344845', '44.45259868347641', '42.87887041566734', '31.205852524473396', '25.898304360386543', '24.775504199029577', '18.618361712198013', '17.436890468951706', '15.214391083283694', '17.238961313244975', '19.260180703201108', '17.148492832444624', '16.414510755217023', '14.474470586996524', '14.054296014778403', '15.063428427824226', '16.73825989622689', '16.072578592287346', '17.800391786017347', '24.28479701531466', '26.077013016035806']</t>
+  </si>
+  <si>
+    <t>['20.498632364536395', '23.496738870238918', '21.56671855637341', '20.678662845710647', '25.762128830935485', '22.43839754647348', '20.010607603616698', '15.69169146260834', '13.289988234843051', '13.686613264524466', '12.381640726565864', '11.42733292226434', '9.449741598730999', '10.826948202869929', '11.16024786629192', '9.401518437885938', '9.284161271834359', '8.546998206827348', '8.326345641998', '8.249515492472087', '7.939775757178591', '6.72532598128853', '6.963097831249594', '6.786688664390354', '6.353167673536288']</t>
+  </si>
+  <si>
+    <t>['3.388695057483842', '3.0820363929171286', '2.3651882187078757', '2.0617137238571632', '2.564546047450782', '2.428903228269247', '2.3808991172279814', '1.9694138568173647', '1.2476981980938715', '1.1892918417128366', '0.718970718185335', '0.8434542525644405', '1.1728392184460752', '1.3420651973885955', '1.287059805512061', '1.1010509683996728', '1.114462423884148', '0.9225022178322457', '0.8593867087521717', '0.8984256032679555', '0.8344115256991137', '0.6039000603645287', '0.6591888186015799', '0.5650831723073136', '0.5328437044257834']</t>
+  </si>
+  <si>
+    <t>['1.9914552272589705', '2.113670437942865', '1.9802323215854436', '2.110141375173333', '2.348999635128361', '2.412087241058014', '2.30371114375484', '1.762637263659117', '1.3025940900346036', '1.2108511651044984', '0.6994463982560352', '0.6176751478238621', '0.6478906886039022', '0.7216463215226203', '0.9130495914568849', '0.9888408508020713', '0.9328078592297552', '0.9147588016788217', '0.8668018024597675', '0.9402664935855181', '0.9135719741072574', '0.6961638189775795', '0.6634198528359926', '0.6493330031200301', '0.6740496102835792']</t>
+  </si>
+  <si>
+    <t>['0.07179934661965165', '0.06831026753202513', '0.05640656519005452', '0.05224589672161285', '0.06654369836222568', '0.05949807692948826', '0.051028763546831266', '0.03685901942384308', '0.02917398488639746', '0.02734331330609443', '0.021549361420993347', '0.023870442208794668', '0.024851057812665025', '0.0344412299484127', '0.03582022751379443', '0.029953420914945638', '0.049785973780882', '0.03817703624632629', '0.03383511870227688', '0.03139464249585735', '0.027921097364116805', '0.02171607797916989', '0.0219015523274349', '0.020489056331696093', '0.019309949296879098']</t>
+  </si>
+  <si>
+    <t>['0.02189039999191168', '0.02190244780499641', '0.02191859845536274', '0.021947347675553477', '0.02197151760300049', '0.021986512055866058', '0.02203145277673082', '0.02204165582003913', '0.022045275163908418', '0.022068190342750406', '0.022048215179470775', '0.022061989995129816', '0.022036874502494103', '0.02203832827478605', '0.022104358215901534', '0.02204841757010443', '0.022064626618391266', '0.022070682441776346', '0.02208249679232515', '0.02209066268469153', '0.022115759742905382', '0.022114577099723247', '0.022114947215279325', '0.022127648334475086', '0.0221325234771818']</t>
+  </si>
+  <si>
+    <t>['56.566009653089', '60.83458028043742', '51.122777963966286', '48.18766067932485', '63.63905458142001', '52.02644268597875', '41.67190747473254', '26.51269912871497', '20.574734679148257', '20.02745364978932', '14.658493090485809', '14.72283014550989', '15.052195405599198', '17.445262633934465', '17.490740933671685', '14.12625014628274', '13.711425378255347', '12.484802994913942', '11.996417604224916', '9.523022907077959', '8.57892145334612', '6.893994722299056', '7.577474008510903', '7.152367905075419', '6.498969035732069']</t>
+  </si>
+  <si>
+    <t>['4.434051119669479', '4.371338367497118', '4.276322859430343', '6.614266056903223', '10.376531102468585', '9.037719899532101', '7.962072208641046', '5.133148160099485', '2.976981572852461', '2.8776861062280124', '1.920171573963706', '2.076125550404937', '2.4221002902031072', '2.6297159886445427', '2.659097458936864', '2.0007271162887137', '1.8611281556541857', '1.6017561070323045', '1.550755382014302', '1.496061552164597', '1.4305746585555414', '1.1757146871466184', '1.3368246491887767', '1.3805144939853833', '1.3322058176388547']</t>
+  </si>
+  <si>
+    <t>['1.2395136427204583', '1.235837327285092', '1.199967511312242', '1.1042370512693527', '1.1635573803107668', '1.057763575162137', '0.89143406302931', '0.560492016654673', '0.4373422955521152', '0.39354811622584324', '0.24675758070513124', '0.23625170816328167', '0.23987253658807398', '0.2844812079178963', '0.28391393593494146', '0.23993959963972938', '0.2177034607665206', '0.19980727769517237', '0.17448058390015977', '0.18966659916621662', '0.21646198319292556', '0.17238979443564714', '0.18546954567798263', '0.1655235247151412', '0.15590310965399173']</t>
+  </si>
+  <si>
+    <t>['35.07342768420461', '45.60755403711153', '85.75880084163268', '105.10112959432091', '109.93228288773287', '118.69504725183712', '122.51763618469924', '131.62960864819195', '124.53215141812717', '116.09603335493145', '126.84912416009134', '130.53854585264287', '134.4417887117061', '137.27863460809334', '155.74769074010442', '156.45016157661811', '150.44007804390165', '145.3468761662011', '147.77880304144185', '142.14202689618372', '57.631282345550325', '58.99764453147061', '71.06955321137947', '69.9236531412205', '66.27100707338464']</t>
+  </si>
+  <si>
+    <t>['0.000002157449058453', '0.000002140933402357', '0.000001725087646575', '0.000001555240489535', '0.000001768412339491', '0.000001687967981116', '0.000001574332290581', '0.000001155735400957', '7.86811467457e-7', '8.49505913643e-7', '6.20176857139e-7', '6.4514184157e-7', '6.58720194296e-7', '6.20735781172e-7', '6.22117812841e-7', '5.81714954409e-7', '5.70123594588e-7', '5.21425760518e-7', '5.471122224e-7', '6.22743639462e-7', '5.88501773855e-7', '4.76936926623e-7', '4.71390806857e-7', '4.5865758378e-7', '4.29802039541e-7']</t>
+  </si>
+  <si>
+    <t>['2.285192689619516', '2.0328683357575694', '1.6888233420198886', '1.2436034815703343', '1.411589928783673', '1.2780427600578863', '1.0296898816602598', '0.5874958765122998', '0.38062789875613023', '0.35088928770615285', '0.2535216537123085', '0.2637686189194673', '0.28680894484531005', '0.3401369235242283', '0.36661023255328296', '0.2830799434774924', '0.25797355854264153', '0.22785561861079556', '0.2153739739706002', '0.21196520806491762', '0.23345994526935746', '0.18078565295229307', '0.23669498649841253', '0.21483809785189964', '0.2095681421726955']</t>
+  </si>
+  <si>
+    <t>['11.198265047152342', '13.383635181173313', '10.397788340245793', '9.048496606466337', '12.055590721964391', '13.938718482067689', '11.043780584431875', '6.968673244362569', '4.612760066205703', '4.191534840609638', '3.3335299916111807', '2.9801408956893543', '3.789032220989192', '4.191999002489236', '4.332940144952071', '3.5549758063089287', '3.6446043857611525', '3.3983057108743115', '4.110554260517263', '4.293993300523147', '4.052768627675429', '2.8686876184725207', '3.1715753862498044', '3.000457006244175', '2.838837846138534']</t>
+  </si>
+  <si>
+    <t>['41.42047214324826', '45.13318931603653', '42.687183584196546', '41.86654437800548', '49.27572252904991', '44.98171858185011', '41.13579461848142', '34.388682329485526', '29.71124428752977', '27.461130752632727', '25.2995251262958', '25.78310693180309', '27.45000593403938', '29.62741193286214', '30.11288091392352', '26.82749919706422', '26.081853879898905', '23.80766661513086', '24.028901086349894', '23.673811471572954', '16.22888259267923', '1.4544180564900666', '1.3954218667770866', '1.121775170762908', '0.8955888964064517']</t>
+  </si>
+  <si>
+    <t>['0.04883053774488085', '0.05050732330780977', '0.04061815139371738', '0.04063555994118779', '0.10558281523082239', '0.12116338185682206', '0.10153519835458819', '0.06696547557464275', '0.05086530437048671', '0.04919250139460358', '0.037676774053569506', '0.04006627062544425', '0.03938386900746367', '0.041982556838848176', '0.04390653505921476', '0.03684229239542078', '0.035459457172792745', '0.031820639987555424', '0.031095279374125148', '0.030070785853806035', '0.02825077985439718', '0.021800269636613915', '0.0224648216371309', '0.01936875428787511', '0.01672362321357648']</t>
+  </si>
+  <si>
+    <t>['1.712663142707916', '1.7418779055166946', '1.8061226898017226', '1.8254747288791295', '2.294231160159598', '2.491267569740108', '2.451286644387366', '1.9388794279708714', '1.5346866594617132', '1.5651765825347463', '1.3107660668764334', '1.3276875123438945', '1.4232582790059827', '1.3124309685571522', '1.2441691021440884', '1.0312720461818528', '0.9395805777421762', '0.9376013030582644', '0.9041227928709454', '0.9146508718479499', '0.9763964343860556', '0.8654812143061009', '0.8349923290172161', '0.8117244978615317', '0.8350278998123799']</t>
+  </si>
+  <si>
+    <t>['0.07611294376627792', '0.07899132802868276', '0.0662857163920786', '0.07191196990598447', '0.08556609143824677', '0.07960498667900169', '0.07200472076199575', '0.05029626093935956', '0.038025601115181065', '0.037472220034500396', '0.02826717438116901', '0.02843941996408778', '0.028374350590991398', '0.030459787513228573', '0.0422083424439152', '0.036603406481479465', '0.035242075683333346', '0.03041235645931875', '0.029267763041807105', '0.029181065068156927', '0.026849176106050327', '0.02170445374600904', '0.02159817580142915', '0.018695042466152393', '0.0160151151805745']</t>
+  </si>
+  <si>
+    <t>['2.6807865960844204', '2.67682902603595', '2.096036696511513', '1.8607033645785533', '2.556378044172141', '2.8279355410967484', '2.1561568628217707', '1.5107590316810093', '0.9815672522178497', '0.8478536013962169', '0.6394873013513463', '0.6532682572332215', '0.7015976322930825', '0.7687330104900846', '0.8557383514234823', '0.6857443182663338', '0.6471118230257996', '0.589111749625866', '0.5685078320109797', '0.5795564109837646', '0.6662073030732325', '0.5468623514810979', '0.5626882755632268', '0.5013698564806148', '0.4505714425698603']</t>
+  </si>
+  <si>
+    <t>['4.414720518e-9', '3.66728958e-9', '3.214227392e-9', '2.902217329e-9', '3.139512985e-9', '2.783590324e-9', '2.247984983e-9', '1.448492065e-9', '1.358978658e-9', '1.592278551e-9', '1.310866148e-9', '1.5175765e-9', '1.306117852e-9', '1.260071693e-9', '1.525797797e-9', '1.261619211e-9', '1.191012574e-9', '1.143456955e-9', '1.231326709e-9', '1.209899603e-9', '1.298326164e-9', '1.118683217e-9', '1.137167247e-9', '1.007668092e-9', '9.45658901e-10']</t>
+  </si>
+  <si>
+    <t>['8.513463866532671', '8.774608592792895', '9.474193737760846', '9.367020036404886', '8.501446366926057', '6.781240740767039', '4.988514418046886', '2.947840762120258', '1.6263779497090831', '1.282606091601074', '0.8065549351186005', '0.8322139738731815', '0.8921664683464684', '1.0205219767579166', '1.1854710935957136', '1.3152695742833802', '1.3325041331241347', '1.1987024692001336', '1.1266218084740538', '1.2815787716802343', '1.4366823525893762', '1.0799849388025204', '0.9677883490763001', '0.7985597564674984', '0.7163588774585469']</t>
+  </si>
+  <si>
+    <t>['2.5971479869453895', '3.222257924529036', '3.075667403298903', '3.103765279790985', '3.2772664372073033', '2.708172556138108', '2.1187879034555475', '1.6023060928368769', '0.7349393765026423', '0.6693569375753331', '0.7543105770085711', '0.7817301739480735', '0.7993149772309603', '1.1503586390958347', '2.6504503445817367', '1.3361982915515604', '1.513647095511827', '1.480372793162883', '1.1138646928280722', '0.9431793366586128', '0.8627724723151443', '0.4829789979322828', '0.5886367104619706', '0.5405274254068805', '0.49331603834034715']</t>
+  </si>
+  <si>
+    <t>['5.529017012425465', '5.835033805290166', '5.15562242838262', '4.483700796109133', '4.628221776395531', '4.128824907013464', '3.362797355284834', '2.108122116738076', '3.062867490616906', '3.676287187820869', '2.851535324571179', '2.6841077223249408', '2.399225704765717', '2.5228067855244465', '2.6167250920701335', '2.142686120585509', '1.9954246796868258', '1.758258643040574', '1.7775954273949497', '1.7212130674556734', '1.5077342373797336', '1.2647815079641964', '0.4718008915058747', '0.38532114879910284', '0.3610274096038764']</t>
+  </si>
+  <si>
+    <t>['36.70090423172156', '33.65269468847562', '28.714585265587004', '32.300888047614215', '36.16913772126048', '33.18937356682921', '27.608688566399795', '19.73588585347009', '14.740246873957561', '13.185697303958321', '9.203628010551608', '10.771509397364017', '13.95512557715075', '14.052352840800568', '13.960081480193022', '11.076207562503647', '10.285681714334343', '9.53887093235892', '9.259820264703922', '10.31267117214348', '11.86119271836275', '9.421719183587253', '9.246747305620968', '7.657154314621332', '6.572437477446573']</t>
+  </si>
+  <si>
+    <t>['19.331449068234036', '18.01081862862286', '14.507308714647353', '14.30688940755311', '18.306166444336124', '15.780504264287806', '16.073355901918692', '16.116542857710495', '11.539538115959633', '11.135235919246382', '8.791539678508247', '9.290949428216722', '10.480050383279883', '15.026003528360146', '15.04232093983357', '12.976445562810786', '14.695105721880225', '14.435785311770449', '17.390322177169704', '17.751519078441437', '15.1227314935571', '12.836602385377308', '13.7373464040408', '11.896674384745953', '11.166233929933904']</t>
+  </si>
+  <si>
+    <t>['0.4408305816404532', '0.4468823149781517', '0.3593040811330509', '0.36857568133525476', '0.4503750407068176', '0.4031597123294905', '0.35592677925882804', '0.2537459708237275', '0.15738209307646853', '0.14929844842308387', '0.10656333821674718', '0.09905614974262879', '0.10198424553875708', '0.11979967146821509', '0.1318519510012677', '0.10641194737075593', '0.10961625558891039', '0.09951860896427349', '0.0932575701548531', '0.08147761058053667', '0.08035686351101637', '0.06042658102959058', '0.06423047727495794', '0.06043641631888729', '0.059121301344015866']</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/Qwsogvtv82FCd+bitcoin-btc</t>
@@ -1375,6 +2653,9 @@
     <t>https://coinranking.com/coin/VLqpJwogdhHNb+chainlink-link</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/zNZHO_Sjf+solana-sol</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/25W7FG7om+polkadot-dot</t>
   </si>
   <si>
@@ -1384,15 +2665,12 @@
     <t>https://coinranking.com/coin/Mtfb0obXVh59u+wrappedether-weth</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/xz24e0BjL+shibainu-shib</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/MoTuySvg7+dai-dai</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/zNZHO_Sjf+solana-sol</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/xz24e0BjL+shibainu-shib</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/qUhEFk1I61atv+tron-trx</t>
   </si>
   <si>
@@ -1408,12 +2686,12 @@
     <t>https://coinranking.com/coin/Knsels4_Ol-Ny+cosmos-atom</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/x4WXHge-vvFY+wrappedbtc-wbtc</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/67YlI0K1b+toncoin-ton</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/x4WXHge-vvFY+wrappedbtc-wbtc</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/3mVx2FX_iJFp5+monero-xmr</t>
   </si>
   <si>
@@ -1423,12 +2701,12 @@
     <t>https://coinranking.com/coin/DXwP4wF9ksbBO+huobitoken-ht</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/Pe93bIOD2+lidodaotoken-ldo</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/ZlZpzOJo43mIo+bitcoincash-bch</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/Pe93bIOD2+lidodaotoken-ldo</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/Hm3OlynlC+trustwallettoken-twt</t>
   </si>
   <si>
@@ -1447,39 +2725,42 @@
     <t>https://coinranking.com/coin/SbWqqTui-+energyswap-ens</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/ymQub4fuB+filecoin-fil</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/aMNLwaUbY+internetcomputerdfinity-icp</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/bauj_21eYVwso+quant-qnt</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/FEbS54wxo4oIl+vechain-vet</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/ncYFcP709+pancakeswap-cake</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/aMNLwaUbY+internetcomputerdfinity-icp</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/ymQub4fuB+filecoin-fil</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/FEbS54wxo4oIl+vechain-vet</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/bauj_21eYVwso+quant-qnt</t>
+    <t>https://coinranking.com/coin/jad286TjB+hedera-hbar</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/AaQUAs2Mc+terraclassic-lunc</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/pxtKbG5rg+thesandbox-sand</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/65PHZTpmE55b+cronos-cro</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/JCKLgWPAF+paxdollar-usdp</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/jad286TjB+hedera-hbar</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/65PHZTpmE55b+cronos-cro</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/pxtKbG5rg+thesandbox-sand</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/DCrsaMv68+nearprotocol-near</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/Z96jIvLU7+immutablex-imx</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/3nNpuxHJ8+fraxshare-fxs</t>
   </si>
   <si>
@@ -1489,304 +2770,751 @@
     <t>https://coinranking.com/coin/B8xT718SbVhhh+paxosstandard-pax</t>
   </si>
   <si>
-    <t>8170248132</t>
-  </si>
-  <si>
-    <t>3172798919</t>
-  </si>
-  <si>
-    <t>11950267789</t>
-  </si>
-  <si>
-    <t>1379452382</t>
-  </si>
-  <si>
-    <t>363002531</t>
-  </si>
-  <si>
-    <t>460559549</t>
-  </si>
-  <si>
-    <t>2474946562</t>
-  </si>
-  <si>
-    <t>320973048</t>
-  </si>
-  <si>
-    <t>214522062</t>
-  </si>
-  <si>
-    <t>137837571</t>
-  </si>
-  <si>
-    <t>45834511</t>
-  </si>
-  <si>
-    <t>131665327</t>
-  </si>
-  <si>
-    <t>134254009</t>
-  </si>
-  <si>
-    <t>454862810</t>
-  </si>
-  <si>
-    <t>191464975</t>
-  </si>
-  <si>
-    <t>121646313</t>
-  </si>
-  <si>
-    <t>476190816</t>
-  </si>
-  <si>
-    <t>111892946</t>
-  </si>
-  <si>
-    <t>234734472</t>
-  </si>
-  <si>
-    <t>41409860</t>
-  </si>
-  <si>
-    <t>3906771</t>
-  </si>
-  <si>
-    <t>122436358</t>
-  </si>
-  <si>
-    <t>104718033</t>
-  </si>
-  <si>
-    <t>43659633</t>
-  </si>
-  <si>
-    <t>9740781</t>
-  </si>
-  <si>
-    <t>126406351</t>
-  </si>
-  <si>
-    <t>412114911</t>
-  </si>
-  <si>
-    <t>9599821</t>
-  </si>
-  <si>
-    <t>181356571</t>
-  </si>
-  <si>
-    <t>83888061</t>
-  </si>
-  <si>
-    <t>19346572</t>
-  </si>
-  <si>
-    <t>31691303</t>
-  </si>
-  <si>
-    <t>48648259</t>
-  </si>
-  <si>
-    <t>1697965</t>
-  </si>
-  <si>
-    <t>8901885</t>
-  </si>
-  <si>
-    <t>3261013</t>
-  </si>
-  <si>
-    <t>15953350</t>
-  </si>
-  <si>
-    <t>25210672</t>
-  </si>
-  <si>
-    <t>131282850</t>
-  </si>
-  <si>
-    <t>26252361</t>
-  </si>
-  <si>
-    <t>13516525</t>
-  </si>
-  <si>
-    <t>41069599</t>
-  </si>
-  <si>
-    <t>1089690</t>
-  </si>
-  <si>
-    <t>19505186</t>
-  </si>
-  <si>
-    <t>16455757</t>
-  </si>
-  <si>
-    <t>82074425</t>
-  </si>
-  <si>
-    <t>72451108</t>
-  </si>
-  <si>
-    <t>6782696</t>
-  </si>
-  <si>
-    <t>64050545</t>
-  </si>
-  <si>
-    <t>1159809</t>
+    <t>https://coinranking.com/coin/GSCt2y6YSgO26+chiliz-chz</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/ixgUfzmLR+aave-aave</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/tEf7-dnwV3BXS+decentraland-mana</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/VcMY11NONHSA0+bitcoinsv-bsv</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/omwkOTglq+elrond-egld</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/QQ0NCmjVq+flow-flow</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/B42IRxNtoYmwK+thetatoken-theta</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/fsIbGOEJWbzxG+tezos-xtz</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/z2PZIKQL7+usdd-usdd</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/aRGRWLf2RYNq4+zcash-zec</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/HGYj5JCv5+aptos-apt</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/ql3Jj4Tge+sushi-sushi</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/w5U609Wze+apecoin-ape</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/w4MqH_Xe8+bittorrent-new-btt</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/qFakph2rpuMOL+maker-mkr</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/k-J3YwacF+woonetwork-woo</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/sgxZRXbK0FDc+synthetixnetwork-snx</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/frw2fHgZ+tokenizexchange-tkx</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/LOO6LmXd7G84Z+kucointoken-kcs</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/C9DwH-T7MEGmo+dash-dash</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/LtWwuVANwRzV_+iota-miota</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/1ZZI6g5k5royD+trueusd-tusd</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/YRTkUcMi+paxgold-paxg</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/aQx_vW8s1+ecash-xec</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/AP-fyKlSf+oectoken-okt</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/cVaOmQWainv7g+neo-neo</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/QGbUTVMjG+curvedaotoken-crv</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/Hi6jNXshVh9FA+nexo-nexo</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/Ru56fDlLB56-v+ravencoin-rvn</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/lT__vMO7l+compounddai-cdai</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/gpRKmM16k+axieinfinity-axs</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/ybmU-kKU+thorchain-rune</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/M9bj_WrX+klaytn-klay</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/IEJOE2-U2+binaryx-bnx</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/uT6akswu0+apenft-nft</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/uIEWfMFnQo9K_+fantom-ftm</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/XZfWhQXu8+vulcanforged-pyr</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/NfeOYfNcl+ftxtoken-ftt</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/3jmxrjOJ8xa4p+zilliqa-zil</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/QUC5kVAxSoB-+mxtoken-mx</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/drWC87t2Vozh+ankr-ankr</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/J7st_qGwz+minaprotocoltoken-mina</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/JY1_q2c0g+babydogecoin-babydoge</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/yecsF9VkR+osmosis-osmo</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/rk5XwL6mIjUDp+celsiusnetwork-cel</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/08CsQa-Ov+wemixtoken-wemix</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/7XWg41D1+arweave-ar</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/SLcGT3CwT+ethereumnameservice-ens</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/qhd1biQ7M+thegraph-grt</t>
+  </si>
+  <si>
+    <t>16842201719</t>
+  </si>
+  <si>
+    <t>6657305249</t>
+  </si>
+  <si>
+    <t>23990814821</t>
+  </si>
+  <si>
+    <t>2259648207</t>
+  </si>
+  <si>
+    <t>517288678</t>
+  </si>
+  <si>
+    <t>833841663</t>
+  </si>
+  <si>
+    <t>6524188785</t>
+  </si>
+  <si>
+    <t>445568125</t>
+  </si>
+  <si>
+    <t>573243232</t>
+  </si>
+  <si>
+    <t>331657030</t>
+  </si>
+  <si>
+    <t>34270766</t>
+  </si>
+  <si>
+    <t>210825766</t>
+  </si>
+  <si>
+    <t>1014943042</t>
+  </si>
+  <si>
+    <t>163473304</t>
+  </si>
+  <si>
+    <t>559526519</t>
+  </si>
+  <si>
+    <t>363225225</t>
+  </si>
+  <si>
+    <t>584225954</t>
+  </si>
+  <si>
+    <t>62254251</t>
+  </si>
+  <si>
+    <t>232090814</t>
+  </si>
+  <si>
+    <t>90954495</t>
+  </si>
+  <si>
+    <t>13611239</t>
+  </si>
+  <si>
+    <t>383848300</t>
+  </si>
+  <si>
+    <t>154548553</t>
+  </si>
+  <si>
+    <t>30406298</t>
+  </si>
+  <si>
+    <t>39243517</t>
+  </si>
+  <si>
+    <t>157771018</t>
+  </si>
+  <si>
+    <t>358913302</t>
+  </si>
+  <si>
+    <t>8744903</t>
+  </si>
+  <si>
+    <t>162449721</t>
+  </si>
+  <si>
+    <t>163752968</t>
+  </si>
+  <si>
+    <t>49059415</t>
+  </si>
+  <si>
+    <t>54333582</t>
+  </si>
+  <si>
+    <t>53749066</t>
+  </si>
+  <si>
+    <t>3573971</t>
+  </si>
+  <si>
+    <t>7194217</t>
+  </si>
+  <si>
+    <t>6098915</t>
+  </si>
+  <si>
+    <t>166081934</t>
+  </si>
+  <si>
+    <t>23615783</t>
+  </si>
+  <si>
+    <t>29215066</t>
+  </si>
+  <si>
+    <t>73561983</t>
+  </si>
+  <si>
+    <t>18206678</t>
+  </si>
+  <si>
+    <t>30144049</t>
+  </si>
+  <si>
+    <t>126030005</t>
+  </si>
+  <si>
+    <t>76558508</t>
+  </si>
+  <si>
+    <t>13728260</t>
+  </si>
+  <si>
+    <t>2806317</t>
+  </si>
+  <si>
+    <t>98902478</t>
+  </si>
+  <si>
+    <t>30231316</t>
+  </si>
+  <si>
+    <t>3581252</t>
+  </si>
+  <si>
+    <t>97555718</t>
+  </si>
+  <si>
+    <t>929159</t>
+  </si>
+  <si>
+    <t>295661354</t>
+  </si>
+  <si>
+    <t>61208939</t>
+  </si>
+  <si>
+    <t>157727632</t>
+  </si>
+  <si>
+    <t>64229269</t>
+  </si>
+  <si>
+    <t>27505247</t>
+  </si>
+  <si>
+    <t>30453807</t>
+  </si>
+  <si>
+    <t>30015870</t>
+  </si>
+  <si>
+    <t>21935088</t>
+  </si>
+  <si>
+    <t>21540466</t>
+  </si>
+  <si>
+    <t>107020075</t>
+  </si>
+  <si>
+    <t>904889956</t>
+  </si>
+  <si>
+    <t>94809322</t>
+  </si>
+  <si>
+    <t>316574676</t>
+  </si>
+  <si>
+    <t>5570377</t>
+  </si>
+  <si>
+    <t>26908835</t>
+  </si>
+  <si>
+    <t>104480258</t>
+  </si>
+  <si>
+    <t>28737567</t>
+  </si>
+  <si>
+    <t>9757989</t>
+  </si>
+  <si>
+    <t>861021</t>
+  </si>
+  <si>
+    <t>95654099</t>
+  </si>
+  <si>
+    <t>6204219</t>
+  </si>
+  <si>
+    <t>30856164</t>
+  </si>
+  <si>
+    <t>8591674</t>
+  </si>
+  <si>
+    <t>6234700</t>
+  </si>
+  <si>
+    <t>7190221</t>
+  </si>
+  <si>
+    <t>31660544</t>
+  </si>
+  <si>
+    <t>64345119</t>
+  </si>
+  <si>
+    <t>7668192</t>
+  </si>
+  <si>
+    <t>15414924</t>
+  </si>
+  <si>
+    <t>1116298</t>
+  </si>
+  <si>
+    <t>85362525</t>
+  </si>
+  <si>
+    <t>32638496</t>
+  </si>
+  <si>
+    <t>21684857</t>
+  </si>
+  <si>
+    <t>3457729</t>
+  </si>
+  <si>
+    <t>11427807</t>
+  </si>
+  <si>
+    <t>91296676</t>
+  </si>
+  <si>
+    <t>35624072</t>
+  </si>
+  <si>
+    <t>34216650</t>
+  </si>
+  <si>
+    <t>191147824</t>
+  </si>
+  <si>
+    <t>1135202</t>
+  </si>
+  <si>
+    <t>36089866</t>
+  </si>
+  <si>
+    <t>37592131</t>
+  </si>
+  <si>
+    <t>2628551</t>
+  </si>
+  <si>
+    <t>7938984</t>
+  </si>
+  <si>
+    <t>2628927</t>
+  </si>
+  <si>
+    <t>922415</t>
+  </si>
+  <si>
+    <t>24330602</t>
+  </si>
+  <si>
+    <t>20326432</t>
+  </si>
+  <si>
+    <t>39262242</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>0.0746490669317227</t>
-  </si>
-  <si>
-    <t>0.000058998307019433</t>
-  </si>
-  <si>
-    <t>0.000058998019623869</t>
-  </si>
-  <si>
-    <t>0.015616253031711342</t>
-  </si>
-  <si>
-    <t>0.000020069067610543</t>
-  </si>
-  <si>
-    <t>0.000058982801672884</t>
-  </si>
-  <si>
-    <t>0.000016943307291057</t>
-  </si>
-  <si>
-    <t>0.000004246007962476</t>
-  </si>
-  <si>
-    <t>0.000047551489842991</t>
-  </si>
-  <si>
-    <t>0.001562046156952813</t>
-  </si>
-  <si>
-    <t>0.000342537228527525</t>
-  </si>
-  <si>
-    <t>0.000278045847454812</t>
-  </si>
-  <si>
-    <t>0.00447970545305842</t>
-  </si>
-  <si>
-    <t>0.07469344661480659</t>
-  </si>
-  <si>
-    <t>0.00005893872289217</t>
-  </si>
-  <si>
-    <t>0.000809006472313946</t>
-  </si>
-  <si>
-    <t>4.9730971e-10</t>
-  </si>
-  <si>
-    <t>0.000003105456321532</t>
-  </si>
-  <si>
-    <t>0.000321704863353887</t>
-  </si>
-  <si>
-    <t>0.000024409777959674</t>
-  </si>
-  <si>
-    <t>0.000698674015270758</t>
-  </si>
-  <si>
-    <t>0.000612742476819971</t>
-  </si>
-  <si>
-    <t>0.000128633687339912</t>
-  </si>
-  <si>
-    <t>0.9987376020712025</t>
-  </si>
-  <si>
-    <t>0.00913096564666678</t>
-  </si>
-  <si>
-    <t>0.001169593968979013</t>
-  </si>
-  <si>
-    <t>0.000277033716452934</t>
-  </si>
-  <si>
-    <t>0.006013998195697887</t>
-  </si>
-  <si>
-    <t>0.000095172348800147</t>
-  </si>
-  <si>
-    <t>0.000082325849469587</t>
-  </si>
-  <si>
-    <t>0.000004432138962966</t>
-  </si>
-  <si>
-    <t>0.000011388791198608</t>
-  </si>
-  <si>
-    <t>0.000058958641763766</t>
-  </si>
-  <si>
-    <t>0.0818050864322383</t>
-  </si>
-  <si>
-    <t>0.000689542387392992</t>
-  </si>
-  <si>
-    <t>0.000195745848809437</t>
-  </si>
-  <si>
-    <t>0.000238560879649871</t>
-  </si>
-  <si>
-    <t>0.000199350256260767</t>
-  </si>
-  <si>
-    <t>9.72746807026e-7</t>
-  </si>
-  <si>
-    <t>0.006615983864357443</t>
-  </si>
-  <si>
-    <t>9.082956648e-9</t>
-  </si>
-  <si>
-    <t>0.000058923470482182</t>
-  </si>
-  <si>
-    <t>0.000002381777177771</t>
-  </si>
-  <si>
-    <t>0.000003592360762546</t>
-  </si>
-  <si>
-    <t>0.000027417369485217</t>
-  </si>
-  <si>
-    <t>0.00009331286390505</t>
-  </si>
-  <si>
-    <t>0.000309511119527468</t>
-  </si>
-  <si>
-    <t>0.000052484916841656</t>
-  </si>
-  <si>
-    <t>0.000059224710961966</t>
+    <t>0.07644945878002887</t>
+  </si>
+  <si>
+    <t>0.000057411297676638</t>
+  </si>
+  <si>
+    <t>0.000057410838754561</t>
+  </si>
+  <si>
+    <t>0.015786702540638513</t>
+  </si>
+  <si>
+    <t>0.000020099404529539</t>
+  </si>
+  <si>
+    <t>0.000057408657543254</t>
+  </si>
+  <si>
+    <t>0.000018078929765311</t>
+  </si>
+  <si>
+    <t>0.000004407907329085</t>
+  </si>
+  <si>
+    <t>0.000048983510293636</t>
+  </si>
+  <si>
+    <t>0.00156238316733678</t>
+  </si>
+  <si>
+    <t>0.000351054515613077</t>
+  </si>
+  <si>
+    <t>0.000922651470331947</t>
+  </si>
+  <si>
+    <t>0.000279895288618077</t>
+  </si>
+  <si>
+    <t>0.004626221264817372</t>
+  </si>
+  <si>
+    <t>0.07644509010275442</t>
+  </si>
+  <si>
+    <t>5.13764888e-10</t>
+  </si>
+  <si>
+    <t>0.000057426978675223</t>
+  </si>
+  <si>
+    <t>0.000003158216835502</t>
+  </si>
+  <si>
+    <t>0.000327189804455735</t>
+  </si>
+  <si>
+    <t>0.000025537040028602</t>
+  </si>
+  <si>
+    <t>0.000717925027235273</t>
+  </si>
+  <si>
+    <t>0.00064176955229989</t>
+  </si>
+  <si>
+    <t>0.9967977897803646</t>
+  </si>
+  <si>
+    <t>0.000121483847879726</t>
+  </si>
+  <si>
+    <t>0.009238993040003288</t>
+  </si>
+  <si>
+    <t>0.001134268911391083</t>
+  </si>
+  <si>
+    <t>0.000280347744469563</t>
+  </si>
+  <si>
+    <t>0.000109914664481908</t>
+  </si>
+  <si>
+    <t>0.006151447260416607</t>
+  </si>
+  <si>
+    <t>0.000084720200427479</t>
+  </si>
+  <si>
+    <t>0.000004520373954327</t>
+  </si>
+  <si>
+    <t>0.000011515236115232</t>
+  </si>
+  <si>
+    <t>0.000057392601201226</t>
+  </si>
+  <si>
+    <t>0.08391755006413791</t>
+  </si>
+  <si>
+    <t>0.0007007502637911</t>
+  </si>
+  <si>
+    <t>0.000213388207547724</t>
+  </si>
+  <si>
+    <t>0.000245445466358695</t>
+  </si>
+  <si>
+    <t>0.007002263148091617</t>
+  </si>
+  <si>
+    <t>0.000001021259513189</t>
+  </si>
+  <si>
+    <t>0.000193949691206776</t>
+  </si>
+  <si>
+    <t>0.000002530208094925</t>
+  </si>
+  <si>
+    <t>9.429544219e-9</t>
+  </si>
+  <si>
+    <t>0.000029055633755491</t>
+  </si>
+  <si>
+    <t>0.000003669346857607</t>
+  </si>
+  <si>
+    <t>0.000057230987285294</t>
+  </si>
+  <si>
+    <t>0.000092548918363145</t>
+  </si>
+  <si>
+    <t>0.000027630795209267</t>
+  </si>
+  <si>
+    <t>0.000309362541881183</t>
+  </si>
+  <si>
+    <t>0.000054094708663739</t>
+  </si>
+  <si>
+    <t>0.000057457482717143</t>
+  </si>
+  <si>
+    <t>0.00000673774223659</t>
+  </si>
+  <si>
+    <t>0.003520205931290147</t>
+  </si>
+  <si>
+    <t>0.000022614421901725</t>
+  </si>
+  <si>
+    <t>0.002550336495163986</t>
+  </si>
+  <si>
+    <t>0.002024199166558585</t>
+  </si>
+  <si>
+    <t>0.000045030760722575</t>
+  </si>
+  <si>
+    <t>0.000045878973599874</t>
+  </si>
+  <si>
+    <t>0.000047222241253093</t>
+  </si>
+  <si>
+    <t>0.00005627464562735</t>
+  </si>
+  <si>
+    <t>0.002513652508917265</t>
+  </si>
+  <si>
+    <t>0.000302290133997673</t>
+  </si>
+  <si>
+    <t>0.000063281988926074</t>
+  </si>
+  <si>
+    <t>0.00027421190904779</t>
+  </si>
+  <si>
+    <t>3.76721e-11</t>
+  </si>
+  <si>
+    <t>0.0360042931495147</t>
+  </si>
+  <si>
+    <t>0.00000965962321159</t>
+  </si>
+  <si>
+    <t>0.000101836713814913</t>
+  </si>
+  <si>
+    <t>0.000382416288787645</t>
+  </si>
+  <si>
+    <t>0.000397938280070464</t>
+  </si>
+  <si>
+    <t>0.002723144800098335</t>
+  </si>
+  <si>
+    <t>0.000010766518067178</t>
+  </si>
+  <si>
+    <t>0.000057412679051662</t>
+  </si>
+  <si>
+    <t>0.10708286318001499</t>
+  </si>
+  <si>
+    <t>1.446671153e-9</t>
+  </si>
+  <si>
+    <t>0.001557414061790457</t>
+  </si>
+  <si>
+    <t>0.0003893672101154</t>
+  </si>
+  <si>
+    <t>0.000037778169397806</t>
+  </si>
+  <si>
+    <t>0.000041453633550682</t>
+  </si>
+  <si>
+    <t>0.00000123446888179</t>
+  </si>
+  <si>
+    <t>0.00000127120310621</t>
+  </si>
+  <si>
+    <t>0.00042192416338374</t>
+  </si>
+  <si>
+    <t>0.000082806992237927</t>
+  </si>
+  <si>
+    <t>0.000010115472976969</t>
+  </si>
+  <si>
+    <t>0.004045677353083599</t>
+  </si>
+  <si>
+    <t>2.4041027e-11</t>
+  </si>
+  <si>
+    <t>0.000013697974040932</t>
+  </si>
+  <si>
+    <t>0.000203230501210932</t>
+  </si>
+  <si>
+    <t>0.000069544281773097</t>
+  </si>
+  <si>
+    <t>0.000001333725017391</t>
+  </si>
+  <si>
+    <t>0.000050274090195694</t>
+  </si>
+  <si>
+    <t>0.000001123649857906</t>
+  </si>
+  <si>
+    <t>0.000028679901131335</t>
+  </si>
+  <si>
+    <t>6.0862e-14</t>
+  </si>
+  <si>
+    <t>0.000043721443253857</t>
+  </si>
+  <si>
+    <t>0.00003060416234696</t>
+  </si>
+  <si>
+    <t>0.000020913368841219</t>
+  </si>
+  <si>
+    <t>0.000438367359801598</t>
+  </si>
+  <si>
+    <t>0.000700895096291785</t>
+  </si>
+  <si>
+    <t>0.000004085525949525</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +3885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2221,22 +3949,22 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>307</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>202</v>
+        <v>384</v>
       </c>
       <c r="G2" t="s">
-        <v>252</v>
+        <v>484</v>
       </c>
       <c r="H2" t="s">
-        <v>302</v>
+        <v>584</v>
       </c>
       <c r="I2">
         <v>1330214400</v>
@@ -2245,25 +3973,25 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>352</v>
+        <v>684</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>391</v>
+        <v>767</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>441</v>
+        <v>867</v>
       </c>
       <c r="P2" t="s">
-        <v>491</v>
+        <v>967</v>
       </c>
       <c r="Q2" t="s">
-        <v>541</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2274,22 +4002,22 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>308</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>203</v>
+        <v>385</v>
       </c>
       <c r="G3" t="s">
-        <v>253</v>
+        <v>485</v>
       </c>
       <c r="H3" t="s">
-        <v>303</v>
+        <v>585</v>
       </c>
       <c r="I3">
         <v>1438905600</v>
@@ -2298,25 +4026,25 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>353</v>
+        <v>685</v>
       </c>
       <c r="L3">
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>392</v>
+        <v>768</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>442</v>
+        <v>868</v>
       </c>
       <c r="P3" t="s">
-        <v>492</v>
+        <v>968</v>
       </c>
       <c r="Q3" t="s">
-        <v>542</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2327,22 +4055,22 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>309</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>204</v>
+        <v>386</v>
       </c>
       <c r="G4" t="s">
-        <v>254</v>
+        <v>486</v>
       </c>
       <c r="H4" t="s">
-        <v>304</v>
+        <v>586</v>
       </c>
       <c r="I4">
         <v>1420761600</v>
@@ -2351,25 +4079,25 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>354</v>
+        <v>686</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>393</v>
+        <v>769</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>443</v>
+        <v>869</v>
       </c>
       <c r="P4" t="s">
-        <v>493</v>
+        <v>969</v>
       </c>
       <c r="Q4" t="s">
-        <v>543</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2380,22 +4108,22 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>310</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>205</v>
+        <v>387</v>
       </c>
       <c r="G5" t="s">
-        <v>255</v>
+        <v>487</v>
       </c>
       <c r="H5" t="s">
-        <v>305</v>
+        <v>587</v>
       </c>
       <c r="I5">
         <v>1539043200</v>
@@ -2404,25 +4132,25 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>355</v>
+        <v>687</v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>394</v>
+        <v>770</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>444</v>
+        <v>870</v>
       </c>
       <c r="P5" t="s">
-        <v>494</v>
+        <v>970</v>
       </c>
       <c r="Q5" t="s">
-        <v>544</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2433,22 +4161,22 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>311</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>206</v>
+        <v>388</v>
       </c>
       <c r="G6" t="s">
-        <v>256</v>
+        <v>488</v>
       </c>
       <c r="H6" t="s">
-        <v>306</v>
+        <v>588</v>
       </c>
       <c r="I6">
         <v>1503014400</v>
@@ -2457,25 +4185,25 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>356</v>
+        <v>688</v>
       </c>
       <c r="L6">
         <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>395</v>
+        <v>771</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>445</v>
+        <v>871</v>
       </c>
       <c r="P6" t="s">
-        <v>495</v>
+        <v>971</v>
       </c>
       <c r="Q6" t="s">
-        <v>545</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2486,22 +4214,22 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>312</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>207</v>
+        <v>389</v>
       </c>
       <c r="G7" t="s">
-        <v>257</v>
+        <v>489</v>
       </c>
       <c r="H7" t="s">
-        <v>307</v>
+        <v>589</v>
       </c>
       <c r="I7">
         <v>1421798400</v>
@@ -2510,25 +4238,25 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>357</v>
+        <v>689</v>
       </c>
       <c r="L7">
         <v>6</v>
       </c>
       <c r="M7" t="s">
-        <v>396</v>
+        <v>772</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>446</v>
+        <v>872</v>
       </c>
       <c r="P7" t="s">
-        <v>496</v>
+        <v>972</v>
       </c>
       <c r="Q7" t="s">
-        <v>546</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2539,22 +4267,22 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>218</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>313</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>208</v>
+        <v>390</v>
       </c>
       <c r="G8" t="s">
-        <v>258</v>
+        <v>490</v>
       </c>
       <c r="H8" t="s">
-        <v>308</v>
+        <v>590</v>
       </c>
       <c r="I8">
         <v>1563197940</v>
@@ -2563,25 +4291,25 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>354</v>
+        <v>690</v>
       </c>
       <c r="L8">
         <v>7</v>
       </c>
       <c r="M8" t="s">
-        <v>397</v>
+        <v>773</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>447</v>
+        <v>873</v>
       </c>
       <c r="P8" t="s">
-        <v>497</v>
+        <v>973</v>
       </c>
       <c r="Q8" t="s">
-        <v>547</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2592,22 +4320,22 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>219</v>
       </c>
       <c r="E9" t="s">
-        <v>168</v>
+        <v>314</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>209</v>
+        <v>391</v>
       </c>
       <c r="G9" t="s">
-        <v>259</v>
+        <v>491</v>
       </c>
       <c r="H9" t="s">
-        <v>309</v>
+        <v>591</v>
       </c>
       <c r="I9">
         <v>1506902400</v>
@@ -2616,25 +4344,25 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>358</v>
+        <v>691</v>
       </c>
       <c r="L9">
         <v>8</v>
       </c>
       <c r="M9" t="s">
-        <v>398</v>
+        <v>774</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>448</v>
+        <v>874</v>
       </c>
       <c r="P9" t="s">
-        <v>498</v>
+        <v>974</v>
       </c>
       <c r="Q9" t="s">
-        <v>548</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2645,22 +4373,22 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>220</v>
       </c>
       <c r="E10" t="s">
-        <v>169</v>
+        <v>315</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>210</v>
+        <v>392</v>
       </c>
       <c r="G10" t="s">
-        <v>260</v>
+        <v>492</v>
       </c>
       <c r="H10" t="s">
-        <v>310</v>
+        <v>592</v>
       </c>
       <c r="I10">
         <v>1391212800</v>
@@ -2669,25 +4397,25 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>359</v>
+        <v>692</v>
       </c>
       <c r="L10">
         <v>9</v>
       </c>
       <c r="M10" t="s">
-        <v>399</v>
+        <v>775</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>449</v>
+        <v>875</v>
       </c>
       <c r="P10" t="s">
-        <v>499</v>
+        <v>975</v>
       </c>
       <c r="Q10" t="s">
-        <v>549</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2698,22 +4426,22 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>221</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>316</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>211</v>
+        <v>393</v>
       </c>
       <c r="G11" t="s">
-        <v>261</v>
+        <v>493</v>
       </c>
       <c r="H11" t="s">
-        <v>311</v>
+        <v>593</v>
       </c>
       <c r="I11">
         <v>1558961160</v>
@@ -2722,25 +4450,25 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>359</v>
+        <v>693</v>
       </c>
       <c r="L11">
         <v>10</v>
       </c>
       <c r="M11" t="s">
-        <v>400</v>
+        <v>776</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>450</v>
+        <v>876</v>
       </c>
       <c r="P11" t="s">
-        <v>500</v>
+        <v>976</v>
       </c>
       <c r="Q11" t="s">
-        <v>550</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2751,22 +4479,22 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>317</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>212</v>
+        <v>394</v>
       </c>
       <c r="G12" t="s">
-        <v>262</v>
+        <v>494</v>
       </c>
       <c r="H12" t="s">
-        <v>312</v>
+        <v>594</v>
       </c>
       <c r="I12">
         <v>1538524800</v>
@@ -2775,25 +4503,25 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>360</v>
+        <v>694</v>
       </c>
       <c r="L12">
         <v>11</v>
       </c>
       <c r="M12" t="s">
-        <v>401</v>
+        <v>777</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>451</v>
+        <v>877</v>
       </c>
       <c r="P12" t="s">
-        <v>501</v>
+        <v>977</v>
       </c>
       <c r="Q12" t="s">
-        <v>551</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2804,22 +4532,22 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>222</v>
       </c>
       <c r="E13" t="s">
-        <v>172</v>
+        <v>318</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>213</v>
+        <v>395</v>
       </c>
       <c r="G13" t="s">
-        <v>263</v>
+        <v>495</v>
       </c>
       <c r="H13" t="s">
-        <v>313</v>
+        <v>595</v>
       </c>
       <c r="I13">
         <v>1505952000</v>
@@ -2828,25 +4556,25 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>361</v>
+        <v>695</v>
       </c>
       <c r="L13">
         <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>402</v>
+        <v>778</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>452</v>
+        <v>878</v>
       </c>
       <c r="P13" t="s">
-        <v>502</v>
+        <v>978</v>
       </c>
       <c r="Q13" t="s">
-        <v>552</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2857,49 +4585,49 @@
         <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>223</v>
       </c>
       <c r="E14" t="s">
-        <v>173</v>
+        <v>312</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>214</v>
+        <v>396</v>
       </c>
       <c r="G14" t="s">
-        <v>264</v>
+        <v>496</v>
       </c>
       <c r="H14" t="s">
-        <v>314</v>
+        <v>596</v>
       </c>
       <c r="I14">
-        <v>1598365200</v>
+        <v>1586539320</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>362</v>
+        <v>696</v>
       </c>
       <c r="L14">
         <v>13</v>
       </c>
       <c r="M14" t="s">
-        <v>403</v>
+        <v>779</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>453</v>
+        <v>879</v>
       </c>
       <c r="P14" t="s">
-        <v>503</v>
+        <v>979</v>
       </c>
       <c r="Q14" t="s">
-        <v>553</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2910,49 +4638,49 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c r="E15" t="s">
-        <v>174</v>
+        <v>319</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>215</v>
+        <v>397</v>
       </c>
       <c r="G15" t="s">
-        <v>265</v>
+        <v>497</v>
       </c>
       <c r="H15" t="s">
-        <v>315</v>
+        <v>597</v>
       </c>
       <c r="I15">
-        <v>1382572800</v>
+        <v>1598365200</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>363</v>
+        <v>697</v>
       </c>
       <c r="L15">
         <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>404</v>
+        <v>780</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>454</v>
+        <v>880</v>
       </c>
       <c r="P15" t="s">
-        <v>504</v>
+        <v>980</v>
       </c>
       <c r="Q15" t="s">
-        <v>554</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2963,49 +4691,49 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="E16" t="s">
-        <v>175</v>
+        <v>320</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>216</v>
+        <v>398</v>
       </c>
       <c r="G16" t="s">
-        <v>266</v>
+        <v>498</v>
       </c>
       <c r="H16" t="s">
-        <v>316</v>
+        <v>598</v>
       </c>
       <c r="I16">
-        <v>1600259445</v>
+        <v>1382572800</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>364</v>
+        <v>698</v>
       </c>
       <c r="L16">
         <v>15</v>
       </c>
       <c r="M16" t="s">
-        <v>405</v>
+        <v>781</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>455</v>
+        <v>881</v>
       </c>
       <c r="P16" t="s">
-        <v>505</v>
+        <v>981</v>
       </c>
       <c r="Q16" t="s">
-        <v>555</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3016,49 +4744,49 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>226</v>
       </c>
       <c r="E17" t="s">
-        <v>176</v>
+        <v>321</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>217</v>
+        <v>399</v>
       </c>
       <c r="G17" t="s">
-        <v>267</v>
+        <v>499</v>
       </c>
       <c r="H17" t="s">
-        <v>317</v>
+        <v>599</v>
       </c>
       <c r="I17">
-        <v>1585574040</v>
+        <v>1600259445</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>365</v>
+        <v>699</v>
       </c>
       <c r="L17">
         <v>16</v>
       </c>
       <c r="M17" t="s">
-        <v>406</v>
+        <v>782</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>456</v>
+        <v>882</v>
       </c>
       <c r="P17" t="s">
-        <v>506</v>
+        <v>982</v>
       </c>
       <c r="Q17" t="s">
-        <v>556</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3069,49 +4797,49 @@
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>227</v>
       </c>
       <c r="E18" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>218</v>
+        <v>400</v>
       </c>
       <c r="G18" t="s">
-        <v>268</v>
+        <v>500</v>
       </c>
       <c r="H18" t="s">
-        <v>318</v>
+        <v>600</v>
       </c>
       <c r="I18">
-        <v>1586539320</v>
+        <v>1620650373</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>366</v>
+        <v>700</v>
       </c>
       <c r="L18">
         <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>407</v>
+        <v>783</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>457</v>
+        <v>883</v>
       </c>
       <c r="P18" t="s">
-        <v>507</v>
+        <v>983</v>
       </c>
       <c r="Q18" t="s">
-        <v>557</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -3122,49 +4850,49 @@
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="E19" t="s">
-        <v>177</v>
+        <v>323</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>219</v>
+        <v>401</v>
       </c>
       <c r="G19" t="s">
-        <v>269</v>
+        <v>501</v>
       </c>
       <c r="H19" t="s">
-        <v>319</v>
+        <v>601</v>
       </c>
       <c r="I19">
-        <v>1620650373</v>
+        <v>1585574040</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>367</v>
+        <v>686</v>
       </c>
       <c r="L19">
         <v>18</v>
       </c>
       <c r="M19" t="s">
-        <v>408</v>
+        <v>784</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>458</v>
+        <v>884</v>
       </c>
       <c r="P19" t="s">
-        <v>508</v>
+        <v>984</v>
       </c>
       <c r="Q19" t="s">
-        <v>558</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -3175,22 +4903,22 @@
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>229</v>
       </c>
       <c r="E20" t="s">
-        <v>178</v>
+        <v>324</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>220</v>
+        <v>402</v>
       </c>
       <c r="G20" t="s">
-        <v>270</v>
+        <v>502</v>
       </c>
       <c r="H20" t="s">
-        <v>320</v>
+        <v>602</v>
       </c>
       <c r="I20">
         <v>1505260800</v>
@@ -3199,25 +4927,25 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>368</v>
+        <v>701</v>
       </c>
       <c r="L20">
         <v>19</v>
       </c>
       <c r="M20" t="s">
-        <v>409</v>
+        <v>785</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>459</v>
+        <v>885</v>
       </c>
       <c r="P20" t="s">
-        <v>509</v>
+        <v>985</v>
       </c>
       <c r="Q20" t="s">
-        <v>559</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -3228,22 +4956,22 @@
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="E21" t="s">
-        <v>179</v>
+        <v>325</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>221</v>
+        <v>403</v>
       </c>
       <c r="G21" t="s">
-        <v>271</v>
+        <v>503</v>
       </c>
       <c r="H21" t="s">
-        <v>321</v>
+        <v>603</v>
       </c>
       <c r="I21">
         <v>1600323371</v>
@@ -3252,25 +4980,25 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>369</v>
+        <v>702</v>
       </c>
       <c r="L21">
         <v>20</v>
       </c>
       <c r="M21" t="s">
-        <v>410</v>
+        <v>786</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>460</v>
+        <v>886</v>
       </c>
       <c r="P21" t="s">
-        <v>510</v>
+        <v>986</v>
       </c>
       <c r="Q21" t="s">
-        <v>560</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -3281,22 +5009,22 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c r="E22" t="s">
-        <v>166</v>
+        <v>312</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>222</v>
+        <v>404</v>
       </c>
       <c r="G22" t="s">
-        <v>272</v>
+        <v>504</v>
       </c>
       <c r="H22" t="s">
-        <v>322</v>
+        <v>604</v>
       </c>
       <c r="I22">
         <v>1639033619</v>
@@ -3304,26 +5032,23 @@
       <c r="J22">
         <v>1</v>
       </c>
-      <c r="K22" t="s">
-        <v>370</v>
-      </c>
       <c r="L22">
         <v>21</v>
       </c>
       <c r="M22" t="s">
-        <v>411</v>
+        <v>787</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>461</v>
+        <v>887</v>
       </c>
       <c r="P22" t="s">
-        <v>511</v>
+        <v>987</v>
       </c>
       <c r="Q22" t="s">
-        <v>561</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -3334,22 +5059,22 @@
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="E23" t="s">
-        <v>180</v>
+        <v>326</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>223</v>
+        <v>405</v>
       </c>
       <c r="G23" t="s">
-        <v>273</v>
+        <v>505</v>
       </c>
       <c r="H23" t="s">
-        <v>323</v>
+        <v>605</v>
       </c>
       <c r="I23">
         <v>1600961596</v>
@@ -3358,25 +5083,25 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>371</v>
+        <v>703</v>
       </c>
       <c r="L23">
         <v>22</v>
       </c>
       <c r="M23" t="s">
-        <v>412</v>
+        <v>788</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>462</v>
+        <v>888</v>
       </c>
       <c r="P23" t="s">
-        <v>512</v>
+        <v>988</v>
       </c>
       <c r="Q23" t="s">
-        <v>562</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -3387,22 +5112,22 @@
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>233</v>
       </c>
       <c r="E24" t="s">
-        <v>181</v>
+        <v>327</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>224</v>
+        <v>406</v>
       </c>
       <c r="G24" t="s">
-        <v>274</v>
+        <v>506</v>
       </c>
       <c r="H24" t="s">
-        <v>324</v>
+        <v>606</v>
       </c>
       <c r="I24">
         <v>1552520100</v>
@@ -3411,25 +5136,25 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>372</v>
+        <v>704</v>
       </c>
       <c r="L24">
         <v>23</v>
       </c>
       <c r="M24" t="s">
-        <v>413</v>
+        <v>789</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>463</v>
+        <v>889</v>
       </c>
       <c r="P24" t="s">
-        <v>513</v>
+        <v>989</v>
       </c>
       <c r="Q24" t="s">
-        <v>563</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -3440,49 +5165,49 @@
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="E25" t="s">
-        <v>182</v>
+        <v>312</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>225</v>
+        <v>407</v>
       </c>
       <c r="G25" t="s">
-        <v>275</v>
+        <v>507</v>
       </c>
       <c r="H25" t="s">
-        <v>325</v>
+        <v>607</v>
       </c>
       <c r="I25">
-        <v>1640268459</v>
+        <v>1549894980</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>373</v>
+        <v>705</v>
       </c>
       <c r="L25">
         <v>24</v>
       </c>
       <c r="M25" t="s">
-        <v>414</v>
+        <v>790</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>464</v>
+        <v>890</v>
       </c>
       <c r="P25" t="s">
-        <v>514</v>
+        <v>990</v>
       </c>
       <c r="Q25" t="s">
-        <v>564</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -3493,49 +5218,46 @@
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>235</v>
       </c>
       <c r="E26" t="s">
-        <v>166</v>
+        <v>328</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>226</v>
+        <v>408</v>
       </c>
       <c r="G26" t="s">
-        <v>276</v>
+        <v>508</v>
       </c>
       <c r="H26" t="s">
-        <v>326</v>
+        <v>608</v>
       </c>
       <c r="I26">
-        <v>1549894980</v>
+        <v>1640268459</v>
       </c>
       <c r="J26">
         <v>1</v>
-      </c>
-      <c r="K26" t="s">
-        <v>374</v>
       </c>
       <c r="L26">
         <v>25</v>
       </c>
       <c r="M26" t="s">
-        <v>415</v>
+        <v>791</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>465</v>
+        <v>891</v>
       </c>
       <c r="P26" t="s">
-        <v>515</v>
+        <v>991</v>
       </c>
       <c r="Q26" t="s">
-        <v>565</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -3546,22 +5268,22 @@
         <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>236</v>
       </c>
       <c r="E27" t="s">
-        <v>183</v>
+        <v>329</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>227</v>
+        <v>409</v>
       </c>
       <c r="G27" t="s">
-        <v>277</v>
+        <v>509</v>
       </c>
       <c r="H27" t="s">
-        <v>327</v>
+        <v>609</v>
       </c>
       <c r="I27">
         <v>1422489600</v>
@@ -3570,25 +5292,25 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>375</v>
+        <v>706</v>
       </c>
       <c r="L27">
         <v>26</v>
       </c>
       <c r="M27" t="s">
-        <v>416</v>
+        <v>792</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>466</v>
+        <v>892</v>
       </c>
       <c r="P27" t="s">
-        <v>516</v>
+        <v>992</v>
       </c>
       <c r="Q27" t="s">
-        <v>566</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -3599,22 +5321,22 @@
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>237</v>
       </c>
       <c r="E28" t="s">
-        <v>184</v>
+        <v>330</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>228</v>
+        <v>410</v>
       </c>
       <c r="G28" t="s">
-        <v>278</v>
+        <v>510</v>
       </c>
       <c r="H28" t="s">
-        <v>328</v>
+        <v>610</v>
       </c>
       <c r="I28">
         <v>1469577600</v>
@@ -3623,25 +5345,25 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>376</v>
+        <v>707</v>
       </c>
       <c r="L28">
         <v>27</v>
       </c>
       <c r="M28" t="s">
-        <v>417</v>
+        <v>793</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>467</v>
+        <v>893</v>
       </c>
       <c r="P28" t="s">
-        <v>517</v>
+        <v>993</v>
       </c>
       <c r="Q28" t="s">
-        <v>567</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -3652,22 +5374,22 @@
         <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="D29" t="s">
-        <v>139</v>
+        <v>238</v>
       </c>
       <c r="E29" t="s">
-        <v>185</v>
+        <v>331</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>229</v>
+        <v>411</v>
       </c>
       <c r="G29" t="s">
-        <v>279</v>
+        <v>511</v>
       </c>
       <c r="H29" t="s">
-        <v>329</v>
+        <v>611</v>
       </c>
       <c r="I29">
         <v>1517702400</v>
@@ -3676,25 +5398,25 @@
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>368</v>
+        <v>708</v>
       </c>
       <c r="L29">
         <v>28</v>
       </c>
       <c r="M29" t="s">
-        <v>418</v>
+        <v>794</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>468</v>
+        <v>894</v>
       </c>
       <c r="P29" t="s">
-        <v>518</v>
+        <v>994</v>
       </c>
       <c r="Q29" t="s">
-        <v>568</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -3705,49 +5427,49 @@
         <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>239</v>
       </c>
       <c r="E30" t="s">
-        <v>186</v>
+        <v>332</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>230</v>
+        <v>412</v>
       </c>
       <c r="G30" t="s">
-        <v>280</v>
+        <v>512</v>
       </c>
       <c r="H30" t="s">
-        <v>330</v>
+        <v>612</v>
       </c>
       <c r="I30">
-        <v>1541808000</v>
+        <v>1627361901</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>377</v>
+        <v>709</v>
       </c>
       <c r="L30">
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>419</v>
+        <v>795</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>469</v>
+        <v>895</v>
       </c>
       <c r="P30" t="s">
-        <v>519</v>
+        <v>995</v>
       </c>
       <c r="Q30" t="s">
-        <v>569</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -3758,49 +5480,49 @@
         <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>240</v>
       </c>
       <c r="E31" t="s">
-        <v>187</v>
+        <v>333</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>231</v>
+        <v>413</v>
       </c>
       <c r="G31" t="s">
-        <v>281</v>
+        <v>513</v>
       </c>
       <c r="H31" t="s">
-        <v>331</v>
+        <v>613</v>
       </c>
       <c r="I31">
-        <v>1627361901</v>
+        <v>1541808000</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>378</v>
+        <v>710</v>
       </c>
       <c r="L31">
         <v>30</v>
       </c>
       <c r="M31" t="s">
-        <v>420</v>
+        <v>796</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>470</v>
+        <v>896</v>
       </c>
       <c r="P31" t="s">
-        <v>520</v>
+        <v>996</v>
       </c>
       <c r="Q31" t="s">
-        <v>570</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -3811,22 +5533,22 @@
         <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>241</v>
       </c>
       <c r="E32" t="s">
-        <v>188</v>
+        <v>334</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>232</v>
+        <v>414</v>
       </c>
       <c r="G32" t="s">
-        <v>282</v>
+        <v>514</v>
       </c>
       <c r="H32" t="s">
-        <v>332</v>
+        <v>614</v>
       </c>
       <c r="I32">
         <v>1610717385</v>
@@ -3835,25 +5557,25 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>379</v>
+        <v>711</v>
       </c>
       <c r="L32">
         <v>31</v>
       </c>
       <c r="M32" t="s">
-        <v>421</v>
+        <v>797</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>471</v>
+        <v>897</v>
       </c>
       <c r="P32" t="s">
-        <v>521</v>
+        <v>997</v>
       </c>
       <c r="Q32" t="s">
-        <v>571</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -3864,22 +5586,22 @@
         <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="D33" t="s">
-        <v>143</v>
+        <v>242</v>
       </c>
       <c r="E33" t="s">
-        <v>166</v>
+        <v>312</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>233</v>
+        <v>415</v>
       </c>
       <c r="G33" t="s">
-        <v>283</v>
+        <v>515</v>
       </c>
       <c r="H33" t="s">
-        <v>333</v>
+        <v>615</v>
       </c>
       <c r="I33">
         <v>1484611200</v>
@@ -3888,25 +5610,25 @@
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>369</v>
+        <v>712</v>
       </c>
       <c r="L33">
         <v>32</v>
       </c>
       <c r="M33" t="s">
-        <v>422</v>
+        <v>798</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>472</v>
+        <v>898</v>
       </c>
       <c r="P33" t="s">
-        <v>522</v>
+        <v>998</v>
       </c>
       <c r="Q33" t="s">
-        <v>572</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -3917,19 +5639,19 @@
         <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>243</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>234</v>
+        <v>416</v>
       </c>
       <c r="G34" t="s">
-        <v>284</v>
+        <v>516</v>
       </c>
       <c r="H34" t="s">
-        <v>334</v>
+        <v>616</v>
       </c>
       <c r="I34">
         <v>1562082540</v>
@@ -3938,25 +5660,25 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>367</v>
+        <v>713</v>
       </c>
       <c r="L34">
         <v>33</v>
       </c>
       <c r="M34" t="s">
-        <v>423</v>
+        <v>799</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>473</v>
+        <v>899</v>
       </c>
       <c r="P34" t="s">
-        <v>523</v>
+        <v>999</v>
       </c>
       <c r="Q34" t="s">
-        <v>573</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -3967,22 +5689,22 @@
         <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="D35" t="s">
-        <v>145</v>
+        <v>244</v>
       </c>
       <c r="E35" t="s">
-        <v>166</v>
+        <v>312</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>235</v>
+        <v>417</v>
       </c>
       <c r="G35" t="s">
-        <v>285</v>
+        <v>517</v>
       </c>
       <c r="H35" t="s">
-        <v>335</v>
+        <v>617</v>
       </c>
       <c r="I35">
         <v>1615299931</v>
@@ -3991,25 +5713,25 @@
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>354</v>
+        <v>714</v>
       </c>
       <c r="L35">
         <v>34</v>
       </c>
       <c r="M35" t="s">
-        <v>424</v>
+        <v>800</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>474</v>
+        <v>900</v>
       </c>
       <c r="P35" t="s">
-        <v>524</v>
+        <v>1000</v>
       </c>
       <c r="Q35" t="s">
-        <v>574</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4020,22 +5742,22 @@
         <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
+        <v>245</v>
       </c>
       <c r="E36" t="s">
-        <v>189</v>
+        <v>335</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>236</v>
+        <v>418</v>
       </c>
       <c r="G36" t="s">
-        <v>286</v>
+        <v>518</v>
       </c>
       <c r="H36" t="s">
-        <v>336</v>
+        <v>618</v>
       </c>
       <c r="I36">
         <v>1638756833</v>
@@ -4043,26 +5765,23 @@
       <c r="J36">
         <v>1</v>
       </c>
-      <c r="K36" t="s">
-        <v>380</v>
-      </c>
       <c r="L36">
         <v>35</v>
       </c>
       <c r="M36" t="s">
-        <v>425</v>
+        <v>801</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>475</v>
+        <v>901</v>
       </c>
       <c r="P36" t="s">
-        <v>525</v>
+        <v>1001</v>
       </c>
       <c r="Q36" t="s">
-        <v>575</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4073,22 +5792,22 @@
         <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>246</v>
       </c>
       <c r="E37" t="s">
-        <v>190</v>
+        <v>336</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>237</v>
+        <v>419</v>
       </c>
       <c r="G37" t="s">
-        <v>287</v>
+        <v>519</v>
       </c>
       <c r="H37" t="s">
-        <v>337</v>
+        <v>619</v>
       </c>
       <c r="I37">
         <v>1626134763</v>
@@ -4096,26 +5815,23 @@
       <c r="J37">
         <v>1</v>
       </c>
-      <c r="K37" t="s">
-        <v>374</v>
-      </c>
       <c r="L37">
         <v>36</v>
       </c>
       <c r="M37" t="s">
-        <v>426</v>
+        <v>802</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>476</v>
+        <v>902</v>
       </c>
       <c r="P37" t="s">
-        <v>526</v>
+        <v>1002</v>
       </c>
       <c r="Q37" t="s">
-        <v>576</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -4126,49 +5842,49 @@
         <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="D38" t="s">
-        <v>148</v>
+        <v>247</v>
       </c>
       <c r="E38" t="s">
-        <v>191</v>
+        <v>337</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>238</v>
+        <v>420</v>
       </c>
       <c r="G38" t="s">
-        <v>288</v>
+        <v>520</v>
       </c>
       <c r="H38" t="s">
-        <v>338</v>
+        <v>620</v>
       </c>
       <c r="I38">
-        <v>1613642379</v>
+        <v>1602839473</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>381</v>
+        <v>715</v>
       </c>
       <c r="L38">
         <v>37</v>
       </c>
       <c r="M38" t="s">
-        <v>427</v>
+        <v>803</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>477</v>
+        <v>903</v>
       </c>
       <c r="P38" t="s">
-        <v>527</v>
+        <v>1003</v>
       </c>
       <c r="Q38" t="s">
-        <v>577</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -4179,22 +5895,22 @@
         <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="D39" t="s">
-        <v>149</v>
+        <v>248</v>
       </c>
       <c r="E39" t="s">
-        <v>192</v>
+        <v>338</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>239</v>
+        <v>421</v>
       </c>
       <c r="G39" t="s">
-        <v>289</v>
+        <v>521</v>
       </c>
       <c r="H39" t="s">
-        <v>339</v>
+        <v>621</v>
       </c>
       <c r="I39">
         <v>1601555742</v>
@@ -4203,25 +5919,25 @@
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>364</v>
+        <v>716</v>
       </c>
       <c r="L39">
         <v>38</v>
       </c>
       <c r="M39" t="s">
-        <v>428</v>
+        <v>804</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>478</v>
+        <v>904</v>
       </c>
       <c r="P39" t="s">
-        <v>528</v>
+        <v>1004</v>
       </c>
       <c r="Q39" t="s">
-        <v>578</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -4232,49 +5948,49 @@
         <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="D40" t="s">
-        <v>150</v>
+        <v>249</v>
       </c>
       <c r="E40" t="s">
-        <v>193</v>
+        <v>339</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>240</v>
+        <v>422</v>
       </c>
       <c r="G40" t="s">
-        <v>290</v>
+        <v>522</v>
       </c>
       <c r="H40" t="s">
-        <v>340</v>
+        <v>622</v>
       </c>
       <c r="I40">
-        <v>1602839473</v>
+        <v>1533945600</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>382</v>
+        <v>717</v>
       </c>
       <c r="L40">
         <v>39</v>
       </c>
       <c r="M40" t="s">
-        <v>429</v>
+        <v>805</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>479</v>
+        <v>905</v>
       </c>
       <c r="P40" t="s">
-        <v>529</v>
+        <v>1005</v>
       </c>
       <c r="Q40" t="s">
-        <v>579</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -4285,22 +6001,22 @@
         <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="D41" t="s">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="E41" t="s">
-        <v>194</v>
+        <v>340</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>241</v>
+        <v>423</v>
       </c>
       <c r="G41" t="s">
-        <v>291</v>
+        <v>523</v>
       </c>
       <c r="H41" t="s">
-        <v>341</v>
+        <v>623</v>
       </c>
       <c r="I41">
         <v>1533427200</v>
@@ -4309,25 +6025,25 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>383</v>
+        <v>718</v>
       </c>
       <c r="L41">
         <v>40</v>
       </c>
       <c r="M41" t="s">
-        <v>430</v>
+        <v>806</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>480</v>
+        <v>906</v>
       </c>
       <c r="P41" t="s">
-        <v>530</v>
+        <v>1006</v>
       </c>
       <c r="Q41" t="s">
-        <v>580</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -4338,49 +6054,49 @@
         <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="D42" t="s">
-        <v>152</v>
+        <v>251</v>
       </c>
       <c r="E42" t="s">
-        <v>195</v>
+        <v>341</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>242</v>
+        <v>424</v>
       </c>
       <c r="G42" t="s">
-        <v>292</v>
+        <v>524</v>
       </c>
       <c r="H42" t="s">
-        <v>342</v>
+        <v>624</v>
       </c>
       <c r="I42">
-        <v>1533945600</v>
+        <v>1613642379</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>365</v>
+        <v>719</v>
       </c>
       <c r="L42">
         <v>41</v>
       </c>
       <c r="M42" t="s">
-        <v>431</v>
+        <v>807</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>481</v>
+        <v>907</v>
       </c>
       <c r="P42" t="s">
-        <v>531</v>
+        <v>1007</v>
       </c>
       <c r="Q42" t="s">
-        <v>581</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -4391,49 +6107,49 @@
         <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>252</v>
       </c>
       <c r="E43" t="s">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>243</v>
+        <v>425</v>
       </c>
       <c r="G43" t="s">
-        <v>293</v>
+        <v>525</v>
       </c>
       <c r="H43" t="s">
-        <v>343</v>
+        <v>625</v>
       </c>
       <c r="I43">
-        <v>1565957940</v>
+        <v>1568704980</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>384</v>
+        <v>720</v>
       </c>
       <c r="L43">
         <v>42</v>
       </c>
       <c r="M43" t="s">
-        <v>432</v>
+        <v>808</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>482</v>
+        <v>908</v>
       </c>
       <c r="P43" t="s">
-        <v>532</v>
+        <v>1008</v>
       </c>
       <c r="Q43" t="s">
-        <v>582</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -4444,49 +6160,49 @@
         <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="D44" t="s">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="E44" t="s">
-        <v>197</v>
+        <v>342</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>244</v>
+        <v>426</v>
       </c>
       <c r="G44" t="s">
-        <v>294</v>
+        <v>526</v>
       </c>
       <c r="H44" t="s">
-        <v>344</v>
+        <v>626</v>
       </c>
       <c r="I44">
-        <v>1650960626</v>
+        <v>1565957940</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>385</v>
+        <v>721</v>
       </c>
       <c r="L44">
         <v>43</v>
       </c>
       <c r="M44" t="s">
-        <v>433</v>
+        <v>809</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>483</v>
+        <v>909</v>
       </c>
       <c r="P44" t="s">
-        <v>533</v>
+        <v>1009</v>
       </c>
       <c r="Q44" t="s">
-        <v>583</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -4497,49 +6213,49 @@
         <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="D45" t="s">
-        <v>155</v>
+        <v>254</v>
       </c>
       <c r="E45" t="s">
-        <v>166</v>
+        <v>343</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>245</v>
+        <v>427</v>
       </c>
       <c r="G45" t="s">
-        <v>295</v>
+        <v>527</v>
       </c>
       <c r="H45" t="s">
-        <v>345</v>
+        <v>627</v>
       </c>
       <c r="I45">
-        <v>1568704980</v>
+        <v>1613583024</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>353</v>
+        <v>722</v>
       </c>
       <c r="L45">
         <v>44</v>
       </c>
       <c r="M45" t="s">
-        <v>434</v>
+        <v>810</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>484</v>
+        <v>910</v>
       </c>
       <c r="P45" t="s">
-        <v>534</v>
+        <v>1010</v>
       </c>
       <c r="Q45" t="s">
-        <v>584</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -4550,22 +6266,22 @@
         <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="D46" t="s">
-        <v>156</v>
+        <v>255</v>
       </c>
       <c r="E46" t="s">
-        <v>198</v>
+        <v>344</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>246</v>
+        <v>428</v>
       </c>
       <c r="G46" t="s">
-        <v>296</v>
+        <v>528</v>
       </c>
       <c r="H46" t="s">
-        <v>346</v>
+        <v>628</v>
       </c>
       <c r="I46">
         <v>1548953220</v>
@@ -4574,25 +6290,25 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>364</v>
+        <v>723</v>
       </c>
       <c r="L46">
         <v>45</v>
       </c>
       <c r="M46" t="s">
-        <v>435</v>
+        <v>811</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>485</v>
+        <v>911</v>
       </c>
       <c r="P46" t="s">
-        <v>535</v>
+        <v>1011</v>
       </c>
       <c r="Q46" t="s">
-        <v>585</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -4603,49 +6319,46 @@
         <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="D47" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="E47" t="s">
-        <v>199</v>
+        <v>345</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>247</v>
+        <v>429</v>
       </c>
       <c r="G47" t="s">
-        <v>297</v>
+        <v>529</v>
       </c>
       <c r="H47" t="s">
-        <v>347</v>
+        <v>629</v>
       </c>
       <c r="I47">
-        <v>1613583024</v>
+        <v>1650960626</v>
       </c>
       <c r="J47">
         <v>1</v>
-      </c>
-      <c r="K47" t="s">
-        <v>386</v>
       </c>
       <c r="L47">
         <v>46</v>
       </c>
       <c r="M47" t="s">
-        <v>436</v>
+        <v>812</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>486</v>
+        <v>912</v>
       </c>
       <c r="P47" t="s">
-        <v>536</v>
+        <v>1012</v>
       </c>
       <c r="Q47" t="s">
-        <v>586</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -4656,22 +6369,22 @@
         <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="D48" t="s">
-        <v>158</v>
+        <v>257</v>
       </c>
       <c r="E48" t="s">
-        <v>166</v>
+        <v>312</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>248</v>
+        <v>430</v>
       </c>
       <c r="G48" t="s">
-        <v>298</v>
+        <v>530</v>
       </c>
       <c r="H48" t="s">
-        <v>348</v>
+        <v>630</v>
       </c>
       <c r="I48">
         <v>1615164591</v>
@@ -4680,25 +6393,25 @@
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>387</v>
+        <v>724</v>
       </c>
       <c r="L48">
         <v>47</v>
       </c>
       <c r="M48" t="s">
-        <v>437</v>
+        <v>813</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>487</v>
+        <v>913</v>
       </c>
       <c r="P48" t="s">
-        <v>537</v>
+        <v>1013</v>
       </c>
       <c r="Q48" t="s">
-        <v>587</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -4709,49 +6422,46 @@
         <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="D49" t="s">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="E49" t="s">
-        <v>166</v>
+        <v>312</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>249</v>
+        <v>431</v>
       </c>
       <c r="G49" t="s">
-        <v>299</v>
+        <v>531</v>
       </c>
       <c r="H49" t="s">
-        <v>349</v>
+        <v>631</v>
       </c>
       <c r="I49">
-        <v>1640985232</v>
+        <v>1649387294</v>
       </c>
       <c r="J49">
         <v>1</v>
-      </c>
-      <c r="K49" t="s">
-        <v>388</v>
       </c>
       <c r="L49">
         <v>48</v>
       </c>
       <c r="M49" t="s">
-        <v>438</v>
+        <v>814</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>488</v>
+        <v>914</v>
       </c>
       <c r="P49" t="s">
-        <v>538</v>
+        <v>1014</v>
       </c>
       <c r="Q49" t="s">
-        <v>588</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -4762,49 +6472,46 @@
         <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="D50" t="s">
-        <v>114</v>
+        <v>259</v>
       </c>
       <c r="E50" t="s">
-        <v>200</v>
+        <v>312</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>250</v>
+        <v>432</v>
       </c>
       <c r="G50" t="s">
-        <v>300</v>
+        <v>532</v>
       </c>
       <c r="H50" t="s">
-        <v>350</v>
+        <v>632</v>
       </c>
       <c r="I50">
-        <v>1498694400</v>
+        <v>1640985232</v>
       </c>
       <c r="J50">
         <v>1</v>
-      </c>
-      <c r="K50" t="s">
-        <v>389</v>
       </c>
       <c r="L50">
         <v>49</v>
       </c>
       <c r="M50" t="s">
-        <v>439</v>
+        <v>815</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>489</v>
+        <v>915</v>
       </c>
       <c r="P50" t="s">
-        <v>539</v>
+        <v>1015</v>
       </c>
       <c r="Q50" t="s">
-        <v>589</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -4815,49 +6522,2660 @@
         <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="D51" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E51" t="s">
-        <v>201</v>
+        <v>346</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>251</v>
+        <v>433</v>
       </c>
       <c r="G51" t="s">
-        <v>301</v>
+        <v>533</v>
       </c>
       <c r="H51" t="s">
-        <v>351</v>
+        <v>633</v>
       </c>
       <c r="I51">
-        <v>1539302400</v>
+        <v>1498694400</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>390</v>
+        <v>725</v>
       </c>
       <c r="L51">
         <v>50</v>
       </c>
       <c r="M51" t="s">
+        <v>816</v>
+      </c>
+      <c r="N51" t="b">
+        <v>0</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="P51" t="s">
+        <v>1016</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" t="s">
+        <v>260</v>
+      </c>
+      <c r="E52" t="s">
+        <v>347</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G52" t="s">
+        <v>534</v>
+      </c>
+      <c r="H52" t="s">
+        <v>634</v>
+      </c>
+      <c r="I52">
+        <v>1539302400</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>726</v>
+      </c>
+      <c r="L52">
+        <v>51</v>
+      </c>
+      <c r="M52" t="s">
+        <v>817</v>
+      </c>
+      <c r="N52" t="b">
+        <v>0</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="P52" t="s">
+        <v>1017</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" t="s">
+        <v>261</v>
+      </c>
+      <c r="E53" t="s">
+        <v>348</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G53" t="s">
+        <v>535</v>
+      </c>
+      <c r="H53" t="s">
+        <v>635</v>
+      </c>
+      <c r="I53">
+        <v>1562332440</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" t="s">
+        <v>727</v>
+      </c>
+      <c r="L53">
+        <v>52</v>
+      </c>
+      <c r="M53" t="s">
+        <v>818</v>
+      </c>
+      <c r="N53" t="b">
+        <v>0</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="P53" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" t="s">
+        <v>262</v>
+      </c>
+      <c r="E54" t="s">
+        <v>349</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="G54" t="s">
+        <v>536</v>
+      </c>
+      <c r="H54" t="s">
+        <v>636</v>
+      </c>
+      <c r="I54">
+        <v>1603447311</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>728</v>
+      </c>
+      <c r="L54">
+        <v>53</v>
+      </c>
+      <c r="M54" t="s">
+        <v>819</v>
+      </c>
+      <c r="N54" t="b">
+        <v>0</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="P54" t="s">
+        <v>1019</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" t="s">
+        <v>263</v>
+      </c>
+      <c r="E55" t="s">
+        <v>350</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G55" t="s">
+        <v>537</v>
+      </c>
+      <c r="H55" t="s">
+        <v>637</v>
+      </c>
+      <c r="I55">
+        <v>1500336000</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>729</v>
+      </c>
+      <c r="L55">
+        <v>54</v>
+      </c>
+      <c r="M55" t="s">
+        <v>820</v>
+      </c>
+      <c r="N55" t="b">
+        <v>0</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="P55" t="s">
+        <v>1020</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" t="s">
+        <v>264</v>
+      </c>
+      <c r="E56" t="s">
+        <v>351</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="G56" t="s">
+        <v>538</v>
+      </c>
+      <c r="H56" t="s">
+        <v>638</v>
+      </c>
+      <c r="I56">
+        <v>1541808000</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>730</v>
+      </c>
+      <c r="L56">
+        <v>55</v>
+      </c>
+      <c r="M56" t="s">
+        <v>821</v>
+      </c>
+      <c r="N56" t="b">
+        <v>0</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="P56" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" t="s">
+        <v>265</v>
+      </c>
+      <c r="E57" t="s">
+        <v>312</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="G57" t="s">
+        <v>539</v>
+      </c>
+      <c r="H57" t="s">
+        <v>639</v>
+      </c>
+      <c r="I57">
+        <v>1612524044</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57" t="s">
+        <v>731</v>
+      </c>
+      <c r="L57">
+        <v>56</v>
+      </c>
+      <c r="M57" t="s">
+        <v>822</v>
+      </c>
+      <c r="N57" t="b">
+        <v>0</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="P57" t="s">
+        <v>1022</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" t="s">
+        <v>266</v>
+      </c>
+      <c r="E58" t="s">
+        <v>352</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="N51" t="b">
-        <v>0</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="P51" t="s">
+      <c r="G58" t="s">
         <v>540</v>
       </c>
-      <c r="Q51" t="s">
-        <v>590</v>
+      <c r="H58" t="s">
+        <v>640</v>
+      </c>
+      <c r="I58">
+        <v>1614963736</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>732</v>
+      </c>
+      <c r="L58">
+        <v>57</v>
+      </c>
+      <c r="M58" t="s">
+        <v>823</v>
+      </c>
+      <c r="N58" t="b">
+        <v>0</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="P58" t="s">
+        <v>1023</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" t="s">
+        <v>267</v>
+      </c>
+      <c r="E59" t="s">
+        <v>353</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="G59" t="s">
+        <v>541</v>
+      </c>
+      <c r="H59" t="s">
+        <v>641</v>
+      </c>
+      <c r="I59">
+        <v>1516233600</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" t="s">
+        <v>733</v>
+      </c>
+      <c r="L59">
+        <v>58</v>
+      </c>
+      <c r="M59" t="s">
+        <v>824</v>
+      </c>
+      <c r="N59" t="b">
+        <v>0</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="P59" t="s">
+        <v>1024</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" t="s">
+        <v>268</v>
+      </c>
+      <c r="E60" t="s">
+        <v>354</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G60" t="s">
+        <v>542</v>
+      </c>
+      <c r="H60" t="s">
+        <v>642</v>
+      </c>
+      <c r="I60">
+        <v>1530662400</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>734</v>
+      </c>
+      <c r="L60">
+        <v>59</v>
+      </c>
+      <c r="M60" t="s">
+        <v>825</v>
+      </c>
+      <c r="N60" t="b">
+        <v>0</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="P60" t="s">
+        <v>1025</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" t="s">
+        <v>175</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G61" t="s">
+        <v>543</v>
+      </c>
+      <c r="H61" t="s">
+        <v>643</v>
+      </c>
+      <c r="I61">
+        <v>1651913559</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>60</v>
+      </c>
+      <c r="M61" t="s">
+        <v>826</v>
+      </c>
+      <c r="N61" t="b">
+        <v>0</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="P61" t="s">
+        <v>1026</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" t="s">
+        <v>269</v>
+      </c>
+      <c r="E62" t="s">
+        <v>355</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="G62" t="s">
+        <v>544</v>
+      </c>
+      <c r="H62" t="s">
+        <v>644</v>
+      </c>
+      <c r="I62">
+        <v>1477612800</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62" t="s">
+        <v>735</v>
+      </c>
+      <c r="L62">
+        <v>61</v>
+      </c>
+      <c r="M62" t="s">
+        <v>827</v>
+      </c>
+      <c r="N62" t="b">
+        <v>0</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="P62" t="s">
+        <v>1027</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" t="s">
+        <v>177</v>
+      </c>
+      <c r="D63" t="s">
+        <v>270</v>
+      </c>
+      <c r="E63" t="s">
+        <v>312</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="G63" t="s">
+        <v>545</v>
+      </c>
+      <c r="H63" t="s">
+        <v>645</v>
+      </c>
+      <c r="I63">
+        <v>1666148370</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>62</v>
+      </c>
+      <c r="M63" t="s">
+        <v>828</v>
+      </c>
+      <c r="N63" t="b">
+        <v>0</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="P63" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" t="s">
+        <v>178</v>
+      </c>
+      <c r="E64" t="s">
+        <v>356</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="G64" t="s">
+        <v>546</v>
+      </c>
+      <c r="H64" t="s">
+        <v>646</v>
+      </c>
+      <c r="I64">
+        <v>1600160400</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
+        <v>736</v>
+      </c>
+      <c r="L64">
+        <v>63</v>
+      </c>
+      <c r="M64" t="s">
+        <v>829</v>
+      </c>
+      <c r="N64" t="b">
+        <v>0</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="P64" t="s">
+        <v>1029</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" t="s">
+        <v>179</v>
+      </c>
+      <c r="D65" t="s">
+        <v>271</v>
+      </c>
+      <c r="E65" t="s">
+        <v>357</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="G65" t="s">
+        <v>547</v>
+      </c>
+      <c r="H65" t="s">
+        <v>647</v>
+      </c>
+      <c r="I65">
+        <v>1647920319</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>64</v>
+      </c>
+      <c r="M65" t="s">
+        <v>830</v>
+      </c>
+      <c r="N65" t="b">
+        <v>0</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="P65" t="s">
+        <v>1030</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" t="s">
+        <v>180</v>
+      </c>
+      <c r="D66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E66" t="s">
+        <v>312</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G66" t="s">
+        <v>548</v>
+      </c>
+      <c r="H66" t="s">
+        <v>648</v>
+      </c>
+      <c r="I66">
+        <v>1657036895</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>65</v>
+      </c>
+      <c r="M66" t="s">
+        <v>831</v>
+      </c>
+      <c r="N66" t="b">
+        <v>0</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="P66" t="s">
+        <v>1031</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" t="s">
+        <v>181</v>
+      </c>
+      <c r="D67" t="s">
+        <v>273</v>
+      </c>
+      <c r="E67" t="s">
+        <v>358</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="G67" t="s">
+        <v>549</v>
+      </c>
+      <c r="H67" t="s">
+        <v>649</v>
+      </c>
+      <c r="I67">
+        <v>1502236800</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" t="s">
+        <v>737</v>
+      </c>
+      <c r="L67">
+        <v>66</v>
+      </c>
+      <c r="M67" t="s">
+        <v>832</v>
+      </c>
+      <c r="N67" t="b">
+        <v>0</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="P67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" t="s">
+        <v>274</v>
+      </c>
+      <c r="E68" t="s">
+        <v>312</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G68" t="s">
+        <v>550</v>
+      </c>
+      <c r="H68" t="s">
+        <v>650</v>
+      </c>
+      <c r="I68">
+        <v>1627113782</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68" t="s">
+        <v>738</v>
+      </c>
+      <c r="L68">
+        <v>67</v>
+      </c>
+      <c r="M68" t="s">
+        <v>833</v>
+      </c>
+      <c r="N68" t="b">
+        <v>0</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="P68" t="s">
+        <v>1033</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" t="s">
+        <v>275</v>
+      </c>
+      <c r="E69" t="s">
+        <v>359</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G69" t="s">
+        <v>551</v>
+      </c>
+      <c r="H69" t="s">
+        <v>651</v>
+      </c>
+      <c r="I69">
+        <v>1554322020</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
+        <v>739</v>
+      </c>
+      <c r="L69">
+        <v>68</v>
+      </c>
+      <c r="M69" t="s">
+        <v>834</v>
+      </c>
+      <c r="N69" t="b">
+        <v>0</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="P69" t="s">
+        <v>1034</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" t="s">
+        <v>276</v>
+      </c>
+      <c r="E70" t="s">
+        <v>360</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G70" t="s">
+        <v>552</v>
+      </c>
+      <c r="H70" t="s">
+        <v>652</v>
+      </c>
+      <c r="I70">
+        <v>1596033180</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
+        <v>740</v>
+      </c>
+      <c r="L70">
+        <v>69</v>
+      </c>
+      <c r="M70" t="s">
+        <v>835</v>
+      </c>
+      <c r="N70" t="b">
+        <v>0</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="P70" t="s">
+        <v>1035</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" t="s">
+        <v>185</v>
+      </c>
+      <c r="D71" t="s">
+        <v>277</v>
+      </c>
+      <c r="E71" t="s">
+        <v>361</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G71" t="s">
+        <v>553</v>
+      </c>
+      <c r="H71" t="s">
+        <v>653</v>
+      </c>
+      <c r="I71">
+        <v>1508889600</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" t="s">
+        <v>741</v>
+      </c>
+      <c r="L71">
+        <v>70</v>
+      </c>
+      <c r="M71" t="s">
+        <v>836</v>
+      </c>
+      <c r="N71" t="b">
+        <v>0</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="P71" t="s">
+        <v>1036</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" t="s">
+        <v>186</v>
+      </c>
+      <c r="D72" t="s">
+        <v>278</v>
+      </c>
+      <c r="E72" t="s">
+        <v>362</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G72" t="s">
+        <v>554</v>
+      </c>
+      <c r="H72" t="s">
+        <v>654</v>
+      </c>
+      <c r="I72">
+        <v>1391817600</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" t="s">
+        <v>742</v>
+      </c>
+      <c r="L72">
+        <v>71</v>
+      </c>
+      <c r="M72" t="s">
+        <v>837</v>
+      </c>
+      <c r="N72" t="b">
+        <v>0</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="P72" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" t="s">
+        <v>187</v>
+      </c>
+      <c r="D73" t="s">
+        <v>279</v>
+      </c>
+      <c r="E73" t="s">
+        <v>355</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G73" t="s">
+        <v>555</v>
+      </c>
+      <c r="H73" t="s">
+        <v>655</v>
+      </c>
+      <c r="I73">
+        <v>1497364209</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
+        <v>743</v>
+      </c>
+      <c r="L73">
+        <v>72</v>
+      </c>
+      <c r="M73" t="s">
+        <v>838</v>
+      </c>
+      <c r="N73" t="b">
+        <v>0</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="P73" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" t="s">
+        <v>188</v>
+      </c>
+      <c r="D74" t="s">
+        <v>280</v>
+      </c>
+      <c r="E74" t="s">
+        <v>363</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G74" t="s">
+        <v>556</v>
+      </c>
+      <c r="H74" t="s">
+        <v>656</v>
+      </c>
+      <c r="I74">
+        <v>1520380800</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
+        <v>744</v>
+      </c>
+      <c r="L74">
+        <v>73</v>
+      </c>
+      <c r="M74" t="s">
+        <v>839</v>
+      </c>
+      <c r="N74" t="b">
+        <v>0</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="P74" t="s">
+        <v>1039</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" t="s">
+        <v>189</v>
+      </c>
+      <c r="D75" t="s">
+        <v>281</v>
+      </c>
+      <c r="E75" t="s">
+        <v>364</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="G75" t="s">
+        <v>557</v>
+      </c>
+      <c r="H75" t="s">
+        <v>657</v>
+      </c>
+      <c r="I75">
+        <v>1570197780</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75" t="s">
+        <v>745</v>
+      </c>
+      <c r="L75">
+        <v>74</v>
+      </c>
+      <c r="M75" t="s">
+        <v>840</v>
+      </c>
+      <c r="N75" t="b">
+        <v>0</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="P75" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76" t="s">
+        <v>190</v>
+      </c>
+      <c r="D76" t="s">
+        <v>282</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G76" t="s">
+        <v>558</v>
+      </c>
+      <c r="H76" t="s">
+        <v>658</v>
+      </c>
+      <c r="I76">
+        <v>1634887994</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76" t="s">
+        <v>746</v>
+      </c>
+      <c r="L76">
+        <v>75</v>
+      </c>
+      <c r="M76" t="s">
+        <v>841</v>
+      </c>
+      <c r="N76" t="b">
+        <v>0</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="P76" t="s">
+        <v>1041</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" t="s">
+        <v>191</v>
+      </c>
+      <c r="D77" t="s">
+        <v>283</v>
+      </c>
+      <c r="E77" t="s">
+        <v>365</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G77" t="s">
+        <v>559</v>
+      </c>
+      <c r="H77" t="s">
+        <v>659</v>
+      </c>
+      <c r="I77">
+        <v>1643001498</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>76</v>
+      </c>
+      <c r="M77" t="s">
+        <v>842</v>
+      </c>
+      <c r="N77" t="b">
+        <v>0</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="P77" t="s">
+        <v>1042</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" t="s">
+        <v>192</v>
+      </c>
+      <c r="D78" t="s">
+        <v>192</v>
+      </c>
+      <c r="E78" t="s">
+        <v>366</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G78" t="s">
+        <v>560</v>
+      </c>
+      <c r="H78" t="s">
+        <v>660</v>
+      </c>
+      <c r="I78">
+        <v>1501891200</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78" t="s">
+        <v>747</v>
+      </c>
+      <c r="L78">
+        <v>77</v>
+      </c>
+      <c r="M78" t="s">
+        <v>843</v>
+      </c>
+      <c r="N78" t="b">
+        <v>0</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="P78" t="s">
+        <v>1043</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79" t="s">
+        <v>193</v>
+      </c>
+      <c r="D79" t="s">
+        <v>284</v>
+      </c>
+      <c r="E79" t="s">
+        <v>367</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="G79" t="s">
+        <v>561</v>
+      </c>
+      <c r="H79" t="s">
+        <v>661</v>
+      </c>
+      <c r="I79">
+        <v>1597402380</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
+        <v>748</v>
+      </c>
+      <c r="L79">
+        <v>78</v>
+      </c>
+      <c r="M79" t="s">
+        <v>844</v>
+      </c>
+      <c r="N79" t="b">
+        <v>0</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="P79" t="s">
+        <v>1044</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" t="s">
+        <v>194</v>
+      </c>
+      <c r="D80" t="s">
+        <v>285</v>
+      </c>
+      <c r="E80" t="s">
+        <v>368</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G80" t="s">
+        <v>562</v>
+      </c>
+      <c r="H80" t="s">
+        <v>662</v>
+      </c>
+      <c r="I80">
+        <v>1525219200</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" t="s">
+        <v>749</v>
+      </c>
+      <c r="L80">
+        <v>79</v>
+      </c>
+      <c r="M80" t="s">
+        <v>845</v>
+      </c>
+      <c r="N80" t="b">
+        <v>0</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="P80" t="s">
+        <v>1045</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" t="s">
+        <v>195</v>
+      </c>
+      <c r="D81" t="s">
+        <v>286</v>
+      </c>
+      <c r="E81" t="s">
+        <v>369</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="G81" t="s">
+        <v>563</v>
+      </c>
+      <c r="H81" t="s">
+        <v>663</v>
+      </c>
+      <c r="I81">
+        <v>1520726400</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81" t="s">
+        <v>750</v>
+      </c>
+      <c r="L81">
+        <v>80</v>
+      </c>
+      <c r="M81" t="s">
+        <v>846</v>
+      </c>
+      <c r="N81" t="b">
+        <v>0</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="P81" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" t="s">
+        <v>196</v>
+      </c>
+      <c r="D82" t="s">
+        <v>287</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="G82" t="s">
+        <v>564</v>
+      </c>
+      <c r="H82" t="s">
+        <v>664</v>
+      </c>
+      <c r="I82">
+        <v>1595516340</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82" t="s">
+        <v>751</v>
+      </c>
+      <c r="L82">
+        <v>81</v>
+      </c>
+      <c r="M82" t="s">
+        <v>847</v>
+      </c>
+      <c r="N82" t="b">
+        <v>0</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="P82" t="s">
+        <v>1047</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" t="s">
+        <v>197</v>
+      </c>
+      <c r="D83" t="s">
+        <v>288</v>
+      </c>
+      <c r="E83" t="s">
+        <v>370</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G83" t="s">
+        <v>565</v>
+      </c>
+      <c r="H83" t="s">
+        <v>665</v>
+      </c>
+      <c r="I83">
+        <v>1605090441</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83" t="s">
+        <v>752</v>
+      </c>
+      <c r="L83">
+        <v>82</v>
+      </c>
+      <c r="M83" t="s">
+        <v>848</v>
+      </c>
+      <c r="N83" t="b">
+        <v>0</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="P83" t="s">
+        <v>1048</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84" t="s">
+        <v>198</v>
+      </c>
+      <c r="D84" t="s">
+        <v>289</v>
+      </c>
+      <c r="E84" t="s">
+        <v>371</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G84" t="s">
+        <v>566</v>
+      </c>
+      <c r="H84" t="s">
+        <v>666</v>
+      </c>
+      <c r="I84">
+        <v>1574782200</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84" t="s">
+        <v>753</v>
+      </c>
+      <c r="L84">
+        <v>83</v>
+      </c>
+      <c r="M84" t="s">
+        <v>849</v>
+      </c>
+      <c r="N84" t="b">
+        <v>0</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="P84" t="s">
+        <v>1049</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85" t="s">
+        <v>199</v>
+      </c>
+      <c r="D85" t="s">
+        <v>290</v>
+      </c>
+      <c r="E85" t="s">
+        <v>372</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="G85" t="s">
+        <v>567</v>
+      </c>
+      <c r="H85" t="s">
+        <v>667</v>
+      </c>
+      <c r="I85">
+        <v>1572962760</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" t="s">
+        <v>754</v>
+      </c>
+      <c r="L85">
+        <v>84</v>
+      </c>
+      <c r="M85" t="s">
+        <v>850</v>
+      </c>
+      <c r="N85" t="b">
+        <v>0</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="P85" t="s">
+        <v>1050</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" t="s">
+        <v>200</v>
+      </c>
+      <c r="D86" t="s">
+        <v>291</v>
+      </c>
+      <c r="E86" t="s">
+        <v>312</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G86" t="s">
+        <v>568</v>
+      </c>
+      <c r="H86" t="s">
+        <v>668</v>
+      </c>
+      <c r="I86">
+        <v>1646008225</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>85</v>
+      </c>
+      <c r="M86" t="s">
+        <v>851</v>
+      </c>
+      <c r="N86" t="b">
+        <v>0</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="P86" t="s">
+        <v>1051</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" t="s">
+        <v>201</v>
+      </c>
+      <c r="D87" t="s">
+        <v>292</v>
+      </c>
+      <c r="E87" t="s">
+        <v>312</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="G87" t="s">
+        <v>569</v>
+      </c>
+      <c r="H87" t="s">
+        <v>669</v>
+      </c>
+      <c r="I87">
+        <v>1626838226</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87" t="s">
+        <v>755</v>
+      </c>
+      <c r="L87">
+        <v>86</v>
+      </c>
+      <c r="M87" t="s">
+        <v>852</v>
+      </c>
+      <c r="N87" t="b">
+        <v>0</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="P87" t="s">
+        <v>1052</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88" t="s">
+        <v>202</v>
+      </c>
+      <c r="D88" t="s">
+        <v>293</v>
+      </c>
+      <c r="E88" t="s">
+        <v>373</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G88" t="s">
+        <v>570</v>
+      </c>
+      <c r="H88" t="s">
+        <v>670</v>
+      </c>
+      <c r="I88">
+        <v>1540944000</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88" t="s">
+        <v>756</v>
+      </c>
+      <c r="L88">
+        <v>87</v>
+      </c>
+      <c r="M88" t="s">
+        <v>853</v>
+      </c>
+      <c r="N88" t="b">
+        <v>0</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="P88" t="s">
+        <v>1053</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89" t="s">
+        <v>203</v>
+      </c>
+      <c r="D89" t="s">
+        <v>294</v>
+      </c>
+      <c r="E89" t="s">
+        <v>374</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G89" t="s">
+        <v>571</v>
+      </c>
+      <c r="H89" t="s">
+        <v>671</v>
+      </c>
+      <c r="I89">
+        <v>1619531495</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89" t="s">
+        <v>757</v>
+      </c>
+      <c r="L89">
+        <v>88</v>
+      </c>
+      <c r="M89" t="s">
+        <v>854</v>
+      </c>
+      <c r="N89" t="b">
+        <v>0</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="P89" t="s">
+        <v>1054</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>104</v>
+      </c>
+      <c r="C90" t="s">
+        <v>204</v>
+      </c>
+      <c r="D90" t="s">
+        <v>295</v>
+      </c>
+      <c r="E90" t="s">
+        <v>375</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G90" t="s">
+        <v>572</v>
+      </c>
+      <c r="H90" t="s">
+        <v>672</v>
+      </c>
+      <c r="I90">
+        <v>1566222960</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90" t="s">
+        <v>758</v>
+      </c>
+      <c r="L90">
+        <v>89</v>
+      </c>
+      <c r="M90" t="s">
+        <v>855</v>
+      </c>
+      <c r="N90" t="b">
+        <v>0</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="P90" t="s">
+        <v>1055</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>105</v>
+      </c>
+      <c r="C91" t="s">
+        <v>205</v>
+      </c>
+      <c r="D91" t="s">
+        <v>296</v>
+      </c>
+      <c r="E91" t="s">
+        <v>376</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G91" t="s">
+        <v>573</v>
+      </c>
+      <c r="H91" t="s">
+        <v>673</v>
+      </c>
+      <c r="I91">
+        <v>1518566400</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91" t="s">
+        <v>759</v>
+      </c>
+      <c r="L91">
+        <v>90</v>
+      </c>
+      <c r="M91" t="s">
+        <v>856</v>
+      </c>
+      <c r="N91" t="b">
+        <v>0</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="P91" t="s">
+        <v>1056</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" t="s">
+        <v>206</v>
+      </c>
+      <c r="D92" t="s">
+        <v>297</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G92" t="s">
+        <v>574</v>
+      </c>
+      <c r="H92" t="s">
+        <v>674</v>
+      </c>
+      <c r="I92">
+        <v>1568732160</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92" t="s">
+        <v>760</v>
+      </c>
+      <c r="L92">
+        <v>91</v>
+      </c>
+      <c r="M92" t="s">
+        <v>857</v>
+      </c>
+      <c r="N92" t="b">
+        <v>0</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="P92" t="s">
+        <v>1057</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>107</v>
+      </c>
+      <c r="C93" t="s">
+        <v>207</v>
+      </c>
+      <c r="D93" t="s">
+        <v>298</v>
+      </c>
+      <c r="E93" t="s">
+        <v>377</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="G93" t="s">
+        <v>575</v>
+      </c>
+      <c r="H93" t="s">
+        <v>675</v>
+      </c>
+      <c r="I93">
+        <v>1552484520</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93" t="s">
+        <v>761</v>
+      </c>
+      <c r="L93">
+        <v>92</v>
+      </c>
+      <c r="M93" t="s">
+        <v>858</v>
+      </c>
+      <c r="N93" t="b">
+        <v>0</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="P93" t="s">
+        <v>1058</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94" t="s">
+        <v>208</v>
+      </c>
+      <c r="D94" t="s">
+        <v>299</v>
+      </c>
+      <c r="E94" t="s">
+        <v>312</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G94" t="s">
+        <v>576</v>
+      </c>
+      <c r="H94" t="s">
+        <v>676</v>
+      </c>
+      <c r="I94">
+        <v>1623662716</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94" t="s">
+        <v>762</v>
+      </c>
+      <c r="L94">
+        <v>93</v>
+      </c>
+      <c r="M94" t="s">
+        <v>859</v>
+      </c>
+      <c r="N94" t="b">
+        <v>0</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="P94" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95" t="s">
+        <v>209</v>
+      </c>
+      <c r="D95" t="s">
+        <v>300</v>
+      </c>
+      <c r="E95" t="s">
+        <v>378</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G95" t="s">
+        <v>577</v>
+      </c>
+      <c r="H95" t="s">
+        <v>677</v>
+      </c>
+      <c r="I95">
+        <v>1626135916</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95" t="s">
+        <v>763</v>
+      </c>
+      <c r="L95">
+        <v>94</v>
+      </c>
+      <c r="M95" t="s">
+        <v>860</v>
+      </c>
+      <c r="N95" t="b">
+        <v>0</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="P95" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>110</v>
+      </c>
+      <c r="C96" t="s">
+        <v>210</v>
+      </c>
+      <c r="D96" t="s">
+        <v>301</v>
+      </c>
+      <c r="E96" t="s">
+        <v>379</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G96" t="s">
+        <v>578</v>
+      </c>
+      <c r="H96" t="s">
+        <v>678</v>
+      </c>
+      <c r="I96">
+        <v>1629211557</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>95</v>
+      </c>
+      <c r="M96" t="s">
+        <v>861</v>
+      </c>
+      <c r="N96" t="b">
+        <v>0</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="P96" t="s">
+        <v>1061</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97" t="s">
+        <v>211</v>
+      </c>
+      <c r="D97" t="s">
+        <v>302</v>
+      </c>
+      <c r="E97" t="s">
+        <v>380</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="G97" t="s">
+        <v>579</v>
+      </c>
+      <c r="H97" t="s">
+        <v>679</v>
+      </c>
+      <c r="I97">
+        <v>1531958400</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97" t="s">
+        <v>764</v>
+      </c>
+      <c r="L97">
+        <v>96</v>
+      </c>
+      <c r="M97" t="s">
+        <v>862</v>
+      </c>
+      <c r="N97" t="b">
+        <v>0</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="P97" t="s">
+        <v>1062</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>112</v>
+      </c>
+      <c r="C98" t="s">
+        <v>212</v>
+      </c>
+      <c r="D98" t="s">
+        <v>303</v>
+      </c>
+      <c r="E98" t="s">
+        <v>381</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G98" t="s">
+        <v>580</v>
+      </c>
+      <c r="H98" t="s">
+        <v>680</v>
+      </c>
+      <c r="I98">
+        <v>1638249982</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>97</v>
+      </c>
+      <c r="M98" t="s">
+        <v>863</v>
+      </c>
+      <c r="N98" t="b">
+        <v>0</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="P98" t="s">
+        <v>1063</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>113</v>
+      </c>
+      <c r="C99" t="s">
+        <v>213</v>
+      </c>
+      <c r="D99" t="s">
+        <v>304</v>
+      </c>
+      <c r="E99" t="s">
+        <v>312</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="G99" t="s">
+        <v>581</v>
+      </c>
+      <c r="H99" t="s">
+        <v>681</v>
+      </c>
+      <c r="I99">
+        <v>1627020780</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99" t="s">
+        <v>765</v>
+      </c>
+      <c r="L99">
+        <v>98</v>
+      </c>
+      <c r="M99" t="s">
+        <v>864</v>
+      </c>
+      <c r="N99" t="b">
+        <v>0</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="P99" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100" t="s">
+        <v>151</v>
+      </c>
+      <c r="D100" t="s">
+        <v>305</v>
+      </c>
+      <c r="E100" t="s">
+        <v>382</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G100" t="s">
+        <v>582</v>
+      </c>
+      <c r="H100" t="s">
+        <v>682</v>
+      </c>
+      <c r="I100">
+        <v>1637890356</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>99</v>
+      </c>
+      <c r="M100" t="s">
+        <v>865</v>
+      </c>
+      <c r="N100" t="b">
+        <v>0</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="P100" t="s">
+        <v>1065</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>115</v>
+      </c>
+      <c r="C101" t="s">
+        <v>214</v>
+      </c>
+      <c r="D101" t="s">
+        <v>306</v>
+      </c>
+      <c r="E101" t="s">
+        <v>383</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="G101" t="s">
+        <v>583</v>
+      </c>
+      <c r="H101" t="s">
+        <v>683</v>
+      </c>
+      <c r="I101">
+        <v>1609341525</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101" t="s">
+        <v>766</v>
+      </c>
+      <c r="L101">
+        <v>100</v>
+      </c>
+      <c r="M101" t="s">
+        <v>866</v>
+      </c>
+      <c r="N101" t="b">
+        <v>0</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="P101" t="s">
+        <v>1066</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>1166</v>
       </c>
     </row>
   </sheetData>
@@ -4962,6 +9280,106 @@
     <hyperlink ref="O50" r:id="rId98"/>
     <hyperlink ref="F51" r:id="rId99"/>
     <hyperlink ref="O51" r:id="rId100"/>
+    <hyperlink ref="F52" r:id="rId101"/>
+    <hyperlink ref="O52" r:id="rId102"/>
+    <hyperlink ref="F53" r:id="rId103"/>
+    <hyperlink ref="O53" r:id="rId104"/>
+    <hyperlink ref="F54" r:id="rId105"/>
+    <hyperlink ref="O54" r:id="rId106"/>
+    <hyperlink ref="F55" r:id="rId107"/>
+    <hyperlink ref="O55" r:id="rId108"/>
+    <hyperlink ref="F56" r:id="rId109"/>
+    <hyperlink ref="O56" r:id="rId110"/>
+    <hyperlink ref="F57" r:id="rId111"/>
+    <hyperlink ref="O57" r:id="rId112"/>
+    <hyperlink ref="F58" r:id="rId113"/>
+    <hyperlink ref="O58" r:id="rId114"/>
+    <hyperlink ref="F59" r:id="rId115"/>
+    <hyperlink ref="O59" r:id="rId116"/>
+    <hyperlink ref="F60" r:id="rId117"/>
+    <hyperlink ref="O60" r:id="rId118"/>
+    <hyperlink ref="F61" r:id="rId119"/>
+    <hyperlink ref="O61" r:id="rId120"/>
+    <hyperlink ref="F62" r:id="rId121"/>
+    <hyperlink ref="O62" r:id="rId122"/>
+    <hyperlink ref="F63" r:id="rId123"/>
+    <hyperlink ref="O63" r:id="rId124"/>
+    <hyperlink ref="F64" r:id="rId125"/>
+    <hyperlink ref="O64" r:id="rId126"/>
+    <hyperlink ref="F65" r:id="rId127"/>
+    <hyperlink ref="O65" r:id="rId128"/>
+    <hyperlink ref="F66" r:id="rId129"/>
+    <hyperlink ref="O66" r:id="rId130"/>
+    <hyperlink ref="F67" r:id="rId131"/>
+    <hyperlink ref="O67" r:id="rId132"/>
+    <hyperlink ref="F68" r:id="rId133"/>
+    <hyperlink ref="O68" r:id="rId134"/>
+    <hyperlink ref="F69" r:id="rId135"/>
+    <hyperlink ref="O69" r:id="rId136"/>
+    <hyperlink ref="F70" r:id="rId137"/>
+    <hyperlink ref="O70" r:id="rId138"/>
+    <hyperlink ref="F71" r:id="rId139"/>
+    <hyperlink ref="O71" r:id="rId140"/>
+    <hyperlink ref="F72" r:id="rId141"/>
+    <hyperlink ref="O72" r:id="rId142"/>
+    <hyperlink ref="F73" r:id="rId143"/>
+    <hyperlink ref="O73" r:id="rId144"/>
+    <hyperlink ref="F74" r:id="rId145"/>
+    <hyperlink ref="O74" r:id="rId146"/>
+    <hyperlink ref="F75" r:id="rId147"/>
+    <hyperlink ref="O75" r:id="rId148"/>
+    <hyperlink ref="F76" r:id="rId149"/>
+    <hyperlink ref="O76" r:id="rId150"/>
+    <hyperlink ref="F77" r:id="rId151"/>
+    <hyperlink ref="O77" r:id="rId152"/>
+    <hyperlink ref="F78" r:id="rId153"/>
+    <hyperlink ref="O78" r:id="rId154"/>
+    <hyperlink ref="F79" r:id="rId155"/>
+    <hyperlink ref="O79" r:id="rId156"/>
+    <hyperlink ref="F80" r:id="rId157"/>
+    <hyperlink ref="O80" r:id="rId158"/>
+    <hyperlink ref="F81" r:id="rId159"/>
+    <hyperlink ref="O81" r:id="rId160"/>
+    <hyperlink ref="F82" r:id="rId161"/>
+    <hyperlink ref="O82" r:id="rId162"/>
+    <hyperlink ref="F83" r:id="rId163"/>
+    <hyperlink ref="O83" r:id="rId164"/>
+    <hyperlink ref="F84" r:id="rId165"/>
+    <hyperlink ref="O84" r:id="rId166"/>
+    <hyperlink ref="F85" r:id="rId167"/>
+    <hyperlink ref="O85" r:id="rId168"/>
+    <hyperlink ref="F86" r:id="rId169"/>
+    <hyperlink ref="O86" r:id="rId170"/>
+    <hyperlink ref="F87" r:id="rId171"/>
+    <hyperlink ref="O87" r:id="rId172"/>
+    <hyperlink ref="F88" r:id="rId173"/>
+    <hyperlink ref="O88" r:id="rId174"/>
+    <hyperlink ref="F89" r:id="rId175"/>
+    <hyperlink ref="O89" r:id="rId176"/>
+    <hyperlink ref="F90" r:id="rId177"/>
+    <hyperlink ref="O90" r:id="rId178"/>
+    <hyperlink ref="F91" r:id="rId179"/>
+    <hyperlink ref="O91" r:id="rId180"/>
+    <hyperlink ref="F92" r:id="rId181"/>
+    <hyperlink ref="O92" r:id="rId182"/>
+    <hyperlink ref="F93" r:id="rId183"/>
+    <hyperlink ref="O93" r:id="rId184"/>
+    <hyperlink ref="F94" r:id="rId185"/>
+    <hyperlink ref="O94" r:id="rId186"/>
+    <hyperlink ref="F95" r:id="rId187"/>
+    <hyperlink ref="O95" r:id="rId188"/>
+    <hyperlink ref="F96" r:id="rId189"/>
+    <hyperlink ref="O96" r:id="rId190"/>
+    <hyperlink ref="F97" r:id="rId191"/>
+    <hyperlink ref="O97" r:id="rId192"/>
+    <hyperlink ref="F98" r:id="rId193"/>
+    <hyperlink ref="O98" r:id="rId194"/>
+    <hyperlink ref="F99" r:id="rId195"/>
+    <hyperlink ref="O99" r:id="rId196"/>
+    <hyperlink ref="F100" r:id="rId197"/>
+    <hyperlink ref="O100" r:id="rId198"/>
+    <hyperlink ref="F101" r:id="rId199"/>
+    <hyperlink ref="O101" r:id="rId200"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coinranking.xlsx
+++ b/coinranking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="1167">
   <si>
     <t>uuid</t>
   </si>
@@ -94,39 +94,36 @@
     <t>uW2tk-ILY0ii</t>
   </si>
   <si>
+    <t>zNZHO_Sjf</t>
+  </si>
+  <si>
     <t>PDKcptVnzJTmN</t>
   </si>
   <si>
+    <t>25W7FG7om</t>
+  </si>
+  <si>
     <t>VLqpJwogdhHNb</t>
   </si>
   <si>
-    <t>zNZHO_Sjf</t>
-  </si>
-  <si>
-    <t>25W7FG7om</t>
+    <t>Mtfb0obXVh59u</t>
   </si>
   <si>
     <t>D7B1x_ks7WhV5</t>
   </si>
   <si>
-    <t>Mtfb0obXVh59u</t>
-  </si>
-  <si>
     <t>xz24e0BjL</t>
   </si>
   <si>
+    <t>qUhEFk1I61atv</t>
+  </si>
+  <si>
+    <t>_H5FVG9iW</t>
+  </si>
+  <si>
     <t>MoTuySvg7</t>
   </si>
   <si>
-    <t>qUhEFk1I61atv</t>
-  </si>
-  <si>
-    <t>_H5FVG9iW</t>
-  </si>
-  <si>
-    <t>N2IgQ9Xme</t>
-  </si>
-  <si>
     <t>dvUj0CzDZ</t>
   </si>
   <si>
@@ -145,12 +142,12 @@
     <t>hnfQfsYfeIGUQ</t>
   </si>
   <si>
+    <t>Pe93bIOD2</t>
+  </si>
+  <si>
     <t>DXwP4wF9ksbBO</t>
   </si>
   <si>
-    <t>Pe93bIOD2</t>
-  </si>
-  <si>
     <t>ZlZpzOJo43mIo</t>
   </si>
   <si>
@@ -163,207 +160,210 @@
     <t>TpHE2IShQw-sJ</t>
   </si>
   <si>
+    <t>CiixT63n3</t>
+  </si>
+  <si>
+    <t>ymQub4fuB</t>
+  </si>
+  <si>
+    <t>pxtKbG5rg</t>
+  </si>
+  <si>
+    <t>tEf7-dnwV3BXS</t>
+  </si>
+  <si>
+    <t>aMNLwaUbY</t>
+  </si>
+  <si>
+    <t>3nNpuxHJ8</t>
+  </si>
+  <si>
+    <t>SbWqqTui-</t>
+  </si>
+  <si>
+    <t>FEbS54wxo4oIl</t>
+  </si>
+  <si>
     <t>KfWtaeV1W</t>
   </si>
   <si>
-    <t>CiixT63n3</t>
-  </si>
-  <si>
-    <t>SbWqqTui-</t>
-  </si>
-  <si>
-    <t>ymQub4fuB</t>
-  </si>
-  <si>
-    <t>aMNLwaUbY</t>
+    <t>DCrsaMv68</t>
+  </si>
+  <si>
+    <t>ncYFcP709</t>
+  </si>
+  <si>
+    <t>jad286TjB</t>
   </si>
   <si>
     <t>bauj_21eYVwso</t>
   </si>
   <si>
-    <t>FEbS54wxo4oIl</t>
-  </si>
-  <si>
-    <t>ncYFcP709</t>
-  </si>
-  <si>
-    <t>jad286TjB</t>
-  </si>
-  <si>
     <t>AaQUAs2Mc</t>
   </si>
   <si>
-    <t>pxtKbG5rg</t>
-  </si>
-  <si>
     <t>65PHZTpmE55b</t>
   </si>
   <si>
+    <t>ixgUfzmLR</t>
+  </si>
+  <si>
+    <t>Z96jIvLU7</t>
+  </si>
+  <si>
+    <t>QQ0NCmjVq</t>
+  </si>
+  <si>
+    <t>HGYj5JCv5</t>
+  </si>
+  <si>
+    <t>iAzbfXiBBKkR6</t>
+  </si>
+  <si>
+    <t>GSCt2y6YSgO26</t>
+  </si>
+  <si>
     <t>JCKLgWPAF</t>
   </si>
   <si>
-    <t>DCrsaMv68</t>
-  </si>
-  <si>
-    <t>Z96jIvLU7</t>
-  </si>
-  <si>
-    <t>3nNpuxHJ8</t>
-  </si>
-  <si>
-    <t>iAzbfXiBBKkR6</t>
+    <t>omwkOTglq</t>
+  </si>
+  <si>
+    <t>fsIbGOEJWbzxG</t>
+  </si>
+  <si>
+    <t>B42IRxNtoYmwK</t>
   </si>
   <si>
     <t>B8xT718SbVhhh</t>
   </si>
   <si>
-    <t>GSCt2y6YSgO26</t>
-  </si>
-  <si>
-    <t>ixgUfzmLR</t>
-  </si>
-  <si>
-    <t>tEf7-dnwV3BXS</t>
-  </si>
-  <si>
     <t>VcMY11NONHSA0</t>
   </si>
   <si>
-    <t>omwkOTglq</t>
-  </si>
-  <si>
-    <t>QQ0NCmjVq</t>
-  </si>
-  <si>
-    <t>B42IRxNtoYmwK</t>
-  </si>
-  <si>
-    <t>fsIbGOEJWbzxG</t>
+    <t>ql3Jj4Tge</t>
+  </si>
+  <si>
+    <t>aRGRWLf2RYNq4</t>
+  </si>
+  <si>
+    <t>NfeOYfNcl</t>
+  </si>
+  <si>
+    <t>k-J3YwacF</t>
   </si>
   <si>
     <t>z2PZIKQL7</t>
   </si>
   <si>
-    <t>aRGRWLf2RYNq4</t>
-  </si>
-  <si>
-    <t>HGYj5JCv5</t>
-  </si>
-  <si>
-    <t>ql3Jj4Tge</t>
+    <t>qFakph2rpuMOL</t>
+  </si>
+  <si>
+    <t>sgxZRXbK0FDc</t>
+  </si>
+  <si>
+    <t>w4MqH_Xe8</t>
   </si>
   <si>
     <t>w5U609Wze</t>
   </si>
   <si>
-    <t>w4MqH_Xe8</t>
-  </si>
-  <si>
-    <t>qFakph2rpuMOL</t>
-  </si>
-  <si>
-    <t>k-J3YwacF</t>
-  </si>
-  <si>
-    <t>sgxZRXbK0FDc</t>
+    <t>QGbUTVMjG</t>
+  </si>
+  <si>
+    <t>LtWwuVANwRzV_</t>
+  </si>
+  <si>
+    <t>LOO6LmXd7G84Z</t>
+  </si>
+  <si>
+    <t>aQx_vW8s1</t>
+  </si>
+  <si>
+    <t>uIEWfMFnQo9K_</t>
+  </si>
+  <si>
+    <t>C9DwH-T7MEGmo</t>
+  </si>
+  <si>
+    <t>gpRKmM16k</t>
+  </si>
+  <si>
+    <t>t7m8DZVyMsAu</t>
+  </si>
+  <si>
+    <t>cVaOmQWainv7g</t>
   </si>
   <si>
     <t>frw2fHgZ</t>
   </si>
   <si>
-    <t>LOO6LmXd7G84Z</t>
-  </si>
-  <si>
-    <t>C9DwH-T7MEGmo</t>
-  </si>
-  <si>
-    <t>LtWwuVANwRzV_</t>
+    <t>Ru56fDlLB56-v</t>
+  </si>
+  <si>
+    <t>ybmU-kKU</t>
+  </si>
+  <si>
+    <t>AP-fyKlSf</t>
+  </si>
+  <si>
+    <t>YRTkUcMi</t>
   </si>
   <si>
     <t>1ZZI6g5k5royD</t>
   </si>
   <si>
-    <t>YRTkUcMi</t>
-  </si>
-  <si>
-    <t>aQx_vW8s1</t>
-  </si>
-  <si>
-    <t>AP-fyKlSf</t>
-  </si>
-  <si>
-    <t>cVaOmQWainv7g</t>
-  </si>
-  <si>
-    <t>QGbUTVMjG</t>
-  </si>
-  <si>
     <t>Hi6jNXshVh9FA</t>
   </si>
   <si>
-    <t>Ru56fDlLB56-v</t>
+    <t>IEJOE2-U2</t>
+  </si>
+  <si>
+    <t>M9bj_WrX</t>
+  </si>
+  <si>
+    <t>uT6akswu0</t>
   </si>
   <si>
     <t>lT__vMO7l</t>
   </si>
   <si>
-    <t>gpRKmM16k</t>
-  </si>
-  <si>
-    <t>ybmU-kKU</t>
-  </si>
-  <si>
-    <t>M9bj_WrX</t>
-  </si>
-  <si>
-    <t>IEJOE2-U2</t>
-  </si>
-  <si>
-    <t>uT6akswu0</t>
-  </si>
-  <si>
-    <t>uIEWfMFnQo9K_</t>
+    <t>drWC87t2Vozh</t>
+  </si>
+  <si>
+    <t>sfab31CXM</t>
+  </si>
+  <si>
+    <t>p_GHkOeDNKw0</t>
   </si>
   <si>
     <t>XZfWhQXu8</t>
   </si>
   <si>
-    <t>NfeOYfNcl</t>
+    <t>08CsQa-Ov</t>
+  </si>
+  <si>
+    <t>rk5XwL6mIjUDp</t>
   </si>
   <si>
     <t>3jmxrjOJ8xa4p</t>
   </si>
   <si>
+    <t>qhd1biQ7M</t>
+  </si>
+  <si>
+    <t>yecsF9VkR</t>
+  </si>
+  <si>
+    <t>J7st_qGwz</t>
+  </si>
+  <si>
     <t>QUC5kVAxSoB-</t>
   </si>
   <si>
-    <t>drWC87t2Vozh</t>
-  </si>
-  <si>
-    <t>J7st_qGwz</t>
-  </si>
-  <si>
-    <t>JY1_q2c0g</t>
-  </si>
-  <si>
-    <t>yecsF9VkR</t>
-  </si>
-  <si>
-    <t>rk5XwL6mIjUDp</t>
-  </si>
-  <si>
-    <t>08CsQa-Ov</t>
-  </si>
-  <si>
     <t>7XWg41D1</t>
   </si>
   <si>
-    <t>SLcGT3CwT</t>
-  </si>
-  <si>
-    <t>qhd1biQ7M</t>
-  </si>
-  <si>
     <t>BTC</t>
   </si>
   <si>
@@ -394,39 +394,36 @@
     <t>MATIC</t>
   </si>
   <si>
+    <t>SOL</t>
+  </si>
+  <si>
     <t>OKB</t>
   </si>
   <si>
+    <t>DOT</t>
+  </si>
+  <si>
     <t>LINK</t>
   </si>
   <si>
-    <t>SOL</t>
-  </si>
-  <si>
-    <t>DOT</t>
+    <t>WETH</t>
   </si>
   <si>
     <t>LTC</t>
   </si>
   <si>
-    <t>WETH</t>
-  </si>
-  <si>
     <t>SHIB</t>
   </si>
   <si>
+    <t>TRX</t>
+  </si>
+  <si>
+    <t>UNI</t>
+  </si>
+  <si>
     <t>DAI</t>
   </si>
   <si>
-    <t>TRX</t>
-  </si>
-  <si>
-    <t>UNI</t>
-  </si>
-  <si>
-    <t>BIT</t>
-  </si>
-  <si>
     <t>AVAX</t>
   </si>
   <si>
@@ -445,12 +442,12 @@
     <t>ETC</t>
   </si>
   <si>
+    <t>LDO</t>
+  </si>
+  <si>
     <t>HT</t>
   </si>
   <si>
-    <t>LDO</t>
-  </si>
-  <si>
     <t>BCH</t>
   </si>
   <si>
@@ -463,204 +460,210 @@
     <t>ALGO</t>
   </si>
   <si>
+    <t>WSTETH</t>
+  </si>
+  <si>
+    <t>FIL</t>
+  </si>
+  <si>
+    <t>SAND</t>
+  </si>
+  <si>
+    <t>MANA</t>
+  </si>
+  <si>
+    <t>ICP</t>
+  </si>
+  <si>
+    <t>FXS</t>
+  </si>
+  <si>
+    <t>ENS</t>
+  </si>
+  <si>
+    <t>VET</t>
+  </si>
+  <si>
     <t>FRAX</t>
   </si>
   <si>
-    <t>WSTETH</t>
-  </si>
-  <si>
-    <t>ENS</t>
-  </si>
-  <si>
-    <t>FIL</t>
-  </si>
-  <si>
-    <t>ICP</t>
+    <t>NEAR</t>
+  </si>
+  <si>
+    <t>CAKE</t>
+  </si>
+  <si>
+    <t>HBAR</t>
   </si>
   <si>
     <t>QNT</t>
   </si>
   <si>
-    <t>VET</t>
-  </si>
-  <si>
-    <t>CAKE</t>
-  </si>
-  <si>
-    <t>HBAR</t>
-  </si>
-  <si>
     <t>LUNC</t>
   </si>
   <si>
-    <t>SAND</t>
-  </si>
-  <si>
     <t>CRO</t>
   </si>
   <si>
+    <t>AAVE</t>
+  </si>
+  <si>
+    <t>IMX</t>
+  </si>
+  <si>
+    <t>FLOW</t>
+  </si>
+  <si>
+    <t>APT</t>
+  </si>
+  <si>
+    <t>EOS</t>
+  </si>
+  <si>
+    <t>CHZ</t>
+  </si>
+  <si>
     <t>USDP</t>
   </si>
   <si>
-    <t>NEAR</t>
-  </si>
-  <si>
-    <t>IMX</t>
-  </si>
-  <si>
-    <t>FXS</t>
-  </si>
-  <si>
-    <t>EOS</t>
+    <t>EGLD</t>
+  </si>
+  <si>
+    <t>XTZ</t>
+  </si>
+  <si>
+    <t>THETA</t>
   </si>
   <si>
     <t>PAX</t>
   </si>
   <si>
-    <t>CHZ</t>
-  </si>
-  <si>
-    <t>AAVE</t>
-  </si>
-  <si>
-    <t>MANA</t>
-  </si>
-  <si>
     <t>BSV</t>
   </si>
   <si>
-    <t>EGLD</t>
-  </si>
-  <si>
-    <t>FLOW</t>
-  </si>
-  <si>
-    <t>THETA</t>
-  </si>
-  <si>
-    <t>XTZ</t>
+    <t>SUSHI</t>
+  </si>
+  <si>
+    <t>ZEC</t>
+  </si>
+  <si>
+    <t>FTT</t>
+  </si>
+  <si>
+    <t>WOO</t>
   </si>
   <si>
     <t>USDD</t>
   </si>
   <si>
-    <t>ZEC</t>
-  </si>
-  <si>
-    <t>APT</t>
-  </si>
-  <si>
-    <t>SUSHI</t>
+    <t>MKR</t>
+  </si>
+  <si>
+    <t>SNX</t>
+  </si>
+  <si>
+    <t>BTT</t>
   </si>
   <si>
     <t>APE</t>
   </si>
   <si>
-    <t>BTT</t>
-  </si>
-  <si>
-    <t>MKR</t>
-  </si>
-  <si>
-    <t>WOO</t>
-  </si>
-  <si>
-    <t>SNX</t>
+    <t>CRV</t>
+  </si>
+  <si>
+    <t>MIOTA</t>
+  </si>
+  <si>
+    <t>KCS</t>
+  </si>
+  <si>
+    <t>XEC</t>
+  </si>
+  <si>
+    <t>FTM</t>
+  </si>
+  <si>
+    <t>DASH</t>
+  </si>
+  <si>
+    <t>AXS</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>NEO</t>
   </si>
   <si>
     <t>TKX</t>
   </si>
   <si>
-    <t>KCS</t>
-  </si>
-  <si>
-    <t>DASH</t>
-  </si>
-  <si>
-    <t>MIOTA</t>
+    <t>RVN</t>
+  </si>
+  <si>
+    <t>RUNE</t>
+  </si>
+  <si>
+    <t>OKT</t>
+  </si>
+  <si>
+    <t>PAXG</t>
   </si>
   <si>
     <t>TUSD</t>
   </si>
   <si>
-    <t>PAXG</t>
-  </si>
-  <si>
-    <t>XEC</t>
-  </si>
-  <si>
-    <t>OKT</t>
-  </si>
-  <si>
-    <t>NEO</t>
-  </si>
-  <si>
-    <t>CRV</t>
-  </si>
-  <si>
     <t>NEXO</t>
   </si>
   <si>
-    <t>RVN</t>
+    <t>BNX</t>
+  </si>
+  <si>
+    <t>KLAY</t>
+  </si>
+  <si>
+    <t>NFT</t>
   </si>
   <si>
     <t>CDAI</t>
   </si>
   <si>
-    <t>AXS</t>
-  </si>
-  <si>
-    <t>RUNE</t>
-  </si>
-  <si>
-    <t>KLAY</t>
-  </si>
-  <si>
-    <t>BNX</t>
-  </si>
-  <si>
-    <t>NFT</t>
-  </si>
-  <si>
-    <t>FTM</t>
+    <t>ANKR</t>
+  </si>
+  <si>
+    <t>BLOK</t>
+  </si>
+  <si>
+    <t>CETH</t>
   </si>
   <si>
     <t>PYR</t>
   </si>
   <si>
-    <t>FTT</t>
+    <t>WEMIX</t>
+  </si>
+  <si>
+    <t>CEL</t>
   </si>
   <si>
     <t>ZIL</t>
   </si>
   <si>
+    <t>GRT</t>
+  </si>
+  <si>
+    <t>OSMO</t>
+  </si>
+  <si>
+    <t>MINA</t>
+  </si>
+  <si>
     <t>MX</t>
   </si>
   <si>
-    <t>ANKR</t>
-  </si>
-  <si>
-    <t>MINA</t>
-  </si>
-  <si>
-    <t>BABYDOGE</t>
-  </si>
-  <si>
-    <t>OSMO</t>
-  </si>
-  <si>
-    <t>CEL</t>
-  </si>
-  <si>
-    <t>WEMIX</t>
-  </si>
-  <si>
     <t>AR</t>
   </si>
   <si>
-    <t>GRT</t>
-  </si>
-  <si>
     <t>Bitcoin</t>
   </si>
   <si>
@@ -682,36 +685,33 @@
     <t>Polygon</t>
   </si>
   <si>
+    <t>Solana</t>
+  </si>
+  <si>
+    <t>Polkadot</t>
+  </si>
+  <si>
     <t>Chainlink</t>
   </si>
   <si>
-    <t>Solana</t>
-  </si>
-  <si>
-    <t>Polkadot</t>
+    <t>Wrapped Ether</t>
   </si>
   <si>
     <t>Litecoin</t>
   </si>
   <si>
-    <t>Wrapped Ether</t>
-  </si>
-  <si>
     <t>Shiba Inu</t>
   </si>
   <si>
+    <t>TRON</t>
+  </si>
+  <si>
+    <t>Uniswap</t>
+  </si>
+  <si>
     <t>Dai</t>
   </si>
   <si>
-    <t>TRON</t>
-  </si>
-  <si>
-    <t>Uniswap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BitDAO </t>
-  </si>
-  <si>
     <t>Avalanche</t>
   </si>
   <si>
@@ -730,12 +730,12 @@
     <t>Ethereum Classic</t>
   </si>
   <si>
+    <t>Lido DAO Token</t>
+  </si>
+  <si>
     <t>Huobi Token</t>
   </si>
   <si>
-    <t>Lido DAO Token</t>
-  </si>
-  <si>
     <t>Bitcoin Cash</t>
   </si>
   <si>
@@ -748,195 +748,198 @@
     <t>Algorand</t>
   </si>
   <si>
+    <t>Wrapped liquid staked Ether 2.0</t>
+  </si>
+  <si>
+    <t>Filecoin</t>
+  </si>
+  <si>
+    <t>The Sandbox</t>
+  </si>
+  <si>
+    <t>Decentraland</t>
+  </si>
+  <si>
+    <t>Internet Computer (DFINITY)</t>
+  </si>
+  <si>
+    <t>Frax Share</t>
+  </si>
+  <si>
+    <t>EnergySwap</t>
+  </si>
+  <si>
+    <t>VeChain</t>
+  </si>
+  <si>
     <t>Frax</t>
   </si>
   <si>
-    <t>Wrapped liquid staked Ether 2.0</t>
-  </si>
-  <si>
-    <t>EnergySwap</t>
-  </si>
-  <si>
-    <t>Filecoin</t>
-  </si>
-  <si>
-    <t>Internet Computer (DFINITY)</t>
+    <t>NEAR Protocol</t>
+  </si>
+  <si>
+    <t>PancakeSwap</t>
+  </si>
+  <si>
+    <t>Hedera</t>
   </si>
   <si>
     <t>Quant</t>
   </si>
   <si>
-    <t>VeChain</t>
-  </si>
-  <si>
-    <t>PancakeSwap</t>
-  </si>
-  <si>
-    <t>Hedera</t>
-  </si>
-  <si>
     <t>Terra Classic</t>
   </si>
   <si>
-    <t>The Sandbox</t>
-  </si>
-  <si>
     <t>Cronos</t>
   </si>
   <si>
+    <t>Aave</t>
+  </si>
+  <si>
+    <t>Immutable X</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>Aptos</t>
+  </si>
+  <si>
+    <t>Chiliz</t>
+  </si>
+  <si>
     <t>Pax Dollar</t>
   </si>
   <si>
-    <t>NEAR Protocol</t>
-  </si>
-  <si>
-    <t>Immutable X</t>
-  </si>
-  <si>
-    <t>Frax Share</t>
+    <t>Elrond</t>
+  </si>
+  <si>
+    <t>Tezos</t>
+  </si>
+  <si>
+    <t>Theta Token</t>
   </si>
   <si>
     <t>Paxos Standard</t>
   </si>
   <si>
-    <t>Chiliz</t>
-  </si>
-  <si>
-    <t>Aave</t>
-  </si>
-  <si>
-    <t>Decentraland</t>
-  </si>
-  <si>
     <t>Bitcoin SV</t>
   </si>
   <si>
-    <t>Elrond</t>
-  </si>
-  <si>
-    <t>Flow</t>
-  </si>
-  <si>
-    <t>Theta Token</t>
-  </si>
-  <si>
-    <t>Tezos</t>
-  </si>
-  <si>
     <t>Zcash</t>
   </si>
   <si>
-    <t>Aptos</t>
+    <t>FTX Token</t>
+  </si>
+  <si>
+    <t>WOO Network</t>
+  </si>
+  <si>
+    <t>Maker</t>
+  </si>
+  <si>
+    <t>Synthetix Network</t>
+  </si>
+  <si>
+    <t>BitTorrent-New</t>
   </si>
   <si>
     <t>ApeCoin</t>
   </si>
   <si>
-    <t>BitTorrent-New</t>
-  </si>
-  <si>
-    <t>Maker</t>
-  </si>
-  <si>
-    <t>WOO Network</t>
-  </si>
-  <si>
-    <t>Synthetix Network</t>
+    <t>Curve DAO Token</t>
+  </si>
+  <si>
+    <t>IOTA</t>
+  </si>
+  <si>
+    <t>KuCoin Token</t>
+  </si>
+  <si>
+    <t>eCash</t>
+  </si>
+  <si>
+    <t>Fantom</t>
+  </si>
+  <si>
+    <t>Dash</t>
+  </si>
+  <si>
+    <t>Axie Infinity</t>
+  </si>
+  <si>
+    <t>GateToken</t>
   </si>
   <si>
     <t>Tokenize Xchange</t>
   </si>
   <si>
-    <t>KuCoin Token</t>
-  </si>
-  <si>
-    <t>Dash</t>
-  </si>
-  <si>
-    <t>IOTA</t>
+    <t>Ravencoin</t>
+  </si>
+  <si>
+    <t>THORChain</t>
+  </si>
+  <si>
+    <t>OEC Token</t>
+  </si>
+  <si>
+    <t>PAX Gold</t>
   </si>
   <si>
     <t>TrueUSD</t>
   </si>
   <si>
-    <t>PAX Gold</t>
-  </si>
-  <si>
-    <t>eCash</t>
-  </si>
-  <si>
-    <t>OEC Token</t>
-  </si>
-  <si>
-    <t>Curve DAO Token</t>
-  </si>
-  <si>
     <t>Nexo</t>
   </si>
   <si>
-    <t>Ravencoin</t>
+    <t>BinaryX</t>
+  </si>
+  <si>
+    <t>Klaytn</t>
+  </si>
+  <si>
+    <t>APENFT</t>
   </si>
   <si>
     <t>Compound Dai</t>
   </si>
   <si>
-    <t>Axie Infinity</t>
-  </si>
-  <si>
-    <t>THORChain</t>
-  </si>
-  <si>
-    <t>Klaytn</t>
-  </si>
-  <si>
-    <t>BinaryX</t>
-  </si>
-  <si>
-    <t>APENFT</t>
-  </si>
-  <si>
-    <t>Fantom</t>
+    <t>Ankr</t>
+  </si>
+  <si>
+    <t>Bloktopia</t>
+  </si>
+  <si>
+    <t>Compound Ether</t>
   </si>
   <si>
     <t>Vulcan Forged</t>
   </si>
   <si>
-    <t>FTX Token</t>
+    <t>WEMIX TOKEN</t>
+  </si>
+  <si>
+    <t>Celsius Network</t>
   </si>
   <si>
     <t>Zilliqa</t>
   </si>
   <si>
+    <t>The Graph</t>
+  </si>
+  <si>
+    <t>Osmosis</t>
+  </si>
+  <si>
+    <t>Mina Protocol Token</t>
+  </si>
+  <si>
     <t>MX Token</t>
   </si>
   <si>
-    <t>Ankr</t>
-  </si>
-  <si>
-    <t>Mina Protocol Token</t>
-  </si>
-  <si>
-    <t>Baby Doge Coin</t>
-  </si>
-  <si>
-    <t>Osmosis</t>
-  </si>
-  <si>
-    <t>Celsius Network</t>
-  </si>
-  <si>
-    <t>WEMIX TOKEN</t>
-  </si>
-  <si>
     <t>Arweave</t>
   </si>
   <si>
-    <t>Ethereum Name Service</t>
-  </si>
-  <si>
-    <t>The Graph</t>
-  </si>
-  <si>
     <t>#f7931A</t>
   </si>
   <si>
@@ -970,30 +973,30 @@
     <t>#2d60e0</t>
   </si>
   <si>
+    <t>#d64cA8</t>
+  </si>
+  <si>
     <t>#4680b0</t>
   </si>
   <si>
-    <t>#d64cA8</t>
+    <t>#303030</t>
   </si>
   <si>
     <t>#345d9d</t>
   </si>
   <si>
-    <t>#303030</t>
-  </si>
-  <si>
     <t>#fda32b</t>
   </si>
   <si>
+    <t>#eb0029</t>
+  </si>
+  <si>
+    <t>#ff007a</t>
+  </si>
+  <si>
     <t>#ea9999</t>
   </si>
   <si>
-    <t>#eb0029</t>
-  </si>
-  <si>
-    <t>#ff007a</t>
-  </si>
-  <si>
     <t>#e84242</t>
   </si>
   <si>
@@ -1009,12 +1012,12 @@
     <t>#699070</t>
   </si>
   <si>
+    <t>#77cced</t>
+  </si>
+  <si>
     <t>#2daadf</t>
   </si>
   <si>
-    <t>#77cced</t>
-  </si>
-  <si>
     <t>#8dc451</t>
   </si>
   <si>
@@ -1024,150 +1027,147 @@
     <t>#70b9dc</t>
   </si>
   <si>
+    <t>#0090ff</t>
+  </si>
+  <si>
+    <t>#00adef</t>
+  </si>
+  <si>
+    <t>#f47e33</t>
+  </si>
+  <si>
+    <t>#00042b</t>
+  </si>
+  <si>
     <t>#ffda55</t>
   </si>
   <si>
-    <t>#0090ff</t>
-  </si>
-  <si>
-    <t>#00042b</t>
+    <t>#4bc0fa</t>
+  </si>
+  <si>
+    <t>#fe9555</t>
   </si>
   <si>
     <t>#585e63</t>
   </si>
   <si>
-    <t>#4bc0fa</t>
-  </si>
-  <si>
-    <t>#fe9555</t>
-  </si>
-  <si>
     <t>#0E3CA5</t>
   </si>
   <si>
-    <t>#00adef</t>
-  </si>
-  <si>
     <t>#01275d</t>
   </si>
   <si>
+    <t>#B6509E</t>
+  </si>
+  <si>
+    <t>#9efad7</t>
+  </si>
+  <si>
+    <t>#443f54</t>
+  </si>
+  <si>
+    <t>#d05e72</t>
+  </si>
+  <si>
     <t>#2ac27a</t>
   </si>
   <si>
-    <t>#443f54</t>
+    <t>#2c7df7</t>
+  </si>
+  <si>
+    <t>#1b1f2a</t>
   </si>
   <si>
     <t>#085229</t>
   </si>
   <si>
-    <t>#d05e72</t>
-  </si>
-  <si>
-    <t>#B6509E</t>
-  </si>
-  <si>
-    <t>#f47e33</t>
-  </si>
-  <si>
     <t>#eab300</t>
   </si>
   <si>
-    <t>#9efad7</t>
-  </si>
-  <si>
-    <t>#1b1f2a</t>
-  </si>
-  <si>
-    <t>#2c7df7</t>
+    <t>#b06b2e</t>
   </si>
   <si>
     <t>#000</t>
   </si>
   <si>
-    <t>#b06b2e</t>
+    <t>#77d9ed</t>
+  </si>
+  <si>
+    <t>#1abc9c</t>
+  </si>
+  <si>
+    <t>#90dce0</t>
   </si>
   <si>
     <t>#0042C7</t>
   </si>
   <si>
-    <t>#1abc9c</t>
-  </si>
-  <si>
-    <t>#90dce0</t>
+    <t>#0030ff</t>
+  </si>
+  <si>
+    <t>#23AF91</t>
+  </si>
+  <si>
+    <t>#1969ff</t>
+  </si>
+  <si>
+    <t>#1c75bc</t>
+  </si>
+  <si>
+    <t>#f5a616</t>
+  </si>
+  <si>
+    <t>#de5959</t>
+  </si>
+  <si>
+    <t>#aedb00</t>
   </si>
   <si>
     <t>#ff8f40</t>
   </si>
   <si>
-    <t>#23AF91</t>
-  </si>
-  <si>
-    <t>#1c75bc</t>
+    <t>#384182</t>
+  </si>
+  <si>
+    <t>#0EAAB7</t>
+  </si>
+  <si>
+    <t>#456dc8</t>
+  </si>
+  <si>
+    <t>#a18d10</t>
   </si>
   <si>
     <t>#1f2e5a</t>
   </si>
   <si>
-    <t>#a18d10</t>
-  </si>
-  <si>
-    <t>#456dc8</t>
-  </si>
-  <si>
-    <t>#aedb00</t>
-  </si>
-  <si>
-    <t>#0030ff</t>
-  </si>
-  <si>
     <t>#0e34aa</t>
   </si>
   <si>
-    <t>#384182</t>
-  </si>
-  <si>
-    <t>#f5a616</t>
-  </si>
-  <si>
-    <t>#0EAAB7</t>
-  </si>
-  <si>
     <t>#4f473b</t>
   </si>
   <si>
-    <t>#1969ff</t>
+    <t>#277fcc</t>
   </si>
   <si>
     <t>#fa8742</t>
   </si>
   <si>
-    <t>#77d9ed</t>
+    <t>#9bdc70</t>
+  </si>
+  <si>
+    <t>#f37425</t>
   </si>
   <si>
     <t>#49c1bf</t>
   </si>
   <si>
-    <t>#277fcc</t>
-  </si>
-  <si>
-    <t>#e6b635</t>
+    <t>#b090e0</t>
   </si>
   <si>
     <t>#1b154f</t>
   </si>
   <si>
-    <t>#f37425</t>
-  </si>
-  <si>
-    <t>#9bdc70</t>
-  </si>
-  <si>
-    <t>#49bcd7</t>
-  </si>
-  <si>
-    <t>#b090e0</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/bOabBYkcX/bitcoin_btc.svg</t>
   </si>
   <si>
@@ -1198,39 +1198,36 @@
     <t>https://cdn.coinranking.com/M-pwilaq-/polygon-matic-logo.svg</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/yvUG4Qex5/solana.svg</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/xcZdYtX6E/okx.png</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/RsljYqnbu/polkadot.svg</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/9NOP9tOem/chainlink.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/yvUG4Qex5/solana.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/RsljYqnbu/polkadot.svg</t>
+    <t>https://cdn.coinranking.com/KIviQyZlt/weth.svg</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/BUvPxmc9o/ltcnew.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/KIviQyZlt/weth.svg</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/fiZ4HfnRR/shib.png</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/behejNqQs/trx.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/1heSvUgtl/uniswap-v2.svg?size=48x48</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/mAZ_7LwOE/mutli-collateral-dai.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/behejNqQs/trx.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/1heSvUgtl/uniswap-v2.svg?size=48x48</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/0ClFW1IpO/bitdao.png</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/S0C6Cw2-w/avax-avalanche.png</t>
   </si>
   <si>
@@ -1249,12 +1246,12 @@
     <t>https://cdn.coinranking.com/rJfyor__W/etc.svg</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/Wp6LFY6ZZ/8000.png</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/ryFpQe0c7/ht.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/Wp6LFY6ZZ/8000.png</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/By8ziihX7/bch.svg</t>
   </si>
   <si>
@@ -1267,1354 +1264,1357 @@
     <t>https://cdn.coinranking.com/lzbmCkUGB/algo.svg</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/LQg69oxqx/wstETH.PNG</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/vUmvv-IQA/FIL3-filecoin.svg?size=48x48</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/kd_vwOcnI/sandbox.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/ph_svUzXs/decentraland(1).svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/1uJ_RVrmC/dfinity-icp.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/_UuWZ5htj/FS.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/fmYxEUV5a/cropped-logo37-Converted-01-192x192.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/B1_TDu9Dm/VEN.svg</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/BpVNCX-NM/frax.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/LQg69oxqx/wstETH.PNG</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/fmYxEUV5a/cropped-logo37-Converted-01-192x192.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/vUmvv-IQA/FIL3-filecoin.svg?size=48x48</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/1uJ_RVrmC/dfinity-icp.png</t>
+    <t>https://cdn.coinranking.com/Cth83dCnl/near.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/aRtgdw7bQ/pancakeswap-cake-logo.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/dSCnSLilQ/hedera.svg</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/a-i9Dl392/quant.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/B1_TDu9Dm/VEN.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/aRtgdw7bQ/pancakeswap-cake-logo.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/dSCnSLilQ/hedera.svg</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/F-PJdF8Um/LUNA.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/kd_vwOcnI/sandbox.png</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/2o91jm73M/cro.svg</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/4bpYKqV4X/AAVE.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/naRGT2Y_X/10603.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/xh8X8QBss/flow.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/KXUaDFjqm/21794.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/PqOYrWSje/eos2.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/gTsOlSnwR/4066.png</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/KUd2bJXdn/3330.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/Cth83dCnl/near.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/naRGT2Y_X/10603.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/_UuWZ5htj/FS.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/PqOYrWSje/eos2.svg</t>
+    <t>https://cdn.coinranking.com/X62ruAuZQ/Elrond.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/HkLUdilQ7/xtz.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/HJHg2k9Lf/theta.svg</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/H1NkFcuhX/pax.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/gTsOlSnwR/4066.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/4bpYKqV4X/AAVE.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/ph_svUzXs/decentraland(1).svg</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/388ehh6kq/bitcoin-sv-1.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/X62ruAuZQ/Elrond.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/xh8X8QBss/flow.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/HJHg2k9Lf/theta.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/HkLUdilQ7/xtz.svg</t>
+    <t>https://cdn.coinranking.com/eKKejWkdo/sushiswap.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/rJrKiS_uZ/zec.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/WyBm4_EzM/ftx-exchange.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/03_LGK8B-/7501.png</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/HeEyq_2CG/usdd.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/rJrKiS_uZ/zec.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/KXUaDFjqm/21794.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/eKKejWkdo/sushiswap.png</t>
+    <t>https://cdn.coinranking.com/sjHfS7jCS/mkrdao.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/c2WntZSPs/snx-synthetix.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/xHIci4Je9/16086.png</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/qT3ukh7Z9/APE.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/xHIci4Je9/16086.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/sjHfS7jCS/mkrdao.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/03_LGK8B-/7501.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/c2WntZSPs/snx-synthetix.png</t>
+    <t>https://cdn.coinranking.com/89clXLSu2/curve-dao-token.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/H1IQ9Bdd-/miota.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/A-hAjR-hN/kucoin.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/wdqRaUEhn/xec.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/Uh-AYdcnU/fantom.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/PyCmduSxt/Dash-D-white_on_blue_circle.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/L3gWtlUJB/axie-infinity.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/tRE6BrzE0/GT[1].svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/MgUNVQCeN/neo.svg</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/JYtWb5AXp/tokenize.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/A-hAjR-hN/kucoin.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/PyCmduSxt/Dash-D-white_on_blue_circle.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/H1IQ9Bdd-/miota.svg</t>
+    <t>https://cdn.coinranking.com/Rw1xg7rFE/rvn.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/tU7Skyia9/ThorChain[1].svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/w-31NDK65/8267.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/OvRFA-ieo/pax-gold.svg</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/qPE6mbDUL/tusd.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/OvRFA-ieo/pax-gold.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/wdqRaUEhn/xec.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/w-31NDK65/8267.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/MgUNVQCeN/neo.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/89clXLSu2/curve-dao-token.svg</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/V2znfjzI4/nexo.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/Rw1xg7rFE/rvn.svg</t>
+    <t>https://cdn.coinranking.com/mX2o6GwxI/BinaryX-RGB-01_(2).PNG</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/cY-BSmXaS/klay.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/43Mb3MHYr/9816.png</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/aZPPc1MqR/cDAI.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/L3gWtlUJB/axie-infinity.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/tU7Skyia9/ThorChain[1].svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/cY-BSmXaS/klay.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/mX2o6GwxI/BinaryX-RGB-01_(2).PNG</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/43Mb3MHYr/9816.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/Uh-AYdcnU/fantom.png</t>
+    <t>https://cdn.coinranking.com/2NXhylXMw/ankr.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/P6P1BdGJ9/11206.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/ZTQUl5jrQ/CETH2.svg</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/Y3sN-F7tM/PYR.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/WyBm4_EzM/ftx-exchange.svg</t>
+    <t>https://cdn.coinranking.com/1N84MQsoO/7548.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/XPU7TeCYD/New-CEL.png</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/H18JFWswf/zil.svg</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/g6FVr-7Vs/grt.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/nqAP4gRwW/osmosis.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/IqAKk8Gab/mina.png</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/5H4rM81Pj/mxc.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/2NXhylXMw/ankr.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/IqAKk8Gab/mina.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/1X2BCCJdV/Baby_Doge.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/nqAP4gRwW/osmosis.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/XPU7TeCYD/New-CEL.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/1N84MQsoO/7548.png</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/96QRZJzE9/5632.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/aUQr3CkJU/ENS.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/g6FVr-7Vs/grt.png</t>
-  </si>
-  <si>
-    <t>334903342513</t>
-  </si>
-  <si>
-    <t>162553666610</t>
-  </si>
-  <si>
-    <t>65388437107</t>
-  </si>
-  <si>
-    <t>43794876205</t>
-  </si>
-  <si>
-    <t>39286231081</t>
-  </si>
-  <si>
-    <t>17616271500</t>
-  </si>
-  <si>
-    <t>16447102806</t>
-  </si>
-  <si>
-    <t>11040094129</t>
-  </si>
-  <si>
-    <t>10510227210</t>
-  </si>
-  <si>
-    <t>7647547102</t>
-  </si>
-  <si>
-    <t>6714644010</t>
-  </si>
-  <si>
-    <t>6116584554</t>
-  </si>
-  <si>
-    <t>5838567292</t>
-  </si>
-  <si>
-    <t>5764909756</t>
-  </si>
-  <si>
-    <t>5712600022</t>
-  </si>
-  <si>
-    <t>5406461041</t>
-  </si>
-  <si>
-    <t>5277931220</t>
-  </si>
-  <si>
-    <t>5210919590</t>
-  </si>
-  <si>
-    <t>5071117924</t>
-  </si>
-  <si>
-    <t>4535751591</t>
-  </si>
-  <si>
-    <t>4276401764</t>
-  </si>
-  <si>
-    <t>3761981568</t>
-  </si>
-  <si>
-    <t>3588151666</t>
-  </si>
-  <si>
-    <t>3287607860</t>
-  </si>
-  <si>
-    <t>3119387712</t>
-  </si>
-  <si>
-    <t>2931109894</t>
-  </si>
-  <si>
-    <t>2731214758</t>
-  </si>
-  <si>
-    <t>2442535058</t>
-  </si>
-  <si>
-    <t>2236750049</t>
-  </si>
-  <si>
-    <t>2050679504</t>
-  </si>
-  <si>
-    <t>1792168051</t>
-  </si>
-  <si>
-    <t>1591542383</t>
-  </si>
-  <si>
-    <t>1445380682</t>
-  </si>
-  <si>
-    <t>1384288573</t>
-  </si>
-  <si>
-    <t>1363831560</t>
-  </si>
-  <si>
-    <t>1221079483</t>
-  </si>
-  <si>
-    <t>1217267035</t>
-  </si>
-  <si>
-    <t>1210566848</t>
-  </si>
-  <si>
-    <t>1192966538</t>
-  </si>
-  <si>
-    <t>1188039832</t>
-  </si>
-  <si>
-    <t>1174980995</t>
-  </si>
-  <si>
-    <t>1090682855</t>
-  </si>
-  <si>
-    <t>1084269264</t>
-  </si>
-  <si>
-    <t>1062537454</t>
-  </si>
-  <si>
-    <t>1036887899</t>
-  </si>
-  <si>
-    <t>1013172191</t>
-  </si>
-  <si>
-    <t>980251363</t>
-  </si>
-  <si>
-    <t>962935318</t>
-  </si>
-  <si>
-    <t>952225259</t>
-  </si>
-  <si>
-    <t>931776697</t>
-  </si>
-  <si>
-    <t>915508573</t>
-  </si>
-  <si>
-    <t>890550970</t>
-  </si>
-  <si>
-    <t>880088884</t>
-  </si>
-  <si>
-    <t>864265490</t>
-  </si>
-  <si>
-    <t>852101804</t>
-  </si>
-  <si>
-    <t>842348801</t>
-  </si>
-  <si>
-    <t>813067512</t>
-  </si>
-  <si>
-    <t>799435957</t>
-  </si>
-  <si>
-    <t>754904413</t>
-  </si>
-  <si>
-    <t>711251777</t>
-  </si>
-  <si>
-    <t>692181345</t>
-  </si>
-  <si>
-    <t>684764223</t>
-  </si>
-  <si>
-    <t>672619306</t>
-  </si>
-  <si>
-    <t>626838643</t>
-  </si>
-  <si>
-    <t>620547783</t>
-  </si>
-  <si>
-    <t>613390204</t>
-  </si>
-  <si>
-    <t>599673947</t>
-  </si>
-  <si>
-    <t>552766286</t>
-  </si>
-  <si>
-    <t>533074316</t>
-  </si>
-  <si>
-    <t>524517945</t>
-  </si>
-  <si>
-    <t>523265075</t>
-  </si>
-  <si>
-    <t>521459303</t>
-  </si>
-  <si>
-    <t>510526122</t>
-  </si>
-  <si>
-    <t>506784248</t>
-  </si>
-  <si>
-    <t>483443728</t>
-  </si>
-  <si>
-    <t>483264143</t>
-  </si>
-  <si>
-    <t>478527604</t>
-  </si>
-  <si>
-    <t>476819110</t>
-  </si>
-  <si>
-    <t>466731264</t>
-  </si>
-  <si>
-    <t>451724013</t>
-  </si>
-  <si>
-    <t>450480875</t>
-  </si>
-  <si>
-    <t>447794658</t>
-  </si>
-  <si>
-    <t>433964150</t>
-  </si>
-  <si>
-    <t>431501027</t>
-  </si>
-  <si>
-    <t>430132841</t>
-  </si>
-  <si>
-    <t>418911625</t>
-  </si>
-  <si>
-    <t>415065742</t>
-  </si>
-  <si>
-    <t>406884490</t>
-  </si>
-  <si>
-    <t>398558965</t>
-  </si>
-  <si>
-    <t>392227111</t>
-  </si>
-  <si>
-    <t>385161310</t>
-  </si>
-  <si>
-    <t>383528365</t>
-  </si>
-  <si>
-    <t>377983444</t>
-  </si>
-  <si>
-    <t>374620520</t>
-  </si>
-  <si>
-    <t>372357039</t>
-  </si>
-  <si>
-    <t>369430651</t>
-  </si>
-  <si>
-    <t>364416249</t>
-  </si>
-  <si>
-    <t>334764938</t>
-  </si>
-  <si>
-    <t>333351749</t>
-  </si>
-  <si>
-    <t>330132253</t>
-  </si>
-  <si>
-    <t>17425.038094495227</t>
-  </si>
-  <si>
-    <t>1332.1347315455457</t>
-  </si>
-  <si>
-    <t>1.0003940490698238</t>
-  </si>
-  <si>
-    <t>1.0003860523351469</t>
-  </si>
-  <si>
-    <t>275.0838931570907</t>
-  </si>
-  <si>
-    <t>0.3502328896038792</t>
-  </si>
-  <si>
-    <t>1.000348044645037</t>
-  </si>
-  <si>
-    <t>0.31502603986824956</t>
-  </si>
-  <si>
-    <t>0.0768079531263155</t>
-  </si>
-  <si>
-    <t>0.853539532868709</t>
-  </si>
-  <si>
-    <t>27.224586209041497</t>
-  </si>
-  <si>
-    <t>6.117138307802432</t>
-  </si>
-  <si>
-    <t>16.0772370184762</t>
-  </si>
-  <si>
-    <t>4.877186066639734</t>
-  </si>
-  <si>
-    <t>80.61208177300658</t>
-  </si>
-  <si>
-    <t>1332.0586071776158</t>
-  </si>
-  <si>
-    <t>0.000008952372746435</t>
-  </si>
-  <si>
-    <t>1.0006672910675276</t>
-  </si>
-  <si>
-    <t>0.0550320486692961</t>
-  </si>
-  <si>
-    <t>5.701294806771632</t>
-  </si>
-  <si>
-    <t>0.44498389531904065</t>
-  </si>
-  <si>
-    <t>12.50987094856615</t>
-  </si>
-  <si>
-    <t>11.182858896712736</t>
-  </si>
-  <si>
-    <t>17369.239459431497</t>
-  </si>
-  <si>
-    <t>2.1168606771700884</t>
-  </si>
-  <si>
-    <t>160.98980567683356</t>
-  </si>
-  <si>
-    <t>19.764678990391246</t>
-  </si>
-  <si>
-    <t>4.885070127087952</t>
-  </si>
-  <si>
-    <t>1.915267215740912</t>
-  </si>
-  <si>
-    <t>107.18920284903767</t>
-  </si>
-  <si>
-    <t>1.4762527198220925</t>
-  </si>
-  <si>
-    <t>0.0787676883555083</t>
-  </si>
-  <si>
-    <t>0.20065342797501728</t>
-  </si>
-  <si>
-    <t>1.0000682622735357</t>
-  </si>
-  <si>
-    <t>1462.2665066643135</t>
-  </si>
-  <si>
-    <t>12.210794830183502</t>
-  </si>
-  <si>
-    <t>3.7182976454351486</t>
-  </si>
-  <si>
-    <t>4.276896601421403</t>
-  </si>
-  <si>
-    <t>122.01470210317649</t>
-  </si>
-  <si>
-    <t>0.017795485921690973</t>
-  </si>
-  <si>
-    <t>3.3795807576936565</t>
-  </si>
-  <si>
-    <t>0.04408897244107236</t>
-  </si>
-  <si>
-    <t>0.000164310167234349</t>
-  </si>
-  <si>
-    <t>0.5062955250491238</t>
-  </si>
-  <si>
-    <t>0.06393850877571336</t>
-  </si>
-  <si>
-    <t>0.9972680422392235</t>
-  </si>
-  <si>
-    <t>1.612668428082125</t>
-  </si>
-  <si>
-    <t>0.4814676591026689</t>
-  </si>
-  <si>
-    <t>5.3906540772894855</t>
-  </si>
-  <si>
-    <t>0.9426023591762666</t>
-  </si>
-  <si>
-    <t>1.0011988251600155</t>
-  </si>
-  <si>
-    <t>0.11740541514347823</t>
-  </si>
-  <si>
-    <t>61.339722453198846</t>
-  </si>
-  <si>
-    <t>0.3940571631225368</t>
-  </si>
-  <si>
-    <t>44.4397105820139</t>
-  </si>
-  <si>
-    <t>35.271747588128825</t>
-  </si>
-  <si>
-    <t>0.7846627210149661</t>
-  </si>
-  <si>
-    <t>0.7994428627141466</t>
-  </si>
-  <si>
-    <t>0.8228493527425877</t>
-  </si>
-  <si>
-    <t>0.980587843810797</t>
-  </si>
-  <si>
-    <t>43.80049072420685</t>
-  </si>
-  <si>
-    <t>5.267417100499517</t>
-  </si>
-  <si>
-    <t>1.1026910677322683</t>
-  </si>
-  <si>
-    <t>4.778152961121995</t>
-  </si>
-  <si>
-    <t>6.56437779703e-7</t>
-  </si>
-  <si>
-    <t>627.3761796956671</t>
-  </si>
-  <si>
-    <t>0.1683193024404235</t>
-  </si>
-  <si>
-    <t>1.77450861764306</t>
-  </si>
-  <si>
-    <t>6.663762146643358</t>
-  </si>
-  <si>
-    <t>6.934239270614437</t>
-  </si>
-  <si>
-    <t>47.450901878540066</t>
-  </si>
-  <si>
-    <t>0.18760698746564825</t>
-  </si>
-  <si>
-    <t>1.0004181195822384</t>
-  </si>
-  <si>
-    <t>1865.9229701793813</t>
-  </si>
-  <si>
-    <t>0.000025208299947915</t>
-  </si>
-  <si>
-    <t>27.13799935560125</t>
-  </si>
-  <si>
-    <t>6.784738469008178</t>
-  </si>
-  <si>
-    <t>0.6582860408970584</t>
-  </si>
-  <si>
-    <t>0.7223311437758857</t>
-  </si>
-  <si>
-    <t>0.021510667291653403</t>
-  </si>
-  <si>
-    <t>0.02215076255155807</t>
-  </si>
-  <si>
-    <t>7.352044619949704</t>
-  </si>
-  <si>
-    <t>1.4429149942364552</t>
-  </si>
-  <si>
-    <t>0.17626250196752094</t>
-  </si>
-  <si>
-    <t>70.49608199551834</t>
-  </si>
-  <si>
-    <t>4.18915813927e-7</t>
-  </si>
-  <si>
-    <t>0.23868771948064382</t>
-  </si>
-  <si>
-    <t>3.5412992255638485</t>
-  </si>
-  <si>
-    <t>1.2118117591505169</t>
-  </si>
-  <si>
-    <t>0.0232402092356138</t>
-  </si>
-  <si>
-    <t>0.8760279368260602</t>
-  </si>
-  <si>
-    <t>0.01957964157887995</t>
-  </si>
-  <si>
-    <t>0.4997483697598716</t>
-  </si>
-  <si>
-    <t>1.060525308e-9</t>
-  </si>
-  <si>
-    <t>0.7618478142447688</t>
-  </si>
-  <si>
-    <t>0.5332786947458967</t>
-  </si>
-  <si>
-    <t>0.36441624874247563</t>
-  </si>
-  <si>
-    <t>7.638567943926143</t>
-  </si>
-  <si>
-    <t>12.213123753129246</t>
-  </si>
-  <si>
-    <t>0.0711904453065202</t>
-  </si>
-  <si>
-    <t>-71.79</t>
-  </si>
-  <si>
-    <t>-69.14</t>
+    <t>402638806180</t>
+  </si>
+  <si>
+    <t>189633255582</t>
+  </si>
+  <si>
+    <t>65218399937</t>
+  </si>
+  <si>
+    <t>43698341873</t>
+  </si>
+  <si>
+    <t>43119318109</t>
+  </si>
+  <si>
+    <t>19511231239</t>
+  </si>
+  <si>
+    <t>16391283113</t>
+  </si>
+  <si>
+    <t>12310560466</t>
+  </si>
+  <si>
+    <t>11758966148</t>
+  </si>
+  <si>
+    <t>8890167725</t>
+  </si>
+  <si>
+    <t>8516035337</t>
+  </si>
+  <si>
+    <t>7777528139</t>
+  </si>
+  <si>
+    <t>7083509269</t>
+  </si>
+  <si>
+    <t>6877258597</t>
+  </si>
+  <si>
+    <t>6287656666</t>
+  </si>
+  <si>
+    <t>6248226436</t>
+  </si>
+  <si>
+    <t>6052916619</t>
+  </si>
+  <si>
+    <t>5755984381</t>
+  </si>
+  <si>
+    <t>5240218419</t>
+  </si>
+  <si>
+    <t>5227704842</t>
+  </si>
+  <si>
+    <t>5052004931</t>
+  </si>
+  <si>
+    <t>4167956432</t>
+  </si>
+  <si>
+    <t>3965924375</t>
+  </si>
+  <si>
+    <t>3362233173</t>
+  </si>
+  <si>
+    <t>3201624030</t>
+  </si>
+  <si>
+    <t>3085418855</t>
+  </si>
+  <si>
+    <t>2705244678</t>
+  </si>
+  <si>
+    <t>2577100644</t>
+  </si>
+  <si>
+    <t>2404513311</t>
+  </si>
+  <si>
+    <t>1903280266</t>
+  </si>
+  <si>
+    <t>1770306050</t>
+  </si>
+  <si>
+    <t>1690012049</t>
+  </si>
+  <si>
+    <t>1597261156</t>
+  </si>
+  <si>
+    <t>1560690437</t>
+  </si>
+  <si>
+    <t>1515807330</t>
+  </si>
+  <si>
+    <t>1498377640</t>
+  </si>
+  <si>
+    <t>1450697424</t>
+  </si>
+  <si>
+    <t>1435039798</t>
+  </si>
+  <si>
+    <t>1414758952</t>
+  </si>
+  <si>
+    <t>1410784422</t>
+  </si>
+  <si>
+    <t>1381529665</t>
+  </si>
+  <si>
+    <t>1340034058</t>
+  </si>
+  <si>
+    <t>1298763864</t>
+  </si>
+  <si>
+    <t>1295397382</t>
+  </si>
+  <si>
+    <t>1281015770</t>
+  </si>
+  <si>
+    <t>1208790887</t>
+  </si>
+  <si>
+    <t>1204355704</t>
+  </si>
+  <si>
+    <t>1159818717</t>
+  </si>
+  <si>
+    <t>1143618226</t>
+  </si>
+  <si>
+    <t>1138802017</t>
+  </si>
+  <si>
+    <t>1066302600</t>
+  </si>
+  <si>
+    <t>1052767674</t>
+  </si>
+  <si>
+    <t>1047187652</t>
+  </si>
+  <si>
+    <t>1011788969</t>
+  </si>
+  <si>
+    <t>973718145</t>
+  </si>
+  <si>
+    <t>938871150</t>
+  </si>
+  <si>
+    <t>931589772</t>
+  </si>
+  <si>
+    <t>896001560</t>
+  </si>
+  <si>
+    <t>860723975</t>
+  </si>
+  <si>
+    <t>804170535</t>
+  </si>
+  <si>
+    <t>717330465</t>
+  </si>
+  <si>
+    <t>714715849</t>
+  </si>
+  <si>
+    <t>706745239</t>
+  </si>
+  <si>
+    <t>701992543</t>
+  </si>
+  <si>
+    <t>695175465</t>
+  </si>
+  <si>
+    <t>693155605</t>
+  </si>
+  <si>
+    <t>687724075</t>
+  </si>
+  <si>
+    <t>686130030</t>
+  </si>
+  <si>
+    <t>615859069</t>
+  </si>
+  <si>
+    <t>608228745</t>
+  </si>
+  <si>
+    <t>598953026</t>
+  </si>
+  <si>
+    <t>580635247</t>
+  </si>
+  <si>
+    <t>575569506</t>
+  </si>
+  <si>
+    <t>571565008</t>
+  </si>
+  <si>
+    <t>565159274</t>
+  </si>
+  <si>
+    <t>548093325</t>
+  </si>
+  <si>
+    <t>544286820</t>
+  </si>
+  <si>
+    <t>540986292</t>
+  </si>
+  <si>
+    <t>528792978</t>
+  </si>
+  <si>
+    <t>528765259</t>
+  </si>
+  <si>
+    <t>521110647</t>
+  </si>
+  <si>
+    <t>514533509</t>
+  </si>
+  <si>
+    <t>512864369</t>
+  </si>
+  <si>
+    <t>484224787</t>
+  </si>
+  <si>
+    <t>475775900</t>
+  </si>
+  <si>
+    <t>472306000</t>
+  </si>
+  <si>
+    <t>468161475</t>
+  </si>
+  <si>
+    <t>461907328</t>
+  </si>
+  <si>
+    <t>453267536</t>
+  </si>
+  <si>
+    <t>451504826</t>
+  </si>
+  <si>
+    <t>445800326</t>
+  </si>
+  <si>
+    <t>443467447</t>
+  </si>
+  <si>
+    <t>439684280</t>
+  </si>
+  <si>
+    <t>437517714</t>
+  </si>
+  <si>
+    <t>436288646</t>
+  </si>
+  <si>
+    <t>422655138</t>
+  </si>
+  <si>
+    <t>421567453</t>
+  </si>
+  <si>
+    <t>420435684</t>
+  </si>
+  <si>
+    <t>405155112</t>
+  </si>
+  <si>
+    <t>404621971</t>
+  </si>
+  <si>
+    <t>20949.31774448195</t>
+  </si>
+  <si>
+    <t>1554.0532023506944</t>
+  </si>
+  <si>
+    <t>0.9977926078910223</t>
+  </si>
+  <si>
+    <t>0.9981809633471815</t>
+  </si>
+  <si>
+    <t>301.9233346962234</t>
+  </si>
+  <si>
+    <t>0.3879069924822366</t>
+  </si>
+  <si>
+    <t>0.9973781520829843</t>
+  </si>
+  <si>
+    <t>0.3512784462491895</t>
+  </si>
+  <si>
+    <t>0.08593364373813195</t>
+  </si>
+  <si>
+    <t>0.992239224585672</t>
+  </si>
+  <si>
+    <t>23.449985541420624</t>
+  </si>
+  <si>
+    <t>31.534059733116763</t>
+  </si>
+  <si>
+    <t>5.986685085231625</t>
+  </si>
+  <si>
+    <t>6.877881216926358</t>
+  </si>
+  <si>
+    <t>1553.0140565743447</t>
+  </si>
+  <si>
+    <t>88.17045451497475</t>
+  </si>
+  <si>
+    <t>0.000010266914869529</t>
+  </si>
+  <si>
+    <t>0.06246425686607021</t>
+  </si>
+  <si>
+    <t>6.586763915721217</t>
+  </si>
+  <si>
+    <t>0.9985037302057878</t>
+  </si>
+  <si>
+    <t>16.799638323562345</t>
+  </si>
+  <si>
+    <t>12.98988253616667</t>
+  </si>
+  <si>
+    <t>20952.9521447888</t>
+  </si>
+  <si>
+    <t>2.2816590464588535</t>
+  </si>
+  <si>
+    <t>175.84766490069956</t>
+  </si>
+  <si>
+    <t>22.32790849919728</t>
+  </si>
+  <si>
+    <t>2.3164262112165526</t>
+  </si>
+  <si>
+    <t>5.1542013000512314</t>
+  </si>
+  <si>
+    <t>125.68412785585606</t>
+  </si>
+  <si>
+    <t>1.5677785730260043</t>
+  </si>
+  <si>
+    <t>0.0876149555835518</t>
+  </si>
+  <si>
+    <t>0.23483354880937143</t>
+  </si>
+  <si>
+    <t>1705.5422231400078</t>
+  </si>
+  <si>
+    <t>4.767328292493371</t>
+  </si>
+  <si>
+    <t>0.7222770967422503</t>
+  </si>
+  <si>
+    <t>0.6831794021822741</t>
+  </si>
+  <si>
+    <t>5.110513616608586</t>
+  </si>
+  <si>
+    <t>8.12229769906126</t>
+  </si>
+  <si>
+    <t>14.147589520984813</t>
+  </si>
+  <si>
+    <t>0.021131946623275392</t>
+  </si>
+  <si>
+    <t>0.9980751110629593</t>
+  </si>
+  <si>
+    <t>2.2045678263846162</t>
+  </si>
+  <si>
+    <t>3.7356156260659157</t>
+  </si>
+  <si>
+    <t>0.05236420396403872</t>
+  </si>
+  <si>
+    <t>131.02023623954705</t>
+  </si>
+  <si>
+    <t>0.000183180174398142</t>
+  </si>
+  <si>
+    <t>0.07416784779577026</t>
+  </si>
+  <si>
+    <t>80.81712422574296</t>
+  </si>
+  <si>
+    <t>0.5718091130296179</t>
+  </si>
+  <si>
+    <t>1.0990175807510947</t>
+  </si>
+  <si>
+    <t>8.202327690285514</t>
+  </si>
+  <si>
+    <t>1.0649990460379284</t>
+  </si>
+  <si>
+    <t>0.13805554669875925</t>
+  </si>
+  <si>
+    <t>0.9959065333846114</t>
+  </si>
+  <si>
+    <t>40.77258802601613</t>
+  </si>
+  <si>
+    <t>1.0233739588944948</t>
+  </si>
+  <si>
+    <t>0.931597819474508</t>
+  </si>
+  <si>
+    <t>0.999648655461422</t>
+  </si>
+  <si>
+    <t>44.88938311925815</t>
+  </si>
+  <si>
+    <t>1.318287348229532</t>
+  </si>
+  <si>
+    <t>45.39190000211727</t>
+  </si>
+  <si>
+    <t>2.173081394124778</t>
+  </si>
+  <si>
+    <t>0.1983725758821455</t>
+  </si>
+  <si>
+    <t>0.9678223326364741</t>
+  </si>
+  <si>
+    <t>711.0262357744215</t>
+  </si>
+  <si>
+    <t>2.2211167366291464</t>
+  </si>
+  <si>
+    <t>7.27499279902e-7</t>
+  </si>
+  <si>
+    <t>5.230108685934051</t>
+  </si>
+  <si>
+    <t>0.8485895080247153</t>
+  </si>
+  <si>
+    <t>0.2188242913772075</t>
+  </si>
+  <si>
+    <t>7.918286947836911</t>
+  </si>
+  <si>
+    <t>0.000030276176152009</t>
+  </si>
+  <si>
+    <t>0.3311366957357019</t>
+  </si>
+  <si>
+    <t>51.83085286222586</t>
+  </si>
+  <si>
+    <t>9.278976706990404</t>
+  </si>
+  <si>
+    <t>3.770130392662921</t>
+  </si>
+  <si>
+    <t>7.717096558488339</t>
+  </si>
+  <si>
+    <t>6.7626667916913705</t>
+  </si>
+  <si>
+    <t>0.025180617999426162</t>
+  </si>
+  <si>
+    <t>1.7581252268611298</t>
+  </si>
+  <si>
+    <t>29.263293341701278</t>
+  </si>
+  <si>
+    <t>1891.6264341343267</t>
+  </si>
+  <si>
+    <t>0.9980607164389931</t>
+  </si>
+  <si>
+    <t>0.7494047882355304</t>
+  </si>
+  <si>
+    <t>77.97669382390842</t>
+  </si>
+  <si>
+    <t>0.19293079751219946</t>
+  </si>
+  <si>
+    <t>4.68166156575e-7</t>
+  </si>
+  <si>
+    <t>0.02210985133082037</t>
+  </si>
+  <si>
+    <t>0.023139920570054016</t>
+  </si>
+  <si>
+    <t>0.002257524128405739</t>
+  </si>
+  <si>
+    <t>31.173781561438346</t>
+  </si>
+  <si>
+    <t>3.859697203018468</t>
+  </si>
+  <si>
+    <t>0.4396842800970832</t>
+  </si>
+  <si>
+    <t>0.6315633929910289</t>
+  </si>
+  <si>
+    <t>0.025850939750727973</t>
+  </si>
+  <si>
+    <t>0.08865223400382347</t>
+  </si>
+  <si>
+    <t>0.8625330236157475</t>
+  </si>
+  <si>
+    <t>0.5558763256413031</t>
+  </si>
+  <si>
+    <t>0.926704311789695</t>
+  </si>
+  <si>
+    <t>9.232545186778685</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>-0.14</t>
+  </si>
+  <si>
+    <t>-0.13</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>-0.31</t>
+  </si>
+  <si>
+    <t>-0.10</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>-0.55</t>
+  </si>
+  <si>
+    <t>5.84</t>
+  </si>
+  <si>
+    <t>7.91</t>
+  </si>
+  <si>
+    <t>-0.69</t>
+  </si>
+  <si>
+    <t>3.36</t>
+  </si>
+  <si>
+    <t>1.06</t>
   </si>
   <si>
     <t>-0.06</t>
   </si>
   <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>-47.82</t>
-  </si>
-  <si>
-    <t>-67.61</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>-83.87</t>
-  </si>
-  <si>
-    <t>-71.35</t>
-  </si>
-  <si>
-    <t>-54.22</t>
-  </si>
-  <si>
-    <t>29.45</t>
-  </si>
-  <si>
-    <t>-79.39</t>
-  </si>
-  <si>
-    <t>-91.74</t>
-  </si>
-  <si>
-    <t>-88.57</t>
-  </si>
-  <si>
-    <t>-57.63</t>
-  </si>
-  <si>
-    <t>-35.75</t>
-  </si>
-  <si>
-    <t>-86.23</t>
-  </si>
-  <si>
-    <t>-45.52</t>
-  </si>
-  <si>
-    <t>-77.09</t>
-  </si>
-  <si>
-    <t>-79.94</t>
-  </si>
-  <si>
-    <t>-69.99</t>
-  </si>
-  <si>
-    <t>-71.85</t>
-  </si>
-  <si>
-    <t>-38.67</t>
-  </si>
-  <si>
-    <t>-62.46</t>
-  </si>
-  <si>
-    <t>-46.33</t>
-  </si>
-  <si>
-    <t>-44.15</t>
-  </si>
-  <si>
-    <t>-81.65</t>
-  </si>
-  <si>
-    <t>38.34</t>
-  </si>
-  <si>
-    <t>-78.00</t>
-  </si>
-  <si>
-    <t>-88.96</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>-93.86</t>
-  </si>
-  <si>
-    <t>-90.10</t>
-  </si>
-  <si>
-    <t>-56.18</t>
-  </si>
-  <si>
-    <t>-86.34</t>
-  </si>
-  <si>
-    <t>-81.22</t>
-  </si>
-  <si>
-    <t>-89.48</t>
-  </si>
-  <si>
-    <t>-100.00</t>
-  </si>
-  <si>
-    <t>-72.11</t>
-  </si>
-  <si>
-    <t>-70.06</t>
-  </si>
-  <si>
-    <t>-84.60</t>
-  </si>
-  <si>
-    <t>-78.93</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>-77.57</t>
-  </si>
-  <si>
-    <t>-80.70</t>
-  </si>
-  <si>
-    <t>-88.99</t>
-  </si>
-  <si>
-    <t>-72.51</t>
-  </si>
-  <si>
-    <t>-86.41</t>
-  </si>
-  <si>
-    <t>-94.77</t>
-  </si>
-  <si>
-    <t>-90.20</t>
-  </si>
-  <si>
-    <t>-86.91</t>
-  </si>
-  <si>
-    <t>-71.37</t>
-  </si>
-  <si>
-    <t>-90.04</t>
-  </si>
-  <si>
-    <t>-73.66</t>
-  </si>
-  <si>
-    <t>-87.04</t>
-  </si>
-  <si>
-    <t>-82.02</t>
-  </si>
-  <si>
-    <t>-29.86</t>
-  </si>
-  <si>
-    <t>-60.63</t>
-  </si>
-  <si>
-    <t>-74.18</t>
-  </si>
-  <si>
-    <t>-86.49</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>4.43</t>
-  </si>
-  <si>
-    <t>-86.50</t>
-  </si>
-  <si>
-    <t>-83.96</t>
-  </si>
-  <si>
-    <t>-86.08</t>
-  </si>
-  <si>
-    <t>-73.87</t>
-  </si>
-  <si>
-    <t>-81.30</t>
-  </si>
-  <si>
-    <t>2.03</t>
-  </si>
-  <si>
-    <t>-95.00</t>
-  </si>
-  <si>
-    <t>-89.73</t>
-  </si>
-  <si>
-    <t>-89.00</t>
-  </si>
-  <si>
-    <t>-91.24</t>
-  </si>
-  <si>
-    <t>-91.04</t>
-  </si>
-  <si>
-    <t>-74.83</t>
-  </si>
-  <si>
-    <t>-97.96</t>
-  </si>
-  <si>
-    <t>-77.14</t>
-  </si>
-  <si>
-    <t>-53.25</t>
-  </si>
-  <si>
-    <t>-80.40</t>
-  </si>
-  <si>
-    <t>-88.83</t>
-  </si>
-  <si>
-    <t>-73.04</t>
-  </si>
-  <si>
-    <t>-88.55</t>
-  </si>
-  <si>
-    <t>-84.42</t>
-  </si>
-  <si>
-    <t>-92.24</t>
-  </si>
-  <si>
-    <t>['38591.72406228421', '42512.68622880577', '39737.29804217533', '39878.119013455056', '44961.021205037265', '42352.44190326708', '39769.42751841872', '33863.764382205285', '29586.185943062203', '30096.591040915515', '21061.104447023983', '20316.53012901986', '21576.863069322866', '22937.257140575504', '23418.16834405875', '20504.8765167132', '20340.420315275675', '19198.67454071942', '19477.8406057256', '19771.66722417097', '19317.836213389306', '16504.12398914267', '16934.159140406427', '17005.919514730063', '16735.94138030655']</t>
-  </si>
-  <si>
-    <t>['2736.1164774398917', '2990.032001019499', '2717.9609831158914', '2675.409286514287', '3225.0725625522105', '3186.532040014412', '2949.6114202008944', '2466.918844592231', '1947.9359363919561', '1789.9762724694026', '1140.4020443801003', '1140.0737987345444', '1360.372032564157', '1631.7762023321493', '1821.103452258032', '1574.3833837894922', '1604.7358323860576', '1324.6656399172894', '1314.8208254653216', '1406.9884708293707', '1457.7931130601391', '1195.0113133790292', '1256.515406175654', '1229.393614928996', '1223.5130584464123']</t>
-  </si>
-  <si>
-    <t>['1.0016780543547772', '1.001477176159752', '1.001139564389186', '1.0011308843470546', '1.0021827771517176', '1.0020537367892608', '1.0025992161313424', '1.0038727336022815', '1.003103265526468', '1.0021336491094321', '1.002685217663328', '1.004698116354457', '0.9997769381328233', '1.0001306847151523', '1.0004152947530853', '1.0001454144276534', '1.0004334139251536', '1.0002826464496508', '1.0003955273598728', '1.0003596178283405', '1.000213719492467', '0.9996340531560205', '1.0002775482150796', '1.0004167763654255', '1.0000007092243566']</t>
-  </si>
-  <si>
-    <t>['1.0011325177420576', '1.0013117910350897', '1.0011009184888828', '1.000993822231306', '1.0006304061331368', '1.0030340083275648', '1.0033833367265264', '1.0059800926644693', '1.006046082579934', '1.0048328336586851', '1.005395896563874', '1.0029782549675617', '1.0002586300805278', '0.999859529761464', '1.0002342099906063', '1.0001721449697893', '1.000370781460758', '1.000289364772362', '1.0003855675692261', '1.0003292428462152', '1.0008918019622446', '1.0004735313495399', '1.0001749888049518', '1.0003069261669062', '1.0002774194405462']</t>
-  </si>
-  <si>
-    <t>['400.21694986942674', '411.9388623102262', '379.95702808556393', '380.97104642651004', '423.61388024048716', '424.8543525020063', '403.7651032069334', '341.4815832616634', '310.09852811938975', '296.67377758915944', '221.64754895834992', '229.41147098847878', '248.57296730984925', '286.40671294645955', '314.2324199180114', '286.1023037334925', '281.47761247532475', '275.3441644019092', '279.03901949306953', '280.85844020130537', '318.7358795398814', '279.57000310010625', '291.55370809685274', '253.07951041814863', '249.9018703032495']</t>
-  </si>
-  <si>
-    <t>['0.6459091419353621', '0.814932582766076', '0.7372573994600744', '0.7699019836385512', '0.8410207011267415', '0.7662483611502936', '0.6908594599551348', '0.531538337180809', '0.4098052898029511', '0.3958198026910479', '0.3308663186180686', '0.3313298020559657', '0.3455561827608587', '0.36668068617623484', '0.3693468129144762', '0.33491200070827815', '0.3446284578981374', '0.4469966468605044', '0.49119324940601805', '0.46256064549519743', '0.43225633696132376', '0.3779726021351102', '0.3902441314827161', '0.3595833388093887', '0.3461872878586449']</t>
-  </si>
-  <si>
-    <t>['1.0009275503385573', '1.001027454348849', '1.0010219007666006', '1.0011187367091388', '1.0008352801076075', '1.0037718682040593', '1.0042580548012605', '1.008647649933446', '1.0058478382130234', '1.0045142542114789', '1.006581918156497', '1.0037196904711612', '1.0002809942256332', '0.9998671382854151', '1.000294689735251', '1.0002316012980255', '1.0004165660862878', '1.0003458129041565', '1.0004173792243898', '1.0003462632113467', '1.0011154444737467', '1.0007851206424687', '1.0003023992535294', '1.0004313290951032', '1.00042394577881']</t>
-  </si>
-  <si>
-    <t>['1.145142410345086', '1.088797624014093', '0.8910179480269363', '0.8229436887708286', '1.1188026083317137', '1.0322790738550454', '0.876254584864004', '0.6841603106021034', '0.5192305561779741', '0.586713333172695', '0.48381693565301853', '0.46537943772139456', '0.4683591549045511', '0.5064732172455709', '0.527169510925512', '0.45738868284537776', '0.48588847704854493', '0.44428000700329795', '0.4054981012905621', '0.37454125587829273', '0.385776791723661', '0.32104128792324865', '0.3148274188399081', '0.27488152653991843', '0.25896147774723904']</t>
-  </si>
-  <si>
-    <t>['0.14635893754199597', '0.14923437876824105', '0.12798292824930924', '0.11717994490748972', '0.13667614174588544', '0.14600987231915197', '0.13879712504621292', '0.11330397175658904', '0.08477176495827048', '0.08068417841848213', '0.0609686315878577', '0.0687286485203094', '0.06554367681368836', '0.06747844769219909', '0.07418668980674921', '0.06451368207773006', '0.06171760387905241', '0.060381032244183966', '0.06108240948986215', '0.07093709115933723', '0.11035797822308255', '0.08368456540509217', '0.0998509535405273', '0.08044195792841095', '0.07169630796419307']</t>
-  </si>
-  <si>
-    <t>['1.7245633425961093', '1.769969854980458', '1.511063611042342', '1.4375966859210905', '1.6238266085291602', '1.4619074606001778', '1.310935522772754', '0.9119437308444803', '0.6456937171841983', '0.6085088925002893', '0.45158100508111504', '0.5183615470886349', '0.7638657449861191', '0.8911222355268609', '0.9104489891080946', '0.8280909792591844', '0.8584809298165743', '0.7538933521568267', '0.8106841799367658', '0.8782261265079885', '1.0203412651207429', '0.8686001102358938', '0.8990834690953676', '0.8321385533238381', '0.7860067431636105']</t>
-  </si>
-  <si>
-    <t>['22.26632461299021', '21.369849357167524', '17.82062180617906', '18.533649868370354', '21.073291053297115', '19.853790771410686', '19.427904613103927', '15.597841993670807', '12.258208654343106', '11.555142821035028', '11.328325319603406', '12.423210007652155', '13.661150470428604', '17.40993196554277', '19.839393722813348', '16.298259150894424', '15.555658417196042', '15.292918575906667', '15.977018944760914', '16.042008642268783', '19.317995798890486', '19.935719214239658', '21.300092004689457', '22.30162336362049', '26.213075141581292']</t>
-  </si>
-  <si>
-    <t>['17.73099070002925', '16.75625646620251', '14.192818650479058', '13.752257997608583', '16.461056552919697', '15.135324612995925', '13.134815414905756', '9.48497238620585', '7.063063344099664', '7.672278409423701', '6.648604255977376', '6.34158267639157', '6.60841114600467', '7.354195224684626', '8.381670159137977', '6.825704415212255', '7.52628938442951', '7.462217367114761', '7.359807750738602', '7.053165069633946', '7.6395815200631185', '6.360497298921516', '7.199652607496749', '6.20015026781011', '5.715370765649133']</t>
-  </si>
-  <si>
-    <t>['107.86017613049599', '101.57974610344407', '90.99971564274378', '84.57572060169049', '109.81486012890714', '111.81694594859945', '99.46929228760663', '70.84380238751845', '49.46339064948705', '40.08907360892343', '34.07344835563459', '35.690762110655555', '39.167431372405', '40.319583113995314', '41.795565185402964', '32.83434879770964', '33.720043688819466', '32.767794006798496', '32.09105805243607', '30.1062122632091', '26.535105189510443', '13.518347137390084', '13.661585848707453', '12.597210975588782', '11.503873715998667']</t>
-  </si>
-  <si>
-    <t>['20.225666451077565', '19.663642994950592', '17.287888610865792', '17.934578469824274', '21.433975064723732', '19.491634941566748', '17.63686645622998', '12.697832460391641', '10.000919507641612', '9.36713076369715', '7.567035200252788', '7.080274459329279', '7.106931781243352', '7.983613415417207', '8.694046440188401', '7.258030909638743', '7.321680055016169', '6.368437275551914', '6.271307117332233', '6.195829324497863', '6.402898850623418', '5.518232551676853', '5.408938347064051', '4.772211246622748', '4.4875218044369465']</t>
-  </si>
-  <si>
-    <t>['117.57643263929955', '126.972090448499', '107.03962873775797', '106.39272016150362', '125.03813418517156', '113.06244930794799', '105.06438914192293', '86.06515163943509', '67.90053980537229', '62.21360180705176', '50.862308299668896', '52.3818788526534', '54.1904796136732', '59.244278290157936', '60.49627865802615', '56.10592427313072', '59.13164274246882', '53.099558580543786', '52.78964604575852', '53.36992410125883', '61.42862192261697', '66.0107779364406', '77.18539086121525', '68.57766191918543', '71.89281813217505']</t>
-  </si>
-  <si>
-    <t>['3379.8957358107714', '3028.889102367913', '2819.225349418405', '2064.191685130708', '1869.3723138577168', '1426.6733181827155', '1130.225417769815', '1173.2674908385875', '1572.193714908427', '1754.6340407550606', '1682.625551719419', '1600.989829775414', '1438.7474624940928', '1330.417335751271', '1299.595548228655', '1547.9072995316424', '1324.8349227968597', '1223.3464906421839', '1165.3194284600208', '1249.23293172535', '1261.4189385361624', '1249.5400565290588', '1209.09238865581', '1202.700673108324', '1244.0722261681706']</t>
-  </si>
-  <si>
-    <t>['0.000022927003635677', '0.000029997671954673', '0.000024832566362048', '0.000022637794458061', '0.000025450123134389', '0.000025441936770743', '0.000023781603643435', '0.000017064630447081', '0.000011644072335544', '0.000010801203988044', '0.000009141197118732', '0.000010581874080129', '0.000011241773175785', '0.000011700323950026', '0.000013681728364524', '0.000012648833473251', '0.000012342945650385', '0.000011011342209436', '0.000010766494448904', '0.000010596944180932', '0.000011295456615172', '0.00000901859592253', '0.00000925955065907', '0.00000855783431186', '0.000008228219996641']</t>
-  </si>
-  <si>
-    <t>['1.0022825521334875', '1.0016985699782577', '1.0015441979946271', '1.001923597377565', '1.002013905882314', '1.0016395215516227', '1.0026811606717334', '1.0023012448493052', '1.0018432989526904', '1.0024380486078406', '1.0011403576703284', '1.001354971259538', '0.9999864244631973', '0.9998062296735606', '1.0025526588521276', '0.9997953250338083', '1.0001727310653903', '1.0000638373419288', '1.0002012297092586', '1.0001971254372173', '1.000954097553238', '1.0004878987334096', '1.0000701713694597', '1.0002290852555518', '1.0000492456832353']</t>
-  </si>
-  <si>
-    <t>['0.06120237260940845', '0.06572213771955411', '0.06045935203552631', '0.060398120206371565', '0.06855396728618414', '0.06350801991056328', '0.0646285251646607', '0.0765982345470244', '0.07671218501836662', '0.08127925830876936', '0.0624039271492085', '0.06689608268020224', '0.06727624372498363', '0.06844217448224367', '0.06880514156236725', '0.06382795853591303', '0.06232760173303296', '0.060173938769281766', '0.062223060693978566', '0.06254158457174298', '0.0603268492253916', '0.05110665660191459', '0.053891450273108314', '0.05451030613543459', '0.054025494091821454']</t>
-  </si>
-  <si>
-    <t>['12.083378255720792', '11.028112890100786', '9.277565309817858', '8.87392015139783', '10.902696246932795', '10.065077626125058', '8.598446784406098', '6.387680543973763', '5.213886052693427', '5.130454104411948', '4.474095911228233', '5.33818621934329', '6.774317186288607', '8.35250619860753', '8.383552189101122', '6.477483260318378', '6.2320583420719515', '5.950380485319832', '6.428455434007151', '6.475838372772145', '6.634605437477313', '5.656102732829517', '5.980806187486747', '5.498746702866032', '5.27328260921967']</t>
-  </si>
-  <si>
-    <t>['1.6141908988961702', '1.6058210237147763', '1.254219403538431', '1.098962786191054', '1.258121996879468', '1.2268755803758813', '1.2403089344899367', '1.0168755009545676', '0.7897435042299165', '0.5967577393397622', '0.4373215422780458', '0.4413113074855275', '0.48740537418582985', '0.6747711630487105', '0.6069087523706299', '0.5665467703142941', '0.5929315012851706', '0.48213073604240314', '0.46022397096025836', '0.4343476758095783', '0.38307006168317975', '0.29532600501315237', '0.30475009068624404', '0.29483011698179873', '0.3545166844798218']</t>
-  </si>
-  <si>
-    <t>['71.81690014622667', '86.0249089143112', '78.14198522630848', '75.49831317692727', '90.85137282897699', '83.08983355136003', '71.40729012967535', '48.20206950472689', '28.967272617124365', '24.15178830267484', '17.212366195889206', '18.243304425595163', '21.541498598628753', '23.671967405150266', '27.00152812533668', '20.57109938316553', '19.330278427766437', '17.264617919822022', '16.498585280820805', '16.440017094469905', '16.95915808918279', '12.822098617045278', '13.269624338853927', '12.308922323349531', '11.406725762769401']</t>
-  </si>
-  <si>
-    <t>['32.370389300645115', '28.58292683557413', '28.45206208723036', '28.000515501973137', '29.44844688648135', '26.517298629500235', '22.064248456888546', '14.817258378888015', '10.73936933647951', '9.138091928575276', '7.033675384435268', '8.33434619320235', '9.408362888250448', '10.31305189416074', '11.474131448304341', '11.852415722634671', '14.590527389508424', '13.814069327260697', '12.4578006064867', '12.31917799797905', '13.169610642198313', '9.933261385693731', '10.052773670514554', '9.117334204878288', '9.67633003212734']</t>
-  </si>
-  <si>
-    <t>['38520.090402113885', '42470.60664587273', '39706.55210351134', '39863.22028701613', '44950.41226881395', '42287.01209516221', '39766.72631180251', '33833.444684746086', '29551.36567185186', '30075.292937840288', '21093.954062789646', '20331.066848636892', '21565.632680518203', '22930.69488962625', '23478.741340769535', '20605.015614418055', '20343.004458001065', '19199.56380585815', '19476.583618912202', '19771.045194532428', '19308.698720897275', '16428.947460472336', '16889.515113188718', '16979.056579549117', '16707.51926514301']</t>
-  </si>
-  <si>
-    <t>['2.696158345921625', '2.663569155685509', '2.0912881633938483', '1.8330509264652197', '1.8793601023000228', '1.8783591014054293', '2.05720442663272', '1.7308365003271875', '1.4268294561231853', '1.268381208900646', '0.9814681353480793', '1.1099687705130696', '0.9436306641635234', '0.9484141950171915', '1.2169040422897517', '1.4133467047819128', '1.763197290112359', '1.3630804714220395', '1.3042993666276916', '1.474181317586222', '1.58404465104561', '1.7179299617390107', '1.7940224179851607', '2.4100036110000405', '2.1784194927628495']</t>
-  </si>
-  <si>
-    <t>['163.56494878472793', '173.58309098583683', '159.91736958524268', '182.92118002678257', '209.02190845743957', '229.44591711069862', '248.50896109589488', '186.69580862768447', '179.6049495369233', '188.35317462939838', '119.26389395617146', '121.72359355926918', '139.5538320855845', '157.50479182277135', '162.21309797493188', '151.16762358503624', '152.509606443132', '143.30859422217563', '144.15608140930553', '144.90909838829845', '143.76821877833996', '132.34429934071156', '144.01739373659044', '146.29694204921142', '149.21119820049628']</t>
-  </si>
-  <si>
-    <t>['27.03268786969955', '31.924582454666858', '27.95578483805805', '27.587467859038647', '46.47217880421665', '40.49046675061491', '33.262565168186576', '24.915739227348254', '21.784259527068013', '21.68158772128627', '15.229838925198724', '15.33339278085942', '20.044172174172218', '34.9034618857845', '39.22996736455472', '33.3649496106231', '36.621428706679346', '28.327957848581192', '25.65587945560689', '23.75138282928994', '23.336667010684494', '19.59029208400535', '19.42836686375964', '16.976092627131354', '16.964444546849005']</t>
-  </si>
-  <si>
-    <t>['9.221411010574721', '9.885698727194908', '9.21179858203383', '9.03183271864627', '9.24348770338506', '9.424503820927422', '9.386983777783573', '8.382154746997196', '7.002600913471232', '7.101197531326374', '5.407548371016778', '4.6877705247235255', '4.641891696764558', '4.412778120340554', '4.703868099775093', '4.743628644350314', '4.673198839544711', '4.4621510454118125', '5.365845281668377', '8.40366653683394', '7.419170566939167', '5.116389339682333', '6.620109574347926', '5.689153254137952', '5.080935755598031']</t>
-  </si>
-  <si>
-    <t>['1.8801638703688022', '1.7601185870493585', '1.79679793406518', '2.5723568623434074', '3.761688624662332', '3.4860634704868754', '2.9965975837959675', '2.2851939108427906', '1.2497033522042664', '1.0266873164670223', '0.5703566637111279', '0.5630026528645368', '1.2715079302241665', '2.1847024208938493', '2.485069294547095', '1.9584598660804287', '1.9248204876070878', '1.6803316263586159', '1.4115756102481716', '1.5514327585231305', '1.4230108915369832', '1.1522597901946507', '1.0778366188637443', '1.0048444177957074', '1.1774581036494693']</t>
-  </si>
-  <si>
-    <t>['311.7181064074414', '328.7807068159366', '304.7403164266131', '294.44310640568887', '367.2803735090009', '336.4839015961983', '313.46368273561546', '248.1047168621237', '191.93725424604156', '181.63686693705122', '121.36780457507237', '108.63407975640641', '113.5470476250347', '136.9289313385074', '135.26287509244239', '120.48271105464718', '123.23509858618281', '115.34277648878992', '114.59109523614103', '111.06959518375618', '111.5257172341501', '107.57709110642756', '110.82349022814914', '103.54687263309692', '100.06740270522398']</t>
-  </si>
-  <si>
-    <t>['0.5683063846393769', '0.5781321436858933', '0.5961277056000405', '0.7270477295965018', '1.1816765823427986', '1.1418160925908398', '1.1423717044250081', '0.8154922363324429', '0.6560465672853683', '0.6267723856841212', '0.7505414781880863', '0.7641552751257462', '0.820655885646051', '1.010240065419866', '1.1131799933883577', '0.9835273189960446', '0.9966019287277178', '0.909604344245286', '0.9498169925331156', '1.115631942578879', '1.2254652584718375', '2.1448310265913317', '2.332439515100896', '1.789088667025596', '1.3930275681115574']</t>
-  </si>
-  <si>
-    <t>['0.20980408685901236', '0.21966090556358775', '0.18593989421998436', '0.18314883436257867', '0.22183707291290128', '0.20644221035263904', '0.1902334183309819', '0.1554957801062354', '0.1304946069205546', '0.13970440176327895', '0.11511699307031076', '0.11135274303416184', '0.10953829458424562', '0.11535737760758474', '0.12160999851773564', '0.10631023659932427', '0.10772330065685505', '0.1154072574786703', '0.11850640324587487', '0.11180723736362745', '0.10409030673734188', '0.08880278998461318', '0.0867472867245648', '0.07779710211294011', '0.07331452980574509']</t>
-  </si>
-  <si>
-    <t>['1.0294731558193733', '0.9531241358105762', '0.8075064124696574', '0.7300738245470296', '0.8985859625623485', '0.7745648775857369', '0.6936609137532161', '0.5968738002470851', '0.4235528022291316', '0.390626614097717', '0.32020762162502703', '0.31364922320552896', '0.33298889848210844', '0.3346640999755348', '0.3476328875623486', '0.29730488162830665', '0.30711939741931876', '0.3526979181821103', '0.3333363321014374', '0.32303457974176303', '0.35284285815612426', '0.25864879693491294', '0.2346983853786354', '0.19128141834717174', '0.17720419374975688']</t>
-  </si>
-  <si>
-    <t>['0.9999399915073326', '0.9999251783354367', '0.9999578311159681', '0.9996885495104952', '0.9996877166974218', '0.9996990221864209', '0.9996026238588724', '0.9996050671627773', '0.9993936637284905', '0.99966558394246', '0.9993263960347483', '0.999233065839161', '0.9995519095915091', '0.999709638541132', '0.9997670407139492', '0.9996474718955132', '0.9996645545637111', '0.9997145144625101', '0.9998354459132195', '0.9996685909458856', '0.999970200444102', '0.9994948714066952', '0.9997942278917942', '0.9996363343657728', '0.9995340078356862']</t>
-  </si>
-  <si>
-    <t>['3207.0585214759126', '2955.5433333319597', '2858.032532728118', '3087.993118396805', '3579.3120742268584', '3234.6774355499424', '3014.1805661832723', '2175.798689352303', '1964.2149395160181', '1469.6028359754398', '1164.9170797224904', '1226.115986459474', '1658.756119083979', '1840.2884663929487', '1773.9737977139923', '1680.3371876596818', '1541.09624407257', '1442.9751091860844', '1412.3733244048015', '1691.4807377986633', '1382.5841376627802', '1306.7650273255451', '1366.1603456085306', '1314.9270981067775', '1357.693616206896']</t>
-  </si>
-  <si>
-    <t>['19.170877886424847', '18.24264847704623', '14.51688118873923', '14.318557228462398', '18.32727588928699', '15.84379302260602', '16.330561058601553', '16.479581180192096', '11.75945828099752', '11.30124924272929', '8.939197442733057', '9.417208755864532', '10.61589821537583', '15.244208782848107', '15.047221062313032', '12.974690364067296', '14.699346755375283', '14.438868259274996', '17.392248235441162', '17.75947713526014', '15.125755413644832', '12.83296097461111', '13.735715939189783', '11.894785595813334', '11.16439469816169']</t>
-  </si>
-  <si>
-    <t>['21.811202135856142', '22.017085218429994', '19.4950629270345', '17.72080795348805', '22.154410818144772', '21.301281402719994', '18.424179262481182', '12.048968310612523', '8.08185161454644', '7.338060563125746', '5.604088184318586', '5.545208475673466', '5.523854509429712', '7.480033593582144', '8.042966170748645', '6.034210920100365', '6.031413389395851', '5.580694384151079', '5.333479723522037', '5.168885937999323', '5.246486213909574', '4.3174670166594495', '4.436723575163724', '3.4151618625404274', '3.136011826068897']</t>
-  </si>
-  <si>
-    <t>['22.347330093279375', '21.206548952622406', '18.072206000727363', '16.55366940014402', '20.282163698815207', '18.35434153346951', '15.835476146979767', '10.98821050982084', '7.831519622746201', '7.293093559467898', '5.650466040071546', '5.732611823660272', '6.824922212566347', '7.70558151157995', '7.678380275319662', '6.326365032643683', '6.57748666553609', '6.05770312888678', '5.57345496517762', '5.019320739884723', '4.834760670683408', '3.8409009174178457', '4.213491458512893', '3.8134189540836947', '3.960498253169819']</t>
-  </si>
-  <si>
-    <t>['116.98557744550696', '130.97901365739253', '114.40914491719822', '114.51328967492694', '137.72905928472582', '122.08422757968363', '105.2837278525492', '81.64006421078744', '67.88147951305461', '65.07066305633401', '52.476380712014944', '61.22114934397105', '96.8428318476354', '103.77786140762883', '118.5722683534846', '100.15886236144514', '101.36440875345144', '119.44225750314394', '152.74174654122243', '177.53258718476067', '145.02271043010646', '113.47064640340614', '121.63765574378644', '111.54389531282564', '110.10759295407138']</t>
-  </si>
-  <si>
-    <t>['0.05805568635987754', '0.059181459041906574', '0.04880068785259139', '0.04742857268955201', '0.06775688538769888', '0.06610209171383431', '0.05509510147541078', '0.04099227518506599', '0.030871228431310613', '0.03070051735990813', '0.023763954660451465', '0.023293891467842893', '0.023984197566984056', '0.02756554765798888', '0.030543202845121697', '0.02503637813596951', '0.024376118466155818', '0.022865888271231476', '0.023149666030415277', '0.02292387563676234', '0.0233844145067804', '0.018970367372154427', '0.019041214888500687', '0.017178796523853658', '0.01604012213356456']</t>
-  </si>
-  <si>
-    <t>['8.310141116945378', '8.025463819509042', '6.592954572635746', '6.013563034139749', '7.917651248544982', '8.596583850164926', '8.493498812775693', '6.202745351651974', '4.595423892457409', '4.3870387313062915', '3.112177033786934', '3.1460964702718894', '3.2356145408711163', '3.8192003173976765', '4.183091056128874', '3.937931490251179', '4.219768703324035', '4.545669880131657', '4.548425919625682', '4.490636361248519', '4.515695756668719', '3.875301842274563', '3.958520072492303', '3.5043826363628408', '3.241049536003951']</t>
-  </si>
-  <si>
-    <t>['0.23365203895665204', '0.24327863550360884', '0.21703855046260795', '0.20625209465290753', '0.234118188828432', '0.21040144840125213', '0.1795252462704342', '0.12106474866565858', '0.09875496074875059', '0.08932814179881583', '0.06944143941186909', '0.06435512374864123', '0.06710426032774161', '0.07241749563940435', '0.07601621867892877', '0.0644690280802804', '0.0625889137261869', '0.058617688407877955', '0.06017812895486011', '0.060142371113914427', '0.05558415534136716', '0.04796726177925083', '0.04841327074512941', '0.04427980673487106', '0.039452436825350434']</t>
-  </si>
-  <si>
-    <t>['61.322527640846225', '53.96345788734103', '74.77035779082979', '89.77386985651039', '99.50405707524259', '94.53598587767179', '89.6067358074799', '46.16844205839538', '0.000140999530795176', '0.000087471125655837', '0.000058779559087414', '0.000115295662456796', '0.000101436094104885', '0.000098853641432367', '0.00009553805308974', '0.00015940754963077', '0.000369177212086488', '0.000283856384619967', '0.000290828939659806', '0.000243831178002298', '0.000216309014573556', '0.00016709879288117', '0.000169892088966957', '0.000147713947567799', '0.000154029864839529']</t>
-  </si>
-  <si>
-    <t>['3.7593401672262665', '4.160372036716455', '3.07270038408521', '2.918319433736955', '3.40939376004483', '2.970418691902415', '2.609748684750575', '1.7991509958438068', '1.3160726966256306', '1.2904378157598173', '0.9381134809843129', '1.1470148140469936', '1.2632928509557522', '1.2978300073823106', '1.2593348569860765', '0.9833968258376424', '0.9231744496862225', '0.855318547666355', '0.8092967092367155', '0.7701748703405407', '0.7741546632264952', '0.570498035275288', '0.5859682148295048', '0.48682725186429815', '0.4198786555604718']</t>
-  </si>
-  <si>
-    <t>['0.41332761712842175', '0.47896258661630176', '0.4104186694656861', '0.3927412934270305', '0.45697038607551527', '0.4332752884471534', '0.39266502326038416', '0.24740360449235044', '0.19401810549055398', '0.18567809608157282', '0.1192529984808272', '0.12823267176797876', '0.12417517008299302', '0.1377402541289209', '0.14524976336794598', '0.12343869298924857', '0.1148361324975587', '0.11039811957925919', '0.10642713302562187', '0.108273296708355', '0.10445828420746105', '0.06752335125663864', '0.06488456849870698', '0.05889483350789957', '0.058437819253109466']</t>
-  </si>
-  <si>
-    <t>['1.000090375772782', '1.0015579324106187', '1.0006253547831696', '1.0005458685360886', '1.0008566774506642', '1.0007000650810747', '1.0000592626410485', '0.999889415238136', '0.9998810324674283', '0.999695417242114', '0.9990930306445589', '1.000497045311642', '0.9986921924272794', '0.9975572322718356', '0.9971758454830374', '0.9981981943931888', '0.9987680187603056', '0.9997530882561464', '0.9996014748886058', '0.9993322571566673', '0.9990911717445804', '0.9983468578267026', '0.996537386900365', '0.997086649275821', '0.9975605523720208']</t>
-  </si>
-  <si>
-    <t>['12.690863723293937', '11.343296186093829', '9.67746463444313', '10.519444424549624', '13.16089901900982', '16.44927115509281', '14.32148055950709', '9.663295783053398', '5.864329535342723', '5.208961905652171', '3.4993119974811093', '3.4988754663838604', '3.862040506185229', '4.384982770602501', '5.282653467507041', '4.151385879408576', '4.486923848483969', '3.7239774433039807', '3.3509689473549553', '2.976299299711423', '2.7576291832467454', '1.7468748933138836', '1.6979680420139105', '1.4402257520211916', '1.391461050369188']</t>
-  </si>
-  <si>
-    <t>['1.973182253582361', '1.74604894982651', '1.2672485332982977', '0.9079481535449516', '0.9744234596255259', '0.7690144707079941', '0.9327742250665491', '0.9344500163767233', '1.0435861652865996', '1.0512464930266423', '0.8359984141677902', '0.8298741512446278', '0.7560167632041928', '0.7118799124409199', '0.5895611573547489', '0.6197869189591412', '0.49633150285619093', '0.41435299211662907', '0.4232616959928293', '0.4620174161714135', '0.4611037677379404', '0.4349115592607564', '0.43703569944750664', '0.39780578243842224', '0.4105124126599296']</t>
-  </si>
-  <si>
-    <t>['22.569989982198624', '23.492831604593725', '21.11114628879347', '17.92705641791382', '22.31123215854639', '30.98293747238141', '29.471309994819613', '19.27016777173401', '7.208042303701475', '6.161071199110355', '4.796988250324966', '5.072378331282489', '5.827555202198223', '6.94428882409101', '6.589502415529411', '6.043579344641943', '5.998459213112403', '4.455331049523802', '4.985505528479954', '6.235754271283395', '6.067479190012529', '4.519521528771487', '5.2405271457474205', '5.184340841689738', '4.672969762901762']</t>
-  </si>
-  <si>
-    <t>['2.4095390932978553', '2.4661850293290417', '2.1331849796915314', '2.0285888338871', '2.66808185524771', '2.4697666733054735', '2.3876191355504397', '1.786921312979181', '1.3074437652908548', '1.2652024660959191', '0.9583917108823653', '0.9758205476252001', '1.0304632281750834', '1.2298426942117162', '1.334513345652464', '1.556174514319638', '1.5529058893381738', '1.216975388277452', '1.1018061281961502', '1.0853550439938315', '1.05824915938899', '0.9009352135895778', '0.9594692551664573', '0.9145235334138031', '0.8812660166195316']</t>
-  </si>
-  <si>
-    <t>['0.9981107199543389', '0.9975372675369866', '0.998416846580445', '0.997574010966961', '0.9980629407544832', '0.9989795209673402', '1.0000761412179093', '1.000631908809924', '0.9991813483074302', '1.0011944279954568', '1.000848271288449', '1.0002050828221283', '0.9999200202966168', '0.999623292111052', '0.7645972129933989', '0.8459808368807488', '1.000629338515076', '1.002405119417618', '1.0026870375679218', '1.0029604951813846', '1.0011786547618937', '0.9984594643349168', '1.0008107947115334', '0.9999958138368105', '0.9987138915270654']</t>
-  </si>
-  <si>
-    <t>['0.2000104240195161', '0.21329664497393946', '0.18539714578978211', '0.19938322540727815', '0.2554712714245474', '0.2424172825371927', '0.21056346025530417', '0.15050594463673897', '0.1184146351999159', '0.12074637122466512', '0.09534018760455808', '0.10101488391673338', '0.10808399281603938', '0.1290895458501541', '0.1784457267086237', '0.21828233946724848', '0.20238550382979106', '0.24610565921234825', '0.202414578223361', '0.1884456427904795', '0.23121262981420032', '0.20331927305027137', '0.1604010201435944', '0.1222605124513842', '0.10523148613988481']</t>
-  </si>
-  <si>
-    <t>['169.14806469839286', '165.70390101107986', '133.05157831707209', '130.02723293177007', '189.34099947098437', '188.00966890448115', '169.08071391469753', '117.7228504903128', '93.8488090398618', '101.01228056240828', '61.91651665059515', '63.647929190885094', '87.42074022278378', '94.70512986006048', '102.0637300966686', '86.26451496179538', '86.29860580754614', '75.54347613667012', '74.58157757508867', '82.91731010379223', '78.42992949147512', '58.16713347629674', '63.005985988237505', '57.10685680677923', '54.675598763043126']</t>
-  </si>
-  <si>
-    <t>['2.5229956287485655', '3.0894303643232575', '2.6321406139480406', '2.384567103036684', '2.623933989976173', '2.300713218519659', '1.9212627739753771', '1.2786354380459062', '1.0671599700469314', '0.9796949490156092', '0.857785599346809', '0.8865240756552866', '0.8895641825163547', '0.9793491899302438', '1.0084685103843516', '0.7971652809678162', '0.7685769792476197', '0.7060036317863517', '0.672599506208031', '0.6292580411278259', '0.6038941222938158', '0.4076351963105086', '0.40420619008857456', '0.3419505236455772', '0.3167731141831429']</t>
-  </si>
-  <si>
-    <t>['95.48373046941208', '94.68990532857838', '83.41076897582032', '78.48009613848654', '93.27525814167916', '88.02129149962208', '80.05016243980305', '64.85978660093271', '51.1730378024336', '55.14683195714192', '58.08393842463001', '55.452041287562444', '54.720388602553605', '60.37885507727758', '60.122113889977626', '53.456180566179754', '52.941859675248615', '49.33851981065539', '49.018241700316885', '47.63798121514635', '44.468347602976635', '39.01113007037155', '42.03205031529986', '45.441554662699076', '42.38065115456112']</t>
-  </si>
-  <si>
-    <t>['150.697072673961', '181.573063144543', '145.02691209127954', '147.89672337682907', '190.69217388131565', '166.02591954739447', '151.07540362253036', '110.4655539435086', '87.22780430243013', '70.36979938519633', '53.996049843541265', '53.23727863976039', '56.09064429007223', '57.25274195867748', '61.337163672188275', '53.244447512544', '51.145351324478156', '47.527001251664124', '54.712027593216696', '56.76163316545042', '53.41075178240629', '42.564258004120106', '43.9148708516267', '38.623414323051804', '33.59980500647173']</t>
-  </si>
-  <si>
-    <t>['6.134606222433956', '7.1369792383392685', '5.80618096564188', '5.613214359195128', '6.726850745422237', '6.230519683782086', '5.409158331956487', '3.9195079601727234', '2.7173434838942527', '2.4244540479896037', '1.5173051744155555', '1.5953238090933082', '1.6843593853051182', '2.0377287943751523', '2.716294432856045', '1.994211719568013', '1.9204736831789433', '1.6727397882717991', '1.6139303411255088', '1.555717543301136', '1.565569188457386', '1.1725598413665133', '1.080528796213476', '0.815702523522575', '0.6984129426593637']</t>
-  </si>
-  <si>
-    <t>['3.192704603671788', '3.598161630117039', '2.893232718719878', '2.8405302022581678', '3.5893530855522187', '3.3335930955299844', '2.910671120452662', '1.9183980311073203', '1.2432920514485468', '1.273093468889343', '1.2503978899656885', '1.2349807298144673', '1.2160184853746825', '1.390585387950117', '1.4757348740484224', '1.178041587659998', '1.1334098449149932', '1.078631982832802', '1.0398628067936684', '1.058705834966338', '1.1169359328488522', '0.8858529137333951', '0.8966569114748919', '0.78517913775876', '0.7476207992973914']</t>
-  </si>
-  <si>
-    <t>['3.4719739385947905', '4.010393075297095', '3.2119248729552554', '3.0589978595154506', '3.6840034957176377', '3.315488205788574', '2.938310226492991', '2.25523128501707', '1.8852565380647655', '2.0146497315816276', '1.4266678184685073', '1.5086878950556573', '1.6178103709427538', '1.735978112382498', '1.8201331446087619', '1.5382515510161572', '1.5706469899331126', '1.459670487256987', '1.396715325875392', '1.3851079526401866', '1.2816268566182645', '0.9859721149471188', '1.0002898456060205', '0.860465736788587', '0.7534025221949407']</t>
-  </si>
-  <si>
-    <t>['1.000876624913145', '1.00077198644568', '1.000050233310721', '0.9728620169073788', '0.991955997404589', '0.9967171476738733', '0.9995820545586851', '0.9998717083619586', '0.9997114085811156', '0.9989228617309933', '0.9994817877095112', '0.9999244538796915', '0.9999470943433313', '0.9987798715847667', '0.9973769806668671', '0.9963104426246179', '0.9860722289322684', '0.9862144529094806', '0.9924185031383469', '0.9879210374415257', '0.9784142543911671', '0.9805220738335634', '0.982940768169559', '0.9831651731217363', '0.9795914908958477']</t>
-  </si>
-  <si>
-    <t>['104.9912883835536', '120.97407571731543', '110.39144362675955', '147.1458924580598', '188.78326666955377', '158.88679940891157', '150.2481239427762', '109.21990442285343', '99.72473300941795', '90.34583493168859', '65.4532287088412', '58.04950874314263', '59.68787866719349', '63.13734227418205', '73.63855246754879', '63.00544589466993', '61.187197041801895', '55.80420288681885', '53.70358424312541', '52.95664825010032', '47.061071139709185', '40.56617101121116', '44.48831968967522', '43.032385278904954', '39.327764584629016']</t>
-  </si>
-  <si>
-    <t>['7.9933853740335135', '8.724013756079913', '7.687834163049818', '5.323030067488377', '4.470194584632962', '4.357994688484426', '4.79481618559802', '4.954385358178254', '4.418598278964115', '3.7838580154150825', '3.403684192967559', '3.7767415908222857', None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
-  </si>
-  <si>
-    <t>['4.75280808381259', '4.275359580785615', '3.262310840072673', '3.010975306398272', '3.93697934986273', '3.513809600606889', '3.1330018556256927', '1.9399658754109845', '1.512251796010183', '1.6031158873893867', '1.184550810632312', '1.1793415101970044', '1.3429943767060064', '1.4387200943761842', '1.4335786494396994', '1.1148817518877383', '1.2143098915201143', '1.0687404932875169', '1.2844575617076543', '1.5093312752337371', '1.5418000855173497', '1.212450608527116', '1.3058752773366034', '1.0186778172965378', '0.9759862594985063']</t>
-  </si>
-  <si>
-    <t>['13.231892339155145', '11.677586934842967', '17.16028326351147', '11.282548902993753', '7.532500925744503', '6.005390908245645', '4.038330332230786', '4.810935566072127', '5.382323580623373', '6.815274334325867', '6.405798817815641', '4.944110155670127', '4.983261134399494', '5.548256361965324', '4.956431765067205', '4.588779906488768', '4.177813050345489', '2.978738335964383', '3.2435552792300735', '3.9863281053085386', '3.9979099926243227', '3.894364469390478', '3.564948858663925', '3.621489164576429', '4.0386858561950945']</t>
-  </si>
-  <si>
-    <t>['8.76045001877e-7', '9.22669498048e-7', '9.77441316603e-7', '9.96173368309e-7', '9.40102768811e-7', '8.88061205221e-7', '8.80727101709e-7', '8.93673145244e-7', '8.54873827277e-7', '7.8759212627e-7', '7.79885701119e-7', '7.8361315284e-7', '7.73921786218e-7', '7.69300414686e-7', '8.08094109137e-7', '8.15269761382e-7', '7.3448960035e-7', '6.7332335223e-7', '6.63770250951e-7', '6.94412669575e-7', '6.85174254691e-7', '6.61482140828e-7', '6.36495354674e-7', '6.24185125483e-7', '6.26443270692e-7']</t>
-  </si>
-  <si>
-    <t>['2006.0938058616036', '2053.5387391444488', '1867.1386419838655', '1854.2682434550825', '2099.189355570903', '2033.491558947877', '1707.3007565463781', '1361.509014641597', '1360.794594145241', '1167.1457747805625', '868.1211063766331', '946.0388274623116', '942.0348462438528', '1052.6860091121787', '1013.7398567153568', '796.4368123509531', '720.76888649705', '685.9841031301919', '896.2055586688605', '986.0687308169632', '821.225535763856', '661.9162061231069', '635.0458980003341', '564.6196199478675', '527.4467568531255']</t>
-  </si>
-  <si>
-    <t>['0.6417250465995497', '0.6017036788316019', '0.4544933704654166', '0.49072282175003445', '0.6037779469561246', '0.5111403716728707', '0.43612650667013897', '0.2791079540149974', '0.18781773559650353', '0.15973462417556802', '0.16627308125872797', '0.1758839722210324', '0.18188324729157143', '0.20842119619678842', '0.21803428467711672', '0.15670739196118208', '0.1540502037574017', '0.1368848868513322', '0.14693911751204478', '0.16924095297090064', '0.1599152363419604', '0.11980533322801847', '0.1222893035615284', '0.12256356739922282', '0.1251272881562628']</t>
-  </si>
-  <si>
-    <t>['4.904676792760515', '4.970031895073382', '3.8909332182575556', '4.323776159682061', '5.897894784669829', '5.521556348767355', '5.620524556743144', '3.8115156963446886', '2.6300405301923813', '2.738134206880269', '2.3838125602563514', '2.532308119200893', '2.806248402807726', '3.7068426734951685', '3.679711848271755', '3.0023968336520346', '2.840836623232275', '2.3884158787654077', '2.1982393989139415', '2.333342117346105', '2.277489548414966', '1.7131561112905733', '1.8087102911602526', '1.662672475689992', '1.5202221665214852']</t>
-  </si>
-  <si>
-    <t>['7.355065667795971', '8.05798619249039', '7.814796630527712', '7.67492160590594', '9.049025871671544', '8.920788845440068', '8.19267486016921', '6.626768565459141', '5.256157330460981', '4.85702513546115', '3.390336576226399', '3.4696265580787853', '4.295253594022536', '4.920197333733632', '5.6670182682736385', '5.244376917501217', '5.673672310996674', '7.143304560232441', '11.194240877626928', '15.494248259336192', '14.753071413296636', '7.499812525591939', '7.3832361852576645', '6.73611188116084', '6.39512884409321']</t>
-  </si>
-  <si>
-    <t>['17.84751783516985', '19.957260718288527', '19.15006661260851', '18.185890599513215', '19.671280683454846', '20.07788447390698', '19.668608218447', '15.254403386561348', '15.497158582411862', '16.44628463079468', '10.943548757764976', '9.359237654910775', '9.535427567216997', '10.097642138032716', '10.369608402667737', '9.282355589163991', '9.377543049492097', '9.03453582905239', '9.185460690138616', '9.728170636718652', '9.245551019711867', '7.126503091235687', '6.590252959704013', '6.481404348380167', '6.5773342391236795']</t>
-  </si>
-  <si>
-    <t>['103.48359878518258', '108.0304914703034', '92.84230183503956', '97.19374636613959', '129.0087510248786', '113.06747798916834', '100.37397914238461', '76.59270963229052', '58.84047470857567', '58.19677809698282', '45.52447142862462', '44.81654796849661', '45.773139700783354', '49.73933388446939', '52.82867706125301', '46.38726030747066', '45.87751403128036', '41.39855500106967', '41.64536125484498', '41.26070228281094', '40.2764365002629', '36.74575367153799', '44.90906430841063', '44.55908275750342', '44.00511230855953']</t>
-  </si>
-  <si>
-    <t>['0.8931624382773674', '0.8960826513300786', '0.7377580498994054', '0.7146365958101975', '0.8373586628007876', '0.724467371374106', '0.6345534055511275', '0.4324049136289106', '0.3366730713606832', '0.34121979322479606', '0.2762228661810894', '0.27627258531353965', '0.28488382885638547', '0.3161947954609334', '0.33275955295129717', '0.287633225339137', '0.2774982937641476', '0.2810236916889073', '0.265127019372044', '0.2521342799110723', '0.24671922457039144', '0.21614954780326281', '0.21070342263829225', '0.17767598091538525', '0.17493952609427518']</t>
-  </si>
-  <si>
-    <t>['0.9999094828762916', '0.9994985213370103', '0.9997018788130445', '0.9999545311355901', '1.0000617858511267', '0.9992933894461544', '0.9995596374294097', '1.0012533361221676', '1.000990698573624', '1.000722794786487', '1.0009106457798864', '1.0013428957068227', '1.0001494191754385', '0.9999041869805976', '1.0002159688521144', '1.000106355451535', '1.000352527166998', '1.0002527277000424', '1.0003466460156953', '1.0001693936402494', '0.999972834002255', '1.0008979186379316', '0.9994656637078275', '0.9997957897315018', '1.0007144271805533']</t>
-  </si>
-  <si>
-    <t>['1826.3497495589481', '1870.6563049897745', '1928.9891640301676', '1969.7010686505114', '1935.560584983872', '1959.66159363193', '1935.32862915773', '1862.5699136178803', '1855.3107768460097', '1864.2421961526625', '1839.1073755006094', '1790.8908518847154', '1715.681751076371', '1755.7963833187173', '1770.9360025868414', '1722.1375396926665', '1695.9652413021786', '1649.5315504705861', '1675.5493353142028', '1643.7477791144017', '1681.0944074599652', '1748.0591922077156', '1777.2580566081767', '1800.7458823025536', '1828.1512515977145']</t>
-  </si>
-  <si>
-    <t>['0.000079618132896839', '0.000085335536556788', '0.000073343976424205', '0.000076061368209432', '0.000092988465304658', '0.000098701967625791', '0.000085107124681923', '0.000059944003388155', '0.000047572878843795', '0.000049723434467279', '0.000038550080082121', '0.000040596679056961', '0.000040446335376109', '0.000043117737616707', '0.000044461059669371', '0.000042580531991362', '0.000043541690346119', '0.000039808023321195', '0.000039796132606802', '0.000037290047764339', '0.000035065745920702', '0.0000288671132616', '0.000029170841780567', '0.000025697051603837', '0.000022916156795273']</t>
-  </si>
-  <si>
-    <t>['41.31723181515463', '41.28248989462146', '35.6197481552758', '33.461550748183896', '36.25680174344845', '44.45259868347641', '42.87887041566734', '31.205852524473396', '25.898304360386543', '24.775504199029577', '18.618361712198013', '17.436890468951706', '15.214391083283694', '17.238961313244975', '19.260180703201108', '17.148492832444624', '16.414510755217023', '14.474470586996524', '14.054296014778403', '15.063428427824226', '16.73825989622689', '16.072578592287346', '17.800391786017347', '24.28479701531466', '26.077013016035806']</t>
-  </si>
-  <si>
-    <t>['20.498632364536395', '23.496738870238918', '21.56671855637341', '20.678662845710647', '25.762128830935485', '22.43839754647348', '20.010607603616698', '15.69169146260834', '13.289988234843051', '13.686613264524466', '12.381640726565864', '11.42733292226434', '9.449741598730999', '10.826948202869929', '11.16024786629192', '9.401518437885938', '9.284161271834359', '8.546998206827348', '8.326345641998', '8.249515492472087', '7.939775757178591', '6.72532598128853', '6.963097831249594', '6.786688664390354', '6.353167673536288']</t>
-  </si>
-  <si>
-    <t>['3.388695057483842', '3.0820363929171286', '2.3651882187078757', '2.0617137238571632', '2.564546047450782', '2.428903228269247', '2.3808991172279814', '1.9694138568173647', '1.2476981980938715', '1.1892918417128366', '0.718970718185335', '0.8434542525644405', '1.1728392184460752', '1.3420651973885955', '1.287059805512061', '1.1010509683996728', '1.114462423884148', '0.9225022178322457', '0.8593867087521717', '0.8984256032679555', '0.8344115256991137', '0.6039000603645287', '0.6591888186015799', '0.5650831723073136', '0.5328437044257834']</t>
-  </si>
-  <si>
-    <t>['1.9914552272589705', '2.113670437942865', '1.9802323215854436', '2.110141375173333', '2.348999635128361', '2.412087241058014', '2.30371114375484', '1.762637263659117', '1.3025940900346036', '1.2108511651044984', '0.6994463982560352', '0.6176751478238621', '0.6478906886039022', '0.7216463215226203', '0.9130495914568849', '0.9888408508020713', '0.9328078592297552', '0.9147588016788217', '0.8668018024597675', '0.9402664935855181', '0.9135719741072574', '0.6961638189775795', '0.6634198528359926', '0.6493330031200301', '0.6740496102835792']</t>
-  </si>
-  <si>
-    <t>['0.07179934661965165', '0.06831026753202513', '0.05640656519005452', '0.05224589672161285', '0.06654369836222568', '0.05949807692948826', '0.051028763546831266', '0.03685901942384308', '0.02917398488639746', '0.02734331330609443', '0.021549361420993347', '0.023870442208794668', '0.024851057812665025', '0.0344412299484127', '0.03582022751379443', '0.029953420914945638', '0.049785973780882', '0.03817703624632629', '0.03383511870227688', '0.03139464249585735', '0.027921097364116805', '0.02171607797916989', '0.0219015523274349', '0.020489056331696093', '0.019309949296879098']</t>
-  </si>
-  <si>
-    <t>['0.02189039999191168', '0.02190244780499641', '0.02191859845536274', '0.021947347675553477', '0.02197151760300049', '0.021986512055866058', '0.02203145277673082', '0.02204165582003913', '0.022045275163908418', '0.022068190342750406', '0.022048215179470775', '0.022061989995129816', '0.022036874502494103', '0.02203832827478605', '0.022104358215901534', '0.02204841757010443', '0.022064626618391266', '0.022070682441776346', '0.02208249679232515', '0.02209066268469153', '0.022115759742905382', '0.022114577099723247', '0.022114947215279325', '0.022127648334475086', '0.0221325234771818']</t>
-  </si>
-  <si>
-    <t>['56.566009653089', '60.83458028043742', '51.122777963966286', '48.18766067932485', '63.63905458142001', '52.02644268597875', '41.67190747473254', '26.51269912871497', '20.574734679148257', '20.02745364978932', '14.658493090485809', '14.72283014550989', '15.052195405599198', '17.445262633934465', '17.490740933671685', '14.12625014628274', '13.711425378255347', '12.484802994913942', '11.996417604224916', '9.523022907077959', '8.57892145334612', '6.893994722299056', '7.577474008510903', '7.152367905075419', '6.498969035732069']</t>
-  </si>
-  <si>
-    <t>['4.434051119669479', '4.371338367497118', '4.276322859430343', '6.614266056903223', '10.376531102468585', '9.037719899532101', '7.962072208641046', '5.133148160099485', '2.976981572852461', '2.8776861062280124', '1.920171573963706', '2.076125550404937', '2.4221002902031072', '2.6297159886445427', '2.659097458936864', '2.0007271162887137', '1.8611281556541857', '1.6017561070323045', '1.550755382014302', '1.496061552164597', '1.4305746585555414', '1.1757146871466184', '1.3368246491887767', '1.3805144939853833', '1.3322058176388547']</t>
-  </si>
-  <si>
-    <t>['1.2395136427204583', '1.235837327285092', '1.199967511312242', '1.1042370512693527', '1.1635573803107668', '1.057763575162137', '0.89143406302931', '0.560492016654673', '0.4373422955521152', '0.39354811622584324', '0.24675758070513124', '0.23625170816328167', '0.23987253658807398', '0.2844812079178963', '0.28391393593494146', '0.23993959963972938', '0.2177034607665206', '0.19980727769517237', '0.17448058390015977', '0.18966659916621662', '0.21646198319292556', '0.17238979443564714', '0.18546954567798263', '0.1655235247151412', '0.15590310965399173']</t>
-  </si>
-  <si>
-    <t>['35.07342768420461', '45.60755403711153', '85.75880084163268', '105.10112959432091', '109.93228288773287', '118.69504725183712', '122.51763618469924', '131.62960864819195', '124.53215141812717', '116.09603335493145', '126.84912416009134', '130.53854585264287', '134.4417887117061', '137.27863460809334', '155.74769074010442', '156.45016157661811', '150.44007804390165', '145.3468761662011', '147.77880304144185', '142.14202689618372', '57.631282345550325', '58.99764453147061', '71.06955321137947', '69.9236531412205', '66.27100707338464']</t>
-  </si>
-  <si>
-    <t>['0.000002157449058453', '0.000002140933402357', '0.000001725087646575', '0.000001555240489535', '0.000001768412339491', '0.000001687967981116', '0.000001574332290581', '0.000001155735400957', '7.86811467457e-7', '8.49505913643e-7', '6.20176857139e-7', '6.4514184157e-7', '6.58720194296e-7', '6.20735781172e-7', '6.22117812841e-7', '5.81714954409e-7', '5.70123594588e-7', '5.21425760518e-7', '5.471122224e-7', '6.22743639462e-7', '5.88501773855e-7', '4.76936926623e-7', '4.71390806857e-7', '4.5865758378e-7', '4.29802039541e-7']</t>
-  </si>
-  <si>
-    <t>['2.285192689619516', '2.0328683357575694', '1.6888233420198886', '1.2436034815703343', '1.411589928783673', '1.2780427600578863', '1.0296898816602598', '0.5874958765122998', '0.38062789875613023', '0.35088928770615285', '0.2535216537123085', '0.2637686189194673', '0.28680894484531005', '0.3401369235242283', '0.36661023255328296', '0.2830799434774924', '0.25797355854264153', '0.22785561861079556', '0.2153739739706002', '0.21196520806491762', '0.23345994526935746', '0.18078565295229307', '0.23669498649841253', '0.21483809785189964', '0.2095681421726955']</t>
-  </si>
-  <si>
-    <t>['11.198265047152342', '13.383635181173313', '10.397788340245793', '9.048496606466337', '12.055590721964391', '13.938718482067689', '11.043780584431875', '6.968673244362569', '4.612760066205703', '4.191534840609638', '3.3335299916111807', '2.9801408956893543', '3.789032220989192', '4.191999002489236', '4.332940144952071', '3.5549758063089287', '3.6446043857611525', '3.3983057108743115', '4.110554260517263', '4.293993300523147', '4.052768627675429', '2.8686876184725207', '3.1715753862498044', '3.000457006244175', '2.838837846138534']</t>
-  </si>
-  <si>
-    <t>['41.42047214324826', '45.13318931603653', '42.687183584196546', '41.86654437800548', '49.27572252904991', '44.98171858185011', '41.13579461848142', '34.388682329485526', '29.71124428752977', '27.461130752632727', '25.2995251262958', '25.78310693180309', '27.45000593403938', '29.62741193286214', '30.11288091392352', '26.82749919706422', '26.081853879898905', '23.80766661513086', '24.028901086349894', '23.673811471572954', '16.22888259267923', '1.4544180564900666', '1.3954218667770866', '1.121775170762908', '0.8955888964064517']</t>
-  </si>
-  <si>
-    <t>['0.04883053774488085', '0.05050732330780977', '0.04061815139371738', '0.04063555994118779', '0.10558281523082239', '0.12116338185682206', '0.10153519835458819', '0.06696547557464275', '0.05086530437048671', '0.04919250139460358', '0.037676774053569506', '0.04006627062544425', '0.03938386900746367', '0.041982556838848176', '0.04390653505921476', '0.03684229239542078', '0.035459457172792745', '0.031820639987555424', '0.031095279374125148', '0.030070785853806035', '0.02825077985439718', '0.021800269636613915', '0.0224648216371309', '0.01936875428787511', '0.01672362321357648']</t>
-  </si>
-  <si>
-    <t>['1.712663142707916', '1.7418779055166946', '1.8061226898017226', '1.8254747288791295', '2.294231160159598', '2.491267569740108', '2.451286644387366', '1.9388794279708714', '1.5346866594617132', '1.5651765825347463', '1.3107660668764334', '1.3276875123438945', '1.4232582790059827', '1.3124309685571522', '1.2441691021440884', '1.0312720461818528', '0.9395805777421762', '0.9376013030582644', '0.9041227928709454', '0.9146508718479499', '0.9763964343860556', '0.8654812143061009', '0.8349923290172161', '0.8117244978615317', '0.8350278998123799']</t>
-  </si>
-  <si>
-    <t>['0.07611294376627792', '0.07899132802868276', '0.0662857163920786', '0.07191196990598447', '0.08556609143824677', '0.07960498667900169', '0.07200472076199575', '0.05029626093935956', '0.038025601115181065', '0.037472220034500396', '0.02826717438116901', '0.02843941996408778', '0.028374350590991398', '0.030459787513228573', '0.0422083424439152', '0.036603406481479465', '0.035242075683333346', '0.03041235645931875', '0.029267763041807105', '0.029181065068156927', '0.026849176106050327', '0.02170445374600904', '0.02159817580142915', '0.018695042466152393', '0.0160151151805745']</t>
-  </si>
-  <si>
-    <t>['2.6807865960844204', '2.67682902603595', '2.096036696511513', '1.8607033645785533', '2.556378044172141', '2.8279355410967484', '2.1561568628217707', '1.5107590316810093', '0.9815672522178497', '0.8478536013962169', '0.6394873013513463', '0.6532682572332215', '0.7015976322930825', '0.7687330104900846', '0.8557383514234823', '0.6857443182663338', '0.6471118230257996', '0.589111749625866', '0.5685078320109797', '0.5795564109837646', '0.6662073030732325', '0.5468623514810979', '0.5626882755632268', '0.5013698564806148', '0.4505714425698603']</t>
-  </si>
-  <si>
-    <t>['4.414720518e-9', '3.66728958e-9', '3.214227392e-9', '2.902217329e-9', '3.139512985e-9', '2.783590324e-9', '2.247984983e-9', '1.448492065e-9', '1.358978658e-9', '1.592278551e-9', '1.310866148e-9', '1.5175765e-9', '1.306117852e-9', '1.260071693e-9', '1.525797797e-9', '1.261619211e-9', '1.191012574e-9', '1.143456955e-9', '1.231326709e-9', '1.209899603e-9', '1.298326164e-9', '1.118683217e-9', '1.137167247e-9', '1.007668092e-9', '9.45658901e-10']</t>
-  </si>
-  <si>
-    <t>['8.513463866532671', '8.774608592792895', '9.474193737760846', '9.367020036404886', '8.501446366926057', '6.781240740767039', '4.988514418046886', '2.947840762120258', '1.6263779497090831', '1.282606091601074', '0.8065549351186005', '0.8322139738731815', '0.8921664683464684', '1.0205219767579166', '1.1854710935957136', '1.3152695742833802', '1.3325041331241347', '1.1987024692001336', '1.1266218084740538', '1.2815787716802343', '1.4366823525893762', '1.0799849388025204', '0.9677883490763001', '0.7985597564674984', '0.7163588774585469']</t>
-  </si>
-  <si>
-    <t>['2.5971479869453895', '3.222257924529036', '3.075667403298903', '3.103765279790985', '3.2772664372073033', '2.708172556138108', '2.1187879034555475', '1.6023060928368769', '0.7349393765026423', '0.6693569375753331', '0.7543105770085711', '0.7817301739480735', '0.7993149772309603', '1.1503586390958347', '2.6504503445817367', '1.3361982915515604', '1.513647095511827', '1.480372793162883', '1.1138646928280722', '0.9431793366586128', '0.8627724723151443', '0.4829789979322828', '0.5886367104619706', '0.5405274254068805', '0.49331603834034715']</t>
-  </si>
-  <si>
-    <t>['5.529017012425465', '5.835033805290166', '5.15562242838262', '4.483700796109133', '4.628221776395531', '4.128824907013464', '3.362797355284834', '2.108122116738076', '3.062867490616906', '3.676287187820869', '2.851535324571179', '2.6841077223249408', '2.399225704765717', '2.5228067855244465', '2.6167250920701335', '2.142686120585509', '1.9954246796868258', '1.758258643040574', '1.7775954273949497', '1.7212130674556734', '1.5077342373797336', '1.2647815079641964', '0.4718008915058747', '0.38532114879910284', '0.3610274096038764']</t>
-  </si>
-  <si>
-    <t>['36.70090423172156', '33.65269468847562', '28.714585265587004', '32.300888047614215', '36.16913772126048', '33.18937356682921', '27.608688566399795', '19.73588585347009', '14.740246873957561', '13.185697303958321', '9.203628010551608', '10.771509397364017', '13.95512557715075', '14.052352840800568', '13.960081480193022', '11.076207562503647', '10.285681714334343', '9.53887093235892', '9.259820264703922', '10.31267117214348', '11.86119271836275', '9.421719183587253', '9.246747305620968', '7.657154314621332', '6.572437477446573']</t>
-  </si>
-  <si>
-    <t>['19.331449068234036', '18.01081862862286', '14.507308714647353', '14.30688940755311', '18.306166444336124', '15.780504264287806', '16.073355901918692', '16.116542857710495', '11.539538115959633', '11.135235919246382', '8.791539678508247', '9.290949428216722', '10.480050383279883', '15.026003528360146', '15.04232093983357', '12.976445562810786', '14.695105721880225', '14.435785311770449', '17.390322177169704', '17.751519078441437', '15.1227314935571', '12.836602385377308', '13.7373464040408', '11.896674384745953', '11.166233929933904']</t>
-  </si>
-  <si>
-    <t>['0.4408305816404532', '0.4468823149781517', '0.3593040811330509', '0.36857568133525476', '0.4503750407068176', '0.4031597123294905', '0.35592677925882804', '0.2537459708237275', '0.15738209307646853', '0.14929844842308387', '0.10656333821674718', '0.09905614974262879', '0.10198424553875708', '0.11979967146821509', '0.1318519510012677', '0.10641194737075593', '0.10961625558891039', '0.09951860896427349', '0.0932575701548531', '0.08147761058053667', '0.08035686351101637', '0.06042658102959058', '0.06423047727495794', '0.06043641631888729', '0.059121301344015866']</t>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>1.72</t>
+  </si>
+  <si>
+    <t>-0.91</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>1.46</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>12.33</t>
+  </si>
+  <si>
+    <t>2.86</t>
+  </si>
+  <si>
+    <t>-0.09</t>
+  </si>
+  <si>
+    <t>1.92</t>
+  </si>
+  <si>
+    <t>-0.07</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>-0.12</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>1.94</t>
+  </si>
+  <si>
+    <t>1.64</t>
+  </si>
+  <si>
+    <t>2.77</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>-0.05</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>['20888.059342580145', '20872.859720048866', '20864.08242802528', '20854.068245294256', '20866.444963495338', '20877.606515096915', '20858.71627838141', '20863.385866204582', '20890.86286642219', '20882.61360496627', '20866.01855473859', '20868.8132510744', '20881.644944498625', '20883.925225787905', '20883.733824124312', '20883.968639548595', '20889.824314819725', '20910.4681478454', '20920.047913054892', '20930.50814005776', '20932.59566285517', '20929.64765864909', '20932.73976770876', '20935.473930049648', '20939.720646286736']</t>
+  </si>
+  <si>
+    <t>['1545.5862529402316', '1545.5417164542698', '1544.8860500642872', '1544.657087955445', '1545.4190895372997', '1545.800046944374', '1545.0381435798827', '1545.7398138216017', '1546.6499252392623', '1546.2539793278295', '1546.0053620656033', '1546.5807704136832', '1547.3038039301198', '1547.2387900841077', '1547.5532594854324', '1548.1381894609583', '1549.1784215233738', '1551.063606746339', '1552.0987224422895', '1554.5979395688869', '1554.1614072737968', '1553.051874632252', '1552.67129999414', '1552.7345521901111', '1553.3090114947072']</t>
+  </si>
+  <si>
+    <t>['0.9992681022022187', '0.9994336589529568', '0.9995371080427669', '0.9997810041804046', '0.9993609168422358', '0.9990180047723488', '0.9998199119859995', '0.999620714979349', '0.9985761612060564', '0.9989306790996206', '0.9997144360675598', '0.9995811343880934', '0.9989888697111877', '0.9988127779866881', '0.9988984901307496', '0.9992123354504243', '0.9990194739237489', '0.998150233070809', '0.9977020107924873', '0.9975408656714387', '0.9982237219711636', '0.9983663491938861', '0.9985119896492675', '0.9985459663843523', '0.9983789488797743']</t>
+  </si>
+  <si>
+    <t>['0.999400060997163', '0.9993370527347444', '0.9993543123236461', '0.9991759170046313', '0.9989538520549587', '0.9989570417768824', '0.999259682084368', '0.9992764160054849', '0.9990244428897862', '0.9990386658006002', '0.999099649715703', '0.9991423200691094', '0.9989607896074642', '0.9988407653738359', '0.9987406402438744', '0.9988075432092373', '0.9986567966808588', '0.9984648163341392', '0.9980556481829641', '0.9979031294960912', '0.9984898317967311', '0.9985047186429399', '0.9982341405779825', '0.9983189989281857', '0.9982142107396564']</t>
+  </si>
+  <si>
+    <t>['301.0752069363982', '300.9184151021615', '300.9154690912273', '300.70317709841277', '301.0577839396217', '301.0328639554339', '300.48688794504744', '300.63454570492837', '301.0565622265152', '300.9505953177922', '300.7447590970041', '300.7270182275023', '300.98017915829627', '301.04675726713685', '300.98677131276685', '300.96018820272735', '301.0403029902741', '301.3771487260272', '301.57228561763867', '301.6445155705267', '301.6593942388461', '301.8370427263956', '301.983547484343', '302.04062197291563', '302.0202037633915']</t>
+  </si>
+  <si>
+    <t>['0.3862492940807212', '0.3866125716856025', '0.38654069526415263', '0.3863268468793656', '0.3863517522606549', '0.386312215956473', '0.38596773896260345', '0.3861268086403572', '0.3866332127206183', '0.38665080727685636', '0.3867670730886747', '0.3868647231748501', '0.3870543724097943', '0.3870303675631851', '0.3871519778289533', '0.38736610871310406', '0.38745489958058105', '0.3877805160822', '0.38789086181952953', '0.38794375302530354', '0.3877238596145495', '0.38760486577111886', '0.3876630870557952', '0.3876801700776726', '0.38779533755839063']</t>
+  </si>
+  <si>
+    <t>['0.9976322221514262', '0.9978371249491981', '0.9979561687832649', '1.0000548101881839', '0.9995643697535929', '0.9986876597785858', '0.9994738069432442', '0.9997578419286396', '0.9981006615811215', '0.9981469315479421', '0.9985132314232692', '0.9985238261335128', '0.9985758639104613', '0.9986630675326358', '0.9986567056189048', '0.9983438760926838', '0.9983070902652498', '0.9980944783708309', '0.997976573355117', '0.9979829139536287', '0.9979559070711077', '0.9979290287826692', '0.9974881303138948', '0.9971000421027795', '0.9971131586013215']</t>
+  </si>
+  <si>
+    <t>['0.3493991253882847', '0.3499384911234327', '0.349691956715333', '0.34943486009333763', '0.34976417375758534', '0.3499161944727724', '0.34974861651875044', '0.3501312791273575', '0.3507710298647623', '0.35084359557186723', '0.35137740248032073', '0.3514352910123911', '0.3515749609482583', '0.3514145257315405', '0.35147615548233474', '0.35158497776402775', '0.3516843440632464', '0.35170246222514634', '0.35170799841325806', '0.35190461087055225', '0.3519302369391609', '0.35165864439240935', '0.35156569260015963', '0.35154717201460806', '0.3513951590471455']</t>
+  </si>
+  <si>
+    <t>['0.08532300431234867', '0.08529157362552936', '0.08519835034022684', '0.0850983258103878', '0.08517777214355549', '0.08521884672368445', '0.08516733171785844', '0.08525291521450568', '0.0853615782175176', '0.08529950286385987', '0.08529673688097493', '0.08534379762605698', '0.08546179006846333', '0.08547261700214642', '0.08549738524949684', '0.08555270239143364', '0.08561523298664858', '0.08585209029890806', '0.08595943850002816', '0.08601367924579104', '0.08594590489363352', '0.08591515533463921', '0.08587900979868301', '0.08588095475489194', '0.08588649577793254']</t>
+  </si>
+  <si>
+    <t>['0.9859916289402291', '0.9863413096039428', '0.9852736822361263', '0.9836454050530838', '0.9842778435630207', '0.9847565407913201', '0.9842351144189169', '0.9849297299691061', '0.9866143327243917', '0.9861087307930853', '0.9860651282031244', '0.9866311863763417', '0.9880325199118523', '0.988223048462951', '0.98839395988678', '0.9888686398176193', '0.9894880146735424', '0.9911568883156474', '0.9915708287610837', '0.9922193353949595', '0.991129980854507', '0.9906526100422243', '0.9907723355409123', '0.9909691330742598', '0.9912392740630691']</t>
+  </si>
+  <si>
+    <t>['23.28620636372344', '23.279328412806514', '23.23342628540669', '23.15014838140344', '23.173887446144022', '23.20079331514118', '23.18792981325105', '23.22913807999327', '23.312603763335566', '23.299814573883232', '23.313955282813534', '23.319031428007072', '23.323662609813823', '23.306742879945343', '23.313140148450355', '23.325393869910993', '23.372813401314225', '23.441847913979835', '23.478625341825364', '23.536378395526995', '23.552382006132657', '23.532459087598635', '23.478082160016125', '23.4728175294578', '23.457400796914968']</t>
+  </si>
+  <si>
+    <t>['31.514351704937365', '31.486834169672502', '31.45249416040577', '31.45286857353254', '31.43946135000842', '31.42707691174483', '31.4287631194408', '31.453304655410292', '31.455869271188867', '31.44022507677587', '31.46100320983288', '31.52003483995855', '31.545791536657404', '31.53464732560729', '31.53852171667797', '31.55018442039906', '31.52933116277187', '31.52247661939371', '31.51950587906281', '31.499143490116854', '31.476843799544262', '31.492459190051584', '31.524463724500183', '31.536017168335402', '31.525902676005284']</t>
+  </si>
+  <si>
+    <t>['5.966948950955688', '5.978055999038023', '5.970499143092604', '5.9632861250231075', '5.970451032477187', '5.973213727034706', '5.96798493911658', '5.97448504601735', '5.979487176221659', '5.974036574019778', '5.976930975628681', '5.980600612086749', '5.986604706489882', '5.986066080266652', '5.987777285670981', '5.991020320778358', '5.994934132237973', '6.002233605544408', '6.002304835394272', '6.004719843916179', '6.0001503209646785', '5.992089605093205', '5.98566592780282', '5.985003513740972', '5.98525000112572']</t>
+  </si>
+  <si>
+    <t>['6.832935814958313', '6.835236616083973', '6.828208521163033', '6.826642566725968', '6.835505695000365', '6.838607154569288', '6.837488807868412', '6.845392423608729', '6.855203362385893', '6.854271283441832', '6.856876140624686', '6.861178474246809', '6.864865819680828', '6.864062283369387', '6.869322133440683', '6.876881114881842', '6.879836252840125', '6.886024354398153', '6.888585611451744', '6.891804135890892', '6.884367788946318', '6.880084133793264', '6.87916220424534', '6.878006504526863', '6.877784971950748']</t>
+  </si>
+  <si>
+    <t>['1548.2674556843772', '1548.268726453883', '1548.431523612566', '1549.376958136392', '1549.9156693134908', '1548.1490247714335', '1547.4309865649634', '1545.070845063904', '1544.0371151829956', '1545.0359769055199', '1546.827349869628', '1547.3224829490202', '1548.4433077219142', '1548.4983678617805', '1548.5951052457456', '1548.4483996857402', '1549.2195127793777', '1549.2450544234428', '1549.7812466058256', '1551.8282146877448', '1553.0039233284629', '1554.0394138991728', '1553.851845251069', '1553.1195208765328', None]</t>
+  </si>
+  <si>
+    <t>['87.70492005256838', '87.77346527801454', '87.72927660887962', '87.70827520440716', '87.78367898964294', '87.79641963105637', '87.72419992457789', '87.76634464635606', '87.79749753849198', '87.73747015967835', '87.76763827848009', '87.80793301437981', '87.87439751629127', '87.8745674289838', '87.90438420480231', '87.94446590925962', '87.99984399150802', '88.0530987220527', '88.07727477307719', '88.12340951457165', '88.06980303359661', '88.03698150498202', '88.09370134767737', '88.12783958801245', '88.13888945328377']</t>
+  </si>
+  <si>
+    <t>['0.000010223862322555', '0.000010222537980634', '0.000010215695363359', '0.000010207724831595', '0.000010212521983863', '0.000010213622506988', '0.000010192887392706', '0.000010199553648861', '0.000010211666158139', '0.000010203705034065', '0.000010196865453179', '0.000010199428701378', '0.00001021542312971', '0.000010217313698548', '0.000010221140540257', '0.000010227304016386', '0.000010235582054199', '0.00001027804665737', '0.000010286519768189', '0.000010280342047071', '0.000010254784890484', '0.000010252648434585', '0.000010255109645748', '0.000010259566657995', '0.000010259555857835']</t>
+  </si>
+  <si>
+    <t>['0.06247102940865806', '0.06252523834724233', '0.06252332824193313', '0.06254707305939337', '0.06254418033721684', '0.06257839735918093', '0.0626636967099224', '0.06269393004067969', '0.06264833646002924', '0.06258724014168815', '0.06250951249786384', '0.06249347799007772', '0.062465188047462726', '0.062455643701994516', '0.062463645510055496', '0.06248356348440753', '0.06252338351295368', '0.06259015039173862', '0.06260621702491621', '0.06261664767527314', '0.06259057421761996', '0.06254774143428032', '0.062497252164463696', '0.06248556016655215', '0.06247335520023414']</t>
+  </si>
+  <si>
+    <t>['6.54887406553737', '6.5555102998456745', '6.54848433546272', '6.545877158594601', '6.555186392283276', '6.561127376549665', '6.56561302244193', '6.569564050121235', '6.568663528989239', '6.563859199028266', '6.568593772812787', '6.573306241496179', '6.577264166242919', '6.577149321181413', '6.579619627107833', '6.580810780222415', '6.584605526594017', '6.5882201338329685', '6.5888293518528736', '6.596336259836619', '6.592760859664028', '6.588543744206909', '6.584485335700946', '6.582751668031495', '6.584836293432471']</t>
+  </si>
+  <si>
+    <t>['0.9995777102152492', '0.999868867899482', '0.9996441769714107', '0.9992081712298105', '0.9987868020961241', '0.9988918969075649', '0.9996980084812523', '0.9995734907475581', '0.9994158365427686', '0.9997977120504153', '0.9999383060704422', '0.9997167520445678', '0.9990740603147154', '0.9990851327549622', '0.9992417955482044', '0.9992984467465326', '0.9991815912092784', '0.9989882824101491', '0.9988289944684845', '0.9994367741070989', '0.9998738050935445', '0.9995139329746012', '0.9986385982764511', '0.9986837488214088', '0.9985328092281467']</t>
+  </si>
+  <si>
+    <t>['16.724518512923513', '16.763739948381218', '16.746767545014578', '16.697132818138765', '16.704554792924693', '16.71216444034771', '16.714841757058718', '16.734510121649897', '16.773653788391183', '16.765323662024223', '16.760122876923006', '16.770191887245357', '16.78700141347803', '16.792469307962293', '16.799924994760136', '16.82613731698415', '16.836640910267594', '16.867012068488307', '16.874747000482262', '16.8725991917784', '16.81315963250622', '16.803115154359272', '16.805964286574934', '16.809159144973002', '16.80107310671559']</t>
+  </si>
+  <si>
+    <t>['12.840457116758316', '12.86446777828612', '12.850378187588335', '12.830162910242198', '12.848343778623041', '12.857444824221142', '12.842376971620556', '12.854244192365332', '12.874204101182853', '12.869400506588468', '12.871815170035575', '12.877084255548485', '12.894204052869739', '12.895523745761096', '12.901269797396969', '12.909254767069504', '12.917617295699852', '12.941109479482003', '12.946651758464645', '12.962183325203778', '12.955835080901291', '12.96100365349809', '12.982019516035532', '12.990402660127275', '12.987420502940932']</t>
+  </si>
+  <si>
+    <t>['20860.367889420722', '20866.575801291223', '20868.355818156608', '20861.284427949755', '20860.79630855924', '20858.188715764238', '20858.491429711303', '20876.56994048973', '20882.02564799327', '20877.14499463654', '20882.352491820297', '20885.8389409232', '20883.27299549626', '20882.931098729074', '20892.55352484795', '20898.791447666372', '20902.269580675278', '20912.32443831281', '20915.138505029976', '20921.419957775306', '20926.352452383286', '20933.668370580966', '20937.473384415953', '20940.028210242825', '20948.167464749476']</t>
+  </si>
+  <si>
+    <t>['2.280451995228491', '2.291698631116526', '2.2882379529488666', '2.2844678924441197', '2.2866731446561737', '2.2867264533837712', '2.2882836474277237', '2.291738003647802', '2.2947353976744034', '2.295029958883634', '2.295582849291267', '2.294622056904498', '2.2914025222628154', '2.290196337480916', '2.2878225302159243', '2.2860360967536937', '2.286074229233013', '2.2860745758956784', '2.2858450106182384', '2.2845277143279104', '2.2840040150907646', '2.282993961879122', '2.2808186236445134', '2.2803733879788988', '2.2812891200715995']</t>
+  </si>
+  <si>
+    <t>['175.07310680068633', '175.0890933778243', '175.02864448207447', '174.93735719192577', '175.2541750885307', '175.51390570997975', '175.34914305219525', '175.38075960675138', '175.41542861476353', '175.35713035012571', '175.24306634603315', '175.3309616292353', '175.58846870709814', '175.62858478874514', '175.59540556554023', '175.5667682674324', '175.6092121858632', '175.62505072516086', '175.61589464068723', '175.6393114959341', '175.48007554653367', '175.44602914018446', '175.44259291501774', '175.48980741432564', '175.61563545234085']</t>
+  </si>
+  <si>
+    <t>['22.142064779796407', '22.164939310219403', '22.14737218022088', '22.148635934004062', '22.1617825930069', '22.16635791613517', '22.158798863148235', '22.183348840106962', '22.19634092646549', '22.175115989129527', '22.163417380820878', '22.17686975559914', '22.18839976892854', '22.188959912088873', '22.206719485806182', '22.230798328151266', '22.24608468952543', '22.270701132385724', '22.285553788900206', '22.317544333020265', '22.30993552018348', '22.29215662749411', '22.286785925378656', '22.29392438489228', '22.30458750695363']</t>
+  </si>
+  <si>
+    <t>['2.3235886413395455', '2.326338035236571', '2.3272349521487845', '2.3292057276032105', '2.332622401288986', '2.334856513221641', '2.3289385189377976', '2.327042948357981', '2.3241847089499035', '2.321767489870632', '2.317601872702924', '2.318412004705395', '2.3288172873907347', '2.3311560982811717', '2.3315997982658265', '2.3346207249700117', '2.335641085486076', '2.344513562366177', '2.346572063787037', '2.3433982382286085', '2.3349644038411337', '2.333440060663533', '2.3204864874231332', '2.3159254616878386', '2.3158669497834286']</t>
+  </si>
+  <si>
+    <t>['5.1590257824315735', '5.160402487950435', '5.161056788129284', '5.157727390780225', '5.157901836129712', '5.160888607998732', '5.161258470270545', '5.159775986257437', '5.1599078375185385', '5.160603806898522', '5.160143013949391', '5.159377735281299', '5.159950502807884', '5.158599857441171', '5.157537891679849', '5.159700969060491', '5.160719839121981', '5.15926373755727', '5.157171104905458', '5.149415933773569', '5.149981102582672', '5.150846662228487', '5.150577176387564', '5.151235802505651', '5.15331080261866']</t>
+  </si>
+  <si>
+    <t>['125.63716184091408', '125.83125063291558', '125.58138070153575', '125.64288803376964', '125.78405569802274', '125.74013721076047', '125.6612974408356', '125.71309681723427', '125.58367452134549', '125.48765462169163', '125.59949048175405', '125.67283655081752', '125.63350833317809', '125.5794780152234', '125.65574853912238', '125.7405560441017', '125.79741441410944', '125.75713997773013', '125.75167471027554', '125.83695034710266', '125.84490621831267', '125.74998765697374', '125.74015364756661', '125.76883960715902', '125.68972962692912']</t>
+  </si>
+  <si>
+    <t>['1.5496065226516804', '1.5499220469609434', '1.5496597225528108', '1.5488703769487784', '1.5529022182123051', '1.554032519035899', '1.5526792995391039', '1.5530722044796188', '1.5534054430764075', '1.5512885564939607', '1.550373483891388', '1.5506234087556119', '1.5511348685476751', '1.5519286765181348', '1.553418615227719', '1.5550422429758126', '1.555884252001309', '1.5603937725978492', '1.5654798596505715', '1.5686728495632731', '1.5720895565205537', '1.5747984833278519', '1.5733165057140082', '1.5687211802925', '1.5676158918666738']</t>
+  </si>
+  <si>
+    <t>['0.08700127267508782', '0.0870796488985164', '0.08701410574082416', '0.08702457655110066', '0.08712356258513024', '0.08713816608450632', '0.08705449459322066', '0.08710209705011104', '0.08712348928296636', '0.08709364411645187', '0.08712129918551359', '0.08720038294579055', '0.08723297856750777', '0.08721001203042653', '0.08722601185817258', '0.0872547353296257', '0.08728132558496263', '0.08741243797435297', '0.08761680847468685', '0.08764973293536994', '0.08767644637703907', '0.08768019600062804', '0.08769103670418986', '0.08767313428199026', '0.0876290140263092']</t>
+  </si>
+  <si>
+    <t>['0.2331345212152189', '0.2334621216021266', '0.23322518023246397', '0.2330238320482902', '0.23322717424405617', '0.2333156130878764', '0.23323143665838214', '0.23335775663368016', '0.23367430105246353', '0.2335581777736183', '0.2334596361631128', '0.233591832785233', '0.23392319493454614', '0.23389714244451162', '0.23403785379711953', '0.23427592061561955', '0.23444502038510018', '0.23513668870939414', '0.2352859516137206', '0.23545976075675507', '0.23526629212773645', '0.23509698921520647', '0.23488697845473872', '0.2347696939173417', '0.23473609363810194']</t>
+  </si>
+  <si>
+    <t>['1698.2709179875194', '1698.813488836398', '1699.9402115027892', '1698.2684250961738', '1695.409657969588', '1699.2944158537132', '1698.8772959055636', '1699.965386495853', '1701.4161679319136', '1704.9581415838604', '1705.8125949288824', None, None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
+  </si>
+  <si>
+    <t>['4.7960600234569375', '4.809897295008823', '4.799837659509159', '4.790335115109193', '4.783523840338456', '4.773810669262623', '4.757372302973564', '4.756536735764847', '4.771858109342167', '4.764562256097831', '4.764992067625721', '4.765380654560604', '4.766809999945687', '4.766662339197227', '4.770419170328142', '4.7788722418362095', '4.7821718103193955', '4.794834164708689', '4.798290597284279', '4.796438359578128', '4.777839589448943', '4.772374451820929', '4.760766147564089', '4.7602109995922195', '4.761040395171068']</t>
+  </si>
+  <si>
+    <t>['0.6833588027071922', '0.6906593287660471', '0.6921088097241453', '0.6921946688901714', '0.6974917792739299', '0.7024331236322997', '0.6996555007037076', '0.6995751078093262', '0.698322270519561', '0.6978177921142104', '0.6952743709371118', '0.6970087360300764', '0.7017203939990562', '0.7042002756175074', '0.7060880501362033', '0.7095451049500361', '0.7098545002251861', '0.7130395974111117', '0.7146996118224896', '0.7147665940471403', '0.7138580272568797', '0.7151231175460623', '0.719379941907851', '0.7216211515551587', '0.721051786509726']</t>
+  </si>
+  <si>
+    <t>['0.635141538229927', '0.6396238689363939', '0.6386646437504652', '0.6411641899122033', '0.6464031855010505', '0.6499742287391744', '0.649320390215024', '0.6501334435400322', '0.6486131032858236', '0.6479612778071321', '0.6470998036589394', '0.6483252072893614', '0.6497252303947966', '0.6511687331041092', '0.6552589412806852', '0.6585194277612453', '0.6591607780317084', '0.665192012340624', '0.6681264742069589', '0.6701775621163676', '0.6725793514340792', '0.6750722626732256', '0.6830506311861546', '0.6834862115559973', '0.6825935877917808']</t>
+  </si>
+  <si>
+    <t>['5.144829429550725', '5.1463826398430434', '5.137904177936083', '5.123830608224405', '5.126215726867083', '5.127013119231704', '5.117988874243386', '5.121197601538789', '5.138958400350402', '5.137722575453446', '5.1377159551501865', '5.139555304387408', '5.142791573290173', '5.140611980104123', '5.13359809405068', '5.119382095962523', '5.116861504254265', '5.1110953499240415', '5.110021560412355', '5.115915328970023', '5.1178477938300775', '5.1140123833357745', '5.105611687254257', '5.102544525093817', '5.103043163021817']</t>
+  </si>
+  <si>
+    <t>['7.856620479080107', '7.852497227011359', '7.85822201024425', '7.886386537244829', '7.964704985427617', '8.064601163279267', '8.084550884635467', '8.125029545048656', '8.265575239993971', '8.23655562039355', '8.150102167496058', '8.118075254625733', '8.068182957329203', '8.058336746592401', '8.081714137176595', '8.112297079889267', '8.104022895556122', '8.13495818729075', '8.149964553738554', '8.140141571523628', '8.104829115604138', '8.107442913804219', '8.123050377040009', '8.126868942699778', '8.125102191191871']</t>
+  </si>
+  <si>
+    <t>['13.975886741213476', '14.097297993409075', '14.16531934639847', '14.228999658067536', '14.216796241915448', '14.129998562044845', '14.109438938093582', '14.059167849219946', '14.034424813854086', '14.071797049426273', '14.126456117586867', '14.112249862399192', None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
+  </si>
+  <si>
+    <t>['0.020929745319723726', '0.020929251299173637', '0.02091699530190502', '0.02088714800434962', '0.02090241282095084', '0.02092959064083435', '0.02091660603074814', '0.020921510266396555', '0.020951019805054687', '0.02094750659665234', '0.020944619790123187', '0.020953404538705193', '0.02097107740311999', '0.02098154130666918', '0.02098357139046093', '0.02097613227794535', '0.020978382805269525', '0.021005045371011943', '0.021025793440100592', '0.02103437036432544', '0.02104647014255224', '0.021061668110991614', '0.021090052853082217', '0.0211084228896485', '0.021119765027466236']</t>
+  </si>
+  <si>
+    <t>['0.9986561342303578', '0.9986573008500943', '0.9989394631106687', '0.9989850978379053', '0.9988309782735979', '0.9986460947238969', '0.9986701431836966', '0.9992239489229341', '0.9987831827737768', '0.9986565495135848', '0.9989074428317021', '0.9986779099225198', '0.9983747962189439', '0.9983764469859923', '0.998388233346818', '0.9984687677254164', '0.9984721542230087', '0.998064241570866', '0.9975085170961029', '0.9975210931824013', '0.9978339272469746', '0.9983290611349719', '0.9983331226166041', '0.9982622507839243', '0.9980751106693635']</t>
+  </si>
+  <si>
+    <t>['2.176053812107741', '2.1803789131662024', '2.179137397602859', '2.1744071378599994', '2.177619920597873', '2.180504102262403', '2.1827403207376705', '2.1873797653009666', '2.1995575894096775', '2.197602152304631', '2.1946866811843666', '2.1951329189621713', '2.195592777653908', '2.195107041819424', '2.1945447014826627', '2.192662181631441', '2.1938321373293768', '2.206207990130647', '2.2117673663162796', '2.213901397629802', '2.2126642219953365', '2.211170189370819', '2.208170325427595', '2.2071390889402642', '2.2062073674885805']</t>
+  </si>
+  <si>
+    <t>['3.712296898025975', '3.7130235194199512', '3.7116457282214426', '3.709713551092054', '3.711830607718701', '3.714592720588794', '3.7120314771415583', '3.7114920816368877', '3.7181709466233497', '3.7217739186779335', '3.719262192650558', '3.7194776127552514', '3.72203855391029', '3.723249665232767', '3.7242435856932863', '3.7259193741710286', '3.7265383576354805', '3.7306920998393194', '3.7331209367650464', '3.7337217926320716', '3.7309032571611445', '3.7314402544723713', '3.732722214897858', '3.7335685260943174', '3.7346433032720427']</t>
+  </si>
+  <si>
+    <t>['0.051946513271320674', '0.05201849965245842', '0.051979002425101964', '0.05193593036160434', '0.05201454921923187', '0.052073425718635054', '0.05206965305221281', '0.05209654791528831', '0.05216379279424278', '0.05216194917734068', '0.05220526815184793', '0.052230639978956335', '0.05231497613526571', '0.052338703668399295', '0.05235156784293513', '0.052358545693709374', '0.05237615848622275', '0.052474238499731395', '0.052484594370705115', '0.052468360283766384', '0.052373711110101306', '0.052353002297570075', '0.052376719786232206', '0.05239034053269261', '0.05236590590655202']</t>
+  </si>
+  <si>
+    <t>['130.1971740432013', '130.35931044306827', '130.31499939107786', '130.16322586006885', '130.36551799823957', '130.48831786228521', '130.47406309168298', '130.65920981806593', '130.87270907085636', '130.78819744571155', '130.67019105018775', '130.70596373912412', '130.8748547028881', '130.85854273506965', '130.86453303458794', '130.83503220906903', '130.8853586648836', '130.95521080927114', '130.9698815395212', '131.0927757560688', '131.20814378403378', '131.12441961417306', '131.10578990369734', '131.0558552901057', '131.0377691313983']</t>
+  </si>
+  <si>
+    <t>['0.000181609206266572', '0.000181646437297543', '0.000181436158200878', '0.00018106783674851', '0.00018140241786387', '0.000181611066095354', '0.000181103057564396', '0.00018128292223598', '0.000181959670330741', '0.000181920843689834', '0.000181989686637775', '0.00018201221366428', '0.000182135603499616', '0.000182150914546798', '0.00018227693231555', '0.000182460883152452', '0.000182467242260349', '0.000182791331291161', '0.000182880869159244', '0.000182971486955016', '0.00018288100824828', '0.000182797268171967', '0.00018265436339156', '0.000182571980645388', '0.000182758361056538']</t>
+  </si>
+  <si>
+    <t>['0.07375729526632056', '0.0737821945034899', '0.07377985506162862', '0.0738204227943923', '0.07379264843253955', '0.07379638036838423', '0.07379856161085098', '0.07386024659742912', '0.07383727069015653', '0.07382910015750008', '0.07384724455303535', '0.07390242061179741', '0.07389663016472012', '0.07389361485239147', '0.07393529447905427', '0.07400512263385824', '0.07408536003629151', '0.07410385019315945', '0.07412111937019987', '0.07421324603653123', '0.07416433219590349', '0.07408854069069301', '0.07410250582411236', '0.07414424106331302', '0.07414937200858047']</t>
+  </si>
+  <si>
+    <t>['80.0836991671533', '80.36510663856828', '80.384111009709', '80.6537468625914', '80.63223125231546', '80.56936100631158', '80.48821174955793', '80.54817718911325', '80.59970993200136', '80.49382290884205', '80.40304464466463', '80.40825705397573', '80.4064577639459', '80.39570240104487', '80.35069111969419', '80.29316659999175', '80.2069280796996', '80.18073103930882', '80.18380640408878', '80.31771457092701', '80.38323689125019', '80.40057465906082', '80.54027031502767', '80.59034731026935', '80.70760213974773']</t>
+  </si>
+  <si>
+    <t>['0.567906779053639', '0.568251783151744', '0.5674888747830641', '0.5662314214517098', '0.5666352415013244', '0.5671946227924352', '0.566785761351133', '0.5664944370886579', '0.566747658428374', '0.5668013617433793', '0.5671157254678856', '0.5677564542003414', '0.5681651439214686', '0.5680901146097367', '0.5683660691340853', '0.5686287360002192', '0.5689940953360816', '0.5694139752344717', '0.5696734523014307', '0.5702463007782163', '0.570276284468384', '0.5702269231261577', '0.5708229681656714', '0.5711220249690765', '0.5715811044881057']</t>
+  </si>
+  <si>
+    <t>['1.0807972181547862', '1.083405497332902', '1.0825727971276933', '1.0799157999859457', '1.0814641365459698', '1.082282682504914', '1.0814236895735725', '1.08331715900222', '1.0861185920482188', '1.0856167672001964', '1.0857355558484154', '1.0868319843050354', '1.0898086444034387', '1.0895085781213112', '1.0897077422572474', '1.0885700218999839', '1.0888610548452393', '1.091363341828052', '1.0932192243916645', '1.0973733524445883', '1.1013103437851217', '1.0996309219098748', '1.0976273316925282', '1.0971947477276645', '1.097556368553512']</t>
+  </si>
+  <si>
+    <t>['8.27229327883504', '8.263730578941727', '8.244102138411462', '8.226580060296643', '8.22654999120584', '8.219114884013361', '8.186532997939198', '8.192726753500368', '8.218948254160486', '8.20433144767504', '8.181018335028662', '8.188301824187073', '8.212530117573428', '8.213668333108721', '8.203194293877882', '8.16473475423773', '8.158909409775173', '8.194378173038174', '8.206390957641828', '8.227174662862563', '8.237372094263037', '8.22164540001921', '8.173564348189428', '8.159904829957098', '8.16750692889023']</t>
+  </si>
+  <si>
+    <t>['1.0585277535115487', '1.0594305768423413', '1.058849228543867', '1.0597573128363174', '1.061303964933643', '1.061678389143096', '1.0613511248132135', '1.0622906381008845', '1.0619051544439684', '1.0614814183496049', '1.0621509149796022', '1.0629570383532094', '1.063418193473016', '1.0633191258286914', '1.0638872608929073', '1.0644497482651105', '1.0647443565550834', '1.0653737392633054', '1.0653403544821596', '1.0657459366788236', '1.0646667916868633', '1.064316986159579', '1.0646127141473323', '1.0648521662812152', '1.0647744916202362']</t>
+  </si>
+  <si>
+    <t>['0.1369240216579876', '0.1370315432434843', '0.13691457192702103', '0.13684856632117473', '0.1369722969314718', '0.13703206063675502', '0.13700228167946651', '0.13712244846890567', '0.13721838752539178', '0.13716192535694696', '0.13725251818337683', '0.13728443896242343', '0.13736681488828903', '0.13735839725488236', '0.1374315540424938', '0.13763508391572543', '0.13773049101973914', '0.13788818807110453', '0.13795408353122782', '0.1380028266741361', '0.1377920471166737', '0.13771454177540007', '0.1376900246290555', '0.13770639576717333', '0.13778396040336333']</t>
+  </si>
+  <si>
+    <t>['0.995877419619003', '0.995424481694014', '0.9956116412672693', '0.9957567577885079', '0.9958916201940498', '0.9959727084350362', '0.9955336598873209', '0.9951976342912192', '0.9957685301614465', '0.9961500870885799', '0.9955744945459981', '0.9950943859374963', '0.9957714865506821', '0.9962473803701278', '0.9957057600498299', '0.9953165495388409', '0.9957309172056837', '0.9958470672431377', '0.9955100069955128', '0.9948006095079406', '0.9953787697980888', '0.9958346487966337', '0.9958329996186216', '0.995889695620014', '0.9959065175193136']</t>
+  </si>
+  <si>
+    <t>['40.195460068181774', '40.271448264573955', '40.26001981552653', '40.188419379168494', '40.21744501826277', '40.25114733196428', '40.261072814701365', '40.3022478312019', '40.3377029110958', '40.294049527309795', '40.270407166667376', '40.30265771185519', '40.34948103989859', '40.35420386753283', '40.370976883265875', '40.42890332814306', '40.4637307103051', '40.52452160380522', '40.56249825337596', '40.67522634311869', '40.779667187861556', '40.75530241239019', '40.744640842134736', '40.73684283008492', '40.75013877252057']</t>
+  </si>
+  <si>
+    <t>['1.0184143431254842', '1.0200858451478005', '1.0191659771281854', '1.017546258967735', '1.0180740176045389', '1.0183360342195802', '1.0179642525250698', '1.0185916474012875', '1.019932735668591', '1.0196561018135455', '1.0194462133343436', '1.0200200612075592', '1.021994207153058', '1.0222626997437247', '1.0224893973939744', '1.0227067613344114', '1.0229077599254017', '1.0235270944969506', '1.0236524368341853', '1.0240698041242946', '1.0234958636736347', '1.0233728022087576', '1.0228396865871026', '1.0226792569429848', '1.022880777848445']</t>
+  </si>
+  <si>
+    <t>['0.9223056415172408', '0.9253268073351909', '0.9249306491617185', '0.9223473807353705', '0.9234454381560409', '0.9244175133864845', '0.9231163316807179', '0.9236824618212987', '0.9256045532138422', '0.9253518718726442', '0.9257529437903984', '0.9264729316341942', '0.9283096923626262', '0.9285568200183915', '0.9292590911401829', '0.9306721031507874', '0.9306817475539841', '0.9321689304599015', '0.9322270424961994', '0.9313701868896576', '0.9286895922627375', '0.9287065923017683', '0.9299642335301385', '0.9304275715604813', '0.9308475511197708']</t>
+  </si>
+  <si>
+    <t>['1.000924764477433', '1.0001799998546848', '1.0002772184754964', '1.0003917292173328', '1.000565755728301', '1.0002178166757285', '0.9999840698438919', '1.0007228311406322', '1.0008088272789415', '1.0000247448102415', '0.9998273336710118', '1.0000590903220534', '1.000584994988289', '1.0005829265177657', '1.0000387241687303', '0.9999031748311956', '1.012030908066538', '1.060449118907212', '1.0604582283068162', '1.059708844549314', '1.0603966650771492', '1.048263474967745', '0.9994427938220184', '0.9994407494930428', '0.9996053432142703']</t>
+  </si>
+  <si>
+    <t>['44.66408574806021', '44.68893124087302', '44.6483311653605', '44.64109087958722', '44.693417390409614', '44.7305327870823', '44.70803238607032', '44.73518977161236', '44.73807231365985', '44.71731335309674', '44.72541310080619', '44.730076313087935', '44.73483006942373', '44.752373082982885', '44.77910618104972', '44.802843156362655', '44.800230988192396', '44.81169143479519', '44.80253432407955', '44.81070543446568', '44.87787873324377', '44.89757662016694', '44.90043673543936', '44.89492373357224', '44.89948680060701']</t>
+  </si>
+  <si>
+    <t>['1.2997291942125453', '1.2997541433101085', '1.2985442533156102', '1.2979545342653733', '1.3008690232726094', '1.3049466002865076', '1.3091165211305633', '1.3099517434154604', '1.3085873673676702', '1.3080184537400588', '1.309493116764878', '1.3105839098073586', '1.3160614575149332', '1.3177481868703345', '1.318522155782692', '1.3188479879206254', '1.3195078625562884', '1.3198577109323177', '1.31990555654951', '1.3212486842058175', '1.3201636774909447', '1.3197149054504373', '1.318159280863512', '1.3170422878867258', '1.317158468466265']</t>
+  </si>
+  <si>
+    <t>['45.0237360766369', '45.039678200556764', '44.97388448748985', '44.94680221363958', '45.04468715806893', '45.12221669871307', '45.12017144239954', '45.117474454574484', '45.09071419886129', '45.06518458223311', '45.07948034988309', '45.12053160616948', '45.206973858693296', '45.23536073801101', '45.26074843746675', '45.30121506022512', '45.34937650536756', '45.45212597465983', '45.45822508081529', '45.47894503059682', '45.40541524614511', '45.39776619599271', '45.36564213756743', '45.35320229338558', '45.35725517594682']</t>
+  </si>
+  <si>
+    <t>['1.939966394004849', '2.0934917388664025', '2.103464879282449', '2.077551195152836', '2.2636536049453095', '2.2731541889313105', '2.221026063192243', '2.1565227083586134', '2.1048725104414236', '2.1125216721902516', '2.1275859148393264', '2.1297857191592815', '2.1521627871084332', '2.1573530477140337', '2.1897169828680156', '2.253463622472621', '2.2553081681280207', '2.2012276156623956', '2.187226964969391', '2.173850104159374', '2.1494539291125565', '2.147441046201558', '2.1425293894111497', '2.143114887340492', '2.1544109586366536']</t>
+  </si>
+  <si>
+    <t>['0.19291172748158145', '0.19367090640610873', '0.19395724248741142', '0.19419337968160635', '0.1944909225950603', '0.1946527176477553', '0.19368487970726128', '0.19339418754681315', '0.19344090582656187', '0.19348591092994105', '0.19384477864251928', '0.19421185333399044', '0.19698004987924272', '0.1978594505649195', '0.1977961120953723', '0.1973079869989518', '0.197150822257173', '0.1957295624308598', '0.19530728848785806', '0.19566151983260022', '0.1963566337005734', '0.1963916815946811', '0.19706440255628455', '0.19735833588982454', '0.1977199722157141']</t>
+  </si>
+  <si>
+    <t>['0.968645347775579', '0.9688088353785753', '0.9689771413154289', '0.9691275108607532', '0.9683378956234735', '0.9682558414385112', '0.9693416654012332', '0.9688888229850491', '0.968341408859108', '0.9690232868665103', '0.9693057975835083', '0.9690954873152473', '0.9682747379292416', '0.968254087815794', '0.9687682215143354', '0.9690149406568965', '0.9687627792842626', '0.9679205148384307', '0.9678894257704855', '0.9666998875584515', '0.9662316490446318', '0.9665104623816528', '0.9676668124490724', '0.9676736067644236', '0.9677806692321']</t>
+  </si>
+  <si>
+    <t>['698.212294640593', '698.8881804194838', '698.4097143359592', '698.3646648385063', '699.1738101246945', '699.7047206134966', '699.7718600590472', '700.3989098184261', '701.0330659517707', '701.720814420475', '703.0386927366291', '703.6339089097085', '704.7024736833698', '704.9442140740945', '705.5812881056465', '706.568196924505', '707.2932560581446', '708.4223599383386', '709.0718781797111', '710.6650846968905', '710.7759413042617', '710.2224908935509', '710.0700513608444', '710.2065125445308', '710.6756546148407']</t>
+  </si>
+  <si>
+    <t>['2.204526091395069', '2.210452887462221', '2.2095918650580284', '2.2078495375115037', '2.2105884217102494', '2.2137815076742227', '2.219816023152577', '2.2252030113454846', '2.2358496640070054', '2.2351139949916616', '2.2336173631738445', '2.2367732519426484', '2.240691330375474', '2.2415122546111954', '2.241973544958617', '2.2446345755758537', '2.247302449340022', '2.2517302676043642', '2.249838376525221', '2.2458017031353834', '2.234435239508187', '2.233816118759485', '2.2332742320366084', '2.232309613752201', '2.2288199200416376']</t>
+  </si>
+  <si>
+    <t>['7.27565720344e-7', '7.27591200404e-7', '7.2821868643e-7', '7.28069924886e-7', '7.27878535473e-7', '7.27616544257e-7', '7.27534674011e-7', '7.28317411943e-7', '7.27568714506e-7', '7.26695367298e-7', '7.26823298985e-7', '7.27048699263e-7', '7.27261079399e-7', '7.27336915197e-7', '7.27389668143e-7', '7.27429400273e-7', '7.27328178301e-7', '7.27214782521e-7', '7.27012688089e-7', '7.26941691439e-7', '7.27187347667e-7', '7.27559705981e-7', '7.27675028144e-7', '7.27738458971e-7', '7.27535908888e-7']</t>
+  </si>
+  <si>
+    <t>['5.20951549189154', '5.234218402856167', '5.240340840868982', '5.242180330982863', '5.258046118967736', '5.260101921329386', '5.238308423064674', '5.236559374636658', '5.241462843810381', '5.233195330623129', '5.223548067003258', '5.225274294983159', '5.23247918251577', '5.233910145004421', '5.241257199464328', '5.256342103619051', '5.2608697295723434', '5.272994208947577', '5.273049091559488', '5.269420054516913', '5.2540050701259124', '5.2517612124552375', '5.242485535023833', '5.23864666098542', '5.230547044809455']</t>
+  </si>
+  <si>
+    <t>['0.8413101995222942', '0.8424147553394504', '0.8416755037291107', '0.8416672126976764', '0.8434990708640462', '0.8446975803950423', '0.8448551471812085', '0.846221109531152', '0.8451120635460868', '0.8432150888012541', '0.8431149081493162', '0.8433100436675512', '0.8428160443452294', '0.8421880970915899', '0.8431266036242712', '0.8437438180729255', '0.8443866092217035', '0.8452785634650415', '0.8450298375091199', '0.8467437649580445', '0.8468932442715091', '0.8465183230258275', '0.8473036542197662', '0.8479365372381905', '0.8480264455459409']</t>
+  </si>
+  <si>
+    <t>['0.21776242796564887', '0.21851360225799982', '0.21835278809422126', '0.2177082417609836', '0.2183226570112023', '0.21876316996124043', '0.2180153909583554', '0.21798611899579612', '0.21831838706609802', '0.2182399146465475', '0.2182607642635894', '0.21835379851411155', '0.21867487412472647', '0.21865954829711814', '0.21872257600848732', '0.21866176449171684', '0.21869544753788395', '0.21899403579829324', '0.21911232281386586', '0.21906248693528765', '0.2185996948586321', '0.2186056582329288', '0.21870406084939553', '0.2187752773622901', '0.21879172022552826']</t>
+  </si>
+  <si>
+    <t>['7.893336419002264', '7.892652009612462', '7.893127252092034', '7.896082842310249', '7.898635190816005', '7.892064863947939', '7.893306739046432', '7.894507817660862', '7.8992224083219185', '7.899536029188372', '7.906813781475361', '7.906823190341827', '7.906849253473822', '7.906649947416798', '7.90666293479737', '7.906869642189826', '7.911522930574999', '7.911539251263617', '7.911912201850119', '7.922700359627411', '7.9227299575841235', '7.922576670018013', '7.918268918887728', '7.9182620570557605', '7.918235709023492']</t>
+  </si>
+  <si>
+    <t>['0.00003026728400586', '0.000030253372675098', '0.000030235976587933', '0.00003017752753854', '0.000030201029094043', '0.000030220866431857', '0.000030178925165962', '0.000030182547168272', '0.000030253102447523', '0.000030233720972323', '0.000030204534146581', '0.000030215362367797', '0.000030294729226895', '0.000030319572878245', '0.000030308865842014', '0.000030291134040871', '0.00003029471933961', '0.000030349870900228', '0.000030381658191279', '0.000030381320404934', '0.000030352232557848', '0.000030349160482392', '0.000030305223818296', '0.000030287071891408', '0.000030281322071051']</t>
+  </si>
+  <si>
+    <t>['0.3302481570083291', '0.33088378853134454', '0.3306305446570022', '0.3298813162654097', '0.33057142155112024', '0.33118983024370097', '0.3308529433792222', '0.3309651224691239', '0.3310858182820638', '0.3307593845468568', '0.33023468584269194', '0.3302652687594587', '0.330404279621247', '0.33031285485642364', '0.33064496977573204', '0.3312159249742487', '0.33127287858329396', '0.33190919198362434', '0.3322343179127664', '0.33245522955061146', '0.33239111607819066', '0.3322213215484546', '0.3316280995865511', '0.3313144012232993', '0.3313265323127569']</t>
+  </si>
+  <si>
+    <t>['51.497383637659475', '51.5812147094079', '51.508609498007154', '51.431423017914305', '51.52113547610248', '51.6295425202384', '51.60123261834006', '51.62565573076673', '51.64244576940409', '51.61600397032144', '51.61752155571826', '51.66647234371712', '51.77549254169977', '51.75679853305013', '51.78879982068453', '51.7888756373491', '51.820796123659115', '51.88253541273553', '51.897096281510116', '51.90926953846333', '51.807683449229735', '51.78041204828442', '51.75838771862046', '51.762283755642166', '51.79060171292048']</t>
+  </si>
+  <si>
+    <t>['9.159252235170923', '9.208311414496853', '9.209008254956105', '9.184423515662766', '9.246713395093378', '9.303208162584648', '9.28515492934149', '9.273249563071536', '9.252940097007288', '9.237529077566982', '9.20737297460809', '9.216239211152047', '9.258448939776466', '9.276888581529715', '9.286605894972132', '9.310297353560294', '9.31637962253869', '9.349115424193318', '9.36081963655519', '9.343981744648207', '9.289501394861173', '9.285839572516098', '9.291228749180254', '9.291713706286503', '9.287745397870529']</t>
+  </si>
+  <si>
+    <t>['3.7621958923541396', '3.761586600448653', '3.760688711576033', '3.760523796703002', '3.760533348513819', '3.761029957813216', '3.7605550116638353', '3.7598099088124792', '3.7619340980054043', '3.766112400065094', '3.7691634040736455', '3.7714581121298307', '3.7722407126798485', '3.7702222322651044', '3.7655327609337843', '3.7621631289470256', '3.7653341371188307', '3.7699775446227486', None, None, None, None, None, None, None]</t>
+  </si>
+  <si>
+    <t>['7.68351495834905', '7.693935470472521', '7.6860915401880465', '7.681412131204588', '7.6860956629744805', '7.687608074267955', '7.690123265557855', '7.693044455868518', '7.692260121760903', '7.686933359536539', '7.688643081465226', '7.692238198974138', '7.700628323554038', '7.700149502498205', '7.704459109640512', '7.711125494167246', '7.714296729798817', '7.715299582101449', '7.715275795503718', '7.714619934677681', '7.702109591832923', '7.701124867023428', '7.707215438953906', '7.711831095185182', '7.7133930079325514']</t>
+  </si>
+  <si>
+    <t>['6.768628745131351', '6.761938966830362', '6.753376265198597', '6.755122867795901', '6.756783453919725', '6.764475246646398', '6.765786666525747', '6.76204382464896', '6.766797059475334', '6.7598249662763', '6.766697523027753', None, None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
+  </si>
+  <si>
+    <t>['0.025118168642838237', '0.025157060087713835', '0.02518106610000308', '0.025147633173204908', '0.025168242210649495', '0.02515166478436705', '0.02513294808389099', '0.02513109724976971', '0.0251856124578254', '0.02519258996180128', '0.025182295060463374', '0.025192773103798458', '0.025191399073776672', '0.02516249080523462', '0.025163572977897366', '0.02515294472070316', '0.025142488414904202', '0.025102396264306683', '0.025077639733493678', '0.025083055396922876', '0.025109612110071833', '0.02514601222687708', '0.025147708428708736', '0.025116595248787198', '0.025124702365384798']</t>
+  </si>
+  <si>
+    <t>['1.7418198318524247', '1.7423242811400954', '1.7426415590186928', '1.7406539993585368', '1.7413787163277727', '1.7430110321010983', '1.7422608530450392', '1.7418604424748534', '1.7437726842235641', '1.7449278910310588', '1.745816217423669', '1.7446018097810532', '1.7450488699849163', '1.74713888020303', '1.7476962840624577', '1.7477227860918374', '1.7476372029712577', '1.7486881318931582', '1.750588169494083', '1.7515197101833575', '1.7536369895764206', '1.754745426286288', '1.7566848458088444', '1.7561436837019733', '1.7564835196941433']</t>
+  </si>
+  <si>
+    <t>['28.816450616219615', '28.825364782058266', '28.804715006417645', '28.77916052274839', '28.78274861433558', '28.764211264317108', '28.780260098577106', '28.783673798451563', '28.74694526579746', '28.73078233963744', '28.72396851805696', '28.75185032222964', '28.748944147337333', '28.75380525119995', '28.79523144296949', '28.87759178750104', '28.939419203228272', '29.07036078872213', '29.14594899328859', '29.199466320707067', '29.206217375169796', '29.21331768884556', '29.200768938112752', '29.20560328127951', '29.250487496910225']</t>
+  </si>
+  <si>
+    <t>['1892.3831003824675', '1891.7456080842735', '1892.308288976661', '1892.171259420862', '1892.726080713599', '1892.7242138861436', '1891.9961831667656', '1892.5428203217261', '1892.5103913215928', '1891.6632722234979', '1891.1700025900557', '1891.8538634941108', '1892.2609782258558', '1892.1710828155478', '1891.8480647676488', '1891.6278777766674', '1891.939608952875', '1891.8361293758187', '1891.5966487695982', '1891.1758961745002', '1890.6688768006138', '1890.6459893170445', '1891.0398771621308', '1891.2562686937201', '1891.580742339629']</t>
+  </si>
+  <si>
+    <t>['0.9992963931896549', '0.999065474582534', '0.9986456918999531', '0.998422606990976', '0.9984582714622972', '0.9985879899453032', '0.9983146390421834', '1.0001679548267461', '1.0013205414113366', '1.001047595804453', '1.0007777528930515', '1.0008690245293266', '1.0008802095172942', '1.0010105653947283', '0.9982494826312187', '0.9981385818964515', '0.9981021923433869', '0.998207632366935', '0.9980069273220061', '0.9965467414584933', '0.9960146711665353', '0.9963798532656667', '0.9976054155864829', '0.9978295674209338', '0.998073888338443']</t>
+  </si>
+  <si>
+    <t>['0.7479528909144904', '0.7476648727692892', '0.7471791966008988', '0.7469429195398049', '0.7467567164379997', '0.7470400245637873', '0.7468889992536972', '0.7469532414078821', '0.7468272918219148', '0.7468491840625909', '0.7463118407504459', '0.7466199240365595', '0.7472902730725611', '0.7478601589165064', '0.7485782235223636', '0.7490396231735619', '0.7491170231483755', '0.7495874471997475', '0.7501631448987822', '0.7508461939303996', '0.7510700041114847', '0.7511181842649389', '0.7500618822045088', '0.749571934694295', '0.7494115697142608']</t>
+  </si>
+  <si>
+    <t>['77.68488593520517', '77.87143189297105', '77.72960131821782', '77.72283027382677', '77.74374040714127', '77.7294229320975', '77.69248509575895', '77.78836132789864', '77.85859228430803', '77.95368938136859', '77.97572558774455', '78.13111873454176', '78.19804938748224', '78.16742574315614', '78.10310425265786', '78.11280412670668', '78.08573800774408', '78.05207365937538', '78.05204196572826', '78.11988187101069', '78.124689566527', '78.06624045449047', '77.98158773710084', '77.97600363000267', '77.97663285439157']</t>
+  </si>
+  <si>
+    <t>['0.19190601532402246', '0.19244923911219078', '0.19227546467235232', '0.1919469014805661', '0.19225368674502205', '0.19251591798238038', '0.19234152251278314', '0.1924704831976314', '0.19271497536874702', '0.1925917510885679', '0.19247676983517364', '0.1925558733571939', '0.19277997513136105', '0.192827651746211', '0.19286121684004326', '0.1928758517794285', '0.19298857671545505', '0.193175389125423', '0.1932177339958011', '0.1932666113123624', '0.19317359127549294', '0.1930985982677827', '0.19288591787626103', '0.1928540237280418', '0.1928681865134766']</t>
+  </si>
+  <si>
+    <t>['4.65516510091e-7', '4.65374366189e-7', '4.65614128248e-7', '4.65862172154e-7', '4.66044137993e-7', '4.66066541181e-7', '4.66352324196e-7', '4.66537538288e-7', '4.66351889272e-7', '4.66328749894e-7', '4.66473436986e-7', '4.6654782881e-7', '4.66594952073e-7', '4.6651153223e-7', '4.66429330063e-7', '4.66454188944e-7', '4.66691017605e-7', '4.67308993891e-7', '4.67172489672e-7', '4.67062061707e-7', '4.67217471717e-7', '4.67559735559e-7', '4.68034778096e-7', '4.68040314945e-7', '4.68124983452e-7']</t>
+  </si>
+  <si>
+    <t>['0.022129987246557892', '0.022136031615672867', '0.022122086480390966', '0.02211090277716561', '0.02213283192323377', '0.022126617674916645', '0.02213963468625065', '0.02211824374865589', '0.022124166642060714', '0.02211544676168026', '0.022136961827066724', '0.02210985133082037', None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
+  </si>
+  <si>
+    <t>['0.023126596540691435', '0.023197097115781135', '0.023165055951116266', '0.023053291441411276', '0.023077839887949467', '0.023102075051554857', '0.023074339909345962', '0.023056716725232313', '0.023058365937590475', '0.023025220346453275', '0.022987437159557405', '0.023006746790488322', '0.023049842813925997', '0.023067968155497883', '0.02308925004082268', '0.02313033362871375', '0.023137300886089087', '0.02316261238639297', '0.023165963482631467', '0.02315621834290799', '0.02312900735311947', '0.02311618772158811', '0.02312121853223936', '0.023132599685701617', '0.02314369848672643']</t>
+  </si>
+  <si>
+    <t>['0.002216228933519019', '0.002215043301253344', '0.002223495998886893', '0.002234000906179391', '0.002231776824365183', '0.002231719699821567', '0.002245816448546692', '0.002254378346079054', '0.002267386534928269', '0.002269623506072648', '0.002270732054096856', '0.002271459056204164', '0.002274346992622855', '0.002273260438324994', '0.002274123810061282', '0.002274848482782919', '0.002275218969770228', '0.002276908346882564', '0.00227629116469469', '0.002270306776965724', '0.002265848430693224', '0.002265104813546978', '0.002257623694992095', '0.002258797416693432', '0.002256734974383679']</t>
+  </si>
+  <si>
+    <t>['31.03555955389724', '31.032236607793806', '31.01501034855348', '31.034851884852408', '31.023755159903043', '31.055063378994603', '31.044908460767743', '31.06743194385295', '31.091750347199742', '31.15459107167565', '31.202740318382812', '31.173781561438346', None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
+  </si>
+  <si>
+    <t>['3.8055596630502615', '3.804860424573771', '3.8034725249488646', '3.8201359530935473', '3.8285433536716793', '3.82083415598082', '3.8109028655959025', '3.80949368186607', '3.8173772290735486', '3.817435480537497', '3.8137165533544013', '3.8148009900045134', '3.825372169974595', '3.833957176020685', '3.8389207140149653', '3.8412761237620674', '3.8390308340436574', '3.847670968362456', '3.8638006833952363', '3.8701160230082494', '3.8726155728601053', '3.870518441848937', '3.8616308984224497', '3.8523412549329823', '3.8540739149691694']</t>
+  </si>
+  <si>
+    <t>['0.42740224904227464', '0.42509801549861276', '0.42445387385002104', '0.42369333174620405', '0.4244267814040814', '0.4248255091245223', '0.424747747532658', '0.4256132617055424', '0.4260681780506281', '0.42649801030346646', '0.4271974042752014', '0.4273857596060539', '0.4280754138889634', '0.4281138871638196', '0.4289366905108567', '0.4299345035304993', '0.43020150998666573', '0.43107381131797473', '0.43102933255341813', '0.43031898256759454', '0.43024601962527914', '0.43094544680515195', '0.43317249251647205', '0.4338500024165381', '0.4373697576738766']</t>
+  </si>
+  <si>
+    <t>['0.6271318619398402', '0.6265330575768754', '0.6271037781295611', '0.6276419413462367', '0.6281664829378861', '0.6285426934864509', '0.6306250376446391', '0.6329212561509135', '0.6330274861829958', '0.633160389308666', '0.6336235061228954', '0.6340493192316302', '0.6340286278231406', '0.6332280875797661', '0.6335844594155245', '0.6333704078239965', '0.6333669358407095', '0.633407406287671', '0.6335820413219265', '0.6347383558947509', '0.6331525533204873', '0.6318943394063535', '0.6312814875820364', '0.6310560719246857', '0.6315403549130437']</t>
+  </si>
+  <si>
+    <t>['0.025510307522033183', '0.025555109870516332', '0.025527478641743505', '0.02549682255450191', '0.02552626592171364', '0.025556431440660655', '0.025579750575502228', '0.025612892203172147', '0.025664764490824717', '0.02566144401053678', '0.025671250813473746', '0.02568864240164074', '0.02574523108967702', '0.025747348738945665', '0.025756114309003198', '0.02576351125248634', '0.025763681694926127', '0.025795210641270588', '0.02579656610886506', '0.02577950677714839', '0.025746492166676155', '0.02574299288821544', '0.025791514043851826', '0.025803562637998937', '0.02581940419686012']</t>
+  </si>
+  <si>
+    <t>['0.08813461534049115', '0.08825682877234069', '0.08826854820555557', '0.08861123489017218', '0.08871041860615107', '0.08874704407278616', '0.0889861089989252', '0.08873485750477395', '0.08800769944189389', '0.08771549898576782', '0.08739340669792343', '0.08741254082606095', '0.08752852546733061', '0.0875405956197539', '0.08759914955345183', '0.08771347510925771', '0.08773346813986312', '0.08771223914088294', '0.08769930393382597', '0.08775166823338429', '0.08776225708831768', '0.08781247635546074', '0.087963358635607', '0.08811187976318735', '0.08834437717211509']</t>
+  </si>
+  <si>
+    <t>['0.8565367649359948', '0.8563961105173667', '0.8566294872280127', '0.856859832597815', '0.8565407656821103', '0.8566007300368426', '0.8562889501773214', '0.8563549874452384', '0.8575046640417091', '0.8579182507976284', '0.857614875435083', '0.8578744682446564', '0.8588371143145306', '0.8594579999878253', '0.8594414355960417', '0.8595778687344059', '0.8595362695424816', '0.8599036882387694', '0.8603059973448844', '0.8607962760259043', '0.86085332228854', '0.8613750235381422', '0.861993260613358', '0.8620975573264809', '0.862396425009313']</t>
+  </si>
+  <si>
+    <t>['0.5494765503521403', '0.5495098750246727', '0.5493515866121508', '0.5494588439924701', '0.5497375588192884', '0.5497801580241445', '0.5501855051725161', '0.5506841481773668', '0.5517652094506831', '0.551857873515599', '0.5519443392493161', '0.5519439402560073', '0.5518974265990947', '0.5517767441218748', '0.5516416658464748', '0.5518360030112177', '0.5521557321068804', '0.5538197167044351', '0.5543656387496974', '0.5554240537149064', '0.5561397550662953', '0.5557656499639111', '0.5550024571452347', '0.5547092055733941', '0.5548427805032495']</t>
+  </si>
+  <si>
+    <t>['0.9284908199347623', '0.9284912521712844', '0.9285240735766718', '0.9273692956659427', '0.9273238867608216', '0.9277470850690818', '0.9280893247916215', '0.9280909843276665', '0.9266089815923284', '0.9265950310986045', '0.9276875442116111', '0.9283300239480253', '0.928264407428214', '0.9277160440486364', '0.9276590195114113', '0.9282420786270111', '0.9286080530519987', '0.9284660560704697', '0.9273727933744123', '0.9273205875685955', '0.9265501740881613', '0.9260596367159932', '0.9261859425640103', '0.9267055572305165', '0.9267082618665189']</t>
+  </si>
+  <si>
+    <t>['9.194302449925853', '9.201628823712056', '9.199001436820403', '9.179686896380431', '9.180983444918018', '9.18042715762232', '9.168029033563432', '9.169112508683142', '9.1743689750906', '9.170947568272435', '9.176652951108208', '9.1876273658465', '9.200514301141181', '9.193047653457123', '9.19401402237229', '9.202388471489124', '9.21156009931501', '9.224302471251772', '9.225264636759178', '9.226644801687856', '9.223825358104207', '9.229577089717468', '9.242498638869485', '9.244727682126829', '9.238349335920025']</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/Qwsogvtv82FCd+bitcoin-btc</t>
@@ -2647,39 +2647,36 @@
     <t>https://coinranking.com/coin/uW2tk-ILY0ii+polygon-matic</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/zNZHO_Sjf+solana-sol</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/PDKcptVnzJTmN+okb-okb</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/25W7FG7om+polkadot-dot</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/VLqpJwogdhHNb+chainlink-link</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/zNZHO_Sjf+solana-sol</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/25W7FG7om+polkadot-dot</t>
+    <t>https://coinranking.com/coin/Mtfb0obXVh59u+wrappedether-weth</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/D7B1x_ks7WhV5+litecoin-ltc</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/Mtfb0obXVh59u+wrappedether-weth</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/xz24e0BjL+shibainu-shib</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/qUhEFk1I61atv+tron-trx</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/_H5FVG9iW+uniswap-uni</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/MoTuySvg7+dai-dai</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/qUhEFk1I61atv+tron-trx</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/_H5FVG9iW+uniswap-uni</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/N2IgQ9Xme+bitdao-bit</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/dvUj0CzDZ+avalanche-avax</t>
   </si>
   <si>
@@ -2698,12 +2695,12 @@
     <t>https://coinranking.com/coin/hnfQfsYfeIGUQ+ethereumclassic-etc</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/Pe93bIOD2+lidodaotoken-ldo</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/DXwP4wF9ksbBO+huobitoken-ht</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/Pe93bIOD2+lidodaotoken-ldo</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/ZlZpzOJo43mIo+bitcoincash-bch</t>
   </si>
   <si>
@@ -2716,805 +2713,808 @@
     <t>https://coinranking.com/coin/TpHE2IShQw-sJ+algorand-algo</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/CiixT63n3+wrappedliquidstakedether20-wsteth</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/ymQub4fuB+filecoin-fil</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/pxtKbG5rg+thesandbox-sand</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/tEf7-dnwV3BXS+decentraland-mana</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/aMNLwaUbY+internetcomputerdfinity-icp</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/3nNpuxHJ8+fraxshare-fxs</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/SbWqqTui-+energyswap-ens</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/FEbS54wxo4oIl+vechain-vet</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/KfWtaeV1W+frax-frax</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/CiixT63n3+wrappedliquidstakedether20-wsteth</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/SbWqqTui-+energyswap-ens</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/ymQub4fuB+filecoin-fil</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/aMNLwaUbY+internetcomputerdfinity-icp</t>
+    <t>https://coinranking.com/coin/DCrsaMv68+nearprotocol-near</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/ncYFcP709+pancakeswap-cake</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/jad286TjB+hedera-hbar</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/bauj_21eYVwso+quant-qnt</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/FEbS54wxo4oIl+vechain-vet</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/ncYFcP709+pancakeswap-cake</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/jad286TjB+hedera-hbar</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/AaQUAs2Mc+terraclassic-lunc</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/pxtKbG5rg+thesandbox-sand</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/65PHZTpmE55b+cronos-cro</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/ixgUfzmLR+aave-aave</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/Z96jIvLU7+immutablex-imx</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/QQ0NCmjVq+flow-flow</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/HGYj5JCv5+aptos-apt</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/iAzbfXiBBKkR6+eos-eos</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/GSCt2y6YSgO26+chiliz-chz</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/JCKLgWPAF+paxdollar-usdp</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/DCrsaMv68+nearprotocol-near</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/Z96jIvLU7+immutablex-imx</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/3nNpuxHJ8+fraxshare-fxs</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/iAzbfXiBBKkR6+eos-eos</t>
+    <t>https://coinranking.com/coin/omwkOTglq+elrond-egld</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/fsIbGOEJWbzxG+tezos-xtz</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/B42IRxNtoYmwK+thetatoken-theta</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/B8xT718SbVhhh+paxosstandard-pax</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/GSCt2y6YSgO26+chiliz-chz</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/ixgUfzmLR+aave-aave</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/tEf7-dnwV3BXS+decentraland-mana</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/VcMY11NONHSA0+bitcoinsv-bsv</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/omwkOTglq+elrond-egld</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/QQ0NCmjVq+flow-flow</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/B42IRxNtoYmwK+thetatoken-theta</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/fsIbGOEJWbzxG+tezos-xtz</t>
+    <t>https://coinranking.com/coin/ql3Jj4Tge+sushi-sushi</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/aRGRWLf2RYNq4+zcash-zec</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/NfeOYfNcl+ftxtoken-ftt</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/k-J3YwacF+woonetwork-woo</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/z2PZIKQL7+usdd-usdd</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/aRGRWLf2RYNq4+zcash-zec</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/HGYj5JCv5+aptos-apt</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/ql3Jj4Tge+sushi-sushi</t>
+    <t>https://coinranking.com/coin/qFakph2rpuMOL+maker-mkr</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/sgxZRXbK0FDc+synthetixnetwork-snx</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/w4MqH_Xe8+bittorrent-new-btt</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/w5U609Wze+apecoin-ape</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/w4MqH_Xe8+bittorrent-new-btt</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/qFakph2rpuMOL+maker-mkr</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/k-J3YwacF+woonetwork-woo</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/sgxZRXbK0FDc+synthetixnetwork-snx</t>
+    <t>https://coinranking.com/coin/QGbUTVMjG+curvedaotoken-crv</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/LtWwuVANwRzV_+iota-miota</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/LOO6LmXd7G84Z+kucointoken-kcs</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/aQx_vW8s1+ecash-xec</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/uIEWfMFnQo9K_+fantom-ftm</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/C9DwH-T7MEGmo+dash-dash</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/gpRKmM16k+axieinfinity-axs</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/t7m8DZVyMsAu+gatetoken-gt</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/cVaOmQWainv7g+neo-neo</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/frw2fHgZ+tokenizexchange-tkx</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/LOO6LmXd7G84Z+kucointoken-kcs</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/C9DwH-T7MEGmo+dash-dash</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/LtWwuVANwRzV_+iota-miota</t>
+    <t>https://coinranking.com/coin/Ru56fDlLB56-v+ravencoin-rvn</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/ybmU-kKU+thorchain-rune</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/AP-fyKlSf+oectoken-okt</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/YRTkUcMi+paxgold-paxg</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/1ZZI6g5k5royD+trueusd-tusd</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/YRTkUcMi+paxgold-paxg</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/aQx_vW8s1+ecash-xec</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/AP-fyKlSf+oectoken-okt</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/cVaOmQWainv7g+neo-neo</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/QGbUTVMjG+curvedaotoken-crv</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/Hi6jNXshVh9FA+nexo-nexo</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/Ru56fDlLB56-v+ravencoin-rvn</t>
+    <t>https://coinranking.com/coin/IEJOE2-U2+binaryx-bnx</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/M9bj_WrX+klaytn-klay</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/uT6akswu0+apenft-nft</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/lT__vMO7l+compounddai-cdai</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/gpRKmM16k+axieinfinity-axs</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/ybmU-kKU+thorchain-rune</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/M9bj_WrX+klaytn-klay</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/IEJOE2-U2+binaryx-bnx</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/uT6akswu0+apenft-nft</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/uIEWfMFnQo9K_+fantom-ftm</t>
+    <t>https://coinranking.com/coin/drWC87t2Vozh+ankr-ankr</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/sfab31CXM+bloktopia-blok</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/p_GHkOeDNKw0+compoundether-ceth</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/XZfWhQXu8+vulcanforged-pyr</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/NfeOYfNcl+ftxtoken-ftt</t>
+    <t>https://coinranking.com/coin/08CsQa-Ov+wemixtoken-wemix</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/rk5XwL6mIjUDp+celsiusnetwork-cel</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/3jmxrjOJ8xa4p+zilliqa-zil</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/qhd1biQ7M+thegraph-grt</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/yecsF9VkR+osmosis-osmo</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/J7st_qGwz+minaprotocoltoken-mina</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/QUC5kVAxSoB-+mxtoken-mx</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/drWC87t2Vozh+ankr-ankr</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/J7st_qGwz+minaprotocoltoken-mina</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/JY1_q2c0g+babydogecoin-babydoge</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/yecsF9VkR+osmosis-osmo</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/rk5XwL6mIjUDp+celsiusnetwork-cel</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/08CsQa-Ov+wemixtoken-wemix</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/7XWg41D1+arweave-ar</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/SLcGT3CwT+ethereumnameservice-ens</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/qhd1biQ7M+thegraph-grt</t>
-  </si>
-  <si>
-    <t>16842201719</t>
-  </si>
-  <si>
-    <t>6657305249</t>
-  </si>
-  <si>
-    <t>23990814821</t>
-  </si>
-  <si>
-    <t>2259648207</t>
-  </si>
-  <si>
-    <t>517288678</t>
-  </si>
-  <si>
-    <t>833841663</t>
-  </si>
-  <si>
-    <t>6524188785</t>
-  </si>
-  <si>
-    <t>445568125</t>
-  </si>
-  <si>
-    <t>573243232</t>
-  </si>
-  <si>
-    <t>331657030</t>
-  </si>
-  <si>
-    <t>34270766</t>
-  </si>
-  <si>
-    <t>210825766</t>
-  </si>
-  <si>
-    <t>1014943042</t>
-  </si>
-  <si>
-    <t>163473304</t>
-  </si>
-  <si>
-    <t>559526519</t>
-  </si>
-  <si>
-    <t>363225225</t>
-  </si>
-  <si>
-    <t>584225954</t>
-  </si>
-  <si>
-    <t>62254251</t>
-  </si>
-  <si>
-    <t>232090814</t>
-  </si>
-  <si>
-    <t>90954495</t>
-  </si>
-  <si>
-    <t>13611239</t>
-  </si>
-  <si>
-    <t>383848300</t>
-  </si>
-  <si>
-    <t>154548553</t>
-  </si>
-  <si>
-    <t>30406298</t>
-  </si>
-  <si>
-    <t>39243517</t>
-  </si>
-  <si>
-    <t>157771018</t>
-  </si>
-  <si>
-    <t>358913302</t>
-  </si>
-  <si>
-    <t>8744903</t>
-  </si>
-  <si>
-    <t>162449721</t>
-  </si>
-  <si>
-    <t>163752968</t>
-  </si>
-  <si>
-    <t>49059415</t>
-  </si>
-  <si>
-    <t>54333582</t>
-  </si>
-  <si>
-    <t>53749066</t>
-  </si>
-  <si>
-    <t>3573971</t>
-  </si>
-  <si>
-    <t>7194217</t>
-  </si>
-  <si>
-    <t>6098915</t>
-  </si>
-  <si>
-    <t>166081934</t>
-  </si>
-  <si>
-    <t>23615783</t>
-  </si>
-  <si>
-    <t>29215066</t>
-  </si>
-  <si>
-    <t>73561983</t>
-  </si>
-  <si>
-    <t>18206678</t>
-  </si>
-  <si>
-    <t>30144049</t>
-  </si>
-  <si>
-    <t>126030005</t>
-  </si>
-  <si>
-    <t>76558508</t>
-  </si>
-  <si>
-    <t>13728260</t>
-  </si>
-  <si>
-    <t>2806317</t>
-  </si>
-  <si>
-    <t>98902478</t>
-  </si>
-  <si>
-    <t>30231316</t>
-  </si>
-  <si>
-    <t>3581252</t>
-  </si>
-  <si>
-    <t>97555718</t>
-  </si>
-  <si>
-    <t>929159</t>
-  </si>
-  <si>
-    <t>295661354</t>
-  </si>
-  <si>
-    <t>61208939</t>
-  </si>
-  <si>
-    <t>157727632</t>
-  </si>
-  <si>
-    <t>64229269</t>
-  </si>
-  <si>
-    <t>27505247</t>
-  </si>
-  <si>
-    <t>30453807</t>
-  </si>
-  <si>
-    <t>30015870</t>
-  </si>
-  <si>
-    <t>21935088</t>
-  </si>
-  <si>
-    <t>21540466</t>
-  </si>
-  <si>
-    <t>107020075</t>
-  </si>
-  <si>
-    <t>904889956</t>
-  </si>
-  <si>
-    <t>94809322</t>
-  </si>
-  <si>
-    <t>316574676</t>
-  </si>
-  <si>
-    <t>5570377</t>
-  </si>
-  <si>
-    <t>26908835</t>
-  </si>
-  <si>
-    <t>104480258</t>
-  </si>
-  <si>
-    <t>28737567</t>
-  </si>
-  <si>
-    <t>9757989</t>
-  </si>
-  <si>
-    <t>861021</t>
-  </si>
-  <si>
-    <t>95654099</t>
-  </si>
-  <si>
-    <t>6204219</t>
-  </si>
-  <si>
-    <t>30856164</t>
-  </si>
-  <si>
-    <t>8591674</t>
-  </si>
-  <si>
-    <t>6234700</t>
-  </si>
-  <si>
-    <t>7190221</t>
-  </si>
-  <si>
-    <t>31660544</t>
-  </si>
-  <si>
-    <t>64345119</t>
-  </si>
-  <si>
-    <t>7668192</t>
-  </si>
-  <si>
-    <t>15414924</t>
-  </si>
-  <si>
-    <t>1116298</t>
-  </si>
-  <si>
-    <t>85362525</t>
-  </si>
-  <si>
-    <t>32638496</t>
-  </si>
-  <si>
-    <t>21684857</t>
-  </si>
-  <si>
-    <t>3457729</t>
-  </si>
-  <si>
-    <t>11427807</t>
-  </si>
-  <si>
-    <t>91296676</t>
-  </si>
-  <si>
-    <t>35624072</t>
-  </si>
-  <si>
-    <t>34216650</t>
-  </si>
-  <si>
-    <t>191147824</t>
-  </si>
-  <si>
-    <t>1135202</t>
-  </si>
-  <si>
-    <t>36089866</t>
-  </si>
-  <si>
-    <t>37592131</t>
-  </si>
-  <si>
-    <t>2628551</t>
-  </si>
-  <si>
-    <t>7938984</t>
-  </si>
-  <si>
-    <t>2628927</t>
-  </si>
-  <si>
-    <t>922415</t>
-  </si>
-  <si>
-    <t>24330602</t>
-  </si>
-  <si>
-    <t>20326432</t>
-  </si>
-  <si>
-    <t>39262242</t>
+    <t>25542337031</t>
+  </si>
+  <si>
+    <t>7262227208</t>
+  </si>
+  <si>
+    <t>28047036339</t>
+  </si>
+  <si>
+    <t>1913079313</t>
+  </si>
+  <si>
+    <t>717362671</t>
+  </si>
+  <si>
+    <t>864399463</t>
+  </si>
+  <si>
+    <t>7739747039</t>
+  </si>
+  <si>
+    <t>398121124</t>
+  </si>
+  <si>
+    <t>595101089</t>
+  </si>
+  <si>
+    <t>450764224</t>
+  </si>
+  <si>
+    <t>2325356068</t>
+  </si>
+  <si>
+    <t>36165477</t>
+  </si>
+  <si>
+    <t>482370420</t>
+  </si>
+  <si>
+    <t>337035144</t>
+  </si>
+  <si>
+    <t>675425424</t>
+  </si>
+  <si>
+    <t>797940444</t>
+  </si>
+  <si>
+    <t>489666281</t>
+  </si>
+  <si>
+    <t>370875236</t>
+  </si>
+  <si>
+    <t>135679370</t>
+  </si>
+  <si>
+    <t>93621236</t>
+  </si>
+  <si>
+    <t>612113045</t>
+  </si>
+  <si>
+    <t>209790087</t>
+  </si>
+  <si>
+    <t>39748356</t>
+  </si>
+  <si>
+    <t>33199052</t>
+  </si>
+  <si>
+    <t>183445097</t>
+  </si>
+  <si>
+    <t>342569568</t>
+  </si>
+  <si>
+    <t>180700184</t>
+  </si>
+  <si>
+    <t>10417355</t>
+  </si>
+  <si>
+    <t>294886602</t>
+  </si>
+  <si>
+    <t>54376625</t>
+  </si>
+  <si>
+    <t>76721812</t>
+  </si>
+  <si>
+    <t>107970875</t>
+  </si>
+  <si>
+    <t>13160028</t>
+  </si>
+  <si>
+    <t>596977138</t>
+  </si>
+  <si>
+    <t>271744847</t>
+  </si>
+  <si>
+    <t>644678551</t>
+  </si>
+  <si>
+    <t>112489203</t>
+  </si>
+  <si>
+    <t>53981432</t>
+  </si>
+  <si>
+    <t>9860150</t>
+  </si>
+  <si>
+    <t>92496940</t>
+  </si>
+  <si>
+    <t>7808969</t>
+  </si>
+  <si>
+    <t>348093381</t>
+  </si>
+  <si>
+    <t>29830932</t>
+  </si>
+  <si>
+    <t>52111443</t>
+  </si>
+  <si>
+    <t>37392836</t>
+  </si>
+  <si>
+    <t>227288720</t>
+  </si>
+  <si>
+    <t>56284725</t>
+  </si>
+  <si>
+    <t>299124969</t>
+  </si>
+  <si>
+    <t>24112839</t>
+  </si>
+  <si>
+    <t>251376627</t>
+  </si>
+  <si>
+    <t>1068741134</t>
+  </si>
+  <si>
+    <t>180997426</t>
+  </si>
+  <si>
+    <t>227985041</t>
+  </si>
+  <si>
+    <t>2052354</t>
+  </si>
+  <si>
+    <t>29935661</t>
+  </si>
+  <si>
+    <t>77533231</t>
+  </si>
+  <si>
+    <t>117620059</t>
+  </si>
+  <si>
+    <t>879853</t>
+  </si>
+  <si>
+    <t>92940747</t>
+  </si>
+  <si>
+    <t>157779823</t>
+  </si>
+  <si>
+    <t>123620004</t>
+  </si>
+  <si>
+    <t>69961711</t>
+  </si>
+  <si>
+    <t>39995629</t>
+  </si>
+  <si>
+    <t>18283594</t>
+  </si>
+  <si>
+    <t>29729757</t>
+  </si>
+  <si>
+    <t>59789866</t>
+  </si>
+  <si>
+    <t>9124454</t>
+  </si>
+  <si>
+    <t>238978746</t>
+  </si>
+  <si>
+    <t>172133684</t>
+  </si>
+  <si>
+    <t>20318812</t>
+  </si>
+  <si>
+    <t>1799916</t>
+  </si>
+  <si>
+    <t>28843893</t>
+  </si>
+  <si>
+    <t>254029733</t>
+  </si>
+  <si>
+    <t>78687769</t>
+  </si>
+  <si>
+    <t>165208703</t>
+  </si>
+  <si>
+    <t>870733</t>
+  </si>
+  <si>
+    <t>63198108</t>
+  </si>
+  <si>
+    <t>12248159</t>
+  </si>
+  <si>
+    <t>23783378</t>
+  </si>
+  <si>
+    <t>77751157</t>
+  </si>
+  <si>
+    <t>7921442</t>
+  </si>
+  <si>
+    <t>10738311</t>
+  </si>
+  <si>
+    <t>34894141</t>
+  </si>
+  <si>
+    <t>5507373</t>
+  </si>
+  <si>
+    <t>3598840</t>
+  </si>
+  <si>
+    <t>45543670</t>
+  </si>
+  <si>
+    <t>10048144</t>
+  </si>
+  <si>
+    <t>1619517</t>
+  </si>
+  <si>
+    <t>49384364</t>
+  </si>
+  <si>
+    <t>1718492</t>
+  </si>
+  <si>
+    <t>1987707</t>
+  </si>
+  <si>
+    <t>30701014</t>
+  </si>
+  <si>
+    <t>2701561</t>
+  </si>
+  <si>
+    <t>2774587</t>
+  </si>
+  <si>
+    <t>92169193</t>
+  </si>
+  <si>
+    <t>92182881</t>
+  </si>
+  <si>
+    <t>11578001</t>
+  </si>
+  <si>
+    <t>27363544</t>
+  </si>
+  <si>
+    <t>1237100</t>
+  </si>
+  <si>
+    <t>85404955</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>0.07644945878002887</t>
-  </si>
-  <si>
-    <t>0.000057411297676638</t>
-  </si>
-  <si>
-    <t>0.000057410838754561</t>
-  </si>
-  <si>
-    <t>0.015786702540638513</t>
-  </si>
-  <si>
-    <t>0.000020099404529539</t>
-  </si>
-  <si>
-    <t>0.000057408657543254</t>
-  </si>
-  <si>
-    <t>0.000018078929765311</t>
-  </si>
-  <si>
-    <t>0.000004407907329085</t>
-  </si>
-  <si>
-    <t>0.000048983510293636</t>
-  </si>
-  <si>
-    <t>0.00156238316733678</t>
-  </si>
-  <si>
-    <t>0.000351054515613077</t>
-  </si>
-  <si>
-    <t>0.000922651470331947</t>
-  </si>
-  <si>
-    <t>0.000279895288618077</t>
-  </si>
-  <si>
-    <t>0.004626221264817372</t>
-  </si>
-  <si>
-    <t>0.07644509010275442</t>
-  </si>
-  <si>
-    <t>5.13764888e-10</t>
-  </si>
-  <si>
-    <t>0.000057426978675223</t>
-  </si>
-  <si>
-    <t>0.000003158216835502</t>
-  </si>
-  <si>
-    <t>0.000327189804455735</t>
-  </si>
-  <si>
-    <t>0.000025537040028602</t>
-  </si>
-  <si>
-    <t>0.000717925027235273</t>
-  </si>
-  <si>
-    <t>0.00064176955229989</t>
-  </si>
-  <si>
-    <t>0.9967977897803646</t>
-  </si>
-  <si>
-    <t>0.000121483847879726</t>
-  </si>
-  <si>
-    <t>0.009238993040003288</t>
-  </si>
-  <si>
-    <t>0.001134268911391083</t>
-  </si>
-  <si>
-    <t>0.000280347744469563</t>
-  </si>
-  <si>
-    <t>0.000109914664481908</t>
-  </si>
-  <si>
-    <t>0.006151447260416607</t>
-  </si>
-  <si>
-    <t>0.000084720200427479</t>
-  </si>
-  <si>
-    <t>0.000004520373954327</t>
-  </si>
-  <si>
-    <t>0.000011515236115232</t>
-  </si>
-  <si>
-    <t>0.000057392601201226</t>
-  </si>
-  <si>
-    <t>0.08391755006413791</t>
-  </si>
-  <si>
-    <t>0.0007007502637911</t>
-  </si>
-  <si>
-    <t>0.000213388207547724</t>
-  </si>
-  <si>
-    <t>0.000245445466358695</t>
-  </si>
-  <si>
-    <t>0.007002263148091617</t>
-  </si>
-  <si>
-    <t>0.000001021259513189</t>
-  </si>
-  <si>
-    <t>0.000193949691206776</t>
-  </si>
-  <si>
-    <t>0.000002530208094925</t>
-  </si>
-  <si>
-    <t>9.429544219e-9</t>
-  </si>
-  <si>
-    <t>0.000029055633755491</t>
-  </si>
-  <si>
-    <t>0.000003669346857607</t>
-  </si>
-  <si>
-    <t>0.000057230987285294</t>
-  </si>
-  <si>
-    <t>0.000092548918363145</t>
-  </si>
-  <si>
-    <t>0.000027630795209267</t>
-  </si>
-  <si>
-    <t>0.000309362541881183</t>
-  </si>
-  <si>
-    <t>0.000054094708663739</t>
-  </si>
-  <si>
-    <t>0.000057457482717143</t>
-  </si>
-  <si>
-    <t>0.00000673774223659</t>
-  </si>
-  <si>
-    <t>0.003520205931290147</t>
-  </si>
-  <si>
-    <t>0.000022614421901725</t>
-  </si>
-  <si>
-    <t>0.002550336495163986</t>
-  </si>
-  <si>
-    <t>0.002024199166558585</t>
-  </si>
-  <si>
-    <t>0.000045030760722575</t>
-  </si>
-  <si>
-    <t>0.000045878973599874</t>
-  </si>
-  <si>
-    <t>0.000047222241253093</t>
-  </si>
-  <si>
-    <t>0.00005627464562735</t>
-  </si>
-  <si>
-    <t>0.002513652508917265</t>
-  </si>
-  <si>
-    <t>0.000302290133997673</t>
-  </si>
-  <si>
-    <t>0.000063281988926074</t>
-  </si>
-  <si>
-    <t>0.00027421190904779</t>
-  </si>
-  <si>
-    <t>3.76721e-11</t>
-  </si>
-  <si>
-    <t>0.0360042931495147</t>
-  </si>
-  <si>
-    <t>0.00000965962321159</t>
-  </si>
-  <si>
-    <t>0.000101836713814913</t>
-  </si>
-  <si>
-    <t>0.000382416288787645</t>
-  </si>
-  <si>
-    <t>0.000397938280070464</t>
-  </si>
-  <si>
-    <t>0.002723144800098335</t>
-  </si>
-  <si>
-    <t>0.000010766518067178</t>
-  </si>
-  <si>
-    <t>0.000057412679051662</t>
-  </si>
-  <si>
-    <t>0.10708286318001499</t>
-  </si>
-  <si>
-    <t>1.446671153e-9</t>
-  </si>
-  <si>
-    <t>0.001557414061790457</t>
-  </si>
-  <si>
-    <t>0.0003893672101154</t>
-  </si>
-  <si>
-    <t>0.000037778169397806</t>
-  </si>
-  <si>
-    <t>0.000041453633550682</t>
-  </si>
-  <si>
-    <t>0.00000123446888179</t>
-  </si>
-  <si>
-    <t>0.00000127120310621</t>
-  </si>
-  <si>
-    <t>0.00042192416338374</t>
-  </si>
-  <si>
-    <t>0.000082806992237927</t>
-  </si>
-  <si>
-    <t>0.000010115472976969</t>
-  </si>
-  <si>
-    <t>0.004045677353083599</t>
-  </si>
-  <si>
-    <t>2.4041027e-11</t>
-  </si>
-  <si>
-    <t>0.000013697974040932</t>
-  </si>
-  <si>
-    <t>0.000203230501210932</t>
-  </si>
-  <si>
-    <t>0.000069544281773097</t>
-  </si>
-  <si>
-    <t>0.000001333725017391</t>
-  </si>
-  <si>
-    <t>0.000050274090195694</t>
-  </si>
-  <si>
-    <t>0.000001123649857906</t>
-  </si>
-  <si>
-    <t>0.000028679901131335</t>
-  </si>
-  <si>
-    <t>6.0862e-14</t>
-  </si>
-  <si>
-    <t>0.000043721443253857</t>
-  </si>
-  <si>
-    <t>0.00003060416234696</t>
-  </si>
-  <si>
-    <t>0.000020913368841219</t>
-  </si>
-  <si>
-    <t>0.000438367359801598</t>
-  </si>
-  <si>
-    <t>0.000700895096291785</t>
-  </si>
-  <si>
-    <t>0.000004085525949525</t>
+    <t>0.07418156625936098</t>
+  </si>
+  <si>
+    <t>0.000047628883196153</t>
+  </si>
+  <si>
+    <t>0.000047647421053132</t>
+  </si>
+  <si>
+    <t>0.014412084363737813</t>
+  </si>
+  <si>
+    <t>0.000018516449901306</t>
+  </si>
+  <si>
+    <t>0.000047609099458415</t>
+  </si>
+  <si>
+    <t>0.00001676801366678</t>
+  </si>
+  <si>
+    <t>0.000004101978154433</t>
+  </si>
+  <si>
+    <t>0.000047363796601301</t>
+  </si>
+  <si>
+    <t>0.001119367505302045</t>
+  </si>
+  <si>
+    <t>0.001505254735153503</t>
+  </si>
+  <si>
+    <t>0.000285769930947203</t>
+  </si>
+  <si>
+    <t>0.000328310511149605</t>
+  </si>
+  <si>
+    <t>0.07418050657918289</t>
+  </si>
+  <si>
+    <t>0.00420875064240213</t>
+  </si>
+  <si>
+    <t>4.90083496e-10</t>
+  </si>
+  <si>
+    <t>0.000002981684541136</t>
+  </si>
+  <si>
+    <t>0.000314414244705233</t>
+  </si>
+  <si>
+    <t>0.000047662828087506</t>
+  </si>
+  <si>
+    <t>0.000801918159267376</t>
+  </si>
+  <si>
+    <t>0.000620062318716236</t>
+  </si>
+  <si>
+    <t>1.0001734853779574</t>
+  </si>
+  <si>
+    <t>0.00010891328654652</t>
+  </si>
+  <si>
+    <t>0.008393956645534092</t>
+  </si>
+  <si>
+    <t>0.001065805997671617</t>
+  </si>
+  <si>
+    <t>0.000110572871129739</t>
+  </si>
+  <si>
+    <t>0.000246031940653955</t>
+  </si>
+  <si>
+    <t>0.005999437756819611</t>
+  </si>
+  <si>
+    <t>0.000074836736553817</t>
+  </si>
+  <si>
+    <t>0.000004182234316754</t>
+  </si>
+  <si>
+    <t>0.000011209603657438</t>
+  </si>
+  <si>
+    <t>0.08146609206087052</t>
+  </si>
+  <si>
+    <t>0.00022756484724898</t>
+  </si>
+  <si>
+    <t>0.000034477356520715</t>
+  </si>
+  <si>
+    <t>0.000032611057339193</t>
+  </si>
+  <si>
+    <t>0.000243946541789157</t>
+  </si>
+  <si>
+    <t>0.000387711800361645</t>
+  </si>
+  <si>
+    <t>0.000675776406933044</t>
+  </si>
+  <si>
+    <t>0.000001008717652814</t>
+  </si>
+  <si>
+    <t>0.000047667719271957</t>
+  </si>
+  <si>
+    <t>0.000105233394866298</t>
+  </si>
+  <si>
+    <t>0.000178316815450941</t>
+  </si>
+  <si>
+    <t>0.000002499566076696</t>
+  </si>
+  <si>
+    <t>0.006254152895936565</t>
+  </si>
+  <si>
+    <t>8.743968497e-9</t>
+  </si>
+  <si>
+    <t>0.000003540346692928</t>
+  </si>
+  <si>
+    <t>0.003857744925704332</t>
+  </si>
+  <si>
+    <t>0.000027294879957617</t>
+  </si>
+  <si>
+    <t>0.000052460781499225</t>
+  </si>
+  <si>
+    <t>0.000391531972082767</t>
+  </si>
+  <si>
+    <t>0.000050836932210761</t>
+  </si>
+  <si>
+    <t>0.000006589978174116</t>
+  </si>
+  <si>
+    <t>0.000047538852841493</t>
+  </si>
+  <si>
+    <t>0.001946248967308524</t>
+  </si>
+  <si>
+    <t>0.000048849989836259</t>
+  </si>
+  <si>
+    <t>0.00004446912452411</t>
+  </si>
+  <si>
+    <t>0.0000477174802375</t>
+  </si>
+  <si>
+    <t>0.002142761099276467</t>
+  </si>
+  <si>
+    <t>0.000062927459705783</t>
+  </si>
+  <si>
+    <t>0.002166748366498642</t>
+  </si>
+  <si>
+    <t>0.000103730413592928</t>
+  </si>
+  <si>
+    <t>0.000009469166409221</t>
+  </si>
+  <si>
+    <t>0.000046198274542444</t>
+  </si>
+  <si>
+    <t>0.033940305094742565</t>
+  </si>
+  <si>
+    <t>0.000106023344708406</t>
+  </si>
+  <si>
+    <t>3.4726634e-11</t>
+  </si>
+  <si>
+    <t>0.000249655322895261</t>
+  </si>
+  <si>
+    <t>0.000040506784916575</t>
+  </si>
+  <si>
+    <t>0.000010445413738347</t>
+  </si>
+  <si>
+    <t>0.000378174623493321</t>
+  </si>
+  <si>
+    <t>1.445210604e-9</t>
+  </si>
+  <si>
+    <t>0.000015806562284012</t>
+  </si>
+  <si>
+    <t>0.00247410696111467</t>
+  </si>
+  <si>
+    <t>0.000442925006922218</t>
+  </si>
+  <si>
+    <t>0.000180060112895443</t>
+  </si>
+  <si>
+    <t>0.000368369827247526</t>
+  </si>
+  <si>
+    <t>0.00032301749028336</t>
+  </si>
+  <si>
+    <t>0.000001201977950144</t>
+  </si>
+  <si>
+    <t>0.000083922791582281</t>
+  </si>
+  <si>
+    <t>0.001396861401341303</t>
+  </si>
+  <si>
+    <t>0.09029537177326842</t>
+  </si>
+  <si>
+    <t>0.000047641681156986</t>
+  </si>
+  <si>
+    <t>0.000035772276566521</t>
+  </si>
+  <si>
+    <t>0.003722159106801818</t>
+  </si>
+  <si>
+    <t>0.000009209407192414</t>
+  </si>
+  <si>
+    <t>2.2347561e-11</t>
+  </si>
+  <si>
+    <t>0.000001056103293639</t>
+  </si>
+  <si>
+    <t>0.000001104566786007</t>
+  </si>
+  <si>
+    <t>1.07761224301e-7</t>
+  </si>
+  <si>
+    <t>0.001489052680165543</t>
+  </si>
+  <si>
+    <t>0.000184239756640052</t>
+  </si>
+  <si>
+    <t>0.000020987999965435</t>
+  </si>
+  <si>
+    <t>0.000030147205779882</t>
+  </si>
+  <si>
+    <t>0.000001233975257143</t>
+  </si>
+  <si>
+    <t>0.000004231748025645</t>
+  </si>
+  <si>
+    <t>0.000041172368195281</t>
+  </si>
+  <si>
+    <t>0.000026534340278825</t>
+  </si>
+  <si>
+    <t>0.000044235536598025</t>
+  </si>
+  <si>
+    <t>0.000440708633063267</t>
   </si>
 </sst>
 </file>
@@ -3952,10 +3952,10 @@
         <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>384</v>
@@ -4005,10 +4005,10 @@
         <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>385</v>
@@ -4058,10 +4058,10 @@
         <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>386</v>
@@ -4114,7 +4114,7 @@
         <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>387</v>
@@ -4167,7 +4167,7 @@
         <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>388</v>
@@ -4220,7 +4220,7 @@
         <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>389</v>
@@ -4270,10 +4270,10 @@
         <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>390</v>
@@ -4323,10 +4323,10 @@
         <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>391</v>
@@ -4376,10 +4376,10 @@
         <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>392</v>
@@ -4429,10 +4429,10 @@
         <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>393</v>
@@ -4482,10 +4482,10 @@
         <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>223</v>
       </c>
       <c r="E12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>394</v>
@@ -4497,7 +4497,7 @@
         <v>594</v>
       </c>
       <c r="I12">
-        <v>1538524800</v>
+        <v>1586539320</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -4535,7 +4535,7 @@
         <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
+        <v>127</v>
       </c>
       <c r="E13" t="s">
         <v>318</v>
@@ -4550,7 +4550,7 @@
         <v>595</v>
       </c>
       <c r="I13">
-        <v>1505952000</v>
+        <v>1538524800</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -4588,10 +4588,10 @@
         <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E14" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>396</v>
@@ -4603,7 +4603,7 @@
         <v>596</v>
       </c>
       <c r="I14">
-        <v>1586539320</v>
+        <v>1598365200</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -4641,10 +4641,10 @@
         <v>129</v>
       </c>
       <c r="D15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>397</v>
@@ -4656,7 +4656,7 @@
         <v>597</v>
       </c>
       <c r="I15">
-        <v>1598365200</v>
+        <v>1505952000</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -4694,10 +4694,10 @@
         <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>398</v>
@@ -4709,7 +4709,7 @@
         <v>598</v>
       </c>
       <c r="I16">
-        <v>1382572800</v>
+        <v>1600259445</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -4747,10 +4747,10 @@
         <v>131</v>
       </c>
       <c r="D17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E17" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>399</v>
@@ -4762,7 +4762,7 @@
         <v>599</v>
       </c>
       <c r="I17">
-        <v>1600259445</v>
+        <v>1382572800</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -4800,10 +4800,10 @@
         <v>132</v>
       </c>
       <c r="D18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E18" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>400</v>
@@ -4821,7 +4821,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="L18">
         <v>17</v>
@@ -4853,10 +4853,10 @@
         <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E19" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>401</v>
@@ -4868,13 +4868,13 @@
         <v>601</v>
       </c>
       <c r="I19">
-        <v>1585574040</v>
+        <v>1505260800</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>686</v>
+        <v>700</v>
       </c>
       <c r="L19">
         <v>18</v>
@@ -4906,10 +4906,10 @@
         <v>134</v>
       </c>
       <c r="D20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E20" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>402</v>
@@ -4921,13 +4921,13 @@
         <v>602</v>
       </c>
       <c r="I20">
-        <v>1505260800</v>
+        <v>1600323371</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="L20">
         <v>19</v>
@@ -4959,10 +4959,10 @@
         <v>135</v>
       </c>
       <c r="D21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E21" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>403</v>
@@ -4974,13 +4974,13 @@
         <v>603</v>
       </c>
       <c r="I21">
-        <v>1600323371</v>
+        <v>1585574040</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L21">
         <v>20</v>
@@ -5012,10 +5012,10 @@
         <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E22" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>404</v>
@@ -5027,10 +5027,13 @@
         <v>604</v>
       </c>
       <c r="I22">
-        <v>1639033619</v>
+        <v>1600961596</v>
       </c>
       <c r="J22">
         <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>689</v>
       </c>
       <c r="L22">
         <v>21</v>
@@ -5062,10 +5065,10 @@
         <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E23" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>405</v>
@@ -5077,13 +5080,13 @@
         <v>605</v>
       </c>
       <c r="I23">
-        <v>1600961596</v>
+        <v>1552520100</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L23">
         <v>22</v>
@@ -5115,10 +5118,10 @@
         <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E24" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>406</v>
@@ -5130,13 +5133,13 @@
         <v>606</v>
       </c>
       <c r="I24">
-        <v>1552520100</v>
+        <v>1549894980</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="L24">
         <v>23</v>
@@ -5168,10 +5171,10 @@
         <v>139</v>
       </c>
       <c r="D25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E25" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>407</v>
@@ -5183,13 +5186,13 @@
         <v>607</v>
       </c>
       <c r="I25">
-        <v>1549894980</v>
+        <v>1640268459</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="L25">
         <v>24</v>
@@ -5221,10 +5224,10 @@
         <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E26" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>408</v>
@@ -5236,10 +5239,13 @@
         <v>608</v>
       </c>
       <c r="I26">
-        <v>1640268459</v>
+        <v>1422489600</v>
       </c>
       <c r="J26">
         <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>703</v>
       </c>
       <c r="L26">
         <v>25</v>
@@ -5271,10 +5277,10 @@
         <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E27" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>409</v>
@@ -5286,13 +5292,13 @@
         <v>609</v>
       </c>
       <c r="I27">
-        <v>1422489600</v>
+        <v>1469577600</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L27">
         <v>26</v>
@@ -5324,10 +5330,10 @@
         <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E28" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>410</v>
@@ -5339,13 +5345,13 @@
         <v>610</v>
       </c>
       <c r="I28">
-        <v>1469577600</v>
+        <v>1627361901</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L28">
         <v>27</v>
@@ -5377,10 +5383,10 @@
         <v>143</v>
       </c>
       <c r="D29" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E29" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>411</v>
@@ -5398,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L29">
         <v>28</v>
@@ -5430,10 +5436,10 @@
         <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E30" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>412</v>
@@ -5445,13 +5451,13 @@
         <v>612</v>
       </c>
       <c r="I30">
-        <v>1627361901</v>
+        <v>1541808000</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="L30">
         <v>29</v>
@@ -5483,10 +5489,10 @@
         <v>145</v>
       </c>
       <c r="D31" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E31" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>413</v>
@@ -5498,13 +5504,13 @@
         <v>613</v>
       </c>
       <c r="I31">
-        <v>1541808000</v>
+        <v>1610717385</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="L31">
         <v>30</v>
@@ -5536,10 +5542,10 @@
         <v>146</v>
       </c>
       <c r="D32" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E32" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>414</v>
@@ -5551,13 +5557,13 @@
         <v>614</v>
       </c>
       <c r="I32">
-        <v>1610717385</v>
+        <v>1484611200</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="L32">
         <v>31</v>
@@ -5589,10 +5595,7 @@
         <v>147</v>
       </c>
       <c r="D33" t="s">
-        <v>242</v>
-      </c>
-      <c r="E33" t="s">
-        <v>312</v>
+        <v>243</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>415</v>
@@ -5604,13 +5607,13 @@
         <v>615</v>
       </c>
       <c r="I33">
-        <v>1484611200</v>
+        <v>1562082540</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="L33">
         <v>32</v>
@@ -5642,7 +5645,10 @@
         <v>148</v>
       </c>
       <c r="D34" t="s">
-        <v>243</v>
+        <v>244</v>
+      </c>
+      <c r="E34" t="s">
+        <v>336</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>416</v>
@@ -5654,13 +5660,13 @@
         <v>616</v>
       </c>
       <c r="I34">
-        <v>1562082540</v>
+        <v>1638756833</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="L34">
         <v>33</v>
@@ -5692,10 +5698,10 @@
         <v>149</v>
       </c>
       <c r="D35" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E35" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>417</v>
@@ -5707,13 +5713,13 @@
         <v>617</v>
       </c>
       <c r="I35">
-        <v>1615299931</v>
+        <v>1602839473</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="L35">
         <v>34</v>
@@ -5745,10 +5751,10 @@
         <v>150</v>
       </c>
       <c r="D36" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E36" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>418</v>
@@ -5760,10 +5766,13 @@
         <v>618</v>
       </c>
       <c r="I36">
-        <v>1638756833</v>
+        <v>1613583024</v>
       </c>
       <c r="J36">
         <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>714</v>
       </c>
       <c r="L36">
         <v>35</v>
@@ -5795,10 +5804,10 @@
         <v>151</v>
       </c>
       <c r="D37" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E37" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>419</v>
@@ -5810,10 +5819,13 @@
         <v>619</v>
       </c>
       <c r="I37">
-        <v>1626134763</v>
+        <v>1500336000</v>
       </c>
       <c r="J37">
         <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>715</v>
       </c>
       <c r="L37">
         <v>36</v>
@@ -5845,10 +5857,10 @@
         <v>152</v>
       </c>
       <c r="D38" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E38" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>420</v>
@@ -5860,13 +5872,13 @@
         <v>620</v>
       </c>
       <c r="I38">
-        <v>1602839473</v>
+        <v>1601555742</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L38">
         <v>37</v>
@@ -5898,10 +5910,10 @@
         <v>153</v>
       </c>
       <c r="D39" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E39" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>421</v>
@@ -5913,13 +5925,13 @@
         <v>621</v>
       </c>
       <c r="I39">
-        <v>1601555742</v>
+        <v>1640985232</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L39">
         <v>38</v>
@@ -5951,10 +5963,10 @@
         <v>154</v>
       </c>
       <c r="D40" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E40" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>422</v>
@@ -5966,13 +5978,13 @@
         <v>622</v>
       </c>
       <c r="I40">
-        <v>1533945600</v>
+        <v>1626134763</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>717</v>
+        <v>692</v>
       </c>
       <c r="L40">
         <v>39</v>
@@ -6004,10 +6016,10 @@
         <v>155</v>
       </c>
       <c r="D41" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E41" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>423</v>
@@ -6057,10 +6069,10 @@
         <v>156</v>
       </c>
       <c r="D42" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E42" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>424</v>
@@ -6072,7 +6084,7 @@
         <v>624</v>
       </c>
       <c r="I42">
-        <v>1613642379</v>
+        <v>1615299931</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -6110,10 +6122,10 @@
         <v>157</v>
       </c>
       <c r="D43" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E43" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>425</v>
@@ -6125,7 +6137,7 @@
         <v>625</v>
       </c>
       <c r="I43">
-        <v>1568704980</v>
+        <v>1615164591</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -6163,10 +6175,10 @@
         <v>158</v>
       </c>
       <c r="D44" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E44" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>426</v>
@@ -6178,7 +6190,7 @@
         <v>626</v>
       </c>
       <c r="I44">
-        <v>1565957940</v>
+        <v>1613642379</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -6216,10 +6228,10 @@
         <v>159</v>
       </c>
       <c r="D45" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E45" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>427</v>
@@ -6231,7 +6243,7 @@
         <v>627</v>
       </c>
       <c r="I45">
-        <v>1613583024</v>
+        <v>1568704980</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -6269,7 +6281,7 @@
         <v>160</v>
       </c>
       <c r="D46" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E46" t="s">
         <v>344</v>
@@ -6284,7 +6296,7 @@
         <v>628</v>
       </c>
       <c r="I46">
-        <v>1548953220</v>
+        <v>1533945600</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -6322,7 +6334,7 @@
         <v>161</v>
       </c>
       <c r="D47" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E47" t="s">
         <v>345</v>
@@ -6337,10 +6349,13 @@
         <v>629</v>
       </c>
       <c r="I47">
-        <v>1650960626</v>
+        <v>1565957940</v>
       </c>
       <c r="J47">
         <v>1</v>
+      </c>
+      <c r="K47" t="s">
+        <v>724</v>
       </c>
       <c r="L47">
         <v>46</v>
@@ -6372,10 +6387,10 @@
         <v>162</v>
       </c>
       <c r="D48" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E48" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>430</v>
@@ -6387,13 +6402,13 @@
         <v>630</v>
       </c>
       <c r="I48">
-        <v>1615164591</v>
+        <v>1548953220</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="L48">
         <v>47</v>
@@ -6425,10 +6440,10 @@
         <v>163</v>
       </c>
       <c r="D49" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E49" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>431</v>
@@ -6440,10 +6455,13 @@
         <v>631</v>
       </c>
       <c r="I49">
-        <v>1649387294</v>
+        <v>1603447311</v>
       </c>
       <c r="J49">
         <v>1</v>
+      </c>
+      <c r="K49" t="s">
+        <v>725</v>
       </c>
       <c r="L49">
         <v>48</v>
@@ -6475,10 +6493,10 @@
         <v>164</v>
       </c>
       <c r="D50" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E50" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>432</v>
@@ -6490,10 +6508,13 @@
         <v>632</v>
       </c>
       <c r="I50">
-        <v>1640985232</v>
+        <v>1649387294</v>
       </c>
       <c r="J50">
         <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>726</v>
       </c>
       <c r="L50">
         <v>49</v>
@@ -6525,10 +6546,10 @@
         <v>165</v>
       </c>
       <c r="D51" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="E51" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>433</v>
@@ -6540,13 +6561,13 @@
         <v>633</v>
       </c>
       <c r="I51">
-        <v>1498694400</v>
+        <v>1614963736</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="L51">
         <v>50</v>
@@ -6578,10 +6599,10 @@
         <v>166</v>
       </c>
       <c r="D52" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E52" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>434</v>
@@ -6593,13 +6614,13 @@
         <v>634</v>
       </c>
       <c r="I52">
-        <v>1539302400</v>
+        <v>1666148370</v>
       </c>
       <c r="J52">
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="L52">
         <v>51</v>
@@ -6631,10 +6652,10 @@
         <v>167</v>
       </c>
       <c r="D53" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="E53" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>435</v>
@@ -6646,13 +6667,13 @@
         <v>635</v>
       </c>
       <c r="I53">
-        <v>1562332440</v>
+        <v>1498694400</v>
       </c>
       <c r="J53">
         <v>1</v>
       </c>
       <c r="K53" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="L53">
         <v>52</v>
@@ -6684,10 +6705,10 @@
         <v>168</v>
       </c>
       <c r="D54" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E54" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>436</v>
@@ -6699,13 +6720,13 @@
         <v>636</v>
       </c>
       <c r="I54">
-        <v>1603447311</v>
+        <v>1562332440</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="L54">
         <v>53</v>
@@ -6737,10 +6758,10 @@
         <v>169</v>
       </c>
       <c r="D55" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E55" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>437</v>
@@ -6752,13 +6773,13 @@
         <v>637</v>
       </c>
       <c r="I55">
-        <v>1500336000</v>
+        <v>1650960626</v>
       </c>
       <c r="J55">
         <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="L55">
         <v>54</v>
@@ -6790,10 +6811,10 @@
         <v>170</v>
       </c>
       <c r="D56" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E56" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>438</v>
@@ -6805,13 +6826,13 @@
         <v>638</v>
       </c>
       <c r="I56">
-        <v>1541808000</v>
+        <v>1612524044</v>
       </c>
       <c r="J56">
         <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="L56">
         <v>55</v>
@@ -6843,10 +6864,10 @@
         <v>171</v>
       </c>
       <c r="D57" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E57" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>439</v>
@@ -6858,13 +6879,13 @@
         <v>639</v>
       </c>
       <c r="I57">
-        <v>1612524044</v>
+        <v>1530662400</v>
       </c>
       <c r="J57">
         <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="L57">
         <v>56</v>
@@ -6896,10 +6917,10 @@
         <v>172</v>
       </c>
       <c r="D58" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E58" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>440</v>
@@ -6911,13 +6932,13 @@
         <v>640</v>
       </c>
       <c r="I58">
-        <v>1614963736</v>
+        <v>1516233600</v>
       </c>
       <c r="J58">
         <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="L58">
         <v>57</v>
@@ -6949,10 +6970,10 @@
         <v>173</v>
       </c>
       <c r="D59" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E59" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>441</v>
@@ -6964,13 +6985,13 @@
         <v>641</v>
       </c>
       <c r="I59">
-        <v>1516233600</v>
+        <v>1539302400</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="L59">
         <v>58</v>
@@ -7002,10 +7023,10 @@
         <v>174</v>
       </c>
       <c r="D60" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E60" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>442</v>
@@ -7017,13 +7038,13 @@
         <v>642</v>
       </c>
       <c r="I60">
-        <v>1530662400</v>
+        <v>1541808000</v>
       </c>
       <c r="J60">
         <v>1</v>
       </c>
       <c r="K60" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="L60">
         <v>59</v>
@@ -7057,6 +7078,9 @@
       <c r="D61" t="s">
         <v>175</v>
       </c>
+      <c r="E61" t="s">
+        <v>356</v>
+      </c>
       <c r="F61" s="2" t="s">
         <v>443</v>
       </c>
@@ -7067,10 +7091,13 @@
         <v>643</v>
       </c>
       <c r="I61">
-        <v>1651913559</v>
+        <v>1600160400</v>
       </c>
       <c r="J61">
         <v>1</v>
+      </c>
+      <c r="K61" t="s">
+        <v>732</v>
       </c>
       <c r="L61">
         <v>60</v>
@@ -7102,10 +7129,10 @@
         <v>176</v>
       </c>
       <c r="D62" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E62" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>444</v>
@@ -7123,7 +7150,7 @@
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="L62">
         <v>61</v>
@@ -7155,10 +7182,10 @@
         <v>177</v>
       </c>
       <c r="D63" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E63" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>445</v>
@@ -7170,10 +7197,13 @@
         <v>645</v>
       </c>
       <c r="I63">
-        <v>1666148370</v>
+        <v>1566222960</v>
       </c>
       <c r="J63">
         <v>1</v>
+      </c>
+      <c r="K63" t="s">
+        <v>738</v>
       </c>
       <c r="L63">
         <v>62</v>
@@ -7205,10 +7235,10 @@
         <v>178</v>
       </c>
       <c r="D64" t="s">
-        <v>178</v>
+        <v>272</v>
       </c>
       <c r="E64" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>446</v>
@@ -7220,13 +7250,13 @@
         <v>646</v>
       </c>
       <c r="I64">
-        <v>1600160400</v>
+        <v>1627113782</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="L64">
         <v>63</v>
@@ -7258,10 +7288,7 @@
         <v>179</v>
       </c>
       <c r="D65" t="s">
-        <v>271</v>
-      </c>
-      <c r="E65" t="s">
-        <v>357</v>
+        <v>179</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>447</v>
@@ -7273,10 +7300,13 @@
         <v>647</v>
       </c>
       <c r="I65">
-        <v>1647920319</v>
+        <v>1651913559</v>
       </c>
       <c r="J65">
         <v>1</v>
+      </c>
+      <c r="K65" t="s">
+        <v>740</v>
       </c>
       <c r="L65">
         <v>64</v>
@@ -7308,10 +7338,10 @@
         <v>180</v>
       </c>
       <c r="D66" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E66" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>448</v>
@@ -7323,10 +7353,13 @@
         <v>648</v>
       </c>
       <c r="I66">
-        <v>1657036895</v>
+        <v>1502236800</v>
       </c>
       <c r="J66">
         <v>1</v>
+      </c>
+      <c r="K66" t="s">
+        <v>741</v>
       </c>
       <c r="L66">
         <v>65</v>
@@ -7358,10 +7391,10 @@
         <v>181</v>
       </c>
       <c r="D67" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E67" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>449</v>
@@ -7373,13 +7406,13 @@
         <v>649</v>
       </c>
       <c r="I67">
-        <v>1502236800</v>
+        <v>1554322020</v>
       </c>
       <c r="J67">
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>737</v>
+        <v>710</v>
       </c>
       <c r="L67">
         <v>66</v>
@@ -7411,10 +7444,10 @@
         <v>182</v>
       </c>
       <c r="D68" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E68" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>450</v>
@@ -7426,13 +7459,13 @@
         <v>650</v>
       </c>
       <c r="I68">
-        <v>1627113782</v>
+        <v>1657036895</v>
       </c>
       <c r="J68">
         <v>1</v>
       </c>
       <c r="K68" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="L68">
         <v>67</v>
@@ -7464,10 +7497,10 @@
         <v>183</v>
       </c>
       <c r="D69" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E69" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>451</v>
@@ -7479,13 +7512,13 @@
         <v>651</v>
       </c>
       <c r="I69">
-        <v>1554322020</v>
+        <v>1647920319</v>
       </c>
       <c r="J69">
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="L69">
         <v>68</v>
@@ -7517,10 +7550,10 @@
         <v>184</v>
       </c>
       <c r="D70" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E70" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>452</v>
@@ -7532,13 +7565,13 @@
         <v>652</v>
       </c>
       <c r="I70">
-        <v>1596033180</v>
+        <v>1597402380</v>
       </c>
       <c r="J70">
         <v>1</v>
       </c>
       <c r="K70" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="L70">
         <v>69</v>
@@ -7570,10 +7603,10 @@
         <v>185</v>
       </c>
       <c r="D71" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E71" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>453</v>
@@ -7585,13 +7618,13 @@
         <v>653</v>
       </c>
       <c r="I71">
-        <v>1508889600</v>
+        <v>1497364209</v>
       </c>
       <c r="J71">
         <v>1</v>
       </c>
       <c r="K71" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="L71">
         <v>70</v>
@@ -7623,10 +7656,10 @@
         <v>186</v>
       </c>
       <c r="D72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E72" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>454</v>
@@ -7638,13 +7671,13 @@
         <v>654</v>
       </c>
       <c r="I72">
-        <v>1391817600</v>
+        <v>1508889600</v>
       </c>
       <c r="J72">
         <v>1</v>
       </c>
       <c r="K72" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="L72">
         <v>71</v>
@@ -7676,10 +7709,7 @@
         <v>187</v>
       </c>
       <c r="D73" t="s">
-        <v>279</v>
-      </c>
-      <c r="E73" t="s">
-        <v>355</v>
+        <v>280</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>455</v>
@@ -7691,13 +7721,13 @@
         <v>655</v>
       </c>
       <c r="I73">
-        <v>1497364209</v>
+        <v>1634887994</v>
       </c>
       <c r="J73">
         <v>1</v>
       </c>
       <c r="K73" t="s">
-        <v>743</v>
+        <v>695</v>
       </c>
       <c r="L73">
         <v>72</v>
@@ -7729,10 +7759,10 @@
         <v>188</v>
       </c>
       <c r="D74" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E74" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>456</v>
@@ -7744,13 +7774,13 @@
         <v>656</v>
       </c>
       <c r="I74">
-        <v>1520380800</v>
+        <v>1540944000</v>
       </c>
       <c r="J74">
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="L74">
         <v>73</v>
@@ -7782,10 +7812,10 @@
         <v>189</v>
       </c>
       <c r="D75" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E75" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>457</v>
@@ -7797,13 +7827,13 @@
         <v>657</v>
       </c>
       <c r="I75">
-        <v>1570197780</v>
+        <v>1391817600</v>
       </c>
       <c r="J75">
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>745</v>
+        <v>726</v>
       </c>
       <c r="L75">
         <v>74</v>
@@ -7835,7 +7865,10 @@
         <v>190</v>
       </c>
       <c r="D76" t="s">
-        <v>282</v>
+        <v>283</v>
+      </c>
+      <c r="E76" t="s">
+        <v>366</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>458</v>
@@ -7847,13 +7880,13 @@
         <v>658</v>
       </c>
       <c r="I76">
-        <v>1634887994</v>
+        <v>1605090441</v>
       </c>
       <c r="J76">
         <v>1</v>
       </c>
       <c r="K76" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="L76">
         <v>75</v>
@@ -7885,10 +7918,10 @@
         <v>191</v>
       </c>
       <c r="D77" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E77" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>459</v>
@@ -7900,10 +7933,13 @@
         <v>659</v>
       </c>
       <c r="I77">
-        <v>1643001498</v>
+        <v>1556585100</v>
       </c>
       <c r="J77">
         <v>1</v>
+      </c>
+      <c r="K77" t="s">
+        <v>748</v>
       </c>
       <c r="L77">
         <v>76</v>
@@ -7938,7 +7974,7 @@
         <v>192</v>
       </c>
       <c r="E78" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>460</v>
@@ -7956,7 +7992,7 @@
         <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="L78">
         <v>77</v>
@@ -7988,10 +8024,10 @@
         <v>193</v>
       </c>
       <c r="D79" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E79" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>461</v>
@@ -8003,13 +8039,13 @@
         <v>661</v>
       </c>
       <c r="I79">
-        <v>1597402380</v>
+        <v>1596033180</v>
       </c>
       <c r="J79">
         <v>1</v>
       </c>
       <c r="K79" t="s">
-        <v>748</v>
+        <v>708</v>
       </c>
       <c r="L79">
         <v>78</v>
@@ -8041,10 +8077,10 @@
         <v>194</v>
       </c>
       <c r="D80" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E80" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>462</v>
@@ -8056,13 +8092,13 @@
         <v>662</v>
       </c>
       <c r="I80">
-        <v>1525219200</v>
+        <v>1520726400</v>
       </c>
       <c r="J80">
         <v>1</v>
       </c>
       <c r="K80" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="L80">
         <v>79</v>
@@ -8094,10 +8130,10 @@
         <v>195</v>
       </c>
       <c r="D81" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E81" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>463</v>
@@ -8109,13 +8145,13 @@
         <v>663</v>
       </c>
       <c r="I81">
-        <v>1520726400</v>
+        <v>1574782200</v>
       </c>
       <c r="J81">
         <v>1</v>
       </c>
       <c r="K81" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="L81">
         <v>80</v>
@@ -8147,7 +8183,10 @@
         <v>196</v>
       </c>
       <c r="D82" t="s">
-        <v>287</v>
+        <v>288</v>
+      </c>
+      <c r="E82" t="s">
+        <v>372</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>464</v>
@@ -8159,13 +8198,13 @@
         <v>664</v>
       </c>
       <c r="I82">
-        <v>1595516340</v>
+        <v>1643001498</v>
       </c>
       <c r="J82">
         <v>1</v>
       </c>
       <c r="K82" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="L82">
         <v>81</v>
@@ -8197,10 +8236,10 @@
         <v>197</v>
       </c>
       <c r="D83" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E83" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>465</v>
@@ -8212,13 +8251,13 @@
         <v>665</v>
       </c>
       <c r="I83">
-        <v>1605090441</v>
+        <v>1570197780</v>
       </c>
       <c r="J83">
         <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="L83">
         <v>82</v>
@@ -8250,10 +8289,10 @@
         <v>198</v>
       </c>
       <c r="D84" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E84" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>466</v>
@@ -8265,7 +8304,7 @@
         <v>666</v>
       </c>
       <c r="I84">
-        <v>1574782200</v>
+        <v>1520380800</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -8303,10 +8342,10 @@
         <v>199</v>
       </c>
       <c r="D85" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E85" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>467</v>
@@ -8318,7 +8357,7 @@
         <v>667</v>
       </c>
       <c r="I85">
-        <v>1572962760</v>
+        <v>1525219200</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -8356,10 +8395,10 @@
         <v>200</v>
       </c>
       <c r="D86" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E86" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>468</v>
@@ -8375,6 +8414,9 @@
       </c>
       <c r="J86">
         <v>1</v>
+      </c>
+      <c r="K86" t="s">
+        <v>755</v>
       </c>
       <c r="L86">
         <v>85</v>
@@ -8406,10 +8448,10 @@
         <v>201</v>
       </c>
       <c r="D87" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E87" t="s">
-        <v>312</v>
+        <v>376</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>469</v>
@@ -8421,13 +8463,13 @@
         <v>669</v>
       </c>
       <c r="I87">
-        <v>1626838226</v>
+        <v>1572962760</v>
       </c>
       <c r="J87">
         <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>755</v>
+        <v>721</v>
       </c>
       <c r="L87">
         <v>86</v>
@@ -8459,10 +8501,10 @@
         <v>202</v>
       </c>
       <c r="D88" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E88" t="s">
-        <v>373</v>
+        <v>313</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>470</v>
@@ -8474,13 +8516,13 @@
         <v>670</v>
       </c>
       <c r="I88">
-        <v>1540944000</v>
+        <v>1626838226</v>
       </c>
       <c r="J88">
         <v>1</v>
       </c>
       <c r="K88" t="s">
-        <v>756</v>
+        <v>685</v>
       </c>
       <c r="L88">
         <v>87</v>
@@ -8512,10 +8554,7 @@
         <v>203</v>
       </c>
       <c r="D89" t="s">
-        <v>294</v>
-      </c>
-      <c r="E89" t="s">
-        <v>374</v>
+        <v>295</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>471</v>
@@ -8527,13 +8566,13 @@
         <v>671</v>
       </c>
       <c r="I89">
-        <v>1619531495</v>
+        <v>1595516340</v>
       </c>
       <c r="J89">
         <v>1</v>
       </c>
       <c r="K89" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="L89">
         <v>88</v>
@@ -8565,10 +8604,10 @@
         <v>204</v>
       </c>
       <c r="D90" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E90" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>472</v>
@@ -8580,13 +8619,13 @@
         <v>672</v>
       </c>
       <c r="I90">
-        <v>1566222960</v>
+        <v>1552484520</v>
       </c>
       <c r="J90">
         <v>1</v>
       </c>
       <c r="K90" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="L90">
         <v>89</v>
@@ -8618,10 +8657,10 @@
         <v>205</v>
       </c>
       <c r="D91" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E91" t="s">
-        <v>376</v>
+        <v>313</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>473</v>
@@ -8633,13 +8672,13 @@
         <v>673</v>
       </c>
       <c r="I91">
-        <v>1518566400</v>
+        <v>1640188674</v>
       </c>
       <c r="J91">
         <v>1</v>
       </c>
       <c r="K91" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="L91">
         <v>90</v>
@@ -8671,7 +8710,7 @@
         <v>206</v>
       </c>
       <c r="D92" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>474</v>
@@ -8683,13 +8722,13 @@
         <v>674</v>
       </c>
       <c r="I92">
-        <v>1568732160</v>
+        <v>1599184800</v>
       </c>
       <c r="J92">
         <v>1</v>
       </c>
       <c r="K92" t="s">
-        <v>760</v>
+        <v>689</v>
       </c>
       <c r="L92">
         <v>91</v>
@@ -8721,10 +8760,10 @@
         <v>207</v>
       </c>
       <c r="D93" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E93" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>475</v>
@@ -8736,13 +8775,13 @@
         <v>675</v>
       </c>
       <c r="I93">
-        <v>1552484520</v>
+        <v>1619531495</v>
       </c>
       <c r="J93">
         <v>1</v>
       </c>
       <c r="K93" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="L93">
         <v>92</v>
@@ -8774,10 +8813,10 @@
         <v>208</v>
       </c>
       <c r="D94" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E94" t="s">
-        <v>312</v>
+        <v>379</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>476</v>
@@ -8789,13 +8828,13 @@
         <v>676</v>
       </c>
       <c r="I94">
-        <v>1623662716</v>
+        <v>1638249982</v>
       </c>
       <c r="J94">
         <v>1</v>
       </c>
       <c r="K94" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="L94">
         <v>93</v>
@@ -8827,10 +8866,10 @@
         <v>209</v>
       </c>
       <c r="D95" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E95" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>477</v>
@@ -8842,13 +8881,13 @@
         <v>677</v>
       </c>
       <c r="I95">
-        <v>1626135916</v>
+        <v>1531958400</v>
       </c>
       <c r="J95">
         <v>1</v>
       </c>
       <c r="K95" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="L95">
         <v>94</v>
@@ -8880,10 +8919,10 @@
         <v>210</v>
       </c>
       <c r="D96" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E96" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>478</v>
@@ -8895,10 +8934,13 @@
         <v>678</v>
       </c>
       <c r="I96">
-        <v>1629211557</v>
+        <v>1518566400</v>
       </c>
       <c r="J96">
         <v>1</v>
+      </c>
+      <c r="K96" t="s">
+        <v>762</v>
       </c>
       <c r="L96">
         <v>95</v>
@@ -8930,10 +8972,10 @@
         <v>211</v>
       </c>
       <c r="D97" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E97" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>479</v>
@@ -8945,13 +8987,13 @@
         <v>679</v>
       </c>
       <c r="I97">
-        <v>1531958400</v>
+        <v>1609341525</v>
       </c>
       <c r="J97">
         <v>1</v>
       </c>
       <c r="K97" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L97">
         <v>96</v>
@@ -8983,10 +9025,10 @@
         <v>212</v>
       </c>
       <c r="D98" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E98" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>480</v>
@@ -8998,10 +9040,13 @@
         <v>680</v>
       </c>
       <c r="I98">
-        <v>1638249982</v>
+        <v>1629211557</v>
       </c>
       <c r="J98">
         <v>1</v>
+      </c>
+      <c r="K98" t="s">
+        <v>694</v>
       </c>
       <c r="L98">
         <v>97</v>
@@ -9033,10 +9078,10 @@
         <v>213</v>
       </c>
       <c r="D99" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E99" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>481</v>
@@ -9048,13 +9093,13 @@
         <v>681</v>
       </c>
       <c r="I99">
-        <v>1627020780</v>
+        <v>1623662716</v>
       </c>
       <c r="J99">
         <v>1</v>
       </c>
       <c r="K99" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="L99">
         <v>98</v>
@@ -9083,13 +9128,10 @@
         <v>114</v>
       </c>
       <c r="C100" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="D100" t="s">
-        <v>305</v>
-      </c>
-      <c r="E100" t="s">
-        <v>382</v>
+        <v>306</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>482</v>
@@ -9101,10 +9143,13 @@
         <v>682</v>
       </c>
       <c r="I100">
-        <v>1637890356</v>
+        <v>1568732160</v>
       </c>
       <c r="J100">
         <v>1</v>
+      </c>
+      <c r="K100" t="s">
+        <v>765</v>
       </c>
       <c r="L100">
         <v>99</v>
@@ -9133,13 +9178,13 @@
         <v>115</v>
       </c>
       <c r="C101" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D101" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E101" t="s">
-        <v>383</v>
+        <v>313</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>483</v>
@@ -9151,7 +9196,7 @@
         <v>683</v>
       </c>
       <c r="I101">
-        <v>1609341525</v>
+        <v>1627020780</v>
       </c>
       <c r="J101">
         <v>1</v>

--- a/coinranking.xlsx
+++ b/coinranking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="1159">
   <si>
     <t>uuid</t>
   </si>
@@ -118,12 +118,12 @@
     <t>qUhEFk1I61atv</t>
   </si>
   <si>
+    <t>MoTuySvg7</t>
+  </si>
+  <si>
     <t>_H5FVG9iW</t>
   </si>
   <si>
-    <t>MoTuySvg7</t>
-  </si>
-  <si>
     <t>dvUj0CzDZ</t>
   </si>
   <si>
@@ -166,18 +166,18 @@
     <t>ymQub4fuB</t>
   </si>
   <si>
+    <t>tEf7-dnwV3BXS</t>
+  </si>
+  <si>
     <t>pxtKbG5rg</t>
   </si>
   <si>
-    <t>tEf7-dnwV3BXS</t>
+    <t>3nNpuxHJ8</t>
   </si>
   <si>
     <t>aMNLwaUbY</t>
   </si>
   <si>
-    <t>3nNpuxHJ8</t>
-  </si>
-  <si>
     <t>SbWqqTui-</t>
   </si>
   <si>
@@ -199,12 +199,12 @@
     <t>bauj_21eYVwso</t>
   </si>
   <si>
+    <t>65PHZTpmE55b</t>
+  </si>
+  <si>
     <t>AaQUAs2Mc</t>
   </si>
   <si>
-    <t>65PHZTpmE55b</t>
-  </si>
-  <si>
     <t>ixgUfzmLR</t>
   </si>
   <si>
@@ -214,15 +214,15 @@
     <t>QQ0NCmjVq</t>
   </si>
   <si>
+    <t>iAzbfXiBBKkR6</t>
+  </si>
+  <si>
+    <t>GSCt2y6YSgO26</t>
+  </si>
+  <si>
     <t>HGYj5JCv5</t>
   </si>
   <si>
-    <t>iAzbfXiBBKkR6</t>
-  </si>
-  <si>
-    <t>GSCt2y6YSgO26</t>
-  </si>
-  <si>
     <t>JCKLgWPAF</t>
   </si>
   <si>
@@ -235,39 +235,36 @@
     <t>B42IRxNtoYmwK</t>
   </si>
   <si>
-    <t>B8xT718SbVhhh</t>
-  </si>
-  <si>
     <t>VcMY11NONHSA0</t>
   </si>
   <si>
     <t>ql3Jj4Tge</t>
   </si>
   <si>
+    <t>NfeOYfNcl</t>
+  </si>
+  <si>
     <t>aRGRWLf2RYNq4</t>
   </si>
   <si>
-    <t>NfeOYfNcl</t>
+    <t>z2PZIKQL7</t>
   </si>
   <si>
     <t>k-J3YwacF</t>
   </si>
   <si>
-    <t>z2PZIKQL7</t>
+    <t>w4MqH_Xe8</t>
   </si>
   <si>
     <t>qFakph2rpuMOL</t>
   </si>
   <si>
+    <t>w5U609Wze</t>
+  </si>
+  <si>
     <t>sgxZRXbK0FDc</t>
   </si>
   <si>
-    <t>w4MqH_Xe8</t>
-  </si>
-  <si>
-    <t>w5U609Wze</t>
-  </si>
-  <si>
     <t>QGbUTVMjG</t>
   </si>
   <si>
@@ -280,24 +277,24 @@
     <t>aQx_vW8s1</t>
   </si>
   <si>
+    <t>C9DwH-T7MEGmo</t>
+  </si>
+  <si>
     <t>uIEWfMFnQo9K_</t>
   </si>
   <si>
-    <t>C9DwH-T7MEGmo</t>
-  </si>
-  <si>
     <t>gpRKmM16k</t>
   </si>
   <si>
     <t>t7m8DZVyMsAu</t>
   </si>
   <si>
+    <t>frw2fHgZ</t>
+  </si>
+  <si>
     <t>cVaOmQWainv7g</t>
   </si>
   <si>
-    <t>frw2fHgZ</t>
-  </si>
-  <si>
     <t>Ru56fDlLB56-v</t>
   </si>
   <si>
@@ -319,51 +316,54 @@
     <t>IEJOE2-U2</t>
   </si>
   <si>
+    <t>uT6akswu0</t>
+  </si>
+  <si>
     <t>M9bj_WrX</t>
   </si>
   <si>
-    <t>uT6akswu0</t>
-  </si>
-  <si>
-    <t>lT__vMO7l</t>
+    <t>sfab31CXM</t>
   </si>
   <si>
     <t>drWC87t2Vozh</t>
   </si>
   <si>
-    <t>sfab31CXM</t>
-  </si>
-  <si>
     <t>p_GHkOeDNKw0</t>
   </si>
   <si>
+    <t>08CsQa-Ov</t>
+  </si>
+  <si>
     <t>XZfWhQXu8</t>
   </si>
   <si>
-    <t>08CsQa-Ov</t>
-  </si>
-  <si>
     <t>rk5XwL6mIjUDp</t>
   </si>
   <si>
     <t>3jmxrjOJ8xa4p</t>
   </si>
   <si>
+    <t>yecsF9VkR</t>
+  </si>
+  <si>
+    <t>J7st_qGwz</t>
+  </si>
+  <si>
     <t>qhd1biQ7M</t>
   </si>
   <si>
-    <t>yecsF9VkR</t>
-  </si>
-  <si>
-    <t>J7st_qGwz</t>
-  </si>
-  <si>
     <t>QUC5kVAxSoB-</t>
   </si>
   <si>
     <t>7XWg41D1</t>
   </si>
   <si>
+    <t>n1p-s_gm1</t>
+  </si>
+  <si>
+    <t>7Dg6y_Ywg</t>
+  </si>
+  <si>
     <t>BTC</t>
   </si>
   <si>
@@ -418,12 +418,12 @@
     <t>TRX</t>
   </si>
   <si>
+    <t>DAI</t>
+  </si>
+  <si>
     <t>UNI</t>
   </si>
   <si>
-    <t>DAI</t>
-  </si>
-  <si>
     <t>AVAX</t>
   </si>
   <si>
@@ -466,18 +466,18 @@
     <t>FIL</t>
   </si>
   <si>
+    <t>MANA</t>
+  </si>
+  <si>
     <t>SAND</t>
   </si>
   <si>
-    <t>MANA</t>
+    <t>FXS</t>
   </si>
   <si>
     <t>ICP</t>
   </si>
   <si>
-    <t>FXS</t>
-  </si>
-  <si>
     <t>ENS</t>
   </si>
   <si>
@@ -499,12 +499,12 @@
     <t>QNT</t>
   </si>
   <si>
+    <t>CRO</t>
+  </si>
+  <si>
     <t>LUNC</t>
   </si>
   <si>
-    <t>CRO</t>
-  </si>
-  <si>
     <t>AAVE</t>
   </si>
   <si>
@@ -514,15 +514,15 @@
     <t>FLOW</t>
   </si>
   <si>
+    <t>EOS</t>
+  </si>
+  <si>
+    <t>CHZ</t>
+  </si>
+  <si>
     <t>APT</t>
   </si>
   <si>
-    <t>EOS</t>
-  </si>
-  <si>
-    <t>CHZ</t>
-  </si>
-  <si>
     <t>USDP</t>
   </si>
   <si>
@@ -535,39 +535,36 @@
     <t>THETA</t>
   </si>
   <si>
-    <t>PAX</t>
-  </si>
-  <si>
     <t>BSV</t>
   </si>
   <si>
     <t>SUSHI</t>
   </si>
   <si>
+    <t>FTT</t>
+  </si>
+  <si>
     <t>ZEC</t>
   </si>
   <si>
-    <t>FTT</t>
+    <t>USDD</t>
   </si>
   <si>
     <t>WOO</t>
   </si>
   <si>
-    <t>USDD</t>
+    <t>BTT</t>
   </si>
   <si>
     <t>MKR</t>
   </si>
   <si>
+    <t>APE</t>
+  </si>
+  <si>
     <t>SNX</t>
   </si>
   <si>
-    <t>BTT</t>
-  </si>
-  <si>
-    <t>APE</t>
-  </si>
-  <si>
     <t>CRV</t>
   </si>
   <si>
@@ -580,24 +577,24 @@
     <t>XEC</t>
   </si>
   <si>
+    <t>DASH</t>
+  </si>
+  <si>
     <t>FTM</t>
   </si>
   <si>
-    <t>DASH</t>
-  </si>
-  <si>
     <t>AXS</t>
   </si>
   <si>
     <t>GT</t>
   </si>
   <si>
+    <t>TKX</t>
+  </si>
+  <si>
     <t>NEO</t>
   </si>
   <si>
-    <t>TKX</t>
-  </si>
-  <si>
     <t>RVN</t>
   </si>
   <si>
@@ -619,51 +616,54 @@
     <t>BNX</t>
   </si>
   <si>
+    <t>NFT</t>
+  </si>
+  <si>
     <t>KLAY</t>
   </si>
   <si>
-    <t>NFT</t>
-  </si>
-  <si>
-    <t>CDAI</t>
+    <t>BLOK</t>
   </si>
   <si>
     <t>ANKR</t>
   </si>
   <si>
-    <t>BLOK</t>
-  </si>
-  <si>
     <t>CETH</t>
   </si>
   <si>
+    <t>WEMIX</t>
+  </si>
+  <si>
     <t>PYR</t>
   </si>
   <si>
-    <t>WEMIX</t>
-  </si>
-  <si>
     <t>CEL</t>
   </si>
   <si>
     <t>ZIL</t>
   </si>
   <si>
+    <t>OSMO</t>
+  </si>
+  <si>
+    <t>MINA</t>
+  </si>
+  <si>
     <t>GRT</t>
   </si>
   <si>
-    <t>OSMO</t>
-  </si>
-  <si>
-    <t>MINA</t>
-  </si>
-  <si>
     <t>MX</t>
   </si>
   <si>
     <t>AR</t>
   </si>
   <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>COMP</t>
+  </si>
+  <si>
     <t>Bitcoin</t>
   </si>
   <si>
@@ -706,12 +706,12 @@
     <t>TRON</t>
   </si>
   <si>
+    <t>Dai</t>
+  </si>
+  <si>
     <t>Uniswap</t>
   </si>
   <si>
-    <t>Dai</t>
-  </si>
-  <si>
     <t>Avalanche</t>
   </si>
   <si>
@@ -754,18 +754,18 @@
     <t>Filecoin</t>
   </si>
   <si>
+    <t>Decentraland</t>
+  </si>
+  <si>
     <t>The Sandbox</t>
   </si>
   <si>
-    <t>Decentraland</t>
+    <t>Frax Share</t>
   </si>
   <si>
     <t>Internet Computer (DFINITY)</t>
   </si>
   <si>
-    <t>Frax Share</t>
-  </si>
-  <si>
     <t>EnergySwap</t>
   </si>
   <si>
@@ -787,12 +787,12 @@
     <t>Quant</t>
   </si>
   <si>
+    <t>Cronos</t>
+  </si>
+  <si>
     <t>Terra Classic</t>
   </si>
   <si>
-    <t>Cronos</t>
-  </si>
-  <si>
     <t>Aave</t>
   </si>
   <si>
@@ -802,12 +802,12 @@
     <t>Flow</t>
   </si>
   <si>
+    <t>Chiliz</t>
+  </si>
+  <si>
     <t>Aptos</t>
   </si>
   <si>
-    <t>Chiliz</t>
-  </si>
-  <si>
     <t>Pax Dollar</t>
   </si>
   <si>
@@ -820,33 +820,30 @@
     <t>Theta Token</t>
   </si>
   <si>
-    <t>Paxos Standard</t>
-  </si>
-  <si>
     <t>Bitcoin SV</t>
   </si>
   <si>
+    <t>FTX Token</t>
+  </si>
+  <si>
     <t>Zcash</t>
   </si>
   <si>
-    <t>FTX Token</t>
-  </si>
-  <si>
     <t>WOO Network</t>
   </si>
   <si>
+    <t>BitTorrent-New</t>
+  </si>
+  <si>
     <t>Maker</t>
   </si>
   <si>
+    <t>ApeCoin</t>
+  </si>
+  <si>
     <t>Synthetix Network</t>
   </si>
   <si>
-    <t>BitTorrent-New</t>
-  </si>
-  <si>
-    <t>ApeCoin</t>
-  </si>
-  <si>
     <t>Curve DAO Token</t>
   </si>
   <si>
@@ -859,12 +856,12 @@
     <t>eCash</t>
   </si>
   <si>
+    <t>Dash</t>
+  </si>
+  <si>
     <t>Fantom</t>
   </si>
   <si>
-    <t>Dash</t>
-  </si>
-  <si>
     <t>Axie Infinity</t>
   </si>
   <si>
@@ -895,51 +892,54 @@
     <t>BinaryX</t>
   </si>
   <si>
+    <t>APENFT</t>
+  </si>
+  <si>
     <t>Klaytn</t>
   </si>
   <si>
-    <t>APENFT</t>
-  </si>
-  <si>
-    <t>Compound Dai</t>
+    <t>Bloktopia</t>
   </si>
   <si>
     <t>Ankr</t>
   </si>
   <si>
-    <t>Bloktopia</t>
-  </si>
-  <si>
     <t>Compound Ether</t>
   </si>
   <si>
+    <t>WEMIX TOKEN</t>
+  </si>
+  <si>
     <t>Vulcan Forged</t>
   </si>
   <si>
-    <t>WEMIX TOKEN</t>
-  </si>
-  <si>
     <t>Celsius Network</t>
   </si>
   <si>
     <t>Zilliqa</t>
   </si>
   <si>
+    <t>Osmosis</t>
+  </si>
+  <si>
+    <t>Mina Protocol Token</t>
+  </si>
+  <si>
     <t>The Graph</t>
   </si>
   <si>
-    <t>Osmosis</t>
-  </si>
-  <si>
-    <t>Mina Protocol Token</t>
-  </si>
-  <si>
     <t>MX Token</t>
   </si>
   <si>
     <t>Arweave</t>
   </si>
   <si>
+    <t>Optimism</t>
+  </si>
+  <si>
+    <t>Compound</t>
+  </si>
+  <si>
     <t>#f7931A</t>
   </si>
   <si>
@@ -991,12 +991,12 @@
     <t>#eb0029</t>
   </si>
   <si>
+    <t>#ea9999</t>
+  </si>
+  <si>
     <t>#ff007a</t>
   </si>
   <si>
-    <t>#ea9999</t>
-  </si>
-  <si>
     <t>#e84242</t>
   </si>
   <si>
@@ -1030,12 +1030,12 @@
     <t>#0090ff</t>
   </si>
   <si>
+    <t>#f47e33</t>
+  </si>
+  <si>
     <t>#00adef</t>
   </si>
   <si>
-    <t>#f47e33</t>
-  </si>
-  <si>
     <t>#00042b</t>
   </si>
   <si>
@@ -1051,12 +1051,12 @@
     <t>#585e63</t>
   </si>
   <si>
+    <t>#01275d</t>
+  </si>
+  <si>
     <t>#0E3CA5</t>
   </si>
   <si>
-    <t>#01275d</t>
-  </si>
-  <si>
     <t>#B6509E</t>
   </si>
   <si>
@@ -1078,54 +1078,51 @@
     <t>#1b1f2a</t>
   </si>
   <si>
-    <t>#085229</t>
-  </si>
-  <si>
     <t>#eab300</t>
   </si>
   <si>
     <t>#b06b2e</t>
   </si>
   <si>
+    <t>#77d9ed</t>
+  </si>
+  <si>
     <t>#000</t>
   </si>
   <si>
-    <t>#77d9ed</t>
-  </si>
-  <si>
     <t>#1abc9c</t>
   </si>
   <si>
+    <t>#0042C7</t>
+  </si>
+  <si>
     <t>#90dce0</t>
   </si>
   <si>
-    <t>#0042C7</t>
-  </si>
-  <si>
     <t>#0030ff</t>
   </si>
   <si>
     <t>#23AF91</t>
   </si>
   <si>
+    <t>#1c75bc</t>
+  </si>
+  <si>
     <t>#1969ff</t>
   </si>
   <si>
-    <t>#1c75bc</t>
-  </si>
-  <si>
     <t>#f5a616</t>
   </si>
   <si>
     <t>#de5959</t>
   </si>
   <si>
+    <t>#ff8f40</t>
+  </si>
+  <si>
     <t>#aedb00</t>
   </si>
   <si>
-    <t>#ff8f40</t>
-  </si>
-  <si>
     <t>#384182</t>
   </si>
   <si>
@@ -1150,22 +1147,28 @@
     <t>#277fcc</t>
   </si>
   <si>
+    <t>#9bdc70</t>
+  </si>
+  <si>
     <t>#fa8742</t>
   </si>
   <si>
-    <t>#9bdc70</t>
-  </si>
-  <si>
     <t>#f37425</t>
   </si>
   <si>
     <t>#49c1bf</t>
   </si>
   <si>
+    <t>#1b154f</t>
+  </si>
+  <si>
     <t>#b090e0</t>
   </si>
   <si>
-    <t>#1b154f</t>
+    <t>#ff2a29</t>
+  </si>
+  <si>
+    <t>#00d395</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/bOabBYkcX/bitcoin_btc.svg</t>
@@ -1222,12 +1225,12 @@
     <t>https://cdn.coinranking.com/behejNqQs/trx.svg</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/mAZ_7LwOE/mutli-collateral-dai.svg</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/1heSvUgtl/uniswap-v2.svg?size=48x48</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/mAZ_7LwOE/mutli-collateral-dai.svg</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/S0C6Cw2-w/avax-avalanche.png</t>
   </si>
   <si>
@@ -1270,18 +1273,18 @@
     <t>https://cdn.coinranking.com/vUmvv-IQA/FIL3-filecoin.svg?size=48x48</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/ph_svUzXs/decentraland(1).svg</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/kd_vwOcnI/sandbox.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/ph_svUzXs/decentraland(1).svg</t>
+    <t>https://cdn.coinranking.com/_UuWZ5htj/FS.png</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/1uJ_RVrmC/dfinity-icp.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/_UuWZ5htj/FS.png</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/fmYxEUV5a/cropped-logo37-Converted-01-192x192.png</t>
   </si>
   <si>
@@ -1303,12 +1306,12 @@
     <t>https://cdn.coinranking.com/a-i9Dl392/quant.png</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/2o91jm73M/cro.svg</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/F-PJdF8Um/LUNA.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/2o91jm73M/cro.svg</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/4bpYKqV4X/AAVE.png</t>
   </si>
   <si>
@@ -1318,15 +1321,15 @@
     <t>https://cdn.coinranking.com/xh8X8QBss/flow.png</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/PqOYrWSje/eos2.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/gTsOlSnwR/4066.png</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/KXUaDFjqm/21794.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/PqOYrWSje/eos2.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/gTsOlSnwR/4066.png</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/KUd2bJXdn/3330.png</t>
   </si>
   <si>
@@ -1339,39 +1342,36 @@
     <t>https://cdn.coinranking.com/HJHg2k9Lf/theta.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/H1NkFcuhX/pax.svg</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/388ehh6kq/bitcoin-sv-1.svg</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/eKKejWkdo/sushiswap.png</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/WyBm4_EzM/ftx-exchange.svg</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/rJrKiS_uZ/zec.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/WyBm4_EzM/ftx-exchange.svg</t>
+    <t>https://cdn.coinranking.com/HeEyq_2CG/usdd.png</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/03_LGK8B-/7501.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/HeEyq_2CG/usdd.png</t>
+    <t>https://cdn.coinranking.com/xHIci4Je9/16086.png</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/sjHfS7jCS/mkrdao.svg</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/qT3ukh7Z9/APE.png</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/c2WntZSPs/snx-synthetix.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/xHIci4Je9/16086.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/qT3ukh7Z9/APE.png</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/89clXLSu2/curve-dao-token.svg</t>
   </si>
   <si>
@@ -1384,24 +1384,24 @@
     <t>https://cdn.coinranking.com/wdqRaUEhn/xec.png</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/PyCmduSxt/Dash-D-white_on_blue_circle.svg</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/Uh-AYdcnU/fantom.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/PyCmduSxt/Dash-D-white_on_blue_circle.svg</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/L3gWtlUJB/axie-infinity.png</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/tRE6BrzE0/GT[1].svg</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/JYtWb5AXp/tokenize.svg</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/MgUNVQCeN/neo.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/JYtWb5AXp/tokenize.svg</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/Rw1xg7rFE/rvn.svg</t>
   </si>
   <si>
@@ -1423,1198 +1423,1174 @@
     <t>https://cdn.coinranking.com/mX2o6GwxI/BinaryX-RGB-01_(2).PNG</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/43Mb3MHYr/9816.png</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/cY-BSmXaS/klay.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/43Mb3MHYr/9816.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/aZPPc1MqR/cDAI.svg</t>
+    <t>https://cdn.coinranking.com/P6P1BdGJ9/11206.png</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/2NXhylXMw/ankr.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/P6P1BdGJ9/11206.png</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/ZTQUl5jrQ/CETH2.svg</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/1N84MQsoO/7548.png</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/Y3sN-F7tM/PYR.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/1N84MQsoO/7548.png</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/XPU7TeCYD/New-CEL.png</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/H18JFWswf/zil.svg</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/nqAP4gRwW/osmosis.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/IqAKk8Gab/mina.png</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/g6FVr-7Vs/grt.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/nqAP4gRwW/osmosis.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/IqAKk8Gab/mina.png</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/5H4rM81Pj/mxc.svg</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/96QRZJzE9/5632.png</t>
   </si>
   <si>
-    <t>402638806180</t>
-  </si>
-  <si>
-    <t>189633255582</t>
-  </si>
-  <si>
-    <t>65218399937</t>
-  </si>
-  <si>
-    <t>43698341873</t>
-  </si>
-  <si>
-    <t>43119318109</t>
-  </si>
-  <si>
-    <t>19511231239</t>
-  </si>
-  <si>
-    <t>16391283113</t>
-  </si>
-  <si>
-    <t>12310560466</t>
-  </si>
-  <si>
-    <t>11758966148</t>
-  </si>
-  <si>
-    <t>8890167725</t>
-  </si>
-  <si>
-    <t>8516035337</t>
-  </si>
-  <si>
-    <t>7777528139</t>
-  </si>
-  <si>
-    <t>7083509269</t>
-  </si>
-  <si>
-    <t>6877258597</t>
-  </si>
-  <si>
-    <t>6287656666</t>
-  </si>
-  <si>
-    <t>6248226436</t>
-  </si>
-  <si>
-    <t>6052916619</t>
-  </si>
-  <si>
-    <t>5755984381</t>
-  </si>
-  <si>
-    <t>5240218419</t>
-  </si>
-  <si>
-    <t>5227704842</t>
-  </si>
-  <si>
-    <t>5052004931</t>
-  </si>
-  <si>
-    <t>4167956432</t>
-  </si>
-  <si>
-    <t>3965924375</t>
-  </si>
-  <si>
-    <t>3362233173</t>
-  </si>
-  <si>
-    <t>3201624030</t>
-  </si>
-  <si>
-    <t>3085418855</t>
-  </si>
-  <si>
-    <t>2705244678</t>
-  </si>
-  <si>
-    <t>2577100644</t>
-  </si>
-  <si>
-    <t>2404513311</t>
-  </si>
-  <si>
-    <t>1903280266</t>
-  </si>
-  <si>
-    <t>1770306050</t>
-  </si>
-  <si>
-    <t>1690012049</t>
-  </si>
-  <si>
-    <t>1597261156</t>
-  </si>
-  <si>
-    <t>1560690437</t>
-  </si>
-  <si>
-    <t>1515807330</t>
-  </si>
-  <si>
-    <t>1498377640</t>
-  </si>
-  <si>
-    <t>1450697424</t>
-  </si>
-  <si>
-    <t>1435039798</t>
-  </si>
-  <si>
-    <t>1414758952</t>
-  </si>
-  <si>
-    <t>1410784422</t>
-  </si>
-  <si>
-    <t>1381529665</t>
-  </si>
-  <si>
-    <t>1340034058</t>
-  </si>
-  <si>
-    <t>1298763864</t>
-  </si>
-  <si>
-    <t>1295397382</t>
-  </si>
-  <si>
-    <t>1281015770</t>
-  </si>
-  <si>
-    <t>1208790887</t>
-  </si>
-  <si>
-    <t>1204355704</t>
-  </si>
-  <si>
-    <t>1159818717</t>
-  </si>
-  <si>
-    <t>1143618226</t>
-  </si>
-  <si>
-    <t>1138802017</t>
-  </si>
-  <si>
-    <t>1066302600</t>
-  </si>
-  <si>
-    <t>1052767674</t>
-  </si>
-  <si>
-    <t>1047187652</t>
-  </si>
-  <si>
-    <t>1011788969</t>
-  </si>
-  <si>
-    <t>973718145</t>
-  </si>
-  <si>
-    <t>938871150</t>
-  </si>
-  <si>
-    <t>931589772</t>
-  </si>
-  <si>
-    <t>896001560</t>
-  </si>
-  <si>
-    <t>860723975</t>
-  </si>
-  <si>
-    <t>804170535</t>
-  </si>
-  <si>
-    <t>717330465</t>
-  </si>
-  <si>
-    <t>714715849</t>
-  </si>
-  <si>
-    <t>706745239</t>
-  </si>
-  <si>
-    <t>701992543</t>
-  </si>
-  <si>
-    <t>695175465</t>
-  </si>
-  <si>
-    <t>693155605</t>
-  </si>
-  <si>
-    <t>687724075</t>
-  </si>
-  <si>
-    <t>686130030</t>
-  </si>
-  <si>
-    <t>615859069</t>
-  </si>
-  <si>
-    <t>608228745</t>
-  </si>
-  <si>
-    <t>598953026</t>
-  </si>
-  <si>
-    <t>580635247</t>
-  </si>
-  <si>
-    <t>575569506</t>
-  </si>
-  <si>
-    <t>571565008</t>
-  </si>
-  <si>
-    <t>565159274</t>
-  </si>
-  <si>
-    <t>548093325</t>
-  </si>
-  <si>
-    <t>544286820</t>
-  </si>
-  <si>
-    <t>540986292</t>
-  </si>
-  <si>
-    <t>528792978</t>
-  </si>
-  <si>
-    <t>528765259</t>
-  </si>
-  <si>
-    <t>521110647</t>
-  </si>
-  <si>
-    <t>514533509</t>
-  </si>
-  <si>
-    <t>512864369</t>
-  </si>
-  <si>
-    <t>484224787</t>
-  </si>
-  <si>
-    <t>475775900</t>
-  </si>
-  <si>
-    <t>472306000</t>
-  </si>
-  <si>
-    <t>468161475</t>
-  </si>
-  <si>
-    <t>461907328</t>
-  </si>
-  <si>
-    <t>453267536</t>
-  </si>
-  <si>
-    <t>451504826</t>
-  </si>
-  <si>
-    <t>445800326</t>
-  </si>
-  <si>
-    <t>443467447</t>
-  </si>
-  <si>
-    <t>439684280</t>
-  </si>
-  <si>
-    <t>437517714</t>
-  </si>
-  <si>
-    <t>436288646</t>
-  </si>
-  <si>
-    <t>422655138</t>
-  </si>
-  <si>
-    <t>421567453</t>
-  </si>
-  <si>
-    <t>420435684</t>
-  </si>
-  <si>
-    <t>405155112</t>
-  </si>
-  <si>
-    <t>404621971</t>
-  </si>
-  <si>
-    <t>20949.31774448195</t>
-  </si>
-  <si>
-    <t>1554.0532023506944</t>
-  </si>
-  <si>
-    <t>0.9977926078910223</t>
-  </si>
-  <si>
-    <t>0.9981809633471815</t>
-  </si>
-  <si>
-    <t>301.9233346962234</t>
-  </si>
-  <si>
-    <t>0.3879069924822366</t>
-  </si>
-  <si>
-    <t>0.9973781520829843</t>
-  </si>
-  <si>
-    <t>0.3512784462491895</t>
-  </si>
-  <si>
-    <t>0.08593364373813195</t>
-  </si>
-  <si>
-    <t>0.992239224585672</t>
-  </si>
-  <si>
-    <t>23.449985541420624</t>
-  </si>
-  <si>
-    <t>31.534059733116763</t>
-  </si>
-  <si>
-    <t>5.986685085231625</t>
-  </si>
-  <si>
-    <t>6.877881216926358</t>
-  </si>
-  <si>
-    <t>1553.0140565743447</t>
-  </si>
-  <si>
-    <t>88.17045451497475</t>
-  </si>
-  <si>
-    <t>0.000010266914869529</t>
-  </si>
-  <si>
-    <t>0.06246425686607021</t>
-  </si>
-  <si>
-    <t>6.586763915721217</t>
-  </si>
-  <si>
-    <t>0.9985037302057878</t>
-  </si>
-  <si>
-    <t>16.799638323562345</t>
-  </si>
-  <si>
-    <t>12.98988253616667</t>
-  </si>
-  <si>
-    <t>20952.9521447888</t>
-  </si>
-  <si>
-    <t>2.2816590464588535</t>
-  </si>
-  <si>
-    <t>175.84766490069956</t>
-  </si>
-  <si>
-    <t>22.32790849919728</t>
-  </si>
-  <si>
-    <t>2.3164262112165526</t>
-  </si>
-  <si>
-    <t>5.1542013000512314</t>
-  </si>
-  <si>
-    <t>125.68412785585606</t>
-  </si>
-  <si>
-    <t>1.5677785730260043</t>
-  </si>
-  <si>
-    <t>0.0876149555835518</t>
-  </si>
-  <si>
-    <t>0.23483354880937143</t>
-  </si>
-  <si>
-    <t>1705.5422231400078</t>
-  </si>
-  <si>
-    <t>4.767328292493371</t>
-  </si>
-  <si>
-    <t>0.7222770967422503</t>
-  </si>
-  <si>
-    <t>0.6831794021822741</t>
-  </si>
-  <si>
-    <t>5.110513616608586</t>
-  </si>
-  <si>
-    <t>8.12229769906126</t>
-  </si>
-  <si>
-    <t>14.147589520984813</t>
-  </si>
-  <si>
-    <t>0.021131946623275392</t>
-  </si>
-  <si>
-    <t>0.9980751110629593</t>
-  </si>
-  <si>
-    <t>2.2045678263846162</t>
-  </si>
-  <si>
-    <t>3.7356156260659157</t>
-  </si>
-  <si>
-    <t>0.05236420396403872</t>
-  </si>
-  <si>
-    <t>131.02023623954705</t>
-  </si>
-  <si>
-    <t>0.000183180174398142</t>
-  </si>
-  <si>
-    <t>0.07416784779577026</t>
-  </si>
-  <si>
-    <t>80.81712422574296</t>
-  </si>
-  <si>
-    <t>0.5718091130296179</t>
-  </si>
-  <si>
-    <t>1.0990175807510947</t>
-  </si>
-  <si>
-    <t>8.202327690285514</t>
-  </si>
-  <si>
-    <t>1.0649990460379284</t>
-  </si>
-  <si>
-    <t>0.13805554669875925</t>
-  </si>
-  <si>
-    <t>0.9959065333846114</t>
-  </si>
-  <si>
-    <t>40.77258802601613</t>
-  </si>
-  <si>
-    <t>1.0233739588944948</t>
-  </si>
-  <si>
-    <t>0.931597819474508</t>
-  </si>
-  <si>
-    <t>0.999648655461422</t>
-  </si>
-  <si>
-    <t>44.88938311925815</t>
-  </si>
-  <si>
-    <t>1.318287348229532</t>
-  </si>
-  <si>
-    <t>45.39190000211727</t>
-  </si>
-  <si>
-    <t>2.173081394124778</t>
-  </si>
-  <si>
-    <t>0.1983725758821455</t>
-  </si>
-  <si>
-    <t>0.9678223326364741</t>
-  </si>
-  <si>
-    <t>711.0262357744215</t>
-  </si>
-  <si>
-    <t>2.2211167366291464</t>
-  </si>
-  <si>
-    <t>7.27499279902e-7</t>
-  </si>
-  <si>
-    <t>5.230108685934051</t>
-  </si>
-  <si>
-    <t>0.8485895080247153</t>
-  </si>
-  <si>
-    <t>0.2188242913772075</t>
-  </si>
-  <si>
-    <t>7.918286947836911</t>
-  </si>
-  <si>
-    <t>0.000030276176152009</t>
-  </si>
-  <si>
-    <t>0.3311366957357019</t>
-  </si>
-  <si>
-    <t>51.83085286222586</t>
-  </si>
-  <si>
-    <t>9.278976706990404</t>
-  </si>
-  <si>
-    <t>3.770130392662921</t>
-  </si>
-  <si>
-    <t>7.717096558488339</t>
-  </si>
-  <si>
-    <t>6.7626667916913705</t>
-  </si>
-  <si>
-    <t>0.025180617999426162</t>
-  </si>
-  <si>
-    <t>1.7581252268611298</t>
-  </si>
-  <si>
-    <t>29.263293341701278</t>
-  </si>
-  <si>
-    <t>1891.6264341343267</t>
-  </si>
-  <si>
-    <t>0.9980607164389931</t>
-  </si>
-  <si>
-    <t>0.7494047882355304</t>
-  </si>
-  <si>
-    <t>77.97669382390842</t>
-  </si>
-  <si>
-    <t>0.19293079751219946</t>
-  </si>
-  <si>
-    <t>4.68166156575e-7</t>
-  </si>
-  <si>
-    <t>0.02210985133082037</t>
-  </si>
-  <si>
-    <t>0.023139920570054016</t>
-  </si>
-  <si>
-    <t>0.002257524128405739</t>
-  </si>
-  <si>
-    <t>31.173781561438346</t>
-  </si>
-  <si>
-    <t>3.859697203018468</t>
-  </si>
-  <si>
-    <t>0.4396842800970832</t>
-  </si>
-  <si>
-    <t>0.6315633929910289</t>
-  </si>
-  <si>
-    <t>0.025850939750727973</t>
-  </si>
-  <si>
-    <t>0.08865223400382347</t>
-  </si>
-  <si>
-    <t>0.8625330236157475</t>
-  </si>
-  <si>
-    <t>0.5558763256413031</t>
-  </si>
-  <si>
-    <t>0.926704311789695</t>
-  </si>
-  <si>
-    <t>9.232545186778685</t>
+    <t>https://cdn.coinranking.com/GaG3fv_rq/11840.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/2es4I0GGs/compound-icon.svg</t>
+  </si>
+  <si>
+    <t>401381171171</t>
+  </si>
+  <si>
+    <t>188755402033</t>
+  </si>
+  <si>
+    <t>65425350165</t>
+  </si>
+  <si>
+    <t>43880348796</t>
+  </si>
+  <si>
+    <t>43063455910</t>
+  </si>
+  <si>
+    <t>19435122385</t>
+  </si>
+  <si>
+    <t>16459482012</t>
+  </si>
+  <si>
+    <t>12277508684</t>
+  </si>
+  <si>
+    <t>11659705636</t>
+  </si>
+  <si>
+    <t>8827007489</t>
+  </si>
+  <si>
+    <t>8435148328</t>
+  </si>
+  <si>
+    <t>7773329858</t>
+  </si>
+  <si>
+    <t>7047131581</t>
+  </si>
+  <si>
+    <t>6848704588</t>
+  </si>
+  <si>
+    <t>6251972247</t>
+  </si>
+  <si>
+    <t>6243765474</t>
+  </si>
+  <si>
+    <t>6028113033</t>
+  </si>
+  <si>
+    <t>5757911525</t>
+  </si>
+  <si>
+    <t>5228095211</t>
+  </si>
+  <si>
+    <t>5206827383</t>
+  </si>
+  <si>
+    <t>5037311458</t>
+  </si>
+  <si>
+    <t>4168102723</t>
+  </si>
+  <si>
+    <t>3940451730</t>
+  </si>
+  <si>
+    <t>3360002535</t>
+  </si>
+  <si>
+    <t>3185385403</t>
+  </si>
+  <si>
+    <t>3066925181</t>
+  </si>
+  <si>
+    <t>2667776880</t>
+  </si>
+  <si>
+    <t>2570654899</t>
+  </si>
+  <si>
+    <t>2400211501</t>
+  </si>
+  <si>
+    <t>1893793269</t>
+  </si>
+  <si>
+    <t>1766110823</t>
+  </si>
+  <si>
+    <t>1687556528</t>
+  </si>
+  <si>
+    <t>1589937611</t>
+  </si>
+  <si>
+    <t>1545611900</t>
+  </si>
+  <si>
+    <t>1477176688</t>
+  </si>
+  <si>
+    <t>1465174046</t>
+  </si>
+  <si>
+    <t>1439641449</t>
+  </si>
+  <si>
+    <t>1443503870</t>
+  </si>
+  <si>
+    <t>1402917576</t>
+  </si>
+  <si>
+    <t>1398954428</t>
+  </si>
+  <si>
+    <t>1388000189</t>
+  </si>
+  <si>
+    <t>1314136228</t>
+  </si>
+  <si>
+    <t>1292500215</t>
+  </si>
+  <si>
+    <t>1294005751</t>
+  </si>
+  <si>
+    <t>1278438478</t>
+  </si>
+  <si>
+    <t>1197261136</t>
+  </si>
+  <si>
+    <t>1198970430</t>
+  </si>
+  <si>
+    <t>1153259840</t>
+  </si>
+  <si>
+    <t>1136267359</t>
+  </si>
+  <si>
+    <t>1124247584</t>
+  </si>
+  <si>
+    <t>1051194017</t>
+  </si>
+  <si>
+    <t>1044723500</t>
+  </si>
+  <si>
+    <t>1035661871</t>
+  </si>
+  <si>
+    <t>1017789175</t>
+  </si>
+  <si>
+    <t>969973057</t>
+  </si>
+  <si>
+    <t>935333155</t>
+  </si>
+  <si>
+    <t>928836837</t>
+  </si>
+  <si>
+    <t>857263813</t>
+  </si>
+  <si>
+    <t>790651109</t>
+  </si>
+  <si>
+    <t>776432419</t>
+  </si>
+  <si>
+    <t>711482755</t>
+  </si>
+  <si>
+    <t>704229941</t>
+  </si>
+  <si>
+    <t>700479054</t>
+  </si>
+  <si>
+    <t>691518094</t>
+  </si>
+  <si>
+    <t>687748885</t>
+  </si>
+  <si>
+    <t>679391334</t>
+  </si>
+  <si>
+    <t>681980305</t>
+  </si>
+  <si>
+    <t>611507148</t>
+  </si>
+  <si>
+    <t>600627770</t>
+  </si>
+  <si>
+    <t>599035838</t>
+  </si>
+  <si>
+    <t>576162819</t>
+  </si>
+  <si>
+    <t>569343681</t>
+  </si>
+  <si>
+    <t>568797012</t>
+  </si>
+  <si>
+    <t>555971843</t>
+  </si>
+  <si>
+    <t>549152198</t>
+  </si>
+  <si>
+    <t>541551497</t>
+  </si>
+  <si>
+    <t>542631897</t>
+  </si>
+  <si>
+    <t>523608715</t>
+  </si>
+  <si>
+    <t>522409861</t>
+  </si>
+  <si>
+    <t>521978142</t>
+  </si>
+  <si>
+    <t>517608129</t>
+  </si>
+  <si>
+    <t>515549196</t>
+  </si>
+  <si>
+    <t>482877227</t>
+  </si>
+  <si>
+    <t>479875716</t>
+  </si>
+  <si>
+    <t>468098906</t>
+  </si>
+  <si>
+    <t>471444107</t>
+  </si>
+  <si>
+    <t>454135098</t>
+  </si>
+  <si>
+    <t>451947197</t>
+  </si>
+  <si>
+    <t>443358996</t>
+  </si>
+  <si>
+    <t>441545984</t>
+  </si>
+  <si>
+    <t>443411337</t>
+  </si>
+  <si>
+    <t>431209784</t>
+  </si>
+  <si>
+    <t>435052291</t>
+  </si>
+  <si>
+    <t>420410905</t>
+  </si>
+  <si>
+    <t>417798039</t>
+  </si>
+  <si>
+    <t>417681029</t>
+  </si>
+  <si>
+    <t>402495677</t>
+  </si>
+  <si>
+    <t>401720776</t>
+  </si>
+  <si>
+    <t>389855182</t>
+  </si>
+  <si>
+    <t>390642400</t>
+  </si>
+  <si>
+    <t>20883.88293046159</t>
+  </si>
+  <si>
+    <t>1546.859152370201</t>
+  </si>
+  <si>
+    <t>1.0009587911766435</t>
+  </si>
+  <si>
+    <t>1.0023384631114063</t>
+  </si>
+  <si>
+    <t>301.5321851559914</t>
+  </si>
+  <si>
+    <t>0.3863938559718915</t>
+  </si>
+  <si>
+    <t>1.001527924355579</t>
+  </si>
+  <si>
+    <t>0.3503353227683248</t>
+  </si>
+  <si>
+    <t>0.08520825535390242</t>
+  </si>
+  <si>
+    <t>0.9851898565839654</t>
+  </si>
+  <si>
+    <t>23.22725288198864</t>
+  </si>
+  <si>
+    <t>31.517037766138976</t>
+  </si>
+  <si>
+    <t>5.955888544963675</t>
+  </si>
+  <si>
+    <t>6.8493246230210865</t>
+  </si>
+  <si>
+    <t>1543.6827801669697</t>
+  </si>
+  <si>
+    <t>88.10750464452073</t>
+  </si>
+  <si>
+    <t>0.000010224843200952</t>
+  </si>
+  <si>
+    <t>0.06248517034105817</t>
+  </si>
+  <si>
+    <t>0.998585539559801</t>
+  </si>
+  <si>
+    <t>6.544792597689393</t>
+  </si>
+  <si>
+    <t>16.7507775189386</t>
+  </si>
+  <si>
+    <t>12.990338467068838</t>
+  </si>
+  <si>
+    <t>20818.373906162407</t>
+  </si>
+  <si>
+    <t>2.2801453036389034</t>
+  </si>
+  <si>
+    <t>174.95576607212453</t>
+  </si>
+  <si>
+    <t>22.194077383169486</t>
+  </si>
+  <si>
+    <t>2.284343571630055</t>
+  </si>
+  <si>
+    <t>5.141309811374129</t>
+  </si>
+  <si>
+    <t>125.4592718783807</t>
+  </si>
+  <si>
+    <t>1.559963900447406</t>
+  </si>
+  <si>
+    <t>0.08740732783682335</t>
+  </si>
+  <si>
+    <t>0.23449234697639454</t>
+  </si>
+  <si>
+    <t>1697.722201983474</t>
+  </si>
+  <si>
+    <t>4.721268976604394</t>
+  </si>
+  <si>
+    <t>0.6735129114388926</t>
+  </si>
+  <si>
+    <t>0.6981505071065788</t>
+  </si>
+  <si>
+    <t>8.148342954236213</t>
+  </si>
+  <si>
+    <t>5.085169957573104</t>
+  </si>
+  <si>
+    <t>14.029175764234493</t>
+  </si>
+  <si>
+    <t>0.020954746762490043</t>
+  </si>
+  <si>
+    <t>1.002749689663771</t>
+  </si>
+  <si>
+    <t>2.1619618035879955</t>
+  </si>
+  <si>
+    <t>3.717599583500577</t>
+  </si>
+  <si>
+    <t>0.05230794966880103</t>
+  </si>
+  <si>
+    <t>130.75663490039156</t>
+  </si>
+  <si>
+    <t>0.07373094293360366</t>
+  </si>
+  <si>
+    <t>0.000181691982325785</t>
+  </si>
+  <si>
+    <t>80.36009626892991</t>
+  </si>
+  <si>
+    <t>0.5681336792718867</t>
+  </si>
+  <si>
+    <t>1.0849716116074783</t>
+  </si>
+  <si>
+    <t>1.0634071055464103</t>
+  </si>
+  <si>
+    <t>0.13773068621753867</t>
+  </si>
+  <si>
+    <t>7.966629776747362</t>
+  </si>
+  <si>
+    <t>1.0018125523169614</t>
+  </si>
+  <si>
+    <t>40.61576964670617</t>
+  </si>
+  <si>
+    <t>1.0195175281976223</t>
+  </si>
+  <si>
+    <t>0.9288448613560192</t>
+  </si>
+  <si>
+    <t>44.70892506800824</t>
+  </si>
+  <si>
+    <t>1.2961247752267202</t>
+  </si>
+  <si>
+    <t>2.3607295745075754</t>
+  </si>
+  <si>
+    <t>45.021863162877644</t>
+  </si>
+  <si>
+    <t>0.9709069863461761</t>
+  </si>
+  <si>
+    <t>0.19661375359119745</t>
+  </si>
+  <si>
+    <t>7.31512729282e-7</t>
+  </si>
+  <si>
+    <t>703.4303215323314</t>
+  </si>
+  <si>
+    <t>5.178742171421143</t>
+  </si>
+  <si>
+    <t>2.185307103525238</t>
+  </si>
+  <si>
+    <t>0.8425930146565116</t>
+  </si>
+  <si>
+    <t>0.21608966569287216</t>
+  </si>
+  <si>
+    <t>7.9193817416262675</t>
+  </si>
+  <si>
+    <t>0.000030042969482861</t>
+  </si>
+  <si>
+    <t>51.62941775780401</t>
+  </si>
+  <si>
+    <t>0.32724045596426343</t>
+  </si>
+  <si>
+    <t>9.128134352143064</t>
+  </si>
+  <si>
+    <t>3.7774139846625667</t>
+  </si>
+  <si>
+    <t>6.769732206292951</t>
+  </si>
+  <si>
+    <t>7.693632448271831</t>
+  </si>
+  <si>
+    <t>0.024933748334807385</t>
+  </si>
+  <si>
+    <t>1.7369937605841954</t>
+  </si>
+  <si>
+    <t>29.312008079673824</t>
+  </si>
+  <si>
+    <t>1902.9299383235993</t>
+  </si>
+  <si>
+    <t>1.0032855303419899</t>
+  </si>
+  <si>
+    <t>0.7473192529721417</t>
+  </si>
+  <si>
+    <t>78.64862795927274</t>
+  </si>
+  <si>
+    <t>4.68103587422e-7</t>
+  </si>
+  <si>
+    <t>0.19257872525632663</t>
+  </si>
+  <si>
+    <t>0.002270675488056408</t>
+  </si>
+  <si>
+    <t>0.02307251547885516</t>
+  </si>
+  <si>
+    <t>31.003065035598386</t>
+  </si>
+  <si>
+    <t>0.44154598366314596</t>
+  </si>
+  <si>
+    <t>3.8592088528981883</t>
+  </si>
+  <si>
+    <t>0.622457801886885</t>
+  </si>
+  <si>
+    <t>0.02577768337240248</t>
+  </si>
+  <si>
+    <t>0.8601667093905128</t>
+  </si>
+  <si>
+    <t>0.5523889807140678</t>
+  </si>
+  <si>
+    <t>0.08760891085883991</t>
+  </si>
+  <si>
+    <t>0.9206214300787303</t>
+  </si>
+  <si>
+    <t>9.166346585430428</t>
+  </si>
+  <si>
+    <t>1.8154046636344847</t>
+  </si>
+  <si>
+    <t>52.90370221782993</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>-0.25</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>-0.33</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>-0.31</t>
+  </si>
+  <si>
+    <t>-0.21</t>
+  </si>
+  <si>
+    <t>0.42</t>
   </si>
   <si>
     <t>0.29</t>
   </si>
   <si>
-    <t>0.53</t>
+    <t>-0.13</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>-0.30</t>
+  </si>
+  <si>
+    <t>-0.65</t>
+  </si>
+  <si>
+    <t>-0.12</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>-1.42</t>
+  </si>
+  <si>
+    <t>-0.35</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>-0.87</t>
+  </si>
+  <si>
+    <t>4.14</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>-0.95</t>
+  </si>
+  <si>
+    <t>-0.68</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>-1.48</t>
+  </si>
+  <si>
+    <t>0.24</t>
   </si>
   <si>
     <t>-0.14</t>
   </si>
   <si>
-    <t>-0.13</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>0.62</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>0.02</t>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>-2.57</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>-0.05</t>
+  </si>
+  <si>
+    <t>-0.99</t>
+  </si>
+  <si>
+    <t>11.08</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>1.52</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>-0.83</t>
+  </si>
+  <si>
+    <t>-2.12</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>-0.53</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>-0.88</t>
+  </si>
+  <si>
+    <t>-0.85</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>-0.43</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>0.23</t>
   </si>
   <si>
     <t>0.35</t>
   </si>
   <si>
-    <t>0.60</t>
-  </si>
-  <si>
-    <t>0.30</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>-0.11</t>
-  </si>
-  <si>
-    <t>1.16</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>-0.31</t>
-  </si>
-  <si>
-    <t>-0.10</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>1.12</t>
-  </si>
-  <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>-0.55</t>
-  </si>
-  <si>
-    <t>5.84</t>
-  </si>
-  <si>
-    <t>7.91</t>
-  </si>
-  <si>
-    <t>-0.69</t>
-  </si>
-  <si>
-    <t>3.36</t>
-  </si>
-  <si>
-    <t>1.06</t>
-  </si>
-  <si>
-    <t>-0.06</t>
-  </si>
-  <si>
-    <t>1.33</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>0.81</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>0.88</t>
-  </si>
-  <si>
-    <t>1.01</t>
-  </si>
-  <si>
-    <t>0.70</t>
-  </si>
-  <si>
-    <t>1.72</t>
-  </si>
-  <si>
-    <t>-0.91</t>
-  </si>
-  <si>
-    <t>0.67</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>-0.04</t>
-  </si>
-  <si>
-    <t>1.46</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>-0.15</t>
-  </si>
-  <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>12.33</t>
-  </si>
-  <si>
-    <t>2.86</t>
-  </si>
-  <si>
-    <t>-0.09</t>
-  </si>
-  <si>
-    <t>1.92</t>
-  </si>
-  <si>
-    <t>-0.07</t>
-  </si>
-  <si>
-    <t>0.44</t>
-  </si>
-  <si>
-    <t>0.90</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>1.42</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>1.47</t>
-  </si>
-  <si>
-    <t>-0.12</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>1.94</t>
-  </si>
-  <si>
-    <t>1.64</t>
-  </si>
-  <si>
-    <t>2.77</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>1.09</t>
-  </si>
-  <si>
-    <t>-0.05</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>['20888.059342580145', '20872.859720048866', '20864.08242802528', '20854.068245294256', '20866.444963495338', '20877.606515096915', '20858.71627838141', '20863.385866204582', '20890.86286642219', '20882.61360496627', '20866.01855473859', '20868.8132510744', '20881.644944498625', '20883.925225787905', '20883.733824124312', '20883.968639548595', '20889.824314819725', '20910.4681478454', '20920.047913054892', '20930.50814005776', '20932.59566285517', '20929.64765864909', '20932.73976770876', '20935.473930049648', '20939.720646286736']</t>
-  </si>
-  <si>
-    <t>['1545.5862529402316', '1545.5417164542698', '1544.8860500642872', '1544.657087955445', '1545.4190895372997', '1545.800046944374', '1545.0381435798827', '1545.7398138216017', '1546.6499252392623', '1546.2539793278295', '1546.0053620656033', '1546.5807704136832', '1547.3038039301198', '1547.2387900841077', '1547.5532594854324', '1548.1381894609583', '1549.1784215233738', '1551.063606746339', '1552.0987224422895', '1554.5979395688869', '1554.1614072737968', '1553.051874632252', '1552.67129999414', '1552.7345521901111', '1553.3090114947072']</t>
-  </si>
-  <si>
-    <t>['0.9992681022022187', '0.9994336589529568', '0.9995371080427669', '0.9997810041804046', '0.9993609168422358', '0.9990180047723488', '0.9998199119859995', '0.999620714979349', '0.9985761612060564', '0.9989306790996206', '0.9997144360675598', '0.9995811343880934', '0.9989888697111877', '0.9988127779866881', '0.9988984901307496', '0.9992123354504243', '0.9990194739237489', '0.998150233070809', '0.9977020107924873', '0.9975408656714387', '0.9982237219711636', '0.9983663491938861', '0.9985119896492675', '0.9985459663843523', '0.9983789488797743']</t>
-  </si>
-  <si>
-    <t>['0.999400060997163', '0.9993370527347444', '0.9993543123236461', '0.9991759170046313', '0.9989538520549587', '0.9989570417768824', '0.999259682084368', '0.9992764160054849', '0.9990244428897862', '0.9990386658006002', '0.999099649715703', '0.9991423200691094', '0.9989607896074642', '0.9988407653738359', '0.9987406402438744', '0.9988075432092373', '0.9986567966808588', '0.9984648163341392', '0.9980556481829641', '0.9979031294960912', '0.9984898317967311', '0.9985047186429399', '0.9982341405779825', '0.9983189989281857', '0.9982142107396564']</t>
-  </si>
-  <si>
-    <t>['301.0752069363982', '300.9184151021615', '300.9154690912273', '300.70317709841277', '301.0577839396217', '301.0328639554339', '300.48688794504744', '300.63454570492837', '301.0565622265152', '300.9505953177922', '300.7447590970041', '300.7270182275023', '300.98017915829627', '301.04675726713685', '300.98677131276685', '300.96018820272735', '301.0403029902741', '301.3771487260272', '301.57228561763867', '301.6445155705267', '301.6593942388461', '301.8370427263956', '301.983547484343', '302.04062197291563', '302.0202037633915']</t>
-  </si>
-  <si>
-    <t>['0.3862492940807212', '0.3866125716856025', '0.38654069526415263', '0.3863268468793656', '0.3863517522606549', '0.386312215956473', '0.38596773896260345', '0.3861268086403572', '0.3866332127206183', '0.38665080727685636', '0.3867670730886747', '0.3868647231748501', '0.3870543724097943', '0.3870303675631851', '0.3871519778289533', '0.38736610871310406', '0.38745489958058105', '0.3877805160822', '0.38789086181952953', '0.38794375302530354', '0.3877238596145495', '0.38760486577111886', '0.3876630870557952', '0.3876801700776726', '0.38779533755839063']</t>
-  </si>
-  <si>
-    <t>['0.9976322221514262', '0.9978371249491981', '0.9979561687832649', '1.0000548101881839', '0.9995643697535929', '0.9986876597785858', '0.9994738069432442', '0.9997578419286396', '0.9981006615811215', '0.9981469315479421', '0.9985132314232692', '0.9985238261335128', '0.9985758639104613', '0.9986630675326358', '0.9986567056189048', '0.9983438760926838', '0.9983070902652498', '0.9980944783708309', '0.997976573355117', '0.9979829139536287', '0.9979559070711077', '0.9979290287826692', '0.9974881303138948', '0.9971000421027795', '0.9971131586013215']</t>
-  </si>
-  <si>
-    <t>['0.3493991253882847', '0.3499384911234327', '0.349691956715333', '0.34943486009333763', '0.34976417375758534', '0.3499161944727724', '0.34974861651875044', '0.3501312791273575', '0.3507710298647623', '0.35084359557186723', '0.35137740248032073', '0.3514352910123911', '0.3515749609482583', '0.3514145257315405', '0.35147615548233474', '0.35158497776402775', '0.3516843440632464', '0.35170246222514634', '0.35170799841325806', '0.35190461087055225', '0.3519302369391609', '0.35165864439240935', '0.35156569260015963', '0.35154717201460806', '0.3513951590471455']</t>
-  </si>
-  <si>
-    <t>['0.08532300431234867', '0.08529157362552936', '0.08519835034022684', '0.0850983258103878', '0.08517777214355549', '0.08521884672368445', '0.08516733171785844', '0.08525291521450568', '0.0853615782175176', '0.08529950286385987', '0.08529673688097493', '0.08534379762605698', '0.08546179006846333', '0.08547261700214642', '0.08549738524949684', '0.08555270239143364', '0.08561523298664858', '0.08585209029890806', '0.08595943850002816', '0.08601367924579104', '0.08594590489363352', '0.08591515533463921', '0.08587900979868301', '0.08588095475489194', '0.08588649577793254']</t>
-  </si>
-  <si>
-    <t>['0.9859916289402291', '0.9863413096039428', '0.9852736822361263', '0.9836454050530838', '0.9842778435630207', '0.9847565407913201', '0.9842351144189169', '0.9849297299691061', '0.9866143327243917', '0.9861087307930853', '0.9860651282031244', '0.9866311863763417', '0.9880325199118523', '0.988223048462951', '0.98839395988678', '0.9888686398176193', '0.9894880146735424', '0.9911568883156474', '0.9915708287610837', '0.9922193353949595', '0.991129980854507', '0.9906526100422243', '0.9907723355409123', '0.9909691330742598', '0.9912392740630691']</t>
-  </si>
-  <si>
-    <t>['23.28620636372344', '23.279328412806514', '23.23342628540669', '23.15014838140344', '23.173887446144022', '23.20079331514118', '23.18792981325105', '23.22913807999327', '23.312603763335566', '23.299814573883232', '23.313955282813534', '23.319031428007072', '23.323662609813823', '23.306742879945343', '23.313140148450355', '23.325393869910993', '23.372813401314225', '23.441847913979835', '23.478625341825364', '23.536378395526995', '23.552382006132657', '23.532459087598635', '23.478082160016125', '23.4728175294578', '23.457400796914968']</t>
-  </si>
-  <si>
-    <t>['31.514351704937365', '31.486834169672502', '31.45249416040577', '31.45286857353254', '31.43946135000842', '31.42707691174483', '31.4287631194408', '31.453304655410292', '31.455869271188867', '31.44022507677587', '31.46100320983288', '31.52003483995855', '31.545791536657404', '31.53464732560729', '31.53852171667797', '31.55018442039906', '31.52933116277187', '31.52247661939371', '31.51950587906281', '31.499143490116854', '31.476843799544262', '31.492459190051584', '31.524463724500183', '31.536017168335402', '31.525902676005284']</t>
-  </si>
-  <si>
-    <t>['5.966948950955688', '5.978055999038023', '5.970499143092604', '5.9632861250231075', '5.970451032477187', '5.973213727034706', '5.96798493911658', '5.97448504601735', '5.979487176221659', '5.974036574019778', '5.976930975628681', '5.980600612086749', '5.986604706489882', '5.986066080266652', '5.987777285670981', '5.991020320778358', '5.994934132237973', '6.002233605544408', '6.002304835394272', '6.004719843916179', '6.0001503209646785', '5.992089605093205', '5.98566592780282', '5.985003513740972', '5.98525000112572']</t>
-  </si>
-  <si>
-    <t>['6.832935814958313', '6.835236616083973', '6.828208521163033', '6.826642566725968', '6.835505695000365', '6.838607154569288', '6.837488807868412', '6.845392423608729', '6.855203362385893', '6.854271283441832', '6.856876140624686', '6.861178474246809', '6.864865819680828', '6.864062283369387', '6.869322133440683', '6.876881114881842', '6.879836252840125', '6.886024354398153', '6.888585611451744', '6.891804135890892', '6.884367788946318', '6.880084133793264', '6.87916220424534', '6.878006504526863', '6.877784971950748']</t>
-  </si>
-  <si>
-    <t>['1548.2674556843772', '1548.268726453883', '1548.431523612566', '1549.376958136392', '1549.9156693134908', '1548.1490247714335', '1547.4309865649634', '1545.070845063904', '1544.0371151829956', '1545.0359769055199', '1546.827349869628', '1547.3224829490202', '1548.4433077219142', '1548.4983678617805', '1548.5951052457456', '1548.4483996857402', '1549.2195127793777', '1549.2450544234428', '1549.7812466058256', '1551.8282146877448', '1553.0039233284629', '1554.0394138991728', '1553.851845251069', '1553.1195208765328', None]</t>
-  </si>
-  <si>
-    <t>['87.70492005256838', '87.77346527801454', '87.72927660887962', '87.70827520440716', '87.78367898964294', '87.79641963105637', '87.72419992457789', '87.76634464635606', '87.79749753849198', '87.73747015967835', '87.76763827848009', '87.80793301437981', '87.87439751629127', '87.8745674289838', '87.90438420480231', '87.94446590925962', '87.99984399150802', '88.0530987220527', '88.07727477307719', '88.12340951457165', '88.06980303359661', '88.03698150498202', '88.09370134767737', '88.12783958801245', '88.13888945328377']</t>
-  </si>
-  <si>
-    <t>['0.000010223862322555', '0.000010222537980634', '0.000010215695363359', '0.000010207724831595', '0.000010212521983863', '0.000010213622506988', '0.000010192887392706', '0.000010199553648861', '0.000010211666158139', '0.000010203705034065', '0.000010196865453179', '0.000010199428701378', '0.00001021542312971', '0.000010217313698548', '0.000010221140540257', '0.000010227304016386', '0.000010235582054199', '0.00001027804665737', '0.000010286519768189', '0.000010280342047071', '0.000010254784890484', '0.000010252648434585', '0.000010255109645748', '0.000010259566657995', '0.000010259555857835']</t>
-  </si>
-  <si>
-    <t>['0.06247102940865806', '0.06252523834724233', '0.06252332824193313', '0.06254707305939337', '0.06254418033721684', '0.06257839735918093', '0.0626636967099224', '0.06269393004067969', '0.06264833646002924', '0.06258724014168815', '0.06250951249786384', '0.06249347799007772', '0.062465188047462726', '0.062455643701994516', '0.062463645510055496', '0.06248356348440753', '0.06252338351295368', '0.06259015039173862', '0.06260621702491621', '0.06261664767527314', '0.06259057421761996', '0.06254774143428032', '0.062497252164463696', '0.06248556016655215', '0.06247335520023414']</t>
-  </si>
-  <si>
-    <t>['6.54887406553737', '6.5555102998456745', '6.54848433546272', '6.545877158594601', '6.555186392283276', '6.561127376549665', '6.56561302244193', '6.569564050121235', '6.568663528989239', '6.563859199028266', '6.568593772812787', '6.573306241496179', '6.577264166242919', '6.577149321181413', '6.579619627107833', '6.580810780222415', '6.584605526594017', '6.5882201338329685', '6.5888293518528736', '6.596336259836619', '6.592760859664028', '6.588543744206909', '6.584485335700946', '6.582751668031495', '6.584836293432471']</t>
-  </si>
-  <si>
-    <t>['0.9995777102152492', '0.999868867899482', '0.9996441769714107', '0.9992081712298105', '0.9987868020961241', '0.9988918969075649', '0.9996980084812523', '0.9995734907475581', '0.9994158365427686', '0.9997977120504153', '0.9999383060704422', '0.9997167520445678', '0.9990740603147154', '0.9990851327549622', '0.9992417955482044', '0.9992984467465326', '0.9991815912092784', '0.9989882824101491', '0.9988289944684845', '0.9994367741070989', '0.9998738050935445', '0.9995139329746012', '0.9986385982764511', '0.9986837488214088', '0.9985328092281467']</t>
-  </si>
-  <si>
-    <t>['16.724518512923513', '16.763739948381218', '16.746767545014578', '16.697132818138765', '16.704554792924693', '16.71216444034771', '16.714841757058718', '16.734510121649897', '16.773653788391183', '16.765323662024223', '16.760122876923006', '16.770191887245357', '16.78700141347803', '16.792469307962293', '16.799924994760136', '16.82613731698415', '16.836640910267594', '16.867012068488307', '16.874747000482262', '16.8725991917784', '16.81315963250622', '16.803115154359272', '16.805964286574934', '16.809159144973002', '16.80107310671559']</t>
-  </si>
-  <si>
-    <t>['12.840457116758316', '12.86446777828612', '12.850378187588335', '12.830162910242198', '12.848343778623041', '12.857444824221142', '12.842376971620556', '12.854244192365332', '12.874204101182853', '12.869400506588468', '12.871815170035575', '12.877084255548485', '12.894204052869739', '12.895523745761096', '12.901269797396969', '12.909254767069504', '12.917617295699852', '12.941109479482003', '12.946651758464645', '12.962183325203778', '12.955835080901291', '12.96100365349809', '12.982019516035532', '12.990402660127275', '12.987420502940932']</t>
-  </si>
-  <si>
-    <t>['20860.367889420722', '20866.575801291223', '20868.355818156608', '20861.284427949755', '20860.79630855924', '20858.188715764238', '20858.491429711303', '20876.56994048973', '20882.02564799327', '20877.14499463654', '20882.352491820297', '20885.8389409232', '20883.27299549626', '20882.931098729074', '20892.55352484795', '20898.791447666372', '20902.269580675278', '20912.32443831281', '20915.138505029976', '20921.419957775306', '20926.352452383286', '20933.668370580966', '20937.473384415953', '20940.028210242825', '20948.167464749476']</t>
-  </si>
-  <si>
-    <t>['2.280451995228491', '2.291698631116526', '2.2882379529488666', '2.2844678924441197', '2.2866731446561737', '2.2867264533837712', '2.2882836474277237', '2.291738003647802', '2.2947353976744034', '2.295029958883634', '2.295582849291267', '2.294622056904498', '2.2914025222628154', '2.290196337480916', '2.2878225302159243', '2.2860360967536937', '2.286074229233013', '2.2860745758956784', '2.2858450106182384', '2.2845277143279104', '2.2840040150907646', '2.282993961879122', '2.2808186236445134', '2.2803733879788988', '2.2812891200715995']</t>
-  </si>
-  <si>
-    <t>['175.07310680068633', '175.0890933778243', '175.02864448207447', '174.93735719192577', '175.2541750885307', '175.51390570997975', '175.34914305219525', '175.38075960675138', '175.41542861476353', '175.35713035012571', '175.24306634603315', '175.3309616292353', '175.58846870709814', '175.62858478874514', '175.59540556554023', '175.5667682674324', '175.6092121858632', '175.62505072516086', '175.61589464068723', '175.6393114959341', '175.48007554653367', '175.44602914018446', '175.44259291501774', '175.48980741432564', '175.61563545234085']</t>
-  </si>
-  <si>
-    <t>['22.142064779796407', '22.164939310219403', '22.14737218022088', '22.148635934004062', '22.1617825930069', '22.16635791613517', '22.158798863148235', '22.183348840106962', '22.19634092646549', '22.175115989129527', '22.163417380820878', '22.17686975559914', '22.18839976892854', '22.188959912088873', '22.206719485806182', '22.230798328151266', '22.24608468952543', '22.270701132385724', '22.285553788900206', '22.317544333020265', '22.30993552018348', '22.29215662749411', '22.286785925378656', '22.29392438489228', '22.30458750695363']</t>
-  </si>
-  <si>
-    <t>['2.3235886413395455', '2.326338035236571', '2.3272349521487845', '2.3292057276032105', '2.332622401288986', '2.334856513221641', '2.3289385189377976', '2.327042948357981', '2.3241847089499035', '2.321767489870632', '2.317601872702924', '2.318412004705395', '2.3288172873907347', '2.3311560982811717', '2.3315997982658265', '2.3346207249700117', '2.335641085486076', '2.344513562366177', '2.346572063787037', '2.3433982382286085', '2.3349644038411337', '2.333440060663533', '2.3204864874231332', '2.3159254616878386', '2.3158669497834286']</t>
-  </si>
-  <si>
-    <t>['5.1590257824315735', '5.160402487950435', '5.161056788129284', '5.157727390780225', '5.157901836129712', '5.160888607998732', '5.161258470270545', '5.159775986257437', '5.1599078375185385', '5.160603806898522', '5.160143013949391', '5.159377735281299', '5.159950502807884', '5.158599857441171', '5.157537891679849', '5.159700969060491', '5.160719839121981', '5.15926373755727', '5.157171104905458', '5.149415933773569', '5.149981102582672', '5.150846662228487', '5.150577176387564', '5.151235802505651', '5.15331080261866']</t>
-  </si>
-  <si>
-    <t>['125.63716184091408', '125.83125063291558', '125.58138070153575', '125.64288803376964', '125.78405569802274', '125.74013721076047', '125.6612974408356', '125.71309681723427', '125.58367452134549', '125.48765462169163', '125.59949048175405', '125.67283655081752', '125.63350833317809', '125.5794780152234', '125.65574853912238', '125.7405560441017', '125.79741441410944', '125.75713997773013', '125.75167471027554', '125.83695034710266', '125.84490621831267', '125.74998765697374', '125.74015364756661', '125.76883960715902', '125.68972962692912']</t>
-  </si>
-  <si>
-    <t>['1.5496065226516804', '1.5499220469609434', '1.5496597225528108', '1.5488703769487784', '1.5529022182123051', '1.554032519035899', '1.5526792995391039', '1.5530722044796188', '1.5534054430764075', '1.5512885564939607', '1.550373483891388', '1.5506234087556119', '1.5511348685476751', '1.5519286765181348', '1.553418615227719', '1.5550422429758126', '1.555884252001309', '1.5603937725978492', '1.5654798596505715', '1.5686728495632731', '1.5720895565205537', '1.5747984833278519', '1.5733165057140082', '1.5687211802925', '1.5676158918666738']</t>
-  </si>
-  <si>
-    <t>['0.08700127267508782', '0.0870796488985164', '0.08701410574082416', '0.08702457655110066', '0.08712356258513024', '0.08713816608450632', '0.08705449459322066', '0.08710209705011104', '0.08712348928296636', '0.08709364411645187', '0.08712129918551359', '0.08720038294579055', '0.08723297856750777', '0.08721001203042653', '0.08722601185817258', '0.0872547353296257', '0.08728132558496263', '0.08741243797435297', '0.08761680847468685', '0.08764973293536994', '0.08767644637703907', '0.08768019600062804', '0.08769103670418986', '0.08767313428199026', '0.0876290140263092']</t>
-  </si>
-  <si>
-    <t>['0.2331345212152189', '0.2334621216021266', '0.23322518023246397', '0.2330238320482902', '0.23322717424405617', '0.2333156130878764', '0.23323143665838214', '0.23335775663368016', '0.23367430105246353', '0.2335581777736183', '0.2334596361631128', '0.233591832785233', '0.23392319493454614', '0.23389714244451162', '0.23403785379711953', '0.23427592061561955', '0.23444502038510018', '0.23513668870939414', '0.2352859516137206', '0.23545976075675507', '0.23526629212773645', '0.23509698921520647', '0.23488697845473872', '0.2347696939173417', '0.23473609363810194']</t>
-  </si>
-  <si>
-    <t>['1698.2709179875194', '1698.813488836398', '1699.9402115027892', '1698.2684250961738', '1695.409657969588', '1699.2944158537132', '1698.8772959055636', '1699.965386495853', '1701.4161679319136', '1704.9581415838604', '1705.8125949288824', None, None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
-  </si>
-  <si>
-    <t>['4.7960600234569375', '4.809897295008823', '4.799837659509159', '4.790335115109193', '4.783523840338456', '4.773810669262623', '4.757372302973564', '4.756536735764847', '4.771858109342167', '4.764562256097831', '4.764992067625721', '4.765380654560604', '4.766809999945687', '4.766662339197227', '4.770419170328142', '4.7788722418362095', '4.7821718103193955', '4.794834164708689', '4.798290597284279', '4.796438359578128', '4.777839589448943', '4.772374451820929', '4.760766147564089', '4.7602109995922195', '4.761040395171068']</t>
-  </si>
-  <si>
-    <t>['0.6833588027071922', '0.6906593287660471', '0.6921088097241453', '0.6921946688901714', '0.6974917792739299', '0.7024331236322997', '0.6996555007037076', '0.6995751078093262', '0.698322270519561', '0.6978177921142104', '0.6952743709371118', '0.6970087360300764', '0.7017203939990562', '0.7042002756175074', '0.7060880501362033', '0.7095451049500361', '0.7098545002251861', '0.7130395974111117', '0.7146996118224896', '0.7147665940471403', '0.7138580272568797', '0.7151231175460623', '0.719379941907851', '0.7216211515551587', '0.721051786509726']</t>
-  </si>
-  <si>
-    <t>['0.635141538229927', '0.6396238689363939', '0.6386646437504652', '0.6411641899122033', '0.6464031855010505', '0.6499742287391744', '0.649320390215024', '0.6501334435400322', '0.6486131032858236', '0.6479612778071321', '0.6470998036589394', '0.6483252072893614', '0.6497252303947966', '0.6511687331041092', '0.6552589412806852', '0.6585194277612453', '0.6591607780317084', '0.665192012340624', '0.6681264742069589', '0.6701775621163676', '0.6725793514340792', '0.6750722626732256', '0.6830506311861546', '0.6834862115559973', '0.6825935877917808']</t>
-  </si>
-  <si>
-    <t>['5.144829429550725', '5.1463826398430434', '5.137904177936083', '5.123830608224405', '5.126215726867083', '5.127013119231704', '5.117988874243386', '5.121197601538789', '5.138958400350402', '5.137722575453446', '5.1377159551501865', '5.139555304387408', '5.142791573290173', '5.140611980104123', '5.13359809405068', '5.119382095962523', '5.116861504254265', '5.1110953499240415', '5.110021560412355', '5.115915328970023', '5.1178477938300775', '5.1140123833357745', '5.105611687254257', '5.102544525093817', '5.103043163021817']</t>
-  </si>
-  <si>
-    <t>['7.856620479080107', '7.852497227011359', '7.85822201024425', '7.886386537244829', '7.964704985427617', '8.064601163279267', '8.084550884635467', '8.125029545048656', '8.265575239993971', '8.23655562039355', '8.150102167496058', '8.118075254625733', '8.068182957329203', '8.058336746592401', '8.081714137176595', '8.112297079889267', '8.104022895556122', '8.13495818729075', '8.149964553738554', '8.140141571523628', '8.104829115604138', '8.107442913804219', '8.123050377040009', '8.126868942699778', '8.125102191191871']</t>
-  </si>
-  <si>
-    <t>['13.975886741213476', '14.097297993409075', '14.16531934639847', '14.228999658067536', '14.216796241915448', '14.129998562044845', '14.109438938093582', '14.059167849219946', '14.034424813854086', '14.071797049426273', '14.126456117586867', '14.112249862399192', None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
-  </si>
-  <si>
-    <t>['0.020929745319723726', '0.020929251299173637', '0.02091699530190502', '0.02088714800434962', '0.02090241282095084', '0.02092959064083435', '0.02091660603074814', '0.020921510266396555', '0.020951019805054687', '0.02094750659665234', '0.020944619790123187', '0.020953404538705193', '0.02097107740311999', '0.02098154130666918', '0.02098357139046093', '0.02097613227794535', '0.020978382805269525', '0.021005045371011943', '0.021025793440100592', '0.02103437036432544', '0.02104647014255224', '0.021061668110991614', '0.021090052853082217', '0.0211084228896485', '0.021119765027466236']</t>
-  </si>
-  <si>
-    <t>['0.9986561342303578', '0.9986573008500943', '0.9989394631106687', '0.9989850978379053', '0.9988309782735979', '0.9986460947238969', '0.9986701431836966', '0.9992239489229341', '0.9987831827737768', '0.9986565495135848', '0.9989074428317021', '0.9986779099225198', '0.9983747962189439', '0.9983764469859923', '0.998388233346818', '0.9984687677254164', '0.9984721542230087', '0.998064241570866', '0.9975085170961029', '0.9975210931824013', '0.9978339272469746', '0.9983290611349719', '0.9983331226166041', '0.9982622507839243', '0.9980751106693635']</t>
-  </si>
-  <si>
-    <t>['2.176053812107741', '2.1803789131662024', '2.179137397602859', '2.1744071378599994', '2.177619920597873', '2.180504102262403', '2.1827403207376705', '2.1873797653009666', '2.1995575894096775', '2.197602152304631', '2.1946866811843666', '2.1951329189621713', '2.195592777653908', '2.195107041819424', '2.1945447014826627', '2.192662181631441', '2.1938321373293768', '2.206207990130647', '2.2117673663162796', '2.213901397629802', '2.2126642219953365', '2.211170189370819', '2.208170325427595', '2.2071390889402642', '2.2062073674885805']</t>
-  </si>
-  <si>
-    <t>['3.712296898025975', '3.7130235194199512', '3.7116457282214426', '3.709713551092054', '3.711830607718701', '3.714592720588794', '3.7120314771415583', '3.7114920816368877', '3.7181709466233497', '3.7217739186779335', '3.719262192650558', '3.7194776127552514', '3.72203855391029', '3.723249665232767', '3.7242435856932863', '3.7259193741710286', '3.7265383576354805', '3.7306920998393194', '3.7331209367650464', '3.7337217926320716', '3.7309032571611445', '3.7314402544723713', '3.732722214897858', '3.7335685260943174', '3.7346433032720427']</t>
-  </si>
-  <si>
-    <t>['0.051946513271320674', '0.05201849965245842', '0.051979002425101964', '0.05193593036160434', '0.05201454921923187', '0.052073425718635054', '0.05206965305221281', '0.05209654791528831', '0.05216379279424278', '0.05216194917734068', '0.05220526815184793', '0.052230639978956335', '0.05231497613526571', '0.052338703668399295', '0.05235156784293513', '0.052358545693709374', '0.05237615848622275', '0.052474238499731395', '0.052484594370705115', '0.052468360283766384', '0.052373711110101306', '0.052353002297570075', '0.052376719786232206', '0.05239034053269261', '0.05236590590655202']</t>
-  </si>
-  <si>
-    <t>['130.1971740432013', '130.35931044306827', '130.31499939107786', '130.16322586006885', '130.36551799823957', '130.48831786228521', '130.47406309168298', '130.65920981806593', '130.87270907085636', '130.78819744571155', '130.67019105018775', '130.70596373912412', '130.8748547028881', '130.85854273506965', '130.86453303458794', '130.83503220906903', '130.8853586648836', '130.95521080927114', '130.9698815395212', '131.0927757560688', '131.20814378403378', '131.12441961417306', '131.10578990369734', '131.0558552901057', '131.0377691313983']</t>
-  </si>
-  <si>
-    <t>['0.000181609206266572', '0.000181646437297543', '0.000181436158200878', '0.00018106783674851', '0.00018140241786387', '0.000181611066095354', '0.000181103057564396', '0.00018128292223598', '0.000181959670330741', '0.000181920843689834', '0.000181989686637775', '0.00018201221366428', '0.000182135603499616', '0.000182150914546798', '0.00018227693231555', '0.000182460883152452', '0.000182467242260349', '0.000182791331291161', '0.000182880869159244', '0.000182971486955016', '0.00018288100824828', '0.000182797268171967', '0.00018265436339156', '0.000182571980645388', '0.000182758361056538']</t>
-  </si>
-  <si>
-    <t>['0.07375729526632056', '0.0737821945034899', '0.07377985506162862', '0.0738204227943923', '0.07379264843253955', '0.07379638036838423', '0.07379856161085098', '0.07386024659742912', '0.07383727069015653', '0.07382910015750008', '0.07384724455303535', '0.07390242061179741', '0.07389663016472012', '0.07389361485239147', '0.07393529447905427', '0.07400512263385824', '0.07408536003629151', '0.07410385019315945', '0.07412111937019987', '0.07421324603653123', '0.07416433219590349', '0.07408854069069301', '0.07410250582411236', '0.07414424106331302', '0.07414937200858047']</t>
-  </si>
-  <si>
-    <t>['80.0836991671533', '80.36510663856828', '80.384111009709', '80.6537468625914', '80.63223125231546', '80.56936100631158', '80.48821174955793', '80.54817718911325', '80.59970993200136', '80.49382290884205', '80.40304464466463', '80.40825705397573', '80.4064577639459', '80.39570240104487', '80.35069111969419', '80.29316659999175', '80.2069280796996', '80.18073103930882', '80.18380640408878', '80.31771457092701', '80.38323689125019', '80.40057465906082', '80.54027031502767', '80.59034731026935', '80.70760213974773']</t>
-  </si>
-  <si>
-    <t>['0.567906779053639', '0.568251783151744', '0.5674888747830641', '0.5662314214517098', '0.5666352415013244', '0.5671946227924352', '0.566785761351133', '0.5664944370886579', '0.566747658428374', '0.5668013617433793', '0.5671157254678856', '0.5677564542003414', '0.5681651439214686', '0.5680901146097367', '0.5683660691340853', '0.5686287360002192', '0.5689940953360816', '0.5694139752344717', '0.5696734523014307', '0.5702463007782163', '0.570276284468384', '0.5702269231261577', '0.5708229681656714', '0.5711220249690765', '0.5715811044881057']</t>
-  </si>
-  <si>
-    <t>['1.0807972181547862', '1.083405497332902', '1.0825727971276933', '1.0799157999859457', '1.0814641365459698', '1.082282682504914', '1.0814236895735725', '1.08331715900222', '1.0861185920482188', '1.0856167672001964', '1.0857355558484154', '1.0868319843050354', '1.0898086444034387', '1.0895085781213112', '1.0897077422572474', '1.0885700218999839', '1.0888610548452393', '1.091363341828052', '1.0932192243916645', '1.0973733524445883', '1.1013103437851217', '1.0996309219098748', '1.0976273316925282', '1.0971947477276645', '1.097556368553512']</t>
-  </si>
-  <si>
-    <t>['8.27229327883504', '8.263730578941727', '8.244102138411462', '8.226580060296643', '8.22654999120584', '8.219114884013361', '8.186532997939198', '8.192726753500368', '8.218948254160486', '8.20433144767504', '8.181018335028662', '8.188301824187073', '8.212530117573428', '8.213668333108721', '8.203194293877882', '8.16473475423773', '8.158909409775173', '8.194378173038174', '8.206390957641828', '8.227174662862563', '8.237372094263037', '8.22164540001921', '8.173564348189428', '8.159904829957098', '8.16750692889023']</t>
-  </si>
-  <si>
-    <t>['1.0585277535115487', '1.0594305768423413', '1.058849228543867', '1.0597573128363174', '1.061303964933643', '1.061678389143096', '1.0613511248132135', '1.0622906381008845', '1.0619051544439684', '1.0614814183496049', '1.0621509149796022', '1.0629570383532094', '1.063418193473016', '1.0633191258286914', '1.0638872608929073', '1.0644497482651105', '1.0647443565550834', '1.0653737392633054', '1.0653403544821596', '1.0657459366788236', '1.0646667916868633', '1.064316986159579', '1.0646127141473323', '1.0648521662812152', '1.0647744916202362']</t>
-  </si>
-  <si>
-    <t>['0.1369240216579876', '0.1370315432434843', '0.13691457192702103', '0.13684856632117473', '0.1369722969314718', '0.13703206063675502', '0.13700228167946651', '0.13712244846890567', '0.13721838752539178', '0.13716192535694696', '0.13725251818337683', '0.13728443896242343', '0.13736681488828903', '0.13735839725488236', '0.1374315540424938', '0.13763508391572543', '0.13773049101973914', '0.13788818807110453', '0.13795408353122782', '0.1380028266741361', '0.1377920471166737', '0.13771454177540007', '0.1376900246290555', '0.13770639576717333', '0.13778396040336333']</t>
-  </si>
-  <si>
-    <t>['0.995877419619003', '0.995424481694014', '0.9956116412672693', '0.9957567577885079', '0.9958916201940498', '0.9959727084350362', '0.9955336598873209', '0.9951976342912192', '0.9957685301614465', '0.9961500870885799', '0.9955744945459981', '0.9950943859374963', '0.9957714865506821', '0.9962473803701278', '0.9957057600498299', '0.9953165495388409', '0.9957309172056837', '0.9958470672431377', '0.9955100069955128', '0.9948006095079406', '0.9953787697980888', '0.9958346487966337', '0.9958329996186216', '0.995889695620014', '0.9959065175193136']</t>
-  </si>
-  <si>
-    <t>['40.195460068181774', '40.271448264573955', '40.26001981552653', '40.188419379168494', '40.21744501826277', '40.25114733196428', '40.261072814701365', '40.3022478312019', '40.3377029110958', '40.294049527309795', '40.270407166667376', '40.30265771185519', '40.34948103989859', '40.35420386753283', '40.370976883265875', '40.42890332814306', '40.4637307103051', '40.52452160380522', '40.56249825337596', '40.67522634311869', '40.779667187861556', '40.75530241239019', '40.744640842134736', '40.73684283008492', '40.75013877252057']</t>
-  </si>
-  <si>
-    <t>['1.0184143431254842', '1.0200858451478005', '1.0191659771281854', '1.017546258967735', '1.0180740176045389', '1.0183360342195802', '1.0179642525250698', '1.0185916474012875', '1.019932735668591', '1.0196561018135455', '1.0194462133343436', '1.0200200612075592', '1.021994207153058', '1.0222626997437247', '1.0224893973939744', '1.0227067613344114', '1.0229077599254017', '1.0235270944969506', '1.0236524368341853', '1.0240698041242946', '1.0234958636736347', '1.0233728022087576', '1.0228396865871026', '1.0226792569429848', '1.022880777848445']</t>
-  </si>
-  <si>
-    <t>['0.9223056415172408', '0.9253268073351909', '0.9249306491617185', '0.9223473807353705', '0.9234454381560409', '0.9244175133864845', '0.9231163316807179', '0.9236824618212987', '0.9256045532138422', '0.9253518718726442', '0.9257529437903984', '0.9264729316341942', '0.9283096923626262', '0.9285568200183915', '0.9292590911401829', '0.9306721031507874', '0.9306817475539841', '0.9321689304599015', '0.9322270424961994', '0.9313701868896576', '0.9286895922627375', '0.9287065923017683', '0.9299642335301385', '0.9304275715604813', '0.9308475511197708']</t>
-  </si>
-  <si>
-    <t>['1.000924764477433', '1.0001799998546848', '1.0002772184754964', '1.0003917292173328', '1.000565755728301', '1.0002178166757285', '0.9999840698438919', '1.0007228311406322', '1.0008088272789415', '1.0000247448102415', '0.9998273336710118', '1.0000590903220534', '1.000584994988289', '1.0005829265177657', '1.0000387241687303', '0.9999031748311956', '1.012030908066538', '1.060449118907212', '1.0604582283068162', '1.059708844549314', '1.0603966650771492', '1.048263474967745', '0.9994427938220184', '0.9994407494930428', '0.9996053432142703']</t>
-  </si>
-  <si>
-    <t>['44.66408574806021', '44.68893124087302', '44.6483311653605', '44.64109087958722', '44.693417390409614', '44.7305327870823', '44.70803238607032', '44.73518977161236', '44.73807231365985', '44.71731335309674', '44.72541310080619', '44.730076313087935', '44.73483006942373', '44.752373082982885', '44.77910618104972', '44.802843156362655', '44.800230988192396', '44.81169143479519', '44.80253432407955', '44.81070543446568', '44.87787873324377', '44.89757662016694', '44.90043673543936', '44.89492373357224', '44.89948680060701']</t>
-  </si>
-  <si>
-    <t>['1.2997291942125453', '1.2997541433101085', '1.2985442533156102', '1.2979545342653733', '1.3008690232726094', '1.3049466002865076', '1.3091165211305633', '1.3099517434154604', '1.3085873673676702', '1.3080184537400588', '1.309493116764878', '1.3105839098073586', '1.3160614575149332', '1.3177481868703345', '1.318522155782692', '1.3188479879206254', '1.3195078625562884', '1.3198577109323177', '1.31990555654951', '1.3212486842058175', '1.3201636774909447', '1.3197149054504373', '1.318159280863512', '1.3170422878867258', '1.317158468466265']</t>
-  </si>
-  <si>
-    <t>['45.0237360766369', '45.039678200556764', '44.97388448748985', '44.94680221363958', '45.04468715806893', '45.12221669871307', '45.12017144239954', '45.117474454574484', '45.09071419886129', '45.06518458223311', '45.07948034988309', '45.12053160616948', '45.206973858693296', '45.23536073801101', '45.26074843746675', '45.30121506022512', '45.34937650536756', '45.45212597465983', '45.45822508081529', '45.47894503059682', '45.40541524614511', '45.39776619599271', '45.36564213756743', '45.35320229338558', '45.35725517594682']</t>
-  </si>
-  <si>
-    <t>['1.939966394004849', '2.0934917388664025', '2.103464879282449', '2.077551195152836', '2.2636536049453095', '2.2731541889313105', '2.221026063192243', '2.1565227083586134', '2.1048725104414236', '2.1125216721902516', '2.1275859148393264', '2.1297857191592815', '2.1521627871084332', '2.1573530477140337', '2.1897169828680156', '2.253463622472621', '2.2553081681280207', '2.2012276156623956', '2.187226964969391', '2.173850104159374', '2.1494539291125565', '2.147441046201558', '2.1425293894111497', '2.143114887340492', '2.1544109586366536']</t>
-  </si>
-  <si>
-    <t>['0.19291172748158145', '0.19367090640610873', '0.19395724248741142', '0.19419337968160635', '0.1944909225950603', '0.1946527176477553', '0.19368487970726128', '0.19339418754681315', '0.19344090582656187', '0.19348591092994105', '0.19384477864251928', '0.19421185333399044', '0.19698004987924272', '0.1978594505649195', '0.1977961120953723', '0.1973079869989518', '0.197150822257173', '0.1957295624308598', '0.19530728848785806', '0.19566151983260022', '0.1963566337005734', '0.1963916815946811', '0.19706440255628455', '0.19735833588982454', '0.1977199722157141']</t>
-  </si>
-  <si>
-    <t>['0.968645347775579', '0.9688088353785753', '0.9689771413154289', '0.9691275108607532', '0.9683378956234735', '0.9682558414385112', '0.9693416654012332', '0.9688888229850491', '0.968341408859108', '0.9690232868665103', '0.9693057975835083', '0.9690954873152473', '0.9682747379292416', '0.968254087815794', '0.9687682215143354', '0.9690149406568965', '0.9687627792842626', '0.9679205148384307', '0.9678894257704855', '0.9666998875584515', '0.9662316490446318', '0.9665104623816528', '0.9676668124490724', '0.9676736067644236', '0.9677806692321']</t>
-  </si>
-  <si>
-    <t>['698.212294640593', '698.8881804194838', '698.4097143359592', '698.3646648385063', '699.1738101246945', '699.7047206134966', '699.7718600590472', '700.3989098184261', '701.0330659517707', '701.720814420475', '703.0386927366291', '703.6339089097085', '704.7024736833698', '704.9442140740945', '705.5812881056465', '706.568196924505', '707.2932560581446', '708.4223599383386', '709.0718781797111', '710.6650846968905', '710.7759413042617', '710.2224908935509', '710.0700513608444', '710.2065125445308', '710.6756546148407']</t>
-  </si>
-  <si>
-    <t>['2.204526091395069', '2.210452887462221', '2.2095918650580284', '2.2078495375115037', '2.2105884217102494', '2.2137815076742227', '2.219816023152577', '2.2252030113454846', '2.2358496640070054', '2.2351139949916616', '2.2336173631738445', '2.2367732519426484', '2.240691330375474', '2.2415122546111954', '2.241973544958617', '2.2446345755758537', '2.247302449340022', '2.2517302676043642', '2.249838376525221', '2.2458017031353834', '2.234435239508187', '2.233816118759485', '2.2332742320366084', '2.232309613752201', '2.2288199200416376']</t>
-  </si>
-  <si>
-    <t>['7.27565720344e-7', '7.27591200404e-7', '7.2821868643e-7', '7.28069924886e-7', '7.27878535473e-7', '7.27616544257e-7', '7.27534674011e-7', '7.28317411943e-7', '7.27568714506e-7', '7.26695367298e-7', '7.26823298985e-7', '7.27048699263e-7', '7.27261079399e-7', '7.27336915197e-7', '7.27389668143e-7', '7.27429400273e-7', '7.27328178301e-7', '7.27214782521e-7', '7.27012688089e-7', '7.26941691439e-7', '7.27187347667e-7', '7.27559705981e-7', '7.27675028144e-7', '7.27738458971e-7', '7.27535908888e-7']</t>
-  </si>
-  <si>
-    <t>['5.20951549189154', '5.234218402856167', '5.240340840868982', '5.242180330982863', '5.258046118967736', '5.260101921329386', '5.238308423064674', '5.236559374636658', '5.241462843810381', '5.233195330623129', '5.223548067003258', '5.225274294983159', '5.23247918251577', '5.233910145004421', '5.241257199464328', '5.256342103619051', '5.2608697295723434', '5.272994208947577', '5.273049091559488', '5.269420054516913', '5.2540050701259124', '5.2517612124552375', '5.242485535023833', '5.23864666098542', '5.230547044809455']</t>
-  </si>
-  <si>
-    <t>['0.8413101995222942', '0.8424147553394504', '0.8416755037291107', '0.8416672126976764', '0.8434990708640462', '0.8446975803950423', '0.8448551471812085', '0.846221109531152', '0.8451120635460868', '0.8432150888012541', '0.8431149081493162', '0.8433100436675512', '0.8428160443452294', '0.8421880970915899', '0.8431266036242712', '0.8437438180729255', '0.8443866092217035', '0.8452785634650415', '0.8450298375091199', '0.8467437649580445', '0.8468932442715091', '0.8465183230258275', '0.8473036542197662', '0.8479365372381905', '0.8480264455459409']</t>
-  </si>
-  <si>
-    <t>['0.21776242796564887', '0.21851360225799982', '0.21835278809422126', '0.2177082417609836', '0.2183226570112023', '0.21876316996124043', '0.2180153909583554', '0.21798611899579612', '0.21831838706609802', '0.2182399146465475', '0.2182607642635894', '0.21835379851411155', '0.21867487412472647', '0.21865954829711814', '0.21872257600848732', '0.21866176449171684', '0.21869544753788395', '0.21899403579829324', '0.21911232281386586', '0.21906248693528765', '0.2185996948586321', '0.2186056582329288', '0.21870406084939553', '0.2187752773622901', '0.21879172022552826']</t>
-  </si>
-  <si>
-    <t>['7.893336419002264', '7.892652009612462', '7.893127252092034', '7.896082842310249', '7.898635190816005', '7.892064863947939', '7.893306739046432', '7.894507817660862', '7.8992224083219185', '7.899536029188372', '7.906813781475361', '7.906823190341827', '7.906849253473822', '7.906649947416798', '7.90666293479737', '7.906869642189826', '7.911522930574999', '7.911539251263617', '7.911912201850119', '7.922700359627411', '7.9227299575841235', '7.922576670018013', '7.918268918887728', '7.9182620570557605', '7.918235709023492']</t>
-  </si>
-  <si>
-    <t>['0.00003026728400586', '0.000030253372675098', '0.000030235976587933', '0.00003017752753854', '0.000030201029094043', '0.000030220866431857', '0.000030178925165962', '0.000030182547168272', '0.000030253102447523', '0.000030233720972323', '0.000030204534146581', '0.000030215362367797', '0.000030294729226895', '0.000030319572878245', '0.000030308865842014', '0.000030291134040871', '0.00003029471933961', '0.000030349870900228', '0.000030381658191279', '0.000030381320404934', '0.000030352232557848', '0.000030349160482392', '0.000030305223818296', '0.000030287071891408', '0.000030281322071051']</t>
-  </si>
-  <si>
-    <t>['0.3302481570083291', '0.33088378853134454', '0.3306305446570022', '0.3298813162654097', '0.33057142155112024', '0.33118983024370097', '0.3308529433792222', '0.3309651224691239', '0.3310858182820638', '0.3307593845468568', '0.33023468584269194', '0.3302652687594587', '0.330404279621247', '0.33031285485642364', '0.33064496977573204', '0.3312159249742487', '0.33127287858329396', '0.33190919198362434', '0.3322343179127664', '0.33245522955061146', '0.33239111607819066', '0.3322213215484546', '0.3316280995865511', '0.3313144012232993', '0.3313265323127569']</t>
-  </si>
-  <si>
-    <t>['51.497383637659475', '51.5812147094079', '51.508609498007154', '51.431423017914305', '51.52113547610248', '51.6295425202384', '51.60123261834006', '51.62565573076673', '51.64244576940409', '51.61600397032144', '51.61752155571826', '51.66647234371712', '51.77549254169977', '51.75679853305013', '51.78879982068453', '51.7888756373491', '51.820796123659115', '51.88253541273553', '51.897096281510116', '51.90926953846333', '51.807683449229735', '51.78041204828442', '51.75838771862046', '51.762283755642166', '51.79060171292048']</t>
-  </si>
-  <si>
-    <t>['9.159252235170923', '9.208311414496853', '9.209008254956105', '9.184423515662766', '9.246713395093378', '9.303208162584648', '9.28515492934149', '9.273249563071536', '9.252940097007288', '9.237529077566982', '9.20737297460809', '9.216239211152047', '9.258448939776466', '9.276888581529715', '9.286605894972132', '9.310297353560294', '9.31637962253869', '9.349115424193318', '9.36081963655519', '9.343981744648207', '9.289501394861173', '9.285839572516098', '9.291228749180254', '9.291713706286503', '9.287745397870529']</t>
-  </si>
-  <si>
-    <t>['3.7621958923541396', '3.761586600448653', '3.760688711576033', '3.760523796703002', '3.760533348513819', '3.761029957813216', '3.7605550116638353', '3.7598099088124792', '3.7619340980054043', '3.766112400065094', '3.7691634040736455', '3.7714581121298307', '3.7722407126798485', '3.7702222322651044', '3.7655327609337843', '3.7621631289470256', '3.7653341371188307', '3.7699775446227486', None, None, None, None, None, None, None]</t>
-  </si>
-  <si>
-    <t>['7.68351495834905', '7.693935470472521', '7.6860915401880465', '7.681412131204588', '7.6860956629744805', '7.687608074267955', '7.690123265557855', '7.693044455868518', '7.692260121760903', '7.686933359536539', '7.688643081465226', '7.692238198974138', '7.700628323554038', '7.700149502498205', '7.704459109640512', '7.711125494167246', '7.714296729798817', '7.715299582101449', '7.715275795503718', '7.714619934677681', '7.702109591832923', '7.701124867023428', '7.707215438953906', '7.711831095185182', '7.7133930079325514']</t>
-  </si>
-  <si>
-    <t>['6.768628745131351', '6.761938966830362', '6.753376265198597', '6.755122867795901', '6.756783453919725', '6.764475246646398', '6.765786666525747', '6.76204382464896', '6.766797059475334', '6.7598249662763', '6.766697523027753', None, None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
-  </si>
-  <si>
-    <t>['0.025118168642838237', '0.025157060087713835', '0.02518106610000308', '0.025147633173204908', '0.025168242210649495', '0.02515166478436705', '0.02513294808389099', '0.02513109724976971', '0.0251856124578254', '0.02519258996180128', '0.025182295060463374', '0.025192773103798458', '0.025191399073776672', '0.02516249080523462', '0.025163572977897366', '0.02515294472070316', '0.025142488414904202', '0.025102396264306683', '0.025077639733493678', '0.025083055396922876', '0.025109612110071833', '0.02514601222687708', '0.025147708428708736', '0.025116595248787198', '0.025124702365384798']</t>
-  </si>
-  <si>
-    <t>['1.7418198318524247', '1.7423242811400954', '1.7426415590186928', '1.7406539993585368', '1.7413787163277727', '1.7430110321010983', '1.7422608530450392', '1.7418604424748534', '1.7437726842235641', '1.7449278910310588', '1.745816217423669', '1.7446018097810532', '1.7450488699849163', '1.74713888020303', '1.7476962840624577', '1.7477227860918374', '1.7476372029712577', '1.7486881318931582', '1.750588169494083', '1.7515197101833575', '1.7536369895764206', '1.754745426286288', '1.7566848458088444', '1.7561436837019733', '1.7564835196941433']</t>
-  </si>
-  <si>
-    <t>['28.816450616219615', '28.825364782058266', '28.804715006417645', '28.77916052274839', '28.78274861433558', '28.764211264317108', '28.780260098577106', '28.783673798451563', '28.74694526579746', '28.73078233963744', '28.72396851805696', '28.75185032222964', '28.748944147337333', '28.75380525119995', '28.79523144296949', '28.87759178750104', '28.939419203228272', '29.07036078872213', '29.14594899328859', '29.199466320707067', '29.206217375169796', '29.21331768884556', '29.200768938112752', '29.20560328127951', '29.250487496910225']</t>
-  </si>
-  <si>
-    <t>['1892.3831003824675', '1891.7456080842735', '1892.308288976661', '1892.171259420862', '1892.726080713599', '1892.7242138861436', '1891.9961831667656', '1892.5428203217261', '1892.5103913215928', '1891.6632722234979', '1891.1700025900557', '1891.8538634941108', '1892.2609782258558', '1892.1710828155478', '1891.8480647676488', '1891.6278777766674', '1891.939608952875', '1891.8361293758187', '1891.5966487695982', '1891.1758961745002', '1890.6688768006138', '1890.6459893170445', '1891.0398771621308', '1891.2562686937201', '1891.580742339629']</t>
-  </si>
-  <si>
-    <t>['0.9992963931896549', '0.999065474582534', '0.9986456918999531', '0.998422606990976', '0.9984582714622972', '0.9985879899453032', '0.9983146390421834', '1.0001679548267461', '1.0013205414113366', '1.001047595804453', '1.0007777528930515', '1.0008690245293266', '1.0008802095172942', '1.0010105653947283', '0.9982494826312187', '0.9981385818964515', '0.9981021923433869', '0.998207632366935', '0.9980069273220061', '0.9965467414584933', '0.9960146711665353', '0.9963798532656667', '0.9976054155864829', '0.9978295674209338', '0.998073888338443']</t>
-  </si>
-  <si>
-    <t>['0.7479528909144904', '0.7476648727692892', '0.7471791966008988', '0.7469429195398049', '0.7467567164379997', '0.7470400245637873', '0.7468889992536972', '0.7469532414078821', '0.7468272918219148', '0.7468491840625909', '0.7463118407504459', '0.7466199240365595', '0.7472902730725611', '0.7478601589165064', '0.7485782235223636', '0.7490396231735619', '0.7491170231483755', '0.7495874471997475', '0.7501631448987822', '0.7508461939303996', '0.7510700041114847', '0.7511181842649389', '0.7500618822045088', '0.749571934694295', '0.7494115697142608']</t>
-  </si>
-  <si>
-    <t>['77.68488593520517', '77.87143189297105', '77.72960131821782', '77.72283027382677', '77.74374040714127', '77.7294229320975', '77.69248509575895', '77.78836132789864', '77.85859228430803', '77.95368938136859', '77.97572558774455', '78.13111873454176', '78.19804938748224', '78.16742574315614', '78.10310425265786', '78.11280412670668', '78.08573800774408', '78.05207365937538', '78.05204196572826', '78.11988187101069', '78.124689566527', '78.06624045449047', '77.98158773710084', '77.97600363000267', '77.97663285439157']</t>
-  </si>
-  <si>
-    <t>['0.19190601532402246', '0.19244923911219078', '0.19227546467235232', '0.1919469014805661', '0.19225368674502205', '0.19251591798238038', '0.19234152251278314', '0.1924704831976314', '0.19271497536874702', '0.1925917510885679', '0.19247676983517364', '0.1925558733571939', '0.19277997513136105', '0.192827651746211', '0.19286121684004326', '0.1928758517794285', '0.19298857671545505', '0.193175389125423', '0.1932177339958011', '0.1932666113123624', '0.19317359127549294', '0.1930985982677827', '0.19288591787626103', '0.1928540237280418', '0.1928681865134766']</t>
-  </si>
-  <si>
-    <t>['4.65516510091e-7', '4.65374366189e-7', '4.65614128248e-7', '4.65862172154e-7', '4.66044137993e-7', '4.66066541181e-7', '4.66352324196e-7', '4.66537538288e-7', '4.66351889272e-7', '4.66328749894e-7', '4.66473436986e-7', '4.6654782881e-7', '4.66594952073e-7', '4.6651153223e-7', '4.66429330063e-7', '4.66454188944e-7', '4.66691017605e-7', '4.67308993891e-7', '4.67172489672e-7', '4.67062061707e-7', '4.67217471717e-7', '4.67559735559e-7', '4.68034778096e-7', '4.68040314945e-7', '4.68124983452e-7']</t>
-  </si>
-  <si>
-    <t>['0.022129987246557892', '0.022136031615672867', '0.022122086480390966', '0.02211090277716561', '0.02213283192323377', '0.022126617674916645', '0.02213963468625065', '0.02211824374865589', '0.022124166642060714', '0.02211544676168026', '0.022136961827066724', '0.02210985133082037', None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
-  </si>
-  <si>
-    <t>['0.023126596540691435', '0.023197097115781135', '0.023165055951116266', '0.023053291441411276', '0.023077839887949467', '0.023102075051554857', '0.023074339909345962', '0.023056716725232313', '0.023058365937590475', '0.023025220346453275', '0.022987437159557405', '0.023006746790488322', '0.023049842813925997', '0.023067968155497883', '0.02308925004082268', '0.02313033362871375', '0.023137300886089087', '0.02316261238639297', '0.023165963482631467', '0.02315621834290799', '0.02312900735311947', '0.02311618772158811', '0.02312121853223936', '0.023132599685701617', '0.02314369848672643']</t>
-  </si>
-  <si>
-    <t>['0.002216228933519019', '0.002215043301253344', '0.002223495998886893', '0.002234000906179391', '0.002231776824365183', '0.002231719699821567', '0.002245816448546692', '0.002254378346079054', '0.002267386534928269', '0.002269623506072648', '0.002270732054096856', '0.002271459056204164', '0.002274346992622855', '0.002273260438324994', '0.002274123810061282', '0.002274848482782919', '0.002275218969770228', '0.002276908346882564', '0.00227629116469469', '0.002270306776965724', '0.002265848430693224', '0.002265104813546978', '0.002257623694992095', '0.002258797416693432', '0.002256734974383679']</t>
-  </si>
-  <si>
-    <t>['31.03555955389724', '31.032236607793806', '31.01501034855348', '31.034851884852408', '31.023755159903043', '31.055063378994603', '31.044908460767743', '31.06743194385295', '31.091750347199742', '31.15459107167565', '31.202740318382812', '31.173781561438346', None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
-  </si>
-  <si>
-    <t>['3.8055596630502615', '3.804860424573771', '3.8034725249488646', '3.8201359530935473', '3.8285433536716793', '3.82083415598082', '3.8109028655959025', '3.80949368186607', '3.8173772290735486', '3.817435480537497', '3.8137165533544013', '3.8148009900045134', '3.825372169974595', '3.833957176020685', '3.8389207140149653', '3.8412761237620674', '3.8390308340436574', '3.847670968362456', '3.8638006833952363', '3.8701160230082494', '3.8726155728601053', '3.870518441848937', '3.8616308984224497', '3.8523412549329823', '3.8540739149691694']</t>
-  </si>
-  <si>
-    <t>['0.42740224904227464', '0.42509801549861276', '0.42445387385002104', '0.42369333174620405', '0.4244267814040814', '0.4248255091245223', '0.424747747532658', '0.4256132617055424', '0.4260681780506281', '0.42649801030346646', '0.4271974042752014', '0.4273857596060539', '0.4280754138889634', '0.4281138871638196', '0.4289366905108567', '0.4299345035304993', '0.43020150998666573', '0.43107381131797473', '0.43102933255341813', '0.43031898256759454', '0.43024601962527914', '0.43094544680515195', '0.43317249251647205', '0.4338500024165381', '0.4373697576738766']</t>
-  </si>
-  <si>
-    <t>['0.6271318619398402', '0.6265330575768754', '0.6271037781295611', '0.6276419413462367', '0.6281664829378861', '0.6285426934864509', '0.6306250376446391', '0.6329212561509135', '0.6330274861829958', '0.633160389308666', '0.6336235061228954', '0.6340493192316302', '0.6340286278231406', '0.6332280875797661', '0.6335844594155245', '0.6333704078239965', '0.6333669358407095', '0.633407406287671', '0.6335820413219265', '0.6347383558947509', '0.6331525533204873', '0.6318943394063535', '0.6312814875820364', '0.6310560719246857', '0.6315403549130437']</t>
-  </si>
-  <si>
-    <t>['0.025510307522033183', '0.025555109870516332', '0.025527478641743505', '0.02549682255450191', '0.02552626592171364', '0.025556431440660655', '0.025579750575502228', '0.025612892203172147', '0.025664764490824717', '0.02566144401053678', '0.025671250813473746', '0.02568864240164074', '0.02574523108967702', '0.025747348738945665', '0.025756114309003198', '0.02576351125248634', '0.025763681694926127', '0.025795210641270588', '0.02579656610886506', '0.02577950677714839', '0.025746492166676155', '0.02574299288821544', '0.025791514043851826', '0.025803562637998937', '0.02581940419686012']</t>
-  </si>
-  <si>
-    <t>['0.08813461534049115', '0.08825682877234069', '0.08826854820555557', '0.08861123489017218', '0.08871041860615107', '0.08874704407278616', '0.0889861089989252', '0.08873485750477395', '0.08800769944189389', '0.08771549898576782', '0.08739340669792343', '0.08741254082606095', '0.08752852546733061', '0.0875405956197539', '0.08759914955345183', '0.08771347510925771', '0.08773346813986312', '0.08771223914088294', '0.08769930393382597', '0.08775166823338429', '0.08776225708831768', '0.08781247635546074', '0.087963358635607', '0.08811187976318735', '0.08834437717211509']</t>
-  </si>
-  <si>
-    <t>['0.8565367649359948', '0.8563961105173667', '0.8566294872280127', '0.856859832597815', '0.8565407656821103', '0.8566007300368426', '0.8562889501773214', '0.8563549874452384', '0.8575046640417091', '0.8579182507976284', '0.857614875435083', '0.8578744682446564', '0.8588371143145306', '0.8594579999878253', '0.8594414355960417', '0.8595778687344059', '0.8595362695424816', '0.8599036882387694', '0.8603059973448844', '0.8607962760259043', '0.86085332228854', '0.8613750235381422', '0.861993260613358', '0.8620975573264809', '0.862396425009313']</t>
-  </si>
-  <si>
-    <t>['0.5494765503521403', '0.5495098750246727', '0.5493515866121508', '0.5494588439924701', '0.5497375588192884', '0.5497801580241445', '0.5501855051725161', '0.5506841481773668', '0.5517652094506831', '0.551857873515599', '0.5519443392493161', '0.5519439402560073', '0.5518974265990947', '0.5517767441218748', '0.5516416658464748', '0.5518360030112177', '0.5521557321068804', '0.5538197167044351', '0.5543656387496974', '0.5554240537149064', '0.5561397550662953', '0.5557656499639111', '0.5550024571452347', '0.5547092055733941', '0.5548427805032495']</t>
-  </si>
-  <si>
-    <t>['0.9284908199347623', '0.9284912521712844', '0.9285240735766718', '0.9273692956659427', '0.9273238867608216', '0.9277470850690818', '0.9280893247916215', '0.9280909843276665', '0.9266089815923284', '0.9265950310986045', '0.9276875442116111', '0.9283300239480253', '0.928264407428214', '0.9277160440486364', '0.9276590195114113', '0.9282420786270111', '0.9286080530519987', '0.9284660560704697', '0.9273727933744123', '0.9273205875685955', '0.9265501740881613', '0.9260596367159932', '0.9261859425640103', '0.9267055572305165', '0.9267082618665189']</t>
-  </si>
-  <si>
-    <t>['9.194302449925853', '9.201628823712056', '9.199001436820403', '9.179686896380431', '9.180983444918018', '9.18042715762232', '9.168029033563432', '9.169112508683142', '9.1743689750906', '9.170947568272435', '9.176652951108208', '9.1876273658465', '9.200514301141181', '9.193047653457123', '9.19401402237229', '9.202388471489124', '9.21156009931501', '9.224302471251772', '9.225264636759178', '9.226644801687856', '9.223825358104207', '9.229577089717468', '9.242498638869485', '9.244727682126829', '9.238349335920025']</t>
+    <t>-0.00</t>
+  </si>
+  <si>
+    <t>-0.17</t>
+  </si>
+  <si>
+    <t>3.43</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>-1.69</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>-0.22</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>['20868.098387868828', '20882.596817043952', '20883.605845896607', '20885.42189206174', '20904.08550941408', '20923.194668703032', '20932.239808608843', '20929.932710096764', '20935.308194174904', '20939.720646286736', '20951.721246882415', '20950.770646198933', '20938.173499277258', '20932.793428653076', '20926.94743159466', '20901.9017108833', '20902.024534790555', '20936.913081209605', '20951.498066485412', '20945.111926447804', '20918.423322457154', '20913.28171123878', '20807.886572979452', '20766.31308620201', '20782.01417298708']</t>
+  </si>
+  <si>
+    <t>['1546.4199092138394', '1547.292397673948', '1547.4381713258251', '1548.3161421765035', '1550.604002977277', '1552.7610226340375', '1554.4776902226113', '1552.9899016241297', '1552.6485829202059', '1553.3090114947072', '1554.247933444856', '1554.0174849559296', '1553.5404946879826', '1553.7818368673506', '1552.8984736959112', '1550.229770379318', '1550.1611337846844', '1551.9727670716627', '1552.84788777655', '1552.4717289891262', '1551.410141309071', '1550.9503541732265', '1546.4424606326932', '1544.1922634392029', '1544.7372428519911']</t>
+  </si>
+  <si>
+    <t>['0.9996196028197415', '0.9989239732463535', '0.9988761186393968', '0.9991696970099625', '0.9984183312866923', '0.9976129375227671', '0.9980314614339593', '0.9983910355054377', '0.9985585013128996', '0.9983789488797743', '0.9977201064792213', '0.9977842611838937', '0.9986393346076577', '0.9992324777352242', '0.9997125097112697', '1.0014976383703753', '1.00151501185598', '1.0002276924319005', '0.9996321182483603', '0.9999374122480199', '1.0007119078734137', '1.0008174648212205', '1.0049650392011358', '1.006410331493578', '1.005758295294813']</t>
+  </si>
+  <si>
+    <t>['0.9991345782509615', '0.998943852660665', '0.9987509441561181', '0.9988070294185581', '0.9984790747309321', '0.9979791572098463', '0.9983199157740114', '0.998408714883798', '0.998296523882274', '0.9982142107396564', '0.9979248608044833', '0.997892042293042', '0.9980612599783997', '0.9985848877540466', '0.9987527158102834', '0.9994240361604064', '0.9997689900499749', '0.9994271206962162', '0.998931543305381', '0.999700962019954', '0.9999601219646999', '1.0002257533178176', '1.0011563455671273', '1.002634007004207', '1.002298479805258']</t>
+  </si>
+  <si>
+    <t>['300.73607714302995', '301.0104328832672', '300.99870560886615', '300.9750656348882', '301.2766943111309', '301.59430308959287', '301.6564938617481', '301.87920025031156', '302.02827453879127', '302.0202037633915', '301.9334128809235', '301.9040990082862', '301.683547916263', '301.5534808360709', '301.4185163472181', '300.8697859410932', '300.84233154751547', '301.2845457308964', '301.47282173061865', '301.2111683356596', '300.7959316564961', '300.82954747796896', '300.25173346228024', '299.9850376909256', '300.1985005004813']</t>
+  </si>
+  <si>
+    <t>['0.3868450017604297', '0.3870461962882674', '0.38711161557968776', '0.3873790828999107', '0.38768860001734606', '0.3879350333379809', '0.3877706163016075', '0.38761131721581943', '0.3876874313872383', '0.38779533755839063', '0.3879631684012037', '0.3878537478888847', '0.38749896391522637', '0.3873894081209311', '0.38698076387475855', '0.3860193240382064', '0.3860297971910674', '0.3864892829530849', '0.3866340653560062', '0.38667442942194324', '0.38644611149191754', '0.38630081231782004', '0.38524644975856365', '0.38500980902637455', '0.38526027612158653']</t>
+  </si>
+  <si>
+    <t>['0.9985171218410985', '0.9985936969917515', '0.9986700610495831', '0.9983306220084892', '0.9981663411440205', '0.9979800384166432', '0.9979635578365925', '0.9979149300176574', '0.9970965374485716', '0.9971131586013215', '0.9973760583586234', '0.9973845164126832', '0.9981281099328716', '0.9987720898234032', '0.9989409170290334', '1.0027470697177854', '1.0028082910958749', '1.0006780517673077', '0.9988771140383179', '0.9989916283285766', '1.0008376489946398', '1.0008773807780487', '1.0042337901561862', '1.0066490421093792', '1.0063988150751304']</t>
+  </si>
+  <si>
+    <t>['0.35145060339669537', '0.3515209949397422', '0.35145609983501347', '0.3515799891745277', '0.3517345335270859', '0.3518079116291674', '0.35188731918614674', '0.3515987620126918', '0.3515822439920929', '0.3513951590471455', '0.35134254259247033', '0.3512294766007766', '0.35110438311993686', '0.35113230915388527', '0.350506159812476', '0.34909265733821887', '0.3491111829786314', '0.34956210298947915', '0.34968783560414757', '0.34977989598665227', '0.34980362924222713', '0.34943366880603943', '0.3481573713288713', '0.3479034964819152', '0.34864288468798643']</t>
+  </si>
+  <si>
+    <t>['0.08533322789395544', '0.08546448030908942', '0.08549004790431498', '0.0855593419458221', '0.0857873418388381', '0.08597819958980271', '0.08596781550316576', '0.08590488733848017', '0.08587852592032927', '0.08588649577793254', '0.08595828660486064', '0.0859315318731569', '0.08586428362940254', '0.08584172946048271', '0.08568598553336286', '0.08529931744339712', '0.08529442067175388', '0.08551556860738448', '0.0855820263043279', '0.08554840990084567', '0.08543942221745197', '0.08540110406410999', '0.08491570505953984', '0.08472327066932785', '0.08483783160606484']</t>
+  </si>
+  <si>
+    <t>['0.9864889196907304', '0.9881136215031124', '0.988319397337943', '0.9889507951311536', '0.9907249000733858', '0.991871456385423', '0.9914086402882772', '0.9906695187151823', '0.9909265337230819', '0.9912392740630691', '0.9925498969223798', '0.9925606785978448', '0.9924958715748583', '0.992546406415484', '0.9911016430739411', '0.9871629952610483', '0.9869870281767091', '0.9885313879326961', '0.9892865294158425', '0.9893853617857017', '0.9884797073865611', '0.9877274779869277', '0.9827077483521204', '0.9799287094824329', '0.9807092795041326']</t>
+  </si>
+  <si>
+    <t>['23.319121739569244', '23.318450510651434', '23.31057991482158', '23.335605804346898', '23.424430985789808', '23.497391797219688', '23.54753203177032', '23.52072885473434', '23.468176996647365', '23.457400796914968', '23.46412761245732', '23.45476582079466', '23.44207676998256', '23.448408976478667', '23.384813507106713', '23.235764050493582', '23.22543847622807', '23.258810546565012', '23.28044116128065', '23.29975157011044', '23.296251817875316', '23.29386353490345', '23.20367204293697', '23.157589589006275', '23.16581264900942']</t>
+  </si>
+  <si>
+    <t>['31.503935693476816', '31.5417933990971', '31.537513653531338', '31.55211709121172', '31.51587771049804', '31.51579398759384', '31.48120145822211', '31.50072441974877', '31.534568968842674', '31.525902676005284', '31.519204188834653', '31.517639475548343', '31.47515923914995', '31.493865469859447', '31.4894340087806', '31.492010102753447', '31.515198247588447', '31.50726808115598', '31.46666460308631', '31.467169656871718', '31.45671970666314', '31.423405683618526', '31.443185023936604', '31.507576682741583', '31.513852368807587']</t>
+  </si>
+  <si>
+    <t>['5.979823792645922', '5.986042170291893', '5.987589877993118', '5.991759138721423', '6.000366233652404', '6.003566822651268', '6.0012165108654845', '5.990342825147037', '5.984829872610962', '5.98525000112572', '5.987620268058962', '5.985995123686243', '5.981474613285102', '5.981032518116755', '5.966898979328536', '5.941612389999115', '5.940985034123191', '5.951425037419538', '5.953771362095693', '5.957159577388597', '5.958171341216067', '5.951163617943068', '5.910871310127634', '5.912745179281009', '5.925753380421489']</t>
+  </si>
+  <si>
+    <t>['6.860103482458738', '6.864552449499141', '6.867614374828125', '6.876995010002912', '6.884832804743835', '6.890135463817513', '6.886369560375123', '6.8801926018323725', '6.877975959877938', '6.877784971950748', '6.87792136568208', '6.874399967501016', '6.8682680054166845', '6.865900309800563', '6.855904368257279', '6.832888206130964', '6.834235619224574', '6.847409995076966', '6.848589984112161', '6.8470759264411', '6.83999920105011', '6.835345530503222', '6.813192782713121', '6.806501936252333', '6.819870508180055']</t>
+  </si>
+  <si>
+    <t>['1548.4433077219142', '1548.4983678617805', '1548.5951052457456', '1548.4483996857402', '1549.2195127793777', '1549.2450544234428', '1549.7812466058256', '1551.8282146877448', '1553.0039233284629', '1554.0394138991728', '1553.851845251069', '1553.1195208765328', '1553.1878955379468', '1552.991486607803', '1552.324814367934', '1552.0872371266064', '1551.3249060463775', '1548.6221706072722', '1547.100576904781', '1548.1343336715288', '1548.3636075406625', '1549.545795813378', '1548.9903369086664', '1544.9039555341817', None]</t>
+  </si>
+  <si>
+    <t>['87.79985388649949', '87.87503418098821', '87.89386525239672', '87.94914220618391', '88.04913020902964', '88.10246630130298', '88.07785857952732', '88.04967701975671', '88.12267127402451', '88.13888945328377', '88.1674588126792', '88.11091460954073', '88.0763565602458', '88.11411809878675', '88.01479062418107', '87.82512785675311', '87.79949057784529', '87.89829505476297', '87.92886289022871', '87.991855040904', '87.98309850371652', '87.99068627501177', '87.83924526152853', '87.87346941576433', '87.93215294181485']</t>
+  </si>
+  <si>
+    <t>['0.000010198614825099', '0.000010216046321801', '0.000010219871923875', '0.000010228709533008', '0.000010265245618962', '0.000010287748412201', '0.000010260016058295', '0.000010253010954484', '0.000010258538871067', '0.000010259555857835', '0.000010269593965766', '0.000010270284820269', '0.00001026262313499', '0.000010259617717282', '0.000010238542693515', '0.000010205555963538', '0.00001020517347585', '0.000010244972003628', '0.000010251068930288', '0.000010243541765165', '0.000010229142806351', '0.000010225890249172', '0.000010165817506755', '0.000010149505918691', '0.000010166039280377']</t>
+  </si>
+  <si>
+    <t>['0.06249876717553097', '0.06246186224411732', '0.06246112259555785', '0.06248902671640165', '0.06257570487633157', '0.06261017811108939', '0.06259878116745014', '0.06253432860543627', '0.06248604057142784', '0.06247335520023414', '0.06246858707618857', '0.06247474593893893', '0.06246123506000647', '0.06249369963708767', '0.062461746635534096', '0.0623790979898852', '0.06237575894088531', '0.06244099974921215', '0.062431836700499586', '0.06237955632523218', '0.06229046432214347', '0.062292680470473184', '0.062238504513455056', '0.06221345020056684', '0.06229210126522687']</t>
+  </si>
+  <si>
+    <t>['0.9998045521002014', '0.9990682471703127', '0.9991990785749418', '0.9992757506454674', '0.9990364629318395', '0.998949225071724', '0.9998104907076946', '0.9992126739185788', '0.9986781794630619', '0.9985328092281467', '0.9984417056996586', '0.9983301334645314', '0.9987583447290369', '0.9988733259351938', '0.9985311784217612', '0.9987075078882871', '0.9987831852716406', '0.9983821572432142', '0.9982554474347918', '0.999730632661886', '1.0001316553752206', '1.0002257706905346', '1.000468196899557', '1.000979712139341', '0.9999059806550026']</t>
+  </si>
+  <si>
+    <t>['6.572297811783401', '6.577128273903658', '6.5788938024511205', '6.581488811061173', '6.587602149371761', '6.591211116556548', '6.5940731976791325', '6.587733862404349', '6.582786636221884', '6.584836293432471', '6.588225508974903', '6.583496500340865', '6.579876969048597', '6.580380815674333', '6.5752067055535885', '6.552690505005304', '6.551238613340762', '6.558469255547128', '6.561026674442322', '6.56438748118795', '6.565657498960567', '6.564384033986501', '6.546471749407713', '6.534715254915101', '6.543027388543901']</t>
+  </si>
+  <si>
+    <t>['16.767347726708145', '16.788827492839797', '16.79743631796051', '16.8276127686616', '16.858914095165105', '16.877945956318612', '16.82905792685931', '16.80418816095671', '16.807970896314764', '16.80107310671559', '16.807364961900646', '16.811413500436394', '16.820412994950086', '16.830220161657827', '16.803347685205622', '16.702839225837316', '16.701615147061347', '16.735517091849758', '16.75673745907826', '16.760825152777333', '16.760761698308972', '16.75547751510997', '16.652284076908394', '16.61816279010646', '16.639373269273293']</t>
+  </si>
+  <si>
+    <t>['12.87606579950671', '12.894773014214863', '12.899225383137006', '12.910527254303846', '12.934793773863728', '12.950822019577634', '12.958958090135507', '12.965091642091988', '12.990525577681943', '12.987420502940932', '12.998056483452167', '12.99863245393725', '13.004410044715476', '13.010035413951174', '12.989787097041054', '12.92742496548247', '12.923621686727524', '12.95568619798854', '12.967723207552968', '12.979832468580074', '12.987357363227', '12.97374324255589', '12.902390537307792', '12.87623907212484', '12.904462236868525']</t>
+  </si>
+  <si>
+    <t>['20885.628101524726', '20882.41039345233', '20890.094685929856', '20899.350305076234', '20909.573339360075', '20916.383024792874', '20925.557585332834', '20934.86687284198', '20939.246437317848', '20948.167464749476', '20958.40628960313', '20956.222828526596', '20956.151050215052', '20961.765874721357', '20951.790104876764', '20933.47215122042', '20936.04115941831', '20943.568317651443', '20939.028461133923', '20943.661215071923', '20946.572951731192', '20938.58220191545', '20893.472651121032', '20871.561151092465', '20863.4172900528']</t>
+  </si>
+  <si>
+    <t>['2.295055614674463', '2.290996707623709', '2.288617552349395', '2.2859451794428525', '2.2861780884787377', '2.2856630217209934', '2.2839214716369485', '2.2822623499666026', '2.280528299035087', '2.2812891200715995', '2.2815287281174093', '2.2811786400040743', '2.2806002967231813', '2.2813899343086166', '2.279288890099493', '2.279833943130293', '2.2831364426666307', '2.2916938732290566', '2.2907715894948413', '2.285740241576353', '2.2840321294851678', '2.283530822833345', '2.2818037519551173', '2.2835433893097874', '2.2805470132898362']</t>
+  </si>
+  <si>
+    <t>['175.32450890511427', '175.6100961189008', '175.59820992202154', '175.57965533317417', '175.62103211913015', '175.63012333379666', '175.52673112164004', '175.44106670587934', '175.47788627380592', '175.61563545234085', '175.89789958858216', '175.96621551678962', '176.2378200893616', '176.45656276148475', '176.26328887645604', '175.48032315888702', '175.58101187588605', '175.75331879516483', '175.82542376179313', '175.75424133403527', '175.6615611585671', '175.66987546318845', '175.12331860278988', '174.9367636536257', '175.04688902833948']</t>
+  </si>
+  <si>
+    <t>['22.174848012725466', '22.188145580832405', '22.201240530383327', '22.232875077854512', '22.265514355520434', '22.296439065747872', '22.312250028988093', '22.290061852265495', '22.291849439577867', '22.30458750695363', '22.330512320650794', '22.327314845713857', '22.320991710084385', '22.327766129226408', '22.27986546721415', '22.157072657846943', '22.153306310718904', '22.186627479377282', '22.19398908061183', '22.202792348585138', '22.18654670350289', '22.176829419186852', '22.099971508076358', '22.06409171100732', '22.104692685527912']</t>
+  </si>
+  <si>
+    <t>['2.3182200619205102', '2.3295684218822066', '2.331480367409615', '2.3348252404955856', '2.341691674719257', '2.346426435679253', '2.336863368225267', '2.3304708281726474', '2.316097178343689', '2.3158669497834286', '2.316248591944948', '2.315526930749157', '2.312475078157393', '2.3100983932325976', '2.303906483831427', '2.2846561071103513', '2.28407956509552', '2.2941396987820792', '2.297434811873414', '2.2955776966833024', '2.289228976279445', '2.288047091767446', '2.2719118639719458', '2.2675703568163734', '2.270452297095743']</t>
+  </si>
+  <si>
+    <t>['5.159950502807884', '5.158599857441171', '5.157537891679849', '5.159700969060491', '5.160719839121981', '5.15926373755727', '5.157171104905458', '5.149415933773569', '5.149981102582672', '5.150846662228487', '5.150906489446608', '5.153695291663236', '5.153849084498964', '5.153250698064186', '5.1540803655359015', '5.148296898279666', '5.145454498657033', '5.136593543470546', '5.1346901652037085', '5.129298880638361', '5.12875015577321', '5.126890144936838', '5.126386198087773', '5.133626873995092', '5.140976678270049']</t>
+  </si>
+  <si>
+    <t>['125.66826622996875', '125.61390312459385', '125.6319201337554', '125.74756797324572', '125.78250565071512', '125.79616585743818', '125.82618832635572', '125.74803356545351', '125.75795370901275', '125.68972962692912', '125.64837823726496', '125.5339036676816', '125.49690374848467', '125.55510140058175', '125.2245009423326', '124.96223194817223', '125.04894451881704', '125.15896781022954', '125.0494448154815', '125.05159493952806', '125.04742329523125', '125.03548929763306', '124.82926034232408', '125.13698056130035', '125.32597942504108']</t>
+  </si>
+  <si>
+    <t>['1.550552438717974', '1.5511398680302806', '1.5531815721654052', '1.5549125083130164', '1.5593010034036308', '1.5663878608196184', '1.571106983003314', '1.5746266769121766', '1.56993076931073', '1.5676158918666738', '1.5703915623551645', '1.5722994473504635', '1.571401748476292', '1.5697342910234797', '1.5698552736770632', '1.5677544690648393', '1.5667410063311853', '1.567428736521692', '1.5679494890724297', '1.5675915345904237', '1.568169707757693', '1.568647091565106', '1.5636631749008858', '1.5602094233884967', '1.5602169886678676']</t>
+  </si>
+  <si>
+    <t>['0.08718412466412963', '0.08722433174276534', '0.08722166989463924', '0.08725727806078402', '0.08737505453184351', '0.08762607006566452', '0.08766925512573273', '0.08768962676121787', '0.08767328456332091', '0.0876290140263092', '0.08765238311349273', '0.08763061869744748', '0.08760907318571087', '0.08763479563752231', '0.08756271266383639', '0.08724965074927639', '0.08724200785309634', '0.08732947244923256', '0.08735886414107191', '0.08727351606144171', '0.08720920807377708', '0.0871654066151314', '0.08698094127431823', '0.08689009314536024', '0.08713232979351491']</t>
+  </si>
+  <si>
+    <t>['0.23356522646302486', '0.23391073603919926', '0.23399472474491892', '0.23429666175639316', '0.23494175805034945', '0.23534709908657364', '0.2353275705789011', '0.23504145055032213', '0.23479432384120247', '0.23473609363810194', '0.23482312441838113', '0.23472782394206582', '0.23444075143099458', '0.23433784619110248', '0.23374683877100189', '0.23247390288765082', '0.23270632125992063', '0.23332224941390975', '0.23354748991752713', '0.23360264944204862', '0.23349020378553795', '0.2334265626068008', '0.2326034258761335', '0.2323843732303735', '0.2330502732940463']</t>
+  </si>
+  <si>
+    <t>['1699.2944158537132', '1698.8772959055636', '1699.965386495853', '1701.4161679319136', '1704.9581415838604', '1705.8125949288824', '1704.7568329371488', '1704.3069426772508', '1702.8652863257464', '1699.0567130328482', '1699.8643664090143', '1699.4017738649484', None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
+  </si>
+  <si>
+    <t>['4.765671378191861', '4.766281532107343', '4.769646140873362', '4.779617955702949', '4.79096752220658', '4.79903275998394', '4.782679604223627', '4.7693368193740495', '4.7595642466107755', '4.761040395171068', '4.76744785955455', '4.763524740091864', '4.751125053457854', '4.747046619126747', '4.735014142067637', '4.702941237112825', '4.707212621039004', '4.715310557321927', '4.718859135209672', '4.719286702682203', '4.712663551451371', '4.703815730505107', '4.666950261396548', '4.666401761439093', '4.681148608801471']</t>
+  </si>
+  <si>
+    <t>['0.6480753628669923', '0.6500242475855967', '0.6540776889341304', '0.6585185873756935', '0.6633962247133582', '0.6684239257491642', '0.6721649994224396', '0.6771012665324692', '0.683971470411116', '0.6825935877917808', '0.684893391438415', '0.6849881413074115', '0.6824955006814343', '0.6828597896562273', '0.6782935224451448', '0.6696730010640147', '0.6697239343638052', '0.6736260871657729', '0.67437423232115', '0.6735502865148246', '0.6718924897833689', '0.6709382637779621', '0.6665600083021525', '0.6663186400854628', '0.6688445880411997']</t>
+  </si>
+  <si>
+    <t>['0.696479504204015', '0.7024489670703367', '0.7055568460981746', '0.709541116877824', '0.712085018179732', '0.714789505745295', '0.7140933163390447', '0.7159572132551806', '0.721458927417534', '0.721051786509726', '0.7234065712973436', '0.7236654955606505', '0.7243876991455407', '0.7252758398001821', '0.721116663180716', '0.7064772184404396', '0.7065460494002676', '0.70848628419164', '0.7094539096480602', '0.7090512974318904', '0.7073329636868548', '0.7057890503815345', '0.6990408433440477', '0.6971098780966176', '0.6979341762028094']</t>
+  </si>
+  <si>
+    <t>['8.1261092557328', '8.06500381796953', '8.073818742762603', '8.109961229108052', '8.12422421271604', '8.151262803926443', '8.112027356651105', '8.1110158833623', '8.127225605667036', '8.125102191191871', '8.1237032934987', '8.127488218625308', '8.155343410994202', '8.173226616610668', '8.179197137521255', '8.189665230625513', '8.191462175155532', '8.214947585522115', '8.228022507169367', '8.254377209378697', '8.313082761005356', '8.312334220659787', '8.214219544522791', '8.186865201261618', '8.178477531366845']</t>
+  </si>
+  <si>
+    <t>['5.139472226028944', '5.142875508622508', '5.135125589674142', '5.118275266526879', '5.113284033567007', '5.11190169423424', '5.117288094574063', '5.112166090102631', '5.1026129736866', '5.103043163021817', '5.1123773783170865', '5.111094907199521', '5.111420157027275', '5.112650194324389', '5.1037820702372985', '5.070705857332251', '5.067346509547823', '5.077985179072957', '5.086903473827269', '5.0876557883358435', '5.07838109219322', '5.076474562846774', '5.041426576241356', '5.027499203048775', '5.039459702779282']</t>
+  </si>
+  <si>
+    <t>['14.109438938093582', '14.059167849219946', '14.034424813854086', '14.071797049426273', '14.126456117586867', '14.112249862399192', '14.049720859547309', '14.024262011953551', '13.983432318305802', '13.96605101883136', '14.010514436153871', '13.984623408048092', None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
+  </si>
+  <si>
+    <t>['0.02095117777046711', '0.02097450760859524', '0.020982952458238162', '0.020976206087555602', '0.020996834215262276', '0.021027921022209534', '0.02104316827577598', '0.02106860464171903', '0.021104824594095857', '0.021119765027466236', '0.021138977535152138', '0.02113930680790621', '0.021105465337252192', '0.021077048587579486', '0.021043620973284875', '0.020939242925877143', '0.020917143951376775', '0.02092299701532239', '0.020934505221391855', '0.020931633051338692', '0.020922175120418437', '0.020916760069914477', '0.02085184875522268', '0.02080139416797397', '0.020838062406805042']</t>
+  </si>
+  <si>
+    <t>['0.9986565495135848', '0.9989074428317021', '0.9985263530707318', '0.9983823401664051', '0.9984704609742125', '0.9977863793334845', '0.9975210931824013', '0.9978339272469746', '0.9983290611349719', '0.9983331226166041', '0.9982622507839243', '0.9980751106693635', '0.9978222261616914', '0.9975459866918155', '0.9975459843719471', '0.9976776451970913', '0.9983106307017134', '0.9987338690528975', '0.9995526307926035', '0.9989766166770591', '0.9983170213261837', '0.9988945464386925', '0.9998903415845025', '1.0009642076355656', '1.0027496810062875']</t>
+  </si>
+  <si>
+    <t>['2.1950501590797944', '2.1954488502448277', '2.1947141637258354', '2.192831000241337', '2.202303872486306', '2.2124136111215362', '2.213141712839409', '2.2104756357712816', '2.2071774333878373', '2.2062073674885805', '2.2050325844005965', '2.204355178334314', '2.2039412188443546', '2.2051115750055925', '2.1995653578452243', '2.1821273358154403', '2.1823343809468674', '2.1911762160132886', '2.19394132741868', '2.192870777824069', '2.1878727159224094', '2.186253678183332', '2.1667198633243', '2.1593827484782704', '2.162282141839193']</t>
+  </si>
+  <si>
+    <t>['3.719471389461108', '3.722377004429794', '3.723977532127768', '3.7259790841399263', '3.7294541369572927', '3.733560541852929', '3.7316034491859127', '3.7316506138430796', '3.733503383133285', '3.7346433032720427', '3.7354851971578276', '3.7350711269826653', '3.733612156799974', '3.732750008047119', '3.7316636577424473', '3.7255449258857096', '3.7247022093629907', '3.726036981840201', '3.727556689172873', '3.727925389142149', '3.727698361248878', '3.725284315308619', '3.7188746022020025', '3.716489748276483', '3.7180047548072994']</t>
+  </si>
+  <si>
+    <t>['0.05222550276086125', '0.05232240436544022', '0.0523477607322932', '0.05235967016672619', '0.05244629161971615', '0.052486960482571676', '0.05239748336047686', '0.052356344107347366', '0.05239036430364923', '0.05236590590655202', '0.052373172566520076', '0.05236504542892164', '0.0523257066636143', '0.052305122831052486', '0.052243158093970565', '0.0519811788251706', '0.051995944783106866', '0.052133914170078476', '0.05216836549711189', '0.05214983544687125', '0.05209577708978168', '0.05208392342038555', '0.05196530183359825', '0.05188784608184503', '0.052007990391097596']</t>
+  </si>
+  <si>
+    <t>['130.6990587265374', '130.87032005214238', '130.8616335962214', '130.84720276529052', '130.93653169019197', '130.992511728761', '131.1880223243215', '131.11992239300562', '131.07078747897842', '131.0377691313983', '131.06418597785913', '131.0100972731352', '130.89591571134315', '130.87438901590184', '130.691688374458', '130.11236510249086', '130.06446701545582', '130.1395530845871', '130.21798909352344', '130.3161628788188', '130.404831989963', '130.34222189261368', '130.00749174844032', '129.86861456479758', '130.12675638988495']</t>
+  </si>
+  <si>
+    <t>['0.07388633350502755', '0.07389555467500021', '0.07392147165577703', '0.07402103535903763', '0.07410851988316851', '0.07416543408274764', '0.07416703098567541', '0.07408424103990575', '0.07413928401217316', '0.07414937200858047', '0.07418728596781553', '0.07414641449904148', '0.0741665808473089', '0.07422627987346925', '0.07417208277550723', '0.07410317145937068', '0.0740850020748042', '0.07404527244555202', '0.07400137461075172', '0.07398505914842293', '0.07393848910524833', '0.0739480865398481', '0.07379867644355058', '0.07378546839357332', '0.07379139642784718']</t>
+  </si>
+  <si>
+    <t>['0.000182012093850715', '0.000182134537824876', '0.000182241095749766', '0.000182447400031779', '0.000182698904437528', '0.000182916685104611', '0.000182905557803749', '0.000182768560270552', '0.000182580514535391', '0.000182758361056538', '0.000183142927524964', '0.000183090013255321', '0.000182799457331421', '0.000182615148678484', '0.000182110847959313', '0.000181184839433859', '0.000181275332913445', '0.000182017060811924', '0.000182202750939954', '0.000182224880025817', '0.000182150517078181', '0.00018214264164936', '0.000180972208227969', '0.000180716282128238', '0.000180863012152321']</t>
+  </si>
+  <si>
+    <t>['80.40997752146092', '80.40227239767796', '80.36629512544533', '80.26663576135905', '80.18724805130772', '80.2192561627261', '80.37058241478455', '80.43004000229585', '80.5907548539427', '80.70760213974773', '80.80412374270007', '80.75863885820874', '80.76205895860893', '80.79379836590428', '80.68466668975246', '80.32982552333405', '80.22619006824999', '80.17550772979482', '80.20856463431514', '80.21051143734095', '80.14722612915187', '80.11979561761102', '79.98598655511299', '79.9306298587416', '80.06584131708212']</t>
+  </si>
+  <si>
+    <t>['0.5676213923210749', '0.5681714051106803', '0.5682428133328467', '0.5686754196822211', '0.5693491180316271', '0.5698596173737809', '0.5702710743249064', '0.5703296865234354', '0.5711182576505016', '0.5715811044881057', '0.5719493592960374', '0.5720840612060569', '0.5721882513608282', '0.5721716992108274', '0.5715003521277097', '0.5685375288909732', '0.5683841031644462', '0.5686875311463065', '0.5687922388953366', '0.5688564916572905', '0.5690404685741578', '0.5684462149700646', '0.5652278785930688', '0.5639251222388384', '0.5652070574068748']</t>
+  </si>
+  <si>
+    <t>['1.0865917713975846', '1.0897370849908579', '1.0896128915304737', '1.08853855286642', '1.0906577261824302', '1.0941575631391707', '1.1004443839417455', '1.099162608740981', '1.0971393921457306', '1.097556368553512', '1.0998548240448607', '1.1013480523062669', '1.105322780500915', '1.1068103726049103', '1.0992387249841251', '1.0885655901407658', '1.0876975257257664', '1.0884845869970512', '1.0895858969975813', '1.089763177924229', '1.087866533963289', '1.0869341335235116', '1.0782163955294997', '1.0766098703248936', '1.0788633448131506']</t>
+  </si>
+  <si>
+    <t>['1.0627845598050107', '1.0633772113430675', '1.063705842120009', '1.0644317813122868', '1.0652801147433795', '1.0656171226250966', '1.064884932606801', '1.064352631116008', '1.0648352799427427', '1.0647744916202362', '1.0653317704476548', '1.0644304287391337', '1.063605934410826', '1.0645496529899967', '1.0626107629397006', '1.0598243513696457', '1.059606528680883', '1.0606227408035156', '1.0606641156485497', '1.0609630057456214', '1.0616326013312771', '1.0614608675166959', '1.059662852804043', '1.059193085727908', '1.0607345106360333']</t>
+  </si>
+  <si>
+    <t>['0.13728157394181453', '0.13736525766269145', '0.13740591979441866', '0.13766024468544427', '0.1378422639856018', '0.13799020584177926', '0.13784243237291247', '0.13770971021430958', '0.1376975979001097', '0.13778396040336333', '0.1381199609243543', '0.13814331926333231', '0.13814245283476753', '0.13821718346999656', '0.13785533128796035', '0.13706885890054554', '0.13709405302879674', '0.13737834187455464', '0.1374797583427885', '0.13751594369300021', '0.13748913012384895', '0.13739570613182508', '0.13679796952669832', '0.13673876681067845', '0.13697224757330176']</t>
+  </si>
+  <si>
+    <t>['8.186978426596315', '8.212747042802365', '8.206848120237657', '8.161162439511193', '8.184185785189525', '8.211658551392658', '8.235633258452296', '8.211508453743171', '8.158567931700652', '8.16750692889023', '8.195869901109612', '8.175623774336726', '8.041967059107463', '7.9681620297567815', '7.936623292848233', '7.872611993499364', '7.874396537604399', '7.913452206244906', '7.928582808078717', '7.939587342667542', '7.941997952866577', '7.930531882057356', '7.8826755635588', '7.873378217800471', '7.8967797320117405']</t>
+  </si>
+  <si>
+    <t>['0.9957714865506821', '0.9962473803701278', '0.9957057600498299', '0.9953165495388409', '0.9957309172056837', '0.9958470672431377', '0.9955100069955128', '0.9948006095079406', '0.9953787697980888', '0.9958346487966337', '0.9958613476193178', '0.9959059123771785', '0.9952270382079518', '0.9948917726666565', '0.9957529696194074', '0.9964507651957318', '0.9969558153150555', '0.997920626612605', '0.9972245193536252', '0.9963809559484424', '0.9967829829600412', '0.9973446830831285', '0.9973490821420056', '1.0014307078974072', '1.0018128054865703']</t>
+  </si>
+  <si>
+    <t>['40.29458124572538', '40.35192363491463', '40.36451755888357', '40.437101372844005', '40.50766905532492', '40.587925096135834', '40.757002760101635', '40.75392333001456', '40.737267393058666', '40.75013877252057', '40.76871223165504', '40.76035890593086', '40.70301556642486', '40.67825210589674', '40.611176798198606', '40.45542668796948', '40.42884940378718', '40.44478294666688', '40.450889799133996', '40.43046882695345', '40.40088649108362', '40.40823588433607', '40.35617689548069', '40.34472267675553', '40.39003732996104']</t>
+  </si>
+  <si>
+    <t>['1.0198929282850147', '1.022109105402199', '1.022388430791639', '1.0227147780137604', '1.0233796324907487', '1.0238233003943409', '1.023655436027069', '1.0232107318992294', '1.022717098593334', '1.022880777848445', '1.0235372704858006', '1.0230949234732656', '1.022223479930932', '1.021622802044567', '1.020108950865596', '1.015533400538171', '1.0154127607916825', '1.0167232062033507', '1.0173787340904648', '1.0180297578588127', '1.0183956945550228', '1.0187499593486107', '1.0147957850153972', '1.0133217390217373', '1.0144139825849703']</t>
+  </si>
+  <si>
+    <t>['0.9263599535358834', '0.9283960633084165', '0.9290210057057172', '0.9306067976427276', '0.9317417231337211', '0.9322973613187053', '0.9292271864470243', '0.9289810086649611', '0.9304179229299643', '0.9308475511197708', '0.9315608743177062', '0.9312881015868778', '0.930747770070435', '0.93053281868493', '0.9286998746201917', '0.9244926954966641', '0.9248314812436434', '0.9264740527731041', '0.9270390095630556', '0.926870916072302', '0.9264187704755037', '0.9262061262570386', '0.9217170170393323', '0.9208966880047986', '0.9225778109862766']</t>
+  </si>
+  <si>
+    <t>['44.72790560109928', '44.738950125035736', '44.77192276393515', '44.80147073132869', '44.80837298823813', '44.80576583679204', '44.85497982440063', '44.89938097888032', '44.89591041390537', '44.89948680060701', '44.89860103586564', '44.899480602984674', '44.90390862325993', '44.95283224083014', '44.898026152565045', '44.80554908680956', '44.78758857296067', '44.78578345020573', '44.79933624507781', '44.80328531232467', '44.76190588759258', '44.74359557592984', '44.7155992104536', '44.67386724645237', '44.69321596828925']</t>
+  </si>
+  <si>
+    <t>['1.3102743033397748', '1.3166012044933373', '1.3182866622853027', '1.3189736399644312', '1.3198354009750566', '1.3202772887487553', '1.3206013234154261', '1.3194276898133668', '1.3171832929870835', '1.317158468466265', '1.3183807740168985', '1.316802611760207', '1.3120871738003002', '1.3109544077048103', '1.3074018067648594', '1.300778873242686', '1.3008326427591972', '1.3030174507596322', '1.3041118557294737', '1.3040112691800705', '1.3020223751291768', '1.30057568985131', '1.2936861690161032', '1.292524792489117', '1.2954160311566492']</t>
+  </si>
+  <si>
+    <t>['2.1293287943667636', '2.153805284800049', '2.179016593660273', '2.254097494119187', '2.2192354433895045', '2.1868319691183267', '2.153522029709221', '2.1460200391500277', '2.1427035094854383', '2.1544109586366536', '2.172950274744326', '2.173229173267046', '2.1834114430383016', '2.191716734780725', '2.2125255025750303', '2.250372623593277', '2.2548032401876577', '2.3601705744629573', '2.3848811383181823', '2.4063947489192525', '2.4389806323868117', '2.4401181578707685', '2.3889425615557216', '2.3744743635344374', '2.370605897559987']</t>
+  </si>
+  <si>
+    <t>['45.11215605691923', '45.2172687353029', '45.25145328747781', '45.308776256401394', '45.42636877043361', '45.469190079507946', '45.4258668255302', '45.39127102206489', '45.35313606256558', '45.35725517594682', '45.391835955764996', '45.36043764998349', '45.290446221995175', '45.26830890522281', '45.186296577465704', '44.9415124635633', '44.96029662434786', '44.997219181132635', '45.01476483098666', '45.07925104221474', '45.16900531021531', '45.183718004438376', '45.02643802397848', '44.98600059925125', '45.02834542557836']</t>
+  </si>
+  <si>
+    <t>['0.9691685474351298', '0.9682678513311662', '0.9685968468417477', '0.9690156637574306', '0.9681164927622959', '0.9676453648622331', '0.9662352767201461', '0.96689590834404', '0.9676713460527259', '0.9677806692321', '0.9678101324067481', '0.9677915635535451', '0.9677248722391826', '0.9677622942767582', '0.9683685082589976', '0.9686529452692151', '0.9687709281335893', '0.9690621300076286', '0.9690277734859848', '0.9691776873655298', '0.9692570111362105', '0.9693210967478454', '0.9695644906858403', '0.9698205224339965', '0.9706198292731271']</t>
+  </si>
+  <si>
+    <t>['0.1941296020182337', '0.19724533921904708', '0.1978450691406426', '0.19727345544982708', '0.19618545900816264', '0.19534855370293408', '0.1962017409777537', '0.19655198980273605', '0.19732429022445738', '0.1977199722157141', '0.19839377402067934', '0.19825473985721584', '0.1973392409412017', '0.1967770870981037', '0.19637625234329437', '0.19489123690245624', '0.19471593012657598', '0.194828310403412', '0.19488638425115282', '0.194950518587014', '0.19505198030060233', '0.1950545994810717', '0.19409762919762902', '0.19398818021621056', '0.1943456077538393']</t>
+  </si>
+  <si>
+    <t>['7.26999215915e-7', '7.27265764937e-7', '7.27392676889e-7', '7.27407717614e-7', '7.27240523116e-7', '7.26956481692e-7', '7.27138003105e-7', '7.27581778178e-7', '7.27733683885e-7', '7.27535908888e-7', '7.27202115126e-7', '7.26797421351e-7', '7.26130674443e-7', '7.26738326964e-7', '7.27471669615e-7', '7.28129509816e-7', '7.2831801988e-7', '7.28791943788e-7', '7.28428909158e-7', '7.28097975698e-7', '7.28186381461e-7', '7.281717351e-7', '7.2904513352e-7', '7.30014050269e-7', '7.31086617965e-7']</t>
+  </si>
+  <si>
+    <t>['703.4903268203873', '704.755017637658', '705.3969662710824', '706.6930513261636', '708.162823954495', '709.4884207384233', '710.8535153821523', '710.152136851507', '710.1805663477771', '710.6756546148407', '711.0421449645263', '710.5546909664708', '709.694103028468', '709.533605163544', '709.5649040058172', '708.1639596764949', '707.8525613139163', '706.1007959871417', '705.5962857717186', '704.5619014464068', '703.9656170557885', '703.7371503422704', '701.9901758875944', '700.969478193744', '701.6173149536036']</t>
+  </si>
+  <si>
+    <t>['5.22499160569184', '5.232887659236242', '5.23887669208677', '5.256325121704963', '5.270478906387685', '5.273553359971751', '5.257429450829791', '5.250105067940166', '5.238490537702828', '5.230547044809455', '5.2294248196542314', '5.226973168806567', '5.214650856573267', '5.20682142064107', '5.195835168397112', '5.166793973295378', '5.17015626340196', '5.186847598293749', '5.191466701731496', '5.185686750032917', '5.179034061146939', '5.175653214172224', '5.1480722483096395', '5.139549139333861', '5.150497962420488']</t>
+  </si>
+  <si>
+    <t>['2.2359836112189098', '2.2410490704793835', '2.2417356828174744', '2.2453858621738343', '2.2503923328396587', '2.2497272945646167', '2.2369895848812438', '2.2338169901794114', '2.2324496528527846', '2.2288199200416376', '2.220744686993192', '2.214733768426312', '2.1940845517109486', '2.1872881422734944', '2.1802771385277993', '2.1638192420928113', '2.1627106333346306', '2.159410670737508', '2.159999141712433', '2.158830296544361', '2.1573202129566447', '2.1556514248925214', '2.143194923822516', '2.1427843834331943', '2.1558799540023093']</t>
+  </si>
+  <si>
+    <t>['0.8432941063078288', '0.8425987567403921', '0.8428217399670016', '0.843749544451672', '0.8451897827214416', '0.8455141582780745', '0.8469304062143745', '0.8467203689181028', '0.84778530740442', '0.8480264455459409', '0.8487159052601182', '0.8483546731000661', '0.848066391382623', '0.847712653750105', '0.8441240426637666', '0.8381515438376488', '0.8383964305276764', '0.8396052194578622', '0.8397526791233398', '0.8394364902477647', '0.8383876063762934', '0.8387238895341566', '0.8353513657626417', '0.8356857619456476', '0.8388250209757843']</t>
+  </si>
+  <si>
+    <t>['0.21834424954404266', '0.218669950118725', '0.21870138216816296', '0.21866047059624125', '0.21890702795568812', '0.21914328638773725', '0.2187063833507865', '0.21862146136017044', '0.21876853626957252', '0.21879172022552826', '0.21882342351044212', '0.21881155248404774', '0.2187737785394279', '0.2187624457427083', '0.21834145866971255', '0.21678032836005276', '0.21686509764947987', '0.21735341890144913', '0.2175599372239913', '0.21755522598274066', '0.2174946277501886', '0.21743806068324606', '0.216301427978545', '0.21602202674562526', '0.21623724038944073']</t>
+  </si>
+  <si>
+    <t>['7.899379478511034', '7.906818485908595', '7.90674960044531', '7.906766288493598', '7.911531090919308', '7.9173062807387655', '7.922653313801068', '7.918265487971744', '7.917083704396635', '7.9159767745948795', '7.920893811584618', '7.920928006723602', '7.921429118808569', '7.93577009547971', '7.935811681133392', '7.935684946496751', '7.928535010581158', '7.928472938169446', '7.9282838227886625', '7.921583145033854', '7.921596612001392', '7.92144844419468', '7.91943307094311', '7.9194141123547555', '7.91882021245953']</t>
+  </si>
+  <si>
+    <t>['0.000030212130750289', '0.000030303029997265', '0.000030312415300837', '0.000030291164605962', '0.000030332651581177', '0.000030382255515066', '0.00003036121858764', '0.000030340286489986', '0.00003028735097141', '0.000030281322071051', '0.000030265106964468', '0.000030263283641127', '0.000030243347113812', '0.000030230291046172', '0.000030192676422305', '0.000030031139049336', '0.000030019497664209', '0.000030093580327577', '0.000030132412007715', '0.00003012705634095', '0.000030096092813341', '0.000030093665389452', '0.000030005093944499', '0.00002996995751206', '0.000029995950998496']</t>
+  </si>
+  <si>
+    <t>['51.65866978135613', '51.7664580040244', '51.78093592626522', '51.79623026814034', '51.86524118102216', '51.90993955515601', '51.83275995764611', '51.775436125368515', '51.75861955632951', '51.79060171292048', '51.825924812238185', '51.809432020018356', '51.790472846765795', '51.79592305044102', '51.70203118572388', '51.47469020052755', '51.4574489215175', '51.53305649280922', '51.5451499552612', '51.538835356942705', '51.5113409340651', '51.47427815818956', '51.16008643585983', '51.14529130591124', '51.27714294382521']</t>
+  </si>
+  <si>
+    <t>['0.3302647066657229', '0.33035216915185855', '0.3305559003504099', '0.3312091083517602', '0.33172288867568445', '0.3322971718328545', '0.3324232705281912', '0.3321009415388372', '0.3313416067000328', '0.3313265323127569', '0.3311675840060168', '0.3310994655737669', '0.3307414248195783', '0.3306388553670203', '0.32976230307396426', '0.32750132501295953', '0.3275294342399084', '0.32812961836145', '0.3283999678637066', '0.3283883133923529', '0.3284706243026124', '0.3283452589947608', '0.3254609297068721', '0.32453652005660305', '0.3251327766661198']</t>
+  </si>
+  <si>
+    <t>['9.213812066184335', '9.263852378069869', '9.284109899449007', '9.310933813417508', '9.339594453444027', '9.36048774434427', '9.302380773032109', '9.286638063423394', '9.292549955231843', '9.287745397870529', '9.28195378117571', '9.281840921145742', '9.274052101066106', '9.270751463303853', '9.25142923568253', '9.16553117406173', '9.160085058175937', '9.177941405140498', '9.185498802267787', '9.181179834117783', '9.166789738711246', '9.15842617318435', '9.078232835781385', '9.045991218466446', '9.055878395582555']</t>
+  </si>
+  <si>
+    <t>['3.7714581121298307', '3.7722407126798485', '3.7702222322651044', '3.7655327609337843', '3.7621631289470256', '3.7653341371188307', '3.7699775446227486', '3.7693477251846477', '3.7678370115455646', '3.7663105117948272', '3.764698982728918', '3.764705053768149', '3.766378479130609', '3.7649402496430633', '3.763016834109282', '3.7654825575016906', '3.7715992678969608', '3.7774254494167874', None, None, None, None, None, None, None]</t>
+  </si>
+  <si>
+    <t>['6.765786666525747', '6.76204382464896', '6.766797059475334', '6.7598249662763', '6.766697523027753', '6.767411929521621', '6.764667188937138', '6.761308386711701', '6.770514341366807', '6.773525076237374', '6.763235970055772', None, None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
+  </si>
+  <si>
+    <t>['7.691564249588992', '7.700554278649276', '7.70293701181256', '7.711380257429211', '7.715767613282463', '7.716869949991158', '7.704466931351724', '7.702376785617057', '7.711070815157954', '7.7133930079325514', '7.717767078677663', '7.71486326524464', '7.706732123607486', '7.708117746459081', '7.696312320948716', '7.674223419998899', '7.6745379996874945', '7.672026490777641', '7.672551601666657', '7.674261902885422', '7.670570974929806', '7.668277486521224', '7.650352181595462', '7.651816436955595', '7.664092561113735']</t>
+  </si>
+  <si>
+    <t>['0.025191576039880984', '0.025183713999303005', '0.0251612612386361', '0.02515047142312159', '0.02511474817682111', '0.025078429978691898', '0.02510177484830036', '0.025145799994448756', '0.02512774394179992', '0.025124702365384798', '0.025195408248282803', '0.025210768387023796', '0.02520218320133131', '0.025231768729002995', '0.025213407905463624', '0.025103323489447903', '0.025039725859177388', '0.025048278768508823', '0.025079736678628544', '0.025077494195254443', '0.02504211411814909', '0.025030447345563717', '0.02495931245974462', '0.024909466778407236', '0.02493011967653247']</t>
+  </si>
+  <si>
+    <t>['1.7449458474617756', '1.747201714322014', '1.7479033198604157', '1.7475942545160446', '1.748077693690573', '1.749689348692449', '1.7507310245363499', '1.7526824672792034', '1.7545642702686912', '1.7557939092254233', '1.7562773106126155', '1.7561652822789673', '1.757860015715317', '1.75915654142013', '1.759430752187223', '1.7590615694374976', '1.7553209908260197', '1.7512256591887494', '1.752740026611217', '1.7545782177720557', '1.7535834424761672', '1.7521352123010863', '1.7452652838133595', '1.7429312975533537', '1.7376131827250023']</t>
+  </si>
+  <si>
+    <t>['28.74500280440861', '28.748887774127688', '28.783099453543496', '28.888736206793904', '29.03617831284039', '29.163472032516196', '29.204283093594107', '29.209050658830947', '29.204075946660936', '29.250487496910225', '29.2561236928362', '29.25422076120305', '29.25344819044135', '29.29198343739379', '29.277626724093185', '29.234761778819532', '29.262971088763233', '29.26816481366807', '29.233406931323255', '29.232269084021013', '29.25471113243036', '29.285153617712776', '29.25747063550296', '29.258418817982925', '29.293246038065824']</t>
+  </si>
+  <si>
+    <t>['1891.6259032452353', '1892.262744739344', '1891.9240058000241', '1891.7151108408684', '1891.8872998960392', '1891.50394244817', '1890.7903387149715', '1890.7393987024484', '1891.2220247461487', '1891.580742339629', '1891.5364805805343', '1891.029493936293', '1890.4549663478365', '1890.627084426378', '1891.5474906843012', '1892.7249769506686', '1894.1112429943873', '1895.7745624558597', '1895.9395777151562', '1894.87773206631', '1893.8996621377867', '1894.664211164116', '1896.0948952971023', '1897.8924431226446', '1900.9926591927565']</t>
+  </si>
+  <si>
+    <t>['1.000855642646901', '1.0009316051543382', '0.9991618998744893', '0.9981154949266056', '0.9981834428112434', '0.9976656468270487', '0.9960465798043078', '0.9967142611521269', '0.9978289630299286', '0.998073888338443', '0.9978354347520637', '0.9975510778857336', '0.9974096925940317', '0.9975096214922584', '0.9980984337482162', '0.998726034814285', '0.9988708030496093', '0.9993796774493997', '0.9994473587971291', '0.9990423702873628', '0.9987890645982839', '0.9989729412383427', '0.9994979607001897', '0.9998302415100474', '1.0025922167169368']</t>
+  </si>
+  <si>
+    <t>['0.7465550512022334', '0.7474216331594012', '0.7483974705148861', '0.7490726152136923', '0.7494234471340976', '0.7503220747184726', '0.7510641539086386', '0.7508907541982034', '0.7496105799109584', '0.7494115697142608', '0.7492666786208543', '0.7496261686186165', '0.7498536737175867', '0.7505078525814732', '0.7503066006818778', '0.7500137364944043', '0.7498585503931088', '0.7504196983765996', '0.7503440449100944', '0.7499764586586296', '0.7498233066113675', '0.7497236640295201', '0.7487110148539415', '0.7476016332632649', '0.7470578093911064']</t>
+  </si>
+  <si>
+    <t>['78.08160650590531', '78.19627746282899', '78.11610879270184', '78.10899167493635', '78.05808552094774', '78.0702153828192', '78.12752688602475', '78.03771102777637', '77.97817685328629', '77.97663285439157', '77.97371658386221', '77.96184999922403', '77.92666614691726', '77.93469397973537', '77.94382686093259', '77.93686495584961', '78.0426635357412', '78.10025323308375', '78.05621613854196', '77.96407256499937', '77.94949292601953', '78.0957426273646', '78.2533104273979', '78.3495182640974', '78.62910023286538']</t>
+  </si>
+  <si>
+    <t>['4.66523726218e-7', '4.66566374303e-7', '4.6645750194e-7', '4.66478493915e-7', '4.67157639712e-7', '4.67160679744e-7', '4.67140668986e-7', '4.67718795136e-7', '4.68037757264e-7', '4.68124983452e-7', '4.68089438878e-7', '4.68069278758e-7', '4.68111331326e-7', '4.68309093239e-7', '4.68753715795e-7', '4.69023368776e-7', '4.68934575615e-7', '4.68843520984e-7', '4.68623283974e-7', '4.67994347615e-7', '4.67861650681e-7', '4.67944395553e-7', '4.68326959775e-7', '4.6851029184e-7', '4.68251337365e-7']</t>
+  </si>
+  <si>
+    <t>['0.19253826927495418', '0.1928011357433908', '0.19284476006835272', '0.19289595886462058', '0.1931305862155838', '0.19324465225223653', '0.1931939721368678', '0.19305403891623488', '0.1928383209984888', '0.1928681865134766', '0.1929137538481287', '0.19287963582004197', '0.19279811104200711', '0.19277700499581646', '0.192506294754149', '0.19163476994500644', '0.19166673914563925', '0.1918076798625356', '0.19184512007361773', '0.1918057935667743', '0.19177555376137945', '0.19172616551080074', '0.1910611439688945', '0.1909306444417264', '0.1912588923313054']</t>
+  </si>
+  <si>
+    <t>['0.002271214554187906', '0.002273992624155049', '0.002273828203184372', '0.002274849124764196', '0.002276468074859611', '0.00227556555872149', '0.002266065356180935', '0.002262682309946316', '0.002258334973542021', '0.002256734974383679', '0.00225869531363734', '0.002259906714091822', '0.00226245851811239', '0.002260618501317967', '0.002260845206260815', '0.002261516873805208', '0.002262034884761353', '0.002264070224547669', '0.002263820132648141', '0.002268592838346971', '0.002272424381543877', '0.002271718368229884', '0.002266340896840919', '0.00226723522889174', '0.002268954996574208']</t>
+  </si>
+  <si>
+    <t>['0.023001401489833227', '0.023056327718159093', '0.02308171295533861', '0.023130925763818602', '0.02315590550364527', '0.023164849174932698', '0.023135943610839916', '0.023115739964447938', '0.023130930661904785', '0.02314369848672643', '0.023142227158744574', '0.023141946266115786', '0.023145032320489974', '0.02314720435621966', '0.023120290611826296', '0.02298527578383448', '0.02296603899558729', '0.023006892988268333', '0.023037093970648268', '0.02304307944554228', '0.023033605455759467', '0.023015455955263067', '0.02292020143660119', '0.022865407439936845', '0.022888274531149888']</t>
+  </si>
+  <si>
+    <t>['31.044908460767743', '31.06743194385295', '31.091750347199742', '31.15459107167565', '31.202740318382812', '31.173781561438346', '31.2102624222425', '31.196849192212657', '31.13078906176438', '31.178792046388637', '31.146631246592232', '31.003065035598386', None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
+  </si>
+  <si>
+    <t>['0.4273212004529981', '0.4280770818078047', '0.42867357923462185', '0.42996571722639154', '0.4308408326637016', '0.43090829214477205', '0.43015459768608916', '0.43163925148238097', '0.43367270967639376', '0.4373697576738766', '0.4401272448134382', '0.4398184818526483', '0.43992916313387964', '0.43987700415656084', '0.4385037883011297', '0.4375864449027279', '0.43822892340554415', '0.43862420147395237', '0.43837027733665346', '0.4389879375024114', '0.4400239842645814', '0.44025900841532434', '0.44222045134170623', '0.44253170982573337', '0.4422783789213291']</t>
+  </si>
+  <si>
+    <t>['3.8144132804669546', '3.8279115950567335', '3.8375884449500965', '3.840490425651501', '3.8448281917939524', '3.865254330661687', '3.8724338555140405', '3.868370659515527', '3.8546230706207187', '3.8540739149691694', '3.865655154493913', '3.873394718033849', '3.8749467745332717', '3.8728208399249957', '3.868734253454494', '3.864189555749179', '3.8634787458167748', '3.8619380584010283', '3.8516545347815967', '3.847772203716368', '3.8453139203683677', '3.847451036765522', '3.8458872104497956', '3.847753953189542', '3.8524939339512825']</t>
+  </si>
+  <si>
+    <t>['0.6339829399356435', '0.6337580715459246', '0.6334693783330296', '0.6333477186676824', '0.6334154479672355', '0.634068567376993', '0.6335800663144501', '0.6316941147217591', '0.6311271512202913', '0.6315403549130437', '0.631930645713036', '0.6324656514521687', '0.6323490313595014', '0.6327250420119679', '0.6306495413953573', '0.6276267319733192', '0.6274989661342562', '0.6286532209074462', '0.6277936818346491', '0.627772861043426', '0.6272012412662571', '0.6271008408368265', '0.62542364658875', '0.6216025812988837', '0.6221888508601359']</t>
+  </si>
+  <si>
+    <t>['0.025684294240732833', '0.025746900235395546', '0.025752229189688374', '0.02576194430653204', '0.025786324752589997', '0.0257955983670343', '0.02575277833475877', '0.025755214532526553', '0.02580349851418425', '0.02581940419686012', '0.025852230745409314', '0.025843357336360867', '0.02580421735665989', '0.02578658173276196', '0.025724679027390077', '0.025567030825449352', '0.025567449645889417', '0.02562131962312889', '0.025641486739841027', '0.025653574103159577', '0.025685350834669832', '0.02568051885720176', '0.025537448987526964', '0.025513324714650107', '0.02555614021640709']</t>
+  </si>
+  <si>
+    <t>['0.8578039431079342', '0.8590650045022539', '0.8594260287633446', '0.8595133522928359', '0.8598318653842687', '0.8604713777033279', '0.8608323527362245', '0.8615445623264241', '0.86209933199223', '0.862396425009313', '0.8618916196858716', '0.8619438087340711', '0.8624902028086691', '0.8627377394672056', '0.863601087032963', '0.8628420976418376', '0.8622010577751587', '0.8623410498454549', '0.8625776836770045', '0.8623196064304224', '0.8625411669633662', '0.8629740888467503', '0.8621245142059635', '0.861407176871636', '0.8604609700587742']</t>
+  </si>
+  <si>
+    <t>['0.5519648418652118', '0.551871140221737', '0.551672750823226', '0.5518831936633604', '0.5533244408849951', '0.554651902484108', '0.5559677292031581', '0.555600321636737', '0.5547178868182896', '0.5548427805032495', '0.5560791642079228', '0.5564858927557564', '0.5574788193292443', '0.5584445884298066', '0.5596512587742316', '0.5585324198352846', '0.5576548570219269', '0.5564753438798832', '0.556625910434896', '0.5567246302409', '0.5570401575500662', '0.5562668779883932', '0.5513459729575672', '0.5489245227766213', '0.5501189181961589']</t>
+  </si>
+  <si>
+    <t>['0.08741642075892993', '0.08752586910612162', '0.08758631132090261', '0.08771015356466347', '0.08772930136200573', '0.08771697064769206', '0.0877585155226599', '0.0878459140028821', '0.0880792291666213', '0.08834437717211509', '0.0886646325732318', '0.08856774804661709', '0.08830987916108508', '0.08819268208654896', '0.08786079101650773', '0.08719703335174574', '0.08727731928818473', '0.08780375562842921', '0.08797038655475946', '0.08781517750818298', '0.08743754981970989', '0.08738527061710159', '0.0868075496723871', '0.08669307162548541', '0.08689228949176644']</t>
+  </si>
+  <si>
+    <t>['0.9283245285307339', '0.9280809158815222', '0.9276787314439855', '0.9283582196141815', '0.9285192388854715', '0.9273563331520401', '0.9268060368687392', '0.9260778378306173', '0.926556253176396', '0.9267082618665189', '0.9260891847816564', '0.925731599044593', '0.9259138148572161', '0.9274504645208542', '0.9276481637307578', '0.9268422013912931', '0.9262381697712213', '0.9258771050674807', '0.9242602974462593', '0.9241997707941749', '0.9243814597863783', '0.9244147483090741', '0.92398883529939', '0.9208424362348556', '0.9206815787155962']</t>
+  </si>
+  <si>
+    <t>['9.185840096394665', '9.198892353242261', '9.192824964738135', '9.204766292993375', '9.220734401710562', '9.226501219310343', '9.223988645057151', '9.232693318365534', '9.24517562211032', '9.238349335920025', '9.232491400766413', '9.22912869951763', '9.227463751946914', '9.235779643003259', '9.220145892932651', '9.174706710534123', '9.163573540987947', '9.17383572272003', '9.172469761547498', '9.17230567441837', '9.170398622435858', '9.163754893554028', '9.119449797281323', '9.10942986481675', '9.120951254521287']</t>
+  </si>
+  <si>
+    <t>['1.820782413566186', '1.8288715445700396', '1.8363454879376437', '1.846760650740866', '1.8554493068138367', '1.8611389197037445', '1.8528444030572', '1.8463987573614051', '1.8384900731396163', '1.8390885265253776', '1.8420877046783015', '1.8410478587675363', '1.8373871889159508', '1.8367036363903004', '1.8300822571425956', '1.8172863678872633', '1.818409874456482', '1.8239318944986227', '1.8250525605900283', '1.8249101019198348', '1.822396723800525', '1.8220553766984615', '1.8153805024686152', '1.8117273782149246', '1.815221223360202']</t>
+  </si>
+  <si>
+    <t>['52.51926907628251', '52.49979143675896', '52.47722742850081', '52.466749832197614', '52.54062986955116', '52.610018379158824', '52.553518005894055', '52.55700740228135', '52.560632845539', '52.56341159491018', '52.56297847425728', '52.55275385829943', '52.55211396113582', '52.574159968746855', '52.42896885392094', '52.07113898467378', '52.07223861112089', '52.32158745539899', '52.420555001534474', '52.42471533539213', '52.39889171486642', '52.46036183526324', '52.55719613480661', '52.570259954668806', '52.66959877651799']</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/Qwsogvtv82FCd+bitcoin-btc</t>
@@ -2671,12 +2647,12 @@
     <t>https://coinranking.com/coin/qUhEFk1I61atv+tron-trx</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/MoTuySvg7+dai-dai</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/_H5FVG9iW+uniswap-uni</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/MoTuySvg7+dai-dai</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/dvUj0CzDZ+avalanche-avax</t>
   </si>
   <si>
@@ -2719,18 +2695,18 @@
     <t>https://coinranking.com/coin/ymQub4fuB+filecoin-fil</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/tEf7-dnwV3BXS+decentraland-mana</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/pxtKbG5rg+thesandbox-sand</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/tEf7-dnwV3BXS+decentraland-mana</t>
+    <t>https://coinranking.com/coin/3nNpuxHJ8+fraxshare-fxs</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/aMNLwaUbY+internetcomputerdfinity-icp</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/3nNpuxHJ8+fraxshare-fxs</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/SbWqqTui-+energyswap-ens</t>
   </si>
   <si>
@@ -2752,12 +2728,12 @@
     <t>https://coinranking.com/coin/bauj_21eYVwso+quant-qnt</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/65PHZTpmE55b+cronos-cro</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/AaQUAs2Mc+terraclassic-lunc</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/65PHZTpmE55b+cronos-cro</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/ixgUfzmLR+aave-aave</t>
   </si>
   <si>
@@ -2767,15 +2743,15 @@
     <t>https://coinranking.com/coin/QQ0NCmjVq+flow-flow</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/iAzbfXiBBKkR6+eos-eos</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/GSCt2y6YSgO26+chiliz-chz</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/HGYj5JCv5+aptos-apt</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/iAzbfXiBBKkR6+eos-eos</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/GSCt2y6YSgO26+chiliz-chz</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/JCKLgWPAF+paxdollar-usdp</t>
   </si>
   <si>
@@ -2788,39 +2764,36 @@
     <t>https://coinranking.com/coin/B42IRxNtoYmwK+thetatoken-theta</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/B8xT718SbVhhh+paxosstandard-pax</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/VcMY11NONHSA0+bitcoinsv-bsv</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/ql3Jj4Tge+sushi-sushi</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/NfeOYfNcl+ftxtoken-ftt</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/aRGRWLf2RYNq4+zcash-zec</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/NfeOYfNcl+ftxtoken-ftt</t>
+    <t>https://coinranking.com/coin/z2PZIKQL7+usdd-usdd</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/k-J3YwacF+woonetwork-woo</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/z2PZIKQL7+usdd-usdd</t>
+    <t>https://coinranking.com/coin/w4MqH_Xe8+bittorrent-new-btt</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/qFakph2rpuMOL+maker-mkr</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/w5U609Wze+apecoin-ape</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/sgxZRXbK0FDc+synthetixnetwork-snx</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/w4MqH_Xe8+bittorrent-new-btt</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/w5U609Wze+apecoin-ape</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/QGbUTVMjG+curvedaotoken-crv</t>
   </si>
   <si>
@@ -2833,24 +2806,24 @@
     <t>https://coinranking.com/coin/aQx_vW8s1+ecash-xec</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/C9DwH-T7MEGmo+dash-dash</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/uIEWfMFnQo9K_+fantom-ftm</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/C9DwH-T7MEGmo+dash-dash</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/gpRKmM16k+axieinfinity-axs</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/t7m8DZVyMsAu+gatetoken-gt</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/frw2fHgZ+tokenizexchange-tkx</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/cVaOmQWainv7g+neo-neo</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/frw2fHgZ+tokenizexchange-tkx</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/Ru56fDlLB56-v+ravencoin-rvn</t>
   </si>
   <si>
@@ -2872,649 +2845,652 @@
     <t>https://coinranking.com/coin/IEJOE2-U2+binaryx-bnx</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/uT6akswu0+apenft-nft</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/M9bj_WrX+klaytn-klay</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/uT6akswu0+apenft-nft</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/lT__vMO7l+compounddai-cdai</t>
+    <t>https://coinranking.com/coin/sfab31CXM+bloktopia-blok</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/drWC87t2Vozh+ankr-ankr</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/sfab31CXM+bloktopia-blok</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/p_GHkOeDNKw0+compoundether-ceth</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/08CsQa-Ov+wemixtoken-wemix</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/XZfWhQXu8+vulcanforged-pyr</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/08CsQa-Ov+wemixtoken-wemix</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/rk5XwL6mIjUDp+celsiusnetwork-cel</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/3jmxrjOJ8xa4p+zilliqa-zil</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/yecsF9VkR+osmosis-osmo</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/J7st_qGwz+minaprotocoltoken-mina</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/qhd1biQ7M+thegraph-grt</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/yecsF9VkR+osmosis-osmo</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/J7st_qGwz+minaprotocoltoken-mina</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/QUC5kVAxSoB-+mxtoken-mx</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/7XWg41D1+arweave-ar</t>
   </si>
   <si>
-    <t>25542337031</t>
-  </si>
-  <si>
-    <t>7262227208</t>
-  </si>
-  <si>
-    <t>28047036339</t>
-  </si>
-  <si>
-    <t>1913079313</t>
-  </si>
-  <si>
-    <t>717362671</t>
-  </si>
-  <si>
-    <t>864399463</t>
-  </si>
-  <si>
-    <t>7739747039</t>
-  </si>
-  <si>
-    <t>398121124</t>
-  </si>
-  <si>
-    <t>595101089</t>
-  </si>
-  <si>
-    <t>450764224</t>
-  </si>
-  <si>
-    <t>2325356068</t>
-  </si>
-  <si>
-    <t>36165477</t>
-  </si>
-  <si>
-    <t>482370420</t>
-  </si>
-  <si>
-    <t>337035144</t>
-  </si>
-  <si>
-    <t>675425424</t>
-  </si>
-  <si>
-    <t>797940444</t>
-  </si>
-  <si>
-    <t>489666281</t>
-  </si>
-  <si>
-    <t>370875236</t>
-  </si>
-  <si>
-    <t>135679370</t>
-  </si>
-  <si>
-    <t>93621236</t>
-  </si>
-  <si>
-    <t>612113045</t>
-  </si>
-  <si>
-    <t>209790087</t>
-  </si>
-  <si>
-    <t>39748356</t>
-  </si>
-  <si>
-    <t>33199052</t>
-  </si>
-  <si>
-    <t>183445097</t>
-  </si>
-  <si>
-    <t>342569568</t>
-  </si>
-  <si>
-    <t>180700184</t>
-  </si>
-  <si>
-    <t>10417355</t>
-  </si>
-  <si>
-    <t>294886602</t>
-  </si>
-  <si>
-    <t>54376625</t>
-  </si>
-  <si>
-    <t>76721812</t>
-  </si>
-  <si>
-    <t>107970875</t>
-  </si>
-  <si>
-    <t>13160028</t>
-  </si>
-  <si>
-    <t>596977138</t>
-  </si>
-  <si>
-    <t>271744847</t>
-  </si>
-  <si>
-    <t>644678551</t>
-  </si>
-  <si>
-    <t>112489203</t>
-  </si>
-  <si>
-    <t>53981432</t>
-  </si>
-  <si>
-    <t>9860150</t>
-  </si>
-  <si>
-    <t>92496940</t>
-  </si>
-  <si>
-    <t>7808969</t>
-  </si>
-  <si>
-    <t>348093381</t>
-  </si>
-  <si>
-    <t>29830932</t>
-  </si>
-  <si>
-    <t>52111443</t>
-  </si>
-  <si>
-    <t>37392836</t>
-  </si>
-  <si>
-    <t>227288720</t>
-  </si>
-  <si>
-    <t>56284725</t>
-  </si>
-  <si>
-    <t>299124969</t>
-  </si>
-  <si>
-    <t>24112839</t>
-  </si>
-  <si>
-    <t>251376627</t>
-  </si>
-  <si>
-    <t>1068741134</t>
-  </si>
-  <si>
-    <t>180997426</t>
-  </si>
-  <si>
-    <t>227985041</t>
-  </si>
-  <si>
-    <t>2052354</t>
-  </si>
-  <si>
-    <t>29935661</t>
-  </si>
-  <si>
-    <t>77533231</t>
-  </si>
-  <si>
-    <t>117620059</t>
-  </si>
-  <si>
-    <t>879853</t>
-  </si>
-  <si>
-    <t>92940747</t>
-  </si>
-  <si>
-    <t>157779823</t>
-  </si>
-  <si>
-    <t>123620004</t>
-  </si>
-  <si>
-    <t>69961711</t>
-  </si>
-  <si>
-    <t>39995629</t>
-  </si>
-  <si>
-    <t>18283594</t>
-  </si>
-  <si>
-    <t>29729757</t>
-  </si>
-  <si>
-    <t>59789866</t>
-  </si>
-  <si>
-    <t>9124454</t>
-  </si>
-  <si>
-    <t>238978746</t>
-  </si>
-  <si>
-    <t>172133684</t>
-  </si>
-  <si>
-    <t>20318812</t>
-  </si>
-  <si>
-    <t>1799916</t>
-  </si>
-  <si>
-    <t>28843893</t>
-  </si>
-  <si>
-    <t>254029733</t>
-  </si>
-  <si>
-    <t>78687769</t>
-  </si>
-  <si>
-    <t>165208703</t>
-  </si>
-  <si>
-    <t>870733</t>
-  </si>
-  <si>
-    <t>63198108</t>
-  </si>
-  <si>
-    <t>12248159</t>
-  </si>
-  <si>
-    <t>23783378</t>
-  </si>
-  <si>
-    <t>77751157</t>
-  </si>
-  <si>
-    <t>7921442</t>
-  </si>
-  <si>
-    <t>10738311</t>
-  </si>
-  <si>
-    <t>34894141</t>
-  </si>
-  <si>
-    <t>5507373</t>
-  </si>
-  <si>
-    <t>3598840</t>
-  </si>
-  <si>
-    <t>45543670</t>
-  </si>
-  <si>
-    <t>10048144</t>
-  </si>
-  <si>
-    <t>1619517</t>
-  </si>
-  <si>
-    <t>49384364</t>
-  </si>
-  <si>
-    <t>1718492</t>
-  </si>
-  <si>
-    <t>1987707</t>
-  </si>
-  <si>
-    <t>30701014</t>
-  </si>
-  <si>
-    <t>2701561</t>
-  </si>
-  <si>
-    <t>2774587</t>
-  </si>
-  <si>
-    <t>92169193</t>
-  </si>
-  <si>
-    <t>92182881</t>
-  </si>
-  <si>
-    <t>11578001</t>
-  </si>
-  <si>
-    <t>27363544</t>
-  </si>
-  <si>
-    <t>1237100</t>
-  </si>
-  <si>
-    <t>85404955</t>
+    <t>https://coinranking.com/coin/n1p-s_gm1+optimism-op</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/7Dg6y_Ywg+compound-comp</t>
+  </si>
+  <si>
+    <t>19466369509</t>
+  </si>
+  <si>
+    <t>7041144183</t>
+  </si>
+  <si>
+    <t>28990515263</t>
+  </si>
+  <si>
+    <t>1939660869</t>
+  </si>
+  <si>
+    <t>721599351</t>
+  </si>
+  <si>
+    <t>951649947</t>
+  </si>
+  <si>
+    <t>7797617139</t>
+  </si>
+  <si>
+    <t>537807863</t>
+  </si>
+  <si>
+    <t>852386450</t>
+  </si>
+  <si>
+    <t>473701553</t>
+  </si>
+  <si>
+    <t>2263264194</t>
+  </si>
+  <si>
+    <t>39280166</t>
+  </si>
+  <si>
+    <t>698614112</t>
+  </si>
+  <si>
+    <t>422478825</t>
+  </si>
+  <si>
+    <t>238777560</t>
+  </si>
+  <si>
+    <t>634132866</t>
+  </si>
+  <si>
+    <t>422236276</t>
+  </si>
+  <si>
+    <t>381133703</t>
+  </si>
+  <si>
+    <t>93182938</t>
+  </si>
+  <si>
+    <t>150516016</t>
+  </si>
+  <si>
+    <t>775265639</t>
+  </si>
+  <si>
+    <t>233581644</t>
+  </si>
+  <si>
+    <t>55533781</t>
+  </si>
+  <si>
+    <t>33253006</t>
+  </si>
+  <si>
+    <t>126524795</t>
+  </si>
+  <si>
+    <t>402160414</t>
+  </si>
+  <si>
+    <t>222826933</t>
+  </si>
+  <si>
+    <t>12625287</t>
+  </si>
+  <si>
+    <t>308018328</t>
+  </si>
+  <si>
+    <t>57441984</t>
+  </si>
+  <si>
+    <t>87060390</t>
+  </si>
+  <si>
+    <t>122022009</t>
+  </si>
+  <si>
+    <t>12103155</t>
+  </si>
+  <si>
+    <t>727279752</t>
+  </si>
+  <si>
+    <t>888743619</t>
+  </si>
+  <si>
+    <t>238021575</t>
+  </si>
+  <si>
+    <t>54861716</t>
+  </si>
+  <si>
+    <t>122073602</t>
+  </si>
+  <si>
+    <t>8600288</t>
+  </si>
+  <si>
+    <t>79906236</t>
+  </si>
+  <si>
+    <t>8018221</t>
+  </si>
+  <si>
+    <t>252011729</t>
+  </si>
+  <si>
+    <t>27569609</t>
+  </si>
+  <si>
+    <t>52853438</t>
+  </si>
+  <si>
+    <t>43360604</t>
+  </si>
+  <si>
+    <t>28351530</t>
+  </si>
+  <si>
+    <t>232454295</t>
+  </si>
+  <si>
+    <t>248872780</t>
+  </si>
+  <si>
+    <t>32660284</t>
+  </si>
+  <si>
+    <t>287025273</t>
+  </si>
+  <si>
+    <t>285559806</t>
+  </si>
+  <si>
+    <t>175469212</t>
+  </si>
+  <si>
+    <t>938156079</t>
+  </si>
+  <si>
+    <t>2049078</t>
+  </si>
+  <si>
+    <t>31465835</t>
+  </si>
+  <si>
+    <t>64771767</t>
+  </si>
+  <si>
+    <t>113548037</t>
+  </si>
+  <si>
+    <t>126374775</t>
+  </si>
+  <si>
+    <t>98487781</t>
+  </si>
+  <si>
+    <t>81453842</t>
+  </si>
+  <si>
+    <t>111335818</t>
+  </si>
+  <si>
+    <t>17867468</t>
+  </si>
+  <si>
+    <t>39809383</t>
+  </si>
+  <si>
+    <t>9106944</t>
+  </si>
+  <si>
+    <t>31658913</t>
+  </si>
+  <si>
+    <t>330162779</t>
+  </si>
+  <si>
+    <t>67290688</t>
+  </si>
+  <si>
+    <t>100961193</t>
+  </si>
+  <si>
+    <t>12667401</t>
+  </si>
+  <si>
+    <t>1815309</t>
+  </si>
+  <si>
+    <t>27320220</t>
+  </si>
+  <si>
+    <t>96689652</t>
+  </si>
+  <si>
+    <t>384964721</t>
+  </si>
+  <si>
+    <t>174631898</t>
+  </si>
+  <si>
+    <t>882215</t>
+  </si>
+  <si>
+    <t>23099023</t>
+  </si>
+  <si>
+    <t>56859949</t>
+  </si>
+  <si>
+    <t>22201990</t>
+  </si>
+  <si>
+    <t>77108335</t>
+  </si>
+  <si>
+    <t>4883907</t>
+  </si>
+  <si>
+    <t>10688807</t>
+  </si>
+  <si>
+    <t>35037315</t>
+  </si>
+  <si>
+    <t>5615619</t>
+  </si>
+  <si>
+    <t>3624512</t>
+  </si>
+  <si>
+    <t>10252532</t>
+  </si>
+  <si>
+    <t>31591833</t>
+  </si>
+  <si>
+    <t>937968</t>
+  </si>
+  <si>
+    <t>37171870</t>
+  </si>
+  <si>
+    <t>2059191</t>
+  </si>
+  <si>
+    <t>2231160</t>
+  </si>
+  <si>
+    <t>26958330</t>
+  </si>
+  <si>
+    <t>2942780</t>
+  </si>
+  <si>
+    <t>98611409</t>
+  </si>
+  <si>
+    <t>11663291</t>
+  </si>
+  <si>
+    <t>22338662</t>
+  </si>
+  <si>
+    <t>137446577</t>
+  </si>
+  <si>
+    <t>1244628</t>
+  </si>
+  <si>
+    <t>71371902</t>
+  </si>
+  <si>
+    <t>266630634</t>
+  </si>
+  <si>
+    <t>83278989</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>0.07418156625936098</t>
-  </si>
-  <si>
-    <t>0.000047628883196153</t>
-  </si>
-  <si>
-    <t>0.000047647421053132</t>
-  </si>
-  <si>
-    <t>0.014412084363737813</t>
-  </si>
-  <si>
-    <t>0.000018516449901306</t>
-  </si>
-  <si>
-    <t>0.000047609099458415</t>
-  </si>
-  <si>
-    <t>0.00001676801366678</t>
-  </si>
-  <si>
-    <t>0.000004101978154433</t>
-  </si>
-  <si>
-    <t>0.000047363796601301</t>
-  </si>
-  <si>
-    <t>0.001119367505302045</t>
-  </si>
-  <si>
-    <t>0.001505254735153503</t>
-  </si>
-  <si>
-    <t>0.000285769930947203</t>
-  </si>
-  <si>
-    <t>0.000328310511149605</t>
-  </si>
-  <si>
-    <t>0.07418050657918289</t>
-  </si>
-  <si>
-    <t>0.00420875064240213</t>
-  </si>
-  <si>
-    <t>4.90083496e-10</t>
-  </si>
-  <si>
-    <t>0.000002981684541136</t>
-  </si>
-  <si>
-    <t>0.000314414244705233</t>
-  </si>
-  <si>
-    <t>0.000047662828087506</t>
-  </si>
-  <si>
-    <t>0.000801918159267376</t>
-  </si>
-  <si>
-    <t>0.000620062318716236</t>
-  </si>
-  <si>
-    <t>1.0001734853779574</t>
-  </si>
-  <si>
-    <t>0.00010891328654652</t>
-  </si>
-  <si>
-    <t>0.008393956645534092</t>
-  </si>
-  <si>
-    <t>0.001065805997671617</t>
-  </si>
-  <si>
-    <t>0.000110572871129739</t>
-  </si>
-  <si>
-    <t>0.000246031940653955</t>
-  </si>
-  <si>
-    <t>0.005999437756819611</t>
-  </si>
-  <si>
-    <t>0.000074836736553817</t>
-  </si>
-  <si>
-    <t>0.000004182234316754</t>
-  </si>
-  <si>
-    <t>0.000011209603657438</t>
-  </si>
-  <si>
-    <t>0.08146609206087052</t>
-  </si>
-  <si>
-    <t>0.00022756484724898</t>
-  </si>
-  <si>
-    <t>0.000034477356520715</t>
-  </si>
-  <si>
-    <t>0.000032611057339193</t>
-  </si>
-  <si>
-    <t>0.000243946541789157</t>
-  </si>
-  <si>
-    <t>0.000387711800361645</t>
-  </si>
-  <si>
-    <t>0.000675776406933044</t>
-  </si>
-  <si>
-    <t>0.000001008717652814</t>
-  </si>
-  <si>
-    <t>0.000047667719271957</t>
-  </si>
-  <si>
-    <t>0.000105233394866298</t>
-  </si>
-  <si>
-    <t>0.000178316815450941</t>
-  </si>
-  <si>
-    <t>0.000002499566076696</t>
-  </si>
-  <si>
-    <t>0.006254152895936565</t>
-  </si>
-  <si>
-    <t>8.743968497e-9</t>
-  </si>
-  <si>
-    <t>0.000003540346692928</t>
-  </si>
-  <si>
-    <t>0.003857744925704332</t>
-  </si>
-  <si>
-    <t>0.000027294879957617</t>
-  </si>
-  <si>
-    <t>0.000052460781499225</t>
-  </si>
-  <si>
-    <t>0.000391531972082767</t>
-  </si>
-  <si>
-    <t>0.000050836932210761</t>
-  </si>
-  <si>
-    <t>0.000006589978174116</t>
-  </si>
-  <si>
-    <t>0.000047538852841493</t>
-  </si>
-  <si>
-    <t>0.001946248967308524</t>
-  </si>
-  <si>
-    <t>0.000048849989836259</t>
-  </si>
-  <si>
-    <t>0.00004446912452411</t>
-  </si>
-  <si>
-    <t>0.0000477174802375</t>
-  </si>
-  <si>
-    <t>0.002142761099276467</t>
-  </si>
-  <si>
-    <t>0.000062927459705783</t>
-  </si>
-  <si>
-    <t>0.002166748366498642</t>
-  </si>
-  <si>
-    <t>0.000103730413592928</t>
-  </si>
-  <si>
-    <t>0.000009469166409221</t>
-  </si>
-  <si>
-    <t>0.000046198274542444</t>
-  </si>
-  <si>
-    <t>0.033940305094742565</t>
-  </si>
-  <si>
-    <t>0.000106023344708406</t>
-  </si>
-  <si>
-    <t>3.4726634e-11</t>
-  </si>
-  <si>
-    <t>0.000249655322895261</t>
-  </si>
-  <si>
-    <t>0.000040506784916575</t>
-  </si>
-  <si>
-    <t>0.000010445413738347</t>
-  </si>
-  <si>
-    <t>0.000378174623493321</t>
-  </si>
-  <si>
-    <t>1.445210604e-9</t>
-  </si>
-  <si>
-    <t>0.000015806562284012</t>
-  </si>
-  <si>
-    <t>0.00247410696111467</t>
-  </si>
-  <si>
-    <t>0.000442925006922218</t>
-  </si>
-  <si>
-    <t>0.000180060112895443</t>
-  </si>
-  <si>
-    <t>0.000368369827247526</t>
-  </si>
-  <si>
-    <t>0.00032301749028336</t>
-  </si>
-  <si>
-    <t>0.000001201977950144</t>
-  </si>
-  <si>
-    <t>0.000083922791582281</t>
-  </si>
-  <si>
-    <t>0.001396861401341303</t>
-  </si>
-  <si>
-    <t>0.09029537177326842</t>
-  </si>
-  <si>
-    <t>0.000047641681156986</t>
-  </si>
-  <si>
-    <t>0.000035772276566521</t>
-  </si>
-  <si>
-    <t>0.003722159106801818</t>
-  </si>
-  <si>
-    <t>0.000009209407192414</t>
-  </si>
-  <si>
-    <t>2.2347561e-11</t>
-  </si>
-  <si>
-    <t>0.000001056103293639</t>
-  </si>
-  <si>
-    <t>0.000001104566786007</t>
-  </si>
-  <si>
-    <t>1.07761224301e-7</t>
-  </si>
-  <si>
-    <t>0.001489052680165543</t>
-  </si>
-  <si>
-    <t>0.000184239756640052</t>
-  </si>
-  <si>
-    <t>0.000020987999965435</t>
-  </si>
-  <si>
-    <t>0.000030147205779882</t>
-  </si>
-  <si>
-    <t>0.000001233975257143</t>
-  </si>
-  <si>
-    <t>0.000004231748025645</t>
-  </si>
-  <si>
-    <t>0.000041172368195281</t>
-  </si>
-  <si>
-    <t>0.000026534340278825</t>
-  </si>
-  <si>
-    <t>0.000044235536598025</t>
-  </si>
-  <si>
-    <t>0.000440708633063267</t>
+    <t>0.07406951846650728</t>
+  </si>
+  <si>
+    <t>0.000047929726215647</t>
+  </si>
+  <si>
+    <t>0.000047995790172209</t>
+  </si>
+  <si>
+    <t>0.01443851156224264</t>
+  </si>
+  <si>
+    <t>0.00001850201216213</t>
+  </si>
+  <si>
+    <t>0.000047956978483859</t>
+  </si>
+  <si>
+    <t>0.000016775392006116</t>
+  </si>
+  <si>
+    <t>0.000004080096390007</t>
+  </si>
+  <si>
+    <t>0.000047174649458839</t>
+  </si>
+  <si>
+    <t>0.001112209494725187</t>
+  </si>
+  <si>
+    <t>0.001509156025777547</t>
+  </si>
+  <si>
+    <t>0.000285190669033885</t>
+  </si>
+  <si>
+    <t>0.000327971797477879</t>
+  </si>
+  <si>
+    <t>0.07433027080598979</t>
+  </si>
+  <si>
+    <t>0.004218923508520803</t>
+  </si>
+  <si>
+    <t>4.89604507e-10</t>
+  </si>
+  <si>
+    <t>0.000002992028376577</t>
+  </si>
+  <si>
+    <t>0.000047816085872769</t>
+  </si>
+  <si>
+    <t>0.000313389642121727</t>
+  </si>
+  <si>
+    <t>0.000802091142471673</t>
+  </si>
+  <si>
+    <t>0.000622026972202612</t>
+  </si>
+  <si>
+    <t>0.9968631779579825</t>
+  </si>
+  <si>
+    <t>0.000109182057342078</t>
+  </si>
+  <si>
+    <t>0.008377549647002236</t>
+  </si>
+  <si>
+    <t>0.001062737109620396</t>
+  </si>
+  <si>
+    <t>0.000109383086432556</t>
+  </si>
+  <si>
+    <t>0.000246185531133912</t>
+  </si>
+  <si>
+    <t>0.006007468644414954</t>
+  </si>
+  <si>
+    <t>0.000074697023807389</t>
+  </si>
+  <si>
+    <t>0.000004185396371349</t>
+  </si>
+  <si>
+    <t>0.000011228388310603</t>
+  </si>
+  <si>
+    <t>0.08174746304621185</t>
+  </si>
+  <si>
+    <t>0.000226072373242328</t>
+  </si>
+  <si>
+    <t>0.000032250368079611</t>
+  </si>
+  <si>
+    <t>0.00003343011016827</t>
+  </si>
+  <si>
+    <t>0.000390173751757194</t>
+  </si>
+  <si>
+    <t>0.000243497340724688</t>
+  </si>
+  <si>
+    <t>0.00067563708487794</t>
+  </si>
+  <si>
+    <t>0.000001003393230668</t>
+  </si>
+  <si>
+    <t>0.000048277252080175</t>
+  </si>
+  <si>
+    <t>0.000103522980414457</t>
+  </si>
+  <si>
+    <t>0.000178012853063739</t>
+  </si>
+  <si>
+    <t>0.000002504704218223</t>
+  </si>
+  <si>
+    <t>0.006261126598716357</t>
+  </si>
+  <si>
+    <t>0.00000353051887808</t>
+  </si>
+  <si>
+    <t>8.700105384e-9</t>
+  </si>
+  <si>
+    <t>0.003847948034209447</t>
+  </si>
+  <si>
+    <t>0.000027204408354693</t>
+  </si>
+  <si>
+    <t>0.000051952580620193</t>
+  </si>
+  <si>
+    <t>0.00005091998978769</t>
+  </si>
+  <si>
+    <t>0.000006595070786221</t>
+  </si>
+  <si>
+    <t>0.000381472631467738</t>
+  </si>
+  <si>
+    <t>0.000047970607556687</t>
+  </si>
+  <si>
+    <t>0.001944838025665395</t>
+  </si>
+  <si>
+    <t>0.000048818389357591</t>
+  </si>
+  <si>
+    <t>0.000044476636095349</t>
+  </si>
+  <si>
+    <t>0.002140833925227336</t>
+  </si>
+  <si>
+    <t>0.000062063399777834</t>
+  </si>
+  <si>
+    <t>0.000113040739711492</t>
+  </si>
+  <si>
+    <t>0.002155818595267453</t>
+  </si>
+  <si>
+    <t>0.000046490731133624</t>
+  </si>
+  <si>
+    <t>0.000009414616728406</t>
+  </si>
+  <si>
+    <t>3.5027621e-11</t>
+  </si>
+  <si>
+    <t>0.03368292782882324</t>
+  </si>
+  <si>
+    <t>0.000247977935361213</t>
+  </si>
+  <si>
+    <t>0.000104640842452613</t>
+  </si>
+  <si>
+    <t>0.000040346568569751</t>
+  </si>
+  <si>
+    <t>0.00001034719771282</t>
+  </si>
+  <si>
+    <t>0.00037921021526485</t>
+  </si>
+  <si>
+    <t>1.438572012e-9</t>
+  </si>
+  <si>
+    <t>0.002472213521293804</t>
+  </si>
+  <si>
+    <t>0.000015669521661939</t>
+  </si>
+  <si>
+    <t>0.000437089902416021</t>
+  </si>
+  <si>
+    <t>0.00018087699482134</t>
+  </si>
+  <si>
+    <t>0.000325991168124236</t>
+  </si>
+  <si>
+    <t>0.000368400477721974</t>
+  </si>
+  <si>
+    <t>0.000001193923008371</t>
+  </si>
+  <si>
+    <t>0.000083173888992194</t>
+  </si>
+  <si>
+    <t>0.00140357079079958</t>
+  </si>
+  <si>
+    <t>0.09111954633436262</t>
+  </si>
+  <si>
+    <t>0.000048041139364873</t>
+  </si>
+  <si>
+    <t>0.000035784497330335</t>
+  </si>
+  <si>
+    <t>0.003765996401203461</t>
+  </si>
+  <si>
+    <t>2.2414586e-11</t>
+  </si>
+  <si>
+    <t>0.000009221404175534</t>
+  </si>
+  <si>
+    <t>1.08728606439e-7</t>
+  </si>
+  <si>
+    <t>0.000001104800077442</t>
+  </si>
+  <si>
+    <t>0.001492836643330622</t>
+  </si>
+  <si>
+    <t>0.000021142906476415</t>
+  </si>
+  <si>
+    <t>0.000184793645211882</t>
+  </si>
+  <si>
+    <t>0.000029805654626562</t>
+  </si>
+  <si>
+    <t>0.00000123433383812</t>
+  </si>
+  <si>
+    <t>0.000041188064128432</t>
+  </si>
+  <si>
+    <t>0.000026450492111711</t>
+  </si>
+  <si>
+    <t>0.00000419504893561</t>
+  </si>
+  <si>
+    <t>0.000044082866828175</t>
+  </si>
+  <si>
+    <t>0.000438919649949782</t>
+  </si>
+  <si>
+    <t>0.000086928502217684</t>
+  </si>
+  <si>
+    <t>0.002533231123445137</t>
   </si>
 </sst>
 </file>
@@ -3958,13 +3934,13 @@
         <v>308</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I2">
         <v>1330214400</v>
@@ -3973,25 +3949,25 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="P2" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="Q2" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -4011,13 +3987,13 @@
         <v>309</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="I3">
         <v>1438905600</v>
@@ -4026,25 +4002,25 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="L3">
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="P3" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="Q3" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -4064,13 +4040,13 @@
         <v>310</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="I4">
         <v>1420761600</v>
@@ -4079,25 +4055,25 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="P4" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="Q4" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -4117,13 +4093,13 @@
         <v>311</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H5" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="I5">
         <v>1539043200</v>
@@ -4132,25 +4108,25 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="P5" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="Q5" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -4170,13 +4146,13 @@
         <v>312</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H6" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I6">
         <v>1503014400</v>
@@ -4185,25 +4161,25 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="L6">
         <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="P6" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="Q6" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4223,13 +4199,13 @@
         <v>313</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="I7">
         <v>1421798400</v>
@@ -4238,25 +4214,25 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L7">
         <v>6</v>
       </c>
       <c r="M7" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="P7" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="Q7" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4276,13 +4252,13 @@
         <v>314</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G8" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H8" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="I8">
         <v>1563197940</v>
@@ -4291,25 +4267,25 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="L8">
         <v>7</v>
       </c>
       <c r="M8" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="P8" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="Q8" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4329,13 +4305,13 @@
         <v>315</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G9" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H9" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I9">
         <v>1506902400</v>
@@ -4344,25 +4320,25 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L9">
         <v>8</v>
       </c>
       <c r="M9" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="P9" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="Q9" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4382,13 +4358,13 @@
         <v>316</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H10" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="I10">
         <v>1391212800</v>
@@ -4397,25 +4373,25 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="L10">
         <v>9</v>
       </c>
       <c r="M10" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="P10" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="Q10" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4435,13 +4411,13 @@
         <v>317</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G11" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H11" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="I11">
         <v>1558961160</v>
@@ -4450,25 +4426,25 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="L11">
         <v>10</v>
       </c>
       <c r="M11" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="P11" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="Q11" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4488,13 +4464,13 @@
         <v>313</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G12" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H12" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I12">
         <v>1586539320</v>
@@ -4503,25 +4479,25 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="L12">
         <v>11</v>
       </c>
       <c r="M12" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="P12" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="Q12" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4541,13 +4517,13 @@
         <v>318</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G13" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H13" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="I13">
         <v>1538524800</v>
@@ -4556,25 +4532,25 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="L13">
         <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="P13" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="Q13" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4594,13 +4570,13 @@
         <v>319</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G14" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H14" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="I14">
         <v>1598365200</v>
@@ -4609,25 +4585,25 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L14">
         <v>13</v>
       </c>
       <c r="M14" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="P14" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="Q14" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4647,13 +4623,13 @@
         <v>320</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G15" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H15" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="I15">
         <v>1505952000</v>
@@ -4662,25 +4638,25 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="L15">
         <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="P15" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="Q15" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4700,13 +4676,13 @@
         <v>321</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H16" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="I16">
         <v>1600259445</v>
@@ -4721,19 +4697,19 @@
         <v>15</v>
       </c>
       <c r="M16" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="P16" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="Q16" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4753,13 +4729,13 @@
         <v>322</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G17" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H17" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="I17">
         <v>1382572800</v>
@@ -4774,19 +4750,19 @@
         <v>16</v>
       </c>
       <c r="M17" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="P17" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="Q17" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4806,13 +4782,13 @@
         <v>323</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G18" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="I18">
         <v>1620650373</v>
@@ -4821,25 +4797,25 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="L18">
         <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="P18" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="Q18" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4859,13 +4835,13 @@
         <v>324</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G19" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H19" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="I19">
         <v>1505260800</v>
@@ -4874,25 +4850,25 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="L19">
         <v>18</v>
       </c>
       <c r="M19" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="P19" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="Q19" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4912,40 +4888,40 @@
         <v>325</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G20" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H20" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="I20">
-        <v>1600323371</v>
+        <v>1585574040</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="L20">
         <v>19</v>
       </c>
       <c r="M20" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="P20" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="Q20" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4965,40 +4941,40 @@
         <v>326</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G21" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H21" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I21">
-        <v>1585574040</v>
+        <v>1600323371</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="L21">
         <v>20</v>
       </c>
       <c r="M21" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="P21" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="Q21" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -5018,13 +4994,13 @@
         <v>327</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G22" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H22" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I22">
         <v>1600961596</v>
@@ -5033,25 +5009,25 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="L22">
         <v>21</v>
       </c>
       <c r="M22" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="P22" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="Q22" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -5071,13 +5047,13 @@
         <v>328</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G23" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H23" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="I23">
         <v>1552520100</v>
@@ -5086,25 +5062,25 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="L23">
         <v>22</v>
       </c>
       <c r="M23" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="P23" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="Q23" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -5124,13 +5100,13 @@
         <v>313</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G24" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H24" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="I24">
         <v>1549894980</v>
@@ -5139,25 +5115,25 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L24">
         <v>23</v>
       </c>
       <c r="M24" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="P24" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="Q24" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -5177,13 +5153,13 @@
         <v>329</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G25" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H25" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="I25">
         <v>1640268459</v>
@@ -5192,25 +5168,25 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="L25">
         <v>24</v>
       </c>
       <c r="M25" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="P25" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="Q25" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -5230,13 +5206,13 @@
         <v>330</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H26" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="I26">
         <v>1422489600</v>
@@ -5245,25 +5221,25 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="L26">
         <v>25</v>
       </c>
       <c r="M26" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="P26" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="Q26" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -5283,13 +5259,13 @@
         <v>331</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G27" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H27" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="I27">
         <v>1469577600</v>
@@ -5298,25 +5274,25 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="L27">
         <v>26</v>
       </c>
       <c r="M27" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="P27" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="Q27" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -5336,13 +5312,13 @@
         <v>332</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G28" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H28" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="I28">
         <v>1627361901</v>
@@ -5351,25 +5327,25 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="L28">
         <v>27</v>
       </c>
       <c r="M28" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="P28" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="Q28" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -5389,13 +5365,13 @@
         <v>333</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G29" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H29" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="I29">
         <v>1517702400</v>
@@ -5404,25 +5380,25 @@
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="L29">
         <v>28</v>
       </c>
       <c r="M29" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="P29" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="Q29" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -5442,13 +5418,13 @@
         <v>334</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G30" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H30" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="I30">
         <v>1541808000</v>
@@ -5457,25 +5433,25 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="L30">
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="P30" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="Q30" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -5495,13 +5471,13 @@
         <v>335</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G31" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H31" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="I31">
         <v>1610717385</v>
@@ -5510,25 +5486,25 @@
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="L31">
         <v>30</v>
       </c>
       <c r="M31" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="P31" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="Q31" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -5548,13 +5524,13 @@
         <v>313</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G32" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H32" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="I32">
         <v>1484611200</v>
@@ -5563,25 +5539,25 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="L32">
         <v>31</v>
       </c>
       <c r="M32" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="P32" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="Q32" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -5598,13 +5574,13 @@
         <v>243</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G33" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H33" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="I33">
         <v>1562082540</v>
@@ -5613,25 +5589,25 @@
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="L33">
         <v>32</v>
       </c>
       <c r="M33" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="P33" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="Q33" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5651,13 +5627,13 @@
         <v>336</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G34" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H34" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="I34">
         <v>1638756833</v>
@@ -5666,25 +5642,25 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="L34">
         <v>33</v>
       </c>
       <c r="M34" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="P34" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="Q34" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5704,13 +5680,13 @@
         <v>337</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G35" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H35" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="I35">
         <v>1602839473</v>
@@ -5719,25 +5695,25 @@
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="L35">
         <v>34</v>
       </c>
       <c r="M35" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="P35" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="Q35" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5757,40 +5733,40 @@
         <v>338</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G36" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H36" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="I36">
-        <v>1613583024</v>
+        <v>1500336000</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="L36">
         <v>35</v>
       </c>
       <c r="M36" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="P36" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="Q36" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5810,40 +5786,40 @@
         <v>339</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G37" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H37" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="I37">
-        <v>1500336000</v>
+        <v>1613583024</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L37">
         <v>36</v>
       </c>
       <c r="M37" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="P37" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="Q37" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5860,43 +5836,43 @@
         <v>248</v>
       </c>
       <c r="E38" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G38" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H38" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="I38">
-        <v>1601555742</v>
+        <v>1640985232</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="L38">
         <v>37</v>
       </c>
       <c r="M38" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="P38" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="Q38" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5913,19 +5889,19 @@
         <v>249</v>
       </c>
       <c r="E39" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G39" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H39" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="I39">
-        <v>1640985232</v>
+        <v>1601555742</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -5937,19 +5913,19 @@
         <v>38</v>
       </c>
       <c r="M39" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="P39" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="Q39" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5969,13 +5945,13 @@
         <v>341</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G40" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H40" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I40">
         <v>1626134763</v>
@@ -5984,25 +5960,25 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>692</v>
+        <v>718</v>
       </c>
       <c r="L40">
         <v>39</v>
       </c>
       <c r="M40" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="P40" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="Q40" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -6022,13 +5998,13 @@
         <v>342</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G41" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H41" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="I41">
         <v>1533427200</v>
@@ -6037,25 +6013,25 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="L41">
         <v>40</v>
       </c>
       <c r="M41" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="P41" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="Q41" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -6075,13 +6051,13 @@
         <v>313</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G42" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H42" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="I42">
         <v>1615299931</v>
@@ -6090,25 +6066,25 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="L42">
         <v>41</v>
       </c>
       <c r="M42" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="P42" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="Q42" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -6128,13 +6104,13 @@
         <v>313</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G43" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H43" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="I43">
         <v>1615164591</v>
@@ -6143,25 +6119,25 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="L43">
         <v>42</v>
       </c>
       <c r="M43" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="P43" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="Q43" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -6181,13 +6157,13 @@
         <v>343</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G44" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H44" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="I44">
         <v>1613642379</v>
@@ -6196,25 +6172,25 @@
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>721</v>
+        <v>694</v>
       </c>
       <c r="L44">
         <v>43</v>
       </c>
       <c r="M44" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="P44" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="Q44" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -6234,13 +6210,13 @@
         <v>313</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G45" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H45" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="I45">
         <v>1568704980</v>
@@ -6255,19 +6231,19 @@
         <v>44</v>
       </c>
       <c r="M45" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="P45" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="Q45" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -6287,13 +6263,13 @@
         <v>344</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G46" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H46" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="I46">
         <v>1533945600</v>
@@ -6302,25 +6278,25 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>723</v>
+        <v>685</v>
       </c>
       <c r="L46">
         <v>45</v>
       </c>
       <c r="M46" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="P46" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="Q46" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -6340,40 +6316,40 @@
         <v>345</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G47" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H47" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="I47">
-        <v>1565957940</v>
+        <v>1548953220</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L47">
         <v>46</v>
       </c>
       <c r="M47" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="P47" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="Q47" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -6393,40 +6369,40 @@
         <v>346</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G48" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H48" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="I48">
-        <v>1548953220</v>
+        <v>1565957940</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="L48">
         <v>47</v>
       </c>
       <c r="M48" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="P48" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="Q48" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -6446,13 +6422,13 @@
         <v>347</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G49" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H49" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="I49">
         <v>1603447311</v>
@@ -6461,25 +6437,25 @@
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>725</v>
+        <v>702</v>
       </c>
       <c r="L49">
         <v>48</v>
       </c>
       <c r="M49" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="P49" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="Q49" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -6499,13 +6475,13 @@
         <v>313</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G50" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H50" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="I50">
         <v>1649387294</v>
@@ -6514,25 +6490,25 @@
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="L50">
         <v>49</v>
       </c>
       <c r="M50" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="P50" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="Q50" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -6552,13 +6528,13 @@
         <v>348</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G51" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H51" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="I51">
         <v>1614963736</v>
@@ -6567,25 +6543,25 @@
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="L51">
         <v>50</v>
       </c>
       <c r="M51" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="N51" t="b">
         <v>0</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="P51" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="Q51" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -6599,46 +6575,46 @@
         <v>166</v>
       </c>
       <c r="D52" t="s">
-        <v>262</v>
+        <v>166</v>
       </c>
       <c r="E52" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G52" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H52" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I52">
-        <v>1666148370</v>
+        <v>1498694400</v>
       </c>
       <c r="J52">
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="L52">
         <v>51</v>
       </c>
       <c r="M52" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="N52" t="b">
         <v>0</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="P52" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="Q52" t="s">
-        <v>1117</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -6652,46 +6628,46 @@
         <v>167</v>
       </c>
       <c r="D53" t="s">
-        <v>167</v>
+        <v>262</v>
       </c>
       <c r="E53" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G53" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H53" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="I53">
-        <v>1498694400</v>
+        <v>1562332440</v>
       </c>
       <c r="J53">
         <v>1</v>
       </c>
       <c r="K53" t="s">
-        <v>729</v>
+        <v>711</v>
       </c>
       <c r="L53">
         <v>52</v>
       </c>
       <c r="M53" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="N53" t="b">
         <v>0</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="P53" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="Q53" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -6708,43 +6684,43 @@
         <v>263</v>
       </c>
       <c r="E54" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G54" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H54" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="I54">
-        <v>1562332440</v>
+        <v>1666148370</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="L54">
         <v>53</v>
       </c>
       <c r="M54" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="P54" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="Q54" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -6764,13 +6740,13 @@
         <v>351</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G55" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H55" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="I55">
         <v>1650960626</v>
@@ -6779,25 +6755,25 @@
         <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="L55">
         <v>54</v>
       </c>
       <c r="M55" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="N55" t="b">
         <v>0</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="P55" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="Q55" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -6817,13 +6793,13 @@
         <v>313</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G56" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H56" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="I56">
         <v>1612524044</v>
@@ -6832,25 +6808,25 @@
         <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="L56">
         <v>55</v>
       </c>
       <c r="M56" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="N56" t="b">
         <v>0</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="P56" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="Q56" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -6870,13 +6846,13 @@
         <v>352</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G57" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H57" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="I57">
         <v>1530662400</v>
@@ -6885,25 +6861,25 @@
         <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="L57">
         <v>56</v>
       </c>
       <c r="M57" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="N57" t="b">
         <v>0</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="P57" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="Q57" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -6923,13 +6899,13 @@
         <v>353</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G58" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H58" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="I58">
         <v>1516233600</v>
@@ -6938,25 +6914,25 @@
         <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="L58">
         <v>57</v>
       </c>
       <c r="M58" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="N58" t="b">
         <v>0</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="P58" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="Q58" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -6976,40 +6952,40 @@
         <v>354</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G59" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H59" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="I59">
-        <v>1539302400</v>
+        <v>1541808000</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="L59">
         <v>58</v>
       </c>
       <c r="M59" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="N59" t="b">
         <v>0</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="P59" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="Q59" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -7023,46 +6999,46 @@
         <v>174</v>
       </c>
       <c r="D60" t="s">
-        <v>269</v>
+        <v>174</v>
       </c>
       <c r="E60" t="s">
         <v>355</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G60" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H60" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I60">
-        <v>1541808000</v>
+        <v>1600160400</v>
       </c>
       <c r="J60">
         <v>1</v>
       </c>
       <c r="K60" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="L60">
         <v>59</v>
       </c>
       <c r="M60" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="N60" t="b">
         <v>0</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="P60" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="Q60" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -7076,46 +7052,46 @@
         <v>175</v>
       </c>
       <c r="D61" t="s">
-        <v>175</v>
+        <v>269</v>
       </c>
       <c r="E61" t="s">
         <v>356</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G61" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H61" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="I61">
-        <v>1600160400</v>
+        <v>1566222960</v>
       </c>
       <c r="J61">
         <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="L61">
         <v>60</v>
       </c>
       <c r="M61" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="N61" t="b">
         <v>0</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="P61" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="Q61" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -7135,13 +7111,13 @@
         <v>357</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G62" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H62" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="I62">
         <v>1477612800</v>
@@ -7150,25 +7126,25 @@
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>737</v>
+        <v>690</v>
       </c>
       <c r="L62">
         <v>61</v>
       </c>
       <c r="M62" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="N62" t="b">
         <v>0</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="P62" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="Q62" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -7182,46 +7158,43 @@
         <v>177</v>
       </c>
       <c r="D63" t="s">
-        <v>271</v>
-      </c>
-      <c r="E63" t="s">
-        <v>358</v>
+        <v>177</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G63" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H63" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="I63">
-        <v>1566222960</v>
+        <v>1651913559</v>
       </c>
       <c r="J63">
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="L63">
         <v>62</v>
       </c>
       <c r="M63" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="N63" t="b">
         <v>0</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="P63" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="Q63" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -7235,19 +7208,19 @@
         <v>178</v>
       </c>
       <c r="D64" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E64" t="s">
         <v>313</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G64" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H64" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="I64">
         <v>1627113782</v>
@@ -7256,25 +7229,25 @@
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="L64">
         <v>63</v>
       </c>
       <c r="M64" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="N64" t="b">
         <v>0</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="P64" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="Q64" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -7288,43 +7261,46 @@
         <v>179</v>
       </c>
       <c r="D65" t="s">
-        <v>179</v>
+        <v>272</v>
+      </c>
+      <c r="E65" t="s">
+        <v>313</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G65" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H65" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="I65">
-        <v>1651913559</v>
+        <v>1657036895</v>
       </c>
       <c r="J65">
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="L65">
         <v>64</v>
       </c>
       <c r="M65" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="N65" t="b">
         <v>0</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="P65" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="Q65" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -7341,16 +7317,16 @@
         <v>273</v>
       </c>
       <c r="E66" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G66" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H66" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="I66">
         <v>1502236800</v>
@@ -7359,25 +7335,25 @@
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="L66">
         <v>65</v>
       </c>
       <c r="M66" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="N66" t="b">
         <v>0</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="P66" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="Q66" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -7394,43 +7370,43 @@
         <v>274</v>
       </c>
       <c r="E67" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G67" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H67" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I67">
-        <v>1554322020</v>
+        <v>1647920319</v>
       </c>
       <c r="J67">
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>710</v>
+        <v>738</v>
       </c>
       <c r="L67">
         <v>66</v>
       </c>
       <c r="M67" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="N67" t="b">
         <v>0</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="P67" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="Q67" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -7447,43 +7423,43 @@
         <v>275</v>
       </c>
       <c r="E68" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G68" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H68" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="I68">
-        <v>1657036895</v>
+        <v>1554322020</v>
       </c>
       <c r="J68">
         <v>1</v>
       </c>
       <c r="K68" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="L68">
         <v>67</v>
       </c>
       <c r="M68" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="N68" t="b">
         <v>0</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="P68" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="Q68" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -7503,40 +7479,40 @@
         <v>361</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G69" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H69" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="I69">
-        <v>1647920319</v>
+        <v>1597402380</v>
       </c>
       <c r="J69">
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>743</v>
+        <v>725</v>
       </c>
       <c r="L69">
         <v>68</v>
       </c>
       <c r="M69" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="N69" t="b">
         <v>0</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="P69" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="Q69" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -7553,43 +7529,43 @@
         <v>277</v>
       </c>
       <c r="E70" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G70" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H70" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="I70">
-        <v>1597402380</v>
+        <v>1497364209</v>
       </c>
       <c r="J70">
         <v>1</v>
       </c>
       <c r="K70" t="s">
-        <v>744</v>
+        <v>717</v>
       </c>
       <c r="L70">
         <v>69</v>
       </c>
       <c r="M70" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="N70" t="b">
         <v>0</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="P70" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="Q70" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -7606,43 +7582,43 @@
         <v>278</v>
       </c>
       <c r="E71" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G71" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H71" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="I71">
-        <v>1497364209</v>
+        <v>1508889600</v>
       </c>
       <c r="J71">
         <v>1</v>
       </c>
       <c r="K71" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="L71">
         <v>70</v>
       </c>
       <c r="M71" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="N71" t="b">
         <v>0</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="P71" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="Q71" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -7658,44 +7634,41 @@
       <c r="D72" t="s">
         <v>279</v>
       </c>
-      <c r="E72" t="s">
-        <v>363</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G72" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H72" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="I72">
-        <v>1508889600</v>
+        <v>1634887994</v>
       </c>
       <c r="J72">
         <v>1</v>
       </c>
       <c r="K72" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="L72">
         <v>71</v>
       </c>
       <c r="M72" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="N72" t="b">
         <v>0</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="P72" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="Q72" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -7711,41 +7684,44 @@
       <c r="D73" t="s">
         <v>280</v>
       </c>
+      <c r="E73" t="s">
+        <v>363</v>
+      </c>
       <c r="F73" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G73" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H73" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I73">
-        <v>1634887994</v>
+        <v>1391817600</v>
       </c>
       <c r="J73">
         <v>1</v>
       </c>
       <c r="K73" t="s">
-        <v>695</v>
+        <v>742</v>
       </c>
       <c r="L73">
         <v>72</v>
       </c>
       <c r="M73" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="N73" t="b">
         <v>0</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="P73" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="Q73" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -7765,13 +7741,13 @@
         <v>364</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G74" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H74" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I74">
         <v>1540944000</v>
@@ -7780,25 +7756,25 @@
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="L74">
         <v>73</v>
       </c>
       <c r="M74" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="N74" t="b">
         <v>0</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="P74" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="Q74" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -7818,40 +7794,40 @@
         <v>365</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G75" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H75" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="I75">
-        <v>1391817600</v>
+        <v>1605090441</v>
       </c>
       <c r="J75">
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
       <c r="L75">
         <v>74</v>
       </c>
       <c r="M75" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="N75" t="b">
         <v>0</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="P75" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="Q75" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -7871,40 +7847,40 @@
         <v>366</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G76" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H76" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="I76">
-        <v>1605090441</v>
+        <v>1556585100</v>
       </c>
       <c r="J76">
         <v>1</v>
       </c>
       <c r="K76" t="s">
-        <v>747</v>
+        <v>696</v>
       </c>
       <c r="L76">
         <v>75</v>
       </c>
       <c r="M76" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="N76" t="b">
         <v>0</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="P76" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="Q76" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -7924,40 +7900,40 @@
         <v>367</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G77" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H77" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="I77">
-        <v>1556585100</v>
+        <v>1596033180</v>
       </c>
       <c r="J77">
         <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>748</v>
+        <v>687</v>
       </c>
       <c r="L77">
         <v>76</v>
       </c>
       <c r="M77" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="N77" t="b">
         <v>0</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="P77" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="Q77" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -7977,13 +7953,13 @@
         <v>368</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G78" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H78" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="I78">
         <v>1501891200</v>
@@ -7992,25 +7968,25 @@
         <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="L78">
         <v>77</v>
       </c>
       <c r="M78" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="N78" t="b">
         <v>0</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="P78" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="Q78" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -8030,40 +8006,40 @@
         <v>369</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G79" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H79" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="I79">
-        <v>1596033180</v>
+        <v>1520726400</v>
       </c>
       <c r="J79">
         <v>1</v>
       </c>
       <c r="K79" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="L79">
         <v>78</v>
       </c>
       <c r="M79" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="N79" t="b">
         <v>0</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="P79" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="Q79" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -8083,40 +8059,40 @@
         <v>370</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G80" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H80" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="I80">
-        <v>1520726400</v>
+        <v>1574782200</v>
       </c>
       <c r="J80">
         <v>1</v>
       </c>
       <c r="K80" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="L80">
         <v>79</v>
       </c>
       <c r="M80" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="N80" t="b">
         <v>0</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="P80" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="Q80" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -8136,40 +8112,40 @@
         <v>371</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G81" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H81" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="I81">
-        <v>1574782200</v>
+        <v>1643001498</v>
       </c>
       <c r="J81">
         <v>1</v>
       </c>
       <c r="K81" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="L81">
         <v>80</v>
       </c>
       <c r="M81" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="N81" t="b">
         <v>0</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="P81" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="Q81" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -8189,40 +8165,40 @@
         <v>372</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G82" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H82" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="I82">
-        <v>1643001498</v>
+        <v>1570197780</v>
       </c>
       <c r="J82">
         <v>1</v>
       </c>
       <c r="K82" t="s">
-        <v>752</v>
+        <v>710</v>
       </c>
       <c r="L82">
         <v>81</v>
       </c>
       <c r="M82" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="N82" t="b">
         <v>0</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="P82" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="Q82" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -8242,40 +8218,40 @@
         <v>373</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G83" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H83" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="I83">
-        <v>1570197780</v>
+        <v>1520380800</v>
       </c>
       <c r="J83">
         <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="L83">
         <v>82</v>
       </c>
       <c r="M83" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="N83" t="b">
         <v>0</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="P83" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="Q83" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -8295,40 +8271,40 @@
         <v>374</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G84" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H84" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="I84">
-        <v>1520380800</v>
+        <v>1525219200</v>
       </c>
       <c r="J84">
         <v>1</v>
       </c>
       <c r="K84" t="s">
-        <v>753</v>
+        <v>713</v>
       </c>
       <c r="L84">
         <v>83</v>
       </c>
       <c r="M84" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="N84" t="b">
         <v>0</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="P84" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="Q84" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -8345,43 +8321,43 @@
         <v>291</v>
       </c>
       <c r="E85" t="s">
-        <v>375</v>
+        <v>313</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G85" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H85" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="I85">
-        <v>1525219200</v>
+        <v>1646008225</v>
       </c>
       <c r="J85">
         <v>1</v>
       </c>
       <c r="K85" t="s">
-        <v>754</v>
+        <v>729</v>
       </c>
       <c r="L85">
         <v>84</v>
       </c>
       <c r="M85" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="N85" t="b">
         <v>0</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="P85" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="Q85" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -8401,40 +8377,40 @@
         <v>313</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G86" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H86" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="I86">
-        <v>1646008225</v>
+        <v>1626838226</v>
       </c>
       <c r="J86">
         <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="L86">
         <v>85</v>
       </c>
       <c r="M86" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="N86" t="b">
         <v>0</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="P86" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="Q86" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -8451,16 +8427,16 @@
         <v>293</v>
       </c>
       <c r="E87" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G87" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H87" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="I87">
         <v>1572962760</v>
@@ -8469,25 +8445,25 @@
         <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>721</v>
+        <v>685</v>
       </c>
       <c r="L87">
         <v>86</v>
       </c>
       <c r="M87" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="N87" t="b">
         <v>0</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="P87" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="Q87" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -8507,40 +8483,40 @@
         <v>313</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G88" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H88" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="I88">
-        <v>1626838226</v>
+        <v>1640188674</v>
       </c>
       <c r="J88">
         <v>1</v>
       </c>
       <c r="K88" t="s">
-        <v>685</v>
+        <v>750</v>
       </c>
       <c r="L88">
         <v>87</v>
       </c>
       <c r="M88" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="N88" t="b">
         <v>0</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="P88" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="Q88" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -8556,41 +8532,44 @@
       <c r="D89" t="s">
         <v>295</v>
       </c>
+      <c r="E89" t="s">
+        <v>376</v>
+      </c>
       <c r="F89" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G89" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H89" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="I89">
-        <v>1595516340</v>
+        <v>1552484520</v>
       </c>
       <c r="J89">
         <v>1</v>
       </c>
       <c r="K89" t="s">
-        <v>756</v>
+        <v>731</v>
       </c>
       <c r="L89">
         <v>88</v>
       </c>
       <c r="M89" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="N89" t="b">
         <v>0</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="P89" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="Q89" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -8606,44 +8585,41 @@
       <c r="D90" t="s">
         <v>296</v>
       </c>
-      <c r="E90" t="s">
-        <v>377</v>
-      </c>
       <c r="F90" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G90" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H90" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="I90">
-        <v>1552484520</v>
+        <v>1599184800</v>
       </c>
       <c r="J90">
         <v>1</v>
       </c>
       <c r="K90" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="L90">
         <v>89</v>
       </c>
       <c r="M90" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="N90" t="b">
         <v>0</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="P90" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="Q90" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -8660,43 +8636,43 @@
         <v>297</v>
       </c>
       <c r="E91" t="s">
-        <v>313</v>
+        <v>377</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G91" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H91" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="I91">
-        <v>1640188674</v>
+        <v>1638249982</v>
       </c>
       <c r="J91">
         <v>1</v>
       </c>
       <c r="K91" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="L91">
         <v>90</v>
       </c>
       <c r="M91" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="N91" t="b">
         <v>0</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="P91" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="Q91" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -8712,41 +8688,44 @@
       <c r="D92" t="s">
         <v>298</v>
       </c>
+      <c r="E92" t="s">
+        <v>378</v>
+      </c>
       <c r="F92" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G92" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H92" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="I92">
-        <v>1599184800</v>
+        <v>1619531495</v>
       </c>
       <c r="J92">
         <v>1</v>
       </c>
       <c r="K92" t="s">
-        <v>689</v>
+        <v>753</v>
       </c>
       <c r="L92">
         <v>91</v>
       </c>
       <c r="M92" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="N92" t="b">
         <v>0</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="P92" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="Q92" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -8763,43 +8742,43 @@
         <v>299</v>
       </c>
       <c r="E93" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G93" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H93" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="I93">
-        <v>1619531495</v>
+        <v>1531958400</v>
       </c>
       <c r="J93">
         <v>1</v>
       </c>
       <c r="K93" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="L93">
         <v>92</v>
       </c>
       <c r="M93" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="N93" t="b">
         <v>0</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="P93" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="Q93" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -8816,43 +8795,43 @@
         <v>300</v>
       </c>
       <c r="E94" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G94" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H94" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="I94">
-        <v>1638249982</v>
+        <v>1518566400</v>
       </c>
       <c r="J94">
         <v>1</v>
       </c>
       <c r="K94" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="L94">
         <v>93</v>
       </c>
       <c r="M94" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="N94" t="b">
         <v>0</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="P94" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="Q94" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -8869,43 +8848,43 @@
         <v>301</v>
       </c>
       <c r="E95" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G95" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H95" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="I95">
-        <v>1531958400</v>
+        <v>1629211557</v>
       </c>
       <c r="J95">
         <v>1</v>
       </c>
       <c r="K95" t="s">
-        <v>761</v>
+        <v>691</v>
       </c>
       <c r="L95">
         <v>94</v>
       </c>
       <c r="M95" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="N95" t="b">
         <v>0</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="P95" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="Q95" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -8922,43 +8901,43 @@
         <v>302</v>
       </c>
       <c r="E96" t="s">
-        <v>381</v>
+        <v>313</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G96" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H96" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="I96">
-        <v>1518566400</v>
+        <v>1623662716</v>
       </c>
       <c r="J96">
         <v>1</v>
       </c>
       <c r="K96" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="L96">
         <v>95</v>
       </c>
       <c r="M96" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="N96" t="b">
         <v>0</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="P96" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="Q96" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -8978,13 +8957,13 @@
         <v>382</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G97" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H97" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="I97">
         <v>1609341525</v>
@@ -8993,25 +8972,25 @@
         <v>1</v>
       </c>
       <c r="K97" t="s">
-        <v>763</v>
+        <v>688</v>
       </c>
       <c r="L97">
         <v>96</v>
       </c>
       <c r="M97" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="N97" t="b">
         <v>0</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="P97" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
       <c r="Q97" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="98" spans="1:17">
@@ -9027,44 +9006,41 @@
       <c r="D98" t="s">
         <v>304</v>
       </c>
-      <c r="E98" t="s">
-        <v>383</v>
-      </c>
       <c r="F98" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G98" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H98" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="I98">
-        <v>1629211557</v>
+        <v>1568732160</v>
       </c>
       <c r="J98">
         <v>1</v>
       </c>
       <c r="K98" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="L98">
         <v>97</v>
       </c>
       <c r="M98" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="N98" t="b">
         <v>0</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="P98" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
       <c r="Q98" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="99" spans="1:17">
@@ -9084,40 +9060,40 @@
         <v>313</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G99" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H99" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I99">
-        <v>1623662716</v>
+        <v>1627020780</v>
       </c>
       <c r="J99">
         <v>1</v>
       </c>
       <c r="K99" t="s">
-        <v>764</v>
+        <v>694</v>
       </c>
       <c r="L99">
         <v>98</v>
       </c>
       <c r="M99" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="N99" t="b">
         <v>0</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="P99" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
       <c r="Q99" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -9133,41 +9109,44 @@
       <c r="D100" t="s">
         <v>306</v>
       </c>
+      <c r="E100" t="s">
+        <v>383</v>
+      </c>
       <c r="F100" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G100" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H100" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="I100">
-        <v>1568732160</v>
+        <v>1654151352</v>
       </c>
       <c r="J100">
         <v>1</v>
       </c>
       <c r="K100" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="L100">
         <v>99</v>
       </c>
       <c r="M100" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="N100" t="b">
         <v>0</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="P100" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
       <c r="Q100" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -9184,43 +9163,43 @@
         <v>307</v>
       </c>
       <c r="E101" t="s">
-        <v>313</v>
+        <v>384</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G101" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H101" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="I101">
-        <v>1627020780</v>
+        <v>1593519840</v>
       </c>
       <c r="J101">
         <v>1</v>
       </c>
       <c r="K101" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="L101">
         <v>100</v>
       </c>
       <c r="M101" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="N101" t="b">
         <v>0</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="P101" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="Q101" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
     </row>
   </sheetData>

--- a/coinranking.xlsx
+++ b/coinranking.xlsx
@@ -73,48 +73,48 @@
     <t>HIVsRcGKkPFtW</t>
   </si>
   <si>
+    <t>WcwrkfNI4FUAe</t>
+  </si>
+  <si>
     <t>aKzUVe4Hh_CON</t>
   </si>
   <si>
-    <t>WcwrkfNI4FUAe</t>
-  </si>
-  <si>
     <t>-l8Mn2pVlRs-p</t>
   </si>
   <si>
+    <t>qzawljRxB5bYu</t>
+  </si>
+  <si>
+    <t>uW2tk-ILY0ii</t>
+  </si>
+  <si>
     <t>vSo2fu9iE1s0Y</t>
   </si>
   <si>
-    <t>qzawljRxB5bYu</t>
+    <t>PDKcptVnzJTmN</t>
   </si>
   <si>
     <t>a91GCGd_u96cF</t>
   </si>
   <si>
-    <t>uW2tk-ILY0ii</t>
-  </si>
-  <si>
-    <t>PDKcptVnzJTmN</t>
-  </si>
-  <si>
     <t>zNZHO_Sjf</t>
   </si>
   <si>
+    <t>25W7FG7om</t>
+  </si>
+  <si>
+    <t>VLqpJwogdhHNb</t>
+  </si>
+  <si>
     <t>xz24e0BjL</t>
   </si>
   <si>
-    <t>25W7FG7om</t>
-  </si>
-  <si>
-    <t>VLqpJwogdhHNb</t>
+    <t>Mtfb0obXVh59u</t>
   </si>
   <si>
     <t>D7B1x_ks7WhV5</t>
   </si>
   <si>
-    <t>Mtfb0obXVh59u</t>
-  </si>
-  <si>
     <t>qUhEFk1I61atv</t>
   </si>
   <si>
@@ -133,31 +133,46 @@
     <t>x4WXHge-vvFY</t>
   </si>
   <si>
+    <t>Pe93bIOD2</t>
+  </si>
+  <si>
     <t>67YlI0K1b</t>
   </si>
   <si>
-    <t>Pe93bIOD2</t>
-  </si>
-  <si>
     <t>hnfQfsYfeIGUQ</t>
   </si>
   <si>
     <t>3mVx2FX_iJFp5</t>
   </si>
   <si>
+    <t>ymQub4fuB</t>
+  </si>
+  <si>
+    <t>ZlZpzOJo43mIo</t>
+  </si>
+  <si>
     <t>DXwP4wF9ksbBO</t>
   </si>
   <si>
-    <t>ZlZpzOJo43mIo</t>
+    <t>CiixT63n3</t>
+  </si>
+  <si>
+    <t>jad286TjB</t>
+  </si>
+  <si>
+    <t>aMNLwaUbY</t>
   </si>
   <si>
     <t>Z96jIvLU7</t>
   </si>
   <si>
-    <t>jad286TjB</t>
-  </si>
-  <si>
-    <t>CiixT63n3</t>
+    <t>08CsQa-Ov</t>
+  </si>
+  <si>
+    <t>FEbS54wxo4oIl</t>
+  </si>
+  <si>
+    <t>TpHE2IShQw-sJ</t>
   </si>
   <si>
     <t>3nNpuxHJ8</t>
@@ -166,204 +181,189 @@
     <t>HGYj5JCv5</t>
   </si>
   <si>
-    <t>TpHE2IShQw-sJ</t>
+    <t>f3iaFeCKEmkaZ</t>
+  </si>
+  <si>
+    <t>pxtKbG5rg</t>
   </si>
   <si>
     <t>Hm3OlynlC</t>
   </si>
   <si>
-    <t>f3iaFeCKEmkaZ</t>
-  </si>
-  <si>
-    <t>ymQub4fuB</t>
-  </si>
-  <si>
-    <t>aMNLwaUbY</t>
-  </si>
-  <si>
-    <t>FEbS54wxo4oIl</t>
-  </si>
-  <si>
-    <t>pxtKbG5rg</t>
+    <t>SbWqqTui-</t>
   </si>
   <si>
     <t>tEf7-dnwV3BXS</t>
   </si>
   <si>
-    <t>SbWqqTui-</t>
+    <t>DCrsaMv68</t>
+  </si>
+  <si>
+    <t>ncYFcP709</t>
+  </si>
+  <si>
+    <t>KfWtaeV1W</t>
+  </si>
+  <si>
+    <t>QQ0NCmjVq</t>
+  </si>
+  <si>
+    <t>bauj_21eYVwso</t>
+  </si>
+  <si>
+    <t>ixgUfzmLR</t>
+  </si>
+  <si>
+    <t>65PHZTpmE55b</t>
+  </si>
+  <si>
+    <t>iAzbfXiBBKkR6</t>
+  </si>
+  <si>
+    <t>omwkOTglq</t>
+  </si>
+  <si>
+    <t>B42IRxNtoYmwK</t>
   </si>
   <si>
     <t>JY1_q2c0g</t>
   </si>
   <si>
-    <t>DCrsaMv68</t>
-  </si>
-  <si>
-    <t>ncYFcP709</t>
-  </si>
-  <si>
-    <t>bauj_21eYVwso</t>
-  </si>
-  <si>
-    <t>KfWtaeV1W</t>
-  </si>
-  <si>
-    <t>08CsQa-Ov</t>
-  </si>
-  <si>
-    <t>65PHZTpmE55b</t>
-  </si>
-  <si>
-    <t>ixgUfzmLR</t>
-  </si>
-  <si>
     <t>AaQUAs2Mc</t>
   </si>
   <si>
-    <t>QQ0NCmjVq</t>
-  </si>
-  <si>
-    <t>B42IRxNtoYmwK</t>
-  </si>
-  <si>
-    <t>omwkOTglq</t>
+    <t>fsIbGOEJWbzxG</t>
+  </si>
+  <si>
+    <t>GSCt2y6YSgO26</t>
+  </si>
+  <si>
+    <t>IEJOE2-U2</t>
+  </si>
+  <si>
+    <t>JCKLgWPAF</t>
+  </si>
+  <si>
+    <t>k-J3YwacF</t>
   </si>
   <si>
     <t>7C4Mh4xy1yDel</t>
   </si>
   <si>
-    <t>GSCt2y6YSgO26</t>
-  </si>
-  <si>
-    <t>iAzbfXiBBKkR6</t>
-  </si>
-  <si>
-    <t>JCKLgWPAF</t>
-  </si>
-  <si>
-    <t>fsIbGOEJWbzxG</t>
-  </si>
-  <si>
-    <t>IEJOE2-U2</t>
+    <t>QGbUTVMjG</t>
   </si>
   <si>
     <t>uIEWfMFnQo9K_</t>
   </si>
   <si>
+    <t>ql3Jj4Tge</t>
+  </si>
+  <si>
+    <t>M9bj_WrX</t>
+  </si>
+  <si>
+    <t>qhd1biQ7M</t>
+  </si>
+  <si>
+    <t>sgxZRXbK0FDc</t>
+  </si>
+  <si>
+    <t>VcMY11NONHSA0</t>
+  </si>
+  <si>
+    <t>C9DwH-T7MEGmo</t>
+  </si>
+  <si>
     <t>J7st_qGwz</t>
   </si>
   <si>
-    <t>qhd1biQ7M</t>
-  </si>
-  <si>
-    <t>QGbUTVMjG</t>
-  </si>
-  <si>
-    <t>ql3Jj4Tge</t>
+    <t>cVaOmQWainv7g</t>
+  </si>
+  <si>
+    <t>aRGRWLf2RYNq4</t>
+  </si>
+  <si>
+    <t>sfab31CXM</t>
+  </si>
+  <si>
+    <t>w5U609Wze</t>
   </si>
   <si>
     <t>B8xT718SbVhhh</t>
   </si>
   <si>
-    <t>sgxZRXbK0FDc</t>
-  </si>
-  <si>
-    <t>VcMY11NONHSA0</t>
-  </si>
-  <si>
-    <t>k-J3YwacF</t>
-  </si>
-  <si>
-    <t>C9DwH-T7MEGmo</t>
-  </si>
-  <si>
-    <t>sfab31CXM</t>
-  </si>
-  <si>
     <t>z2PZIKQL7</t>
   </si>
   <si>
-    <t>w5U609Wze</t>
-  </si>
-  <si>
     <t>qFakph2rpuMOL</t>
   </si>
   <si>
-    <t>aRGRWLf2RYNq4</t>
+    <t>LtWwuVANwRzV_</t>
   </si>
   <si>
     <t>w4MqH_Xe8</t>
   </si>
   <si>
-    <t>LtWwuVANwRzV_</t>
-  </si>
-  <si>
     <t>aQx_vW8s1</t>
   </si>
   <si>
-    <t>t7m8DZVyMsAu</t>
+    <t>LOO6LmXd7G84Z</t>
   </si>
   <si>
     <t>Ru56fDlLB56-v</t>
   </si>
   <si>
+    <t>gpRKmM16k</t>
+  </si>
+  <si>
     <t>WMDlfMJ1W</t>
   </si>
   <si>
     <t>drWC87t2Vozh</t>
   </si>
   <si>
-    <t>cVaOmQWainv7g</t>
-  </si>
-  <si>
-    <t>LOO6LmXd7G84Z</t>
-  </si>
-  <si>
-    <t>gpRKmM16k</t>
-  </si>
-  <si>
-    <t>T93ksC96YL_Gc</t>
-  </si>
-  <si>
-    <t>lT__vMO7l</t>
+    <t>QUC5kVAxSoB-</t>
   </si>
   <si>
     <t>n1p-s_gm1</t>
   </si>
   <si>
+    <t>1ZZI6g5k5royD</t>
+  </si>
+  <si>
+    <t>7XWg41D1</t>
+  </si>
+  <si>
+    <t>q7gMmMdLb</t>
+  </si>
+  <si>
+    <t>3jmxrjOJ8xa4p</t>
+  </si>
+  <si>
+    <t>AP-fyKlSf</t>
+  </si>
+  <si>
+    <t>Au8mNo2ZIlJfL</t>
+  </si>
+  <si>
+    <t>frw2fHgZ</t>
+  </si>
+  <si>
     <t>WvoRtQhzN</t>
   </si>
   <si>
     <t>NfeOYfNcl</t>
   </si>
   <si>
-    <t>Au8mNo2ZIlJfL</t>
-  </si>
-  <si>
-    <t>M9bj_WrX</t>
-  </si>
-  <si>
     <t>ybmU-kKU</t>
   </si>
   <si>
-    <t>3jmxrjOJ8xa4p</t>
-  </si>
-  <si>
-    <t>1ZZI6g5k5royD</t>
-  </si>
-  <si>
-    <t>7XWg41D1</t>
-  </si>
-  <si>
-    <t>frw2fHgZ</t>
-  </si>
-  <si>
-    <t>cCx8KCiV3</t>
-  </si>
-  <si>
     <t>uT6akswu0</t>
   </si>
   <si>
+    <t>yecsF9VkR</t>
+  </si>
+  <si>
     <t>BTC</t>
   </si>
   <si>
@@ -373,48 +373,48 @@
     <t>USDT</t>
   </si>
   <si>
+    <t>BNB</t>
+  </si>
+  <si>
     <t>USDC</t>
   </si>
   <si>
-    <t>BNB</t>
-  </si>
-  <si>
     <t>XRP</t>
   </si>
   <si>
+    <t>ADA</t>
+  </si>
+  <si>
+    <t>MATIC</t>
+  </si>
+  <si>
     <t>BUSD</t>
   </si>
   <si>
-    <t>ADA</t>
+    <t>OKB</t>
   </si>
   <si>
     <t>DOGE</t>
   </si>
   <si>
-    <t>MATIC</t>
-  </si>
-  <si>
-    <t>OKB</t>
-  </si>
-  <si>
     <t>SOL</t>
   </si>
   <si>
+    <t>DOT</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
     <t>SHIB</t>
   </si>
   <si>
-    <t>DOT</t>
-  </si>
-  <si>
-    <t>LINK</t>
+    <t>WETH</t>
   </si>
   <si>
     <t>LTC</t>
   </si>
   <si>
-    <t>WETH</t>
-  </si>
-  <si>
     <t>TRX</t>
   </si>
   <si>
@@ -433,31 +433,46 @@
     <t>WBTC</t>
   </si>
   <si>
+    <t>LDO</t>
+  </si>
+  <si>
     <t>TON</t>
   </si>
   <si>
-    <t>LDO</t>
-  </si>
-  <si>
     <t>ETC</t>
   </si>
   <si>
     <t>XMR</t>
   </si>
   <si>
+    <t>FIL</t>
+  </si>
+  <si>
+    <t>BCH</t>
+  </si>
+  <si>
     <t>HT</t>
   </si>
   <si>
-    <t>BCH</t>
+    <t>WSTETH</t>
+  </si>
+  <si>
+    <t>HBAR</t>
+  </si>
+  <si>
+    <t>ICP</t>
   </si>
   <si>
     <t>IMX</t>
   </si>
   <si>
-    <t>HBAR</t>
-  </si>
-  <si>
-    <t>WSTETH</t>
+    <t>WEMIX</t>
+  </si>
+  <si>
+    <t>VET</t>
+  </si>
+  <si>
+    <t>ALGO</t>
   </si>
   <si>
     <t>FXS</t>
@@ -466,204 +481,189 @@
     <t>APT</t>
   </si>
   <si>
-    <t>ALGO</t>
+    <t>XLM</t>
+  </si>
+  <si>
+    <t>SAND</t>
   </si>
   <si>
     <t>TWT</t>
   </si>
   <si>
-    <t>XLM</t>
-  </si>
-  <si>
-    <t>FIL</t>
-  </si>
-  <si>
-    <t>ICP</t>
-  </si>
-  <si>
-    <t>VET</t>
-  </si>
-  <si>
-    <t>SAND</t>
+    <t>ENS</t>
   </si>
   <si>
     <t>MANA</t>
   </si>
   <si>
-    <t>ENS</t>
+    <t>NEAR</t>
+  </si>
+  <si>
+    <t>CAKE</t>
+  </si>
+  <si>
+    <t>FRAX</t>
+  </si>
+  <si>
+    <t>FLOW</t>
+  </si>
+  <si>
+    <t>QNT</t>
+  </si>
+  <si>
+    <t>AAVE</t>
+  </si>
+  <si>
+    <t>CRO</t>
+  </si>
+  <si>
+    <t>EOS</t>
+  </si>
+  <si>
+    <t>EGLD</t>
+  </si>
+  <si>
+    <t>THETA</t>
   </si>
   <si>
     <t>BABYDOGE</t>
   </si>
   <si>
-    <t>NEAR</t>
-  </si>
-  <si>
-    <t>CAKE</t>
-  </si>
-  <si>
-    <t>QNT</t>
-  </si>
-  <si>
-    <t>FRAX</t>
-  </si>
-  <si>
-    <t>WEMIX</t>
-  </si>
-  <si>
-    <t>CRO</t>
-  </si>
-  <si>
-    <t>AAVE</t>
-  </si>
-  <si>
     <t>LUNC</t>
   </si>
   <si>
-    <t>FLOW</t>
-  </si>
-  <si>
-    <t>THETA</t>
-  </si>
-  <si>
-    <t>EGLD</t>
+    <t>XTZ</t>
+  </si>
+  <si>
+    <t>CHZ</t>
+  </si>
+  <si>
+    <t>BNX</t>
+  </si>
+  <si>
+    <t>USDP</t>
+  </si>
+  <si>
+    <t>WOO</t>
   </si>
   <si>
     <t>RNDR</t>
   </si>
   <si>
-    <t>CHZ</t>
-  </si>
-  <si>
-    <t>EOS</t>
-  </si>
-  <si>
-    <t>USDP</t>
-  </si>
-  <si>
-    <t>XTZ</t>
-  </si>
-  <si>
-    <t>BNX</t>
+    <t>CRV</t>
   </si>
   <si>
     <t>FTM</t>
   </si>
   <si>
+    <t>SUSHI</t>
+  </si>
+  <si>
+    <t>KLAY</t>
+  </si>
+  <si>
+    <t>GRT</t>
+  </si>
+  <si>
+    <t>SNX</t>
+  </si>
+  <si>
+    <t>BSV</t>
+  </si>
+  <si>
+    <t>DASH</t>
+  </si>
+  <si>
     <t>MINA</t>
   </si>
   <si>
-    <t>GRT</t>
-  </si>
-  <si>
-    <t>CRV</t>
-  </si>
-  <si>
-    <t>SUSHI</t>
+    <t>NEO</t>
+  </si>
+  <si>
+    <t>ZEC</t>
+  </si>
+  <si>
+    <t>BLOK</t>
+  </si>
+  <si>
+    <t>APE</t>
   </si>
   <si>
     <t>PAX</t>
   </si>
   <si>
-    <t>SNX</t>
-  </si>
-  <si>
-    <t>BSV</t>
-  </si>
-  <si>
-    <t>WOO</t>
-  </si>
-  <si>
-    <t>DASH</t>
-  </si>
-  <si>
-    <t>BLOK</t>
-  </si>
-  <si>
     <t>USDD</t>
   </si>
   <si>
-    <t>APE</t>
-  </si>
-  <si>
     <t>MKR</t>
   </si>
   <si>
-    <t>ZEC</t>
+    <t>MIOTA</t>
   </si>
   <si>
     <t>BTT</t>
   </si>
   <si>
-    <t>MIOTA</t>
-  </si>
-  <si>
     <t>XEC</t>
   </si>
   <si>
-    <t>GT</t>
+    <t>KCS</t>
   </si>
   <si>
     <t>RVN</t>
   </si>
   <si>
+    <t>AXS</t>
+  </si>
+  <si>
     <t>APX</t>
   </si>
   <si>
     <t>ANKR</t>
   </si>
   <si>
-    <t>NEO</t>
-  </si>
-  <si>
-    <t>KCS</t>
-  </si>
-  <si>
-    <t>AXS</t>
-  </si>
-  <si>
-    <t>GUSD</t>
-  </si>
-  <si>
-    <t>CDAI</t>
+    <t>MX</t>
   </si>
   <si>
     <t>OP</t>
   </si>
   <si>
+    <t>TUSD</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>BGB</t>
+  </si>
+  <si>
+    <t>ZIL</t>
+  </si>
+  <si>
+    <t>OKT</t>
+  </si>
+  <si>
+    <t>LRC</t>
+  </si>
+  <si>
+    <t>TKX</t>
+  </si>
+  <si>
     <t>ILV</t>
   </si>
   <si>
     <t>FTT</t>
   </si>
   <si>
-    <t>LRC</t>
-  </si>
-  <si>
-    <t>KLAY</t>
-  </si>
-  <si>
     <t>RUNE</t>
   </si>
   <si>
-    <t>ZIL</t>
-  </si>
-  <si>
-    <t>TUSD</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>TKX</t>
-  </si>
-  <si>
-    <t>AGIX</t>
-  </si>
-  <si>
     <t>NFT</t>
   </si>
   <si>
+    <t>OSMO</t>
+  </si>
+  <si>
     <t>Bitcoin</t>
   </si>
   <si>
@@ -673,36 +673,36 @@
     <t>Tether USD</t>
   </si>
   <si>
+    <t>Cardano</t>
+  </si>
+  <si>
+    <t>Polygon</t>
+  </si>
+  <si>
     <t>Binance USD</t>
   </si>
   <si>
-    <t>Cardano</t>
-  </si>
-  <si>
     <t>Dogecoin</t>
   </si>
   <si>
-    <t>Polygon</t>
-  </si>
-  <si>
     <t>Solana</t>
   </si>
   <si>
+    <t>Polkadot</t>
+  </si>
+  <si>
+    <t>Chainlink</t>
+  </si>
+  <si>
     <t>Shiba Inu</t>
   </si>
   <si>
-    <t>Polkadot</t>
-  </si>
-  <si>
-    <t>Chainlink</t>
+    <t>Wrapped Ether</t>
   </si>
   <si>
     <t>Litecoin</t>
   </si>
   <si>
-    <t>Wrapped Ether</t>
-  </si>
-  <si>
     <t>TRON</t>
   </si>
   <si>
@@ -721,31 +721,46 @@
     <t>Wrapped BTC</t>
   </si>
   <si>
+    <t>Lido DAO Token</t>
+  </si>
+  <si>
     <t>Toncoin</t>
   </si>
   <si>
-    <t>Lido DAO Token</t>
-  </si>
-  <si>
     <t>Ethereum Classic</t>
   </si>
   <si>
     <t>Monero</t>
   </si>
   <si>
+    <t>Filecoin</t>
+  </si>
+  <si>
+    <t>Bitcoin Cash</t>
+  </si>
+  <si>
     <t>Huobi Token</t>
   </si>
   <si>
-    <t>Bitcoin Cash</t>
+    <t>Wrapped liquid staked Ether 2.0</t>
+  </si>
+  <si>
+    <t>Hedera</t>
+  </si>
+  <si>
+    <t>Internet Computer (DFINITY)</t>
   </si>
   <si>
     <t>Immutable X</t>
   </si>
   <si>
-    <t>Hedera</t>
-  </si>
-  <si>
-    <t>Wrapped liquid staked Ether 2.0</t>
+    <t>WEMIX TOKEN</t>
+  </si>
+  <si>
+    <t>VeChain</t>
+  </si>
+  <si>
+    <t>Algorand</t>
   </si>
   <si>
     <t>Frax Share</t>
@@ -754,192 +769,177 @@
     <t>Aptos</t>
   </si>
   <si>
-    <t>Algorand</t>
+    <t>Stellar</t>
+  </si>
+  <si>
+    <t>The Sandbox</t>
   </si>
   <si>
     <t>Trust Wallet Token</t>
   </si>
   <si>
-    <t>Stellar</t>
-  </si>
-  <si>
-    <t>Filecoin</t>
-  </si>
-  <si>
-    <t>Internet Computer (DFINITY)</t>
-  </si>
-  <si>
-    <t>VeChain</t>
-  </si>
-  <si>
-    <t>The Sandbox</t>
+    <t>EnergySwap</t>
   </si>
   <si>
     <t>Decentraland</t>
   </si>
   <si>
-    <t>EnergySwap</t>
+    <t>NEAR Protocol</t>
+  </si>
+  <si>
+    <t>PancakeSwap</t>
+  </si>
+  <si>
+    <t>Frax</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>Quant</t>
+  </si>
+  <si>
+    <t>Aave</t>
+  </si>
+  <si>
+    <t>Cronos</t>
+  </si>
+  <si>
+    <t>Elrond</t>
+  </si>
+  <si>
+    <t>Theta Token</t>
   </si>
   <si>
     <t>Baby Doge Coin</t>
   </si>
   <si>
-    <t>NEAR Protocol</t>
-  </si>
-  <si>
-    <t>PancakeSwap</t>
-  </si>
-  <si>
-    <t>Quant</t>
-  </si>
-  <si>
-    <t>Frax</t>
-  </si>
-  <si>
-    <t>WEMIX TOKEN</t>
-  </si>
-  <si>
-    <t>Cronos</t>
-  </si>
-  <si>
-    <t>Aave</t>
-  </si>
-  <si>
     <t>Terra Classic</t>
   </si>
   <si>
-    <t>Flow</t>
-  </si>
-  <si>
-    <t>Theta Token</t>
-  </si>
-  <si>
-    <t>Elrond</t>
+    <t>Tezos</t>
+  </si>
+  <si>
+    <t>Chiliz</t>
+  </si>
+  <si>
+    <t>BinaryX</t>
+  </si>
+  <si>
+    <t>Pax Dollar</t>
+  </si>
+  <si>
+    <t>WOO Network</t>
   </si>
   <si>
     <t>Render Token</t>
   </si>
   <si>
-    <t>Chiliz</t>
-  </si>
-  <si>
-    <t>Pax Dollar</t>
-  </si>
-  <si>
-    <t>Tezos</t>
-  </si>
-  <si>
-    <t>BinaryX</t>
+    <t>Curve DAO Token</t>
   </si>
   <si>
     <t>Fantom</t>
   </si>
   <si>
+    <t>Klaytn</t>
+  </si>
+  <si>
+    <t>The Graph</t>
+  </si>
+  <si>
+    <t>Synthetix Network</t>
+  </si>
+  <si>
+    <t>Bitcoin SV</t>
+  </si>
+  <si>
+    <t>Dash</t>
+  </si>
+  <si>
     <t>Mina Protocol Token</t>
   </si>
   <si>
-    <t>The Graph</t>
-  </si>
-  <si>
-    <t>Curve DAO Token</t>
+    <t>Zcash</t>
+  </si>
+  <si>
+    <t>Bloktopia</t>
+  </si>
+  <si>
+    <t>ApeCoin</t>
   </si>
   <si>
     <t>Paxos Standard</t>
   </si>
   <si>
-    <t>Synthetix Network</t>
-  </si>
-  <si>
-    <t>Bitcoin SV</t>
-  </si>
-  <si>
-    <t>WOO Network</t>
-  </si>
-  <si>
-    <t>Dash</t>
-  </si>
-  <si>
-    <t>Bloktopia</t>
-  </si>
-  <si>
-    <t>ApeCoin</t>
-  </si>
-  <si>
     <t>Maker</t>
   </si>
   <si>
-    <t>Zcash</t>
+    <t>IOTA</t>
   </si>
   <si>
     <t>BitTorrent-New</t>
   </si>
   <si>
-    <t>IOTA</t>
-  </si>
-  <si>
     <t>eCash</t>
   </si>
   <si>
-    <t>GateToken</t>
+    <t>KuCoin Token</t>
   </si>
   <si>
     <t>Ravencoin</t>
   </si>
   <si>
+    <t>Axie Infinity</t>
+  </si>
+  <si>
     <t>ApolloX</t>
   </si>
   <si>
     <t>Ankr</t>
   </si>
   <si>
-    <t>KuCoin Token</t>
-  </si>
-  <si>
-    <t>Axie Infinity</t>
-  </si>
-  <si>
-    <t>Gemini dollar</t>
-  </si>
-  <si>
-    <t>Compound Dai</t>
+    <t>MX Token</t>
   </si>
   <si>
     <t>Optimism</t>
   </si>
   <si>
+    <t>TrueUSD</t>
+  </si>
+  <si>
+    <t>Arweave</t>
+  </si>
+  <si>
+    <t>Bitget Token</t>
+  </si>
+  <si>
+    <t>Zilliqa</t>
+  </si>
+  <si>
+    <t>OKC</t>
+  </si>
+  <si>
+    <t>Loopring</t>
+  </si>
+  <si>
+    <t>Tokenize Xchange</t>
+  </si>
+  <si>
     <t>Illuvium</t>
   </si>
   <si>
     <t>FTX Token</t>
   </si>
   <si>
-    <t>Loopring</t>
-  </si>
-  <si>
-    <t>Klaytn</t>
-  </si>
-  <si>
     <t>THORChain</t>
   </si>
   <si>
-    <t>Zilliqa</t>
-  </si>
-  <si>
-    <t>TrueUSD</t>
-  </si>
-  <si>
-    <t>Arweave</t>
-  </si>
-  <si>
-    <t>Tokenize Xchange</t>
-  </si>
-  <si>
-    <t>SingularityNET</t>
-  </si>
-  <si>
     <t>APENFT</t>
   </si>
   <si>
+    <t>Osmosis</t>
+  </si>
+  <si>
     <t>#f7931A</t>
   </si>
   <si>
@@ -949,45 +949,45 @@
     <t>#22a079</t>
   </si>
   <si>
+    <t>#e8b342</t>
+  </si>
+  <si>
     <t>#7894b4</t>
   </si>
   <si>
-    <t>#e8b342</t>
-  </si>
-  <si>
     <t>#000000</t>
   </si>
   <si>
+    <t>#3cc8c8</t>
+  </si>
+  <si>
+    <t>#8247e5</t>
+  </si>
+  <si>
     <t>#f0b90b</t>
   </si>
   <si>
-    <t>#3cc8c8</t>
+    <t>#2d60e0</t>
   </si>
   <si>
     <t>#c2a633</t>
   </si>
   <si>
-    <t>#8247e5</t>
-  </si>
-  <si>
-    <t>#2d60e0</t>
+    <t>#d64cA8</t>
+  </si>
+  <si>
+    <t>#4680b0</t>
   </si>
   <si>
     <t>#fda32b</t>
   </si>
   <si>
-    <t>#d64cA8</t>
-  </si>
-  <si>
-    <t>#4680b0</t>
+    <t>#303030</t>
   </si>
   <si>
     <t>#345d9d</t>
   </si>
   <si>
-    <t>#303030</t>
-  </si>
-  <si>
     <t>#eb0029</t>
   </si>
   <si>
@@ -1003,163 +1003,166 @@
     <t>#5064fb</t>
   </si>
   <si>
+    <t>#77cced</t>
+  </si>
+  <si>
     <t>#0088cc</t>
   </si>
   <si>
-    <t>#77cced</t>
-  </si>
-  <si>
     <t>#699070</t>
   </si>
   <si>
     <t>#ff7519</t>
   </si>
   <si>
+    <t>#0090ff</t>
+  </si>
+  <si>
+    <t>#8dc451</t>
+  </si>
+  <si>
     <t>#2daadf</t>
   </si>
   <si>
-    <t>#8dc451</t>
-  </si>
-  <si>
     <t>#70b9dc</t>
   </si>
   <si>
+    <t>#00042b</t>
+  </si>
+  <si>
+    <t>#9bdc70</t>
+  </si>
+  <si>
+    <t>#4bc0fa</t>
+  </si>
+  <si>
+    <t>#00adef</t>
+  </si>
+  <si>
     <t>#3375bb</t>
   </si>
   <si>
-    <t>#0090ff</t>
-  </si>
-  <si>
-    <t>#00042b</t>
-  </si>
-  <si>
-    <t>#4bc0fa</t>
-  </si>
-  <si>
-    <t>#00adef</t>
+    <t>#ffda55</t>
   </si>
   <si>
     <t>#f47e33</t>
   </si>
   <si>
-    <t>#ffda55</t>
+    <t>#fe9555</t>
+  </si>
+  <si>
+    <t>#9efad7</t>
+  </si>
+  <si>
+    <t>#585e63</t>
+  </si>
+  <si>
+    <t>#B6509E</t>
+  </si>
+  <si>
+    <t>#01275d</t>
+  </si>
+  <si>
+    <t>#443f54</t>
+  </si>
+  <si>
+    <t>#1b1f2a</t>
   </si>
   <si>
     <t>#e6b635</t>
   </si>
   <si>
-    <t>#fe9555</t>
-  </si>
-  <si>
-    <t>#585e63</t>
-  </si>
-  <si>
-    <t>#9bdc70</t>
-  </si>
-  <si>
-    <t>#01275d</t>
-  </si>
-  <si>
-    <t>#B6509E</t>
-  </si>
-  <si>
     <t>#0E3CA5</t>
   </si>
   <si>
-    <t>#9efad7</t>
-  </si>
-  <si>
-    <t>#1b1f2a</t>
+    <t>#2c7df7</t>
   </si>
   <si>
     <t>#d05e72</t>
   </si>
   <si>
-    <t>#443f54</t>
-  </si>
-  <si>
     <t>#2ac27a</t>
   </si>
   <si>
-    <t>#2c7df7</t>
+    <t>#0030ff</t>
   </si>
   <si>
     <t>#1969ff</t>
   </si>
   <si>
+    <t>#b06b2e</t>
+  </si>
+  <si>
+    <t>#4f473b</t>
+  </si>
+  <si>
     <t>#b090e0</t>
   </si>
   <si>
-    <t>#0030ff</t>
-  </si>
-  <si>
-    <t>#b06b2e</t>
+    <t>#90dce0</t>
+  </si>
+  <si>
+    <t>#eab300</t>
+  </si>
+  <si>
+    <t>#1c75bc</t>
+  </si>
+  <si>
+    <t>#aedb00</t>
+  </si>
+  <si>
+    <t>#000</t>
+  </si>
+  <si>
+    <t>#0042C7</t>
   </si>
   <si>
     <t>#085229</t>
   </si>
   <si>
-    <t>#90dce0</t>
-  </si>
-  <si>
-    <t>#eab300</t>
-  </si>
-  <si>
-    <t>#1c75bc</t>
-  </si>
-  <si>
-    <t>#0042C7</t>
-  </si>
-  <si>
     <t>#1abc9c</t>
   </si>
   <si>
-    <t>#000</t>
-  </si>
-  <si>
-    <t>#de5959</t>
+    <t>#23AF91</t>
   </si>
   <si>
     <t>#384182</t>
   </si>
   <si>
+    <t>#f5a616</t>
+  </si>
+  <si>
     <t>#cb45cc</t>
   </si>
   <si>
     <t>#277fcc</t>
   </si>
   <si>
-    <t>#aedb00</t>
-  </si>
-  <si>
-    <t>#23AF91</t>
-  </si>
-  <si>
-    <t>#f5a616</t>
-  </si>
-  <si>
-    <t>#30D7FA</t>
-  </si>
-  <si>
     <t>#ff2a29</t>
   </si>
   <si>
+    <t>#1f2e5a</t>
+  </si>
+  <si>
+    <t>#027ebd</t>
+  </si>
+  <si>
+    <t>#49c1bf</t>
+  </si>
+  <si>
+    <t>#456dc8</t>
+  </si>
+  <si>
+    <t>#ff8f40</t>
+  </si>
+  <si>
     <t>#77d9ed</t>
   </si>
   <si>
-    <t>#4f473b</t>
-  </si>
-  <si>
     <t>#0EAAB7</t>
   </si>
   <si>
-    <t>#49c1bf</t>
-  </si>
-  <si>
-    <t>#1f2e5a</t>
-  </si>
-  <si>
-    <t>#ff8f40</t>
+    <t>#1b154f</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/bOabBYkcX/bitcoin_btc.svg</t>
@@ -1171,48 +1174,48 @@
     <t>https://cdn.coinranking.com/mgHqwlCLj/usdt.svg</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/B1N19L_dZ/bnb.svg</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/jkDf8sQbY/usdc.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/B1N19L_dZ/bnb.svg</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/B1oPuTyfX/xrp.svg</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/ryY28nXhW/ada.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/M-pwilaq-/polygon-matic-logo.svg</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/6SJHRfClq/busd.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/ryY28nXhW/ada.svg</t>
+    <t>https://cdn.coinranking.com/xcZdYtX6E/okx.png</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/H1arXIuOZ/doge.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/M-pwilaq-/polygon-matic-logo.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/xcZdYtX6E/okx.png</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/yvUG4Qex5/solana.svg</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/RsljYqnbu/polkadot.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/9NOP9tOem/chainlink.svg</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/fiZ4HfnRR/shib.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/RsljYqnbu/polkadot.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/9NOP9tOem/chainlink.svg</t>
+    <t>https://cdn.coinranking.com/KIviQyZlt/weth.svg</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/BUvPxmc9o/ltcnew.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/KIviQyZlt/weth.svg</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/behejNqQs/trx.svg</t>
   </si>
   <si>
@@ -1231,31 +1234,46 @@
     <t>https://cdn.coinranking.com/o3-8cvCHu/wbtc[1].svg</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/Wp6LFY6ZZ/8000.png</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/1mf2KPPah/toncoin.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/Wp6LFY6ZZ/8000.png</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/rJfyor__W/etc.svg</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/Syz-oSd_Z/xmr.svg</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/vUmvv-IQA/FIL3-filecoin.svg?size=48x48</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/By8ziihX7/bch.svg</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/ryFpQe0c7/ht.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/By8ziihX7/bch.svg</t>
+    <t>https://cdn.coinranking.com/LQg69oxqx/wstETH.PNG</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/dSCnSLilQ/hedera.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/1uJ_RVrmC/dfinity-icp.png</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/naRGT2Y_X/10603.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/dSCnSLilQ/hedera.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/LQg69oxqx/wstETH.PNG</t>
+    <t>https://cdn.coinranking.com/1N84MQsoO/7548.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/B1_TDu9Dm/VEN.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/lzbmCkUGB/algo.svg</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/_UuWZ5htj/FS.png</t>
@@ -1264,1333 +1282,1315 @@
     <t>https://cdn.coinranking.com/KXUaDFjqm/21794.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/lzbmCkUGB/algo.svg</t>
+    <t>https://cdn.coinranking.com/78CxK1xsp/Stellar_symbol_black_RGB.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/kd_vwOcnI/sandbox.png</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/cZ5j4jiOk/trust-wallet-token.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/78CxK1xsp/Stellar_symbol_black_RGB.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/vUmvv-IQA/FIL3-filecoin.svg?size=48x48</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/1uJ_RVrmC/dfinity-icp.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/B1_TDu9Dm/VEN.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/kd_vwOcnI/sandbox.png</t>
+    <t>https://cdn.coinranking.com/fmYxEUV5a/cropped-logo37-Converted-01-192x192.png</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/ph_svUzXs/decentraland(1).svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/fmYxEUV5a/cropped-logo37-Converted-01-192x192.png</t>
+    <t>https://cdn.coinranking.com/Cth83dCnl/near.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/aRtgdw7bQ/pancakeswap-cake-logo.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/BpVNCX-NM/frax.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/xh8X8QBss/flow.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/a-i9Dl392/quant.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/4bpYKqV4X/AAVE.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/2o91jm73M/cro.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/PqOYrWSje/eos2.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/X62ruAuZQ/Elrond.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/HJHg2k9Lf/theta.svg</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/1X2BCCJdV/Baby_Doge.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/Cth83dCnl/near.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/aRtgdw7bQ/pancakeswap-cake-logo.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/a-i9Dl392/quant.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/BpVNCX-NM/frax.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/1N84MQsoO/7548.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/2o91jm73M/cro.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/4bpYKqV4X/AAVE.png</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/F-PJdF8Um/LUNA.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/xh8X8QBss/flow.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/HJHg2k9Lf/theta.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/X62ruAuZQ/Elrond.svg</t>
+    <t>https://cdn.coinranking.com/HkLUdilQ7/xtz.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/gTsOlSnwR/4066.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/mX2o6GwxI/BinaryX-RGB-01_(2).PNG</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/KUd2bJXdn/3330.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/03_LGK8B-/7501.png</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/lhbmnCedl/5690.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/gTsOlSnwR/4066.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/PqOYrWSje/eos2.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/KUd2bJXdn/3330.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/HkLUdilQ7/xtz.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/mX2o6GwxI/BinaryX-RGB-01_(2).PNG</t>
+    <t>https://cdn.coinranking.com/89clXLSu2/curve-dao-token.svg</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/Uh-AYdcnU/fantom.png</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/eKKejWkdo/sushiswap.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/cY-BSmXaS/klay.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/g6FVr-7Vs/grt.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/c2WntZSPs/snx-synthetix.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/388ehh6kq/bitcoin-sv-1.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/PyCmduSxt/Dash-D-white_on_blue_circle.svg</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/IqAKk8Gab/mina.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/g6FVr-7Vs/grt.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/89clXLSu2/curve-dao-token.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/eKKejWkdo/sushiswap.png</t>
+    <t>https://cdn.coinranking.com/MgUNVQCeN/neo.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/rJrKiS_uZ/zec.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/P6P1BdGJ9/11206.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/qT3ukh7Z9/APE.png</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/H1NkFcuhX/pax.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/c2WntZSPs/snx-synthetix.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/388ehh6kq/bitcoin-sv-1.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/03_LGK8B-/7501.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/PyCmduSxt/Dash-D-white_on_blue_circle.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/P6P1BdGJ9/11206.png</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/HeEyq_2CG/usdd.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/qT3ukh7Z9/APE.png</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/sjHfS7jCS/mkrdao.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/rJrKiS_uZ/zec.svg</t>
+    <t>https://cdn.coinranking.com/H1IQ9Bdd-/miota.svg</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/xHIci4Je9/16086.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/H1IQ9Bdd-/miota.svg</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/wdqRaUEhn/xec.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/tRE6BrzE0/GT[1].svg</t>
+    <t>https://cdn.coinranking.com/A-hAjR-hN/kucoin.png</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/Rw1xg7rFE/rvn.svg</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/L3gWtlUJB/axie-infinity.png</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/FfcNFmkwn/16334.png</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/2NXhylXMw/ankr.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/MgUNVQCeN/neo.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/A-hAjR-hN/kucoin.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/L3gWtlUJB/axie-infinity.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/s5cHqxxYr/gusd.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/aZPPc1MqR/cDAI.svg</t>
+    <t>https://cdn.coinranking.com/5H4rM81Pj/mxc.svg</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/GaG3fv_rq/11840.png</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/qPE6mbDUL/tusd.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/96QRZJzE9/5632.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/Du8qwA32R/photo-2022-05-03-19-50-24.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/H18JFWswf/zil.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/Hyi4YJz3M/lrc.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/JYtWb5AXp/tokenize.svg</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/9Y0K-WWMt/8719.png</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/WyBm4_EzM/ftx-exchange.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/Hyi4YJz3M/lrc.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/cY-BSmXaS/klay.svg</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/tU7Skyia9/ThorChain[1].svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/H18JFWswf/zil.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/qPE6mbDUL/tusd.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/96QRZJzE9/5632.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/JYtWb5AXp/tokenize.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/UBRfNttvR/2424.png</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/43Mb3MHYr/9816.png</t>
   </si>
   <si>
-    <t>441881704900</t>
-  </si>
-  <si>
-    <t>193888781435</t>
-  </si>
-  <si>
-    <t>65078459715</t>
-  </si>
-  <si>
-    <t>43643470440</t>
-  </si>
-  <si>
-    <t>43325108142</t>
-  </si>
-  <si>
-    <t>19525158852</t>
-  </si>
-  <si>
-    <t>15274183511</t>
-  </si>
-  <si>
-    <t>13678089400</t>
-  </si>
-  <si>
-    <t>11853952344</t>
-  </si>
-  <si>
-    <t>11498956342</t>
-  </si>
-  <si>
-    <t>10917572907</t>
-  </si>
-  <si>
-    <t>8230760298</t>
-  </si>
-  <si>
-    <t>7828087998</t>
-  </si>
-  <si>
-    <t>7560634975</t>
-  </si>
-  <si>
-    <t>6941159225</t>
-  </si>
-  <si>
-    <t>6916533039</t>
-  </si>
-  <si>
-    <t>6834992557</t>
-  </si>
-  <si>
-    <t>6384581457</t>
-  </si>
-  <si>
-    <t>5639988855</t>
-  </si>
-  <si>
-    <t>5324999414</t>
-  </si>
-  <si>
-    <t>5214454330</t>
-  </si>
-  <si>
-    <t>4460094445</t>
-  </si>
-  <si>
-    <t>4189589480</t>
-  </si>
-  <si>
-    <t>3389342922</t>
-  </si>
-  <si>
-    <t>3182590110</t>
-  </si>
-  <si>
-    <t>2966200958</t>
-  </si>
-  <si>
-    <t>2953125550</t>
-  </si>
-  <si>
-    <t>2555054922</t>
-  </si>
-  <si>
-    <t>2440585411</t>
-  </si>
-  <si>
-    <t>2414147434</t>
-  </si>
-  <si>
-    <t>2147652892</t>
-  </si>
-  <si>
-    <t>2032255168</t>
-  </si>
-  <si>
-    <t>1928280218</t>
-  </si>
-  <si>
-    <t>1917583223</t>
-  </si>
-  <si>
-    <t>1914391198</t>
-  </si>
-  <si>
-    <t>1773147942</t>
-  </si>
-  <si>
-    <t>1755606185</t>
-  </si>
-  <si>
-    <t>1727851946</t>
-  </si>
-  <si>
-    <t>1672230004</t>
-  </si>
-  <si>
-    <t>1644727863</t>
-  </si>
-  <si>
-    <t>1644561541</t>
-  </si>
-  <si>
-    <t>1506106180</t>
-  </si>
-  <si>
-    <t>1472171499</t>
-  </si>
-  <si>
-    <t>1463242289</t>
-  </si>
-  <si>
-    <t>1410127391</t>
-  </si>
-  <si>
-    <t>1404770139</t>
-  </si>
-  <si>
-    <t>1399131883</t>
-  </si>
-  <si>
-    <t>1386206879</t>
-  </si>
-  <si>
-    <t>1341098953</t>
-  </si>
-  <si>
-    <t>1267434152</t>
-  </si>
-  <si>
-    <t>1211814154</t>
-  </si>
-  <si>
-    <t>1128852348</t>
-  </si>
-  <si>
-    <t>1125106999</t>
-  </si>
-  <si>
-    <t>1115729693</t>
-  </si>
-  <si>
-    <t>1079523671</t>
-  </si>
-  <si>
-    <t>1051098128</t>
-  </si>
-  <si>
-    <t>1046980209</t>
-  </si>
-  <si>
-    <t>1046025899</t>
-  </si>
-  <si>
-    <t>1009817977</t>
-  </si>
-  <si>
-    <t>1009658623</t>
-  </si>
-  <si>
-    <t>976983983</t>
-  </si>
-  <si>
-    <t>927126891</t>
-  </si>
-  <si>
-    <t>897657795</t>
-  </si>
-  <si>
-    <t>869474548</t>
-  </si>
-  <si>
-    <t>827539224</t>
-  </si>
-  <si>
-    <t>824400782</t>
-  </si>
-  <si>
-    <t>796343997</t>
-  </si>
-  <si>
-    <t>791693809</t>
-  </si>
-  <si>
-    <t>787572770</t>
-  </si>
-  <si>
-    <t>787355728</t>
-  </si>
-  <si>
-    <t>765750349</t>
-  </si>
-  <si>
-    <t>748302690</t>
-  </si>
-  <si>
-    <t>717689772</t>
-  </si>
-  <si>
-    <t>713454886</t>
-  </si>
-  <si>
-    <t>712381124</t>
-  </si>
-  <si>
-    <t>700220105</t>
-  </si>
-  <si>
-    <t>681464704</t>
-  </si>
-  <si>
-    <t>665798749</t>
-  </si>
-  <si>
-    <t>663872875</t>
-  </si>
-  <si>
-    <t>642515778</t>
-  </si>
-  <si>
-    <t>635477816</t>
-  </si>
-  <si>
-    <t>627012006</t>
-  </si>
-  <si>
-    <t>624893872</t>
-  </si>
-  <si>
-    <t>622701342</t>
-  </si>
-  <si>
-    <t>621294274</t>
-  </si>
-  <si>
-    <t>621275053</t>
-  </si>
-  <si>
-    <t>569152195</t>
-  </si>
-  <si>
-    <t>561095224</t>
-  </si>
-  <si>
-    <t>552726239</t>
-  </si>
-  <si>
-    <t>546389135</t>
-  </si>
-  <si>
-    <t>534629756</t>
-  </si>
-  <si>
-    <t>533786114</t>
-  </si>
-  <si>
-    <t>532519734</t>
-  </si>
-  <si>
-    <t>526618968</t>
-  </si>
-  <si>
-    <t>514364035</t>
-  </si>
-  <si>
-    <t>513362446</t>
-  </si>
-  <si>
-    <t>512794599</t>
-  </si>
-  <si>
-    <t>506276025</t>
-  </si>
-  <si>
-    <t>491842872</t>
-  </si>
-  <si>
-    <t>489408251</t>
-  </si>
-  <si>
-    <t>22991.1277784237</t>
-  </si>
-  <si>
-    <t>1588.92743556015</t>
-  </si>
-  <si>
-    <t>0.9956516274430406</t>
-  </si>
-  <si>
-    <t>0.9969275606603109</t>
-  </si>
-  <si>
-    <t>303.3642854281451</t>
-  </si>
-  <si>
-    <t>0.38818389037150736</t>
-  </si>
-  <si>
-    <t>0.99608142104997</t>
-  </si>
-  <si>
-    <t>0.390300507068998</t>
-  </si>
-  <si>
-    <t>0.08662779574202462</t>
-  </si>
-  <si>
-    <t>1.277952862179521</t>
-  </si>
-  <si>
-    <t>44.265400273130055</t>
-  </si>
-  <si>
-    <t>22.66444446803684</t>
-  </si>
-  <si>
-    <t>0.000013277852784338</t>
-  </si>
-  <si>
-    <t>6.321195693006275</t>
-  </si>
-  <si>
-    <t>6.9417876303698</t>
-  </si>
-  <si>
-    <t>97.60111415911202</t>
-  </si>
-  <si>
-    <t>1592.4012990243616</t>
-  </si>
-  <si>
-    <t>0.06928582667113013</t>
-  </si>
-  <si>
-    <t>18.75488527919878</t>
-  </si>
-  <si>
-    <t>6.629055988977463</t>
-  </si>
-  <si>
-    <t>0.9997447325582847</t>
-  </si>
-  <si>
-    <t>13.553821231526365</t>
-  </si>
-  <si>
-    <t>22978.515842621906</t>
-  </si>
-  <si>
-    <t>2.3000561059623346</t>
-  </si>
-  <si>
-    <t>2.7228324187723953</t>
-  </si>
-  <si>
-    <t>21.465177562177555</t>
-  </si>
-  <si>
-    <t>162.19900498638805</t>
-  </si>
-  <si>
-    <t>5.110109856821863</t>
-  </si>
-  <si>
-    <t>127.56961979706999</t>
-  </si>
-  <si>
-    <t>1.2070737193643202</t>
-  </si>
-  <si>
-    <t>0.08681516234915472</t>
-  </si>
-  <si>
-    <t>1762.673143330775</t>
-  </si>
-  <si>
-    <t>10.879463918557057</t>
-  </si>
-  <si>
-    <t>14.750640178105082</t>
-  </si>
-  <si>
-    <t>0.26676026946417736</t>
-  </si>
-  <si>
-    <t>1.460585389784765</t>
-  </si>
-  <si>
-    <t>0.08688743845660549</t>
-  </si>
-  <si>
-    <t>5.277944475609176</t>
-  </si>
-  <si>
-    <t>5.769308130885789</t>
-  </si>
-  <si>
-    <t>0.024636153394411924</t>
-  </si>
-  <si>
-    <t>0.7172015325327429</t>
-  </si>
-  <si>
-    <t>0.6867111212161694</t>
-  </si>
-  <si>
-    <t>14.721714993269913</t>
-  </si>
-  <si>
-    <t>4.142825286e-9</t>
-  </si>
-  <si>
-    <t>2.3198824378266654</t>
-  </si>
-  <si>
-    <t>4.040519931779681</t>
-  </si>
-  <si>
-    <t>143.1009626023289</t>
-  </si>
-  <si>
-    <t>0.9971605982816983</t>
-  </si>
-  <si>
-    <t>1.3410989527849502</t>
-  </si>
-  <si>
-    <t>0.07774254644718197</t>
-  </si>
-  <si>
-    <t>84.22484335241117</t>
-  </si>
-  <si>
-    <t>0.000171066287986472</t>
-  </si>
-  <si>
-    <t>1.0858010025111122</t>
-  </si>
-  <si>
-    <t>1.1157393313896025</t>
-  </si>
-  <si>
-    <t>45.20299239059544</t>
-  </si>
-  <si>
-    <t>1.9729358490032052</t>
-  </si>
-  <si>
-    <t>0.13776680164082183</t>
-  </si>
-  <si>
-    <t>1.0581789430113495</t>
-  </si>
-  <si>
-    <t>0.9939664803696238</t>
-  </si>
-  <si>
-    <t>1.1005326361942287</t>
-  </si>
-  <si>
-    <t>160.1215632724592</t>
-  </si>
-  <si>
-    <t>0.5395598872329486</t>
-  </si>
-  <si>
-    <t>1.1868324593594581</t>
-  </si>
-  <si>
-    <t>0.17967924237383692</t>
-  </si>
-  <si>
-    <t>1.097261613092488</t>
-  </si>
-  <si>
-    <t>1.3500770983543924</t>
-  </si>
-  <si>
-    <t>0.9971498967954243</t>
-  </si>
-  <si>
-    <t>2.520602365718302</t>
-  </si>
-  <si>
-    <t>41.07432442317067</t>
-  </si>
-  <si>
-    <t>0.2209987069363643</t>
-  </si>
-  <si>
-    <t>69.44003411711054</t>
-  </si>
-  <si>
-    <t>0.003741513449090995</t>
-  </si>
-  <si>
-    <t>0.9894637719237654</t>
-  </si>
-  <si>
-    <t>5.438395688666772</t>
-  </si>
-  <si>
-    <t>728.6242022164369</t>
-  </si>
-  <si>
-    <t>44.30917481895457</t>
-  </si>
-  <si>
-    <t>7.2087789183e-7</t>
-  </si>
-  <si>
-    <t>0.23953642583539173</t>
-  </si>
-  <si>
-    <t>0.000034616451916978</t>
-  </si>
-  <si>
-    <t>4.4196273746261605</t>
-  </si>
-  <si>
-    <t>0.030260848384202843</t>
-  </si>
-  <si>
-    <t>0.06364315275207105</t>
-  </si>
-  <si>
-    <t>0.03190167707168638</t>
-  </si>
-  <si>
-    <t>8.828886175156976</t>
-  </si>
-  <si>
-    <t>8.21364301436899</t>
-  </si>
-  <si>
-    <t>10.200304605067075</t>
-  </si>
-  <si>
-    <t>1.0099272515543525</t>
-  </si>
-  <si>
-    <t>0.022174498550274577</t>
-  </si>
-  <si>
-    <t>2.573832130761355</t>
-  </si>
-  <si>
-    <t>85.29214736471806</t>
-  </si>
-  <si>
-    <t>1.6255327305679508</t>
-  </si>
-  <si>
-    <t>0.4311920938655909</t>
-  </si>
-  <si>
-    <t>0.2175273170371505</t>
-  </si>
-  <si>
-    <t>1.7509888888289835</t>
-  </si>
-  <si>
-    <t>0.030477056417303226</t>
-  </si>
-  <si>
-    <t>0.996198954158225</t>
-  </si>
-  <si>
-    <t>11.700796416621134</t>
-  </si>
-  <si>
-    <t>6.328766754867294</t>
-  </si>
-  <si>
-    <t>0.43981059131398476</t>
-  </si>
-  <si>
-    <t>4.89413144764e-7</t>
+    <t>https://cdn.coinranking.com/nqAP4gRwW/osmosis.png</t>
+  </si>
+  <si>
+    <t>472458503871</t>
+  </si>
+  <si>
+    <t>206099966802</t>
+  </si>
+  <si>
+    <t>65634692518</t>
+  </si>
+  <si>
+    <t>44868642482</t>
+  </si>
+  <si>
+    <t>43927809537</t>
+  </si>
+  <si>
+    <t>19612411735</t>
+  </si>
+  <si>
+    <t>14132710452</t>
+  </si>
+  <si>
+    <t>13470874171</t>
+  </si>
+  <si>
+    <t>13281185187</t>
+  </si>
+  <si>
+    <t>13026393048</t>
+  </si>
+  <si>
+    <t>11963804787</t>
+  </si>
+  <si>
+    <t>9153628946</t>
+  </si>
+  <si>
+    <t>9034594969</t>
+  </si>
+  <si>
+    <t>7952484705</t>
+  </si>
+  <si>
+    <t>7951384860</t>
+  </si>
+  <si>
+    <t>7229289893</t>
+  </si>
+  <si>
+    <t>6988024842</t>
+  </si>
+  <si>
+    <t>6547004808</t>
+  </si>
+  <si>
+    <t>5979147086</t>
+  </si>
+  <si>
+    <t>5846774877</t>
+  </si>
+  <si>
+    <t>5235800347</t>
+  </si>
+  <si>
+    <t>4691535528</t>
+  </si>
+  <si>
+    <t>4475127377</t>
+  </si>
+  <si>
+    <t>3520081795</t>
+  </si>
+  <si>
+    <t>3468435856</t>
+  </si>
+  <si>
+    <t>3150865233</t>
+  </si>
+  <si>
+    <t>2952712977</t>
+  </si>
+  <si>
+    <t>2866173040</t>
+  </si>
+  <si>
+    <t>2621039466</t>
+  </si>
+  <si>
+    <t>2611541459</t>
+  </si>
+  <si>
+    <t>2216680192</t>
+  </si>
+  <si>
+    <t>2182903718</t>
+  </si>
+  <si>
+    <t>2161936822</t>
+  </si>
+  <si>
+    <t>2077144871</t>
+  </si>
+  <si>
+    <t>1963486325</t>
+  </si>
+  <si>
+    <t>1953837862</t>
+  </si>
+  <si>
+    <t>1948521933</t>
+  </si>
+  <si>
+    <t>1913661117</t>
+  </si>
+  <si>
+    <t>1850352540</t>
+  </si>
+  <si>
+    <t>1844840711</t>
+  </si>
+  <si>
+    <t>1800777038</t>
+  </si>
+  <si>
+    <t>1775392446</t>
+  </si>
+  <si>
+    <t>1678861267</t>
+  </si>
+  <si>
+    <t>1580022264</t>
+  </si>
+  <si>
+    <t>1576813865</t>
+  </si>
+  <si>
+    <t>1460697222</t>
+  </si>
+  <si>
+    <t>1402904206</t>
+  </si>
+  <si>
+    <t>1381913451</t>
+  </si>
+  <si>
+    <t>1348639423</t>
+  </si>
+  <si>
+    <t>1308933131</t>
+  </si>
+  <si>
+    <t>1302282689</t>
+  </si>
+  <si>
+    <t>1236365885</t>
+  </si>
+  <si>
+    <t>1233956883</t>
+  </si>
+  <si>
+    <t>1203623200</t>
+  </si>
+  <si>
+    <t>1137281087</t>
+  </si>
+  <si>
+    <t>1118763151</t>
+  </si>
+  <si>
+    <t>1089017859</t>
+  </si>
+  <si>
+    <t>1077430268</t>
+  </si>
+  <si>
+    <t>1061532163</t>
+  </si>
+  <si>
+    <t>1011733900</t>
+  </si>
+  <si>
+    <t>937910215</t>
+  </si>
+  <si>
+    <t>931612888</t>
+  </si>
+  <si>
+    <t>916270073</t>
+  </si>
+  <si>
+    <t>906620067</t>
+  </si>
+  <si>
+    <t>882323273</t>
+  </si>
+  <si>
+    <t>857874801</t>
+  </si>
+  <si>
+    <t>830317630</t>
+  </si>
+  <si>
+    <t>828290451</t>
+  </si>
+  <si>
+    <t>813847532</t>
+  </si>
+  <si>
+    <t>784008522</t>
+  </si>
+  <si>
+    <t>762083286</t>
+  </si>
+  <si>
+    <t>751928361</t>
+  </si>
+  <si>
+    <t>751666034</t>
+  </si>
+  <si>
+    <t>745714508</t>
+  </si>
+  <si>
+    <t>738184148</t>
+  </si>
+  <si>
+    <t>730923926</t>
+  </si>
+  <si>
+    <t>725917059</t>
+  </si>
+  <si>
+    <t>725861018</t>
+  </si>
+  <si>
+    <t>699281381</t>
+  </si>
+  <si>
+    <t>699038913</t>
+  </si>
+  <si>
+    <t>698634892</t>
+  </si>
+  <si>
+    <t>678855095</t>
+  </si>
+  <si>
+    <t>675124385</t>
+  </si>
+  <si>
+    <t>666899778</t>
+  </si>
+  <si>
+    <t>637013233</t>
+  </si>
+  <si>
+    <t>636728595</t>
+  </si>
+  <si>
+    <t>568487643</t>
+  </si>
+  <si>
+    <t>566464789</t>
+  </si>
+  <si>
+    <t>564549752</t>
+  </si>
+  <si>
+    <t>563192253</t>
+  </si>
+  <si>
+    <t>555942588</t>
+  </si>
+  <si>
+    <t>544322716</t>
+  </si>
+  <si>
+    <t>541973036</t>
+  </si>
+  <si>
+    <t>537002147</t>
+  </si>
+  <si>
+    <t>536969756</t>
+  </si>
+  <si>
+    <t>534331549</t>
+  </si>
+  <si>
+    <t>527979666</t>
+  </si>
+  <si>
+    <t>527270795</t>
+  </si>
+  <si>
+    <t>518153145</t>
+  </si>
+  <si>
+    <t>512484601</t>
+  </si>
+  <si>
+    <t>24582.040197722567</t>
+  </si>
+  <si>
+    <t>1688.9986595463613</t>
+  </si>
+  <si>
+    <t>1.004161572175798</t>
+  </si>
+  <si>
+    <t>314.17217979306236</t>
+  </si>
+  <si>
+    <t>1.00342258680381</t>
+  </si>
+  <si>
+    <t>0.3899185837394857</t>
+  </si>
+  <si>
+    <t>0.4032729933448599</t>
+  </si>
+  <si>
+    <t>1.4971339529715826</t>
+  </si>
+  <si>
+    <t>1.003199769109076</t>
+  </si>
+  <si>
+    <t>52.81563102900277</t>
+  </si>
+  <si>
+    <t>0.0874305891680403</t>
+  </si>
+  <si>
+    <t>25.20568056865448</t>
+  </si>
+  <si>
+    <t>7.5406109299786</t>
+  </si>
+  <si>
+    <t>7.953204668934525</t>
+  </si>
+  <si>
+    <t>0.000013487012889998</t>
+  </si>
+  <si>
+    <t>1690.448339067093</t>
+  </si>
+  <si>
+    <t>98.60995480489063</t>
+  </si>
+  <si>
+    <t>0.0710484537450791</t>
+  </si>
+  <si>
+    <t>19.882701997473884</t>
+  </si>
+  <si>
+    <t>7.27859258567026</t>
+  </si>
+  <si>
+    <t>1.0032516999275682</t>
+  </si>
+  <si>
+    <t>14.255760736543802</t>
+  </si>
+  <si>
+    <t>24585.049251037137</t>
+  </si>
+  <si>
+    <t>3.0115699781064844</t>
+  </si>
+  <si>
+    <t>2.3537296910530254</t>
+  </si>
+  <si>
+    <t>22.801517045611693</t>
+  </si>
+  <si>
+    <t>162.17634461616186</t>
+  </si>
+  <si>
+    <t>8.755091660210237</t>
+  </si>
+  <si>
+    <t>137.00196956831385</t>
+  </si>
+  <si>
+    <t>5.223082930151407</t>
+  </si>
+  <si>
+    <t>1881.0398339039602</t>
+  </si>
+  <si>
+    <t>0.08824011618958327</t>
+  </si>
+  <si>
+    <t>7.458278014819199</t>
+  </si>
+  <si>
+    <t>1.0385724374817407</t>
+  </si>
+  <si>
+    <t>1.9634863251176258</t>
+  </si>
+  <si>
+    <t>0.02926626971977626</t>
+  </si>
+  <si>
+    <t>0.274327315426963</t>
+  </si>
+  <si>
+    <t>10.789082382483503</t>
+  </si>
+  <si>
+    <t>14.233481074493445</t>
+  </si>
+  <si>
+    <t>0.0913037815976432</t>
+  </si>
+  <si>
+    <t>0.7853278939520746</t>
+  </si>
+  <si>
+    <t>1.4624342433101276</t>
+  </si>
+  <si>
+    <t>16.788612668272897</t>
+  </si>
+  <si>
+    <t>0.720413751008919</t>
+  </si>
+  <si>
+    <t>2.594108033378455</t>
+  </si>
+  <si>
+    <t>4.201382189152919</t>
+  </si>
+  <si>
+    <t>1.0026802770163312</t>
+  </si>
+  <si>
+    <t>1.333635833512128</t>
+  </si>
+  <si>
+    <t>137.9366748070423</t>
+  </si>
+  <si>
+    <t>90.96524877173843</t>
+  </si>
+  <si>
+    <t>0.07977473673790988</t>
+  </si>
+  <si>
+    <t>1.2507303563227887</t>
+  </si>
+  <si>
+    <t>51.669588290216524</t>
+  </si>
+  <si>
+    <t>1.2036335972325571</t>
+  </si>
+  <si>
+    <t>3.220020413e-9</t>
+  </si>
+  <si>
+    <t>0.000169537371054534</t>
+  </si>
+  <si>
+    <t>1.1870345764930108</t>
+  </si>
+  <si>
+    <t>0.14177356999416718</t>
+  </si>
+  <si>
+    <t>173.97848109371455</t>
+  </si>
+  <si>
+    <t>0.9958523288696758</t>
+  </si>
+  <si>
+    <t>0.2632570481319148</t>
+  </si>
+  <si>
+    <t>1.748659249139175</t>
+  </si>
+  <si>
+    <t>1.2136672651071767</t>
+  </si>
+  <si>
+    <t>0.5274172647010449</t>
+  </si>
+  <si>
+    <t>1.4446155978313617</t>
+  </si>
+  <si>
+    <t>0.3504305884386106</t>
+  </si>
+  <si>
+    <t>0.17170828367882637</t>
+  </si>
+  <si>
+    <t>2.633412038223742</t>
+  </si>
+  <si>
+    <t>42.444633488382664</t>
+  </si>
+  <si>
+    <t>71.09572806141794</t>
+  </si>
+  <si>
+    <t>1.0075834966284587</t>
+  </si>
+  <si>
+    <t>10.661113872667238</t>
+  </si>
+  <si>
+    <t>47.56461781977932</t>
+  </si>
+  <si>
+    <t>0.003728572541861767</t>
+  </si>
+  <si>
+    <t>5.626897464375995</t>
+  </si>
+  <si>
+    <t>1.002706044503044</t>
+  </si>
+  <si>
+    <t>1.0008065594936557</t>
+  </si>
+  <si>
+    <t>742.4114529978806</t>
+  </si>
+  <si>
+    <t>0.251582573323545</t>
+  </si>
+  <si>
+    <t>7.39468523044e-7</t>
+  </si>
+  <si>
+    <t>0.000036429054533805</t>
+  </si>
+  <si>
+    <t>8.974609362034201</t>
+  </si>
+  <si>
+    <t>0.0321487802463416</t>
+  </si>
+  <si>
+    <t>10.949386819518116</t>
+  </si>
+  <si>
+    <t>0.0646583001724713</t>
+  </si>
+  <si>
+    <t>0.03252245857874412</t>
+  </si>
+  <si>
+    <t>1.30029199640187</t>
+  </si>
+  <si>
+    <t>2.63780723623016</t>
+  </si>
+  <si>
+    <t>1.0025159472179466</t>
+  </si>
+  <si>
+    <t>12.850755265623686</t>
+  </si>
+  <si>
+    <t>0.3971015646724259</t>
+  </si>
+  <si>
+    <t>0.03225216578498195</t>
+  </si>
+  <si>
+    <t>30.434833810048474</t>
+  </si>
+  <si>
+    <t>0.43379000355722</t>
+  </si>
+  <si>
+    <t>6.712457572078346</t>
+  </si>
+  <si>
+    <t>83.34954379428832</t>
+  </si>
+  <si>
+    <t>1.605313242750356</t>
+  </si>
+  <si>
+    <t>1.7531561901657933</t>
+  </si>
+  <si>
+    <t>5.18158326176e-7</t>
+  </si>
+  <si>
+    <t>1.048550805670612</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>-0.70</t>
+  </si>
+  <si>
+    <t>-0.19</t>
+  </si>
+  <si>
+    <t>-0.49</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>1.94</t>
+  </si>
+  <si>
+    <t>-1.13</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>-1.38</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>-0.07</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>-2.49</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>-0.10</t>
   </si>
   <si>
     <t>0.92</t>
   </si>
   <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>-0.46</t>
-  </si>
-  <si>
-    <t>-0.31</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>-0.40</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>1.32</t>
-  </si>
-  <si>
-    <t>0.84</t>
-  </si>
-  <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>0.29</t>
-  </si>
-  <si>
-    <t>0.30</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>-0.05</t>
+    <t>-0.12</t>
+  </si>
+  <si>
+    <t>-0.14</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>-0.18</t>
   </si>
   <si>
     <t>0.25</t>
   </si>
   <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>-0.37</t>
-  </si>
-  <si>
-    <t>-0.21</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>-0.27</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>-0.08</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
-    <t>0.42</t>
-  </si>
-  <si>
-    <t>0.79</t>
-  </si>
-  <si>
-    <t>-0.22</t>
-  </si>
-  <si>
-    <t>-0.32</t>
-  </si>
-  <si>
-    <t>1.06</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>0.70</t>
-  </si>
-  <si>
-    <t>1.30</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>-0.11</t>
-  </si>
-  <si>
-    <t>0.60</t>
-  </si>
-  <si>
-    <t>-0.10</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>3.53</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
-    <t>1.21</t>
-  </si>
-  <si>
-    <t>-0.28</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>-0.12</t>
-  </si>
-  <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>-0.17</t>
-  </si>
-  <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>1.01</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>0.40</t>
-  </si>
-  <si>
-    <t>0.50</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>1.46</t>
-  </si>
-  <si>
-    <t>3.34</t>
-  </si>
-  <si>
-    <t>0.90</t>
-  </si>
-  <si>
-    <t>1.18</t>
-  </si>
-  <si>
-    <t>1.35</t>
-  </si>
-  <si>
-    <t>-0.13</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>2.82</t>
-  </si>
-  <si>
-    <t>['22793.8329842283', '22798.78856656065', '22812.98364365462', '22816.852241702654', '22823.418603759575', '22854.875613028416', '22861.557985404714', '22827.849501022374', '22851.05593158104', '22883.165756318827', '22886.424767369062', '22899.199019265627', '22901.02744457999', '22905.320555632672', '22906.005991080267', '22907.52587047473', '22912.96476908145', '22915.24317920371', '22921.3823526571', '22923.324713972623', '22919.99067745309', '22905.825734354552', '22908.105827478445', '22952.83963259222', '22988.125600048326']</t>
-  </si>
-  <si>
-    <t>['1580.0598105805034', '1580.255844719042', '1580.844686220092', '1581.2023422417644', '1582.1734261040351', '1583.2482127806632', '1582.8923380043072', '1581.6299561415772', '1582.5929026934725', '1583.2383918752926', '1583.3694217682491', '1584.638085407023', '1585.049193790559', '1584.969891229401', '1584.5765293528773', '1584.5358903828276', '1584.7682575511035', '1585.4454372734995', '1587.1466953207773', '1587.6749870618585', '1587.110117997573', '1586.1204775260076', '1586.2815901806155', '1587.4422802308136', '1588.8792737430167']</t>
-  </si>
-  <si>
-    <t>['0.9998491835190165', '0.9998328662643674', '0.9996383193379472', '0.9995199953180454', '0.9996303941987235', '0.9991204708857204', '0.9989091498642474', '1.000050500661851', '0.9992279100400624', '0.9980632785915539', '0.9978171873937567', '0.99782617874384', '0.9977226296866191', '0.9976427375125237', '0.9975787361425066', '0.9976076271237077', '0.9976932119074953', '0.9975450375513841', '0.9973984480439809', '0.9973770753117301', '0.997589770516498', '0.9982930196488138', '0.9982513876142877', '0.996941584240612', '0.9957897321786872']</t>
-  </si>
-  <si>
-    <t>['1.0000517030288574', '0.9999012140176351', '0.99988464681797', '0.9994164102193133', '0.999290934296588', '0.999199710996965', '0.9991614512317533', '0.9993460440061477', '0.9996262214433735', '0.9993670448118902', '0.9982476843954596', '0.9980112161740434', '0.9977898061561137', '0.997828668920403', '0.9977659649654428', '0.9975327525514441', '0.9974265305399261', '0.9974089092398146', '0.9973767076407922', '0.9974644936208823', '0.9977381441954835', '0.9978132892819378', '0.9979920256954116', '0.9980496973810442', '0.997109895969772']</t>
-  </si>
-  <si>
-    <t>['302.80981434727516', '302.6379489638992', '302.6898709122362', '302.855112432777', '302.83487662521975', '302.86048241586946', '303.34407970788', '303.10266095930933', '302.8357822335318', '302.9734331944624', '302.6901934540279', '302.5401756835556', '302.8705546130826', '302.97569419532715', '302.9567575304269', '302.8556081603533', '302.8496590878624', '303.0493016277878', '303.2398862170335', '303.312393792263', '303.25053989341825', '303.09582209077575', '302.92926756799477', '303.034537601846', '303.19396208256165']</t>
-  </si>
-  <si>
-    <t>['0.38585444670093094', '0.38585911051179406', '0.38594037754065874', '0.3861385613267519', '0.38621198808344737', '0.38627970805317263', '0.3863305081694469', '0.3867457241991039', '0.3869030602002108', '0.38701291239370894', '0.38699360894024504', '0.3868421520770484', '0.38692351403030417', '0.3873581639248333', '0.3875074781867366', '0.38757889144249824', '0.38758324764003155', '0.38763058064216316', '0.3878423141509375', '0.38794547590191025', '0.38783555894125693', '0.3876862880545185', '0.3877138979464575', '0.38800636486404566', '0.38815305764123115']</t>
-  </si>
-  <si>
-    <t>['0.9997975037953596', '0.9996588747816666', '0.9998812326198449', '0.9994699495606013', '0.9987124497017313', '0.9984926654195929', '0.9984191553963059', '0.9994503603391852', '0.9990272203322921', '0.9983794864390034', '0.9982760019344397', '0.9974112976076872', '0.9974140038128172', '0.997269973812462', '0.9972115695208346', '0.9971649618192436', '0.9973609076661452', '0.997351772992074', '0.9971439886248472', '0.9969218029797275', '0.9970165337748963', '0.9980163131753611', '0.997954255203355', '0.9969242874470703', '0.99607090812166']</t>
-  </si>
-  <si>
-    <t>['0.388557918366779', '0.38873252509664513', '0.3889500213663191', '0.38912824553063813', '0.3893978750945311', '0.3898495397974916', '0.38990865161285543', '0.38984662606244525', '0.3898529231137179', '0.38973470920396996', '0.389789348404631', '0.3899834459793747', '0.3900869524744164', '0.3902713135889196', '0.39030267240457583', '0.3902882259981117', '0.3902880517109976', '0.39041568800591303', '0.3906261349252636', '0.39060736536839946', '0.39053360303260864', '0.3905038574368867', '0.39043558033318354', '0.3901791292621172', '0.39028295517569866']</t>
-  </si>
-  <si>
-    <t>['0.08632256976359107', '0.08634010818796943', '0.08640288926066954', '0.08642417017490465', '0.08645084629649546', '0.08648661169127096', '0.08647557636490769', '0.08642917186823722', '0.0865040172360133', '0.08656487888693581', '0.08656173370975843', '0.0865500966228293', '0.08654648771071846', '0.08649639370269949', '0.08647076943778877', '0.08645145147364888', '0.0865101532204633', '0.08653393218586793', '0.08654974365178283', '0.08651767409377026', '0.08649140120239879', '0.08639531546584638', '0.08640983912570663', '0.08653083892155138', '0.08661944422781916']</t>
-  </si>
-  <si>
-    <t>['1.271392035012212', '1.2715489640799238', '1.2721572011077358', '1.2728533936095257', '1.2738792021409424', '1.2751527712857957', '1.2751382140431864', '1.2730779421444707', '1.2735156403012882', '1.2743649644461224', '1.2750925083996048', '1.2767546990132557', '1.2764876298186856', '1.2762190642010005', '1.2759338982914348', '1.2760812905627708', '1.2768518775578503', '1.2769602827356066', '1.2771326045087945', '1.2770605257199608', '1.2762726539745666', '1.2753446294072934', '1.2753633483753528', '1.2765092871572035', '1.2778327780090957']</t>
-  </si>
-  <si>
-    <t>['44.161916507120395', '44.12778188599692', '44.17504155096339', '44.20700267748856', '44.27386807145673', '44.3179510873606', '44.257715194477065', '44.161970255835755', '44.200913864683805', '44.302724208234885', '44.34299780260259', '44.3712965546158', '44.29548981870442', '44.16965528389736', '44.142566340580245', '44.13846539806505', '44.184416594296025', '44.149165536339915', '44.151814334792974', '44.152980806249545', '44.14725547277805', '44.16659907828193', '44.20393431004235', '44.26000866356801', '44.28555944755213']</t>
-  </si>
-  <si>
-    <t>['22.388400629742303', '22.395477213427988', '22.406177328335435', '22.41890127835445', '22.440334997957034', '22.461823463132873', '22.468790946090042', '22.47749290735919', '22.485630195943784', '22.503577394171074', '22.52573024253512', '22.583999490001432', '22.58150647875701', '22.575823275057267', '22.573684989919062', '22.576852612971575', '22.609793495935126', '22.61100798990046', '22.620357486475456', '22.628591017437934', '22.61945570219727', '22.6024990692406', '22.604077007113624', '22.63071081350997', '22.664464944757956']</t>
-  </si>
-  <si>
-    <t>['0.000013179638772098', '0.000013183084717635', '0.000013184101449179', '0.000013196637055457', '0.000013212794862692', '0.000013218824366817', '0.000013216407361137', '0.000013194952511395', '0.000013206635601415', '0.000013219625150919', '0.000013222490179724', '0.000013230121622095', '0.000013233880902674', '0.000013246836607856', '0.000013251685910108', '0.000013251959547626', '0.00001325224192083', '0.000013252662724028', '0.000013265560398262', '0.000013268699587747', '0.000013263272329169', '0.000013243967030954', '0.000013242485583574', '0.000013264202446534', '0.00001327803139043']</t>
-  </si>
-  <si>
-    <t>['6.300662118983982', '6.30255447951005', '6.306867837531096', '6.311497167467178', '6.315551828609959', '6.317831638966865', '6.316079038913426', '6.308168447147444', '6.312443317748283', '6.315729817517274', '6.316887941002807', '6.314384652835631', '6.312012375377174', '6.307033315858352', '6.304698774814232', '6.304934241932005', '6.307908176677727', '6.309759707321917', '6.316154864470781', '6.317679232430585', '6.316493346416517', '6.315272281821137', '6.315704088848685', '6.319094156042981', '6.320624658145392']</t>
-  </si>
-  <si>
-    <t>['6.9234337280293605', '6.923579916091606', '6.926821575080597', '6.927871472232483', '6.931765695977868', '6.938620897485729', '6.93927414239146', '6.939821869681493', '6.944555928879907', '6.946153137578605', '6.944580783508244', '6.944517576679297', '6.943435095475268', '6.939181496071341', '6.935962203566741', '6.934826957835108', '6.937420430801466', '6.938758204387578', '6.942066908362071', '6.942155118752934', '6.939422178200501', '6.9340829983358585', '6.934680340947729', '6.9383451708835056', '6.941629977513109']</t>
-  </si>
-  <si>
-    <t>['97.35089289675955', '97.3658261145817', '97.42498371327714', '97.43329724445624', '97.44350742395315', '97.4858701368721', '97.49155097171608', '97.55163258684378', '97.60547807536616', '97.60280592172239', '97.60262237821433', '97.57211579132047', '97.53626649673664', '97.4771721824616', '97.43369267609485', '97.4323648082163', '97.4592603353516', '97.5145986836409', '97.57165244124472', '97.5967970146565', '97.56455926130702', '97.52341682829034', '97.52667127683353', '97.57054705517413', '97.59711647314637']</t>
-  </si>
-  <si>
-    <t>['1584.2369326867602', '1581.7584852200116', '1579.3776183405266', '1586.1076435055586', '1592.117496148059', '1589.3713749189042', '1589.771619279321', '1590.1088119976396', '1588.1043394760661', '1588.113298147597', '1587.3831316997885', '1585.560856541049', '1582.116288790962', '1584.189420186707', '1587.185491758363', '1581.941699932752', '1581.6508401672952', '1587.3307388089072', '1591.4906866697872', '1589.821395908051', '1588.6272351981947', '1588.6777482113007', '1589.548303228854', '1589.8808491790326', None]</t>
-  </si>
-  <si>
-    <t>['0.06927497755808486', '0.06925942629731163', '0.06924674431552105', '0.06925389742706564', '0.06926447271959366', '0.06931603976802467', '0.0693031449687276', '0.069251416618852', '0.06925864064345481', '0.06923685499503414', '0.06921252901161316', '0.06915740450589843', '0.06914082370184534', '0.06908967211875798', '0.06908424594082965', '0.06908262869561603', '0.06907586715004409', '0.06909159267939458', '0.06917386176136825', '0.06920852964907782', '0.06920853955704256', '0.06923400187225365', '0.06925527299901689', '0.06929595049849469', '0.06928251532176692']</t>
-  </si>
-  <si>
-    <t>['18.59876091589286', '18.606327604409294', '18.62616010042079', '18.634009397099188', '18.6437140240332', '18.65991182601536', '18.665275426236658', '18.65979215215473', '18.673529159169146', '18.69054247191161', '18.688006724716246', '18.69275866369969', '18.69261217222403', '18.684627440675282', '18.67872287108725', '18.6736256016281', '18.673568342810814', '18.679680545486363', '18.703345762930876', '18.716312603753703', '18.71418462241876', '18.713398865009587', '18.717337940302354', '18.733321563105807', '18.746775464033533']</t>
-  </si>
-  <si>
-    <t>['6.5861015833068635', '6.5885303804215605', '6.592469750146724', '6.594185260661514', '6.597923333935286', '6.603064648518206', '6.603524409012177', '6.597726325333768', '6.600000208951344', '6.603296876901402', '6.605525241920201', '6.609758987737645', '6.610613973278648', '6.609749157436778', '6.6064712297628105', '6.606761546521282', '6.608332256523016', '6.610369482246865', '6.613941926084821', '6.614346635554232', '6.615216970404508', '6.615708999356518', '6.618704656948817', '6.62126902872618', '6.62709612703237']</t>
-  </si>
-  <si>
-    <t>['1.000215812695111', '0.9998888146477377', '1.0007242642214036', '1.0022923178037275', '1.0031330268486536', '1.0037037018437658', '1.0033519608580175', '1.0035761999528279', '1.003260864859145', '1.002599963706854', '1.0023172947692998', '1.002193790551559', '1.001243246551662', '1.0008855532495207', '1.0007799404813007', '1.000607698196803', '1.0004919195592277', '1.0004371342665466', '1.0002980953026694', '1.0005109461668211', '1.0009105420832038', '1.0010420733594123', '1.0009006866179364', '1.0009155748111318', '1.0001890068968904']</t>
-  </si>
-  <si>
-    <t>['13.534803351172009', '13.538669623236101', '13.538792574575975', '13.545032388191224', '13.55267099565376', '13.564082739910281', '13.567551520614387', '13.571862941661209', '13.579357745639301', '13.584133316815025', '13.585039806079534', '13.578242130995177', '13.574714432785765', '13.56588742178658', '13.556525662364514', '13.548393853474412', '13.534295777328557', '13.534792442163141', '13.543622320055325', '13.546626321359994', '13.546893274933092', '13.54526045245857', '13.54497996739012', '13.549405799997398', '13.552114210926364']</t>
-  </si>
-  <si>
-    <t>['22792.01597923418', '22805.913499298724', '22814.637084158687', '22820.809625737398', '22815.320897420286', '22858.9952234575', '22860.448220960283', '22833.468150579618', '22842.04929954205', '22872.705915359347', '22887.556637908976', '22898.875118359938', '22896.7197870379', '22910.72906593346', '22912.921847344143', '22912.08162859679', '22919.131246451972', '22919.971592285197', '22926.98494407792', '22930.71945742776', '22920.554300507723', '22905.728573829983', '22908.919253751326', '22945.39912493118', '22974.714197188372']</t>
-  </si>
-  <si>
-    <t>['2.307757810531778', '2.3020763241013857', '2.297561163225609', '2.2972493048995672', '2.297364477996224', '2.2969903199469464', '2.2933223987543463', '2.2898418064299415', '2.289114579878784', '2.2881391994985645', '2.286797684787511', '2.2862995223660922', '2.28685777215654', '2.2886747320453953', '2.288570173733659', '2.2929577404793986', '2.295667746837833', '2.2960725217187448', '2.3000413270833677', '2.3003308201436696', '2.296775782719615', '2.2944788695735854', '2.2954257254176205', '2.2998444731944514', '2.3005146436317387']</t>
-  </si>
-  <si>
-    <t>['2.7325686539919896', '2.731274471920268', '2.7218978900334507', '2.719567223887015', '2.7184765623620653', '2.7187166563365905', '2.7185446564557534', '2.718073624933543', '2.718488938150247', '2.717580571446757', '2.7172751587353523', '2.7146012722283874', '2.713713575067849', '2.712359116372361', '2.7111724968455735', '2.7102135959670846', '2.7049594671032136', '2.704742861788719', '2.708172807040283', '2.7102814855273243', '2.711782935187251', '2.717081588135524', '2.7180755110532204', '2.7210595959306363', '2.722476240857554']</t>
-  </si>
-  <si>
-    <t>['21.454251113046713', '21.460845365529504', '21.477993505911773', '21.472048040012023', '21.474178893218305', '21.488393107955545', '21.487834405952317', '21.48339511017476', '21.495820206090865', '21.491874590184803', '21.489858130724944', '21.486320657040082', '21.483242922899322', '21.473541769458986', '21.463227617323334', '21.45594277070033', '21.455778182130164', '21.457552737705484', '21.462643735203415', '21.460535809993008', '21.466019888440893', '21.486551556624967', '21.489323010885244', '21.47365368687801', '21.468556061308092']</t>
-  </si>
-  <si>
-    <t>['161.9967643881188', '161.95744030328493', '161.88275523848662', '161.89184427855741', '161.908881835252', '161.9642507207031', '161.9434755754729', '161.8775512706014', '161.8679571117517', '161.81808945303322', '161.82288433056894', '161.85953360097153', '161.84891873088515', '161.90670027287084', '161.91231097883838', '161.91282633218216', '161.90604616375967', '161.9166523892854', '161.99011795720884', '162.04041052277358', '162.05771174621853', '162.1986021568048', '162.2210307101976', '162.27509977693063', '162.203675804413']</t>
-  </si>
-  <si>
-    <t>['5.094955020913262', '5.098038508013388', '5.103058464314923', '5.104511108310705', '5.101220278892508', '5.099226799180008', '5.102988564677457', '5.103235594443559', '5.100209816860181', '5.101452098481222', '5.106448950106148', '5.10538789534404', '5.103892236305257', '5.109872351471951', '5.10778951664134', '5.107800230527965', '5.108986301298988', '5.107064438967652', '5.105990156262551', '5.105259593148194', '5.102905770395457', '5.1034136760792155', '5.1052590986884665', '5.110346810417898', '5.111232922169005']</t>
-  </si>
-  <si>
-    <t>['127.29940101053329', '127.28052651545542', '127.33652784103164', '127.42677738552457', '127.51069270076793', '127.56725689970698', '127.50052020055256', '127.47424732006768', '127.46880287550461', '127.35586351692645', '127.38321296815323', '127.4698315763798', '127.47748278889635', '127.47846364184362', '127.39314960418481', '127.3684070064762', '127.418737065604', '127.46544517820814', '127.50534079840097', '127.49131740272279', '127.53591135378443', '127.69267991048908', '127.73053057952265', '127.64097133344788', '127.64192647143776']</t>
-  </si>
-  <si>
-    <t>['1.204579759375709', '1.204765902115712', '1.2000808670326641', '1.2013425553736883', '1.2050610344204575', '1.2076576014663076', '1.2078063824380743', '1.204633066684041', '1.2077986166623391', '1.2114875248342059', '1.2118099274089464', '1.2117524075638801', '1.2108392847915734', '1.2098797241282386', '1.2090603565623805', '1.2095061031520178', '1.2094558750617423', '1.2097921874783601', '1.2132922591035828', '1.2151035962850125', '1.2149117170425143', '1.2111297332699138', '1.2104548168434799', '1.2075349964237125', '1.207004678751083']</t>
-  </si>
-  <si>
-    <t>['0.08718577004398724', '0.08713958777707212', '0.08691925636070778', '0.08693783791191279', '0.08696984940136358', '0.08697739823395248', '0.08702090788795026', '0.08705172220576891', '0.08707134604690245', '0.08708958002034362', '0.08702399848367806', '0.08682211159815524', '0.0868201668088406', '0.08672938466272925', '0.08670288321640934', '0.08671727042140608', '0.08672280907068582', '0.08672842574554675', '0.08676235163942723', '0.08677755976831031', '0.08677891402615583', '0.08669283441812728', '0.08668302762463696', '0.08675771039674712', '0.08680173254100641']</t>
-  </si>
-  <si>
-    <t>['1757.3901569266436', '1755.8674172897322', '1751.442638152478', '1755.1060390267853', '1765.918366923843', '1765.176443455678', '1762.9190318565413', '1762.6510781956335', '1761.3872903829797', '1761.2300379308358', '1760.6191434571276', '1759.1698576322583', '1754.700004791075', '1754.9231157301444', '1755.382293449205', '1755.2561586960405', '1754.053492468892', '1756.953510129042', '1765.0970816997049', '1764.9034050959926', '1764.1813574742096', '1763.8646488275997', '1762.9783116804283', '1762.770868589311', None]</t>
-  </si>
-  <si>
-    <t>['10.826849041189172', '10.826067709502656', '10.812755112827697', '10.827764111974151', '10.846192173037485', '10.866261265561931', '10.862533637060617', '10.828059933154066', '10.83815048240969', '10.848907597737231', '10.846057745607585', '10.834095806071783', '10.83285707541022', '10.834172054775117', '10.833598893081652', '10.830589288263237', '10.817553931622493', '10.816723532405357', '10.805681139457326', '10.80142282699767', '10.816566980713501', '10.864302551327102', '10.864143878606223', '10.875749411273295', '10.879811686178808']</t>
-  </si>
-  <si>
-    <t>['14.776589007763839', '14.783102875864545', '14.790976281768723', '14.798901057293975', '14.814160334919983', '14.83224211359315', '14.816895608897493', '14.756473964958953', '14.773868031625856', '14.7888406920404', '14.793135207375098', '14.798110383638178', '14.79382360861895', '14.789815353790656', '14.7792240785161', '14.772895329938217', '14.745687219070957', '14.747058933072474', '14.74765165276131', '14.746947771450765', '14.742829292294253', '14.738188855031048', '14.740379513683406', '14.74629162130245', '14.749456966106013']</t>
-  </si>
-  <si>
-    <t>['0.2657855286011776', '0.26570604387736324', '0.26536821193000437', '0.26589167610629594', '0.26616961096822783', '0.2658328686850867', '0.26567984681522405', '0.26559594074106585', '0.2658415114992882', '0.26596699386011796', '0.26605615513501435', '0.26586884048998355', '0.2657495529600926', '0.26545130381525206', '0.2654540336274586', '0.26534230697166417', '0.26524835650997947', '0.26539138982745974', '0.265571031505109', '0.26581420946815837', '0.26597982127558634', '0.2663540023735728', '0.2663930522656641', '0.2667585318174192', '0.26675498777518875']</t>
-  </si>
-  <si>
-    <t>['1.4519525322406288', '1.4517125472186363', '1.4501310546493273', '1.4487524060658075', '1.449541396897754', '1.4513516441503307', '1.4524885795199285', '1.4537502432465814', '1.4548969203781001', '1.45703362003102', '1.4567654761952353', '1.4562193688793992', '1.4563681178665715', '1.455729969277169', '1.4537906553429154', '1.453711064777335', '1.4542359114850538', '1.455355413223891', '1.456359177765638', '1.4565176892362275', '1.4565876185795676', '1.4565440089675665', '1.457686009530774', '1.4587962639088572', '1.460196466885728']</t>
-  </si>
-  <si>
-    <t>['0.08669983624352348', '0.08670191599121012', '0.08668346780199256', '0.08666974158870798', '0.08667075388202236', '0.08678836960574261', '0.08680527318611621', '0.08678153923139396', '0.08681620388665562', '0.08680474134956975', '0.08679875119919352', '0.08679807669495596', '0.08679601458251192', '0.08678620563487109', '0.0867669336864347', '0.08675540440867036', '0.08672860357173344', '0.08676092044034331', '0.08679191425812162', '0.08679531290224732', '0.08680275746106537', '0.0868421651100636', '0.08685775314509137', '0.08687280405322419', '0.08688564743083119']</t>
-  </si>
-  <si>
-    <t>['5.234768694626989', '5.236629046888497', '5.237944947832798', '5.241290807629116', '5.244965464327751', '5.248809812835383', '5.247939521190387', '5.243464242865312', '5.247987663823842', '5.2507385098179435', '5.253011857021263', '5.255261364369411', '5.253104700224395', '5.251695587057933', '5.250200626602427', '5.250278592485396', '5.250344518960473', '5.2528928423132975', '5.260558753591795', '5.262612978953223', '5.265191732977972', '5.2690822557923696', '5.269072443604603', '5.272640755157512', '5.276959440933339']</t>
-  </si>
-  <si>
-    <t>['5.74699043706625', '5.745504234599744', '5.746876387342781', '5.749633607307633', '5.752425227123327', '5.754830898121293', '5.754385765299423', '5.750822725089057', '5.756488460833559', '5.761337546574234', '5.760331138380748', '5.759726164437726', '5.762011009846495', '5.7653454696533135', '5.767784506936864', '5.770342009857663', '5.774411468893382', '5.774358784296203', '5.77386987685157', '5.7723946331527705', '5.771022529158052', '5.7641508788738225', '5.763693579857563', '5.765112741716274', '5.766914348780684']</t>
-  </si>
-  <si>
-    <t>['0.024463831519505114', '0.02447743488857028', '0.024485966033818248', '0.02448308814420779', '0.024490994886510135', '0.024523891460725818', '0.02452995436948714', '0.024502134611573943', '0.02451687537269768', '0.02454016243235574', '0.024539625348317586', '0.024534950754432287', '0.024539558409803697', '0.024549041255947056', '0.02456682676814035', '0.024571969655733997', '0.024586119834857527', '0.024589055045901212', '0.02459590067042676', '0.024589551445570554', '0.024592595752626515', '0.02463878691818142', '0.02465084972590783', '0.02464916525157179', '0.024636700267604943']</t>
-  </si>
-  <si>
-    <t>['0.7158666442804126', '0.7161049671644091', '0.7171857214574253', '0.7178517569797557', '0.7189611669489768', '0.7198751302718333', '0.7198292918727696', '0.7170117925362477', '0.7176981304104829', '0.7184350544054549', '0.7184336776226353', '0.7178272471866016', '0.7177164726950732', '0.717025534758655', '0.716482894297297', '0.7164099108159241', '0.7159754824514212', '0.7161439094428635', '0.7173606583606817', '0.7180088698531845', '0.7178227904396304', '0.7164908923799325', '0.7165110921426513', '0.7168822078831744', '0.7171932216067892']</t>
-  </si>
-  <si>
-    <t>['0.684381674217874', '0.6843469062278548', '0.6842094662303162', '0.6844429980011167', '0.684848855861395', '0.6850602692633796', '0.6846842787940428', '0.683720255949943', '0.6847774444915907', '0.6856654352576318', '0.6856904201335263', '0.685926363196973', '0.6858819046074907', '0.6857315650877414', '0.6855083439254698', '0.6855794475770524', '0.6860346903809456', '0.6863052352453013', '0.6870878207459675', '0.6871262887675038', '0.6866674496715359', '0.6854264147704231', '0.685440710444788', '0.6860133616570671', '0.686654539289564']</t>
-  </si>
-  <si>
-    <t>['14.750462407513753', '14.72433791250362', '14.715426489498375', '14.749930928040426', '14.766458889903918', '14.751780940898634', '14.75494547788859', '14.740897514577917', '14.715671590095697', '14.73883319091116', '14.72625957916909', '14.797634553337822', None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
-  </si>
-  <si>
-    <t>['4.174456955e-9', '4.187129428e-9', '4.222388547e-9', '4.219676771e-9', '4.188284831e-9', '4.160274214e-9', '4.152922172e-9', '4.144288355e-9', '4.133955884e-9', '4.138646247e-9', '4.14076823e-9', '4.137096797e-9', '4.136397666e-9', '4.139685118e-9', '4.133165778e-9', '4.130799541e-9', '4.135600838e-9', '4.137085689e-9', '4.16644581e-9', '4.163620124e-9', '4.145681866e-9', '4.130861229e-9', '4.133876202e-9', '4.139428837e-9', '4.1398162e-9']</t>
-  </si>
-  <si>
-    <t>['2.314299861513546', '2.3148249298622017', '2.3161876362290252', '2.318980697911402', '2.3231428192926202', '2.322319242779979', '2.3208484900926876', '2.3169320752659535', '2.316970966395637', '2.317475700002251', '2.3177720145163474', '2.3185737747616564', '2.3185053217378533', '2.3174129870041913', '2.3160041670240203', '2.3147453864779366', '2.31018032977409', '2.3106691668215897', '2.3142463239391553', '2.316663645546269', '2.3164183630918305', '2.317782068364058', '2.317878385961733', '2.318885941816708', '2.3197480181700803']</t>
-  </si>
-  <si>
-    <t>['4.025268132080199', '4.026456963619139', '4.026300895259934', '4.028419734270064', '4.031862390267035', '4.0358276907692305', '4.035907192825537', '4.030769215247977', '4.033556112075502', '4.035980062142623', '4.035989772534557', '4.034698885145038', '4.033831813839573', '4.0322244159150715', '4.031569108778522', '4.03241672115803', '4.034119262479464', '4.034238108271948', '4.037284341377809', '4.0398981480137595', '4.040472952983852', '4.037647612101034', '4.037100830471646', '4.03904088835293', '4.040519192805955']</t>
-  </si>
-  <si>
-    <t>['141.86440818111586', '141.9094827977853', '142.01411372634993', '142.13596373830762', '142.29317179439488', '142.439584090857', '142.40281989873137', '142.23657382130196', '142.3426289406987', '142.51853611999175', '142.50444850208672', '142.48497058420483', '142.51387763608557', '142.56345750386836', '142.55188142219524', '142.49960052160168', '142.43177133248807', '142.49214560335932', '142.578349770835', '142.62960621130878', '142.67439833199853', '142.71796656181263', '142.73686674362455', '142.90889071604425', '143.07656752057346']</t>
-  </si>
-  <si>
-    <t>['0.9999394117585507', '0.9997511895199046', '0.999708566204939', '1.0003080631857306', '0.9995980675695861', '0.9996701875915487', '0.999594264291076', '0.9995635900793505', '0.9995136789497898', '0.999183795866625', '0.9982716397303114', '0.9981720146527009', '0.9977579254597941', '0.9975617806797397', '0.9975693559195612', '0.9971854889887226', '0.9971860777802816', '0.9975365985157363', '0.998115983892548', '0.997635471110083', '0.9975345761783886', '0.9981620797253553', '0.9979704554041918', '0.9980137786096276', '0.9980937333210913']</t>
-  </si>
-  <si>
-    <t>['1.34633679515913', '1.3458602057216527', '1.345799623676091', '1.346062942523734', '1.346334287133291', '1.3472435909554537', '1.3474034849134444', '1.347306786234656', '1.344082811444066', '1.3419581017489939', '1.340915872536293', '1.3412923546183113', '1.341300098327419', '1.341389205707211', '1.3413275421989086', '1.3413084377634668', '1.341573907917659', '1.341608199369808', '1.3409215764003295', '1.340813989171397', '1.3401255369125', '1.3394774603847937', '1.339979641200227', '1.3416036207119153', '1.3414347864911316']</t>
-  </si>
-  <si>
-    <t>['0.0770330848280072', '0.07702068090423307', '0.0770406600504605', '0.0770622069650895', '0.07713517130226152', '0.07720358045325847', '0.07716160197647481', '0.07715957376715354', '0.07718946659374176', '0.0771667702240071', '0.0772259802688012', '0.07731282051904224', '0.07736288677987861', '0.07734067810077448', '0.07732819176420243', '0.07732985645522666', '0.077380097177508', '0.0773989938412745', '0.07739592453411939', '0.07739211273151501', '0.0773718645914438', '0.07742946493230533', '0.077485325982579', '0.07758136725869436', '0.07770801268054751']</t>
-  </si>
-  <si>
-    <t>['83.83411691916835', '83.82976758461174', '83.86334341395587', '83.95016811797089', '83.9955586920231', '84.02966117612627', '84.02761568820534', '83.97481315606855', '83.98132213408924', '83.95758156515846', '83.95289272279261', '84.00249378027708', '84.0359372932075', '84.01092044654834', '83.96408302554336', '83.9459451921657', '83.94089708749128', '83.99838288250281', '84.07594523377358', '84.09760057272429', '84.11633058812261', '84.14939277698083', '84.16468997585628', '84.20901960032079', '84.2162958710059']</t>
-  </si>
-  <si>
-    <t>['0.000170180555130536', '0.000170223820730879', '0.000170301984038938', '0.000170309863002175', '0.00017034008843019', '0.0001703679460353', '0.000170348270794737', '0.000170240335701468', '0.000170302638171182', '0.000170344360726131', '0.000170410237217637', '0.000170567939115818', '0.000170575399763456', '0.000170459258919108', '0.000170395844762959', '0.000170454478658541', '0.000170601238666171', '0.000170635039566137', '0.000170904378033093', '0.000170993170498187', '0.000170968768335284', '0.000170787185576529', '0.000170790860151365', '0.000170961676306677', '0.000171067158139435']</t>
-  </si>
-  <si>
-    <t>['1.0796117236762865', '1.079570744616728', '1.078706440810009', '1.0799193922579422', '1.0813758752114033', '1.083558089347894', '1.0833177148647504', '1.0831150849945477', '1.0842651175044558', '1.0854019962481898', '1.0855976668812515', '1.085655958671377', '1.0856283952643346', '1.0855227064132946', '1.0852480800560367', '1.0850740684896318', '1.0841018008853884', '1.084605296629567', '1.0854770016220767', '1.0857810093567117', '1.0855586376341761', '1.085782338048775', '1.08564612741493', '1.0854245576213721', '1.0856426799303742']</t>
-  </si>
-  <si>
-    <t>['1.1025092090983426', '1.1025939077944398', '1.1018636381301483', '1.1023267061757946', '1.103028305445337', '1.1036367181412332', '1.1035312157725818', '1.1030176908252796', '1.1038854273692758', '1.1048872052888095', '1.1051894138407807', '1.1070910612591396', '1.1073112512804397', '1.1080890286762282', '1.1084531534686524', '1.1088019233686688', '1.1091157076267995', '1.1092304046865444', '1.109723937536277', '1.1097699845066051', '1.110874591173237', '1.1132250521545644', '1.1131967019425226', '1.114597385381627', '1.1157388460777482']</t>
-  </si>
-  <si>
-    <t>['45.24067300058708', '45.26529976908868', '45.28865398222287', '45.31727579548804', '45.3518895873231', '45.35264993294376', '45.33689648610088', '45.300566255699316', '45.32593829865864', '45.34265847589922', '45.33367141937344', '45.29703653187312', '45.2914093033246', '45.27533929951476', '45.25299071033727', '45.23845217559802', '45.22167138170747', '45.233667605601326', '45.24556190576692', '45.24373453839595', '45.23365074106156', '45.19886681044613', '45.20413070381616', '45.205281945280966', '45.20564828669596']</t>
-  </si>
-  <si>
-    <t>['1.9690721182282216', '1.9752835544600955', '1.993846000918166', '1.9896907905032777', '1.9869667658851187', '1.988354180225202', '1.9854973706614878', '1.9798709609989007', '1.9795183446443907', '1.9767188792246801', '1.9760996380863178', '1.9742649384216437', '1.975369741331139', '1.9746340154237716', '1.9749214656736729', '1.971648818021045', '1.9645455258713203', '1.9650558551456787', '1.9641776097195243', '1.9629984308997823', '1.9614705625340951', '1.96067972409726', '1.961719778574346', '1.9689692265125165', '1.972147053584194']</t>
-  </si>
-  <si>
-    <t>['0.13694152199163617', '0.13701581756265108', '0.13715475317904516', '0.13731950518683259', '0.13750262506820563', '0.13761992841209755', '0.13762916399189987', '0.1375810060106677', '0.13762413349664088', '0.13760458623483698', '0.137600762679173', '0.13760533975959555', '0.1375575127349672', '0.13742433717035454', '0.1373401045721238', '0.13732411940883466', '0.13722082077108522', '0.13720937435409328', '0.13734876299615895', '0.13743197429617104', '0.13755039667483165', '0.13760282100289453', '0.1376197940006463', '0.13770758579140036', '0.13774966384098628']</t>
-  </si>
-  <si>
-    <t>['1.0562667757464468', '1.0562102867754166', '1.0562909535579947', '1.0560953152724764', '1.0567326264053845', '1.057482775534323', '1.057219983542181', '1.0570712257896644', '1.0576055958299275', '1.0574461197906744', '1.0576249176731671', '1.0574170343945783', '1.0573720674115614', '1.0575332451444355', '1.0570868410639713', '1.0569346683800371', '1.056915655278947', '1.0571292182026784', '1.0573221536939195', '1.0572202015317447', '1.0570100435887866', '1.0573331243844022', '1.0576662635965486', '1.058269150674027', '1.0582795804822809']</t>
-  </si>
-  <si>
-    <t>['0.9951378535603402', '0.9948997193738163', '0.9946595750808858', '0.998985393413021', '0.998976122251362', '0.9992353266060735', '0.994469610353221', '0.9938526975716404', '0.9942599482453244', '0.9949223515273', '0.9940586906493911', '0.9928976103499506', '0.9932529699738654', '0.9931945241301643', '0.9928305721219194', '0.9928243355562008', '0.9931040655919576', '0.9930434658949315', '0.9929658212940188', '0.9929523016837785', '0.9930801249859678', '0.9935521962135293', '0.9936977634838978', '0.9936904376973955', '0.9939664803696238']</t>
-  </si>
-  <si>
-    <t>['1.0947528224364376', '1.095068104530976', '1.095007609631592', '1.0955717484317808', '1.0959243856943683', '1.0967035376341636', '1.0968556020521856', '1.0959258035710089', '1.0966913830417784', '1.0972464745981478', '1.0973100924586512', '1.09721103910557', '1.0972840144384093', '1.0981665224314074', '1.098890158600233', '1.0981869175587542', '1.0992923898741354', '1.0994901823303485', '1.10072179110607', '1.1009119960123441', '1.1001611882509126', '1.100905890446892', '1.1011049806911544', '1.1005334019163742', '1.1002579699217485']</t>
-  </si>
-  <si>
-    <t>['160.31144062261998', '160.2651740037125', '160.28149038649767', '160.43196428035512', '160.4153347788102', '160.43023860324976', '160.38528050517738', '160.3783232367696', '160.53573152466262', '160.5268948610457', '160.33181711481808', '160.2983805971356', '160.25100902231623', '160.28024322654935', '160.26445023458007', '160.1707066226867', '160.136599125704', '160.13968606415887', '160.13188717323334', '160.12618210012002', '160.11741749360783', '160.1301019124719', '160.26479777008026', '160.4050469997381', '160.31591034822816']</t>
-  </si>
-  <si>
-    <t>['0.536393183387108', '0.5366854694094588', '0.536741776629807', '0.5370103464539093', '0.5374331695244486', '0.5383822723274861', '0.538485163785934', '0.5379383990821748', '0.5385876772593552', '0.5392688479892589', '0.5395227693307937', '0.539700073417984', '0.5395637158176518', '0.5390190484377149', '0.5386826257946435', '0.538122013260621', '0.5363720627302738', '0.5364240872578613', '0.5373110397769014', '0.5376346561735499', '0.5376256178869883', '0.5376167608102532', '0.5376760768795352', '0.5390233895946899', '0.5395429884580561']</t>
-  </si>
-  <si>
-    <t>['1.1780731852569843', '1.1851499413268622', '1.1816036780242505', '1.181705097770776', '1.1819119319262958', '1.178757997505036', '1.1771028837419217', '1.1783810548522835', '1.1809081683038656', '1.1839960715925903', '1.185164612274159', '1.1872886994079093', '1.187729108124548', '1.1866022078972276', '1.1863104426086648', '1.1876567233127633', '1.1939498993423103', '1.1935074012457012', '1.1913390032093414', '1.1880559191042075', '1.1871117736085173', '1.1853047988121115', '1.1853443386277025', '1.1854356063576659', '1.1865750646079853']</t>
-  </si>
-  <si>
-    <t>['0.17839819738778237', '0.1784311588272671', '0.1786462860940922', '0.17896729956715224', '0.17941095195315487', '0.18002735473127573', '0.18017370171731273', '0.1799894363425506', '0.179993864356039', '0.17996307545610069', '0.17986469717359452', '0.17942417948799338', '0.17941078648395575', '0.17961776396693374', '0.17971835983636125', '0.17974826815329495', '0.17975226876600842', '0.17969587725436875', '0.1793167722327361', '0.17913041462355983', '0.1790697810135425', '0.17914238028041218', '0.17921839410171114', '0.1795496091075547', '0.17964813743906283']</t>
-  </si>
-  <si>
-    <t>['1.0871184008631205', '1.087322351539509', '1.0877175975428404', '1.0885565608595256', '1.0902590352300583', '1.0914238260401026', '1.091551191013266', '1.090460034224613', '1.0910720559729865', '1.0919211665746604', '1.0920002519765806', '1.0925001486045138', '1.0921238495243948', '1.0901853646253863', '1.0892425969179316', '1.0895384331453415', '1.0916500298185847', '1.092860505157789', '1.0965667816178286', '1.0982997778625525', '1.0977489828349538', '1.095325301562059', '1.095163864823427', '1.0961372244412204', '1.0968222303177728']</t>
-  </si>
-  <si>
-    <t>['1.3354336696782918', '1.336347309917549', '1.3388911159947592', '1.3414754876385209', '1.3412556415235535', '1.3402195354209507', '1.341198044271054', '1.3388297211251428', '1.3380793565478926', '1.3376780139169577', '1.3370962780412412', '1.335827401180948', '1.338031526292999', '1.3423558209710036', '1.3439079747793703', '1.3435749669668897', '1.342894846318573', '1.3437048772537004', '1.345859692603392', '1.3470531798568943', '1.3470528429684754', '1.3484190122919473', '1.3487099651622756', '1.3497401415728647', '1.3502665298398493']</t>
-  </si>
-  <si>
-    <t>['1.0000436845097738', '1.000058750548125', '1.0000090475199952', '0.9999814248621361', '0.99970331750508', '0.9996066137028367', '0.9993747812414491', '0.9991892624419898', '0.9995042440476202', '0.9995974904222052', '0.9991897131713354', '0.9990429688970026', '0.9982403384915062', '0.9980011698391542', '0.9979372377893447', '0.9977763176208408', '0.9977728827221507', '0.9975189079028419', '0.9973060439349302', '0.9972889681083028', '0.9973399409399364', '0.9973372626125815', '0.9976316269166974', '0.9978482313349484', '0.9976313502699801']</t>
-  </si>
-  <si>
-    <t>['2.5145254929338012', '2.5149876080165545', '2.5171197694233673', '2.5195169434995353', '2.521930189810042', '2.524431154879027', '2.5243490219759432', '2.5223784015551245', '2.522547530287981', '2.52175058014214', '2.521473353597735', '2.5235209875833142', '2.525854431624992', '2.530008783138154', '2.531604016288127', '2.530404035627309', '2.5254181354026266', '2.524978017505026', '2.5240601098318063', '2.5229843644405094', '2.5219534573697517', '2.519284673256831', '2.5188824896212783', '2.5189083295902255', '2.519932715328084']</t>
-  </si>
-  <si>
-    <t>['41.126035915930366', '41.13379872826505', '41.06446441661574', '41.04190575182582', '41.00217481361445', '41.01734185388595', '41.02651449774248', '41.01434772936468', '41.017311351640956', '41.02843835618892', '41.02773896048574', '41.021074732874474', '41.00609575825739', '41.004053187155435', '41.008748218080456', '41.018522136216966', '41.02786965329547', '41.02861352810083', '41.03719870182174', '41.05154713892826', '41.04880461023371', '41.04773239303654', '41.05160696205519', '41.059293570057626', '41.07388326293432']</t>
-  </si>
-  <si>
-    <t>['0.21928595965925865', '0.21934848831335232', '0.21936394853964433', '0.2195311571122847', '0.21979988492411537', '0.2201941387080513', '0.22024786622713402', '0.22002209328617756', '0.2202583984893537', '0.22050883312369873', '0.22054755653171956', '0.22058998977394567', '0.22056821900849627', '0.2204521188498057', '0.22032315452991544', '0.22018509157956992', '0.21984787201500766', '0.2198651990698773', '0.2202776367385739', '0.22050693633275148', '0.22058293266154774', '0.22071782348457347', '0.22077286157513454', '0.22096746903680833', '0.22103540134331587']</t>
-  </si>
-  <si>
-    <t>['69.31187851132289', '69.34098450895303', '69.39093844907501', '69.42516633046725', '69.48678061058365', '69.52560166565112', '69.5761448248465', '69.60064059849462', '69.62523841397775', '69.62924116047267', '69.62073455166292', '69.61786489480365', '69.58166516159235', '69.54761609195914', '69.50721046623218', '69.50930375084542', '69.5115804205224', '69.51180639932016', '69.51656921960786', '69.4924135087605', '69.50267730683348', '69.4790027977004', '69.48256947775124', '69.4683341907478', '69.44188989544753']</t>
-  </si>
-  <si>
-    <t>['0.003730806825637399', '0.003729475424150757', '0.003728239148257716', '0.003729525886437463', '0.003730591728014703', '0.003735992457752397', '0.003736130922229491', '0.003737416951331468', '0.003737265919232959', '0.003744609628547164', '0.003746353620576895', '0.00373817338111339', '0.003732889656092031', '0.003728879860384637', '0.003695231150286002', '0.003695163824026572', '0.003694562243421519', '0.003694327450682819', '0.003694437814901024', '0.003705400164213829', '0.003700466854154281', '0.003696777887200103', '0.003701543231116683', '0.00374221956921506', '0.003741659724048412']</t>
-  </si>
-  <si>
-    <t>['0.9912717844629332', '0.9912528472389724', '0.9912340798482859', '0.9910906633525849', '0.9910581970424814', '0.9911413877588781', '0.991096090284123', '0.9910511180518956', '0.9911674818008761', '0.9911972805136336', '0.9900484221033952', '0.9895966598551428', '0.9895516059920759', '0.9894614540407722', '0.989458777344733', '0.9894571214473767', '0.989457791179649', '0.989391083087686', '0.9890798164779054', '0.9890795309289492', '0.9895825186044913', '0.9897788447273895', '0.9897360266596167', '0.9895205513693003', '0.9895079205427344']</t>
-  </si>
-  <si>
-    <t>['5.425438132774104', '5.426364347978669', '5.4231011318986475', '5.428125138207225', '5.432687617331387', '5.439607549933653', '5.4415209948109435', '5.437552296580076', '5.440672357027646', '5.444604363502657', '5.445161000791511', '5.4423824535322645', '5.440215126167456', '5.4405094432550865', '5.440590285949187', '5.439767507721383', '5.436912412057679', '5.437722036177632', '5.441724508032861', '5.4426955666200385', '5.442112858653923', '5.439905952517262', '5.439488574109867', '5.440018576881108', '5.43909682338898']</t>
-  </si>
-  <si>
-    <t>['730.8651278430566', '730.9339193300856', '731.05839388572', '731.7859092942218', '731.8635879376305', '731.4750246617147', '730.8641754141065', '729.8319802006091', '730.0443977673347', '730.5827760900319', '730.7060245854057', '730.5115096223525', '730.7200642170827', '730.7300372646054', '730.5008457833491', '730.2344387672251', '729.3876961394446', '729.8213592337356', '730.4621430676457', '730.2979720372743', '729.3907042872645', '728.924285833411', '729.0597721074882', '728.8838177713128', '728.7495498889654']</t>
-  </si>
-  <si>
-    <t>['43.93601045218746', '43.9465703848402', '43.95662833626147', '43.998515249704376', '44.035682299839394', '44.08875916880434', '44.0889592019923', '44.06294212878652', '44.08936274419305', '44.113505411507234', '44.11625246626849', '44.05587398658163', '44.07795086504941', '44.10104464598056', '44.10447788049092', '44.105105968047305', '44.097005359451', '44.151288447800354', '44.22390239747483', '44.25057886551684', '44.37436523576563', '44.5954897010509', '44.5836353075181', '44.42624508399567', '44.32574356479873']</t>
-  </si>
-  <si>
-    <t>['7.13906074632e-7', '7.13838278057e-7', '7.14086217879e-7', '7.14271641393e-7', '7.14074847212e-7', '7.14685044981e-7', '7.14115356042e-7', '7.13725426615e-7', '7.13866161054e-7', '7.13721957877e-7', '7.13558582494e-7', '7.13349603906e-7', '7.14110240936e-7', '7.17141980783e-7', '7.17363017713e-7', '7.1778921376e-7', '7.18097191849e-7', '7.18519235779e-7', '7.19202818457e-7', '7.19499304251e-7', '7.19714682101e-7', '7.19957952736e-7', '7.20670333408e-7', '7.21219862213e-7', '7.20924893486e-7']</t>
-  </si>
-  <si>
-    <t>['0.23673330465487039', '0.2368307285857227', '0.23739950918612554', '0.23746341021552778', '0.23757439039095313', '0.23769741387368526', '0.23767148538446342', '0.23724795403591492', '0.23734052038836032', '0.2374571694343397', '0.23746149727166305', '0.23743928324234437', '0.2374910276647447', '0.23846413985734996', '0.239080777126914', '0.23909318675026825', '0.23873283056831718', '0.23866803384288549', '0.23837662676797874', '0.23815549859647991', '0.23812429467976487', '0.2380834388360563', '0.2381387612329787', '0.23900906644432493', '0.23955135295647417']</t>
-  </si>
-  <si>
-    <t>['0.000034530257538245', '0.00003453048194715', '0.000034545528263087', '0.000034553745158828', '0.000034534835622884', '0.000034556920097278', '0.000034563641016359', '0.000034532231877029', '0.000034550623005327', '0.000034571750907495', '0.000034552356327952', '0.000034506553343704', '0.000034510936339775', '0.000034520523383313', '0.000034523280656715', '0.000034519847546041', '0.000034509547193436', '0.000034520322004694', '0.000034569787432964', '0.000034581876216665', '0.000034583683763098', '0.000034599236832843', '0.000034600892214571', '0.000034609390524407', '0.000034615851191134']</t>
-  </si>
-  <si>
-    <t>['4.426232703788013', '4.424193739101744', '4.4196279608797555', '4.419852126714999', '4.422088551410229', '4.423331847271257', '4.425967264813137', '4.4237239074420796', '4.418379391850082', '4.419149556680626', '4.422231980131427', '4.418711445193192', '4.415100598171228', '4.415303529897133', '4.414889811747016', '4.412731884762119', '4.4127597189849475', '4.416009819750122', '4.418211379797305', '4.4173702551071905', '4.41806128650157', '4.419629817765996', None, None, None]</t>
-  </si>
-  <si>
-    <t>['0.030184126593568384', '0.03018954951983773', '0.030189369004194014', '0.030185861624047516', '0.030205076701899636', '0.03023619025355997', '0.030230623621277073', '0.030172929324186477', '0.030179770187926735', '0.030196772497661693', '0.0301963399911966', '0.03018020155789594', '0.030182267242863357', '0.030184018752218243', '0.03017049555279276', '0.030174246078357832', '0.030163151693912354', '0.03016831640044537', '0.030181163724723892', '0.030188647660164946', '0.030182347332561196', '0.030171467660118165', '0.030186059771360546', '0.030223002436736188', '0.03025990858238075']</t>
-  </si>
-  <si>
-    <t>['0.06384102589564872', '0.06382372516383562', '0.06381867751934302', '0.06284379144696144', '0.06345828804339439', '0.06356677465101769', '0.06352959554159862', '0.06359266882993427', '0.06359281045853193', '0.06353780358554613', '0.06352960555462442', '0.06354535534047105', '0.06354861014496407', '0.06356384946033398', '0.06356519038276948', '0.06357124566219136', '0.06357771257050915', '0.06358906393238292', '0.06360534096862447', '0.06364167300855879', '0.06365953827040208', '0.06366526164687016', '0.06367102612725009', '0.06365376652589715', '0.06364295117801297']</t>
-  </si>
-  <si>
-    <t>['0.031853008098025416', '0.032069441209360026', '0.03284985282595346', '0.032725791413419976', '0.03245485352526009', '0.0319232022863724', '0.031791807636424724', '0.031865208490685804', '0.032060080570568944', '0.032313570472626126', '0.03231654935344093', '0.032171955078296816', '0.03219975216355376', '0.03241197354744579', '0.03252598900337652', '0.03252390186908466', '0.032501959586078814', '0.032490400305372445', '0.03238841176862097', '0.03234376729297427', '0.03230837209821147', '0.032182125098819556', '0.03214510597135686', '0.03197846515471673', '0.031904053549044735']</t>
-  </si>
-  <si>
-    <t>['8.804865067737078', '8.804215415471756', '8.804277956619279', '8.806162158818688', '8.80921971627832', '8.813479770141585', '8.811525805347742', '8.808040830207888', '8.812065522975812', '8.812997521126208', '8.815773758596423', '8.821179459036445', '8.819245223241582', '8.818382939977095', '8.818414035240504', '8.81918676461715', '8.817968866635967', '8.818432704267249', '8.819993108614966', '8.820398379628857', '8.821759574707585', '8.823563756717341', '8.823949634399554', '8.827306003971898', '8.82683440683552']</t>
-  </si>
-  <si>
-    <t>['8.178966509669383', '8.17842433196566', '8.182638129081043', '8.182351193358748', '8.202778012102872', '8.202503672299805', '8.195135484358808', '8.199774666150663', '8.210031920769248', '8.20639058119566', '8.2049526426633', '8.209713573332921', '8.213597264806399', '8.213705669476687', None, None, None, None, None, None, None, None, None, None, None]</t>
-  </si>
-  <si>
-    <t>['10.170091341571524', '10.17308514100067', '10.17349657105262', '10.179471926831779', '10.185519518852148', '10.19016631530107', '10.187377887328479', '10.174383336425892', '10.17717823191519', '10.178614516595836', '10.175723188811977', '10.170690622293288', '10.17243232251563', '10.173953992619891', '10.173850062536332', '10.17124398063305', '10.162888027841072', '10.16693822593822', '10.184638088047327', '10.194093682538222', '10.193316940378896', '10.193651909438728', '10.196649203130095', '10.200415985085968', '10.201967419448357']</t>
-  </si>
-  <si>
-    <t>['1.0014838428590005', '1.0015036713030494', '0.9964960791888519', '0.9989709711839198', '1.0024753452493362', '0.9969344956362202', '0.9967990250110591', '0.9991145533606682', '0.9977262338594808', '0.9964922255394599', '0.9971512026331751', '0.9985479092787619', '0.9980980047747072', '0.9964131231489423', '0.9961603216228416', '0.9966267291039556', '0.9978740899085939', '0.9977294446575018', '0.9971952872321135', '0.9970950486045597', '1.001795123016999', '1.0138590986402536', '1.013983399201037', '1.0110645110769965', '1.0101464034975511']</t>
-  </si>
-  <si>
-    <t>['0.02216653965518623', '0.02216653927853807', '0.02216140683272561', '0.0222126214392914', '0.022212655488565027', '0.022242678115450405', '0.022242649267742377', '0.022245160214302437', '0.022245178694496465', '0.022227513388837175', '0.022210498591532464', '0.02221049145297928', '0.022181752692778604', '0.02218169318353674', '0.022174331729222688', '0.02217432178764941', '0.022169382577421334', '0.022188217704932484', '0.022174527219728853', None, None, None, None, None, None]</t>
-  </si>
-  <si>
-    <t>['2.5371691311664946', '2.5372920353080914', '2.5391782826918408', '2.5401325859863926', '2.5421529441316624', '2.546214001290446', '2.5460523992183677', '2.5425098937663275', '2.5437270813821593', '2.5452795108497765', '2.5469375254648625', '2.5525204430943895', '2.5529522012410752', '2.5559821216259437', '2.555315452448802', '2.5574288356544113', '2.560276905361488', '2.5610297325008204', '2.563717992751364', '2.5642954997077125', '2.564689526376494', '2.5674437321882935', '2.568837222928815', '2.572916255601968', '2.5738780307890727']</t>
-  </si>
-  <si>
-    <t>['82.62356989034977', '82.56615543666706', '82.56272529870176', '82.55100458856298', '82.76698814728421', '82.908513801168', '82.75997323931477', '82.48065711402029', '83.15160859378548', '83.88750769270902', '84.19957927969182', '84.29119387833545', '84.26175623137365', '84.1563052145835', '84.09793671058975', '84.13640206396205', '84.20484410449372', '84.27067469462922', '84.5579135976831', '84.67656920115478', '84.57828664868738', '84.485062355281', '84.53599408017106', '85.02035650443223', '85.25401691405015']</t>
-  </si>
-  <si>
-    <t>['1.6117284248943302', '1.6123778383796163', '1.6145271408047543', '1.6133643694486153', '1.6122456817917405', '1.6126401732223814', '1.6129470638553687', '1.6145460090598185', '1.6159223812552816', '1.6171749847921584', '1.6170975598059647', '1.6187976089711738', '1.6196083051918304', '1.6178610570158456', '1.6166319607562796', '1.6162081354428677', '1.616808273093061', '1.6169151580097278', '1.6158345936130372', '1.6154930289366616', '1.6199110970289698', '1.6263451951342285', '1.6263000389716071', '1.6254382718668285', '1.625259185351853']</t>
-  </si>
-  <si>
-    <t>['0.430969013347284', '0.431487189403082', '0.4326601643153526', '0.43220410206466486', '0.43217410582034904', '0.4324817952960858', '0.4323065869649954', '0.43185908062134953', '0.43209450903854446', '0.43202887453670913', '0.4320091163988935', '0.43167798660420237', '0.4314343416144288', '0.43106964552869487', '0.430666978222725', '0.4305512504519995', '0.4301188328515488', '0.43010823842770535', '0.4303544275666658', '0.4303684867297796', '0.43021327535379633', '0.43028109196786885', '0.4302386052186512', '0.43062095178639986', '0.43104261285095874']</t>
-  </si>
-  <si>
-    <t>['0.21714653001419498', '0.21696562529706206', '0.21684215611941532', '0.2168116700680308', '0.21637807557184066', '0.2167331347653615', '0.21715075357987856', '0.2164806361968535', '0.21638523784152386', '0.21713012825663128', '0.21710139510990437', '0.21710494510000392', '0.21726586182318075', '0.21725187089080447', '0.21722531842433618', '0.21723033977768808', '0.21759938829061443', '0.21785030739711614', '0.21792869620654182', '0.21747755406974398', '0.21752208035582707', '0.21753807036290201', '0.2175326342504506', '0.21758526435651612', '0.21759122116814525']</t>
-  </si>
-  <si>
-    <t>['1.7316539021505806', '1.732159667828185', '1.732709789044643', '1.7330354275416113', '1.7335464305731572', '1.7344195351745457', '1.7349937429419247', '1.7335169605659302', '1.7342063874260616', '1.735659802831261', '1.7356418755281517', '1.7346113228125064', '1.7352122417945497', '1.7359278536072653', '1.7363446845503314', '1.7360457323167156', '1.7359167289184576', '1.7362264361687023', '1.7381156758522907', '1.7397009103709065', '1.7406338056672346', '1.740915709130988', '1.742227601684315', '1.745991307354418', '1.7492074851149535']</t>
-  </si>
-  <si>
-    <t>['0.030061683292335932', '0.03008349842995508', '0.030187214866159853', '0.030304541425610818', '0.030448751031556847', '0.030407260654460595', '0.03036304565535638', '0.030288441356180997', '0.030302531058868955', '0.030301319780444314', '0.030284248840985142', '0.03023142658193641', '0.030269881319341725', '0.030339884952205704', '0.030369160612290905', '0.030349389222715944', '0.03030154101526514', '0.030336593177104812', '0.03046758228450462', '0.030521938544473878', '0.03050126583479494', '0.030423459220586906', '0.03042517526044978', '0.030462212287319552', '0.030480805727392316']</t>
-  </si>
-  <si>
-    <t>['0.9977824888577409', '0.9976186817308735', '0.99791182719462', '0.9979591537088627', '0.99812653021367', '0.998769196313304', '0.9980918945418512', '0.9979987156305106', '0.9984582927368395', '0.9984380211696136', '0.9972704917429697', '0.9968624150178008', '0.9968768917709045', '0.9970376727661318', '0.9969975092278694', '0.9969629054721495', '0.9969474260369582', '0.9966641205692383', '0.9963447166476496', '0.9962501569910551', '0.996265610761016', '0.996408077098067', '0.9965444215738725', '0.9967498701815799', '0.996389123109546']</t>
-  </si>
-  <si>
-    <t>['11.728789754269751', '11.722707828299733', '11.703752943948443', '11.69568914947106', '11.717012691195336', '11.725585969564632', '11.753331815203248', '11.790515067664261', '11.804802769467525', '11.805884789160915', '11.787148771136254', '11.72893893870196', '11.697757265990877', '11.689080589363002', '11.685185863222312', '11.680909582850276', '11.653706134320377', '11.639952505689044', '11.63783520180432', '11.657150070050028', '11.660942234463283', '11.678129506933887', '11.687021818071912', '11.697457005491485', '11.69931868298018']</t>
-  </si>
-  <si>
-    <t>['6.320168643813161', '6.318860289367664', '6.316906824942456', '6.310590157190512', '6.3164879813204555', '6.318326071303387', '6.325767040005145', '6.324320542257667', '6.318534916108909', '6.318747039474273', '6.319595597529174', '6.321130790204828', '6.327074654434074', '6.325816586258605', '6.323308715949683', '6.321497573823039', '6.322477515438672', '6.326402071076891', '6.327374815277297', None, None, None, None, None, None]</t>
-  </si>
-  <si>
-    <t>['0.4274341114711157', '0.4270945519658995', '0.4265908578664962', '0.42686724677394', '0.4274511454279685', '0.4305084022300141', '0.43212386501028976', '0.4380121530931872', '0.4383926506519871', '0.4384960784538417', '0.4393345391085605', '0.4416805654107451', '0.4417005759546398', '0.43979417478153326', '0.43914962096208826', '0.43932080201127854', '0.4402206001527254', '0.44027501137218117', '0.4399949294095406', '0.43971697952074124', '0.4396806427200579', '0.4392150131068269', '0.4392125632215817', '0.43959585118235656', '0.4397919439447798']</t>
-  </si>
-  <si>
-    <t>['4.89861425843e-7', '4.89734158151e-7', '4.89823794985e-7', '4.89723552257e-7', '4.90236980486e-7', '4.90991226024e-7', '4.8984157456e-7', '4.89339572043e-7', '4.89558277548e-7', '4.89393175752e-7', '4.89064916396e-7', '4.88922873764e-7', '4.88952879764e-7', '4.8899984092e-7', '4.889667659e-7', '4.88911040474e-7', '4.88925413463e-7', '4.88890385175e-7', '4.8896514156e-7', '4.88882523344e-7', '4.88846060485e-7', '4.89017961489e-7', '4.89305696793e-7', '4.89777447095e-7', '4.89427614333e-7']</t>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>['24635.076668455087', '24639.922219536067', '24635.11665518136', '24632.70207143445', '24628.186402922034', '24623.37147207799', '24617.128524897733', '24591.581772207053', '24598.159555353817', '24609.48730032887', '24607.746686307764', '24593.17867588544', '24594.15289856864', '24598.455897239455', '24603.127878283954', '24603.5343529117', '24608.260685290377', '24607.378997670807', '24602.26823813875', '24600.21612569072', '24604.75357894852', '24622.606878865852', '24621.669047909767', '24597.740804498684', '24582.84855832878']</t>
+  </si>
+  <si>
+    <t>['1690.6156551806264', '1690.5083941876271', '1689.4504483689911', '1689.486508307214', '1689.389617326603', '1689.086528770861', '1688.7689214699153', '1688.6385253642811', '1689.473662772701', '1690.2308570180137', '1690.0361845272394', '1689.3687927616609', '1689.4789640622014', '1689.1346670254509', '1688.9369292498322', '1688.9927562707362', '1689.5806709819112', '1689.5361661170764', '1689.611498175274', '1689.8292902739101', '1690.2700833346119', '1690.6621589112751', '1690.4451437391824', '1689.4870151565867', '1689.0815314630352']</t>
+  </si>
+  <si>
+    <t>['1.0038090356994571', '1.003615460086596', '1.0033865915626714', '1.0031193195998052', '1.0029070227477144', '1.002805657707377', '1.00290731992447', '1.003888578428468', '1.0037516584347934', '1.0035854661676844', '1.0035485888445037', '1.0038020615922767', '1.0038595428201684', '1.0038359887884005', '1.0037169831331019', '1.0037595157545915', '1.0038035119100124', '1.0038789795276746', '1.003783819272465', '1.003621408890689', '1.0034792530338246', '1.002612018445224', '1.0026724374882605', '1.003465940797974', '1.0039867415812576']</t>
+  </si>
+  <si>
+    <t>['313.6942831630062', '313.71107458843943', '313.48631910608117', '313.44141859701483', '313.34260961283564', '313.3873304160224', '313.24117228039586', '312.9753305215987', '313.270483372304', '313.59157302621037', '313.60418439148776', '313.6650086356074', '313.7132522640778', '313.7897043427512', '313.87606843008024', '313.9547122831084', '314.0697601532829', '314.07960051952927', '314.1166927065609', '314.1589594386588', '314.2470730708724', '314.6022323269045', '314.56451194573714', '314.2607218418714', '314.1478050964746']</t>
+  </si>
+  <si>
+    <t>['1.0039088448661846', '1.0038518404031709', '1.0036161588814978', '1.0032257232515438', '1.0029786982425806', '1.0029202253408716', '1.0029096864130593', '1.0029129926268516', '1.0033221370593834', '1.0033199264040804', '1.003374514123251', '1.0034384224505943', '1.003442427337123', '1.0035262621006513', '1.0033221383900968', '1.0033140583285471', '1.0034441727450278', '1.0041569703490865', '1.0043703802431703', '1.0038682375559604', '1.0031605729308744', '1.0030513706150879', '1.0029337210730445', '1.0027533107322366', '1.0029710882233367']</t>
+  </si>
+  <si>
+    <t>['0.38939282364394623', '0.3896031740338566', '0.38974628571377384', '0.38960406568025663', '0.38965369994453114', '0.38982025670818604', '0.3896565378113062', '0.3896297461941309', '0.3898528205116035', '0.3900824588256462', '0.3900250611299078', '0.3899300353203868', '0.389987108092532', '0.3898937035292286', '0.3897832144568632', '0.38944576638249045', '0.3894685697735839', '0.3895554873734719', '0.3897048235497439', '0.38971913930349966', '0.38981053815271055', '0.39008784403758046', '0.39012166207022475', '0.39001436820981367', '0.3899338532021118']</t>
+  </si>
+  <si>
+    <t>['0.4026588913480335', '0.40272775273290523', '0.4027048236876287', '0.40280843000329386', '0.4028255837321238', '0.40294239012773525', '0.4026937390708237', '0.4022151606373139', '0.4024112457160337', '0.40273618267725453', '0.4029136377217734', '0.40318095430212203', '0.40317656666043805', '0.4031827151671138', '0.40320359947728873', '0.40329346861713017', '0.4034390741282353', '0.4034625320375041', '0.40346264649079183', '0.40357680596940665', '0.4039843368230458', '0.40469446323265645', '0.4045462630503516', '0.4035910556863877', '0.403290238717654']</t>
+  </si>
+  <si>
+    <t>['1.5060140819691763', '1.5044870784534576', '1.5003554784449076', '1.4990294419335828', '1.4979746196658834', '1.4967022112675912', '1.4955217199584536', '1.4965353058899957', '1.4987749670329842', '1.5000199074621388', '1.4991026562452716', '1.4955816843385936', '1.495914370951379', '1.4963749907614639', '1.4968615076083664', '1.4965149180236144', '1.496280972908951', '1.4957675932749577', '1.4952412301527582', '1.4958113456109883', '1.4978696309921031', '1.5024007951110483', '1.501540384165877', '1.498770085843279', '1.4972857532439177']</t>
+  </si>
+  <si>
+    <t>['1.0044600571830262', '1.003780358799611', '1.0016062404555737', '1.0025440754143575', '1.0035494847513393', '1.0023934749872832', '1.0037276708968268', '1.005020538538808', '1.0041453613211555', '1.0041982940684133', '1.0043215533252758', '1.0043309402223697', '1.0043573791880378', '1.0043994320766874', '1.0044019946255558', '1.0034504452818434', '1.0034810626226174', '1.0035136562315057', '1.0044331330629375', '1.004421048926229', '1.004329732531417', '1.0020004246267367', '1.0020188836043273', '1.002071609299012', '1.0030408435589273']</t>
+  </si>
+  <si>
+    <t>['53.15711562071989', '53.08165901451845', '52.83931027852884', '52.796460430487855', '52.76742048165957', '52.751369432082086', '52.63577776055121', '52.60661421163997', '52.61747380083524', '52.612663380305044', '52.619924143439356', '52.58991850351331', '52.63581064070283', '52.646807439971084', '52.66014881128172', '52.67057769398877', '52.843020457988054', '52.83571394082172', '52.805844144505286', '52.87536232307009', '52.9537833225529', '52.99583617342475', '52.981556523634175', '52.97231900839015', '52.85788237578577']</t>
+  </si>
+  <si>
+    <t>['0.08729669287873425', '0.08733033873766849', '0.08730963991846581', '0.08730766220241949', '0.08732008257763713', '0.08738738606239299', '0.08739889532314991', '0.08741900807655562', '0.08746678141980527', '0.08748711523352719', '0.08749721921563902', '0.08752038136895228', '0.08753440353213368', '0.0875389436218021', '0.08753178532794494', '0.08753438800207057', '0.08757178654479436', '0.08756436454184183', '0.08754953929167966', '0.08755286193557024', '0.08757946671737607', '0.08758642715182414', '0.0875588867079269', '0.08747904869082404', '0.08743508033917902']</t>
+  </si>
+  <si>
+    <t>['24.7759744241094', '24.785075731380463', '24.74735646158837', '24.79184801536719', '24.839963781991592', '24.844459470692648', '24.8242201399999', '24.752927096835645', '24.758375266571495', '24.7630576327366', '24.769510960913536', '24.8250182535338', '24.836283851990853', '24.87386111333046', '24.90287995013588', '24.889959255615103', '24.85698839963574', '24.857265497939302', '24.94490916812312', '25.01490706650773', '25.064925759888126', '25.21944851747173', '25.225127635248235', '25.220890492433664', '25.213308264190033']</t>
+  </si>
+  <si>
+    <t>['7.63097609121555', '7.630794992839282', '7.623879628408753', '7.617269096446328', '7.611236426343898', '7.598513107382935', '7.590718740538656', '7.585130548383358', '7.573560251930039', '7.5665314854124555', '7.572115533163426', '7.584472620674745', '7.580356305023346', '7.571822434176649', '7.568942107097523', '7.5682621392135845', '7.5688994117448', '7.567423357413904', '7.560676070225694', '7.557739196370901', '7.552808497013915', '7.5494265042774815', '7.548034961320058', '7.543144941181703', '7.541417779744781']</t>
+  </si>
+  <si>
+    <t>['7.962380102506651', '7.9638335838182055', '7.9612808956579055', '7.959937800073672', '7.956752836935245', '7.956564835021697', '7.954179923669808', '7.9529973458174625', '7.9525824384489985', '7.953702234550655', '7.954034932430556', '7.9562926600645545', '7.957538242154366', '7.957829301766252', '7.9580758879581195', '7.957113774895281', '7.9600819892126085', '7.95939576068928', '7.957483216335533', '7.958889561114073', '7.959891534367858', '7.962519146197579', '7.961027010721545', '7.95545193731953', '7.953507430055266']</t>
+  </si>
+  <si>
+    <t>['0.000013424782282225', '0.000013445127013883', '0.000013453313195016', '0.000013463277231526', '0.000013469361262754', '0.000013493572846483', '0.000013494843110163', '0.000013485858917441', '0.000013498504542645', '0.000013506356541119', '0.000013503400500773', '0.000013486253762652', '0.000013486357748309', '0.000013492630286531', '0.00001349779101963', '0.000013495056793185', '0.000013491458313902', '0.000013490106284575', '0.000013484931173037', '0.000013486268098166', '0.000013501740451558', '0.000013528529187473', '0.000013523795122974', '0.000013498728291824', '0.000013487108103988']</t>
+  </si>
+  <si>
+    <t>['1685.2133109975966', '1683.8690524152457', '1683.0646191851015', '1685.0103016596345', '1683.6119091536054', '1685.3455469172004', '1685.0680891529616', '1683.4019167968356', '1681.6116314146036', '1682.310937373029', '1681.1994847408312', '1682.2878612905217', '1681.2060317217872', '1681.55452769309', '1681.721784937124', '1681.863963141162', '1681.5473633957301', '1687.4507095709305', '1689.6332607760291', '1688.3935893802238', '1687.9012156765396', '1692.5608704799172', '1698.5883582050587', '1695.7666464113734', None]</t>
+  </si>
+  <si>
+    <t>['98.14959882413513', '98.16923135056192', '98.17480217038697', '98.1852752402034', '98.23706837315837', '98.30322044891498', '98.27423418645631', '98.27013981776142', '98.31682050227572', '98.37592108912105', '98.41176917145533', '98.46999488284315', '98.44529146645093', '98.45566958701708', '98.52109316851431', '98.54182116067133', '98.59849539833917', '98.59540273790763', '98.58644555180064', '98.61443435382795', '98.67744571108092', '98.70003641572548', '98.66053283670334', '98.62124686072056', '98.6173817602173']</t>
+  </si>
+  <si>
+    <t>['0.07097862785251385', '0.0709512906997933', '0.07091298358451809', '0.07091672398874178', '0.07092883454918603', '0.07094688452943444', '0.07094086946707666', '0.0709279545279625', '0.07100348826022322', '0.07107257604689732', '0.07107596519406649', '0.07107028612538971', '0.07107454144892905', '0.07107103478147604', '0.07107354454316231', '0.07106512735298752', '0.07106526505808962', '0.07107304533060803', '0.07107507794038556', '0.07108943261048956', '0.07109105269742419', '0.0710729766901741', '0.07107607463035402', '0.07105030340931759', '0.07105240761931661']</t>
+  </si>
+  <si>
+    <t>['19.721006769956812', '19.727015542886203', '19.730234304744112', '19.736511568277063', '19.741561954500966', '19.757495873960664', '19.76063775029653', '19.798707058843203', '19.809365717484443', '19.81432856442283', '19.81429286512246', '19.846494362461964', '19.856361147646037', '19.862857129826885', '19.863501448742596', '19.863144527575646', '19.87053622553604', '19.872428779210157', '19.87360062748431', '19.884712424095277', '19.897445269485345', '19.92783910849787', '19.923833713699253', '19.89981025652232', '19.88668011595587']</t>
+  </si>
+  <si>
+    <t>['7.272606728789947', '7.278261574623844', '7.277308814482168', '7.278408772914105', '7.2781873052068455', '7.280256298007272', '7.276750709445875', '7.270896826215588', '7.2728905402805655', '7.274349160355848', '7.276345579077435', '7.280497619447145', '7.282752294903321', '7.2824337001429775', '7.2841294097933735', '7.28453789944207', '7.288668836720928', '7.2878117487945735', '7.282474241427481', '7.27977856321335', '7.2826607055106365', '7.288810104547713', '7.288756569341338', '7.282609108085449', '7.278924847086124']</t>
+  </si>
+  <si>
+    <t>['1.0039828451254318', '1.0040854377886541', '1.0040143270708068', '1.0030929543412956', '1.0028865285539543', '1.0028041648923127', '1.0026480963462272', '1.0025809414737372', '1.0028997061986034', '1.003015388328473', '1.0031562503003475', '1.0032662490885185', '1.0033116548876615', '1.0033525589754864', '1.003319345253502', '1.0034648373870434', '1.0034970367333518', '1.0034780510601686', '1.0033335323548456', '1.0033989499177272', '1.0033063571212926', '1.0031901690124012', '1.0029858104955713', '1.0029499440995646', '1.0031129185269598']</t>
+  </si>
+  <si>
+    <t>['14.190784045417072', '14.202163793691538', '14.206407277582233', '14.208252985775026', '14.208855467243911', '14.21919159652972', '14.22315786060447', '14.246694009558063', '14.240178095743941', '14.232571165101914', '14.232649538703667', '14.236218725766829', '14.239214382686285', '14.248042400769453', '14.255033647258514', '14.257860475275464', '14.274767216951194', '14.273064197348765', '14.26805193815426', '14.27048947819067', '14.275253137409866', '14.283176994425189', '14.281828091488125', '14.265575295673315', '14.256957363938131']</t>
+  </si>
+  <si>
+    <t>['24625.74132756573', '24628.4119954034', '24633.086874471133', '24624.499928998877', '24628.07898768521', '24622.285473297146', '24613.620663732356', '24591.519616822487', '24591.10487484509', '24591.9208782847', '24599.873184231452', '24594.15082325001', '24591.79463520875', '24596.00255161579', '24587.968543106745', '24595.725278142785', '24604.59232255018', '24599.26337407763', '24584.639029247992', '24585.817247290495', '24596.914255925083', '24616.303794073065', '24614.302614540422', '24597.318691449378', '24574.776096265523']</t>
+  </si>
+  <si>
+    <t>['2.998224998939985', '2.998984010086772', '2.999001299810461', '2.999900917617435', '3.0020979763565814', '3.0021860070353523', '3.0001517233552866', '2.9990741459801407', '2.9987490582485195', '2.998167093356324', '2.9992824866095136', '3.0021744137315483', '3.003016259920134', '3.0040569570997597', '3.0046244135029134', '3.0060662329052197', '3.0116341964211126', '3.0112554193117105', '3.01065420614214', '3.0123745899580516', '3.015111048002658', '3.0217495540699333', '3.0205022926103857', '3.015665574631182', '3.0125802237389987']</t>
+  </si>
+  <si>
+    <t>['2.3511016087431535', '2.350885016035095', '2.3505129912268927', '2.3469833317235693', '2.3475093023709515', '2.3520912907346063', '2.3520161565368314', '2.3525571770362967', '2.3534378866227232', '2.3538909861848865', '2.3546810145295973', '2.3548352399661634', '2.354915651468929', '2.3553150489630945', '2.355066357254721', '2.354746558072532', '2.3545257450604273', '2.3538854068258286', '2.3527871537758434', '2.3529000023687163', '2.3543667233826655', '2.3544327187635763', '2.354104050654834', '2.353597273400643', '2.3537714985727756']</t>
+  </si>
+  <si>
+    <t>['22.6357730627056', '22.652983668434427', '22.66575309600843', '22.683862020533088', '22.68475308778227', '22.693645364443057', '22.688359691576064', '22.712472656603765', '22.739199366976496', '22.76748664249807', '22.786590576224057', '22.79509679395329', '22.79422177977699', '22.787622584557685', '22.79193823849346', '22.797480923522286', '22.814275198219516', '22.812048228865724', '22.815503496181574', '22.82569062408219', '22.84805770632361', '22.86892745493061', '22.863664980395587', '22.81781072143472', '22.806887833727668']</t>
+  </si>
+  <si>
+    <t>['161.33172575578152', '161.32938441420885', '161.37420514661935', '161.42787531510544', '161.47767906716024', '161.4666251421434', '161.43575484636938', '161.3835844441579', '161.50327016448676', '161.6336188192781', '161.7103089216354', '161.88006567734303', '161.899632308596', '161.91735901945614', '161.9176735727546', '161.93919549541783', '162.0632466870325', '162.06309349006585', '162.01988487058918', '162.03659498733236', '162.07109127373363', '162.18200558120222', '162.17939539523195', '162.16641866219283', '162.19953361011434']</t>
+  </si>
+  <si>
+    <t>['8.568232824554434', '8.568581262436618', '8.553981956457665', '8.562554679438716', '8.580091284966294', '8.590490699048322', '8.583208802106805', '8.573675306759887', '8.596822997983473', '8.629260413544909', '8.66580070365191', '8.748765449975911', '8.742168845269845', '8.743210198839218', '8.747786822941004', '8.763206875363185', '8.8231530238705', '8.829309750302967', '8.849750221240132', '8.875504928007413', '8.87078797595581', '8.841736542745442', '8.825669114739796', '8.78546686842589', '8.76494099352077']</t>
+  </si>
+  <si>
+    <t>['136.2127823022437', '136.1828216520156', '136.17263046600996', '136.2196905284352', '136.19097624694035', '136.2038596038534', '136.15528564580794', '136.2575119353352', '136.39033063750188', '136.45345209648255', '136.54422671097763', '136.60526605155903', '136.67143186224826', '136.74230187282322', '136.78013950913072', '136.839872948621', '136.93069446707287', '136.96020295691704', '136.96773312137807', '137.05542607635195', '137.22200726514998', '137.2661131181556', '137.22482646672665', '137.0917839177284', '137.07576681851884']</t>
+  </si>
+  <si>
+    <t>['5.221456668545899', '5.222398728556413', '5.222364694791292', '5.222806143355825', '5.218357003476553', '5.214183376264271', '5.212814112189115', '5.213296602158072', '5.211225263829809', '5.214913771850836', '5.2203248742345645', '5.221190145598006', '5.21853915963', '5.219738803119524', '5.218117825098766', '5.216804306347489', '5.218278562523747', '5.219522751152988', '5.218873176353757', '5.221533981231017', '5.222165368610796', '5.221822803305402', '5.221890968640303', '5.223095639213669', '5.223149141960472']</t>
+  </si>
+  <si>
+    <t>['1869.9328583908255', '1868.595094394858', '1869.7376709103364', '1869.3523156746337', '1866.2357107028479', '1866.2734786655863', '1866.3899799166254', '1866.3582261088025', '1867.3022003000908', '1872.452267951747', '1875.468645621536', '1882.3335293284504', '1882.1957197060806', None, None, None, None, None, None, None, None, None, None, None, None]</t>
+  </si>
+  <si>
+    <t>['0.08736607129546661', '0.08738786136133755', '0.08737779239029152', '0.08749709912697261', '0.08760542672217271', '0.08761064581033354', '0.08758414274999943', '0.0875107713387571', '0.08773281824285074', '0.08793458048451624', '0.08796369680845635', '0.08802897969466031', '0.08814034713234525', '0.08847032986680409', '0.08863422602139046', '0.08862380615042105', '0.08864051521622059', '0.08862844503250329', '0.08858382475728482', '0.08857472278259293', '0.08860761694898805', '0.08869270418530872', '0.08865089170393606', '0.08837827117919504', '0.08825818197674189']</t>
+  </si>
+  <si>
+    <t>['7.387191098545818', '7.398313886983865', '7.411429363384445', '7.40133172417995', '7.3937601931614', '7.379392719867626', '7.369486329703237', '7.364867566892266', '7.366957851981106', '7.372278312166677', '7.373653848645664', '7.37277125990208', '7.373036902887643', '7.390882677689964', '7.407321917342875', '7.4169453039655275', '7.440198262674885', '7.44186447610203', '7.447290131364299', '7.459752973038466', '7.466861342988295', '7.487845241724211', '7.485435626605544', '7.46956526809337', '7.459111104907837']</t>
+  </si>
+  <si>
+    <t>['1.0348478348785297', '1.0360197292132582', '1.0358949079245618', '1.0363434275795613', '1.0368507879516937', '1.038138386801662', '1.0380197953122603', '1.0373648723118956', '1.037718840828696', '1.0381968782991324', '1.0380559838422363', '1.0376050525100258', '1.0382014998188949', '1.0387100321209386', '1.03924264276291', '1.0391969071777705', '1.0400415275031385', '1.0399438328647739', '1.0398606872484513', '1.0403266221707563', '1.0403700184143556', '1.0413542075883915', '1.0413397871316108', '1.0398378212095172', '1.0387323261759847']</t>
+  </si>
+  <si>
+    <t>['1.9861227433556172', '1.9862595799022154', '1.9873623825790994', '1.985987245535188', '1.9863514923783518', '1.987754704768409', '1.9892786685267145', '1.9896614552507377', '1.9895210226337332', '1.9891896356526462', '1.9896396978295567', '1.9891257119660128', '1.9874876624246194', '1.984173195119021', '1.984039049845382', '1.9825570112410034', '1.981506477779724', '1.9814534514977442', '1.980410120946517', '1.9785766228928292', '1.9747592080621446', '1.9726128250012567', '1.9701820661159342', '1.9635776168695365', '1.9633379476444779']</t>
+  </si>
+  <si>
+    <t>['0.02913953010692578', '0.029175494393280595', '0.02920269709747591', '0.02915422198043586', '0.02908292418378951', '0.029077640619774647', '0.02907820461415509', '0.029076834976096165', '0.029041784800659623', '0.02900462657137808', '0.02903880247240934', '0.029163426399156516', '0.029169316852950447', '0.029215555620956304', '0.029239615739293134', '0.029225105314186768', '0.029189951041847982', '0.029184160809521256', '0.029174877026209387', '0.029215069404471578', '0.029265903655792614', '0.029387173823523318', '0.02937974376989318', '0.029300629841978995', '0.02926630671685358']</t>
+  </si>
+  <si>
+    <t>['0.27092943111235485', '0.2710973466841182', '0.27113312043909304', '0.27109716373044673', '0.2712932513757957', '0.27195832153156385', '0.27215394995154707', '0.272328612076176', '0.2724634110150438', '0.27260372508601505', '0.2726213666234775', '0.2728477588606891', '0.2729693975741087', '0.27322478608336465', '0.2734146326301056', '0.2735262257170017', '0.2737411608324855', '0.27379594009904923', '0.2739202865888426', '0.2741916817761076', '0.27442970794859795', '0.2747654028380184', '0.2747721339049293', '0.27451260123366045', '0.274336769063139']</t>
+  </si>
+  <si>
+    <t>['10.767724037601642', '10.77433582004669', '10.778964728362842', '10.776306126637198', '10.772853536418665', '10.768833441341192', '10.765687986568297', '10.759222301617285', '10.759841181980889', '10.758863555607519', '10.758902555335263', '10.751658362495535', '10.75312883798506', '10.76875327662788', '10.774797458280776', '10.776568311693092', '10.782674844379741', '10.78119616423909', '10.780359884727345', '10.780156108316508', '10.7931585329122', '10.822588914020514', '10.822939912998013', '10.796322636359873', '10.787141399865595']</t>
+  </si>
+  <si>
+    <t>['14.138933004547148', '14.153046640110734', '14.159861195082135', '14.171431056855473', '14.17756558913921', '14.185812053327414', '14.184111323022307', '14.178424459179423', '14.175052757214146', '14.171391567003962', '14.179057529629285', '14.18918547110825', '14.191369436319', '14.18426401209938', '14.182023246956103', '14.182106338866067', '14.196382032769167', '14.193721391366768', '14.193045219598387', '14.201989400863692', '14.215816646607863', '14.266865486291195', '14.261225123141326', '14.244645130336501', '14.236307771025617']</t>
+  </si>
+  <si>
+    <t>['0.09100394386214371', '0.09099873549879554', '0.09095874514411506', '0.0910055395728092', '0.09107126074473601', '0.09109901858001415', '0.09110692678533472', '0.09111950074427279', '0.09122359597624735', '0.09134451531558159', '0.09136228777737339', '0.09137984063121303', '0.09139750357837617', '0.09141161254267478', '0.09139318265029307', '0.09140193278142639', '0.09140081737985875', '0.09137934864623055', '0.09133564540903764', '0.09134783698063333', '0.09137390607650772', '0.09141142057391619', '0.09139840721675811', '0.0913450933727583', '0.09132001049856744']</t>
+  </si>
+  <si>
+    <t>['0.7784504710174338', '0.7788262068935634', '0.778825065841274', '0.7790366938628284', '0.7795372967083029', '0.7807158307397322', '0.7806711612198629', '0.7802100764722809', '0.780387183882896', '0.7802806669810101', '0.7803666529214358', '0.7805280913988706', '0.7806583946071025', '0.7811800155680372', '0.7816005866743909', '0.7815768748595247', '0.7821216615854345', '0.7820935154894696', '0.7824626035828243', '0.7831420708456748', '0.7838631256655364', '0.7878236324748306', '0.7875606229765636', '0.7863453550606985', '0.7853184053623936']</t>
+  </si>
+  <si>
+    <t>['1.4522247237323864', '1.4523821340249714', '1.4528579445833123', '1.4539633927422773', '1.4539930083243349', '1.4540767068396543', '1.4557494738691252', '1.453308449900163', '1.4519277132238722', '1.454631293464365', '1.4553652610888679', '1.4551575941902644', '1.454048840182812', '1.4553907372094304', '1.458460681801549', '1.459462119753984', '1.4610339816839564', '1.4630210745100043', '1.4630229501136376', '1.4602478771112115', '1.4602857092792403', '1.462481105384838', '1.464341175650477', '1.4633777193134536', '1.4625559873874645']</t>
+  </si>
+  <si>
+    <t>['16.596314302503767', '16.578663779210824', '16.612704424490925', '16.677912823696158', '16.650187742938808', '16.649694132979636', '16.60582860398758', '16.589166749224713', '16.680445249270118', '16.70333262468752', '16.735704645080663', '16.75131689573998', None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
+  </si>
+  <si>
+    <t>['0.7168685425430159', '0.7171922482141588', '0.7171270297819703', '0.7174271438100085', '0.7178464555126146', '0.7185657773542028', '0.7184058112786171', '0.7183260487779844', '0.7181393537049917', '0.7180497869678891', '0.7183539852280232', '0.7191267296953112', '0.7192445807891358', '0.7190552185063918', '0.7189283895818722', '0.719002114460182', '0.7192184274657982', '0.7191764454415782', '0.7191347315702966', '0.7196015344236141', '0.7205863187145151', '0.7222265508867902', '0.721933300557718', '0.7209496753908745', '0.7204920582184448']</t>
+  </si>
+  <si>
+    <t>['2.573743977110276', '2.5750752833534474', '2.575737173469389', '2.5766971633488347', '2.5773187971997915', '2.578770497180312', '2.578156008496989', '2.579095338702246', '2.581334460450829', '2.5835773443590178', '2.5849154528830818', '2.5883076992071214', '2.5891251855785264', '2.590114623202497', '2.591605696226274', '2.590736001121189', '2.592289854890115', '2.59183403055361', '2.5915998345071833', '2.5935939636000853', '2.5955200585321423', '2.602059599400176', '2.600992695576279', '2.597159791767985', '2.594541516294389']</t>
+  </si>
+  <si>
+    <t>['4.201552626728361', '4.202435081360518', '4.2015071717579255', '4.195460080151718', '4.194320389041283', '4.19261469466387', '4.197898612360742', '4.195350932275567', '4.194504882778383', '4.192063817014901', '4.1891724108245665', '4.1899948729474135', '4.1902715525792', '4.192216736908495', '4.1936130794436295', '4.194107186764046', '4.193867560458753', '4.194365758832119', '4.194304224521848', '4.194685873021059', '4.196161640987431', '4.200159819065652', '4.203222527213198', '4.202565750979983', '4.20183738659867']</t>
+  </si>
+  <si>
+    <t>['1.0035005769384067', '1.0034135274752667', '1.0032807717372234', '1.003069519881843', '1.0025334450634855', '1.0022954931962638', '1.0024762819521367', '1.0026077287425543', '1.002880281656045', '1.0029543257564997', '1.0029632161293867', '1.0029686117983088', '1.0026731533889466', '1.00272778122362', '1.0028255450821268', '1.0030632956747085', '1.0030455054237235', '1.003053263877825', '1.0034612376790846', '1.0037007937936189', '1.0036987742710104', '1.0031533315642944', '1.002597248176523', '1.0026095550357454', '1.0026776520559515']</t>
+  </si>
+  <si>
+    <t>['1.3368442450407962', '1.3396699178111566', '1.3418573138118666', '1.3377316866409203', '1.335161837639965', '1.3338036443681056', '1.3328291556962968', '1.331824092916817', '1.3285124734679647', '1.3261758790896412', '1.327295900821146', '1.329530538572618', '1.3309817108617374', '1.3348718614692479', '1.3366408794654938', '1.3364178065978756', '1.3364704181923555', '1.3363725433784073', '1.3361653104008782', '1.3368632622237715', '1.3384372298684801', '1.3414093992041436', '1.3399814215052583', '1.3360754057388236', '1.3339760011125885']</t>
+  </si>
+  <si>
+    <t>['137.78675074662036', '137.75662835120514', '137.7078382402945', '137.6572053672222', '137.63351834334594', '137.68297464399456', '137.6457981506607', '137.59571726251872', '137.6062301618411', '137.62339019108413', '137.6273388419491', '137.63383358563684', '137.64754411106532', '137.7329115111614', '137.79095030563187', '137.8119947480513', '137.90433766203327', '137.94672883798606', '138.07147693447726', '138.1104251818648', '138.14446309993323', '138.16615699884605', '138.1155031448205', '137.99082618028945', '137.945148957715']</t>
+  </si>
+  <si>
+    <t>['90.81959377891502', '90.81862178960571', '90.74633508329806', '90.70009329947383', '90.69139954741436', '90.7739833938512', '90.73463746993615', '90.76878806718013', '90.85942327918069', '90.94788463721866', '90.93011756521312', '90.90773647909148', '90.91824662725826', '90.96029401374602', '90.98120200805079', '90.96809561910162', '90.94965929968792', '90.96399401206641', '90.97934923187597', '91.04956414909968', '91.09517210908722', '91.1319360919694', '91.11806809523873', '91.05063649313193', '91.00639315347816']</t>
+  </si>
+  <si>
+    <t>['0.07975588616316377', '0.07974191054377738', '0.07974118691088544', '0.07975383062558757', '0.07973192274888895', '0.07971667872063148', '0.07966056445732941', '0.07964728160792862', '0.07963381224352185', '0.07963542871095507', '0.07963304337697127', '0.07967176396638764', '0.07967077114187857', '0.07966353783729692', '0.07968572099118965', '0.0796847768347153', '0.07969760882194397', '0.07970882463198399', '0.07969919330955696', '0.07969650747839334', '0.07971815993041576', '0.07969828190195433', '0.07970319905094102', '0.07972673102932606', '0.07977022091577132']</t>
+  </si>
+  <si>
+    <t>['1.252509992335037', '1.252660386690892', '1.2515002754172273', '1.2494827617237072', '1.2479039775577292', '1.248052875056191', '1.2470198556376284', '1.2468525145364684', '1.2472480512794868', '1.2485937510468375', '1.2495282776114636', '1.2514566123305475', '1.2516289185815714', '1.2527531166308337', '1.253038371541391', '1.25208132991977', '1.2520891048281106', '1.251778818078578', '1.2514935554736815', '1.2518071995911373', '1.25182022857874', '1.2510917852762469', '1.2509551865782642', '1.2508180842712726', '1.2507886523480676']</t>
+  </si>
+  <si>
+    <t>['51.172891268977416', '51.204710915086224', '51.2130201145097', '51.239946623094085', '51.26151586481046', '51.27619699054049', '51.27446465644957', '51.295954137475434', '51.33675525715586', '51.370812800017596', '51.39967002190707', '51.467620485056415', '51.48300978162241', '51.505416214184955', '51.524582708596945', '51.54393709372355', '51.5893409684939', '51.599623950597234', '51.602514790974254', '51.62062247801082', '51.62540489806573', '51.65765717317027', '51.654795347880814', '51.66200676233219', '51.67095845552173']</t>
+  </si>
+  <si>
+    <t>['1.19679579727378', '1.1972448288974693', '1.1955977460430887', '1.1955727041679174', '1.1953442019170843', '1.1957907942797315', '1.1955337832322435', '1.1950066699983841', '1.1960174472090617', '1.1969224435714987', '1.1968543610652684', '1.1964873624332428', '1.1967036934267874', '1.1983015066442622', '1.1991355690179262', '1.199046923888134', '1.1986984224601196', '1.198817851834029', '1.1992329096514713', '1.200149048567742', '1.2012089560951464', '1.2038943177556876', '1.204121009541869', '1.204142756513184', '1.2040180978466697']</t>
+  </si>
+  <si>
+    <t>['3.176830626e-9', '3.185946073e-9', '3.192768186e-9', '3.183378071e-9', '3.191693299e-9', '3.221654069e-9', '3.227976628e-9', '3.2285036e-9', '3.226877347e-9', '3.230977934e-9', '3.230892674e-9', '3.225422519e-9', '3.221830498e-9', '3.223713933e-9', '3.226166823e-9', '3.23732143e-9', '3.241005041e-9', '3.246186115e-9', '3.227819228e-9', '3.222534674e-9', '3.236321174e-9', '3.244712913e-9', '3.231906562e-9', '3.222326163e-9', '3.222473741e-9']</t>
+  </si>
+  <si>
+    <t>['0.000169776665292228', '0.000169845691706207', '0.000169852925049496', '0.000169609011084203', '0.000169326959093522', '0.000169458114865363', '0.000169449257443455', '0.00016928207617611', '0.000169380445022087', '0.00016944129735307', '0.000169442889066798', '0.000169453087450269', '0.000169490469689402', '0.000169584166334816', '0.000169625156554697', '0.000169639855288543', '0.000169728056675307', '0.000169738061785404', '0.00016975037640626', '0.000169766844984846', '0.000169809079790559', '0.000169958584563655', '0.000169942439886692', '0.000169676380094491', '0.000169536013882624']</t>
+  </si>
+  <si>
+    <t>['1.183006985483853', '1.183560143611437', '1.1842746447106747', '1.1844619035007835', '1.185022453444893', '1.185085527023406', '1.1848561468872636', '1.1849902346328796', '1.1854586386730839', '1.1862365207383747', '1.186152688115114', '1.1868877049599182', '1.1871742701200818', '1.1877564438885175', '1.187723245660128', '1.1864775457822416', '1.184783651575116', '1.1847904126282969', '1.1836383103800843', '1.1836777259729245', '1.1852125105451354', '1.1877008728228131', '1.1879832102727814', '1.1871382650622757', '1.1868940295553243']</t>
+  </si>
+  <si>
+    <t>['0.14077740499395006', '0.14083304190452348', '0.14080778047654433', '0.14087036464047006', '0.1409575653344443', '0.14116173107100688', '0.1412958750299116', '0.14142672071712561', '0.1416558592392243', '0.1418721595086429', '0.1419317627176722', '0.14210073548328744', '0.14215465131429258', '0.14208713359502373', '0.1420517946046895', '0.14203960925436054', '0.1422017608330604', '0.1422126567854773', '0.14213728817359567', '0.14209981449534323', '0.14208530741755093', '0.14207622318490032', '0.14207605245729843', '0.14194420622226978', '0.1418529512170183']</t>
+  </si>
+  <si>
+    <t>['173.26991872534674', '173.165564579806', '173.0963939901057', '173.18440221349275', '173.56683841074303', '173.83078657486445', '173.53147960797094', '173.43620599932', '173.63343129960785', '173.60957387756991', '173.61288441819846', '173.63432989693058', '173.69894300123397', '173.9681632518978', '173.9753178032147', '173.96067335593756', '173.95122398062287', '174.09025806295972', '173.97677284046662', '174.0041486316165', '174.17155479459925', '174.24751634406658', '174.00108969642017', '173.86660843989165', '173.9098610694673']</t>
+  </si>
+  <si>
+    <t>['0.9969773820923749', '0.9965353965158141', '0.9963518244753432', '0.9961680631573585', '0.9958614189219068', '0.9957035915383463', '0.995557046889754', '0.996624348055363', '0.9964497365085998', '0.9962171548758283', '0.9964520551983704', '0.9964661158002635', '0.9964672174325497', '0.9963691705936191', '0.9963636772100436', '0.9963639467944113', '0.9965987805022953', '0.9966091877599002', '0.996607261450442', '0.9965516863921788', '0.9965369922819852', '0.9965317096499058', '0.9959188587240824', '0.9958730841507237', '0.9958751841244857']</t>
+  </si>
+  <si>
+    <t>['0.26245977599276316', '0.26262224142835644', '0.26268773180468863', '0.26244705423982256', '0.2621952329531777', '0.262295329844642', '0.2621696460080955', '0.2617162531360056', '0.2613460942565745', '0.2611513350930607', '0.261280001390769', '0.26170028897959474', '0.2617867656771974', '0.26213018245390035', '0.26247095613324234', '0.2628018780587407', '0.2635533671131843', '0.26355886071815604', '0.2637705354098174', '0.26399089307141715', '0.26424429889855017', '0.26473366299324197', '0.26447567480230505', '0.26352001233340405', '0.26330941556919857']</t>
+  </si>
+  <si>
+    <t>['1.7312084175192541', '1.7325194800796595', '1.737574919972514', '1.7377796155891765', '1.7380438999349777', '1.7425923834094292', '1.7422507720880118', '1.7380253862470083', '1.7386482338879488', '1.7394904821210555', '1.740110933377276', '1.7417957561602784', '1.7422255037987275', '1.743347152992265', '1.743917823491694', '1.7454236942983012', '1.7493586521370101', '1.7493582465979198', '1.7484512041144997', '1.748767825533492', '1.7510105554936322', '1.754782990374303', '1.7542820356641966', '1.7502279083449153', '1.748896250509009']</t>
+  </si>
+  <si>
+    <t>['1.213791865041334', '1.2144550345119463', '1.2135808139369388', '1.2131897275013213', '1.2126332491024985', '1.2118121662570773', '1.20999304568283', '1.2078827099626992', '1.2086531057656693', '1.2091490731685872', '1.2090615169803087', '1.2119727845233323', '1.2132175129946527', '1.213956356496176', '1.2147790175571396', '1.214863347230315', '1.215636197973405', '1.2154259031429406', '1.215176268805283', '1.2155507950754398', '1.2159343309964208', '1.2162071790595905', '1.21593491607533', '1.2144312024219126', '1.2134651753267953']</t>
+  </si>
+  <si>
+    <t>['0.5251600464310258', '0.5253492645795041', '0.5252460860157263', '0.5252794479660811', '0.5252925838395968', '0.5253560285416519', '0.5253185225581279', '0.525760832673077', '0.5260597166578697', '0.5262530878012059', '0.5263423956477852', '0.5266443315075878', '0.5267378553402697', '0.526875811439192', '0.526872958028406', '0.5268507633709532', '0.52716014031722', '0.5271878034261659', '0.528005423887176', '0.5284345149990175', '0.5287323774527604', '0.5293191791998205', '0.5292757690042865', '0.5279882292676448', '0.5275209600938506']</t>
+  </si>
+  <si>
+    <t>['1.4345493246533032', '1.4356559000788494', '1.435161653803992', '1.4350430768904492', '1.4351429220455307', '1.43574381384601', '1.4357076123030146', '1.4360294556675708', '1.4361221419724375', '1.4368309749234014', '1.4379626661425642', '1.4416869351259622', '1.4425012759276261', '1.4430823795944687', '1.4435095290159932', '1.4439953390264026', '1.445463232911882', '1.4456418435038545', '1.4450895895466447', '1.445278294227699', '1.4458654835868452', '1.4474327064023405', '1.4470060865910135', '1.445396045564307', '1.4447200453792624']</t>
+  </si>
+  <si>
+    <t>['0.3589530159432793', '0.3583894344202753', '0.3569769999280749', '0.3566284128442025', '0.355811980835665', '0.3551502158275429', '0.3549948277900332', '0.35459503356554545', '0.3534295636656784', '0.35237807289806855', '0.3525061985314288', '0.35304357100081013', '0.35306739179638824', '0.35243803138513324', '0.351687957112721', '0.3515388953885114', '0.3510655948734022', '0.3514154758090397', '0.35196846464199216', '0.3523162470294691', '0.352510990684491', '0.3527085005423058', '0.35231074739631896', '0.3513128941315954', '0.3504740013387241']</t>
+  </si>
+  <si>
+    <t>['0.1713006353466873', '0.17142713808356658', '0.17126422747763498', '0.17121266263063006', '0.17115960199274444', '0.17127219708155178', '0.17117534241971125', '0.17106402299503665', '0.1711821969664074', '0.17127309772682836', '0.1712530730004307', '0.17111288056890955', '0.17115504236096565', '0.171304185930361', '0.1713826071399738', '0.17139850101493934', '0.17141964895746958', '0.1714069060469077', '0.17142845337829313', '0.17152244278673132', '0.17165193004984583', '0.17209011719575723', '0.172082288576837', '0.17184309541521262', '0.17171521377420057']</t>
+  </si>
+  <si>
+    <t>['2.6194661061502655', '2.6208138013687607', '2.6176924753214346', '2.618207326221687', '2.6192090215254766', '2.618981480519537', '2.6175644386600503', '2.6168922337235863', '2.61725801169152', '2.6171394378176704', '2.618032820628589', '2.6220648217108797', '2.6235368674092823', '2.6250301427121907', '2.6256623270432056', '2.6264049584586915', '2.6286912956606745', '2.628626638827592', '2.629476497070018', '2.631716016953691', '2.6330759588869', '2.638919046377526', '2.638853485206506', '2.6352518559990536', '2.6338527267727017']</t>
+  </si>
+  <si>
+    <t>['42.47233264204092', '42.47157431763368', '42.45359888592172', '42.45412107423107', '42.43026645460755', '42.42342341155088', '42.41809473381065', '42.39910878257969', '42.40890338192941', '42.416057962529166', '42.41961497853526', '42.42159989682621', '42.42260455818544', '42.429627976599726', '42.46138316895642', '42.459040676512174', '42.47190015765947', '42.47109332681353', '42.46383851052389', '42.46149058676713', '42.471186294615926', '42.479484129037374', '42.47844184372657', '42.4665112555525', '42.44974941137115']</t>
+  </si>
+  <si>
+    <t>['71.0199700627669', '71.03287924067345', '71.07256572518035', '71.09660897736919', '71.10651885887107', '71.12660404649633', '71.10365063248857', '71.1412407113652', '71.14897676699533', '71.1392836551118', '71.15245206353181', '71.18026358929785', '71.19553337279277', '71.2383200814949', '71.26604932915525', '71.26151609023844', '71.26435584675342', '71.24403781400764', '71.24782754410693', '71.27960868923893', '71.33860693345531', '71.40443842345552', '71.3689235016838', '71.19740666469374', '71.10732431007656']</t>
+  </si>
+  <si>
+    <t>['1.0032512011447157', '1.0039908052117172', '1.0049456042937133', '1.0045736063047215', '1.0043477506141796', '1.0068477303726437', '1.0073353137850085', '1.006006126450747', '1.006076955185809', '1.0056627113029126', '1.0060066378756427', '1.006503969527745', '1.0064256774151756', '1.0066807418193633', '1.0068343485672202', '1.0065393262447517', '1.0058687062537424', '1.0057811420820406', '1.006112854981109', '1.0065801698623864', '1.0069823225149217', '1.009362186851173', '1.0093650903781408', '1.0084995009060378', '1.0076948343042582']</t>
+  </si>
+  <si>
+    <t>['10.524906398880988', '10.534203600744473', '10.532270655722805', '10.526160041056674', '10.519233329767562', '10.508239688853925', '10.499039975072735', '10.486908500304354', '10.490027968664759', '10.494805347584766', '10.498591158718055', '10.523267871400563', '10.52896363364592', '10.552442252342736', '10.56925548810847', '10.578003414590848', '10.602806932311909', '10.599424406679331', '10.581177020536987', '10.57822085938995', '10.59339558483502', '10.626788539990068', '10.626781191922523', '10.63927123008256', '10.668865533839936']</t>
+  </si>
+  <si>
+    <t>['47.39540937765842', '47.47904972784913', '47.50825887185571', '47.47306681431511', '47.450597123458515', '47.45295609567259', '47.42088149633802', '47.34920698491705', '47.33515791394893', '47.311117577842296', '47.32063801674179', '47.39568085105053', '47.401361363805954', '47.42018221378992', '47.43524622780863', '47.457346360338775', '47.500964727190194', '47.52553617032919', '47.62931602712715', '47.67136509927032', '47.68619172163269', '47.74165511766817', '47.73583113446196', '47.61637530935061', '47.569869128987975']</t>
+  </si>
+  <si>
+    <t>['0.003729239886787474', '0.003722773469532907', '0.00371338564474744', '0.003708905166886272', '0.003706604525173868', '0.003717858904785606', '0.003707745586453219', '0.003694412979700064', '0.003698690176847297', '0.003698265706377443', '0.003698593164824873', '0.003699327309313495', '0.003700274992205935', '0.003706806038962559', '0.003706009852217188', '0.003723602186711966', '0.003733261090604751', '0.003732772602589877', '0.003727048587865418', '0.003726971709332566', '0.003729685053428271', '0.003730782224295849', '0.003730475455295232', '0.003728412147345838', '0.00372733486313414']</t>
+  </si>
+  <si>
+    <t>['5.581074796287497', '5.58482757399959', '5.58275293734921', '5.584392885366098', '5.588233197906635', '5.59075308637793', '5.591627145158138', '5.590011386352721', '5.591437345591886', '5.592824319364129', '5.593174289499347', '5.593441562635902', '5.594385986952203', '5.5954215978010975', '5.597728346378582', '5.599423182715568', '5.605342332120078', '5.605079491001766', '5.6072437943929625', '5.612445689503647', '5.6199951543691204', '5.630481988019658', '5.629189281741789', '5.625847521201632', '5.626280579186826']</t>
+  </si>
+  <si>
+    <t>['1.0039237752469288', '1.0037517899185102', '1.0035560309961347', '1.0033722929403865', '1.0031220824236393', '1.002769007286928', '1.0027618225811423', '1.002756871194392', '1.0030573103637763', '1.0032555485331929', '1.0032981393682243', '1.003239789468967', '1.003269931720513', '1.0034117464990655', '1.0034088602175202', '1.0033473582383934', '1.0033347547282065', '1.0033899779423443', '1.0034733186363494', '1.00353672203599', '1.003798053976098', '1.0037770268525237', '1.003307569616625', '1.0027602154293462', '1.002750551731644']</t>
+  </si>
+  <si>
+    <t>['1.0024075766081366', '1.0022428332416784', '1.0020589255863557', '1.001864828063533', '1.0017492818615366', '1.0013388489567367', '1.0013932379788022', '1.0014472780390593', '1.0007372812186954', '1.000548185283413', '1.0010481871711645', '1.0012627957687648', '1.0012256524449648', '1.001082165790789', '1.0010826448651993', '1.0010262407828419', '1.0009941169375518', '1.001160993811325', '1.001738801865726', '1.0017393727528658', '1.0008663743249715', '1.0005070046108642', '1.0005718031202029', '1.0008047196040863', '1.0008051180684259']</t>
+  </si>
+  <si>
+    <t>['742.1350911305951', '742.2545935248994', '742.0668591255733', '741.6720507111976', '741.4480043830509', '741.1734360732396', '740.4922421059955', '740.413974269055', '740.2501525841022', '740.2097420150023', '740.1909521247997', '739.9899982643929', '739.9173499350254', '739.9977899766446', '740.1034227171925', '740.5624482340063', '741.0501486027306', '741.3285846482406', '741.3274761817111', '741.6972187619406', '742.4369596079874', '743.48985853488', '743.4323096903439', '742.9775106506409', '742.5082408996068']</t>
+  </si>
+  <si>
+    <t>['0.2493298833459398', '0.24944442120558522', '0.2491322098928412', '0.24924651840929768', '0.249404807832055', '0.24976574486424516', '0.24988696091594217', '0.2498070271661805', '0.25001136995388723', '0.25034688195369065', '0.250365721523436', '0.25058613718979217', '0.2506156203512839', '0.25071280857787676', '0.25085816441692205', '0.2508799225295362', '0.25111721870327663', '0.25110746707167503', '0.2510573285148888', '0.2510355289093718', '0.25112763012998274', '0.251556662787974', '0.2515827261315948', '0.2516148037076339', '0.25165230830849283']</t>
+  </si>
+  <si>
+    <t>['7.37614726313e-7', '7.3761456484e-7', '7.3762613053e-7', '7.37181145647e-7', '7.37454751944e-7', '7.376278221e-7', '7.37923215257e-7', '7.38246433969e-7', '7.38209330449e-7', '7.38243584864e-7', '7.38254748903e-7', '7.38461052626e-7', '7.38632029963e-7', '7.38731310296e-7', '7.3868461218e-7', '7.38527973505e-7', '7.38545583397e-7', '7.38867852778e-7', '7.39257460766e-7', '7.39666394731e-7', '7.40035807184e-7', '7.39882600297e-7', '7.39509220996e-7', '7.39162175284e-7', '7.39325674598e-7']</t>
+  </si>
+  <si>
+    <t>['0.000036115291919712', '0.000036134806469535', '0.000036121819754608', '0.000036144612203668', '0.000036185455984234', '0.000036182667880989', '0.000036174760994876', '0.000036210834819977', '0.000036256266647296', '0.00003630989054858', '0.000036345180552697', '0.000036414972689549', '0.000036411983460024', '0.00003640193874743', '0.000036392258120167', '0.000036384867272156', '0.000036393370050913', '0.000036396130710055', '0.00003640864838889', '0.000036422272318395', '0.000036432725944131', '0.000036467744695615', '0.000036464524213078', '0.000036437516746321', '0.000036425930501496']</t>
+  </si>
+  <si>
+    <t>['8.9810394404217', '8.981345025427208', '8.987578717877701', '8.987576663666543', '8.987568452035191', '8.98588976680944', '8.985711009197834', '8.982062646175011', '8.981863644011458', '8.975018895369903', '8.975024461764603', '8.975005624094871', '8.97410382583711', '8.974156264829611', '8.975500796335007', '8.975506686966547', '8.976271668497175', '8.976313233907435', '8.979510198907159', '8.979359442604517', '8.97623298163557', '8.974424994611637', '8.974318237497599', None, None]</t>
+  </si>
+  <si>
+    <t>['0.03193527834557935', '0.031993515755523456', '0.03201233771743139', '0.031999682234299553', '0.031970274050894684', '0.03198982961914529', '0.03205245884228694', '0.03202783199472553', '0.03197767131660235', '0.03191921661447979', '0.031917593277248905', '0.03194810951948227', '0.03192431560063756', '0.03191564194331692', '0.031994856045306955', '0.032009043225584885', '0.03204159319883605', '0.032052519135127605', '0.032066052902382264', '0.03201951017635645', '0.03202434442353437', '0.03214451886218426', '0.03220182253704824', '0.03219990150002982', '0.032155043293509884']</t>
+  </si>
+  <si>
+    <t>['10.854228505004533', '10.85770377831064', '10.846162282792116', '10.84955179969618', '10.852551148928962', '10.853842612690237', '10.853958451003106', '10.862910403346948', '10.868861329294326', '10.874622725296224', '10.87960574609524', '10.898286965054135', '10.900245738990229', '10.91164518573998', '10.920457474447435', '10.92469033425201', '10.93051817632739', '10.9285817280884', '10.924642887843243', '10.92645392838185', '10.935245455461407', '10.959453302335408', '10.960378048267641', '10.954246771015598', '10.951162172052213']</t>
+  </si>
+  <si>
+    <t>['0.0646315946122533', '0.06458238672081586', '0.06454808685796748', '0.06450341047925928', '0.06458470410323683', '0.06455348176992722', '0.06456113507764309', '0.06481761368392404', '0.06469936475278655', '0.06460743388175882', '0.06468928819400824', '0.0646889357470684', '0.0646916068714912', '0.06471644395632208', '0.06472775805235964', '0.06472110810540672', '0.06466472473961692', '0.06466318209037071', '0.06467084390157431', '0.06479002059015466', '0.06478087351987273', '0.06476258509979728', '0.06467465884725038', '0.06465155200131144', '0.06465805602896711']</t>
+  </si>
+  <si>
+    <t>['0.03235470934450724', '0.03236382910887355', '0.032350886738416754', '0.032347072123517936', '0.03233637085963226', '0.032380810232851075', '0.03238994063814817', '0.032400246758037876', '0.03240481133878025', '0.03239957783906473', '0.03240958427795651', '0.0324527449952672', '0.032462930938605174', '0.03247950648173962', '0.03249534951792205', '0.03250286098413389', '0.032526167809980855', '0.03252448614213', '0.032509819467290736', '0.03252034168425817', '0.03254319542393066', '0.03260558780483461', '0.032597783580432096', '0.03255405402795197', '0.032528358123443825']</t>
+  </si>
+  <si>
+    <t>['1.3001174214885416', '1.2996597878677834', '1.3001696921545123', '1.3001878106915499', '1.3001186835486824', '1.2994420787646415', '1.2985917901232344', '1.2995913768784186', '1.3001993892828427', '1.3004454638235594', '1.3011998777261673', '1.3012357662539178', '1.3012933234069317', '1.301393341283291', '1.300486632931711', '1.3000402125148718', '1.2995230173536592', '1.2992459654095376', '1.2992955938316173', '1.3003462204709462', '1.3006998369114575', '1.300440853203077', '1.3001330445974013', '1.2999796581369412', '1.3002987781829014']</t>
+  </si>
+  <si>
+    <t>['2.644616462916086', '2.6461946068556537', '2.6432562361279763', '2.643089337413425', '2.642235025828017', '2.642282345682206', '2.6415060669835917', '2.6416727029599585', '2.6428183034013264', '2.6430706766491885', '2.643065473949756', '2.6414170965484924', '2.641468983619078', '2.633220639162159', '2.626160855927372', '2.6249565273206095', '2.624723589713699', '2.6248949883577937', '2.62777338417113', '2.6308149050094083', '2.6333904285516163', '2.6402408399547364', '2.6394587012057475', '2.638894503199433', '2.637978472810912']</t>
+  </si>
+  <si>
+    <t>['1.0027511128484579', '1.0038447812426516', '1.004013141416971', '1.0037958431374114', '1.0028801611426588', '1.0017008324214671', '1.0025178482653192', '1.001651780860279', '1.0019366204372733', '1.0020229869740467', '1.0019857923463784', '1.002633202821732', '1.0032240634906513', '1.003513566289272', '1.0035275547104345', '1.0034818976429436', '1.0034437291418858', '1.0035166088736358', '1.0037158775608241', '1.002532224350395', '1.0020145760695707', '1.001905670539737', '1.001667299238827', '1.0015210443056657', '1.0025073307224646']</t>
+  </si>
+  <si>
+    <t>['12.753484820808985', '12.77093632079383', '12.764410045325686', '12.768681690700944', '12.772028422964391', '12.767540982507233', '12.765878061386562', '12.762113248912604', '12.771111061611071', '12.769304934048627', '12.772708531128947', '12.779010592324015', '12.777411692989759', '12.781917616911931', '12.810501272769516', '12.813202822894837', '12.825271811542345', '12.831599606227021', '12.853328261645393', '12.862859851912145', '12.878357312326148', '12.897801945915674', '12.889919569124906', '12.869949051913755', '12.85522697673334']</t>
+  </si>
+  <si>
+    <t>['0.39407507016139404', '0.3953550429085223', '0.39591076555689425', '0.3974937289171892', '0.39730280368698856', '0.3967914048036676', '0.39677302613249277', '0.39757951662749813', '0.39681644316990006', '0.3976049935290224', '0.39779018643271447', '0.3969615313414777', None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
+  </si>
+  <si>
+    <t>['0.032007395226812264', '0.032020492239829994', '0.03202007313447459', '0.03201371249110649', '0.032008884538322346', '0.03200204104536437', '0.03199299686725938', '0.03200649997553586', '0.03203529534513942', '0.0320765421079743', '0.032079752173837205', '0.032082978994668394', '0.03209217910306997', '0.03213838238048536', '0.032167761793112405', '0.03218428499744407', '0.032252224212257145', '0.03225044581225843', '0.03225743610102464', '0.03228323632769683', '0.03231070160662503', '0.032400574767601775', '0.03238088483850309', '0.032292404959216134', '0.03225946398202159']</t>
+  </si>
+  <si>
+    <t>['30.131301448960112', '30.130262333843252', '30.11042976537443', '30.108082709907208', '30.113755744335315', '30.133319023283516', '30.161982064889518', '30.190392522801318', '30.196239968582198', '30.192886837698712', '30.229868094371465', '30.28750500836797', '30.322559869206515', '30.331819276202797', '30.346948112953125', '30.366061926192994', '30.51494654208651', '30.66309844324603', '30.52304144238171', '30.425295035299918', '30.444850385040237', '30.54154606899231', '30.57442206756535', '30.53866242658916', '30.529009108194497']</t>
+  </si>
+  <si>
+    <t>['0.43175484008841764', '0.4319364927238494', '0.4319234301927179', '0.43203489978779336', '0.4322430442656217', '0.4328065529660457', '0.4325339594896903', '0.43191479102856944', '0.43180591898581516', '0.43179715395973295', '0.43199974716125655', '0.43258569809428277', '0.43281425882215446', '0.4330426446195574', '0.4331423350471431', '0.4332229309203975', '0.433484512834244', '0.4335079133611098', '0.4336050479575946', '0.4339602390595993', '0.43431890401368545', '0.4351076921974209', '0.4349969325106412', '0.434308194359691', '0.43389991514717535']</t>
+  </si>
+  <si>
+    <t>['6.70383226861672', '6.709594481222784', '6.710261808941181', '6.717427975133987', '6.71359368420073', '6.712804519551857', '6.715984272950598', '6.7085112739030155', '6.705247416360503', '6.71194448843878', '6.714173398695586', '6.712138301514449', None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
+  </si>
+  <si>
+    <t>['83.1971536478037', '83.2394359930811', '83.38343128748915', '83.38400227537883', '83.34477868296425', '83.36702808282752', '83.39761744776577', '83.38376758323874', '83.27075237759789', '83.253537795739', '83.2839885704078', '83.30266484565081', '83.3041299534744', '83.30938500329603', '83.30017036515795', '83.27003044688689', '83.26003394731838', '83.26658602756977', '83.30162163980434', '83.32677461273971', '83.29773676346508', '83.26900840535494', '83.28782524267795', '83.32355604150199', '83.34341186808955']</t>
+  </si>
+  <si>
+    <t>['1.6090466249339912', '1.6092063139835395', '1.6078557547970873', '1.608099421579087', '1.6078475727821904', '1.6073287965339718', '1.6065948156208247', '1.6051383098227479', '1.6050598109267171', '1.6053936238148292', '1.6054760036321847', '1.6071423331282708', '1.607242810318522', '1.6059962135981387', '1.6055988031942667', '1.6063252568989403', '1.607561166575027', '1.6073464261005366', '1.606642465679752', '1.6063498716780487', '1.6066264641722148', '1.607186981983777', '1.6073386299932333', '1.6055050423326913', '1.6052923077482115']</t>
+  </si>
+  <si>
+    <t>['1.7499724777434398', '1.750536118963798', '1.750178353405388', '1.7500493792630771', '1.7505245123451074', '1.7512163436328423', '1.7515164279032989', '1.7511411835402357', '1.751153752115008', '1.7515575178980733', '1.751928446388859', '1.7523248393463342', '1.7530736919275582', '1.7532816692953836', '1.7534210248622537', '1.7536004780444006', '1.7533805322473066', '1.7531011234785812', '1.7532828297443046', '1.753651316246433', '1.753970014323707', '1.7542620868272991', '1.7553798378520717', '1.7552212566659346', '1.753433768208843']</t>
+  </si>
+  <si>
+    <t>['5.1878094963e-7', '5.18768491149e-7', '5.18691658217e-7', '5.18407055552e-7', '5.18129215807e-7', '5.17723689015e-7', '5.17586512195e-7', '5.17781472506e-7', '5.18186283276e-7', '5.18191469754e-7', '5.18217822453e-7', '5.18213547998e-7', '5.18238553641e-7', '5.18313683374e-7', '5.18307934527e-7', '5.18186252604e-7', '5.18184055239e-7', '5.18244202752e-7', '5.18302269306e-7', '5.18318216389e-7', '5.18377473176e-7', '5.1818008117e-7', '5.1804783326e-7', '5.1790595164e-7', '5.18118609041e-7']</t>
+  </si>
+  <si>
+    <t>['1.0488901781932634', '1.0493970196013214', '1.0493636111661802', '1.0496551729220145', '1.0495798526307194', '1.0495830228476226', '1.049671511023227', '1.0487748358992095', '1.0493599496420665', '1.0492098218938195', '1.049223025861787', '1.0493000458482227', '1.0492223166258532', '1.048936285459901', '1.0486755950991635', '1.048497987278814', '1.0470223385273891', '1.0476123444169518', '1.049229003806095', '1.0495457728125732', '1.0494693079880177', '1.0496517957775382', '1.0497678592818762', '1.0492420308458366', '1.0485277770069137']</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/Qwsogvtv82FCd+bitcoin-btc</t>
@@ -2602,48 +2602,48 @@
     <t>https://coinranking.com/coin/HIVsRcGKkPFtW+tetherusd-usdt</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/WcwrkfNI4FUAe+bnb-bnb</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/aKzUVe4Hh_CON+usdc-usdc</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/WcwrkfNI4FUAe+bnb-bnb</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/-l8Mn2pVlRs-p+xrp-xrp</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/qzawljRxB5bYu+cardano-ada</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/uW2tk-ILY0ii+polygon-matic</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/vSo2fu9iE1s0Y+binanceusd-busd</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/qzawljRxB5bYu+cardano-ada</t>
+    <t>https://coinranking.com/coin/PDKcptVnzJTmN+okb-okb</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/a91GCGd_u96cF+dogecoin-doge</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/uW2tk-ILY0ii+polygon-matic</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/PDKcptVnzJTmN+okb-okb</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/zNZHO_Sjf+solana-sol</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/25W7FG7om+polkadot-dot</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/VLqpJwogdhHNb+chainlink-link</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/xz24e0BjL+shibainu-shib</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/25W7FG7om+polkadot-dot</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/VLqpJwogdhHNb+chainlink-link</t>
+    <t>https://coinranking.com/coin/Mtfb0obXVh59u+wrappedether-weth</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/D7B1x_ks7WhV5+litecoin-ltc</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/Mtfb0obXVh59u+wrappedether-weth</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/qUhEFk1I61atv+tron-trx</t>
   </si>
   <si>
@@ -2662,31 +2662,46 @@
     <t>https://coinranking.com/coin/x4WXHge-vvFY+wrappedbtc-wbtc</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/Pe93bIOD2+lidodaotoken-ldo</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/67YlI0K1b+toncoin-ton</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/Pe93bIOD2+lidodaotoken-ldo</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/hnfQfsYfeIGUQ+ethereumclassic-etc</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/3mVx2FX_iJFp5+monero-xmr</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/ymQub4fuB+filecoin-fil</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/ZlZpzOJo43mIo+bitcoincash-bch</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/DXwP4wF9ksbBO+huobitoken-ht</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/ZlZpzOJo43mIo+bitcoincash-bch</t>
+    <t>https://coinranking.com/coin/CiixT63n3+wrappedliquidstakedether20-wsteth</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/jad286TjB+hedera-hbar</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/aMNLwaUbY+internetcomputerdfinity-icp</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/Z96jIvLU7+immutablex-imx</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/jad286TjB+hedera-hbar</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/CiixT63n3+wrappedliquidstakedether20-wsteth</t>
+    <t>https://coinranking.com/coin/08CsQa-Ov+wemixtoken-wemix</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/FEbS54wxo4oIl+vechain-vet</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/TpHE2IShQw-sJ+algorand-algo</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/3nNpuxHJ8+fraxshare-fxs</t>
@@ -2695,802 +2710,787 @@
     <t>https://coinranking.com/coin/HGYj5JCv5+aptos-apt</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/TpHE2IShQw-sJ+algorand-algo</t>
+    <t>https://coinranking.com/coin/f3iaFeCKEmkaZ+stellar-xlm</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/pxtKbG5rg+thesandbox-sand</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/Hm3OlynlC+trustwallettoken-twt</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/f3iaFeCKEmkaZ+stellar-xlm</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/ymQub4fuB+filecoin-fil</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/aMNLwaUbY+internetcomputerdfinity-icp</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/FEbS54wxo4oIl+vechain-vet</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/pxtKbG5rg+thesandbox-sand</t>
+    <t>https://coinranking.com/coin/SbWqqTui-+energyswap-ens</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/tEf7-dnwV3BXS+decentraland-mana</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/SbWqqTui-+energyswap-ens</t>
+    <t>https://coinranking.com/coin/DCrsaMv68+nearprotocol-near</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/ncYFcP709+pancakeswap-cake</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/KfWtaeV1W+frax-frax</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/QQ0NCmjVq+flow-flow</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/bauj_21eYVwso+quant-qnt</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/ixgUfzmLR+aave-aave</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/65PHZTpmE55b+cronos-cro</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/iAzbfXiBBKkR6+eos-eos</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/omwkOTglq+elrond-egld</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/B42IRxNtoYmwK+thetatoken-theta</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/JY1_q2c0g+babydogecoin-babydoge</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/DCrsaMv68+nearprotocol-near</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/ncYFcP709+pancakeswap-cake</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/bauj_21eYVwso+quant-qnt</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/KfWtaeV1W+frax-frax</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/08CsQa-Ov+wemixtoken-wemix</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/65PHZTpmE55b+cronos-cro</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/ixgUfzmLR+aave-aave</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/AaQUAs2Mc+terraclassic-lunc</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/QQ0NCmjVq+flow-flow</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/B42IRxNtoYmwK+thetatoken-theta</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/omwkOTglq+elrond-egld</t>
+    <t>https://coinranking.com/coin/fsIbGOEJWbzxG+tezos-xtz</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/GSCt2y6YSgO26+chiliz-chz</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/IEJOE2-U2+binaryx-bnx</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/JCKLgWPAF+paxdollar-usdp</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/k-J3YwacF+woonetwork-woo</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/7C4Mh4xy1yDel+rendertoken-rndr</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/GSCt2y6YSgO26+chiliz-chz</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/iAzbfXiBBKkR6+eos-eos</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/JCKLgWPAF+paxdollar-usdp</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/fsIbGOEJWbzxG+tezos-xtz</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/IEJOE2-U2+binaryx-bnx</t>
+    <t>https://coinranking.com/coin/QGbUTVMjG+curvedaotoken-crv</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/uIEWfMFnQo9K_+fantom-ftm</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/ql3Jj4Tge+sushi-sushi</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/M9bj_WrX+klaytn-klay</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/qhd1biQ7M+thegraph-grt</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/sgxZRXbK0FDc+synthetixnetwork-snx</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/VcMY11NONHSA0+bitcoinsv-bsv</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/C9DwH-T7MEGmo+dash-dash</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/J7st_qGwz+minaprotocoltoken-mina</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/qhd1biQ7M+thegraph-grt</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/QGbUTVMjG+curvedaotoken-crv</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/ql3Jj4Tge+sushi-sushi</t>
+    <t>https://coinranking.com/coin/cVaOmQWainv7g+neo-neo</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/aRGRWLf2RYNq4+zcash-zec</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/sfab31CXM+bloktopia-blok</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/w5U609Wze+apecoin-ape</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/B8xT718SbVhhh+paxosstandard-pax</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/sgxZRXbK0FDc+synthetixnetwork-snx</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/VcMY11NONHSA0+bitcoinsv-bsv</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/k-J3YwacF+woonetwork-woo</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/C9DwH-T7MEGmo+dash-dash</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/sfab31CXM+bloktopia-blok</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/z2PZIKQL7+usdd-usdd</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/w5U609Wze+apecoin-ape</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/qFakph2rpuMOL+maker-mkr</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/aRGRWLf2RYNq4+zcash-zec</t>
+    <t>https://coinranking.com/coin/LtWwuVANwRzV_+iota-miota</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/w4MqH_Xe8+bittorrent-new-btt</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/LtWwuVANwRzV_+iota-miota</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/aQx_vW8s1+ecash-xec</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/t7m8DZVyMsAu+gatetoken-gt</t>
+    <t>https://coinranking.com/coin/LOO6LmXd7G84Z+kucointoken-kcs</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/Ru56fDlLB56-v+ravencoin-rvn</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/gpRKmM16k+axieinfinity-axs</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/WMDlfMJ1W+apollox-apx</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/drWC87t2Vozh+ankr-ankr</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/cVaOmQWainv7g+neo-neo</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/LOO6LmXd7G84Z+kucointoken-kcs</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/gpRKmM16k+axieinfinity-axs</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/T93ksC96YL_Gc+geminidollar-gusd</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/lT__vMO7l+compounddai-cdai</t>
+    <t>https://coinranking.com/coin/QUC5kVAxSoB-+mxtoken-mx</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/n1p-s_gm1+optimism-op</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/1ZZI6g5k5royD+trueusd-tusd</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/7XWg41D1+arweave-ar</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/q7gMmMdLb+bitgettoken-bgb</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/3jmxrjOJ8xa4p+zilliqa-zil</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/AP-fyKlSf+okc-okt</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/Au8mNo2ZIlJfL+loopring-lrc</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/frw2fHgZ+tokenizexchange-tkx</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/WvoRtQhzN+illuvium-ilv</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/NfeOYfNcl+ftxtoken-ftt</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/Au8mNo2ZIlJfL+loopring-lrc</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/M9bj_WrX+klaytn-klay</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/ybmU-kKU+thorchain-rune</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/3jmxrjOJ8xa4p+zilliqa-zil</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/1ZZI6g5k5royD+trueusd-tusd</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/7XWg41D1+arweave-ar</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/frw2fHgZ+tokenizexchange-tkx</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/cCx8KCiV3+singularitynet-agix</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/uT6akswu0+apenft-nft</t>
   </si>
   <si>
-    <t>33324799293</t>
-  </si>
-  <si>
-    <t>10518855170</t>
-  </si>
-  <si>
-    <t>36542621312</t>
-  </si>
-  <si>
-    <t>2624258189</t>
-  </si>
-  <si>
-    <t>580224684</t>
-  </si>
-  <si>
-    <t>943402490</t>
-  </si>
-  <si>
-    <t>8662717787</t>
-  </si>
-  <si>
-    <t>367385053</t>
-  </si>
-  <si>
-    <t>965876113</t>
-  </si>
-  <si>
-    <t>613190628</t>
-  </si>
-  <si>
-    <t>31755150</t>
-  </si>
-  <si>
-    <t>676214720</t>
-  </si>
-  <si>
-    <t>433778504</t>
-  </si>
-  <si>
-    <t>276203881</t>
-  </si>
-  <si>
-    <t>292436563</t>
-  </si>
-  <si>
-    <t>913521316</t>
-  </si>
-  <si>
-    <t>372931076</t>
-  </si>
-  <si>
-    <t>400417958</t>
-  </si>
-  <si>
-    <t>207687100</t>
-  </si>
-  <si>
-    <t>119547847</t>
-  </si>
-  <si>
-    <t>122009374</t>
-  </si>
-  <si>
-    <t>231066428</t>
-  </si>
-  <si>
-    <t>182942011</t>
-  </si>
-  <si>
-    <t>21564658</t>
-  </si>
-  <si>
-    <t>304077802</t>
-  </si>
-  <si>
-    <t>303112082</t>
-  </si>
-  <si>
-    <t>134174286</t>
-  </si>
-  <si>
-    <t>20000823</t>
-  </si>
-  <si>
-    <t>216470282</t>
-  </si>
-  <si>
-    <t>135594857</t>
-  </si>
-  <si>
-    <t>117340635</t>
-  </si>
-  <si>
-    <t>3533750</t>
-  </si>
-  <si>
-    <t>79169501</t>
-  </si>
-  <si>
-    <t>572945759</t>
-  </si>
-  <si>
-    <t>99810225</t>
-  </si>
-  <si>
-    <t>29303600</t>
-  </si>
-  <si>
-    <t>75361527</t>
-  </si>
-  <si>
-    <t>180311322</t>
-  </si>
-  <si>
-    <t>48463925</t>
-  </si>
-  <si>
-    <t>79539080</t>
-  </si>
-  <si>
-    <t>129914617</t>
-  </si>
-  <si>
-    <t>168414053</t>
-  </si>
-  <si>
-    <t>8846604</t>
-  </si>
-  <si>
-    <t>40744635</t>
-  </si>
-  <si>
-    <t>186829879</t>
-  </si>
-  <si>
-    <t>64459047</t>
-  </si>
-  <si>
-    <t>47548139</t>
-  </si>
-  <si>
-    <t>4371623</t>
-  </si>
-  <si>
-    <t>8386448</t>
-  </si>
-  <si>
-    <t>18928172</t>
-  </si>
-  <si>
-    <t>105807746</t>
-  </si>
-  <si>
-    <t>82444496</t>
-  </si>
-  <si>
-    <t>52044785</t>
-  </si>
-  <si>
-    <t>40408138</t>
-  </si>
-  <si>
-    <t>39521607</t>
-  </si>
-  <si>
-    <t>209509935</t>
-  </si>
-  <si>
-    <t>106950546</t>
-  </si>
-  <si>
-    <t>127100843</t>
-  </si>
-  <si>
-    <t>5310069</t>
-  </si>
-  <si>
-    <t>22732929</t>
-  </si>
-  <si>
-    <t>11897793</t>
-  </si>
-  <si>
-    <t>516530838</t>
-  </si>
-  <si>
-    <t>233229296</t>
-  </si>
-  <si>
-    <t>276526140</t>
-  </si>
-  <si>
-    <t>179794126</t>
-  </si>
-  <si>
-    <t>103168034</t>
-  </si>
-  <si>
-    <t>3151490</t>
-  </si>
-  <si>
-    <t>61176630</t>
-  </si>
-  <si>
-    <t>90520620</t>
-  </si>
-  <si>
-    <t>28842990</t>
-  </si>
-  <si>
-    <t>130581159</t>
-  </si>
-  <si>
-    <t>2265856</t>
-  </si>
-  <si>
-    <t>71793196</t>
-  </si>
-  <si>
-    <t>172751419</t>
-  </si>
-  <si>
-    <t>68632991</t>
-  </si>
-  <si>
-    <t>95652745</t>
-  </si>
-  <si>
-    <t>13646904</t>
-  </si>
-  <si>
-    <t>8099873</t>
-  </si>
-  <si>
-    <t>8584815</t>
-  </si>
-  <si>
-    <t>921570</t>
-  </si>
-  <si>
-    <t>12414939</t>
-  </si>
-  <si>
-    <t>1707686</t>
-  </si>
-  <si>
-    <t>115341587</t>
-  </si>
-  <si>
-    <t>27570054</t>
-  </si>
-  <si>
-    <t>1004327</t>
-  </si>
-  <si>
-    <t>121318026</t>
-  </si>
-  <si>
-    <t>798940</t>
-  </si>
-  <si>
-    <t>679662</t>
-  </si>
-  <si>
-    <t>335549111</t>
-  </si>
-  <si>
-    <t>56256261</t>
-  </si>
-  <si>
-    <t>9198815</t>
-  </si>
-  <si>
-    <t>120389832</t>
-  </si>
-  <si>
-    <t>40599958</t>
-  </si>
-  <si>
-    <t>30705658</t>
-  </si>
-  <si>
-    <t>70348606</t>
-  </si>
-  <si>
-    <t>40256997</t>
-  </si>
-  <si>
-    <t>55444848</t>
-  </si>
-  <si>
-    <t>9692943</t>
-  </si>
-  <si>
-    <t>253754234</t>
-  </si>
-  <si>
-    <t>13479275</t>
+    <t>https://coinranking.com/coin/yecsF9VkR+osmosis-osmo</t>
+  </si>
+  <si>
+    <t>32303289054</t>
+  </si>
+  <si>
+    <t>6562266761</t>
+  </si>
+  <si>
+    <t>38480451937</t>
+  </si>
+  <si>
+    <t>637567103</t>
+  </si>
+  <si>
+    <t>2222563056</t>
+  </si>
+  <si>
+    <t>784678556</t>
+  </si>
+  <si>
+    <t>338583552</t>
+  </si>
+  <si>
+    <t>713743579</t>
+  </si>
+  <si>
+    <t>7562023120</t>
+  </si>
+  <si>
+    <t>47695928</t>
+  </si>
+  <si>
+    <t>513642445</t>
+  </si>
+  <si>
+    <t>828323862</t>
+  </si>
+  <si>
+    <t>841469056</t>
+  </si>
+  <si>
+    <t>618502574</t>
+  </si>
+  <si>
+    <t>652501243</t>
+  </si>
+  <si>
+    <t>226985765</t>
+  </si>
+  <si>
+    <t>514474103</t>
+  </si>
+  <si>
+    <t>301403509</t>
+  </si>
+  <si>
+    <t>337782005</t>
+  </si>
+  <si>
+    <t>386943598</t>
+  </si>
+  <si>
+    <t>63933199</t>
+  </si>
+  <si>
+    <t>244863193</t>
+  </si>
+  <si>
+    <t>129571340</t>
+  </si>
+  <si>
+    <t>257217326</t>
+  </si>
+  <si>
+    <t>17095726</t>
+  </si>
+  <si>
+    <t>442135571</t>
+  </si>
+  <si>
+    <t>131686402</t>
+  </si>
+  <si>
+    <t>1477649313</t>
+  </si>
+  <si>
+    <t>265236305</t>
+  </si>
+  <si>
+    <t>23007772</t>
+  </si>
+  <si>
+    <t>6159777</t>
+  </si>
+  <si>
+    <t>101746751</t>
+  </si>
+  <si>
+    <t>219412174</t>
+  </si>
+  <si>
+    <t>67350720</t>
+  </si>
+  <si>
+    <t>12672242</t>
+  </si>
+  <si>
+    <t>300691263</t>
+  </si>
+  <si>
+    <t>102957396</t>
+  </si>
+  <si>
+    <t>37116152</t>
+  </si>
+  <si>
+    <t>483832786</t>
+  </si>
+  <si>
+    <t>74818061</t>
+  </si>
+  <si>
+    <t>179705243</t>
+  </si>
+  <si>
+    <t>30176110</t>
+  </si>
+  <si>
+    <t>15571460</t>
+  </si>
+  <si>
+    <t>175299356</t>
+  </si>
+  <si>
+    <t>221813484</t>
+  </si>
+  <si>
+    <t>47189325</t>
+  </si>
+  <si>
+    <t>2102207</t>
+  </si>
+  <si>
+    <t>93046297</t>
+  </si>
+  <si>
+    <t>33153530</t>
+  </si>
+  <si>
+    <t>184054301</t>
+  </si>
+  <si>
+    <t>17897827</t>
+  </si>
+  <si>
+    <t>374223185</t>
+  </si>
+  <si>
+    <t>45718767</t>
+  </si>
+  <si>
+    <t>68172998</t>
+  </si>
+  <si>
+    <t>38695937</t>
+  </si>
+  <si>
+    <t>58113366</t>
+  </si>
+  <si>
+    <t>31952579</t>
+  </si>
+  <si>
+    <t>117848537</t>
+  </si>
+  <si>
+    <t>4926546</t>
+  </si>
+  <si>
+    <t>2465126</t>
+  </si>
+  <si>
+    <t>75167788</t>
+  </si>
+  <si>
+    <t>100107621</t>
+  </si>
+  <si>
+    <t>157727347</t>
+  </si>
+  <si>
+    <t>339874174</t>
+  </si>
+  <si>
+    <t>80284936</t>
+  </si>
+  <si>
+    <t>208258438</t>
+  </si>
+  <si>
+    <t>191759333</t>
+  </si>
+  <si>
+    <t>77060646</t>
+  </si>
+  <si>
+    <t>96276567</t>
+  </si>
+  <si>
+    <t>110844488</t>
+  </si>
+  <si>
+    <t>104339250</t>
+  </si>
+  <si>
+    <t>173515322</t>
+  </si>
+  <si>
+    <t>141566944</t>
+  </si>
+  <si>
+    <t>1391473</t>
+  </si>
+  <si>
+    <t>149976212</t>
+  </si>
+  <si>
+    <t>1010932</t>
+  </si>
+  <si>
+    <t>49879188</t>
+  </si>
+  <si>
+    <t>47224290</t>
+  </si>
+  <si>
+    <t>13041287</t>
+  </si>
+  <si>
+    <t>9717606</t>
+  </si>
+  <si>
+    <t>12989157</t>
+  </si>
+  <si>
+    <t>1518134</t>
+  </si>
+  <si>
+    <t>18388563</t>
+  </si>
+  <si>
+    <t>136813874</t>
+  </si>
+  <si>
+    <t>1827434</t>
+  </si>
+  <si>
+    <t>41892872</t>
+  </si>
+  <si>
+    <t>2786804</t>
+  </si>
+  <si>
+    <t>272490679</t>
+  </si>
+  <si>
+    <t>48202668</t>
+  </si>
+  <si>
+    <t>146081957</t>
+  </si>
+  <si>
+    <t>12221576</t>
+  </si>
+  <si>
+    <t>74733348</t>
+  </si>
+  <si>
+    <t>29495846</t>
+  </si>
+  <si>
+    <t>91437031</t>
+  </si>
+  <si>
+    <t>15480486</t>
+  </si>
+  <si>
+    <t>28007754</t>
+  </si>
+  <si>
+    <t>13233969</t>
+  </si>
+  <si>
+    <t>50825484</t>
+  </si>
+  <si>
+    <t>11486973</t>
+  </si>
+  <si>
+    <t>20224096</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>0.06911046082094754</t>
-  </si>
-  <si>
-    <t>0.000043305906393049</t>
-  </si>
-  <si>
-    <t>0.00004336140315813</t>
-  </si>
-  <si>
-    <t>0.013194841434130994</t>
-  </si>
-  <si>
-    <t>0.000016884073461407</t>
-  </si>
-  <si>
-    <t>0.000043324600282756</t>
-  </si>
-  <si>
-    <t>0.00001697613578727</t>
-  </si>
-  <si>
-    <t>0.000003767879356633</t>
-  </si>
-  <si>
-    <t>0.000055584609615316</t>
-  </si>
-  <si>
-    <t>0.0019253253124308</t>
-  </si>
-  <si>
-    <t>0.000985790896665216</t>
-  </si>
-  <si>
-    <t>5.77520725e-10</t>
-  </si>
-  <si>
-    <t>0.000274940653365359</t>
-  </si>
-  <si>
-    <t>0.000301933323900901</t>
-  </si>
-  <si>
-    <t>0.004245164269440795</t>
-  </si>
-  <si>
-    <t>0.06926155664789832</t>
-  </si>
-  <si>
-    <t>0.000003013589735087</t>
-  </si>
-  <si>
-    <t>0.000815744467167876</t>
-  </si>
-  <si>
-    <t>0.000288331048953526</t>
-  </si>
-  <si>
-    <t>0.000043483936159778</t>
-  </si>
-  <si>
-    <t>0.000589523983431822</t>
-  </si>
-  <si>
-    <t>0.9994514433600936</t>
-  </si>
-  <si>
-    <t>0.000100041030093393</t>
-  </si>
-  <si>
-    <t>0.000118429702318808</t>
-  </si>
-  <si>
-    <t>0.000933628735790934</t>
-  </si>
-  <si>
-    <t>0.007054852052042687</t>
-  </si>
-  <si>
-    <t>0.000222264427655328</t>
-  </si>
-  <si>
-    <t>0.005548645591748189</t>
-  </si>
-  <si>
-    <t>0.00005250171853236</t>
-  </si>
-  <si>
-    <t>0.000003776028874522</t>
-  </si>
-  <si>
-    <t>0.07666753716122517</t>
-  </si>
-  <si>
-    <t>0.000473202707731763</t>
-  </si>
-  <si>
-    <t>0.000641579670221658</t>
-  </si>
-  <si>
-    <t>0.000011602748331229</t>
-  </si>
-  <si>
-    <t>0.000063528218531127</t>
-  </si>
-  <si>
-    <t>0.000003779172526636</t>
-  </si>
-  <si>
-    <t>0.000229564400949584</t>
-  </si>
-  <si>
-    <t>0.000250936282312348</t>
-  </si>
-  <si>
-    <t>0.000001071550453368</t>
-  </si>
-  <si>
-    <t>0.000031194708647821</t>
-  </si>
-  <si>
-    <t>0.000029868527017653</t>
-  </si>
-  <si>
-    <t>0.000640443702523219</t>
-  </si>
-  <si>
-    <t>1.80192e-13</t>
-  </si>
-  <si>
-    <t>0.000100903377171597</t>
-  </si>
-  <si>
-    <t>0.000175742572122606</t>
-  </si>
-  <si>
-    <t>0.006224181953206478</t>
-  </si>
-  <si>
-    <t>0.000043371539138567</t>
-  </si>
-  <si>
-    <t>0.000058331151290609</t>
-  </si>
-  <si>
-    <t>0.000003381415091788</t>
-  </si>
-  <si>
-    <t>0.00366336284866604</t>
-  </si>
-  <si>
-    <t>7.440534872e-9</t>
-  </si>
-  <si>
-    <t>0.000047226956979905</t>
-  </si>
-  <si>
-    <t>0.000048529125762882</t>
-  </si>
-  <si>
-    <t>0.001966105918171476</t>
-  </si>
-  <si>
-    <t>0.000085812921750395</t>
-  </si>
-  <si>
-    <t>0.000005992172414009</t>
-  </si>
-  <si>
-    <t>0.000046025534423953</t>
-  </si>
-  <si>
-    <t>0.000043240857003611</t>
-  </si>
-  <si>
-    <t>0.000047867709961885</t>
-  </si>
-  <si>
-    <t>0.006964493643618789</t>
-  </si>
-  <si>
-    <t>0.000023468178352665</t>
-  </si>
-  <si>
-    <t>0.00005162132413849</t>
-  </si>
-  <si>
-    <t>0.000007815155659413</t>
-  </si>
-  <si>
-    <t>0.000047725436684416</t>
-  </si>
-  <si>
-    <t>0.000058721656082543</t>
-  </si>
-  <si>
-    <t>0.000043371073677004</t>
-  </si>
-  <si>
-    <t>0.000109633698268764</t>
-  </si>
-  <si>
-    <t>0.001786529343798322</t>
-  </si>
-  <si>
-    <t>0.00000961234738314</t>
-  </si>
-  <si>
-    <t>0.003020296993968142</t>
-  </si>
-  <si>
-    <t>1.62737273489e-7</t>
-  </si>
-  <si>
-    <t>0.000043036765375744</t>
-  </si>
-  <si>
-    <t>0.000236543232723473</t>
-  </si>
-  <si>
-    <t>0.03169153811150678</t>
-  </si>
-  <si>
-    <t>0.001927229288009832</t>
-  </si>
-  <si>
-    <t>3.1354612e-11</t>
-  </si>
-  <si>
-    <t>0.000010418646190127</t>
-  </si>
-  <si>
-    <t>1.505643927e-9</t>
-  </si>
-  <si>
-    <t>0.000192317976517031</t>
-  </si>
-  <si>
-    <t>0.000001316196781465</t>
-  </si>
-  <si>
-    <t>0.00000276816141276</t>
-  </si>
-  <si>
-    <t>0.000001387564689264</t>
-  </si>
-  <si>
-    <t>0.000384012748754437</t>
-  </si>
-  <si>
-    <t>0.000358530267566599</t>
-  </si>
-  <si>
-    <t>0.000443662646885886</t>
-  </si>
-  <si>
-    <t>0.000043926825220907</t>
-  </si>
-  <si>
-    <t>9.64480679851e-7</t>
-  </si>
-  <si>
-    <t>0.000111948928976716</t>
-  </si>
-  <si>
-    <t>0.003709785278335128</t>
-  </si>
-  <si>
-    <t>0.000070702609555911</t>
-  </si>
-  <si>
-    <t>0.000018754716950869</t>
-  </si>
-  <si>
-    <t>0.000009461359143995</t>
-  </si>
-  <si>
-    <t>0.000076159330055667</t>
-  </si>
-  <si>
-    <t>0.000001325600758302</t>
-  </si>
-  <si>
-    <t>0.000043329712389886</t>
-  </si>
-  <si>
-    <t>0.000508926596789301</t>
-  </si>
-  <si>
-    <t>0.000275379365312288</t>
-  </si>
-  <si>
-    <t>0.000019129578833742</t>
-  </si>
-  <si>
-    <t>2.1287044e-11</t>
+    <t>0.06870864443964422</t>
+  </si>
+  <si>
+    <t>0.000040849399158855</t>
+  </si>
+  <si>
+    <t>0.012780557564224032</t>
+  </si>
+  <si>
+    <t>0.000040819337155619</t>
+  </si>
+  <si>
+    <t>0.000015861929302988</t>
+  </si>
+  <si>
+    <t>0.000016405188100792</t>
+  </si>
+  <si>
+    <t>0.000060903567845857</t>
+  </si>
+  <si>
+    <t>0.000040810045300437</t>
+  </si>
+  <si>
+    <t>0.002148545466697917</t>
+  </si>
+  <si>
+    <t>0.000003556685631656</t>
+  </si>
+  <si>
+    <t>0.001025369756371552</t>
+  </si>
+  <si>
+    <t>0.000306752851648058</t>
+  </si>
+  <si>
+    <t>0.000323537208667951</t>
+  </si>
+  <si>
+    <t>5.48653113e-10</t>
+  </si>
+  <si>
+    <t>0.0687676175561582</t>
+  </si>
+  <si>
+    <t>0.004011463410348929</t>
+  </si>
+  <si>
+    <t>0.00000289025862677</t>
+  </si>
+  <si>
+    <t>0.00080883042406366</t>
+  </si>
+  <si>
+    <t>0.000296093917637666</t>
+  </si>
+  <si>
+    <t>0.000040812385459386</t>
+  </si>
+  <si>
+    <t>0.000579925857328333</t>
+  </si>
+  <si>
+    <t>1.0001224086076814</t>
+  </si>
+  <si>
+    <t>0.000122510985820676</t>
+  </si>
+  <si>
+    <t>0.000095749973237416</t>
+  </si>
+  <si>
+    <t>0.000927568129504734</t>
+  </si>
+  <si>
+    <t>0.006597350883479024</t>
+  </si>
+  <si>
+    <t>0.000356158056442417</t>
+  </si>
+  <si>
+    <t>0.005573254639011069</t>
+  </si>
+  <si>
+    <t>0.000212475567045705</t>
+  </si>
+  <si>
+    <t>0.07652089976153531</t>
+  </si>
+  <si>
+    <t>0.000003589617276672</t>
+  </si>
+  <si>
+    <t>0.000303403539935232</t>
+  </si>
+  <si>
+    <t>0.000042249236805738</t>
+  </si>
+  <si>
+    <t>0.000079874831760284</t>
+  </si>
+  <si>
+    <t>0.000001190554953306</t>
+  </si>
+  <si>
+    <t>0.000011159664259779</t>
+  </si>
+  <si>
+    <t>0.000438901014549764</t>
+  </si>
+  <si>
+    <t>0.000579019518315332</t>
+  </si>
+  <si>
+    <t>0.000003714247510103</t>
+  </si>
+  <si>
+    <t>0.000031947221940709</t>
+  </si>
+  <si>
+    <t>0.000059491979979986</t>
+  </si>
+  <si>
+    <t>0.000682958733266221</t>
+  </si>
+  <si>
+    <t>0.000029306507727364</t>
+  </si>
+  <si>
+    <t>0.000105528589674131</t>
+  </si>
+  <si>
+    <t>0.000170912672640661</t>
+  </si>
+  <si>
+    <t>0.000040789139914808</t>
+  </si>
+  <si>
+    <t>0.000054252447021695</t>
+  </si>
+  <si>
+    <t>0.005611278547165569</t>
+  </si>
+  <si>
+    <t>0.003700475958873667</t>
+  </si>
+  <si>
+    <t>0.000003245244743571</t>
+  </si>
+  <si>
+    <t>0.000050879843424821</t>
+  </si>
+  <si>
+    <t>0.002101924326647368</t>
+  </si>
+  <si>
+    <t>0.000048963942274574</t>
+  </si>
+  <si>
+    <t>1.30991e-13</t>
+  </si>
+  <si>
+    <t>6.896798219e-9</t>
+  </si>
+  <si>
+    <t>0.000048288692352028</t>
+  </si>
+  <si>
+    <t>0.000005767363849942</t>
+  </si>
+  <si>
+    <t>0.007077463045961214</t>
+  </si>
+  <si>
+    <t>0.000040510074471679</t>
+  </si>
+  <si>
+    <t>0.000010709324613191</t>
+  </si>
+  <si>
+    <t>0.000071135643546022</t>
+  </si>
+  <si>
+    <t>0.000049372112946899</t>
+  </si>
+  <si>
+    <t>0.000021455390214109</t>
+  </si>
+  <si>
+    <t>0.000058767115593815</t>
+  </si>
+  <si>
+    <t>0.00001425555346993</t>
+  </si>
+  <si>
+    <t>0.000006985111174569</t>
+  </si>
+  <si>
+    <t>0.000107127480755959</t>
+  </si>
+  <si>
+    <t>0.001726652187816168</t>
+  </si>
+  <si>
+    <t>0.002892181750968119</t>
+  </si>
+  <si>
+    <t>0.000040988603408183</t>
+  </si>
+  <si>
+    <t>0.000433695242010667</t>
+  </si>
+  <si>
+    <t>0.001934933692940019</t>
+  </si>
+  <si>
+    <t>1.51678726089e-7</t>
+  </si>
+  <si>
+    <t>0.000228902785086866</t>
+  </si>
+  <si>
+    <t>0.000040790188138897</t>
+  </si>
+  <si>
+    <t>0.000040712916887443</t>
+  </si>
+  <si>
+    <t>0.030201376575190134</t>
+  </si>
+  <si>
+    <t>0.000010234405740938</t>
+  </si>
+  <si>
+    <t>3.0081658e-11</t>
+  </si>
+  <si>
+    <t>1.481937799e-9</t>
+  </si>
+  <si>
+    <t>0.000364511710829353</t>
+  </si>
+  <si>
+    <t>0.000001307815786963</t>
+  </si>
+  <si>
+    <t>0.000445422216034474</t>
+  </si>
+  <si>
+    <t>0.000002630306502324</t>
+  </si>
+  <si>
+    <t>0.000001323017061121</t>
+  </si>
+  <si>
+    <t>0.000052896016194878</t>
+  </si>
+  <si>
+    <t>0.000107306277876583</t>
+  </si>
+  <si>
+    <t>0.000040782454961197</t>
+  </si>
+  <si>
+    <t>0.000522770085894427</t>
+  </si>
+  <si>
+    <t>0.000016154133728461</t>
+  </si>
+  <si>
+    <t>0.00000131202152163</t>
+  </si>
+  <si>
+    <t>0.001238092264321826</t>
+  </si>
+  <si>
+    <t>0.000017646623309867</t>
+  </si>
+  <si>
+    <t>0.000273054697217526</t>
+  </si>
+  <si>
+    <t>0.003390668273417368</t>
+  </si>
+  <si>
+    <t>0.000065304312816927</t>
+  </si>
+  <si>
+    <t>0.000071318579583489</t>
+  </si>
+  <si>
+    <t>2.1078736e-11</t>
+  </si>
+  <si>
+    <t>0.000042655157880986</t>
   </si>
 </sst>
 </file>
@@ -3934,7 +3934,7 @@
         <v>308</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G2" t="s">
         <v>482</v>
@@ -3987,7 +3987,7 @@
         <v>309</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G3" t="s">
         <v>483</v>
@@ -4040,7 +4040,7 @@
         <v>310</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G4" t="s">
         <v>484</v>
@@ -4093,7 +4093,7 @@
         <v>311</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G5" t="s">
         <v>485</v>
@@ -4102,7 +4102,7 @@
         <v>585</v>
       </c>
       <c r="I5">
-        <v>1539043200</v>
+        <v>1503014400</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -4146,7 +4146,7 @@
         <v>312</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G6" t="s">
         <v>486</v>
@@ -4155,13 +4155,13 @@
         <v>586</v>
       </c>
       <c r="I6">
-        <v>1503014400</v>
+        <v>1539043200</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -4199,7 +4199,7 @@
         <v>313</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G7" t="s">
         <v>487</v>
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L7">
         <v>6</v>
@@ -4252,7 +4252,7 @@
         <v>314</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G8" t="s">
         <v>488</v>
@@ -4261,13 +4261,13 @@
         <v>588</v>
       </c>
       <c r="I8">
-        <v>1563197940</v>
+        <v>1506902400</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L8">
         <v>7</v>
@@ -4305,7 +4305,7 @@
         <v>315</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G9" t="s">
         <v>489</v>
@@ -4314,13 +4314,13 @@
         <v>589</v>
       </c>
       <c r="I9">
-        <v>1506902400</v>
+        <v>1558961160</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L9">
         <v>8</v>
@@ -4358,7 +4358,7 @@
         <v>316</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G10" t="s">
         <v>490</v>
@@ -4367,13 +4367,13 @@
         <v>590</v>
       </c>
       <c r="I10">
-        <v>1391212800</v>
+        <v>1563197940</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L10">
         <v>9</v>
@@ -4405,13 +4405,13 @@
         <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
         <v>317</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G11" t="s">
         <v>491</v>
@@ -4420,13 +4420,13 @@
         <v>591</v>
       </c>
       <c r="I11">
-        <v>1558961160</v>
+        <v>1538524800</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L11">
         <v>10</v>
@@ -4458,13 +4458,13 @@
         <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c r="E12" t="s">
         <v>318</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G12" t="s">
         <v>492</v>
@@ -4473,13 +4473,13 @@
         <v>592</v>
       </c>
       <c r="I12">
-        <v>1538524800</v>
+        <v>1391212800</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="L12">
         <v>11</v>
@@ -4517,7 +4517,7 @@
         <v>313</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G13" t="s">
         <v>493</v>
@@ -4532,7 +4532,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="L13">
         <v>12</v>
@@ -4570,7 +4570,7 @@
         <v>319</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G14" t="s">
         <v>494</v>
@@ -4579,13 +4579,13 @@
         <v>594</v>
       </c>
       <c r="I14">
-        <v>1620650373</v>
+        <v>1598365200</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L14">
         <v>13</v>
@@ -4623,7 +4623,7 @@
         <v>320</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G15" t="s">
         <v>495</v>
@@ -4632,13 +4632,13 @@
         <v>595</v>
       </c>
       <c r="I15">
-        <v>1598365200</v>
+        <v>1505952000</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="L15">
         <v>14</v>
@@ -4676,7 +4676,7 @@
         <v>321</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G16" t="s">
         <v>496</v>
@@ -4685,13 +4685,13 @@
         <v>596</v>
       </c>
       <c r="I16">
-        <v>1505952000</v>
+        <v>1620650373</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="L16">
         <v>15</v>
@@ -4729,7 +4729,7 @@
         <v>322</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G17" t="s">
         <v>497</v>
@@ -4738,13 +4738,13 @@
         <v>597</v>
       </c>
       <c r="I17">
-        <v>1382572800</v>
+        <v>1600259445</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="L17">
         <v>16</v>
@@ -4782,7 +4782,7 @@
         <v>323</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G18" t="s">
         <v>498</v>
@@ -4791,13 +4791,13 @@
         <v>598</v>
       </c>
       <c r="I18">
-        <v>1600259445</v>
+        <v>1382572800</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="L18">
         <v>17</v>
@@ -4835,7 +4835,7 @@
         <v>324</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G19" t="s">
         <v>499</v>
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="L19">
         <v>18</v>
@@ -4888,7 +4888,7 @@
         <v>325</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G20" t="s">
         <v>500</v>
@@ -4903,7 +4903,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L20">
         <v>19</v>
@@ -4941,7 +4941,7 @@
         <v>326</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G21" t="s">
         <v>501</v>
@@ -4956,7 +4956,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L21">
         <v>20</v>
@@ -4994,7 +4994,7 @@
         <v>327</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G22" t="s">
         <v>502</v>
@@ -5009,7 +5009,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L22">
         <v>21</v>
@@ -5047,7 +5047,7 @@
         <v>328</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G23" t="s">
         <v>503</v>
@@ -5062,7 +5062,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L23">
         <v>22</v>
@@ -5100,7 +5100,7 @@
         <v>313</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G24" t="s">
         <v>504</v>
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L24">
         <v>23</v>
@@ -5153,7 +5153,7 @@
         <v>329</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G25" t="s">
         <v>505</v>
@@ -5162,13 +5162,13 @@
         <v>605</v>
       </c>
       <c r="I25">
-        <v>1640268459</v>
+        <v>1627361901</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="L25">
         <v>24</v>
@@ -5206,7 +5206,7 @@
         <v>330</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G26" t="s">
         <v>506</v>
@@ -5215,13 +5215,13 @@
         <v>606</v>
       </c>
       <c r="I26">
-        <v>1627361901</v>
+        <v>1640268459</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="L26">
         <v>25</v>
@@ -5259,7 +5259,7 @@
         <v>331</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G27" t="s">
         <v>507</v>
@@ -5274,7 +5274,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="L27">
         <v>26</v>
@@ -5312,7 +5312,7 @@
         <v>332</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G28" t="s">
         <v>508</v>
@@ -5327,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="L28">
         <v>27</v>
@@ -5365,7 +5365,7 @@
         <v>333</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G29" t="s">
         <v>509</v>
@@ -5374,13 +5374,13 @@
         <v>609</v>
       </c>
       <c r="I29">
-        <v>1517702400</v>
+        <v>1602839473</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="L29">
         <v>28</v>
@@ -5418,7 +5418,7 @@
         <v>334</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G30" t="s">
         <v>510</v>
@@ -5433,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>686</v>
+        <v>706</v>
       </c>
       <c r="L30">
         <v>29</v>
@@ -5468,10 +5468,10 @@
         <v>241</v>
       </c>
       <c r="E31" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G31" t="s">
         <v>511</v>
@@ -5480,13 +5480,13 @@
         <v>611</v>
       </c>
       <c r="I31">
-        <v>1649387294</v>
+        <v>1517702400</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L31">
         <v>30</v>
@@ -5521,10 +5521,10 @@
         <v>242</v>
       </c>
       <c r="E32" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G32" t="s">
         <v>512</v>
@@ -5533,13 +5533,13 @@
         <v>612</v>
       </c>
       <c r="I32">
-        <v>1568704980</v>
+        <v>1638756833</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="L32">
         <v>31</v>
@@ -5574,10 +5574,10 @@
         <v>243</v>
       </c>
       <c r="E33" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G33" t="s">
         <v>513</v>
@@ -5586,13 +5586,13 @@
         <v>613</v>
       </c>
       <c r="I33">
-        <v>1638756833</v>
+        <v>1568704980</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="L33">
         <v>32</v>
@@ -5627,10 +5627,10 @@
         <v>244</v>
       </c>
       <c r="E34" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G34" t="s">
         <v>514</v>
@@ -5639,13 +5639,13 @@
         <v>614</v>
       </c>
       <c r="I34">
-        <v>1640985232</v>
+        <v>1601555742</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="L34">
         <v>33</v>
@@ -5683,7 +5683,7 @@
         <v>313</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G35" t="s">
         <v>515</v>
@@ -5692,13 +5692,13 @@
         <v>615</v>
       </c>
       <c r="I35">
-        <v>1666148370</v>
+        <v>1649387294</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L35">
         <v>34</v>
@@ -5732,8 +5732,11 @@
       <c r="D36" t="s">
         <v>246</v>
       </c>
+      <c r="E36" t="s">
+        <v>338</v>
+      </c>
       <c r="F36" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G36" t="s">
         <v>516</v>
@@ -5742,13 +5745,13 @@
         <v>616</v>
       </c>
       <c r="I36">
-        <v>1562082540</v>
+        <v>1638249982</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="L36">
         <v>35</v>
@@ -5783,10 +5786,10 @@
         <v>247</v>
       </c>
       <c r="E37" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G37" t="s">
         <v>517</v>
@@ -5795,13 +5798,13 @@
         <v>617</v>
       </c>
       <c r="I37">
-        <v>1610717385</v>
+        <v>1533427200</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="L37">
         <v>36</v>
@@ -5835,11 +5838,8 @@
       <c r="D38" t="s">
         <v>248</v>
       </c>
-      <c r="E38" t="s">
-        <v>313</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G38" t="s">
         <v>518</v>
@@ -5848,13 +5848,13 @@
         <v>618</v>
       </c>
       <c r="I38">
-        <v>1484611200</v>
+        <v>1562082540</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="L38">
         <v>37</v>
@@ -5889,10 +5889,10 @@
         <v>249</v>
       </c>
       <c r="E39" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G39" t="s">
         <v>519</v>
@@ -5901,13 +5901,13 @@
         <v>619</v>
       </c>
       <c r="I39">
-        <v>1602839473</v>
+        <v>1640985232</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="L39">
         <v>38</v>
@@ -5942,10 +5942,10 @@
         <v>250</v>
       </c>
       <c r="E40" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G40" t="s">
         <v>520</v>
@@ -5954,13 +5954,13 @@
         <v>620</v>
       </c>
       <c r="I40">
-        <v>1601555742</v>
+        <v>1666148370</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="L40">
         <v>39</v>
@@ -5995,10 +5995,10 @@
         <v>251</v>
       </c>
       <c r="E41" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G41" t="s">
         <v>521</v>
@@ -6007,13 +6007,13 @@
         <v>621</v>
       </c>
       <c r="I41">
-        <v>1533427200</v>
+        <v>1484611200</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="L41">
         <v>40</v>
@@ -6051,7 +6051,7 @@
         <v>340</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G42" t="s">
         <v>522</v>
@@ -6066,7 +6066,7 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="L42">
         <v>41</v>
@@ -6104,7 +6104,7 @@
         <v>341</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G43" t="s">
         <v>523</v>
@@ -6113,13 +6113,13 @@
         <v>623</v>
       </c>
       <c r="I43">
-        <v>1500336000</v>
+        <v>1610717385</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="L43">
         <v>42</v>
@@ -6157,7 +6157,7 @@
         <v>342</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G44" t="s">
         <v>524</v>
@@ -6210,7 +6210,7 @@
         <v>343</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G45" t="s">
         <v>525</v>
@@ -6219,7 +6219,7 @@
         <v>625</v>
       </c>
       <c r="I45">
-        <v>1626135916</v>
+        <v>1500336000</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -6263,7 +6263,7 @@
         <v>313</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G46" t="s">
         <v>526</v>
@@ -6278,7 +6278,7 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="L46">
         <v>45</v>
@@ -6316,7 +6316,7 @@
         <v>344</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G47" t="s">
         <v>527</v>
@@ -6331,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="L47">
         <v>46</v>
@@ -6366,10 +6366,10 @@
         <v>258</v>
       </c>
       <c r="E48" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G48" t="s">
         <v>528</v>
@@ -6378,13 +6378,13 @@
         <v>628</v>
       </c>
       <c r="I48">
-        <v>1533945600</v>
+        <v>1615299931</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="L48">
         <v>47</v>
@@ -6419,10 +6419,10 @@
         <v>259</v>
       </c>
       <c r="E49" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G49" t="s">
         <v>529</v>
@@ -6431,13 +6431,13 @@
         <v>629</v>
       </c>
       <c r="I49">
-        <v>1615299931</v>
+        <v>1614963736</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="L49">
         <v>48</v>
@@ -6475,7 +6475,7 @@
         <v>346</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G50" t="s">
         <v>530</v>
@@ -6484,13 +6484,13 @@
         <v>630</v>
       </c>
       <c r="I50">
-        <v>1638249982</v>
+        <v>1533945600</v>
       </c>
       <c r="J50">
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="L50">
         <v>49</v>
@@ -6528,7 +6528,7 @@
         <v>347</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G51" t="s">
         <v>531</v>
@@ -6537,13 +6537,13 @@
         <v>631</v>
       </c>
       <c r="I51">
-        <v>1548953220</v>
+        <v>1603447311</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="L51">
         <v>50</v>
@@ -6581,7 +6581,7 @@
         <v>348</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G52" t="s">
         <v>532</v>
@@ -6590,13 +6590,13 @@
         <v>632</v>
       </c>
       <c r="I52">
-        <v>1603447311</v>
+        <v>1548953220</v>
       </c>
       <c r="J52">
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="L52">
         <v>51</v>
@@ -6628,13 +6628,13 @@
         <v>167</v>
       </c>
       <c r="D53" t="s">
-        <v>263</v>
+        <v>167</v>
       </c>
       <c r="E53" t="s">
         <v>349</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G53" t="s">
         <v>533</v>
@@ -6643,13 +6643,13 @@
         <v>633</v>
       </c>
       <c r="I53">
-        <v>1565957940</v>
+        <v>1498694400</v>
       </c>
       <c r="J53">
         <v>1</v>
       </c>
       <c r="K53" t="s">
-        <v>691</v>
+        <v>727</v>
       </c>
       <c r="L53">
         <v>52</v>
@@ -6681,13 +6681,13 @@
         <v>168</v>
       </c>
       <c r="D54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E54" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G54" t="s">
         <v>534</v>
@@ -6696,13 +6696,13 @@
         <v>634</v>
       </c>
       <c r="I54">
-        <v>1614963736</v>
+        <v>1612524044</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="L54">
         <v>53</v>
@@ -6734,13 +6734,13 @@
         <v>169</v>
       </c>
       <c r="D55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E55" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G55" t="s">
         <v>535</v>
@@ -6755,7 +6755,7 @@
         <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="L55">
         <v>54</v>
@@ -6787,13 +6787,13 @@
         <v>170</v>
       </c>
       <c r="D56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E56" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G56" t="s">
         <v>536</v>
@@ -6802,13 +6802,13 @@
         <v>636</v>
       </c>
       <c r="I56">
-        <v>1612524044</v>
+        <v>1626135916</v>
       </c>
       <c r="J56">
         <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="L56">
         <v>55</v>
@@ -6840,13 +6840,13 @@
         <v>171</v>
       </c>
       <c r="D57" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E57" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G57" t="s">
         <v>537</v>
@@ -6855,13 +6855,13 @@
         <v>637</v>
       </c>
       <c r="I57">
-        <v>1562331120</v>
+        <v>1565957940</v>
       </c>
       <c r="J57">
         <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="L57">
         <v>56</v>
@@ -6893,13 +6893,13 @@
         <v>172</v>
       </c>
       <c r="D58" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E58" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G58" t="s">
         <v>538</v>
@@ -6908,13 +6908,13 @@
         <v>638</v>
       </c>
       <c r="I58">
-        <v>1562332440</v>
+        <v>1530662400</v>
       </c>
       <c r="J58">
         <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="L58">
         <v>57</v>
@@ -6946,13 +6946,13 @@
         <v>173</v>
       </c>
       <c r="D59" t="s">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="E59" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G59" t="s">
         <v>539</v>
@@ -6961,13 +6961,13 @@
         <v>639</v>
       </c>
       <c r="I59">
-        <v>1498694400</v>
+        <v>1562332440</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="L59">
         <v>58</v>
@@ -7002,10 +7002,10 @@
         <v>269</v>
       </c>
       <c r="E60" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G60" t="s">
         <v>540</v>
@@ -7014,13 +7014,13 @@
         <v>640</v>
       </c>
       <c r="I60">
-        <v>1650960626</v>
+        <v>1646008225</v>
       </c>
       <c r="J60">
         <v>1</v>
       </c>
       <c r="K60" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="L60">
         <v>59</v>
@@ -7058,7 +7058,7 @@
         <v>355</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G61" t="s">
         <v>541</v>
@@ -7067,13 +7067,13 @@
         <v>641</v>
       </c>
       <c r="I61">
-        <v>1530662400</v>
+        <v>1650960626</v>
       </c>
       <c r="J61">
         <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="L61">
         <v>60</v>
@@ -7111,7 +7111,7 @@
         <v>313</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G62" t="s">
         <v>542</v>
@@ -7120,13 +7120,13 @@
         <v>642</v>
       </c>
       <c r="I62">
-        <v>1646008225</v>
+        <v>1627113782</v>
       </c>
       <c r="J62">
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="L62">
         <v>61</v>
@@ -7161,10 +7161,10 @@
         <v>272</v>
       </c>
       <c r="E63" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G63" t="s">
         <v>543</v>
@@ -7173,13 +7173,13 @@
         <v>643</v>
       </c>
       <c r="I63">
-        <v>1540944000</v>
+        <v>1562331120</v>
       </c>
       <c r="J63">
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="L63">
         <v>62</v>
@@ -7214,10 +7214,10 @@
         <v>273</v>
       </c>
       <c r="E64" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G64" t="s">
         <v>544</v>
@@ -7226,13 +7226,13 @@
         <v>644</v>
       </c>
       <c r="I64">
-        <v>1623662716</v>
+        <v>1597402380</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="L64">
         <v>63</v>
@@ -7270,7 +7270,7 @@
         <v>357</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G65" t="s">
         <v>545</v>
@@ -7279,13 +7279,13 @@
         <v>645</v>
       </c>
       <c r="I65">
-        <v>1609341525</v>
+        <v>1540944000</v>
       </c>
       <c r="J65">
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>734</v>
+        <v>701</v>
       </c>
       <c r="L65">
         <v>64</v>
@@ -7317,13 +7317,13 @@
         <v>180</v>
       </c>
       <c r="D66" t="s">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="E66" t="s">
         <v>358</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G66" t="s">
         <v>546</v>
@@ -7332,13 +7332,13 @@
         <v>646</v>
       </c>
       <c r="I66">
-        <v>1597402380</v>
+        <v>1600160400</v>
       </c>
       <c r="J66">
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L66">
         <v>65</v>
@@ -7370,13 +7370,13 @@
         <v>181</v>
       </c>
       <c r="D67" t="s">
-        <v>181</v>
+        <v>275</v>
       </c>
       <c r="E67" t="s">
         <v>359</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G67" t="s">
         <v>547</v>
@@ -7385,13 +7385,13 @@
         <v>647</v>
       </c>
       <c r="I67">
-        <v>1600160400</v>
+        <v>1572962760</v>
       </c>
       <c r="J67">
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="L67">
         <v>66</v>
@@ -7429,7 +7429,7 @@
         <v>360</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G68" t="s">
         <v>548</v>
@@ -7438,13 +7438,13 @@
         <v>648</v>
       </c>
       <c r="I68">
-        <v>1539302400</v>
+        <v>1609341525</v>
       </c>
       <c r="J68">
         <v>1</v>
       </c>
       <c r="K68" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="L68">
         <v>67</v>
@@ -7482,7 +7482,7 @@
         <v>361</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G69" t="s">
         <v>549</v>
@@ -7497,7 +7497,7 @@
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="L69">
         <v>68</v>
@@ -7535,7 +7535,7 @@
         <v>362</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G70" t="s">
         <v>550</v>
@@ -7550,7 +7550,7 @@
         <v>1</v>
       </c>
       <c r="K70" t="s">
-        <v>738</v>
+        <v>683</v>
       </c>
       <c r="L70">
         <v>69</v>
@@ -7585,10 +7585,10 @@
         <v>279</v>
       </c>
       <c r="E71" t="s">
-        <v>313</v>
+        <v>363</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G71" t="s">
         <v>551</v>
@@ -7597,13 +7597,13 @@
         <v>651</v>
       </c>
       <c r="I71">
-        <v>1627113782</v>
+        <v>1391817600</v>
       </c>
       <c r="J71">
         <v>1</v>
       </c>
       <c r="K71" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="L71">
         <v>70</v>
@@ -7638,10 +7638,10 @@
         <v>280</v>
       </c>
       <c r="E72" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G72" t="s">
         <v>552</v>
@@ -7650,13 +7650,13 @@
         <v>652</v>
       </c>
       <c r="I72">
-        <v>1391817600</v>
+        <v>1623662716</v>
       </c>
       <c r="J72">
         <v>1</v>
       </c>
       <c r="K72" t="s">
-        <v>697</v>
+        <v>711</v>
       </c>
       <c r="L72">
         <v>71</v>
@@ -7688,13 +7688,13 @@
         <v>187</v>
       </c>
       <c r="D73" t="s">
-        <v>281</v>
+        <v>187</v>
       </c>
       <c r="E73" t="s">
-        <v>313</v>
+        <v>364</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G73" t="s">
         <v>553</v>
@@ -7703,13 +7703,13 @@
         <v>653</v>
       </c>
       <c r="I73">
-        <v>1640188674</v>
+        <v>1501891200</v>
       </c>
       <c r="J73">
         <v>1</v>
       </c>
       <c r="K73" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="L73">
         <v>72</v>
@@ -7741,10 +7741,13 @@
         <v>188</v>
       </c>
       <c r="D74" t="s">
-        <v>188</v>
+        <v>281</v>
+      </c>
+      <c r="E74" t="s">
+        <v>365</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G74" t="s">
         <v>554</v>
@@ -7753,13 +7756,13 @@
         <v>654</v>
       </c>
       <c r="I74">
-        <v>1651913559</v>
+        <v>1477612800</v>
       </c>
       <c r="J74">
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>705</v>
+        <v>743</v>
       </c>
       <c r="L74">
         <v>73</v>
@@ -7794,10 +7797,10 @@
         <v>282</v>
       </c>
       <c r="E75" t="s">
-        <v>364</v>
+        <v>313</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G75" t="s">
         <v>555</v>
@@ -7806,13 +7809,13 @@
         <v>655</v>
       </c>
       <c r="I75">
-        <v>1647920319</v>
+        <v>1640188674</v>
       </c>
       <c r="J75">
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="L75">
         <v>74</v>
@@ -7847,10 +7850,10 @@
         <v>283</v>
       </c>
       <c r="E76" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G76" t="s">
         <v>556</v>
@@ -7859,13 +7862,13 @@
         <v>656</v>
       </c>
       <c r="I76">
-        <v>1502236800</v>
+        <v>1647920319</v>
       </c>
       <c r="J76">
         <v>1</v>
       </c>
       <c r="K76" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="L76">
         <v>75</v>
@@ -7900,10 +7903,10 @@
         <v>284</v>
       </c>
       <c r="E77" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G77" t="s">
         <v>557</v>
@@ -7912,13 +7915,13 @@
         <v>657</v>
       </c>
       <c r="I77">
-        <v>1477612800</v>
+        <v>1539302400</v>
       </c>
       <c r="J77">
         <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="L77">
         <v>76</v>
@@ -7950,13 +7953,10 @@
         <v>192</v>
       </c>
       <c r="D78" t="s">
-        <v>285</v>
-      </c>
-      <c r="E78" t="s">
-        <v>313</v>
+        <v>192</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G78" t="s">
         <v>558</v>
@@ -7965,13 +7965,13 @@
         <v>658</v>
       </c>
       <c r="I78">
-        <v>1657036895</v>
+        <v>1651913559</v>
       </c>
       <c r="J78">
         <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="L78">
         <v>77</v>
@@ -8003,13 +8003,13 @@
         <v>193</v>
       </c>
       <c r="D79" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E79" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G79" t="s">
         <v>559</v>
@@ -8018,13 +8018,13 @@
         <v>659</v>
       </c>
       <c r="I79">
-        <v>1497364209</v>
+        <v>1502236800</v>
       </c>
       <c r="J79">
         <v>1</v>
       </c>
       <c r="K79" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="L79">
         <v>78</v>
@@ -8056,10 +8056,13 @@
         <v>194</v>
       </c>
       <c r="D80" t="s">
-        <v>287</v>
+        <v>286</v>
+      </c>
+      <c r="E80" t="s">
+        <v>365</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G80" t="s">
         <v>560</v>
@@ -8068,13 +8071,13 @@
         <v>660</v>
       </c>
       <c r="I80">
-        <v>1634887994</v>
+        <v>1497364209</v>
       </c>
       <c r="J80">
         <v>1</v>
       </c>
       <c r="K80" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="L80">
         <v>79</v>
@@ -8106,13 +8109,13 @@
         <v>195</v>
       </c>
       <c r="D81" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E81" t="s">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G81" t="s">
         <v>561</v>
@@ -8121,13 +8124,13 @@
         <v>661</v>
       </c>
       <c r="I81">
-        <v>1556585100</v>
+        <v>1657036895</v>
       </c>
       <c r="J81">
         <v>1</v>
       </c>
       <c r="K81" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="L81">
         <v>80</v>
@@ -8159,13 +8162,10 @@
         <v>196</v>
       </c>
       <c r="D82" t="s">
-        <v>289</v>
-      </c>
-      <c r="E82" t="s">
-        <v>368</v>
+        <v>288</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G82" t="s">
         <v>562</v>
@@ -8174,13 +8174,13 @@
         <v>662</v>
       </c>
       <c r="I82">
-        <v>1520726400</v>
+        <v>1634887994</v>
       </c>
       <c r="J82">
         <v>1</v>
       </c>
       <c r="K82" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="L82">
         <v>81</v>
@@ -8212,13 +8212,13 @@
         <v>197</v>
       </c>
       <c r="D83" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E83" t="s">
         <v>369</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G83" t="s">
         <v>563</v>
@@ -8227,13 +8227,13 @@
         <v>663</v>
       </c>
       <c r="I83">
-        <v>1649048256</v>
+        <v>1508889600</v>
       </c>
       <c r="J83">
         <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>684</v>
+        <v>746</v>
       </c>
       <c r="L83">
         <v>82</v>
@@ -8265,13 +8265,13 @@
         <v>198</v>
       </c>
       <c r="D84" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E84" t="s">
         <v>370</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G84" t="s">
         <v>564</v>
@@ -8280,13 +8280,13 @@
         <v>664</v>
       </c>
       <c r="I84">
-        <v>1552484520</v>
+        <v>1520726400</v>
       </c>
       <c r="J84">
         <v>1</v>
       </c>
       <c r="K84" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="L84">
         <v>83</v>
@@ -8318,13 +8318,13 @@
         <v>199</v>
       </c>
       <c r="D85" t="s">
-        <v>199</v>
+        <v>291</v>
       </c>
       <c r="E85" t="s">
         <v>371</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G85" t="s">
         <v>565</v>
@@ -8333,13 +8333,13 @@
         <v>665</v>
       </c>
       <c r="I85">
-        <v>1501891200</v>
+        <v>1605090441</v>
       </c>
       <c r="J85">
         <v>1</v>
       </c>
       <c r="K85" t="s">
-        <v>716</v>
+        <v>751</v>
       </c>
       <c r="L85">
         <v>84</v>
@@ -8377,7 +8377,7 @@
         <v>372</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G86" t="s">
         <v>566</v>
@@ -8386,13 +8386,13 @@
         <v>666</v>
       </c>
       <c r="I86">
-        <v>1508889600</v>
+        <v>1649048256</v>
       </c>
       <c r="J86">
         <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>740</v>
+        <v>700</v>
       </c>
       <c r="L86">
         <v>85</v>
@@ -8430,7 +8430,7 @@
         <v>373</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G87" t="s">
         <v>567</v>
@@ -8439,13 +8439,13 @@
         <v>667</v>
       </c>
       <c r="I87">
-        <v>1605090441</v>
+        <v>1552484520</v>
       </c>
       <c r="J87">
         <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="L87">
         <v>86</v>
@@ -8479,11 +8479,8 @@
       <c r="D88" t="s">
         <v>294</v>
       </c>
-      <c r="E88" t="s">
-        <v>374</v>
-      </c>
       <c r="F88" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G88" t="s">
         <v>568</v>
@@ -8492,13 +8489,13 @@
         <v>668</v>
       </c>
       <c r="I88">
-        <v>1538870400</v>
+        <v>1568732160</v>
       </c>
       <c r="J88">
         <v>1</v>
       </c>
       <c r="K88" t="s">
-        <v>749</v>
+        <v>684</v>
       </c>
       <c r="L88">
         <v>87</v>
@@ -8532,8 +8529,11 @@
       <c r="D89" t="s">
         <v>295</v>
       </c>
+      <c r="E89" t="s">
+        <v>374</v>
+      </c>
       <c r="F89" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G89" t="s">
         <v>569</v>
@@ -8542,13 +8542,13 @@
         <v>669</v>
       </c>
       <c r="I89">
-        <v>1595516340</v>
+        <v>1654151352</v>
       </c>
       <c r="J89">
         <v>1</v>
       </c>
       <c r="K89" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="L89">
         <v>88</v>
@@ -8586,7 +8586,7 @@
         <v>375</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G90" t="s">
         <v>570</v>
@@ -8595,13 +8595,13 @@
         <v>670</v>
       </c>
       <c r="I90">
-        <v>1654151352</v>
+        <v>1520380800</v>
       </c>
       <c r="J90">
         <v>1</v>
       </c>
       <c r="K90" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="L90">
         <v>89</v>
@@ -8639,7 +8639,7 @@
         <v>313</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G91" t="s">
         <v>571</v>
@@ -8648,13 +8648,13 @@
         <v>671</v>
       </c>
       <c r="I91">
-        <v>1644973249</v>
+        <v>1627020780</v>
       </c>
       <c r="J91">
         <v>1</v>
       </c>
       <c r="K91" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="L91">
         <v>90</v>
@@ -8692,7 +8692,7 @@
         <v>376</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G92" t="s">
         <v>572</v>
@@ -8701,13 +8701,13 @@
         <v>672</v>
       </c>
       <c r="I92">
-        <v>1566222960</v>
+        <v>1651983014</v>
       </c>
       <c r="J92">
         <v>1</v>
       </c>
       <c r="K92" t="s">
-        <v>753</v>
+        <v>709</v>
       </c>
       <c r="L92">
         <v>91</v>
@@ -8742,10 +8742,10 @@
         <v>299</v>
       </c>
       <c r="E93" t="s">
-        <v>313</v>
+        <v>377</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G93" t="s">
         <v>573</v>
@@ -8754,13 +8754,13 @@
         <v>673</v>
       </c>
       <c r="I93">
-        <v>1504051200</v>
+        <v>1518566400</v>
       </c>
       <c r="J93">
         <v>1</v>
       </c>
       <c r="K93" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="L93">
         <v>92</v>
@@ -8795,10 +8795,10 @@
         <v>300</v>
       </c>
       <c r="E94" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>474</v>
+        <v>392</v>
       </c>
       <c r="G94" t="s">
         <v>574</v>
@@ -8807,13 +8807,13 @@
         <v>674</v>
       </c>
       <c r="I94">
-        <v>1572962760</v>
+        <v>1643001498</v>
       </c>
       <c r="J94">
         <v>1</v>
       </c>
       <c r="K94" t="s">
-        <v>728</v>
+        <v>754</v>
       </c>
       <c r="L94">
         <v>93</v>
@@ -8848,7 +8848,7 @@
         <v>301</v>
       </c>
       <c r="E95" t="s">
-        <v>378</v>
+        <v>313</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>475</v>
@@ -8860,13 +8860,13 @@
         <v>675</v>
       </c>
       <c r="I95">
-        <v>1574782200</v>
+        <v>1504051200</v>
       </c>
       <c r="J95">
         <v>1</v>
       </c>
       <c r="K95" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="L95">
         <v>94</v>
@@ -8913,13 +8913,13 @@
         <v>676</v>
       </c>
       <c r="I96">
-        <v>1518566400</v>
+        <v>1596033180</v>
       </c>
       <c r="J96">
         <v>1</v>
       </c>
       <c r="K96" t="s">
-        <v>755</v>
+        <v>727</v>
       </c>
       <c r="L96">
         <v>95</v>
@@ -8954,7 +8954,7 @@
         <v>303</v>
       </c>
       <c r="E97" t="s">
-        <v>380</v>
+        <v>313</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>477</v>
@@ -8966,13 +8966,13 @@
         <v>677</v>
       </c>
       <c r="I97">
-        <v>1520380800</v>
+        <v>1644973249</v>
       </c>
       <c r="J97">
         <v>1</v>
       </c>
       <c r="K97" t="s">
-        <v>742</v>
+        <v>685</v>
       </c>
       <c r="L97">
         <v>96</v>
@@ -9007,7 +9007,7 @@
         <v>304</v>
       </c>
       <c r="E98" t="s">
-        <v>313</v>
+        <v>380</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>478</v>
@@ -9019,7 +9019,7 @@
         <v>678</v>
       </c>
       <c r="I98">
-        <v>1627020780</v>
+        <v>1566222960</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -9072,7 +9072,7 @@
         <v>679</v>
       </c>
       <c r="I99">
-        <v>1596033180</v>
+        <v>1574782200</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -9125,13 +9125,13 @@
         <v>680</v>
       </c>
       <c r="I100">
-        <v>1626924800</v>
+        <v>1626838226</v>
       </c>
       <c r="J100">
         <v>1</v>
       </c>
       <c r="K100" t="s">
-        <v>758</v>
+        <v>734</v>
       </c>
       <c r="L100">
         <v>99</v>
@@ -9166,7 +9166,7 @@
         <v>307</v>
       </c>
       <c r="E101" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>481</v>
@@ -9178,13 +9178,13 @@
         <v>681</v>
       </c>
       <c r="I101">
-        <v>1626838226</v>
+        <v>1629211557</v>
       </c>
       <c r="J101">
         <v>1</v>
       </c>
       <c r="K101" t="s">
-        <v>701</v>
+        <v>758</v>
       </c>
       <c r="L101">
         <v>100</v>

--- a/coinranking.xlsx
+++ b/coinranking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="1152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="1174">
   <si>
     <t>uuid</t>
   </si>
@@ -142,39 +142,39 @@
     <t>hnfQfsYfeIGUQ</t>
   </si>
   <si>
+    <t>3mVx2FX_iJFp5</t>
+  </si>
+  <si>
+    <t>ymQub4fuB</t>
+  </si>
+  <si>
+    <t>ZlZpzOJo43mIo</t>
+  </si>
+  <si>
     <t>DXwP4wF9ksbBO</t>
   </si>
   <si>
-    <t>3mVx2FX_iJFp5</t>
-  </si>
-  <si>
-    <t>ZlZpzOJo43mIo</t>
-  </si>
-  <si>
-    <t>ymQub4fuB</t>
-  </si>
-  <si>
     <t>08CsQa-Ov</t>
   </si>
   <si>
     <t>CiixT63n3</t>
   </si>
   <si>
+    <t>jad286TjB</t>
+  </si>
+  <si>
+    <t>aMNLwaUbY</t>
+  </si>
+  <si>
+    <t>Z96jIvLU7</t>
+  </si>
+  <si>
     <t>FEbS54wxo4oIl</t>
   </si>
   <si>
-    <t>jad286TjB</t>
-  </si>
-  <si>
-    <t>aMNLwaUbY</t>
-  </si>
-  <si>
     <t>TpHE2IShQw-sJ</t>
   </si>
   <si>
-    <t>Z96jIvLU7</t>
-  </si>
-  <si>
     <t>f3iaFeCKEmkaZ</t>
   </si>
   <si>
@@ -193,36 +193,36 @@
     <t>SbWqqTui-</t>
   </si>
   <si>
+    <t>DCrsaMv68</t>
+  </si>
+  <si>
     <t>tEf7-dnwV3BXS</t>
   </si>
   <si>
-    <t>DCrsaMv68</t>
-  </si>
-  <si>
     <t>ncYFcP709</t>
   </si>
   <si>
+    <t>KfWtaeV1W</t>
+  </si>
+  <si>
     <t>65PHZTpmE55b</t>
   </si>
   <si>
-    <t>KfWtaeV1W</t>
+    <t>bauj_21eYVwso</t>
   </si>
   <si>
     <t>QQ0NCmjVq</t>
   </si>
   <si>
-    <t>bauj_21eYVwso</t>
-  </si>
-  <si>
     <t>ixgUfzmLR</t>
   </si>
   <si>
+    <t>B42IRxNtoYmwK</t>
+  </si>
+  <si>
     <t>omwkOTglq</t>
   </si>
   <si>
-    <t>B42IRxNtoYmwK</t>
-  </si>
-  <si>
     <t>iAzbfXiBBKkR6</t>
   </si>
   <si>
@@ -244,10 +244,13 @@
     <t>JCKLgWPAF</t>
   </si>
   <si>
+    <t>drWC87t2Vozh</t>
+  </si>
+  <si>
     <t>cVaOmQWainv7g</t>
   </si>
   <si>
-    <t>drWC87t2Vozh</t>
+    <t>ql3Jj4Tge</t>
   </si>
   <si>
     <t>uIEWfMFnQo9K_</t>
@@ -259,15 +262,12 @@
     <t>QGbUTVMjG</t>
   </si>
   <si>
-    <t>ql3Jj4Tge</t>
+    <t>VcMY11NONHSA0</t>
   </si>
   <si>
     <t>k-J3YwacF</t>
   </si>
   <si>
-    <t>VcMY11NONHSA0</t>
-  </si>
-  <si>
     <t>sgxZRXbK0FDc</t>
   </si>
   <si>
@@ -280,90 +280,90 @@
     <t>aRGRWLf2RYNq4</t>
   </si>
   <si>
+    <t>qFakph2rpuMOL</t>
+  </si>
+  <si>
+    <t>M9bj_WrX</t>
+  </si>
+  <si>
+    <t>B8xT718SbVhhh</t>
+  </si>
+  <si>
+    <t>z2PZIKQL7</t>
+  </si>
+  <si>
+    <t>w5U609Wze</t>
+  </si>
+  <si>
+    <t>aQx_vW8s1</t>
+  </si>
+  <si>
     <t>J7st_qGwz</t>
   </si>
   <si>
-    <t>qFakph2rpuMOL</t>
-  </si>
-  <si>
-    <t>w5U609Wze</t>
-  </si>
-  <si>
-    <t>aQx_vW8s1</t>
-  </si>
-  <si>
-    <t>M9bj_WrX</t>
-  </si>
-  <si>
     <t>t7m8DZVyMsAu</t>
   </si>
   <si>
-    <t>z2PZIKQL7</t>
-  </si>
-  <si>
     <t>LtWwuVANwRzV_</t>
   </si>
   <si>
+    <t>w4MqH_Xe8</t>
+  </si>
+  <si>
+    <t>sfab31CXM</t>
+  </si>
+  <si>
     <t>Ru56fDlLB56-v</t>
   </si>
   <si>
-    <t>sfab31CXM</t>
-  </si>
-  <si>
-    <t>B8xT718SbVhhh</t>
-  </si>
-  <si>
-    <t>w4MqH_Xe8</t>
-  </si>
-  <si>
     <t>LOO6LmXd7G84Z</t>
   </si>
   <si>
     <t>gpRKmM16k</t>
   </si>
   <si>
+    <t>mMPrMcB7</t>
+  </si>
+  <si>
     <t>WMDlfMJ1W</t>
   </si>
   <si>
     <t>1ZZI6g5k5royD</t>
   </si>
   <si>
-    <t>mMPrMcB7</t>
+    <t>T93ksC96YL_Gc</t>
   </si>
   <si>
     <t>3jmxrjOJ8xa4p</t>
   </si>
   <si>
-    <t>T93ksC96YL_Gc</t>
-  </si>
-  <si>
     <t>q7gMmMdLb</t>
   </si>
   <si>
     <t>AP-fyKlSf</t>
   </si>
   <si>
+    <t>QUC5kVAxSoB-</t>
+  </si>
+  <si>
     <t>NfeOYfNcl</t>
   </si>
   <si>
-    <t>QUC5kVAxSoB-</t>
-  </si>
-  <si>
     <t>lT__vMO7l</t>
   </si>
   <si>
     <t>ybmU-kKU</t>
   </si>
   <si>
+    <t>frw2fHgZ</t>
+  </si>
+  <si>
     <t>n1p-s_gm1</t>
   </si>
   <si>
     <t>Au8mNo2ZIlJfL</t>
   </si>
   <si>
-    <t>frw2fHgZ</t>
-  </si>
-  <si>
     <t>BTC</t>
   </si>
   <si>
@@ -442,39 +442,39 @@
     <t>ETC</t>
   </si>
   <si>
+    <t>XMR</t>
+  </si>
+  <si>
+    <t>FIL</t>
+  </si>
+  <si>
+    <t>BCH</t>
+  </si>
+  <si>
     <t>HT</t>
   </si>
   <si>
-    <t>XMR</t>
-  </si>
-  <si>
-    <t>BCH</t>
-  </si>
-  <si>
-    <t>FIL</t>
-  </si>
-  <si>
     <t>WEMIX</t>
   </si>
   <si>
     <t>WSTETH</t>
   </si>
   <si>
+    <t>HBAR</t>
+  </si>
+  <si>
+    <t>ICP</t>
+  </si>
+  <si>
+    <t>IMX</t>
+  </si>
+  <si>
     <t>VET</t>
   </si>
   <si>
-    <t>HBAR</t>
-  </si>
-  <si>
-    <t>ICP</t>
-  </si>
-  <si>
     <t>ALGO</t>
   </si>
   <si>
-    <t>IMX</t>
-  </si>
-  <si>
     <t>XLM</t>
   </si>
   <si>
@@ -493,36 +493,36 @@
     <t>ENS</t>
   </si>
   <si>
+    <t>NEAR</t>
+  </si>
+  <si>
     <t>MANA</t>
   </si>
   <si>
-    <t>NEAR</t>
-  </si>
-  <si>
     <t>CAKE</t>
   </si>
   <si>
+    <t>FRAX</t>
+  </si>
+  <si>
     <t>CRO</t>
   </si>
   <si>
-    <t>FRAX</t>
+    <t>QNT</t>
   </si>
   <si>
     <t>FLOW</t>
   </si>
   <si>
-    <t>QNT</t>
-  </si>
-  <si>
     <t>AAVE</t>
   </si>
   <si>
+    <t>THETA</t>
+  </si>
+  <si>
     <t>EGLD</t>
   </si>
   <si>
-    <t>THETA</t>
-  </si>
-  <si>
     <t>EOS</t>
   </si>
   <si>
@@ -544,10 +544,13 @@
     <t>USDP</t>
   </si>
   <si>
+    <t>ANKR</t>
+  </si>
+  <si>
     <t>NEO</t>
   </si>
   <si>
-    <t>ANKR</t>
+    <t>SUSHI</t>
   </si>
   <si>
     <t>FTM</t>
@@ -559,15 +562,12 @@
     <t>CRV</t>
   </si>
   <si>
-    <t>SUSHI</t>
+    <t>BSV</t>
   </si>
   <si>
     <t>WOO</t>
   </si>
   <si>
-    <t>BSV</t>
-  </si>
-  <si>
     <t>SNX</t>
   </si>
   <si>
@@ -580,90 +580,90 @@
     <t>ZEC</t>
   </si>
   <si>
+    <t>MKR</t>
+  </si>
+  <si>
+    <t>KLAY</t>
+  </si>
+  <si>
+    <t>PAX</t>
+  </si>
+  <si>
+    <t>USDD</t>
+  </si>
+  <si>
+    <t>APE</t>
+  </si>
+  <si>
+    <t>XEC</t>
+  </si>
+  <si>
     <t>MINA</t>
   </si>
   <si>
-    <t>MKR</t>
-  </si>
-  <si>
-    <t>APE</t>
-  </si>
-  <si>
-    <t>XEC</t>
-  </si>
-  <si>
-    <t>KLAY</t>
-  </si>
-  <si>
     <t>GT</t>
   </si>
   <si>
-    <t>USDD</t>
-  </si>
-  <si>
     <t>MIOTA</t>
   </si>
   <si>
+    <t>BTT</t>
+  </si>
+  <si>
+    <t>BLOK</t>
+  </si>
+  <si>
     <t>RVN</t>
   </si>
   <si>
-    <t>BLOK</t>
-  </si>
-  <si>
-    <t>PAX</t>
-  </si>
-  <si>
-    <t>BTT</t>
-  </si>
-  <si>
     <t>KCS</t>
   </si>
   <si>
     <t>AXS</t>
   </si>
   <si>
+    <t>STX</t>
+  </si>
+  <si>
     <t>APX</t>
   </si>
   <si>
     <t>TUSD</t>
   </si>
   <si>
-    <t>STX</t>
+    <t>GUSD</t>
   </si>
   <si>
     <t>ZIL</t>
   </si>
   <si>
-    <t>GUSD</t>
-  </si>
-  <si>
     <t>BGB</t>
   </si>
   <si>
     <t>OKT</t>
   </si>
   <si>
+    <t>MX</t>
+  </si>
+  <si>
     <t>FTT</t>
   </si>
   <si>
-    <t>MX</t>
-  </si>
-  <si>
     <t>CDAI</t>
   </si>
   <si>
     <t>RUNE</t>
   </si>
   <si>
+    <t>TKX</t>
+  </si>
+  <si>
     <t>OP</t>
   </si>
   <si>
     <t>LRC</t>
   </si>
   <si>
-    <t>TKX</t>
-  </si>
-  <si>
     <t>Bitcoin</t>
   </si>
   <si>
@@ -730,39 +730,39 @@
     <t>Ethereum Classic</t>
   </si>
   <si>
+    <t>Monero</t>
+  </si>
+  <si>
+    <t>Filecoin</t>
+  </si>
+  <si>
+    <t>Bitcoin Cash</t>
+  </si>
+  <si>
     <t>Huobi Token</t>
   </si>
   <si>
-    <t>Monero</t>
-  </si>
-  <si>
-    <t>Bitcoin Cash</t>
-  </si>
-  <si>
-    <t>Filecoin</t>
-  </si>
-  <si>
     <t>WEMIX TOKEN</t>
   </si>
   <si>
     <t>Wrapped liquid staked Ether 2.0</t>
   </si>
   <si>
+    <t>Hedera</t>
+  </si>
+  <si>
+    <t>Internet Computer (DFINITY)</t>
+  </si>
+  <si>
+    <t>Immutable X</t>
+  </si>
+  <si>
     <t>VeChain</t>
   </si>
   <si>
-    <t>Hedera</t>
-  </si>
-  <si>
-    <t>Internet Computer (DFINITY)</t>
-  </si>
-  <si>
     <t>Algorand</t>
   </si>
   <si>
-    <t>Immutable X</t>
-  </si>
-  <si>
     <t>Stellar</t>
   </si>
   <si>
@@ -781,36 +781,36 @@
     <t>EnergySwap</t>
   </si>
   <si>
+    <t>NEAR Protocol</t>
+  </si>
+  <si>
     <t>Decentraland</t>
   </si>
   <si>
-    <t>NEAR Protocol</t>
-  </si>
-  <si>
     <t>PancakeSwap</t>
   </si>
   <si>
+    <t>Frax</t>
+  </si>
+  <si>
     <t>Cronos</t>
   </si>
   <si>
-    <t>Frax</t>
+    <t>Quant</t>
   </si>
   <si>
     <t>Flow</t>
   </si>
   <si>
-    <t>Quant</t>
-  </si>
-  <si>
     <t>Aave</t>
   </si>
   <si>
+    <t>Theta Token</t>
+  </si>
+  <si>
     <t>Elrond</t>
   </si>
   <si>
-    <t>Theta Token</t>
-  </si>
-  <si>
     <t>Tezos</t>
   </si>
   <si>
@@ -841,12 +841,12 @@
     <t>Curve DAO Token</t>
   </si>
   <si>
+    <t>Bitcoin SV</t>
+  </si>
+  <si>
     <t>WOO Network</t>
   </si>
   <si>
-    <t>Bitcoin SV</t>
-  </si>
-  <si>
     <t>Synthetix Network</t>
   </si>
   <si>
@@ -859,87 +859,87 @@
     <t>Zcash</t>
   </si>
   <si>
+    <t>Maker</t>
+  </si>
+  <si>
+    <t>Klaytn</t>
+  </si>
+  <si>
+    <t>Paxos Standard</t>
+  </si>
+  <si>
+    <t>ApeCoin</t>
+  </si>
+  <si>
+    <t>eCash</t>
+  </si>
+  <si>
     <t>Mina Protocol Token</t>
   </si>
   <si>
-    <t>Maker</t>
-  </si>
-  <si>
-    <t>ApeCoin</t>
-  </si>
-  <si>
-    <t>eCash</t>
-  </si>
-  <si>
-    <t>Klaytn</t>
-  </si>
-  <si>
     <t>GateToken</t>
   </si>
   <si>
     <t>IOTA</t>
   </si>
   <si>
+    <t>BitTorrent-New</t>
+  </si>
+  <si>
+    <t>Bloktopia</t>
+  </si>
+  <si>
     <t>Ravencoin</t>
   </si>
   <si>
-    <t>Bloktopia</t>
-  </si>
-  <si>
-    <t>Paxos Standard</t>
-  </si>
-  <si>
-    <t>BitTorrent-New</t>
-  </si>
-  <si>
     <t>KuCoin Token</t>
   </si>
   <si>
     <t>Axie Infinity</t>
   </si>
   <si>
+    <t>Stacks</t>
+  </si>
+  <si>
     <t>ApolloX</t>
   </si>
   <si>
     <t>TrueUSD</t>
   </si>
   <si>
-    <t>Stacks</t>
+    <t>Gemini dollar</t>
   </si>
   <si>
     <t>Zilliqa</t>
   </si>
   <si>
-    <t>Gemini dollar</t>
-  </si>
-  <si>
     <t>Bitget Token</t>
   </si>
   <si>
     <t>OKC</t>
   </si>
   <si>
+    <t>MX Token</t>
+  </si>
+  <si>
     <t>FTX Token</t>
   </si>
   <si>
-    <t>MX Token</t>
-  </si>
-  <si>
     <t>Compound Dai</t>
   </si>
   <si>
     <t>THORChain</t>
   </si>
   <si>
+    <t>Tokenize Xchange</t>
+  </si>
+  <si>
     <t>Optimism</t>
   </si>
   <si>
     <t>Loopring</t>
   </si>
   <si>
-    <t>Tokenize Xchange</t>
-  </si>
-  <si>
     <t>#f7931A</t>
   </si>
   <si>
@@ -1012,30 +1012,30 @@
     <t>#699070</t>
   </si>
   <si>
+    <t>#ff7519</t>
+  </si>
+  <si>
+    <t>#0090ff</t>
+  </si>
+  <si>
+    <t>#8dc451</t>
+  </si>
+  <si>
     <t>#2daadf</t>
   </si>
   <si>
-    <t>#ff7519</t>
-  </si>
-  <si>
-    <t>#8dc451</t>
-  </si>
-  <si>
-    <t>#0090ff</t>
-  </si>
-  <si>
     <t>#9bdc70</t>
   </si>
   <si>
     <t>#70b9dc</t>
   </si>
   <si>
+    <t>#00042b</t>
+  </si>
+  <si>
     <t>#4bc0fa</t>
   </si>
   <si>
-    <t>#00042b</t>
-  </si>
-  <si>
     <t>#3375bb</t>
   </si>
   <si>
@@ -1054,12 +1054,12 @@
     <t>#01275d</t>
   </si>
   <si>
+    <t>#585e63</t>
+  </si>
+  <si>
     <t>#9efad7</t>
   </si>
   <si>
-    <t>#585e63</t>
-  </si>
-  <si>
     <t>#B6509E</t>
   </si>
   <si>
@@ -1084,10 +1084,13 @@
     <t>#2ac27a</t>
   </si>
   <si>
+    <t>#277fcc</t>
+  </si>
+  <si>
     <t>#aedb00</t>
   </si>
   <si>
-    <t>#277fcc</t>
+    <t>#b06b2e</t>
   </si>
   <si>
     <t>#1969ff</t>
@@ -1096,9 +1099,6 @@
     <t>#0030ff</t>
   </si>
   <si>
-    <t>#b06b2e</t>
-  </si>
-  <si>
     <t>#eab300</t>
   </si>
   <si>
@@ -1117,42 +1117,42 @@
     <t>#1abc9c</t>
   </si>
   <si>
+    <t>#4f473b</t>
+  </si>
+  <si>
+    <t>#085229</t>
+  </si>
+  <si>
     <t>#0042C7</t>
   </si>
   <si>
-    <t>#4f473b</t>
-  </si>
-  <si>
     <t>#de5959</t>
   </si>
   <si>
     <t>#384182</t>
   </si>
   <si>
-    <t>#085229</t>
-  </si>
-  <si>
     <t>#23AF91</t>
   </si>
   <si>
     <t>#f5a616</t>
   </si>
   <si>
+    <t>#584dce</t>
+  </si>
+  <si>
     <t>#cb45cc</t>
   </si>
   <si>
     <t>#1f2e5a</t>
   </si>
   <si>
-    <t>#584dce</t>
+    <t>#30D7FA</t>
   </si>
   <si>
     <t>#49c1bf</t>
   </si>
   <si>
-    <t>#30D7FA</t>
-  </si>
-  <si>
     <t>#027ebd</t>
   </si>
   <si>
@@ -1165,12 +1165,12 @@
     <t>#0EAAB7</t>
   </si>
   <si>
+    <t>#ff8f40</t>
+  </si>
+  <si>
     <t>#ff2a29</t>
   </si>
   <si>
-    <t>#ff8f40</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/bOabBYkcX/bitcoin_btc.svg</t>
   </si>
   <si>
@@ -1249,39 +1249,39 @@
     <t>https://cdn.coinranking.com/rJfyor__W/etc.svg</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/Syz-oSd_Z/xmr.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/vUmvv-IQA/FIL3-filecoin.svg?size=48x48</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/By8ziihX7/bch.svg</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/ryFpQe0c7/ht.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/Syz-oSd_Z/xmr.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/By8ziihX7/bch.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/vUmvv-IQA/FIL3-filecoin.svg?size=48x48</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/1N84MQsoO/7548.png</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/LQg69oxqx/wstETH.PNG</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/dSCnSLilQ/hedera.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/1uJ_RVrmC/dfinity-icp.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/naRGT2Y_X/10603.png</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/B1_TDu9Dm/VEN.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/dSCnSLilQ/hedera.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/1uJ_RVrmC/dfinity-icp.png</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/lzbmCkUGB/algo.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/naRGT2Y_X/10603.png</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/78CxK1xsp/Stellar_symbol_black_RGB.svg</t>
   </si>
   <si>
@@ -1300,36 +1300,36 @@
     <t>https://cdn.coinranking.com/fmYxEUV5a/cropped-logo37-Converted-01-192x192.png</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/Cth83dCnl/near.png</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/ph_svUzXs/decentraland(1).svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/Cth83dCnl/near.png</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/aRtgdw7bQ/pancakeswap-cake-logo.png</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/BpVNCX-NM/frax.png</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/2o91jm73M/cro.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/BpVNCX-NM/frax.png</t>
+    <t>https://cdn.coinranking.com/a-i9Dl392/quant.png</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/xh8X8QBss/flow.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/a-i9Dl392/quant.png</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/4bpYKqV4X/AAVE.png</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/HJHg2k9Lf/theta.svg</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/X62ruAuZQ/Elrond.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/HJHg2k9Lf/theta.svg</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/PqOYrWSje/eos2.svg</t>
   </si>
   <si>
@@ -1351,10 +1351,13 @@
     <t>https://cdn.coinranking.com/KUd2bJXdn/3330.png</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/2NXhylXMw/ankr.png</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/MgUNVQCeN/neo.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/2NXhylXMw/ankr.png</t>
+    <t>https://cdn.coinranking.com/eKKejWkdo/sushiswap.png</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/Uh-AYdcnU/fantom.png</t>
@@ -1366,15 +1369,12 @@
     <t>https://cdn.coinranking.com/89clXLSu2/curve-dao-token.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/eKKejWkdo/sushiswap.png</t>
+    <t>https://cdn.coinranking.com/388ehh6kq/bitcoin-sv-1.svg</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/03_LGK8B-/7501.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/388ehh6kq/bitcoin-sv-1.svg</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/c2WntZSPs/snx-synthetix.png</t>
   </si>
   <si>
@@ -1387,1189 +1387,1255 @@
     <t>https://cdn.coinranking.com/rJrKiS_uZ/zec.svg</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/sjHfS7jCS/mkrdao.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/cY-BSmXaS/klay.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/H1NkFcuhX/pax.svg</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/HeEyq_2CG/usdd.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/qT3ukh7Z9/APE.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/wdqRaUEhn/xec.png</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/IqAKk8Gab/mina.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/sjHfS7jCS/mkrdao.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/qT3ukh7Z9/APE.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/wdqRaUEhn/xec.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/cY-BSmXaS/klay.svg</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/tRE6BrzE0/GT[1].svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/HeEyq_2CG/usdd.png</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/H1IQ9Bdd-/miota.svg</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/xHIci4Je9/16086.png</t>
+  </si>
+  <si>
+    <t>https://cdn.coinranking.com/P6P1BdGJ9/11206.png</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/Rw1xg7rFE/rvn.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/P6P1BdGJ9/11206.png</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/H1NkFcuhX/pax.svg</t>
-  </si>
-  <si>
-    <t>https://cdn.coinranking.com/xHIci4Je9/16086.png</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/A-hAjR-hN/kucoin.png</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/L3gWtlUJB/axie-infinity.png</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/9gM7CG7Gp/4847.png</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/FfcNFmkwn/16334.png</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/qPE6mbDUL/tusd.png</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/9gM7CG7Gp/4847.png</t>
+    <t>https://cdn.coinranking.com/s5cHqxxYr/gusd.svg</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/H18JFWswf/zil.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/s5cHqxxYr/gusd.svg</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/Du8qwA32R/photo-2022-05-03-19-50-24.png</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/5H4rM81Pj/mxc.svg</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/WyBm4_EzM/ftx-exchange.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/5H4rM81Pj/mxc.svg</t>
-  </si>
-  <si>
     <t>https://cdn.coinranking.com/aZPPc1MqR/cDAI.svg</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/tU7Skyia9/ThorChain[1].svg</t>
   </si>
   <si>
+    <t>https://cdn.coinranking.com/JYtWb5AXp/tokenize.svg</t>
+  </si>
+  <si>
     <t>https://cdn.coinranking.com/GaG3fv_rq/11840.png</t>
   </si>
   <si>
     <t>https://cdn.coinranking.com/Hyi4YJz3M/lrc.svg</t>
   </si>
   <si>
-    <t>https://cdn.coinranking.com/JYtWb5AXp/tokenize.svg</t>
-  </si>
-  <si>
-    <t>473670700852</t>
-  </si>
-  <si>
-    <t>204433767208</t>
-  </si>
-  <si>
-    <t>65463936878</t>
-  </si>
-  <si>
-    <t>44793019374</t>
-  </si>
-  <si>
-    <t>43831795420</t>
-  </si>
-  <si>
-    <t>19785301909</t>
-  </si>
-  <si>
-    <t>13850799851</t>
-  </si>
-  <si>
-    <t>12825104002</t>
-  </si>
-  <si>
-    <t>12630097819</t>
-  </si>
-  <si>
-    <t>12562364735</t>
-  </si>
-  <si>
-    <t>11839815775</t>
-  </si>
-  <si>
-    <t>9158577088</t>
-  </si>
-  <si>
-    <t>8796670882</t>
-  </si>
-  <si>
-    <t>7755023810</t>
-  </si>
-  <si>
-    <t>7714351336</t>
-  </si>
-  <si>
-    <t>7124083261</t>
-  </si>
-  <si>
-    <t>6664838781</t>
-  </si>
-  <si>
-    <t>6464394538</t>
-  </si>
-  <si>
-    <t>6348747472</t>
-  </si>
-  <si>
-    <t>5689948671</t>
-  </si>
-  <si>
-    <t>5239806737</t>
-  </si>
-  <si>
-    <t>4586972686</t>
-  </si>
-  <si>
-    <t>4484571288</t>
-  </si>
-  <si>
-    <t>3451829893</t>
-  </si>
-  <si>
-    <t>3251074398</t>
-  </si>
-  <si>
-    <t>3191454779</t>
-  </si>
-  <si>
-    <t>2935113740</t>
-  </si>
-  <si>
-    <t>2910700949</t>
-  </si>
-  <si>
-    <t>2804478029</t>
-  </si>
-  <si>
-    <t>2741785690</t>
-  </si>
-  <si>
-    <t>2495320986</t>
-  </si>
-  <si>
-    <t>2213605889</t>
-  </si>
-  <si>
-    <t>2061603157</t>
-  </si>
-  <si>
-    <t>2053563578</t>
-  </si>
-  <si>
-    <t>2021810686</t>
-  </si>
-  <si>
-    <t>1991055263</t>
-  </si>
-  <si>
-    <t>1980862563</t>
-  </si>
-  <si>
-    <t>1948195079</t>
-  </si>
-  <si>
-    <t>1852600105</t>
-  </si>
-  <si>
-    <t>1826377507</t>
-  </si>
-  <si>
-    <t>1815412140</t>
-  </si>
-  <si>
-    <t>1757522179</t>
-  </si>
-  <si>
-    <t>1666241511</t>
-  </si>
-  <si>
-    <t>1558744066</t>
-  </si>
-  <si>
-    <t>1558333507</t>
-  </si>
-  <si>
-    <t>1451276392</t>
-  </si>
-  <si>
-    <t>1416500927</t>
-  </si>
-  <si>
-    <t>1400147159</t>
-  </si>
-  <si>
-    <t>1376198799</t>
-  </si>
-  <si>
-    <t>1348476538</t>
-  </si>
-  <si>
-    <t>1267504960</t>
-  </si>
-  <si>
-    <t>1246497736</t>
-  </si>
-  <si>
-    <t>1242173592</t>
-  </si>
-  <si>
-    <t>1212502685</t>
-  </si>
-  <si>
-    <t>1125652627</t>
-  </si>
-  <si>
-    <t>1122264227</t>
-  </si>
-  <si>
-    <t>1106320461</t>
-  </si>
-  <si>
-    <t>1069395767</t>
-  </si>
-  <si>
-    <t>1012863830</t>
-  </si>
-  <si>
-    <t>1011634152</t>
-  </si>
-  <si>
-    <t>972081935</t>
-  </si>
-  <si>
-    <t>970955290</t>
-  </si>
-  <si>
-    <t>905541722</t>
-  </si>
-  <si>
-    <t>899584041</t>
-  </si>
-  <si>
-    <t>895908249</t>
-  </si>
-  <si>
-    <t>882608626</t>
-  </si>
-  <si>
-    <t>857051093</t>
-  </si>
-  <si>
-    <t>852321502</t>
-  </si>
-  <si>
-    <t>825493717</t>
-  </si>
-  <si>
-    <t>814741684</t>
-  </si>
-  <si>
-    <t>780274518</t>
-  </si>
-  <si>
-    <t>775914799</t>
-  </si>
-  <si>
-    <t>756279730</t>
-  </si>
-  <si>
-    <t>752881126</t>
-  </si>
-  <si>
-    <t>751595964</t>
-  </si>
-  <si>
-    <t>751686093</t>
-  </si>
-  <si>
-    <t>746899086</t>
-  </si>
-  <si>
-    <t>741668666</t>
-  </si>
-  <si>
-    <t>723506173</t>
-  </si>
-  <si>
-    <t>715587340</t>
-  </si>
-  <si>
-    <t>713705947</t>
-  </si>
-  <si>
-    <t>711626017</t>
-  </si>
-  <si>
-    <t>708635150</t>
-  </si>
-  <si>
-    <t>700987903</t>
-  </si>
-  <si>
-    <t>684459830</t>
-  </si>
-  <si>
-    <t>661725549</t>
-  </si>
-  <si>
-    <t>616048241</t>
-  </si>
-  <si>
-    <t>614863849</t>
-  </si>
-  <si>
-    <t>596628010</t>
-  </si>
-  <si>
-    <t>585508284</t>
-  </si>
-  <si>
-    <t>566057526</t>
-  </si>
-  <si>
-    <t>568024630</t>
-  </si>
-  <si>
-    <t>550442333</t>
-  </si>
-  <si>
-    <t>545068010</t>
-  </si>
-  <si>
-    <t>539170309</t>
-  </si>
-  <si>
-    <t>539260504</t>
-  </si>
-  <si>
-    <t>538166566</t>
-  </si>
-  <si>
-    <t>536250575</t>
-  </si>
-  <si>
-    <t>528394033</t>
-  </si>
-  <si>
-    <t>527392844</t>
-  </si>
-  <si>
-    <t>24645.11086885775</t>
-  </si>
-  <si>
-    <t>1675.344079827028</t>
-  </si>
-  <si>
-    <t>1.0015491389481896</t>
-  </si>
-  <si>
-    <t>313.64266351208835</t>
-  </si>
-  <si>
-    <t>1.0012293808568036</t>
-  </si>
-  <si>
-    <t>0.39335585054193745</t>
-  </si>
-  <si>
-    <t>0.39522875212088643</t>
-  </si>
-  <si>
-    <t>1.001804930990911</t>
-  </si>
-  <si>
-    <t>1.4037093689981157</t>
-  </si>
-  <si>
-    <t>50.93422394207796</t>
-  </si>
-  <si>
-    <t>0.08652448675466533</t>
-  </si>
-  <si>
-    <t>25.219305908042717</t>
-  </si>
-  <si>
-    <t>7.3376966476135985</t>
-  </si>
-  <si>
-    <t>0.000013153946843105</t>
-  </si>
-  <si>
-    <t>7.715049741123406</t>
-  </si>
-  <si>
-    <t>1679.9680028746538</t>
-  </si>
-  <si>
-    <t>94.04938674751904</t>
-  </si>
-  <si>
-    <t>0.0701519625862122</t>
-  </si>
-  <si>
-    <t>21.111749254509103</t>
-  </si>
-  <si>
-    <t>7.0833364840275275</t>
-  </si>
-  <si>
-    <t>1.0010259079891206</t>
-  </si>
-  <si>
-    <t>13.93803472676782</t>
-  </si>
-  <si>
-    <t>24636.931354170938</t>
-  </si>
-  <si>
-    <t>2.3424606496284714</t>
-  </si>
-  <si>
-    <t>2.7814234515094367</t>
-  </si>
-  <si>
-    <t>23.095246912964896</t>
-  </si>
-  <si>
-    <t>5.870227494406195</t>
-  </si>
-  <si>
-    <t>159.86885414160957</t>
-  </si>
-  <si>
-    <t>146.59031981385144</t>
-  </si>
-  <si>
-    <t>8.37513460928048</t>
-  </si>
-  <si>
-    <t>2.495320986199232</t>
-  </si>
-  <si>
-    <t>1864.4352648583936</t>
-  </si>
-  <si>
-    <t>0.030880471321493536</t>
-  </si>
-  <si>
-    <t>0.08301176420541008</t>
-  </si>
-  <si>
-    <t>6.974779459434445</t>
-  </si>
-  <si>
-    <t>0.2803654562431325</t>
-  </si>
-  <si>
-    <t>0.9904312833585023</t>
-  </si>
-  <si>
-    <t>0.09641893575563665</t>
-  </si>
-  <si>
-    <t>1.5260320829573366</t>
-  </si>
-  <si>
-    <t>10.296263505821422</t>
-  </si>
-  <si>
-    <t>0.7917103353799266</t>
-  </si>
-  <si>
-    <t>13.519401374518717</t>
-  </si>
-  <si>
-    <t>16.66241511055251</t>
-  </si>
-  <si>
-    <t>0.7107122131321799</t>
-  </si>
-  <si>
-    <t>2.563704923225051</t>
-  </si>
-  <si>
-    <t>4.174285192457855</t>
-  </si>
-  <si>
-    <t>0.08671379991964051</t>
-  </si>
-  <si>
-    <t>1.0007097671584013</t>
-  </si>
-  <si>
-    <t>1.3281208254368473</t>
-  </si>
-  <si>
-    <t>137.9200152465506</t>
-  </si>
-  <si>
-    <t>88.0758823290037</t>
-  </si>
-  <si>
-    <t>52.19471253965849</t>
-  </si>
-  <si>
-    <t>1.242184322442645</t>
-  </si>
-  <si>
-    <t>1.2265899058894905</t>
-  </si>
-  <si>
-    <t>1.2269666449042944</t>
-  </si>
-  <si>
-    <t>183.93208643001324</t>
-  </si>
-  <si>
-    <t>0.000167651805741708</t>
-  </si>
-  <si>
-    <t>0.14071635091686616</t>
-  </si>
-  <si>
-    <t>2.867768409e-9</t>
-  </si>
-  <si>
-    <t>0.9957541469839347</t>
-  </si>
-  <si>
-    <t>13.782531333489857</t>
-  </si>
-  <si>
-    <t>0.04964461241296753</t>
-  </si>
-  <si>
-    <t>0.5283032731158429</t>
-  </si>
-  <si>
-    <t>1.6885403522505837</t>
-  </si>
-  <si>
-    <t>1.1882560835094835</t>
-  </si>
-  <si>
-    <t>1.4450057256487951</t>
-  </si>
-  <si>
-    <t>0.24056112973802524</t>
-  </si>
-  <si>
-    <t>44.45116846391831</t>
-  </si>
-  <si>
-    <t>2.62452028464835</t>
-  </si>
-  <si>
-    <t>0.16848855456673875</t>
-  </si>
-  <si>
-    <t>70.75711980247596</t>
-  </si>
-  <si>
-    <t>49.09905360398944</t>
-  </si>
-  <si>
-    <t>0.9999103623936869</t>
-  </si>
-  <si>
-    <t>770.0476496261897</t>
-  </si>
-  <si>
-    <t>5.729130647826447</t>
-  </si>
-  <si>
-    <t>0.000039195313583285</t>
-  </si>
-  <si>
-    <t>0.30509846627816467</t>
-  </si>
-  <si>
-    <t>5.101663261966648</t>
-  </si>
-  <si>
-    <t>0.9974827214560303</t>
-  </si>
-  <si>
-    <t>0.25744901721927343</t>
-  </si>
-  <si>
-    <t>0.033985997461425936</t>
-  </si>
-  <si>
-    <t>0.003558130084070386</t>
-  </si>
-  <si>
-    <t>1.0012671624549512</t>
-  </si>
-  <si>
-    <t>7.41530233999e-7</t>
-  </si>
-  <si>
-    <t>9.04870515131418</t>
-  </si>
-  <si>
-    <t>10.864434582241904</t>
-  </si>
-  <si>
-    <t>0.0625303054992707</t>
-  </si>
-  <si>
-    <t>1.00155049136829</t>
-  </si>
-  <si>
-    <t>0.6499068999255506</t>
-  </si>
-  <si>
-    <t>0.034692489726443274</t>
-  </si>
-  <si>
-    <t>1.0048302861007987</t>
-  </si>
-  <si>
-    <t>0.4057315890281766</t>
-  </si>
-  <si>
-    <t>30.91043247127683</t>
-  </si>
-  <si>
-    <t>1.6572700637680944</t>
-  </si>
-  <si>
-    <t>1.2332349624746466</t>
-  </si>
-  <si>
-    <t>0.022191486033274786</t>
-  </si>
-  <si>
-    <t>1.7893842325826375</t>
-  </si>
-  <si>
-    <t>2.497111339023191</t>
-  </si>
-  <si>
-    <t>0.42683637436491234</t>
-  </si>
-  <si>
-    <t>6.592740194389613</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>-0.17</t>
-  </si>
-  <si>
-    <t>0.20</t>
-  </si>
-  <si>
-    <t>-0.00</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>0.13</t>
+    <t>465876648385</t>
+  </si>
+  <si>
+    <t>201382327458</t>
+  </si>
+  <si>
+    <t>65714917898</t>
+  </si>
+  <si>
+    <t>44099026157</t>
+  </si>
+  <si>
+    <t>44007966565</t>
+  </si>
+  <si>
+    <t>19471714514</t>
+  </si>
+  <si>
+    <t>13542709926</t>
+  </si>
+  <si>
+    <t>12508768134</t>
+  </si>
+  <si>
+    <t>12273302371</t>
+  </si>
+  <si>
+    <t>12199722280</t>
+  </si>
+  <si>
+    <t>11579494995</t>
+  </si>
+  <si>
+    <t>8878735650</t>
+  </si>
+  <si>
+    <t>8544728504</t>
+  </si>
+  <si>
+    <t>7579604518</t>
+  </si>
+  <si>
+    <t>7493786045</t>
+  </si>
+  <si>
+    <t>7024049221</t>
+  </si>
+  <si>
+    <t>6675264998</t>
+  </si>
+  <si>
+    <t>6356494728</t>
+  </si>
+  <si>
+    <t>6222939982</t>
+  </si>
+  <si>
+    <t>5582866068</t>
+  </si>
+  <si>
+    <t>5187548731</t>
+  </si>
+  <si>
+    <t>4549084972</t>
+  </si>
+  <si>
+    <t>4405101865</t>
+  </si>
+  <si>
+    <t>3482619577</t>
+  </si>
+  <si>
+    <t>3172224404</t>
+  </si>
+  <si>
+    <t>3107197904</t>
+  </si>
+  <si>
+    <t>2872130528</t>
+  </si>
+  <si>
+    <t>2740636965</t>
+  </si>
+  <si>
+    <t>2723002154</t>
+  </si>
+  <si>
+    <t>2638770547</t>
+  </si>
+  <si>
+    <t>2512410038</t>
+  </si>
+  <si>
+    <t>2189166389</t>
+  </si>
+  <si>
+    <t>2014377878</t>
+  </si>
+  <si>
+    <t>1969484119</t>
+  </si>
+  <si>
+    <t>1962318906</t>
+  </si>
+  <si>
+    <t>1948598556</t>
+  </si>
+  <si>
+    <t>1940639512</t>
+  </si>
+  <si>
+    <t>1877388942</t>
+  </si>
+  <si>
+    <t>1792244576</t>
+  </si>
+  <si>
+    <t>1768060024</t>
+  </si>
+  <si>
+    <t>1754062496</t>
+  </si>
+  <si>
+    <t>1701382949</t>
+  </si>
+  <si>
+    <t>1586410261</t>
+  </si>
+  <si>
+    <t>1516382548</t>
+  </si>
+  <si>
+    <t>1515343231</t>
+  </si>
+  <si>
+    <t>1428436715</t>
+  </si>
+  <si>
+    <t>1406268027</t>
+  </si>
+  <si>
+    <t>1368000277</t>
+  </si>
+  <si>
+    <t>1307977127</t>
+  </si>
+  <si>
+    <t>1302554476</t>
+  </si>
+  <si>
+    <t>1238808954</t>
+  </si>
+  <si>
+    <t>1214178579</t>
+  </si>
+  <si>
+    <t>1206351333</t>
+  </si>
+  <si>
+    <t>1184563314</t>
+  </si>
+  <si>
+    <t>1183202777</t>
+  </si>
+  <si>
+    <t>1134113355</t>
+  </si>
+  <si>
+    <t>1081599099</t>
+  </si>
+  <si>
+    <t>1068049006</t>
+  </si>
+  <si>
+    <t>1067120658</t>
+  </si>
+  <si>
+    <t>1012279828</t>
+  </si>
+  <si>
+    <t>940284916</t>
+  </si>
+  <si>
+    <t>922160548</t>
+  </si>
+  <si>
+    <t>868486188</t>
+  </si>
+  <si>
+    <t>858047276</t>
+  </si>
+  <si>
+    <t>855563211</t>
+  </si>
+  <si>
+    <t>851427163</t>
+  </si>
+  <si>
+    <t>833913196</t>
+  </si>
+  <si>
+    <t>826066353</t>
+  </si>
+  <si>
+    <t>804812594</t>
+  </si>
+  <si>
+    <t>784130806</t>
+  </si>
+  <si>
+    <t>772079518</t>
+  </si>
+  <si>
+    <t>762526046</t>
+  </si>
+  <si>
+    <t>758465546</t>
+  </si>
+  <si>
+    <t>749228132</t>
+  </si>
+  <si>
+    <t>736833534</t>
+  </si>
+  <si>
+    <t>725907621</t>
+  </si>
+  <si>
+    <t>720753829</t>
+  </si>
+  <si>
+    <t>718104280</t>
+  </si>
+  <si>
+    <t>713078374</t>
+  </si>
+  <si>
+    <t>697981467</t>
+  </si>
+  <si>
+    <t>697552988</t>
+  </si>
+  <si>
+    <t>695240246</t>
+  </si>
+  <si>
+    <t>689677685</t>
+  </si>
+  <si>
+    <t>686500402</t>
+  </si>
+  <si>
+    <t>675133672</t>
+  </si>
+  <si>
+    <t>642745215</t>
+  </si>
+  <si>
+    <t>625073591</t>
+  </si>
+  <si>
+    <t>620726812</t>
+  </si>
+  <si>
+    <t>619163509</t>
+  </si>
+  <si>
+    <t>587496291</t>
+  </si>
+  <si>
+    <t>570867504</t>
+  </si>
+  <si>
+    <t>540392418</t>
+  </si>
+  <si>
+    <t>543501594</t>
+  </si>
+  <si>
+    <t>533902032</t>
+  </si>
+  <si>
+    <t>531874936</t>
+  </si>
+  <si>
+    <t>528195106</t>
+  </si>
+  <si>
+    <t>522171932</t>
+  </si>
+  <si>
+    <t>521313364</t>
+  </si>
+  <si>
+    <t>521050075</t>
+  </si>
+  <si>
+    <t>513247888</t>
+  </si>
+  <si>
+    <t>24239.585919105568</t>
+  </si>
+  <si>
+    <t>1650.3373914049514</t>
+  </si>
+  <si>
+    <t>1.0053889603296333</t>
+  </si>
+  <si>
+    <t>308.7832929181426</t>
+  </si>
+  <si>
+    <t>1.005253576633562</t>
+  </si>
+  <si>
+    <t>0.3871213519732626</t>
+  </si>
+  <si>
+    <t>0.3864374911348093</t>
+  </si>
+  <si>
+    <t>1.006134800938046</t>
+  </si>
+  <si>
+    <t>1.3640604781199472</t>
+  </si>
+  <si>
+    <t>49.463886757471585</t>
+  </si>
+  <si>
+    <t>0.0846220819953678</t>
+  </si>
+  <si>
+    <t>24.44872694471404</t>
+  </si>
+  <si>
+    <t>7.127231415985304</t>
+  </si>
+  <si>
+    <t>0.000012856405229326</t>
+  </si>
+  <si>
+    <t>7.494464481503715</t>
+  </si>
+  <si>
+    <t>1648.7057025752895</t>
+  </si>
+  <si>
+    <t>94.19651398458288</t>
+  </si>
+  <si>
+    <t>0.06898102795289497</t>
+  </si>
+  <si>
+    <t>20.693396468505853</t>
+  </si>
+  <si>
+    <t>6.950027407623669</t>
+  </si>
+  <si>
+    <t>1.0051990954447492</t>
+  </si>
+  <si>
+    <t>13.822908626289031</t>
+  </si>
+  <si>
+    <t>24240.300189628175</t>
+  </si>
+  <si>
+    <t>2.3633549648492145</t>
+  </si>
+  <si>
+    <t>2.713964145192292</t>
+  </si>
+  <si>
+    <t>22.485514527497116</t>
+  </si>
+  <si>
+    <t>157.75039228118078</t>
+  </si>
+  <si>
+    <t>8.371625683207778</t>
+  </si>
+  <si>
+    <t>142.33156843143604</t>
+  </si>
+  <si>
+    <t>5.277541107656621</t>
+  </si>
+  <si>
+    <t>2.512410037791681</t>
+  </si>
+  <si>
+    <t>1829.5028269760699</t>
+  </si>
+  <si>
+    <t>0.08142774987373873</t>
+  </si>
+  <si>
+    <t>6.794252885866326</t>
+  </si>
+  <si>
+    <t>0.9811594545744992</t>
+  </si>
+  <si>
+    <t>0.029187790883793155</t>
+  </si>
+  <si>
+    <t>0.2732663046035608</t>
+  </si>
+  <si>
+    <t>0.09291463971643003</t>
+  </si>
+  <si>
+    <t>1.4763157552083073</t>
+  </si>
+  <si>
+    <t>9.96734155193902</t>
+  </si>
+  <si>
+    <t>0.7649554480284116</t>
+  </si>
+  <si>
+    <t>13.087561147945625</t>
+  </si>
+  <si>
+    <t>15.864102607406494</t>
+  </si>
+  <si>
+    <t>2.494688965410636</t>
+  </si>
+  <si>
+    <t>0.6909238695757346</t>
+  </si>
+  <si>
+    <t>4.108591760457666</t>
+  </si>
+  <si>
+    <t>1.0050844590655184</t>
+  </si>
+  <si>
+    <t>0.08475438478688989</t>
+  </si>
+  <si>
+    <t>133.7778005125912</t>
+  </si>
+  <si>
+    <t>1.2570492912217377</t>
+  </si>
+  <si>
+    <t>86.07870834835612</t>
+  </si>
+  <si>
+    <t>1.2141890675687526</t>
+  </si>
+  <si>
+    <t>50.513658602436855</t>
+  </si>
+  <si>
+    <t>1.198325927154864</t>
+  </si>
+  <si>
+    <t>1.2896965787349028</t>
+  </si>
+  <si>
+    <t>185.87408438297373</t>
+  </si>
+  <si>
+    <t>0.000163905530512559</t>
+  </si>
+  <si>
+    <t>0.13962053957079507</t>
+  </si>
+  <si>
+    <t>3.021398663e-9</t>
+  </si>
+  <si>
+    <t>0.9963896874917861</t>
+  </si>
+  <si>
+    <t>0.0480764466533493</t>
+  </si>
+  <si>
+    <t>13.07472775067347</t>
+  </si>
+  <si>
+    <t>1.4217463977388312</t>
+  </si>
+  <si>
+    <t>0.5003921752241539</t>
+  </si>
+  <si>
+    <t>1.6059122219616497</t>
+  </si>
+  <si>
+    <t>1.1285848850596198</t>
+  </si>
+  <si>
+    <t>43.49111914447604</t>
+  </si>
+  <si>
+    <t>0.2318641872621107</t>
+  </si>
+  <si>
+    <t>2.5587680861089823</t>
+  </si>
+  <si>
+    <t>0.16248210182310463</t>
+  </si>
+  <si>
+    <t>70.01397803293187</t>
+  </si>
+  <si>
+    <t>48.25182770475039</t>
+  </si>
+  <si>
+    <t>775.7594004106685</t>
+  </si>
+  <si>
+    <t>0.3060498511651301</t>
+  </si>
+  <si>
+    <t>1.0411101135967384</t>
+  </si>
+  <si>
+    <t>1.0007935477789955</t>
+  </si>
+  <si>
+    <t>5.494032763629261</t>
+  </si>
+  <si>
+    <t>0.000037444250606561</t>
+  </si>
+  <si>
+    <t>0.9427919684361497</t>
+  </si>
+  <si>
+    <t>4.951169208937343</t>
+  </si>
+  <si>
+    <t>0.25096074418928227</t>
+  </si>
+  <si>
+    <t>7.35450155571e-7</t>
+  </si>
+  <si>
+    <t>0.003448388426291065</t>
+  </si>
+  <si>
+    <t>0.03269049534823945</t>
+  </si>
+  <si>
+    <t>8.925411357642792</t>
+  </si>
+  <si>
+    <t>10.552809007407442</t>
+  </si>
+  <si>
+    <t>0.6808926714425195</t>
+  </si>
+  <si>
+    <t>0.06300519122911188</t>
+  </si>
+  <si>
+    <t>1.006503696057501</t>
+  </si>
+  <si>
+    <t>1.0424544760155177</t>
+  </si>
+  <si>
+    <t>0.033824995448165744</t>
+  </si>
+  <si>
+    <t>0.38599430824524267</t>
+  </si>
+  <si>
+    <t>30.52067097940357</t>
+  </si>
+  <si>
+    <t>1.2211849234770622</t>
+  </si>
+  <si>
+    <t>1.6171567469887531</t>
+  </si>
+  <si>
+    <t>0.022282332782332482</t>
+  </si>
+  <si>
+    <t>1.736202656733528</t>
+  </si>
+  <si>
+    <t>6.516742895272941</t>
+  </si>
+  <si>
+    <t>2.426328496379954</t>
+  </si>
+  <si>
+    <t>0.4146013273805267</t>
+  </si>
+  <si>
+    <t>-0.86</t>
+  </si>
+  <si>
+    <t>-0.65</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>-0.81</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>-1.11</t>
+  </si>
+  <si>
+    <t>-1.26</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>-1.58</t>
+  </si>
+  <si>
+    <t>-1.76</t>
+  </si>
+  <si>
+    <t>-1.37</t>
+  </si>
+  <si>
+    <t>-3.05</t>
+  </si>
+  <si>
+    <t>-1.67</t>
+  </si>
+  <si>
+    <t>-2.03</t>
+  </si>
+  <si>
+    <t>-0.22</t>
+  </si>
+  <si>
+    <t>-0.45</t>
+  </si>
+  <si>
+    <t>-0.76</t>
+  </si>
+  <si>
+    <t>-2.35</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>-0.60</t>
+  </si>
+  <si>
+    <t>-0.84</t>
+  </si>
+  <si>
+    <t>-1.45</t>
+  </si>
+  <si>
+    <t>-2.64</t>
+  </si>
+  <si>
+    <t>-1.16</t>
+  </si>
+  <si>
+    <t>-1.01</t>
+  </si>
+  <si>
+    <t>2.71</t>
+  </si>
+  <si>
+    <t>-1.72</t>
+  </si>
+  <si>
+    <t>-8.20</t>
+  </si>
+  <si>
+    <t>-3.82</t>
+  </si>
+  <si>
+    <t>-1.02</t>
+  </si>
+  <si>
+    <t>-1.24</t>
+  </si>
+  <si>
+    <t>-2.40</t>
+  </si>
+  <si>
+    <t>-2.10</t>
+  </si>
+  <si>
+    <t>-1.42</t>
+  </si>
+  <si>
+    <t>-1.51</t>
+  </si>
+  <si>
+    <t>-0.94</t>
+  </si>
+  <si>
+    <t>-3.33</t>
+  </si>
+  <si>
+    <t>-2.22</t>
+  </si>
+  <si>
+    <t>-2.00</t>
+  </si>
+  <si>
+    <t>-3.65</t>
+  </si>
+  <si>
+    <t>-2.20</t>
+  </si>
+  <si>
+    <t>-0.71</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>-1.31</t>
+  </si>
+  <si>
+    <t>-3.55</t>
+  </si>
+  <si>
+    <t>-1.65</t>
+  </si>
+  <si>
+    <t>-1.39</t>
+  </si>
+  <si>
+    <t>-1.56</t>
+  </si>
+  <si>
+    <t>2.47</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t>2.74</t>
+  </si>
+  <si>
+    <t>-0.47</t>
+  </si>
+  <si>
+    <t>-1.87</t>
+  </si>
+  <si>
+    <t>-2.89</t>
+  </si>
+  <si>
+    <t>-1.92</t>
+  </si>
+  <si>
+    <t>-1.90</t>
+  </si>
+  <si>
+    <t>-1.44</t>
+  </si>
+  <si>
+    <t>-1.85</t>
+  </si>
+  <si>
+    <t>-2.44</t>
+  </si>
+  <si>
+    <t>-2.95</t>
+  </si>
+  <si>
+    <t>-1.73</t>
+  </si>
+  <si>
+    <t>-1.97</t>
+  </si>
+  <si>
+    <t>-1.23</t>
+  </si>
+  <si>
+    <t>-12.03</t>
+  </si>
+  <si>
+    <t>3.96</t>
+  </si>
+  <si>
+    <t>-1.28</t>
+  </si>
+  <si>
+    <t>-2.78</t>
+  </si>
+  <si>
+    <t>-2.81</t>
+  </si>
+  <si>
+    <t>-0.21</t>
+  </si>
+  <si>
+    <t>-1.82</t>
+  </si>
+  <si>
+    <t>-0.36</t>
+  </si>
+  <si>
+    <t>-1.41</t>
+  </si>
+  <si>
+    <t>-2.41</t>
+  </si>
+  <si>
+    <t>-0.26</t>
+  </si>
+  <si>
+    <t>-2.04</t>
   </si>
   <si>
     <t>-0.14</t>
   </si>
   <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>3.63</t>
+  </si>
+  <si>
+    <t>-1.71</t>
+  </si>
+  <si>
+    <t>-2.06</t>
+  </si>
+  <si>
+    <t>-0.24</t>
+  </si>
+  <si>
+    <t>-1.21</t>
+  </si>
+  <si>
+    <t>-1.18</t>
+  </si>
+  <si>
     <t>0.24</t>
   </si>
   <si>
-    <t>-0.36</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>-0.30</t>
-  </si>
-  <si>
-    <t>-0.72</t>
-  </si>
-  <si>
-    <t>-0.15</t>
-  </si>
-  <si>
-    <t>-0.64</t>
-  </si>
-  <si>
-    <t>-0.28</t>
-  </si>
-  <si>
-    <t>-0.24</t>
-  </si>
-  <si>
-    <t>-2.17</t>
-  </si>
-  <si>
-    <t>-0.10</t>
-  </si>
-  <si>
-    <t>-0.40</t>
-  </si>
-  <si>
-    <t>-0.08</t>
-  </si>
-  <si>
-    <t>-0.99</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>-0.49</t>
-  </si>
-  <si>
-    <t>-0.25</t>
-  </si>
-  <si>
-    <t>-0.56</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>-0.95</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>-0.93</t>
-  </si>
-  <si>
-    <t>-0.62</t>
-  </si>
-  <si>
-    <t>-0.13</t>
-  </si>
-  <si>
-    <t>-0.53</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>-0.71</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>-0.06</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>-0.48</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>-0.23</t>
-  </si>
-  <si>
-    <t>-0.43</t>
-  </si>
-  <si>
-    <t>0.10</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>0.67</t>
-  </si>
-  <si>
-    <t>-0.61</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>-0.12</t>
-  </si>
-  <si>
-    <t>-1.28</t>
-  </si>
-  <si>
-    <t>-0.65</t>
-  </si>
-  <si>
-    <t>-0.47</t>
-  </si>
-  <si>
-    <t>-0.39</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>-0.04</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>-0.11</t>
-  </si>
-  <si>
-    <t>-1.95</t>
-  </si>
-  <si>
-    <t>1.05</t>
-  </si>
-  <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>-0.73</t>
-  </si>
-  <si>
-    <t>-0.21</t>
-  </si>
-  <si>
-    <t>-0.74</t>
-  </si>
-  <si>
-    <t>-0.05</t>
-  </si>
-  <si>
-    <t>-0.22</t>
-  </si>
-  <si>
-    <t>['24622.62889854729', '24629.643701890913', '24634.817957199648', '24600.706540610743', '24593.164566976244', '24634.090137497464', '24660.18098143581', '24692.60212650168', '24685.371166383793', '24683.645137655298', '24680.64531417613', '24676.34565385249', '24674.453791549182', '24675.287191241157', '24674.966604813206', '24664.538182612145', '24657.515307405316', '24658.80622606713', '24675.626136701725', '24673.563981051673', '24645.66293486455', '24626.20821051163', '24625.817999465286', '24640.6627604434', '24643.54809860809']</t>
-  </si>
-  <si>
-    <t>['1677.0624785713667', '1677.5669475975233', '1677.3105580287443', '1675.8891798461448', '1675.9480313577565', '1677.3384337236985', '1678.4351686192135', '1678.9500063570501', '1678.5438971524104', '1678.6112741975774', '1678.9389891706116', '1678.787204288716', '1678.6219155580868', '1678.781447287869', '1678.4774781996016', '1677.486214587137', '1676.9357958609778', '1676.8093916428663', '1677.3461506901558', '1677.0693090124194', '1676.1662552132668', '1675.6111057694457', '1675.1584389475488', '1675.306974609182', '1675.4084301382877']</t>
-  </si>
-  <si>
-    <t>['1.000628751843165', '1.0003674749890887', '1.0001466029328028', '1.0015815327776032', '1.002005935868085', '1.0003614551342765', '0.9997355207973163', '0.9988415490095528', '0.9993493097388643', '0.9994702248499628', '0.9996563629385486', '0.999937483656795', '0.9999790835531535', '1.000190027103974', '1.00021470641244', '1.0006788027865812', '1.0010046617006871', '1.0009750617612008', '1.0005012922918224', '1.000575648312749', '1.00153715490662', '1.0022440778430037', '1.0022204917008817', '1.0015983888558952', '1.001559868781062']</t>
-  </si>
-  <si>
-    <t>['313.36133900500926', '313.5113418415378', '313.7117509352965', '313.4178102875253', '313.47570763164254', '313.8415673177761', '313.8318176900867', '313.80956963099885', '313.6373514537031', '313.53326744715855', '313.5082949904662', '313.6358025427024', '313.8030376766348', '313.8399512461101', '314.0824933438305', '314.12838786585314', '314.04498029772645', '313.8410465732143', '314.0264291690743', '314.0177042760764', '313.86357082820075', '313.7536721212058', '313.7282351756926', '313.768118068796', '313.68636565427465']</t>
-  </si>
-  <si>
-    <t>['0.9999419905093092', '0.9999187979972145', '1.0003608326335711', '1.0005898264665283', '1.000832230779835', '1.0008688545885192', '1.0001117743920573', '0.9998790312521535', '0.9999627428251341', '0.9996568716988249', '0.999445499901066', '0.9996724992855704', '0.999881664086002', '0.9996829281610327', '0.9999769711499666', '1.0002762778209118', '1.000380743701453', '1.0005562289674186', '1.000590070701818', '1.000859431023192', '1.0009403210726895', '1.0011786380380086', '1.0015485914941282', '1.0015248998533428', '1.0012107707725941']</t>
-  </si>
-  <si>
-    <t>['0.39294947456280477', '0.3929856186629059', '0.392930967814708', '0.3926130178066369', '0.3927416554052352', '0.3933600078988756', '0.39338211773364606', '0.3933301412758075', '0.39353908967047146', '0.39361564618302786', '0.39369843307217117', '0.3937588125882241', '0.39378421430877925', '0.39391941984073076', '0.39393261732545337', '0.39380511295328535', '0.3936964862335919', '0.39367683919909446', '0.39378493612243226', '0.3939158859877089', '0.39422031211752345', '0.3943871209383955', '0.39399195721481073', '0.3932845868063306', '0.3933421733078461']</t>
-  </si>
-  <si>
-    <t>['0.3958025072100658', '0.3959486011558164', '0.3959718428662699', '0.3956830680600009', '0.395679836179627', '0.39579109013923', '0.3958788644758795', '0.3958875496195294', '0.39589071188921565', '0.3958256756551756', '0.3957582371730664', '0.3956383621779709', '0.39553924336534446', '0.3952841832663635', '0.3952340553636343', '0.3951104238043703', '0.3951387541284001', '0.39517819652822933', '0.3954879350139768', '0.39550748567712857', '0.3953508484096625', '0.3952545043251202', '0.3951555260682683', '0.3951711939809158', '0.3952604128643862']</t>
-  </si>
-  <si>
-    <t>['1.000902310107282', '1.0006936651119207', '1.0005858106198346', '1.0023123760767632', '1.001465360546606', '1.0005294280370725', '0.9989507689294923', '0.999164966096871', '0.999508475786385', '1.0003527333933624', '1.0003035213638867', '1.0004437146333545', '1.0004698914826633', '1.0004892714353504', '1.001068655428429', '1.0010658320024124', '1.0010593794575493', '1.0006475755828768', '1.000664424775676', '1.0007355567253233', '1.0019810485032472', '1.0020957470030847', '1.002075963672007', '1.0018029423515735', '1.0018383030356035']</t>
-  </si>
-  <si>
-    <t>['1.4071227999479965', '1.407610568831296', '1.4073073353817824', '1.4047116449191677', '1.4043839745909341', '1.4058963332686742', '1.4084403585422198', '1.4100148696509491', '1.4112628397563647', '1.4116425915180264', '1.4120284799078473', '1.4119316677404843', '1.4111920144716692', '1.4095932868618894', '1.4095209761987353', '1.4086942692514808', '1.4080943949798423', '1.4077317438806678', '1.4072866290932409', '1.4070168682055604', '1.4054569204882497', '1.404467141585418', '1.4039172869391408', '1.4034115976482333', '1.4036949910306473']</t>
-  </si>
-  <si>
-    <t>['50.92855141837524', '50.95886317152542', '50.791859651588936', '50.67445647100909', '50.81818728402356', '50.8375896872623', '50.99182167764974', '51.025896384703536', '51.02057316180969', '51.05317199954007', '51.0286704458581', '51.03288920061348', '50.98381220751368', '51.0205822388627', '51.0134823357578', '50.988789680943505', '50.89171082501858', '50.86746260873775', '50.79013840222358', '50.748541221073296', '50.714073400556195', '50.73844040130877', '50.77573813039014', '50.90902735921364', '50.960345559686424']</t>
-  </si>
-  <si>
-    <t>['0.08668814123576146', '0.08672900670956403', '0.0867279822491142', '0.086655789906482', '0.08665612890545489', '0.08672407951284153', '0.08674873235796038', '0.08674476239790828', '0.0867470730791671', '0.08673846119640456', '0.08673546879585207', '0.08673346449880738', '0.08672089501958088', '0.08670394564136648', '0.08669648096729476', '0.08663895938352156', '0.0866069319361305', '0.0866028288797542', '0.08662547764049942', '0.08662916189170296', '0.08658384206853995', '0.08654590397215671', '0.0865193376720086', '0.08651173450217149', '0.0865272021821005']</t>
-  </si>
-  <si>
-    <t>['25.379655501104363', '25.38932721741813', '25.385463353838002', '25.33321083587583', '25.324165691034977', '25.35217560518751', '25.394473169824288', '25.41693043651096', '25.418410501951936', '25.412643116336486', '25.409138145234834', '25.399304888794124', '25.38796232856437', '25.350649978052424', '25.34808168512822', '25.316320563368', '25.30131153650158', '25.29167925178539', '25.286536307945106', '25.294286427810665', '25.288232326024563', '25.284583115777814', '25.25337042070098', '25.216532983611692', '25.21862948413281']</t>
-  </si>
-  <si>
-    <t>['7.346144802021883', '7.349273232625824', '7.350241700614272', '7.339126287625204', '7.343073256187871', '7.34912656217643', '7.354220208813948', '7.356053470200139', '7.355571740282156', '7.355061190438915', '7.357041445109262', '7.356802529127979', '7.354753550123866', '7.351867774940723', '7.351214295548344', '7.348909697553685', '7.349385050147796', '7.35129891223936', '7.355864696560474', '7.355588161958449', '7.348908170090602', '7.346862754679882', '7.344146060988849', '7.339571363618956', '7.339130929631289']</t>
-  </si>
-  <si>
-    <t>['0.000013229160405418', '0.000013232716043992', '0.000013230541835979', '0.000013209316324446', '0.000013210850654383', '0.000013234007890469', '0.000013233943470321', '0.000013232503024462', '0.000013225563297902', '0.000013222495383467', '0.000013220980636429', '0.000013218986394569', '0.00001321939804087', '0.00001321494061643', '0.000013212903312723', '0.000013205689691374', '0.000013203599370211', '0.000013202190709761', '0.000013210802021335', '0.000013208658129619', '0.000013195594395494', '0.00001318513753502', '0.000013171365184648', '0.000013158596750942', '0.000013156338862371']</t>
-  </si>
-  <si>
-    <t>['7.7284855454043875', '7.733043468547687', '7.732638411591847', '7.725339475633632', '7.725672755500242', '7.730123092552991', '7.734105293649098', '7.7360940275332215', '7.735372888012479', '7.7350490166057915', '7.736699647664253', '7.735109837173075', '7.736330318009694', '7.736638775033272', '7.735934381977899', '7.730270592074236', '7.728816210678544', '7.727954325722402', '7.729404684388395', '7.728066961159504', '7.723956992079957', '7.722335766102995', '7.719650733215503', '7.716885987160469', '7.716449407756956']</t>
-  </si>
-  <si>
-    <t>['1677.3134073256842', '1664.0152181942824', '1662.4657575680299', '1658.6550727325296', '1658.2112134008967', '1671.4356981523824', '1670.5090609119472', '1671.3484247607844', '1671.9156513841197', '1670.200670225959', '1669.7606916896514', '1674.1441667725671', '1673.0236290158036', '1673.6984337154956', '1673.906949649108', '1676.8896459264906', '1676.971446071431', '1678.4988921377171', '1679.1031665678133', '1681.5042780755755', '1682.4000333220679', '1681.1574121070487', '1681.7672887977074', '1680.0838796562393', None]</t>
-  </si>
-  <si>
-    <t>['93.90812989093399', '93.96960678074609', '94.02065642387483', '93.99058031684895', '94.01598534291979', '94.09135877056615', '94.12683187403492', '94.12701705368993', '94.16503632473965', '94.1552332853473', '94.1328969133495', '94.11351000595387', '94.1124931173966', '94.11155156226148', '94.09640113532525', '94.0521688270067', '94.04538826651455', '94.04809814628776', '94.05955697130612', '94.0463845293463', '94.0364246502665', '94.0573566224052', '94.05192469833999', '94.04843267462388', '94.05352419797354']</t>
-  </si>
-  <si>
-    <t>['0.0702678928581137', '0.0702811858764781', '0.07026402820735411', '0.07019674666613618', '0.07023003042686679', '0.07031441896385124', '0.07034716158645304', '0.07034791020751617', '0.07027668344571639', '0.0702591992230316', '0.07028665070391375', '0.07028393576679189', '0.07026665026024959', '0.07024053568876881', '0.0702471428788107', '0.07025147308239725', '0.07025246781625982', '0.07024866520438892', '0.07025084379362742', '0.0702480137737947', '0.07022307948685565', '0.07021748532164732', '0.07018617476347393', '0.07016419011139509', '0.07015535804971823']</t>
-  </si>
-  <si>
-    <t>['21.5788126460647', '21.47230335292648', '21.352403257734455', '21.248326653762863', '21.2235429884977', '21.236015809688837', '21.303005616607013', '21.34117555560397', '21.327700474881038', '21.313353088130462', '21.24724543714884', '21.216814210562816', '21.208226408189685', '21.20712050824208', '21.2013197088949', '21.163529671815514', '21.143956498325274', '21.152694899825242', '21.148114876982067', '21.150878115196978', '21.145033483063948', '21.136141943733136', '21.120802829914748', '21.095433324060433', '21.106917346540367']</t>
-  </si>
-  <si>
-    <t>['7.0852015691860775', '7.093453550303415', '7.09863470362024', '7.093975998178878', '7.093195066842056', '7.095719177563827', '7.100111883388812', '7.101352097756293', '7.102307971334934', '7.103558130130705', '7.104198453327468', '7.104634742364131', '7.1042199595991935', '7.102866406382027', '7.101592888401525', '7.096333719284446', '7.094022201583578', '7.091919989052531', '7.0896590511243245', '7.0889918752984045', '7.087359829139953', '7.0872597624698725', '7.08398125572563', '7.083163285405175', '7.08324380587318']</t>
-  </si>
-  <si>
-    <t>['0.9995430034142897', '0.9993494668648698', '0.9994303329237996', '0.9997462912323756', '1.000251961704822', '1.000331577607002', '1.0003039151798057', '1.0000999752512576', '1.0004117932045733', '1.000362855309199', '0.9994055661459362', '0.9995249324818148', '0.999461611598243', '0.9994604293281553', '0.9993636170626371', '0.9997552414850563', '0.9998786240821549', '1.0000326784709275', '1.00008731420081', '1.0002607099840695', '1.000408526781742', '1.000628005916056', '1.0009271990074688', '1.0010743453098874', '1.0011203113451541']</t>
-  </si>
-  <si>
-    <t>['13.984666759715967', '13.997289459938349', '14.004104528231647', '13.985164509253835', '13.980128118807439', '13.985623663562931', '13.9986863010136', '14.003679558113678', '13.992593120119306', '13.986500667790116', '13.98461343812886', '13.980718527285644', '13.975513188928355', '13.965518364681861', '13.964409357423662', '13.959838539885407', '13.957263370837953', '13.953910252498327', '13.955956280159556', '13.953079577630712', '13.946054857196687', '13.941407818111713', '13.935411961019167', '13.93564516175118', '13.938260797487825']</t>
-  </si>
-  <si>
-    <t>['24627.671829461604', '24633.062367539016', '24638.133606806477', '24610.904535962258', '24597.4169718867', '24624.992412805554', '24658.438069002925', '24685.932501390373', '24683.961964082166', '24682.554107213473', '24677.253939443533', '24677.71367678882', '24669.13105612462', '24668.726780920362', '24668.84614980181', '24673.489403725867', '24653.305243231625', '24652.936123905914', '24669.01242827052', '24679.536689206365', '24657.117138307218', '24638.494648734868', '24636.96563831396', '24648.46331841712', '24636.957677643648']</t>
-  </si>
-  <si>
-    <t>['2.366532342983426', '2.3681889720927765', '2.368031015172387', '2.3667189996186013', '2.3669758485215175', '2.3660396164606814', '2.366410691510899', '2.3653539635515606', '2.364361069996508', '2.365395176023622', '2.366748370315448', '2.365253297631393', '2.3601067415044787', '2.358257777823585', '2.358237797851441', '2.3584337164160964', '2.3585101117417184', '2.358723666091767', '2.357881796598128', '2.3554262800924497', '2.347582727353452', '2.347557419198849', '2.3491136992729986', '2.35075060791208', '2.3498857936220325']</t>
-  </si>
-  <si>
-    <t>['2.7772782911567053', '2.7805361789208196', '2.781881619942345', '2.784119742325126', '2.7849754700852176', '2.786826373800227', '2.789013563116102', '2.791116452362599', '2.7953460297920447', '2.7983265577785525', '2.8014159568624515', '2.800521779379188', '2.800020410289493', '2.7981342405068275', '2.798465468959135', '2.7940358932813383', '2.791715933427526', '2.789888548493644', '2.7858728379876063', '2.785635418634109', '2.783557839133155', '2.7825094744436476', '2.781041818052464', '2.78046772611834', '2.7809544814352334']</t>
-  </si>
-  <si>
-    <t>['23.164465735436572', '23.164434910955666', '23.151036327257593', '23.136643724452604', '23.145739039281807', '23.176289776735278', '23.21526244868705', '23.23602349672729', '23.208861476153903', '23.190020043990696', '23.18075340238726', '23.165285311776216', '23.150154291279268', '23.11654535528854', '23.111691831364418', '23.088060403603407', '23.082327965654272', '23.088914925273716', '23.12090112823693', '23.12198320033139', '23.11775880327721', '23.110298206603257', '23.100197056389977', '23.094288051268954', '23.094149023781203']</t>
-  </si>
-  <si>
-    <t>['5.872414058561838', '5.882340346167168', '5.88548524958772', '5.871865424179534', '5.865183866357057', '5.870662710020897', '5.870605746875309', '5.870069133584969', '5.8691285554467685', '5.86632950092649', '5.869043105343445', '5.8672897979940295', '5.868971125559892', '5.872969838750529', '5.875043983474173', '5.87878930742003', '5.881701034441031', '5.883360843740057', '5.881986500532459', '5.88039526835661', '5.881293282094606', '5.882392413208573', '5.8819444741704725', '5.879070627394039', '5.8759169554237385']</t>
-  </si>
-  <si>
-    <t>['160.82214819639628', '160.68460076025323', '160.4813729940954', '160.27371634072304', '160.3176430560488', '160.38812591465833', '160.39444168316953', '160.45787211047278', '160.58644657342472', '160.60383915403438', '160.4957716452715', '160.39103228442255', '160.33522425168948', '160.22210109942336', '160.20948916710134', '160.12591247215053', '160.11508250137504', '160.12940641180674', '160.2547785820835', '160.24043406137096', '160.20301249912094', '160.21619026613672', '160.1040895685964', '159.8884010680819', '159.86452636491236']</t>
-  </si>
-  <si>
-    <t>['146.840656918245', '146.80921539206972', '146.56134381167257', '146.5459205492525', '146.66936253623436', '146.70830313206497', '146.85431960574883', '146.82156090138432', '146.84729374982132', '146.80419200150118', '146.76341830781436', '146.79435510859662', '146.8896523112048', '146.97396162239383', '147.00530903423822', '146.99455857223234', '147.00442465778715', '146.96384225323612', '146.91106084774606', '146.83446005137267', '146.65046442410974', '146.6071850356495', '146.42270588215152', '146.45985761833148', '146.54683204364784']</t>
-  </si>
-  <si>
-    <t>['8.335058284243761', '8.329971862868982', '8.321941854341109', '8.30798754459695', '8.314071006988204', '8.331701604542133', '8.325912363896117', '8.306387583640628', '8.283554050189466', '8.279274190253524', '8.291782214997673', '8.295094667335366', '8.326031065805287', '8.360988270041382', '8.35768517743214', '8.350730532483102', '8.358430761747956', '8.362636502606986', '8.389446789493563', '8.386658943755497', '8.379879019239908', '8.38458259983781', '8.38074150381353', '8.38921171227834', '8.38243963246949']</t>
-  </si>
-  <si>
-    <t>['2.5190750143883482', '2.512989884981366', '2.5086004104417223', '2.5040264082950436', '2.507628954311698', '2.511186070572773', '2.517204239432446', '2.518561182677253', '2.510216517209859', '2.508637158156189', '2.5026119343451945', '2.499852081391487', '2.4967600153307687', '2.4955627579631745', '2.4951753490815025', '2.49572440785854', '2.496193838926119', '2.4973519942996854', '2.49749376033818', '2.499108489372874', '2.5018785441492484', '2.501071692603912', '2.497394642483307', '2.4958199794687186', '2.495670105250272']</t>
-  </si>
-  <si>
-    <t>['1857.8984769935564', '1845.8573756705096', '1845.4019315921078', '1840.4432180412375', '1841.4395038872508', '1852.7482625357181', '1853.703974881478', '1853.6128464978085', '1852.033383707641', '1852.4261053857892', '1856.7740232045935', '1856.990463629488', '1860.2697154041107', '1860.4433898684767', '1862.014601448855', '1862.2604666758623', '1864.6266470231858', '1864.382044697248', None, None, None, None, None, None, None]</t>
-  </si>
-  <si>
-    <t>['0.031164467858988104', '0.031098597009733144', '0.03101329222576696', '0.030952230655922137', '0.030948827850098556', '0.030944394356530215', '0.03095674810859198', '0.03097029128512337', '0.030997207867461126', '0.031003676327678344', '0.03101265119526166', '0.0310095243595891', '0.03101760074470641', '0.031039114576493807', '0.03103420901990589', '0.03098707388744073', '0.030961096554289004', '0.030952834920139095', '0.030957682616996968', '0.03095525188073947', '0.030926633939745565', '0.030909619898782003', '0.030892638650522032', '0.030875933062577618', '0.030880180975667925']</t>
-  </si>
-  <si>
-    <t>['0.08322612383920754', '0.08322783954150659', '0.08322492049533456', '0.0831596494978818', '0.08316952397432843', '0.08327989945297705', '0.08330280164190988', '0.08328790002247072', '0.08325715884731044', '0.08325231171503895', '0.08329185245340465', '0.08331352663031236', '0.08329656510143825', '0.08323298586419556', '0.08322248355213492', '0.0831770552303894', '0.08314868973506395', '0.08314695496373078', '0.08321111493354817', '0.08321672113349218', '0.08317393228805253', '0.08314652602366121', '0.08311753407915556', '0.0830282455447377', '0.08303107294652388']</t>
-  </si>
-  <si>
-    <t>['6.975280967563501', '6.9766340541500345', '6.978268994981019', '6.971330790348366', '6.969647530211948', '6.979576465329259', '6.986486645258822', '6.991397157867144', '6.989213723723152', '6.984550744373143', '6.9771701474973975', '6.972036752667098', '6.975704095132665', '6.9839457455428295', '6.9820255481049465', '6.974107889393562', '6.972967010127352', '6.974004266924919', '6.974632240994572', '6.975319059432253', '6.971679803448568', '6.97235312821418', '6.970565304436137', '6.971166447591069', '6.974840794065358']</t>
-  </si>
-  <si>
-    <t>['0.28156688159834187', '0.28152139244233043', '0.2813564310954384', '0.2811544353393388', '0.28118274725579223', '0.2813674349130968', '0.28174753752387477', '0.28189717672667636', '0.2818418393871215', '0.2817635292252015', '0.28172126222499394', '0.28164666719701287', '0.28163150452434216', '0.2813335721012055', '0.28131039021563287', '0.28111336810771687', '0.28105865385324363', '0.280993782198035', '0.28110579426961585', '0.28112224663281804', '0.2809913657058343', '0.2808453647467618', '0.2805602258571888', '0.280191210210973', '0.28035980028045415']</t>
-  </si>
-  <si>
-    <t>['0.9907478310971816', '0.9907426111227902', '0.9904026410401113', '0.988468565154739', '0.9886152744883694', '0.990080276649874', '0.9909158031471994', '0.9912414408116821', '0.990435314068147', '0.9903315362449921', '0.990493783428482', '0.9905172691269224', '0.991403666840911', '0.9932060948617801', '0.9931388867072096', '0.9940139951601358', '0.9947368506436604', '0.9945295211124988', '0.993666312384694', '0.9934689783612028', '0.9927895735139505', '0.9928729486444454', '0.9921022619606024', '0.9903356880933366', '0.9904535183913964']</t>
-  </si>
-  <si>
-    <t>['0.09526749032909577', '0.09540047364880101', '0.09545538484372229', '0.09537589262023072', '0.0953688189818373', '0.09541504014504211', '0.0954539124697151', '0.0954613779255076', '0.095467238067776', '0.09548783828783006', '0.09556794898801574', '0.09557857614451673', '0.09563866941218803', '0.09565311944547442', '0.09560456068613785', '0.09549851759843254', '0.09543902000061948', '0.09540752772120197', '0.09543892777736078', '0.09552770233337315', '0.09577222364255908', '0.09610078320111134', '0.09625358561960021', '0.09633869117064621', '0.09641946480792181']</t>
-  </si>
-  <si>
-    <t>['1.5142529835869847', '1.5164381337975918', '1.5141319091853025', '1.5109104774041207', '1.5118266491053907', '1.5143640093219024', '1.5149802258802372', '1.5197576082104023', '1.5226635252832041', '1.5239734867676558', '1.5223568649046892', '1.5176118575848487', '1.5156799145048383', '1.5164756470930705', '1.5184603110429904', '1.5187925849216652', '1.5187505080926917', '1.5202693161633019', '1.5240920597751217', '1.5282172793460294', '1.532352145482286', '1.5330775998956399', '1.5298685725553338', '1.527066937159121', '1.526640862071014']</t>
-  </si>
-  <si>
-    <t>['10.341480491606578', '10.352205136271058', '10.360482136137948', '10.352793773236389', '10.3531269436341', '10.360673015440712', '10.362994747816984', '10.363298792967726', '10.36914775018894', '10.370393897476575', '10.37268639559535', '10.372917230023173', '10.370415503847097', '10.356062559171335', '10.355434309029626', '10.338583027476048', '10.33101271500595', '10.32768906983693', '10.318169669447183', '10.319819745767983', '10.297475454652318', '10.289899222421194', '10.289844342135604', '10.296319345270527', '10.296334853542342']</t>
-  </si>
-  <si>
-    <t>['0.7928150667091273', '0.7930396131012151', '0.7930497587297641', '0.7918380737973626', '0.7916589306653619', '0.7927790831132979', '0.7932632413689483', '0.7935806667147784', '0.7940300797800015', '0.7941201301728891', '0.7938359238156294', '0.7934584500319732', '0.7935147589742289', '0.7933809554665457', '0.7935579105864234', '0.7933465858923344', '0.7933581635729224', '0.793276181332041', '0.7928856001109285', '0.7928960705515634', '0.7927137388561472', '0.7927088572148848', '0.7922922407377184', '0.7916388424086915', '0.7916395750801435']</t>
-  </si>
-  <si>
-    <t>['13.624858901972184', '13.625784669579106', '13.62043327864621', '13.587965015683734', '13.584277103142925', '13.593128827860058', '13.611509964359865', '13.621674355102538', '13.620587180303543', '13.621778630681792', '13.621631913831067', '13.614008615430137', '13.610856568648458', '13.592166347842674', '13.587843984807158', '13.570326458139363', '13.563502548172963', '13.563842058307793', '13.571690226780577', '13.570415498961923', '13.555373916028689', '13.547642416577919', '13.536297651176325', '13.523536935843943', '13.521725514927668']</t>
-  </si>
-  <si>
-    <t>['16.615537347697366', '16.623909697906928', '16.569649986271113', '16.56465809765822', '16.61405459495709', '16.6344233775636', '16.643610740734616', '16.612182426890875', '16.621529132389696', '16.64759103868186', '16.660721239955553', '16.63516052191803', None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
-  </si>
-  <si>
-    <t>['0.7144200652150137', '0.7142860979382879', '0.7138750894824852', '0.7129165916415648', '0.7129022492166176', '0.7135700323955475', '0.7147020193233602', '0.7152923048445711', '0.7150926586127819', '0.7148376698158088', '0.7143631129701273', '0.7138952744868511', '0.7137774271301895', '0.7135137201684255', '0.7134984871966421', '0.7128091825906417', '0.7125793061208695', '0.7124025314216567', '0.7124946471131484', '0.7125129052575059', '0.7121745611893273', '0.7119712231435322', '0.7113094914071153', '0.7105149820503882', '0.7106871087647532']</t>
-  </si>
-  <si>
-    <t>['2.563647155152732', '2.5661046806155667', '2.5671853607113757', '2.5640754676087236', '2.5642204063112604', '2.5686675113075372', '2.5717462769388324', '2.574522129257652', '2.575744202288986', '2.5755633085700738', '2.575131143342307', '2.574567491519783', '2.574152319542644', '2.5708811900600805', '2.5701535458723175', '2.567908417485779', '2.566802547990676', '2.5668834918991625', '2.5682970703155092', '2.5682121088302794', '2.5669921486209604', '2.565943117092902', '2.564468993314816', '2.562971262252006', '2.5634410029114494']</t>
-  </si>
-  <si>
-    <t>['4.167960869545721', '4.1692162796260215', '4.170696561990302', '4.168106605406796', '4.167560133594369', '4.170206457718423', '4.171998782096555', '4.173326319114795', '4.170270024607885', '4.169255056976458', '4.169510826999457', '4.16935451537331', '4.168704706458517', '4.1666796898188245', '4.167516273136137', '4.169167903037341', '4.170617973505682', '4.17149519154285', '4.174089801696455', '4.173426676670154', '4.173299848814399', '4.174030360501191', '4.17478341338606', '4.1742446731654015', '4.174211422810704']</t>
-  </si>
-  <si>
-    <t>['0.08656183393670876', '0.08659764147168485', '0.08651938684273848', '0.08637536940250812', '0.08637661091012538', '0.08640274539158795', '0.08659525077027959', '0.08661735851224539', '0.08672523037412272', '0.08669637118687018', '0.08670835851525935', '0.08668676592419544', '0.08659799267354223', '0.08659107056958412', '0.08659600988799387', '0.08657677838261414', '0.08659513031503756', '0.08659259718419345', '0.0866045232758065', '0.08661362363158107', '0.08661283511909236', '0.08663839709368848', '0.0865842000933305', '0.08659229172348036', '0.0866617343729755']</t>
-  </si>
-  <si>
-    <t>['0.9990792657173442', '0.9994329926905279', '0.9997212059572462', '1.0000763399765629', '1.0002035982326267', '0.9994520250584015', '0.9991164909366228', '0.9991243762543628', '0.999316449261628', '0.9991417664068601', '0.9991711481768417', '0.999181201937298', '0.9993328382242044', '0.9993460659037485', '0.9993563895814515', '0.9994284663000819', '0.9997731271579354', '0.9997784688779597', '0.9999090714649143', '1.0001763637874688', '1.0003052539211625', '1.000640926824769', '1.0006489688326548', '1.0006099317335797', '1.0007192564936411']</t>
-  </si>
-  <si>
-    <t>['1.333561863999634', '1.334309573525538', '1.3341442443749625', '1.332335300542207', '1.3322156426787064', '1.3332596514807666', '1.33524700108206', '1.3370631119113547', '1.3375363254896702', '1.3372029233121911', '1.336537282152859', '1.335781603294148', '1.335480776563134', '1.3340482825622315', '1.3339063811547092', '1.332492968578677', '1.331675674232307', '1.331549443463768', '1.3313652619607346', '1.331149592161204', '1.330691629579586', '1.330545170690947', '1.3289763631894225', '1.3272761932917267', '1.327542928172199']</t>
-  </si>
-  <si>
-    <t>['137.6659429283488', '137.7456605156829', '137.72983588340657', '137.67769952971227', '137.70307992936117', '137.69411883172702', '137.75930267769124', '137.83087758698716', '137.86625765743548', '137.87226435892416', '137.8660672915962', '137.83908195414057', '137.86071406253248', '137.92306755611577', '137.94454959411343', '137.89565706016023', '137.82201279725228', '137.80501518101173', '137.88715453287418', '137.92621466099638', '138.0106217699212', '138.01781099576723', '137.97826029370754', '137.93122229508225', '137.9313698260024']</t>
-  </si>
-  <si>
-    <t>['88.30159701136662', '88.3904940298113', '88.4300997944871', '88.3783709999737', '88.42902971721425', '88.51517892885961', '88.58805261435523', '88.57258685352613', '88.56848659063036', '88.57124764666663', '88.5415355355177', '88.49161490100886', '88.44385906655279', '88.38561244959861', '88.36026494933238', '88.3135764854223', '88.29904635797861', '88.26944885098199', '88.26502256617431', '88.2598868471276', '88.20376932906628', '88.19928074436834', '88.13625047887398', '88.07648784497519', '88.0683129972561']</t>
-  </si>
-  <si>
-    <t>['52.3464405389713', '52.393130501155845', '52.429718609370106', '52.37687912104954', '52.365308987961214', '52.384160696758', '52.427999599367936', '52.45438923291986', '52.41787283034883', '52.39306587967281', '52.39000584980108', '52.385574820896444', '52.38765212965807', '52.370060369229556', '52.357384748289235', '52.302174132644474', '52.26055380950404', '52.24544033472871', '52.22132778313613', '52.22399004161106', '52.218475726613654', '52.2226255474021', '52.206100218942524', '52.200329361085835', '52.19220323806884']</t>
-  </si>
-  <si>
-    <t>['1.2441802396822377', '1.244691628184138', '1.2452764182392622', '1.243804748024708', '1.243614061606286', '1.2447434099938746', '1.2449854994029095', '1.2454287075073893', '1.246038576348056', '1.2463700517781406', '1.2464054548475394', '1.24617748424431', '1.2463288379634079', '1.2468023688771541', '1.2467016391639678', '1.2458108214921801', '1.2453590554567688', '1.245159913079002', '1.2448789085464413', '1.2448320051839743', '1.2442622566815618', '1.2438131287603447', '1.2432500321906879', '1.2422009660389421', '1.2422082455895802']</t>
-  </si>
-  <si>
-    <t>['1.2261858950241913', '1.2268939566331036', '1.2263106592736235', '1.2257851489854916', '1.2260739099174822', '1.2264061041460022', '1.2273844893788366', '1.227982623220953', '1.2279321987538037', '1.2276164037344335', '1.2278045159209081', '1.2288807800898496', '1.2292570190539798', '1.2303209754298445', '1.2301162796542309', '1.229035854596412', '1.2287510323204642', '1.2280166610519538', '1.2272162085944043', '1.2270234223498637', '1.2266629749086089', '1.2266680284126996', '1.2258492718119158', '1.226397874181416', '1.226640422435177']</t>
-  </si>
-  <si>
-    <t>['1.2319306150632994', '1.2322835136350934', '1.2322494914248108', '1.2315294941761006', '1.2313962384234007', '1.2328380454694208', '1.234615972975528', '1.2350565192975742', '1.2353442106688108', '1.2353891736777889', '1.2353757859747707', '1.2353238357557768', '1.2352043640708066', '1.2339387531561117', '1.2337721707029043', '1.2332351581903835', '1.232506902631888', '1.2324306080260274', '1.231817681123124', '1.231874849097686', '1.2304784029012665', '1.229211311138396', '1.2281768250284748', '1.2264764216960609', '1.227021268972536']</t>
-  </si>
-  <si>
-    <t>['184.01002076479264', '184.2060631149892', '184.09869191489125', '184.04812370357976', '184.7218469656889', '184.61764036819045', '184.078466180935', '183.93812130215943', '183.97013765061206', '184.01183489549848', '184.1121196595222', '183.91567400957976', '183.84275258839364', '183.54170472183645', '183.60672202511475', '183.58775350973696', '183.48033320480533', '183.43618374871699', '183.4909330587579', '183.56756348094927', '183.69665814885403', '183.96487516085875', '184.15680426403313', '184.1451774799142', '184.0688458845394']</t>
-  </si>
-  <si>
-    <t>['0.000167350906126921', '0.000167360366462905', '0.000167369127186212', '0.000167258570712123', '0.000167286126148306', '0.000167512490884423', '0.000167523814937698', '0.000167531781653891', '0.000167714797937384', '0.00016774954943569', '0.0001678776570208', '0.00016793176593295', '0.000167910688329703', '0.000167835837891352', '0.000167815320678809', '0.000167650099544236', '0.000167596777917709', '0.000167635328453482', '0.000167705697120969', '0.000167752894457144', '0.000167859174983867', '0.000167880610543833', '0.000167783608134123', '0.00016764136076465', '0.000167644957348428']</t>
-  </si>
-  <si>
-    <t>['0.1409095111329345', '0.14095769296083738', '0.1409525844384114', '0.14079923244833378', '0.14081106157185852', '0.14081986132662416', '0.14080466801797548', '0.14076091041378544', '0.14068761809596403', '0.14069780019022285', '0.14072725623874024', '0.14071758030057652', '0.14070000854247613', '0.14062164123334167', '0.14061247622807685', '0.14057499009063304', '0.14054983327830106', '0.14053599556667679', '0.14055034928932697', '0.140551900133655', '0.1405385564598246', '0.14056585211166403', '0.14057940588531173', '0.14068224323319156', '0.14070517176682004']</t>
-  </si>
-  <si>
-    <t>['2.857904712e-9', '2.858585653e-9', '2.869098478e-9', '2.889736882e-9', '2.896698582e-9', '2.886874202e-9', '2.872881117e-9', '2.865981885e-9', '2.873318878e-9', '2.872696269e-9', '2.91012434e-9', '2.912338213e-9', '2.916542327e-9', '2.924385547e-9', '2.925952618e-9', '2.920640254e-9', '2.918366599e-9', '2.916029012e-9', '2.912561302e-9', '2.90416627e-9', '2.865775724e-9', '2.867149962e-9', '2.872593018e-9', '2.871715459e-9', '2.871482504e-9']</t>
-  </si>
-  <si>
-    <t>['0.9949276513097836', '0.9953991154249868', '0.994789222265858', '0.9963563249290819', '0.9950176522367223', '0.9949329851435967', '0.994110542876305', '0.9940461862252119', '0.9945409927624209', '0.9945761937597069', '0.9945816427927253', '0.9948776546055105', '0.9949068102430795', '0.9949145004983106', '0.9950740332695711', '0.9950888137385486', '0.9951008071909173', '0.9954323452975817', '0.9954731419000198', '0.9954695703337973', '0.9951773320929306', '0.9951816762470058', '0.996408732036379', '0.9964120975768448', '0.9957748585615568']</t>
-  </si>
-  <si>
-    <t>['13.821754535421622', '13.809713646991307', '13.786271808003269', '13.745501176454688', '13.736970365024808', '13.742385483822682', '13.758305787086204', '13.765890315700222', '13.742685386437019', '13.738988677224935', '13.742726819454132', '13.741549772929124', '13.73828958856789', '13.712532343733098', '13.71463296884085', '13.71116013851336', '13.710911305210615', '13.705003146877134', '13.691775651879494', '13.695499265141112', '13.71665776427707', '13.728464625601347', '13.734811046011808', '13.77052939908247', '13.779377419510741']</t>
-  </si>
-  <si>
-    <t>['0.04953767588672879', '0.050140741436933964', '0.05068932760337951', '0.05055834032988589', '0.05057908645467282', '0.050895966586170384', '0.050891822436023366', '0.05090191036640312', '0.05118378976346592', '0.05124938095678891', '0.05116559170088088', '0.05106628377501955', '0.051003995226375824', '0.050599897290973306', '0.05060203960353112', '0.05060428983014007', '0.050588201313892835', '0.05048890456520144', '0.05013402063395162', '0.050146930996858824', '0.05006581842586507', '0.050022058374997416', '0.049944333879443165', '0.04964026623759095', '0.04963652323362053']</t>
-  </si>
-  <si>
-    <t>['0.529876092874543', '0.5296023928992868', '0.5292453068275998', '0.5278738543600312', '0.5277868571102732', '0.5283559685117402', '0.5287682948180157', '0.528968272658767', '0.5284481423655074', '0.528367674411724', '0.5285833848773062', '0.5286290189608055', '0.5288933994358564', '0.5296563861837668', '0.5296497387167192', '0.5289806078717474', '0.5285450735067133', '0.5285098249120731', '0.5287904995029602', '0.5289435697851986', '0.5298490975046698', '0.5301211652763524', '0.5296387054962008', '0.5283475936541264', '0.5283301239501237']</t>
-  </si>
-  <si>
-    <t>['1.7027210738731002', '1.703639750346281', '1.7045270024800847', '1.7033872745421061', '1.7015109764181124', '1.6980368419043523', '1.703014322635842', '1.708295208019831', '1.7090935096601867', '1.7085351669444535', '1.7056975751495', '1.704237104385403', '1.7044728461042744', '1.706114161603944', '1.7055707108088682', '1.701421595362661', '1.6992281959681974', '1.6972895348421215', '1.6943556630673697', '1.6943733647497756', '1.6933279438691113', '1.6916850106694006', '1.6900129174640068', '1.687468219755387', '1.6879169613840734']</t>
-  </si>
-  <si>
-    <t>['1.1819691342393441', '1.1834457022408078', '1.1840075155859395', '1.1829675693285144', '1.1831118151726991', '1.1840743816872559', '1.1854774025361596', '1.1855539122045868', '1.1859854663129963', '1.1869715355927455', '1.189182350756878', '1.1902413221722357', '1.189492064234398', '1.1881056240911687', '1.1881959135773585', '1.1877896331560789', '1.1877497008193938', '1.1878292661614462', '1.1888330744788835', '1.189289758668925', '1.1902680221941087', '1.1902186849996406', '1.1894727789378288', '1.1877523226313431', '1.1881816454116574']</t>
-  </si>
-  <si>
-    <t>['1.4390303684680457', '1.4403267984353816', '1.4401490071865717', '1.4374517842535728', '1.4369944253890277', '1.4388610590559925', '1.4397409375717853', '1.440768507728972', '1.4418787503664154', '1.4424185925712867', '1.443545671915499', '1.4444589529871823', '1.4456297579001376', '1.4482046572716492', '1.448998593707701', '1.448312807102053', '1.4476353649115212', '1.446915591116868', '1.4463426342144807', '1.4464519390211414', '1.447431784389915', '1.448238380454937', '1.4470340431848063', '1.4455271979391529', '1.4452120393437164']</t>
-  </si>
-  <si>
-    <t>['0.24050469865191587', '0.24056227947413975', '0.24048176206030306', '0.24016081367768374', '0.24016335439392078', '0.2401116709602645', '0.24059798754426084', '0.24102493558624438', '0.2410460405735803', '0.24108081341442156', '0.2413778721815815', '0.24139175389991785', '0.2413359957432806', '0.24095727045097923', '0.24090270523873425', '0.2406594996494255', '0.24059596232575095', '0.24053904547819577', '0.24048532717652474', '0.24048930147303574', '0.2407767574374918', '0.24090215526010578', '0.24092106792260098', '0.2408136073058311', '0.24061709783235438']</t>
-  </si>
-  <si>
-    <t>['44.52806851106395', '44.52863294540092', '44.5054010844385', '44.49084288972747', '44.512075767757665', '44.52041528461602', '44.55064591297977', '44.55261429776406', '44.55531826124283', '44.54252457241294', '44.53453455594719', '44.523714325116785', '44.52397299753321', '44.53100173898074', '44.53426310542618', '44.530123410546715', '44.53070961563832', '44.535063137614934', '44.53399203625077', '44.53714278364235', '44.54694087439138', '44.52673572275539', '44.498365874853086', '44.474774754341915', '44.447942370185565']</t>
-  </si>
-  <si>
-    <t>['2.627216817312833', '2.6304990870818314', '2.6326847446125234', '2.628324786120467', '2.6259744067813697', '2.6258616246180027', '2.628426137907299', '2.631225532161845', '2.630688934470046', '2.6303755338761112', '2.630778679342065', '2.631143038362828', '2.6317782733853408', '2.6334222735747774', '2.632464808443585', '2.629390664081362', '2.627185374535354', '2.626554087950362', '2.62656750164032', '2.6277467792458093', '2.6284846173856775', '2.628343087441233', '2.6262741650287014', '2.624298243640551', '2.6245294796907306']</t>
-  </si>
-  <si>
-    <t>['0.1704534368417676', '0.17018904559358983', '0.16988357304671067', '0.16965560549854172', '0.16970655304917168', '0.16997113593635851', '0.17016577109598324', '0.17032511874620287', '0.17033106179509672', '0.1702758514164338', '0.17011794696337243', '0.16994716387405387', '0.16985845443358477', '0.16963270299954264', '0.16961810809797856', '0.16943602913843483', '0.1693672844254058', '0.16936200420337777', '0.1692902308319894', '0.16924788242084524', '0.16893327165587405', '0.1688009623752546', '0.1686963183775925', '0.16850182782629777', '0.16851976302454102']</t>
-  </si>
-  <si>
-    <t>['70.72131795298102', '70.65165151509663', '70.56456767121497', '70.55101358273545', '70.5767418283423', '70.62675520309773', '70.73702683582599', '70.78929310825296', '70.76759835783291', '70.74426005453326', '70.74480614394959', '70.77212124457654', '70.79231734388792', '70.83174948041462', '70.80231522218308', '70.75401345083591', '70.74012778600462', '70.74114555811038', '70.77665110905318', '70.76255974727383', '70.72068149926722', '70.70437239884357', '70.68432549088253', '70.75127585158528', '70.7512675174405']</t>
-  </si>
-  <si>
-    <t>['48.88607082384063', '48.876081005921925', '48.831192562569484', '48.771582261565925', '48.76275099126207', '48.7487693102404', '48.896827512206094', '49.02594219434602', '48.95325030731571', '48.941099238630926', '48.94231112653106', '48.93232815975333', '48.92726853430329', '48.9104247187864', '48.92785590241741', '48.97006927364621', '49.01339947913943', '49.04384447663419', '49.134146844439144', '49.159158360686575', '49.13336910671877', '49.081999713608745', '49.040732360009734', '49.035773421999494', '49.07530025158032']</t>
-  </si>
-  <si>
-    <t>['1.0033636586181487', '1.0032426548145161', '1.002691997283804', '1.0012742457051398', '1.000987943272177', '1.0025419094766186', '1.0038411381369343', '1.004814410379877', '1.0066049195265336', '1.0072014269062197', '1.0065723929593244', '1.0060839900713259', '1.0059671855634893', '1.0053101128982636', '1.005101558239717', '1.0033167229483952', '1.002145645276048', '1.002342814203665', '1.0025960195073969', '1.0025463025421528', '1.0019301843407182', '1.0014595129124515', '1.0009069709276728', '0.9994829691365216', '0.9996886410304462']</t>
-  </si>
-  <si>
-    <t>['773.6338677121694', '774.5126449294461', '773.8230714813067', '772.1587390693913', '771.7359791835361', '772.2074015870456', '773.3512698144715', '773.7422885170351', '773.881502799563', '773.8711667853524', '773.6676305385536', '773.6567928558902', '774.581367217709', '775.1966172967558', '775.1298238897778', '774.5517863164481', '773.8797446576727', '773.1928163639349', '772.5458615389824', '772.3052608893881', '771.8456267529858', '771.6165123274127', '770.7142286143064', '770.1569041793629', '770.3009912974236']</t>
-  </si>
-  <si>
-    <t>['5.7396015789258366', '5.744039954338215', '5.7464615437853075', '5.739156009111656', '5.738404941960025', '5.744523138565211', '5.75000307985058', '5.75131577135226', '5.749476047538498', '5.748996005933012', '5.750303792516955', '5.749134739505585', '5.748535570258438', '5.746949471363503', '5.745777286303399', '5.744197224852143', '5.7450150226357', '5.744431853957194', '5.742077218294274', '5.741437757978783', '5.735857232360065', '5.733274261183457', '5.730136151038854', '5.729845848536327', '5.72974218592446']</t>
-  </si>
-  <si>
-    <t>['0.000038872291444104', '0.000038892149662961', '0.000038906175998121', '0.00003885057440756', '0.000038833803011615', '0.000038877877951617', '0.000038924771857225', '0.000038980314670607', '0.000038958806609373', '0.000038956151647368', '0.000039039011214748', '0.00003909107965925', '0.000039078614524766', '0.000039046244748172', '0.000039049627914547', '0.000039048083717791', '0.000039041217824106', '0.000039024445735289', '0.000038994268010859', '0.000038999765032036', '0.000039035886333367', '0.000039060619054201', '0.000039075304565884', '0.000039163050544285', '0.000039175154189722']</t>
-  </si>
-  <si>
-    <t>['0.3042445427047805', '0.30440640484677395', '0.30453859752236284', '0.3041790339245554', '0.30412300317760194', '0.30431960969216754', '0.30473128913246883', '0.30500252519723786', '0.30437651472776955', '0.30382198806287225', '0.30333140808872167', '0.30307186877686493', '0.3031521614798096', '0.30329937765446535', '0.30328144854275196', '0.3032757419269913', '0.30331840110434183', '0.30343564284305374', '0.3037786737378144', '0.3040516015786914', '0.3042572595991171', '0.304402618455162', '0.30456054332638555', '0.30490587149787807', '0.3050340522804543']</t>
-  </si>
-  <si>
-    <t>['5.089129425822634', '5.0931328065917825', '5.091971027967135', '5.087358666827206', '5.0892546625327215', '5.090913333174068', '5.0908186867273155', '5.090175222230582', '5.088068679598241', '5.088416217040425', '5.089742882361346', '5.0976423137916465', '5.106857743181369', '5.107425221890581', '5.108998750210094', '5.104354069335424', '5.086800457925303', '5.087098917842324', '5.088157638715995', '5.091218207467835', '5.1017471537438235', '5.100626746561605', None, None, None]</t>
-  </si>
-  <si>
-    <t>['0.9957099710687277', '0.9955253788426032', '0.9954733702234418', '0.9957530053710375', '0.9957728452930681', '0.9969358699788408', '0.9975324230532155', '0.997351671264986', '0.9964608788206811', '0.9963539100454238', '0.9962209860707646', '0.9956360266581872', '0.996066177758684', '0.9962377249528457', '0.9962684837195923', '0.9963275234295695', '0.9962714773660624', '0.9964553722625771', '0.9967232663388924', '0.996786667263094', '0.996974817948416', '0.9968931429059138', '0.9973795139918065', '0.9976014786336633', '0.997571260686515']</t>
-  </si>
-  <si>
-    <t>['0.25749016723357865', '0.25765487007399207', '0.25787996492332094', '0.2577396991242856', '0.25770233834281275', '0.2578923438567242', '0.25802466755900744', '0.2581398811605232', '0.2582604807194001', '0.2582314143053075', '0.25802046019151514', '0.25785198220880745', '0.25791769669928427', '0.25842020092442425', '0.2583637461467655', '0.25817774592804316', '0.25803289002578894', '0.25800601948694935', '0.257942004830859', '0.2579390016542025', '0.2578852466584665', '0.25784631142102216', '0.2577238579757668', '0.25743089038830547', '0.2574499779000792']</t>
-  </si>
-  <si>
-    <t>['0.03403429805053194', '0.03408056525153568', '0.03411369454197123', '0.034049654904496046', '0.03404549196510837', '0.034033212395934896', '0.034009641345345065', '0.03406840793809376', '0.03410345014656863', '0.034121505768340395', '0.03410557204020143', '0.034057987694661944', '0.034051510440077405', '0.03405694454058316', '0.03402178570641974', '0.03400558501213942', '0.03401102770367198', '0.03401337965578896', '0.033993733458806824', '0.03395381488955909', '0.03394478860285313', '0.03394316230221419', '0.03394151272181647', '0.03393750697886223', '0.033983982819176146']</t>
-  </si>
-  <si>
-    <t>['0.003556260516038272', '0.003562344813641626', '0.00356398521564079', '0.003559982198980586', '0.003563310908275364', '0.003567096353106036', '0.003564821263353461', '0.003561912344498308', '0.003554829424936303', '0.00355466011190646', '0.003558223836437508', '0.003559051371769702', '0.003562198945979309', '0.003565367315424779', '0.003565250678701455', '0.003564233275208141', '0.003564589625336857', '0.003566054842628921', '0.00356561533073417', '0.00356369050202149', '0.003553486676383836', '0.003554299427267342', '0.003556625169837241', '0.00355888474868993', '0.003559203378656607']</t>
-  </si>
-  <si>
-    <t>['0.9993623021761378', '0.9998669407166849', '1.000131206446741', '0.9999976762685783', '1.0008213746347967', '1.001384784293558', '1.0006849037543206', '1.0000096917313415', '0.9991982245741567', '0.9991557998334677', '0.999190668926278', '0.9992300617662566', '0.9991845508371152', '0.9994023845118498', '0.9994067487360225', '0.999469977499433', '0.9995391124960122', '0.999849226441451', '1.0001554479529742', '1.000283800466361', '1.0003323246685505', '1.0002832250981182', '1.000634093731632', '1.0012620280936242', '1.0012810406852182']</t>
-  </si>
-  <si>
-    <t>['7.45631311702e-7', '7.45773748778e-7', '7.45539833883e-7', '7.4531784326e-7', '7.45844077648e-7', '7.45822253556e-7', '7.45438660094e-7', '7.44388629005e-7', '7.43871344017e-7', '7.44106879072e-7', '7.44550840709e-7', '7.44416700276e-7', '7.44280874632e-7', '7.44371685686e-7', '7.44740519481e-7', '7.4467714189e-7', '7.44760207412e-7', '7.45035287271e-7', '7.44929663754e-7', '7.44730301508e-7', '7.44764231393e-7', '7.43766919952e-7', '7.43043478888e-7', '7.42169207214e-7', '7.41718060265e-7']</t>
-  </si>
-  <si>
-    <t>['9.029690250314578', '9.035621999596803', '9.04411115095572', '9.044324098532353', '9.048050626877671', '9.049255180880687', '9.041920258905217', '9.043209052751479', '9.046687035566725', '9.036410704706872', '9.03772566596206', '9.048397550162905', None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
-  </si>
-  <si>
-    <t>['10.903154016717778', '10.906125859630716', '10.907834901328433', '10.894340611015584', '10.890531318544904', '10.893830490996196', '10.906744346686928', '10.920097302433568', '10.919462716321922', '10.918630168619712', '10.912768625519362', '10.904514307010778', '10.900879121531093', '10.89192272457188', '10.892586393424377', '10.888707403144938', '10.887876437735635', '10.887734887831051', '10.890845524339715', '10.889853627937974', '10.880170559788032', '10.873410011044472', '10.870310041528423', '10.864434464315583', '10.864161554419102']</t>
-  </si>
-  <si>
-    <t>['0.062370870031668996', '0.062396871567065616', '0.06241582966848436', '0.06243468488647334', '0.06256080884387473', '0.06250882952521168', '0.06238198520871431', '0.0623457715368584', '0.062310903034147824', '0.06232736585422159', '0.06234340880859636', '0.06234202822364239', '0.06241248311769025', '0.06253959152863377', '0.06254674544577413', '0.06246925043274507', '0.06246305370442895', '0.062458207955229085', '0.06244137179915822', '0.062433606917823', '0.06244770935935845', '0.0625348882379473', '0.06254379324876133', '0.06254249798548725', '0.06252831395684835']</t>
-  </si>
-  <si>
-    <t>['0.9992141464232646', '0.9998777182015047', '1.0001858624125912', '0.9998996163550155', '1.0002962795494976', '1.0014031386495055', '1.0006895802343465', '1.0001049532876494', '0.9994328413642903', '0.9994001769482435', '0.9996355018669885', '1.0003262040397296', '1.000462856416678', '1.0004712515329934', '0.9998829340258225', '0.9997633358968129', '0.9998127551430499', '0.9999948020846293', '1.0003815280333999', '1.000440988902766', '1.000299481356945', '1.0002759220829511', '1.00095831409499', '1.0016171918458066', '1.0015893682980948']</t>
-  </si>
-  <si>
-    <t>['0.6451506599811054', '0.6424146029729401', '0.6380140083432668', '0.6338653168905507', '0.6335023861859835', '0.6454855043131038', '0.6499612425160504', '0.6530975774693405', '0.6470210669177245', '0.6457264416744153', '0.6476094173686084', '0.647639475568964', '0.6463879011066858', '0.6437789509411894', '0.6434321071084544', '0.6425595060683116', '0.6422074126006785', '0.6432329055607771', '0.6473080225615633', '0.6472368334436875', '0.6441409598432618', '0.6426217037500879', '0.643381648715479', '0.6489984828213778', '0.6492068171098896']</t>
-  </si>
-  <si>
-    <t>['0.03470682458398079', '0.03483756148582292', '0.034982087868749345', '0.03502440143059231', '0.0350545576459693', '0.035083802080230236', '0.03504467025332429', '0.03497932440827184', '0.03503754975328302', '0.035042214642751326', '0.03497999950288697', '0.03492688240270724', '0.03493366372406507', '0.03493895758930119', '0.03492761519748566', '0.03490811967733395', '0.03490696061698121', '0.03488688536552972', '0.03479700779966485', '0.03479236189172788', '0.034743486835553644', '0.03471890252142512', '0.03469326060138987', '0.03469318246208257', '0.03469073281560827']</t>
-  </si>
-  <si>
-    <t>['1.0059243243938032', '1.0059178963301079', '1.007109704519332', '1.0062500617349612', '1.0070723052797665', '1.0073167717846383', '1.015983876213512', '1.027168675030128', '1.0114231992025184', '1.0067188210446445', '1.005758982167941', '1.0056623391289763', '1.0065762768547577', '1.0054126380047481', '1.0060989030887966', '1.004460857033338', '1.0050227669355716', '1.0065243952805074', '1.0058682588026069', '1.0074850853989699', '1.005815607666534', '1.0052258373934537', '1.0064983400913572', '1.004894746574951', '1.0057065723701508']</t>
-  </si>
-  <si>
-    <t>['0.40480772621405314', '0.40506643582973434', '0.4050793995144678', '0.4055685353420839', '0.40512510245463396', '0.404754608072716', '0.40494711144704654', '0.404849275523463', '0.4050550107735116', '0.4054367506985897', '0.4053125965353155', '0.4056514321813967', None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
-  </si>
-  <si>
-    <t>['30.608869204617587', '30.596233555033468', '30.567447279977692', '30.560214583758224', '30.567082725152183', '30.549984970445912', '30.589907117452565', '30.59594070238556', '30.618018438360274', '30.673070282697612', '30.678160998974263', '30.666375432110062', '30.63697240127473', '30.633812389595697', '30.617002918787072', '30.617585932925312', '30.622076543553327', '30.63389187663987', '30.622224639845616', '30.64294838572389', '30.672690569424574', '30.7556255243015', '30.871982125124372', '30.883606346628756', '30.91221214648235']</t>
-  </si>
-  <si>
-    <t>['1.6681638241080234', '1.6676814614550257', '1.6658637161419405', '1.6589917825339247', '1.6614167474229815', '1.6664774821685902', '1.6657977065489842', '1.6657372970358135', '1.66663960261834', '1.6671819338662834', '1.6664249604453591', '1.6655631455255018', '1.6641445518302007', '1.6597575827037856', '1.6593677016709965', '1.6587380358635473', '1.658566718590959', '1.6577578214972108', '1.653967839174717', '1.6531444335161707', '1.6519472311092458', '1.6518736944349142', '1.6542890566799258', '1.6572963834015537', '1.657244894847141']</t>
-  </si>
-  <si>
-    <t>['1.2431094160887104', '1.2437719699346068', '1.243510249704679', '1.244304099576824', '1.2453385080665893', '1.2444846743015556', '1.243860083458258', '1.2445431583399997', '1.2443089777599057', '1.2445139303554102', '1.2447570952064508', '1.2448439520443713', '1.2432094919177048', '1.2413381352463166', '1.2412048459958447', '1.2412573309033745', '1.2410618283209163', '1.241200501198354', '1.2379341405470095', '1.235773710091968', '1.2353087313118751', '1.234995333572226', '1.2362272456613534', '1.2354146883337174', '1.234317541784854']</t>
-  </si>
-  <si>
-    <t>['0.022160101161915555', '0.0221601020949763', '0.02215395074055138', '0.02215395068177757', '0.022165330806635235', '0.02216533179165358', '0.0221755866564358', '0.022175586571792995', '0.022171012314380126', '0.022177656741764792', '0.022156674750109698', '0.0221568033131858', '0.022165021702543673', '0.02217007510208323', '0.022180570963721415', '0.02219148562354971', None, None, None, None, None, None, None, None, None]</t>
-  </si>
-  <si>
-    <t>['1.7916847602841524', '1.7920662832218401', '1.793028426818022', '1.792307885236417', '1.7919223827394473', '1.7935915556409943', '1.794796306904457', '1.796575448467321', '1.7968338442242293', '1.796789051864452', '1.797307019891532', '1.7975234791138996', '1.7975198669843464', '1.7954392412281601', '1.7951385407351987', '1.7939537923549138', '1.7934388322237782', '1.7929345337212064', '1.7931121091352573', '1.7930475280124745', '1.7924370710879396', '1.7922742360715325', '1.7914982017498602', '1.7898310706735905', '1.7896146097863863']</t>
-  </si>
-  <si>
-    <t>['2.5101091605289807', '2.5110077514788123', '2.5101986685791218', '2.5048006077839093', '2.5028081029244094', '2.5044204972085704', '2.5087365208500154', '2.51157723179483', '2.5123492928864586', '2.51141108296783', '2.509832704474724', '2.508290125335712', '2.508727229470138', '2.5097329926815086', '2.5094452371163243', '2.5054800627124885', '2.502968449697164', '2.5028041459615116', '2.5041444223959903', '2.5040123257704323', '2.500859497436467', '2.4987319469367315', '2.4970727713938863', '2.496245569669278', '2.4970548270139514']</t>
-  </si>
-  <si>
-    <t>['0.4266106941807492', '0.4264221554483214', '0.42614115472368297', '0.4258190389516649', '0.4258770164617906', '0.42602667046489223', '0.42653772781896315', '0.42694462202047767', '0.42703052066993386', '0.42693908252635193', '0.4271309575681687', '0.4273242486471192', '0.4274704032761755', '0.42780907710124677', '0.4278698684725249', '0.4280748857990213', '0.42838238293625275', '0.4283530688363736', '0.42863295823565506', '0.42875738980100797', '0.42827527561893936', '0.4278684683572419', '0.4273826966976278', '0.42659718525987095', '0.4267468013489402']</t>
-  </si>
-  <si>
-    <t>['6.609389117396537', '6.602409027284077', '6.602746188224947', '6.603418765393264', '6.607172552663608', '6.608230006627072', '6.615940384994289', '6.607738827309236', '6.60670275788737', '6.607877077964427', '6.606904923223358', '6.598916968690285', None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
+    <t>-1.59</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>-3.49</t>
+  </si>
+  <si>
+    <t>-2.52</t>
+  </si>
+  <si>
+    <t>['24445.739535284138', '24438.647164536316', '24402.12423135734', '24411.947344352975', '24419.059403420557', '24383.67673596525', '24378.785434252426', '24427.862549710568', '24388.58797572916', '24339.85179213694', '24338.1808126638', '24335.588549558666', '24330.60452588591', '24320.608454987734', '24302.78695232073', '24287.662363866177', '24195.495608427496', '24196.07147117754', '24250.132118756723', '24278.56301151903', '24264.15004667444', '24184.759325728246', '24189.4180494979', '24219.399878837386', '24238.82944801555']</t>
+  </si>
+  <si>
+    <t>['1662.2889600454625', '1662.0567840552733', '1661.497782861162', '1661.0372056221308', '1659.5570212442767', '1656.9430927881701', '1656.496051795572', '1656.7410044098417', '1654.7278650433225', '1653.6397140849535', '1652.976523837589', '1650.2323296111888', '1648.9512149194597', '1650.67569501709', '1650.9392747526063', '1649.907514023406', '1647.4201407418336', '1647.5526218269806', '1650.7970609003264', '1651.490399593183', '1649.9623617761088', '1647.660313759755', '1648.5968016300978', '1649.7050379272937', '1650.3153061952603']</t>
+  </si>
+  <si>
+    <t>['1.0015409901026988', '1.0017467756891543', '1.003253832439541', '1.0030589715682325', '1.0029482838311505', '1.0041778103449792', '1.004412300759464', '1.0023801704121225', '1.003648331586266', '1.005255076211253', '1.0051308357786224', '1.00498851379487', '1.00518636515301', '1.0051200882066962', '1.005375551013228', '1.0057432331479892', '1.0085799135908062', '1.0084463816831115', '1.0061356601241074', '1.004928383794473', '1.0055050509395305', '1.0079296879018573', '1.0076881295274858', '1.0063279808925036', '1.0053932512496515']</t>
+  </si>
+  <si>
+    <t>['311.24855285200385', '311.22632664660364', '311.1237781687671', '311.37878902611305', '311.2447308777532', '310.78107508331516', '310.62167482119094', '310.8847688869899', '310.7754495354455', '310.6004016404996', '310.4980964169067', '310.4891115210713', '310.5198734271506', '310.5780953877658', '310.59603393192486', '310.5275510929524', '309.3821982677287', '309.057259523576', '309.2313758160875', '309.364139747019', '309.15422818873077', '308.5171767624656', '308.64057358803444', '308.8080254030685', '308.9216139230402']</t>
+  </si>
+  <si>
+    <t>['1.0012916741105164', '1.0016662677930528', '1.0016453954967042', '1.0019754076248113', '1.0027595064879071', '1.0027889312332308', '1.002778017619176', '1.0030128532733618', '1.0033299392075077', '1.003172240304083', '1.0034403494394069', '1.0039626895970428', '1.0047840114973818', '1.0046312052534974', '1.0056173408184592', '1.006519036108767', '1.005796112584832', '1.0061820440072984', '1.0051560211064137', '1.0050829900138474', '1.0062978362731174', '1.0055568462557265', '1.0051800091333931', '1.005438689003915', '1.0054954545012658']</t>
+  </si>
+  <si>
+    <t>['0.3908168816192269', '0.3903764033893494', '0.3899581974982188', '0.38985594536539364', '0.38970984527398245', '0.38939532535429533', '0.38944481665825814', '0.3896563766914577', '0.3895048768567315', '0.38925447351641584', '0.38896796371985004', '0.3883729510520081', '0.3882890583013576', '0.38862124080831967', '0.38847235777139355', '0.38777187619974757', '0.38685599797032744', '0.3868157212752309', '0.38710648099504563', '0.3870462951266271', '0.3869659686520383', '0.38676573578490486', '0.3868713265307152', '0.3871470792028616', '0.3871808153501934']</t>
+  </si>
+  <si>
+    <t>['0.39134124361532646', '0.3910775812054118', '0.3908829272616413', '0.39066263068793333', '0.3901783055202788', '0.3891652642361476', '0.388768644598509', '0.3884326735874115', '0.38840360736048807', '0.3883127626134236', '0.3880788103370964', '0.38772855181949506', '0.38767965684795785', '0.3883004655328332', '0.3879931489485641', '0.3870334149825335', '0.38551332091437207', '0.38536009592823', '0.3861975283492577', '0.3862900150006344', '0.385945285720123', '0.3857659077316994', '0.38604453143183165', '0.3861950344700448', '0.38637879910903117']</t>
+  </si>
+  <si>
+    <t>['1.0013558839275134', '1.0015872938447665', '1.0034618185698032', '1.0034453039420597', '1.0032821033349875', '1.005210815244924', '1.0037335796668325', '1.002525526480076', '1.0054356196948298', '1.005531980510222', '1.0055327363617488', '1.0055333101974786', '1.004310020371461', '1.0045997634588604', '1.004680961139199', '1.0092316299270272', '1.0091187351456563', '1.008993361418859', '1.0056195848329026', '1.0054048459084142', '1.0054675794862535', '1.0079185630121454', '1.007715194668511', '1.0076754932271255', '1.0060924725770222']</t>
+  </si>
+  <si>
+    <t>['1.388470866072969', '1.3883886753409453', '1.3875991862600727', '1.386186501631977', '1.3838200062349453', '1.3800408110916307', '1.3784249361624656', '1.3769881554982728', '1.3722983918036948', '1.3675915819755795', '1.3673664316789937', '1.3669320107869156', '1.3670346019318382', '1.3695460645404935', '1.3690689403076082', '1.3660653965316343', '1.359891947583238', '1.3588827444702007', '1.3626231097050625', '1.3633415227055055', '1.362442866982207', '1.3600930009260208', '1.3611769507187783', '1.362584821667654', '1.363638879455537']</t>
+  </si>
+  <si>
+    <t>['50.34011747552906', '50.24084108331855', '50.27427664027174', '50.24906061383937', '50.185271079770615', '50.19330301703415', '50.21828892836406', '50.17606947086036', '50.109262772479596', '50.03216256712024', '49.79965714194861', '49.599231146733274', '49.645517350318315', '49.78406839294549', '49.61490991905133', '49.520135352287014', '49.598663809675415', '49.47328817581679', '49.54474889083082', '49.50410137539875', '49.39532383154045', '49.443976681635', '49.51735535672887', '49.526820101335396', '49.4678505174115']</t>
+  </si>
+  <si>
+    <t>['0.08583936759364619', '0.08581943564875015', '0.08578809950285712', '0.0857366924421806', '0.08562039284702108', '0.08544637311522339', '0.08538598838049104', '0.08540537327792888', '0.08542130191381839', '0.0854179262160754', '0.08535703154404127', '0.08526877726370789', '0.08521777864601765', '0.08526562681666972', '0.08520900354501312', '0.08492948939374433', '0.08447447174595744', '0.08439459879458074', '0.08455408137015857', '0.08456308170384323', '0.08447810504520929', '0.0843779225053212', '0.08444801537083998', '0.0845565996773959', '0.08460794665568575']</t>
+  </si>
+  <si>
+    <t>['25.176887979095678', '25.1337187989913', '25.090104285911988', '25.042676892134345', '24.960369569956896', '24.897020158851763', '24.883997274468616', '24.891652062881175', '24.907836592953714', '24.913926605305452', '24.898389509355987', '24.86216486710003', '24.838519940254514', '24.796371189283587', '24.75209538832124', '24.656262313199907', '24.500710465760907', '24.49399234602455', '24.57765255238934', '24.59241963174407', '24.56131924747908', '24.48103010501927', '24.49755527960166', '24.47490631322608', '24.4499474136496']</t>
+  </si>
+  <si>
+    <t>['7.250601615799885', '7.246867417472507', '7.244531989205711', '7.237367914397925', '7.227836652629022', '7.216033858897566', '7.218016546633589', '7.218896664863393', '7.2165098815271955', '7.214009941894287', '7.206250372508008', '7.190842050381978', '7.187208895337352', '7.190961238676374', '7.183189092671772', '7.151721385788113', '7.12116746211738', '7.120577846016037', '7.133486071205876', '7.1314034371230886', '7.123771289152171', '7.113483868628521', '7.120033609622578', '7.12294628808597', '7.125520895081413']</t>
+  </si>
+  <si>
+    <t>['0.000013078457023448', '0.000013071473213', '0.000013054889195109', '0.000013045142770384', '0.000013028518771252', '0.00001299134592925', '0.000012980929943927', '0.000012994521253056', '0.000012979961533883', '0.000012964359784536', '0.000012956310565353', '0.000012946349076648', '0.000012942213750952', '0.000012951764896951', '0.000012942188448668', '0.00001289147176928', '0.000012810664442368', '0.000012798643666218', '0.000012823109099121', '0.000012829638780411', '0.000012813568584204', '0.000012808701119308', '0.00001281687738156', '0.000012841945931246', '0.000012852424251959']</t>
+  </si>
+  <si>
+    <t>['7.657705922472356', '7.661650942565118', '7.668797816902889', '7.659896839741167', '7.6434177010851645', '7.62895021852348', '7.617490280519437', '7.603094583005089', '7.598367885186723', '7.5968202157875675', '7.587351695992919', '7.5746058149030295', '7.5666595891524056', '7.569065252508268', '7.560655615853743', '7.53123003472301', '7.485837850112495', '7.482698441058556', '7.4988332107547615', '7.500634037635901', '7.481228983483872', '7.475658623648617', '7.484904639714093', '7.49119558791871', '7.493523606888717']</t>
+  </si>
+  <si>
+    <t>['1656.4319201001176', '1659.6813930331855', '1659.8954715824266', '1659.1201239666261', '1658.2073196686154', '1659.177673477356', '1658.096585787763', '1656.1658704806457', '1656.055389079288', '1655.646657066528', '1655.311833357278', '1654.653891690351', '1654.0193742391637', '1651.2187962511216', '1650.3950225432227', '1651.5526411768847', '1653.5188253337901', '1649.3615808005031', '1648.779742275202', '1648.283569398765', '1648.7965997478798', '1648.5671089912432', '1649.0967937866508', '1649.0234878291412', None]</t>
+  </si>
+  <si>
+    <t>['94.65240891562621', '94.59169937991311', '94.59164510061643', '94.58238892766921', '94.47930452092433', '94.33893093521905', '94.35706422970922', '94.31587942694466', '94.29680081337061', '94.30689954152294', '94.2461603438002', '94.16986151254136', '94.13536159528059', '94.25620400426394', '94.18701259849489', '93.95193886200511', '93.74081481256383', '93.66471116937629', '93.7558051512585', '93.74391676840581', '93.76023465381279', '93.8752911650071', '93.97994820280493', '94.13317748613545', '94.16205000111945']</t>
+  </si>
+  <si>
+    <t>['0.06953249700535626', '0.06950375622621116', '0.06950377611100685', '0.06949507467550586', '0.06944722335682506', '0.06936157151149962', '0.06937661966935807', '0.06938370077732085', '0.06930730509312934', '0.06928272659628036', '0.06925957952345095', '0.06924440394880194', '0.06923613837558013', '0.06929139479464556', '0.06926212129977496', '0.06916259338276812', '0.06905630134107102', '0.06904835490619193', '0.06912660471224893', '0.06909051681881505', '0.06899765277622126', '0.06888219006404206', '0.0689306490829317', '0.06897393059830567', '0.06898060137091268']</t>
+  </si>
+  <si>
+    <t>['21.190232330225776', '21.17713382584623', '21.14314432390115', '21.06870280512102', '20.995259478987556', '20.961945742555738', '20.974287839305163', '21.022086394501986', '21.037593172605376', '21.045177734765574', '21.02355707715846', '20.968893992572912', '20.95968646187426', '21.008524566491023', '21.009941586278778', '20.942779748302492', '20.819805830126356', '20.80431473351102', '20.868950762985342', '20.87871862109575', '20.817319451522067', '20.701926327411083', '20.71072832309126', '20.69410721582871', '20.690364594426978']</t>
+  </si>
+  <si>
+    <t>['7.0407007908644434', '7.035308696761447', '7.030004691833186', '7.025444646426747', '7.013956689488324', '6.999062804923373', '6.99527418647458', '6.99424554118999', '6.987599763115311', '6.9824582711733', '6.9773661276001855', '6.976201990452799', '6.970433165217816', '6.978663633868344', '6.976239043191703', '6.951704538991368', '6.926619866467391', '6.920225755313763', '6.937367613032954', '6.938839112140128', '6.9331564753234005', '6.93254697655541', '6.940790812919907', '6.947110696579568', '6.949187731406601']</t>
+  </si>
+  <si>
+    <t>['1.0024124937986083', '1.0023254502816317', '1.0023972631916032', '1.00275593038065', '1.002902433585776', '1.0031459650542873', '1.0033656788933203', '1.0032143560711755', '1.00395216988719', '1.0043771450959778', '1.003693596013907', '1.0035171336714963', '1.0037578396521603', '1.004753618017421', '1.0047696449007948', '1.004727677894812', '1.0049479403185164', '1.0054046753435295', '1.004593905038201', '1.0042236009282837', '1.0055734894636554', '1.00611913715386', '1.0060301536144238', '1.0052867602981994', '1.0052835643561238']</t>
+  </si>
+  <si>
+    <t>['13.911351797702203', '13.910569374218499', '13.937164910990976', '13.97128121943274', '13.99173006840301', '13.969634889389873', '13.961064622475988', '13.941761110128093', '13.966350694560372', '13.987798910930374', '13.975200419105219', '13.943182637677024', '13.936527078862488', '13.955545501168475', '13.950437950420655', '13.91139437190858', '13.838991629350007', '13.82274493336094', '13.83458841926786', '13.831906089381764', '13.81756212082819', '13.806743621752153', '13.815349154733122', '13.81833005762526', '13.820567364450127']</t>
+  </si>
+  <si>
+    <t>['24458.19115496905', '24449.36852905164', '24412.59021266698', '24420.510979054383', '24419.575603865826', '24397.661931289167', '24392.969783561777', '24432.779059162847', '24399.969316793613', '24355.929880787007', '24341.724798615673', '24338.829130785325', '24327.272619858315', '24330.405586613833', '24303.24823820491', '24291.69950547526', '24210.899490330197', '24206.416253072864', '24242.32767753375', '24277.802070029265', '24257.25133667007', '24190.62023937005', '24194.756483198267', '24223.151217954703', '24240.07049530987']</t>
+  </si>
+  <si>
+    <t>['2.4036119535504454', '2.4042067152378315', '2.4058004724373103', '2.401410216446264', '2.3959479641782493', '2.384545462472036', '2.3843789910923845', '2.3856109119548443', '2.3948506001721777', '2.3985585692547557', '2.39743598879561', '2.3958830153121036', '2.392056569604457', '2.3825738777228205', '2.3820336855323645', '2.380448440384175', '2.381690391168124', '2.376305728079547', '2.37149708198023', '2.3687099366274653', '2.360267926619511', '2.358914697187205', '2.3601940431688972', '2.3636811565567544', '2.362924433401974']</t>
+  </si>
+  <si>
+    <t>['2.7914361891340724', '2.790839915887381', '2.790421519514476', '2.7856236261243565', '2.7792377795699', '2.7665634712178138', '2.7647992245272475', '2.765358748105262', '2.763326373904385', '2.7598008950576234', '2.7491566280562916', '2.7321011233594468', '2.7339079366407018', '2.74555832566272', '2.7444255112436697', '2.726985944668024', '2.7031148117369104', '2.7027688090588806', '2.7183652421064295', '2.721378752150279', '2.717579590093616', '2.717597045761348', '2.718890325951734', '2.7141813759150675', '2.713253823377118']</t>
+  </si>
+  <si>
+    <t>['22.777821106151443', '22.795823987413975', '22.84755856399152', '22.81240521641157', '22.773455491008182', '22.73065326954777', '22.735758230942334', '22.72981082723903', '22.743549698514844', '22.753111023460296', '22.717283435758493', '22.663861000252645', '22.64161989479988', '22.700875401505453', '22.65614383577144', '22.564666990086046', '22.49167752767471', '22.480190636351583', '22.534385511897575', '22.51269107243604', '22.482828502865264', '22.443917042119146', '22.47858847418645', '22.4724945731078', '22.482161952309937']</t>
+  </si>
+  <si>
+    <t>['159.4130825660093', '159.31442717118702', '159.3347782375298', '159.25245131192744', '159.06629967412212', '158.85443396217713', '158.8426901419402', '158.84612854105464', '158.89353396486848', '159.00920477347174', '158.96824255349782', '158.9289174758218', '158.91129025734867', '158.84440546259313', '158.7659306563905', '158.30908233597054', '157.80254900162168', '157.6597124244614', '157.89901274831155', '157.8488608205636', '157.7275893524039', '157.66378622473243', '157.76391192581042', '157.76550038450534', '157.73970324841713']</t>
+  </si>
+  <si>
+    <t>['8.151561287634015', '8.141541350017325', '8.13826203328061', '8.12944510703511', '8.113875544923621', '8.117360078048536', '8.167662426182618', '8.297549747211791', '8.281128760058811', '8.288988269368119', '8.290861120517791', '8.335634117109773', '8.342308150613786', '8.337590492551566', '8.308160704286118', '8.262822881472413', '8.196880427004157', '8.195875310547379', '8.249544712638823', '8.274216931801845', '8.290926622779988', '8.306177933494288', '8.328625040391852', '8.361230089243367', '8.363669403604492']</t>
+  </si>
+  <si>
+    <t>['144.8463723788486', '144.85337967518188', '145.44303219716264', '144.95284439632638', '144.7216724999314', '144.65159306589734', '144.62583940548487', '144.4503910526334', '144.51693682582456', '144.7348409281563', '144.48831461265152', '144.1321687586489', '143.867049372707', '144.16474903994896', '143.771793066307', '142.89137495898623', '142.55331549166092', '142.26690567132752', '142.5025468569531', '142.39814897801614', '142.3799863850196', '142.582493283678', '142.66869425754078', '142.38013719736756', '142.25911052018094']</t>
+  </si>
+  <si>
+    <t>['5.7429020522858725', '5.7301258170517855', '5.699684366427908', '5.69622556778493', '5.7052830362493925', '5.696653859807534', '5.688499128039538', '5.688354319197513', '5.688533399972666', '5.694556788725531', '5.700635432000341', '5.701956381628386', '5.661265313652093', '5.585859750291517', '5.480568045591055', '5.4125383056756995', '5.375674241741712', '5.377567228694032', '5.375176548628824', '5.362822341467284', '5.3183203603856954', '5.30666385197457', '5.28067408478362', '5.284043628972642', '5.281719325235184']</t>
+  </si>
+  <si>
+    <t>['2.607906645045469', '2.607934154883653', '2.604052080329863', '2.5900843290882807', '2.5827447328797724', '2.5762875365564413', '2.5730497352198554', '2.5704972772573664', '2.564081738442807', '2.5635976354767114', '2.55813723316604', '2.55355116828382', '2.5414834797758985', '2.5341655848040556', '2.536069625829639', '2.5296625296669033', '2.5234449363812215', '2.5222742546822334', '2.520252279708135', '2.517613078758047', '2.498520917410777', '2.4933671379789355', '2.4965625997573486', '2.5147069240922355', '2.5144393804793483']</t>
+  </si>
+  <si>
+    <t>['1836.1105221603848', '1836.50508467977', '1840.165639652351', '1840.0243877330042', '1838.2071740756649', '1838.2510790083522', '1838.3138121558939', '1838.1005845065122', '1835.6142642713905', '1835.7136750807047', '1836.5298635567983', '1836.41457481126', '1835.1876389154565', '1834.7678020182855', '1830.863554836421', '1831.0444882071497', '1832.8539973422683', '1832.3988003334755', '1827.6766666538294', '1827.7127485322658', '1828.065673529394', '1829.5300153678647', '1829.5034366902964', None, None]</t>
+  </si>
+  <si>
+    <t>['0.082347103125927', '0.08233875101516334', '0.08223656041523604', '0.08225626835728324', '0.08226879624898187', '0.08212491105768957', '0.08207129960415628', '0.08197357697423155', '0.08187206950625993', '0.08178104276111262', '0.08167496370808829', '0.08152885112112246', '0.08153398476913826', '0.0817600433687876', '0.08175572601411712', '0.08142238705011705', '0.08097071829342821', '0.08101548752297055', '0.08147020389832808', '0.08158239598738333', '0.08145204541615085', '0.08128830646552719', '0.08132291982934844', '0.08139910809004543', '0.08141912698435544']</t>
+  </si>
+  <si>
+    <t>['6.89917915052099', '6.899920155389202', '6.898371590187429', '6.899145564018739', '6.895001035687916', '6.870745960532273', '6.863652695013596', '6.879589537093986', '6.885784071488636', '6.895249935252948', '6.890507284416236', '6.882219521254133', '6.8781575629338425', '6.887967650122294', '6.8813148976083625', '6.838139869152068', '6.781972672855138', '6.769562874903874', '6.782615130036527', '6.788512168293434', '6.772637910061948', '6.749447427113062', '6.7628010816253115', '6.77724428767167', '6.790179661840207']</t>
+  </si>
+  <si>
+    <t>['1.0059575957162035', '1.004999561915414', '1.001967248203552', '1.0001713585717396', '0.998894361480001', '0.996107216474945', '0.9952463993828349', '0.9950829316139876', '0.9948780537445567', '0.9943644697565428', '0.9925534965418086', '0.9880958302786602', '0.9874959213273997', '0.9884251959666123', '0.9874986645728253', '0.9819016542936628', '0.974963651344257', '0.974444295556808', '0.97857372474414', '0.9792304272304811', '0.978370858508992', '0.9776754789980081', '0.9785682324982278', '0.9799479366323298', '0.9809143477070371']</t>
+  </si>
+  <si>
+    <t>['0.029810111200725374', '0.029788219000027767', '0.029727893750100466', '0.029689826375418688', '0.029640673291335972', '0.029532526441260122', '0.029481704554765373', '0.029426462527756308', '0.029424540365633967', '0.02942121282345819', '0.02938954038324619', '0.029291231577061434', '0.029286234633393943', '0.02931076044571885', '0.029292812575666117', '0.029230612349158927', '0.029125271123714727', '0.02912960683987602', '0.029202660171604427', '0.029202214408630037', '0.02917790836315696', '0.02914893622152749', '0.029159375727792963', '0.029174180169470643', '0.029175609676359654']</t>
+  </si>
+  <si>
+    <t>['0.27774591472708937', '0.2777572560210217', '0.2778896593440975', '0.2778456735767331', '0.2775755180077589', '0.2772465072912357', '0.27725414198566073', '0.27722020549389487', '0.27739457809269286', '0.2772901100897386', '0.2767585793647987', '0.2758307003108258', '0.2753333462854391', '0.27541720146717424', '0.27500456611872337', '0.2737629278101298', '0.2724684758932633', '0.27206198932289405', '0.272619931199017', '0.2726845942650942', '0.2721149403517376', '0.27189733334338295', '0.27244283351806564', '0.2729233835292767', '0.2731239142006361']</t>
+  </si>
+  <si>
+    <t>['0.09435441902723467', '0.09432108799278581', '0.09428733790200397', '0.09428582093452247', '0.09425424972642857', '0.0940708432312027', '0.09393722672285125', '0.09378483885009113', '0.09362405706705577', '0.09350679234232197', '0.09344358968516599', '0.09342500140773032', '0.09340105331707263', '0.09350121917237429', '0.09345760881069681', '0.09325094532207814', '0.09300726758223335', '0.09297697215307076', '0.09297531109460853', '0.09293437738034199', '0.09270877298938093', '0.09271941659253922', '0.09279882789096668', '0.09289025215913059', '0.09289954463348062']</t>
+  </si>
+  <si>
+    <t>['1.4908703395903242', '1.4924405850894247', '1.4935523363202727', '1.4946163316018286', '1.4897928340377762', '1.4862993910305335', '1.4857261187076434', '1.4861764891393445', '1.4858557551329865', '1.4875829064366508', '1.488417563844851', '1.4873762279157168', '1.4847819254706585', '1.483409809539299', '1.4822644458335612', '1.4783957537752692', '1.47491334816355', '1.4751506914084203', '1.4760254384971119', '1.4744533312253603', '1.470430183078754', '1.4685870874414386', '1.4718949094304787', '1.4766329581379685', '1.4766113857855252']</t>
+  </si>
+  <si>
+    <t>['10.330812667066905', '10.330877041737923', '10.324984381801604', '10.284882275207746', '10.238021951247244', '10.2155624094613', '10.212194681193667', '10.222689472935656', '10.221478477410411', '10.220708623223627', '10.213303403479827', '10.192395258232441', '10.191518726865617', '10.224719344029243', '10.236908392121974', '10.185891794924238', '10.030910202720804', '10.024974379268643', '10.004564717916656', '9.995847150685828', '9.98343946622582', '9.961460144180046', '9.960724465976181', '9.965239594970155', '9.966817193377016']</t>
+  </si>
+  <si>
+    <t>['0.7827434137538689', '0.7824382679874378', '0.781298541213577', '0.7794978279129255', '0.7768787116981944', '0.7735335492726632', '0.772156798534816', '0.7714199909653647', '0.771831766705703', '0.7721544973477156', '0.7714254923838687', '0.7693579074402624', '0.7689840219749219', '0.7701387174751426', '0.7696750773815311', '0.7675591596041783', '0.7622320972995537', '0.7620619296280531', '0.7632664146245156', '0.7632341139701985', '0.7627363949020272', '0.7618949172851635', '0.7625422666003567', '0.7637641058796495', '0.7648385960655073']</t>
+  </si>
+  <si>
+    <t>['13.363484513383831', '13.35912536135898', '13.3481583585042', '13.331264067645346', '13.304032360217422', '13.264239949071014', '13.258264660318543', '13.267205410774801', '13.261903657653937', '13.25152000860307', '13.238977277990061', '13.218839719873081', '13.216314569140376', '13.238424989314506', '13.229177432178151', '13.168377285169974', '13.063154192089977', '13.064177026408062', '13.109801799538781', '13.116693322045272', '13.099050838022464', '13.065602308456926', '13.075016262277888', '13.081584127441253', '13.08556188784006']</t>
+  </si>
+  <si>
+    <t>['16.410011874633845', '16.443407491313252', '16.461043944216957', '16.378601578038655', '16.314129527971872', '16.24925771088685', '15.99577309124965', '15.835752084118432', '15.878014718495546', '15.878019527748734', '15.90718395329306', '15.871436437109706', None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
+  </si>
+  <si>
+    <t>['2.551559569893664', '2.5502244621247883', '2.5474869836548506', '2.5438041450582305', '2.5385559086573735', '2.5343776474090918', '2.533837510060288', '2.5342278820937714', '2.5355421966057694', '2.5361017507182293', '2.5340295786895397', '2.5292302720636104', '2.5287373415951073', '2.53401455974544', '2.5324722425889097', '2.521392257244413', '2.5032841480565025', '2.5011477183137587', '2.503698267574473', '2.5018670581595543', '2.4963162619224346', '2.488086017857812', '2.489778406733293', '2.492519082172459', '2.494113622557022']</t>
+  </si>
+  <si>
+    <t>['0.7035712892847533', '0.7029461853617348', '0.7020070974633617', '0.700851167712247', '0.6994407342123801', '0.6975386965463927', '0.6971431849216857', '0.697182539881892', '0.6975965644148124', '0.6976335832319451', '0.6968121535539196', '0.6953608402480551', '0.6947811395179772', '0.6962848443446227', '0.6956321680841747', '0.6927652087052178', '0.6887142185775051', '0.688266389607043', '0.6903768105272495', '0.6904845096585981', '0.6889979970039005', '0.6874642110191156', '0.6883061724531873', '0.6897810013586647', '0.6907181240078026']</t>
+  </si>
+  <si>
+    <t>['4.139623995441998', '4.139228371302165', '4.133978574463848', '4.133589076039677', '4.1319328876441315', '4.129777902817221', '4.128593942694436', '4.126501650823381', '4.124003299162066', '4.122394234887977', '4.1216760177292695', '4.122413120689377', '4.122136694386742', '4.124514013505827', '4.125507894758761', '4.12357444088954', '4.117623614327732', '4.116517391008057', '4.12112664937533', '4.121183689765902', '4.117348750367619', '4.1082150220805795', '4.108199249736213', '4.110271533813933', '4.110073346883946']</t>
+  </si>
+  <si>
+    <t>['1.0012396514356903', '1.0010409733376102', '1.0014124449931139', '1.0017732003416973', '1.0023758452073523', '1.0025961899227183', '1.002768201289743', '1.0028427595537746', '1.0029837378116584', '1.0030265085295444', '1.0036914875496323', '1.0039433779808142', '1.0039351233275713', '1.0046799793269725', '1.0052228831167933', '1.0052297074425316', '1.0056361714688817', '1.006007370821426', '1.0053421286121031', '1.0046633946661416', '1.0046456329384323', '1.0049323339599314', '1.0051890619685975', '1.0052038938239474', '1.0052682465397513']</t>
+  </si>
+  <si>
+    <t>['0.08589230265182751', '0.08579765802333719', '0.08579600788369228', '0.08591292759646055', '0.08593559945729123', '0.08585710159568721', '0.08580644690313868', '0.0856894885959688', '0.08560891067917828', '0.08562915296236455', '0.08554802001468181', '0.0854283919707739', '0.08531435362818246', '0.08540798608265243', '0.08524768808321752', '0.08484754178417575', '0.08476362290435993', '0.0847376620828067', '0.08503975229396706', '0.08492903190548097', '0.08474806533795022', '0.08463341962188829', '0.08476829031182527', '0.08478975950925302', '0.08471626875673174']</t>
+  </si>
+  <si>
+    <t>['135.7165373856264', '135.74948468493326', '135.70123785795784', '135.6877404193062', '135.58602671787108', '135.28489047914974', '135.23902048558958', '135.30042675634192', '135.20814951571077', '135.15829663342515', '135.00645283985676', '134.80206194450716', '134.67913387475417', '134.78439335599717', '134.7561085550924', '134.4384025344098', '133.9722545174816', '133.7587754239026', '133.78050538283225', '133.7939022195852', '133.69194447269217', '133.56764738807018', '133.68438845208644', '133.81504821597596', '133.77402476531668']</t>
+  </si>
+  <si>
+    <t>['1.3037305532886345', '1.3033012970164704', '1.3014916856584482', '1.3008728626117196', '1.299028790445735', '1.2918182608492825', '1.28843428753395', '1.2830652169295815', '1.2817327186402319', '1.2786717788664301', '1.2767853378990328', '1.2706815073798163', '1.2698760305666132', '1.2691611944799115', '1.26915837741008', '1.2633287338193724', '1.2604785218269026', '1.2594209748972027', '1.2625805038727196', '1.2627322171400928', '1.2604535884607209', '1.2583432037445779', '1.2589517490535636', '1.2572892793485821', '1.25676137285064']</t>
+  </si>
+  <si>
+    <t>['87.56868015917756', '87.51650935503017', '87.43193948097523', '87.2919939400176', '87.08644053863398', '86.86534180505195', '86.81718227524257', '86.79163748713086', '86.79238827551694', '86.77269110478821', '86.65076795926747', '86.42695649586366', '86.34952973038276', '86.4771527837604', '86.39676823549183', '86.04580578452787', '85.75091811769514', '85.60969875244766', '85.85915564899575', '85.97462187648162', '85.89933443389653', '85.8970157356053', '86.03750122594211', '86.08434804520633', '86.07051029528888']</t>
+  </si>
+  <si>
+    <t>['1.232268587296475', '1.2321663649582129', '1.2311597325250876', '1.2303842039489912', '1.2290900028335208', '1.2247218846158066', '1.2240558250147444', '1.2249525711865428', '1.223605490656745', '1.2223817264387846', '1.221596578845694', '1.2203081691965476', '1.2197722255610846', '1.2216587611947196', '1.2211508151731596', '1.2165189079460066', '1.2075890532426508', '1.2072785802147004', '1.2113038528857807', '1.2115791165766252', '1.2098847648717084', '1.207985073543221', '1.2089414206794866', '1.2123661975147584', '1.213859421674972']</t>
+  </si>
+  <si>
+    <t>['51.32357562784034', '51.314010874707016', '51.31467915827774', '51.299126392748285', '51.27037964373182', '51.21292116514341', '51.196740479664186', '51.23042877365129', '51.16079580006284', '51.09250890241155', '51.080600966056295', '51.009271239077805', '50.980401652631016', '51.05282870318518', '51.05376041625225', '50.89811951904748', '50.631610970469936', '50.60195880089356', '50.672637353320404', '50.671658313682535', '50.601105210935295', '50.42893012904778', '50.461690947302046', '50.51073683170668', '50.52713742063003']</t>
+  </si>
+  <si>
+    <t>['1.215727927289174', '1.2160711611985067', '1.2189558350359386', '1.2180773886359946', '1.2161223839492021', '1.2140971400232163', '1.213436398879857', '1.2124065398583337', '1.2138149045156823', '1.2147998175605097', '1.212771446759473', '1.209772930771162', '1.2089582988330028', '1.2107108509201656', '1.209619212457927', '1.2015256417474987', '1.196792192837631', '1.193099197943173', '1.1932338639685192', '1.1929709887405546', '1.1928386070545318', '1.194152466917459', '1.196699593376948', '1.197534711846348', '1.198066558153313']</t>
+  </si>
+  <si>
+    <t>['1.28706778272645', '1.305844232727791', '1.3551585278568106', '1.3805829630022215', '1.3946385281989893', '1.37563396978745', '1.369926432878815', '1.3525279044099408', '1.3356328497574306', '1.3204220726341223', '1.3228122502360529', '1.3238027764590239', '1.3223746877024598', '1.3213002470438397', '1.3159739553947387', '1.3097469059021984', '1.2987706796860008', '1.2995823762356968', '1.307284230496514', '1.307621104771277', '1.2995063811554015', '1.2917880600239715', '1.2929620068698313', '1.2919637947786426', '1.2900275400336287']</t>
+  </si>
+  <si>
+    <t>['185.1701540779493', '185.29522455098922', '185.71859433491346', '185.90372877277224', '185.42773043309316', '185.60606921440584', '185.78123514881597', '185.1159298290304', '185.47072822535696', '185.836994100997', '185.6776328466201', '184.95236860660123', '184.60955801830912', '184.60299017433002', '185.7550119608251', '186.54856110677096', '186.77091589806878', '185.89084635968598', '185.6527414246998', '185.8142831929178', '186.04374333397328', '186.1669755421043', '186.19659458584857', '186.19671129561587', '185.98227698619928']</t>
+  </si>
+  <si>
+    <t>['0.00016574020229325', '0.000165737085689448', '0.000165864834352495', '0.000165844358636994', '0.000165807539277402', '0.000165584656909305', '0.00016550485646032', '0.00016546392078388', '0.00016529169957809', '0.000165069987975687', '0.000165024047030366', '0.000164935234260065', '0.000164862312574669', '0.000164890082965854', '0.000164838187535606', '0.000164022787455403', '0.000162873113008352', '0.000162849034354148', '0.000163656964980616', '0.000163788461693592', '0.000163458757432252', '0.000162900408478274', '0.000163016656377419', '0.000163554348463226', '0.000163879902166236']</t>
+  </si>
+  <si>
+    <t>['0.14166888126448246', '0.14157699224141962', '0.14163790272821575', '0.14173052518642756', '0.14166222418279042', '0.14133286416080396', '0.14128174253633496', '0.1412221119577842', '0.1405381562951479', '0.14062801630515867', '0.14123985203545605', '0.1409434705162529', '0.1405400667495986', '0.14049931395571652', '0.14043613479687025', '0.14010602478814538', '0.1393591801046226', '0.13963820522387838', '0.1401288918279339', '0.14017222039313074', '0.14020186082151034', '0.13994573834627205', '0.13973262437273973', '0.13959612565223065', '0.13961079274229096']</t>
+  </si>
+  <si>
+    <t>['3.054145194e-9', '3.058375508e-9', '3.081524248e-9', '3.068213619e-9', '3.042061286e-9', '3.032524445e-9', '3.037448011e-9', '3.059446561e-9', '3.056585734e-9', '3.053760019e-9', '3.062969099e-9', '3.066603122e-9', '3.052204299e-9', '3.025358268e-9', '3.021282628e-9', '3.024630752e-9', '3.029923502e-9', '3.046251864e-9', '3.03934414e-9', '3.029223069e-9', '3.021556355e-9', '3.025215284e-9', '3.022706594e-9', '3.018748176e-9', '3.02063651e-9']</t>
+  </si>
+  <si>
+    <t>['0.9931765239520556', '0.9933714995946257', '0.9947931269945655', '0.9940589087346445', '0.9940558391751665', '0.9949860767778306', '0.995049973256038', '0.993031499579654', '0.9929477868341334', '0.9934727115887556', '0.9954655120142625', '0.99561055056157', '0.9941472440526408', '0.9941507114526856', '0.9947455132824647', '0.9947942038881982', '0.9966910735739348', '0.9968099428179457', '0.9966980500017273', '0.9943386827051073', '0.9941948590587913', '0.9966391723715745', '0.9967790146469566', '0.9967583818065338', '0.9963896874917861']</t>
+  </si>
+  <si>
+    <t>['0.04703874179231229', '0.04699036964057026', '0.046456383276984904', '0.046305526667828896', '0.04615531428854565', '0.04623177647034482', '0.04629554265506551', '0.04636111127489569', '0.04673490444839975', '0.04712561588914342', '0.047061069568697746', '0.0468835212212149', '0.046899324032275605', '0.04680976969423735', '0.04676304879081949', '0.04675694167826572', '0.046815248352436604', '0.046866898047467125', '0.04683546812672654', '0.046768538035563856', '0.04682399075337494', '0.047276694722455916', '0.04731724414645888', '0.04778473468418983', '0.048072266119728736']</t>
+  </si>
+  <si>
+    <t>['13.091463914467488', '13.050293247901147', '12.978709791827393', '12.943600681300952', '12.919006812848068', '12.937990122591655', '12.950416007134644', '12.933543773435543', '12.942642336661484', '12.950296209264213', '12.949120077484471', '12.94655018956471', '12.94851647243813', '13.020827363399679', '13.02118726488263', '13.010319234681464', '13.003486576050141', '13.008887625705144', '13.059475876708365', '13.065429678376058', '13.051106768048959', '13.040888414592468', '13.053634066649082', '13.071637931354523', '13.07486823140277']</t>
+  </si>
+  <si>
+    <t>['1.4499123441167803', '1.4497594204553856', '1.4501428339394231', '1.4476786815776554', '1.4446360528352957', '1.4437497473330883', '1.4438350629869232', '1.4437578739847414', '1.4439402275393673', '1.443368020697835', '1.4413217442425652', '1.4374116172524323', '1.4360179979405034', '1.4374217088590586', '1.4366132545435997', '1.4313660023699177', '1.423834962763458', '1.421546321601923', '1.4236575776138984', '1.4255202359158512', '1.4263287567963467', '1.4256693446941153', '1.4258526686615474', '1.4235837379521472', '1.4221765601718668']</t>
+  </si>
+  <si>
+    <t>['0.5152751964682608', '0.5150846048101206', '0.51455222866203', '0.513655722105039', '0.5126401702501634', '0.5110080130102599', '0.510693315583722', '0.5108953877474712', '0.5108346000365696', '0.5105399175281908', '0.5095353113504416', '0.5069964312821906', '0.5070344515081278', '0.5074520148001361', '0.5072007831751442', '0.5045655327494843', '0.4996864324657196', '0.49963641382457386', '0.5007400750545579', '0.5007545092646509', '0.49974868579430876', '0.49838211238815977', '0.49863832784609974', '0.4998364348348855', '0.5003761962564435']</t>
+  </si>
+  <si>
+    <t>['1.647521771478713', '1.6497303591965449', '1.6498768266610466', '1.6492594785777066', '1.6473592787653104', '1.6409819832311898', '1.638859614054906', '1.6338467557913359', '1.6334340090034627', '1.6332448185206347', '1.6321781459777678', '1.6305456079755758', '1.6291163268500366', '1.630155458142452', '1.6307657804440272', '1.6268210255270883', '1.6207607423693433', '1.6178991664739326', '1.6143400082062014', '1.6118332484021454', '1.608075849813054', '1.6019871102183671', '1.602777903043221', '1.6050185341334398', '1.6056752920247914']</t>
+  </si>
+  <si>
+    <t>['1.1515309250865624', '1.1508790632086505', '1.1472048580684313', '1.145166274606512', '1.1422896765146593', '1.1396981289826693', '1.1393254359722922', '1.1400827908987377', '1.1396448044011545', '1.1389029171638931', '1.1373001113721157', '1.1317340846668111', '1.131594552565608', '1.1344627955869462', '1.1343379719814202', '1.131291516985318', '1.1242710943864185', '1.1237789355674688', '1.1268749971009382', '1.1271276490888427', '1.1259118949550115', '1.1237412678719119', '1.1254592782011814', '1.127010823057982', '1.128272499614647']</t>
+  </si>
+  <si>
+    <t>['44.13632980043855', '44.096917714096094', '44.12516484102822', '44.11774834681087', '44.06812812085985', '44.05564374776022', '44.02296580210231', '43.984310789177904', '43.99626225453358', '43.96544638077441', '43.93137916838789', '43.867759878469386', '43.87563607095674', '43.90921491268666', '43.822059463992616', '43.60587969690195', '43.52345709485459', '43.493158595134915', '43.5516787971088', '43.51591814674859', '43.50257951165648', '43.51322905190507', '43.53964173998617', '43.53844082138641', '43.47567420337231']</t>
+  </si>
+  <si>
+    <t>['0.236339060609397', '0.23591061534209642', '0.2348367877340906', '0.23439801764378684', '0.23386574816516667', '0.23313195295246605', '0.23307862392150064', '0.23337283063981215', '0.2332631464701468', '0.23322905208537914', '0.23292688797211747', '0.232538100096805', '0.23246612806432004', '0.2328555853197408', '0.23296348300043096', '0.232314912591022', '0.23038397664097213', '0.23029228453295975', '0.23143860672040578', '0.23184540775682388', '0.23166686935496653', '0.23143856329140103', '0.23159698459902245', '0.2318248511501998', '0.23188247765843503']</t>
+  </si>
+  <si>
+    <t>['2.6220429242941683', '2.6212798080841444', '2.620612344682178', '2.6114815810975873', '2.602529218652382', '2.5957988462199397', '2.593646368415234', '2.592365880496681', '2.5914191507305353', '2.5899888833683256', '2.58578221730277', '2.5772663425801774', '2.5759143368256345', '2.5809452916669913', '2.582463111923681', '2.574220499253435', '2.5626285305034844', '2.5601961118650265', '2.5651174486546773', '2.5656842460166054', '2.559384078587428', '2.549586703012825', '2.551480236954372', '2.5554544844843377', '2.5581294826424372']</t>
+  </si>
+  <si>
+    <t>['0.16765532020265378', '0.16764441066062302', '0.16762159674812546', '0.16740719918993924', '0.16709914999597222', '0.16638516131950926', '0.16619908460161364', '0.16613678469780682', '0.16597608435223743', '0.16566567722339648', '0.16542381998131694', '0.16502465475068945', '0.16491898261328372', '0.16534011490858622', '0.16529910882751658', '0.1643128067714835', '0.16290800898063384', '0.16273605274516456', '0.16322725205854102', '0.16335632780725093', '0.16301787635207754', '0.16231345357165536', '0.16242631102967406', '0.16246479461061136', '0.16247013346874067']</t>
+  </si>
+  <si>
+    <t>['71.25886970238662', '71.22381988121921', '71.31353299081', '71.26104231485472', '71.1633552367491', '70.94638638590166', '70.87617442148627', '70.7389277927144', '70.73759877165038', '70.81527227651391', '70.72935093421617', '70.57821929011561', '70.47651001665994', '70.5697360393863', '70.45609688747784', '70.0122278950537', '69.86079973675625', '69.7406235912416', '69.807581514661', '69.7532532008092', '69.79332852354449', '69.98713621865504', '70.08861297672088', '70.0295508157717', '69.99009935953164']</t>
+  </si>
+  <si>
+    <t>['49.314485371115694', '49.2948506072306', '49.27246548619912', '49.17482002682345', '49.05636211975649', '48.84019302825611', '48.76154356809543', '48.669872313947735', '48.74743620508653', '48.78927132469046', '48.725279364771175', '48.65321435747507', '48.6247695998713', '48.74697389401928', '48.67363885311432', '48.46907589700798', '48.28254848394736', '48.239813089148505', '48.338797924926844', '48.2944591257773', '48.25802333767671', '48.20223282064902', '48.245128712086526', '48.265760537406344', '48.242296582817204']</t>
+  </si>
+  <si>
+    <t>['786.0229862218175', '784.5798886997425', '783.9647420060567', '784.7423337574653', '783.303462411923', '781.7498447839992', '782.4147682032983', '782.7032218250229', '781.4020598645342', '780.9573398086994', '780.9451525727718', '779.1199179917545', '777.3672441125397', '777.8695109304595', '778.3638832398944', '776.2842017588627', '773.6615580953114', '772.0441161046647', '773.2416923506927', '773.7816015623633', '773.094751665625', '772.8181191968059', '774.2982007052217', '775.3582806754622', '775.7358766969618']</t>
+  </si>
+  <si>
+    <t>['0.3481086756211545', '0.3473669325846939', '0.346854029990112', '0.3437424820048871', '0.3387879288070189', '0.32673831219419397', '0.3188165273558444', '0.31655427405773295', '0.315454258274982', '0.3142563960716473', '0.31295259523797847', '0.30827442160335267', '0.30758864278350784', '0.3085480335774875', '0.3083913760610311', '0.30765179472039145', '0.3073091615449599', '0.3073452157466217', '0.30899595152919196', '0.3097161522167616', '0.30938925410937645', '0.307539043304718', '0.30774232650529476', '0.30788490022484616', '0.3071814496683217']</t>
+  </si>
+  <si>
+    <t>['1.00121959693782', '1.0011808342149304', '1.001266344858946', '1.0018176533283523', '1.0022562918568036', '1.0381919152926438', '1.0219371367349162', '1.00329019889244', '1.0286759380690167', '1.0380217531969753', '1.0388186270480535', '1.039396166439247', '1.0398662986072613', '1.0396183475260055', '1.0398475948095594', '1.0404554047384011', '1.0405616529726114', '1.0411589471383247', '1.0417795174374187', '1.0414658938760455', '1.0402870840235985', '1.0401521858335463', '1.0403835360843816', '1.041112589150392', '1.0410878550404181']</t>
+  </si>
+  <si>
+    <t>['0.997253180628041', '0.9976911295446909', '0.998193445378061', '0.9985089429322945', '0.9986560762810582', '0.9995462159419798', '0.9990127151186061', '0.9989067049145678', '0.9992779837597973', '0.9993435434190662', '0.9999277839155543', '1.000199634030215', '1.0001399625903207', '0.9997709532406176', '0.9997286249792375', '1.002274089837649', '1.0031453116380518', '1.0028014937093306', '1.0011481463435195', '1.001070682182369', '1.0011855752988081', '1.0012269086601755', '1.0011833115017144', '1.0008662611267087', '1.0008346360269764']</t>
+  </si>
+  <si>
+    <t>['5.568336060477656', '5.565632663831747', '5.56164160719383', '5.552874692483467', '5.541723263972481', '5.528876921572554', '5.52615862087841', '5.527595886184724', '5.527060872001017', '5.526722053686703', '5.5237136234191775', '5.522304560716219', '5.516987013961722', '5.520123137661457', '5.51746000344255', '5.495613837312591', '5.467516879485375', '5.468520687062994', '5.491779940201335', '5.498259626230022', '5.490789896868429', '5.4817917388229915', '5.48513323742675', '5.490713900358108', '5.493645750611083']</t>
+  </si>
+  <si>
+    <t>['0.000038537335652564', '0.000038528113846135', '0.00003843729217752', '0.000038385419444287', '0.0000382856160545', '0.000038121444428484', '0.000038063112110672', '0.000037997955714587', '0.000037980132403396', '0.000037983236096051', '0.000037955188807882', '0.000037813231192118', '0.000037786070680928', '0.0000377370406453', '0.000037708099071445', '0.000037586039826191', '0.000037372066287853', '0.000037384280295013', '0.000037480431853656', '0.000037497840442577', '0.000037449920558728', '0.000037310036947237', '0.000037324432876891', '0.000037402402071619', '0.000037443819948905']</t>
+  </si>
+  <si>
+    <t>['0.9704811096777852', '0.9702214279300192', '0.9682145538430129', '0.9679308746188185', '0.9668201810911514', '0.9630639138759887', '0.9621359361436728', '0.9606651336414291', '0.9593818778665028', '0.9569505866152437', '0.9547484194088325', '0.947007404487702', '0.9461344920032666', '0.9477413140171238', '0.9479557445551868', '0.9458095700114697', '0.9405305594287408', '0.9395643072861234', '0.9413128638725055', '0.9414929309199239', '0.9413558202397476', '0.9404049391897317', '0.9410910272947633', '0.9421294208152021', '0.9425810409906447']</t>
+  </si>
+  <si>
+    <t>['4.958788599141682', '4.960217913100384', '4.965760282745817', '4.968494217052462', '4.971345709703087', '4.97050982193809', '4.971110164052226', '4.970385586261205', '4.9693571440126965', '4.970094198332123', '4.970750373506446', '4.970753743574475', '4.970683572517877', '4.97084815626377', '4.970313164984601', '4.9675997987467495', '4.967597529230072', '4.966377015309132', '4.965439476604799', '4.956244374025339', '4.944810971734235', '4.946703264012602', '4.951159123204441', '4.951169208937343', None]</t>
+  </si>
+  <si>
+    <t>['0.2558386120358713', '0.25587848714100647', '0.25610392695512146', '0.25618648014183687', '0.2561160701493846', '0.2550150393849632', '0.25460231317991505', '0.2540676028548023', '0.2541289701021533', '0.25414925644878444', '0.2539303709790574', '0.2530475848726269', '0.25293271263657247', '0.253052221070582', '0.2529659898566024', '0.25224059769807095', '0.2506914726221274', '0.25066360902736345', '0.2508635031894932', '0.2507300219227412', '0.25048973071479125', '0.25008323161282364', '0.250277506668493', '0.2506199219348339', '0.25091716998397967']</t>
+  </si>
+  <si>
+    <t>['7.38209920816e-7', '7.38449012417e-7', '7.3896959159e-7', '7.3943628884e-7', '7.39025116627e-7', '7.38738314043e-7', '7.39374574406e-7', '7.3883878203e-7', '7.38653639916e-7', '7.38787971026e-7', '7.37411042715e-7', '7.36331785041e-7', '7.3585333611e-7', '7.35149196211e-7', '7.35149713173e-7', '7.3458640979e-7', '7.35530993914e-7', '7.35680407796e-7', '7.35405228745e-7', '7.34597307196e-7', '7.34330180657e-7', '7.34962877568e-7', '7.3536547557e-7', '7.35788358212e-7', '7.35369632882e-7']</t>
+  </si>
+  <si>
+    <t>['0.003499432241484162', '0.003498770288845298', '0.003498278802146651', '0.003500185342801196', '0.003500678365598637', '0.003497058838255442', '0.003496380174648177', '0.003494571026423238', '0.003489152309598547', '0.003489328556094548', '0.003489107556956922', '0.003489458023482142', '0.003485271965136664', '0.003451507072766905', '0.003451562810581797', '0.003445578427968167', '0.003442719594922671', '0.003443689344445971', '0.00344669285626575', '0.003446133284760932', '0.003442974249057868', '0.003441518798516668', '0.003442091149856546', '0.00344776023955445', '0.003448311531525998']</t>
+  </si>
+  <si>
+    <t>['0.03346899392485547', '0.033478672097700266', '0.033441468681817736', '0.03340685097396929', '0.033323262945770774', '0.03323502808369334', '0.033160231904694', '0.03315444725745174', '0.03316112579923344', '0.03323998463022897', '0.03323034424185637', '0.03310318549248686', '0.03302595051867321', '0.03304220282220906', '0.03304488364811821', '0.03292686902957534', '0.03270451362363789', '0.03260741432066187', '0.032623851129310814', '0.03266715199252597', '0.032655164388995545', '0.03259918413150266', '0.03260343495017573', '0.03264267687805512', '0.03268588049539062']</t>
+  </si>
+  <si>
+    <t>['8.95354775280975', '8.953164172309652', '8.942700935782543', '8.952917610795474', '8.952312903931626', '8.938374112898872', '8.93855281006115', '8.94169191129706', '8.941667150684331', '8.943936370032741', '8.943998321105957', '8.945116899859686', '8.945221338368567', '8.948622885710705', '8.94815259730372', '8.940026766219102', '8.940076142073062', '8.940059863563487', '8.940038728724133', '8.939367738319', '8.925768283492062', None, None, None, None]</t>
+  </si>
+  <si>
+    <t>['10.780204203838121', '10.779361637543898', '10.767486220405559', '10.749926718189458', '10.725301817761666', '10.700468353033209', '10.694574844175715', '10.695193211303277', '10.68738336154891', '10.68415695268395', '10.678085788822532', '10.663968919379887', '10.655879737821719', '10.666736684922148', '10.667940546549694', '10.637139342213853', '10.551839529049326', '10.542697404701247', '10.558545480461275', '10.56526718227422', '10.556139978646495', '10.528435934330943', '10.535812094354855', '10.548858630006203', '10.55393386880148']</t>
+  </si>
+  <si>
+    <t>['0.6876600155930767', '0.6911350761872999', '0.7018249862932311', '0.7051200259044437', '0.7071230669447148', '0.7082454728135101', '0.7103815029627688', '0.7165711324354012', '0.7085597666376806', '0.6997968159409653', '0.7001147896406764', '0.6992677438569442', '0.6976886379982925', '0.6935858578966667', '0.6907282291100871', '0.6860716653985363', '0.6775895270656211', '0.6776171746875402', '0.6832083750946447', '0.6847659983003437', '0.6866162740097232', '0.6888145859282292', '0.6883625751970258', '0.6837348943548675', '0.6809069580426412']</t>
+  </si>
+  <si>
+    <t>['0.06256945138338531', '0.062411092479221546', '0.06246312896185089', '0.06246743280957955', '0.06274284589962471', '0.06291145816999173', '0.06298927983357751', '0.06279243192844279', '0.06289888951898581', '0.06306559508072299', '0.0630689505286041', '0.06307200850944475', '0.06305488329480267', '0.06297956705282509', '0.06297827754678272', '0.06303738299932236', '0.06313384206784557', '0.06313473903980982', '0.0630961845513923', '0.06297314924801005', '0.06291216868357888', '0.06293664110756883', '0.06300890122410559', '0.0630283379534618', '0.06300553618283193']</t>
+  </si>
+  <si>
+    <t>['1.0010204850022142', '1.0010522178697576', '1.0013400355694184', '1.0021629959659075', '1.0025432238652727', '1.0023933647668777', '1.002859701977673', '1.0034943959556266', '1.0024781181497786', '1.002034542232028', '1.0029421148527844', '1.0041032952211142', '1.0042033219756212', '1.0042185441679554', '1.004328031897907', '1.0048056623937645', '1.0050573916194443', '1.006096518973622', '1.0085753711196943', '1.008749150445557', '1.0058733204845338', '1.0048318296906964', '1.0049100934681043', '1.0060711681557275', '1.0065322730051787']</t>
+  </si>
+  <si>
+    <t>['1.006338414802332', '1.0102778898296656', '1.0223054790663573', '1.0187635069038103', '1.0218009019473842', '1.018308361158128', '1.0213501082695062', '1.0225590691396977', '1.0134790026649863', '1.0085573320308703', '1.0103902982652013', '1.020124069323425', '1.025151834159325', '1.019643866078906', '1.0235281544834618', '1.0206610308005686', '1.0215137240580778', '1.0260791165866734', '1.020861176055789', '1.0263272653500712', '1.0202339114099248', '1.0208566002893247', '1.0252820253322432', '1.0198699288112265', '1.023680167084862']</t>
+  </si>
+  <si>
+    <t>['0.03451900121911538', '0.034530806389237834', '0.034559365209493015', '0.034530839579199946', '0.034476457787104876', '0.03435403865844529', '0.03431907634358994', '0.034303125138654175', '0.03431171900654263', '0.034320967500903736', '0.03430677023844305', '0.03426790964658577', '0.0342504549032068', '0.03420894269473461', '0.034163762887478744', '0.03404914617217174', '0.03377273012639762', '0.03376709476414161', '0.03388970782087873', '0.03388412571456656', '0.03381449595112822', '0.03368466105877498', '0.03371823265469688', '0.033773560783740636', '0.03382334245442291']</t>
+  </si>
+  <si>
+    <t>['0.3941418189406288', '0.39501295950816473', '0.3957314686846703', '0.3960527061123543', '0.3958318729105819', '0.39482999556302223', '0.3955684610264527', '0.3946007775751145', '0.39317436382046467', '0.3927187827399829', '0.38963391146610876', '0.3855819289599392', None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
+  </si>
+  <si>
+    <t>['30.60039970165533', '30.77243738472867', '30.869296288182486', '30.9221707173243', '30.8595468273777', '30.861896764739104', '30.876305806254237', '30.824833948846468', '30.772485643140975', '30.798491013201698', '30.836978195862798', '30.816409064131896', '30.764546150000996', '30.80563755940179', '30.696685787309235', '30.637722294448587', '30.604687547288822', '30.568079356259073', '30.577178297713708', '30.538947489840517', '30.494346083599208', '30.49493167185249', '30.52178002289229', '30.5028277105326', '30.527981023797633']</t>
+  </si>
+  <si>
+    <t>['1.2367291613711164', '1.2368445565837658', '1.2369137756433', '1.2377993625031176', '1.2374646428423428', '1.2380948732625408', '1.2388087330660702', '1.2357969823978157', '1.2333573090849004', '1.2325481024542941', '1.2329269374174163', '1.2297611994894322', '1.2277656191149189', '1.2251944758338023', '1.2238195590351653', '1.2239006320662078', '1.224277271384773', '1.2248019533099528', '1.2256111457814356', '1.2242652486341177', '1.2232130757130233', '1.2229796287412085', '1.2231097323842632', '1.2231465965811226', '1.2212049512456162']</t>
+  </si>
+  <si>
+    <t>['1.6410701867278754', '1.6415115080868279', '1.6395044320270116', '1.6369541401376635', '1.6337529180628898', '1.6297984331262585', '1.6303954667787088', '1.6326216612500941', '1.6292303386491116', '1.6274230573455981', '1.6281434969382127', '1.627837427938551', '1.6268785726968542', '1.625336102497541', '1.6246851934609936', '1.6207664063607323', '1.6142422912079997', '1.6138218775879454', '1.6151097757484378', '1.6148775941552982', '1.6129475041794081', '1.6110232403003844', '1.6116256501289932', '1.6150267207621807', '1.6165203160132002']</t>
+  </si>
+  <si>
+    <t>['0.02222219919500832', '0.02222219772132156', '0.02222289699236469', '0.02222289735808165', '0.022232609260661545', '0.022232611611299757', '0.022240801645439744', '0.022240804349357077', '0.022238763933994793', '0.022238762810643718', '0.02226445697536519', '0.022264463611887306', '0.022246241285257984', '0.022246235214169238', '0.022275825158999597', '0.022275832875536423', '0.02228232050345362', '0.022263011497418966', '0.02226300456901269', '0.022306821370937105', '0.022306830789205066', '0.022282336229025874', '0.022282332782332482', None, None]</t>
+  </si>
+  <si>
+    <t>['1.7637603644214332', '1.7635617313604464', '1.7630412341223964', '1.7621648891199362', '1.7608202143253542', '1.7587560671320288', '1.7576872136261144', '1.7591624178018301', '1.758602745448163', '1.757463976537607', '1.756328916666815', '1.755078930622152', '1.7543734789565535', '1.7538619266636415', '1.7532501613105969', '1.7498409566294297', '1.7416038810689587', '1.7394269829142295', '1.7390053971277808', '1.7393129377353687', '1.7380194431204519', '1.734461427870036', '1.7338663493124247', '1.7349377691128678', '1.7358267794003697']</t>
+  </si>
+  <si>
+    <t>['6.5186003969352155', '6.523017549954273', '6.523801858994188', '6.526934198052177', '6.525906263489505', '6.521785928968652', '6.520212787200157', '6.513921670607909', '6.514747272042515', '6.51804892849608', '6.5158354684521065', '6.508646173581165', '6.509696559969912', '6.513903581886194', '6.516032372400262', '6.524532855994722', '6.521096812562997', '6.507357753627641', '6.513063626836546', '6.535691202139362', '6.534483613320239', '6.529670489960203', '6.5270729767826285', '6.516741792618122', None]</t>
+  </si>
+  <si>
+    <t>['2.517697112643998', '2.51601832351018', '2.512763302325645', '2.507703714996167', '2.4988185189052596', '2.4893042271968864', '2.4861118979952965', '2.4829770742522905', '2.4835035209678464', '2.4821282464107877', '2.4775175226690758', '2.4674490520403105', '2.4632701321128647', '2.464835288602746', '2.461275253315606', '2.4489289393424465', '2.430904839071607', '2.4290670124721805', '2.435485269854851', '2.4356157358799257', '2.430847206085377', '2.41961383939871', '2.422821820832164', '2.424996296555334', '2.4260709624339376']</t>
+  </si>
+  <si>
+    <t>['0.42564792400460016', '0.42532206774555054', '0.42455396117294175', '0.4233640968656285', '0.4220604531424959', '0.42094001177928114', '0.42075310743697364', '0.4206374241302892', '0.4206228291166691', '0.42027435201184765', '0.4197108456182892', '0.4185786105788825', '0.4183530600445657', '0.41931843296070037', '0.4188815200334498', '0.41676018494069456', '0.41433851779498937', '0.41365308807658474', '0.4140217172070816', '0.41406034378223444', '0.4133917382300199', '0.4128201275353139', '0.41332326164249494', '0.4140033462133371', '0.4145266167557819']</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/Qwsogvtv82FCd+bitcoin-btc</t>
@@ -2650,39 +2716,39 @@
     <t>https://coinranking.com/coin/hnfQfsYfeIGUQ+ethereumclassic-etc</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/3mVx2FX_iJFp5+monero-xmr</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/ymQub4fuB+filecoin-fil</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/ZlZpzOJo43mIo+bitcoincash-bch</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/DXwP4wF9ksbBO+huobitoken-ht</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/3mVx2FX_iJFp5+monero-xmr</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/ZlZpzOJo43mIo+bitcoincash-bch</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/ymQub4fuB+filecoin-fil</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/08CsQa-Ov+wemixtoken-wemix</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/CiixT63n3+wrappedliquidstakedether20-wsteth</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/jad286TjB+hedera-hbar</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/aMNLwaUbY+internetcomputerdfinity-icp</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/Z96jIvLU7+immutablex-imx</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/FEbS54wxo4oIl+vechain-vet</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/jad286TjB+hedera-hbar</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/aMNLwaUbY+internetcomputerdfinity-icp</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/TpHE2IShQw-sJ+algorand-algo</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/Z96jIvLU7+immutablex-imx</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/f3iaFeCKEmkaZ+stellar-xlm</t>
   </si>
   <si>
@@ -2701,36 +2767,36 @@
     <t>https://coinranking.com/coin/SbWqqTui-+energyswap-ens</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/DCrsaMv68+nearprotocol-near</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/tEf7-dnwV3BXS+decentraland-mana</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/DCrsaMv68+nearprotocol-near</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/ncYFcP709+pancakeswap-cake</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/KfWtaeV1W+frax-frax</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/65PHZTpmE55b+cronos-cro</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/KfWtaeV1W+frax-frax</t>
+    <t>https://coinranking.com/coin/bauj_21eYVwso+quant-qnt</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/QQ0NCmjVq+flow-flow</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/bauj_21eYVwso+quant-qnt</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/ixgUfzmLR+aave-aave</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/B42IRxNtoYmwK+thetatoken-theta</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/omwkOTglq+elrond-egld</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/B42IRxNtoYmwK+thetatoken-theta</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/iAzbfXiBBKkR6+eos-eos</t>
   </si>
   <si>
@@ -2752,10 +2818,13 @@
     <t>https://coinranking.com/coin/JCKLgWPAF+paxdollar-usdp</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/drWC87t2Vozh+ankr-ankr</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/cVaOmQWainv7g+neo-neo</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/drWC87t2Vozh+ankr-ankr</t>
+    <t>https://coinranking.com/coin/ql3Jj4Tge+sushi-sushi</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/uIEWfMFnQo9K_+fantom-ftm</t>
@@ -2767,15 +2836,12 @@
     <t>https://coinranking.com/coin/QGbUTVMjG+curvedaotoken-crv</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/ql3Jj4Tge+sushi-sushi</t>
+    <t>https://coinranking.com/coin/VcMY11NONHSA0+bitcoinsv-bsv</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/k-J3YwacF+woonetwork-woo</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/VcMY11NONHSA0+bitcoinsv-bsv</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/sgxZRXbK0FDc+synthetixnetwork-snx</t>
   </si>
   <si>
@@ -2788,688 +2854,688 @@
     <t>https://coinranking.com/coin/aRGRWLf2RYNq4+zcash-zec</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/qFakph2rpuMOL+maker-mkr</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/M9bj_WrX+klaytn-klay</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/B8xT718SbVhhh+paxosstandard-pax</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/z2PZIKQL7+usdd-usdd</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/w5U609Wze+apecoin-ape</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/aQx_vW8s1+ecash-xec</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/J7st_qGwz+minaprotocoltoken-mina</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/qFakph2rpuMOL+maker-mkr</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/w5U609Wze+apecoin-ape</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/aQx_vW8s1+ecash-xec</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/M9bj_WrX+klaytn-klay</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/t7m8DZVyMsAu+gatetoken-gt</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/z2PZIKQL7+usdd-usdd</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/LtWwuVANwRzV_+iota-miota</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/w4MqH_Xe8+bittorrent-new-btt</t>
+  </si>
+  <si>
+    <t>https://coinranking.com/coin/sfab31CXM+bloktopia-blok</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/Ru56fDlLB56-v+ravencoin-rvn</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/sfab31CXM+bloktopia-blok</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/B8xT718SbVhhh+paxosstandard-pax</t>
-  </si>
-  <si>
-    <t>https://coinranking.com/coin/w4MqH_Xe8+bittorrent-new-btt</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/LOO6LmXd7G84Z+kucointoken-kcs</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/gpRKmM16k+axieinfinity-axs</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/mMPrMcB7+stacks-stx</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/WMDlfMJ1W+apollox-apx</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/1ZZI6g5k5royD+trueusd-tusd</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/mMPrMcB7+stacks-stx</t>
+    <t>https://coinranking.com/coin/T93ksC96YL_Gc+geminidollar-gusd</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/3jmxrjOJ8xa4p+zilliqa-zil</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/T93ksC96YL_Gc+geminidollar-gusd</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/q7gMmMdLb+bitgettoken-bgb</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/AP-fyKlSf+okc-okt</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/QUC5kVAxSoB-+mxtoken-mx</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/NfeOYfNcl+ftxtoken-ftt</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/QUC5kVAxSoB-+mxtoken-mx</t>
-  </si>
-  <si>
     <t>https://coinranking.com/coin/lT__vMO7l+compounddai-cdai</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/ybmU-kKU+thorchain-rune</t>
   </si>
   <si>
+    <t>https://coinranking.com/coin/frw2fHgZ+tokenizexchange-tkx</t>
+  </si>
+  <si>
     <t>https://coinranking.com/coin/n1p-s_gm1+optimism-op</t>
   </si>
   <si>
     <t>https://coinranking.com/coin/Au8mNo2ZIlJfL+loopring-lrc</t>
   </si>
   <si>
-    <t>https://coinranking.com/coin/frw2fHgZ+tokenizexchange-tkx</t>
-  </si>
-  <si>
-    <t>28032713441</t>
-  </si>
-  <si>
-    <t>7779724627</t>
-  </si>
-  <si>
-    <t>41029381054</t>
-  </si>
-  <si>
-    <t>691635952</t>
-  </si>
-  <si>
-    <t>2876171911</t>
-  </si>
-  <si>
-    <t>1220880943</t>
-  </si>
-  <si>
-    <t>379634672</t>
-  </si>
-  <si>
-    <t>10780030522</t>
-  </si>
-  <si>
-    <t>716564133</t>
-  </si>
-  <si>
-    <t>47070861</t>
-  </si>
-  <si>
-    <t>419601217</t>
-  </si>
-  <si>
-    <t>1000265239</t>
-  </si>
-  <si>
-    <t>425373760</t>
-  </si>
-  <si>
-    <t>366859631</t>
-  </si>
-  <si>
-    <t>420150413</t>
-  </si>
-  <si>
-    <t>874192110</t>
-  </si>
-  <si>
-    <t>798718771</t>
-  </si>
-  <si>
-    <t>400606766</t>
-  </si>
-  <si>
-    <t>531217868</t>
-  </si>
-  <si>
-    <t>181900887</t>
-  </si>
-  <si>
-    <t>122734291</t>
-  </si>
-  <si>
-    <t>255228558</t>
-  </si>
-  <si>
-    <t>334825225</t>
-  </si>
-  <si>
-    <t>25046738</t>
-  </si>
-  <si>
-    <t>243159917</t>
-  </si>
-  <si>
-    <t>694360496</t>
-  </si>
-  <si>
-    <t>44718976</t>
-  </si>
-  <si>
-    <t>133117861</t>
-  </si>
-  <si>
-    <t>420504779</t>
-  </si>
-  <si>
-    <t>694480681</t>
-  </si>
-  <si>
-    <t>61549338</t>
-  </si>
-  <si>
-    <t>10063538</t>
-  </si>
-  <si>
-    <t>201489297</t>
-  </si>
-  <si>
-    <t>65771496</t>
-  </si>
-  <si>
-    <t>93366493</t>
-  </si>
-  <si>
-    <t>149805561</t>
-  </si>
-  <si>
-    <t>59009001</t>
-  </si>
-  <si>
-    <t>125892674</t>
-  </si>
-  <si>
-    <t>86625130</t>
-  </si>
-  <si>
-    <t>46020898</t>
-  </si>
-  <si>
-    <t>207406724</t>
-  </si>
-  <si>
-    <t>324257677</t>
-  </si>
-  <si>
-    <t>13540522</t>
-  </si>
-  <si>
-    <t>170692555</t>
-  </si>
-  <si>
-    <t>187679596</t>
-  </si>
-  <si>
-    <t>47126324</t>
-  </si>
-  <si>
-    <t>96214940</t>
-  </si>
-  <si>
-    <t>3058534</t>
-  </si>
-  <si>
-    <t>115910786</t>
-  </si>
-  <si>
-    <t>40096276</t>
-  </si>
-  <si>
-    <t>138069865</t>
-  </si>
-  <si>
-    <t>50650265</t>
-  </si>
-  <si>
-    <t>63202333</t>
-  </si>
-  <si>
-    <t>198983119</t>
-  </si>
-  <si>
-    <t>52285490</t>
-  </si>
-  <si>
-    <t>2986248</t>
-  </si>
-  <si>
-    <t>59743728</t>
-  </si>
-  <si>
-    <t>129460585</t>
-  </si>
-  <si>
-    <t>24132727</t>
-  </si>
-  <si>
-    <t>2678873</t>
-  </si>
-  <si>
-    <t>670772795</t>
-  </si>
-  <si>
-    <t>899158141</t>
-  </si>
-  <si>
-    <t>445787477</t>
-  </si>
-  <si>
-    <t>155259200</t>
-  </si>
-  <si>
-    <t>161783229</t>
-  </si>
-  <si>
-    <t>71454718</t>
-  </si>
-  <si>
-    <t>47595426</t>
-  </si>
-  <si>
-    <t>140712422</t>
-  </si>
-  <si>
-    <t>58603916</t>
-  </si>
-  <si>
-    <t>170683131</t>
-  </si>
-  <si>
-    <t>118562382</t>
-  </si>
-  <si>
-    <t>137520102</t>
-  </si>
-  <si>
-    <t>102489791</t>
-  </si>
-  <si>
-    <t>40076220</t>
-  </si>
-  <si>
-    <t>128126947</t>
-  </si>
-  <si>
-    <t>74928963</t>
-  </si>
-  <si>
-    <t>160933262</t>
-  </si>
-  <si>
-    <t>1892796</t>
-  </si>
-  <si>
-    <t>44476909</t>
-  </si>
-  <si>
-    <t>17404566</t>
-  </si>
-  <si>
-    <t>33867578</t>
-  </si>
-  <si>
-    <t>2700820</t>
-  </si>
-  <si>
-    <t>1754495</t>
-  </si>
-  <si>
-    <t>16706086</t>
-  </si>
-  <si>
-    <t>1733981</t>
-  </si>
-  <si>
-    <t>194082498</t>
-  </si>
-  <si>
-    <t>3614843</t>
-  </si>
-  <si>
-    <t>47062652</t>
-  </si>
-  <si>
-    <t>641482114</t>
-  </si>
-  <si>
-    <t>216120017</t>
-  </si>
-  <si>
-    <t>666412</t>
-  </si>
-  <si>
-    <t>23817295</t>
-  </si>
-  <si>
-    <t>12137100</t>
-  </si>
-  <si>
-    <t>19191886</t>
-  </si>
-  <si>
-    <t>3490982</t>
-  </si>
-  <si>
-    <t>15210498</t>
-  </si>
-  <si>
-    <t>61207735</t>
-  </si>
-  <si>
-    <t>213336098</t>
-  </si>
-  <si>
-    <t>79960047</t>
-  </si>
-  <si>
-    <t>20152790</t>
+    <t>32829931793</t>
+  </si>
+  <si>
+    <t>8781290433</t>
+  </si>
+  <si>
+    <t>45778529702</t>
+  </si>
+  <si>
+    <t>685767598</t>
+  </si>
+  <si>
+    <t>2682514592</t>
+  </si>
+  <si>
+    <t>1303863110</t>
+  </si>
+  <si>
+    <t>381355537</t>
+  </si>
+  <si>
+    <t>9265134483</t>
+  </si>
+  <si>
+    <t>782301567</t>
+  </si>
+  <si>
+    <t>42601073</t>
+  </si>
+  <si>
+    <t>468148848</t>
+  </si>
+  <si>
+    <t>1000354869</t>
+  </si>
+  <si>
+    <t>443461432</t>
+  </si>
+  <si>
+    <t>364533486</t>
+  </si>
+  <si>
+    <t>436126714</t>
+  </si>
+  <si>
+    <t>1192501691</t>
+  </si>
+  <si>
+    <t>729872724</t>
+  </si>
+  <si>
+    <t>348180152</t>
+  </si>
+  <si>
+    <t>612408572</t>
+  </si>
+  <si>
+    <t>178937257</t>
+  </si>
+  <si>
+    <t>106620762</t>
+  </si>
+  <si>
+    <t>236683313</t>
+  </si>
+  <si>
+    <t>224228917</t>
+  </si>
+  <si>
+    <t>26325702</t>
+  </si>
+  <si>
+    <t>241514530</t>
+  </si>
+  <si>
+    <t>675872307</t>
+  </si>
+  <si>
+    <t>109236054</t>
+  </si>
+  <si>
+    <t>820582855</t>
+  </si>
+  <si>
+    <t>338437520</t>
+  </si>
+  <si>
+    <t>44935212</t>
+  </si>
+  <si>
+    <t>58799047</t>
+  </si>
+  <si>
+    <t>11669379</t>
+  </si>
+  <si>
+    <t>73467902</t>
+  </si>
+  <si>
+    <t>92296777</t>
+  </si>
+  <si>
+    <t>63400632</t>
+  </si>
+  <si>
+    <t>287605484</t>
+  </si>
+  <si>
+    <t>146889697</t>
+  </si>
+  <si>
+    <t>131677275</t>
+  </si>
+  <si>
+    <t>92998856</t>
+  </si>
+  <si>
+    <t>48179216</t>
+  </si>
+  <si>
+    <t>197558213</t>
+  </si>
+  <si>
+    <t>337452585</t>
+  </si>
+  <si>
+    <t>13395102</t>
+  </si>
+  <si>
+    <t>195161745</t>
+  </si>
+  <si>
+    <t>182937705</t>
+  </si>
+  <si>
+    <t>58268175</t>
+  </si>
+  <si>
+    <t>3084991</t>
+  </si>
+  <si>
+    <t>99393939</t>
+  </si>
+  <si>
+    <t>39302634</t>
+  </si>
+  <si>
+    <t>117963230</t>
+  </si>
+  <si>
+    <t>120238289</t>
+  </si>
+  <si>
+    <t>90973335</t>
+  </si>
+  <si>
+    <t>48733531</t>
+  </si>
+  <si>
+    <t>224046579</t>
+  </si>
+  <si>
+    <t>129334272</t>
+  </si>
+  <si>
+    <t>4175193</t>
+  </si>
+  <si>
+    <t>61587845</t>
+  </si>
+  <si>
+    <t>168722009</t>
+  </si>
+  <si>
+    <t>25155236</t>
+  </si>
+  <si>
+    <t>2762300</t>
+  </si>
+  <si>
+    <t>1037234331</t>
+  </si>
+  <si>
+    <t>515708978</t>
+  </si>
+  <si>
+    <t>77978472</t>
+  </si>
+  <si>
+    <t>452422687</t>
+  </si>
+  <si>
+    <t>124634837</t>
+  </si>
+  <si>
+    <t>161198437</t>
+  </si>
+  <si>
+    <t>126013159</t>
+  </si>
+  <si>
+    <t>50605068</t>
+  </si>
+  <si>
+    <t>62101752</t>
+  </si>
+  <si>
+    <t>174058565</t>
+  </si>
+  <si>
+    <t>110867556</t>
+  </si>
+  <si>
+    <t>158148045</t>
+  </si>
+  <si>
+    <t>41889845</t>
+  </si>
+  <si>
+    <t>250417203</t>
+  </si>
+  <si>
+    <t>1989286</t>
+  </si>
+  <si>
+    <t>58517119</t>
+  </si>
+  <si>
+    <t>154186819</t>
+  </si>
+  <si>
+    <t>70278570</t>
+  </si>
+  <si>
+    <t>121331271</t>
+  </si>
+  <si>
+    <t>1574441</t>
+  </si>
+  <si>
+    <t>17390643</t>
+  </si>
+  <si>
+    <t>19542756</t>
+  </si>
+  <si>
+    <t>1597243</t>
+  </si>
+  <si>
+    <t>38995292</t>
+  </si>
+  <si>
+    <t>1883628</t>
+  </si>
+  <si>
+    <t>152812964</t>
+  </si>
+  <si>
+    <t>631368929</t>
+  </si>
+  <si>
+    <t>2182397</t>
+  </si>
+  <si>
+    <t>50647150</t>
+  </si>
+  <si>
+    <t>773969</t>
+  </si>
+  <si>
+    <t>229728556</t>
+  </si>
+  <si>
+    <t>24356356</t>
+  </si>
+  <si>
+    <t>19509033</t>
+  </si>
+  <si>
+    <t>3245111</t>
+  </si>
+  <si>
+    <t>16468630</t>
+  </si>
+  <si>
+    <t>13287702</t>
+  </si>
+  <si>
+    <t>61533333</t>
+  </si>
+  <si>
+    <t>8941239</t>
+  </si>
+  <si>
+    <t>225346537</t>
+  </si>
+  <si>
+    <t>89988966</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>0.06797876011765236</t>
-  </si>
-  <si>
-    <t>0.000040638857105479</t>
-  </si>
-  <si>
-    <t>0.012726364477768122</t>
-  </si>
-  <si>
-    <t>0.000040625882601404</t>
-  </si>
-  <si>
-    <t>0.000015960806694483</t>
-  </si>
-  <si>
-    <t>0.000016036801547536</t>
-  </si>
-  <si>
-    <t>0.000040649236123211</t>
-  </si>
-  <si>
-    <t>0.000056956910296228</t>
-  </si>
-  <si>
-    <t>0.002066707032202475</t>
-  </si>
-  <si>
-    <t>0.000003510817509204</t>
-  </si>
-  <si>
-    <t>0.001023298537476272</t>
-  </si>
-  <si>
-    <t>0.000297734373631312</t>
-  </si>
-  <si>
-    <t>5.33734537e-10</t>
-  </si>
-  <si>
-    <t>0.000313045852468546</t>
-  </si>
-  <si>
-    <t>0.06817099805852633</t>
-  </si>
-  <si>
-    <t>0.00381614784563061</t>
-  </si>
-  <si>
-    <t>0.000002846485980911</t>
-  </si>
-  <si>
-    <t>0.000856630321804983</t>
-  </si>
-  <si>
-    <t>0.000287413455825765</t>
-  </si>
-  <si>
-    <t>0.000040617626486479</t>
-  </si>
-  <si>
-    <t>0.000565549686545753</t>
-  </si>
-  <si>
-    <t>0.9996681080182459</t>
-  </si>
-  <si>
-    <t>0.000095047681550034</t>
-  </si>
-  <si>
-    <t>0.000112859035867602</t>
-  </si>
-  <si>
-    <t>0.000937112721296324</t>
-  </si>
-  <si>
-    <t>0.000238190346379167</t>
-  </si>
-  <si>
-    <t>0.00648683850489893</t>
-  </si>
-  <si>
-    <t>0.005948048706045265</t>
-  </si>
-  <si>
-    <t>0.000339829455580317</t>
-  </si>
-  <si>
-    <t>0.000101250142451272</t>
-  </si>
-  <si>
-    <t>0.07565644857724878</t>
-  </si>
-  <si>
-    <t>0.000001253005981017</t>
-  </si>
-  <si>
-    <t>0.000003368285281699</t>
-  </si>
-  <si>
-    <t>0.000283008646077871</t>
-  </si>
-  <si>
-    <t>0.000011376108540758</t>
-  </si>
-  <si>
-    <t>0.000040187739005469</t>
-  </si>
-  <si>
-    <t>0.000003912294664394</t>
-  </si>
-  <si>
-    <t>0.000061920276645445</t>
-  </si>
-  <si>
-    <t>0.000417781180235309</t>
-  </si>
-  <si>
-    <t>0.000032124437970387</t>
-  </si>
-  <si>
-    <t>0.000548563219961092</t>
-  </si>
-  <si>
-    <t>0.000676174452407728</t>
-  </si>
-  <si>
-    <t>0.000028837858223241</t>
-  </si>
-  <si>
-    <t>0.00010402488902838</t>
-  </si>
-  <si>
-    <t>0.000169375792816278</t>
-  </si>
-  <si>
-    <t>0.000003518499080043</t>
-  </si>
-  <si>
-    <t>0.00004060479875637</t>
-  </si>
-  <si>
-    <t>0.000053889829609779</t>
-  </si>
-  <si>
-    <t>0.005596242434471259</t>
-  </si>
-  <si>
-    <t>0.003573766934856797</t>
-  </si>
-  <si>
-    <t>0.002117852616585839</t>
-  </si>
-  <si>
-    <t>0.000050402870129195</t>
-  </si>
-  <si>
-    <t>0.000049770111094913</t>
-  </si>
-  <si>
-    <t>0.000049785397656893</t>
-  </si>
-  <si>
-    <t>0.007463228200057925</t>
-  </si>
-  <si>
-    <t>6.802639543e-9</t>
-  </si>
-  <si>
-    <t>0.000005709706548518</t>
-  </si>
-  <si>
-    <t>1.16363e-13</t>
-  </si>
-  <si>
-    <t>0.000040403719515914</t>
-  </si>
-  <si>
-    <t>0.00055923998097756</t>
-  </si>
-  <si>
-    <t>0.000002014379755771</t>
-  </si>
-  <si>
-    <t>0.000021436433210914</t>
-  </si>
-  <si>
-    <t>0.000068514212057543</t>
-  </si>
-  <si>
-    <t>0.000048214677946976</t>
-  </si>
-  <si>
-    <t>0.000058632551232494</t>
-  </si>
-  <si>
-    <t>0.000009761008218551</t>
-  </si>
-  <si>
-    <t>0.001803650578017405</t>
-  </si>
-  <si>
-    <t>0.000106492533087557</t>
-  </si>
-  <si>
-    <t>0.000006836591462838</t>
-  </si>
-  <si>
-    <t>0.002871040839661493</t>
-  </si>
-  <si>
-    <t>0.001992243161950323</t>
-  </si>
-  <si>
-    <t>0.000040572362109241</t>
-  </si>
-  <si>
-    <t>0.03124545284960529</t>
-  </si>
-  <si>
-    <t>0.000232465200838919</t>
-  </si>
-  <si>
-    <t>1.590389014e-9</t>
-  </si>
-  <si>
-    <t>0.000012379675137258</t>
-  </si>
-  <si>
-    <t>0.000207005084664206</t>
-  </si>
-  <si>
-    <t>0.000040473858152388</t>
-  </si>
-  <si>
-    <t>0.000010446251128235</t>
-  </si>
-  <si>
-    <t>0.000001379015807325</t>
-  </si>
-  <si>
-    <t>1.44374683604e-7</t>
-  </si>
-  <si>
-    <t>0.000040627415627502</t>
-  </si>
-  <si>
-    <t>3.008833e-11</t>
-  </si>
-  <si>
-    <t>0.000367470377617064</t>
-  </si>
-  <si>
-    <t>0.000440835289402999</t>
-  </si>
-  <si>
-    <t>0.000002537229628708</t>
-  </si>
-  <si>
-    <t>0.000040638911981276</t>
-  </si>
-  <si>
-    <t>0.000026370621880496</t>
-  </si>
-  <si>
-    <t>0.000001407682436936</t>
-  </si>
-  <si>
-    <t>0.000040771992929865</t>
-  </si>
-  <si>
-    <t>0.00001646407986378</t>
-  </si>
-  <si>
-    <t>0.001254221684607478</t>
-  </si>
-  <si>
-    <t>0.000067245388855697</t>
-  </si>
-  <si>
-    <t>0.000050039740905893</t>
-  </si>
-  <si>
-    <t>9.00502717136e-7</t>
-  </si>
-  <si>
-    <t>0.000072606053269728</t>
-  </si>
-  <si>
-    <t>0.000101322787806104</t>
-  </si>
-  <si>
-    <t>0.000017319312403836</t>
-  </si>
-  <si>
-    <t>0.000267563613778787</t>
+    <t>0.06808438877267126</t>
+  </si>
+  <si>
+    <t>0.000041477150793124</t>
+  </si>
+  <si>
+    <t>0.012738802302508005</t>
+  </si>
+  <si>
+    <t>0.000041471565561738</t>
+  </si>
+  <si>
+    <t>0.000015970625623111</t>
+  </si>
+  <si>
+    <t>0.000015942413060374</t>
+  </si>
+  <si>
+    <t>0.000041507784389909</t>
+  </si>
+  <si>
+    <t>0.000056274083339221</t>
+  </si>
+  <si>
+    <t>0.0020406242467403</t>
+  </si>
+  <si>
+    <t>0.000003491069619662</t>
+  </si>
+  <si>
+    <t>0.001008628077488883</t>
+  </si>
+  <si>
+    <t>0.000294032721506502</t>
+  </si>
+  <si>
+    <t>5.30388814e-10</t>
+  </si>
+  <si>
+    <t>0.000309182859249943</t>
+  </si>
+  <si>
+    <t>0.06801707372714584</t>
+  </si>
+  <si>
+    <t>0.003886061185159829</t>
+  </si>
+  <si>
+    <t>0.000002845800591772</t>
+  </si>
+  <si>
+    <t>0.000853702556535645</t>
+  </si>
+  <si>
+    <t>0.000286722200239637</t>
+  </si>
+  <si>
+    <t>0.000041469317949547</t>
+  </si>
+  <si>
+    <t>0.000570261747557076</t>
+  </si>
+  <si>
+    <t>1.0000294671090915</t>
+  </si>
+  <si>
+    <t>0.000097499807659108</t>
+  </si>
+  <si>
+    <t>0.000111964129843206</t>
+  </si>
+  <si>
+    <t>0.000927636082668149</t>
+  </si>
+  <si>
+    <t>0.006507965639662285</t>
+  </si>
+  <si>
+    <t>0.000345369995640449</t>
+  </si>
+  <si>
+    <t>0.005871864680627681</t>
+  </si>
+  <si>
+    <t>0.000217724062006228</t>
+  </si>
+  <si>
+    <t>0.000103649049376351</t>
+  </si>
+  <si>
+    <t>0.07547582838591568</t>
+  </si>
+  <si>
+    <t>0.000003359287990541</t>
+  </si>
+  <si>
+    <t>0.000280295748802834</t>
+  </si>
+  <si>
+    <t>0.000040477566648577</t>
+  </si>
+  <si>
+    <t>0.000001204137355366</t>
+  </si>
+  <si>
+    <t>0.000011273554982149</t>
+  </si>
+  <si>
+    <t>0.000003833177679953</t>
+  </si>
+  <si>
+    <t>0.000060905155728947</t>
+  </si>
+  <si>
+    <t>0.00041120098277268</t>
+  </si>
+  <si>
+    <t>0.00003155810708076</t>
+  </si>
+  <si>
+    <t>0.000539925112236759</t>
+  </si>
+  <si>
+    <t>0.000654468715279201</t>
+  </si>
+  <si>
+    <t>0.000102917969545195</t>
+  </si>
+  <si>
+    <t>0.000028503946885955</t>
+  </si>
+  <si>
+    <t>0.000169499255233535</t>
+  </si>
+  <si>
+    <t>0.000041464588645193</t>
+  </si>
+  <si>
+    <t>0.000003496527748854</t>
+  </si>
+  <si>
+    <t>0.005518980437992876</t>
+  </si>
+  <si>
+    <t>0.000051859354999581</t>
+  </si>
+  <si>
+    <t>0.003551162492446257</t>
+  </si>
+  <si>
+    <t>0.000050091163752584</t>
+  </si>
+  <si>
+    <t>0.002083932405900636</t>
+  </si>
+  <si>
+    <t>0.000049436732589163</t>
+  </si>
+  <si>
+    <t>0.000053206213300796</t>
+  </si>
+  <si>
+    <t>0.007668203780513774</t>
+  </si>
+  <si>
+    <t>6.761894822e-9</t>
+  </si>
+  <si>
+    <t>0.00000576002164545</t>
+  </si>
+  <si>
+    <t>1.24647e-13</t>
+  </si>
+  <si>
+    <t>0.000041105752706475</t>
+  </si>
+  <si>
+    <t>0.000001983385640901</t>
+  </si>
+  <si>
+    <t>0.000539395672612048</t>
+  </si>
+  <si>
+    <t>0.000058653906155147</t>
+  </si>
+  <si>
+    <t>0.000020643594197281</t>
+  </si>
+  <si>
+    <t>0.000066251635952901</t>
+  </si>
+  <si>
+    <t>0.000046559577743037</t>
+  </si>
+  <si>
+    <t>0.001794218733340509</t>
+  </si>
+  <si>
+    <t>0.000009565517663375</t>
+  </si>
+  <si>
+    <t>0.000105561542785769</t>
+  </si>
+  <si>
+    <t>0.000006703171513134</t>
+  </si>
+  <si>
+    <t>0.002888414771877232</t>
+  </si>
+  <si>
+    <t>0.001990620956388469</t>
+  </si>
+  <si>
+    <t>0.03200382230123895</t>
+  </si>
+  <si>
+    <t>0.000012626034627262</t>
+  </si>
+  <si>
+    <t>0.000042950820903922</t>
+  </si>
+  <si>
+    <t>0.000041287567828878</t>
+  </si>
+  <si>
+    <t>0.00022665538850228</t>
+  </si>
+  <si>
+    <t>1.544756199e-9</t>
+  </si>
+  <si>
+    <t>0.000038894722524655</t>
+  </si>
+  <si>
+    <t>0.000204267421767752</t>
+  </si>
+  <si>
+    <t>0.000010353342875856</t>
+  </si>
+  <si>
+    <t>3.0340871e-11</t>
+  </si>
+  <si>
+    <t>1.42262678818e-7</t>
+  </si>
+  <si>
+    <t>0.000001348640833112</t>
+  </si>
+  <si>
+    <t>0.000368187007656393</t>
+  </si>
+  <si>
+    <t>0.000435354343206406</t>
+  </si>
+  <si>
+    <t>0.000028090111510768</t>
+  </si>
+  <si>
+    <t>0.000002599268462728</t>
+  </si>
+  <si>
+    <t>0.00004152313902624</t>
+  </si>
+  <si>
+    <t>0.000043006282347169</t>
+  </si>
+  <si>
+    <t>0.00000139544444204</t>
+  </si>
+  <si>
+    <t>0.00001592412962554</t>
+  </si>
+  <si>
+    <t>0.001259125097320547</t>
+  </si>
+  <si>
+    <t>0.000050379776599836</t>
+  </si>
+  <si>
+    <t>0.000066715526923012</t>
+  </si>
+  <si>
+    <t>9.19253854282e-7</t>
+  </si>
+  <si>
+    <t>0.00007162674570959</t>
+  </si>
+  <si>
+    <t>0.000268847121275965</t>
+  </si>
+  <si>
+    <t>0.000100097770006357</t>
+  </si>
+  <si>
+    <t>0.000017104307341065</t>
   </si>
 </sst>
 </file>
@@ -3934,19 +4000,19 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>752</v>
+        <v>774</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>852</v>
+        <v>874</v>
       </c>
       <c r="P2" t="s">
-        <v>952</v>
+        <v>974</v>
       </c>
       <c r="Q2" t="s">
-        <v>1052</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3987,19 +4053,19 @@
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>753</v>
+        <v>775</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>853</v>
+        <v>875</v>
       </c>
       <c r="P3" t="s">
-        <v>953</v>
+        <v>975</v>
       </c>
       <c r="Q3" t="s">
-        <v>1053</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -4040,19 +4106,19 @@
         <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>754</v>
+        <v>776</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>854</v>
+        <v>876</v>
       </c>
       <c r="P4" t="s">
-        <v>954</v>
+        <v>976</v>
       </c>
       <c r="Q4" t="s">
-        <v>1054</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -4093,19 +4159,19 @@
         <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>755</v>
+        <v>777</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>855</v>
+        <v>877</v>
       </c>
       <c r="P5" t="s">
-        <v>955</v>
+        <v>977</v>
       </c>
       <c r="Q5" t="s">
-        <v>1055</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -4146,19 +4212,19 @@
         <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>756</v>
+        <v>778</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>856</v>
+        <v>878</v>
       </c>
       <c r="P6" t="s">
-        <v>956</v>
+        <v>978</v>
       </c>
       <c r="Q6" t="s">
-        <v>1056</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4199,19 +4265,19 @@
         <v>6</v>
       </c>
       <c r="M7" t="s">
-        <v>757</v>
+        <v>779</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>857</v>
+        <v>879</v>
       </c>
       <c r="P7" t="s">
-        <v>957</v>
+        <v>979</v>
       </c>
       <c r="Q7" t="s">
-        <v>1057</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4252,19 +4318,19 @@
         <v>7</v>
       </c>
       <c r="M8" t="s">
-        <v>758</v>
+        <v>780</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>858</v>
+        <v>880</v>
       </c>
       <c r="P8" t="s">
-        <v>958</v>
+        <v>980</v>
       </c>
       <c r="Q8" t="s">
-        <v>1058</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4305,19 +4371,19 @@
         <v>8</v>
       </c>
       <c r="M9" t="s">
-        <v>759</v>
+        <v>781</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>859</v>
+        <v>881</v>
       </c>
       <c r="P9" t="s">
-        <v>959</v>
+        <v>981</v>
       </c>
       <c r="Q9" t="s">
-        <v>1059</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4358,19 +4424,19 @@
         <v>9</v>
       </c>
       <c r="M10" t="s">
-        <v>760</v>
+        <v>782</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>860</v>
+        <v>882</v>
       </c>
       <c r="P10" t="s">
-        <v>960</v>
+        <v>982</v>
       </c>
       <c r="Q10" t="s">
-        <v>1060</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4411,19 +4477,19 @@
         <v>10</v>
       </c>
       <c r="M11" t="s">
-        <v>761</v>
+        <v>783</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>861</v>
+        <v>883</v>
       </c>
       <c r="P11" t="s">
-        <v>961</v>
+        <v>983</v>
       </c>
       <c r="Q11" t="s">
-        <v>1061</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4464,19 +4530,19 @@
         <v>11</v>
       </c>
       <c r="M12" t="s">
-        <v>762</v>
+        <v>784</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>862</v>
+        <v>884</v>
       </c>
       <c r="P12" t="s">
-        <v>962</v>
+        <v>984</v>
       </c>
       <c r="Q12" t="s">
-        <v>1062</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4517,19 +4583,19 @@
         <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>763</v>
+        <v>785</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>863</v>
+        <v>885</v>
       </c>
       <c r="P13" t="s">
-        <v>963</v>
+        <v>985</v>
       </c>
       <c r="Q13" t="s">
-        <v>1063</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4570,19 +4636,19 @@
         <v>13</v>
       </c>
       <c r="M14" t="s">
-        <v>764</v>
+        <v>786</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>864</v>
+        <v>886</v>
       </c>
       <c r="P14" t="s">
-        <v>964</v>
+        <v>986</v>
       </c>
       <c r="Q14" t="s">
-        <v>1064</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4617,25 +4683,25 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="L15">
         <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>765</v>
+        <v>787</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>865</v>
+        <v>887</v>
       </c>
       <c r="P15" t="s">
-        <v>965</v>
+        <v>987</v>
       </c>
       <c r="Q15" t="s">
-        <v>1065</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4670,25 +4736,25 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="L16">
         <v>15</v>
       </c>
       <c r="M16" t="s">
-        <v>766</v>
+        <v>788</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>866</v>
+        <v>888</v>
       </c>
       <c r="P16" t="s">
-        <v>966</v>
+        <v>988</v>
       </c>
       <c r="Q16" t="s">
-        <v>1066</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4723,25 +4789,25 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="L17">
         <v>16</v>
       </c>
       <c r="M17" t="s">
-        <v>767</v>
+        <v>789</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>867</v>
+        <v>889</v>
       </c>
       <c r="P17" t="s">
-        <v>967</v>
+        <v>989</v>
       </c>
       <c r="Q17" t="s">
-        <v>1067</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4776,25 +4842,25 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="L18">
         <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>768</v>
+        <v>790</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>868</v>
+        <v>890</v>
       </c>
       <c r="P18" t="s">
-        <v>968</v>
+        <v>990</v>
       </c>
       <c r="Q18" t="s">
-        <v>1068</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4829,25 +4895,25 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="L19">
         <v>18</v>
       </c>
       <c r="M19" t="s">
-        <v>769</v>
+        <v>791</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>869</v>
+        <v>891</v>
       </c>
       <c r="P19" t="s">
-        <v>969</v>
+        <v>991</v>
       </c>
       <c r="Q19" t="s">
-        <v>1069</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4882,25 +4948,25 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L20">
         <v>19</v>
       </c>
       <c r="M20" t="s">
-        <v>770</v>
+        <v>792</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>870</v>
+        <v>892</v>
       </c>
       <c r="P20" t="s">
-        <v>970</v>
+        <v>992</v>
       </c>
       <c r="Q20" t="s">
-        <v>1070</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4935,25 +5001,25 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="L21">
         <v>20</v>
       </c>
       <c r="M21" t="s">
-        <v>771</v>
+        <v>793</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>871</v>
+        <v>893</v>
       </c>
       <c r="P21" t="s">
-        <v>971</v>
+        <v>993</v>
       </c>
       <c r="Q21" t="s">
-        <v>1071</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4988,25 +5054,25 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="L22">
         <v>21</v>
       </c>
       <c r="M22" t="s">
-        <v>772</v>
+        <v>794</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>872</v>
+        <v>894</v>
       </c>
       <c r="P22" t="s">
-        <v>972</v>
+        <v>994</v>
       </c>
       <c r="Q22" t="s">
-        <v>1072</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -5041,25 +5107,25 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="L23">
         <v>22</v>
       </c>
       <c r="M23" t="s">
-        <v>773</v>
+        <v>795</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>873</v>
+        <v>895</v>
       </c>
       <c r="P23" t="s">
-        <v>973</v>
+        <v>995</v>
       </c>
       <c r="Q23" t="s">
-        <v>1073</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -5094,25 +5160,25 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L24">
         <v>23</v>
       </c>
       <c r="M24" t="s">
-        <v>774</v>
+        <v>796</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>874</v>
+        <v>896</v>
       </c>
       <c r="P24" t="s">
-        <v>974</v>
+        <v>996</v>
       </c>
       <c r="Q24" t="s">
-        <v>1074</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -5147,25 +5213,25 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="L25">
         <v>24</v>
       </c>
       <c r="M25" t="s">
-        <v>775</v>
+        <v>797</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>875</v>
+        <v>897</v>
       </c>
       <c r="P25" t="s">
-        <v>975</v>
+        <v>997</v>
       </c>
       <c r="Q25" t="s">
-        <v>1075</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -5200,25 +5266,25 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L26">
         <v>25</v>
       </c>
       <c r="M26" t="s">
-        <v>776</v>
+        <v>798</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>876</v>
+        <v>898</v>
       </c>
       <c r="P26" t="s">
-        <v>976</v>
+        <v>998</v>
       </c>
       <c r="Q26" t="s">
-        <v>1076</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -5253,25 +5319,25 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L27">
         <v>26</v>
       </c>
       <c r="M27" t="s">
-        <v>777</v>
+        <v>799</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>877</v>
+        <v>899</v>
       </c>
       <c r="P27" t="s">
-        <v>977</v>
+        <v>999</v>
       </c>
       <c r="Q27" t="s">
-        <v>1077</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -5300,31 +5366,31 @@
         <v>610</v>
       </c>
       <c r="I28">
-        <v>1517702400</v>
+        <v>1422489600</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="L28">
         <v>27</v>
       </c>
       <c r="M28" t="s">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="P28" t="s">
-        <v>978</v>
+        <v>1000</v>
       </c>
       <c r="Q28" t="s">
-        <v>1078</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -5353,31 +5419,31 @@
         <v>611</v>
       </c>
       <c r="I29">
-        <v>1422489600</v>
+        <v>1602839473</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L29">
         <v>28</v>
       </c>
       <c r="M29" t="s">
-        <v>779</v>
+        <v>801</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>879</v>
+        <v>901</v>
       </c>
       <c r="P29" t="s">
-        <v>979</v>
+        <v>1001</v>
       </c>
       <c r="Q29" t="s">
-        <v>1079</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -5412,25 +5478,25 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>690</v>
+        <v>710</v>
       </c>
       <c r="L30">
         <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>780</v>
+        <v>802</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>880</v>
+        <v>902</v>
       </c>
       <c r="P30" t="s">
-        <v>980</v>
+        <v>1002</v>
       </c>
       <c r="Q30" t="s">
-        <v>1080</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -5459,31 +5525,31 @@
         <v>613</v>
       </c>
       <c r="I31">
-        <v>1602839473</v>
+        <v>1517702400</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="L31">
         <v>30</v>
       </c>
       <c r="M31" t="s">
-        <v>781</v>
+        <v>803</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>881</v>
+        <v>903</v>
       </c>
       <c r="P31" t="s">
-        <v>981</v>
+        <v>1003</v>
       </c>
       <c r="Q31" t="s">
-        <v>1081</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -5518,25 +5584,25 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="L32">
         <v>31</v>
       </c>
       <c r="M32" t="s">
-        <v>782</v>
+        <v>804</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>882</v>
+        <v>904</v>
       </c>
       <c r="P32" t="s">
-        <v>982</v>
+        <v>1004</v>
       </c>
       <c r="Q32" t="s">
-        <v>1082</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -5571,25 +5637,25 @@
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="L33">
         <v>32</v>
       </c>
       <c r="M33" t="s">
-        <v>783</v>
+        <v>805</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>883</v>
+        <v>905</v>
       </c>
       <c r="P33" t="s">
-        <v>983</v>
+        <v>1005</v>
       </c>
       <c r="Q33" t="s">
-        <v>1083</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5606,7 +5672,7 @@
         <v>244</v>
       </c>
       <c r="E34" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>417</v>
@@ -5618,31 +5684,31 @@
         <v>616</v>
       </c>
       <c r="I34">
-        <v>1533427200</v>
+        <v>1568704980</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="L34">
         <v>33</v>
       </c>
       <c r="M34" t="s">
-        <v>784</v>
+        <v>806</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>884</v>
+        <v>906</v>
       </c>
       <c r="P34" t="s">
-        <v>984</v>
+        <v>1006</v>
       </c>
       <c r="Q34" t="s">
-        <v>1084</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5659,7 +5725,7 @@
         <v>245</v>
       </c>
       <c r="E35" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>418</v>
@@ -5671,31 +5737,31 @@
         <v>617</v>
       </c>
       <c r="I35">
-        <v>1568704980</v>
+        <v>1601555742</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="L35">
         <v>34</v>
       </c>
       <c r="M35" t="s">
-        <v>785</v>
+        <v>807</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>885</v>
+        <v>907</v>
       </c>
       <c r="P35" t="s">
-        <v>985</v>
+        <v>1007</v>
       </c>
       <c r="Q35" t="s">
-        <v>1085</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5712,7 +5778,7 @@
         <v>246</v>
       </c>
       <c r="E36" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>419</v>
@@ -5724,31 +5790,31 @@
         <v>618</v>
       </c>
       <c r="I36">
-        <v>1601555742</v>
+        <v>1649387294</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="L36">
         <v>35</v>
       </c>
       <c r="M36" t="s">
-        <v>786</v>
+        <v>808</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>886</v>
+        <v>908</v>
       </c>
       <c r="P36" t="s">
-        <v>986</v>
+        <v>1008</v>
       </c>
       <c r="Q36" t="s">
-        <v>1086</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5764,6 +5830,9 @@
       <c r="D37" t="s">
         <v>247</v>
       </c>
+      <c r="E37" t="s">
+        <v>339</v>
+      </c>
       <c r="F37" s="2" t="s">
         <v>420</v>
       </c>
@@ -5774,31 +5843,31 @@
         <v>619</v>
       </c>
       <c r="I37">
-        <v>1562082540</v>
+        <v>1533427200</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L37">
         <v>36</v>
       </c>
       <c r="M37" t="s">
-        <v>787</v>
+        <v>809</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>887</v>
+        <v>909</v>
       </c>
       <c r="P37" t="s">
-        <v>987</v>
+        <v>1009</v>
       </c>
       <c r="Q37" t="s">
-        <v>1087</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5814,9 +5883,6 @@
       <c r="D38" t="s">
         <v>248</v>
       </c>
-      <c r="E38" t="s">
-        <v>313</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>421</v>
       </c>
@@ -5827,31 +5893,31 @@
         <v>620</v>
       </c>
       <c r="I38">
-        <v>1649387294</v>
+        <v>1562082540</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
       <c r="L38">
         <v>37</v>
       </c>
       <c r="M38" t="s">
-        <v>788</v>
+        <v>810</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>888</v>
+        <v>910</v>
       </c>
       <c r="P38" t="s">
-        <v>988</v>
+        <v>1010</v>
       </c>
       <c r="Q38" t="s">
-        <v>1088</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5886,25 +5952,25 @@
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="L39">
         <v>38</v>
       </c>
       <c r="M39" t="s">
-        <v>789</v>
+        <v>811</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>889</v>
+        <v>911</v>
       </c>
       <c r="P39" t="s">
-        <v>989</v>
+        <v>1011</v>
       </c>
       <c r="Q39" t="s">
-        <v>1089</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5939,25 +6005,25 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="L40">
         <v>39</v>
       </c>
       <c r="M40" t="s">
-        <v>790</v>
+        <v>812</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>890</v>
+        <v>912</v>
       </c>
       <c r="P40" t="s">
-        <v>990</v>
+        <v>1012</v>
       </c>
       <c r="Q40" t="s">
-        <v>1090</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5992,25 +6058,25 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="L41">
         <v>40</v>
       </c>
       <c r="M41" t="s">
-        <v>791</v>
+        <v>813</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>891</v>
+        <v>913</v>
       </c>
       <c r="P41" t="s">
-        <v>991</v>
+        <v>1013</v>
       </c>
       <c r="Q41" t="s">
-        <v>1091</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -6045,25 +6111,25 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>698</v>
+        <v>721</v>
       </c>
       <c r="L42">
         <v>41</v>
       </c>
       <c r="M42" t="s">
-        <v>792</v>
+        <v>814</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>892</v>
+        <v>914</v>
       </c>
       <c r="P42" t="s">
-        <v>992</v>
+        <v>1014</v>
       </c>
       <c r="Q42" t="s">
-        <v>1092</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -6098,25 +6164,25 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>704</v>
+        <v>722</v>
       </c>
       <c r="L43">
         <v>42</v>
       </c>
       <c r="M43" t="s">
-        <v>793</v>
+        <v>815</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>893</v>
+        <v>915</v>
       </c>
       <c r="P43" t="s">
-        <v>993</v>
+        <v>1015</v>
       </c>
       <c r="Q43" t="s">
-        <v>1093</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -6151,25 +6217,25 @@
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="L44">
         <v>43</v>
       </c>
       <c r="M44" t="s">
-        <v>794</v>
+        <v>816</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>894</v>
+        <v>916</v>
       </c>
       <c r="P44" t="s">
-        <v>994</v>
+        <v>1016</v>
       </c>
       <c r="Q44" t="s">
-        <v>1094</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -6186,7 +6252,7 @@
         <v>255</v>
       </c>
       <c r="E45" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>428</v>
@@ -6198,31 +6264,31 @@
         <v>627</v>
       </c>
       <c r="I45">
-        <v>1500336000</v>
+        <v>1615164591</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
       <c r="L45">
         <v>44</v>
       </c>
       <c r="M45" t="s">
-        <v>795</v>
+        <v>817</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>895</v>
+        <v>917</v>
       </c>
       <c r="P45" t="s">
-        <v>995</v>
+        <v>1017</v>
       </c>
       <c r="Q45" t="s">
-        <v>1095</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -6239,7 +6305,7 @@
         <v>256</v>
       </c>
       <c r="E46" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>429</v>
@@ -6251,31 +6317,31 @@
         <v>628</v>
       </c>
       <c r="I46">
-        <v>1615164591</v>
+        <v>1500336000</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>720</v>
+        <v>693</v>
       </c>
       <c r="L46">
         <v>45</v>
       </c>
       <c r="M46" t="s">
-        <v>796</v>
+        <v>818</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>896</v>
+        <v>918</v>
       </c>
       <c r="P46" t="s">
-        <v>996</v>
+        <v>1018</v>
       </c>
       <c r="Q46" t="s">
-        <v>1096</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -6310,25 +6376,25 @@
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="L47">
         <v>46</v>
       </c>
       <c r="M47" t="s">
-        <v>797</v>
+        <v>819</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>897</v>
+        <v>919</v>
       </c>
       <c r="P47" t="s">
-        <v>997</v>
+        <v>1019</v>
       </c>
       <c r="Q47" t="s">
-        <v>1097</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -6345,7 +6411,7 @@
         <v>258</v>
       </c>
       <c r="E48" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>431</v>
@@ -6357,31 +6423,31 @@
         <v>630</v>
       </c>
       <c r="I48">
-        <v>1548953220</v>
+        <v>1615299931</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="L48">
         <v>47</v>
       </c>
       <c r="M48" t="s">
-        <v>798</v>
+        <v>820</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>898</v>
+        <v>920</v>
       </c>
       <c r="P48" t="s">
-        <v>998</v>
+        <v>1020</v>
       </c>
       <c r="Q48" t="s">
-        <v>1098</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -6398,7 +6464,7 @@
         <v>259</v>
       </c>
       <c r="E49" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>432</v>
@@ -6410,31 +6476,31 @@
         <v>631</v>
       </c>
       <c r="I49">
-        <v>1615299931</v>
+        <v>1548953220</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="L49">
         <v>48</v>
       </c>
       <c r="M49" t="s">
-        <v>799</v>
+        <v>821</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>899</v>
+        <v>921</v>
       </c>
       <c r="P49" t="s">
-        <v>999</v>
+        <v>1021</v>
       </c>
       <c r="Q49" t="s">
-        <v>1099</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -6463,31 +6529,31 @@
         <v>632</v>
       </c>
       <c r="I50">
-        <v>1614963736</v>
+        <v>1533945600</v>
       </c>
       <c r="J50">
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="L50">
         <v>49</v>
       </c>
       <c r="M50" t="s">
-        <v>800</v>
+        <v>822</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>900</v>
+        <v>922</v>
       </c>
       <c r="P50" t="s">
-        <v>1000</v>
+        <v>1022</v>
       </c>
       <c r="Q50" t="s">
-        <v>1100</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -6516,31 +6582,31 @@
         <v>633</v>
       </c>
       <c r="I51">
-        <v>1533945600</v>
+        <v>1614963736</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="L51">
         <v>50</v>
       </c>
       <c r="M51" t="s">
-        <v>801</v>
+        <v>823</v>
       </c>
       <c r="N51" t="b">
         <v>0</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>901</v>
+        <v>923</v>
       </c>
       <c r="P51" t="s">
-        <v>1001</v>
+        <v>1023</v>
       </c>
       <c r="Q51" t="s">
-        <v>1101</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -6575,25 +6641,25 @@
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="L52">
         <v>51</v>
       </c>
       <c r="M52" t="s">
-        <v>802</v>
+        <v>824</v>
       </c>
       <c r="N52" t="b">
         <v>0</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>902</v>
+        <v>924</v>
       </c>
       <c r="P52" t="s">
-        <v>1002</v>
+        <v>1024</v>
       </c>
       <c r="Q52" t="s">
-        <v>1102</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -6610,7 +6676,7 @@
         <v>263</v>
       </c>
       <c r="E53" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>436</v>
@@ -6622,31 +6688,31 @@
         <v>635</v>
       </c>
       <c r="I53">
-        <v>1612524044</v>
+        <v>1516233600</v>
       </c>
       <c r="J53">
         <v>1</v>
       </c>
       <c r="K53" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="L53">
         <v>52</v>
       </c>
       <c r="M53" t="s">
-        <v>803</v>
+        <v>825</v>
       </c>
       <c r="N53" t="b">
         <v>0</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>903</v>
+        <v>925</v>
       </c>
       <c r="P53" t="s">
-        <v>1003</v>
+        <v>1025</v>
       </c>
       <c r="Q53" t="s">
-        <v>1103</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -6663,7 +6729,7 @@
         <v>264</v>
       </c>
       <c r="E54" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>437</v>
@@ -6675,31 +6741,31 @@
         <v>636</v>
       </c>
       <c r="I54">
-        <v>1516233600</v>
+        <v>1612524044</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>694</v>
+        <v>731</v>
       </c>
       <c r="L54">
         <v>53</v>
       </c>
       <c r="M54" t="s">
-        <v>804</v>
+        <v>826</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>904</v>
+        <v>926</v>
       </c>
       <c r="P54" t="s">
-        <v>1004</v>
+        <v>1026</v>
       </c>
       <c r="Q54" t="s">
-        <v>1104</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -6734,25 +6800,25 @@
         <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>728</v>
+        <v>694</v>
       </c>
       <c r="L55">
         <v>54</v>
       </c>
       <c r="M55" t="s">
-        <v>805</v>
+        <v>827</v>
       </c>
       <c r="N55" t="b">
         <v>0</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>905</v>
+        <v>927</v>
       </c>
       <c r="P55" t="s">
-        <v>1005</v>
+        <v>1027</v>
       </c>
       <c r="Q55" t="s">
-        <v>1105</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -6787,25 +6853,25 @@
         <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="L56">
         <v>55</v>
       </c>
       <c r="M56" t="s">
-        <v>806</v>
+        <v>828</v>
       </c>
       <c r="N56" t="b">
         <v>0</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>906</v>
+        <v>928</v>
       </c>
       <c r="P56" t="s">
-        <v>1006</v>
+        <v>1028</v>
       </c>
       <c r="Q56" t="s">
-        <v>1106</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -6840,25 +6906,25 @@
         <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>686</v>
+        <v>733</v>
       </c>
       <c r="L57">
         <v>56</v>
       </c>
       <c r="M57" t="s">
-        <v>807</v>
+        <v>829</v>
       </c>
       <c r="N57" t="b">
         <v>0</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>907</v>
+        <v>929</v>
       </c>
       <c r="P57" t="s">
-        <v>1007</v>
+        <v>1029</v>
       </c>
       <c r="Q57" t="s">
-        <v>1107</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -6893,25 +6959,25 @@
         <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>729</v>
+        <v>707</v>
       </c>
       <c r="L58">
         <v>57</v>
       </c>
       <c r="M58" t="s">
-        <v>808</v>
+        <v>830</v>
       </c>
       <c r="N58" t="b">
         <v>0</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>908</v>
+        <v>930</v>
       </c>
       <c r="P58" t="s">
-        <v>1008</v>
+        <v>1030</v>
       </c>
       <c r="Q58" t="s">
-        <v>1108</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -6946,25 +7012,25 @@
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="L59">
         <v>58</v>
       </c>
       <c r="M59" t="s">
-        <v>809</v>
+        <v>831</v>
       </c>
       <c r="N59" t="b">
         <v>0</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>909</v>
+        <v>931</v>
       </c>
       <c r="P59" t="s">
-        <v>1009</v>
+        <v>1031</v>
       </c>
       <c r="Q59" t="s">
-        <v>1109</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -6999,25 +7065,25 @@
         <v>1</v>
       </c>
       <c r="K60" t="s">
-        <v>709</v>
+        <v>734</v>
       </c>
       <c r="L60">
         <v>59</v>
       </c>
       <c r="M60" t="s">
-        <v>810</v>
+        <v>832</v>
       </c>
       <c r="N60" t="b">
         <v>0</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>910</v>
+        <v>932</v>
       </c>
       <c r="P60" t="s">
-        <v>1010</v>
+        <v>1032</v>
       </c>
       <c r="Q60" t="s">
-        <v>1110</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -7052,25 +7118,25 @@
         <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="L61">
         <v>60</v>
       </c>
       <c r="M61" t="s">
-        <v>811</v>
+        <v>833</v>
       </c>
       <c r="N61" t="b">
         <v>0</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>911</v>
+        <v>933</v>
       </c>
       <c r="P61" t="s">
-        <v>1011</v>
+        <v>1033</v>
       </c>
       <c r="Q61" t="s">
-        <v>1111</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -7084,7 +7150,7 @@
         <v>176</v>
       </c>
       <c r="D62" t="s">
-        <v>176</v>
+        <v>271</v>
       </c>
       <c r="E62" t="s">
         <v>356</v>
@@ -7099,31 +7165,31 @@
         <v>644</v>
       </c>
       <c r="I62">
-        <v>1501891200</v>
+        <v>1552484520</v>
       </c>
       <c r="J62">
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="L62">
         <v>61</v>
       </c>
       <c r="M62" t="s">
-        <v>812</v>
+        <v>834</v>
       </c>
       <c r="N62" t="b">
         <v>0</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>912</v>
+        <v>934</v>
       </c>
       <c r="P62" t="s">
-        <v>1012</v>
+        <v>1034</v>
       </c>
       <c r="Q62" t="s">
-        <v>1112</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -7137,7 +7203,7 @@
         <v>177</v>
       </c>
       <c r="D63" t="s">
-        <v>271</v>
+        <v>177</v>
       </c>
       <c r="E63" t="s">
         <v>357</v>
@@ -7152,31 +7218,31 @@
         <v>645</v>
       </c>
       <c r="I63">
-        <v>1552484520</v>
+        <v>1501891200</v>
       </c>
       <c r="J63">
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="L63">
         <v>62</v>
       </c>
       <c r="M63" t="s">
-        <v>813</v>
+        <v>835</v>
       </c>
       <c r="N63" t="b">
         <v>0</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>913</v>
+        <v>935</v>
       </c>
       <c r="P63" t="s">
-        <v>1013</v>
+        <v>1035</v>
       </c>
       <c r="Q63" t="s">
-        <v>1113</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -7190,7 +7256,7 @@
         <v>178</v>
       </c>
       <c r="D64" t="s">
-        <v>272</v>
+        <v>178</v>
       </c>
       <c r="E64" t="s">
         <v>358</v>
@@ -7205,31 +7271,31 @@
         <v>646</v>
       </c>
       <c r="I64">
-        <v>1540944000</v>
+        <v>1600160400</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="L64">
         <v>63</v>
       </c>
       <c r="M64" t="s">
-        <v>814</v>
+        <v>836</v>
       </c>
       <c r="N64" t="b">
         <v>0</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>914</v>
+        <v>936</v>
       </c>
       <c r="P64" t="s">
-        <v>1014</v>
+        <v>1036</v>
       </c>
       <c r="Q64" t="s">
-        <v>1114</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -7243,10 +7309,10 @@
         <v>179</v>
       </c>
       <c r="D65" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E65" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>448</v>
@@ -7258,31 +7324,31 @@
         <v>647</v>
       </c>
       <c r="I65">
-        <v>1562331120</v>
+        <v>1540944000</v>
       </c>
       <c r="J65">
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>704</v>
+        <v>738</v>
       </c>
       <c r="L65">
         <v>64</v>
       </c>
       <c r="M65" t="s">
-        <v>815</v>
+        <v>837</v>
       </c>
       <c r="N65" t="b">
         <v>0</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>915</v>
+        <v>937</v>
       </c>
       <c r="P65" t="s">
-        <v>1015</v>
+        <v>1037</v>
       </c>
       <c r="Q65" t="s">
-        <v>1115</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -7296,10 +7362,10 @@
         <v>180</v>
       </c>
       <c r="D66" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E66" t="s">
-        <v>359</v>
+        <v>313</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>449</v>
@@ -7311,31 +7377,31 @@
         <v>648</v>
       </c>
       <c r="I66">
-        <v>1597402380</v>
+        <v>1562331120</v>
       </c>
       <c r="J66">
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="L66">
         <v>65</v>
       </c>
       <c r="M66" t="s">
-        <v>816</v>
+        <v>838</v>
       </c>
       <c r="N66" t="b">
         <v>0</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>916</v>
+        <v>938</v>
       </c>
       <c r="P66" t="s">
-        <v>1016</v>
+        <v>1038</v>
       </c>
       <c r="Q66" t="s">
-        <v>1116</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -7349,7 +7415,7 @@
         <v>181</v>
       </c>
       <c r="D67" t="s">
-        <v>181</v>
+        <v>274</v>
       </c>
       <c r="E67" t="s">
         <v>360</v>
@@ -7364,31 +7430,31 @@
         <v>649</v>
       </c>
       <c r="I67">
-        <v>1600160400</v>
+        <v>1597402380</v>
       </c>
       <c r="J67">
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="L67">
         <v>66</v>
       </c>
       <c r="M67" t="s">
-        <v>817</v>
+        <v>839</v>
       </c>
       <c r="N67" t="b">
         <v>0</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>917</v>
+        <v>939</v>
       </c>
       <c r="P67" t="s">
-        <v>1017</v>
+        <v>1039</v>
       </c>
       <c r="Q67" t="s">
-        <v>1117</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -7405,7 +7471,7 @@
         <v>275</v>
       </c>
       <c r="E68" t="s">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>451</v>
@@ -7417,31 +7483,31 @@
         <v>650</v>
       </c>
       <c r="I68">
-        <v>1627113782</v>
+        <v>1541808000</v>
       </c>
       <c r="J68">
         <v>1</v>
       </c>
       <c r="K68" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="L68">
         <v>67</v>
       </c>
       <c r="M68" t="s">
-        <v>818</v>
+        <v>840</v>
       </c>
       <c r="N68" t="b">
         <v>0</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>918</v>
+        <v>940</v>
       </c>
       <c r="P68" t="s">
-        <v>1018</v>
+        <v>1040</v>
       </c>
       <c r="Q68" t="s">
-        <v>1118</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -7458,7 +7524,7 @@
         <v>276</v>
       </c>
       <c r="E69" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>452</v>
@@ -7470,31 +7536,31 @@
         <v>651</v>
       </c>
       <c r="I69">
-        <v>1541808000</v>
+        <v>1627113782</v>
       </c>
       <c r="J69">
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>701</v>
+        <v>742</v>
       </c>
       <c r="L69">
         <v>68</v>
       </c>
       <c r="M69" t="s">
-        <v>819</v>
+        <v>841</v>
       </c>
       <c r="N69" t="b">
         <v>0</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>919</v>
+        <v>941</v>
       </c>
       <c r="P69" t="s">
-        <v>1019</v>
+        <v>1041</v>
       </c>
       <c r="Q69" t="s">
-        <v>1119</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -7529,25 +7595,25 @@
         <v>1</v>
       </c>
       <c r="K70" t="s">
-        <v>690</v>
+        <v>743</v>
       </c>
       <c r="L70">
         <v>69</v>
       </c>
       <c r="M70" t="s">
-        <v>820</v>
+        <v>842</v>
       </c>
       <c r="N70" t="b">
         <v>0</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>920</v>
+        <v>942</v>
       </c>
       <c r="P70" t="s">
-        <v>1020</v>
+        <v>1042</v>
       </c>
       <c r="Q70" t="s">
-        <v>1120</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -7582,25 +7648,25 @@
         <v>1</v>
       </c>
       <c r="K71" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="L71">
         <v>70</v>
       </c>
       <c r="M71" t="s">
-        <v>821</v>
+        <v>843</v>
       </c>
       <c r="N71" t="b">
         <v>0</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>921</v>
+        <v>943</v>
       </c>
       <c r="P71" t="s">
-        <v>1021</v>
+        <v>1043</v>
       </c>
       <c r="Q71" t="s">
-        <v>1121</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -7635,25 +7701,25 @@
         <v>1</v>
       </c>
       <c r="K72" t="s">
-        <v>696</v>
+        <v>745</v>
       </c>
       <c r="L72">
         <v>71</v>
       </c>
       <c r="M72" t="s">
-        <v>822</v>
+        <v>844</v>
       </c>
       <c r="N72" t="b">
         <v>0</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>922</v>
+        <v>944</v>
       </c>
       <c r="P72" t="s">
-        <v>1022</v>
+        <v>1044</v>
       </c>
       <c r="Q72" t="s">
-        <v>1122</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -7688,25 +7754,25 @@
         <v>1</v>
       </c>
       <c r="K73" t="s">
-        <v>688</v>
+        <v>746</v>
       </c>
       <c r="L73">
         <v>72</v>
       </c>
       <c r="M73" t="s">
-        <v>823</v>
+        <v>845</v>
       </c>
       <c r="N73" t="b">
         <v>0</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>923</v>
+        <v>945</v>
       </c>
       <c r="P73" t="s">
-        <v>1023</v>
+        <v>1045</v>
       </c>
       <c r="Q73" t="s">
-        <v>1123</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -7723,7 +7789,7 @@
         <v>281</v>
       </c>
       <c r="E74" t="s">
-        <v>313</v>
+        <v>366</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>457</v>
@@ -7735,31 +7801,31 @@
         <v>656</v>
       </c>
       <c r="I74">
-        <v>1623662716</v>
+        <v>1502236800</v>
       </c>
       <c r="J74">
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="L74">
         <v>73</v>
       </c>
       <c r="M74" t="s">
-        <v>824</v>
+        <v>846</v>
       </c>
       <c r="N74" t="b">
         <v>0</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>924</v>
+        <v>946</v>
       </c>
       <c r="P74" t="s">
-        <v>1024</v>
+        <v>1046</v>
       </c>
       <c r="Q74" t="s">
-        <v>1124</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -7776,7 +7842,7 @@
         <v>282</v>
       </c>
       <c r="E75" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>458</v>
@@ -7788,31 +7854,31 @@
         <v>657</v>
       </c>
       <c r="I75">
-        <v>1502236800</v>
+        <v>1572962760</v>
       </c>
       <c r="J75">
         <v>1</v>
       </c>
       <c r="K75" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
       <c r="L75">
         <v>74</v>
       </c>
       <c r="M75" t="s">
-        <v>825</v>
+        <v>847</v>
       </c>
       <c r="N75" t="b">
         <v>0</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>925</v>
+        <v>947</v>
       </c>
       <c r="P75" t="s">
-        <v>1025</v>
+        <v>1047</v>
       </c>
       <c r="Q75" t="s">
-        <v>1125</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -7829,7 +7895,7 @@
         <v>283</v>
       </c>
       <c r="E76" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>459</v>
@@ -7841,31 +7907,31 @@
         <v>658</v>
       </c>
       <c r="I76">
-        <v>1647920319</v>
+        <v>1539302400</v>
       </c>
       <c r="J76">
         <v>1</v>
       </c>
       <c r="K76" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="L76">
         <v>75</v>
       </c>
       <c r="M76" t="s">
-        <v>826</v>
+        <v>848</v>
       </c>
       <c r="N76" t="b">
         <v>0</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>926</v>
+        <v>948</v>
       </c>
       <c r="P76" t="s">
-        <v>1026</v>
+        <v>1048</v>
       </c>
       <c r="Q76" t="s">
-        <v>1126</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -7879,7 +7945,7 @@
         <v>191</v>
       </c>
       <c r="D77" t="s">
-        <v>284</v>
+        <v>191</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>460</v>
@@ -7891,31 +7957,31 @@
         <v>659</v>
       </c>
       <c r="I77">
-        <v>1634887994</v>
+        <v>1651913559</v>
       </c>
       <c r="J77">
         <v>1</v>
       </c>
       <c r="K77" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="L77">
         <v>76</v>
       </c>
       <c r="M77" t="s">
-        <v>827</v>
+        <v>849</v>
       </c>
       <c r="N77" t="b">
         <v>0</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>927</v>
+        <v>949</v>
       </c>
       <c r="P77" t="s">
-        <v>1027</v>
+        <v>1049</v>
       </c>
       <c r="Q77" t="s">
-        <v>1127</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -7929,10 +7995,10 @@
         <v>192</v>
       </c>
       <c r="D78" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E78" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>461</v>
@@ -7944,31 +8010,31 @@
         <v>660</v>
       </c>
       <c r="I78">
-        <v>1572962760</v>
+        <v>1647920319</v>
       </c>
       <c r="J78">
         <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>701</v>
+        <v>750</v>
       </c>
       <c r="L78">
         <v>77</v>
       </c>
       <c r="M78" t="s">
-        <v>828</v>
+        <v>850</v>
       </c>
       <c r="N78" t="b">
         <v>0</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>928</v>
+        <v>950</v>
       </c>
       <c r="P78" t="s">
-        <v>1028</v>
+        <v>1050</v>
       </c>
       <c r="Q78" t="s">
-        <v>1128</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -7982,10 +8048,7 @@
         <v>193</v>
       </c>
       <c r="D79" t="s">
-        <v>286</v>
-      </c>
-      <c r="E79" t="s">
-        <v>369</v>
+        <v>285</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>462</v>
@@ -7997,31 +8060,31 @@
         <v>661</v>
       </c>
       <c r="I79">
-        <v>1556585100</v>
+        <v>1634887994</v>
       </c>
       <c r="J79">
         <v>1</v>
       </c>
       <c r="K79" t="s">
-        <v>722</v>
+        <v>751</v>
       </c>
       <c r="L79">
         <v>78</v>
       </c>
       <c r="M79" t="s">
-        <v>829</v>
+        <v>851</v>
       </c>
       <c r="N79" t="b">
         <v>0</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>929</v>
+        <v>951</v>
       </c>
       <c r="P79" t="s">
-        <v>1029</v>
+        <v>1051</v>
       </c>
       <c r="Q79" t="s">
-        <v>1129</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -8035,7 +8098,10 @@
         <v>194</v>
       </c>
       <c r="D80" t="s">
-        <v>194</v>
+        <v>286</v>
+      </c>
+      <c r="E80" t="s">
+        <v>313</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>463</v>
@@ -8047,31 +8113,31 @@
         <v>662</v>
       </c>
       <c r="I80">
-        <v>1651913559</v>
+        <v>1623662716</v>
       </c>
       <c r="J80">
         <v>1</v>
       </c>
       <c r="K80" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="L80">
         <v>79</v>
       </c>
       <c r="M80" t="s">
-        <v>830</v>
+        <v>852</v>
       </c>
       <c r="N80" t="b">
         <v>0</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>930</v>
+        <v>952</v>
       </c>
       <c r="P80" t="s">
-        <v>1030</v>
+        <v>1052</v>
       </c>
       <c r="Q80" t="s">
-        <v>1130</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -8088,7 +8154,7 @@
         <v>287</v>
       </c>
       <c r="E81" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>464</v>
@@ -8100,31 +8166,31 @@
         <v>663</v>
       </c>
       <c r="I81">
-        <v>1497364209</v>
+        <v>1556585100</v>
       </c>
       <c r="J81">
         <v>1</v>
       </c>
       <c r="K81" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="L81">
         <v>80</v>
       </c>
       <c r="M81" t="s">
-        <v>831</v>
+        <v>853</v>
       </c>
       <c r="N81" t="b">
         <v>0</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>931</v>
+        <v>953</v>
       </c>
       <c r="P81" t="s">
-        <v>1031</v>
+        <v>1053</v>
       </c>
       <c r="Q81" t="s">
-        <v>1131</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -8141,7 +8207,7 @@
         <v>288</v>
       </c>
       <c r="E82" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>465</v>
@@ -8153,31 +8219,31 @@
         <v>664</v>
       </c>
       <c r="I82">
-        <v>1520726400</v>
+        <v>1497364209</v>
       </c>
       <c r="J82">
         <v>1</v>
       </c>
       <c r="K82" t="s">
-        <v>701</v>
+        <v>754</v>
       </c>
       <c r="L82">
         <v>81</v>
       </c>
       <c r="M82" t="s">
-        <v>832</v>
+        <v>854</v>
       </c>
       <c r="N82" t="b">
         <v>0</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>932</v>
+        <v>954</v>
       </c>
       <c r="P82" t="s">
-        <v>1032</v>
+        <v>1054</v>
       </c>
       <c r="Q82" t="s">
-        <v>1132</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -8206,31 +8272,31 @@
         <v>665</v>
       </c>
       <c r="I83">
-        <v>1640188674</v>
+        <v>1657036895</v>
       </c>
       <c r="J83">
         <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>721</v>
+        <v>755</v>
       </c>
       <c r="L83">
         <v>82</v>
       </c>
       <c r="M83" t="s">
-        <v>833</v>
+        <v>855</v>
       </c>
       <c r="N83" t="b">
         <v>0</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>933</v>
+        <v>955</v>
       </c>
       <c r="P83" t="s">
-        <v>1033</v>
+        <v>1055</v>
       </c>
       <c r="Q83" t="s">
-        <v>1133</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -8247,7 +8313,7 @@
         <v>290</v>
       </c>
       <c r="E84" t="s">
-        <v>371</v>
+        <v>313</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>467</v>
@@ -8259,31 +8325,31 @@
         <v>666</v>
       </c>
       <c r="I84">
-        <v>1539302400</v>
+        <v>1640188674</v>
       </c>
       <c r="J84">
         <v>1</v>
       </c>
       <c r="K84" t="s">
-        <v>686</v>
+        <v>756</v>
       </c>
       <c r="L84">
         <v>83</v>
       </c>
       <c r="M84" t="s">
-        <v>834</v>
+        <v>856</v>
       </c>
       <c r="N84" t="b">
         <v>0</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>934</v>
+        <v>956</v>
       </c>
       <c r="P84" t="s">
-        <v>1034</v>
+        <v>1056</v>
       </c>
       <c r="Q84" t="s">
-        <v>1134</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -8300,7 +8366,7 @@
         <v>291</v>
       </c>
       <c r="E85" t="s">
-        <v>313</v>
+        <v>371</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>468</v>
@@ -8312,31 +8378,31 @@
         <v>667</v>
       </c>
       <c r="I85">
-        <v>1657036895</v>
+        <v>1520726400</v>
       </c>
       <c r="J85">
         <v>1</v>
       </c>
       <c r="K85" t="s">
-        <v>724</v>
+        <v>757</v>
       </c>
       <c r="L85">
         <v>84</v>
       </c>
       <c r="M85" t="s">
-        <v>835</v>
+        <v>857</v>
       </c>
       <c r="N85" t="b">
         <v>0</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>935</v>
+        <v>957</v>
       </c>
       <c r="P85" t="s">
-        <v>1035</v>
+        <v>1057</v>
       </c>
       <c r="Q85" t="s">
-        <v>1135</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -8371,25 +8437,25 @@
         <v>1</v>
       </c>
       <c r="K86" t="s">
-        <v>725</v>
+        <v>758</v>
       </c>
       <c r="L86">
         <v>85</v>
       </c>
       <c r="M86" t="s">
-        <v>836</v>
+        <v>858</v>
       </c>
       <c r="N86" t="b">
         <v>0</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>936</v>
+        <v>958</v>
       </c>
       <c r="P86" t="s">
-        <v>1036</v>
+        <v>1058</v>
       </c>
       <c r="Q86" t="s">
-        <v>1136</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -8424,25 +8490,25 @@
         <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>713</v>
+        <v>759</v>
       </c>
       <c r="L87">
         <v>86</v>
       </c>
       <c r="M87" t="s">
-        <v>837</v>
+        <v>859</v>
       </c>
       <c r="N87" t="b">
         <v>0</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>937</v>
+        <v>959</v>
       </c>
       <c r="P87" t="s">
-        <v>1037</v>
+        <v>1059</v>
       </c>
       <c r="Q87" t="s">
-        <v>1137</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -8471,31 +8537,31 @@
         <v>670</v>
       </c>
       <c r="I88">
-        <v>1649048256</v>
+        <v>1574174220</v>
       </c>
       <c r="J88">
         <v>1</v>
       </c>
       <c r="K88" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
       <c r="L88">
         <v>87</v>
       </c>
       <c r="M88" t="s">
-        <v>838</v>
+        <v>860</v>
       </c>
       <c r="N88" t="b">
         <v>0</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>938</v>
+        <v>960</v>
       </c>
       <c r="P88" t="s">
-        <v>1038</v>
+        <v>1060</v>
       </c>
       <c r="Q88" t="s">
-        <v>1138</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -8524,31 +8590,31 @@
         <v>671</v>
       </c>
       <c r="I89">
-        <v>1520380800</v>
+        <v>1649048256</v>
       </c>
       <c r="J89">
         <v>1</v>
       </c>
       <c r="K89" t="s">
-        <v>711</v>
+        <v>761</v>
       </c>
       <c r="L89">
         <v>88</v>
       </c>
       <c r="M89" t="s">
-        <v>839</v>
+        <v>861</v>
       </c>
       <c r="N89" t="b">
         <v>0</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>939</v>
+        <v>961</v>
       </c>
       <c r="P89" t="s">
-        <v>1039</v>
+        <v>1061</v>
       </c>
       <c r="Q89" t="s">
-        <v>1139</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -8577,31 +8643,31 @@
         <v>672</v>
       </c>
       <c r="I90">
-        <v>1574174220</v>
+        <v>1520380800</v>
       </c>
       <c r="J90">
         <v>1</v>
       </c>
       <c r="K90" t="s">
-        <v>743</v>
+        <v>762</v>
       </c>
       <c r="L90">
         <v>89</v>
       </c>
       <c r="M90" t="s">
-        <v>840</v>
+        <v>862</v>
       </c>
       <c r="N90" t="b">
         <v>0</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>940</v>
+        <v>962</v>
       </c>
       <c r="P90" t="s">
-        <v>1040</v>
+        <v>1062</v>
       </c>
       <c r="Q90" t="s">
-        <v>1140</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -8630,31 +8696,31 @@
         <v>673</v>
       </c>
       <c r="I91">
-        <v>1518566400</v>
+        <v>1538870400</v>
       </c>
       <c r="J91">
         <v>1</v>
       </c>
       <c r="K91" t="s">
-        <v>725</v>
+        <v>763</v>
       </c>
       <c r="L91">
         <v>90</v>
       </c>
       <c r="M91" t="s">
-        <v>841</v>
+        <v>863</v>
       </c>
       <c r="N91" t="b">
         <v>0</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>941</v>
+        <v>963</v>
       </c>
       <c r="P91" t="s">
-        <v>1041</v>
+        <v>1063</v>
       </c>
       <c r="Q91" t="s">
-        <v>1141</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -8683,31 +8749,31 @@
         <v>674</v>
       </c>
       <c r="I92">
-        <v>1538870400</v>
+        <v>1518566400</v>
       </c>
       <c r="J92">
         <v>1</v>
       </c>
       <c r="K92" t="s">
-        <v>744</v>
+        <v>764</v>
       </c>
       <c r="L92">
         <v>91</v>
       </c>
       <c r="M92" t="s">
-        <v>842</v>
+        <v>864</v>
       </c>
       <c r="N92" t="b">
         <v>0</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>942</v>
+        <v>964</v>
       </c>
       <c r="P92" t="s">
-        <v>1042</v>
+        <v>1064</v>
       </c>
       <c r="Q92" t="s">
-        <v>1142</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -8742,25 +8808,25 @@
         <v>1</v>
       </c>
       <c r="K93" t="s">
-        <v>728</v>
+        <v>765</v>
       </c>
       <c r="L93">
         <v>92</v>
       </c>
       <c r="M93" t="s">
-        <v>843</v>
+        <v>865</v>
       </c>
       <c r="N93" t="b">
         <v>0</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>943</v>
+        <v>965</v>
       </c>
       <c r="P93" t="s">
-        <v>1043</v>
+        <v>1065</v>
       </c>
       <c r="Q93" t="s">
-        <v>1143</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -8795,25 +8861,25 @@
         <v>1</v>
       </c>
       <c r="K94" t="s">
-        <v>745</v>
+        <v>766</v>
       </c>
       <c r="L94">
         <v>93</v>
       </c>
       <c r="M94" t="s">
-        <v>844</v>
+        <v>866</v>
       </c>
       <c r="N94" t="b">
         <v>0</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>944</v>
+        <v>966</v>
       </c>
       <c r="P94" t="s">
-        <v>1044</v>
+        <v>1066</v>
       </c>
       <c r="Q94" t="s">
-        <v>1144</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -8829,9 +8895,6 @@
       <c r="D95" t="s">
         <v>301</v>
       </c>
-      <c r="E95" t="s">
-        <v>381</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>477</v>
       </c>
@@ -8842,31 +8905,31 @@
         <v>677</v>
       </c>
       <c r="I95">
-        <v>1566222960</v>
+        <v>1568732160</v>
       </c>
       <c r="J95">
         <v>1</v>
       </c>
       <c r="K95" t="s">
-        <v>746</v>
+        <v>767</v>
       </c>
       <c r="L95">
         <v>94</v>
       </c>
       <c r="M95" t="s">
-        <v>845</v>
+        <v>867</v>
       </c>
       <c r="N95" t="b">
         <v>0</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>945</v>
+        <v>967</v>
       </c>
       <c r="P95" t="s">
-        <v>1045</v>
+        <v>1067</v>
       </c>
       <c r="Q95" t="s">
-        <v>1145</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -8882,6 +8945,9 @@
       <c r="D96" t="s">
         <v>302</v>
       </c>
+      <c r="E96" t="s">
+        <v>381</v>
+      </c>
       <c r="F96" s="2" t="s">
         <v>478</v>
       </c>
@@ -8892,31 +8958,31 @@
         <v>678</v>
       </c>
       <c r="I96">
-        <v>1568732160</v>
+        <v>1566222960</v>
       </c>
       <c r="J96">
         <v>1</v>
       </c>
       <c r="K96" t="s">
-        <v>747</v>
+        <v>768</v>
       </c>
       <c r="L96">
         <v>95</v>
       </c>
       <c r="M96" t="s">
-        <v>846</v>
+        <v>868</v>
       </c>
       <c r="N96" t="b">
         <v>0</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>946</v>
+        <v>968</v>
       </c>
       <c r="P96" t="s">
-        <v>1046</v>
+        <v>1068</v>
       </c>
       <c r="Q96" t="s">
-        <v>1146</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -8948,25 +9014,25 @@
         <v>1</v>
       </c>
       <c r="K97" t="s">
-        <v>729</v>
+        <v>769</v>
       </c>
       <c r="L97">
         <v>96</v>
       </c>
       <c r="M97" t="s">
-        <v>847</v>
+        <v>869</v>
       </c>
       <c r="N97" t="b">
         <v>0</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>947</v>
+        <v>969</v>
       </c>
       <c r="P97" t="s">
-        <v>1047</v>
+        <v>1069</v>
       </c>
       <c r="Q97" t="s">
-        <v>1147</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="98" spans="1:17">
@@ -9001,25 +9067,25 @@
         <v>1</v>
       </c>
       <c r="K98" t="s">
-        <v>748</v>
+        <v>770</v>
       </c>
       <c r="L98">
         <v>97</v>
       </c>
       <c r="M98" t="s">
-        <v>848</v>
+        <v>870</v>
       </c>
       <c r="N98" t="b">
         <v>0</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>948</v>
+        <v>970</v>
       </c>
       <c r="P98" t="s">
-        <v>1048</v>
+        <v>1070</v>
       </c>
       <c r="Q98" t="s">
-        <v>1148</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="99" spans="1:17">
@@ -9048,31 +9114,31 @@
         <v>681</v>
       </c>
       <c r="I99">
-        <v>1654151352</v>
+        <v>1596033180</v>
       </c>
       <c r="J99">
         <v>1</v>
       </c>
       <c r="K99" t="s">
-        <v>749</v>
+        <v>771</v>
       </c>
       <c r="L99">
         <v>98</v>
       </c>
       <c r="M99" t="s">
-        <v>849</v>
+        <v>871</v>
       </c>
       <c r="N99" t="b">
         <v>0</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>949</v>
+        <v>971</v>
       </c>
       <c r="P99" t="s">
-        <v>1049</v>
+        <v>1071</v>
       </c>
       <c r="Q99" t="s">
-        <v>1149</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -9089,7 +9155,7 @@
         <v>306</v>
       </c>
       <c r="E100" t="s">
-        <v>313</v>
+        <v>384</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>482</v>
@@ -9101,31 +9167,31 @@
         <v>682</v>
       </c>
       <c r="I100">
-        <v>1504051200</v>
+        <v>1654151352</v>
       </c>
       <c r="J100">
         <v>1</v>
       </c>
       <c r="K100" t="s">
-        <v>750</v>
+        <v>772</v>
       </c>
       <c r="L100">
         <v>99</v>
       </c>
       <c r="M100" t="s">
-        <v>850</v>
+        <v>872</v>
       </c>
       <c r="N100" t="b">
         <v>0</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>950</v>
+        <v>972</v>
       </c>
       <c r="P100" t="s">
-        <v>1050</v>
+        <v>1072</v>
       </c>
       <c r="Q100" t="s">
-        <v>1150</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -9142,7 +9208,7 @@
         <v>307</v>
       </c>
       <c r="E101" t="s">
-        <v>384</v>
+        <v>313</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>483</v>
@@ -9154,31 +9220,31 @@
         <v>683</v>
       </c>
       <c r="I101">
-        <v>1596033180</v>
+        <v>1504051200</v>
       </c>
       <c r="J101">
         <v>1</v>
       </c>
       <c r="K101" t="s">
-        <v>751</v>
+        <v>773</v>
       </c>
       <c r="L101">
         <v>100</v>
       </c>
       <c r="M101" t="s">
-        <v>851</v>
+        <v>873</v>
       </c>
       <c r="N101" t="b">
         <v>0</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>951</v>
+        <v>973</v>
       </c>
       <c r="P101" t="s">
-        <v>1051</v>
+        <v>1073</v>
       </c>
       <c r="Q101" t="s">
-        <v>1151</v>
+        <v>1173</v>
       </c>
     </row>
   </sheetData>

--- a/coinranking.xlsx
+++ b/coinranking.xlsx
@@ -546,12 +546,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>464164760640</t>
+          <t>430935862739</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>24150.51631189856</t>
+          <t>22421.61504918489</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -562,7 +562,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -570,7 +570,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>['24242.206541761985', '24192.987998226872', '24214.661979791264', '24243.409856402952', '24236.530142766987', '24235.62772318918', '24233.563753271104', '24227.140173365777', '24220.879053565186', '24225.25405800641', '24226.23496451584', '24227.54330866233', '24239.167742281785', '24239.897965331485', '24221.540523655924', '24208.410765206307', '24208.71345510789', '24212.208631305653', '24211.894716420185', '24205.59230341293', '24201.465482673568', '24199.35066014518', '24202.067514280247', '24197.805948955254', '24169.974091617216']</t>
+          <t>['22400.01719673324', '22404.430039066683', '22400.05145850925', '22395.95441340955', '22418.018491579933', '22427.70577319276', '22440.411660866223', '22431.73676343783', '22419.95992613906', '22423.520315444563', '22448.508499534895', '22448.760037484742', '22439.843775412344', '22433.37503866748', '22433.879222078984', '22438.00554026734', '22438.320028030055', '22441.176350178397', '22443.04204961151', '22441.30381685072', '22424.981701671994', '22424.8703408597', '22431.96882617977', '22436.221420620102', '22434.659207504206']</t>
         </is>
       </c>
       <c r="N2" t="b">
@@ -583,7 +583,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>33222130816</t>
+          <t>20104154325</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -623,12 +623,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>200805673882</t>
+          <t>192081696350</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1645.6116889772118</t>
+          <t>1574.1182966762235</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -639,7 +639,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -647,7 +647,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['1650.0851802554662', '1648.8431901249521', '1650.2433289453347', '1651.1301385030597', '1651.2604295244778', '1651.5672702143147', '1651.503935526402', '1651.3602249002267', '1651.2584449230283', '1651.266397968444', '1650.8371061072435', '1650.6702483793606', '1650.7639767345913', '1650.7809457552466', '1650.3597601577626', '1650.029215422759', '1649.9263926492397', '1649.5362427203797', '1649.3526928435595', '1648.5681652378726', '1648.1319098996016', '1647.801682418444', '1647.8017455801019', '1647.181815053133', '1646.1235607913302']</t>
+          <t>['1571.5879097986726', '1571.669274580502', '1571.101168271761', '1570.8684845619762', '1572.0423098328224', '1572.8167953653972', '1573.9627847703848', '1573.8322665047294', '1573.5462507405116', '1573.6573627660898', '1574.3237493378986', '1574.2767128955409', '1574.0612894706494', '1574.0116567174196', '1574.2686503976358', '1574.5167800004053', '1574.5970657534897', '1574.891788249098', '1575.106893600905', '1575.063288588541', '1574.7697119858456', '1574.7191723814306', '1574.841561279342', '1574.8443715632', '1574.6257266895677']</t>
         </is>
       </c>
       <c r="N3" t="b">
@@ -660,12 +660,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>8847097141</t>
+          <t>6367012728</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.06813981397848816</t>
+          <t>0.0702053930202253</t>
         </is>
       </c>
     </row>
@@ -700,12 +700,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>65641921839</t>
+          <t>65564644533</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.0042721753721917</t>
+          <t>1.0030898905435106</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -716,7 +716,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -724,7 +724,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['1.0011856201664173', '1.003071211326855', '1.0022270414976986', '1.0011484408748628', '1.0014542118547325', '1.0014675042554062', '1.0016074922778027', '1.0017494420823', '1.0018372856156417', '1.0015173670354398', '1.0013285688460507', '1.0012583136970075', '1.000796094947161', '1.0007700897099914', '1.0013758483445165', '1.0018317625284596', '1.0018096535218275', '1.002024119727784', '1.002073358554346', '1.0025095465327765', '1.0027292254836455', '1.002784077226845', '1.0024912671914061', '1.0026240427277415', '1.0035323581089393']</t>
+          <t>['1.0033824492598329', '1.0030214550166308', '1.0032247980572335', '1.0034576265108428', '1.002630653081919', '1.002326908121108', '1.001878112098704', '1.0022009503355596', '1.0027193538256811', '1.002607529834903', '1.001789554508973', '1.0018281229112502', '1.0022524352686728', '1.002544070571124', '1.0025171770901231', '1.002458264718309', '1.0024610825822355', '1.0022377694491675', '1.0020711209769078', '1.002119869328697', '1.0028137011769622', '1.0028254685324205', '1.0025904408724529', '1.00245216991188', '1.0025327673316102']</t>
         </is>
       </c>
       <c r="N4" t="b">
@@ -737,12 +737,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>44770316841</t>
+          <t>24971082192</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.000041583880129196</t>
+          <t>0.000044737628772196</t>
         </is>
       </c>
     </row>
@@ -752,48 +752,48 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WcwrkfNI4FUAe</t>
+          <t>aKzUVe4Hh_CON</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>USDC</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>USDC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>#e8b342</t>
+          <t>#7894b4</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/B1N19L_dZ/bnb.svg</t>
+          <t>https://cdn.coinranking.com/jkDf8sQbY/usdc.svg</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>44037976720</t>
+          <t>43884769798</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>308.3558221174007</t>
+          <t>1.0024394500070297</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1503014400</v>
+        <v>1539043200</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -801,7 +801,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['309.7269014161687', '309.14972400710633', '309.3448408402916', '309.44865575463155', '309.22364888417985', '309.40223937593703', '309.3763772166509', '309.27208991705317', '309.1202761416666', '308.9871810429787', '308.8667571407558', '308.8522632973185', '308.84824218117933', '308.66704534045806', '308.5029238760339', '308.51586412680945', '308.51429119286104', '308.4714460730995', '308.57923612011746', '308.56546112967396', '308.57008302764746', '308.53059368041954', '308.59083744185426', '308.6079935156269', '308.42798775804135']</t>
+          <t>['1.0029067609543876', '1.0027852798553352', '1.0028082496511448', '1.0027241309315251', '1.0025896295188088', '1.002174740892571', '1.0019969632204648', '1.0019030880898518', '1.0020185574011344', '1.002246708349064', '1.0022766086348551', '1.0018563634796231', '1.0017830971589776', '1.0021803244472915', '1.0028713617611327', '1.002945831189709', '1.002266814085932', '1.0021204890768436', '1.0021431695820933', '1.0022780106505853', '1.0022870369309176', '1.0031173016252128', '1.0033806775632235', '1.003036921255778', '1.0025039832370195']</t>
         </is>
       </c>
       <c r="N5" t="b">
@@ -809,17 +809,17 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/WcwrkfNI4FUAe+bnb-bnb</t>
+          <t>https://coinranking.com/coin/aKzUVe4Hh_CON+usdc-usdc</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>781228216</t>
+          <t>2352548888</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.012768084049841985</t>
+          <t>0.000044708619241212</t>
         </is>
       </c>
     </row>
@@ -829,48 +829,48 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>aKzUVe4Hh_CON</t>
+          <t>WcwrkfNI4FUAe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>USDC</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>USDC</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>#7894b4</t>
+          <t>#e8b342</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/jkDf8sQbY/usdc.svg</t>
+          <t>https://cdn.coinranking.com/B1N19L_dZ/bnb.svg</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>43886014069</t>
+          <t>41592802977</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.002467872319666</t>
+          <t>291.2346095686076</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1539043200</v>
+        <v>1503014400</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -878,7 +878,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['1.0019163795352914', '1.0017269592791993', '1.0015334466148875', '1.0016289288620754', '1.0012367422758899', '1.000924503679864', '1.0009333028569372', '1.001182505394938', '1.0013108588267694', '1.0013156662913174', '1.0013268856847346', '1.001194232417435', '1.0009385315224792', '1.0008576691257824', '1.000834613342147', '1.001113678834559', '1.0010961176423467', '1.0012998587705422', '1.0014314122749595', '1.0016936524081543', '1.0019792385486037', '1.0022441626793965', '1.0023115555931634', '1.002722127515125', '1.0026862448023786']</t>
+          <t>['290.6506839969466', '290.76000829515107', '290.80744669286855', '290.8338268608176', '291.1002108593617', '290.91888711133345', '290.9979083918305', '291.0461922119547', '291.0600033468724', '291.15753885675616', '291.3404609823738', '291.4602335833259', '291.44222146981457', '291.1703655962501', '291.1957594171194', '291.3069368763486', '291.30997770785535', '291.31696145327436', '291.30470604294777', '291.2806264448664', '291.2684633453044', '291.28500217505666', '291.28347893051006', '291.26003600612586', '291.2426312339027']</t>
         </is>
       </c>
       <c r="N6" t="b">
@@ -886,17 +886,17 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/aKzUVe4Hh_CON+usdc-usdc</t>
+          <t>https://coinranking.com/coin/WcwrkfNI4FUAe+bnb-bnb</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2697689187</t>
+          <t>347229665</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.000041509169384746</t>
+          <t>0.012989011225540378</t>
         </is>
       </c>
     </row>
@@ -931,12 +931,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19567498909</t>
+          <t>18936031471</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.38902566215129675</t>
+          <t>0.3764713219618555</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -947,7 +947,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -955,7 +955,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['0.3899031715851413', '0.3896940471319947', '0.3899456009963642', '0.3901424244034558', '0.3901966490610177', '0.39031431043734477', '0.390650980733727', '0.3905980659638296', '0.3905176836728486', '0.39032461192059653', '0.39021436064845233', '0.3903696097655255', '0.39067015497128293', '0.39067783038460935', '0.39049558811641344', '0.390385559252472', '0.39038088516254815', '0.390514703697674', '0.3905243713277357', '0.39043567639546095', '0.3903721926550077', '0.39038907811501444', '0.3904955217408566', '0.39033758027163246', '0.38945914140579035']</t>
+          <t>['0.3758951347043901', '0.3759742606815884', '0.3759139306709296', '0.375963633881129', '0.3763052355726118', '0.3763946732293736', '0.3764409457352641', '0.37652125716968204', '0.37663582043717175', '0.376669887724666', '0.3768165639819081', '0.3767640428195797', '0.3765891248796335', '0.3765144752533081', '0.37663242970220406', '0.3768435736975868', '0.37686311948775475', '0.37703166178496467', '0.37708771672012986', '0.37704769640254854', '0.3769305152094339', '0.37690493169802225', '0.3767436885162813', '0.3766344945320525', '0.37656269538447745']</t>
         </is>
       </c>
       <c r="N7" t="b">
@@ -968,12 +968,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1327566655</t>
+          <t>878047348</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.000016108378683384</t>
+          <t>0.000016790553273527</t>
         </is>
       </c>
     </row>
@@ -983,48 +983,48 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>qzawljRxB5bYu</t>
+          <t>PDKcptVnzJTmN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ADA</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cardano</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>#3cc8c8</t>
+          <t>#2d60e0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/ryY28nXhW/ada.svg</t>
+          <t>https://cdn.coinranking.com/xcZdYtX6E/okx.png</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>13576609455</t>
+          <t>12313071106</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.3874048048151738</t>
+          <t>49.92346062236233</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1506902400</v>
+        <v>1538524800</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['0.3887114027310465', '0.3886217857381289', '0.38907301640618813', '0.38931329001011555', '0.3890577138690907', '0.3889217529589583', '0.38884756101065265', '0.38861676203468154', '0.38839756053630126', '0.38817535535862', '0.38797324284789597', '0.3879727883639328', '0.38809172332653136', '0.3881314708414965', '0.3880434829316629', '0.387934183698313', '0.38785900005548174', '0.38768930674746194', '0.3877694733112594', '0.38771369491369095', '0.3877045692246979', '0.3876614096493994', '0.3877918217269982', '0.38766168690677555', '0.387496883600961']</t>
+          <t>['49.88691146207834', '49.849020964478086', '49.90314971300372', '49.92388773666483', '49.91832340247958', '49.97949147805546', '49.98142222314504', '50.01101194070554', '50.00970895998358', '49.97857579046154', '49.96293706725062', '49.957498596703786', '49.96428440111827', '49.946807494086634', '49.9459403475479', '49.94456971979366', '49.95252197790129', '49.951833233872904', '49.94320854112618', '49.943679241507326', '49.94284425984762', '49.953848977771244', '49.93416735487119', '49.91175511256318', '49.90470934714399']</t>
         </is>
       </c>
       <c r="N8" t="b">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/qzawljRxB5bYu+cardano-ada</t>
+          <t>https://coinranking.com/coin/PDKcptVnzJTmN+okb-okb</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>397037951</t>
+          <t>31936196</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.000016041263872454</t>
+          <t>0.002226577367992822</t>
         </is>
       </c>
     </row>
@@ -1060,48 +1060,48 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>vSo2fu9iE1s0Y</t>
+          <t>qzawljRxB5bYu</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BUSD</t>
+          <t>ADA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Binance USD</t>
+          <t>Cardano</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>#f0b90b</t>
+          <t>#3cc8c8</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/6SJHRfClq/busd.svg</t>
+          <t>https://cdn.coinranking.com/ryY28nXhW/ada.svg</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>12464011070</t>
+          <t>11988492198</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.0025347949966676</t>
+          <t>0.3420883170706814</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1563197940</v>
+        <v>1506902400</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['1.0012047598770184', '1.0031195257248524', '1.0019834342291072', '1.0010354473206593', '1.0018710396882993', '1.001853909853462', '1.0017864806089967', '1.0016245322713195', '1.0016194119853161', '1.0014506524196685', '1.0007294872321972', '1.000741876598118', '1.0007922059728411', '1.0020582536698825', '1.0021400468485315', '1.0021685868401236', '1.0022980390137162', '1.0023083801192054', '1.0023338027900486', '1.0027784179354142', '1.0027846239164138', '1.002771243055704', '1.002508059849778', '1.0025380037816043', '1.002606207733933']</t>
+          <t>['0.3407430257879423', '0.3409189436183689', '0.34096881793550626', '0.34110102189856906', '0.3414698169048637', '0.341729116854909', '0.34208162623056226', '0.34205890438968606', '0.3420175110867467', '0.34215462721294015', '0.3423582619105406', '0.3423350835289739', '0.3422709200824184', '0.3422340680694619', '0.3422268590224959', '0.34220069614172666', '0.34217775353921454', '0.3421579525069364', '0.34216590095141913', '0.3421369314594462', '0.3420764664156842', '0.3420964426234565', '0.34217172382207456', '0.34217667732842033', '0.34215886706019116']</t>
         </is>
       </c>
       <c r="N9" t="b">
@@ -1117,17 +1117,17 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/vSo2fu9iE1s0Y+binanceusd-busd</t>
+          <t>https://coinranking.com/coin/qzawljRxB5bYu+cardano-ada</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>9868547636</t>
+          <t>313405052</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0.000041513799864269</t>
+          <t>0.000015257077437119</t>
         </is>
       </c>
     </row>
@@ -1162,12 +1162,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12293593089</t>
+          <t>10521506198</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1.3663155978883166</t>
+          <t>1.163577555565133</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['1.3728186098285808', '1.3719299094011885', '1.3739503035434018', '1.376005315604813', '1.3757490237343568', '1.3756324888110547', '1.3750532199760575', '1.3739266565026358', '1.3731425056961792', '1.37319071910855', '1.3727248045052514', '1.3727947888854493', '1.373366764976413', '1.3734964503388862', '1.372735172440858', '1.371770971144599', '1.3707203000494566', '1.3687047908280283', '1.3686963926759894', '1.3686055915073667', '1.3683759853118462', '1.3680000529352947', '1.3683180173611393', '1.3679826244650075', '1.3668388520185446']</t>
+          <t>['1.159448631221797', '1.1596513934123296', '1.1590105038286738', '1.1591286590597996', '1.1614538258585747', '1.162530742194254', '1.164211237631086', '1.1636481237159018', '1.1635847585247316', '1.1639934635174092', '1.1654971382157906', '1.1654517175954182', '1.1651610059387958', '1.1648956422013457', '1.1648273331166203', '1.1649491208875582', '1.1649858441388083', '1.1655118313309956', '1.165935001865562', '1.1655827519850612', '1.1644588871156767', '1.1641659826270014', '1.164675915812314', '1.1648098890032088', '1.1646529670001613']</t>
         </is>
       </c>
       <c r="N10" t="b">
@@ -1199,12 +1199,12 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>804602383</t>
+          <t>365616897</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.000056575005695226</t>
+          <t>0.000051895349778001</t>
         </is>
       </c>
     </row>
@@ -1214,48 +1214,48 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PDKcptVnzJTmN</t>
+          <t>a91GCGd_u96cF</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>DOGE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>Dogecoin</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>#2d60e0</t>
+          <t>#c2a633</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/xcZdYtX6E/okx.png</t>
+          <t>https://cdn.coinranking.com/H1arXIuOZ/doge.svg</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>12079436763</t>
+          <t>10500278410</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>48.97618801900189</t>
+          <t>0.07673524804211938</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1538524800</v>
+        <v>1391212800</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['49.463649212618634', '49.433629306993396', '49.38722780402694', '49.23180369824916', '49.27080753788573', '49.28146667711659', '49.2567161224537', '49.218829521323485', '49.188583790874326', '49.12508664428176', '49.13420285562166', '49.16084080863003', '49.13367267256866', '49.16542017245536', '49.121741954252165', '49.145035267848115', '49.14082144895445', '49.10355462565332', '49.1169176520782', '49.09409327940741', '49.05549764521775', '49.05501212875314', '48.97939448529951', '48.97131092525273', '48.93257092316629']</t>
+          <t>['0.07649156282182805', '0.07650346929514487', '0.07649695979685964', '0.0764987772964004', '0.076622837524375', '0.07667304287241758', '0.0767030670827736', '0.0766955662001224', '0.07669893633999485', '0.07670907829371527', '0.07672410362117085', '0.07672001479291088', '0.07670946470729939', '0.0767149759208899', '0.07672357674920112', '0.07674319583214342', '0.07675220286814288', '0.0767690440030384', '0.07677319189550075', '0.07676977363998559', '0.07672875655865484', '0.07672031771048127', '0.07673312231081887', '0.07674572465016946', '0.07674135630957198']</t>
         </is>
       </c>
       <c r="N11" t="b">
@@ -1271,17 +1271,17 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/PDKcptVnzJTmN+okb-okb</t>
+          <t>https://coinranking.com/coin/a91GCGd_u96cF+dogecoin-doge</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>71678234</t>
+          <t>233470892</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.002027956147458104</t>
+          <t>0.000003422378266409</t>
         </is>
       </c>
     </row>
@@ -1291,48 +1291,48 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>a91GCGd_u96cF</t>
+          <t>vSo2fu9iE1s0Y</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DOGE</t>
+          <t>BUSD</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Dogecoin</t>
+          <t>Binance USD</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>#c2a633</t>
+          <t>#f0b90b</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/H1arXIuOZ/doge.svg</t>
+          <t>https://cdn.coinranking.com/6SJHRfClq/busd.svg</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11605147079</t>
+          <t>9199213989</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.08480954550724627</t>
+          <t>1.0031320280902292</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1391212800</v>
+        <v>1563197940</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['0.08500722542605563', '0.084974377992627', '0.0850974807239173', '0.0851960678812561', '0.0851533098209336', '0.08513487032021373', '0.08510428906107959', '0.08510294834987452', '0.08510273108828334', '0.08509413413987375', '0.08507458319151844', '0.08507716441925729', '0.08510494565948216', '0.08511204630226983', '0.08507919156214944', '0.08505797008035586', '0.08504926930761163', '0.08501643603312105', '0.0850031567521711', '0.08491571093634392', '0.08488348710085293', '0.0848748916731577', '0.08491407748600562', '0.0848923566617981', '0.08483398042549442']</t>
+          <t>['1.0035311284238342', '1.0031607599170687', '1.0032795734652615', '1.0034571766409426', '1.0025656972628747', '1.0022020829326606', '1.0016039537548893', '1.0019883178240592', '1.002584143736787', '1.00254707217671', '1.0017613784477477', '1.0017594907312979', '1.0021154080211483', '1.0024138406859875', '1.0024159340214955', '1.002535260034144', '1.0025329606956026', '1.002282004963583', '1.0020684516726142', '1.002091701865965', '1.0026573904911027', '1.0026775310707952', '1.0025355022270945', '1.00241814320247', '1.0024503188331826']</t>
         </is>
       </c>
       <c r="N12" t="b">
@@ -1348,17 +1348,17 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/a91GCGd_u96cF+dogecoin-doge</t>
+          <t>https://coinranking.com/coin/vSo2fu9iE1s0Y+binanceusd-busd</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>491929082</t>
+          <t>4979602433</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0.000003511707344553</t>
+          <t>0.000044739508099203</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>8791380128</t>
+          <t>7734774638</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>24.208182413028414</t>
+          <t>21.298684921814246</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>-0.95</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['24.43152839870054', '24.425902771512185', '24.46654028958481', '24.50707443740424', '24.51837534962739', '24.512433138908136', '24.482728421549737', '24.470071147948914', '24.458187223973148', '24.427574732972733', '24.40346185584994', '24.396804963001035', '24.407406690481114', '24.41174010055223', '24.39808574022872', '24.384343406364955', '24.374078915830346', '24.35100518580739', '24.353856437460387', '24.344246105439233', '24.335431823213334', '24.329961466494773', '24.32083218985419', '24.28894624793136', '24.2369489552935']</t>
+          <t>['21.19668542330637', '21.1887399350258', '21.180824085879586', '21.197517492181767', '21.239398564585557', '21.258004794851896', '21.28623958428727', '21.272383165486637', '21.263141122366868', '21.268814014324523', '21.282280975816654', '21.286080756117837', '21.29052716787192', '21.287794803347563', '21.290078434016273', '21.292764788337067', '21.28074393780842', '21.29270187509594', '21.29922712522163', '21.2963527346346', '21.296360314305137', '21.292502451434917', '21.29328113847339', '21.302238068691466', '21.308333326697582']</t>
         </is>
       </c>
       <c r="N13" t="b">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>952917005</t>
+          <t>312950642</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0.001002387779225302</t>
+          <t>0.000949917518211452</t>
         </is>
       </c>
     </row>
@@ -1470,12 +1470,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>8593340563</t>
+          <t>7220677350</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>7.167779152936654</t>
+          <t>6.004324258454145</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['7.18039043929078', '7.181609529964541', '7.191035238867546', '7.197609143348636', '7.198678157207407', '7.200338477502022', '7.203848492610102', '7.198535213009056', '7.194011533939539', '7.189648459890342', '7.185219353481151', '7.186408697232527', '7.192777787988556', '7.1949266869426864', '7.195825773324611', '7.1946875963577925', '7.191894823089134', '7.187795971721709', '7.188460171151525', '7.190107944043017', '7.188722355539429', '7.186221106684139', '7.182107803684094', '7.178108277713612', '7.170019162428711']</t>
+          <t>['5.956166886272124', '5.960457876662648', '5.961959246253848', '5.966027876881359', '5.9760831040917965', '5.9811376387220765', '5.98570330234825', '5.986322779340646', '5.988545554627161', '5.99094416736111', '5.993765395446709', '5.995117377408488', '5.997498204929982', '5.999088715180078', '6.001564159911234', '6.005662951906637', '6.00736496551243', '6.010757543861306', '6.011543205081646', '6.010962515404888', '6.010044837778082', '6.006931026760122', '6.002877303436963', '6.003488463829539', '6.00427234711042']</t>
         </is>
       </c>
       <c r="N14" t="b">
@@ -1507,12 +1507,12 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>601580412</t>
+          <t>313867684</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0.00029679610408185</t>
+          <t>0.000267791782406523</t>
         </is>
       </c>
     </row>
@@ -1522,48 +1522,48 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>xz24e0BjL</t>
+          <t>VLqpJwogdhHNb</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SHIB</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Shiba Inu</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>#fda32b</t>
+          <t>#4680b0</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/fiZ4HfnRR/shib.png</t>
+          <t>https://cdn.coinranking.com/9NOP9tOem/chainlink.svg</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>7606185466</t>
+          <t>6930692691</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.000012901491413668</t>
+          <t>6.931320149210565</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1620650373</v>
+        <v>1505952000</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['0.000012940196082286', '0.000012935512160189', '0.000012950494846583', '0.000012962384426795', '0.000012954712501899', '0.00001295460048953', '0.000012955416454976', '0.00001294944591789', '0.000012943316404096', '0.000012947501625573', '0.000012945438932389', '0.000012949074539705', '0.000012955204188345', '0.000012957220967337', '0.000012957337411406', '0.00001295503733982', '0.000012951011776833', '0.000012945365346842', '0.000012945265594507', '0.000012940008907635', '0.000012935603541332', '0.000012933252638737', '0.000012932378484474', '0.000012926568446149', '0.000012910927237989']</t>
+          <t>['6.899266525040442', '6.898359643137485', '6.898740012693233', '6.9044177232394075', '6.913651805786536', '6.918205658281067', '6.923328176293872', '6.924238996139711', '6.9250392630716595', '6.925928639150187', '6.927730367585435', '6.927411471616622', '6.9255123893187465', '6.9250713890756534', '6.92645747029792', '6.930063210320089', '6.930637923878434', '6.9328186432205', '6.933578160361721', '6.933658031757008', '6.933588452928277', '6.933494893916815', '6.934026241168159', '6.9344218982566135', '6.932843694164899']</t>
         </is>
       </c>
       <c r="N15" t="b">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/xz24e0BjL+shibainu-shib</t>
+          <t>https://coinranking.com/coin/VLqpJwogdhHNb+chainlink-link</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>349932174</t>
+          <t>307808082</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>5.34211826e-10</t>
+          <t>0.000309135632469194</t>
         </is>
       </c>
     </row>
@@ -1599,48 +1599,48 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VLqpJwogdhHNb</t>
+          <t>Mtfb0obXVh59u</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LINK</t>
+          <t>WETH</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Chainlink</t>
+          <t>Wrapped Ether</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>#4680b0</t>
+          <t>#303030</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/9NOP9tOem/chainlink.svg</t>
+          <t>https://cdn.coinranking.com/KIviQyZlt/weth.svg</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>7525964766</t>
+          <t>6734855075</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>7.526646115951189</t>
+          <t>1576.598465415651</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1505952000</v>
+        <v>1600259445</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['7.542217268166519', '7.5378426533744225', '7.550002461031781', '7.558730330045583', '7.55926039656066', '7.560814069834409', '7.558697081123227', '7.558241869011357', '7.558655073412234', '7.556706116100689', '7.552718200243547', '7.551359885331599', '7.553477303932003', '7.554690660530348', '7.553729505427873', '7.5520063903208206', '7.550799919684056', '7.543336116958314', '7.543058534145872', '7.5405039865554055', '7.538459030084982', '7.5376679926415955', '7.540782727980796', '7.537723866886408', '7.529874842228594']</t>
+          <t>['1570.7661442035012', '1570.4783472443362', '1571.2764410806274', '1570.9268181667512', '1572.1321901412136', '1572.462096249354', '1573.3720339352867', '1574.9313705961104', '1575.4630953416108', '1575.7976888732342', '1574.2619819815013', '1573.7510858544524', '1578.24914784245', '1579.5170438592927', '1575.4827300345926', '1574.4736773975678', '1575.1875024104622', '1576.1330878470756', '1581.0454782879794', '1580.8102273835025', '1575.4729715113895', '1575.4600906561093', '1576.460895040644', None, None]</t>
         </is>
       </c>
       <c r="N16" t="b">
@@ -1656,17 +1656,17 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/VLqpJwogdhHNb+chainlink-link</t>
+          <t>https://coinranking.com/coin/Mtfb0obXVh59u+wrappedether-weth</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>509606871</t>
+          <t>376065653</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0.000311655702045713</t>
+          <t>0.07027065270077743</t>
         </is>
       </c>
     </row>
@@ -1676,48 +1676,48 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mtfb0obXVh59u</t>
+          <t>xz24e0BjL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>WETH</t>
+          <t>SHIB</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Wrapped Ether</t>
+          <t>Shiba Inu</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>#303030</t>
+          <t>#fda32b</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/KIviQyZlt/weth.svg</t>
+          <t>https://cdn.coinranking.com/fiZ4HfnRR/shib.png</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>7038890979</t>
+          <t>6699266199</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1651.5108415362788</t>
+          <t>0.00001136319770341</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1600259445</v>
+        <v>1620650373</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['1650.550832317908', '1650.826180458087', '1650.462889917113', '1650.4020950243305', '1650.8313588755516', '1651.1127866351605', '1650.6526487685594', '1650.6681245550249', '1651.26999748934', '1651.004003742573', '1648.9240691938135', '1648.5601996368346', '1649.2214857210315', '1648.2666268814362', '1647.7938421364497', '1647.825490590058', '1648.3980193574005', '1647.798935470377', '1647.4910644325053', '1647.506781568216', '1650.4650446903854', '1650.94298887727', '1650.996375158528', None, None]</t>
+          <t>['0.000011332342962584', '0.000011331493665837', '0.000011323982465582', '0.000011320199481721', '0.000011339524884872', '0.000011347174898982', '0.000011359408404437', '0.000011360278323734', '0.000011362088938627', '0.000011365916726631', '0.000011374071640944', '0.00001137574492959', '0.000011372925091869', '0.000011370864252066', '0.000011370304795781', '0.000011366762248732', '0.000011368096485389', '0.000011371612304936', '0.000011373651609178', '0.000011372368931695', '0.000011371801878437', '0.000011369538832302', '0.000011367371754162', '0.000011368322210629', '0.000011365806910782']</t>
         </is>
       </c>
       <c r="N17" t="b">
@@ -1733,17 +1733,17 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/Mtfb0obXVh59u+wrappedether-weth</t>
+          <t>https://coinranking.com/coin/xz24e0BjL+shibainu-shib</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>233781015</t>
+          <t>177661034</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>0.06824973456473196</t>
+          <t>5.06796575e-10</t>
         </is>
       </c>
     </row>
@@ -1778,12 +1778,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>6726024832</t>
+          <t>6405614048</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>94.91280006225976</t>
+          <t>90.39139471677987</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['94.9642761952196', '94.95695624381729', '95.09381436233643', '95.16007142300676', '95.15068157894085', '95.1544841160224', '95.18302663915664', '95.20139949950236', '95.18338476627478', '95.1681969854325', '95.15908482755113', '95.20520270270089', '95.23065677364576', '95.21387459966266', '95.0847733560004', '95.04876188293022', '95.00446861777839', '94.94796105919022', '94.97278587819741', '94.99964729203421', '95.01997207174237', '94.99017287660854', '94.96545670010913', '94.9488839786597', '94.90755412054507']</t>
+          <t>['90.20879956282658', '90.19530672618872', '90.16116243554426', '90.17382131990037', '90.28249519107706', '90.32849462494954', '90.34387376709601', '90.35249123862928', '90.39847447673327', '90.4182211382637', '90.45303068135149', '90.44805637266552', '90.44644706394524', '90.44618220325084', '90.44141794139261', '90.47033942420835', '90.45840152148784', '90.43702821167726', '90.42569428157788', '90.42087094551121', '90.41290896592969', '90.40693196626044', '90.414862398733', '90.43315067185799', '90.42020723401261']</t>
         </is>
       </c>
       <c r="N18" t="b">
@@ -1815,12 +1815,12 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>733151737</t>
+          <t>501710356</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>0.003930052626473157</t>
+          <t>0.00403143995285326</t>
         </is>
       </c>
     </row>
@@ -1855,12 +1855,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6400764731</t>
+          <t>6238050004</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.0694614484448391</t>
+          <t>0.06769565934317706</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['0.06912480248066522', '0.06915438775169104', '0.0692979521473975', '0.06936450517135553', '0.06933205255569812', '0.06933168734634257', '0.06930933075179599', '0.06928864328988311', '0.06930098533949425', '0.0693803000873805', '0.06940487505972073', '0.06941673301052333', '0.06942631389586669', '0.06943237630441314', '0.06941894751920057', '0.06941155454613293', '0.06940801172391536', '0.06940212853503698', '0.06941034817261316', '0.06945337137462591', '0.06948465410422139', '0.06950078547376351', '0.06952912678251157', '0.0695069309255749', '0.06946290598976214']</t>
+          <t>['0.0676517651816783', '0.06777046661055237', '0.06775625476051876', '0.06775903204987004', '0.06774302200945313', '0.06773611997621728', '0.067685237774871', '0.06766851150204227', '0.06767837596149057', '0.06765629424871139', '0.06762131744988538', '0.06763937720830157', '0.06771641797589499', '0.06776627680325306', '0.06776204512507712', '0.06774719164857385', '0.06774847943724949', '0.06775158416125591', '0.0677435022934965', '0.06773147896649823', '0.06771920102322235', '0.06770930354722592', '0.06770723432895186', '0.06769560507075693', '0.06769907139318894']</t>
         </is>
       </c>
       <c r="N19" t="b">
@@ -1892,12 +1892,12 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>360161025</t>
+          <t>312095906</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>0.000002876188962081</t>
+          <t>0.000003019214235668</t>
         </is>
       </c>
     </row>
@@ -1907,48 +1907,48 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>dvUj0CzDZ</t>
+          <t>MoTuySvg7</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AVAX</t>
+          <t>DAI</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>Dai</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>#e84242</t>
+          <t>#ea9999</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/S0C6Cw2-w/avax-avalanche.png</t>
+          <t>https://cdn.coinranking.com/mAZ_7LwOE/mutli-collateral-dai.svg</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>6372368129</t>
+          <t>5152908315</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>21.190295989915455</t>
+          <t>1.0020747740111924</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1600961596</v>
+        <v>1585574040</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['21.18608954350354', '21.23188620382078', '21.28435992969593', '21.324170964238295', '21.355937611562865', '21.377282061437477', '21.41148094227935', '21.36231231083752', '21.31633251282284', '21.265420592514303', '21.233044391273076', '21.236831729210007', '21.2608840372979', '21.256576265726817', '21.22452201470704', '21.200436104568244', '21.19419205726568', '21.182492497661404', '21.187864298292684', '21.1946715850717', '21.191837961783214', '21.19118599395664', '21.199599698482672', '21.188076449106145', '21.183833466370558']</t>
+          <t>['1.0042379260079348', '1.0042096497233475', '1.0041785897061353', '1.0041095118153505', '1.004081468030185', '1.0031284817441435', '1.0027543251871118', '1.00212411538223', '1.0019592477346737', '1.001965646763511', '1.0019959526239988', '1.0017151163877187', '1.0017592941103677', '1.0017866910630897', '1.0018248808926897', '1.0018888241933612', '1.001858856320291', '1.0018948215913301', '1.0018985434516436', '1.0018145662303652', '1.001778739496501', '1.0018951772639937', '1.0019444790075744', '1.0019722217574372', '1.002032173316818']</t>
         </is>
       </c>
       <c r="N20" t="b">
@@ -1964,17 +1964,17 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/dvUj0CzDZ+avalanche-avax</t>
+          <t>https://coinranking.com/coin/MoTuySvg7+dai-dai</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>611060587</t>
+          <t>65583010</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>0.000877426209702827</t>
+          <t>0.000044692354757363</t>
         </is>
       </c>
     </row>
@@ -1984,48 +1984,48 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>_H5FVG9iW</t>
+          <t>dvUj0CzDZ</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>UNI</t>
+          <t>AVAX</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>#ff007a</t>
+          <t>#e84242</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/1heSvUgtl/uniswap-v2.svg?size=48x48</t>
+          <t>https://cdn.coinranking.com/S0C6Cw2-w/avax-avalanche.png</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>5602940298</t>
+          <t>5055097217</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>6.975017519378554</t>
+          <t>16.809921226931447</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1600323371</v>
+        <v>1600961596</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['6.981368113051463', '6.976753442351507', '6.986991853101283', '6.993869923116754', '6.993773539353568', '6.995066283795477', '6.996773054402558', '6.992882565138327', '6.989226513022387', '6.985185959057071', '6.980678641396995', '6.980212235660901', '6.982833112052126', '6.9839816891002116', '6.985035703277302', '6.985703810946426', '6.983717914886323', '6.98008291932158', '6.980602971624007', '6.979142163067813', '6.9798823291089525', '6.9802331110091576', '6.9842305091678165', '6.9811611965782445', '6.975941363714993']</t>
+          <t>['16.741519645195442', '16.769500780954257', '16.770026795916436', '16.769428751837967', '16.783846304953737', '16.79238640123566', '16.794048816711708', '16.78616652718218', '16.780984899792212', '16.786396227792626', '16.79778062274418', '16.797988754920556', '16.801645101450305', '16.804187253406624', '16.808488006605394', '16.818168429911992', '16.8214930312564', '16.82678652382577', '16.827430864310877', '16.82652243846051', '16.824249083112978', '16.822876957348345', '16.82392112467328', '16.823516772341208', '16.821999123300934']</t>
         </is>
       </c>
       <c r="N21" t="b">
@@ -2041,17 +2041,17 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/_H5FVG9iW+uniswap-uni</t>
+          <t>https://coinranking.com/coin/dvUj0CzDZ+avalanche-avax</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>151298382</t>
+          <t>136532489</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>0.000288814426544665</t>
+          <t>0.000749719464456801</t>
         </is>
       </c>
     </row>
@@ -2061,48 +2061,48 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MoTuySvg7</t>
+          <t>_H5FVG9iW</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DAI</t>
+          <t>UNI</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Dai</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>#ea9999</t>
+          <t>#ff007a</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/mAZ_7LwOE/mutli-collateral-dai.svg</t>
+          <t>https://cdn.coinranking.com/1heSvUgtl/uniswap-v2.svg?size=48x48</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>5170630652</t>
+          <t>5012055778</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1.0018945306660663</t>
+          <t>6.2393997687157325</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1585574040</v>
+        <v>1600323371</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['1.0008113960361122', '1.0015567805059276', '1.0011317387295904', '1.00100358631573', '1.0013230305689516', '1.0009320029893614', '1.000627820260334', '1.0006964835878478', '1.0007109833541052', '1.0008705041462893', '1.0008323912446428', '1.0009776434473578', '1.0009857341502413', '1.000903377214179', '1.0009645011353507', '1.0011032492230492', '1.0008471969319508', '1.000829608377507', '1.0010073797830932', '1.0013446162018307', '1.001450576007341', '1.001584649774949', '1.0016923488513578', '1.0018496586936154', '1.0018462043547163']</t>
+          <t>['6.1979839357907265', '6.199219145229703', '6.202690788937062', '6.207062711159054', '6.218946163515569', '6.226552991448678', '6.231182421989049', '6.229248009720459', '6.230516536103144', '6.231956049285781', '6.23486035789038', '6.2349422207803995', '6.234712221732109', '6.235928177295602', '6.236826690188476', '6.239983874819843', '6.2414577068821595', '6.241660028665503', '6.243945422129242', '6.246173177725491', '6.245703365313367', '6.245691369079538', '6.2443808227779956', '6.2423344289125575', '6.241490157516908']</t>
         </is>
       </c>
       <c r="N22" t="b">
@@ -2118,17 +2118,17 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/MoTuySvg7+dai-dai</t>
+          <t>https://coinranking.com/coin/_H5FVG9iW+uniswap-uni</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>96668812</t>
+          <t>72881488</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>0.000041485429037078</t>
+          <t>0.000278276107899844</t>
         </is>
       </c>
     </row>
@@ -2163,12 +2163,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>4552408098</t>
+          <t>3965085534</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>13.833006321471562</t>
+          <t>12.048360356546072</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['13.875316769371405', '13.862227360471756', '13.884715881224228', '13.905974636161691', '13.903473088284262', '13.908063597191155', '13.926411854255216', '13.926979314367948', '13.918411872279693', '13.904641715634506', '13.89521900843459', '13.892449008773141', '13.903346706586559', '13.90571476315334', '13.90561600276313', '13.900660687945626', '13.890291462630314', '13.871849305780758', '13.87280689722067', '13.869885684779035', '13.869767463075146', '13.863564572923105', '13.862204680943321', '13.857837343867478', '13.84493251166427']</t>
+          <t>['12.011823194971296', '12.023092389534094', '12.023545563430408', '12.027686421659944', '12.039164124749684', '12.043347348556717', '12.040872582203857', '12.03883979323272', '12.03971591962152', '12.046660100710524', '12.057272509890112', '12.056072279031095', '12.050765605080967', '12.046673114419075', '12.046893158077786', '12.047234998461876', '12.04773758563235', '12.052162039522257', '12.054028048839916', '12.054277265585904', '12.055032640309589', '12.054181178818357', '12.053019445773227', '12.055164757705843', '12.05634224596344']</t>
         </is>
       </c>
       <c r="N23" t="b">
@@ -2200,12 +2200,12 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>177617970</t>
+          <t>83021753</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>0.000572783047071183</t>
+          <t>0.000537354705721079</t>
         </is>
       </c>
     </row>
@@ -2240,12 +2240,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>4389424693</t>
+          <t>3573140269</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>24154.032184378593</t>
+          <t>22417.11034152851</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['24243.442698153984', '24192.209988949213', '24209.439176300795', '24234.15623820336', '24241.356740472413', '24240.28348819585', '24238.93628109294', '24229.09964110703', '24222.391602972682', '24231.12685320517', '24234.182823311246', '24231.22060690731', '24238.419286998214', '24237.782334601754', '24225.70052695497', '24209.460613399886', '24203.310332093675', '24213.573048273953', '24218.13008521672', '24217.036950763963', '24211.666559396162', '24208.335797780637', '24206.150901682042', '24204.413110183228', '24177.269103640778']</t>
+          <t>['22395.040472820456', '22397.952774473975', '22390.507970228307', '22387.012270161147', '22409.189248178875', '22419.572612499112', '22438.319393790247', '22432.630006871823', '22418.305338181337', '22416.92874297065', '22444.724662992467', '22451.39547948284', '22439.22328538477', '22428.148196520433', '22433.094818490314', '22445.89147976385', '22438.28972484007', '22435.993221846173', '22442.838929369194', '22441.94344944793', '22423.273180020955', '22423.928145287042', '22442.667927377872', '22441.626871327295', '22441.875379595815']</t>
         </is>
       </c>
       <c r="N24" t="b">
@@ -2277,12 +2277,12 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>512773475</t>
+          <t>100282351</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>1.000145581669337</t>
+          <t>0.9997990908484292</t>
         </is>
       </c>
     </row>
@@ -2317,12 +2317,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3445736449</t>
+          <t>3575811334</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2.3383255520473765</t>
+          <t>2.426596210801502</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>-1.25</t>
+          <t>-0.90</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['2.367406575281515', '2.3679170729082397', '2.3755504809912105', '2.3761057940381898', '2.3734986593991763', '2.372643653239942', '2.371144546494342', '2.3699326158953697', '2.367893866202804', '2.3633712533584434', '2.3630005099170317', '2.358565224420915', '2.3564465686121956', '2.3547263687251805', '2.3512148485114537', '2.350660039479938', '2.346476301206883', '2.3439592821614075', '2.34254961335473', '2.3381000863433496', '2.3386451520074845', '2.3401678867425746', '2.3415151565988475', '2.341415466476276', '2.33817377931217']</t>
+          <t>['2.4460907979524307', '2.441807912217749', '2.4368238344933193', '2.4338634011797184', '2.421414935277542', '2.4210340708506095', '2.4214080227137442', '2.4208319778686174', '2.4211561976388407', '2.4223834986753627', '2.422131672757611', '2.422053656893141', '2.4190744794408827', '2.419560681262697', '2.421531090048194', '2.422928071563026', '2.422987252509853', '2.4234599519342495', '2.423366532706932', '2.4226584420950386', '2.4227379845085655', '2.4235196032480233', '2.425736453672737', '2.4255054899029203', '2.4258182895389777']</t>
         </is>
       </c>
       <c r="N25" t="b">
@@ -2354,12 +2354,12 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>40900372</t>
+          <t>65127947</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>0.000096823004603646</t>
+          <t>0.000108225754722772</t>
         </is>
       </c>
     </row>
@@ -2394,12 +2394,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3204778606</t>
+          <t>3221263263</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2.7418155601250542</t>
+          <t>2.7535630567719123</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['2.7676588528870076', '2.7654401612988413', '2.7656328286926533', '2.767186892743921', '2.772066705050731', '2.773317516830597', '2.7729535320520617', '2.771418847044153', '2.7711218082837985', '2.7679563709351784', '2.7647728296411453', '2.7668904547945328', '2.7734070523609256', '2.7737627824802717', '2.770562012450373', '2.7689256446950377', '2.7663672328841984', '2.762526942326458', '2.7620652628638847', '2.757748795712284', '2.7574721278556136', '2.7559868819100157', '2.7552314455015097', '2.7530926892042964', '2.745332299253726']</t>
+          <t>['2.7285934646171244', '2.7280680376130118', '2.721576292617309', '2.717987800027016', '2.727756258308652', '2.7332431169248825', '2.7439487825082263', '2.7427649214535132', '2.742682133947369', '2.744710841029087', '2.74832101548988', '2.7478970967408083', '2.750629456697512', '2.7522924383209166', '2.7512892182105158', '2.7488857866912952', '2.7489492144226184', '2.7522310911798336', '2.7535378920442017', '2.753863041361394', '2.751909190044635', '2.7504554642808836', '2.7504097167161525', '2.751437518758921', '2.7521074580442146']</t>
         </is>
       </c>
       <c r="N26" t="b">
@@ -2431,12 +2431,12 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>306265311</t>
+          <t>363860957</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>0.000113530308201908</t>
+          <t>0.000122808417267516</t>
         </is>
       </c>
     </row>
@@ -2471,12 +2471,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3120297373</t>
+          <t>2809465630</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>22.58031000626884</t>
+          <t>20.3309483945245</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['22.605395694926514', '22.610603675704617', '22.65053536896115', '22.667386070546744', '22.651603454275808', '22.6484857054226', '22.644682468616956', '22.62777914707665', '22.623949050352163', '22.62346117610986', '22.612381594340246', '22.63128135437343', '22.663890015643805', '22.663219768961522', '22.657331917051824', '22.649164775156493', '22.63860415213928', '22.620480986045703', '22.62796027359592', '22.62584238156014', '22.62032139107067', '22.611900262009662', '22.617202856845086', '22.602870659192806', '22.58102884958116']</t>
+          <t>['20.262916140175083', '20.24462585896885', '20.246786120801207', '20.25740343016453', '20.285202528122245', '20.30659230266637', '20.31598082656306', '20.309077999611965', '20.31600813501597', '20.325254971419405', '20.33145938221618', '20.331864667135555', '20.33397980718562', '20.333604336633666', '20.333013572933773', '20.328423880681918', '20.332756544599146', '20.317893413847706', '20.318915116299873', '20.328155631074914', '20.362625017111874', '20.362842922089083', '20.361980567146567', '20.361230437515466', '20.353838036170597']</t>
         </is>
       </c>
       <c r="N27" t="b">
@@ -2508,12 +2508,12 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>583216447</t>
+          <t>319546565</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>0.000934982495390539</t>
+          <t>0.000906756643084175</t>
         </is>
       </c>
     </row>
@@ -2523,48 +2523,48 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ymQub4fuB</t>
+          <t>3mVx2FX_iJFp5</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FIL</t>
+          <t>XMR</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Filecoin</t>
+          <t>Monero</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>#0090ff</t>
+          <t>#ff7519</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/vUmvv-IQA/FIL3-filecoin.svg?size=48x48</t>
+          <t>https://cdn.coinranking.com/Syz-oSd_Z/xmr.svg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2887455853</t>
+          <t>2657632927</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>8.820102731857933</t>
+          <t>145.96921437428165</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1602839473</v>
+        <v>1422489600</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['8.5697185160722', '8.591216928375806', '8.612700391129628', '8.637998095908305', '8.694643543647427', '8.71660214870781', '8.715471748562893', '8.681434767787424', '8.681148560064555', '8.74534874468611', '8.744338820557429', '8.726955054661182', '8.73807735599982', '8.785442435583958', '8.879203698133226', '8.927443407767418', '8.905456853351515', '8.86014071484515', '8.84823566388249', '8.813493259267096', '8.809814745378096', '8.80315919175306', '8.828063334474583', '8.822520879912009', '8.819521889388463']</t>
+          <t>['145.2683367710137', '145.0539337837122', '145.00448526564125', '144.98509790616006', '145.14777988508263', '145.2007682122876', '145.2944808723312', '145.36374504386384', '145.44166202659426', '145.49111397337995', '145.5408122586357', '145.55106370202478', '145.563033957452', '145.58209367103285', '145.6012735513233', '145.68210643612616', '145.68631015052406', '145.69530135581456', '145.70161000248604', '145.75733277139753', '145.87284744979527', '145.88010870328145', '145.87882280907667', '145.89086957520504', '145.9086757596733']</t>
         </is>
       </c>
       <c r="N28" t="b">
@@ -2580,17 +2580,17 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/ymQub4fuB+filecoin-fil</t>
+          <t>https://coinranking.com/coin/3mVx2FX_iJFp5+monero-xmr</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>838241915</t>
+          <t>74333677</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>0.000365213837168045</t>
+          <t>0.006510200717213196</t>
         </is>
       </c>
     </row>
@@ -2600,48 +2600,48 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3mVx2FX_iJFp5</t>
+          <t>DXwP4wF9ksbBO</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>XMR</t>
+          <t>HT</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Monero</t>
+          <t>Huobi Token</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>#ff7519</t>
+          <t>#2daadf</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/Syz-oSd_Z/xmr.svg</t>
+          <t>https://cdn.coinranking.com/ryFpQe0c7/ht.svg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2877340306</t>
+          <t>2511389134</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>158.03653683752643</t>
+          <t>5.022778279951944</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1422489600</v>
+        <v>1517702400</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['158.5062611276046', '158.56509365949915', '158.6786637040994', '158.69836372195948', '158.61840145348933', '158.64132823445115', '158.66447683279858', '158.70189235145034', '158.72234138960883', '158.710387293979', '158.66118951280086', '158.62617953268162', '158.52721123492356', '158.52604661650278', '158.4716261737323', '158.47852466366584', '158.42978047397446', '158.327746941291', '158.3290594180434', '158.237949085132', '158.24056474385227', '158.26361831909915', '158.33814909022172', '158.2459512470805', '158.0832436694909']</t>
+          <t>['5.053594683532127', '5.0540177809036155', '5.05758796270139', '5.061372948038826', '5.058247554513871', '5.054849610309447', '5.04995723919523', '5.041386190463795', '5.037102696675036', '5.050240698577119', '5.054013390934587', '5.051995020642148', '5.045113394686441', '5.045380774420381', '5.0447245634293125', '5.044756493811395', '5.044134314842798', '5.042284904479712', '5.038958814467938', '5.037239342275092', '5.0356107311445175', '5.03203257159916', '5.030562448982122', '5.029329858916485', '5.028963240641356']</t>
         </is>
       </c>
       <c r="N29" t="b">
@@ -2657,17 +2657,17 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/3mVx2FX_iJFp5+monero-xmr</t>
+          <t>https://coinranking.com/coin/DXwP4wF9ksbBO+huobitoken-ht</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>113254362</t>
+          <t>13184354</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0.006543816074013476</t>
+          <t>0.000224015008237979</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2727630305</t>
+          <t>2414965128</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>142.57348230085088</t>
+          <t>126.2304452835441</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['143.21643120594604', '143.45634041179292', '143.51839110221033', '143.456800549414', '143.5316046715628', '143.54992639849507', '143.4840157907966', '143.28196552578132', '143.1876353010824', '143.12218936562556', '142.9616487685797', '143.18454645834882', '143.31061145643935', '143.26518368505018', '143.22635885814867', '143.15431216008244', '143.0069458931616', '142.89909582244246', '143.012794062533', '143.02845660323482', '143.07631090645182', '142.96849214891705', '142.84447437972366', '142.64462313487047', '142.5196521766629']</t>
+          <t>['125.80193467210883', '125.78220256379528', '125.72613513553293', '125.82790186784948', '125.96150535211967', '125.9798772127319', '125.97376636443624', '125.92225383367612', '126.03732436233007', '126.07310378371764', '126.04925968347561', '126.08147017933983', '126.07120495581238', '126.08164321215689', '126.13931094110494', '126.16387793795862', '126.19083124454761', '126.17803886494167', '126.17585998886057', '126.1503363800916', '126.18981107339499', '126.17557983862255', '126.23329393426242', '126.24069358061638', '126.20288360742005']</t>
         </is>
       </c>
       <c r="N30" t="b">
@@ -2739,12 +2739,12 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>391848267</t>
+          <t>228647454</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>0.005903537649445917</t>
+          <t>0.005629855164609699</t>
         </is>
       </c>
     </row>
@@ -2754,48 +2754,48 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DXwP4wF9ksbBO</t>
+          <t>CiixT63n3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>HT</t>
+          <t>WSTETH</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Huobi Token</t>
+          <t>Wrapped liquid staked Ether 2.0</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>#2daadf</t>
+          <t>#70b9dc</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/ryFpQe0c7/ht.svg</t>
+          <t>https://cdn.coinranking.com/LQg69oxqx/wstETH.PNG</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2705152353</t>
+          <t>2318743170</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>5.410304719924752</t>
+          <t>1750.6178660460378</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1517702400</v>
+        <v>1638756833</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['5.378099845843345', '5.35909772671822', '5.362347884622107', '5.37345693705707', '5.366159008226872', '5.349238564893278', '5.350480303282448', '5.3563695023205495', '5.360445162051171', '5.355142060552053', '5.35635179554241', '5.365092305900906', '5.367055073472009', '5.374539940077962', '5.381002189817852', '5.382663623339011', '5.388300367816004', '5.393811656240022', '5.399787776484794', '5.402255125655132', '5.402656738763185', '5.404936437430166', '5.406352821902649', '5.409805885672472', '5.410122316638678']</t>
+          <t>['1744.2716473112237', '1744.2202749288776', '1744.5104501228188', '1744.5278444547619', '1745.3579251338942', '1747.8003215174706', '1748.278954015595', '1749.8067915697184', '1748.7591984421701', '1753.2870210917115', '1750.0530837007764', '1751.1153181313946', '1755.0753509490705', '1750.78430065263', None, None, None, None, None, None, None, None, None, None, None]</t>
         </is>
       </c>
       <c r="N31" t="b">
@@ -2811,17 +2811,17 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/DXwP4wF9ksbBO+huobitoken-ht</t>
+          <t>https://coinranking.com/coin/CiixT63n3+wrappedliquidstakedether20-wsteth</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>44502331</t>
+          <t>8114477</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>0.000224024391447863</t>
+          <t>0.07802688051219514</t>
         </is>
       </c>
     </row>
@@ -2831,48 +2831,48 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>08CsQa-Ov</t>
+          <t>ymQub4fuB</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>WEMIX</t>
+          <t>FIL</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>WEMIX TOKEN</t>
+          <t>Filecoin</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>#9bdc70</t>
+          <t>#0090ff</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/1N84MQsoO/7548.png</t>
+          <t>https://cdn.coinranking.com/vUmvv-IQA/FIL3-filecoin.svg?size=48x48</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2445540573</t>
+          <t>2039975654</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2.4455405731368005</t>
+          <t>6.231366211347838</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1638249982</v>
+        <v>1602839473</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['2.4302562155663026', '2.4233810788807553', '2.3989198621638947', '2.3964538321875994', '2.4148960750423454', '2.419918511352029', '2.4256610529458613', '2.4359864514317264', '2.4375382461080353', '2.435076289254266', '2.4345343251014393', '2.4397085195986272', '2.442164727853282', '2.443566317359772', '2.443621876072542', '2.4436548999988377', '2.4450136318542697', '2.445794563685184', '2.4477958579548154', '2.449440539867236', '2.4489162957248154', '2.4470796947704034', '2.4435541582086957', '2.4426077150258965', '2.444750521683903']</t>
+          <t>['6.1747644684556775', '6.18164153520589', '6.1779145498435115', '6.1809652440929685', '6.196709079215531', '6.203284102268671', '6.211064469503955', '6.21408533788196', '6.218536405474106', '6.2229747429694715', '6.231164642863281', '6.229843081915529', '6.2262520403561075', '6.222831236617662', '6.225165599473027', '6.232730689116811', '6.235218203860322', '6.243725291310368', '6.247373170994469', '6.245938769305967', '6.242465019193997', '6.23925207633108', '6.23869593271561', '6.239680013783075', '6.239030468887495']</t>
         </is>
       </c>
       <c r="N32" t="b">
@@ -2888,17 +2888,17 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/08CsQa-Ov+wemixtoken-wemix</t>
+          <t>https://coinranking.com/coin/ymQub4fuB+filecoin-fil</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>43791574</t>
+          <t>240524659</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>0.000101262455077696</t>
+          <t>0.000277917812685593</t>
         </is>
       </c>
     </row>
@@ -2908,48 +2908,48 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CiixT63n3</t>
+          <t>Z96jIvLU7</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>WSTETH</t>
+          <t>IMX</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wrapped liquid staked Ether 2.0</t>
+          <t>Immutable X</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>#70b9dc</t>
+          <t>#000000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/LQg69oxqx/wstETH.PNG</t>
+          <t>https://cdn.coinranking.com/naRGT2Y_X/10603.png</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2190827029</t>
+          <t>2027237769</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1830.8906363676308</t>
+          <t>1.0136188862663191</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1638756833</v>
+        <v>1649387294</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['1830.8609606465109', '1831.9962722989933', '1832.024137157578', '1831.9962296349088', '1832.0471035428727', '1832.682436411939', '1832.644188061908', '1832.3006431664107', '1832.246602383912', '1831.660155645886', '1831.408394383618', '1828.8783532219559', '1828.8832365315282', '1828.8420969669658', '1828.7960415831662', '1828.3856782003377', '1828.4065554916092', '1828.4990535897298', '1828.4083414780825', '1827.31926703419', '1827.6415758101045', '1830.9225499141478', '1830.9381655671643', None, None]</t>
+          <t>['1.0089747171794903', '1.0099909922928525', '1.008075253647239', '1.0065947156469253', '1.0087009181713524', '1.0098452780864642', '1.011366798941345', '1.0103153196393404', '1.009273026561332', '1.009390044924142', '1.0096110943627998', '1.00980179541716', '1.01193428254131', '1.0131111439686726', '1.013222631719322', '1.0135853640859809', '1.0137271201169575', '1.0149609461146625', '1.0151374631680432', '1.015102235741274', '1.0143641150873683', '1.0138710422579704', '1.013606977776495', '1.0136544249100157', '1.0138894305864512']</t>
         </is>
       </c>
       <c r="N33" t="b">
@@ -2965,17 +2965,17 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/CiixT63n3+wrappedliquidstakedether20-wsteth</t>
+          <t>https://coinranking.com/coin/Z96jIvLU7+immutablex-imx</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>12401638</t>
+          <t>77358797</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>0.07566271852802671</t>
+          <t>0.000045207220088419</t>
         </is>
       </c>
     </row>
@@ -2985,48 +2985,48 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>aMNLwaUbY</t>
+          <t>08CsQa-Ov</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ICP</t>
+          <t>WEMIX</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Internet Computer (DFINITY)</t>
+          <t>WEMIX TOKEN</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>#00042b</t>
+          <t>#9bdc70</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/1uJ_RVrmC/dfinity-icp.png</t>
+          <t>https://cdn.coinranking.com/1N84MQsoO/7548.png</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2053984788</t>
+          <t>2015906647</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>7.085756585111169</t>
+          <t>2.015906646964907</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1601555742</v>
+        <v>1638249982</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['6.968200310530531', '6.990496557073159', '7.01083638334868', '7.0240745606057', '7.047859408909647', '7.065538753774255', '7.062795274254616', '7.048959355674218', '7.039720287293731', '7.040788615931957', '7.030288271332197', '7.026964765374249', '7.020618658765613', '7.044321581030223', '7.109425562066349', '7.138025054737942', '7.1283987239807285', '7.1018789346008955', '7.101968553652143', '7.086139361371064', '7.081106490283243', '7.074698247049512', '7.060512951066548', '7.060163372503897', '7.07414720907952']</t>
+          <t>['2.0088720244645453', '2.0080447650885698', '2.008282496309251', '2.0085944433045495', '2.008657850661003', '2.008538824653155', '2.009820845540295', '2.0116070105457973', '2.011743473584443', '2.013789521736215', '2.0139706711826704', '2.0132517895616644', '2.011485696168337', '2.0115287710907825', '2.0125994019749474', '2.013081213584445', '2.013629676386782', '2.0143553560378056', '2.0142906687842204', '2.01413233906258', '2.014074764790182', '2.0148099343677046', '2.015908163401839', '2.0158946995530833', '2.0161868466423045']</t>
         </is>
       </c>
       <c r="N34" t="b">
@@ -3042,17 +3042,17 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/aMNLwaUbY+internetcomputerdfinity-icp</t>
+          <t>https://coinranking.com/coin/08CsQa-Ov+wemixtoken-wemix</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>85158575</t>
+          <t>8897214</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>0.000293399797072667</t>
+          <t>0.000089909074013747</t>
         </is>
       </c>
     </row>
@@ -3062,17 +3062,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>jad286TjB</t>
+          <t>3nNpuxHJ8</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>HBAR</t>
+          <t>FXS</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Hedera</t>
+          <t>Frax Share</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3082,28 +3082,28 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/dSCnSLilQ/hedera.svg</t>
+          <t>https://cdn.coinranking.com/_UuWZ5htj/FS.png</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2000191870</t>
+          <t>1786180551</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.08085430498725787</t>
+          <t>10.047682109515096</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1568704980</v>
+        <v>1640985232</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['0.08147061584551028', '0.08116510431996032', '0.08133335186520144', '0.08148188951887453', '0.08139815365950848', '0.08139140639393976', '0.08142297038732477', '0.08138444950198354', '0.08132813525546405', '0.08123215035425967', '0.0811881194226841', '0.08116628498720872', '0.08113121399878252', '0.08114743201666463', '0.08119485164781591', '0.0812156505105855', '0.08120115367839933', '0.0811313321571682', '0.08112461709476362', '0.0811130408806694', '0.08109737148650395', '0.08106325374795456', '0.0809807823924694', '0.08096626346281938', '0.08089134991315618']</t>
+          <t>['9.955163161459778', '9.911010224187535', '9.921278587059298', '9.934315956695347', '9.971274246726946', '9.988357717873361', '10.02509955950269', '10.024042862006732', '10.0219751067808', '10.031563481646206', '10.055213671287383', '10.055120649406732', '10.048565650746616', '10.044561779889241', '10.04429906012793', '10.040007926677351', '10.038423415369085', '10.053305129017044', '10.058409057104425', '10.061294338864727', '10.061577629798098', '10.06225610859397', '10.045247112372046', '10.039168800867085', '10.040175124157633']</t>
         </is>
       </c>
       <c r="N35" t="b">
@@ -3119,17 +3119,17 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/jad286TjB+hedera-hbar</t>
+          <t>https://coinranking.com/coin/3nNpuxHJ8+fraxshare-fxs</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>66446970</t>
+          <t>58076765</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>0.000003347932770589</t>
+          <t>0.000448124815606464</t>
         </is>
       </c>
     </row>
@@ -3139,17 +3139,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Z96jIvLU7</t>
+          <t>f3iaFeCKEmkaZ</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>IMX</t>
+          <t>XLM</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Immutable X</t>
+          <t>Stellar</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3159,28 +3159,28 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/naRGT2Y_X/10603.png</t>
+          <t>https://cdn.coinranking.com/78CxK1xsp/Stellar_symbol_black_RGB.svg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1981404029</t>
+          <t>1733624251</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.990702016143738</t>
+          <t>0.0857995213822954</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1649387294</v>
+        <v>1484611200</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['0.9972888005025391', '0.9970704506056491', '0.9991868220186363', '1.0010328724358635', '1.0015610172580371', '1.000993938397398', '0.9986058879489089', '0.9994344768636625', '1.0001620635286839', '0.9995447664539542', '0.9986289239402492', '0.9978027948801963', '0.9964155718886417', '0.9966832044055728', '0.9968602248717597', '0.9966404683564956', '0.9962397046753864', '0.9950178601201844', '0.9949271904659737', '0.9937906965781172', '0.993296639056196', '0.9934189063606165', '0.9934038269539378', '0.9931561373620563', '0.9912614083812334']</t>
+          <t>['0.08548453052205368', '0.08546754485054679', '0.085416491382355', '0.08541725962100669', '0.08555326256823469', '0.08560233851906054', '0.08566297122156227', '0.08567610156645114', '0.08569258178767174', '0.08572807216781997', '0.08576467754093557', '0.08577537333070773', '0.0857949801964578', '0.08574848713796043', '0.08575668864248977', '0.08576923663624507', '0.08576226077454731', '0.08575461868719765', '0.0857392218530669', '0.08573106249186467', '0.08573677976986227', '0.08574835520357843', '0.08577512061059377', '0.08577581324558213', '0.08577991044617429']</t>
         </is>
       </c>
       <c r="N36" t="b">
@@ -3196,17 +3196,17 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/Z96jIvLU7+immutablex-imx</t>
+          <t>https://coinranking.com/coin/f3iaFeCKEmkaZ+stellar-xlm</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>62671855</t>
+          <t>47476048</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>0.000041021980787037</t>
+          <t>0.000003826643227711</t>
         </is>
       </c>
     </row>
@@ -3241,12 +3241,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1981208637</t>
+          <t>1709428558</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.02967625281129118</t>
+          <t>0.025605296232092827</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['0.029399383120080266', '0.02939490831904621', '0.029419445265897865', '0.029445473172121664', '0.02945172171479395', '0.02946412741124744', '0.02952085078267828', '0.029602392359845502', '0.029698264271580618', '0.0297304468504564', '0.02972791742290841', '0.029709674880150434', '0.029649496305020312', '0.029660856346240584', '0.029681487303275272', '0.029680261750717755', '0.0296509696539306', '0.029587960473484602', '0.029588788449820404', '0.029573609329975412', '0.029563524560509067', '0.029554764345449305', '0.029542852206939623', '0.02953640326250493', '0.029623906634022118']</t>
+          <t>['0.025513473305243332', '0.02547881901256518', '0.025475591171138446', '0.025479093826892087', '0.025517950868637018', '0.025547754369035884', '0.025626640810327336', '0.025627892027500234', '0.025602822641586545', '0.025603976252695285', '0.02561579347497863', '0.025622792220035336', '0.025630052623387484', '0.025637540626475205', '0.02563867746183249', '0.02565039794981025', '0.025651391814425443', '0.02564943430853611', '0.025642939524777125', '0.025641705375292256', '0.02563658026900975', '0.025636616417864556', '0.025624988644771227', '0.025614022600620262', '0.025614474628619995']</t>
         </is>
       </c>
       <c r="N37" t="b">
@@ -3278,12 +3278,12 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>192489510</t>
+          <t>51553592</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>0.00000122880407309</t>
+          <t>0.000001141991608362</t>
         </is>
       </c>
     </row>
@@ -3314,12 +3314,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1923391490</t>
+          <t>1647839594</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.2708375701165935</t>
+          <t>0.23149639642536607</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['0.27245651030203755', '0.2721435442865997', '0.2725466055039824', '0.27282164077590476', '0.2729058668114093', '0.2728834064209524', '0.27279186182456283', '0.27199929912936643', '0.27172293083736915', '0.27172980056426543', '0.27160741433758284', '0.2715594444720491', '0.27183577487556326', '0.2718829497659719', '0.2718879794140609', '0.2717753524090271', '0.27160609172275385', '0.2713258723023603', '0.27144899825009194', '0.2714050765433381', '0.27140159704478883', '0.2713447177622011', '0.2713173761115638', '0.2712213562482746', '0.2710025954992027']</t>
+          <t>['0.231318270407121', '0.23126994542791235', '0.2311808754951039', '0.23122386229194256', '0.23157443729770613', '0.2317116476420601', '0.23183643734871975', '0.23176392583013924', '0.23171722508798576', '0.23167812660489395', '0.2316144147919971', '0.23163558262773595', '0.23160361038396965', '0.2315767671056956', '0.23163651977755984', '0.23182488105459464', '0.2318641476315591', '0.231774458684294', '0.23176349764712237', '0.23173416256702792', '0.23168089401204728', '0.2316158052545347', '0.23156757076634027', '0.23159714103469237', '0.23159316475430095']</t>
         </is>
       </c>
       <c r="N38" t="b">
@@ -3351,12 +3351,12 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>134858319</t>
+          <t>43117524</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>0.00001121456645559</t>
+          <t>0.000010324697659716</t>
         </is>
       </c>
     </row>
@@ -3366,17 +3366,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>f3iaFeCKEmkaZ</t>
+          <t>jad286TjB</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>XLM</t>
+          <t>HBAR</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Stellar</t>
+          <t>Hedera</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3386,28 +3386,28 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/78CxK1xsp/Stellar_symbol_black_RGB.svg</t>
+          <t>https://cdn.coinranking.com/dSCnSLilQ/hedera.svg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1879531486</t>
+          <t>1630685660</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.0930206772139138</t>
+          <t>0.06591765402122733</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1484611200</v>
+        <v>1568704980</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>['0.09332406164109504', '0.09332282763977229', '0.09342683581095569', '0.09344172502748783', '0.09338422825199577', '0.09338136399841396', '0.09337043742749367', '0.09328446181794978', '0.09328496920761457', '0.09331526080355527', '0.09330831746776239', '0.09325655872760202', '0.09331958756584789', '0.0933239504782348', '0.0932973308021485', '0.09326294254018774', '0.09327944923372498', '0.09324059606095933', '0.09323528887502838', '0.09322664287879845', '0.09321972679708582', '0.09318445970580992', '0.09317803628297155', '0.0931404382131259', '0.09304614296318979']</t>
+          <t>['0.06523165883620699', '0.0652821726076934', '0.06525120296794004', '0.06526006551191342', '0.06535753085965744', '0.0653808434219049', '0.06540669303658335', '0.06543780444801937', '0.0654642767510166', '0.06547906948154912', '0.06554999762943164', '0.06558784783149291', '0.06585255656648133', '0.06593271579005137', '0.0659132474730382', '0.06587531991819918', '0.06591501656494052', '0.06590311233139726', '0.0659194645102969', '0.06592735303852099', '0.06592912688448485', '0.0659355761956297', '0.06592529391156833', '0.06592104950241566', '0.0659168164498564']</t>
         </is>
       </c>
       <c r="N39" t="b">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/f3iaFeCKEmkaZ+stellar-xlm</t>
+          <t>https://coinranking.com/coin/jad286TjB+hedera-hbar</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>139912910</t>
+          <t>51740647</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>0.000003851705529297</t>
+          <t>0.000002939915517978</t>
         </is>
       </c>
     </row>
@@ -3468,12 +3468,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1800303787</t>
+          <t>1628876075</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1.4829543245568895</t>
+          <t>1.341745119822566</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>['1.4890051812816787', '1.4830957678034136', '1.482373495523328', '1.4836528816792398', '1.4837647873620925', '1.4852249958923045', '1.485209903969899', '1.4860572570561503', '1.4862247518655016', '1.4844909973023144', '1.484523068174668', '1.4839934769346343', '1.4839233125999314', '1.4837432663100372', '1.4836669697139944', '1.4838349736512328', '1.4844446507781057', '1.4838489605784988', '1.482670982664255', '1.4820580287277196', '1.4804278697604405', '1.4794429286420658', '1.479845417191573', '1.482580864402756', '1.4830034382346995']</t>
+          <t>['1.339313432898868', '1.3495604249806752', '1.3507679354870583', '1.348330657148697', '1.3472010799376226', '1.3503879889003483', '1.3536567587870043', '1.3495578576946068', '1.3487985584009743', '1.3520231817643997', '1.3533134271819003', '1.3527553215507737', '1.351485586118852', '1.3497832883104122', '1.3474680762723974', '1.3441416569085605', '1.3428808758972066', '1.3405825513547105', '1.3403934244232747', '1.341552817218458', '1.3418565640313451', '1.3422869954624248', '1.3427247753655585', '1.3423486582406783', '1.342033779456248']</t>
         </is>
       </c>
       <c r="N40" t="b">
@@ -3505,12 +3505,12 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>92802527</t>
+          <t>69593129</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>0.000061404663378822</t>
+          <t>0.000059841591111045</t>
         </is>
       </c>
     </row>
@@ -3520,48 +3520,48 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3nNpuxHJ8</t>
+          <t>aMNLwaUbY</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>FXS</t>
+          <t>ICP</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Frax Share</t>
+          <t>Internet Computer (DFINITY)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>#000000</t>
+          <t>#00042b</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/_UuWZ5htj/FS.png</t>
+          <t>https://cdn.coinranking.com/1uJ_RVrmC/dfinity-icp.png</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1789372440</t>
+          <t>1596810710</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>10.087489129754422</t>
+          <t>5.466261559139332</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1640985232</v>
+        <v>1601555742</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['10.069544355440625', '10.0429700032715', '10.092968903558944', '10.137709686637933', '10.135612750800648', '10.135172153714482', '10.13984321023639', '10.138653763828785', '10.137043022688756', '10.134372358720595', '10.131624470623347', '10.124723297247364', '10.102630908464898', '10.101922162922465', '10.102570102561744', '10.103473412043648', '10.099496809015573', '10.090179485865452', '10.089404169045881', '10.076828092061662', '10.073615490341869', '10.083895376609803', '10.139337989495392', '10.139749204447066', '10.10602238090432']</t>
+          <t>['5.425815661078199', '5.435933748034775', '5.432042111038075', '5.435107527309812', '5.458211788540863', '5.4683882801932135', '5.4745896479408716', '5.470278052235147', '5.468492416550386', '5.4695134894788175', '5.4750941787934', '5.474937983685654', '5.471974531879503', '5.470612979950113', '5.469639391502127', '5.469955817644652', '5.471351305158896', '5.475601099967949', '5.477797519990455', '5.476344100330245', '5.472041725856081', '5.469559931276417', '5.47062011392067', '5.47254990207946', '5.47135186277204']</t>
         </is>
       </c>
       <c r="N41" t="b">
@@ -3577,17 +3577,17 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/3nNpuxHJ8+fraxshare-fxs</t>
+          <t>https://coinranking.com/coin/aMNLwaUbY+internetcomputerdfinity-icp</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>69530249</t>
+          <t>43672051</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>0.000417692483236248</t>
+          <t>0.000243794282755651</t>
         </is>
       </c>
     </row>
@@ -3622,12 +3622,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1753137102</t>
+          <t>1506653426</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.7645518789346119</t>
+          <t>0.6468195915672664</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['0.7684639054365041', '0.7682544723262815', '0.7695418132643939', '0.7711261384759475', '0.7714391098495409', '0.7715892419607514', '0.7716317678359765', '0.7707810689682312', '0.7697446842419873', '0.7694102093252272', '0.7687550403626854', '0.7689114123284911', '0.7691147121644528', '0.7692003378021988', '0.769179415340381', '0.7690260876521743', '0.7686639350308359', '0.7671521407195281', '0.7672695135784117', '0.7670079822579375', '0.7668176262160245', '0.7666520951929378', '0.7664172929045725', '0.7662047765288614', '0.7652882251905536']</t>
+          <t>['0.6446251864958147', '0.6454207851045467', '0.6453196411639596', '0.6454567983680527', '0.6467185274908366', '0.6471812572363602', '0.6474868756966755', '0.6474155735857899', '0.6474033534690803', '0.6475031824841176', '0.6481971029770541', '0.6481045042375934', '0.6479321521487929', '0.6476803009162408', '0.6477192717860031', '0.6476109944668615', '0.647716369995832', '0.6482723779552026', '0.6484671988709692', '0.648247155468988', '0.6468970442003904', '0.6468714166876779', '0.6472118207459835', '0.6473735039388595', '0.6473042081989759']</t>
         </is>
       </c>
       <c r="N42" t="b">
@@ -3659,12 +3659,12 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>223841688</t>
+          <t>70893259</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>0.000031657786072173</t>
+          <t>0.000028848037491875</t>
         </is>
       </c>
     </row>
@@ -3699,12 +3699,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1704891435</t>
+          <t>1506671548</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>13.114549499545904</t>
+          <t>11.589781135710863</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['13.228146057988758', '13.233243064485237', '13.254024269452769', '13.267336634412834', '13.257231535460484', '13.253048133346555', '13.244589366665403', '13.23644346932326', '13.226733450162499', '13.221522058509542', '13.213109387997065', '13.21545051711269', '13.22190358615531', '13.220738354641835', '13.210845377055822', '13.204489975850585', '13.199337084536912', '13.190404754486424', '13.193967542934923', '13.19590186173689', '13.194464704070935', '13.177473554970522', '13.146843201468593', '13.14014636923754', '13.123195612866555']</t>
+          <t>['11.539823706009896', '11.54276415593131', '11.534977967334127', '11.53564253061136', '11.570001281472772', '11.583041164971206', '11.605082111881853', '11.609718237530922', '11.61454182445743', '11.623773668618337', '11.63288293740072', '11.63146448941914', '11.624331376052693', '11.618513087988006', '11.61542404168871', '11.603529837979082', '11.604604781249341', '11.61588470644704', '11.618183445033784', '11.61728282367085', '11.609452545651758', '11.605552531352279', '11.605981828735558', '11.60599351269293', '11.60101865532018']</t>
         </is>
       </c>
       <c r="N43" t="b">
@@ -3736,12 +3736,12 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>335993679</t>
+          <t>248650999</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>0.000543033918205905</t>
+          <t>0.000516902154920022</t>
         </is>
       </c>
     </row>
@@ -3776,12 +3776,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1616131628</t>
+          <t>1414799773</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>16.161316278741626</t>
+          <t>14.147997734707985</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3792,7 +3792,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['16.16897925885089', '16.173944959779696', '16.153711406618697', '16.225499764278982', '16.209863349271618', '16.177680577749495', '16.185083812051303', '16.169623745050178', '16.177969458287908', '16.16377917570255', '16.19110815585273', None, None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
+          <t>['14.05892813378797', '14.07795160940903', '14.09579296085467', '14.153672117789034', '14.175273522118378', '14.159565512542203', '14.141410433556898', '14.14504488231301', '14.114186003985248', '14.1262014093342', '14.192344342255693', None, None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
         </is>
       </c>
       <c r="N44" t="b">
@@ -3813,12 +3813,12 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>13124268</t>
+          <t>12453205</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>0.00066781685357885</t>
+          <t>0.000630579963666228</t>
         </is>
       </c>
     </row>
@@ -3828,17 +3828,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DCrsaMv68</t>
+          <t>KfWtaeV1W</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NEAR</t>
+          <t>FRAX</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NEAR Protocol</t>
+          <t>Frax</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3848,28 +3848,28 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/Cth83dCnl/near.png</t>
+          <t>https://cdn.coinranking.com/BpVNCX-NM/frax.png</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1518533902</t>
+          <t>1409750868</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2.498228282497256</t>
+          <t>1.002914502634102</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1615164591</v>
+        <v>1615299931</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['2.5150096525969627', '2.5131104264354014', '2.5180074236410093', '2.522654106144973', '2.5219903558736885', '2.522035521347318', '2.5228688513221678', '2.5202001412466357', '2.5167836820442826', '2.513690940540484', '2.5113066223919334', '2.5121404832180803', '2.514103235390434', '2.513890556351813', '2.5121118339205144', '2.5105348622218164', '2.508591295198451', '2.505402691237229', '2.5057999383279927', '2.5057349142657452', '2.5055397233215633', '2.505252026925295', '2.5055555743641573', '2.5048004987945105', '2.5005334694718164']</t>
+          <t>['1.002757199604845', '1.0029332203024777', '1.0024614261531553', '1.0024658796831907', '1.002562668621069', '1.0021034233223791', '1.001564280413143', '1.0017861689895404', '1.0015769229553064', '1.0019364074262223', '1.0019088416764563', '1.001914039747126', '1.0019227866286906', '1.0019781968912125', '1.0015988198989076', '1.0015996462564822', '1.0015982869163071', '1.001692050683793', '1.0023217343428426', '1.0023758822126954', '1.0017850137842388', '1.00208570732696', '1.0020299641029338', '1.0025998938778367', '1.002917442109881']</t>
         </is>
       </c>
       <c r="N45" t="b">
@@ -3885,17 +3885,17 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/DCrsaMv68+nearprotocol-near</t>
+          <t>https://coinranking.com/coin/KfWtaeV1W+frax-frax</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>192655584</t>
+          <t>2163282</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>0.000103444094123421</t>
+          <t>0.000044702112252045</t>
         </is>
       </c>
     </row>
@@ -3930,12 +3930,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1512647870</t>
+          <t>1322914064</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.6896949138126137</t>
+          <t>0.603187236662496</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -3954,7 +3954,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['0.6926934299466139', '0.6927908478666727', '0.6939057417927736', '0.6947316744175241', '0.6945656413579404', '0.6945854702573282', '0.6942469904952062', '0.6938065917877573', '0.6933560853900825', '0.6930071229742933', '0.692579136101195', '0.6926030337247161', '0.6930359917557697', '0.6931865011775372', '0.6931083427247287', '0.6927894603729545', '0.6922792604468246', '0.6915582007255641', '0.6917094015401456', '0.6916861134827454', '0.6915905290122155', '0.6912208219689919', '0.6910509838013688', '0.6907755667341059', '0.6900585379053755']</t>
+          <t>['0.6017663695064335', '0.6021322847538015', '0.6014927884481899', '0.601277475774236', '0.602589778952299', '0.6031462754466027', '0.6036829038177868', '0.6035361078996985', '0.6035215401061433', '0.6036489084545053', '0.6038913853078101', '0.60384970208962', '0.6035441486706615', '0.6033779478274705', '0.603521045050297', '0.6039858167426858', '0.6040520931059783', '0.6041920091746378', '0.6040899679179561', '0.603966184192512', '0.6034418375254139', '0.6033632213142611', '0.6035019365915487', '0.6037078889747471', '0.6035849900857424']</t>
         </is>
       </c>
       <c r="N46" t="b">
@@ -3967,12 +3967,12 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>178656272</t>
+          <t>73207532</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>0.000028558185046868</t>
+          <t>0.000026902042307805</t>
         </is>
       </c>
     </row>
@@ -4007,12 +4007,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1422771008</t>
+          <t>1321566699</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>4.0922955716027865</t>
+          <t>3.801203086243159</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['4.107073850875283', '4.100341959267883', '4.102857381907589', '4.107980349506928', '4.109413021049722', '4.109972862658362', '4.115481470779432', '4.113933702619373', '4.111262664662638', '4.108130375241092', '4.106046914879209', '4.10526142014337', '4.106354731999858', '4.106273260546772', '4.106786240194409', '4.1062782310156445', '4.104357373093555', '4.099087446060765', '4.0991990293720715', '4.098290453153623', '4.097851702940134', '4.098081876099794', '4.100337255329445', '4.099711101729469', '4.095480517182202']</t>
+          <t>['3.7876309792728797', '3.7870948065800407', '3.7868100809551866', '3.7872677020255883', '3.7891346056884068', '3.7871069889366424', '3.7863398963016515', '3.785125741604804', '3.785397326541172', '3.7878281735230366', '3.789665650425587', '3.7901067997151534', '3.7897876200110967', '3.789629160021388', '3.790335052424605', '3.7935925559629053', '3.7957920097549627', '3.797085935045303', '3.7974697922585747', '3.797339243859325', '3.7967680758128797', '3.7998857951079366', '3.8009484138022303', '3.800935321312243', '3.8005038644530518']</t>
         </is>
       </c>
       <c r="N47" t="b">
@@ -4044,12 +4044,12 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>44935342</t>
+          <t>21768144</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>0.00016944961005188</t>
+          <t>0.000169532974226196</t>
         </is>
       </c>
     </row>
@@ -4059,48 +4059,48 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>KfWtaeV1W</t>
+          <t>iAzbfXiBBKkR6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>FRAX</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Frax</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>#000000</t>
+          <t>#443f54</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/BpVNCX-NM/frax.png</t>
+          <t>https://cdn.coinranking.com/PqOYrWSje/eos2.svg</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1402286627</t>
+          <t>1284305614</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1.0022388829014932</t>
+          <t>1.2992270632218867</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1615299931</v>
+        <v>1498694400</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['1.0011535227835822', '1.0011476109886586', '1.0013453697338586', '1.001297896874459', '1.0010282758823597', '1.0005918862828422', '1.0006302588642197', '1.0006051689310884', '1.0007693809980471', '1.0009497175661222', '1.0008317693356654', '1.0004953511420143', '1.000690698889659', '1.000778483667581', '1.0007856225275469', '1.0009834432725593', '1.001037026581652', '1.0010385064325822', '1.001417158810841', '1.0016349839660648', '1.001636317738622', '1.0016420586243637', '1.00201259318786', '1.0022409498028457', '1.0022329576448927']</t>
+          <t>['1.295815021097475', '1.2967805488378792', '1.297512557627248', '1.2976969105890142', '1.2979736844773264', '1.2987585654044447', '1.2999210305524818', '1.2995484912864435', '1.299665981996913', '1.3000753698943261', '1.2999376049257516', '1.2995906554895764', '1.2982689356095203', '1.2981955274364096', '1.2989411520755858', '1.30077139871316', '1.302230444221107', '1.3022017193194557', '1.3013570871275724', '1.3010750373460347', '1.3020857412329585', '1.3030716691413262', '1.3022041622180396', '1.3005204146448854', '1.3001118168044064']</t>
         </is>
       </c>
       <c r="N48" t="b">
@@ -4116,17 +4116,17 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/KfWtaeV1W+frax-frax</t>
+          <t>https://coinranking.com/coin/iAzbfXiBBKkR6+eos-eos</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>2932565</t>
+          <t>476819420</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>0.000041501546488568</t>
+          <t>0.000057945293430997</t>
         </is>
       </c>
     </row>
@@ -4136,48 +4136,48 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>65PHZTpmE55b</t>
+          <t>DCrsaMv68</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>NEAR</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>NEAR Protocol</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>#01275d</t>
+          <t>#000000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/2o91jm73M/cro.svg</t>
+          <t>https://cdn.coinranking.com/Cth83dCnl/near.png</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1359329143</t>
+          <t>1272202143</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.08421716515916747</t>
+          <t>2.0929736057334383</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1548953220</v>
+        <v>1615164591</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['0.08457080160355367', '0.08460983449584047', '0.08464971550325329', '0.084604379676605', '0.08467954477497636', '0.08472581244182797', '0.08473455978410825', '0.08471408985028586', '0.0846863741045748', '0.0846658681118663', '0.08462266451951732', '0.08463377467324991', '0.08464801280019689', '0.08463934899630193', '0.08463997001493807', '0.08461802984357879', '0.0845939409331795', '0.08456899346082937', '0.0845712918055648', '0.08458943490991841', '0.08454289795933775', '0.08448609596611044', '0.08442496590471765', '0.08426767882460798', '0.08420663653766823']</t>
+          <t>['2.088014794529791', '2.086688058875847', '2.0854092364096117', '2.085147415089981', '2.0907627084875378', '2.0931256723405736', '2.0956386073458257', '2.0957054601148113', '2.0960721119906336', '2.097182405388739', '2.0988763128245242', '2.0989763164642796', '2.098645832581006', '2.0979918419329686', '2.0973901107403763', '2.096643725400339', '2.096925283360563', '2.09787846477554', '2.0980427517306546', '2.0975122640791626', '2.095928374392783', '2.0955814763057483', '2.0944284461851463', '2.0942655059129143', '2.0940123074863854']</t>
         </is>
       </c>
       <c r="N49" t="b">
@@ -4193,17 +4193,17 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/65PHZTpmE55b+cronos-cro</t>
+          <t>https://coinranking.com/coin/DCrsaMv68+nearprotocol-near</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>95216133</t>
+          <t>84572275</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>0.000003487178662001</t>
+          <t>0.000093346246518916</t>
         </is>
       </c>
     </row>
@@ -4238,12 +4238,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1313601239</t>
+          <t>1229030893</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>134.353025621977</t>
+          <t>125.70330638802999</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['134.92704101151296', '134.87447633795418', '135.06966569977286', '135.1604983609728', '135.08132899673737', '135.11479158283223', '135.15967804991692', '135.05897076856294', '134.96902718168246', '134.9376466597756', '134.92181001509852', '134.8840384946334', '134.86669536515433', '134.86972391066953', '134.86748379742326', '134.8441582377782', '134.79154031796625', '134.68446835960253', '134.65595721658323', '134.61070248508403', '134.58369403919792', '134.56858252362065', '134.54408319931062', '134.49105001260756', '134.38900041184667']</t>
+          <t>['124.98835754696225', '125.05596851698976', '125.01803308626464', '125.06602293289343', '125.52398465617956', '125.63590615152349', '125.56665037803563', '125.46200333796693', '125.4123212704738', '125.46577258966921', '125.6212679045473', '125.64011236398595', '125.64310070362339', '125.6478995912016', '125.69059669322314', '125.79773766726461', '125.79431134171568', '125.80770942056915', '125.78291337403465', '125.69410136815507', '125.57494885030728', '125.56199937418685', '125.52440268274695', '125.56334716004713', '125.60851390476297']</t>
         </is>
       </c>
       <c r="N50" t="b">
@@ -4275,12 +4275,12 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>37425693</t>
+          <t>20442126</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>0.005563153345743731</t>
+          <t>0.005606344864644341</t>
         </is>
       </c>
     </row>
@@ -4290,48 +4290,48 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>QQ0NCmjVq</t>
+          <t>65PHZTpmE55b</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>FLOW</t>
+          <t>CRO</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Flow</t>
+          <t>Cronos</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>#9efad7</t>
+          <t>#01275d</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/xh8X8QBss/flow.png</t>
+          <t>https://cdn.coinranking.com/2o91jm73M/cro.svg</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1310508967</t>
+          <t>1186836985</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>1.2647258902020888</t>
+          <t>0.07328753278564328</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1614963736</v>
+        <v>1548953220</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -4339,7 +4339,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['1.2769775572552065', '1.2772493732566579', '1.279737975148437', '1.2817896649435134', '1.281659922886201', '1.2817043000413808', '1.2824795191766245', '1.2826165776218383', '1.2819124331069636', '1.28053339126276', '1.279661503625306', '1.2792775611982417', '1.2791331242454071', '1.2792082059240193', '1.2790688089938753', '1.2785547808802376', '1.2771733432784478', '1.2736639067149038', '1.2737660722921498', '1.2710516765536095', '1.2697989419358093', '1.268287749847537', '1.266821041556013', '1.266114721193905', '1.264931257490485']</t>
+          <t>['0.073314415515182', '0.0733062463381829', '0.07327628362300856', '0.07329360845152062', '0.0733109659876246', '0.07335194117845543', '0.07337392044099286', '0.07335304520869294', '0.07339800848611681', '0.07339451885546967', '0.07338905307696168', '0.07338105454960853', '0.0733528960442182', '0.07336693799769092', '0.07338887860597693', '0.07339470430846924', '0.07339083824720612', '0.07338873505976701', '0.07336008521347616', '0.07334874740855445', '0.07334274736299236', '0.0733340865473982', '0.07334525224975205', '0.07332467496412046', '0.0733255677829277']</t>
         </is>
       </c>
       <c r="N51" t="b">
@@ -4347,17 +4347,17 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/QQ0NCmjVq+flow-flow</t>
+          <t>https://coinranking.com/coin/65PHZTpmE55b+cronos-cro</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>105873687</t>
+          <t>16456831</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>0.000052368482473353</t>
+          <t>0.000003268610785837</t>
         </is>
       </c>
     </row>
@@ -4367,48 +4367,48 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ixgUfzmLR</t>
+          <t>QQ0NCmjVq</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>AAVE</t>
+          <t>FLOW</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Flow</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>#B6509E</t>
+          <t>#00ef8b</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/4bpYKqV4X/AAVE.png</t>
+          <t>https://cdn.coinranking.com/xh8X8QBss/flow.png</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1241873841</t>
+          <t>1122320933</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>86.2916722203844</t>
+          <t>1.0831122686704866</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1603447311</v>
+        <v>1614963736</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['86.58106285166676', '86.58569754353225', '86.72052017089808', '86.81615958878882', '86.83772761480272', '86.86332886239055', '86.8523670649033', '86.78661306065112', '86.70130088805833', '86.6513391841799', '86.61025375367942', '86.6047604734124', '86.68279380554131', '86.70547462266323', '86.69867473945048', '86.65856397515842', '86.60825400071172', '86.49995155330741', '86.49604143768155', '86.49657890466553', '86.47520894483748', '86.47038487474758', '86.46035175596101', '86.38369113464441', '86.30322259966034']</t>
+          <t>['1.0772995726846577', '1.077893254226588', '1.0776192099466175', '1.077407950030006', '1.0781075201260955', '1.0789080002584506', '1.0815023033544235', '1.082228957637089', '1.0827333349097827', '1.083085883453341', '1.0836662893654776', '1.0837321689955777', '1.0840338240335246', '1.0843527313203092', '1.0843990764775016', '1.0842652189697748', '1.0840340648205107', '1.0835190673791502', '1.0832616757209839', '1.0833733851454759', '1.0833274379421816', '1.0833831639049727', '1.0831066165901044', '1.0830664018771916', '1.082988601772968']</t>
         </is>
       </c>
       <c r="N52" t="b">
@@ -4424,17 +4424,17 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/ixgUfzmLR+aave-aave</t>
+          <t>https://coinranking.com/coin/QQ0NCmjVq+flow-flow</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>128111128</t>
+          <t>27434370</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>0.003573077739040715</t>
+          <t>0.000048306612449395</t>
         </is>
       </c>
     </row>
@@ -4444,48 +4444,48 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>B42IRxNtoYmwK</t>
+          <t>ixgUfzmLR</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>THETA</t>
+          <t>AAVE</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Theta Token</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>#1b1f2a</t>
+          <t>#B6509E</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/HJHg2k9Lf/theta.svg</t>
+          <t>https://cdn.coinranking.com/4bpYKqV4X/AAVE.png</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1226152249</t>
+          <t>1112752959</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1.226162841144716</t>
+          <t>77.22044389066944</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1516233600</v>
+        <v>1603447311</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['1.2299749178203243', '1.229300941307902', '1.2315534304068463', '1.2336332082799824', '1.2316627773859095', '1.2312165777956912', '1.2333265534196431', '1.2340848991322322', '1.2342705921579276', '1.2324411519273835', '1.2313345909405284', '1.231660192408118', '1.2327300984573801', '1.2325909315219015', '1.2314173841901968', '1.2308085259118628', '1.2306300129204606', '1.2297884502837408', '1.2296819075303593', '1.2290794390585074', '1.2293653102714754', '1.2291944800454715', '1.2293206747702856', '1.22911715082531', '1.2270301416527751']</t>
+          <t>['76.88736346309918', '76.88964184674619', '76.85287037202043', '76.85978732345326', '76.94394436602872', '77.03759860786639', '77.08132507189164', '77.07098555828469', '77.0919929524569', '77.10907730628227', '77.13899004050253', '77.15191058295727', '77.20266742373805', '77.2441163051053', '77.27925963280511', '77.32516167123555', '77.36049352063756', '77.40348702039327', '77.39789527559881', '77.37931818503925', '77.30875616331676', '77.27843868674844', '77.27438057227141', '77.26945580312679', '77.24859842263878']</t>
         </is>
       </c>
       <c r="N53" t="b">
@@ -4501,17 +4501,17 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/B42IRxNtoYmwK+thetatoken-theta</t>
+          <t>https://coinranking.com/coin/ixgUfzmLR+aave-aave</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>68186029</t>
+          <t>53417315</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>0.000050771702985936</t>
+          <t>0.003444017914020726</t>
         </is>
       </c>
     </row>
@@ -4521,48 +4521,48 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>omwkOTglq</t>
+          <t>fsIbGOEJWbzxG</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>EGLD</t>
+          <t>XTZ</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Elrond</t>
+          <t>Tezos</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>#000000</t>
+          <t>#2c7df7</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/X62ruAuZQ/Elrond.svg</t>
+          <t>https://cdn.coinranking.com/HkLUdilQ7/xtz.svg</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1202051616</t>
+          <t>1050268501</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>50.33361614437866</t>
+          <t>1.1447975939132724</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1612524044</v>
+        <v>1530662400</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['50.4995394213231', '50.451693599157686', '50.546637541283786', '50.6366510960809', '50.63598454941091', '50.651130773098004', '50.68666549319828', '50.640602609123825', '50.594200256683195', '50.58581890147426', '50.553081929366215', '50.53109594395637', '50.493537921829905', '50.50404997967121', '50.50827685557765', '50.504985167406105', '50.49058340881647', '50.46330679750108', '50.46213859917547', '50.442697547330695', '50.43948962769705', '50.438716699056336', '50.44152363975249', '50.42048206432748', '50.36463095137062']</t>
+          <t>['1.1376962815021157', '1.1378868622762135', '1.1382598094404837', '1.1387561717374073', '1.1393212683264682', '1.1398142701097635', '1.140038013913018', '1.1405141811943753', '1.1409329913595538', '1.1408741227567138', '1.1412910664432472', '1.1413160640909212', '1.1427606420447523', '1.1435783095478342', '1.1438210011339107', '1.1437911559798595', '1.1439939850305199', '1.1442885547823904', '1.1444268238514996', '1.1444782930570436', '1.1439802199529747', '1.1439827332354537', '1.1443703092685198', '1.1447163914579022', '1.1446067580856825']</t>
         </is>
       </c>
       <c r="N54" t="b">
@@ -4578,17 +4578,17 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/omwkOTglq+elrond-egld</t>
+          <t>https://coinranking.com/coin/fsIbGOEJWbzxG+tezos-xtz</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>47846692</t>
+          <t>35929124</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>0.002084163149736891</t>
+          <t>0.000051057766864787</t>
         </is>
       </c>
     </row>
@@ -4598,48 +4598,48 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>iAzbfXiBBKkR6</t>
+          <t>B42IRxNtoYmwK</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>THETA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>Theta Token</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>#443f54</t>
+          <t>#1b1f2a</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/PqOYrWSje/eos2.svg</t>
+          <t>https://cdn.coinranking.com/HJHg2k9Lf/theta.svg</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1185422990</t>
+          <t>1047609704</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1.199195590911961</t>
+          <t>1.0476187543604571</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1498694400</v>
+        <v>1516233600</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['1.2027956337420729', '1.2027225305412457', '1.2040220971394198', '1.2048703583400382', '1.2057781023448593', '1.2055521598594714', '1.2053068699009641', '1.2047162251206096', '1.2044113625889696', '1.203633310365682', '1.2028646712362405', '1.2030249876665324', '1.2039744035351398', '1.2041962519601621', '1.20335988667397', '1.2032859189221907', '1.2023359148386659', '1.2019044777401717', '1.2022623584567105', '1.2017878414663286', '1.2014731720263279', '1.2008101573637193', '1.2005417365659603', '1.1996470178380154', '1.1990983310857881']</t>
+          <t>['1.0442074094148976', '1.0430947023889137', '1.0426599439878557', '1.042687329077976', '1.045662297114205', '1.046561220179268', '1.04780606502915', '1.0479314918686837', '1.0481688578004689', '1.048418092388225', '1.0492038665866945', '1.0492165783237402', '1.0494413062005556', '1.0495246391600346', '1.0493573068665163', '1.0487947059592404', '1.0487692223780853', '1.048433997272817', '1.0481366831325014', '1.0479015855271547', '1.048054748473343', '1.0480896202713994', '1.0477852208697287', '1.0475976531402298', '1.0476041287787519']</t>
         </is>
       </c>
       <c r="N55" t="b">
@@ -4655,17 +4655,17 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/iAzbfXiBBKkR6+eos-eos</t>
+          <t>https://coinranking.com/coin/B42IRxNtoYmwK+thetatoken-theta</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>196047836</t>
+          <t>26494078</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>0.000049655070534502</t>
+          <t>0.000046723608092564</t>
         </is>
       </c>
     </row>
@@ -4675,48 +4675,48 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>fsIbGOEJWbzxG</t>
+          <t>omwkOTglq</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>XTZ</t>
+          <t>EGLD</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Tezos</t>
+          <t>Elrond</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>#2c7df7</t>
+          <t>#000000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/HkLUdilQ7/xtz.svg</t>
+          <t>https://cdn.coinranking.com/X62ruAuZQ/Elrond.svg</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1172558256</t>
+          <t>1044773751</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>1.2780940012237132</t>
+          <t>43.74790585019916</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1530662400</v>
+        <v>1612524044</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>-1.10</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['1.291459022617315', '1.290218287994163', '1.290439721304347', '1.2909637800937956', '1.2886462248196955', '1.2873600890977968', '1.2854429609605793', '1.2794850067519916', '1.2740642176627441', '1.2731864060968097', '1.2720719451247036', '1.2711538605685557', '1.2699685589860557', '1.2700977583982902', '1.2680292701815443', '1.2668599111886798', '1.2657176215615342', '1.2642769431654404', '1.2653097792640642', '1.2678550578747907', '1.2702002172559', '1.2710397940741964', '1.276520539112804', '1.276227816227506', '1.2775764979930264']</t>
+          <t>['43.27405475722755', '43.30666479608641', '43.324678297242286', '43.362796887258945', '43.49073309478843', '43.530199503599526', '43.54935157317683', '43.572957619600224', '43.604470833541434', '43.635364711629855', '43.65981445940494', '43.657597045377855', '43.66008821419277', '43.66014216358135', '43.653490337470764', '43.621697873835416', '43.614687629963676', '43.61619918074772', '43.619908475021475', '43.61893207241994', '43.66308109629408', '43.67845068321011', '43.72571058207119', '43.7487861022241', '43.754491947439405']</t>
         </is>
       </c>
       <c r="N56" t="b">
@@ -4732,17 +4732,17 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/fsIbGOEJWbzxG+tezos-xtz</t>
+          <t>https://coinranking.com/coin/omwkOTglq+elrond-egld</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>118224369</t>
+          <t>28602341</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>0.000052922015609</t>
+          <t>0.001951148735460498</t>
         </is>
       </c>
     </row>
@@ -4752,48 +4752,48 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>IEJOE2-U2</t>
+          <t>JCKLgWPAF</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>BNX</t>
+          <t>USDP</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>BinaryX</t>
+          <t>Pax Dollar</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>#000000</t>
+          <t>#2ac27a</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/mX2o6GwxI/BinaryX-RGB-01_(2).PNG</t>
+          <t>https://cdn.coinranking.com/KUd2bJXdn/3330.png</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1128081940</t>
+          <t>1018227779</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>184.8855732804919</t>
+          <t>1.002244270912343</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1646008225</v>
+        <v>1650960626</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['184.40586791803892', '185.0865173199403', '185.29287150915894', '185.04620287921202', '184.48803846523688', '184.66090396004336', '185.35583659146494', '185.43719237335205', '185.69159591100404', '184.5723620206149', '184.20792705892944', '184.10527135995656', '183.99566523313956', '184.30374987161053', '184.78424757848506', '184.95619791990228', '185.1201634703333', '185.17102770112052', '185.06473601052573', '184.8063743683838', '184.80515614702867', '184.7765220471336', '184.8033176608515', '184.88620667523662', '184.8855732804919']</t>
+          <t>['1.0029664451873013', '1.0027947866036566', '1.0026117246263098', '1.0031175450638792', '1.0027268657330513', '1.0021487480930402', '1.0017145351641867', '1.0020460743934878', '1.0024412932895208', '1.0016453280179967', '1.001604790745273', '1.0022003492696239', '1.0022792236286326', '1.0022846914947845', '1.002242532497158', '1.002243220010764', '1.0022339000760572', '1.0019116602866123', '1.0018749417098782', '1.0018894064576618', '1.0025312209096362', '1.0026044804339698', '1.00260253566708', '1.0022970805898646', '1.002256267806954']</t>
         </is>
       </c>
       <c r="N57" t="b">
@@ -4809,17 +4809,17 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/IEJOE2-U2+binaryx-bnx</t>
+          <t>https://coinranking.com/coin/JCKLgWPAF+paxdollar-usdp</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>3147934</t>
+          <t>1679545</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>0.007655553649153325</t>
+          <t>0.00004469991428868</t>
         </is>
       </c>
     </row>
@@ -4854,12 +4854,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1079643074</t>
+          <t>996057122</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.000163609114379005</t>
+          <t>0.000150942499040454</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['0.000164026309995815', '0.000163795896772272', '0.000164071087750932', '0.000164356619115636', '0.000164182128864473', '0.000164163169357183', '0.000164277821162921', '0.000164250887025263', '0.000164185826984025', '0.000164252270460526', '0.000164262368014914', '0.000164247129621653', '0.000164293196277735', '0.000164327490477187', '0.00016436936987422', '0.000164402287484598', '0.000164337010829072', '0.000164330367851585', '0.000164325023024468', '0.000164255639017159', '0.000164249349204872', '0.00016413479979901', '0.000163683452710162', '0.000163647826700063', '0.000163603154474074']</t>
+          <t>['0.00014986934850483', '0.000149888688351876', '0.000149870496604733', '0.000149935070127018', '0.000150908185045967', '0.000151166242473398', '0.000151379390942777', '0.00015116449513011', '0.000150964321203541', '0.000151001974992877', '0.000151081596776423', '0.000151081653370004', '0.000151078913152807', '0.00015111347935226', '0.000151150811480888', '0.000151285699099254', '0.000151299147984125', '0.000151272727446793', '0.000151235355832727', '0.000151182276788414', '0.000151037480971912', '0.00015102785288877', '0.000150983834097099', '0.000150966354030547', '0.000150974989600303']</t>
         </is>
       </c>
       <c r="N58" t="b">
@@ -4891,12 +4891,12 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>62497755</t>
+          <t>62133818</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>6.774559693e-9</t>
+          <t>6.732008319e-9</t>
         </is>
       </c>
     </row>
@@ -4931,12 +4931,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1077041831</t>
+          <t>968136782</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.1407961252873066</t>
+          <t>0.12655952972833706</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['0.14118215491510266', '0.14108554352395372', '0.14115499326480996', '0.14132378128700945', '0.14130185169755685', '0.14126413823071765', '0.1412028721538262', '0.14117437663582136', '0.14111028515691462', '0.14101060621725628', '0.14092842553448703', '0.14093201558019605', '0.14097411773385593', '0.14099438096833206', '0.1409773061225586', '0.1409795871615591', '0.14092521972557512', '0.1409163972383929', '0.14092716663124955', '0.14093994570198973', '0.14097724807678874', '0.1410007656503306', '0.1410432328889975', '0.14098556812082588', '0.14085359725407012']</t>
+          <t>['0.1261913514479713', '0.12611862226205078', '0.12609348591357308', '0.12613632059424387', '0.12622911185241673', '0.12625987979545353', '0.12631111471679105', '0.12636234062354895', '0.12640916082526868', '0.12647317024045052', '0.12654634792903977', '0.12655028410814823', '0.12652886203098965', '0.12651153240833227', '0.12649605342833053', '0.1265196237721253', '0.12654345273715037', '0.12652290944290953', '0.12650572918645628', '0.1265097227021188', '0.12653336505189047', '0.12654985881194564', '0.12658725870750975', '0.12659623846299511', '0.1265562177655286']</t>
         </is>
       </c>
       <c r="N59" t="b">
@@ -4968,12 +4968,12 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>143220265</t>
+          <t>46433055</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>0.000005829942659153</t>
+          <t>0.000005644532271681</t>
         </is>
       </c>
     </row>
@@ -4983,48 +4983,48 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>JY1_q2c0g</t>
+          <t>sgxZRXbK0FDc</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>BABYDOGE</t>
+          <t>SNX</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Baby Doge Coin</t>
+          <t>Synthetix Network</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>#e6b635</t>
+          <t>#90dce0</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/1X2BCCJdV/Baby_Doge.png</t>
+          <t>https://cdn.coinranking.com/c2WntZSPs/snx-synthetix.png</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1057892078</t>
+          <t>924561030</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2.995269268e-9</t>
+          <t>2.9318534991646086</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1626135916</v>
+        <v>1554322020</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['3.05046149e-9', '3.036768084e-9', '2.998637221e-9', '2.97952973e-9', '2.979123237e-9', '2.979130899e-9', '2.97927658e-9', '2.978452161e-9', '2.997058952e-9', '3.028033333e-9', '3.04008712e-9', '3.024356984e-9', '3.006732082e-9', '2.994838712e-9', '2.99435526e-9', '2.992284246e-9', '2.984812009e-9', '2.980227707e-9', '2.979093664e-9', '2.979567735e-9', '2.979826542e-9', '2.962869428e-9', '2.963982029e-9', '2.973582061e-9', '2.996060148e-9']</t>
+          <t>['2.9210493846285117', '2.9067450683179055', '2.9022777372638213', '2.9000244605659478', '2.9065901978820112', '2.9115464510918088', '2.92060173145983', '2.9253174203074632', '2.930020182402521', '2.929670374655304', '2.9248898398169256', '2.9253286779019545', '2.923982760821052', '2.923535157183325', '2.9257212404248065', '2.9292365885418183', '2.9313662223821417', '2.937384436920109', '2.941275770824338', '2.939470378157652', '2.9383152083554203', '2.9374282423632243', '2.9337773873897484', '2.932553900662311', '2.9322171930460508']</t>
         </is>
       </c>
       <c r="N60" t="b">
@@ -5040,17 +5040,17 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/JY1_q2c0g+babydogecoin-babydoge</t>
+          <t>https://coinranking.com/coin/sgxZRXbK0FDc+synthetixnetwork-snx</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>17432674</t>
+          <t>111415225</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>1.24025e-13</t>
+          <t>0.0001307601389433</t>
         </is>
       </c>
     </row>
@@ -5060,48 +5060,48 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>JCKLgWPAF</t>
+          <t>ZO4D7EBy3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>USDP</t>
+          <t>SENSO</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Pax Dollar</t>
+          <t>SENSO</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>#2ac27a</t>
+          <t>#000000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/KUd2bJXdn/3330.png</t>
+          <t>https://cdn.coinranking.com/TQFMWwtyn/senso.svg</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1013256510</t>
+          <t>894542952</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.9973510377611527</t>
+          <t>0.15122580026294402</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1650960626</v>
+        <v>1599491460</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['0.996311964763414', '0.9965841323153594', '0.9983944891490841', '0.9975297304124225', '0.9968531977267592', '0.9971955237635729', '0.997271317391777', '0.9974521024890107', '0.9974261944008544', '0.9973964553789055', '0.9969483319156411', '0.9968272758928859', '0.9966247659453559', '0.997340135513206', '0.9971950232628087', '0.9973435132393608', '0.9973617371570158', '0.9973831007792645', '0.9978599420674655', '0.9979050770324531', '0.9979040390305407', '0.9974739572151935', '0.9973613606506547', '0.9973489184650619', '0.9973643070353864']</t>
+          <t>['0.1507851742199312', '0.15142138275079323', '0.15140836223062043', '0.15133597376975458', '0.15136662876969106', '0.1514426642578574', '0.15145438083528406', '0.15147495798362393', '0.15143480674909257', '0.15145911131612794', '0.15152132373649466', '0.1514660116460854', '0.15140210201184995', '0.15137940016558718', '0.1510279910522438', '0.1510914628492534', '0.1511559623443997', '0.1510572082020743', '0.1509300463083557', '0.15124442654778064', '0.15122293742560522', '0.15127807402691232', '0.15133995480541582', '0.1512363045031918', '0.15122744094171478']</t>
         </is>
       </c>
       <c r="N61" t="b">
@@ -5117,17 +5117,17 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/JCKLgWPAF+paxdollar-usdp</t>
+          <t>https://coinranking.com/coin/ZO4D7EBy3+senso-senso</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>2841302</t>
+          <t>728927</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>0.000041297296707059</t>
+          <t>0.000006744643502763</t>
         </is>
       </c>
     </row>
@@ -5137,48 +5137,48 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>cVaOmQWainv7g</t>
+          <t>qFakph2rpuMOL</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>NEO</t>
+          <t>MKR</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NEO</t>
+          <t>Maker</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>#aedb00</t>
+          <t>#1abc9c</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/MgUNVQCeN/neo.svg</t>
+          <t>https://cdn.coinranking.com/sjHfS7jCS/mkrdao.svg</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>991277681</t>
+          <t>888395873</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>14.05469560079832</t>
+          <t>908.652282840078</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1501891200</v>
+        <v>1502236800</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['13.181058621828655', '13.23514239779575', '13.343049348228778', '13.473840023222266', '13.516965724164223', '13.55843484389642', '13.77905128838616', '13.908255451921402', '14.0771983841207', '14.119710064037706', '14.121549468507622', '14.148074858761273', '14.226137376756574', '14.20962941890863', '14.202175679968162', '14.173780696926194', '14.153817029298068', '14.14500129830673', '14.146096612694238', '14.158457054123751', '14.145558377080647', '14.16288793669204', '14.171720468268633', '14.156421776547482', '14.09059802387387']</t>
+          <t>['912.8407458663412', '911.5503934848506', '909.777630707183', '907.7864987988664', '905.3243587785237', '905.1825951063865', '905.4782776126124', '905.1060840695802', '905.0471667842704', '905.5029401354267', '906.7683563089121', '906.8942808395775', '907.6605655654653', '908.2726883512153', '908.3496742993611', '908.3577866157267', '908.7973514801099', '909.7032282593079', '909.9590748957315', '909.8366867927386', '909.6570576601989', '909.7306266690103', '910.0326539190772', '909.9562055603506', '909.5936242737597']</t>
         </is>
       </c>
       <c r="N62" t="b">
@@ -5194,17 +5194,17 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/cVaOmQWainv7g+neo-neo</t>
+          <t>https://coinranking.com/coin/qFakph2rpuMOL+maker-mkr</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>436104167</t>
+          <t>84667348</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>0.000581962531122939</t>
+          <t>0.04052572844760846</t>
         </is>
       </c>
     </row>
@@ -5214,48 +5214,48 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>drWC87t2Vozh</t>
+          <t>cVaOmQWainv7g</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ANKR</t>
+          <t>NEO</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Ankr</t>
+          <t>NEO</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>#277fcc</t>
+          <t>#aedb00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/2NXhylXMw/ankr.png</t>
+          <t>https://cdn.coinranking.com/MgUNVQCeN/neo.svg</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>932999650</t>
+          <t>871407240</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.04770395346082747</t>
+          <t>12.355128881541972</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1552484520</v>
+        <v>1501891200</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>-4.43</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -5263,7 +5263,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>['0.049859637803481675', '0.04935196142158538', '0.04929037640009476', '0.049273315458048264', '0.048997663451831944', '0.04885605234999989', '0.048597903156732236', '0.04840473027844594', '0.04820194415897778', '0.04787060035739229', '0.0477389732409326', '0.047717264652032784', '0.04760927754483989', '0.04761948502270247', '0.04777525454707495', '0.04786098872016802', '0.04779514703976677', '0.04757108575419954', '0.04757358491529481', '0.04738854659929629', '0.04731664865685274', '0.047378085881467455', '0.047589742274196094', '0.047619028403975555', '0.04767942509290481']</t>
+          <t>['12.300979961583913', '12.262952965919364', '12.264253508794356', '12.2706977304804', '12.270505951497446', '12.277851318491491', '12.29477787295398', '12.295623350309082', '12.293654834568686', '12.287304523666826', '12.280921449224735', '12.281204396917989', '12.282201863406568', '12.2829245811597', '12.28512100364895', '12.298601775452319', '12.302711491877348', '12.329999486902837', '12.334030249000453', '12.3420037430126', '12.368178983614401', '12.367830403534914', '12.365523445867755', '12.363889515752742', '12.363126419660025']</t>
         </is>
       </c>
       <c r="N63" t="b">
@@ -5271,17 +5271,17 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/drWC87t2Vozh+ankr-ankr</t>
+          <t>https://coinranking.com/coin/cVaOmQWainv7g+neo-neo</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>1153938965</t>
+          <t>95377467</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>0.000001975276753703</t>
+          <t>0.000551036526781826</t>
         </is>
       </c>
     </row>
@@ -5291,48 +5291,48 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ql3Jj4Tge</t>
+          <t>JY1_q2c0g</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SUSHI</t>
+          <t>BABYDOGE</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SUSHI</t>
+          <t>Baby Doge Coin</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>#b06b2e</t>
+          <t>#e6b635</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/eKKejWkdo/sushiswap.png</t>
+          <t>https://cdn.coinranking.com/1X2BCCJdV/Baby_Doge.png</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>875764967</t>
+          <t>839634303</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>1.433662048807927</t>
+          <t>2.377368453e-9</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1600160400</v>
+        <v>1626135916</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -5340,7 +5340,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['1.441441009090747', '1.4420338831385666', '1.4452464480111173', '1.4483022587399126', '1.4500836417673102', '1.4513701025625096', '1.4516013807185437', '1.4476140162453217', '1.4434615304305005', '1.440804592360719', '1.4395201747387665', '1.439294142037569', '1.4406839522161805', '1.4421000013982876', '1.4429157990773038', '1.4429433378624992', '1.4413138636014717', '1.4388885873505655', '1.4384321980964059', '1.43764331166592', '1.4374815939977357', '1.4373817635152526', '1.4371211858202175', '1.4362815324817846', '1.4343590600081846']</t>
+          <t>['2.349257626e-9', '2.334011364e-9', '2.329331108e-9', '2.332978619e-9', '2.32567028e-9', '2.327913744e-9', '2.326871676e-9', '2.323794852e-9', '2.325301046e-9', '2.332444421e-9', '2.333599921e-9', '2.332873277e-9', '2.339088881e-9', '2.338944197e-9', '2.337530619e-9', '2.344915479e-9', '2.34670331e-9', '2.344113984e-9', '2.343903391e-9', '2.347097166e-9', '2.347598666e-9', '2.349344212e-9', '2.346962366e-9', '2.344629288e-9', '2.36476327e-9']</t>
         </is>
       </c>
       <c r="N64" t="b">
@@ -5348,17 +5348,17 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/ql3Jj4Tge+sushi-sushi</t>
+          <t>https://coinranking.com/coin/JY1_q2c0g+babydogecoin-babydoge</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>68016353</t>
+          <t>8172688</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>0.000059363618992344</t>
+          <t>1.0603e-13</t>
         </is>
       </c>
     </row>
@@ -5368,48 +5368,48 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>7C4Mh4xy1yDel</t>
+          <t>C9DwH-T7MEGmo</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>RNDR</t>
+          <t>DASH</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Render Token</t>
+          <t>Dash</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>#000000</t>
+          <t>#1c75bc</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/lhbmnCedl/5690.png</t>
+          <t>https://cdn.coinranking.com/PyCmduSxt/Dash-D-white_on_blue_circle.svg</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>858421403</t>
+          <t>767631481</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>1.6112771139957165</t>
+          <t>69.6106195869273</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1562331120</v>
+        <v>1391817600</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -5417,7 +5417,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['1.6193177079062746', '1.6169560603986026', '1.6211250625684015', '1.6246207881958679', '1.62563156594866', '1.6258958363140152', '1.6244296942825214', '1.6246748734276923', '1.62498222880056', '1.6236442734396745', '1.6232126039646413', '1.6230800366861222', '1.6244045261521454', '1.6248264620227975', '1.624803125003012', '1.6241648467162948', '1.621558096472605', '1.6161880689602406', '1.615917328860003', '1.616950237690018', '1.6172302482933336', '1.6172698529431082', '1.61662799869688', '1.6157707354607354', '1.6126190496590977']</t>
+          <t>['69.31324861524773', '69.18696519089112', '69.1023865312747', '69.07030351429229', '69.22072412158468', '69.25462295719834', '69.30007650597163', '69.33503171233085', '69.38578774539192', '69.37072639862393', '69.36896859422194', '69.36691764886649', '69.37498320000633', '69.40574785049415', '69.42701600175367', '69.50459444732063', '69.53527435805583', '69.64462740876907', '69.64717286533663', '69.63744095129385', '69.55681110221012', '69.52999991866456', '69.55804692492161', '69.5978447628149', '69.60413015847003']</t>
         </is>
       </c>
       <c r="N65" t="b">
@@ -5425,17 +5425,17 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/7C4Mh4xy1yDel+rendertoken-rndr</t>
+          <t>https://coinranking.com/coin/C9DwH-T7MEGmo+dash-dash</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>103414448</t>
+          <t>84231657</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>0.000066718122842031</t>
+          <t>0.003104621118248032</t>
         </is>
       </c>
     </row>
@@ -5445,48 +5445,48 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>uIEWfMFnQo9K_</t>
+          <t>ql3Jj4Tge</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>FTM</t>
+          <t>SUSHI</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Fantom</t>
+          <t>SUSHI</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>#1969ff</t>
+          <t>#b06b2e</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/Uh-AYdcnU/fantom.png</t>
+          <t>https://cdn.coinranking.com/eKKejWkdo/sushiswap.png</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>852637359</t>
+          <t>746097225</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.49724053878570285</t>
+          <t>1.2211973343014337</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1540944000</v>
+        <v>1600160400</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['0.5023004441103845', '0.501714711045123', '0.5026629255150677', '0.5035961327701428', '0.5038836074987811', '0.5039590919135275', '0.5039439025906634', '0.5034823463269077', '0.5029322246988234', '0.501708515844812', '0.5010788307546676', '0.5012452568141363', '0.5018475083382508', '0.5019299371494502', '0.5018011033951955', '0.501597822941963', '0.50107727479775', '0.4999906640347513', '0.4999983673334581', '0.49963185322928766', '0.49951923810376', '0.49923828410287585', '0.4985235232356946', '0.49835673499542965', '0.4975718226254556']</t>
+          <t>['1.215342287974446', '1.2159397300328698', '1.215661293698569', '1.2160546813589868', '1.2181033905197933', '1.2196885791463832', '1.221347200721215', '1.2211883062522546', '1.2211054662561032', '1.2212773775884682', '1.2223698246102703', '1.2221736815919926', '1.221788972448284', '1.2215744042967993', '1.2216230954046092', '1.2218861009341622', '1.2221016752157798', '1.222371784081266', '1.2224997743962347', '1.2224118715262988', '1.2222612688226047', '1.2217997047816538', '1.2209015727987786', '1.2207624931526853', '1.2209373246123914']</t>
         </is>
       </c>
       <c r="N66" t="b">
@@ -5502,17 +5502,17 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/uIEWfMFnQo9K_+fantom-ftm</t>
+          <t>https://coinranking.com/coin/ql3Jj4Tge+sushi-sushi</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>449892881</t>
+          <t>44784305</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>0.000020589230158227</t>
+          <t>0.00005446518155015</t>
         </is>
       </c>
     </row>
@@ -5522,48 +5522,48 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>QGbUTVMjG</t>
+          <t>VcMY11NONHSA0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CRV</t>
+          <t>BSV</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Curve DAO Token</t>
+          <t>Bitcoin SV</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>#0030ff</t>
+          <t>#eab300</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/89clXLSu2/curve-dao-token.svg</t>
+          <t>https://cdn.coinranking.com/388ehh6kq/bitcoin-sv-1.svg</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>845402312</t>
+          <t>744143426</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>1.120598816193954</t>
+          <t>38.80935156276448</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1597402380</v>
+        <v>1541808000</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>['1.1248521685919042', '1.1245329476591592', '1.1264105501313877', '1.1287002451705457', '1.1294210199405479', '1.1296753889782898', '1.1288933891204023', '1.1276964582423596', '1.126941708948372', '1.1259458466280987', '1.1251455704719753', '1.1254019308858738', '1.1263813571544616', '1.1266784931853047', '1.1266296992955844', '1.1261767979164987', '1.1260078033254062', '1.1252757077677336', '1.125523808992268', '1.1250125881355248', '1.124471057425915', '1.123689941100527', '1.1222853169012588', '1.1217826368239625', '1.1209479023170044']</t>
+          <t>['38.66752586564926', '38.66082876145104', '38.66029434070505', '38.71597975165253', '38.771704340722614', '38.78362282830463', '38.74243395111103', '38.73013967880975', '38.77494804401145', '38.77551949659998', '38.78912301811842', '38.80306269376296', '38.7990004373696', '38.827143001191175', '38.82177292031819', '38.81585080879633', '38.81948530332285', '38.83645026748182', '38.84189667327779', '38.84594518126263', '38.85255431723356', '38.83875451536367', '38.85178279422425', '38.83692273599328', '38.81958372081291']</t>
         </is>
       </c>
       <c r="N67" t="b">
@@ -5579,17 +5579,17 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/QGbUTVMjG+curvedaotoken-crv</t>
+          <t>https://coinranking.com/coin/VcMY11NONHSA0+bitcoinsv-bsv</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>165014063</t>
+          <t>114271042</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>0.000046400615279676</t>
+          <t>0.001730890102146114</t>
         </is>
       </c>
     </row>
@@ -5599,48 +5599,44 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>VcMY11NONHSA0</t>
+          <t>QUC5kVAxSoB-</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>BSV</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Bitcoin SV</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>#eab300</t>
-        </is>
-      </c>
+          <t>MX Token</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/388ehh6kq/bitcoin-sv-1.svg</t>
+          <t>https://cdn.coinranking.com/5H4rM81Pj/mxc.svg</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>832897332</t>
+          <t>734259107</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>43.438138735754954</t>
+          <t>1.6794582109826617</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1541808000</v>
+        <v>1568732160</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -5648,7 +5644,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['43.46903552446878', '43.51305822242508', '43.53894998155915', '43.54391557562017', '43.54637500243456', '43.52816018030885', '43.54021987916488', '43.53344095305302', '43.52612563174363', '43.52775743730557', '43.50302201363681', '43.51531988127175', '43.531287636145116', '43.52594449956438', '43.521129101595164', '43.49874408841367', '43.492018085509315', '43.485273997948276', '43.490827115718574', '43.48792442953078', '43.49619527335339', '43.49554680168809', '43.485836593156996', '43.46281072660778', '43.44776624755644']</t>
+          <t>['1.6725419953499983', '1.6741327389270266', '1.6744154463609937', '1.672507096479383', '1.6746975989087862', '1.6771145362821183', '1.673302131022495', '1.6721484252130316', '1.6736662157370685', '1.6744078708836292', '1.67646271060335', '1.6773998808485102', '1.6771421540113127', '1.678232095120438', '1.679416435911584', '1.6814333993309396', '1.6822209286925287', '1.681426582153282', '1.679870411207638', '1.6794559793948267', '1.679345205206344', '1.6796371510660142', '1.6802803967021167', '1.6792486982925807', '1.6794131733998332']</t>
         </is>
       </c>
       <c r="N68" t="b">
@@ -5656,17 +5652,17 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/VcMY11NONHSA0+bitcoinsv-bsv</t>
+          <t>https://coinranking.com/coin/QUC5kVAxSoB-+mxtoken-mx</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>121462441</t>
+          <t>3141685</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>0.001798642239145575</t>
+          <t>0.000074903534259175</t>
         </is>
       </c>
     </row>
@@ -5676,48 +5672,48 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>k-J3YwacF</t>
+          <t>mMPrMcB7</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>WOO</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>WOO Network</t>
+          <t>Stacks</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>#000000</t>
+          <t>#584dce</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/03_LGK8B-/7501.png</t>
+          <t>https://cdn.coinranking.com/9gM7CG7Gp/4847.png</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>830855279</t>
+          <t>730195395</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.23320836533427</t>
+          <t>0.7954018534823589</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1627113782</v>
+        <v>1574174220</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -5725,7 +5721,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['0.23439324988207527', '0.2340153025836665', '0.2345900802192892', '0.23500247571977367', '0.23485243614726395', '0.23481224452771585', '0.23483079944626517', '0.23475511060124563', '0.23470447284941515', '0.2346959863414718', '0.23460236450625085', '0.2345080846919401', '0.23426568624134025', '0.2343353318614296', '0.23436678182894854', '0.2343450869284804', '0.23425897665961426', '0.233948851853618', '0.2339151491358247', '0.23370398872151013', '0.23364150803974054', '0.2335325604739704', '0.23353175945083815', '0.23339523742810014', '0.23325800961297122']</t>
+          <t>['0.796995228622389', '0.8003340050973664', '0.7997091102195173', '0.7988266792628278', '0.8012925301420554', '0.8020457766183946', '0.8036083150466986', '0.8027067446656527', '0.8016880664025349', '0.8019468947317858', '0.8037448704427713', '0.8026304909167804', '0.8002223825947012', '0.7982546208830119', '0.7978693003999187', '0.7956214286721761', '0.7957636877455364', '0.7974069652533268', '0.7983156814834619', '0.7980702979268244', '0.7972333483974464', '0.7970778753067489', '0.7966226011751576', '0.7965746083839613', '0.7964599170745816']</t>
         </is>
       </c>
       <c r="N69" t="b">
@@ -5733,17 +5729,17 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/k-J3YwacF+woonetwork-woo</t>
+          <t>https://coinranking.com/coin/mMPrMcB7+stacks-stx</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>42975756</t>
+          <t>198690773</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>0.000009656454641484</t>
+          <t>0.000035474779659607</t>
         </is>
       </c>
     </row>
@@ -5753,48 +5749,44 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>sgxZRXbK0FDc</t>
+          <t>z2PZIKQL7</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SNX</t>
+          <t>USDD</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Synthetix Network</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>#90dce0</t>
-        </is>
-      </c>
+          <t>USDD</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/c2WntZSPs/snx-synthetix.png</t>
+          <t>https://cdn.coinranking.com/HeEyq_2CG/usdd.png</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>803389932</t>
+          <t>726502103</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2.554244968401639</t>
+          <t>1.0016131469940768</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1554322020</v>
+        <v>1651913559</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -5802,7 +5794,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>['2.571714949794423', '2.569000054311903', '2.5737784096663963', '2.5782522172343567', '2.576215268729528', '2.575973794407241', '2.57570341867969', '2.574382758441649', '2.573089187790639', '2.5706697192941084', '2.5693707608163106', '2.568249945679123', '2.5688053291996753', '2.5707198645938387', '2.5726287575434093', '2.573064505226509', '2.5703034386688772', '2.5641723395746694', '2.563774437308221', '2.563092384410992', '2.562268218561041', '2.5614487478253247', '2.5598249098244756', '2.5584322747554937', '2.555472861217019']</t>
+          <t>['1.0016339197808886', '1.0015655027077233', '1.0014151166332939', '1.0012163494198594', '1.0014615530755726', '1.0011951424447922', '1.0009226457307987', '1.0009706468025414', '1.001012750061393', '1.0004802710648075', '1.0002016517824492', '1.000097435798475', '0.9995476253654624', '0.9995397958450306', '1.0002121586561104', '1.00100166653491', '1.0009596463302033', '1.0004705064380957', '1.000236037343464', '1.0005790006600153', '1.0007474311267768', '1.0009757717376209', '1.0018731833349164', '1.001895601307012', '1.0014307431876857']</t>
         </is>
       </c>
       <c r="N70" t="b">
@@ -5810,17 +5802,17 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/sgxZRXbK0FDc+synthetixnetwork-snx</t>
+          <t>https://coinranking.com/coin/z2PZIKQL7+usdd-usdd</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>58971295</t>
+          <t>29479221</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>0.000105763576041776</t>
+          <t>0.000044671766275395</t>
         </is>
       </c>
     </row>
@@ -5830,48 +5822,48 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>qhd1biQ7M</t>
+          <t>uIEWfMFnQo9K_</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>GRT</t>
+          <t>FTM</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>The Graph</t>
+          <t>Fantom</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>#b090e0</t>
+          <t>#1969ff</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/g6FVr-7Vs/grt.png</t>
+          <t>https://cdn.coinranking.com/Uh-AYdcnU/fantom.png</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>787453550</t>
+          <t>723675208</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.1631706175927205</t>
+          <t>0.4231160525761356</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1609341525</v>
+        <v>1540944000</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -5879,7 +5871,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>['0.16374626522863905', '0.16376620899374242', '0.16426065593708236', '0.1648125313567534', '0.16486091101809927', '0.1648186887826124', '0.1645901722891115', '0.1645026077122939', '0.16442488269044853', '0.164401105895205', '0.16429842814211354', '0.16428197400284927', '0.1644590947577378', '0.16451774627179433', '0.16454267009922732', '0.1644589550497935', '0.16432441099454356', '0.1640720237713423', '0.16405267201698417', '0.1639369574044755', '0.16383583795235349', '0.16370870430721862', '0.16341323555858472', '0.163359204180826', '0.16323582007890114']</t>
+          <t>['0.41858683662916035', '0.41951546230042397', '0.4195980158149809', '0.4198463844657472', '0.42153344509965707', '0.422103856785963', '0.4226895337669871', '0.42286528548644103', '0.42303438256982717', '0.423231601534796', '0.4240192466319464', '0.42416921869068436', '0.42564201652635897', '0.4264570497284904', '0.4263551202355353', '0.42516995662597645', '0.42519599070728525', '0.42570305857303253', '0.42594685096587326', '0.4257018764996222', '0.4245605255859153', '0.42447521185194337', '0.42408671167467255', '0.42392470909149915', '0.4238220551894545']</t>
         </is>
       </c>
       <c r="N71" t="b">
@@ -5887,17 +5879,17 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/qhd1biQ7M+thegraph-grt</t>
+          <t>https://coinranking.com/coin/uIEWfMFnQo9K_+fantom-ftm</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>178651140</t>
+          <t>185570500</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>0.00000675640286466</t>
+          <t>0.000018870899872644</t>
         </is>
       </c>
     </row>
@@ -5907,48 +5899,48 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>C9DwH-T7MEGmo</t>
+          <t>t7m8DZVyMsAu</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Dash</t>
+          <t>GateToken</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>#1c75bc</t>
+          <t>#de5959</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/PyCmduSxt/Dash-D-white_on_blue_circle.svg</t>
+          <t>https://cdn.coinranking.com/tRE6BrzE0/GT[1].svg</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>782407330</t>
+          <t>707308891</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>70.95052816657441</t>
+          <t>5.017333790481509</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1391817600</v>
+        <v>1556585100</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -5956,7 +5948,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>['70.94516186930996', '71.03049319977687', '71.09897830119156', '71.15203750448774', '71.20877138461076', '71.20559838729422', '71.3126307934584', '71.50975269868874', '71.5919892206404', '71.49302377861466', '71.40360509764639', '71.44380617128488', '71.45574952363326', '71.41164152632359', '71.37412102895071', '71.38429682384171', '71.32784513735449', '71.25996618282936', '71.26971386082505', '71.30889930189493', '71.34305356162683', '71.32049309336048', '71.2219162628336', '71.14938664567491', '71.00266495848015']</t>
+          <t>['4.996626385844381', '4.99886704070087', '5.000746902714653', '4.998963952716241', '5.000019247966267', '5.002523019064494', '5.009994644442579', '5.012095163433548', '5.013843864236899', '5.010422872449825', '5.008138434361071', '5.0096595832343835', '5.011815867653335', '5.012584410428935', '5.011488965330374', '5.013938878391594', '5.0162261959105585', '5.017338634653094', None, None, None, None, None, None, None]</t>
         </is>
       </c>
       <c r="N72" t="b">
@@ -5964,17 +5956,17 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/C9DwH-T7MEGmo+dash-dash</t>
+          <t>https://coinranking.com/coin/t7m8DZVyMsAu+gatetoken-gt</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>109149643</t>
+          <t>1655077</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>0.002937847259671971</t>
+          <t>0.000223778429351385</t>
         </is>
       </c>
     </row>
@@ -5984,48 +5976,48 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>qFakph2rpuMOL</t>
+          <t>1ZZI6g5k5royD</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>MKR</t>
+          <t>TUSD</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Maker</t>
+          <t>TrueUSD</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>#1abc9c</t>
+          <t>#1f2e5a</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/sjHfS7jCS/mkrdao.svg</t>
+          <t>https://cdn.coinranking.com/qPE6mbDUL/tusd.png</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>765510880</t>
+          <t>707195822</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>782.9653760005241</t>
+          <t>1.0023262598192186</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1502236800</v>
+        <v>1520380800</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -6033,7 +6025,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>['776.717562987213', '775.9282500357244', '777.9055012867846', '778.8133008569148', '778.9026332456988', '779.2712580765594', '780.3242445184276', '779.2530658415569', '777.7775154874705', '777.7355938773635', '778.097708083542', '778.4922062354701', '779.4027624556912', '780.3275524004173', '780.7371349518224', '781.0779751878993', '781.6949555470686', '782.150666029164', '782.7553602046909', '783.6379315290613', '784.3332853115851', '783.6915391050406', '782.460670761977', '782.0169558393884', '782.5460291425217']</t>
+          <t>['1.0035638037576995', '1.0037607209141353', '1.003486884967681', '1.0034257767201022', '1.0035639318787484', '1.0026286414536532', '1.0018643969941632', '1.001566692177762', '1.0014378291104031', '1.0017824004908422', '1.002029977380631', '1.0019690549243643', '1.0015622245683151', '1.0013995050896032', '1.001831257779164', '1.0021594823511706', '1.0022354839459722', '1.0021399406018492', '1.0020783264076922', '1.001934287107792', '1.001863734552491', '1.0019670948312485', '1.0023760870254645', '1.0024305502749207', '1.0024080866035519']</t>
         </is>
       </c>
       <c r="N73" t="b">
@@ -6041,17 +6033,17 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/qFakph2rpuMOL+maker-mkr</t>
+          <t>https://coinranking.com/coin/1ZZI6g5k5royD+trueusd-tusd</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>38469766</t>
+          <t>39493832</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>0.03242023341814726</t>
+          <t>0.000044703570979186</t>
         </is>
       </c>
     </row>
@@ -6061,48 +6053,48 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>aRGRWLf2RYNq4</t>
+          <t>QGbUTVMjG</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ZEC</t>
+          <t>CRV</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Zcash</t>
+          <t>Curve DAO Token</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>#000</t>
+          <t>#0030ff</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/rJrKiS_uZ/zec.svg</t>
+          <t>https://cdn.coinranking.com/89clXLSu2/curve-dao-token.svg</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>760009119</t>
+          <t>705011766</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>48.092559313341</t>
+          <t>0.9289306896758686</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1477612800</v>
+        <v>1597402380</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -6110,7 +6102,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>['48.41836663369749', '48.340178989080314', '48.40498331175496', '48.447699085434756', '48.44742339096414', '48.46154062099896', '48.53334790516804', '48.531316370512', '48.52453702097879', '48.47570541434084', '48.43361939100727', '48.440406618900084', '48.45667569913643', '48.469322932161006', '48.506640440384224', '48.506288290028486', '48.47927159017353', '48.39380873573376', '48.3945552643776', '48.342833068635066', '48.31211764406818', '48.255788500465634', '48.19581285211663', '48.153532896138074', '48.11133209630564']</t>
+          <t>['0.92703756287053', '0.9270711563437097', '0.926591736648797', '0.9265686425397914', '0.9287736644170425', '0.9305209530603232', '0.9327734831825064', '0.9331467078743089', '0.9331392193697713', '0.9329619883597652', '0.9326270597702543', '0.932417297549336', '0.9324514447045029', '0.9324520083980151', '0.9325247498238165', '0.9312885325194007', '0.9311173283933387', '0.9308207217535708', '0.9307035289310366', '0.9306212712912034', '0.930431018978967', '0.9304774624725288', '0.9300618230337888', '0.9297280239803647', '0.929468940458262']</t>
         </is>
       </c>
       <c r="N74" t="b">
@@ -6118,17 +6110,17 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/aRGRWLf2RYNq4+zcash-zec</t>
+          <t>https://coinranking.com/coin/QGbUTVMjG+curvedaotoken-crv</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>201978453</t>
+          <t>51765512</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>0.001991367749336547</t>
+          <t>0.00004143014174662</t>
         </is>
       </c>
     </row>
@@ -6138,48 +6130,48 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>M9bj_WrX</t>
+          <t>qhd1biQ7M</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>KLAY</t>
+          <t>GRT</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Klaytn</t>
+          <t>The Graph</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>#4f473b</t>
+          <t>#b090e0</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/cY-BSmXaS/klay.svg</t>
+          <t>https://cdn.coinranking.com/g6FVr-7Vs/grt.png</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>742885762</t>
+          <t>700465202</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0.30345907634309366</t>
+          <t>0.14552879155293375</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1572962760</v>
+        <v>1609341525</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -6187,7 +6179,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>['0.2964728565205682', '0.29715636023229036', '0.29785297247409065', '0.2990192760176746', '0.30091922950725325', '0.3016499041447382', '0.30133168138171584', '0.30018153916554674', '0.29863243514883514', '0.29860918943352893', '0.2986904184503421', '0.2985776765468815', '0.2982745354516404', '0.2982926248817075', '0.29845539284593897', '0.2986152633102617', '0.2990684138087764', '0.30005795352509596', '0.3004606921097638', '0.301357914487551', '0.30216856898977174', '0.30229227967567174', '0.3028110675676079', '0.30276436928499123', '0.30311067037001965']</t>
+          <t>['0.14516733837813917', '0.14515737247515137', '0.14519964682183795', '0.14530286960641584', '0.14565227659078667', '0.1457837610616197', '0.14593700717532065', '0.1459500269834946', '0.14601432869873202', '0.14607933104786955', '0.14620603244203276', '0.14613261031193606', '0.1459153793587659', '0.14579325553100494', '0.1457600760672', '0.14566229044922366', '0.14567065603142829', '0.14581426716247087', '0.14585132955573846', '0.1458258179103831', '0.14579091914576778', '0.1457751640646421', '0.14566811681965555', '0.14563902740804546', '0.14562041063432438']</t>
         </is>
       </c>
       <c r="N75" t="b">
@@ -6195,17 +6187,17 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/M9bj_WrX+klaytn-klay</t>
+          <t>https://coinranking.com/coin/qhd1biQ7M+thegraph-grt</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>246607611</t>
+          <t>63994487</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>0.000012565324584534</t>
+          <t>0.000006490557938565</t>
         </is>
       </c>
     </row>
@@ -6215,48 +6207,48 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>w5U609Wze</t>
+          <t>drWC87t2Vozh</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>APE</t>
+          <t>ANKR</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ApeCoin</t>
+          <t>Ankr</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>#0042C7</t>
+          <t>#277fcc</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/qT3ukh7Z9/APE.png</t>
+          <t>https://cdn.coinranking.com/2NXhylXMw/ankr.png</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>731190429</t>
+          <t>693030539</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>5.573586997711234</t>
+          <t>0.03542759072874248</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1647920319</v>
+        <v>1552484520</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -6264,7 +6256,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['5.562381898491554', '5.56803561559384', '5.580823462605665', '5.589991842458047', '5.5847650324922915', '5.581528183256167', '5.575288973262485', '5.573371053408636', '5.571002836283622', '5.568799715492123', '5.566573821098954', '5.5666104048000165', '5.568486128022216', '5.569416548488898', '5.5696258606699045', '5.569403350061974', '5.567888036340612', '5.565261832220602', '5.567074179825498', '5.570589628600265', '5.572863193199258', '5.573863731796723', '5.577637521095805', '5.575410390699553', '5.572614419972719']</t>
+          <t>['0.035293276992869674', '0.035315184043915156', '0.0352959391785403', '0.035288173113017206', '0.03535890848665829', '0.035382617809305864', '0.03539430587129001', '0.035402575525097964', '0.03540941306162738', '0.03541716155007213', '0.03542565144183855', '0.03542619384847735', '0.03542066507104616', '0.03541850491197343', '0.035419653691328316', '0.03540456241095499', '0.03540538750859643', '0.03541234264085409', '0.0354184661337504', '0.03541996986889289', '0.03544030889684943', '0.035436010526197784', '0.03544141376708657', '0.035440237837801064', '0.03543673133573132']</t>
         </is>
       </c>
       <c r="N76" t="b">
@@ -6272,17 +6264,17 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/w5U609Wze+apecoin-ape</t>
+          <t>https://coinranking.com/coin/drWC87t2Vozh+ankr-ankr</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>152938690</t>
+          <t>64345575</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>0.000230785417824182</t>
+          <t>0.000001580064176957</t>
         </is>
       </c>
     </row>
@@ -6292,17 +6284,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>J7st_qGwz</t>
+          <t>k-J3YwacF</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>MINA</t>
+          <t>WOO</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Mina Protocol Token</t>
+          <t>WOO Network</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -6312,28 +6304,28 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/IqAKk8Gab/mina.png</t>
+          <t>https://cdn.coinranking.com/03_LGK8B-/7501.png</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>723219907</t>
+          <t>682190626</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0.9562005307997885</t>
+          <t>0.19148047190201248</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1623662716</v>
+        <v>1627113782</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -6341,7 +6333,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>['0.9578908007401543', '0.9558718274839615', '0.9573963180641519', '0.9592248657429459', '0.9618123337194898', '0.9627003107335249', '0.9624309045649284', '0.9614962037239027', '0.9605097293875692', '0.959968838754342', '0.9592875953911727', '0.9595062712150174', '0.9603262895640091', '0.9603697749978048', '0.9602631913663391', '0.9600958245928021', '0.9598368088413611', '0.9591066292762239', '0.9590180380744113', '0.9586923383782541', '0.9584635127686006', '0.9582322778518858', '0.9582298373552205', '0.9580776363506892', '0.956889668581987']</t>
+          <t>['0.19041000234834432', '0.1902093762456384', '0.1901994506906068', '0.19025417502049338', '0.1905890815734716', '0.19088226466516622', '0.19125890956695818', '0.19137788681958295', '0.19145960901904216', '0.191511325645588', '0.1916642673031935', '0.1917086446863905', '0.1918581649469126', '0.1919449962631709', '0.1919849042068994', '0.19195374537640283', '0.19197730195639373', '0.19209685486939582', '0.192203493429306', '0.19215956588974198', '0.19200635788958212', '0.19194981579036122', '0.19185094445045972', '0.19176906468668736', '0.19169998208189845']</t>
         </is>
       </c>
       <c r="N77" t="b">
@@ -6349,17 +6341,17 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/J7st_qGwz+minaprotocoltoken-mina</t>
+          <t>https://coinranking.com/coin/k-J3YwacF+woonetwork-woo</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>102038579</t>
+          <t>15540926</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>0.000039593378396166</t>
+          <t>0.000008539994620458</t>
         </is>
       </c>
     </row>
@@ -6369,44 +6361,48 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>z2PZIKQL7</t>
+          <t>7C4Mh4xy1yDel</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>USDD</t>
+          <t>RNDR</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>USDD</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
+          <t>Render Token</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>#000000</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/HeEyq_2CG/usdd.png</t>
+          <t>https://cdn.coinranking.com/lhbmnCedl/5690.png</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>723144167</t>
+          <t>666615252</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0.9969836309242135</t>
+          <t>1.2512524689525621</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1651913559</v>
+        <v>1562331120</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -6414,7 +6410,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>['0.9973456429101056', '0.9973328866233078', '0.9960538881207589', '0.9957161919075718', '0.9956687198301324', '0.9955076110290005', '0.9952448387787666', '0.9962814515987262', '0.9964695617045015', '0.9961114360492678', '0.9961055747778547', '0.9957237858839557', '0.9955630245040541', '0.9955726446022619', '0.9956527886987674', '0.9957464418673192', '0.9959261868998223', '0.9958281764658549', '0.9957220487208202', '0.9952249297440123', '0.9952523262087734', '0.9957323423964425', '0.9959746706830527', '0.9961466102862196', '0.9969583658315767']</t>
+          <t>['1.231346194425147', '1.2338943881052156', '1.2306703141843838', '1.2281840688898251', '1.2330363101804294', '1.235691097121866', '1.2412962213759522', '1.2437657102289168', '1.2458243587557962', '1.2462253946587838', '1.2470648981709596', '1.246952721568019', '1.2464559249467613', '1.2461951131945994', '1.2472860818581317', '1.2509953175110227', '1.2512149030915642', '1.2547675212216187', '1.2554758979275678', '1.2561219476651924', '1.2570906132103843', '1.2564640082235845', '1.2570995176391608', '1.2568836824921708', '1.2551607735251753']</t>
         </is>
       </c>
       <c r="N78" t="b">
@@ -6422,17 +6418,17 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/z2PZIKQL7+usdd-usdd</t>
+          <t>https://coinranking.com/coin/7C4Mh4xy1yDel+rendertoken-rndr</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>61879134</t>
+          <t>77609446</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>0.000041282083498688</t>
+          <t>0.000055805635151962</t>
         </is>
       </c>
     </row>
@@ -6442,44 +6438,48 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>aQx_vW8s1</t>
+          <t>w4MqH_Xe8</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>XEC</t>
+          <t>BTT</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>eCash</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
+          <t>BitTorrent-New</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>#000000</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/wdqRaUEhn/xec.png</t>
+          <t>https://cdn.coinranking.com/xHIci4Je9/16086.png</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>720521259</t>
+          <t>664548300</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0.000037570279613505</t>
+          <t>7.02983110502e-7</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1634887994</v>
+        <v>1657036895</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>['0.000037723436830571', '0.000037696264055806', '0.000037750328532369', '0.000037786729275743', '0.000037755582263825', '0.000037751300987633', '0.000037729694062126', '0.000037800928463722', '0.000037888000163259', '0.000037834970618632', '0.000037800968056209', '0.000037801021396979', '0.000037794991544083', '0.000037800068278779', '0.000037826144140988', '0.000037839137522339', '0.000037829311567956', '0.000037819232485847', '0.000037815479916182', '0.000037802545594746', '0.000037796373556368', '0.000037788759315781', '0.000037717595641983', '0.00003770451532805', '0.000037619402103006']</t>
+          <t>['6.96056817823e-7', '6.96786608868e-7', '6.96553562753e-7', '6.96493730357e-7', '6.9613681192e-7', '6.96253071757e-7', '6.98688285036e-7', '7.02017383801e-7', '7.02473630463e-7', '7.0243062239e-7', '7.01268301791e-7', '6.96427170075e-7', '6.96508874826e-7', '6.96721037135e-7', '6.96943110119e-7', '6.96499670836e-7', '6.96387448399e-7', '6.96444605128e-7', '6.96645947051e-7', '6.96862967032e-7', '6.9697831889e-7', '6.97005851747e-7', '6.96934802794e-7', '7.00847100424e-7', '7.02829635067e-7']</t>
         </is>
       </c>
       <c r="N79" t="b">
@@ -6495,17 +6495,17 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/aQx_vW8s1+ecash-xec</t>
+          <t>https://coinranking.com/coin/w4MqH_Xe8+bittorrent-new-btt</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>75296085</t>
+          <t>7472524</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>1.555671901e-9</t>
+          <t>3.135292e-11</t>
         </is>
       </c>
     </row>
@@ -6515,48 +6515,48 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>B8xT718SbVhhh</t>
+          <t>J7st_qGwz</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>PAX</t>
+          <t>MINA</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Paxos Standard</t>
+          <t>Mina Protocol Token</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>#085229</t>
+          <t>#000000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/H1NkFcuhX/pax.svg</t>
+          <t>https://cdn.coinranking.com/IqAKk8Gab/mina.png</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>709351867</t>
+          <t>657828388</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>1.0022798481834514</t>
+          <t>0.869743556599555</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1539302400</v>
+        <v>1623662716</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>-3.31</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>['1.0286897709899654', '1.0011244024438715', '1.0017086188239281', '1.001713897974011', '1.0011077942727697', '1.000771819255067', '1.0007947497134206', '1.0009032620060496', '1.0010281512010137', '1.0011620991451293', '1.001173287427765', '1.0010496038331287', '1.0009881962803335', '1.0006620713558994', '1.0007053187266817', '1.0007819025195657', '1.001115374285168', '1.00103245009428', '1.0011966559509564', '1.001324590916224', '1.0014474549386934', '1.001910805070752', '1.0022250645147592', '1.0025470639682474', '1.002339926475091']</t>
+          <t>['0.863356776854928', '0.8652541862345635', '0.8650232277686997', '0.8644457651852412', '0.8674734746428204', '0.8687806778746078', '0.8698888829044935', '0.8701852943923599', '0.8705560282941001', '0.8706275761373914', '0.8708894535885134', '0.8710019432201552', '0.8706804934004909', '0.8705227329255212', '0.8706960434139621', '0.8710476887876584', '0.8709681601581221', '0.8709062624377003', '0.8707608085645427', '0.8706392507429065', '0.8698333586125323', '0.8697188191800054', '0.8694054337605392', '0.86919705162572', '0.8693618116613014']</t>
         </is>
       </c>
       <c r="N80" t="b">
@@ -6572,17 +6572,17 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/B8xT718SbVhhh+paxosstandard-pax</t>
+          <t>https://coinranking.com/coin/J7st_qGwz+minaprotocoltoken-mina</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>1172640</t>
+          <t>51032356</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>0.000041501383872677</t>
+          <t>0.000038790406252701</t>
         </is>
       </c>
     </row>
@@ -6592,48 +6592,48 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>LtWwuVANwRzV_</t>
+          <t>LOO6LmXd7G84Z</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>MIOTA</t>
+          <t>KCS</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>KuCoin Token</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>#000</t>
+          <t>#23AF91</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/H1IQ9Bdd-/miota.svg</t>
+          <t>https://cdn.coinranking.com/A-hAjR-hN/kucoin.png</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>702022781</t>
+          <t>653878539</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0.25256885514266064</t>
+          <t>8.644413955025575</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1497364209</v>
+        <v>1508889600</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>-0.54</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -6641,7 +6641,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>['0.25377243331258886', '0.2534291021136965', '0.253798843842409', '0.2542301928380887', '0.25409915298157515', '0.2540587949568751', '0.25404722992412243', '0.2541040824563851', '0.254120072484035', '0.25408903825649437', '0.25396069150422207', '0.253940058167179', '0.2537974823373446', '0.253814070746175', '0.25383220866450956', '0.25382400622516976', '0.2537478723316718', '0.25341002104434546', '0.2534187326331259', '0.2534009246192537', '0.2534118856548334', '0.2533834993773598', '0.253331475612256', '0.25324978634451356', '0.25281723035332543']</t>
+          <t>['8.621334279541673', '8.621649756936408', '8.621490438838963', '8.61494881070158', '8.615174239859869', '8.620563777077782', '8.620449739867425', '8.621597579781143', '8.62180817258805', '8.625229472158358', '8.625280273743726', '8.627501143887326', '8.627473517943907', '8.63160423486288', '8.63194231844454', '8.632990900244621', '8.632917270853097', '8.627181962879778', '8.62750334805211', '8.64074094596731', '8.640644224422283', '8.640330751796702', '8.640401408573842', None, None]</t>
         </is>
       </c>
       <c r="N81" t="b">
@@ -6649,17 +6649,17 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/LtWwuVANwRzV_+iota-miota</t>
+          <t>https://coinranking.com/coin/LOO6LmXd7G84Z+kucointoken-kcs</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>20508766</t>
+          <t>741044</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>0.000010458114099127</t>
+          <t>0.000385539308210531</t>
         </is>
       </c>
     </row>
@@ -6669,48 +6669,48 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>t7m8DZVyMsAu</t>
+          <t>w5U609Wze</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>APE</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>GateToken</t>
+          <t>ApeCoin</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>#de5959</t>
+          <t>#0042C7</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/tRE6BrzE0/GT[1].svg</t>
+          <t>https://cdn.coinranking.com/qT3ukh7Z9/APE.png</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>700613323</t>
+          <t>634402890</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>4.969838419199908</t>
+          <t>4.835812345102907</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1556585100</v>
+        <v>1647920319</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>['4.956478927752926', '4.950942539224772', '4.954884964274669', '4.9691701957402135', '4.969158754908991', '4.967190766025764', '4.967665195516728', '4.970534953763735', '4.975897045172169', '4.981262703346424', '4.978524021716987', '4.97755479410629', '4.9757729428658', '4.976775798332917', '4.979062310777658', '4.97836776419295', '4.971699450735427', '4.971719455274506', '4.972920106834882', '4.973663789026016', '4.971326774335344', None, None, None, None]</t>
+          <t>['4.8130787525814975', '4.8118060009567465', '4.80787593669051', '4.807056054174156', '4.809725022590423', '4.8142065140703485', '4.822149533223313', '4.822887159089578', '4.824267002453086', '4.826807236682768', '4.830720776482922', '4.831767986548221', '4.8343726000885985', '4.834740337929059', '4.834578074579122', '4.83308944621005', '4.83439738821037', '4.8383790020922985', '4.839953154526249', '4.840631431961213', '4.84015329872684', '4.837688004348443', '4.831609653624353', '4.8313040269650065', '4.833134491913876']</t>
         </is>
       </c>
       <c r="N82" t="b">
@@ -6726,17 +6726,17 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/t7m8DZVyMsAu+gatetoken-gt</t>
+          <t>https://coinranking.com/coin/w5U609Wze+apecoin-ape</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>1606060</t>
+          <t>99820490</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>0.00020579522877618</t>
+          <t>0.000215676361158413</t>
         </is>
       </c>
     </row>
@@ -6746,48 +6746,48 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Ru56fDlLB56-v</t>
+          <t>WMDlfMJ1W</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>RVN</t>
+          <t>APX</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Ravencoin</t>
+          <t>ApolloX</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>#384182</t>
+          <t>#7747FD</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/Rw1xg7rFE/rvn.svg</t>
+          <t>https://cdn.coinranking.com/FfcNFmkwn/16334.png</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>698764959</t>
+          <t>626795612</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.033274521871601896</t>
+          <t>0.063621188249505</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1520726400</v>
+        <v>1649048256</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -6795,7 +6795,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>['0.0331338388037823', '0.03314438746417995', '0.03320377642314419', '0.03323475490833795', '0.03326410627698722', '0.03329731859164075', '0.033270136936867846', '0.03327946771957911', '0.03323774072177547', '0.03319368066812652', '0.033191190470317176', '0.033206581982496666', '0.033247622507065686', '0.03324800350936568', '0.033261550165591555', '0.033286048010048905', '0.03328508388518309', '0.03328727898983077', '0.03331157503632278', '0.033315266020971145', '0.03329172191481609', '0.03328140829378243', '0.03327980694468371', '0.03330392476840185', '0.03328547931675285']</t>
+          <t>['0.06359995164910964', '0.0636060910074715', '0.06343401828626341', '0.06335570944384115', '0.06336866195812225', '0.06337387895502651', '0.06334602858600485', '0.06333681712570284', '0.06332723692148175', '0.06333148944756194', '0.0634021031648567', '0.06344990635031288', '0.0633242080858645', '0.06321711239341046', '0.06321526404396134', '0.06326675951571245', '0.06331067087413081', '0.06331528748613582', '0.06334945488684275', '0.06337305416130157', '0.06342953961169077', '0.06347629585492726', '0.06360599675923631', '0.06364677675721432', '0.06362537227182707']</t>
         </is>
       </c>
       <c r="N83" t="b">
@@ -6803,17 +6803,17 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/Ru56fDlLB56-v+ravencoin-rvn</t>
+          <t>https://coinranking.com/coin/WMDlfMJ1W+apollox-apx</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>37827363</t>
+          <t>1407580</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>0.000001377797536163</t>
+          <t>0.000002837493557442</t>
         </is>
       </c>
     </row>
@@ -6823,48 +6823,48 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>w4MqH_Xe8</t>
+          <t>aRGRWLf2RYNq4</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>BTT</t>
+          <t>ZEC</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>BitTorrent-New</t>
+          <t>Zcash</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>#000000</t>
+          <t>#000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/xHIci4Je9/16086.png</t>
+          <t>https://cdn.coinranking.com/rJrKiS_uZ/zec.svg</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>691487083</t>
+          <t>620909731</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>7.31479925142e-7</t>
+          <t>39.290499659595824</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1657036895</v>
+        <v>1477612800</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -6872,7 +6872,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>['7.30666412938e-7', '7.30881352579e-7', '7.30472982545e-7', '7.29770653917e-7', '7.3000118547e-7', '7.30155651168e-7', '7.30400366384e-7', '7.30613001307e-7', '7.3048832314e-7', '7.30607806238e-7', '7.30411438581e-7', '7.30205068283e-7', '7.29853924982e-7', '7.29932694121e-7', '7.30030487185e-7', '7.30283716949e-7', '7.30404658096e-7', '7.30482746726e-7', '7.3049133e-7', '7.30626717207e-7', '7.3077009699e-7', '7.30812788681e-7', '7.30813109368e-7', '7.31011464347e-7', '7.31125824145e-7']</t>
+          <t>['39.270325485908344', '39.26854815864568', '39.24216550498113', '39.249096236243076', '39.2586766879056', '39.248777989182194', '39.24159281543324', '39.26626263004452', '39.312577596586316', '39.33204310594354', '39.3880335486893', '39.3934556553897', '39.40228456793076', '39.396442344090254', '39.38906570303816', '39.39274846157622', '39.401008626214164', '39.41727415876928', '39.42196809830468', '39.42457818149974', '39.455896065222746', '39.448000879018984', '39.40292953354535', '39.35277017302201', '39.319772324644994']</t>
         </is>
       </c>
       <c r="N84" t="b">
@@ -6880,17 +6880,17 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/w4MqH_Xe8+bittorrent-new-btt</t>
+          <t>https://coinranking.com/coin/aRGRWLf2RYNq4+zcash-zec</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>14704189</t>
+          <t>66786568</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>3.0288376e-11</t>
+          <t>0.001752349220758929</t>
         </is>
       </c>
     </row>
@@ -6900,48 +6900,48 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>sfab31CXM</t>
+          <t>LtWwuVANwRzV_</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>BLOK</t>
+          <t>MIOTA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Bloktopia</t>
+          <t>IOTA</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>#000000</t>
+          <t>#000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/P6P1BdGJ9/11206.png</t>
+          <t>https://cdn.coinranking.com/H1IQ9Bdd-/miota.svg</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>688114738</t>
+          <t>621137375</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.003440573687718635</t>
+          <t>0.22346846821546104</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1640188674</v>
+        <v>1497364209</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>['0.003439164987888749', '0.003434319401169755', '0.003437263235043811', '0.00343828213641897', '0.003438654993824988', '0.003438221374697857', '0.00343692611176952', '0.003436077278911058', '0.003436183745702547', '0.003439525554076102', '0.003439644962245783', '0.003434773127116622', '0.003431967283694683', '0.003431402377983352', '0.003432965907459232', '0.003433687766978704', '0.003431838722617967', '0.003431699594305928', '0.003432774674838662', '0.003442298475839429', '0.003442269570770108', '0.003444246634231216', '0.00344459969682816', '0.003444607218450591', '0.003440869563926873']</t>
+          <t>['0.22223383395808868', '0.22212413748379348', '0.2222203614547101', '0.222302065787401', '0.22272451289382586', '0.2228570284711163', '0.22291189617268967', '0.22291403282503583', '0.22296579386259607', '0.22300087923446923', '0.2232789742765012', '0.2232909757650429', '0.2232637919312782', '0.22327856666232207', '0.2232517574753034', '0.2233618977256099', '0.22337199524852666', '0.2235208358329641', '0.22362693049216772', '0.22363091811743452', '0.22362942902837984', '0.22362499200651317', '0.2235192087806909', '0.22344146372537188', '0.2234393747964489']</t>
         </is>
       </c>
       <c r="N85" t="b">
@@ -6957,17 +6957,17 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/sfab31CXM+bloktopia-blok</t>
+          <t>https://coinranking.com/coin/LtWwuVANwRzV_+iota-miota</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>1547023</t>
+          <t>5815761</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>1.42463773581e-7</t>
+          <t>0.000009966653504899</t>
         </is>
       </c>
     </row>
@@ -6977,48 +6977,44 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>LOO6LmXd7G84Z</t>
+          <t>aQx_vW8s1</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>KCS</t>
+          <t>XEC</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>KuCoin Token</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>#23AF91</t>
-        </is>
-      </c>
+          <t>eCash</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/A-hAjR-hN/kucoin.png</t>
+          <t>https://cdn.coinranking.com/wdqRaUEhn/xec.png</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>673155537</t>
+          <t>613738047</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>8.89925999145464</t>
+          <t>0.000032002261862048</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1508889600</v>
+        <v>1634887994</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -7026,7 +7022,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>['8.936104168168198', '8.894116442804501', '8.904343344596146', '8.901799588849329', '8.90628531643545', '8.92976701988238', '8.911855958200814', '8.914684329682215', '8.908076339014704', '8.918279711574451', '8.905065812262887', '8.898417979440335', None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
+          <t>['0.000031881765325717', '0.000031895913372491', '0.000031875671998573', '0.000031850361212833', '0.000031884722378105', '0.000031890765838272', '0.000031914079360376', '0.000031938498985242', '0.00003194902477105', '0.000031941588389568', '0.000031816825495403', '0.000031815511903855', '0.000031842547886986', '0.000031875491851005', '0.000031876312015405', '0.000031991775444307', '0.000032004806879218', '0.000032011176464344', '0.000031999216204702', '0.000032000160461838', '0.000032013738454508', '0.000032012893712736', '0.000032029410563351', '0.000032039340584954', '0.000032019802612115']</t>
         </is>
       </c>
       <c r="N86" t="b">
@@ -7034,17 +7030,17 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/LOO6LmXd7G84Z+kucointoken-kcs</t>
+          <t>https://coinranking.com/coin/aQx_vW8s1+ecash-xec</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>1924276</t>
+          <t>4933703</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>0.000368508005975565</t>
+          <t>1.427295125e-9</t>
         </is>
       </c>
     </row>
@@ -7054,48 +7050,48 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>gpRKmM16k</t>
+          <t>M9bj_WrX</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>AXS</t>
+          <t>KLAY</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Axie Infinity</t>
+          <t>Klaytn</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>#f5a616</t>
+          <t>#4f473b</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/L3gWtlUJB/axie-infinity.png</t>
+          <t>https://cdn.coinranking.com/cY-BSmXaS/klay.svg</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>642847569</t>
+          <t>587402596</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>10.554489488735717</t>
+          <t>0.23994624500206255</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1605090441</v>
+        <v>1572962760</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -7103,7 +7099,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>['10.60650926904128', '10.598752877134421', '10.617531940517623', '10.63262264094508', '10.625881198275632', '10.625257575252451', '10.621292516107372', '10.6151137617522', '10.610464767870457', '10.607689426533236', '10.603805996915037', '10.603341356033459', '10.612865168172211', '10.61497099033355', '10.61497556640551', '10.611749605057913', '10.606119842562904', '10.593093352783788', '10.59340621509835', '10.594269731406643', '10.592660176192036', '10.589003730002549', '10.579841319110187', '10.575656952868895', '10.5615418038815']</t>
+          <t>['0.23969679069751268', '0.240007324541201', '0.23991614000243805', '0.23945489704765863', '0.23967135127680586', '0.23998664043584383', '0.24069693435064615', '0.2406747968046471', '0.2402333840288202', '0.24023926076059018', '0.240688227525422', '0.24083633380715852', '0.24088683606364664', '0.24156261131650186', '0.24153661754038477', '0.24110648989145902', '0.2408959336162098', '0.2409763767791503', '0.24103476278373812', '0.2409694842571028', '0.24046193902009666', '0.2402851947900741', '0.2403034203467358', '0.24032880346011992', '0.24026907052105162']</t>
         </is>
       </c>
       <c r="N87" t="b">
@@ -7111,17 +7107,17 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/gpRKmM16k+axieinfinity-axs</t>
+          <t>https://coinranking.com/coin/M9bj_WrX+klaytn-klay</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>143239899</t>
+          <t>43280523</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>0.000437029558806397</t>
+          <t>0.000010701559387034</t>
         </is>
       </c>
     </row>
@@ -7131,48 +7127,48 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>mMPrMcB7</t>
+          <t>q7gMmMdLb</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>BGB</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Stacks</t>
+          <t>Bitget Token</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>#584dce</t>
+          <t>#027ebd</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/9gM7CG7Gp/4847.png</t>
+          <t>https://cdn.coinranking.com/Du8qwA32R/photo-2022-05-03-19-50-24.png</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>626535754</t>
+          <t>580597862</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0.6824854053258756</t>
+          <t>0.41471246270271594</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1574174220</v>
+        <v>1651983014</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -7180,7 +7176,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['0.6878216012191166', '0.6836109990710785', '0.6828593297682111', '0.6843178398851205', '0.6962901996204292', '0.6980814418850115', '0.6955571684935297', '0.6917815376460381', '0.686812123573839', '0.6889019665559278', '0.6902085574529419', '0.6901511517977518', '0.6899318826540425', '0.6899215130674389', '0.6904203410374851', '0.6908212129742324', '0.691250747712829', '0.6918998741261454', '0.6918928560089936', '0.6911265998101044', '0.6902472787506698', '0.6894002567467058', '0.6850509417528255', '0.6851046516846305', '0.6836846670927884']</t>
+          <t>['0.41223654003478827', '0.4134041433326337', '0.41237968785433354', '0.41352872508950356', '0.41461197583586795', '0.41586099362968104', '0.41591302940648817', '0.4153428236813331', '0.41510956388756476', '0.41493131384201937', '0.4148112456872235', '0.4146378440094947', None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
         </is>
       </c>
       <c r="N88" t="b">
@@ -7188,17 +7184,17 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/mMPrMcB7+stacks-stx</t>
+          <t>https://coinranking.com/coin/q7gMmMdLb+bitgettoken-bgb</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>573681871</t>
+          <t>12591000</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>0.000028259661057003</t>
+          <t>0.0000184841708758</t>
         </is>
       </c>
     </row>
@@ -7208,48 +7204,48 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1ZZI6g5k5royD</t>
+          <t>Ru56fDlLB56-v</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>TUSD</t>
+          <t>RVN</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>TrueUSD</t>
+          <t>Ravencoin</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>#1f2e5a</t>
+          <t>#384182</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/qPE6mbDUL/tusd.png</t>
+          <t>https://cdn.coinranking.com/Rw1xg7rFE/rvn.svg</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>616942973</t>
+          <t>576335270</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>1.002895675662827</t>
+          <t>0.027444536683176892</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>1520380800</v>
+        <v>1520726400</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -7257,7 +7253,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>['1.0021177285056453', '1.0009498092098685', '1.0017105329952876', '1.0021955512245013', '1.0011291528909882', '1.0010060046968918', '1.0010585818759163', '1.0013259267630812', '1.001429960552807', '1.0013964901915628', '1.001409146860232', '1.0012196654496601', '1.0009816848315019', '1.0009060960520726', '1.0004904718883905', '1.0004832900022473', '1.000776450838817', '1.0011340690202923', '1.0014924720670801', '1.0020169402801125', '1.00211197052167', '1.0024414200019822', '1.002865869308592', '1.002927509938401', '1.0028881742525575']</t>
+          <t>['0.027357196365639786', '0.027363092072238884', '0.027365501045431794', '0.02736507723014663', '0.027388133556034346', '0.02739436695025378', '0.02739328588434192', '0.02739749624318658', '0.027429450732076695', '0.027436001648078964', '0.027455688266445566', '0.027456056266666105', '0.02746243068403473', '0.027467826152837122', '0.027463004673237135', '0.027455469559466195', '0.02745301945693862', '0.027458287337431903', '0.02746198614064045', '0.02746082791723074', '0.027462718856403483', '0.027463496579172034', '0.02746181255915605', '0.027457887536763', '0.027456425737051933']</t>
         </is>
       </c>
       <c r="N89" t="b">
@@ -7265,17 +7261,17 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/1ZZI6g5k5royD+trueusd-tusd</t>
+          <t>https://coinranking.com/coin/Ru56fDlLB56-v+ravencoin-rvn</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>44245281</t>
+          <t>11788665</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>0.000041526883430178</t>
+          <t>0.000001224021401802</t>
         </is>
       </c>
     </row>
@@ -7285,48 +7281,48 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>WMDlfMJ1W</t>
+          <t>sfab31CXM</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>APX</t>
+          <t>BLOK</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>ApolloX</t>
+          <t>Bloktopia</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>#cb45cc</t>
+          <t>#000000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/FfcNFmkwn/16334.png</t>
+          <t>https://cdn.coinranking.com/P6P1BdGJ9/11206.png</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>613777901</t>
+          <t>574100401</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0.06229986084050624</t>
+          <t>0.002870502006426469</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1649048256</v>
+        <v>1640188674</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -7334,7 +7330,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>['0.06265998872731968', '0.06268324285934047', '0.06273101697051534', '0.06269879930865567', '0.06266817202918178', '0.06263504561038344', '0.062468533428654785', '0.06246283490148239', '0.062255621284192576', '0.06229476637500456', '0.06238571144360914', '0.0623992077965957', '0.06238233073859524', '0.06238259625066597', '0.062386223230590045', '0.062368668043298325', '0.06238605413281165', '0.06239158285440037', '0.06245217452259133', '0.06245731245357161', '0.06245664074035139', '0.062453550563312546', '0.062369598836157364', '0.062292991336396354', '0.06229986084050624']</t>
+          <t>['0.002852471289654423', '0.002853202012860073', '0.002853010279387492', '0.002854230653434409', '0.002857859516447398', '0.002855969093739918', '0.002854759278395711', '0.002856610880117539', '0.002857382714709303', '0.002860532946231856', '0.002862514369838243', '0.002862671792305458', '0.002864295798289018', '0.002865140160172815', '0.002866042750222046', '0.00286711910604738', '0.002867178978705955', '0.00286636676126588', '0.002866376305874462', '0.002868279483238095', '0.002869289140326061', '0.00286940958359252', '0.002868819734035515', '0.002868674233566331', '0.002870080557744038']</t>
         </is>
       </c>
       <c r="N90" t="b">
@@ -7342,17 +7338,17 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/WMDlfMJ1W+apollox-apx</t>
+          <t>https://coinranking.com/coin/sfab31CXM+bloktopia-blok</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>2138019</t>
+          <t>1606189</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>0.000002579649231342</t>
+          <t>1.28023873398e-7</t>
         </is>
       </c>
     </row>
@@ -7362,48 +7358,48 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>T93ksC96YL_Gc</t>
+          <t>gpRKmM16k</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>GUSD</t>
+          <t>AXS</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Gemini dollar</t>
+          <t>Axie Infinity</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>#30D7FA</t>
+          <t>#f5a616</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/s5cHqxxYr/gusd.svg</t>
+          <t>https://cdn.coinranking.com/L3gWtlUJB/axie-infinity.png</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>574552914</t>
+          <t>556968435</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>1.0194877243962</t>
+          <t>9.144496739446376</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1538870400</v>
+        <v>1605090441</v>
       </c>
       <c r="J91" t="n">
         <v>1</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -7411,7 +7407,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>['1.0061847698558504', '1.0070378014396817', '1.0055608869552315', '1.005321497625454', '1.0059553072596255', '1.0065678562958424', '1.0057374134220387', '1.0047721989875324', '1.0052995352266414', '1.00535491851099', '1.006770720568234', '1.005080281920854', '1.0042072395800632', '1.0047936097811392', '1.0040970954591555', '1.0050764931803993', '1.0039873284450642', '1.0034943890457626', '1.0042860142730345', '1.0040806161940963', '1.0049068275322703', '1.0045800805216714', '1.0048364942134107', '1.0058521611055262', '1.0164767146987568']</t>
+          <t>['9.1253394132826', '9.11386150158015', '9.112601189528005', '9.111129785301777', '9.123584739028333', '9.131191688373102', '9.14001949916338', '9.143331313614517', '9.146227231411347', '9.14657215702836', '9.144129312591849', '9.144042140768535', '9.14155056163342', '9.139377608030987', '9.139625750096345', '9.137239806828125', '9.138825187253191', '9.143527683726921', '9.146721426401955', '9.14604130635465', '9.14220178771836', '9.141909784909593', '9.14288173421801', '9.144885203103557', '9.144060107101808']</t>
         </is>
       </c>
       <c r="N91" t="b">
@@ -7419,17 +7415,17 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/T93ksC96YL_Gc+geminidollar-gusd</t>
+          <t>https://coinranking.com/coin/gpRKmM16k+axieinfinity-axs</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>706579</t>
+          <t>62528265</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>0.000042213910097397</t>
+          <t>0.000407842910485559</t>
         </is>
       </c>
     </row>
@@ -7439,48 +7435,48 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>3jmxrjOJ8xa4p</t>
+          <t>n1p-s_gm1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>ZIL</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Zilliqa</t>
+          <t>Optimism</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>#49c1bf</t>
+          <t>#ff2a29</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/H18JFWswf/zil.svg</t>
+          <t>https://cdn.coinranking.com/GaG3fv_rq/11840.png</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>568688785</t>
+          <t>539058276</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0.033695902172763706</t>
+          <t>2.510185716287896</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1518566400</v>
+        <v>1654151352</v>
       </c>
       <c r="J92" t="n">
         <v>1</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>-1.82</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -7488,7 +7484,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>['0.03431495472726336', '0.03427809331841015', '0.034311666672826854', '0.03430360709904416', '0.034060746183539534', '0.03400478219056224', '0.03400712741733808', '0.03397393618456061', '0.03394511046575174', '0.03390589249884205', '0.03388253206583907', '0.033878665264416054', '0.033871335436859', '0.033867013144223794', '0.03384070317798934', '0.033824020918835816', '0.03381562169912108', '0.03379573551355648', '0.03379253257738837', '0.03376509828840038', '0.033757102399609065', '0.03374284937723061', '0.03371532260392148', '0.03371047620711898', '0.03369659741579588']</t>
+          <t>['2.486067296073613', '2.488007607824965', '2.4853963891746242', '2.48628747091087', '2.4947787176596603', '2.4990526005057805', '2.5073690768861865', '2.5049107367759333', '2.503466440169699', '2.504239106002128', '2.5062821967802833', '2.5061852114246594', '2.506060941738255', '2.5053902019390195', '2.5055342934968268', '2.505922251821925', '2.506577819510049', '2.5134411255558144', '2.5164701687419693', '2.516699757952563', '2.5121112144757527', '2.5109480312703756', '2.5105575100714934', '2.5105785319567677', '2.5111242511799476']</t>
         </is>
       </c>
       <c r="N92" t="b">
@@ -7496,17 +7492,17 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/3jmxrjOJ8xa4p+zilliqa-zil</t>
+          <t>https://coinranking.com/coin/n1p-s_gm1+optimism-op</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>226129249</t>
+          <t>211372686</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>0.000001395245622809</t>
+          <t>0.000111953831638865</t>
         </is>
       </c>
     </row>
@@ -7516,48 +7512,44 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>q7gMmMdLb</t>
+          <t>lT__vMO7l</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>BGB</t>
+          <t>CDAI</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Bitget Token</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>#027ebd</t>
-        </is>
-      </c>
+          <t>Compound Dai</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/Du8qwA32R/photo-2022-05-03-19-50-24.png</t>
+          <t>https://cdn.coinranking.com/aZPPc1MqR/cDAI.svg</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>549973743</t>
+          <t>538247635</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0.39283810731229235</t>
+          <t>0.02222162449160568</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>1651983014</v>
+        <v>1595516340</v>
       </c>
       <c r="J93" t="n">
         <v>1</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -7565,7 +7557,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>['0.39392442550725437', '0.3930409337260314', '0.3932483715624286', '0.3925901235319858', '0.39293964893621885', '0.393929007552526', '0.3939037094785545', '0.3937082017171883', '0.393617214565278', '0.39406224305293064', '0.39392050531154876', '0.39276775832327854', None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
+          <t>['0.022273630067622268', '0.02227142840892237', '0.022271428356820673', '0.02227046488615727', '0.022267770378915676', '0.0222677686094993', '0.022242596257584953', '0.022242594830493675', '0.022224102360306974', '0.022224101286764327', '0.02222261472529662', '0.022222614593455932', '0.02221737554313731', '0.022220147029188297', '0.022220063675864404', '0.022217677647801463', '0.02221767752218346', '0.022221624303288327', '0.02222162449160568', None, None, None, None, None, None]</t>
         </is>
       </c>
       <c r="N93" t="b">
@@ -7573,17 +7565,17 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/q7gMmMdLb+bitgettoken-bgb</t>
+          <t>https://coinranking.com/coin/lT__vMO7l+compounddai-cdai</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>24292813</t>
+          <t>9781503</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>0.000016234284315103</t>
+          <t>9.90441188007e-7</t>
         </is>
       </c>
     </row>
@@ -7593,48 +7585,48 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>AP-fyKlSf</t>
+          <t>WvoRtQhzN</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>OKT</t>
+          <t>ILV</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>Illuvium</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>#456dc8</t>
+          <t>#000000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/xcZdYtX6E/okx.png</t>
+          <t>https://cdn.coinranking.com/9Y0K-WWMt/8719.png</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>537904743</t>
+          <t>525323215</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>30.206376301915803</t>
+          <t>81.79986655702689</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>1643001498</v>
+        <v>1644973249</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -7642,7 +7634,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>['30.29570270983766', '30.317816541205563', '30.365798563434822', '30.342735187300313', '30.34195357803748', '30.341364894893598', '30.31633385923196', '30.360266390954273', '30.37025294066978', '30.381862984984966', '30.346410205027215', '30.3313741488016', '30.30965312042795', '30.30391640148596', '30.298450612027988', '30.31627645948338', '30.319830803849708', '30.321225714983154', '30.329662623644197', '30.338229568054583', '30.33580088584801', '30.335028661924124', '30.323000125821654', '30.268499892860408', '30.196394487904584']</t>
+          <t>['81.1903476717882', '81.20102191209008', '81.17808093979502', '81.18078029015996', '81.27375293009538', '81.33313412169527', '81.50198220748236', '81.61050508776044', '81.63409370504816', '81.68310289782576', '81.73460482919666', '81.72111032289797', '81.7147964196163', '81.75947862788857', '81.80951888280975', '81.83377877556505', '81.8159425424623', '81.8490766627875', '81.86877463779551', '81.91105450755657', '81.96916630966965', '82.01778208693365', '82.00995139461601', '81.96899697271527', '81.88399901014881']</t>
         </is>
       </c>
       <c r="N94" t="b">
@@ -7650,17 +7642,17 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/AP-fyKlSf+okc-okt</t>
+          <t>https://coinranking.com/coin/WvoRtQhzN+illuvium-ilv</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>12748027</t>
+          <t>34160587</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>0.001250754887051157</t>
+          <t>0.003648259341603522</t>
         </is>
       </c>
     </row>
@@ -7670,44 +7662,48 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>QUC5kVAxSoB-</t>
+          <t>AP-fyKlSf</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>OKT</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>MX Token</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr"/>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>#456dc8</t>
+        </is>
+      </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/5H4rM81Pj/mxc.svg</t>
+          <t>https://cdn.coinranking.com/xcZdYtX6E/okx.png</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>537109940</t>
+          <t>501983458</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>1.2285223163146295</t>
+          <t>28.18919413352939</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1568732160</v>
+        <v>1643001498</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="L95" t="n">
@@ -7715,7 +7711,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>['1.2249506636340688', '1.2254484750945178', '1.2258150682121753', '1.225174785508543', '1.224857548874422', '1.2250908200679755', '1.2252111851825924', '1.2250382112975682', '1.2245843185009813', '1.2244931658069191', '1.225698308920166', '1.2264622498300104', '1.2262798898863825', '1.2245914943133291', '1.2249855721177345', '1.2269893946794839', '1.228222293581192', '1.2284759289916938', '1.2279167284695758', '1.2279223942019994', '1.2293010842781733', '1.229378656159764', '1.229033142649753', '1.228730535383692', '1.2283277183938128']</t>
+          <t>['28.036379903197606', '28.008254363626595', '27.985994473703993', '27.999933692445165', '28.023219125459853', '28.03910453250255', '28.093834082441546', '28.132295932085203', '28.156592201069085', '28.17592064241545', '28.163964739232796', '28.14580754113189', '28.163842803336127', '28.183404484081947', '28.182309965810404', '28.166413926939505', '28.164649164385093', '28.184217863372524', '28.186433412129478', '28.191966763880455', '28.186901166670697', '28.19918673949054', '28.19578956723061', '28.189065390697007', '28.202474512650046']</t>
         </is>
       </c>
       <c r="N95" t="b">
@@ -7723,17 +7719,17 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/QUC5kVAxSoB-+mxtoken-mx</t>
+          <t>https://coinranking.com/coin/AP-fyKlSf+okc-okt</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>3094001</t>
+          <t>10719441</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>0.000050869401732391</t>
+          <t>0.001257232990205769</t>
         </is>
       </c>
     </row>
@@ -7743,48 +7739,48 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NfeOYfNcl</t>
+          <t>cCx8KCiV3</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>FTT</t>
+          <t>AGIX</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>FTX Token</t>
+          <t>SingularityNET</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>#77d9ed</t>
+          <t>#000000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/WyBm4_EzM/ftx-exchange.svg</t>
+          <t>https://cdn.coinranking.com/UBRfNttvR/2424.png</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>527633806</t>
+          <t>492346469</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>1.6042616616202658</t>
+          <t>0.4404831249138246</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1566222960</v>
+        <v>1626924800</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -7792,7 +7788,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>['1.6107573400318382', '1.6089264800932848', '1.6132651880515338', '1.6155086396694949', '1.6204069924381581', '1.6214289275014924', '1.620227522278288', '1.6208265350026032', '1.6214302935660108', '1.6208655738312865', '1.6207175292824032', '1.6216155982256064', '1.6228705673337425', '1.6231601754690663', '1.6242712976897533', '1.6244675032168643', '1.6218080230085306', '1.6174229130849123', '1.6167964677731759', '1.6188449193436938', '1.619194189276417', '1.6189558823224277', '1.6163647793650713', '1.6147977295019988', '1.60820239757353']</t>
+          <t>['0.4348177351553727', '0.43731589001578103', '0.43751718914287685', '0.4376677861151491', '0.4397409637440387', '0.4406885801842841', '0.4427204631408663', '0.44245613881042767', '0.4419912209412025', '0.4420670077100464', '0.44252429484675226', '0.4425454848672945', '0.4421169092493066', '0.4416649985680204', '0.4413514427133587', '0.4405489565016423', '0.44080730973326887', '0.4408592637094077', '0.4407706066162904', '0.4408808924546133', '0.44088612710482605', '0.44083169513675924', '0.4404702396383327', '0.44038283193014244', '0.4404480387457844']</t>
         </is>
       </c>
       <c r="N96" t="b">
@@ -7800,17 +7796,17 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/NfeOYfNcl+ftxtoken-ftt</t>
+          <t>https://coinranking.com/coin/cCx8KCiV3+singularitynet-agix</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>16221445</t>
+          <t>169387697</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>0.000066427634130119</t>
+          <t>0.00001964546817647</t>
         </is>
       </c>
     </row>
@@ -7820,44 +7816,48 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>lT__vMO7l</t>
+          <t>frw2fHgZ</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CDAI</t>
+          <t>TKX</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Compound Dai</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr"/>
+          <t>Tokenize Xchange</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>#ff8f40</t>
+        </is>
+      </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/aZPPc1MqR/cDAI.svg</t>
+          <t>https://cdn.coinranking.com/JYtWb5AXp/tokenize.svg</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>526389593</t>
+          <t>488874699</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0.022206165772672044</t>
+          <t>6.111239304461204</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>1595516340</v>
+        <v>1596033180</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>['0.02217887502753912', '0.022204591239010654', '0.022204599701269034', '0.022188873773694228', '0.022188869371870756', '0.022197467407924047', '0.022197469390214317', '0.02218210652264184', '0.02218210242325065', '0.022185262345919284', '0.022185262281365706', '0.02218697620133939', '0.022186977602907318', '0.0221898942940657', '0.022189894788037515', '0.02219230058812704', '0.022192302124703963', '0.022187470930785016', '0.022187469193493462', '0.022200547974275706', '0.02220055183232461', '0.022206162230584362', None, None, None]</t>
+          <t>['6.103311184991491', '6.102833188786386', '6.100937403489592', '6.100904818773475', '6.100780388091641', '6.101450214628248', '6.105488951024861', '6.110899369041344', '6.108007823010484', '6.09641781938612', '6.0975781052752565', '6.102215503743979', '6.102093132829997', '6.101605642670315', '6.101984582332766', '6.103503882624996', '6.103020455998416', '6.101095575742918', '6.102728687063833', '6.109256585006719', '6.109977129375644', '6.112858237833644', None, None, None]</t>
         </is>
       </c>
       <c r="N97" t="b">
@@ -7873,17 +7873,17 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/lT__vMO7l+compounddai-cdai</t>
+          <t>https://coinranking.com/coin/frw2fHgZ+tokenizexchange-tkx</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>10229913</t>
+          <t>10930208</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>9.17683905893e-7</t>
+          <t>0.000272560174236127</t>
         </is>
       </c>
     </row>
@@ -7893,48 +7893,48 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>n1p-s_gm1</t>
+          <t>3jmxrjOJ8xa4p</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>OP</t>
+          <t>ZIL</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Optimism</t>
+          <t>Zilliqa</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>#ff2a29</t>
+          <t>#49c1bf</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/GaG3fv_rq/11840.png</t>
+          <t>https://cdn.coinranking.com/H18JFWswf/zil.svg</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>523330937</t>
+          <t>482065783</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2.4369495890776354</t>
+          <t>0.028563322976443466</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1654151352</v>
+        <v>1518566400</v>
       </c>
       <c r="J98" t="n">
         <v>1</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>-0.90</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="L98" t="n">
@@ -7942,7 +7942,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>['2.456374416611406', '2.4555649304887974', '2.460406260339367', '2.4647756257131452', '2.468102166596149', '2.467090470410868', '2.4624992590986077', '2.461319834828133', '2.460004997033306', '2.4559922714565', '2.4528958872647855', '2.4534060528796604', '2.4553785943179265', '2.4563817761675812', '2.454227029847939', '2.452694743358619', '2.451139752410988', '2.4475777182551743', '2.4482193280740048', '2.4468454102364894', '2.4461434848901136', '2.44465303396998', '2.4421730907049226', '2.4402780297888205', '2.4380331273413263']</t>
+          <t>['0.02837581043664841', '0.02839360640262889', '0.0283919120388112', '0.02839719092190213', '0.028455436629930383', '0.028473778823707982', '0.028488076120444367', '0.028473134180392656', '0.028467414090517104', '0.02847340011296335', '0.028487287082136048', '0.028489769565445452', '0.028519590954380107', '0.02854190485062028', '0.028551361415205975', '0.028566053201854368', '0.028567526724215146', '0.02856948253801708', '0.028574475911580494', '0.02857894678725785', '0.028599020163034884', '0.02860511484101758', '0.028610048609183158', '0.028609080474074264', '0.0285970900977341']</t>
         </is>
       </c>
       <c r="N98" t="b">
@@ -7950,17 +7950,17 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/n1p-s_gm1+optimism-op</t>
+          <t>https://coinranking.com/coin/3jmxrjOJ8xa4p+zilliqa-zil</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>225244334</t>
+          <t>26333959</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>0.000100906728353339</t>
+          <t>0.000001273919069335</t>
         </is>
       </c>
     </row>
@@ -7970,48 +7970,48 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ybmU-kKU</t>
+          <t>YRTkUcMi</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>RUNE</t>
+          <t>PAXG</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>THORChain</t>
+          <t>PAX Gold</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>#0EAAB7</t>
+          <t>#a18d10</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/tU7Skyia9/ThorChain[1].svg</t>
+          <t>https://cdn.coinranking.com/OvRFA-ieo/pax-gold.svg</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>522936348</t>
+          <t>464505772</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>1.7387443107823968</t>
+          <t>1847.6601003892577</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1574782200</v>
+        <v>1570197780</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="L99" t="n">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>['1.7426424684483008', '1.7416223375432547', '1.7428242796565667', '1.7448610842728434', '1.7450602406932518', '1.7455084991709349', '1.7463773748861784', '1.7452251923499968', '1.7440502896454213', '1.7432780209880423', '1.7429947704641984', '1.742596071417519', '1.7427060689020208', '1.7426685652687246', '1.7429124133282028', '1.7430052451273739', '1.7427329278983374', '1.7422721257840135', '1.7421937228801079', '1.7420775374850133', '1.7420939231058925', '1.741600983656757', '1.7415946027821305', '1.7416338613055167', '1.739811146304177']</t>
+          <t>['1849.0255022788606', '1848.9748227531475', '1848.871168025563', '1848.782774365436', '1848.6618782337894', '1848.1764330250437', '1847.3125639320801', '1846.944581262294', '1847.1786567037914', '1847.6692384856162', '1847.7450521815629', '1847.19198806645', '1846.7140863315046', '1846.7819740235784', '1847.182624073064', '1847.6077709403864', '1847.7753466563618', '1847.81616167782', '1847.6597750578624', '1847.3463604712276', '1847.1128980821932', '1847.7314352995688', '1848.0498981210028', '1847.927182437469', '1847.734827170594']</t>
         </is>
       </c>
       <c r="N99" t="b">
@@ -8027,17 +8027,17 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/ybmU-kKU+thorchain-rune</t>
+          <t>https://coinranking.com/coin/YRTkUcMi+paxgold-paxg</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>63876459</t>
+          <t>15694775</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>0.000071996154795488</t>
+          <t>0.08240530828560573</t>
         </is>
       </c>
     </row>
@@ -8047,48 +8047,48 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>frw2fHgZ</t>
+          <t>ybmU-kKU</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>TKX</t>
+          <t>RUNE</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Tokenize Xchange</t>
+          <t>THORChain</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>#ff8f40</t>
+          <t>#0EAAB7</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/JYtWb5AXp/tokenize.svg</t>
+          <t>https://cdn.coinranking.com/tU7Skyia9/ThorChain[1].svg</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>517904770</t>
+          <t>452585284</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>6.474133336687833</t>
+          <t>1.5048295870155348</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>1596033180</v>
+        <v>1574782200</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>['6.49169075422567', '6.490140219945617', '6.483933456227755', '6.486162320531399', '6.495058262642004', '6.494212220644343', '6.490843843950337', '6.489162361632775', '6.482457391602581', '6.483379124274985', '6.487071428018505', '6.484537739318027', '6.474374750019114', '6.47777418264247', '6.491346314457323', '6.490510884530488', '6.487172693235058', '6.485555436282942', '6.47908450145261', '6.478119214201442', '6.474259944755603', '6.474880329682186', '6.477370203493178', '6.477209607345072', None]</t>
+          <t>['1.5014955787773014', '1.5008490007197228', '1.5001859483784579', '1.4999901293752518', '1.5009550016748754', '1.5016500061777094', '1.5021415420026571', '1.502393666419546', '1.5022661182025459', '1.5020480779743992', '1.5028306250217223', '1.5032437117632238', '1.5034577223088046', '1.5035243314286866', '1.503252770182407', '1.5041162063657736', '1.5043960544043942', '1.5048252414027383', '1.5050451026613152', '1.5052094298113294', '1.5050079656890807', '1.5049339854128754', '1.504896312508846', '1.5049649655782078', '1.504975887354752']</t>
         </is>
       </c>
       <c r="N100" t="b">
@@ -8104,17 +8104,17 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/frw2fHgZ+tokenizexchange-tkx</t>
+          <t>https://coinranking.com/coin/ybmU-kKU+thorchain-rune</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>11743836</t>
+          <t>29811833</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>0.000268074324087976</t>
+          <t>0.000067115129026811</t>
         </is>
       </c>
     </row>
@@ -8124,48 +8124,48 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Au8mNo2ZIlJfL</t>
+          <t>AWma-WzFHmKVQ</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>LRC</t>
+          <t>FET</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Loopring</t>
+          <t>Fetch.AI</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>#000000</t>
+          <t>#054700</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/Hyi4YJz3M/lrc.svg</t>
+          <t>https://cdn.coinranking.com/8w7heKkw8/yrtftru.png</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>514538170</t>
+          <t>452527947</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0.41564361669339434</t>
+          <t>0.4297521259938768</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1504051200</v>
+        <v>1553179080</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="L101" t="n">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>['0.41769837872761967', '0.417696857782704', '0.41828648693633075', '0.41872133945479256', '0.4186152345468385', '0.418625687984613', '0.41876898794200346', '0.4185880538974669', '0.41821172264683365', '0.4176755852687091', '0.41735324330189183', '0.41744799279986106', '0.41788614458234735', '0.41802039845389694', '0.41813348281033286', '0.41801352915020834', '0.4177425493220619', '0.4170230981354222', '0.4170132196982825', '0.4166505172671361', '0.41644464852611107', '0.41622097544796915', '0.415924724457674', '0.41576427859062814', '0.41567633074203714']</t>
+          <t>['0.4280228294761471', '0.4275902909917183', '0.42744443114465075', '0.42731157809458487', '0.4288848076459906', '0.42968707045507476', '0.4308736520363709', '0.43059380481498416', '0.4303592234731158', '0.43075331454770277', '0.4315340535968694', '0.43160341465885516', '0.431575485718213', '0.4315052787375107', '0.43137180433642985', '0.4308928497180914', '0.4308827183108787', '0.4309045608453469', '0.43088511643607824', '0.43069789188458224', '0.42994575740414', '0.4297980634687352', '0.42974334144813103', '0.42976665655428614', '0.42983041828228086']</t>
         </is>
       </c>
       <c r="N101" t="b">
@@ -8181,17 +8181,17 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/Au8mNo2ZIlJfL+loopring-lrc</t>
+          <t>https://coinranking.com/coin/AWma-WzFHmKVQ+fetchai-fet</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>77512227</t>
+          <t>109717493</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>0.000017210547854358</t>
+          <t>0.000019166867553972</t>
         </is>
       </c>
     </row>

--- a/coinranking.xlsx
+++ b/coinranking.xlsx
@@ -546,12 +546,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>430935862739</t>
+          <t>427103192363</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>22421.61504918489</t>
+          <t>22222.20101284169</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -562,7 +562,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -570,7 +570,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>['22400.01719673324', '22404.430039066683', '22400.05145850925', '22395.95441340955', '22418.018491579933', '22427.70577319276', '22440.411660866223', '22431.73676343783', '22419.95992613906', '22423.520315444563', '22448.508499534895', '22448.760037484742', '22439.843775412344', '22433.37503866748', '22433.879222078984', '22438.00554026734', '22438.320028030055', '22441.176350178397', '22443.04204961151', '22441.30381685072', '22424.981701671994', '22424.8703408597', '22431.96882617977', '22436.221420620102', '22434.659207504206']</t>
+          <t>['22315.62418195031', '22287.21783196293', '22296.205668189832', '22309.004938358572', '22300.22077546432', '22292.243637286403', '22261.279625126313', '22277.757261421266', '22300.697991046465', '22276.540082724783', '22260.823456063656', '22260.941977071565', '22261.97501723825', '22260.776408410493', '22252.942042658146', '22248.976693365454', '22246.951551406306', '22232.378775941706', '22232.35295599476', '22230.51985910556', '22229.36376062372', '22231.840805813823', '22248.54331762902', '22248.86035645631', '22232.537297276886']</t>
         </is>
       </c>
       <c r="N2" t="b">
@@ -583,7 +583,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>20104154325</t>
+          <t>24089158820</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -623,12 +623,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>192081696350</t>
+          <t>189872203105</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1574.1182966762235</t>
+          <t>1556.0114092806311</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -639,7 +639,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -647,7 +647,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['1571.5879097986726', '1571.669274580502', '1571.101168271761', '1570.8684845619762', '1572.0423098328224', '1572.8167953653972', '1573.9627847703848', '1573.8322665047294', '1573.5462507405116', '1573.6573627660898', '1574.3237493378986', '1574.2767128955409', '1574.0612894706494', '1574.0116567174196', '1574.2686503976358', '1574.5167800004053', '1574.5970657534897', '1574.891788249098', '1575.106893600905', '1575.063288588541', '1574.7697119858456', '1574.7191723814306', '1574.841561279342', '1574.8443715632', '1574.6257266895677']</t>
+          <t>['1561.7430781532355', '1560.7853562244234', '1561.1775426965478', '1561.2187743867462', '1560.3898126027905', '1559.7332265916014', '1558.6163940767726', '1559.0436144927316', '1559.4762503866955', '1558.209481811433', '1557.8622519651874', '1558.0001908408535', '1558.1153684692713', '1557.782578844632', '1556.7894645298686', '1556.5234953021384', '1556.473949461695', '1556.2073739953219', '1556.351331277272', '1556.2242651420956', '1556.3025122361328', '1556.732899762222', '1557.5869483469992', '1557.617748569676', '1556.4978925861533']</t>
         </is>
       </c>
       <c r="N3" t="b">
@@ -660,12 +660,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>6367012728</t>
+          <t>6434452277</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.0702053930202253</t>
+          <t>0.07002058024681931</t>
         </is>
       </c>
     </row>
@@ -700,12 +700,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>65564644533</t>
+          <t>65508634785</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.0030898905435106</t>
+          <t>1.0022329833990826</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -716,7 +716,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -724,7 +724,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['1.0033824492598329', '1.0030214550166308', '1.0032247980572335', '1.0034576265108428', '1.002630653081919', '1.002326908121108', '1.001878112098704', '1.0022009503355596', '1.0027193538256811', '1.002607529834903', '1.001789554508973', '1.0018281229112502', '1.0022524352686728', '1.002544070571124', '1.0025171770901231', '1.002458264718309', '1.0024610825822355', '1.0022377694491675', '1.0020711209769078', '1.002119869328697', '1.0028137011769622', '1.0028254685324205', '1.0025904408724529', '1.00245216991188', '1.0025327673316102']</t>
+          <t>['0.9999291963849143', '1.0009403474680845', '1.0005753318400068', '1.0000975319892558', '1.0004559482894018', '1.0006643640349193', '1.0016604001010199', '1.001074405007592', '1.0002224608375936', '1.0011140033922659', '1.001688858899707', '1.001627687162577', '1.0013858026943794', '1.0014457396533714', '1.0017260280828282', '1.001851055833669', '1.0018749277521706', '1.0022524334947056', '1.0022308745816126', '1.002192614135938', '1.0021511755237058', '1.0020769081966094', '1.0013054347431578', '1.0013102099503661', '1.0018756322741913']</t>
         </is>
       </c>
       <c r="N4" t="b">
@@ -737,12 +737,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>24971082192</t>
+          <t>27390702262</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.000044737628772196</t>
+          <t>0.0000451005272979</t>
         </is>
       </c>
     </row>
@@ -777,12 +777,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>43884769798</t>
+          <t>43842138998</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.0024394500070297</t>
+          <t>1.00146565441411</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -793,7 +793,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -801,7 +801,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['1.0029067609543876', '1.0027852798553352', '1.0028082496511448', '1.0027241309315251', '1.0025896295188088', '1.002174740892571', '1.0019969632204648', '1.0019030880898518', '1.0020185574011344', '1.002246708349064', '1.0022766086348551', '1.0018563634796231', '1.0017830971589776', '1.0021803244472915', '1.0028713617611327', '1.002945831189709', '1.002266814085932', '1.0021204890768436', '1.0021431695820933', '1.0022780106505853', '1.0022870369309176', '1.0031173016252128', '1.0033806775632235', '1.003036921255778', '1.0025039832370195']</t>
+          <t>['1.0001049241719024', '1.0001418363747538', '1.000423407798868', '1.000306662673402', '1.0002366494470334', '1.0005244167536649', '1.000668999032332', '1.0010133331046172', '1.0008015314293053', '1.0005764759817584', '1.0008379971743457', '1.0011014421780298', '1.0012817389668256', '1.0013553261412163', '1.0014100977901166', '1.0013991939099915', '1.0014700493479927', '1.0016244146747906', '1.001661038970564', '1.001753873867545', '1.001829396033476', '1.0017849612118328', '1.0017344891215547', '1.001545632446912', '1.0014793077451043']</t>
         </is>
       </c>
       <c r="N5" t="b">
@@ -814,12 +814,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2352548888</t>
+          <t>2257052897</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.000044708619241212</t>
+          <t>0.00004506599746062</t>
         </is>
       </c>
     </row>
@@ -854,12 +854,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>41592802977</t>
+          <t>41223054729</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>291.2346095686076</t>
+          <t>288.6456163019482</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -870,7 +870,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -878,7 +878,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['290.6506839969466', '290.76000829515107', '290.80744669286855', '290.8338268608176', '291.1002108593617', '290.91888711133345', '290.9979083918305', '291.0461922119547', '291.0600033468724', '291.15753885675616', '291.3404609823738', '291.4602335833259', '291.44222146981457', '291.1703655962501', '291.1957594171194', '291.3069368763486', '291.30997770785535', '291.31696145327436', '291.30470604294777', '291.2806264448664', '291.2684633453044', '291.28500217505666', '291.28347893051006', '291.26003600612586', '291.2426312339027']</t>
+          <t>['290.23983073700975', '289.95112531884536', '289.82306768120645', '289.8839561400366', '289.90443509039494', '289.81050861768347', '289.5973102976814', '289.78128196828055', '289.75738742203214', '289.4100212656008', '289.24132229902256', '289.25283042184634', '289.2057058914108', '289.0586838180115', '288.79524768890224', '288.6804830442536', '288.6767979725046', '288.62496200310244', '288.57042040524095', '288.5823783812529', '288.60063905731073', '288.59972481338394', '288.7276065601649', '288.80388263365563', '288.70015848763944']</t>
         </is>
       </c>
       <c r="N6" t="b">
@@ -891,12 +891,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>347229665</t>
+          <t>465315379</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.012989011225540378</t>
+          <t>0.0129890651306388</t>
         </is>
       </c>
     </row>
@@ -931,12 +931,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>18936031471</t>
+          <t>19097906416</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.3764713219618555</t>
+          <t>0.3796895926161045</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -947,7 +947,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -955,7 +955,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['0.3758951347043901', '0.3759742606815884', '0.3759139306709296', '0.375963633881129', '0.3763052355726118', '0.3763946732293736', '0.3764409457352641', '0.37652125716968204', '0.37663582043717175', '0.376669887724666', '0.3768165639819081', '0.3767640428195797', '0.3765891248796335', '0.3765144752533081', '0.37663242970220406', '0.3768435736975868', '0.37686311948775475', '0.37703166178496467', '0.37708771672012986', '0.37704769640254854', '0.3769305152094339', '0.37690493169802225', '0.3767436885162813', '0.3766344945320525', '0.37656269538447745']</t>
+          <t>['0.37767798618861936', '0.37732094101152197', '0.3772762002393756', '0.3773129896569922', '0.3778438618909671', '0.37794044900428947', '0.3782725609762112', '0.3790107935091434', '0.379593626410405', '0.37949079010734593', '0.3796917821066969', '0.37982300859897483', '0.3803370459666009', '0.380166428341465', '0.3797593441123969', '0.37970224967422134', '0.3796149681556501', '0.3793322762511643', '0.37938318515952535', '0.37938762119817065', '0.3795362310914956', '0.3798417762138244', '0.3803256796565138', '0.3803762092197064', '0.3798742930303782']</t>
         </is>
       </c>
       <c r="N7" t="b">
@@ -968,12 +968,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>878047348</t>
+          <t>1441890166</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.000016790553273527</t>
+          <t>0.000017086047975027</t>
         </is>
       </c>
     </row>
@@ -983,48 +983,48 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PDKcptVnzJTmN</t>
+          <t>qzawljRxB5bYu</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>ADA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>Cardano</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>#2d60e0</t>
+          <t>#3cc8c8</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/xcZdYtX6E/okx.png</t>
+          <t>https://cdn.coinranking.com/ryY28nXhW/ada.svg</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12313071106</t>
+          <t>11515555836</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>49.92346062236233</t>
+          <t>0.32859320848965057</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1538524800</v>
+        <v>1506902400</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['49.88691146207834', '49.849020964478086', '49.90314971300372', '49.92388773666483', '49.91832340247958', '49.97949147805546', '49.98142222314504', '50.01101194070554', '50.00970895998358', '49.97857579046154', '49.96293706725062', '49.957498596703786', '49.96428440111827', '49.946807494086634', '49.9459403475479', '49.94456971979366', '49.95252197790129', '49.951833233872904', '49.94320854112618', '49.943679241507326', '49.94284425984762', '49.953848977771244', '49.93416735487119', '49.91175511256318', '49.90470934714399']</t>
+          <t>['0.32979027953899553', '0.32971370621816687', '0.3295846309891902', '0.3295563130636184', '0.32944977845617324', '0.32928157378412676', '0.3289412440387933', '0.3290248936453677', '0.32915182190744774', '0.32896297880116826', '0.32884426619959234', '0.3288056292890431', '0.32852894999418314', '0.32843454174710446', '0.3282064439079243', '0.3281314197736891', '0.32798530856113584', '0.3278071036056841', '0.32789111538597965', '0.32788834792796234', '0.32795912426565893', '0.3281371583274404', '0.3285895015203661', '0.3286384073063216', '0.3285966048314343']</t>
         </is>
       </c>
       <c r="N8" t="b">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/PDKcptVnzJTmN+okb-okb</t>
+          <t>https://coinranking.com/coin/qzawljRxB5bYu+cardano-ada</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>31936196</t>
+          <t>282117923</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.002226577367992822</t>
+          <t>0.000014786708494796</t>
         </is>
       </c>
     </row>
@@ -1060,48 +1060,48 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>qzawljRxB5bYu</t>
+          <t>PDKcptVnzJTmN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ADA</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cardano</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>#3cc8c8</t>
+          <t>#2d60e0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/ryY28nXhW/ada.svg</t>
+          <t>https://cdn.coinranking.com/xcZdYtX6E/okx.png</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>11988492198</t>
+          <t>10976579856</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.3420883170706814</t>
+          <t>44.50464449117907</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1506902400</v>
+        <v>1538524800</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['0.3407430257879423', '0.3409189436183689', '0.34096881793550626', '0.34110102189856906', '0.3414698169048637', '0.341729116854909', '0.34208162623056226', '0.34205890438968606', '0.3420175110867467', '0.34215462721294015', '0.3423582619105406', '0.3423350835289739', '0.3422709200824184', '0.3422340680694619', '0.3422268590224959', '0.34220069614172666', '0.34217775353921454', '0.3421579525069364', '0.34216590095141913', '0.3421369314594462', '0.3420764664156842', '0.3420964426234565', '0.34217172382207456', '0.34217667732842033', '0.34215886706019116']</t>
+          <t>['44.86575952720381', '44.85353672155584', '44.68474108366889', '44.746191411983695', '44.87097668221974', '44.892416843314834', '44.91202824996968', '44.914008380394804', '44.87700975963352', '44.824987438751286', '44.8543832236491', '44.829923635991534', '44.7516989800904', '44.72678310083187', '44.72132987313776', '44.66683477017249', '44.642376295227045', '44.60675678498535', '44.62819988658038', '44.593119126927796', '44.53298856671417', '44.53144563639302', '44.59775283324612', '44.51986505965364', '44.50569385953772']</t>
         </is>
       </c>
       <c r="N9" t="b">
@@ -1117,17 +1117,17 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/qzawljRxB5bYu+cardano-ada</t>
+          <t>https://coinranking.com/coin/PDKcptVnzJTmN+okb-okb</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>313405052</t>
+          <t>50376801</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0.000015257077437119</t>
+          <t>0.002002710913534662</t>
         </is>
       </c>
     </row>
@@ -1162,12 +1162,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10521506198</t>
+          <t>10277194958</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1.163577555565133</t>
+          <t>1.136566276649821</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['1.159448631221797', '1.1596513934123296', '1.1590105038286738', '1.1591286590597996', '1.1614538258585747', '1.162530742194254', '1.164211237631086', '1.1636481237159018', '1.1635847585247316', '1.1639934635174092', '1.1654971382157906', '1.1654517175954182', '1.1651610059387958', '1.1648956422013457', '1.1648273331166203', '1.1649491208875582', '1.1649858441388083', '1.1655118313309956', '1.165935001865562', '1.1655827519850612', '1.1644588871156767', '1.1641659826270014', '1.164675915812314', '1.1648098890032088', '1.1646529670001613']</t>
+          <t>['1.1478022382990065', '1.1458984099287317', '1.1464155077215474', '1.147320404093183', '1.1480944948650473', '1.146934536199607', '1.1429998348354462', '1.1429541069765037', '1.1433139985641418', '1.1420317971405711', '1.1412248985889781', '1.1406118765044295', '1.13962428562953', '1.139267512218751', '1.1383018758124688', '1.138044787917084', '1.138097897038726', '1.1376897917707003', '1.137611530616336', '1.1363068753639063', '1.1357393793588288', '1.1361870749408776', '1.1365078200320013', '1.1371395799199673', '1.136823099115765']</t>
         </is>
       </c>
       <c r="N10" t="b">
@@ -1199,12 +1199,12 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>365616897</t>
+          <t>411151860</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.000051895349778001</t>
+          <t>0.000051145531263669</t>
         </is>
       </c>
     </row>
@@ -1239,12 +1239,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10500278410</t>
+          <t>10082006949</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.07673524804211938</t>
+          <t>0.07367855153486451</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['0.07649156282182805', '0.07650346929514487', '0.07649695979685964', '0.0764987772964004', '0.076622837524375', '0.07667304287241758', '0.0767030670827736', '0.0766955662001224', '0.07669893633999485', '0.07670907829371527', '0.07672410362117085', '0.07672001479291088', '0.07670946470729939', '0.0767149759208899', '0.07672357674920112', '0.07674319583214342', '0.07675220286814288', '0.0767690440030384', '0.07677319189550075', '0.07676977363998559', '0.07672875655865484', '0.07672031771048127', '0.07673312231081887', '0.07674572465016946', '0.07674135630957198']</t>
+          <t>['0.0740745192871574', '0.07398508842240849', '0.073990570833497', '0.07400117147305109', '0.07400485377395093', '0.07398312712772424', '0.07388838644233674', '0.07393064100069603', '0.07398902434571174', '0.07395122066168726', '0.07392038185247685', '0.07392282129256966', '0.07390550246327383', '0.07386719666670137', '0.07378557687456509', '0.07374054470672434', '0.07372704274745309', '0.0736817412167652', '0.0736859454996975', '0.07367984551622515', '0.07368029174454277', '0.07368986585347032', '0.07370672910167432', '0.07370538930619626', '0.07367603189295291']</t>
         </is>
       </c>
       <c r="N11" t="b">
@@ -1276,12 +1276,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>233470892</t>
+          <t>290593141</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.000003422378266409</t>
+          <t>0.000003315537983492</t>
         </is>
       </c>
     </row>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>9199213989</t>
+          <t>8459710791</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.0031320280902292</t>
+          <t>1.0024645848088867</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['1.0035311284238342', '1.0031607599170687', '1.0032795734652615', '1.0034571766409426', '1.0025656972628747', '1.0022020829326606', '1.0016039537548893', '1.0019883178240592', '1.002584143736787', '1.00254707217671', '1.0017613784477477', '1.0017594907312979', '1.0021154080211483', '1.0024138406859875', '1.0024159340214955', '1.002535260034144', '1.0025329606956026', '1.002282004963583', '1.0020684516726142', '1.002091701865965', '1.0026573904911027', '1.0026775310707952', '1.0025355022270945', '1.00241814320247', '1.0024503188331826']</t>
+          <t>['0.9999423204306314', '1.0012186444348252', '1.000898746078487', '1.0003298645861571', '1.0005189429810035', '1.0006749702246847', '1.0020132776853123', '1.0014412136898887', '1.000477026620767', '1.0012300875233207', '1.0018843765972862', '1.0018789263890746', '1.0017587445864695', '1.001758118974478', '1.002001366009965', '1.0021905630248216', '1.0022101073310838', '1.0026235720103565', '1.002621025389689', '1.0025660901331832', '1.002538121491597', '1.0024586944985674', '1.001675458006104', '1.0016285324642324', '1.0020913083298517']</t>
         </is>
       </c>
       <c r="N12" t="b">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>4979602433</t>
+          <t>5086414918</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0.000044739508099203</t>
+          <t>0.000045110949371288</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>7734774638</t>
+          <t>7339440496</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21.298684921814246</t>
+          <t>20.21008211970708</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>-1.15</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['21.19668542330637', '21.1887399350258', '21.180824085879586', '21.197517492181767', '21.239398564585557', '21.258004794851896', '21.28623958428727', '21.272383165486637', '21.263141122366868', '21.268814014324523', '21.282280975816654', '21.286080756117837', '21.29052716787192', '21.287794803347563', '21.290078434016273', '21.292764788337067', '21.28074393780842', '21.29270187509594', '21.29922712522163', '21.2963527346346', '21.296360314305137', '21.292502451434917', '21.29328113847339', '21.302238068691466', '21.308333326697582']</t>
+          <t>['20.42952285386504', '20.39158430952778', '20.373484870387234', '20.368142317782223', '20.378338314769923', '20.357003303693855', '20.310509363435354', '20.344601202914344', '20.360976390558864', '20.34267982708249', '20.334998430123953', '20.332673482741498', '20.321635825074704', '20.31014175589706', '20.281193875787913', '20.245311599120395', '20.227018662608128', '20.198792608403224', '20.19835607466598', '20.184306396345296', '20.20411016373674', '20.22389037036546', '20.246704761890797', '20.247958659187404', '20.222492085316933']</t>
         </is>
       </c>
       <c r="N13" t="b">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>312950642</t>
+          <t>354073571</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0.000949917518211452</t>
+          <t>0.000909454563390375</t>
         </is>
       </c>
     </row>
@@ -1470,12 +1470,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>7220677350</t>
+          <t>7040188364</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>6.004324258454145</t>
+          <t>5.849749335507862</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['5.956166886272124', '5.960457876662648', '5.961959246253848', '5.966027876881359', '5.9760831040917965', '5.9811376387220765', '5.98570330234825', '5.986322779340646', '5.988545554627161', '5.99094416736111', '5.993765395446709', '5.995117377408488', '5.997498204929982', '5.999088715180078', '6.001564159911234', '6.005662951906637', '6.00736496551243', '6.010757543861306', '6.011543205081646', '6.010962515404888', '6.010044837778082', '6.006931026760122', '6.002877303436963', '6.003488463829539', '6.00427234711042']</t>
+          <t>['5.897868978245005', '5.888456291206291', '5.8869043430515955', '5.886613429607759', '5.887891896577299', '5.884364210451656', '5.876035249804688', '5.878003933658524', '5.880592259789203', '5.8761939292564405', '5.874377857635684', '5.870776263250448', '5.863895173341866', '5.862556778039942', '5.8595185986276235', '5.859023686031813', '5.8564653934227495', '5.8515457397581985', '5.852563200863361', '5.851814269286974', '5.852586957411321', '5.855243220588189', '5.8571128321775205', '5.857749325974638', '5.851420265579653']</t>
         </is>
       </c>
       <c r="N14" t="b">
@@ -1507,12 +1507,12 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>313867684</t>
+          <t>256237571</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0.000267791782406523</t>
+          <t>0.000263238971338952</t>
         </is>
       </c>
     </row>
@@ -1522,48 +1522,48 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>VLqpJwogdhHNb</t>
+          <t>Mtfb0obXVh59u</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LINK</t>
+          <t>WETH</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Chainlink</t>
+          <t>Wrapped Ether</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>#4680b0</t>
+          <t>#303030</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/9NOP9tOem/chainlink.svg</t>
+          <t>https://cdn.coinranking.com/KIviQyZlt/weth.svg</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>6930692691</t>
+          <t>6754226244</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>6.931320149210565</t>
+          <t>1583.185889673136</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1505952000</v>
+        <v>1600259445</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['6.899266525040442', '6.898359643137485', '6.898740012693233', '6.9044177232394075', '6.913651805786536', '6.918205658281067', '6.923328176293872', '6.924238996139711', '6.9250392630716595', '6.925928639150187', '6.927730367585435', '6.927411471616622', '6.9255123893187465', '6.9250713890756534', '6.92645747029792', '6.930063210320089', '6.930637923878434', '6.9328186432205', '6.933578160361721', '6.933658031757008', '6.933588452928277', '6.933494893916815', '6.934026241168159', '6.9344218982566135', '6.932843694164899']</t>
+          <t>['1568.6913134372826', '1572.051313930002', '1567.6781328412767', '1570.987968333269', '1566.0104639802778', '1564.378758690285', '1585.622192847607', '1592.175198366514', '1558.718797740477', '1554.558458906638', '1592.0962870100232', '1597.6798113703014', '1548.1392919113828', '1541.3762438988695', '1583.3244853657034', '1587.399160551702', '1559.6303369079835', '1559.9669930848459', '1596.3342917150492', '1602.4008484772185', '1548.175524805182', '1543.5796199452384', '1579.0474435072663', None, None]</t>
         </is>
       </c>
       <c r="N15" t="b">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/VLqpJwogdhHNb+chainlink-link</t>
+          <t>https://coinranking.com/coin/Mtfb0obXVh59u+wrappedether-weth</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>307808082</t>
+          <t>197488664</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>0.000309135632469194</t>
+          <t>0.07115692798604577</t>
         </is>
       </c>
     </row>
@@ -1599,48 +1599,48 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mtfb0obXVh59u</t>
+          <t>VLqpJwogdhHNb</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>WETH</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Wrapped Ether</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>#303030</t>
+          <t>#4680b0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/KIviQyZlt/weth.svg</t>
+          <t>https://cdn.coinranking.com/9NOP9tOem/chainlink.svg</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>6734855075</t>
+          <t>6748642337</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1576.598465415651</t>
+          <t>6.749253312827013</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1600259445</v>
+        <v>1505952000</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['1570.7661442035012', '1570.4783472443362', '1571.2764410806274', '1570.9268181667512', '1572.1321901412136', '1572.462096249354', '1573.3720339352867', '1574.9313705961104', '1575.4630953416108', '1575.7976888732342', '1574.2619819815013', '1573.7510858544524', '1578.24914784245', '1579.5170438592927', '1575.4827300345926', '1574.4736773975678', '1575.1875024104622', '1576.1330878470756', '1581.0454782879794', '1580.8102273835025', '1575.4729715113895', '1575.4600906561093', '1576.460895040644', None, None]</t>
+          <t>['6.7855917344422405', '6.778835670511425', '6.779931166521806', '6.779632748920346', '6.778761911537127', '6.778403851824908', '6.77667040918821', '6.778945126600763', '6.780941853095254', '6.776497183256654', '6.77444519748172', '6.774716311597166', '6.772991068537457', '6.76996360087032', '6.765618207216116', '6.7635977796795705', '6.761974374569949', '6.757324893265247', '6.757603792099406', '6.7555492550452465', '6.755859609879379', '6.755845145767494', '6.756781834049772', '6.75633207324515', '6.751286890685959']</t>
         </is>
       </c>
       <c r="N16" t="b">
@@ -1656,17 +1656,17 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/Mtfb0obXVh59u+wrappedether-weth</t>
+          <t>https://coinranking.com/coin/VLqpJwogdhHNb+chainlink-link</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>376065653</t>
+          <t>425837168</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0.07027065270077743</t>
+          <t>0.000303716688951143</t>
         </is>
       </c>
     </row>
@@ -1701,12 +1701,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6699266199</t>
+          <t>6322951920</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.00001136319770341</t>
+          <t>0.00001072491862995</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['0.000011332342962584', '0.000011331493665837', '0.000011323982465582', '0.000011320199481721', '0.000011339524884872', '0.000011347174898982', '0.000011359408404437', '0.000011360278323734', '0.000011362088938627', '0.000011365916726631', '0.000011374071640944', '0.00001137574492959', '0.000011372925091869', '0.000011370864252066', '0.000011370304795781', '0.000011366762248732', '0.000011368096485389', '0.000011371612304936', '0.000011373651609178', '0.000011372368931695', '0.000011371801878437', '0.000011369538832302', '0.000011367371754162', '0.000011368322210629', '0.000011365806910782']</t>
+          <t>['0.000010822613703973', '0.000010810783741346', '0.000010815850924351', '0.000010816342141277', '0.000010814695404056', '0.000010808142077791', '0.000010793780970763', '0.000010805122262943', '0.000010811323349973', '0.000010792453271266', '0.000010787438885977', '0.000010790102020495', '0.000010783952235575', '0.000010775207567335', '0.000010766194231922', '0.000010766547590097', '0.000010766409850111', '0.000010754135413058', '0.000010751868550384', '0.000010745765039667', '0.000010747598609104', '0.000010748695257357', '0.000010748280297412', '0.000010743549400462', '0.000010731081127229']</t>
         </is>
       </c>
       <c r="N17" t="b">
@@ -1738,12 +1738,12 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>177661034</t>
+          <t>192609902</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>5.06796575e-10</t>
+          <t>4.82621799e-10</t>
         </is>
       </c>
     </row>
@@ -1753,48 +1753,48 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>D7B1x_ks7WhV5</t>
+          <t>qUhEFk1I61atv</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LTC</t>
+          <t>TRX</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Litecoin</t>
+          <t>TRON</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>#345d9d</t>
+          <t>#eb0029</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/BUvPxmc9o/ltcnew.svg</t>
+          <t>https://cdn.coinranking.com/behejNqQs/trx.svg</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>6405614048</t>
+          <t>6132181514</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>90.39139471677987</t>
+          <t>0.06654676870631128</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1382572800</v>
+        <v>1505260800</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['90.20879956282658', '90.19530672618872', '90.16116243554426', '90.17382131990037', '90.28249519107706', '90.32849462494954', '90.34387376709601', '90.35249123862928', '90.39847447673327', '90.4182211382637', '90.45303068135149', '90.44805637266552', '90.44644706394524', '90.44618220325084', '90.44141794139261', '90.47033942420835', '90.45840152148784', '90.43702821167726', '90.42569428157788', '90.42087094551121', '90.41290896592969', '90.40693196626044', '90.414862398733', '90.43315067185799', '90.42020723401261']</t>
+          <t>['0.06663997286935203', '0.06667416865341898', '0.06663402038564119', '0.06659825366103506', '0.06660121881346574', '0.06662684306138816', '0.06668300052685937', '0.06664734032328327', '0.06659984346107305', '0.06664092837837025', '0.06666864149181059', '0.06668062986096948', '0.06667572153760404', '0.0666586068004212', '0.06661321578513191', '0.06661515527538725', '0.0665845755001149', '0.06651673184360832', '0.0665230928520338', '0.06651973907980131', '0.06651223433723398', '0.06650465193666982', '0.06649389513414553', '0.06649534109652956', '0.06653172605872688']</t>
         </is>
       </c>
       <c r="N18" t="b">
@@ -1810,17 +1810,17 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/D7B1x_ks7WhV5+litecoin-ltc</t>
+          <t>https://coinranking.com/coin/qUhEFk1I61atv+tron-trx</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>501710356</t>
+          <t>275814445</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>0.00403143995285326</t>
+          <t>0.000002994607449904</t>
         </is>
       </c>
     </row>
@@ -1830,48 +1830,48 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>qUhEFk1I61atv</t>
+          <t>D7B1x_ks7WhV5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TRX</t>
+          <t>LTC</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TRON</t>
+          <t>Litecoin</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>#eb0029</t>
+          <t>#345d9d</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/behejNqQs/trx.svg</t>
+          <t>https://cdn.coinranking.com/BUvPxmc9o/ltcnew.svg</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6238050004</t>
+          <t>6125500106</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.06769565934317706</t>
+          <t>86.43862925993534</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1505260800</v>
+        <v>1382572800</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['0.0676517651816783', '0.06777046661055237', '0.06775625476051876', '0.06775903204987004', '0.06774302200945313', '0.06773611997621728', '0.067685237774871', '0.06766851150204227', '0.06767837596149057', '0.06765629424871139', '0.06762131744988538', '0.06763937720830157', '0.06771641797589499', '0.06776627680325306', '0.06776204512507712', '0.06774719164857385', '0.06774847943724949', '0.06775158416125591', '0.0677435022934965', '0.06773147896649823', '0.06771920102322235', '0.06770930354722592', '0.06770723432895186', '0.06769560507075693', '0.06769907139318894']</t>
+          <t>['86.6562246367794', '86.56772683702026', '86.53116825315617', '86.54501679895363', '86.60561950068653', '86.59406415930489', '86.50026371387942', '86.53806786683008', '86.58405839108354', '86.54987662135697', '86.54571819665729', '86.54842354839164', '86.52497946825338', '86.48896765046915', '86.43117747487493', '86.40302965161001', '86.3881792975285', '86.32907038243762', '86.35520605955207', '86.40284027486243', '86.45201498567162', '86.49394134888088', '86.51112263666505', '86.50719565712639', '86.45216457507273']</t>
         </is>
       </c>
       <c r="N19" t="b">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/qUhEFk1I61atv+tron-trx</t>
+          <t>https://coinranking.com/coin/D7B1x_ks7WhV5+litecoin-ltc</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>312095906</t>
+          <t>612583402</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>0.000003019214235668</t>
+          <t>0.003889742029152939</t>
         </is>
       </c>
     </row>
@@ -1907,48 +1907,48 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MoTuySvg7</t>
+          <t>_H5FVG9iW</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DAI</t>
+          <t>UNI</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Dai</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>#ea9999</t>
+          <t>#ff007a</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/mAZ_7LwOE/mutli-collateral-dai.svg</t>
+          <t>https://cdn.coinranking.com/1heSvUgtl/uniswap-v2.svg?size=48x48</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>5152908315</t>
+          <t>5151302813</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1.0020747740111924</t>
+          <t>6.412742196029805</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1585574040</v>
+        <v>1600323371</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['1.0042379260079348', '1.0042096497233475', '1.0041785897061353', '1.0041095118153505', '1.004081468030185', '1.0031284817441435', '1.0027543251871118', '1.00212411538223', '1.0019592477346737', '1.001965646763511', '1.0019959526239988', '1.0017151163877187', '1.0017592941103677', '1.0017866910630897', '1.0018248808926897', '1.0018888241933612', '1.001858856320291', '1.0018948215913301', '1.0018985434516436', '1.0018145662303652', '1.001778739496501', '1.0018951772639937', '1.0019444790075744', '1.0019722217574372', '1.002032173316818']</t>
+          <t>['6.442545236182374', '6.442751856742108', '6.442140366384216', '6.440502179920726', '6.441369455554147', '6.439597507139451', '6.437470478124152', '6.440567723081694', '6.444226597808923', '6.443958308760027', '6.445690916331628', '6.448055312839725', '6.447042936235552', '6.443783734961989', '6.438983785193565', '6.438656032308342', '6.436725676466569', '6.430900721501816', '6.431137176555635', '6.428855476847736', '6.425761597618634', '6.424046354363653', '6.4211554600122325', '6.4193910472793405', '6.41459323176684']</t>
         </is>
       </c>
       <c r="N20" t="b">
@@ -1964,17 +1964,17 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/MoTuySvg7+dai-dai</t>
+          <t>https://coinranking.com/coin/_H5FVG9iW+uniswap-uni</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>65583010</t>
+          <t>96156849</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>0.000044692354757363</t>
+          <t>0.00028857367424244</t>
         </is>
       </c>
     </row>
@@ -1984,48 +1984,48 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>dvUj0CzDZ</t>
+          <t>MoTuySvg7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AVAX</t>
+          <t>DAI</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>Dai</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>#e84242</t>
+          <t>#ea9999</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/S0C6Cw2-w/avax-avalanche.png</t>
+          <t>https://cdn.coinranking.com/mAZ_7LwOE/mutli-collateral-dai.svg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>5055097217</t>
+          <t>5136240947</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>16.809921226931447</t>
+          <t>1.001907133633223</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1600961596</v>
+        <v>1585574040</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['16.741519645195442', '16.769500780954257', '16.770026795916436', '16.769428751837967', '16.783846304953737', '16.79238640123566', '16.794048816711708', '16.78616652718218', '16.780984899792212', '16.786396227792626', '16.79778062274418', '16.797988754920556', '16.801645101450305', '16.804187253406624', '16.808488006605394', '16.818168429911992', '16.8214930312564', '16.82678652382577', '16.827430864310877', '16.82652243846051', '16.824249083112978', '16.822876957348345', '16.82392112467328', '16.823516772341208', '16.821999123300934']</t>
+          <t>['0.9995874948253354', '0.9997845597074082', '0.9999750899293378', '1.0000565586687078', '1.0003751809153454', '1.0002161863993957', '1.000377681105456', '1.000935176781451', '1.0007558852364136', '1.0008446195468792', '1.0011812266963354', '1.0013081097130287', '1.001292967858154', '1.0030045991990635', '1.0032710069690158', '1.0023050265414426', '1.0010304196346067', '1.0010759342065354', '1.0028624980394611', '1.0029944229717853', '1.0024371272951713', '1.0020724727474137', '1.0021033051120085', '1.001827780112495', '1.0019092068854343']</t>
         </is>
       </c>
       <c r="N21" t="b">
@@ -2041,17 +2041,17 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/dvUj0CzDZ+avalanche-avax</t>
+          <t>https://coinranking.com/coin/MoTuySvg7+dai-dai</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>136532489</t>
+          <t>56289048</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>0.000749719464456801</t>
+          <t>0.000045085864044441</t>
         </is>
       </c>
     </row>
@@ -2061,48 +2061,48 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>_H5FVG9iW</t>
+          <t>dvUj0CzDZ</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>UNI</t>
+          <t>AVAX</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>#ff007a</t>
+          <t>#e84242</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/1heSvUgtl/uniswap-v2.svg?size=48x48</t>
+          <t>https://cdn.coinranking.com/S0C6Cw2-w/avax-avalanche.png</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>5012055778</t>
+          <t>4863409148</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>6.2393997687157325</t>
+          <t>16.172493063628036</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1600323371</v>
+        <v>1600961596</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['6.1979839357907265', '6.199219145229703', '6.202690788937062', '6.207062711159054', '6.218946163515569', '6.226552991448678', '6.231182421989049', '6.229248009720459', '6.230516536103144', '6.231956049285781', '6.23486035789038', '6.2349422207803995', '6.234712221732109', '6.235928177295602', '6.236826690188476', '6.239983874819843', '6.2414577068821595', '6.241660028665503', '6.243945422129242', '6.246173177725491', '6.245703365313367', '6.245691369079538', '6.2443808227779956', '6.2423344289125575', '6.241490157516908']</t>
+          <t>['16.274877903466248', '16.235798120509692', '16.23311395576692', '16.23981160259211', '16.25893960243918', '16.25892569703302', '16.223950147257224', '16.235644107890923', '16.250141793348273', '16.24842461671577', '16.243856375569276', '16.24049507522584', '16.2300332726069', '16.222347059208936', '16.209611907480102', '16.20517799642503', '16.203113781859162', '16.191972109220877', '16.19217980296612', '16.18772770810747', '16.18548248735692', '16.187921382036453', '16.197486619914592', '16.197043880055524', '16.181820196308376']</t>
         </is>
       </c>
       <c r="N22" t="b">
@@ -2118,17 +2118,17 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/_H5FVG9iW+uniswap-uni</t>
+          <t>https://coinranking.com/coin/dvUj0CzDZ+avalanche-avax</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>72881488</t>
+          <t>185386131</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>0.000278276107899844</t>
+          <t>0.000727762882456258</t>
         </is>
       </c>
     </row>
@@ -2163,12 +2163,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3965085534</t>
+          <t>3854566411</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>12.048360356546072</t>
+          <t>11.712535514612972</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>-0.54</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['12.011823194971296', '12.023092389534094', '12.023545563430408', '12.027686421659944', '12.039164124749684', '12.043347348556717', '12.040872582203857', '12.03883979323272', '12.03971591962152', '12.046660100710524', '12.057272509890112', '12.056072279031095', '12.050765605080967', '12.046673114419075', '12.046893158077786', '12.047234998461876', '12.04773758563235', '12.052162039522257', '12.054028048839916', '12.054277265585904', '12.055032640309589', '12.054181178818357', '12.053019445773227', '12.055164757705843', '12.05634224596344']</t>
+          <t>['11.76827168931907', '11.755622367326843', '11.755693560258473', '11.759795101300767', '11.770587683380828', '11.768346247458728', '11.759794861866396', '11.768753020948262', '11.779219912257762', '11.773352600379924', '11.769513907759062', '11.768980152057296', '11.763278913222512', '11.758220401133908', '11.73816874889397', '11.732774082114858', '11.726744869807318', '11.71753327108905', '11.717079741116535', '11.71312007132585', '11.713373668728964', '11.719152255141902', '11.725521179878433', '11.727656350941219', '11.717978558211726']</t>
         </is>
       </c>
       <c r="N23" t="b">
@@ -2200,12 +2200,12 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>83021753</t>
+          <t>125857268</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>0.000537354705721079</t>
+          <t>0.0005270646011997</t>
         </is>
       </c>
     </row>
@@ -2240,12 +2240,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3573140269</t>
+          <t>3540325490</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>22417.11034152851</t>
+          <t>22211.23750252881</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['22395.040472820456', '22397.952774473975', '22390.507970228307', '22387.012270161147', '22409.189248178875', '22419.572612499112', '22438.319393790247', '22432.630006871823', '22418.305338181337', '22416.92874297065', '22444.724662992467', '22451.39547948284', '22439.22328538477', '22428.148196520433', '22433.094818490314', '22445.89147976385', '22438.28972484007', '22435.993221846173', '22442.838929369194', '22441.94344944793', '22423.273180020955', '22423.928145287042', '22442.667927377872', '22441.626871327295', '22441.875379595815']</t>
+          <t>['22313.368765197698', '22285.525630245123', '22288.641097297714', '22297.360823283572', '22292.920652455257', '22281.415267144006', '22249.73136975549', '22262.77086935084', '22283.73451124872', '22268.761373001857', '22253.995993254885', '22257.052013800007', '22257.824425165298', '22255.801923327377', '22251.94153624589', '22248.594425036168', '22242.193870866027', '22225.344413364368', '22223.544586675704', '22228.573969139376', '22214.957392658867', '22228.95975404014', '22245.667310842557', '22240.085850096522', '22222.517290857006']</t>
         </is>
       </c>
       <c r="N24" t="b">
@@ -2277,12 +2277,12 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>100282351</t>
+          <t>172812118</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>0.9997990908484292</t>
+          <t>0.9995066415650482</t>
         </is>
       </c>
     </row>
@@ -2317,12 +2317,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3575811334</t>
+          <t>3361660107</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2.426596210801502</t>
+          <t>2.2812701559450383</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>-0.90</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['2.4460907979524307', '2.441807912217749', '2.4368238344933193', '2.4338634011797184', '2.421414935277542', '2.4210340708506095', '2.4214080227137442', '2.4208319778686174', '2.4211561976388407', '2.4223834986753627', '2.422131672757611', '2.422053656893141', '2.4190744794408827', '2.419560681262697', '2.421531090048194', '2.422928071563026', '2.422987252509853', '2.4234599519342495', '2.423366532706932', '2.4226584420950386', '2.4227379845085655', '2.4235196032480233', '2.425736453672737', '2.4255054899029203', '2.4258182895389777']</t>
+          <t>['2.2980183037638007', '2.297459527358684', '2.2989109371709393', '2.298359922299127', '2.2975743755214317', '2.2965860212765863', '2.296821936443003', '2.298265154708548', '2.2969517254075686', '2.2943653431701803', '2.295662890151253', '2.2986400186214757', '2.2991691945687487', '2.298303250521605', '2.294511588156723', '2.293746007019259', '2.2928488249145937', '2.290587116249713', '2.2903551834486464', '2.2870959907952004', '2.2862532668287097', '2.2846587183945832', '2.2833609808697', '2.2821218356408397', '2.280747748334521']</t>
         </is>
       </c>
       <c r="N25" t="b">
@@ -2354,12 +2354,12 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>65127947</t>
+          <t>61644103</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>0.000108225754722772</t>
+          <t>0.000102657254995882</t>
         </is>
       </c>
     </row>
@@ -2394,12 +2394,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3221263263</t>
+          <t>2994130880</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2.7535630567719123</t>
+          <t>2.559408376897407</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>-1.80</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['2.7285934646171244', '2.7280680376130118', '2.721576292617309', '2.717987800027016', '2.727756258308652', '2.7332431169248825', '2.7439487825082263', '2.7427649214535132', '2.742682133947369', '2.744710841029087', '2.74832101548988', '2.7478970967408083', '2.750629456697512', '2.7522924383209166', '2.7512892182105158', '2.7488857866912952', '2.7489492144226184', '2.7522310911798336', '2.7535378920442017', '2.753863041361394', '2.751909190044635', '2.7504554642808836', '2.7504097167161525', '2.751437518758921', '2.7521074580442146']</t>
+          <t>['2.603419830036224', '2.5966970436947863', '2.598410992718909', '2.600040864394746', '2.594978146899309', '2.5882476581134073', '2.5809635425150126', '2.5812395569426725', '2.580734600176444', '2.575453902489992', '2.5743880430483332', '2.5744399859701654', '2.5747678349710523', '2.573229637522297', '2.570756863257138', '2.5710024127586184', '2.5693093319044458', '2.5665395042285293', '2.5672855649616433', '2.5668171155502812', '2.5664248698840235', '2.566366087512189', '2.5657557796137604', '2.5648470645804884', '2.5605840221788236']</t>
         </is>
       </c>
       <c r="N26" t="b">
@@ -2431,12 +2431,12 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>363860957</t>
+          <t>207072138</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>0.000122808417267516</t>
+          <t>0.000115173486884507</t>
         </is>
       </c>
     </row>
@@ -2446,48 +2446,48 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>hnfQfsYfeIGUQ</t>
+          <t>3mVx2FX_iJFp5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>XMR</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>Monero</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>#699070</t>
+          <t>#ff7519</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/rJfyor__W/etc.svg</t>
+          <t>https://cdn.coinranking.com/Syz-oSd_Z/xmr.svg</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2809465630</t>
+          <t>2746464676</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>20.3309483945245</t>
+          <t>150.84825560195162</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1469577600</v>
+        <v>1422489600</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['20.262916140175083', '20.24462585896885', '20.246786120801207', '20.25740343016453', '20.285202528122245', '20.30659230266637', '20.31598082656306', '20.309077999611965', '20.31600813501597', '20.325254971419405', '20.33145938221618', '20.331864667135555', '20.33397980718562', '20.333604336633666', '20.333013572933773', '20.328423880681918', '20.332756544599146', '20.317893413847706', '20.318915116299873', '20.328155631074914', '20.362625017111874', '20.362842922089083', '20.361980567146567', '20.361230437515466', '20.353838036170597']</t>
+          <t>['151.2130917517275', '151.24230893217523', '151.25654041961994', '151.24080483074073', '151.10696792134826', '151.0886315204489', '151.10590593196545', '151.16152091255242', '151.194026275899', '151.06044572007875', '150.99353172519554', '150.9331177859309', '150.84211824320943', '150.8117770111165', '150.71188693138336', '150.68157732645', '150.62139532331415', '150.5273818372699', '150.54240072788255', '150.55120644179257', '150.57448152760927', '150.616385401712', '150.71165874605626', '150.74038601540383', '150.83028961686585']</t>
         </is>
       </c>
       <c r="N27" t="b">
@@ -2503,17 +2503,17 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/hnfQfsYfeIGUQ+ethereumclassic-etc</t>
+          <t>https://coinranking.com/coin/3mVx2FX_iJFp5+monero-xmr</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>319546565</t>
+          <t>108847652</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>0.000906756643084175</t>
+          <t>0.006788177980875069</t>
         </is>
       </c>
     </row>
@@ -2523,48 +2523,48 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3mVx2FX_iJFp5</t>
+          <t>hnfQfsYfeIGUQ</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>XMR</t>
+          <t>ETC</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Monero</t>
+          <t>Ethereum Classic</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>#ff7519</t>
+          <t>#699070</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/Syz-oSd_Z/xmr.svg</t>
+          <t>https://cdn.coinranking.com/rJfyor__W/etc.svg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2657632927</t>
+          <t>2666175155</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>145.96921437428165</t>
+          <t>19.294014101849463</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1422489600</v>
+        <v>1469577600</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['145.2683367710137', '145.0539337837122', '145.00448526564125', '144.98509790616006', '145.14777988508263', '145.2007682122876', '145.2944808723312', '145.36374504386384', '145.44166202659426', '145.49111397337995', '145.5408122586357', '145.55106370202478', '145.563033957452', '145.58209367103285', '145.6012735513233', '145.68210643612616', '145.68631015052406', '145.69530135581456', '145.70161000248604', '145.75733277139753', '145.87284744979527', '145.88010870328145', '145.87882280907667', '145.89086957520504', '145.9086757596733']</t>
+          <t>['19.368572331417596', '19.387524797049732', '19.367047185431815', '19.354014987226257', '19.358118202910532', '19.362923347858608', '19.379127791693474', '19.36374351281919', '19.348552877361893', '19.335786840055235', '19.33212596979304', '19.332820583571433', '19.329166886210896', '19.316503089386796', '19.332771989995134', '19.326560367583138', '19.320776436782257', '19.310458036069097', '19.315427077840898', '19.31405367983712', '19.31313633381159', '19.30134682369692', '19.28089052955411', '19.27744957556138', '19.296507571355665']</t>
         </is>
       </c>
       <c r="N28" t="b">
@@ -2580,17 +2580,17 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/3mVx2FX_iJFp5+monero-xmr</t>
+          <t>https://coinranking.com/coin/hnfQfsYfeIGUQ+ethereumclassic-etc</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>74333677</t>
+          <t>318173204</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>0.006510200717213196</t>
+          <t>0.000868231463242543</t>
         </is>
       </c>
     </row>
@@ -2625,12 +2625,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2511389134</t>
+          <t>2468225353</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>5.022778279951944</t>
+          <t>4.936450717495384</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['5.053594683532127', '5.0540177809036155', '5.05758796270139', '5.061372948038826', '5.058247554513871', '5.054849610309447', '5.04995723919523', '5.041386190463795', '5.037102696675036', '5.050240698577119', '5.054013390934587', '5.051995020642148', '5.045113394686441', '5.045380774420381', '5.0447245634293125', '5.044756493811395', '5.044134314842798', '5.042284904479712', '5.038958814467938', '5.037239342275092', '5.0356107311445175', '5.03203257159916', '5.030562448982122', '5.029329858916485', '5.028963240641356']</t>
+          <t>['4.938862933787139', '4.937125098507625', '4.938332967820494', '4.935775438914804', '4.93474712031373', '4.937061873117743', '4.930481290818122', '4.936675953336187', '4.942795437858258', '4.942118446044578', '4.944410729779352', '4.9451709513529165', '4.944117133659464', '4.9433653946180085', '4.940322748941657', '4.940492145185892', '4.939160337390917', '4.942019518071786', '4.943275841953122', '4.943018049805276', '4.940610714727364', '4.938966167464701', '4.9377609028585585', '4.93636684853744', '4.936420686755626']</t>
         </is>
       </c>
       <c r="N29" t="b">
@@ -2662,12 +2662,12 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>13184354</t>
+          <t>18073789</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0.000224015008237979</t>
+          <t>0.000222140494303095</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2414965128</t>
+          <t>2351508590</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>126.2304452835441</t>
+          <t>122.9135663387817</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['125.80193467210883', '125.78220256379528', '125.72613513553293', '125.82790186784948', '125.96150535211967', '125.9798772127319', '125.97376636443624', '125.92225383367612', '126.03732436233007', '126.07310378371764', '126.04925968347561', '126.08147017933983', '126.07120495581238', '126.08164321215689', '126.13931094110494', '126.16387793795862', '126.19083124454761', '126.17803886494167', '126.17585998886057', '126.1503363800916', '126.18981107339499', '126.17557983862255', '126.23329393426242', '126.24069358061638', '126.20288360742005']</t>
+          <t>['123.32533229772392', '123.40169045562345', '123.40996508191549', '123.35894119579186', '123.32499910207015', '123.1896307654924', '123.25612979008343', '123.33518248968433', '123.29512763963577', '123.20944646528444', '123.30560984026573', '123.27647849621457', '123.22058525245447', '123.1658792165922', '123.09736944546901', '123.08506054752274', '123.02408997945679', '122.94575779149397', '122.95648084585477', '122.88433955292668', '122.89657266614144', '123.00826098389419', '122.96701180145163', '122.94266817480973', '122.87592166963223']</t>
         </is>
       </c>
       <c r="N30" t="b">
@@ -2739,12 +2739,12 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>228647454</t>
+          <t>301185140</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>0.005629855164609699</t>
+          <t>0.005531115764264432</t>
         </is>
       </c>
     </row>
@@ -2779,12 +2779,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2318743170</t>
+          <t>2339489253</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1750.6178660460378</t>
+          <t>1754.4463718687523</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['1744.2716473112237', '1744.2202749288776', '1744.5104501228188', '1744.5278444547619', '1745.3579251338942', '1747.8003215174706', '1748.278954015595', '1749.8067915697184', '1748.7591984421701', '1753.2870210917115', '1750.0530837007764', '1751.1153181313946', '1755.0753509490705', '1750.78430065263', None, None, None, None, None, None, None, None, None, None, None]</t>
+          <t>['1719.8480664797114', '1743.1020424797673', '1745.419704261369', '1742.7978892174572', '1746.7024948251508', '1745.213498621245', '1745.9601896024787', '1760.8386267065123', '1760.3971097809476', '1738.4041552464769', '1740.0720191108744', '1766.4497789057161', '1761.6163530482975', '1727.8555194329986', '1722.5739399429212', '1720.8202188945886', '1724.675954642415', '1733.6563534861696', '1743.1550077176723', '1770.5872327069044', '1765.3591895323868', '1729.7548999330475', '1729.6017683465643', None, None]</t>
         </is>
       </c>
       <c r="N31" t="b">
@@ -2816,12 +2816,12 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>8114477</t>
+          <t>13720294</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>0.07802688051219514</t>
+          <t>0.07885429939261189</t>
         </is>
       </c>
     </row>
@@ -2831,48 +2831,48 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ymQub4fuB</t>
+          <t>Z96jIvLU7</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>FIL</t>
+          <t>IMX</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Filecoin</t>
+          <t>Immutable X</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>#0090ff</t>
+          <t>#000000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/vUmvv-IQA/FIL3-filecoin.svg?size=48x48</t>
+          <t>https://cdn.coinranking.com/naRGT2Y_X/10603.png</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2039975654</t>
+          <t>2177048708</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>6.231366211347838</t>
+          <t>1.0885243559273385</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1602839473</v>
+        <v>1649387294</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['6.1747644684556775', '6.18164153520589', '6.1779145498435115', '6.1809652440929685', '6.196709079215531', '6.203284102268671', '6.211064469503955', '6.21408533788196', '6.218536405474106', '6.2229747429694715', '6.231164642863281', '6.229843081915529', '6.2262520403561075', '6.222831236617662', '6.225165599473027', '6.232730689116811', '6.235218203860322', '6.243725291310368', '6.247373170994469', '6.245938769305967', '6.242465019193997', '6.23925207633108', '6.23869593271561', '6.239680013783075', '6.239030468887495']</t>
+          <t>['1.0876938543927497', '1.0876176500285162', '1.087909603519349', '1.08808692843727', '1.0883092089325057', '1.0869759377111972', '1.0829206034425714', '1.0834410901374552', '1.0838416787726692', '1.0826999528900783', '1.0823993998585129', '1.0827760348705329', '1.0831671003622654', '1.0824832893396379', '1.0808357200536045', '1.0803838881988883', '1.0802856136772152', '1.079732367644614', '1.079868121436741', '1.0817411740861556', '1.0830362279753365', '1.0838114256177005', '1.084207728008588', '1.0852615499763703', '1.0877200422071471']</t>
         </is>
       </c>
       <c r="N32" t="b">
@@ -2888,17 +2888,17 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/ymQub4fuB+filecoin-fil</t>
+          <t>https://coinranking.com/coin/Z96jIvLU7+immutablex-imx</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>240524659</t>
+          <t>74324861</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>0.000277917812685593</t>
+          <t>0.000048983642767803</t>
         </is>
       </c>
     </row>
@@ -2908,48 +2908,48 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Z96jIvLU7</t>
+          <t>ymQub4fuB</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>IMX</t>
+          <t>FIL</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Immutable X</t>
+          <t>Filecoin</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>#000000</t>
+          <t>#0090ff</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/naRGT2Y_X/10603.png</t>
+          <t>https://cdn.coinranking.com/vUmvv-IQA/FIL3-filecoin.svg?size=48x48</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2027237769</t>
+          <t>1935752567</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1.0136188862663191</t>
+          <t>5.913003478255041</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1649387294</v>
+        <v>1602839473</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['1.0089747171794903', '1.0099909922928525', '1.008075253647239', '1.0065947156469253', '1.0087009181713524', '1.0098452780864642', '1.011366798941345', '1.0103153196393404', '1.009273026561332', '1.009390044924142', '1.0096110943627998', '1.00980179541716', '1.01193428254131', '1.0131111439686726', '1.013222631719322', '1.0135853640859809', '1.0137271201169575', '1.0149609461146625', '1.0151374631680432', '1.015102235741274', '1.0143641150873683', '1.0138710422579704', '1.013606977776495', '1.0136544249100157', '1.0138894305864512']</t>
+          <t>['5.975497638049909', '5.958749206347115', '5.957443019651606', '5.959761121318823', '5.9631210417325295', '5.957916468504495', '5.944913199985414', '5.947700859024349', '5.9510424485495035', '5.944059151145567', '5.944019698797895', '5.940746636399686', '5.935121966669515', '5.932309977103978', '5.927695101703263', '5.928859801009573', '5.9261253617956475', '5.925634194253198', '5.9270756329304195', '5.924552900637582', '5.925382727379668', '5.92715715531109', '5.924693861935686', '5.925152021108019', '5.915829823766571']</t>
         </is>
       </c>
       <c r="N33" t="b">
@@ -2965,17 +2965,17 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/Z96jIvLU7+immutablex-imx</t>
+          <t>https://coinranking.com/coin/ymQub4fuB+filecoin-fil</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>77358797</t>
+          <t>246166031</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>0.000045207220088419</t>
+          <t>0.000266085410479279</t>
         </is>
       </c>
     </row>
@@ -3010,12 +3010,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2015906647</t>
+          <t>1921253040</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2.015906646964907</t>
+          <t>1.921253040476511</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['2.0088720244645453', '2.0080447650885698', '2.008282496309251', '2.0085944433045495', '2.008657850661003', '2.008538824653155', '2.009820845540295', '2.0116070105457973', '2.011743473584443', '2.013789521736215', '2.0139706711826704', '2.0132517895616644', '2.011485696168337', '2.0115287710907825', '2.0125994019749474', '2.013081213584445', '2.013629676386782', '2.0143553560378056', '2.0142906687842204', '2.01413233906258', '2.014074764790182', '2.0148099343677046', '2.015908163401839', '2.0158946995530833', '2.0161868466423045']</t>
+          <t>['1.925841661807629', '1.9293946349580378', '1.9318129593814966', '1.9320418062503615', '1.932819696794901', '1.9335162302808406', '1.93374395998518', '1.9295280196042794', '1.9251544864336012', '1.9225365540952', '1.9226012800754937', '1.9210335260673974', '1.9206779236108968', '1.9208066425969796', '1.9214087546694232', '1.9218207423408937', '1.9222435636768542', '1.9225650412969761', '1.9226046325917527', '1.9231994209949037', '1.9236053138488758', '1.9236277891081293', '1.9240986535619706', '1.9228590508488066', '1.921089570407761']</t>
         </is>
       </c>
       <c r="N34" t="b">
@@ -3047,12 +3047,12 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>8897214</t>
+          <t>12436307</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>0.000089909074013747</t>
+          <t>0.00008645646933741</t>
         </is>
       </c>
     </row>
@@ -3087,12 +3087,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1786180551</t>
+          <t>1665717118</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>10.047682109515096</t>
+          <t>9.369878208670283</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>-1.38</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['9.955163161459778', '9.911010224187535', '9.921278587059298', '9.934315956695347', '9.971274246726946', '9.988357717873361', '10.02509955950269', '10.024042862006732', '10.0219751067808', '10.031563481646206', '10.055213671287383', '10.055120649406732', '10.048565650746616', '10.044561779889241', '10.04429906012793', '10.040007926677351', '10.038423415369085', '10.053305129017044', '10.058409057104425', '10.061294338864727', '10.061577629798098', '10.06225610859397', '10.045247112372046', '10.039168800867085', '10.040175124157633']</t>
+          <t>['9.495093416874193', '9.473669551886658', '9.483407857194608', '9.49152192845576', '9.487399309695007', '9.480718464891781', '9.462966996586427', '9.47301644217462', '9.477420304528158', '9.461543229344908', '9.45775742551877', '9.458453024539478', '9.449459570658895', '9.444002500054022', '9.428769327794859', '9.424165958753994', '9.423609041243331', '9.403049009278254', '9.402976320846449', '9.4001712727232', '9.39962164736092', '9.402782370004129', '9.39794323201366', '9.392872841661466', '9.376163969586697']</t>
         </is>
       </c>
       <c r="N35" t="b">
@@ -3124,12 +3124,12 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>58076765</t>
+          <t>47944845</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>0.000448124815606464</t>
+          <t>0.000421644921817405</t>
         </is>
       </c>
     </row>
@@ -3164,12 +3164,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1733624251</t>
+          <t>1658771427</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.0857995213822954</t>
+          <t>0.08209494903604068</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3180,7 +3180,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['0.08548453052205368', '0.08546754485054679', '0.085416491382355', '0.08541725962100669', '0.08555326256823469', '0.08560233851906054', '0.08566297122156227', '0.08567610156645114', '0.08569258178767174', '0.08572807216781997', '0.08576467754093557', '0.08577537333070773', '0.0857949801964578', '0.08574848713796043', '0.08575668864248977', '0.08576923663624507', '0.08576226077454731', '0.08575461868719765', '0.0857392218530669', '0.08573106249186467', '0.08573677976986227', '0.08574835520357843', '0.08577512061059377', '0.08577581324558213', '0.08577991044617429']</t>
+          <t>['0.08233615267209385', '0.0822101128573992', '0.08208498805071313', '0.08208097432376722', '0.0820701814531152', '0.08223091736762198', '0.08210964946318909', '0.08212852978635235', '0.0822217977774946', '0.08219644090156886', '0.08219064026991657', '0.08225172797818205', '0.08228720875649911', '0.08225534043650189', '0.08219446215610107', '0.08234283624684152', '0.08238389078604622', '0.0823545834754408', '0.08235481786623658', '0.0822589748959569', '0.08204232258175637', '0.08198056064198031', '0.08194875226726518', '0.08197725667952', '0.0820747817937601']</t>
         </is>
       </c>
       <c r="N36" t="b">
@@ -3201,12 +3201,12 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>47476048</t>
+          <t>73577780</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>0.000003826643227711</t>
+          <t>0.000003694276232521</t>
         </is>
       </c>
     </row>
@@ -3241,12 +3241,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1709428558</t>
+          <t>1568240216</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.025605296232092827</t>
+          <t>0.023490455405415982</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['0.025513473305243332', '0.02547881901256518', '0.025475591171138446', '0.025479093826892087', '0.025517950868637018', '0.025547754369035884', '0.025626640810327336', '0.025627892027500234', '0.025602822641586545', '0.025603976252695285', '0.02561579347497863', '0.025622792220035336', '0.025630052623387484', '0.025637540626475205', '0.02563867746183249', '0.02565039794981025', '0.025651391814425443', '0.02564943430853611', '0.025642939524777125', '0.025641705375292256', '0.02563658026900975', '0.025636616417864556', '0.025624988644771227', '0.025614022600620262', '0.025614474628619995']</t>
+          <t>['0.02376672227070666', '0.0237312483078586', '0.023712779973549203', '0.023688523652249768', '0.023697800502515288', '0.023696986216528923', '0.023653921953033646', '0.023658253758526728', '0.023676060394439192', '0.02365838912735779', '0.02364768633713757', '0.023643831228952528', '0.023630618357109574', '0.023628088906434964', '0.02361614660806542', '0.023598246207028262', '0.023590544239442998', '0.023554183924025408', '0.023545015630985225', '0.02353407203073283', '0.02352561237906352', '0.023529063789633497', '0.023533985011190334', '0.023530452474401015', '0.023505231616264322']</t>
         </is>
       </c>
       <c r="N37" t="b">
@@ -3278,12 +3278,12 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>51553592</t>
+          <t>57677473</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>0.000001141991608362</t>
+          <t>0.000001057071502136</t>
         </is>
       </c>
     </row>
@@ -3293,44 +3293,48 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TpHE2IShQw-sJ</t>
+          <t>aMNLwaUbY</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ALGO</t>
+          <t>ICP</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Algorand</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>Internet Computer (DFINITY)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>#00042b</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/lzbmCkUGB/algo.svg</t>
+          <t>https://cdn.coinranking.com/1uJ_RVrmC/dfinity-icp.png</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1647839594</t>
+          <t>1564860320</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.23149639642536607</t>
+          <t>5.355524580562998</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1562082540</v>
+        <v>1601555742</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -3338,7 +3342,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['0.231318270407121', '0.23126994542791235', '0.2311808754951039', '0.23122386229194256', '0.23157443729770613', '0.2317116476420601', '0.23183643734871975', '0.23176392583013924', '0.23171722508798576', '0.23167812660489395', '0.2316144147919971', '0.23163558262773595', '0.23160361038396965', '0.2315767671056956', '0.23163651977755984', '0.23182488105459464', '0.2318641476315591', '0.231774458684294', '0.23176349764712237', '0.23173416256702792', '0.23168089401204728', '0.2316158052545347', '0.23156757076634027', '0.23159714103469237', '0.23159316475430095']</t>
+          <t>['5.4046502300506205', '5.406977815710567', '5.396352741766205', '5.391903453124743', '5.394306377915854', '5.389488377336153', '5.382770249060964', '5.3912145477188105', '5.399313918728467', '5.391332556804865', '5.385106784976733', '5.380510921643751', '5.369871762015529', '5.369009335094936', '5.364165260750405', '5.363387952035231', '5.364358913873135', '5.366078687338822', '5.365284358336526', '5.364201204064307', '5.361275704133318', '5.361763174732651', '5.366418672444696', '5.365821395513339', '5.359068637144948']</t>
         </is>
       </c>
       <c r="N38" t="b">
@@ -3346,17 +3350,17 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/TpHE2IShQw-sJ+algorand-algo</t>
+          <t>https://coinranking.com/coin/aMNLwaUbY+internetcomputerdfinity-icp</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>43117524</t>
+          <t>46688770</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>0.000010324697659716</t>
+          <t>0.000240998836139956</t>
         </is>
       </c>
     </row>
@@ -3391,12 +3395,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1630685660</t>
+          <t>1562880535</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.06591765402122733</t>
+          <t>0.06317674885783907</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3407,7 +3411,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>-0.85</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -3415,7 +3419,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>['0.06523165883620699', '0.0652821726076934', '0.06525120296794004', '0.06526006551191342', '0.06535753085965744', '0.0653808434219049', '0.06540669303658335', '0.06543780444801937', '0.0654642767510166', '0.06547906948154912', '0.06554999762943164', '0.06558784783149291', '0.06585255656648133', '0.06593271579005137', '0.0659132474730382', '0.06587531991819918', '0.06591501656494052', '0.06590311233139726', '0.0659194645102969', '0.06592735303852099', '0.06592912688448485', '0.0659355761956297', '0.06592529391156833', '0.06592104950241566', '0.0659168164498564']</t>
+          <t>['0.06370084744615602', '0.06367763582836262', '0.06369987829600952', '0.06372552985663339', '0.06380287355627143', '0.0638191063549307', '0.0637339568926198', '0.06373737921410812', '0.06375091150487355', '0.0636569075547471', '0.0636348164236477', '0.06363750449491326', '0.06361666490155006', '0.06360329874381873', '0.06355152050127721', '0.06353776179891683', '0.06352042826356555', '0.0634731879410538', '0.06346571841037016', '0.06338037394723793', '0.0633305077426835', '0.06331030713065611', '0.06326591560070734', '0.06326664907516241', '0.06320554738583702']</t>
         </is>
       </c>
       <c r="N39" t="b">
@@ -3428,12 +3432,12 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>51740647</t>
+          <t>32543373</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>0.000002939915517978</t>
+          <t>0.000002842956411983</t>
         </is>
       </c>
     </row>
@@ -3443,48 +3447,44 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Hm3OlynlC</t>
+          <t>TpHE2IShQw-sJ</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TWT</t>
+          <t>ALGO</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Trust Wallet Token</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>#3375bb</t>
-        </is>
-      </c>
+          <t>Algorand</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/cZ5j4jiOk/trust-wallet-token.svg</t>
+          <t>https://cdn.coinranking.com/lzbmCkUGB/algo.svg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1628876075</t>
+          <t>1534706224</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1.341745119822566</t>
+          <t>0.21569083117217494</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1610717385</v>
+        <v>1562082540</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>['1.339313432898868', '1.3495604249806752', '1.3507679354870583', '1.348330657148697', '1.3472010799376226', '1.3503879889003483', '1.3536567587870043', '1.3495578576946068', '1.3487985584009743', '1.3520231817643997', '1.3533134271819003', '1.3527553215507737', '1.351485586118852', '1.3497832883104122', '1.3474680762723974', '1.3441416569085605', '1.3428808758972066', '1.3405825513547105', '1.3403934244232747', '1.341552817218458', '1.3418565640313451', '1.3422869954624248', '1.3427247753655585', '1.3423486582406783', '1.342033779456248']</t>
+          <t>['0.21732544682480937', '0.21730391750432568', '0.217254183329967', '0.21730160223872777', '0.21726020420557376', '0.21713984913451065', '0.21683357974016995', '0.21694281970663912', '0.217033174499238', '0.2168357323515533', '0.21669495695977956', '0.21667236500071743', '0.2165139593584034', '0.21642784895483091', '0.21609481154303', '0.21600752610231733', '0.2159756254005149', '0.21594777360621503', '0.2159668612234444', '0.21584562585380118', '0.21577809622732735', '0.21581864846508256', '0.21590101099448636', '0.2159246907615623', '0.21577662702308992']</t>
         </is>
       </c>
       <c r="N40" t="b">
@@ -3500,17 +3500,17 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/Hm3OlynlC+trustwallettoken-twt</t>
+          <t>https://coinranking.com/coin/TpHE2IShQw-sJ+algorand-algo</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>69593129</t>
+          <t>62410066</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>0.000059841591111045</t>
+          <t>0.000009706096666461</t>
         </is>
       </c>
     </row>
@@ -3520,48 +3520,48 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>aMNLwaUbY</t>
+          <t>Hm3OlynlC</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ICP</t>
+          <t>TWT</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Internet Computer (DFINITY)</t>
+          <t>Trust Wallet Token</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>#00042b</t>
+          <t>#3375bb</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/1uJ_RVrmC/dfinity-icp.png</t>
+          <t>https://cdn.coinranking.com/cZ5j4jiOk/trust-wallet-token.svg</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1596810710</t>
+          <t>1503907202</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>5.466261559139332</t>
+          <t>1.2388051981443406</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1601555742</v>
+        <v>1610717385</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['5.425815661078199', '5.435933748034775', '5.432042111038075', '5.435107527309812', '5.458211788540863', '5.4683882801932135', '5.4745896479408716', '5.470278052235147', '5.468492416550386', '5.4695134894788175', '5.4750941787934', '5.474937983685654', '5.471974531879503', '5.470612979950113', '5.469639391502127', '5.469955817644652', '5.471351305158896', '5.475601099967949', '5.477797519990455', '5.476344100330245', '5.472041725856081', '5.469559931276417', '5.47062011392067', '5.47254990207946', '5.47135186277204']</t>
+          <t>['1.2526655607931703', '1.2511515509804423', '1.2516113794936605', '1.2504992050148394', '1.2507210036882224', '1.251778698583456', '1.2514283151283565', '1.2495376545613501', '1.2468792229025696', '1.2461446085171008', '1.2452411196480457', '1.2445181321449719', '1.244132584114979', '1.243317051942983', '1.2423601036142007', '1.2407046942091233', '1.239889204898409', '1.2392895230226952', '1.2399307438928013', '1.2395215994452384', '1.2393925798520649', '1.2392947952492923', '1.239564502155054', '1.2395517249625612', '1.2390832632414135']</t>
         </is>
       </c>
       <c r="N41" t="b">
@@ -3577,17 +3577,17 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/aMNLwaUbY+internetcomputerdfinity-icp</t>
+          <t>https://coinranking.com/coin/Hm3OlynlC+trustwallettoken-twt</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>43672051</t>
+          <t>31678145</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>0.000243794282755651</t>
+          <t>0.000055746287121985</t>
         </is>
       </c>
     </row>
@@ -3597,48 +3597,48 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pxtKbG5rg</t>
+          <t>HGYj5JCv5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SAND</t>
+          <t>APT</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>The Sandbox</t>
+          <t>Aptos</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>#00adef</t>
+          <t>#000000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/kd_vwOcnI/sandbox.png</t>
+          <t>https://cdn.coinranking.com/KXUaDFjqm/21794.png</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1506653426</t>
+          <t>1432417160</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.6468195915672664</t>
+          <t>11.018593536488666</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1613583024</v>
+        <v>1666148370</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['0.6446251864958147', '0.6454207851045467', '0.6453196411639596', '0.6454567983680527', '0.6467185274908366', '0.6471812572363602', '0.6474868756966755', '0.6474155735857899', '0.6474033534690803', '0.6475031824841176', '0.6481971029770541', '0.6481045042375934', '0.6479321521487929', '0.6476803009162408', '0.6477192717860031', '0.6476109944668615', '0.647716369995832', '0.6482723779552026', '0.6484671988709692', '0.648247155468988', '0.6468970442003904', '0.6468714166876779', '0.6472118207459835', '0.6473735039388595', '0.6473042081989759']</t>
+          <t>['11.101388189015179', '11.084567246916404', '11.085881753798073', '11.086192124124366', '11.09762546793566', '11.08945353761187', '11.072395041863558', '11.07813217051684', '11.082976718546613', '11.071524308685337', '11.070696659382499', '11.070370953679129', '11.063613701708654', '11.059464056409677', '11.04616192255526', '11.04418824293439', '11.042289982516625', '11.042252278821037', '11.044442920110127', '11.04157425322812', '11.040276678589834', '11.041658474917341', '11.043026585602904', '11.042466954903576', '11.024695536119117']</t>
         </is>
       </c>
       <c r="N42" t="b">
@@ -3654,17 +3654,17 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/pxtKbG5rg+thesandbox-sand</t>
+          <t>https://coinranking.com/coin/HGYj5JCv5+aptos-apt</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>70893259</t>
+          <t>286504732</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>0.000028848037491875</t>
+          <t>0.000495837182379967</t>
         </is>
       </c>
     </row>
@@ -3674,48 +3674,48 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>HGYj5JCv5</t>
+          <t>pxtKbG5rg</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>APT</t>
+          <t>SAND</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Aptos</t>
+          <t>The Sandbox</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>#000000</t>
+          <t>#00adef</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/KXUaDFjqm/21794.png</t>
+          <t>https://cdn.coinranking.com/kd_vwOcnI/sandbox.png</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1506671548</t>
+          <t>1412097061</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>11.589781135710863</t>
+          <t>0.6062257106845454</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1666148370</v>
+        <v>1613583024</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['11.539823706009896', '11.54276415593131', '11.534977967334127', '11.53564253061136', '11.570001281472772', '11.583041164971206', '11.605082111881853', '11.609718237530922', '11.61454182445743', '11.623773668618337', '11.63288293740072', '11.63146448941914', '11.624331376052693', '11.618513087988006', '11.61542404168871', '11.603529837979082', '11.604604781249341', '11.61588470644704', '11.618183445033784', '11.61728282367085', '11.609452545651758', '11.605552531352279', '11.605981828735558', '11.60599351269293', '11.60101865532018']</t>
+          <t>['0.6119104343744577', '0.6101567069077373', '0.6103533784561165', '0.610554557663767', '0.6106181925270898', '0.6103821240603706', '0.6093391499550972', '0.6097437030126348', '0.610185883153868', '0.6095689799430661', '0.6093697446013445', '0.6093474930707982', '0.6090363376016019', '0.6089023202264637', '0.6084707969611902', '0.6081902831807743', '0.6080101279215753', '0.6073007089633008', '0.6074228690351613', '0.6072866639388484', '0.6072518812442269', '0.6074207992928763', '0.6074529771821265', '0.6073740141916386', '0.6066713930455409']</t>
         </is>
       </c>
       <c r="N43" t="b">
@@ -3731,17 +3731,17 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/HGYj5JCv5+aptos-apt</t>
+          <t>https://coinranking.com/coin/pxtKbG5rg+thesandbox-sand</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>248650999</t>
+          <t>94931052</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>0.000516902154920022</t>
+          <t>0.000027280183017615</t>
         </is>
       </c>
     </row>
@@ -3751,48 +3751,48 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SbWqqTui-</t>
+          <t>KfWtaeV1W</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ENS</t>
+          <t>FRAX</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>EnergySwap</t>
+          <t>Frax</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>#ffda55</t>
+          <t>#000000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/fmYxEUV5a/cropped-logo37-Converted-01-192x192.png</t>
+          <t>https://cdn.coinranking.com/BpVNCX-NM/frax.png</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1414799773</t>
+          <t>1406985761</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>14.147997734707985</t>
+          <t>1.0009473711152526</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1626134763</v>
+        <v>1615299931</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['14.05892813378797', '14.07795160940903', '14.09579296085467', '14.153672117789034', '14.175273522118378', '14.159565512542203', '14.141410433556898', '14.14504488231301', '14.114186003985248', '14.1262014093342', '14.192344342255693', None, None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
+          <t>['0.9996323464759442', '0.9996468758373303', '0.9993215096549536', '0.9996371811093129', '0.9995870775354416', '0.9995766535028097', '1.0000145822448925', '0.9999931948872446', '0.9997355908731255', '1.000231021645767', '1.0001364989300563', '1.0001048982532825', '1.0000898546193724', '1.0003736503120946', '1.0005534048135618', '1.0007774934327078', '1.000764906364242', '1.0011949674517737', '1.0010586256860374', '1.0007763073652893', '1.0010300250632922', '1.001499054349732', '1.001512459371306', '1.001073645833975', '1.0009473711152526']</t>
         </is>
       </c>
       <c r="N44" t="b">
@@ -3808,17 +3808,17 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/SbWqqTui-+energyswap-ens</t>
+          <t>https://coinranking.com/coin/KfWtaeV1W+frax-frax</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>12453205</t>
+          <t>1591703</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>0.000630579963666228</t>
+          <t>0.000044989712886147</t>
         </is>
       </c>
     </row>
@@ -3828,48 +3828,48 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>KfWtaeV1W</t>
+          <t>SbWqqTui-</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>FRAX</t>
+          <t>ENS</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Frax</t>
+          <t>EnergySwap</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>#000000</t>
+          <t>#ffda55</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/BpVNCX-NM/frax.png</t>
+          <t>https://cdn.coinranking.com/fmYxEUV5a/cropped-logo37-Converted-01-192x192.png</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1409750868</t>
+          <t>1380901327</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1.002914502634102</t>
+          <t>13.809013272917893</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1615299931</v>
+        <v>1626134763</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['1.002757199604845', '1.0029332203024777', '1.0024614261531553', '1.0024658796831907', '1.002562668621069', '1.0021034233223791', '1.001564280413143', '1.0017861689895404', '1.0015769229553064', '1.0019364074262223', '1.0019088416764563', '1.001914039747126', '1.0019227866286906', '1.0019781968912125', '1.0015988198989076', '1.0015996462564822', '1.0015982869163071', '1.001692050683793', '1.0023217343428426', '1.0023758822126954', '1.0017850137842388', '1.00208570732696', '1.0020299641029338', '1.0025998938778367', '1.002917442109881']</t>
+          <t>['13.883258707682101', '13.877729059871534', '13.922081439703097', '13.879797884087592', '13.831659485924598', '13.885814646916131', '13.89216674715745', '13.79944125129808', '13.776340509861178', '13.811943230777807', '13.77702265918881', None, None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
         </is>
       </c>
       <c r="N45" t="b">
@@ -3885,17 +3885,17 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/KfWtaeV1W+frax-frax</t>
+          <t>https://coinranking.com/coin/SbWqqTui-+energyswap-ens</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>2163282</t>
+          <t>32903968</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>0.000044702112252045</t>
+          <t>0.00062066666783076</t>
         </is>
       </c>
     </row>
@@ -3905,48 +3905,48 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>tEf7-dnwV3BXS</t>
+          <t>ncYFcP709</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MANA</t>
+          <t>CAKE</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Decentraland</t>
+          <t>PancakeSwap</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>#f47e33</t>
+          <t>#fe9555</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/ph_svUzXs/decentraland(1).svg</t>
+          <t>https://cdn.coinranking.com/aRtgdw7bQ/pancakeswap-cake-logo.png</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1322914064</t>
+          <t>1302896649</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.603187236662496</t>
+          <t>3.747502695563492</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1500336000</v>
+        <v>1613642379</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -3954,7 +3954,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['0.6017663695064335', '0.6021322847538015', '0.6014927884481899', '0.601277475774236', '0.602589778952299', '0.6031462754466027', '0.6036829038177868', '0.6035361078996985', '0.6035215401061433', '0.6036489084545053', '0.6038913853078101', '0.60384970208962', '0.6035441486706615', '0.6033779478274705', '0.603521045050297', '0.6039858167426858', '0.6040520931059783', '0.6041920091746378', '0.6040899679179561', '0.603966184192512', '0.6034418375254139', '0.6033632213142611', '0.6035019365915487', '0.6037078889747471', '0.6035849900857424']</t>
+          <t>['3.7691725284339306', '3.768528158189695', '3.7669851760963935', '3.765110730001412', '3.764790520689238', '3.764289202536051', '3.762085349984755', '3.7635313508848864', '3.764655761973309', '3.7599036799729904', '3.75801516245017', '3.7574502402095256', '3.755830282110698', '3.7552848228444073', '3.7528881172690887', '3.7514352219160196', '3.7501983236418126', '3.7487737082283727', '3.748636160190383', '3.7499213558790983', '3.750654504971004', '3.7505097605699587', '3.7509030325487522', '3.750644580006456', '3.749151551711314']</t>
         </is>
       </c>
       <c r="N46" t="b">
@@ -3962,17 +3962,17 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/tEf7-dnwV3BXS+decentraland-mana</t>
+          <t>https://coinranking.com/coin/ncYFcP709+pancakeswap-cake</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>73207532</t>
+          <t>21542034</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>0.000026902042307805</t>
+          <t>0.000168637782251987</t>
         </is>
       </c>
     </row>
@@ -3982,48 +3982,48 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ncYFcP709</t>
+          <t>tEf7-dnwV3BXS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CAKE</t>
+          <t>MANA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>PancakeSwap</t>
+          <t>Decentraland</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>#fe9555</t>
+          <t>#f47e33</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/aRtgdw7bQ/pancakeswap-cake-logo.png</t>
+          <t>https://cdn.coinranking.com/ph_svUzXs/decentraland(1).svg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1321566699</t>
+          <t>1289829034</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>3.801203086243159</t>
+          <t>0.5881024319646694</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1613642379</v>
+        <v>1500336000</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>-1.14</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['3.7876309792728797', '3.7870948065800407', '3.7868100809551866', '3.7872677020255883', '3.7891346056884068', '3.7871069889366424', '3.7863398963016515', '3.785125741604804', '3.785397326541172', '3.7878281735230366', '3.789665650425587', '3.7901067997151534', '3.7897876200110967', '3.789629160021388', '3.790335052424605', '3.7935925559629053', '3.7957920097549627', '3.797085935045303', '3.7974697922585747', '3.797339243859325', '3.7967680758128797', '3.7998857951079366', '3.8009484138022303', '3.800935321312243', '3.8005038644530518']</t>
+          <t>['0.5944374510636331', '0.5933696142233663', '0.5932886971612552', '0.593262541014821', '0.5928396289782213', '0.5924129391739427', '0.5912536376914251', '0.5917411440633702', '0.5922422361831006', '0.5916159724845743', '0.5913357524485386', '0.5914302659513702', '0.5915925192648837', '0.5914038833412852', '0.5907488446284357', '0.5905317449267611', '0.5904226770241067', '0.5898857300041499', '0.5899961187695257', '0.5898329952606983', '0.5896705547410998', '0.5898062394761535', '0.5899385591175745', '0.5899017067189544', '0.5886343107133495']</t>
         </is>
       </c>
       <c r="N47" t="b">
@@ -4039,17 +4039,17 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/ncYFcP709+pancakeswap-cake</t>
+          <t>https://coinranking.com/coin/tEf7-dnwV3BXS+decentraland-mana</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>21768144</t>
+          <t>117649133</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>0.000169532974226196</t>
+          <t>0.000026464634696843</t>
         </is>
       </c>
     </row>
@@ -4059,48 +4059,48 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>iAzbfXiBBKkR6</t>
+          <t>bauj_21eYVwso</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>QNT</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>Quant</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>#443f54</t>
+          <t>#585e63</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/PqOYrWSje/eos2.svg</t>
+          <t>https://cdn.coinranking.com/a-i9Dl392/quant.png</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1284305614</t>
+          <t>1199630878</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1.2992270632218867</t>
+          <t>122.69632007620486</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1498694400</v>
+        <v>1533945600</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['1.295815021097475', '1.2967805488378792', '1.297512557627248', '1.2976969105890142', '1.2979736844773264', '1.2987585654044447', '1.2999210305524818', '1.2995484912864435', '1.299665981996913', '1.3000753698943261', '1.2999376049257516', '1.2995906554895764', '1.2982689356095203', '1.2981955274364096', '1.2989411520755858', '1.30077139871316', '1.302230444221107', '1.3022017193194557', '1.3013570871275724', '1.3010750373460347', '1.3020857412329585', '1.3030716691413262', '1.3022041622180396', '1.3005204146448854', '1.3001118168044064']</t>
+          <t>['123.60426748718089', '123.67102975426633', '123.72328022495476', '123.75422525007932', '123.75935944332123', '123.66154464438826', '123.52053882197792', '123.67913167740656', '123.66286985882489', '123.51226662258574', '123.49499973136011', '123.60433238096648', '123.62403061509956', '123.47710468496282', '123.32519098287982', '123.28701778034865', '123.25986999766893', '123.19027087075332', '123.20022669904927', '123.15139973258843', '123.12732498446765', '123.15780001766124', '123.09676885462986', '122.9414348478306', '122.7481190812412']</t>
         </is>
       </c>
       <c r="N48" t="b">
@@ -4116,17 +4116,17 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/iAzbfXiBBKkR6+eos-eos</t>
+          <t>https://coinranking.com/coin/bauj_21eYVwso+quant-qnt</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>476819420</t>
+          <t>22433497</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>0.000057945293430997</t>
+          <t>0.005521339673117956</t>
         </is>
       </c>
     </row>
@@ -4161,12 +4161,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1272202143</t>
+          <t>1197201561</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2.0929736057334383</t>
+          <t>1.9695857940830273</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>-1.61</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['2.088014794529791', '2.086688058875847', '2.0854092364096117', '2.085147415089981', '2.0907627084875378', '2.0931256723405736', '2.0956386073458257', '2.0957054601148113', '2.0960721119906336', '2.097182405388739', '2.0988763128245242', '2.0989763164642796', '2.098645832581006', '2.0979918419329686', '2.0973901107403763', '2.096643725400339', '2.096925283360563', '2.09787846477554', '2.0980427517306546', '2.0975122640791626', '2.095928374392783', '2.0955814763057483', '2.0944284461851463', '2.0942655059129143', '2.0940123074863854']</t>
+          <t>['2.000327368371195', '1.9931198260126664', '1.9928642256613645', '1.992659009738339', '1.9920285206963653', '1.9905909894383103', '1.9852202169169995', '1.9863394144642303', '1.9876173382167566', '1.9834336443344565', '1.9811923027269058', '1.9804905411418694', '1.9787480450557515', '1.9781680984801202', '1.9761092219959715', '1.9754376751181308', '1.9750301370383943', '1.9738222176384577', '1.974040244336975', '1.9739859476433974', '1.97420565853761', '1.974656314034392', '1.9751363496001977', '1.9748678128928567', '1.9712993554313363']</t>
         </is>
       </c>
       <c r="N49" t="b">
@@ -4198,12 +4198,12 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>84572275</t>
+          <t>139687046</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>0.000093346246518916</t>
+          <t>0.000088631445325549</t>
         </is>
       </c>
     </row>
@@ -4213,48 +4213,48 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>bauj_21eYVwso</t>
+          <t>iAzbfXiBBKkR6</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>QNT</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Quant</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>#585e63</t>
+          <t>#443f54</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/a-i9Dl392/quant.png</t>
+          <t>https://cdn.coinranking.com/PqOYrWSje/eos2.svg</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1229030893</t>
+          <t>1163903288</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>125.70330638802999</t>
+          <t>1.1774258662853438</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1533945600</v>
+        <v>1498694400</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['124.98835754696225', '125.05596851698976', '125.01803308626464', '125.06602293289343', '125.52398465617956', '125.63590615152349', '125.56665037803563', '125.46200333796693', '125.4123212704738', '125.46577258966921', '125.6212679045473', '125.64011236398595', '125.64310070362339', '125.6478995912016', '125.69059669322314', '125.79773766726461', '125.79431134171568', '125.80770942056915', '125.78291337403465', '125.69410136815507', '125.57494885030728', '125.56199937418685', '125.52440268274695', '125.56334716004713', '125.60851390476297']</t>
+          <t>['1.183995147801408', '1.183019347637137', '1.182839333791791', '1.181661026987072', '1.1816607062804674', '1.1823730246679691', '1.180769714955848', '1.1814908811854656', '1.1819561643016216', '1.180784944875899', '1.1805396791648797', '1.180261861082766', '1.1795280434263666', '1.1790985733380057', '1.1787454103022355', '1.1801600098429765', '1.1801632312560415', '1.1797838119363944', '1.179951753144746', '1.179462091904775', '1.178073173764876', '1.1778461493274914', '1.1775544400730757', '1.177585627987316', '1.1772493951829786']</t>
         </is>
       </c>
       <c r="N50" t="b">
@@ -4270,17 +4270,17 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/bauj_21eYVwso+quant-qnt</t>
+          <t>https://coinranking.com/coin/iAzbfXiBBKkR6+eos-eos</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>20442126</t>
+          <t>163545904</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>0.005606344864644341</t>
+          <t>0.000052984214552147</t>
         </is>
       </c>
     </row>
@@ -4315,12 +4315,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1186836985</t>
+          <t>1145273208</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.07328753278564328</t>
+          <t>0.07065015173476293</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -4339,7 +4339,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['0.073314415515182', '0.0733062463381829', '0.07327628362300856', '0.07329360845152062', '0.0733109659876246', '0.07335194117845543', '0.07337392044099286', '0.07335304520869294', '0.07339800848611681', '0.07339451885546967', '0.07338905307696168', '0.07338105454960853', '0.0733528960442182', '0.07336693799769092', '0.07338887860597693', '0.07339470430846924', '0.07339083824720612', '0.07338873505976701', '0.07336008521347616', '0.07334874740855445', '0.07334274736299236', '0.0733340865473982', '0.07334525224975205', '0.07332467496412046', '0.0733255677829277']</t>
+          <t>['0.07106300181788083', '0.07106724437196339', '0.07107240242779886', '0.07102747693898513', '0.07099741744472794', '0.07088747539612467', '0.07088101620640966', '0.07092326715620055', '0.07093643108777425', '0.07092897372098385', '0.07094935275735897', '0.07093019483698387', '0.07087719066376949', '0.07086269224313843', '0.07078387819792047', '0.07081169169989791', '0.07078344191592377', '0.07071178106865915', '0.07074803174851096', '0.07071292612589355', '0.07067678171605514', '0.07074335335234433', '0.07071429284194629', '0.07070376556183233', '0.07066679702024013']</t>
         </is>
       </c>
       <c r="N51" t="b">
@@ -4352,12 +4352,12 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>16456831</t>
+          <t>12501026</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>0.000003268610785837</t>
+          <t>0.00000317925986242</t>
         </is>
       </c>
     </row>
@@ -4367,48 +4367,48 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>QQ0NCmjVq</t>
+          <t>ixgUfzmLR</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>FLOW</t>
+          <t>AAVE</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Flow</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>#00ef8b</t>
+          <t>#B6509E</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/xh8X8QBss/flow.png</t>
+          <t>https://cdn.coinranking.com/4bpYKqV4X/AAVE.png</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1122320933</t>
+          <t>1086155525</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1.0831122686704866</t>
+          <t>75.32768307535461</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1614963736</v>
+        <v>1603447311</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['1.0772995726846577', '1.077893254226588', '1.0776192099466175', '1.077407950030006', '1.0781075201260955', '1.0789080002584506', '1.0815023033544235', '1.082228957637089', '1.0827333349097827', '1.083085883453341', '1.0836662893654776', '1.0837321689955777', '1.0840338240335246', '1.0843527313203092', '1.0843990764775016', '1.0842652189697748', '1.0840340648205107', '1.0835190673791502', '1.0832616757209839', '1.0833733851454759', '1.0833274379421816', '1.0833831639049727', '1.0831066165901044', '1.0830664018771916', '1.082988601772968']</t>
+          <t>['75.83087313001155', '75.84351076552777', '75.80042946182382', '75.81009253125127', '75.8250317850718', '75.85952301795716', '75.75803493905238', '75.60207062773988', '75.658163675934', '75.67652228882918', '75.61463867417483', '75.43269003222713', '75.40394022002448', '75.35672462214075', '75.31865512349435', '75.32339742293115', '75.31903804198306', '75.25529686301859', '75.37799356161057', '75.43658509677763', '75.39095998793505', '75.21745358914227', '75.23815617353233', '75.33431953654836', '75.34271968260475']</t>
         </is>
       </c>
       <c r="N52" t="b">
@@ -4424,17 +4424,17 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/QQ0NCmjVq+flow-flow</t>
+          <t>https://coinranking.com/coin/ixgUfzmLR+aave-aave</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>27434370</t>
+          <t>67386294</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>0.000048306612449395</t>
+          <t>0.003389748973642372</t>
         </is>
       </c>
     </row>
@@ -4444,48 +4444,48 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ixgUfzmLR</t>
+          <t>QQ0NCmjVq</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>AAVE</t>
+          <t>FLOW</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Flow</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>#B6509E</t>
+          <t>#00ef8b</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/4bpYKqV4X/AAVE.png</t>
+          <t>https://cdn.coinranking.com/xh8X8QBss/flow.png</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1112752959</t>
+          <t>1049342590</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>77.22044389066944</t>
+          <t>1.0126834488786929</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1603447311</v>
+        <v>1614963736</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['76.88736346309918', '76.88964184674619', '76.85287037202043', '76.85978732345326', '76.94394436602872', '77.03759860786639', '77.08132507189164', '77.07098555828469', '77.0919929524569', '77.10907730628227', '77.13899004050253', '77.15191058295727', '77.20266742373805', '77.2441163051053', '77.27925963280511', '77.32516167123555', '77.36049352063756', '77.40348702039327', '77.39789527559881', '77.37931818503925', '77.30875616331676', '77.27843868674844', '77.27438057227141', '77.26945580312679', '77.24859842263878']</t>
+          <t>['1.022159717917253', '1.021365845695465', '1.0216655774613843', '1.0216934268790616', '1.021389341169896', '1.0209842368919035', '1.0197247911810972', '1.0200471588939453', '1.0203379926068883', '1.019244417658749', '1.0187696968599151', '1.0184424090268194', '1.0178011507768938', '1.0170209540533683', '1.0153460592217667', '1.0144612666249506', '1.0142147073847532', '1.0134215308037986', '1.0135195435594597', '1.0136515393179901', '1.0136528364832558', '1.0138245070487537', '1.014516080031819', '1.0143722834381663', '1.0131680871982278']</t>
         </is>
       </c>
       <c r="N53" t="b">
@@ -4501,17 +4501,17 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/ixgUfzmLR+aave-aave</t>
+          <t>https://coinranking.com/coin/QQ0NCmjVq+flow-flow</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>53417315</t>
+          <t>34568429</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>0.003444017914020726</t>
+          <t>0.00004557079869332</t>
         </is>
       </c>
     </row>
@@ -4521,48 +4521,48 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>fsIbGOEJWbzxG</t>
+          <t>JCKLgWPAF</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>XTZ</t>
+          <t>USDP</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Tezos</t>
+          <t>Pax Dollar</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>#2c7df7</t>
+          <t>#2ac27a</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/HkLUdilQ7/xtz.svg</t>
+          <t>https://cdn.coinranking.com/KUd2bJXdn/3330.png</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1050268501</t>
+          <t>1017196437</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>1.1447975939132724</t>
+          <t>1.001229118117256</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1530662400</v>
+        <v>1650960626</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['1.1376962815021157', '1.1378868622762135', '1.1382598094404837', '1.1387561717374073', '1.1393212683264682', '1.1398142701097635', '1.140038013913018', '1.1405141811943753', '1.1409329913595538', '1.1408741227567138', '1.1412910664432472', '1.1413160640909212', '1.1427606420447523', '1.1435783095478342', '1.1438210011339107', '1.1437911559798595', '1.1439939850305199', '1.1442885547823904', '1.1444268238514996', '1.1444782930570436', '1.1439802199529747', '1.1439827332354537', '1.1443703092685198', '1.1447163914579022', '1.1446067580856825']</t>
+          <t>['0.9998228104650985', '0.9999903476876334', '1.0008842194457956', '1.0008005641704063', '1.0000892128725185', '1.0001300124813057', '1.0006198043141319', '1.0008277218668777', '1.00160579915179', '1.000934128256124', '1.0003420374084737', '1.001081007789579', '1.001698566793729', '1.0015643540822712', '1.0014571098933145', '1.0016380561759233', '1.0018351441322766', '1.0020929853157368', '1.0022604403563404', '1.0021718992355384', '1.0020410042769343', '1.001936132681564', '1.0013417026008677', '1.001286345467315', '1.0013594304974573']</t>
         </is>
       </c>
       <c r="N54" t="b">
@@ -4578,17 +4578,17 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/fsIbGOEJWbzxG+tezos-xtz</t>
+          <t>https://coinranking.com/coin/JCKLgWPAF+paxdollar-usdp</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>35929124</t>
+          <t>2136114</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>0.000051057766864787</t>
+          <t>0.000045055353317103</t>
         </is>
       </c>
     </row>
@@ -4598,48 +4598,48 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>B42IRxNtoYmwK</t>
+          <t>fsIbGOEJWbzxG</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>THETA</t>
+          <t>XTZ</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Theta Token</t>
+          <t>Tezos</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>#1b1f2a</t>
+          <t>#2c7df7</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/HJHg2k9Lf/theta.svg</t>
+          <t>https://cdn.coinranking.com/HkLUdilQ7/xtz.svg</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1047609704</t>
+          <t>1009423418</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1.0476187543604571</t>
+          <t>1.1002762622180038</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1516233600</v>
+        <v>1530662400</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['1.0442074094148976', '1.0430947023889137', '1.0426599439878557', '1.042687329077976', '1.045662297114205', '1.046561220179268', '1.04780606502915', '1.0479314918686837', '1.0481688578004689', '1.048418092388225', '1.0492038665866945', '1.0492165783237402', '1.0494413062005556', '1.0495246391600346', '1.0493573068665163', '1.0487947059592404', '1.0487692223780853', '1.048433997272817', '1.0481366831325014', '1.0479015855271547', '1.048054748473343', '1.0480896202713994', '1.0477852208697287', '1.0475976531402298', '1.0476041287787519']</t>
+          <t>['1.1084728863901447', '1.1076500864896914', '1.1078881451893812', '1.1083456025777636', '1.1084698943586557', '1.1081813179676137', '1.1064443897025957', '1.106901817610893', '1.1072405539569565', '1.1055398532853216', '1.1044889721464852', '1.1044696069143627', '1.1048463462798', '1.1044935002806824', '1.1033613268420734', '1.1027723675294585', '1.1027378205093408', '1.102211592355349', '1.1023642550359565', '1.1022786423171498', '1.1021502561889516', '1.1021725772775317', '1.1023800985649688', '1.10261457491383', '1.1022461060560609']</t>
         </is>
       </c>
       <c r="N55" t="b">
@@ -4655,17 +4655,17 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/B42IRxNtoYmwK+thetatoken-theta</t>
+          <t>https://coinranking.com/coin/fsIbGOEJWbzxG+tezos-xtz</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>26494078</t>
+          <t>29350829</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>0.000046723608092564</t>
+          <t>0.000049512479055616</t>
         </is>
       </c>
     </row>
@@ -4700,12 +4700,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1044773751</t>
+          <t>1007114485</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>43.74790585019916</t>
+          <t>42.170996017499284</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['43.27405475722755', '43.30666479608641', '43.324678297242286', '43.362796887258945', '43.49073309478843', '43.530199503599526', '43.54935157317683', '43.572957619600224', '43.604470833541434', '43.635364711629855', '43.65981445940494', '43.657597045377855', '43.66008821419277', '43.66014216358135', '43.653490337470764', '43.621697873835416', '43.614687629963676', '43.61619918074772', '43.619908475021475', '43.61893207241994', '43.66308109629408', '43.67845068321011', '43.72571058207119', '43.7487861022241', '43.754491947439405']</t>
+          <t>['42.53393689546641', '42.510799918691006', '42.51068994897917', '42.51832008023101', '42.52584502230948', '42.52023279665784', '42.48927467352853', '42.49663822708808', '42.501618740879756', '42.44260208917604', '42.41277209569519', '42.40416695619183', '42.3778562983681', '42.3602866320511', '42.30778832754669', '42.28226467996863', '42.264552721987', '42.25398011283905', '42.26288634689238', '42.2588872160557', '42.248364866191906', '42.248207028786304', '42.23344962823885', '42.229963587730744', '42.19134586031251']</t>
         </is>
       </c>
       <c r="N56" t="b">
@@ -4737,12 +4737,12 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>28602341</t>
+          <t>35139977</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>0.001951148735460498</t>
+          <t>0.001897696631991118</t>
         </is>
       </c>
     </row>
@@ -4752,48 +4752,48 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>JCKLgWPAF</t>
+          <t>B42IRxNtoYmwK</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>USDP</t>
+          <t>THETA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Pax Dollar</t>
+          <t>Theta Token</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>#2ac27a</t>
+          <t>#1b1f2a</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/KUd2bJXdn/3330.png</t>
+          <t>https://cdn.coinranking.com/HJHg2k9Lf/theta.svg</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1018227779</t>
+          <t>991113526</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>1.002244270912343</t>
+          <t>0.9911220882216707</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1650960626</v>
+        <v>1516233600</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['1.0029664451873013', '1.0027947866036566', '1.0026117246263098', '1.0031175450638792', '1.0027268657330513', '1.0021487480930402', '1.0017145351641867', '1.0020460743934878', '1.0024412932895208', '1.0016453280179967', '1.001604790745273', '1.0022003492696239', '1.0022792236286326', '1.0022846914947845', '1.002242532497158', '1.002243220010764', '1.0022339000760572', '1.0019116602866123', '1.0018749417098782', '1.0018894064576618', '1.0025312209096362', '1.0026044804339698', '1.00260253566708', '1.0022970805898646', '1.002256267806954']</t>
+          <t>['1.0007852091644596', '1.0001375577719989', '1.000164433793735', '1.0000397690794351', '1.0005486094843306', '1.0005374639729838', '0.9987384903316281', '0.9990797232434924', '0.9996031909425852', '0.9983509645443034', '0.9978595192478414', '0.9979124399808771', '0.9979473499727677', '0.997750610114986', '0.9969880267022194', '0.9964766754908546', '0.9961003318277538', '0.9944762216942399', '0.9943818502901005', '0.993852654556505', '0.9935812808084324', '0.993353790914576', '0.9930604562397187', '0.9931086969219216', '0.9917423667958161']</t>
         </is>
       </c>
       <c r="N57" t="b">
@@ -4809,17 +4809,17 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/JCKLgWPAF+paxdollar-usdp</t>
+          <t>https://coinranking.com/coin/B42IRxNtoYmwK+thetatoken-theta</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>1679545</t>
+          <t>25620576</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>0.00004469991428868</t>
+          <t>0.000044600536537714</t>
         </is>
       </c>
     </row>
@@ -4854,12 +4854,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>996057122</t>
+          <t>934767573</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.000150942499040454</t>
+          <t>0.000141654680575536</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['0.00014986934850483', '0.000149888688351876', '0.000149870496604733', '0.000149935070127018', '0.000150908185045967', '0.000151166242473398', '0.000151379390942777', '0.00015116449513011', '0.000150964321203541', '0.000151001974992877', '0.000151081596776423', '0.000151081653370004', '0.000151078913152807', '0.00015111347935226', '0.000151150811480888', '0.000151285699099254', '0.000151299147984125', '0.000151272727446793', '0.000151235355832727', '0.000151182276788414', '0.000151037480971912', '0.00015102785288877', '0.000150983834097099', '0.000150966354030547', '0.000150974989600303']</t>
+          <t>['0.000142800566479984', '0.00014257871644539', '0.000142593751940149', '0.000142610643136583', '0.000142472022236345', '0.00014238834068568', '0.000142170510998807', '0.000142273168320584', '0.000142371061324327', '0.0001422696692675', '0.000142234099994202', '0.00014223731292042', '0.00014226415068003', '0.000142212438201689', '0.000142016923815112', '0.000141960414327207', '0.000141958598946879', '0.000141938627411159', '0.000141950428513995', '0.000141895513663888', '0.000141875209522278', '0.000141855126612435', '0.000141766363132209', '0.000141778382788745', '0.000141682030862737']</t>
         </is>
       </c>
       <c r="N58" t="b">
@@ -4891,12 +4891,12 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>62133818</t>
+          <t>38166553</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>6.732008319e-9</t>
+          <t>6.37446671e-9</t>
         </is>
       </c>
     </row>
@@ -4906,48 +4906,48 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GSCt2y6YSgO26</t>
+          <t>sgxZRXbK0FDc</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CHZ</t>
+          <t>SNX</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Chiliz</t>
+          <t>Synthetix Network</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>#d05e72</t>
+          <t>#90dce0</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/gTsOlSnwR/4066.png</t>
+          <t>https://cdn.coinranking.com/c2WntZSPs/snx-synthetix.png</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>968136782</t>
+          <t>925325651</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.12655952972833706</t>
+          <t>2.934278169031352</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1562332440</v>
+        <v>1554322020</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['0.1261913514479713', '0.12611862226205078', '0.12609348591357308', '0.12613632059424387', '0.12622911185241673', '0.12625987979545353', '0.12631111471679105', '0.12636234062354895', '0.12640916082526868', '0.12647317024045052', '0.12654634792903977', '0.12655028410814823', '0.12652886203098965', '0.12651153240833227', '0.12649605342833053', '0.1265196237721253', '0.12654345273715037', '0.12652290944290953', '0.12650572918645628', '0.1265097227021188', '0.12653336505189047', '0.12654985881194564', '0.12658725870750975', '0.12659623846299511', '0.1265562177655286']</t>
+          <t>['2.9663042719515786', '2.954710569593377', '2.9547069874351837', '2.956825355346961', '2.958481827649166', '2.9569799803470325', '2.9508313511392736', '2.9517703157582407', '2.9543728130007962', '2.9506254704194808', '2.9476197918709537', '2.9470754981408254', '2.9455558823813', '2.944417922061623', '2.9421000947974134', '2.9406668160937155', '2.9408309529792427', '2.9398274086586325', '2.940353486463001', '2.939665933930554', '2.9408282826549015', '2.9409808368926504', '2.9387506031153237', '2.9392196464798563', '2.935660855357581']</t>
         </is>
       </c>
       <c r="N59" t="b">
@@ -4963,17 +4963,17 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/GSCt2y6YSgO26+chiliz-chz</t>
+          <t>https://coinranking.com/coin/sgxZRXbK0FDc+synthetixnetwork-snx</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>46433055</t>
+          <t>99874596</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>0.000005644532271681</t>
+          <t>0.000132042643630831</t>
         </is>
       </c>
     </row>
@@ -4983,48 +4983,48 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>sgxZRXbK0FDc</t>
+          <t>GSCt2y6YSgO26</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SNX</t>
+          <t>CHZ</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Synthetix Network</t>
+          <t>Chiliz</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>#90dce0</t>
+          <t>#d05e72</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/c2WntZSPs/snx-synthetix.png</t>
+          <t>https://cdn.coinranking.com/gTsOlSnwR/4066.png</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>924561030</t>
+          <t>924274282</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2.9318534991646086</t>
+          <t>0.12082561126349312</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1554322020</v>
+        <v>1562332440</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['2.9210493846285117', '2.9067450683179055', '2.9022777372638213', '2.9000244605659478', '2.9065901978820112', '2.9115464510918088', '2.92060173145983', '2.9253174203074632', '2.930020182402521', '2.929670374655304', '2.9248898398169256', '2.9253286779019545', '2.923982760821052', '2.923535157183325', '2.9257212404248065', '2.9292365885418183', '2.9313662223821417', '2.937384436920109', '2.941275770824338', '2.939470378157652', '2.9383152083554203', '2.9374282423632243', '2.9337773873897484', '2.932553900662311', '2.9322171930460508']</t>
+          <t>['0.12156583271943759', '0.12151801998398856', '0.12147435136211081', '0.12145395402052925', '0.12152319035259718', '0.12149248829046966', '0.12138002634630157', '0.12137979458197963', '0.12143505062639139', '0.12144837323219149', '0.12143251642495574', '0.12140798514394847', '0.1212201340426122', '0.12117621721350674', '0.12108717833730613', '0.12105746002033467', '0.12101996838527276', '0.12091561860732235', '0.12091305593756195', '0.12094264431069415', '0.12092406231144509', '0.12090236231699841', '0.12089064919451963', '0.12090460603999326', '0.12084819249272825']</t>
         </is>
       </c>
       <c r="N60" t="b">
@@ -5040,17 +5040,17 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/sgxZRXbK0FDc+synthetixnetwork-snx</t>
+          <t>https://coinranking.com/coin/GSCt2y6YSgO26+chiliz-chz</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>111415225</t>
+          <t>57432253</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>0.0001307601389433</t>
+          <t>0.000005437157696201</t>
         </is>
       </c>
     </row>
@@ -5060,48 +5060,48 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ZO4D7EBy3</t>
+          <t>qFakph2rpuMOL</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SENSO</t>
+          <t>MKR</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SENSO</t>
+          <t>Maker</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>#000000</t>
+          <t>#1abc9c</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/TQFMWwtyn/senso.svg</t>
+          <t>https://cdn.coinranking.com/sjHfS7jCS/mkrdao.svg</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>894542952</t>
+          <t>897776466</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.15122580026294402</t>
+          <t>918.2467638907005</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1599491460</v>
+        <v>1502236800</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['0.1507851742199312', '0.15142138275079323', '0.15140836223062043', '0.15133597376975458', '0.15136662876969106', '0.1514426642578574', '0.15145438083528406', '0.15147495798362393', '0.15143480674909257', '0.15145911131612794', '0.15152132373649466', '0.1514660116460854', '0.15140210201184995', '0.15137940016558718', '0.1510279910522438', '0.1510914628492534', '0.1511559623443997', '0.1510572082020743', '0.1509300463083557', '0.15124442654778064', '0.15122293742560522', '0.15127807402691232', '0.15133995480541582', '0.1512363045031918', '0.15122744094171478']</t>
+          <t>['919.3315964078209', '921.3071585536746', '921.9303234959901', '922.1267497248459', '923.7924890767779', '924.6021672958706', '924.4098328712847', '923.1282170633245', '922.3129954055877', '922.5453540501611', '922.618268403475', '922.6674857436468', '922.2394559323243', '921.6206235019685', '920.9748729617536', '920.6633826659956', '920.7006636158201', '919.7434868581964', '919.4608173786015', '918.6147718435531', '917.6243450525558', '917.720487861671', '918.1491035149737', '919.0975878487852', '918.6314997000937']</t>
         </is>
       </c>
       <c r="N61" t="b">
@@ -5117,17 +5117,17 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/ZO4D7EBy3+senso-senso</t>
+          <t>https://coinranking.com/coin/qFakph2rpuMOL+maker-mkr</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>728927</t>
+          <t>63576053</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>0.000006744643502763</t>
+          <t>0.04132114381289536</t>
         </is>
       </c>
     </row>
@@ -5137,48 +5137,48 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>qFakph2rpuMOL</t>
+          <t>JY1_q2c0g</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MKR</t>
+          <t>BABYDOGE</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Maker</t>
+          <t>Baby Doge Coin</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>#1abc9c</t>
+          <t>#e6b635</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/sjHfS7jCS/mkrdao.svg</t>
+          <t>https://cdn.coinranking.com/1X2BCCJdV/Baby_Doge.png</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>888395873</t>
+          <t>867716402</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>908.652282840078</t>
+          <t>2.456896267e-9</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1502236800</v>
+        <v>1626135916</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['912.8407458663412', '911.5503934848506', '909.777630707183', '907.7864987988664', '905.3243587785237', '905.1825951063865', '905.4782776126124', '905.1060840695802', '905.0471667842704', '905.5029401354267', '906.7683563089121', '906.8942808395775', '907.6605655654653', '908.2726883512153', '908.3496742993611', '908.3577866157267', '908.7973514801099', '909.7032282593079', '909.9590748957315', '909.8366867927386', '909.6570576601989', '909.7306266690103', '910.0326539190772', '909.9562055603506', '909.5936242737597']</t>
+          <t>['2.467308707e-9', '2.470135716e-9', '2.464984902e-9', '2.467211677e-9', '2.472782754e-9', '2.478703222e-9', '2.47864975e-9', '2.470201022e-9', '2.469248445e-9', '2.458608363e-9', '2.459388187e-9', '2.464311253e-9', '2.464533198e-9', '2.456315183e-9', '2.448025378e-9', '2.447854895e-9', '2.456651411e-9', '2.455048651e-9', '2.450475197e-9', '2.42131348e-9', '2.419850865e-9', '2.412070237e-9', '2.41157832e-9', '2.424001908e-9', '2.457956596e-9']</t>
         </is>
       </c>
       <c r="N62" t="b">
@@ -5194,17 +5194,17 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/qFakph2rpuMOL+maker-mkr</t>
+          <t>https://coinranking.com/coin/JY1_q2c0g+babydogecoin-babydoge</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>84667348</t>
+          <t>8886895</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>0.04052572844760846</t>
+          <t>1.1056e-13</t>
         </is>
       </c>
     </row>
@@ -5239,12 +5239,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>871407240</t>
+          <t>820964751</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>12.355128881541972</t>
+          <t>11.639936918713895</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -5263,7 +5263,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>['12.300979961583913', '12.262952965919364', '12.264253508794356', '12.2706977304804', '12.270505951497446', '12.277851318491491', '12.29477787295398', '12.295623350309082', '12.293654834568686', '12.287304523666826', '12.280921449224735', '12.281204396917989', '12.282201863406568', '12.2829245811597', '12.28512100364895', '12.298601775452319', '12.302711491877348', '12.329999486902837', '12.334030249000453', '12.3420037430126', '12.368178983614401', '12.367830403534914', '12.365523445867755', '12.363889515752742', '12.363126419660025']</t>
+          <t>['11.73015084458844', '11.736464116817961', '11.725172587291274', '11.711101794527647', '11.693081489681415', '11.692236856046971', '11.692169338987457', '11.700655419559993', '11.70644939539673', '11.697885659551726', '11.692013490938328', '11.689083581449395', '11.679383676033147', '11.675279243159483', '11.665489157959897', '11.662294877795452', '11.659492133684626', '11.65607444683199', '11.659339389946947', '11.637289940290009', '11.631368521573723', '11.633378290628361', '11.633889840603118', '11.632455014147467', '11.644014301819851']</t>
         </is>
       </c>
       <c r="N63" t="b">
@@ -5276,12 +5276,12 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>95377467</t>
+          <t>119485316</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>0.000551036526781826</t>
+          <t>0.000523797661266202</t>
         </is>
       </c>
     </row>
@@ -5291,48 +5291,48 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>JY1_q2c0g</t>
+          <t>B8xT718SbVhhh</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>BABYDOGE</t>
+          <t>PAX</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Baby Doge Coin</t>
+          <t>Paxos Standard</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>#e6b635</t>
+          <t>#085229</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/1X2BCCJdV/Baby_Doge.png</t>
+          <t>https://cdn.coinranking.com/H1NkFcuhX/pax.svg</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>839634303</t>
+          <t>791528478</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2.377368453e-9</t>
+          <t>1.0014995421137587</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1626135916</v>
+        <v>1539302400</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -5340,7 +5340,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['2.349257626e-9', '2.334011364e-9', '2.329331108e-9', '2.332978619e-9', '2.32567028e-9', '2.327913744e-9', '2.326871676e-9', '2.323794852e-9', '2.325301046e-9', '2.332444421e-9', '2.333599921e-9', '2.332873277e-9', '2.339088881e-9', '2.338944197e-9', '2.337530619e-9', '2.344915479e-9', '2.34670331e-9', '2.344113984e-9', '2.343903391e-9', '2.347097166e-9', '2.347598666e-9', '2.349344212e-9', '2.346962366e-9', '2.344629288e-9', '2.36476327e-9']</t>
+          <t>['0.9999647940260832', '1.0000203977333513', '1.0004304697181172', '1.0004330849987526', '1.0002122305639345', '1.0003732075531977', '1.0005419506048168', '1.0009970404369246', '1.0010290846322574', '1.000685774446094', '1.0007104762878285', '1.0009598889639841', '1.0011080989006742', '1.0013136965746727', '1.0013644588013226', '1.0013890082074617', '1.0014869170339928', '1.0015106833095946', '1.0016843825307296', '1.0018902151176206', '1.001920794395041', '1.0018773969848669', '1.0018713457100306', '1.0017221920139454', '1.0014995525111252']</t>
         </is>
       </c>
       <c r="N64" t="b">
@@ -5348,17 +5348,17 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/JY1_q2c0g+babydogecoin-babydoge</t>
+          <t>https://coinranking.com/coin/B8xT718SbVhhh+paxosstandard-pax</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>8172688</t>
+          <t>1229162</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>1.0603e-13</t>
+          <t>0.00004506752240856</t>
         </is>
       </c>
     </row>
@@ -5368,48 +5368,44 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>C9DwH-T7MEGmo</t>
+          <t>QUC5kVAxSoB-</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Dash</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>#1c75bc</t>
-        </is>
-      </c>
+          <t>MX Token</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/PyCmduSxt/Dash-D-white_on_blue_circle.svg</t>
+          <t>https://cdn.coinranking.com/5H4rM81Pj/mxc.svg</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>767631481</t>
+          <t>783624838</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>69.6106195869273</t>
+          <t>1.7923715970263512</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1391817600</v>
+        <v>1568732160</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -5417,7 +5413,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['69.31324861524773', '69.18696519089112', '69.1023865312747', '69.07030351429229', '69.22072412158468', '69.25462295719834', '69.30007650597163', '69.33503171233085', '69.38578774539192', '69.37072639862393', '69.36896859422194', '69.36691764886649', '69.37498320000633', '69.40574785049415', '69.42701600175367', '69.50459444732063', '69.53527435805583', '69.64462740876907', '69.64717286533663', '69.63744095129385', '69.55681110221012', '69.52999991866456', '69.55804692492161', '69.5978447628149', '69.60413015847003']</t>
+          <t>['1.8000281341309805', '1.7995792712246776', '1.7970348979255133', '1.7948720740387463', '1.7971653042682791', '1.798266319676729', '1.800436669875368', '1.7959107565515309', '1.7919458359837679', '1.7929931983231275', '1.7962276877101528', '1.796653599910028', '1.7957181042283548', '1.7947573694391838', '1.7943998746083558', '1.7963925548326822', '1.79707267337203', '1.7975066179407841', '1.7976456280616073', '1.7974258869378894', '1.7953678390893082', '1.7954004960223975', '1.7943099285783555', '1.7933692506421604', '1.792490687847812']</t>
         </is>
       </c>
       <c r="N65" t="b">
@@ -5425,17 +5421,17 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/C9DwH-T7MEGmo+dash-dash</t>
+          <t>https://coinranking.com/coin/QUC5kVAxSoB-+mxtoken-mx</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>84231657</t>
+          <t>2998672</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>0.003104621118248032</t>
+          <t>0.000080656798846819</t>
         </is>
       </c>
     </row>
@@ -5445,48 +5441,48 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ql3Jj4Tge</t>
+          <t>QGbUTVMjG</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SUSHI</t>
+          <t>CRV</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SUSHI</t>
+          <t>Curve DAO Token</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>#b06b2e</t>
+          <t>#0030ff</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/eKKejWkdo/sushiswap.png</t>
+          <t>https://cdn.coinranking.com/89clXLSu2/curve-dao-token.svg</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>746097225</t>
+          <t>741224142</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>1.2211973343014337</t>
+          <t>0.9755627440670372</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1600160400</v>
+        <v>1597402380</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -5494,7 +5490,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['1.215342287974446', '1.2159397300328698', '1.215661293698569', '1.2160546813589868', '1.2181033905197933', '1.2196885791463832', '1.221347200721215', '1.2211883062522546', '1.2211054662561032', '1.2212773775884682', '1.2223698246102703', '1.2221736815919926', '1.221788972448284', '1.2215744042967993', '1.2216230954046092', '1.2218861009341622', '1.2221016752157798', '1.222371784081266', '1.2224997743962347', '1.2224118715262988', '1.2222612688226047', '1.2217997047816538', '1.2209015727987786', '1.2207624931526853', '1.2209373246123914']</t>
+          <t>['0.9766951096546149', '0.9757734809593679', '0.9756525365655325', '0.9762681367247338', '0.9768399761847355', '0.9757428232838884', '0.97375037766899', '0.9751574026771981', '0.9759227869011892', '0.9765230902620122', '0.9772183215239124', '0.9778334341576391', '0.9777586278082218', '0.9767979344861486', '0.9759910859558716', '0.9759749574985472', '0.9755242922750427', '0.974589637826036', '0.974741081141804', '0.9747790690883027', '0.975196535008076', '0.9762928539852925', '0.9772460347561862', '0.9764058682370825', '0.9758012269606484']</t>
         </is>
       </c>
       <c r="N66" t="b">
@@ -5502,17 +5498,17 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/ql3Jj4Tge+sushi-sushi</t>
+          <t>https://coinranking.com/coin/QGbUTVMjG+curvedaotoken-crv</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>44784305</t>
+          <t>84964314</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>0.00005446518155015</t>
+          <t>0.000043900365382497</t>
         </is>
       </c>
     </row>
@@ -5522,48 +5518,44 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>VcMY11NONHSA0</t>
+          <t>z2PZIKQL7</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>BSV</t>
+          <t>USDD</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Bitcoin SV</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>#eab300</t>
-        </is>
-      </c>
+          <t>USDD</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/388ehh6kq/bitcoin-sv-1.svg</t>
+          <t>https://cdn.coinranking.com/HeEyq_2CG/usdd.png</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>744143426</t>
+          <t>726103127</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>38.80935156276448</t>
+          <t>1.0010630874058162</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1541808000</v>
+        <v>1651913559</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -5571,7 +5563,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>['38.66752586564926', '38.66082876145104', '38.66029434070505', '38.71597975165253', '38.771704340722614', '38.78362282830463', '38.74243395111103', '38.73013967880975', '38.77494804401145', '38.77551949659998', '38.78912301811842', '38.80306269376296', '38.7990004373696', '38.827143001191175', '38.82177292031819', '38.81585080879633', '38.81948530332285', '38.83645026748182', '38.84189667327779', '38.84594518126263', '38.85255431723356', '38.83875451536367', '38.85178279422425', '38.83692273599328', '38.81958372081291']</t>
+          <t>['0.9987920464624815', '0.9993318491823947', '0.9994071960423153', '0.9993753557411769', '0.9990888166823987', '0.9996859502816378', '1.0003729687895149', '0.9998199415865012', '0.9997651966337465', '1.0003915045899527', '1.0003897931792274', '1.001042547327842', '1.001340893430891', '1.001433013303173', '1.0017612970907885', '1.0017561602799423', '1.0008121127217247', '1.0003935618474475', '1.0005091733679845', '1.0012145048250416', '1.0012149288185632', '1.0007465471893677', '1.000549343150446', '1.000635718888023', '1.001062918154944']</t>
         </is>
       </c>
       <c r="N67" t="b">
@@ -5579,17 +5571,17 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/VcMY11NONHSA0+bitcoinsv-bsv</t>
+          <t>https://coinranking.com/coin/z2PZIKQL7+usdd-usdd</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>114271042</t>
+          <t>23850584</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>0.001730890102146114</t>
+          <t>0.000045047881927957</t>
         </is>
       </c>
     </row>
@@ -5599,44 +5591,48 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>QUC5kVAxSoB-</t>
+          <t>ql3Jj4Tge</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SUSHI</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>MX Token</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
+          <t>SUSHI</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>#b06b2e</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/5H4rM81Pj/mxc.svg</t>
+          <t>https://cdn.coinranking.com/eKKejWkdo/sushiswap.png</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>734259107</t>
+          <t>721288186</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>1.6794582109826617</t>
+          <t>1.180542163958328</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1568732160</v>
+        <v>1600160400</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -5644,7 +5640,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['1.6725419953499983', '1.6741327389270266', '1.6744154463609937', '1.672507096479383', '1.6746975989087862', '1.6771145362821183', '1.673302131022495', '1.6721484252130316', '1.6736662157370685', '1.6744078708836292', '1.67646271060335', '1.6773998808485102', '1.6771421540113127', '1.678232095120438', '1.679416435911584', '1.6814333993309396', '1.6822209286925287', '1.681426582153282', '1.679870411207638', '1.6794559793948267', '1.679345205206344', '1.6796371510660142', '1.6802803967021167', '1.6792486982925807', '1.6794131733998332']</t>
+          <t>['1.1879204813007758', '1.1856700615872704', '1.186039535348161', '1.1861933627015215', '1.186561255136511', '1.186949881992074', '1.1871252946669526', '1.187598791217576', '1.1870461257346276', '1.1857479672151268', '1.1853195640729706', '1.1854953312400953', '1.185669559944089', '1.1844040476709738', '1.1831680087512153', '1.1827726534898917', '1.1824689664005958', '1.1818445239608224', '1.1819299586433591', '1.1821628643653022', '1.1823783781159904', '1.1825028829244377', '1.1818253765599989', '1.1809090857145503', '1.1805455800127191']</t>
         </is>
       </c>
       <c r="N68" t="b">
@@ -5652,17 +5648,17 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/QUC5kVAxSoB-+mxtoken-mx</t>
+          <t>https://coinranking.com/coin/ql3Jj4Tge+sushi-sushi</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>3141685</t>
+          <t>42991281</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>0.000074903534259175</t>
+          <t>0.000053124448081273</t>
         </is>
       </c>
     </row>
@@ -5672,48 +5668,48 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>mMPrMcB7</t>
+          <t>VcMY11NONHSA0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>BSV</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Stacks</t>
+          <t>Bitcoin SV</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>#584dce</t>
+          <t>#eab300</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/9gM7CG7Gp/4847.png</t>
+          <t>https://cdn.coinranking.com/388ehh6kq/bitcoin-sv-1.svg</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>730195395</t>
+          <t>719270077</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.7954018534823589</t>
+          <t>37.512130485075744</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1574174220</v>
+        <v>1541808000</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -5721,7 +5717,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['0.796995228622389', '0.8003340050973664', '0.7997091102195173', '0.7988266792628278', '0.8012925301420554', '0.8020457766183946', '0.8036083150466986', '0.8027067446656527', '0.8016880664025349', '0.8019468947317858', '0.8037448704427713', '0.8026304909167804', '0.8002223825947012', '0.7982546208830119', '0.7978693003999187', '0.7956214286721761', '0.7957636877455364', '0.7974069652533268', '0.7983156814834619', '0.7980702979268244', '0.7972333483974464', '0.7970778753067489', '0.7966226011751576', '0.7965746083839613', '0.7964599170745816']</t>
+          <t>['37.51289036744911', '37.507319856330575', '37.50242084342594', '37.51300672319125', '37.522948405906654', '37.517539370240726', '37.51783653678785', '37.52186543154158', '37.5374787992034', '37.53592976745737', '37.528846031007284', '37.52674326576905', '37.524555980765754', '37.514385381598494', '37.5132019554394', '37.52472186945186', '37.52343932168362', '37.51084949786016', '37.51344397005384', '37.51606706139598', '37.510886340573144', '37.51368842846927', '37.52320359317372', '37.52779865523488', '37.523513550828916']</t>
         </is>
       </c>
       <c r="N69" t="b">
@@ -5729,17 +5725,17 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/mMPrMcB7+stacks-stx</t>
+          <t>https://coinranking.com/coin/VcMY11NONHSA0+bitcoinsv-bsv</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>198690773</t>
+          <t>93731709</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>0.000035474779659607</t>
+          <t>0.001688047482938272</t>
         </is>
       </c>
     </row>
@@ -5749,44 +5745,48 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>z2PZIKQL7</t>
+          <t>1ZZI6g5k5royD</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>USDD</t>
+          <t>TUSD</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>USDD</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
+          <t>TrueUSD</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>#1f2e5a</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/HeEyq_2CG/usdd.png</t>
+          <t>https://cdn.coinranking.com/qPE6mbDUL/tusd.png</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>726502103</t>
+          <t>706821700</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>1.0016131469940768</t>
+          <t>0.9989305933963679</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1651913559</v>
+        <v>1520380800</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>['1.0016339197808886', '1.0015655027077233', '1.0014151166332939', '1.0012163494198594', '1.0014615530755726', '1.0011951424447922', '1.0009226457307987', '1.0009706468025414', '1.001012750061393', '1.0004802710648075', '1.0002016517824492', '1.000097435798475', '0.9995476253654624', '0.9995397958450306', '1.0002121586561104', '1.00100166653491', '1.0009596463302033', '1.0004705064380957', '1.000236037343464', '1.0005790006600153', '1.0007474311267768', '1.0009757717376209', '1.0018731833349164', '1.001895601307012', '1.0014307431876857']</t>
+          <t>['0.999911532254136', '1.0007247765795826', '1.0002726859421844', '0.9998173492194881', '0.9994958717231457', '0.9994825761975579', '0.9994097815699722', '0.9998097149526224', '0.9996472246283591', '0.9990851436642403', '0.9990583043162959', '0.9995371826348749', '0.9996228237344652', '0.999325746804523', '0.9991176010580295', '0.9990599435545626', '1.0021761831225418', '1.0022935621675513', '1.0013501085846952', '1.0002450644794367', '1.0002069720117703', '1.0001591377230397', '1.000181919711136', '0.9996374254436508', '0.9991086775401178']</t>
         </is>
       </c>
       <c r="N70" t="b">
@@ -5802,17 +5802,17 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/z2PZIKQL7+usdd-usdd</t>
+          <t>https://coinranking.com/coin/1ZZI6g5k5royD+trueusd-tusd</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>29479221</t>
+          <t>32126449</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>0.000044671766275395</t>
+          <t>0.000044951919605943</t>
         </is>
       </c>
     </row>
@@ -5847,12 +5847,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>723675208</t>
+          <t>683958532</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.4231160525761356</t>
+          <t>0.39982039412001513</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>['0.41858683662916035', '0.41951546230042397', '0.4195980158149809', '0.4198463844657472', '0.42153344509965707', '0.422103856785963', '0.4226895337669871', '0.42286528548644103', '0.42303438256982717', '0.423231601534796', '0.4240192466319464', '0.42416921869068436', '0.42564201652635897', '0.4264570497284904', '0.4263551202355353', '0.42516995662597645', '0.42519599070728525', '0.42570305857303253', '0.42594685096587326', '0.4257018764996222', '0.4245605255859153', '0.42447521185194337', '0.42408671167467255', '0.42392470909149915', '0.4238220551894545']</t>
+          <t>['0.40479183165256705', '0.40303681962892246', '0.40321408685944365', '0.4034271689988583', '0.40364627579776535', '0.40345199294417194', '0.402264270027571', '0.4025964035891397', '0.4030311010062083', '0.4025959968391091', '0.40239240460964537', '0.4022356105068876', '0.4017267433586768', '0.4016426730629351', '0.4010963711508927', '0.40091515147375817', '0.40080842840129305', '0.4002267096192934', '0.40023423349800585', '0.4001024234684169', '0.4000967443320765', '0.40022597392407455', '0.4003600186881447', '0.4004061350845607', '0.3999939191091716']</t>
         </is>
       </c>
       <c r="N71" t="b">
@@ -5884,12 +5884,12 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>185570500</t>
+          <t>187974239</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>0.000018870899872644</t>
+          <t>0.000017991934907301</t>
         </is>
       </c>
     </row>
@@ -5899,48 +5899,48 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>t7m8DZVyMsAu</t>
+          <t>C9DwH-T7MEGmo</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>DASH</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>GateToken</t>
+          <t>Dash</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>#de5959</t>
+          <t>#1c75bc</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/tRE6BrzE0/GT[1].svg</t>
+          <t>https://cdn.coinranking.com/PyCmduSxt/Dash-D-white_on_blue_circle.svg</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>707308891</t>
+          <t>682167198</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>5.017333790481509</t>
+          <t>61.86051837746399</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1556585100</v>
+        <v>1391817600</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -5948,7 +5948,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>['4.996626385844381', '4.99886704070087', '5.000746902714653', '4.998963952716241', '5.000019247966267', '5.002523019064494', '5.009994644442579', '5.012095163433548', '5.013843864236899', '5.010422872449825', '5.008138434361071', '5.0096595832343835', '5.011815867653335', '5.012584410428935', '5.011488965330374', '5.013938878391594', '5.0162261959105585', '5.017338634653094', None, None, None, None, None, None, None]</t>
+          <t>['62.15165724147546', '62.124188788982416', '62.144847746620044', '62.1549016497327', '62.11072719315965', '62.05995106031759', '62.03137315331378', '62.11639449626249', '62.18982477105464', '62.12264548602753', '62.10590349828671', '62.119650666006436', '62.108223443164604', '62.06792538149072', '62.022337952438306', '61.97891800706387', '61.949558416507934', '61.88383499984108', '61.883066491064795', '61.88465646791954', '61.88209250026291', '61.8887882940406', '61.87919051625894', '61.88827555519413', '61.86623489778427']</t>
         </is>
       </c>
       <c r="N72" t="b">
@@ -5956,17 +5956,17 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/t7m8DZVyMsAu+gatetoken-gt</t>
+          <t>https://coinranking.com/coin/C9DwH-T7MEGmo+dash-dash</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>1655077</t>
+          <t>85156564</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>0.000223778429351385</t>
+          <t>0.002783725983835545</t>
         </is>
       </c>
     </row>
@@ -5976,48 +5976,48 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1ZZI6g5k5royD</t>
+          <t>t7m8DZVyMsAu</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>TUSD</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>TrueUSD</t>
+          <t>GateToken</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>#1f2e5a</t>
+          <t>#de5959</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/qPE6mbDUL/tusd.png</t>
+          <t>https://cdn.coinranking.com/tRE6BrzE0/GT[1].svg</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>707195822</t>
+          <t>681109557</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>1.0023262598192186</t>
+          <t>4.831487400370026</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1520380800</v>
+        <v>1556585100</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>['1.0035638037576995', '1.0037607209141353', '1.003486884967681', '1.0034257767201022', '1.0035639318787484', '1.0026286414536532', '1.0018643969941632', '1.001566692177762', '1.0014378291104031', '1.0017824004908422', '1.002029977380631', '1.0019690549243643', '1.0015622245683151', '1.0013995050896032', '1.001831257779164', '1.0021594823511706', '1.0022354839459722', '1.0021399406018492', '1.0020783264076922', '1.001934287107792', '1.001863734552491', '1.0019670948312485', '1.0023760870254645', '1.0024305502749207', '1.0024080866035519']</t>
+          <t>['4.838463987478342', '4.8369452644295166', '4.837463464566327', '4.84217630277773', '4.842184030818733', '4.841524396946585', '4.839816643029496', '4.838708916218348', '4.837925583197586', '4.838371195328699', '4.8368516117136675', '4.833750682111712', '4.834030752926688', '4.836953260749956', '4.835147700624314', '4.83317455214899', '4.833871899177082', '4.8330540338426635', '4.831239537113523', '4.830930718015072', '4.8314889919122415', None, None, None, None]</t>
         </is>
       </c>
       <c r="N73" t="b">
@@ -6033,17 +6033,17 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/1ZZI6g5k5royD+trueusd-tusd</t>
+          <t>https://coinranking.com/coin/t7m8DZVyMsAu+gatetoken-gt</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>39493832</t>
+          <t>746601</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>0.000044703570979186</t>
+          <t>0.000217423912153739</t>
         </is>
       </c>
     </row>
@@ -6053,48 +6053,48 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>QGbUTVMjG</t>
+          <t>qhd1biQ7M</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CRV</t>
+          <t>GRT</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Curve DAO Token</t>
+          <t>The Graph</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>#0030ff</t>
+          <t>#b090e0</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/89clXLSu2/curve-dao-token.svg</t>
+          <t>https://cdn.coinranking.com/g6FVr-7Vs/grt.png</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>705011766</t>
+          <t>669583583</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0.9289306896758686</t>
+          <t>0.13817904570423684</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1597402380</v>
+        <v>1609341525</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -6102,7 +6102,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>['0.92703756287053', '0.9270711563437097', '0.926591736648797', '0.9265686425397914', '0.9287736644170425', '0.9305209530603232', '0.9327734831825064', '0.9331467078743089', '0.9331392193697713', '0.9329619883597652', '0.9326270597702543', '0.932417297549336', '0.9324514447045029', '0.9324520083980151', '0.9325247498238165', '0.9312885325194007', '0.9311173283933387', '0.9308207217535708', '0.9307035289310366', '0.9306212712912034', '0.930431018978967', '0.9304774624725288', '0.9300618230337888', '0.9297280239803647', '0.929468940458262']</t>
+          <t>['0.13951849319260576', '0.13909506144390466', '0.1390927039788884', '0.1391852318534001', '0.139243587319026', '0.13918622586015084', '0.13898615182048893', '0.13915827840621156', '0.13933254627892874', '0.13929598331505805', '0.13920007192559394', '0.13920665630111706', '0.13915702264697227', '0.13908109911987454', '0.13885132366229416', '0.13875607282922367', '0.13872514610014108', '0.13857471072814256', '0.13857308603397836', '0.13850475494379044', '0.13845832465823027', '0.1384851140339106', '0.13845333252411998', '0.1384691625126606', '0.13830256445002842']</t>
         </is>
       </c>
       <c r="N74" t="b">
@@ -6110,17 +6110,17 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/QGbUTVMjG+curvedaotoken-crv</t>
+          <t>https://coinranking.com/coin/qhd1biQ7M+thegraph-grt</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>51765512</t>
+          <t>56635923</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>0.00004143014174662</t>
+          <t>0.000006218062991348</t>
         </is>
       </c>
     </row>
@@ -6130,48 +6130,48 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>qhd1biQ7M</t>
+          <t>w4MqH_Xe8</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>GRT</t>
+          <t>BTT</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>The Graph</t>
+          <t>BitTorrent-New</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>#b090e0</t>
+          <t>#000000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/g6FVr-7Vs/grt.png</t>
+          <t>https://cdn.coinranking.com/xHIci4Je9/16086.png</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>700465202</t>
+          <t>656749294</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0.14552879155293375</t>
+          <t>6.94733041006e-7</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1609341525</v>
+        <v>1657036895</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -6179,7 +6179,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>['0.14516733837813917', '0.14515737247515137', '0.14519964682183795', '0.14530286960641584', '0.14565227659078667', '0.1457837610616197', '0.14593700717532065', '0.1459500269834946', '0.14601432869873202', '0.14607933104786955', '0.14620603244203276', '0.14613261031193606', '0.1459153793587659', '0.14579325553100494', '0.1457600760672', '0.14566229044922366', '0.14567065603142829', '0.14581426716247087', '0.14585132955573846', '0.1458258179103831', '0.14579091914576778', '0.1457751640646421', '0.14566811681965555', '0.14563902740804546', '0.14562041063432438']</t>
+          <t>['6.85499740293e-7', '6.85882705202e-7', '6.86053012664e-7', '6.86163254053e-7', '6.86038929725e-7', '6.86164712017e-7', '6.86293061012e-7', '6.86611191875e-7', '6.86564973193e-7', '6.85795842815e-7', '6.85691811739e-7', '6.86088481819e-7', '6.87835244699e-7', '6.93840376903e-7', '6.93765724791e-7', '6.88821138413e-7', '6.86675032025e-7', '6.85991864221e-7', '6.85947193515e-7', '6.86071667625e-7', '6.91146640427e-7', '6.94094309958e-7', '6.94394418062e-7', '6.94530634244e-7', '6.94543435645e-7']</t>
         </is>
       </c>
       <c r="N75" t="b">
@@ -6187,17 +6187,17 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/qhd1biQ7M+thegraph-grt</t>
+          <t>https://coinranking.com/coin/w4MqH_Xe8+bittorrent-new-btt</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>63994487</t>
+          <t>7649529</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>0.000006490557938565</t>
+          <t>3.1263017e-11</t>
         </is>
       </c>
     </row>
@@ -6207,48 +6207,48 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>drWC87t2Vozh</t>
+          <t>k-J3YwacF</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ANKR</t>
+          <t>WOO</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Ankr</t>
+          <t>WOO Network</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>#277fcc</t>
+          <t>#000000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/2NXhylXMw/ankr.png</t>
+          <t>https://cdn.coinranking.com/03_LGK8B-/7501.png</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>693030539</t>
+          <t>654753250</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0.03542759072874248</t>
+          <t>0.18377922020912466</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1552484520</v>
+        <v>1627113782</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -6256,7 +6256,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['0.035293276992869674', '0.035315184043915156', '0.0352959391785403', '0.035288173113017206', '0.03535890848665829', '0.035382617809305864', '0.03539430587129001', '0.035402575525097964', '0.03540941306162738', '0.03541716155007213', '0.03542565144183855', '0.03542619384847735', '0.03542066507104616', '0.03541850491197343', '0.035419653691328316', '0.03540456241095499', '0.03540538750859643', '0.03541234264085409', '0.0354184661337504', '0.03541996986889289', '0.03544030889684943', '0.035436010526197784', '0.03544141376708657', '0.035440237837801064', '0.03543673133573132']</t>
+          <t>['0.1855219425596763', '0.1851010932276234', '0.18523394189610548', '0.1853372545644091', '0.18504529726668786', '0.18481907724535354', '0.18466837194712743', '0.1848943773103158', '0.18485251075204256', '0.18472431369058434', '0.18478916903087678', '0.18489472268753884', '0.18484827252546296', '0.1844739534932833', '0.18420617495672642', '0.18419786181870199', '0.1842587444244267', '0.18405641973698245', '0.1839799367222472', '0.18390144059960833', '0.1839370227969747', '0.1840409662198857', '0.18400691081700746', '0.18377962385735294', '0.18375373594825115']</t>
         </is>
       </c>
       <c r="N76" t="b">
@@ -6264,17 +6264,17 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/drWC87t2Vozh+ankr-ankr</t>
+          <t>https://coinranking.com/coin/k-J3YwacF+woonetwork-woo</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>64345575</t>
+          <t>14379935</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>0.000001580064176957</t>
+          <t>0.000008270072802551</t>
         </is>
       </c>
     </row>
@@ -6284,48 +6284,48 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>k-J3YwacF</t>
+          <t>LOO6LmXd7G84Z</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>WOO</t>
+          <t>KCS</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>WOO Network</t>
+          <t>KuCoin Token</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>#000000</t>
+          <t>#23AF91</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/03_LGK8B-/7501.png</t>
+          <t>https://cdn.coinranking.com/A-hAjR-hN/kucoin.png</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>682190626</t>
+          <t>646610526</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0.19148047190201248</t>
+          <t>8.54832927750164</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1627113782</v>
+        <v>1508889600</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>-0.81</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -6333,7 +6333,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>['0.19041000234834432', '0.1902093762456384', '0.1901994506906068', '0.19025417502049338', '0.1905890815734716', '0.19088226466516622', '0.19125890956695818', '0.19137788681958295', '0.19145960901904216', '0.191511325645588', '0.1916642673031935', '0.1917086446863905', '0.1918581649469126', '0.1919449962631709', '0.1919849042068994', '0.19195374537640283', '0.19197730195639373', '0.19209685486939582', '0.192203493429306', '0.19215956588974198', '0.19200635788958212', '0.19194981579036122', '0.19185094445045972', '0.19176906468668736', '0.19169998208189845']</t>
+          <t>['8.622401270541348', '8.610816679761724', '8.565372591736773', '8.565583765198207', '8.570971843682791', '8.570911258516634', '8.57021402921536', '8.570564866769665', '8.579765685298755', '8.577954562848289', '8.537920715586473', '8.540489457212974', '8.540188509969243', '8.531964601669685', '8.53235098111364', '8.543931142627471', '8.53899105911932', '8.548223393518844', None, None, None, None, None, None, None]</t>
         </is>
       </c>
       <c r="N77" t="b">
@@ -6341,17 +6341,17 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/k-J3YwacF+woonetwork-woo</t>
+          <t>https://coinranking.com/coin/LOO6LmXd7G84Z+kucointoken-kcs</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>15540926</t>
+          <t>1262513</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>0.000008539994620458</t>
+          <t>0.000384222878194427</t>
         </is>
       </c>
     </row>
@@ -6386,12 +6386,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>666615252</t>
+          <t>632794970</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>1.2512524689525621</t>
+          <t>1.1877710057663933</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6402,7 +6402,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -6410,7 +6410,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>['1.231346194425147', '1.2338943881052156', '1.2306703141843838', '1.2281840688898251', '1.2330363101804294', '1.235691097121866', '1.2412962213759522', '1.2437657102289168', '1.2458243587557962', '1.2462253946587838', '1.2470648981709596', '1.246952721568019', '1.2464559249467613', '1.2461951131945994', '1.2472860818581317', '1.2509953175110227', '1.2512149030915642', '1.2547675212216187', '1.2554758979275678', '1.2561219476651924', '1.2570906132103843', '1.2564640082235845', '1.2570995176391608', '1.2568836824921708', '1.2551607735251753']</t>
+          <t>['1.2021964820719155', '1.1993607340154997', '1.1995004219382575', '1.1997307530842796', '1.1970682240031176', '1.195452288867197', '1.194149783947975', '1.1962128459830632', '1.1975709846987626', '1.1949391566470702', '1.193475574253911', '1.19374310680934', '1.1948140058250905', '1.1942619313299991', '1.1920546710212798', '1.1913250784425191', '1.1914558132960376', '1.1903206293193604', '1.1901023859120041', '1.1886086608500732', '1.1882794568573083', '1.1884425740328113', '1.188527579559144', '1.188495562868498', '1.188248239044831']</t>
         </is>
       </c>
       <c r="N78" t="b">
@@ -6423,12 +6423,12 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>77609446</t>
+          <t>65268966</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>0.000055805635151962</t>
+          <t>0.000053449746273108</t>
         </is>
       </c>
     </row>
@@ -6438,48 +6438,48 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>w4MqH_Xe8</t>
+          <t>drWC87t2Vozh</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>BTT</t>
+          <t>ANKR</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>BitTorrent-New</t>
+          <t>Ankr</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>#000000</t>
+          <t>#277fcc</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/xHIci4Je9/16086.png</t>
+          <t>https://cdn.coinranking.com/2NXhylXMw/ankr.png</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>664548300</t>
+          <t>628775492</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>7.02983110502e-7</t>
+          <t>0.03214288478888094</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1657036895</v>
+        <v>1552484520</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>-1.40</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>['6.96056817823e-7', '6.96786608868e-7', '6.96553562753e-7', '6.96493730357e-7', '6.9613681192e-7', '6.96253071757e-7', '6.98688285036e-7', '7.02017383801e-7', '7.02473630463e-7', '7.0243062239e-7', '7.01268301791e-7', '6.96427170075e-7', '6.96508874826e-7', '6.96721037135e-7', '6.96943110119e-7', '6.96499670836e-7', '6.96387448399e-7', '6.96444605128e-7', '6.96645947051e-7', '6.96862967032e-7', '6.9697831889e-7', '6.97005851747e-7', '6.96934802794e-7', '7.00847100424e-7', '7.02829635067e-7']</t>
+          <t>['0.03256422472201949', '0.03249255150313827', '0.03248232796053086', '0.032473335905734674', '0.03247209837498046', '0.032452513686206934', '0.032386934548000096', '0.032402166488089176', '0.03242302263104295', '0.03241845939292156', '0.03240894992077331', '0.03238836819998742', '0.03234461596474709', '0.03232782889975147', '0.03227787579924699', '0.03225739587891523', '0.03223585741030981', '0.03220525873384287', '0.032202188413009265', '0.032175696053002203', '0.03216336411571768', '0.032178186285427825', '0.03220109056489601', '0.03220858712619865', '0.032162169415906244']</t>
         </is>
       </c>
       <c r="N79" t="b">
@@ -6495,17 +6495,17 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/w4MqH_Xe8+bittorrent-new-btt</t>
+          <t>https://coinranking.com/coin/drWC87t2Vozh+ankr-ankr</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>7472524</t>
+          <t>60277179</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>3.135292e-11</t>
+          <t>0.000001446431196006</t>
         </is>
       </c>
     </row>
@@ -6515,48 +6515,48 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>J7st_qGwz</t>
+          <t>mMPrMcB7</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>MINA</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Mina Protocol Token</t>
+          <t>Stacks</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>#000000</t>
+          <t>#584dce</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/IqAKk8Gab/mina.png</t>
+          <t>https://cdn.coinranking.com/9gM7CG7Gp/4847.png</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>657828388</t>
+          <t>617711394</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0.869743556599555</t>
+          <t>0.6728730302202942</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1623662716</v>
+        <v>1574174220</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>-1.73</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>['0.863356776854928', '0.8652541862345635', '0.8650232277686997', '0.8644457651852412', '0.8674734746428204', '0.8687806778746078', '0.8698888829044935', '0.8701852943923599', '0.8705560282941001', '0.8706275761373914', '0.8708894535885134', '0.8710019432201552', '0.8706804934004909', '0.8705227329255212', '0.8706960434139621', '0.8710476887876584', '0.8709681601581221', '0.8709062624377003', '0.8707608085645427', '0.8706392507429065', '0.8698333586125323', '0.8697188191800054', '0.8694054337605392', '0.86919705162572', '0.8693618116613014']</t>
+          <t>['0.6841855682144565', '0.6805465845859672', '0.6801911258819082', '0.6799202567329846', '0.6796674227756877', '0.6788763645493048', '0.6763775357005685', '0.6772397767676538', '0.6779225061740263', '0.6768902200334146', '0.6764240134143403', '0.6764676600032841', '0.676594143217594', '0.6763584273919694', '0.6753608272894056', '0.6749423069760963', '0.6752323784980806', '0.6758109981718311', '0.6756620642286004', '0.674165304315718', '0.6731212394048597', '0.6735268369884398', '0.6746660466980529', '0.6746826615060855', '0.6735312815483127']</t>
         </is>
       </c>
       <c r="N80" t="b">
@@ -6572,17 +6572,17 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/J7st_qGwz+minaprotocoltoken-mina</t>
+          <t>https://coinranking.com/coin/mMPrMcB7+stacks-stx</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>51032356</t>
+          <t>135446744</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>0.000038790406252701</t>
+          <t>0.000030279315259162</t>
         </is>
       </c>
     </row>
@@ -6592,48 +6592,48 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>LOO6LmXd7G84Z</t>
+          <t>w5U609Wze</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>KCS</t>
+          <t>APE</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>KuCoin Token</t>
+          <t>ApeCoin</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>#23AF91</t>
+          <t>#0042C7</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/A-hAjR-hN/kucoin.png</t>
+          <t>https://cdn.coinranking.com/qT3ukh7Z9/APE.png</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>653878539</t>
+          <t>607352690</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>8.644413955025575</t>
+          <t>4.629618941567323</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1508889600</v>
+        <v>1647920319</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -6641,7 +6641,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>['8.621334279541673', '8.621649756936408', '8.621490438838963', '8.61494881070158', '8.615174239859869', '8.620563777077782', '8.620449739867425', '8.621597579781143', '8.62180817258805', '8.625229472158358', '8.625280273743726', '8.627501143887326', '8.627473517943907', '8.63160423486288', '8.63194231844454', '8.632990900244621', '8.632917270853097', '8.627181962879778', '8.62750334805211', '8.64074094596731', '8.640644224422283', '8.640330751796702', '8.640401408573842', None, None]</t>
+          <t>['4.666114591847235', '4.659997917655248', '4.66198467372978', '4.664356665523501', '4.664394440536779', '4.664866876309898', '4.663585855339231', '4.66600291847147', '4.667205244003087', '4.66213108110623', '4.65943684237804', '4.6585028194773415', '4.657487507445649', '4.655804387521706', '4.653021091368334', '4.651964964205884', '4.651595635134338', '4.649621573068835', '4.6497207840629455', '4.64545208755088', '4.644178579367342', '4.640881671330913', '4.634774757252441', '4.634431781466401', '4.6309848641683145']</t>
         </is>
       </c>
       <c r="N81" t="b">
@@ -6649,17 +6649,17 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/LOO6LmXd7G84Z+kucointoken-kcs</t>
+          <t>https://coinranking.com/coin/w5U609Wze+apecoin-ape</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>741044</t>
+          <t>98270902</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>0.000385539308210531</t>
+          <t>0.000208333051208203</t>
         </is>
       </c>
     </row>
@@ -6669,48 +6669,48 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>w5U609Wze</t>
+          <t>J7st_qGwz</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>APE</t>
+          <t>MINA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>ApeCoin</t>
+          <t>Mina Protocol Token</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>#0042C7</t>
+          <t>#000000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/qT3ukh7Z9/APE.png</t>
+          <t>https://cdn.coinranking.com/IqAKk8Gab/mina.png</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>634402890</t>
+          <t>593780474</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>4.835812345102907</t>
+          <t>0.7850630209922217</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1647920319</v>
+        <v>1623662716</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>-1.25</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>['4.8130787525814975', '4.8118060009567465', '4.80787593669051', '4.807056054174156', '4.809725022590423', '4.8142065140703485', '4.822149533223313', '4.822887159089578', '4.824267002453086', '4.826807236682768', '4.830720776482922', '4.831767986548221', '4.8343726000885985', '4.834740337929059', '4.834578074579122', '4.83308944621005', '4.83439738821037', '4.8383790020922985', '4.839953154526249', '4.840631431961213', '4.84015329872684', '4.837688004348443', '4.831609653624353', '4.8313040269650065', '4.833134491913876']</t>
+          <t>['0.794477687936367', '0.7925308675737177', '0.7925493507581627', '0.792654677282426', '0.7920559062670249', '0.791439189121133', '0.7886911230108696', '0.7894190870449843', '0.7900721716474344', '0.7897747134437626', '0.7894766519336682', '0.7894690884687762', '0.7891644814566451', '0.7888509350273276', '0.7873364788590708', '0.7866090350926318', '0.7864344739626196', '0.7857962723355654', '0.7858813183411634', '0.7858933574764105', '0.7856896626711588', '0.7857206029750652', '0.7854967565194809', '0.7855378059078691', '0.7852401190955055']</t>
         </is>
       </c>
       <c r="N82" t="b">
@@ -6726,17 +6726,17 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/w5U609Wze+apecoin-ape</t>
+          <t>https://coinranking.com/coin/J7st_qGwz+minaprotocoltoken-mina</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>99820490</t>
+          <t>42182958</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>0.000215676361158413</t>
+          <t>0.00003532786966235</t>
         </is>
       </c>
     </row>
@@ -6746,48 +6746,48 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>WMDlfMJ1W</t>
+          <t>aRGRWLf2RYNq4</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>APX</t>
+          <t>ZEC</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ApolloX</t>
+          <t>Zcash</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>#7747FD</t>
+          <t>#000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/FfcNFmkwn/16334.png</t>
+          <t>https://cdn.coinranking.com/rJrKiS_uZ/zec.svg</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>626795612</t>
+          <t>588384581</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.063621188249505</t>
+          <t>37.232343201070634</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1649048256</v>
+        <v>1477612800</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -6795,7 +6795,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>['0.06359995164910964', '0.0636060910074715', '0.06343401828626341', '0.06335570944384115', '0.06336866195812225', '0.06337387895502651', '0.06334602858600485', '0.06333681712570284', '0.06332723692148175', '0.06333148944756194', '0.0634021031648567', '0.06344990635031288', '0.0633242080858645', '0.06321711239341046', '0.06321526404396134', '0.06326675951571245', '0.06331067087413081', '0.06331528748613582', '0.06334945488684275', '0.06337305416130157', '0.06342953961169077', '0.06347629585492726', '0.06360599675923631', '0.06364677675721432', '0.06362537227182707']</t>
+          <t>['37.54427269604224', '37.47141320964314', '37.489712930739174', '37.51180101910769', '37.49129970762659', '37.469534182428724', '37.430006089933926', '37.45114967412618', '37.46780651454788', '37.4473263671757', '37.42469476392485', '37.415602455271056', '37.37258927085647', '37.35643915814121', '37.33267338709038', '37.33200795467292', '37.3121246687238', '37.291635618519734', '37.28387059752069', '37.28181623009353', '37.27565759391445', '37.27598486448379', '37.290219378758586', '37.28262778898337', '37.25183739294693']</t>
         </is>
       </c>
       <c r="N83" t="b">
@@ -6803,17 +6803,17 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/WMDlfMJ1W+apollox-apx</t>
+          <t>https://coinranking.com/coin/aRGRWLf2RYNq4+zcash-zec</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>1407580</t>
+          <t>52853662</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>0.000002837493557442</t>
+          <t>0.001675457043141448</t>
         </is>
       </c>
     </row>
@@ -6823,48 +6823,44 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>aRGRWLf2RYNq4</t>
+          <t>aQx_vW8s1</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ZEC</t>
+          <t>XEC</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Zcash</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>#000</t>
-        </is>
-      </c>
+          <t>eCash</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/rJrKiS_uZ/zec.svg</t>
+          <t>https://cdn.coinranking.com/wdqRaUEhn/xec.png</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>620909731</t>
+          <t>580837603</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>39.290499659595824</t>
+          <t>0.000030286727637072</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1477612800</v>
+        <v>1634887994</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -6872,7 +6868,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>['39.270325485908344', '39.26854815864568', '39.24216550498113', '39.249096236243076', '39.2586766879056', '39.248777989182194', '39.24159281543324', '39.26626263004452', '39.312577596586316', '39.33204310594354', '39.3880335486893', '39.3934556553897', '39.40228456793076', '39.396442344090254', '39.38906570303816', '39.39274846157622', '39.401008626214164', '39.41727415876928', '39.42196809830468', '39.42457818149974', '39.455896065222746', '39.448000879018984', '39.40292953354535', '39.35277017302201', '39.319772324644994']</t>
+          <t>['0.000030557624367732', '0.00003039968354271', '0.000030427192944742', '0.000030491303798086', '0.000030469699728485', '0.000030459345137607', '0.000030503065522299', '0.000030507937780958', '0.000030505899625698', '0.000030464372560326', '0.000030423386034098', '0.000030406959821356', '0.000030388404882796', '0.000030382656251422', '0.000030377254553697', '0.000030384291127069', '0.000030367898543682', '0.000030320743353019', '0.000030319334548542', '0.000030307841040129', '0.000030295396978876', '0.000030281528703592', '0.000030316457465224', '0.000030312874638387', '0.000030296921104214']</t>
         </is>
       </c>
       <c r="N84" t="b">
@@ -6880,17 +6876,17 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/aRGRWLf2RYNq4+zcash-zec</t>
+          <t>https://coinranking.com/coin/aQx_vW8s1+ecash-xec</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>66786568</t>
+          <t>5132334</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>0.001752349220758929</t>
+          <t>1.362904044e-9</t>
         </is>
       </c>
     </row>
@@ -6925,12 +6921,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>621137375</t>
+          <t>580017939</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.22346846821546104</t>
+          <t>0.2086748046872152</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -6941,7 +6937,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -6949,7 +6945,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>['0.22223383395808868', '0.22212413748379348', '0.2222203614547101', '0.222302065787401', '0.22272451289382586', '0.2228570284711163', '0.22291189617268967', '0.22291403282503583', '0.22296579386259607', '0.22300087923446923', '0.2232789742765012', '0.2232909757650429', '0.2232637919312782', '0.22327856666232207', '0.2232517574753034', '0.2233618977256099', '0.22337199524852666', '0.2235208358329641', '0.22362693049216772', '0.22363091811743452', '0.22362942902837984', '0.22362499200651317', '0.2235192087806909', '0.22344146372537188', '0.2234393747964489']</t>
+          <t>['0.2086537778036075', '0.20855448821264738', '0.20842953098587752', '0.20832744618024077', '0.20855733265199952', '0.20861258234977295', '0.20844906792525597', '0.2086719579078521', '0.20896830998088967', '0.2088642690506761', '0.2087781730620996', '0.20880353400452453', '0.20903808161801574', '0.20898116485340837', '0.20883803804882872', '0.20875307715509844', '0.20874740918641302', '0.20869980067421162', '0.20868793570798108', '0.20865389202544316', '0.20862599973734605', '0.2086352980619569', '0.20880427651020603', '0.20880520157618346', '0.20872683429867503']</t>
         </is>
       </c>
       <c r="N85" t="b">
@@ -6962,12 +6958,12 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>5815761</t>
+          <t>8747337</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>0.000009966653504899</t>
+          <t>0.000009390375173307</t>
         </is>
       </c>
     </row>
@@ -6977,44 +6973,48 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>aQx_vW8s1</t>
+          <t>WMDlfMJ1W</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>XEC</t>
+          <t>APX</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>eCash</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
+          <t>ApolloX</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>#7747FD</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/wdqRaUEhn/xec.png</t>
+          <t>https://cdn.coinranking.com/FfcNFmkwn/16334.png</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>613738047</t>
+          <t>557818720</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0.000032002261862048</t>
+          <t>0.05661987594744016</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1634887994</v>
+        <v>1649048256</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -7022,7 +7022,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>['0.000031881765325717', '0.000031895913372491', '0.000031875671998573', '0.000031850361212833', '0.000031884722378105', '0.000031890765838272', '0.000031914079360376', '0.000031938498985242', '0.00003194902477105', '0.000031941588389568', '0.000031816825495403', '0.000031815511903855', '0.000031842547886986', '0.000031875491851005', '0.000031876312015405', '0.000031991775444307', '0.000032004806879218', '0.000032011176464344', '0.000031999216204702', '0.000032000160461838', '0.000032013738454508', '0.000032012893712736', '0.000032029410563351', '0.000032039340584954', '0.000032019802612115']</t>
+          <t>['0.05679377136074522', '0.056810483272799236', '0.05681626648395953', '0.056825181953435985', '0.05675609288019635', '0.05673281121298967', '0.05672088929915031', '0.056766656263222866', '0.056754366032111155', '0.05671544074240461', '0.05689063811900607', '0.0568461615833924', '0.056753871408781964', '0.05675261950460252', '0.05675798419396766', '0.05675235726624017', '0.05675275333747358', '0.056785570861924595', '0.05681744860777581', '0.05679651170358862', '0.05673799086381098', '0.056708015579805635', '0.05670723887001638', '0.05666218607963821', '0.05661987594744016']</t>
         </is>
       </c>
       <c r="N86" t="b">
@@ -7030,17 +7030,17 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/aQx_vW8s1+ecash-xec</t>
+          <t>https://coinranking.com/coin/WMDlfMJ1W+apollox-apx</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>4933703</t>
+          <t>1488862</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>1.427295125e-9</t>
+          <t>0.000002547896849404</t>
         </is>
       </c>
     </row>
@@ -7050,48 +7050,48 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>M9bj_WrX</t>
+          <t>sfab31CXM</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>KLAY</t>
+          <t>BLOK</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Klaytn</t>
+          <t>Bloktopia</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>#4f473b</t>
+          <t>#000000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/cY-BSmXaS/klay.svg</t>
+          <t>https://cdn.coinranking.com/P6P1BdGJ9/11206.png</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>587402596</t>
+          <t>547406542</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0.23994624500206255</t>
+          <t>0.00273703271083102</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1572962760</v>
+        <v>1640188674</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -7099,7 +7099,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>['0.23969679069751268', '0.240007324541201', '0.23991614000243805', '0.23945489704765863', '0.23967135127680586', '0.23998664043584383', '0.24069693435064615', '0.2406747968046471', '0.2402333840288202', '0.24023926076059018', '0.240688227525422', '0.24083633380715852', '0.24088683606364664', '0.24156261131650186', '0.24153661754038477', '0.24110648989145902', '0.2408959336162098', '0.2409763767791503', '0.24103476278373812', '0.2409694842571028', '0.24046193902009666', '0.2402851947900741', '0.2403034203467358', '0.24032880346011992', '0.24026907052105162']</t>
+          <t>['0.00277545401933506', '0.002780244317676546', '0.002768949187863617', '0.002764139836169135', '0.002754174369026013', '0.00275119685404915', '0.002746387438248216', '0.002743769772205419', '0.002744711271447685', '0.002753194067930531', '0.002753328592003735', '0.002759428154350172', '0.002764240683307869', '0.002764275633983669', '0.002765036691638904', '0.002765078451855317', '0.00276636915472604', '0.00276640101937658', '0.002765626488546348', '0.002750766856447926', '0.00274637719904998', '0.002745964729277383', '0.002746128742577784', '0.002744811808414212', '0.002736954406165076']</t>
         </is>
       </c>
       <c r="N87" t="b">
@@ -7107,17 +7107,17 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/M9bj_WrX+klaytn-klay</t>
+          <t>https://coinranking.com/coin/sfab31CXM+bloktopia-blok</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>43280523</t>
+          <t>881889</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>0.000010701559387034</t>
+          <t>1.2316658954e-7</t>
         </is>
       </c>
     </row>
@@ -7127,48 +7127,44 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>q7gMmMdLb</t>
+          <t>lT__vMO7l</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>BGB</t>
+          <t>CDAI</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Bitget Token</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>#027ebd</t>
-        </is>
-      </c>
+          <t>Compound Dai</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/Du8qwA32R/photo-2022-05-03-19-50-24.png</t>
+          <t>https://cdn.coinranking.com/aZPPc1MqR/cDAI.svg</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>580597862</t>
+          <t>547245176</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0.41471246270271594</t>
+          <t>0.02222658207794853</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1651983014</v>
+        <v>1595516340</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -7176,7 +7172,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['0.41223654003478827', '0.4134041433326337', '0.41237968785433354', '0.41352872508950356', '0.41461197583586795', '0.41586099362968104', '0.41591302940648817', '0.4153428236813331', '0.41510956388756476', '0.41493131384201937', '0.4148112456872235', '0.4146378440094947', None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
+          <t>['0.02217683347601238', '0.022174235598922263', '0.022178468339864386', '0.022189487165216633', '0.022187818364036483', '0.022202702572326906', '0.022201899079719888', '0.02220989557020916', '0.022209908615917952', '0.02225442422975986', '0.02220565796016925', '0.022247745683949733', '0.022226582129476227', None, None, None, None, None, None, None, None, None, None, None, None]</t>
         </is>
       </c>
       <c r="N88" t="b">
@@ -7184,17 +7180,17 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/q7gMmMdLb+bitgettoken-bgb</t>
+          <t>https://coinranking.com/coin/lT__vMO7l+compounddai-cdai</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>12591000</t>
+          <t>4863467</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>0.0000184841708758</t>
+          <t>9.98982690923e-7</t>
         </is>
       </c>
     </row>
@@ -7204,48 +7200,48 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Ru56fDlLB56-v</t>
+          <t>M9bj_WrX</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>RVN</t>
+          <t>KLAY</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Ravencoin</t>
+          <t>Klaytn</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>#384182</t>
+          <t>#4f473b</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/Rw1xg7rFE/rvn.svg</t>
+          <t>https://cdn.coinranking.com/cY-BSmXaS/klay.svg</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>576335270</t>
+          <t>542975803</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0.027444536683176892</t>
+          <t>0.22179848349712655</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>1520726400</v>
+        <v>1572962760</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -7253,7 +7249,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>['0.027357196365639786', '0.027363092072238884', '0.027365501045431794', '0.02736507723014663', '0.027388133556034346', '0.02739436695025378', '0.02739328588434192', '0.02739749624318658', '0.027429450732076695', '0.027436001648078964', '0.027455688266445566', '0.027456056266666105', '0.02746243068403473', '0.027467826152837122', '0.027463004673237135', '0.027455469559466195', '0.02745301945693862', '0.027458287337431903', '0.02746198614064045', '0.02746082791723074', '0.027462718856403483', '0.027463496579172034', '0.02746181255915605', '0.027457887536763', '0.027456425737051933']</t>
+          <t>['0.22249499709308235', '0.22204835829782893', '0.22211695477518265', '0.2225318172236945', '0.22273620250558251', '0.22276268343162492', '0.222439382099775', '0.2224579059334759', '0.2227818473705219', '0.22244777958375975', '0.2220531301935779', '0.22204875974469093', '0.22206816397606252', '0.22203201579615411', '0.22182423385668174', '0.22171766995668224', '0.22166692901338927', '0.22126338526029363', '0.2211671825827056', '0.2211271373870202', '0.22113171990215397', '0.22116117175691885', '0.2215955933380544', '0.22204713191935144', '0.22188338666504345']</t>
         </is>
       </c>
       <c r="N89" t="b">
@@ -7261,17 +7257,17 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/Ru56fDlLB56-v+ravencoin-rvn</t>
+          <t>https://coinranking.com/coin/M9bj_WrX+klaytn-klay</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>11788665</t>
+          <t>45080815</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>0.000001224021401802</t>
+          <t>0.000009980941283402</t>
         </is>
       </c>
     </row>
@@ -7281,48 +7277,48 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>sfab31CXM</t>
+          <t>q7gMmMdLb</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>BLOK</t>
+          <t>BGB</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Bloktopia</t>
+          <t>Bitget Token</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>#000000</t>
+          <t>#027ebd</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/P6P1BdGJ9/11206.png</t>
+          <t>https://cdn.coinranking.com/Du8qwA32R/photo-2022-05-03-19-50-24.png</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>574100401</t>
+          <t>541460425</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0.002870502006426469</t>
+          <t>0.3867571703267568</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1640188674</v>
+        <v>1651983014</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -7330,7 +7326,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>['0.002852471289654423', '0.002853202012860073', '0.002853010279387492', '0.002854230653434409', '0.002857859516447398', '0.002855969093739918', '0.002854759278395711', '0.002856610880117539', '0.002857382714709303', '0.002860532946231856', '0.002862514369838243', '0.002862671792305458', '0.002864295798289018', '0.002865140160172815', '0.002866042750222046', '0.00286711910604738', '0.002867178978705955', '0.00286636676126588', '0.002866376305874462', '0.002868279483238095', '0.002869289140326061', '0.00286940958359252', '0.002868819734035515', '0.002868674233566331', '0.002870080557744038']</t>
+          <t>['0.3871650147226237', '0.38730641623955997', '0.38737378597627053', '0.38694679921644287', '0.3871363746435709', '0.38725067582520306', '0.3870644859886571', '0.3873396762467668', '0.38694148384380894', '0.3869130755972748', '0.38686642386846753', '0.386666360826374', None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
         </is>
       </c>
       <c r="N90" t="b">
@@ -7338,17 +7334,17 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/sfab31CXM+bloktopia-blok</t>
+          <t>https://coinranking.com/coin/q7gMmMdLb+bitgettoken-bgb</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>1606189</t>
+          <t>9201321</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>1.28023873398e-7</t>
+          <t>0.000017382956920308</t>
         </is>
       </c>
     </row>
@@ -7358,48 +7354,48 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>gpRKmM16k</t>
+          <t>Ru56fDlLB56-v</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>AXS</t>
+          <t>RVN</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Axie Infinity</t>
+          <t>Ravencoin</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>#f5a616</t>
+          <t>#384182</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/L3gWtlUJB/axie-infinity.png</t>
+          <t>https://cdn.coinranking.com/Rw1xg7rFE/rvn.svg</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>556968435</t>
+          <t>534786464</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>9.144496739446376</t>
+          <t>0.025466022089634627</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1605090441</v>
+        <v>1520726400</v>
       </c>
       <c r="J91" t="n">
         <v>1</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>-1.27</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -7407,7 +7403,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>['9.1253394132826', '9.11386150158015', '9.112601189528005', '9.111129785301777', '9.123584739028333', '9.131191688373102', '9.14001949916338', '9.143331313614517', '9.146227231411347', '9.14657215702836', '9.144129312591849', '9.144042140768535', '9.14155056163342', '9.139377608030987', '9.139625750096345', '9.137239806828125', '9.138825187253191', '9.143527683726921', '9.146721426401955', '9.14604130635465', '9.14220178771836', '9.141909784909593', '9.14288173421801', '9.144885203103557', '9.144060107101808']</t>
+          <t>['0.025752514386653966', '0.02567657326514614', '0.02565296342559748', '0.025643876740057123', '0.025673127996706548', '0.025731751027179093', '0.02566815744566441', '0.025663626036048773', '0.025629138355106277', '0.025599233500300547', '0.025604584428844', '0.025600683043818396', '0.025573506739328646', '0.02554361338758665', '0.025524713218012546', '0.025528186547789218', '0.025525314408866503', '0.025500412841894613', '0.025492935548029633', '0.025493950870703233', '0.025449938251999257', '0.02544697908194972', '0.02546064369562103', '0.02549206469975873', '0.02547593434128039']</t>
         </is>
       </c>
       <c r="N91" t="b">
@@ -7415,17 +7411,17 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/gpRKmM16k+axieinfinity-axs</t>
+          <t>https://coinranking.com/coin/Ru56fDlLB56-v+ravencoin-rvn</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>62528265</t>
+          <t>17251978</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>0.000407842910485559</t>
+          <t>0.000001145972087775</t>
         </is>
       </c>
     </row>
@@ -7435,48 +7431,48 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>n1p-s_gm1</t>
+          <t>gpRKmM16k</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>OP</t>
+          <t>AXS</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Optimism</t>
+          <t>Axie Infinity</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>#ff2a29</t>
+          <t>#f5a616</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/GaG3fv_rq/11840.png</t>
+          <t>https://cdn.coinranking.com/L3gWtlUJB/axie-infinity.png</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>539058276</t>
+          <t>522213833</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2.510185716287896</t>
+          <t>8.573883897638499</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1654151352</v>
+        <v>1605090441</v>
       </c>
       <c r="J92" t="n">
         <v>1</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -7484,7 +7480,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>['2.486067296073613', '2.488007607824965', '2.4853963891746242', '2.48628747091087', '2.4947787176596603', '2.4990526005057805', '2.5073690768861865', '2.5049107367759333', '2.503466440169699', '2.504239106002128', '2.5062821967802833', '2.5061852114246594', '2.506060941738255', '2.5053902019390195', '2.5055342934968268', '2.505922251821925', '2.506577819510049', '2.5134411255558144', '2.5164701687419693', '2.516699757952563', '2.5121112144757527', '2.5109480312703756', '2.5105575100714934', '2.5105785319567677', '2.5111242511799476']</t>
+          <t>['8.657403137882548', '8.64938542137254', '8.649045025038003', '8.649473612620067', '8.656659300604181', '8.656142446338427', '8.639841780296758', '8.64433427350652', '8.650517007656676', '8.643208619601797', '8.637791585007054', '8.636688525849712', '8.63707144212044', '8.634731093194036', '8.622019539893353', '8.614173422225846', '8.611536287952285', '8.600088630581716', '8.599715995415586', '8.59522679109555', '8.592190182278634', '8.5914114037171', '8.589783339166543', '8.589388487239695', '8.57954139324585']</t>
         </is>
       </c>
       <c r="N92" t="b">
@@ -7492,17 +7488,17 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/n1p-s_gm1+optimism-op</t>
+          <t>https://coinranking.com/coin/gpRKmM16k+axieinfinity-axs</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>211372686</t>
+          <t>64544743</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>0.000111953831638865</t>
+          <t>0.000385825143633785</t>
         </is>
       </c>
     </row>
@@ -7512,44 +7508,48 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>lT__vMO7l</t>
+          <t>n1p-s_gm1</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CDAI</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Compound Dai</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr"/>
+          <t>Optimism</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>#ff2a29</t>
+        </is>
+      </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/aZPPc1MqR/cDAI.svg</t>
+          <t>https://cdn.coinranking.com/GaG3fv_rq/11840.png</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>538247635</t>
+          <t>515556314</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0.02222162449160568</t>
+          <t>2.4007461797935434</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>1595516340</v>
+        <v>1654151352</v>
       </c>
       <c r="J93" t="n">
         <v>1</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-1.63</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>['0.022273630067622268', '0.02227142840892237', '0.022271428356820673', '0.02227046488615727', '0.022267770378915676', '0.0222677686094993', '0.022242596257584953', '0.022242594830493675', '0.022224102360306974', '0.022224101286764327', '0.02222261472529662', '0.022222614593455932', '0.02221737554313731', '0.022220147029188297', '0.022220063675864404', '0.022217677647801463', '0.02221767752218346', '0.022221624303288327', '0.02222162449160568', None, None, None, None, None, None]</t>
+          <t>['2.437902549007555', '2.429138165494983', '2.4293067429659', '2.429851540556597', '2.4303480529749097', '2.427473482680443', '2.4210603114199003', '2.422568000067674', '2.4244679560374087', '2.4212554393639207', '2.420287448644459', '2.4197412954527437', '2.415928983144238', '2.415085049578078', '2.4127853736384073', '2.411929560160932', '2.4111187063325015', '2.4107634613197875', '2.4100794805801633', '2.4067359873423197', '2.4050606998619113', '2.405991896756999', '2.4068676696045745', '2.406637941359738', '2.4028658362951654']</t>
         </is>
       </c>
       <c r="N93" t="b">
@@ -7565,17 +7565,17 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/lT__vMO7l+compounddai-cdai</t>
+          <t>https://coinranking.com/coin/n1p-s_gm1+optimism-op</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>9781503</t>
+          <t>219130924</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>9.90441188007e-7</t>
+          <t>0.000108033681200445</t>
         </is>
       </c>
     </row>
@@ -7610,12 +7610,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>525323215</t>
+          <t>488358200</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>81.79986655702689</t>
+          <t>76.03242520710305</t>
         </is>
       </c>
       <c r="I94" t="n">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>-1.14</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -7634,7 +7634,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>['81.1903476717882', '81.20102191209008', '81.17808093979502', '81.18078029015996', '81.27375293009538', '81.33313412169527', '81.50198220748236', '81.61050508776044', '81.63409370504816', '81.68310289782576', '81.73460482919666', '81.72111032289797', '81.7147964196163', '81.75947862788857', '81.80951888280975', '81.83377877556505', '81.8159425424623', '81.8490766627875', '81.86877463779551', '81.91105450755657', '81.96916630966965', '82.01778208693365', '82.00995139461601', '81.96899697271527', '81.88399901014881']</t>
+          <t>['76.40529899411585', '76.6162490805198', '77.07546661540279', '77.05836184729118', '77.02083324079612', '77.00239993363832', '76.97967095827185', '77.23197204850031', '76.90416446709746', '76.79788996379301', '77.18586018898968', '77.38266634243551', '77.21797144916893', '76.62093774313672', '76.46794218060721', '76.77434157559584', '76.84194547874166', '76.6934213054168', '76.46632035225231', '76.46730479728964', '76.70981721871736', '76.81429222079386', '76.61294276772514', '76.08979672064353', '76.05725352341152']</t>
         </is>
       </c>
       <c r="N94" t="b">
@@ -7647,12 +7647,12 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>34160587</t>
+          <t>38813031</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>0.003648259341603522</t>
+          <t>0.003421462399839047</t>
         </is>
       </c>
     </row>
@@ -7662,48 +7662,48 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>AP-fyKlSf</t>
+          <t>frw2fHgZ</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>OKT</t>
+          <t>TKX</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>Tokenize Xchange</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>#456dc8</t>
+          <t>#ff8f40</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/xcZdYtX6E/okx.png</t>
+          <t>https://cdn.coinranking.com/JYtWb5AXp/tokenize.svg</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>501983458</t>
+          <t>485375358</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>28.18919413352939</t>
+          <t>6.06749534774908</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1643001498</v>
+        <v>1596033180</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="L95" t="n">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>['28.036379903197606', '28.008254363626595', '27.985994473703993', '27.999933692445165', '28.023219125459853', '28.03910453250255', '28.093834082441546', '28.132295932085203', '28.156592201069085', '28.17592064241545', '28.163964739232796', '28.14580754113189', '28.163842803336127', '28.183404484081947', '28.182309965810404', '28.166413926939505', '28.164649164385093', '28.184217863372524', '28.186433412129478', '28.191966763880455', '28.186901166670697', '28.19918673949054', '28.19578956723061', '28.189065390697007', '28.202474512650046']</t>
+          <t>['6.079219512090921', '6.07889875230153', '6.075616143351036', '6.0765432000277935', '6.071941462725811', '6.075939198354459', '6.070359962527896', '6.070680355478765', '6.071010865163447', '6.059894150426894', '6.065064561501814', '6.066499317953797', None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
         </is>
       </c>
       <c r="N95" t="b">
@@ -7719,17 +7719,17 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/AP-fyKlSf+okc-okt</t>
+          <t>https://coinranking.com/coin/frw2fHgZ+tokenizexchange-tkx</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>10719441</t>
+          <t>9616354</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>0.001257232990205769</t>
+          <t>0.000273037551241788</t>
         </is>
       </c>
     </row>
@@ -7739,48 +7739,48 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>cCx8KCiV3</t>
+          <t>AP-fyKlSf</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>AGIX</t>
+          <t>OKT</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SingularityNET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>#000000</t>
+          <t>#456dc8</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/UBRfNttvR/2424.png</t>
+          <t>https://cdn.coinranking.com/xcZdYtX6E/okx.png</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>492346469</t>
+          <t>477405605</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0.4404831249138246</t>
+          <t>26.809009479640974</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1626924800</v>
+        <v>1643001498</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -7788,7 +7788,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>['0.4348177351553727', '0.43731589001578103', '0.43751718914287685', '0.4376677861151491', '0.4397409637440387', '0.4406885801842841', '0.4427204631408663', '0.44245613881042767', '0.4419912209412025', '0.4420670077100464', '0.44252429484675226', '0.4425454848672945', '0.4421169092493066', '0.4416649985680204', '0.4413514427133587', '0.4405489565016423', '0.44080730973326887', '0.4408592637094077', '0.4407706066162904', '0.4408808924546133', '0.44088612710482605', '0.44083169513675924', '0.4404702396383327', '0.44038283193014244', '0.4404480387457844']</t>
+          <t>['26.410269223496467', '26.413765448418967', '26.445145166939504', '26.434919998319792', '26.473559925371557', '26.558379272978865', '26.598854512382164', '26.629805791231444', '26.61415224879083', '26.60729817153107', '26.628637839479406', '26.633899203946143', '26.624767220581866', '26.68319584232404', '26.760473124020006', '26.78447702203579', '26.794320787447077', '26.72138065014745', '26.757050135621412', '26.772383478463603', '26.754866357654222', '26.754817524681542', '26.75230359324972', '26.7580227858548', '26.79380876632096']</t>
         </is>
       </c>
       <c r="N96" t="b">
@@ -7796,17 +7796,17 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/cCx8KCiV3+singularitynet-agix</t>
+          <t>https://coinranking.com/coin/AP-fyKlSf+okc-okt</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>169387697</t>
+          <t>9222388</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>0.00001964546817647</t>
+          <t>0.001206406578004972</t>
         </is>
       </c>
     </row>
@@ -7816,48 +7816,48 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>frw2fHgZ</t>
+          <t>cCx8KCiV3</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>TKX</t>
+          <t>AGIX</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Tokenize Xchange</t>
+          <t>SingularityNET</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>#ff8f40</t>
+          <t>#000000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/JYtWb5AXp/tokenize.svg</t>
+          <t>https://cdn.coinranking.com/UBRfNttvR/2424.png</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>488874699</t>
+          <t>459557958</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>6.111239304461204</t>
+          <t>0.4111318412956186</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>1596033180</v>
+        <v>1626924800</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-2.11</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>['6.103311184991491', '6.102833188786386', '6.100937403489592', '6.100904818773475', '6.100780388091641', '6.101450214628248', '6.105488951024861', '6.110899369041344', '6.108007823010484', '6.09641781938612', '6.0975781052752565', '6.102215503743979', '6.102093132829997', '6.101605642670315', '6.101984582332766', '6.103503882624996', '6.103020455998416', '6.101095575742918', '6.102728687063833', '6.109256585006719', '6.109977129375644', '6.112858237833644', None, None, None]</t>
+          <t>['0.4198540866324557', '0.41807714387494777', '0.4180224748886343', '0.41782615718112787', '0.41765474594020446', '0.4171289680289115', '0.41581900322774346', '0.41615987161479207', '0.4164523159115462', '0.41599876033169136', '0.4159474696392181', '0.41585382841569923', '0.41545350994117175', '0.41533489000917806', '0.4147981033741655', '0.41428022004517207', '0.41415029670277165', '0.41393197526245956', '0.41414806523163317', '0.41349489353273894', '0.41283115088962763', '0.412279361769319', '0.41092542211922345', '0.4106589276192358', '0.41101162992949364']</t>
         </is>
       </c>
       <c r="N97" t="b">
@@ -7873,17 +7873,17 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/frw2fHgZ+tokenizexchange-tkx</t>
+          <t>https://coinranking.com/coin/cCx8KCiV3+singularitynet-agix</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>10930208</t>
+          <t>143501202</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>0.000272560174236127</t>
+          <t>0.000018500950516019</t>
         </is>
       </c>
     </row>
@@ -7893,48 +7893,48 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>3jmxrjOJ8xa4p</t>
+          <t>YRTkUcMi</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ZIL</t>
+          <t>PAXG</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Zilliqa</t>
+          <t>PAX Gold</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>#49c1bf</t>
+          <t>#a18d10</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/H18JFWswf/zil.svg</t>
+          <t>https://cdn.coinranking.com/OvRFA-ieo/pax-gold.svg</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>482065783</t>
+          <t>456932884</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0.028563322976443466</t>
+          <t>1817.5374986765487</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1518566400</v>
+        <v>1570197780</v>
       </c>
       <c r="J98" t="n">
         <v>1</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L98" t="n">
@@ -7942,7 +7942,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>['0.02837581043664841', '0.02839360640262889', '0.0283919120388112', '0.02839719092190213', '0.028455436629930383', '0.028473778823707982', '0.028488076120444367', '0.028473134180392656', '0.028467414090517104', '0.02847340011296335', '0.028487287082136048', '0.028489769565445452', '0.028519590954380107', '0.02854190485062028', '0.028551361415205975', '0.028566053201854368', '0.028567526724215146', '0.02856948253801708', '0.028574475911580494', '0.02857894678725785', '0.028599020163034884', '0.02860511484101758', '0.028610048609183158', '0.028609080474074264', '0.0285970900977341']</t>
+          <t>['1815.653592322141', '1816.2539219259345', '1817.9401023651171', '1818.23080911389', '1818.2917185926938', '1817.5937623988855', '1818.5058566342545', '1821.0924243185818', '1819.9105724249728', '1818.2645872755495', '1819.0673214092737', '1820.7584952344332', '1821.3541221835562', '1818.6410619000317', '1818.3163888468937', '1819.143026607713', '1820.4937900186467', '1820.524981476712', '1820.1454844275243', '1819.9704397257415', '1820.5008376078147', '1821.150509260818', '1820.7186001572925', '1817.9001715296636', '1817.5237690338938']</t>
         </is>
       </c>
       <c r="N98" t="b">
@@ -7950,17 +7950,17 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/3jmxrjOJ8xa4p+zilliqa-zil</t>
+          <t>https://coinranking.com/coin/YRTkUcMi+paxgold-paxg</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>26333959</t>
+          <t>9222668</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>0.000001273919069335</t>
+          <t>0.08178926550192918</t>
         </is>
       </c>
     </row>
@@ -7970,48 +7970,48 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>YRTkUcMi</t>
+          <t>uT6akswu0</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>PAXG</t>
+          <t>NFT</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>PAX Gold</t>
+          <t>APENFT</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>#a18d10</t>
+          <t>#000000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/OvRFA-ieo/pax-gold.svg</t>
+          <t>https://cdn.coinranking.com/43Mb3MHYr/9816.png</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>464505772</t>
+          <t>449832321</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>1847.6601003892577</t>
+          <t>4.49836819278e-7</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1570197780</v>
+        <v>1626838226</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="L99" t="n">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>['1849.0255022788606', '1848.9748227531475', '1848.871168025563', '1848.782774365436', '1848.6618782337894', '1848.1764330250437', '1847.3125639320801', '1846.944581262294', '1847.1786567037914', '1847.6692384856162', '1847.7450521815629', '1847.19198806645', '1846.7140863315046', '1846.7819740235784', '1847.182624073064', '1847.6077709403864', '1847.7753466563618', '1847.81616167782', '1847.6597750578624', '1847.3463604712276', '1847.1128980821932', '1847.7314352995688', '1848.0498981210028', '1847.927182437469', '1847.734827170594']</t>
+          <t>['4.51116661798e-7', '4.51301878816e-7', '4.5163721974e-7', '4.51603885554e-7', '4.51594766218e-7', '4.5167499262e-7', '4.51890714747e-7', '4.52011778587e-7', '4.51735708943e-7', '4.51599004985e-7', '4.51860880806e-7', '4.52043322397e-7', '4.5188733307e-7', '4.51610815589e-7', '4.51024149186e-7', '4.50776121021e-7', '4.50442787638e-7', '4.50283254004e-7', '4.50276337042e-7', '4.50219828525e-7', '4.50134075918e-7', '4.50290648725e-7', '4.50249700501e-7', '4.50069054932e-7', '4.49778751498e-7']</t>
         </is>
       </c>
       <c r="N99" t="b">
@@ -8027,17 +8027,17 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/YRTkUcMi+paxgold-paxg</t>
+          <t>https://coinranking.com/coin/uT6akswu0+apenft-nft</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>15694775</t>
+          <t>10126426</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>0.08240530828560573</t>
+          <t>2.0242676e-11</t>
         </is>
       </c>
     </row>
@@ -8047,48 +8047,48 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ybmU-kKU</t>
+          <t>3jmxrjOJ8xa4p</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>RUNE</t>
+          <t>ZIL</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>THORChain</t>
+          <t>Zilliqa</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>#0EAAB7</t>
+          <t>#49c1bf</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/tU7Skyia9/ThorChain[1].svg</t>
+          <t>https://cdn.coinranking.com/H18JFWswf/zil.svg</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>452585284</t>
+          <t>447244063</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>1.5048295870155348</t>
+          <t>0.026500069252982213</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>1574782200</v>
+        <v>1518566400</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>['1.5014955787773014', '1.5008490007197228', '1.5001859483784579', '1.4999901293752518', '1.5009550016748754', '1.5016500061777094', '1.5021415420026571', '1.502393666419546', '1.5022661182025459', '1.5020480779743992', '1.5028306250217223', '1.5032437117632238', '1.5034577223088046', '1.5035243314286866', '1.503252770182407', '1.5041162063657736', '1.5043960544043942', '1.5048252414027383', '1.5050451026613152', '1.5052094298113294', '1.5050079656890807', '1.5049339854128754', '1.504896312508846', '1.5049649655782078', '1.504975887354752']</t>
+          <t>['0.026771933669241993', '0.026724098427680535', '0.02671947272217224', '0.0267199366864253', '0.02673658028365809', '0.026727982758442344', '0.026699509214572696', '0.02670902951198534', '0.0267189593174219', '0.026686652227645574', '0.026678880245652712', '0.026674506259240085', '0.026665364126902256', '0.026652414587385587', '0.026612903141346927', '0.026596619727549745', '0.026582047283943887', '0.02655390582529837', '0.026560152189696654', '0.026555565538123594', '0.02655560265518358', '0.02656358359796742', '0.026571770878575585', '0.02656535913483129', '0.02651889622674322']</t>
         </is>
       </c>
       <c r="N100" t="b">
@@ -8104,17 +8104,17 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/ybmU-kKU+thorchain-rune</t>
+          <t>https://coinranking.com/coin/3jmxrjOJ8xa4p+zilliqa-zil</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>29811833</t>
+          <t>37693146</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>0.000067115129026811</t>
+          <t>0.000001192504254537</t>
         </is>
       </c>
     </row>
@@ -8124,48 +8124,48 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>AWma-WzFHmKVQ</t>
+          <t>sQ77akpUH</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>FET</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Fetch.AI</t>
+          <t>Convex Finance</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>#054700</t>
+          <t>#b6c2be</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/8w7heKkw8/yrtftru.png</t>
+          <t>https://cdn.coinranking.com/9R7x95O1c/9903.png</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>452527947</t>
+          <t>445354130</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0.4297521259938768</t>
+          <t>5.919157355553506</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1553179080</v>
+        <v>1631676128</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="L101" t="n">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>['0.4280228294761471', '0.4275902909917183', '0.42744443114465075', '0.42731157809458487', '0.4288848076459906', '0.42968707045507476', '0.4308736520363709', '0.43059380481498416', '0.4303592234731158', '0.43075331454770277', '0.4315340535968694', '0.43160341465885516', '0.431575485718213', '0.4315052787375107', '0.43137180433642985', '0.4308928497180914', '0.4308827183108787', '0.4309045608453469', '0.43088511643607824', '0.43069789188458224', '0.42994575740414', '0.4297980634687352', '0.42974334144813103', '0.42976665655428614', '0.42983041828228086']</t>
+          <t>['5.978310995629611', '5.973868253273333', '5.969885206809377', '5.966185620533927', '5.960775595891386', '5.961940721237005', '5.964234201886289', '5.964613487911773', '5.96437915980776', '5.957270528705273', '5.954089076638027', '5.953737917909807', '5.953227898759316', '5.950220003091339', '5.9455772326881196', '5.945416522171233', '5.941188075489612', '5.936133496885398', '5.936520766854846', '5.939820131583237', '5.939955260685368', '5.933837425306471', '5.926331079542692', '5.923834241089399', '5.919816869213761']</t>
         </is>
       </c>
       <c r="N101" t="b">
@@ -8181,17 +8181,17 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/AWma-WzFHmKVQ+fetchai-fet</t>
+          <t>https://coinranking.com/coin/sQ77akpUH+convexfinance-cvx</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>109717493</t>
+          <t>7950363</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>0.000019166867553972</t>
+          <t>0.000266362335222013</t>
         </is>
       </c>
     </row>

--- a/coinranking.xlsx
+++ b/coinranking.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dataCoin" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="dataCoin" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,12 +546,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>427103192363</t>
+          <t>426625088961</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>22222.20101284169</t>
+          <t>22197.325268291588</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -562,7 +562,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -570,7 +570,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>['22315.62418195031', '22287.21783196293', '22296.205668189832', '22309.004938358572', '22300.22077546432', '22292.243637286403', '22261.279625126313', '22277.757261421266', '22300.697991046465', '22276.540082724783', '22260.823456063656', '22260.941977071565', '22261.97501723825', '22260.776408410493', '22252.942042658146', '22248.976693365454', '22246.951551406306', '22232.378775941706', '22232.35295599476', '22230.51985910556', '22229.36376062372', '22231.840805813823', '22248.54331762902', '22248.86035645631', '22232.537297276886']</t>
+          <t>['22224.838548098698', '22224.438313977033', '22217.16563429953', '22213.109210818817', '22207.828177841802', '22216.564792305137', '22229.843675770622', '22229.371712128934', '22227.50723325321', '22215.017939174388', '22215.555030727573', '22219.76786018762', '22221.325231712082', '22222.4748880759', '22235.43958401169', '22235.300495001615', '22226.60709754142', '22218.996038531026', '22216.862120022543', '22201.938778665808', '22201.435909038784', '22177.347100534345', '22161.745765354008', '22164.889153529293', '22197.23755429441']</t>
         </is>
       </c>
       <c r="N2" t="b">
@@ -583,7 +583,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>24089158820</t>
+          <t>21967834063</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -623,12 +623,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>189872203105</t>
+          <t>190952650993</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1556.0114092806311</t>
+          <t>1564.86572926421</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -639,7 +639,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -647,7 +647,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['1561.7430781532355', '1560.7853562244234', '1561.1775426965478', '1561.2187743867462', '1560.3898126027905', '1559.7332265916014', '1558.6163940767726', '1559.0436144927316', '1559.4762503866955', '1558.209481811433', '1557.8622519651874', '1558.0001908408535', '1558.1153684692713', '1557.782578844632', '1556.7894645298686', '1556.5234953021384', '1556.473949461695', '1556.2073739953219', '1556.351331277272', '1556.2242651420956', '1556.3025122361328', '1556.732899762222', '1557.5869483469992', '1557.617748569676', '1556.4978925861533']</t>
+          <t>['1566.063285566964', '1566.218191466971', '1565.9981852987182', '1565.8322735981417', '1565.9219312052298', '1566.1345674477386', '1566.7037151723387', '1566.6754132735784', '1566.4581080555674', '1565.609649533227', '1565.774762734704', '1566.0128888421225', '1566.2691068400652', '1566.4113752697235', '1567.4522162087226', '1567.4534310921042', '1567.059533252483', '1566.2459341227773', '1566.1036185191222', '1565.2206798946831', '1565.3012488718393', '1564.8232710447196', '1564.635380966277', '1564.3931152337555', '1564.8518535642183']</t>
         </is>
       </c>
       <c r="N3" t="b">
@@ -660,12 +660,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>6434452277</t>
+          <t>8763938748</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.07002058024681931</t>
+          <t>0.07049794109651525</t>
         </is>
       </c>
     </row>
@@ -700,12 +700,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>65508634785</t>
+          <t>65397325044</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.0022329833990826</t>
+          <t>1.0005300278389373</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -716,7 +716,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -724,7 +724,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['0.9999291963849143', '1.0009403474680845', '1.0005753318400068', '1.0000975319892558', '1.0004559482894018', '1.0006643640349193', '1.0016604001010199', '1.001074405007592', '1.0002224608375936', '1.0011140033922659', '1.001688858899707', '1.001627687162577', '1.0013858026943794', '1.0014457396533714', '1.0017260280828282', '1.001851055833669', '1.0018749277521706', '1.0022524334947056', '1.0022308745816126', '1.002192614135938', '1.0021511755237058', '1.0020769081966094', '1.0013054347431578', '1.0013102099503661', '1.0018756322741913']</t>
+          <t>['0.9990021755790395', '0.9991195064886353', '0.9994165192076172', '0.9995614238352352', '0.9997948829603557', '0.9994962654690421', '0.9990271559933054', '0.9991847873297791', '0.9992844634147022', '0.9998354539582941', '0.9998050943319013', '0.9996905694416307', '0.9996403161230133', '0.9996356068342548', '0.9991753560699048', '0.99919490240625', '0.9995745490040611', '0.999872414901495', '0.9999075048530167', '1.000509471766964', '1.0005032396163882', '1.0012755289708934', '1.0017868359127862', '1.0017352222724003', '1.0005145364711356']</t>
         </is>
       </c>
       <c r="N4" t="b">
@@ -737,12 +737,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>27390702262</t>
+          <t>28628276616</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.0000451005272979</t>
+          <t>0.000045074350884436</t>
         </is>
       </c>
     </row>
@@ -777,12 +777,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>43842138998</t>
+          <t>43823461547</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.00146565441411</t>
+          <t>1.0010390140532703</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -793,7 +793,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -801,7 +801,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['1.0001049241719024', '1.0001418363747538', '1.000423407798868', '1.000306662673402', '1.0002366494470334', '1.0005244167536649', '1.000668999032332', '1.0010133331046172', '1.0008015314293053', '1.0005764759817584', '1.0008379971743457', '1.0011014421780298', '1.0012817389668256', '1.0013553261412163', '1.0014100977901166', '1.0013991939099915', '1.0014700493479927', '1.0016244146747906', '1.001661038970564', '1.001753873867545', '1.001829396033476', '1.0017849612118328', '1.0017344891215547', '1.001545632446912', '1.0014793077451043']</t>
+          <t>['0.9991780825498294', '0.9991815951651613', '0.999300973029918', '0.9994871225912086', '0.9995582455422705', '0.9996612144866498', '0.9994542598675681', '0.9992464792766595', '0.9992964118926315', '0.9993945180322314', '0.99938762122048', '0.9995138498365174', '0.9995787072895843', '0.9996046227194544', '0.9996006293048887', '0.9995170663382865', '0.9995448541043758', '0.999874150979432', '0.9999322407015543', '0.9999705270040049', '1.0000459882510144', '1.000264491615976', '1.0004770282503372', '1.0010692839115078', '1.0011621627742815']</t>
         </is>
       </c>
       <c r="N5" t="b">
@@ -814,12 +814,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2257052897</t>
+          <t>2464106061</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.00004506599746062</t>
+          <t>0.000045097280954081</t>
         </is>
       </c>
     </row>
@@ -854,12 +854,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>41223054729</t>
+          <t>41348935975</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>288.6456163019482</t>
+          <t>289.52704224330836</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -870,7 +870,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -878,7 +878,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['290.23983073700975', '289.95112531884536', '289.82306768120645', '289.8839561400366', '289.90443509039494', '289.81050861768347', '289.5973102976814', '289.78128196828055', '289.75738742203214', '289.4100212656008', '289.24132229902256', '289.25283042184634', '289.2057058914108', '289.0586838180115', '288.79524768890224', '288.6804830442536', '288.6767979725046', '288.62496200310244', '288.57042040524095', '288.5823783812529', '288.60063905731073', '288.59972481338394', '288.7276065601649', '288.80388263365563', '288.70015848763944']</t>
+          <t>['289.2384457785952', '289.2780038918854', '289.1102084991521', '288.96687645648797', '288.9664076612766', '289.09919383252736', '289.230599323545', '289.215296230976', '289.1965605459705', '289.025469984037', '289.0590432668165', '289.1256241135094', '289.197255395904', '289.3455287501422', '289.71482759189456', '289.6959337569479', '289.58447479464354', '289.538812573969', '289.5567220162664', '289.3612511609038', '289.26802946426875', '289.20832999412136', '289.27806272185325', '289.43539274205904', '289.5097196714646']</t>
         </is>
       </c>
       <c r="N6" t="b">
@@ -891,12 +891,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>465315379</t>
+          <t>399285499</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.0129890651306388</t>
+          <t>0.013043330164508227</t>
         </is>
       </c>
     </row>
@@ -931,12 +931,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19097906416</t>
+          <t>19014530190</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.3796895926161045</t>
+          <t>0.3780319719058402</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -947,7 +947,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -955,7 +955,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['0.37767798618861936', '0.37732094101152197', '0.3772762002393756', '0.3773129896569922', '0.3778438618909671', '0.37794044900428947', '0.3782725609762112', '0.3790107935091434', '0.379593626410405', '0.37949079010734593', '0.3796917821066969', '0.37982300859897483', '0.3803370459666009', '0.380166428341465', '0.3797593441123969', '0.37970224967422134', '0.3796149681556501', '0.3793322762511643', '0.37938318515952535', '0.37938762119817065', '0.3795362310914956', '0.3798417762138244', '0.3803256796565138', '0.3803762092197064', '0.3798742930303782']</t>
+          <t>['0.3812719813966326', '0.38109897554739947', '0.38088730205633115', '0.3804501926220468', '0.37970076304656003', '0.37960710894169497', '0.37958332681810336', '0.3793785183174053', '0.37910577539603574', '0.37887675218159417', '0.3788493779926849', '0.3785597056542099', '0.3784989399217065', '0.3788581344237826', '0.3795770125209949', '0.3795335870827785', '0.37917938617677555', '0.3789216239650716', '0.3788507685493214', '0.37875342608588713', '0.3787485028567749', '0.3785973023493196', '0.37858358603003', '0.3785704331755208', '0.37815792537312237']</t>
         </is>
       </c>
       <c r="N7" t="b">
@@ -968,12 +968,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1441890166</t>
+          <t>1461965442</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.000017086047975027</t>
+          <t>0.000017030519097986</t>
         </is>
       </c>
     </row>
@@ -1008,12 +1008,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>11515555836</t>
+          <t>11559340233</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.32859320848965057</t>
+          <t>0.3298425841697747</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['0.32979027953899553', '0.32971370621816687', '0.3295846309891902', '0.3295563130636184', '0.32944977845617324', '0.32928157378412676', '0.3289412440387933', '0.3290248936453677', '0.32915182190744774', '0.32896297880116826', '0.32884426619959234', '0.3288056292890431', '0.32852894999418314', '0.32843454174710446', '0.3282064439079243', '0.3281314197736891', '0.32798530856113584', '0.3278071036056841', '0.32789111538597965', '0.32788834792796234', '0.32795912426565893', '0.3281371583274404', '0.3285895015203661', '0.3286384073063216', '0.3285966048314343']</t>
+          <t>['0.3316740622745289', '0.3317847967080566', '0.3314257848848902', '0.33115774394712677', '0.330944582492811', '0.33088606748142274', '0.33093556855387635', '0.33085404993066714', '0.3306934605461599', '0.3304690748296475', '0.330460808812437', '0.33043767030610005', '0.3305342466891788', '0.3307771599486439', '0.33126330938991166', '0.3312388056322711', '0.3311281380282056', '0.33093926980183735', '0.33091963079226866', '0.3306510550551967', '0.33052447520748396', '0.33009192735516996', '0.32989997533964205', '0.32981334473876966', '0.3298524691402178']</t>
         </is>
       </c>
       <c r="N8" t="b">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>282117923</t>
+          <t>419192963</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.000014786708494796</t>
+          <t>0.000014859564392695</t>
         </is>
       </c>
     </row>
@@ -1085,12 +1085,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10976579856</t>
+          <t>10938779548</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>44.50464449117907</t>
+          <t>44.3513827958663</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-0.54</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['44.86575952720381', '44.85353672155584', '44.68474108366889', '44.746191411983695', '44.87097668221974', '44.892416843314834', '44.91202824996968', '44.914008380394804', '44.87700975963352', '44.824987438751286', '44.8543832236491', '44.829923635991534', '44.7516989800904', '44.72678310083187', '44.72132987313776', '44.66683477017249', '44.642376295227045', '44.60675678498535', '44.62819988658038', '44.593119126927796', '44.53298856671417', '44.53144563639302', '44.59775283324612', '44.51986505965364', '44.50569385953772']</t>
+          <t>['44.64287724389224', '44.61534224027772', '44.62562850752534', '44.63167637747686', '44.57765429193829', '44.50006311575078', '44.39721883984817', '44.36070970549361', '44.36293407181834', '44.30071044629531', '44.33659515561061', '44.32664805689852', '44.27229751515064', '44.32474397428751', '44.39709253054933', '44.36331154827627', '44.367951328946276', '44.30130024906748', '44.31495431359797', '44.310259349712716', '44.31574714910453', '44.25591112115152', '44.28365375714392', '44.358699035830966', '44.344321536196624']</t>
         </is>
       </c>
       <c r="N9" t="b">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>50376801</t>
+          <t>76297718</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0.002002710913534662</t>
+          <t>0.00199805076782027</t>
         </is>
       </c>
     </row>
@@ -1162,12 +1162,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10277194958</t>
+          <t>10365736494</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1.136566276649821</t>
+          <t>1.1463581823238451</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>-1.05</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['1.1478022382990065', '1.1458984099287317', '1.1464155077215474', '1.147320404093183', '1.1480944948650473', '1.146934536199607', '1.1429998348354462', '1.1429541069765037', '1.1433139985641418', '1.1420317971405711', '1.1412248985889781', '1.1406118765044295', '1.13962428562953', '1.139267512218751', '1.1383018758124688', '1.138044787917084', '1.138097897038726', '1.1376897917707003', '1.137611530616336', '1.1363068753639063', '1.1357393793588288', '1.1361870749408776', '1.1365078200320013', '1.1371395799199673', '1.136823099115765']</t>
+          <t>['1.15048420313512', '1.1511459414784944', '1.1498413619409986', '1.1486530383622944', '1.1466203265018189', '1.147768658438027', '1.148892351945573', '1.148628149203989', '1.1483442642287285', '1.1474239038742375', '1.147597615778244', '1.1474739950458461', '1.1479684047720542', '1.148614939776861', '1.1505342287868647', '1.1506143659229613', '1.1498414200315188', '1.1488401490726918', '1.1486783478235911', '1.1473236714134003', '1.1475081677030436', '1.146471833674743', '1.1460492254376977', '1.1464543396655344', '1.1463073584853511']</t>
         </is>
       </c>
       <c r="N10" t="b">
@@ -1199,12 +1199,12 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>411151860</t>
+          <t>470266428</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.000051145531263669</t>
+          <t>0.000051643978203148</t>
         </is>
       </c>
     </row>
@@ -1239,12 +1239,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10082006949</t>
+          <t>10110763822</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.07367855153486451</t>
+          <t>0.07388870461226817</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['0.0740745192871574', '0.07398508842240849', '0.073990570833497', '0.07400117147305109', '0.07400485377395093', '0.07398312712772424', '0.07388838644233674', '0.07393064100069603', '0.07398902434571174', '0.07395122066168726', '0.07392038185247685', '0.07392282129256966', '0.07390550246327383', '0.07386719666670137', '0.07378557687456509', '0.07374054470672434', '0.07372704274745309', '0.0736817412167652', '0.0736859454996975', '0.07367984551622515', '0.07368029174454277', '0.07368986585347032', '0.07370672910167432', '0.07370538930619626', '0.07367603189295291']</t>
+          <t>['0.07408063762495631', '0.07408540175836445', '0.07407225508820262', '0.07403867269509747', '0.07399171096576383', '0.07401323987031863', '0.07407251339676084', '0.07414295610116613', '0.0741310358171917', '0.07400964832784579', '0.0740068895216452', '0.0739839047025571', '0.07400107047809538', '0.07404058454464285', '0.0741529237242782', '0.07414756631377328', '0.07407768861926475', '0.07399518528189847', '0.0740020210417746', '0.07395801160865882', '0.07396930839807779', '0.07390782487538063', '0.07386811598045916', '0.07387260656385758', '0.07389612203135347']</t>
         </is>
       </c>
       <c r="N11" t="b">
@@ -1276,12 +1276,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>290593141</t>
+          <t>343787890</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.000003315537983492</t>
+          <t>0.000003328721083248</t>
         </is>
       </c>
     </row>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>8459710791</t>
+          <t>8416693401</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.0024645848088867</t>
+          <t>1.0008309683252283</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['0.9999423204306314', '1.0012186444348252', '1.000898746078487', '1.0003298645861571', '1.0005189429810035', '1.0006749702246847', '1.0020132776853123', '1.0014412136898887', '1.000477026620767', '1.0012300875233207', '1.0018843765972862', '1.0018789263890746', '1.0017587445864695', '1.001758118974478', '1.002001366009965', '1.0021905630248216', '1.0022101073310838', '1.0026235720103565', '1.002621025389689', '1.0025660901331832', '1.002538121491597', '1.0024586944985674', '1.001675458006104', '1.0016285324642324', '1.0020913083298517']</t>
+          <t>['0.9990490681850308', '0.9990666089785023', '0.9994485668792489', '0.9996678817141477', '0.9999977268826777', '0.9996536894818792', '0.9990417285420227', '0.9991994361822871', '0.9993440125405347', '1.000087050418947', '1.0000843849232581', '1.0000416169361956', '0.9999479578583077', '0.9999561397669886', '0.9991781761710248', '0.9991801167041027', '0.9995935996265194', '0.9999677930455663', '0.9999771051771548', '1.0006712227193129', '1.0007007935426346', '1.0015456603918682', '1.0022882232374264', '1.002167744591164', '1.0008268421348725']</t>
         </is>
       </c>
       <c r="N12" t="b">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>5086414918</t>
+          <t>5789427010</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0.000045110949371288</t>
+          <t>0.000045087908395652</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>7339440496</t>
+          <t>7322766721</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>20.21008211970708</t>
+          <t>20.164168762783707</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>-1.15</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['20.42952285386504', '20.39158430952778', '20.373484870387234', '20.368142317782223', '20.378338314769923', '20.357003303693855', '20.310509363435354', '20.344601202914344', '20.360976390558864', '20.34267982708249', '20.334998430123953', '20.332673482741498', '20.321635825074704', '20.31014175589706', '20.281193875787913', '20.245311599120395', '20.227018662608128', '20.198792608403224', '20.19835607466598', '20.184306396345296', '20.20411016373674', '20.22389037036546', '20.246704761890797', '20.247958659187404', '20.222492085316933']</t>
+          <t>['20.278620776561034', '20.287949227074638', '20.26221640849151', '20.238927787842176', '20.191361927753114', '20.19491838912202', '20.235748669129777', '20.2565280385437', '20.223697015474368', '20.202858344038667', '20.20412447929258', '20.19393400141615', '20.19431026092704', '20.203555593239354', '20.24037437779587', '20.244708354615568', '20.229168995254483', '20.23229913001524', '20.233016376463794', '20.20215736604187', '20.177981040061375', '20.151532123623884', '20.161351667795337', '20.16965780128396', '20.165493322354564']</t>
         </is>
       </c>
       <c r="N13" t="b">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>354073571</t>
+          <t>364320895</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0.000909454563390375</t>
+          <t>0.000908405337988528</t>
         </is>
       </c>
     </row>
@@ -1470,12 +1470,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>7040188364</t>
+          <t>7049282906</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>5.849749335507862</t>
+          <t>5.857162381621173</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['5.897868978245005', '5.888456291206291', '5.8869043430515955', '5.886613429607759', '5.887891896577299', '5.884364210451656', '5.876035249804688', '5.878003933658524', '5.880592259789203', '5.8761939292564405', '5.874377857635684', '5.870776263250448', '5.863895173341866', '5.862556778039942', '5.8595185986276235', '5.859023686031813', '5.8564653934227495', '5.8515457397581985', '5.852563200863361', '5.851814269286974', '5.852586957411321', '5.855243220588189', '5.8571128321775205', '5.857749325974638', '5.851420265579653']</t>
+          <t>['5.888087097285582', '5.894493671499932', '5.886453871868489', '5.883582987709685', '5.881724569520213', '5.885794296433103', '5.891675863177455', '5.891948074496763', '5.888032760308022', '5.880582631312213', '5.8816579272000595', '5.878252972461371', '5.878094364957394', '5.8813244341962685', '5.89095231886599', '5.890706570140499', '5.883874604799476', '5.878232726001868', '5.876505147328509', '5.8706727284132985', '5.8697692270150545', '5.862245220203833', '5.859340566392664', '5.859076962154716', '5.857540849650831']</t>
         </is>
       </c>
       <c r="N14" t="b">
@@ -1507,12 +1507,12 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>256237571</t>
+          <t>288767029</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0.000263238971338952</t>
+          <t>0.000263867935024947</t>
         </is>
       </c>
     </row>
@@ -1522,48 +1522,48 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mtfb0obXVh59u</t>
+          <t>VLqpJwogdhHNb</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>WETH</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Wrapped Ether</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>#303030</t>
+          <t>#4680b0</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/KIviQyZlt/weth.svg</t>
+          <t>https://cdn.coinranking.com/9NOP9tOem/chainlink.svg</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>6754226244</t>
+          <t>6897796084</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1583.185889673136</t>
+          <t>6.898420563950718</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1600259445</v>
+        <v>1505952000</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['1568.6913134372826', '1572.051313930002', '1567.6781328412767', '1570.987968333269', '1566.0104639802778', '1564.378758690285', '1585.622192847607', '1592.175198366514', '1558.718797740477', '1554.558458906638', '1592.0962870100232', '1597.6798113703014', '1548.1392919113828', '1541.3762438988695', '1583.3244853657034', '1587.399160551702', '1559.6303369079835', '1559.9669930848459', '1596.3342917150492', '1602.4008484772185', '1548.175524805182', '1543.5796199452384', '1579.0474435072663', None, None]</t>
+          <t>['6.903672383913143', '6.9046219698921165', '6.89990375483609', '6.89466950258562', '6.88812096589538', '6.889720279124655', '6.893236435956442', '6.892746225205815', '6.889637912736333', '6.8829657911840165', '6.884050676148941', '6.8844083525053446', '6.8866197671133715', '6.891992753524531', '6.908094741200057', '6.909299128075986', '6.905275081573873', '6.900229803945744', '6.901924090323605', '6.897916982618942', '6.898780771995836', '6.895061871200739', '6.893950025297884', '6.894795893468703', '6.898530670766727']</t>
         </is>
       </c>
       <c r="N15" t="b">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/Mtfb0obXVh59u+wrappedether-weth</t>
+          <t>https://coinranking.com/coin/VLqpJwogdhHNb+chainlink-link</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>197488664</t>
+          <t>289222257</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>0.07115692798604577</t>
+          <t>0.0003107771085287</t>
         </is>
       </c>
     </row>
@@ -1599,48 +1599,48 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VLqpJwogdhHNb</t>
+          <t>Mtfb0obXVh59u</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LINK</t>
+          <t>WETH</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Chainlink</t>
+          <t>Wrapped Ether</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>#4680b0</t>
+          <t>#303030</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/9NOP9tOem/chainlink.svg</t>
+          <t>https://cdn.coinranking.com/KIviQyZlt/weth.svg</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>6748642337</t>
+          <t>6610000893</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>6.749253312827013</t>
+          <t>1552.4939387397535</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1505952000</v>
+        <v>1600259445</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['6.7855917344422405', '6.778835670511425', '6.779931166521806', '6.779632748920346', '6.778761911537127', '6.778403851824908', '6.77667040918821', '6.778945126600763', '6.780941853095254', '6.776497183256654', '6.77444519748172', '6.774716311597166', '6.772991068537457', '6.76996360087032', '6.765618207216116', '6.7635977796795705', '6.761974374569949', '6.757324893265247', '6.757603792099406', '6.7555492550452465', '6.755859609879379', '6.755845145767494', '6.756781834049772', '6.75633207324515', '6.751286890685959']</t>
+          <t>['1547.7326665622538', '1561.450607525758', '1563.2792334325256', '1547.5400789807177', '1543.6274547766357', '1558.3703529332333', '1559.3112367864342', '1553.4455054000427', '1552.5291728136147', '1556.4114372318807', '1555.215972643714', '1555.2526935465262', '1555.1726522046763', '1556.0592681479698', '1555.2181336695985', '1547.8961489146789', '1544.840513314892', '1562.3172298871004', '1564.5128997466838', '1529.5949423244153', '1519.724150388292', '1547.249947544661', '1552.2095067966136', None, None]</t>
         </is>
       </c>
       <c r="N16" t="b">
@@ -1656,17 +1656,17 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/VLqpJwogdhHNb+chainlink-link</t>
+          <t>https://coinranking.com/coin/Mtfb0obXVh59u+wrappedether-weth</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>425837168</t>
+          <t>1661379532</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0.000303716688951143</t>
+          <t>0.06994058608302048</t>
         </is>
       </c>
     </row>
@@ -1701,12 +1701,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6322951920</t>
+          <t>6450315757</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.00001072491862995</t>
+          <t>0.00001094095349013</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['0.000010822613703973', '0.000010810783741346', '0.000010815850924351', '0.000010816342141277', '0.000010814695404056', '0.000010808142077791', '0.000010793780970763', '0.000010805122262943', '0.000010811323349973', '0.000010792453271266', '0.000010787438885977', '0.000010790102020495', '0.000010783952235575', '0.000010775207567335', '0.000010766194231922', '0.000010766547590097', '0.000010766409850111', '0.000010754135413058', '0.000010751868550384', '0.000010745765039667', '0.000010747598609104', '0.000010748695257357', '0.000010748280297412', '0.000010743549400462', '0.000010731081127229']</t>
+          <t>['0.00001099747220024', '0.000010996221346182', '0.000010983318724851', '0.000010974751825326', '0.000010959373612499', '0.000010962899696824', '0.00001097371052599', '0.000010985589159603', '0.000010987565837016', '0.000010984602966011', '0.000010986629598728', '0.000010985703335464', '0.000010986604197542', '0.000010991027497787', '0.000011003399290533', '0.000011003554002767', '0.000010991513296212', '0.00001098368566558', '0.000010980542869197', '0.000010975201133158', '0.000010974494011106', '0.00001095782176074', '0.000010948121599428', '0.00001094607277048', '0.000010938947778848']</t>
         </is>
       </c>
       <c r="N17" t="b">
@@ -1738,12 +1738,12 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>192609902</t>
+          <t>234789552</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>4.82621799e-10</t>
+          <t>4.92895128e-10</t>
         </is>
       </c>
     </row>
@@ -1778,12 +1778,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>6132181514</t>
+          <t>6112223593</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.06654676870631128</t>
+          <t>0.06633018425138076</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['0.06663997286935203', '0.06667416865341898', '0.06663402038564119', '0.06659825366103506', '0.06660121881346574', '0.06662684306138816', '0.06668300052685937', '0.06664734032328327', '0.06659984346107305', '0.06664092837837025', '0.06666864149181059', '0.06668062986096948', '0.06667572153760404', '0.0666586068004212', '0.06661321578513191', '0.06661515527538725', '0.0665845755001149', '0.06651673184360832', '0.0665230928520338', '0.06651973907980131', '0.06651223433723398', '0.06650465193666982', '0.06649389513414553', '0.06649534109652956', '0.06653172605872688']</t>
+          <t>['0.06639519875487611', '0.06638585289802619', '0.06638034127395498', '0.06636780366642894', '0.06635281597881806', '0.0663668159879924', '0.06636468690968488', '0.06636937913968906', '0.06636669437370384', '0.06635633700730836', '0.06636151309722509', '0.066364347278538', '0.06636387747265732', '0.06636628471909546', '0.06637549660939585', '0.06637284211412414', '0.06634241316551673', '0.06631727923573698', '0.06630947646395097', '0.06628848281713723', '0.06627955728464897', '0.0663538499744516', '0.0664480410671722', '0.06643154115542867', '0.0663526719079537']</t>
         </is>
       </c>
       <c r="N18" t="b">
@@ -1815,12 +1815,12 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>275814445</t>
+          <t>278634337</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>0.000002994607449904</t>
+          <t>0.000002988206166719</t>
         </is>
       </c>
     </row>
@@ -1855,12 +1855,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6125500106</t>
+          <t>6079769533</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>86.43862925993534</t>
+          <t>85.79331248115047</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['86.6562246367794', '86.56772683702026', '86.53116825315617', '86.54501679895363', '86.60561950068653', '86.59406415930489', '86.50026371387942', '86.53806786683008', '86.58405839108354', '86.54987662135697', '86.54571819665729', '86.54842354839164', '86.52497946825338', '86.48896765046915', '86.43117747487493', '86.40302965161001', '86.3881792975285', '86.32907038243762', '86.35520605955207', '86.40284027486243', '86.45201498567162', '86.49394134888088', '86.51112263666505', '86.50719565712639', '86.45216457507273']</t>
+          <t>['86.03224023872171', '86.02302303069177', '85.97944296299538', '85.91065502385685', '85.9023892150185', '85.93509767681076', '85.9841666856159', '85.99018755822559', '85.94845335042031', '85.87608605329685', '85.88449056923002', '85.87860890091945', '85.89284551791586', '85.9275817429402', '85.97432846643459', '85.97897884367174', '85.93785201494649', '85.8790621098788', '85.88961599820736', '85.86733616661367', '85.88207242897302', '85.84976562875895', '85.8353011362779', '85.83080078583349', '85.80023922957183']</t>
         </is>
       </c>
       <c r="N19" t="b">
@@ -1892,12 +1892,12 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>612583402</t>
+          <t>511301146</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>0.003889742029152939</t>
+          <t>0.003865029297187639</t>
         </is>
       </c>
     </row>
@@ -1932,12 +1932,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>5151302813</t>
+          <t>5179390939</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>6.412742196029805</t>
+          <t>6.447708478611702</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['6.442545236182374', '6.442751856742108', '6.442140366384216', '6.440502179920726', '6.441369455554147', '6.439597507139451', '6.437470478124152', '6.440567723081694', '6.444226597808923', '6.443958308760027', '6.445690916331628', '6.448055312839725', '6.447042936235552', '6.443783734961989', '6.438983785193565', '6.438656032308342', '6.436725676466569', '6.430900721501816', '6.431137176555635', '6.428855476847736', '6.425761597618634', '6.424046354363653', '6.4211554600122325', '6.4193910472793405', '6.41459323176684']</t>
+          <t>['6.464312657847817', '6.472172793130317', '6.473896134927094', '6.477191432575242', '6.477649245648218', '6.478022140062256', '6.4770932628199605', '6.47256167935159', '6.466712626309992', '6.457062353063124', '6.456461510082286', '6.453975463769113', '6.454661696266999', '6.454026504949593', '6.457548279319784', '6.457684637948526', '6.454338009718696', '6.450039649938858', '6.4491410765720625', '6.443243572185169', '6.443542500721674', '6.447660807995078', '6.45087054112057', '6.44915286062108', '6.446814241063513']</t>
         </is>
       </c>
       <c r="N20" t="b">
@@ -1969,12 +1969,12 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>96156849</t>
+          <t>104392410</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>0.00028857367424244</t>
+          <t>0.000290472315951603</t>
         </is>
       </c>
     </row>
@@ -2009,12 +2009,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>5136240947</t>
+          <t>5123923839</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1.001907133633223</t>
+          <t>0.9994645340159237</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['0.9995874948253354', '0.9997845597074082', '0.9999750899293378', '1.0000565586687078', '1.0003751809153454', '1.0002161863993957', '1.000377681105456', '1.000935176781451', '1.0007558852364136', '1.0008446195468792', '1.0011812266963354', '1.0013081097130287', '1.001292967858154', '1.0030045991990635', '1.0032710069690158', '1.0023050265414426', '1.0010304196346067', '1.0010759342065354', '1.0028624980394611', '1.0029944229717853', '1.0024371272951713', '1.0020724727474137', '1.0021033051120085', '1.001827780112495', '1.0019092068854343']</t>
+          <t>['0.9987519302219522', '0.998708925518302', '0.998634229941231', '0.9988231769964974', '0.9988523198308086', '0.9988811219831469', '0.9988554323429569', '0.9989280669145059', '0.9988470308551812', '0.9987802936248088', '0.9988238884061208', '0.998792051306012', '0.9987853016265845', '0.9988715300717076', '0.9988963586621649', '0.9988838190200404', '0.998934777382498', '0.9989865318802451', '0.9988948280650544', '0.99892588344503', '0.9991023247815504', '0.9991052580204572', '0.9990994264414652', '0.9992708725585979', '0.9993776562011314']</t>
         </is>
       </c>
       <c r="N21" t="b">
@@ -2046,12 +2046,12 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>56289048</t>
+          <t>146078896</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>0.000045085864044441</t>
+          <t>0.000045026349883859</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2086,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>4863409148</t>
+          <t>4861480677</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>16.172493063628036</t>
+          <t>16.1660802404621</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['16.274877903466248', '16.235798120509692', '16.23311395576692', '16.23981160259211', '16.25893960243918', '16.25892569703302', '16.223950147257224', '16.235644107890923', '16.250141793348273', '16.24842461671577', '16.243856375569276', '16.24049507522584', '16.2300332726069', '16.222347059208936', '16.209611907480102', '16.20517799642503', '16.203113781859162', '16.191972109220877', '16.19217980296612', '16.18772770810747', '16.18548248735692', '16.187921382036453', '16.197486619914592', '16.197043880055524', '16.181820196308376']</t>
+          <t>['16.206922887931356', '16.213742414718578', '16.19945504349548', '16.185477153955404', '16.17473317068138', '16.186471639577608', '16.207451448693128', '16.2172049451507', '16.215156603104987', '16.195714166252596', '16.19737351176959', '16.199061796922912', '16.19914410177681', '16.21026043466379', '16.244709376735624', '16.24651699881705', '16.22957034349091', '16.211380519440365', '16.20596327757092', '16.188945701237362', '16.19248776632774', '16.17642035042449', '16.164728628905753', '16.161406063023513', '16.164537723952222']</t>
         </is>
       </c>
       <c r="N22" t="b">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>185386131</t>
+          <t>169650584</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>0.000727762882456258</t>
+          <t>0.000728289559443227</t>
         </is>
       </c>
     </row>
@@ -2163,12 +2163,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3854566411</t>
+          <t>3868945799</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>11.712535514612972</t>
+          <t>11.75622891054107</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>-0.54</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['11.76827168931907', '11.755622367326843', '11.755693560258473', '11.759795101300767', '11.770587683380828', '11.768346247458728', '11.759794861866396', '11.768753020948262', '11.779219912257762', '11.773352600379924', '11.769513907759062', '11.768980152057296', '11.763278913222512', '11.758220401133908', '11.73816874889397', '11.732774082114858', '11.726744869807318', '11.71753327108905', '11.717079741116535', '11.71312007132585', '11.713373668728964', '11.719152255141902', '11.725521179878433', '11.727656350941219', '11.717978558211726']</t>
+          <t>['11.767105046991565', '11.773849785239213', '11.768576919032556', '11.761317395106255', '11.749596828305338', '11.761587130071831', '11.777432309221329', '11.783029614362059', '11.781777391464423', '11.775097649690986', '11.776184071041614', '11.773105212992196', '11.775634596304059', '11.785031267336528', '11.806695287427264', '11.807044096020082', '11.796677671268444', '11.785886974469443', '11.782660973397636', '11.772688742410535', '11.77401219697414', '11.767804475540634', '11.765396882204351', '11.764187661008656', '11.75538059878237']</t>
         </is>
       </c>
       <c r="N23" t="b">
@@ -2200,12 +2200,12 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>125857268</t>
+          <t>127461821</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>0.0005270646011997</t>
+          <t>0.00052962367170132</t>
         </is>
       </c>
     </row>
@@ -2240,12 +2240,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3540325490</t>
+          <t>3537094249</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>22211.23750252881</t>
+          <t>22190.965397168264</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['22313.368765197698', '22285.525630245123', '22288.641097297714', '22297.360823283572', '22292.920652455257', '22281.415267144006', '22249.73136975549', '22262.77086935084', '22283.73451124872', '22268.761373001857', '22253.995993254885', '22257.052013800007', '22257.824425165298', '22255.801923327377', '22251.94153624589', '22248.594425036168', '22242.193870866027', '22225.344413364368', '22223.544586675704', '22228.573969139376', '22214.957392658867', '22228.95975404014', '22245.667310842557', '22240.085850096522', '22222.517290857006']</t>
+          <t>['22216.017955857056', '22217.011373314846', '22219.302203193885', '22217.656922186514', '22207.590149359563', '22216.294959305356', '22226.679927899848', '22234.417433238177', '22229.663085366472', '22208.534420113367', '22221.508328426466', '22225.370498033848', '22220.270246647342', '22213.233241773363', '22232.67982911028', '22233.494643832735', '22232.89791397066', '22220.91104727624', '22219.76929527806', '22195.734989293185', '22195.75880707352', '22175.056697620395', '22161.754416613556', '22171.19844663235', '22190.96988378529']</t>
         </is>
       </c>
       <c r="N24" t="b">
@@ -2277,12 +2277,12 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>172812118</t>
+          <t>95526055</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>0.9995066415650482</t>
+          <t>0.9997134847984406</t>
         </is>
       </c>
     </row>
@@ -2317,12 +2317,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3361660107</t>
+          <t>3349120339</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2.2812701559450383</t>
+          <t>2.2727604914692647</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['2.2980183037638007', '2.297459527358684', '2.2989109371709393', '2.298359922299127', '2.2975743755214317', '2.2965860212765863', '2.296821936443003', '2.298265154708548', '2.2969517254075686', '2.2943653431701803', '2.295662890151253', '2.2986400186214757', '2.2991691945687487', '2.298303250521605', '2.294511588156723', '2.293746007019259', '2.2928488249145937', '2.290587116249713', '2.2903551834486464', '2.2870959907952004', '2.2862532668287097', '2.2846587183945832', '2.2833609808697', '2.2821218356408397', '2.280747748334521']</t>
+          <t>['2.293034647310498', '2.2927686294475893', '2.2879261882606223', '2.2849993351865514', '2.2838457162141252', '2.283870789879451', '2.2837198369236367', '2.2848136441137625', '2.283528342446821', '2.2806223196358357', '2.280211596424745', '2.277288326996138', '2.277196421990582', '2.2767495825789896', '2.2784010117025084', '2.2795637374235', '2.282347216383363', '2.279579731839338', '2.276353381788752', '2.2748777235158553', '2.2743306690417806', '2.2719052197950753', '2.272701231275756', '2.2735820846898704', '2.273449854927235']</t>
         </is>
       </c>
       <c r="N25" t="b">
@@ -2354,12 +2354,12 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>61644103</t>
+          <t>36433075</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>0.000102657254995882</t>
+          <t>0.000102388934882882</t>
         </is>
       </c>
     </row>
@@ -2394,12 +2394,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2994130880</t>
+          <t>2976829043</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2.559408376897407</t>
+          <t>2.544618620311275</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>-1.80</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['2.603419830036224', '2.5966970436947863', '2.598410992718909', '2.600040864394746', '2.594978146899309', '2.5882476581134073', '2.5809635425150126', '2.5812395569426725', '2.580734600176444', '2.575453902489992', '2.5743880430483332', '2.5744399859701654', '2.5747678349710523', '2.573229637522297', '2.570756863257138', '2.5710024127586184', '2.5693093319044458', '2.5665395042285293', '2.5672855649616433', '2.5668171155502812', '2.5664248698840235', '2.566366087512189', '2.5657557796137604', '2.5648470645804884', '2.5605840221788236']</t>
+          <t>['2.5426016594999243', '2.5446667365141393', '2.537154740052356', '2.534371905132237', '2.531793612129431', '2.5324095981835457', '2.535307982599381', '2.5408336023581017', '2.539695175923868', '2.535522352942328', '2.5365069997875165', '2.5359849074487935', '2.536344646388076', '2.54066112462048', '2.54711501648366', '2.5479402512470943', '2.547703211089867', '2.5452601998941518', '2.5452543190573347', '2.5419263708498145', '2.5429438662474606', '2.542281291549056', '2.5423041808300715', '2.5425626323772383', '2.544223402575046']</t>
         </is>
       </c>
       <c r="N26" t="b">
@@ -2431,12 +2431,12 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>207072138</t>
+          <t>191822631</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>0.000115173486884507</t>
+          <t>0.000114636272143392</t>
         </is>
       </c>
     </row>
@@ -2471,12 +2471,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2746464676</t>
+          <t>2735911845</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>150.84825560195162</t>
+          <t>150.26864641249477</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['151.2130917517275', '151.24230893217523', '151.25654041961994', '151.24080483074073', '151.10696792134826', '151.0886315204489', '151.10590593196545', '151.16152091255242', '151.194026275899', '151.06044572007875', '150.99353172519554', '150.9331177859309', '150.84211824320943', '150.8117770111165', '150.71188693138336', '150.68157732645', '150.62139532331415', '150.5273818372699', '150.54240072788255', '150.55120644179257', '150.57448152760927', '150.616385401712', '150.71165874605626', '150.74038601540383', '150.83028961686585']</t>
+          <t>['149.84561909132523', '149.977742830545', '149.9720181636447', '149.9364599481201', '149.8957797431735', '149.93375591877435', '150.03575340627845', '150.21415015212634', '150.25767806753933', '150.27101083032647', '150.30366957905383', '150.39136499078458', '150.42383518356672', '150.45229782799092', '150.5602993558749', '150.54744632195732', '150.37433848332452', '150.25039460873663', '150.1432704292734', '150.00637485606697', '150.01589545672925', '149.92006784796712', '149.9404185171293', '150.05364349753208', '150.26050929773052']</t>
         </is>
       </c>
       <c r="N27" t="b">
@@ -2508,12 +2508,12 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>108847652</t>
+          <t>102930855</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>0.006788177980875069</t>
+          <t>0.006769673579868218</t>
         </is>
       </c>
     </row>
@@ -2548,12 +2548,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2666175155</t>
+          <t>2649171979</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>19.294014101849463</t>
+          <t>19.17096910482505</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['19.368572331417596', '19.387524797049732', '19.367047185431815', '19.354014987226257', '19.358118202910532', '19.362923347858608', '19.379127791693474', '19.36374351281919', '19.348552877361893', '19.335786840055235', '19.33212596979304', '19.332820583571433', '19.329166886210896', '19.316503089386796', '19.332771989995134', '19.326560367583138', '19.320776436782257', '19.310458036069097', '19.315427077840898', '19.31405367983712', '19.31313633381159', '19.30134682369692', '19.28089052955411', '19.27744957556138', '19.296507571355665']</t>
+          <t>['19.25664859678338', '19.285369195327732', '19.266417347389034', '19.249569172234274', '19.216608614325402', '19.216219878465647', '19.22615049188474', '19.273848836268563', '19.272027462975316', '19.252776955727363', '19.255535350341948', '19.22333017969212', '19.22911411250675', '19.23585391335639', '19.244504853130664', '19.246426077024857', '19.237474896148246', '19.21843237836789', '19.224989899220997', '19.231426849596946', '19.2335230206444', '19.19610866346117', '19.191936179092455', '19.188707659423983', '19.17280281332481']</t>
         </is>
       </c>
       <c r="N28" t="b">
@@ -2585,12 +2585,12 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>318173204</t>
+          <t>231579372</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>0.000868231463242543</t>
+          <t>0.000863661223733581</t>
         </is>
       </c>
     </row>
@@ -2625,12 +2625,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2468225353</t>
+          <t>2454345391</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>4.936450717495384</t>
+          <t>4.908690793273392</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['4.938862933787139', '4.937125098507625', '4.938332967820494', '4.935775438914804', '4.93474712031373', '4.937061873117743', '4.930481290818122', '4.936675953336187', '4.942795437858258', '4.942118446044578', '4.944410729779352', '4.9451709513529165', '4.944117133659464', '4.9433653946180085', '4.940322748941657', '4.940492145185892', '4.939160337390917', '4.942019518071786', '4.943275841953122', '4.943018049805276', '4.940610714727364', '4.938966167464701', '4.9377609028585585', '4.93636684853744', '4.936420686755626']</t>
+          <t>['4.906843098117095', '4.904474190001693', '4.903805793707322', '4.904067278887062', '4.906167544848255', '4.907814023083894', '4.913576563187542', '4.913851368830792', '4.912009338541775', '4.911045114648224', '4.912141861353953', '4.917494516656784', '4.917600490899043', '4.909549993598493', '4.907277266536924', '4.906448827853861', '4.906806291858706', '4.905728284496231', '4.90439083207471', '4.9036091889501785', '4.902442578307946', '4.904479410560216', '4.9055970083874145', '4.907289509652655', '4.908540793788852']</t>
         </is>
       </c>
       <c r="N29" t="b">
@@ -2662,12 +2662,12 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>18073789</t>
+          <t>18388888</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0.000222140494303095</t>
+          <t>0.000221144799574979</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2351508590</t>
+          <t>2334125202</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>122.9135663387817</t>
+          <t>122.00493506183496</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['123.32533229772392', '123.40169045562345', '123.40996508191549', '123.35894119579186', '123.32499910207015', '123.1896307654924', '123.25612979008343', '123.33518248968433', '123.29512763963577', '123.20944646528444', '123.30560984026573', '123.27647849621457', '123.22058525245447', '123.1658792165922', '123.09736944546901', '123.08506054752274', '123.02408997945679', '122.94575779149397', '122.95648084585477', '122.88433955292668', '122.89657266614144', '123.00826098389419', '122.96701180145163', '122.94266817480973', '122.87592166963223']</t>
+          <t>['122.18627863725531', '122.15647228287361', '122.03772750353338', '121.99352218569015', '121.98429295125177', '122.04611104865569', '122.12040089447694', '122.1888515519241', '122.1387672978168', '122.16416449219584', '122.21081599872979', '122.15059322377964', '122.22134699243993', '122.2648477584401', '122.30676995829778', '122.29399805990063', '122.23018712789518', '122.13876209833506', '122.14951627937295', '122.17785516934735', '122.22621123447543', '122.13749966319664', '122.1791208747516', '122.13353295010127', '122.05521546327509']</t>
         </is>
       </c>
       <c r="N30" t="b">
@@ -2739,12 +2739,12 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>301185140</t>
+          <t>208762267</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>0.005531115764264432</t>
+          <t>0.005496380018186985</t>
         </is>
       </c>
     </row>
@@ -2779,12 +2779,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2339489253</t>
+          <t>2321006149</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1754.4463718687523</t>
+          <t>1717.2174330167247</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>-0.95</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['1719.8480664797114', '1743.1020424797673', '1745.419704261369', '1742.7978892174572', '1746.7024948251508', '1745.213498621245', '1745.9601896024787', '1760.8386267065123', '1760.3971097809476', '1738.4041552464769', '1740.0720191108744', '1766.4497789057161', '1761.6163530482975', '1727.8555194329986', '1722.5739399429212', '1720.8202188945886', '1724.675954642415', '1733.6563534861696', '1743.1550077176723', '1770.5872327069044', '1765.3591895323868', '1729.7548999330475', '1729.6017683465643', None, None]</t>
+          <t>['1727.0309340412234', '1726.8356207656645', '1733.939700573851', '1732.3761628382595', '1721.8239753281669', '1722.5907908175434', '1731.174087722342', '1730.9433722805786', '1726.7984570593098', '1728.1925136058808', '1730.3335583398325', '1730.0615678047798', '1729.689241525064', '1729.650141482798', '1729.7195519750362', '1727.0669760697554', '1721.3618167297454', '1724.5757250039926', '1735.4075115468852', '1727.654685406805', '1703.7442660077545', '1700.854441528449', '1717.2174330167247', None, None]</t>
         </is>
       </c>
       <c r="N31" t="b">
@@ -2816,12 +2816,12 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>13720294</t>
+          <t>10686941</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>0.07885429939261189</t>
+          <t>0.0773614573945868</t>
         </is>
       </c>
     </row>
@@ -2856,12 +2856,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2177048708</t>
+          <t>2268757273</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1.0885243559273385</t>
+          <t>1.1343786388419894</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['1.0876938543927497', '1.0876176500285162', '1.087909603519349', '1.08808692843727', '1.0883092089325057', '1.0869759377111972', '1.0829206034425714', '1.0834410901374552', '1.0838416787726692', '1.0826999528900783', '1.0823993998585129', '1.0827760348705329', '1.0831671003622654', '1.0824832893396379', '1.0808357200536045', '1.0803838881988883', '1.0802856136772152', '1.079732367644614', '1.079868121436741', '1.0817411740861556', '1.0830362279753365', '1.0838114256177005', '1.084207728008588', '1.0852615499763703', '1.0877200422071471']</t>
+          <t>['1.0995100783499765', '1.0980928031712622', '1.0952798410936118', '1.0960407138497663', '1.1013529258607253', '1.1031846799040206', '1.1052277273171238', '1.106412911200068', '1.1105622779481028', '1.1191884210553735', '1.1209738098902058', '1.126186741141196', '1.1335898478078608', '1.1369960903070633', '1.1473996937895963', '1.1478113077962449', '1.1513144427575264', '1.1495362504918103', '1.1463448808484933', '1.1371443040610305', '1.1363992809625787', '1.1345922485063407', '1.1347759032735358', '1.1339303717111893', '1.134361701838375']</t>
         </is>
       </c>
       <c r="N32" t="b">
@@ -2893,12 +2893,12 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>74324861</t>
+          <t>91948046</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>0.000048983642767803</t>
+          <t>0.000051104294104408</t>
         </is>
       </c>
     </row>
@@ -2933,12 +2933,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1935752567</t>
+          <t>1963677075</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>5.913003478255041</t>
+          <t>5.998302456132194</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['5.975497638049909', '5.958749206347115', '5.957443019651606', '5.959761121318823', '5.9631210417325295', '5.957916468504495', '5.944913199985414', '5.947700859024349', '5.9510424485495035', '5.944059151145567', '5.944019698797895', '5.940746636399686', '5.935121966669515', '5.932309977103978', '5.927695101703263', '5.928859801009573', '5.9261253617956475', '5.925634194253198', '5.9270756329304195', '5.924552900637582', '5.925382727379668', '5.92715715531109', '5.924693861935686', '5.925152021108019', '5.915829823766571']</t>
+          <t>['5.978875116502699', '5.980048913882428', '5.976607526701608', '5.968913603225647', '5.956457578001535', '5.95809931367467', '5.963927797666643', '5.9710552795230605', '5.973361153031443', '5.97331557189693', '5.97372073140907', '5.9711670154749905', '5.975348741874297', '5.990994303207703', '6.032217442509579', '6.029334901420452', '6.022117676367883', '6.0137933287665755', '6.0074539627613985', '5.993754843643497', '5.994357558209474', '5.987708181425638', '5.986466120265583', '5.990262093697355', '5.997433171902485']</t>
         </is>
       </c>
       <c r="N33" t="b">
@@ -2970,12 +2970,12 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>246166031</t>
+          <t>255261289</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>0.000266085410479279</t>
+          <t>0.000270226362123938</t>
         </is>
       </c>
     </row>
@@ -3010,12 +3010,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1921253040</t>
+          <t>1893922440</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>1.921253040476511</t>
+          <t>1.8939224396486716</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['1.925841661807629', '1.9293946349580378', '1.9318129593814966', '1.9320418062503615', '1.932819696794901', '1.9335162302808406', '1.93374395998518', '1.9295280196042794', '1.9251544864336012', '1.9225365540952', '1.9226012800754937', '1.9210335260673974', '1.9206779236108968', '1.9208066425969796', '1.9214087546694232', '1.9218207423408937', '1.9222435636768542', '1.9225650412969761', '1.9226046325917527', '1.9231994209949037', '1.9236053138488758', '1.9236277891081293', '1.9240986535619706', '1.9228590508488066', '1.921089570407761']</t>
+          <t>['1.8848174624735787', '1.8857657960344258', '1.8889790541019729', '1.889837418980207', '1.890654023965573', '1.8911573223298515', '1.8910400123931004', '1.8907718370127116', '1.8914557489914487', '1.8918279275525576', '1.8927613720912677', '1.8948699866207082', '1.8956024511895724', '1.8975815058927228', '1.8984306645695341', '1.89919810562785', '1.8995116024028238', '1.8986497667346478', '1.8954262650593567', '1.8930532715238606', '1.8931790400664363', '1.8959286380055362', '1.8958219134328922', '1.894454771090408', '1.8938978742570631']</t>
         </is>
       </c>
       <c r="N34" t="b">
@@ -3047,12 +3047,12 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>12436307</t>
+          <t>15915083</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>0.00008645646933741</t>
+          <t>0.000085322101503558</t>
         </is>
       </c>
     </row>
@@ -3062,17 +3062,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3nNpuxHJ8</t>
+          <t>f3iaFeCKEmkaZ</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>FXS</t>
+          <t>XLM</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Frax Share</t>
+          <t>Stellar</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3082,28 +3082,28 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/_UuWZ5htj/FS.png</t>
+          <t>https://cdn.coinranking.com/78CxK1xsp/Stellar_symbol_black_RGB.svg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1665717118</t>
+          <t>1666558951</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>9.369878208670283</t>
+          <t>0.08248036460137982</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1640985232</v>
+        <v>1484611200</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>-1.38</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['9.495093416874193', '9.473669551886658', '9.483407857194608', '9.49152192845576', '9.487399309695007', '9.480718464891781', '9.462966996586427', '9.47301644217462', '9.477420304528158', '9.461543229344908', '9.45775742551877', '9.458453024539478', '9.449459570658895', '9.444002500054022', '9.428769327794859', '9.424165958753994', '9.423609041243331', '9.403049009278254', '9.402976320846449', '9.4001712727232', '9.39962164736092', '9.402782370004129', '9.39794323201366', '9.392872841661466', '9.376163969586697']</t>
+          <t>['0.08280464789608691', '0.08276687863372298', '0.08270524370678149', '0.08262372468136576', '0.08256327197712815', '0.08257655312143068', '0.08260424386162386', '0.08250083198772741', '0.0823692104414117', '0.08247917432527878', '0.08263508632850751', '0.08258018491857572', '0.0825977743470717', '0.08267134647312574', '0.08280859500919172', '0.08279263787446749', '0.082730860887546', '0.08252062390849227', '0.08248694247017108', '0.0825140978741097', '0.08268193625882166', '0.08263276037626928', '0.08249475389705399', '0.08247383379638694', '0.0825046662004564']</t>
         </is>
       </c>
       <c r="N35" t="b">
@@ -3119,17 +3119,17 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/3nNpuxHJ8+fraxshare-fxs</t>
+          <t>https://coinranking.com/coin/f3iaFeCKEmkaZ+stellar-xlm</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>47944845</t>
+          <t>68431200</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>0.000421644921817405</t>
+          <t>0.000003715779428578</t>
         </is>
       </c>
     </row>
@@ -3139,17 +3139,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>f3iaFeCKEmkaZ</t>
+          <t>3nNpuxHJ8</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>XLM</t>
+          <t>FXS</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Stellar</t>
+          <t>Frax Share</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3159,28 +3159,28 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/78CxK1xsp/Stellar_symbol_black_RGB.svg</t>
+          <t>https://cdn.coinranking.com/_UuWZ5htj/FS.png</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1658771427</t>
+          <t>1660445108</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.08209494903604068</t>
+          <t>9.340082744687725</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1484611200</v>
+        <v>1640985232</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['0.08233615267209385', '0.0822101128573992', '0.08208498805071313', '0.08208097432376722', '0.0820701814531152', '0.08223091736762198', '0.08210964946318909', '0.08212852978635235', '0.0822217977774946', '0.08219644090156886', '0.08219064026991657', '0.08225172797818205', '0.08228720875649911', '0.08225534043650189', '0.08219446215610107', '0.08234283624684152', '0.08238389078604622', '0.0823545834754408', '0.08235481786623658', '0.0822589748959569', '0.08204232258175637', '0.08198056064198031', '0.08194875226726518', '0.08197725667952', '0.0820747817937601']</t>
+          <t>['9.37916100958319', '9.375029059381154', '9.374370206338584', '9.377452629039857', '9.378302216295923', '9.376686059316272', '9.379563618819857', '9.393596358904349', '9.393863604629898', '9.390072488301834', '9.388824952934874', '9.394085070245575', '9.397623578676077', '9.399590981668561', '9.411195470068048', '9.412858139569062', '9.387493563568908', '9.376751848290207', '9.368429214140926', '9.346867947705233', '9.349039943012656', '9.338567633828761', '9.330550941780597', '9.328958481190263', '9.33780100103495']</t>
         </is>
       </c>
       <c r="N36" t="b">
@@ -3196,17 +3196,17 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/f3iaFeCKEmkaZ+stellar-xlm</t>
+          <t>https://coinranking.com/coin/3nNpuxHJ8+fraxshare-fxs</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>73577780</t>
+          <t>39993117</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>0.000003694276232521</t>
+          <t>0.000420775144383267</t>
         </is>
       </c>
     </row>
@@ -3216,48 +3216,48 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FEbS54wxo4oIl</t>
+          <t>aMNLwaUbY</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>VET</t>
+          <t>ICP</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VeChain</t>
+          <t>Internet Computer (DFINITY)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>#4bc0fa</t>
+          <t>#00042b</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/B1_TDu9Dm/VEN.svg</t>
+          <t>https://cdn.coinranking.com/1uJ_RVrmC/dfinity-icp.png</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1568240216</t>
+          <t>1555630637</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.023490455405415982</t>
+          <t>5.323906139988479</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1533427200</v>
+        <v>1601555742</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['0.02376672227070666', '0.0237312483078586', '0.023712779973549203', '0.023688523652249768', '0.023697800502515288', '0.023696986216528923', '0.023653921953033646', '0.023658253758526728', '0.023676060394439192', '0.02365838912735779', '0.02364768633713757', '0.023643831228952528', '0.023630618357109574', '0.023628088906434964', '0.02361614660806542', '0.023598246207028262', '0.023590544239442998', '0.023554183924025408', '0.023545015630985225', '0.02353407203073283', '0.02352561237906352', '0.023529063789633497', '0.023533985011190334', '0.023530452474401015', '0.023505231616264322']</t>
+          <t>['5.31829033591195', '5.320093223768897', '5.32071669295121', '5.317096472460408', '5.305390155265632', '5.309143471203613', '5.319968398333546', '5.329461122836965', '5.327693173034841', '5.320013229888356', '5.319236916860855', '5.316884732023204', '5.31639264330737', '5.33033940392638', '5.352650278086521', '5.354056908023103', '5.346935004154595', '5.338193087934367', '5.332792632399706', '5.322939525937625', '5.3235286055537365', '5.321991582093916', '5.321385660080277', '5.321655611931905', '5.323815124092422']</t>
         </is>
       </c>
       <c r="N37" t="b">
@@ -3273,17 +3273,17 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/FEbS54wxo4oIl+vechain-vet</t>
+          <t>https://coinranking.com/coin/aMNLwaUbY+internetcomputerdfinity-icp</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>57677473</t>
+          <t>62948640</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>0.000001057071502136</t>
+          <t>0.000239844489173367</t>
         </is>
       </c>
     </row>
@@ -3293,48 +3293,48 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>aMNLwaUbY</t>
+          <t>FEbS54wxo4oIl</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ICP</t>
+          <t>VET</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Internet Computer (DFINITY)</t>
+          <t>VeChain</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>#00042b</t>
+          <t>#4bc0fa</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/1uJ_RVrmC/dfinity-icp.png</t>
+          <t>https://cdn.coinranking.com/B1_TDu9Dm/VEN.svg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1564860320</t>
+          <t>1553240385</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>5.355524580562998</t>
+          <t>0.023265774988130403</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1601555742</v>
+        <v>1533427200</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -3342,7 +3342,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['5.4046502300506205', '5.406977815710567', '5.396352741766205', '5.391903453124743', '5.394306377915854', '5.389488377336153', '5.382770249060964', '5.3912145477188105', '5.399313918728467', '5.391332556804865', '5.385106784976733', '5.380510921643751', '5.369871762015529', '5.369009335094936', '5.364165260750405', '5.363387952035231', '5.364358913873135', '5.366078687338822', '5.365284358336526', '5.364201204064307', '5.361275704133318', '5.361763174732651', '5.366418672444696', '5.365821395513339', '5.359068637144948']</t>
+          <t>['0.023385697247623398', '0.023384125752234083', '0.02337679075813025', '0.023364328352343693', '0.02330656984752925', '0.023313189613553238', '0.02333130861181741', '0.023338246321509434', '0.02333938180418261', '0.02330626627358782', '0.023300416046060077', '0.023291913876583692', '0.02328721007308816', '0.023301667739519704', '0.023360697704082292', '0.023372246414168043', '0.023380218595449247', '0.02337732411161325', '0.0233677049690582', '0.02332808235157104', '0.023322292703909342', '0.023296389855327778', '0.023271795169932434', '0.023270651441225115', '0.023267786987443743']</t>
         </is>
       </c>
       <c r="N38" t="b">
@@ -3350,17 +3350,17 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/aMNLwaUbY+internetcomputerdfinity-icp</t>
+          <t>https://coinranking.com/coin/FEbS54wxo4oIl+vechain-vet</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>46688770</t>
+          <t>59345421</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>0.000240998836139956</t>
+          <t>0.000001048134165127</t>
         </is>
       </c>
     </row>
@@ -3395,12 +3395,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1562880535</t>
+          <t>1542538989</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.06317674885783907</t>
+          <t>0.06235447694915363</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -3419,7 +3419,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>['0.06370084744615602', '0.06367763582836262', '0.06369987829600952', '0.06372552985663339', '0.06380287355627143', '0.0638191063549307', '0.0637339568926198', '0.06373737921410812', '0.06375091150487355', '0.0636569075547471', '0.0636348164236477', '0.06363750449491326', '0.06361666490155006', '0.06360329874381873', '0.06355152050127721', '0.06353776179891683', '0.06352042826356555', '0.0634731879410538', '0.06346571841037016', '0.06338037394723793', '0.0633305077426835', '0.06331030713065611', '0.06326591560070734', '0.06326664907516241', '0.06320554738583702']</t>
+          <t>['0.06267418108648697', '0.06269886844844304', '0.06259084915308052', '0.06253157340149837', '0.06254063118177339', '0.06254807469288806', '0.0625800048789383', '0.0626576126973231', '0.06265574388941879', '0.06259948360757145', '0.06259313833311486', '0.06255487470830347', '0.06254034220924201', '0.06255433503727734', '0.06259980743245915', '0.06259599591672532', '0.06253968559437229', '0.06247969260341032', '0.06246490336669286', '0.06241451039367558', '0.062420675836567116', '0.06237737470938378', '0.062363476489591584', '0.062363139578022156', '0.06235614029471211']</t>
         </is>
       </c>
       <c r="N39" t="b">
@@ -3432,12 +3432,12 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>32543373</t>
+          <t>29149818</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>0.000002842956411983</t>
+          <t>0.000002809098672723</t>
         </is>
       </c>
     </row>
@@ -3468,12 +3468,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1534706224</t>
+          <t>1531352158</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.21569083117217494</t>
+          <t>0.21521945117156913</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>['0.21732544682480937', '0.21730391750432568', '0.217254183329967', '0.21730160223872777', '0.21726020420557376', '0.21713984913451065', '0.21683357974016995', '0.21694281970663912', '0.217033174499238', '0.2168357323515533', '0.21669495695977956', '0.21667236500071743', '0.2165139593584034', '0.21642784895483091', '0.21609481154303', '0.21600752610231733', '0.2159756254005149', '0.21594777360621503', '0.2159668612234444', '0.21584562585380118', '0.21577809622732735', '0.21581864846508256', '0.21590101099448636', '0.2159246907615623', '0.21577662702308992']</t>
+          <t>['0.21729824805548625', '0.2173721733652684', '0.21713743396936014', '0.21702768773663753', '0.21692494131984166', '0.2170461884297134', '0.21720172697746265', '0.21721832018819093', '0.21707328160645512', '0.21673658854814165', '0.21670117571394262', '0.21646580287434639', '0.2164267221551938', '0.21643399203220634', '0.2164973373015822', '0.21647860703092697', '0.2163543763715664', '0.2161091267035847', '0.21594109292946215', '0.21540197848852743', '0.21534899052121148', '0.21522973734621287', '0.2152219201476372', '0.21523121545302915', '0.21521855727575864']</t>
         </is>
       </c>
       <c r="N40" t="b">
@@ -3505,12 +3505,12 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>62410066</t>
+          <t>59833856</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>0.000009706096666461</t>
+          <t>0.000009695738048179</t>
         </is>
       </c>
     </row>
@@ -3545,12 +3545,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1503907202</t>
+          <t>1508122172</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>1.2388051981443406</t>
+          <t>1.2422771720969936</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['1.2526655607931703', '1.2511515509804423', '1.2516113794936605', '1.2504992050148394', '1.2507210036882224', '1.251778698583456', '1.2514283151283565', '1.2495376545613501', '1.2468792229025696', '1.2461446085171008', '1.2452411196480457', '1.2445181321449719', '1.244132584114979', '1.243317051942983', '1.2423601036142007', '1.2407046942091233', '1.239889204898409', '1.2392895230226952', '1.2399307438928013', '1.2395215994452384', '1.2393925798520649', '1.2392947952492923', '1.239564502155054', '1.2395517249625612', '1.2390832632414135']</t>
+          <t>['1.2537603495196763', '1.253151681773895', '1.2534301183489178', '1.2522968166439583', '1.2472947088881887', '1.2473390185256328', '1.2481756436972118', '1.2475410686329227', '1.2465476260449402', '1.2444549937083114', '1.2430163263536054', '1.2431615699229974', '1.2443033476720735', '1.2443054669932707', '1.2450842455269837', '1.2456425495276124', '1.2460872869587718', '1.2457703351571316', '1.2452514372376473', '1.244570099553148', '1.2436748465781902', '1.2424966388323044', '1.2420840317661617', '1.242513577989774', '1.243041786805928']</t>
         </is>
       </c>
       <c r="N41" t="b">
@@ -3582,12 +3582,12 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>31678145</t>
+          <t>34883641</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>0.000055746287121985</t>
+          <t>0.000055965174050567</t>
         </is>
       </c>
     </row>
@@ -3622,12 +3622,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1432417160</t>
+          <t>1443323667</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>11.018593536488666</t>
+          <t>11.102489742606485</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['11.101388189015179', '11.084567246916404', '11.085881753798073', '11.086192124124366', '11.09762546793566', '11.08945353761187', '11.072395041863558', '11.07813217051684', '11.082976718546613', '11.071524308685337', '11.070696659382499', '11.070370953679129', '11.063613701708654', '11.059464056409677', '11.04616192255526', '11.04418824293439', '11.042289982516625', '11.042252278821037', '11.044442920110127', '11.04157425322812', '11.040276678589834', '11.041658474917341', '11.043026585602904', '11.042466954903576', '11.024695536119117']</t>
+          <t>['11.137039257358797', '11.143073605877483', '11.122365884950726', '11.108318667306413', '11.092023459388693', '11.101624993047835', '11.110513652243501', '11.110999323045247', '11.104776502217879', '11.095180813811375', '11.098635000707327', '11.095020665919447', '11.096453696034658', '11.103543740153638', '11.127514311190218', '11.133671674762546', '11.14248405528363', '11.139274531142123', '11.13259063628538', '11.112431139723746', '11.112818273486079', '11.104687149840426', '11.10230271270308', '11.103881146872588', '11.102218078234937']</t>
         </is>
       </c>
       <c r="N42" t="b">
@@ -3659,12 +3659,12 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>286504732</t>
+          <t>291606699</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>0.000495837182379967</t>
+          <t>0.000500172413045916</t>
         </is>
       </c>
     </row>
@@ -3674,48 +3674,48 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pxtKbG5rg</t>
+          <t>KfWtaeV1W</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SAND</t>
+          <t>FRAX</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>The Sandbox</t>
+          <t>Frax</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>#00adef</t>
+          <t>#000000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/kd_vwOcnI/sandbox.png</t>
+          <t>https://cdn.coinranking.com/BpVNCX-NM/frax.png</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1412097061</t>
+          <t>1406127351</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.6062257106845454</t>
+          <t>1.000336687525237</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1613583024</v>
+        <v>1615299931</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['0.6119104343744577', '0.6101567069077373', '0.6103533784561165', '0.610554557663767', '0.6106181925270898', '0.6103821240603706', '0.6093391499550972', '0.6097437030126348', '0.610185883153868', '0.6095689799430661', '0.6093697446013445', '0.6093474930707982', '0.6090363376016019', '0.6089023202264637', '0.6084707969611902', '0.6081902831807743', '0.6080101279215753', '0.6073007089633008', '0.6074228690351613', '0.6072866639388484', '0.6072518812442269', '0.6074207992928763', '0.6074529771821265', '0.6073740141916386', '0.6066713930455409']</t>
+          <t>['0.9989832925242986', '0.9987184045365348', '0.9988900863384629', '0.9994301927750837', '0.9993749926996499', '0.9993698635202763', '0.9994345279287129', '0.9992746624951546', '0.9989124147914827', '0.9988639508853151', '0.9988737805889075', '0.9993512701226989', '0.9993036641904033', '0.9994851348028705', '0.9994028016902334', '0.999501805765807', '0.9993234550466403', '0.9996171019388499', '0.9997599763959483', '0.999751482929257', '0.9999221470635474', '0.9998879250614348', '1.0001711614712288', '1.0003331257358168', '1.000336687525237']</t>
         </is>
       </c>
       <c r="N43" t="b">
@@ -3731,17 +3731,17 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/pxtKbG5rg+thesandbox-sand</t>
+          <t>https://coinranking.com/coin/KfWtaeV1W+frax-frax</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>94931052</t>
+          <t>1562606</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>0.000027280183017615</t>
+          <t>0.000045065640811877</t>
         </is>
       </c>
     </row>
@@ -3751,48 +3751,48 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>KfWtaeV1W</t>
+          <t>pxtKbG5rg</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>FRAX</t>
+          <t>SAND</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Frax</t>
+          <t>The Sandbox</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>#000000</t>
+          <t>#00adef</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/BpVNCX-NM/frax.png</t>
+          <t>https://cdn.coinranking.com/kd_vwOcnI/sandbox.png</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1406985761</t>
+          <t>1405998336</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1.0009473711152526</t>
+          <t>0.6036074745022508</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1615299931</v>
+        <v>1613583024</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['0.9996323464759442', '0.9996468758373303', '0.9993215096549536', '0.9996371811093129', '0.9995870775354416', '0.9995766535028097', '1.0000145822448925', '0.9999931948872446', '0.9997355908731255', '1.000231021645767', '1.0001364989300563', '1.0001048982532825', '1.0000898546193724', '1.0003736503120946', '1.0005534048135618', '1.0007774934327078', '1.000764906364242', '1.0011949674517737', '1.0010586256860374', '1.0007763073652893', '1.0010300250632922', '1.001499054349732', '1.001512459371306', '1.001073645833975', '1.0009473711152526']</t>
+          <t>['0.6059568009997531', '0.6060882714995206', '0.6054102572758913', '0.6049694789988532', '0.6039947580900326', '0.6044650353771025', '0.6051833931565246', '0.6056752695359962', '0.605526560517673', '0.6043550121348384', '0.6044726888756485', '0.6043563524786096', '0.6045227713211297', '0.6046976106603273', '0.6061964438858877', '0.6061216263006004', '0.6055934206104671', '0.605062255496293', '0.6050669838164129', '0.6041973543500534', '0.6043009539502111', '0.6037265377802088', '0.6034911984409408', '0.6035335211029308', '0.6036782414464793']</t>
         </is>
       </c>
       <c r="N44" t="b">
@@ -3808,17 +3808,17 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/KfWtaeV1W+frax-frax</t>
+          <t>https://coinranking.com/coin/pxtKbG5rg+thesandbox-sand</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>1591703</t>
+          <t>77528451</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>0.000044989712886147</t>
+          <t>0.000027192802160019</t>
         </is>
       </c>
     </row>
@@ -3853,12 +3853,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1380901327</t>
+          <t>1373234585</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>13.809013272917893</t>
+          <t>13.732345845942099</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['13.883258707682101', '13.877729059871534', '13.922081439703097', '13.879797884087592', '13.831659485924598', '13.885814646916131', '13.89216674715745', '13.79944125129808', '13.776340509861178', '13.811943230777807', '13.77702265918881', None, None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
+          <t>['13.749132170817283', '13.780390861080495', '13.761131705587331', '13.730463200050712', '13.79396514800588', '13.82707979423539', '13.809707817012857', '13.80932678426063', '13.741626111149202', '13.722785544279704', '13.749717118544856', '13.703423146382192', None, None, None, None, None, None, None, None, None, None, None, None, None]</t>
         </is>
       </c>
       <c r="N45" t="b">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>32903968</t>
+          <t>4940997</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>0.00062066666783076</t>
+          <t>0.000618648674106626</t>
         </is>
       </c>
     </row>
@@ -3930,12 +3930,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1302896649</t>
+          <t>1304453002</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>3.747502695563492</t>
+          <t>3.7519792095073576</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -3954,7 +3954,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['3.7691725284339306', '3.768528158189695', '3.7669851760963935', '3.765110730001412', '3.764790520689238', '3.764289202536051', '3.762085349984755', '3.7635313508848864', '3.764655761973309', '3.7599036799729904', '3.75801516245017', '3.7574502402095256', '3.755830282110698', '3.7552848228444073', '3.7528881172690887', '3.7514352219160196', '3.7501983236418126', '3.7487737082283727', '3.748636160190383', '3.7499213558790983', '3.750654504971004', '3.7505097605699587', '3.7509030325487522', '3.750644580006456', '3.749151551711314']</t>
+          <t>['3.747244895638577', '3.7478223038857843', '3.7470771754150953', '3.7458688525147195', '3.742839460103545', '3.7433778158770092', '3.7448687731370853', '3.7466978993267825', '3.7468620736383205', '3.744707984493533', '3.744426870741506', '3.745144739928961', '3.7454833515253436', '3.746307800664404', '3.749338132752227', '3.75016118343722', '3.749507697802127', '3.748759495421878', '3.7478393297433654', '3.7452470780683678', '3.7462839519376985', '3.7485190965902135', '3.7500005664562788', '3.750708839360942', '3.751510067793198']</t>
         </is>
       </c>
       <c r="N46" t="b">
@@ -3967,12 +3967,12 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>21542034</t>
+          <t>20067513</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>0.000168637782251987</t>
+          <t>0.000169028437622932</t>
         </is>
       </c>
     </row>
@@ -4007,12 +4007,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1289829034</t>
+          <t>1281368455</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.5881024319646694</t>
+          <t>0.5842451722049548</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>-1.14</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['0.5944374510636331', '0.5933696142233663', '0.5932886971612552', '0.593262541014821', '0.5928396289782213', '0.5924129391739427', '0.5912536376914251', '0.5917411440633702', '0.5922422361831006', '0.5916159724845743', '0.5913357524485386', '0.5914302659513702', '0.5915925192648837', '0.5914038833412852', '0.5907488446284357', '0.5905317449267611', '0.5904226770241067', '0.5898857300041499', '0.5899961187695257', '0.5898329952606983', '0.5896705547410998', '0.5898062394761535', '0.5899385591175745', '0.5899017067189544', '0.5886343107133495']</t>
+          <t>['0.5862852593005874', '0.5862618753130968', '0.585382558268947', '0.5849983887541276', '0.5847297685183162', '0.5848942998069928', '0.5852545362967168', '0.585566978432845', '0.585264974545265', '0.5843197572579188', '0.5843624049705575', '0.5842803419768875', '0.5844896795932824', '0.584760492728687', '0.5860458919334012', '0.5863737628601668', '0.5865490839201641', '0.58629013187718', '0.5859078212757987', '0.5844898816048977', '0.5844649113494889', '0.5839501519826084', '0.5837484142413979', '0.5839232641093521', '0.5842417245401542']</t>
         </is>
       </c>
       <c r="N47" t="b">
@@ -4044,12 +4044,12 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>117649133</t>
+          <t>104410767</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>0.000026464634696843</t>
+          <t>0.000026320521285487</t>
         </is>
       </c>
     </row>
@@ -4059,48 +4059,48 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>bauj_21eYVwso</t>
+          <t>DCrsaMv68</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>QNT</t>
+          <t>NEAR</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Quant</t>
+          <t>NEAR Protocol</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>#585e63</t>
+          <t>#000000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/a-i9Dl392/quant.png</t>
+          <t>https://cdn.coinranking.com/Cth83dCnl/near.png</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1199630878</t>
+          <t>1211805113</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>122.69632007620486</t>
+          <t>1.9936109443183472</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1533945600</v>
+        <v>1615164591</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['123.60426748718089', '123.67102975426633', '123.72328022495476', '123.75422525007932', '123.75935944332123', '123.66154464438826', '123.52053882197792', '123.67913167740656', '123.66286985882489', '123.51226662258574', '123.49499973136011', '123.60433238096648', '123.62403061509956', '123.47710468496282', '123.32519098287982', '123.28701778034865', '123.25986999766893', '123.19027087075332', '123.20022669904927', '123.15139973258843', '123.12732498446765', '123.15780001766124', '123.09676885462986', '122.9414348478306', '122.7481190812412']</t>
+          <t>['2.0058479443957995', '2.005105950610198', '2.000842438928564', '1.9992657483956757', '1.9978914736426356', '1.9993497657749657', '2.001572550490006', '2.001346881406508', '2.000140475207385', '1.9965186829077484', '1.996404909887133', '1.9958971755215686', '1.996020024250502', '1.9973737332674126', '2.0034305496165103', '2.00331198651816', '2.0013986069350764', '1.9997815654200706', '1.9991674577556193', '1.9954860033482438', '1.995638015711425', '1.9938050308996254', '1.992847890736276', '1.992761173420793', '1.9936671773792218']</t>
         </is>
       </c>
       <c r="N48" t="b">
@@ -4116,17 +4116,17 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/bauj_21eYVwso+quant-qnt</t>
+          <t>https://coinranking.com/coin/DCrsaMv68+nearprotocol-near</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>22433497</t>
+          <t>97251380</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>0.005521339673117956</t>
+          <t>0.000089813115779593</t>
         </is>
       </c>
     </row>
@@ -4136,48 +4136,48 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DCrsaMv68</t>
+          <t>bauj_21eYVwso</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NEAR</t>
+          <t>QNT</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NEAR Protocol</t>
+          <t>Quant</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>#000000</t>
+          <t>#585e63</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/Cth83dCnl/near.png</t>
+          <t>https://cdn.coinranking.com/a-i9Dl392/quant.png</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1197201561</t>
+          <t>1191096458</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1.9695857940830273</t>
+          <t>121.82343329542685</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1615164591</v>
+        <v>1533945600</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>-1.61</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['2.000327368371195', '1.9931198260126664', '1.9928642256613645', '1.992659009738339', '1.9920285206963653', '1.9905909894383103', '1.9852202169169995', '1.9863394144642303', '1.9876173382167566', '1.9834336443344565', '1.9811923027269058', '1.9804905411418694', '1.9787480450557515', '1.9781680984801202', '1.9761092219959715', '1.9754376751181308', '1.9750301370383943', '1.9738222176384577', '1.974040244336975', '1.9739859476433974', '1.97420565853761', '1.974656314034392', '1.9751363496001977', '1.9748678128928567', '1.9712993554313363']</t>
+          <t>['122.24936973113385', '122.22854968807864', '122.07288101093495', '122.05866293056752', '121.97415888878628', '122.01103574403007', '122.1164833284003', '122.20481418640077', '122.18042157346221', '122.09036703856142', '122.08639529009284', '122.08561454206352', '122.06124716070515', '122.07150714210266', '122.20204032745959', '122.23139455308976', '122.19931879118663', '122.11377267352856', '122.06720076941494', '121.96857186628257', '122.02368084658636', '121.91780053097118', '121.84690443400548', '121.77610878984183', '121.8322859838839']</t>
         </is>
       </c>
       <c r="N49" t="b">
@@ -4193,17 +4193,17 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/DCrsaMv68+nearprotocol-near</t>
+          <t>https://coinranking.com/coin/bauj_21eYVwso+quant-qnt</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>139687046</t>
+          <t>31589812</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>0.000088631445325549</t>
+          <t>0.005488203277781808</t>
         </is>
       </c>
     </row>
@@ -4238,12 +4238,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1163903288</t>
+          <t>1163787702</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>1.1774258662853438</t>
+          <t>1.1773089374226853</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['1.183995147801408', '1.183019347637137', '1.182839333791791', '1.181661026987072', '1.1816607062804674', '1.1823730246679691', '1.180769714955848', '1.1814908811854656', '1.1819561643016216', '1.180784944875899', '1.1805396791648797', '1.180261861082766', '1.1795280434263666', '1.1790985733380057', '1.1787454103022355', '1.1801600098429765', '1.1801632312560415', '1.1797838119363944', '1.179951753144746', '1.179462091904775', '1.178073173764876', '1.1778461493274914', '1.1775544400730757', '1.177585627987316', '1.1772493951829786']</t>
+          <t>['1.1806846743383193', '1.1808126701970236', '1.1807215740532098', '1.180393188475992', '1.1799764693399133', '1.1800382813309798', '1.1807832247101877', '1.1819205314191794', '1.181778503732233', '1.1809483167027237', '1.1810171419292854', '1.180798353022883', '1.1813675604240883', '1.1816563564954452', '1.182876899281654', '1.182807516584826', '1.1823162990900906', '1.1801953559512781', '1.1795850766869767', '1.1791260631571898', '1.1801330139782005', '1.1791045379720297', '1.1783828761353292', '1.1778546064126967', '1.177613241268881']</t>
         </is>
       </c>
       <c r="N50" t="b">
@@ -4275,12 +4275,12 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>163545904</t>
+          <t>167676332</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>0.000052984214552147</t>
+          <t>0.000053038324356333</t>
         </is>
       </c>
     </row>
@@ -4315,12 +4315,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1145273208</t>
+          <t>1137998917</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.07065015173476293</t>
+          <t>0.07018406521563927</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -4339,7 +4339,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['0.07106300181788083', '0.07106724437196339', '0.07107240242779886', '0.07102747693898513', '0.07099741744472794', '0.07088747539612467', '0.07088101620640966', '0.07092326715620055', '0.07093643108777425', '0.07092897372098385', '0.07094935275735897', '0.07093019483698387', '0.07087719066376949', '0.07086269224313843', '0.07078387819792047', '0.07081169169989791', '0.07078344191592377', '0.07071178106865915', '0.07074803174851096', '0.07071292612589355', '0.07067678171605514', '0.07074335335234433', '0.07071429284194629', '0.07070376556183233', '0.07066679702024013']</t>
+          <t>['0.07046493066992432', '0.07044384061860928', '0.07042737755126763', '0.0704174353976807', '0.0704069731018495', '0.0704122564826326', '0.07042859302362396', '0.07044423235529182', '0.07044161958509887', '0.07043957339775106', '0.07041731358427886', '0.07040954952365655', '0.07039677972913458', '0.0704236236929425', '0.07044981763738067', '0.07044142707799647', '0.07041925781173061', '0.07036321411037127', '0.07035304841749332', '0.07034143553549918', '0.07031311393897147', '0.0702228877689773', '0.07022984006903778', '0.07021436537883398', '0.07019319611440226']</t>
         </is>
       </c>
       <c r="N51" t="b">
@@ -4352,12 +4352,12 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>12501026</t>
+          <t>12343973</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>0.00000317925986242</t>
+          <t>0.000003161825326581</t>
         </is>
       </c>
     </row>
@@ -4392,12 +4392,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1086155525</t>
+          <t>1080207713</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>75.32768307535461</t>
+          <t>74.91440323598631</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['75.83087313001155', '75.84351076552777', '75.80042946182382', '75.81009253125127', '75.8250317850718', '75.85952301795716', '75.75803493905238', '75.60207062773988', '75.658163675934', '75.67652228882918', '75.61463867417483', '75.43269003222713', '75.40394022002448', '75.35672462214075', '75.31865512349435', '75.32339742293115', '75.31903804198306', '75.25529686301859', '75.37799356161057', '75.43658509677763', '75.39095998793505', '75.21745358914227', '75.23815617353233', '75.33431953654836', '75.34271968260475']</t>
+          <t>['74.93200506408253', '75.02935507515372', '75.00873664953623', '74.89880981702565', '74.82129814041696', '74.91233794745007', '75.00393154138727', '75.08407874278733', '75.08077733471846', '75.00389159793916', '75.01052746706046', '75.0272230322317', '75.06043246899907', '75.12447473057449', '75.20099648056626', '75.18176817600771', '75.11472551722244', '75.02943348239077', '75.05737192336777', '75.00758688595677', '74.91175472681826', '74.79861068318621', '74.7988571371862', '74.89874173367183', '74.91758757457815']</t>
         </is>
       </c>
       <c r="N52" t="b">
@@ -4429,12 +4429,12 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>67386294</t>
+          <t>66672842</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>0.003389748973642372</t>
+          <t>0.003374929291278169</t>
         </is>
       </c>
     </row>
@@ -4469,12 +4469,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1049342590</t>
+          <t>1039915704</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1.0126834488786929</t>
+          <t>1.0035858944095055</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['1.022159717917253', '1.021365845695465', '1.0216655774613843', '1.0216934268790616', '1.021389341169896', '1.0209842368919035', '1.0197247911810972', '1.0200471588939453', '1.0203379926068883', '1.019244417658749', '1.0187696968599151', '1.0184424090268194', '1.0178011507768938', '1.0170209540533683', '1.0153460592217667', '1.0144612666249506', '1.0142147073847532', '1.0134215308037986', '1.0135195435594597', '1.0136515393179901', '1.0136528364832558', '1.0138245070487537', '1.014516080031819', '1.0143722834381663', '1.0131680871982278']</t>
+          <t>['1.008415224234431', '1.0088840058716715', '1.0085577688611334', '1.007836496446105', '1.006141109833475', '1.0057643793974171', '1.0062525212916873', '1.007234558288415', '1.0067065116017149', '1.0053928995634136', '1.0055646076064872', '1.005385725981251', '1.0051924042967544', '1.005635152704375', '1.0073992327198522', '1.0075638700364309', '1.006932043127532', '1.0060529756667143', '1.0057570700726166', '1.004471862385226', '1.0042513693561737', '1.0030712760443723', '1.0027197846486178', '1.002899936965541', '1.0033289253339663']</t>
         </is>
       </c>
       <c r="N53" t="b">
@@ -4506,12 +4506,12 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>34568429</t>
+          <t>35694843</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>0.00004557079869332</t>
+          <t>0.000045212019118497</t>
         </is>
       </c>
     </row>
@@ -4546,12 +4546,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1017196437</t>
+          <t>1017448170</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>1.001229118117256</t>
+          <t>1.0014769002453106</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4562,7 +4562,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['0.9998228104650985', '0.9999903476876334', '1.0008842194457956', '1.0008005641704063', '1.0000892128725185', '1.0001300124813057', '1.0006198043141319', '1.0008277218668777', '1.00160579915179', '1.000934128256124', '1.0003420374084737', '1.001081007789579', '1.001698566793729', '1.0015643540822712', '1.0014571098933145', '1.0016380561759233', '1.0018351441322766', '1.0020929853157368', '1.0022604403563404', '1.0021718992355384', '1.0020410042769343', '1.001936132681564', '1.0013417026008677', '1.001286345467315', '1.0013594304974573']</t>
+          <t>['0.998986033344579', '0.998969728063466', '0.999090593885708', '0.9991333420203212', '0.9994736448168089', '0.99955004274549', '0.9998135412681624', '0.9997050428718641', '0.9990609692002139', '0.9990628981715003', '0.9992150482875387', '0.9993197752795693', '0.9997817154665986', '0.9997738490838589', '0.9996377376038305', '0.9995766803741962', '0.9991971550521502', '0.999246757646252', '0.9997860566414136', '0.9999162365610461', '1.0004649136828883', '1.0006794268300465', '1.0017082512901656', '1.0016573818213292', '1.0014769002453106']</t>
         </is>
       </c>
       <c r="N54" t="b">
@@ -4583,12 +4583,12 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>2136114</t>
+          <t>1699600</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>0.000045055353317103</t>
+          <t>0.0000451170079341</t>
         </is>
       </c>
     </row>
@@ -4623,12 +4623,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1009423418</t>
+          <t>1012045428</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1.1002762622180038</t>
+          <t>1.1031342652742455</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['1.1084728863901447', '1.1076500864896914', '1.1078881451893812', '1.1083456025777636', '1.1084698943586557', '1.1081813179676137', '1.1064443897025957', '1.106901817610893', '1.1072405539569565', '1.1055398532853216', '1.1044889721464852', '1.1044696069143627', '1.1048463462798', '1.1044935002806824', '1.1033613268420734', '1.1027723675294585', '1.1027378205093408', '1.102211592355349', '1.1023642550359565', '1.1022786423171498', '1.1021502561889516', '1.1021725772775317', '1.1023800985649688', '1.10261457491383', '1.1022461060560609']</t>
+          <t>['1.1050866603942453', '1.1053633224337869', '1.1045516604977168', '1.1037716489666825', '1.10263384743202', '1.1027797691164423', '1.1032838896360084', '1.1052938413847795', '1.105260163516639', '1.1037537988781931', '1.1038643116693254', '1.1033543203032743', '1.1035760777806176', '1.1044583288869667', '1.1062137473266591', '1.106450629330675', '1.1061788383047086', '1.1054755704133983', '1.105225413622879', '1.1037445416105767', '1.103847183728557', '1.1031776006073437', '1.1030167837220686', '1.1029777640327463', '1.1033001247390837']</t>
         </is>
       </c>
       <c r="N55" t="b">
@@ -4660,12 +4660,12 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>29350829</t>
+          <t>20880071</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>0.000049512479055616</t>
+          <t>0.000049696720300353</t>
         </is>
       </c>
     </row>
@@ -4700,12 +4700,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1007114485</t>
+          <t>1001594706</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>42.170996017499284</t>
+          <t>41.93986581695746</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['42.53393689546641', '42.510799918691006', '42.51068994897917', '42.51832008023101', '42.52584502230948', '42.52023279665784', '42.48927467352853', '42.49663822708808', '42.501618740879756', '42.44260208917604', '42.41277209569519', '42.40416695619183', '42.3778562983681', '42.3602866320511', '42.30778832754669', '42.28226467996863', '42.264552721987', '42.25398011283905', '42.26288634689238', '42.2588872160557', '42.248364866191906', '42.248207028786304', '42.23344962823885', '42.229963587730744', '42.19134586031251']</t>
+          <t>['42.00477836093189', '42.022955078079804', '41.9748385230328', '41.92404058589797', '41.86487396247131', '41.88103232991594', '41.92633009351877', '41.981099186503926', '41.9840275402745', '41.925924472230875', '41.93333435715433', '41.933414274517474', '41.94072190594677', '41.967834779132346', '42.058001847225086', '42.06385752928885', '42.06816272926552', '42.04967709406398', '42.02911424933182', '41.96507641449895', '41.96592028957674', '41.934980252040155', '41.921583316313985', '41.92662434621144', '41.94233118922291']</t>
         </is>
       </c>
       <c r="N56" t="b">
@@ -4737,12 +4737,12 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>35139977</t>
+          <t>34449213</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>0.001897696631991118</t>
+          <t>0.001889410787563115</t>
         </is>
       </c>
     </row>
@@ -4777,12 +4777,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>991113526</t>
+          <t>1001490808</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.9911220882216707</t>
+          <t>1.0014994599942209</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['1.0007852091644596', '1.0001375577719989', '1.000164433793735', '1.0000397690794351', '1.0005486094843306', '1.0005374639729838', '0.9987384903316281', '0.9990797232434924', '0.9996031909425852', '0.9983509645443034', '0.9978595192478414', '0.9979124399808771', '0.9979473499727677', '0.997750610114986', '0.9969880267022194', '0.9964766754908546', '0.9961003318277538', '0.9944762216942399', '0.9943818502901005', '0.993852654556505', '0.9935812808084324', '0.993353790914576', '0.9930604562397187', '0.9931086969219216', '0.9917423667958161']</t>
+          <t>['1.0039123263573115', '1.0039005890260024', '1.0030598337350847', '1.0025711880721044', '1.0009936598507125', '1.0013678626526477', '1.0019684255168972', '1.0030668222944776', '1.0032691563367298', '1.001232971286752', '1.0012417186165508', '1.001269950355526', '1.0015167840535293', '1.0019667119560345', '1.0041119548172357', '1.0041698764181421', '1.0034546270243485', '1.002752038700708', '1.0026945191406424', '1.0012311230674105', '1.0013302068747747', '1.0014032907917123', '1.0012848050065268', '1.0012934789700467', '1.0015618631134933']</t>
         </is>
       </c>
       <c r="N57" t="b">
@@ -4814,12 +4814,12 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>25620576</t>
+          <t>26528386</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>0.000044600536537714</t>
+          <t>0.000045118024261456</t>
         </is>
       </c>
     </row>
@@ -4854,12 +4854,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>934767573</t>
+          <t>934323555</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.000141654680575536</t>
+          <t>0.000141587394073874</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['0.000142800566479984', '0.00014257871644539', '0.000142593751940149', '0.000142610643136583', '0.000142472022236345', '0.00014238834068568', '0.000142170510998807', '0.000142273168320584', '0.000142371061324327', '0.0001422696692675', '0.000142234099994202', '0.00014223731292042', '0.00014226415068003', '0.000142212438201689', '0.000142016923815112', '0.000141960414327207', '0.000141958598946879', '0.000141938627411159', '0.000141950428513995', '0.000141895513663888', '0.000141875209522278', '0.000141855126612435', '0.000141766363132209', '0.000141778382788745', '0.000141682030862737']</t>
+          <t>['0.000141480446423087', '0.000141527347053901', '0.000141501629508369', '0.000141434255459321', '0.000141268981374251', '0.000141400311046851', '0.000141582387534228', '0.000141587609063932', '0.000141542629720888', '0.000141358195310058', '0.000141367664196318', '0.000141447551016006', '0.000141511860916352', '0.000141606885487739', '0.0001419557561052', '0.000141953598648784', '0.00014188037061582', '0.000141802668718495', '0.000141770523482719', '0.000141614687551474', '0.000141627930328049', '0.000141515994278454', '0.000141496049539924', '0.000141492874333762', '0.000141585308279302']</t>
         </is>
       </c>
       <c r="N58" t="b">
@@ -4891,12 +4891,12 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>38166553</t>
+          <t>53703734</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>6.37446671e-9</t>
+          <t>6.378579057e-9</t>
         </is>
       </c>
     </row>
@@ -4906,48 +4906,48 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>sgxZRXbK0FDc</t>
+          <t>GSCt2y6YSgO26</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SNX</t>
+          <t>CHZ</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Synthetix Network</t>
+          <t>Chiliz</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>#90dce0</t>
+          <t>#d05e72</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/c2WntZSPs/snx-synthetix.png</t>
+          <t>https://cdn.coinranking.com/gTsOlSnwR/4066.png</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>925325651</t>
+          <t>925380536</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2.934278169031352</t>
+          <t>0.12097022612114118</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1554322020</v>
+        <v>1562332440</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['2.9663042719515786', '2.954710569593377', '2.9547069874351837', '2.956825355346961', '2.958481827649166', '2.9569799803470325', '2.9508313511392736', '2.9517703157582407', '2.9543728130007962', '2.9506254704194808', '2.9476197918709537', '2.9470754981408254', '2.9455558823813', '2.944417922061623', '2.9421000947974134', '2.9406668160937155', '2.9408309529792427', '2.9398274086586325', '2.940353486463001', '2.939665933930554', '2.9408282826549015', '2.9409808368926504', '2.9387506031153237', '2.9392196464798563', '2.935660855357581']</t>
+          <t>['0.12111387101726663', '0.12119002203055845', '0.1211340440900273', '0.12104714829286817', '0.12086677672844114', '0.12086966502371432', '0.12094510210993067', '0.12109079979806815', '0.12112271018353366', '0.1210021307651067', '0.12095942773644225', '0.12097932455338188', '0.12105745684374412', '0.12116411359822203', '0.12136122043729636', '0.12133166087811002', '0.12126427877738345', '0.12118618135952888', '0.12119450009374877', '0.12109912403571971', '0.12106015934661075', '0.12101432157005598', '0.120996667735631', '0.12100484692383358', '0.12097226026461212']</t>
         </is>
       </c>
       <c r="N59" t="b">
@@ -4963,17 +4963,17 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/sgxZRXbK0FDc+synthetixnetwork-snx</t>
+          <t>https://coinranking.com/coin/GSCt2y6YSgO26+chiliz-chz</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>99874596</t>
+          <t>54408950</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>0.000132042643630831</t>
+          <t>0.000005449765891116</t>
         </is>
       </c>
     </row>
@@ -4983,48 +4983,48 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GSCt2y6YSgO26</t>
+          <t>sgxZRXbK0FDc</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CHZ</t>
+          <t>SNX</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Chiliz</t>
+          <t>Synthetix Network</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>#d05e72</t>
+          <t>#90dce0</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/gTsOlSnwR/4066.png</t>
+          <t>https://cdn.coinranking.com/c2WntZSPs/snx-synthetix.png</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>924274282</t>
+          <t>905735722</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0.12082561126349312</t>
+          <t>2.8721570127766274</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1562332440</v>
+        <v>1554322020</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['0.12156583271943759', '0.12151801998398856', '0.12147435136211081', '0.12145395402052925', '0.12152319035259718', '0.12149248829046966', '0.12138002634630157', '0.12137979458197963', '0.12143505062639139', '0.12144837323219149', '0.12143251642495574', '0.12140798514394847', '0.1212201340426122', '0.12117621721350674', '0.12108717833730613', '0.12105746002033467', '0.12101996838527276', '0.12091561860732235', '0.12091305593756195', '0.12094264431069415', '0.12092406231144509', '0.12090236231699841', '0.12089064919451963', '0.12090460603999326', '0.12084819249272825']</t>
+          <t>['2.8957291605293847', '2.8963032797282064', '2.888631103938736', '2.8845122099683502', '2.8785374460025865', '2.879507129201287', '2.8819425567894066', '2.8830462712837255', '2.882202593025565', '2.8769694326909696', '2.8782007143353185', '2.878562698072893', '2.8796451692322025', '2.882400480408296', '2.891116847596005', '2.8918868060350245', '2.889050440075302', '2.885056689491355', '2.883128117359685', '2.875563209345247', '2.8750345830285275', '2.8716598469809713', '2.870771892993847', '2.8709457540090138', '2.8720007703873476']</t>
         </is>
       </c>
       <c r="N60" t="b">
@@ -5040,17 +5040,17 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>https://coinranking.com/coin/GSCt2y6YSgO26+chiliz-chz</t>
+          <t>https://coinranking.com/coin/sgxZRXbK0FDc+synthetixnetwork-snx</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>57432253</t>
+          <t>95942638</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>0.000005437157696201</t>
+          <t>0.000129392031610198</t>
         </is>
       </c>
     </row>
@@ -5085,12 +5085,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>897776466</t>
+          <t>891148618</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>918.2467638907005</t>
+          <t>911.4677927885383</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['919.3315964078209', '921.3071585536746', '921.9303234959901', '922.1267497248459', '923.7924890767779', '924.6021672958706', '924.4098328712847', '923.1282170633245', '922.3129954055877', '922.5453540501611', '922.618268403475', '922.6674857436468', '922.2394559323243', '921.6206235019685', '920.9748729617536', '920.6633826659956', '920.7006636158201', '919.7434868581964', '919.4608173786015', '918.6147718435531', '917.6243450525558', '917.720487861671', '918.1491035149737', '919.0975878487852', '918.6314997000937']</t>
+          <t>['924.8369829950261', '925.5216143159493', '923.0361716846216', '921.7437392491352', '920.7044872643842', '920.2726524952689', '920.6847197458458', '920.4368637513845', '919.9132488091608', '919.3884816685951', '919.2390706645434', '918.0633624483514', '916.7129428839456', '916.1301349486018', '915.518433845342', '915.1151975622129', '914.5040674744868', '913.8933029661922', '914.2353153474477', '915.2955321997555', '915.1450096294558', '913.7554783763812', '912.9327875686029', '912.3343564094604', '911.4766004359925']</t>
         </is>
       </c>
       <c r="N61" t="b">
@@ -5122,12 +5122,12 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>63576053</t>
+          <t>77003541</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>0.04132114381289536</t>
+          <t>0.041062055079696964</t>
         </is>
       </c>
     </row>
@@ -5162,12 +5162,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>867716402</t>
+          <t>864346022</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2.456896267e-9</t>
+          <t>2.447355959e-9</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5178,7 +5178,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['2.467308707e-9', '2.470135716e-9', '2.464984902e-9', '2.467211677e-9', '2.472782754e-9', '2.478703222e-9', '2.47864975e-9', '2.470201022e-9', '2.469248445e-9', '2.458608363e-9', '2.459388187e-9', '2.464311253e-9', '2.464533198e-9', '2.456315183e-9', '2.448025378e-9', '2.447854895e-9', '2.456651411e-9', '2.455048651e-9', '2.450475197e-9', '2.42131348e-9', '2.419850865e-9', '2.412070237e-9', '2.41157832e-9', '2.424001908e-9', '2.457956596e-9']</t>
+          <t>['2.433344118e-9', '2.431672996e-9', '2.425057886e-9', '2.426894644e-9', '2.434030732e-9', '2.427932165e-9', '2.429740468e-9', '2.42835924e-9', '2.429790598e-9', '2.430650739e-9', '2.441812051e-9', '2.467943375e-9', '2.466975646e-9', '2.424606396e-9', '2.404159213e-9', '2.40880783e-9', '2.414863113e-9', '2.41617458e-9', '2.444235462e-9', '2.453015685e-9', '2.455700792e-9', '2.454745319e-9', '2.452082261e-9', '2.446708994e-9', '2.447467095e-9']</t>
         </is>
       </c>
       <c r="N62" t="b">
@@ -5199,12 +5199,12 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>8886895</t>
+          <t>8549629</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>1.1056e-13</t>
+          <t>1.10255e-13</t>
         </is>
       </c>
     </row>
@@ -5239,12 +5239,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>820964751</t>
+          <t>807618034</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>11.639936918713895</t>
+          <t>11.450702312784678</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -5263,7 +5263,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>['11.73015084458844', '11.736464116817961', '11.725172587291274', '11.711101794527647', '11.693081489681415', '11.692236856046971', '11.692169338987457', '11.700655419559993', '11.70644939539673', '11.697885659551726', '11.692013490938328', '11.689083581449395', '11.679383676033147', '11.675279243159483', '11.665489157959897', '11.662294877795452', '11.659492133684626', '11.65607444683199', '11.659339389946947', '11.637289940290009', '11.631368521573723', '11.633378290628361', '11.633889840603118', '11.632455014147467', '11.644014301819851']</t>
+          <t>['11.463511535048278', '11.485374172075346', '11.462595587971673', '11.439461588160428', '11.401083019813639', '11.414559856747596', '11.42574913947559', '11.441278168293927', '11.429778992709391', '11.399402345552309', '11.40352033538022', '11.405612955866287', '11.407540842841145', '11.421721715229154', '11.443813880761407', '11.44780409527802', '11.452189422632838', '11.45003519601912', '11.449972425321121', '11.442710716451941', '11.445266651759166', '11.403407017267607', '11.398727451331279', '11.417670576350114', '11.448733981261098']</t>
         </is>
       </c>
       <c r="N63" t="b">
@@ -5276,12 +5276,12 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>119485316</t>
+          <t>77760454</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>0.000523797661266202</t>
+          <t>0.000515859553995083</t>
         </is>
       </c>
     </row>
@@ -5316,12 +5316,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>791528478</t>
+          <t>791189994</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>1.0014995421137587</t>
+          <t>1.00107126826108</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5332,7 +5332,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -5340,7 +5340,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['0.9999647940260832', '1.0000203977333513', '1.0004304697181172', '1.0004330849987526', '1.0002122305639345', '1.0003732075531977', '1.0005419506048168', '1.0009970404369246', '1.0010290846322574', '1.000685774446094', '1.0007104762878285', '1.0009598889639841', '1.0011080989006742', '1.0013136965746727', '1.0013644588013226', '1.0013890082074617', '1.0014869170339928', '1.0015106833095946', '1.0016843825307296', '1.0018902151176206', '1.001920794395041', '1.0018773969848669', '1.0018713457100306', '1.0017221920139454', '1.0014995525111252']</t>
+          <t>['0.9992925914100136', '0.9991993229711755', '0.9992300105280909', '0.9994029819599881', '0.9995105998318365', '0.9997064332333023', '0.9996417411611919', '0.9993928212353209', '0.999297630590338', '0.99931308358979', '0.999445271417948', '0.9996063216274034', '0.9996377271626105', '0.9996864931083688', '0.9996816640812625', '0.999596263847755', '0.9994586386100427', '0.9995350906041867', '0.9999309318391928', '0.9999807582009081', '1.0000273368220862', '1.0002162245593733', '1.000304706601306', '1.0009669581987366', '1.0010712827810389']</t>
         </is>
       </c>
       <c r="N64" t="b">
@@ -5353,12 +5353,12 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>1229162</t>
+          <t>1069850</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>0.00004506752240856</t>
+          <t>0.000045098734021395</t>
         </is>
       </c>
     </row>
@@ -5389,12 +5389,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>783624838</t>
+          <t>784020093</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>1.7923715970263512</t>
+          <t>1.7932756576070368</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['1.8000281341309805', '1.7995792712246776', '1.7970348979255133', '1.7948720740387463', '1.7971653042682791', '1.798266319676729', '1.800436669875368', '1.7959107565515309', '1.7919458359837679', '1.7929931983231275', '1.7962276877101528', '1.796653599910028', '1.7957181042283548', '1.7947573694391838', '1.7943998746083558', '1.7963925548326822', '1.79707267337203', '1.7975066179407841', '1.7976456280616073', '1.7974258869378894', '1.7953678390893082', '1.7954004960223975', '1.7943099285783555', '1.7933692506421604', '1.792490687847812']</t>
+          <t>['1.7891684517413606', '1.7908522946864387', '1.791343424873854', '1.7914651567667526', '1.7912897442433875', '1.791324506836292', '1.792757011024053', '1.7935384809966743', '1.7966990083895424', '1.7989698790029012', '1.8016117579042794', '1.8065621820971163', '1.8062059246365172', '1.8089619980041072', '1.8109051313639042', '1.8118323483745349', '1.8129503999343923', '1.8089493308968334', '1.805585936458239', '1.8043597148307051', '1.8044097618030963', '1.8047176404544352', '1.8026231779264261', '1.8018070059867901', '1.796380527504117']</t>
         </is>
       </c>
       <c r="N65" t="b">
@@ -5426,12 +5426,12 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>2998672</t>
+          <t>3574587</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>0.000080656798846819</t>
+          <t>0.000080787916378767</t>
         </is>
       </c>
     </row>
@@ -5466,12 +5466,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>741224142</t>
+          <t>739921255</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.9755627440670372</t>
+          <t>0.9736572162611579</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['0.9766951096546149', '0.9757734809593679', '0.9756525365655325', '0.9762681367247338', '0.9768399761847355', '0.9757428232838884', '0.97375037766899', '0.9751574026771981', '0.9759227869011892', '0.9765230902620122', '0.9772183215239124', '0.9778334341576391', '0.9777586278082218', '0.9767979344861486', '0.9759910859558716', '0.9759749574985472', '0.9755242922750427', '0.974589637826036', '0.974741081141804', '0.9747790690883027', '0.975196535008076', '0.9762928539852925', '0.9772460347561862', '0.9764058682370825', '0.9758012269606484']</t>
+          <t>['0.9754575447189444', '0.9776222115789994', '0.9770094755125168', '0.9766478726202569', '0.9761661967230834', '0.9773399070518278', '0.9795349832543649', '0.9806950542537668', '0.9805215055503793', '0.978974271457883', '0.979041024342258', '0.9786495732021318', '0.9788268643022404', '0.9794254217014592', '0.9816274889791848', '0.9817097237025209', '0.9813734824344761', '0.9801887827090859', '0.9795122137661807', '0.9771982671331072', '0.9771109752421303', '0.9749273232501421', '0.9736386066399116', '0.9728401093546956', '0.9737306850920113']</t>
         </is>
       </c>
       <c r="N66" t="b">
@@ -5503,12 +5503,12 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>84964314</t>
+          <t>108395775</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>0.000043900365382497</t>
+          <t>0.000043863718015251</t>
         </is>
       </c>
     </row>
@@ -5539,12 +5539,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>726103127</t>
+          <t>726047405</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>1.0010630874058162</t>
+          <t>1.0009862637916223</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5555,7 +5555,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>['0.9987920464624815', '0.9993318491823947', '0.9994071960423153', '0.9993753557411769', '0.9990888166823987', '0.9996859502816378', '1.0003729687895149', '0.9998199415865012', '0.9997651966337465', '1.0003915045899527', '1.0003897931792274', '1.001042547327842', '1.001340893430891', '1.001433013303173', '1.0017612970907885', '1.0017561602799423', '1.0008121127217247', '1.0003935618474475', '1.0005091733679845', '1.0012145048250416', '1.0012149288185632', '1.0007465471893677', '1.000549343150446', '1.000635718888023', '1.001062918154944']</t>
+          <t>['0.9991291974169052', '0.999170743929496', '1.000238302191928', '1.000233919342622', '1.0002506974034107', '1.0000759992353654', '0.9989550981498287', '0.9989527519833684', '0.999466782793377', '0.9996690278782492', '0.9994286227490378', '0.9981047067907783', '0.9981051318168762', '0.9988767955397867', '0.999187234579915', '0.9992270761254904', '0.9994867323368863', '0.999484893145318', '1.0004835068747138', '1.0008975943003102', '1.0007499211584678', '1.0000571852546414', '1.000060291941079', '1.000728595735335', '1.0009862615595086']</t>
         </is>
       </c>
       <c r="N67" t="b">
@@ -5576,12 +5576,12 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>23850584</t>
+          <t>27478076</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>0.000045047881927957</t>
+          <t>0.000045094904529849</t>
         </is>
       </c>
     </row>
@@ -5616,12 +5616,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>721288186</t>
+          <t>724612618</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>1.180542163958328</t>
+          <t>1.185978135726932</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5632,7 +5632,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -5640,7 +5640,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['1.1879204813007758', '1.1856700615872704', '1.186039535348161', '1.1861933627015215', '1.186561255136511', '1.186949881992074', '1.1871252946669526', '1.187598791217576', '1.1870461257346276', '1.1857479672151268', '1.1853195640729706', '1.1854953312400953', '1.185669559944089', '1.1844040476709738', '1.1831680087512153', '1.1827726534898917', '1.1824689664005958', '1.1818445239608224', '1.1819299586433591', '1.1821628643653022', '1.1823783781159904', '1.1825028829244377', '1.1818253765599989', '1.1809090857145503', '1.1805455800127191']</t>
+          <t>['1.191740136363566', '1.1923978859909088', '1.192026350669596', '1.191523747322436', '1.1909947445981142', '1.189980982987677', '1.1899636509170297', '1.1909160091600215', '1.1903729136870724', '1.1885336951554024', '1.1883521694650185', '1.1883745442925693', '1.189101906069188', '1.1902952576153396', '1.1937120588250334', '1.1944625308521652', '1.1941336205724806', '1.192804037597023', '1.1917239477698323', '1.1898964031957755', '1.189871216311801', '1.188616478887267', '1.187309133447967', '1.1864134770571049', '1.1856774202953058']</t>
         </is>
       </c>
       <c r="N68" t="b">
@@ -5653,12 +5653,12 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>42991281</t>
+          <t>38391796</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>0.000053124448081273</t>
+          <t>0.000053428875839427</t>
         </is>
       </c>
     </row>
@@ -5693,12 +5693,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>719270077</t>
+          <t>720951696</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>37.512130485075744</t>
+          <t>37.599832039359825</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5709,7 +5709,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -5717,7 +5717,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['37.51289036744911', '37.507319856330575', '37.50242084342594', '37.51300672319125', '37.522948405906654', '37.517539370240726', '37.51783653678785', '37.52186543154158', '37.5374787992034', '37.53592976745737', '37.528846031007284', '37.52674326576905', '37.524555980765754', '37.514385381598494', '37.5132019554394', '37.52472186945186', '37.52343932168362', '37.51084949786016', '37.51344397005384', '37.51606706139598', '37.510886340573144', '37.51368842846927', '37.52320359317372', '37.52779865523488', '37.523513550828916']</t>
+          <t>['37.66271096393356', '37.65835912008634', '37.64577248914515', '37.64375669449527', '37.64217136624513', '37.646190732532276', '37.657039740835025', '37.650556929384635', '37.64461093234096', '37.63295713751809', '37.634313128551725', '37.63552188083552', '37.636706648680345', '37.6401218165094', '37.65149638542388', '37.65420934178315', '37.65096456088377', '37.63303608071931', '37.633821939825964', '37.619995755209764', '37.606332102801325', '37.5982080494492', '37.59714127307932', '37.60235855086725', '37.60052456204297']</t>
         </is>
       </c>
       <c r="N69" t="b">
@@ -5730,12 +5730,12 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>93731709</t>
+          <t>95386085</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>0.001688047482938272</t>
+          <t>0.001693890213568677</t>
         </is>
       </c>
     </row>
@@ -5770,12 +5770,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>706821700</t>
+          <t>707619435</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.9989305933963679</t>
+          <t>0.9983327924487854</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5786,7 +5786,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>['0.999911532254136', '1.0007247765795826', '1.0002726859421844', '0.9998173492194881', '0.9994958717231457', '0.9994825761975579', '0.9994097815699722', '0.9998097149526224', '0.9996472246283591', '0.9990851436642403', '0.9990583043162959', '0.9995371826348749', '0.9996228237344652', '0.999325746804523', '0.9991176010580295', '0.9990599435545626', '1.0021761831225418', '1.0022935621675513', '1.0013501085846952', '1.0002450644794367', '1.0002069720117703', '1.0001591377230397', '1.000181919711136', '0.9996374254436508', '0.9991086775401178']</t>
+          <t>['0.9991627657412655', '0.9991084318696731', '0.9991956455897847', '0.9995318908024431', '0.9998559951848333', '0.9999438899919912', '0.9997878029602992', '0.9992868346943701', '0.9993814702103294', '0.9994836799876144', '0.9993074104688402', '0.9989126118913905', '0.998982086523089', '0.9990223965057129', '0.9989834775672278', '0.999392214794115', '0.9997498694018601', '0.9998345956103817', '1.0002688199240046', '1.0003055902902935', '1.000500012834289', '1.0005661971354285', '1.0006105943321433', '0.9981371220037492', '0.9983402008090321']</t>
         </is>
       </c>
       <c r="N70" t="b">
@@ -5807,12 +5807,12 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>32126449</t>
+          <t>28040903</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>0.000044951919605943</t>
+          <t>0.000044975364391082</t>
         </is>
       </c>
     </row>
@@ -5822,48 +5822,48 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>uIEWfMFnQo9K_</t>
+          <t>C9DwH-T7MEGmo</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>FTM</t>
+          <t>DASH</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Fantom</t>
+          <t>Dash</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>#1969ff</t>
+          <t>#1c75bc</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://cdn.coinranking.com/Uh-AYdcnU/fantom.png</t>
+          <t>https://cdn.coinranking.com/PyCmduSxt/Dash-D-white_on_blue_circle.svg</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>683958532</t>
+          <t>682212804</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.39982039412001513</t>
+          <t>61.864653982249486</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1540944000</v>
+        <v>1391817600</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>-1.31</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>['0.40479183165256705', '0.40303681962892246', '0.40321408685944365', '0.4034271689988583', '0.40364627579776535', '0.40345199294417194', '0.402264270027571', '0.4025964035891397', '0.4030311010062083', '0.4025959968391091', '0.40239240460964537', '0.4022356105068876', '0.4017267433586768', '0.4016426730629351', '0.4010963711508927', '0.40091515147375817', '0.40080842840129305', '0.4002267096192934', '0.40023423349800585', '0.4001024234684169', '0.4000967443320765', '0.40022597392407455', '0.400360018688